--- a/src/output_topics_data/topics_by_count.xlsx
+++ b/src/output_topics_data/topics_by_count.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,11 +463,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>customer_wants_cheaper_pricing_plans</t>
+          <t>poor_rural_cellular_network_coverage</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -476,23 +476,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['Improvement needed: Make a better/cheaper plan\nReason for given NPS: Your quite Expensive', 'Improvement needed: Better priced plans\nReason for given NPS: Seem a little more expensive than competitors']</t>
+          <t>["Improvement needed: I live semi-rural and cellphone coverage is really patchy. When we have power cuts that's it. Can't use internet on phone so go old school with battery radio to find out what's going on. Not really a One problem but it's an issue that really affects people in the country.\nReason for given NPS: I have had no issues with One and having been with them (and their iterations) from year dot I am very brand loyal.", "Improvement needed: Just coverage in some place I go isn't the best but I understand that this will be fixed next year\nReason for given NPS: Always been wth Vodafone,best service and best prices.", 'Improvement needed: I want you to improve the WiFi environment. Confirmation of our contract details, resolution of double payment for broadband from October to March of last year, which has not been refunded.\nReason for given NPS: Before I knew it, I had two WiFi contracts, or the payment was not refunded.', 'Improvement needed: Service in rural areas\n', 'Improvement needed: Mobile network in the country rural areas\nReason for given NPS: Great service']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.009339111857116222, -0.03803572803735733, -0.010151224210858345, 0.057595085352659225, -0.028157826513051987, -0.042149320244789124, 0.001922573079355061, 0.0868501216173172, 0.04505021125078201, -0.01779819466173649, 6.534203566843644e-05, 0.06429918110370636, 0.0005845962441526353, 0.013820353895425797, 0.054135773330926895, 0.020138846710324287, 0.06824155151844025, -0.0707465186715126, -0.0679878517985344, 0.05129595100879669, 0.08126573264598846, -0.06265705823898315, -0.0421440526843071, 0.015980225056409836, 0.015368564054369926, -0.06092819571495056, -0.02935490570962429, 0.004829899873584509, -0.047080907970666885, -0.046177491545677185, 0.021752655506134033, 0.002068266039714217, 0.009213820099830627, -0.04815292730927467, 0.017290722578763962, 0.0022336600814014673, 0.002097271615639329, -0.03203042969107628, 0.02802467904984951, 0.07608091086149216, -0.05158732458949089, -0.009310593828558922, -0.0747654139995575, 0.01712151989340782, -0.007030652370303869, 0.008683846332132816, 0.04231807217001915, -0.04071222245693207, -0.00339881400577724, 0.005916750058531761, 0.03867068514227867, 0.00013616269279737025, -0.05872562155127525, -0.041738979518413544, -0.00230140658095479, 0.04908539354801178, 0.0015505751362070441, 0.013050059787929058, 0.03246361389756203, 0.021540502086281776, 0.0017000919906422496, -0.013373924419283867, -0.11905965209007263, 0.04805475473403931, -0.05363186448812485, -0.0029037012718617916, -0.04640957713127136, -0.00683527672663331, -0.06453556567430496, 0.08292268961668015, 0.013178053312003613, -0.026438681408762932, -0.0036227568052709103, 0.0424065887928009, -0.0033718773629516363, 0.00300465221516788, -0.010667014867067337, 0.0483410507440567, -0.002353094285354018, 0.03230373188853264, -0.00941404327750206, -0.02504529245197773, -0.044142454862594604, -0.006174684502184391, -0.021867813542485237, -0.08464857935905457, 0.05458663031458855, -0.00035738281439989805, 0.07439916580915451, 0.014845121651887894, 0.05827157571911812, -0.035312749445438385, -0.05363443121314049, -0.006222758907824755, -0.05287773907184601, 0.038874801248311996, 0.016939029097557068, 0.047964908182621, -0.11045796424150467, 0.3526456952095032, 0.01984529383480549, 0.018343104049563408, 0.030162222683429718, 0.012431920506060123, -0.0029214415699243546, -0.07420552521944046, -0.08281613886356354, 0.01138216070830822, -0.013299229554831982, -0.022417442873120308, -0.05574188753962517, 0.013499686494469643, 0.04286238178610802, -0.016818443313241005, 0.011882279068231583, 0.056525640189647675, -0.005655239336192608, -0.04646138474345207, 0.017065655440092087, -0.011446023359894753, -0.0252031609416008, -0.010241216979920864, 0.010001751594245434, 0.029541241005063057, -0.05528227984905243, -0.015843920409679413, 0.0029474482871592045, 0.12104080617427826, -0.008324808441102505, 0.030306559056043625, 0.04565101116895676, -0.09705168753862381, -0.020861972123384476, 0.029114942997694016, 0.0296077411621809, 0.010973779484629631, 0.0068172975443303585, 0.061044495552778244, 0.020141741260886192, 0.04911822825670242, -0.0571964830160141, -0.055579617619514465, -0.03545531630516052, -0.11765123903751373, -0.008818297646939754, 0.05446399748325348, -0.005970933008939028, 0.04405023902654648, -0.003613388864323497, -0.0329517237842083, -0.012935414910316467, -1.934763349709101e-05, 0.026697326451539993, -0.053129296749830246, -0.03228570893406868, -0.012275186367332935, 0.026224032044410706, 0.02302672527730465, -0.050837673246860504, 0.025741081684827805, 0.10312948375940323, -0.029539188370108604, -0.07427799701690674, 0.02471073530614376, -0.01642158068716526, -0.07841826230287552, -0.025461403653025627, -0.01984141580760479, -0.015157817862927914, 0.011523001827299595, -0.0622590146958828, 0.07564587146043777, -0.05593707412481308, 0.014935281127691269, 0.1162702888250351, 0.028984468430280685, -0.05562213063240051, -0.002804957563057542, -0.07527478784322739, 0.00824258103966713, 0.007159755099564791, 0.07468260824680328, -0.019447872415184975, -0.043547000735998154, 0.01319774892181158, -0.05875847488641739, -0.010707953944802284, 0.008603760041296482, -0.006040955428034067, -0.007051649037748575, -0.05793587863445282, -0.02067502588033676, -0.04194958880543709, 0.029359031468629837, -0.04412413015961647, -0.01152151357382536, -0.009628399275243282, -0.0004550076264422387, 0.014580665156245232, 0.011631892994046211, 0.02370600961148739, -0.0077327280305325985, -0.07388279587030411, 0.0661095604300499, -0.0264096949249506, 0.0560988113284111, 0.052195653319358826, -0.004145532380789518, 0.06719449162483215, -0.0017596196848899126, 0.011025778949260712, 0.010993416421115398, 0.05104443058371544, 0.006415077485144138, -0.04432213678956032, 0.04864787682890892, 0.024067766964435577, 0.04349157214164734, 0.03198712319135666, -0.02557680569589138, -0.020099159330129623, 0.1005060151219368, 0.024985259398818016, -0.2935674488544464, 0.06117698922753334, -0.044841669499874115, -0.02162521332502365, 0.008550490252673626, 0.026219796389341354, 0.042448073625564575, -0.019825758412480354, -0.00990630965679884, 0.15141341090202332, 0.07242535054683685, -0.06144952028989792, 0.06032475456595421, -0.04061165452003479, 0.02571895718574524, -0.005330595653504133, 0.01748446375131607, -0.007978439331054688, 0.06801861524581909, -0.019066108390688896, -0.002027869923040271, 0.017190631479024887, 0.025616919621825218, -0.06886973977088928, 0.08623692393302917, 0.08954977244138718, 0.16805358231067657, -0.02686828002333641, -0.027303868904709816, -0.007966309785842896, 0.0312387365847826, -0.010647579096257687, -0.00483969459310174, 0.01555030420422554, -0.0008887973963283002, 0.02265963703393936, -0.011443919502198696, -0.018434133380651474, 0.026396282017230988, -0.0370098277926445, -0.0006445685285143554, 0.054378677159547806, -0.01914147660136223, -0.06755936145782471, -0.013575148768723011, -0.029640739783644676, 0.009436740539968014, 0.11012136936187744, -0.09033556282520294, 0.06731103360652924, -0.03745846822857857, -0.04693900793790817, 0.0226950291544199, -0.0013171002501621842, 0.09883630275726318, -0.024030406028032303, -0.059106748551130295, -0.0030155901331454515, -0.05955587327480316, 0.030034640803933144, 0.016571905463933945, -0.0006836079410277307, 0.059951890259981155, -0.033092278987169266, 0.016743527725338936, -0.042809225618839264, 0.038910362869501114, 0.012783131562173367, -0.045344021171331406, 0.0898829773068428, -0.021853499114513397, 0.015216737054288387, 0.0003403641749173403, -0.025864673778414726, -0.013270440511405468, 0.026283130049705505, -0.0404660701751709, 0.020385997369885445, -0.05676371976733208, -0.02529459074139595, 0.022616064175963402, 0.027032045647501945, -0.013187195174396038, -0.012926016934216022, -0.0016909287078306079, 0.027168316766619682, 0.013471598736941814, 0.01337721198797226, -0.02826637774705887, 0.007948818616569042, -0.05502937734127045, -0.019822601228952408, -0.040716636925935745, 0.0074340831488370895, 0.10254158079624176, -0.012418764643371105, -0.24764011800289154, 0.013370808213949203, -0.0529329739511013, -0.008006851188838482, -0.007571881636977196, 0.06352003663778305, -0.0020506535656750202, 0.005714168772101402, -0.020119938999414444, 0.002685686806216836, -0.022352097555994987, 0.01708162948489189, -0.038445670157670975, 0.002957175951451063, 0.04395990073680878, -0.010754339396953583, 0.06353812664747238, -0.031228451058268547, 0.01660049706697464, 0.011977244168519974, -0.005708123557269573, -0.013907717540860176, 0.17269665002822876, 0.022116268053650856, -0.046106282621622086, -0.006297786720097065, -0.025837162509560585, 0.00916844978928566, 0.06869049370288849, 0.024482814595103264, -0.08660919964313507, -0.0007941336953081191, 0.06299549341201782, -0.010036194697022438, 0.002313893986865878, -0.015244852751493454, -0.03638586401939392, -0.05056372657418251, 0.016284802928566933, 0.030577074736356735, -0.09836400300264359, 0.020067570731043816, -0.0476846918463707, 0.01894580014050007, 0.048399005085229874, 0.03280671685934067, -0.0474572516977787, -0.00805690512061119, -0.025500956922769547, 0.012252070009708405, -0.017924776300787926, -0.020691847428679466, 0.025028971955180168, -0.005129242781549692, 0.041601236909627914, 0.027640070766210556, -0.0807170495390892, -0.00810229405760765, 0.01110250223428011, -0.00530455494299531, -0.018747281283140182, -0.007673351094126701, -0.003887713188305497, -0.008425603620707989, 0.034257810562849045]</t>
+          <t>[-0.03317408636212349, -0.030138226225972176, -0.04119260609149933, 0.007631367538124323, 0.07887499779462814, -0.045920953154563904, -0.030851438641548157, 0.04715481773018837, 0.019047174602746964, -0.00901712290942669, 0.035622477531433105, 0.006434871815145016, 0.04531092196702957, 0.02669094130396843, 0.03087550774216652, 0.040263205766677856, 0.041238680481910706, -0.04621501639485359, 0.013624983839690685, 0.023663070052862167, 0.04017530754208565, -0.0021217032335698605, -0.03470669314265251, -0.007386683952063322, 0.09792165458202362, -0.01450783759355545, -0.030726542696356773, -0.009834523312747478, -0.05840824544429779, -0.09239877760410309, 0.033533670008182526, 0.025658365339040756, 0.019082635641098022, 0.07107095420360565, 0.010815151035785675, -0.024338888004422188, 0.008026178926229477, -0.015213332138955593, 0.030685381963849068, 0.039188187569379807, -0.035462744534015656, 0.008496825583279133, -0.010235998779535294, 0.02835025079548359, -0.06788982450962067, -0.018316591158509254, 0.002062114654108882, 0.03486749529838562, 0.07783369719982147, -0.1068674772977829, -0.012102040462195873, 0.016553467139601707, -0.0034622035454958677, 0.009433533065021038, 0.06837629526853561, 0.005177750717848539, 0.02640972100198269, 0.0629517212510109, 0.03417752683162689, 0.0340459980070591, 0.025233926251530647, -0.0016458288300782442, -0.15907959640026093, -0.005423176102340221, 0.04954453557729721, 0.020919857546687126, -0.00433437479659915, -0.03213927149772644, 0.01327039860188961, -0.008981320075690746, -0.006118041463196278, 0.05551941320300102, 0.025947170332074165, 0.004757737275213003, -0.016472408547997475, 0.04743661358952522, -0.06408732384443283, 0.022419605404138565, -0.014802101068198681, 0.010896563529968262, 0.04673022776842117, -0.02431495673954487, 0.03796411678195, 0.04730857163667679, 0.002131403423845768, -0.047790322452783585, -0.02507733553647995, -0.021153172478079796, 0.009360777214169502, -0.009799595922231674, -0.027782516553997993, 0.06879125535488129, 0.004235351458191872, 0.03607760742306709, -0.04842507839202881, -0.00940211396664381, 0.02416180446743965, 0.0010164948180317879, -0.08956646919250488, 0.39077407121658325, 0.006014188285917044, -0.023027699440717697, 0.0567094050347805, 0.040214408189058304, -0.010213090106844902, -0.09650824218988419, -0.059765104204416275, -0.049537912011146545, -0.031504739075899124, 0.06092686206102371, 0.018236592411994934, -0.0444088913500309, -0.035689350217580795, -5.244871863396838e-05, 0.0058253551833331585, -0.012801362201571465, 0.023880230262875557, 0.02374645136296749, -0.07447530329227448, 0.06177512928843498, -0.0890950933098793, -0.040342073887586594, 0.01341343205422163, 0.0033870888873934746, 0.07252823561429977, 0.020082680508494377, 0.03208618238568306, 0.12012945115566254, 0.021207520738244057, 0.0291660837829113, -0.01666794903576374, 0.006552000530064106, 0.033278755843639374, 0.021169519051909447, 0.01973171904683113, -0.015028959140181541, -0.009709582664072514, 0.01285907905548811, -0.06029895693063736, 0.0380723811686039, 0.043141163885593414, -0.10123103111982346, -0.054574768990278244, -0.0646485760807991, -0.004500546492636204, 0.07469838857650757, -0.0002799101057462394, 0.07447517663240433, 0.007893817499279976, -0.0898313894867897, 0.01808169297873974, 0.006785690784454346, 0.04407880827784538, -0.003094820771366358, -0.026172945275902748, -0.004954875446856022, -0.04703006148338318, 0.04909488558769226, -0.0010532180313020945, 0.004143362864851952, 0.06052827462553978, -0.02760208025574684, -0.0235606599599123, 0.05599065497517586, 0.0036241132766008377, -0.035585060715675354, -0.03696810454130173, -0.023132244125008583, 0.0078544607385993, -0.049095042049884796, 0.005261580925434828, 0.004991620313376188, 0.0005364344106055796, -0.005903565790504217, 0.03377499058842659, -0.04532449319958687, -0.07599698007106781, 0.007710229139775038, -0.03999413922429085, -0.026741551235318184, -0.04521391540765762, 0.01990177482366562, 0.028375674039125443, -0.013487396761775017, 0.011146929115056992, 0.029535280540585518, -0.03625893220305443, 0.03907307609915733, 0.04341445490717888, -0.04016348347067833, -0.10639393329620361, -0.038669291883707047, -0.05405079573392868, -0.05229724943637848, -0.008008980192244053, -0.041153550148010254, 0.0018862542929127812, -0.015407165512442589, 0.05548741668462753, 0.006982127670198679, 0.0567149743437767, -0.05194815248250961, -0.0010422143386676908, 0.029629748314619064, -0.03598616272211075, 0.04009905457496643, -0.01024643611162901, -0.03672496974468231, 0.04760994017124176, -0.0009102686308324337, 0.0427168644964695, -0.04729078710079193, 0.0742364451289177, -0.00764923682436347, 0.0017238418804481626, 0.009188596159219742, -0.024413201957941055, 0.052006449550390244, 0.04733492434024811, 0.029478926211595535, -0.03671785444021225, 0.057645540684461594, -0.04739999398589134, -0.2585236132144928, -0.04947652667760849, -0.0035570121835917234, -0.025248777121305466, -0.06269342452287674, -0.005950050428509712, -0.04051399976015091, 0.02174866944551468, 0.04727238416671753, 0.10669795423746109, 0.07030731439590454, 0.03217345476150513, -0.031570106744766235, 0.029310470446944237, -0.026797717437148094, 0.008030010387301445, -0.053093984723091125, 0.06909285485744476, -0.0237417034804821, -0.02800898440182209, 0.0425531379878521, 0.03316013887524605, -0.025966085493564606, -0.019446931779384613, 0.08611911535263062, -0.016806436702609062, 0.14337560534477234, -0.038197312504053116, 0.011657309718430042, -0.017789553850889206, 0.026743151247501373, 0.02482111006975174, -0.030772119760513306, -0.039494410157203674, -0.013436617329716682, 0.007081862073391676, 0.019056309014558792, 0.055190298706293106, -0.06416700035333633, -0.05386900529265404, -0.06501631438732147, 0.03764592483639717, -0.00782979279756546, -0.07148140668869019, 0.025774385780096054, 0.022362925112247467, -0.04199697822332382, 0.056024935096502304, -0.023061374202370644, -0.032273583114147186, -0.01603163778781891, -0.0316639170050621, 0.06599391996860504, 0.04899265989661217, 0.06388751417398453, 0.0030058545526117086, -0.0721498429775238, 0.02985849231481552, -0.05402451753616333, -0.008868878707289696, 0.02049921080470085, -0.02519829571247101, 0.07785195857286453, -0.0959606021642685, 0.06689270585775375, 0.005824354011565447, -0.01251766737550497, -0.010154061950743198, -0.016861051321029663, 0.08413192629814148, 0.02948233112692833, 0.05472900718450546, -0.02505999244749546, 0.0017841964727267623, -0.02041032537817955, -0.016543123871088028, 0.030402034521102905, 0.01707671582698822, -0.019897112622857094, -0.043596819043159485, 0.10296205431222916, -0.032661911100149155, 0.01338346116244793, -0.02681979164481163, -0.014926022849977016, 0.025245681405067444, 0.015786679461598396, 0.038862429559230804, 0.05597075819969177, -0.019710566848516464, -0.04836336895823479, 0.01948276162147522, -0.006860759574919939, -0.054595835506916046, 0.07676929980516434, -0.06234246864914894, -0.2671824097633362, 0.007076430134475231, -0.027745334431529045, -0.04515773802995682, -0.035024210810661316, -0.021079741418361664, 0.009959698654711246, 0.04685525596141815, -0.05651846155524254, 0.011708209291100502, 0.04766397923231125, 0.014573601074516773, 0.05440547317266464, -0.07372685521841049, 0.060931477695703506, 0.0038784747011959553, -0.024467114359140396, -0.0007397569133900106, -0.047243598848581314, -0.028415149077773094, 0.034390587359666824, -0.016489580273628235, 0.12896963953971863, -0.06366828829050064, 0.00920124538242817, 0.05173081159591675, -0.026188187301158905, 0.026614481583237648, -0.0011697668815031648, 0.009390215389430523, -0.017036456614732742, 0.013446484692394733, 0.05187559500336647, -0.0042792088352143764, -0.010528330691158772, -0.044197116047143936, 0.026855815201997757, -0.051499560475349426, -0.017342135310173035, -0.008452651090919971, -0.034044258296489716, 0.051431261003017426, -0.004907737486064434, 0.06379968672990799, 0.012491926550865173, 0.002529304474592209, -0.054820265620946884, -0.025919144973158836, 0.05875220149755478, 0.035458698868751526, -0.04726232588291168, -0.05157366394996643, 0.006690306589007378, 0.01643315888941288, 0.016822874546051025, 0.06805765628814697, -0.053080715239048004, -0.0420340970158577, -0.05576810613274574, 0.010471674613654613, 0.02544686198234558, -0.1248147040605545, -0.0347430519759655, 0.017513686791062355, 0.018846940249204636]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>poor_call_quality_with_operators</t>
+          <t>customer_wants_cheaper_pricing_plans</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -501,23 +501,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['Improvement needed: Sometimes hard to understand an operator when talking to them found it easier going into a store\n', 'Improvement needed: I want you to improve the WiFi environment. Confirmation of our contract details, resolution of double payment for broadband from October to March of last year, which has not been refunded.\nReason for given NPS: Before I knew it, I had two WiFi contracts, or the payment was not refunded.']</t>
+          <t>['Improvement needed: Make a better/cheaper plan\nReason for given NPS: Your quite Expensive', 'Improvement needed: Better priced plans\nReason for given NPS: Seem a little more expensive than competitors', 'Improvement needed: I want you to improve the WiFi environment. Confirmation of our contract details, resolution of double payment for broadband from October to March of last year, which has not been refunded.\nReason for given NPS: Before I knew it, I had two WiFi contracts, or the payment was not refunded.', 'Improvement needed: Offer lower cost plans/packages.\n', 'Reason for given NPS: I find it good but some people want different options']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.04630112275481224, -0.011398478411138058, 0.0061695994809269905, -0.003926451783627272, -0.07720515131950378, -0.08791834115982056, -0.009684935212135315, 0.03802222013473511, 0.025696007534861565, -0.0239018015563488, -0.03127402439713478, -0.018797457218170166, 0.02582496963441372, 0.0025557868648320436, 0.02475973404943943, 0.01619522087275982, 0.01769866794347763, -0.0016440646722912788, -0.05786190554499626, -0.00817765574902296, 0.046129487454891205, 0.02284354530274868, -0.03936959058046341, 0.012210747227072716, -0.029712164774537086, -0.004929571878165007, -0.04707183316349983, -0.033655304461717606, -0.0739113911986351, -0.14808309078216553, -0.023504067212343216, 0.004071978852152824, 0.04925193265080452, 0.015444012358784676, 0.0731251984834671, -0.005122154951095581, -0.061662886291742325, 0.01665550470352173, -0.016280194744467735, 0.06059456989169121, 0.03099258989095688, -0.032760534435510635, -0.0028569079004228115, -0.019671231508255005, -0.03403225541114807, -0.05423494055867195, -0.012889401987195015, -0.01646825671195984, 0.04903598874807358, -0.021596485748887062, -0.044790275394916534, 0.057198889553546906, -0.02746988832950592, -0.016433127224445343, 0.06523486971855164, 0.021747108548879623, 0.07532098144292831, 0.05662056431174278, 0.02698858454823494, 0.0067318822257220745, -0.0021981061436235905, -0.02970302291214466, -0.13967303931713104, 0.03589056804776192, -0.014838069677352905, -0.01805821619927883, 0.022194689139723778, -0.02231116034090519, -0.05396447703242302, 0.008686855435371399, -0.017947625368833542, -0.019988778978586197, 0.01953495480120182, 0.09063290804624557, 0.04750955477356911, -0.03874702379107475, -0.008780037984251976, 0.02689647488296032, 0.02731434255838394, 0.060343727469444275, -0.015650566667318344, -0.06189824268221855, -0.010547404177486897, -0.014508874155580997, 0.0348178967833519, -0.049055345356464386, 0.00942383985966444, 0.027076438069343567, 0.06320349872112274, 0.002622883068397641, -0.0051359860226511955, 0.02738700620830059, 0.01038187276571989, 0.08135968446731567, -0.023192616179585457, -0.013917777687311172, 0.0023856093175709248, -0.02787942625582218, -0.1319672167301178, 0.3906475007534027, -0.021628623828291893, 0.024746259674429893, -0.009237903170287609, 0.01488227304071188, -0.010181967169046402, -0.07842326909303665, -0.06167379394173622, -0.05745711550116539, -0.04886745661497116, -0.008248398080468178, 0.0011619299184530973, -0.047073692083358765, 0.013284541666507721, -0.027327753603458405, 0.0030229929834604263, 0.05893049016594887, 0.02105301059782505, -0.03853897750377655, -0.019032293930649757, 0.021230384707450867, -0.03640507534146309, -0.045878857374191284, 0.011285554617643356, 0.0593208447098732, 0.031601324677467346, -0.019117111340165138, 0.012384558096528053, 0.11005691438913345, -0.025154171511530876, 0.07853636890649796, 0.005299386568367481, 0.021505799144506454, -0.02843049354851246, 0.03128480538725853, -0.025524994358420372, -0.025303667411208153, -0.014154132455587387, 0.03818705305457115, 0.033816348761320114, 0.03140182048082352, -0.01396877970546484, -0.1292584091424942, -0.05501580610871315, 0.008508339524269104, 0.009951017796993256, 0.05535253882408142, -0.12798339128494263, 0.02593334950506687, -0.06725642830133438, -0.03442114219069481, -0.012963498942553997, -0.006379144731909037, 0.05059468746185303, 0.03138541430234909, -0.012121648527681828, -0.043090902268886566, 0.023211931809782982, -0.03412920609116554, -0.01996607892215252, 0.022012826055288315, -0.009472517296671867, -0.04750045761466026, -0.011962526477873325, 0.04862446337938309, -0.048827894032001495, -0.013280714862048626, -0.03012138046324253, -0.01011733803898096, -0.00032447840203531086, 0.02388136275112629, -0.002975097158923745, -0.023692382499575615, 0.01685626059770584, -0.010161875747144222, 0.03769213333725929, -0.019792061299085617, -0.0413866750895977, 0.052404358983039856, -0.02089734375476837, 0.009926233440637589, 0.017432445660233498, 0.02581300400197506, -0.028465235605835915, 0.017899181693792343, 0.041853949427604675, -0.058329761028289795, -0.002455314854159951, -0.02208753116428852, 0.03435221686959267, 0.01253904215991497, -0.07330595701932907, -0.04183308407664299, -0.00899424310773611, -0.04118732362985611, -0.07280435413122177, -0.01470200251787901, -0.022112445905804634, -0.016097621992230415, 0.020182253792881966, 0.018103862181305885, 0.09731726348400116, 0.00850545521825552, -0.029652658849954605, 0.0029292930848896503, -0.0353691466152668, 0.013162772171199322, -0.034519828855991364, -0.002699523698538542, 0.003820482175797224, 0.04548163339495659, -0.049514397978782654, -0.05284300446510315, 0.05264005810022354, 0.06520646065473557, -0.03512948378920555, -0.004651941824704409, -0.02848220430314541, 0.030653880909085274, -0.03091617114841938, 0.044274091720581055, -0.034198660403490067, 0.03320193290710449, -0.03662394359707832, -0.32474085688591003, 0.022232793271541595, -0.0132454140111804, -0.03973379731178284, -0.0612223744392395, 0.0018736461643129587, 0.00015387307212222368, 0.033584512770175934, -0.017243361100554466, 0.07610835880041122, -0.0052181426435709, 0.05422067269682884, 0.004738357849419117, -0.008573407307267189, -0.03768334165215492, 0.02724553272128105, -0.006187271326780319, 0.011947667226195335, 0.010785489343106747, 0.036053773015737534, -0.033909451216459274, 0.033307090401649475, 0.027980227023363113, -0.07107999920845032, 0.09249413758516312, -0.011872378177940845, 0.1867080181837082, 0.004652342293411493, 0.03304046392440796, 0.03718851879239082, 0.04154827073216438, 0.02372998371720314, 0.008257593959569931, -0.022076692432165146, 0.04161452502012253, 0.022247910499572754, 0.02768022008240223, 0.05113426595926285, 0.04182998090982437, -0.039964575320482254, -0.023863114416599274, 0.0548970103263855, 0.01630067639052868, -0.009455136954784393, 0.03984502702951431, -0.04009230062365532, -0.06935006380081177, 0.039747174829244614, -0.06018556281924248, 0.030140450224280357, -0.022358151152729988, 0.01761195994913578, 0.08093945682048798, -0.016529280692338943, 0.005712275858968496, 0.005665804725140333, -0.05681232362985611, 0.04572421312332153, -0.014422242529690266, 0.019670503214001656, 0.006361561361700296, -0.053017523139715195, 0.031103618443012238, -6.673543975921348e-05, 0.01841912977397442, -0.014331731013953686, 0.06679924577474594, -0.07177436351776123, 0.030118929222226143, 0.015373392030596733, 0.001376151922158897, 0.08017430454492569, -0.0393163226544857, -0.02262643352150917, -0.004702768754214048, -0.0001712594530545175, -0.02531842514872551, -0.06377264857292175, 0.004222818650305271, -0.05711688473820686, 0.026767995208501816, 0.054939474910497665, 0.03221683204174042, -0.0006201291689649224, 0.04132045432925224, -0.006135300733149052, 0.0225570909678936, 0.0971958115696907, 0.010205721482634544, -0.03262420743703842, -0.030585475265979767, 0.02936887927353382, -0.016682490706443787, 0.05504728481173515, 0.09431446343660355, -0.010091316886246204, -0.2348901480436325, -0.018627256155014038, 0.05987277626991272, -0.023361923173069954, 0.006953980773687363, 0.04102100059390068, 0.005811867769807577, -0.05819685012102127, -0.08081167936325073, -0.00550859933719039, 1.0195187314820942e-05, 0.010702530853450298, -0.02926594391465187, -0.009313825517892838, 0.02170068770647049, 0.03226625546813011, 0.012720463797450066, -0.042423900216817856, 0.053016453981399536, 0.016940036788582802, 0.021927280351519585, 0.0417548269033432, 0.1593654304742813, -0.07229022681713104, 0.03768768906593323, 0.034829478710889816, 0.013391105458140373, -0.015323800966143608, 0.004491174127906561, -0.006265284027904272, -0.03370841592550278, -0.010574892163276672, 0.13154180347919464, 0.012330791912972927, -0.005698336288332939, 0.014375939033925533, 0.03620496392250061, -0.06035090982913971, 0.007051956374198198, 0.021053386852145195, 0.019608691334724426, 0.03642716258764267, 0.0014367980184033513, -0.007242933381348848, 0.055417437106370926, 0.0001718787825666368, 0.002445332705974579, 6.450983346439898e-05, 0.038467928767204285, 0.03833162039518356, -0.05306779220700264, -0.029274046421051025, 0.015203836373984814, -0.017213249579072, 0.017571553587913513, 0.035724736750125885, -0.05386291444301605, 0.012553487904369831, -0.035896722227334976, 0.06720422208309174, 0.0483936071395874, -0.09328632056713104, 0.03695754334330559, 0.006169572006911039, 0.0049253059551119804]</t>
+          <t>[-0.009339111857116222, -0.03803572803735733, -0.010151224210858345, 0.057595085352659225, -0.028157826513051987, -0.042149320244789124, 0.001922573079355061, 0.0868501216173172, 0.04505021125078201, -0.01779819466173649, 6.534203566843644e-05, 0.06429918110370636, 0.0005845962441526353, 0.013820353895425797, 0.054135773330926895, 0.020138846710324287, 0.06824155151844025, -0.0707465186715126, -0.0679878517985344, 0.05129595100879669, 0.08126573264598846, -0.06265705823898315, -0.0421440526843071, 0.015980225056409836, 0.015368564054369926, -0.06092819571495056, -0.02935490570962429, 0.004829899873584509, -0.047080907970666885, -0.046177491545677185, 0.021752655506134033, 0.002068266039714217, 0.009213820099830627, -0.04815292730927467, 0.017290722578763962, 0.0022336600814014673, 0.002097271615639329, -0.03203042969107628, 0.02802467904984951, 0.07608091086149216, -0.05158732458949089, -0.009310593828558922, -0.0747654139995575, 0.01712151989340782, -0.007030652370303869, 0.008683846332132816, 0.04231807217001915, -0.04071222245693207, -0.00339881400577724, 0.005916750058531761, 0.03867068514227867, 0.00013616269279737025, -0.05872562155127525, -0.041738979518413544, -0.00230140658095479, 0.04908539354801178, 0.0015505751362070441, 0.013050059787929058, 0.03246361389756203, 0.021540502086281776, 0.0017000919906422496, -0.013373924419283867, -0.11905965209007263, 0.04805475473403931, -0.05363186448812485, -0.0029037012718617916, -0.04640957713127136, -0.00683527672663331, -0.06453556567430496, 0.08292268961668015, 0.013178053312003613, -0.026438681408762932, -0.0036227568052709103, 0.0424065887928009, -0.0033718773629516363, 0.00300465221516788, -0.010667014867067337, 0.0483410507440567, -0.002353094285354018, 0.03230373188853264, -0.00941404327750206, -0.02504529245197773, -0.044142454862594604, -0.006174684502184391, -0.021867813542485237, -0.08464857935905457, 0.05458663031458855, -0.00035738281439989805, 0.07439916580915451, 0.014845121651887894, 0.05827157571911812, -0.035312749445438385, -0.05363443121314049, -0.006222758907824755, -0.05287773907184601, 0.038874801248311996, 0.016939029097557068, 0.047964908182621, -0.11045796424150467, 0.3526456952095032, 0.01984529383480549, 0.018343104049563408, 0.030162222683429718, 0.012431920506060123, -0.0029214415699243546, -0.07420552521944046, -0.08281613886356354, 0.01138216070830822, -0.013299229554831982, -0.022417442873120308, -0.05574188753962517, 0.013499686494469643, 0.04286238178610802, -0.016818443313241005, 0.011882279068231583, 0.056525640189647675, -0.005655239336192608, -0.04646138474345207, 0.017065655440092087, -0.011446023359894753, -0.0252031609416008, -0.010241216979920864, 0.010001751594245434, 0.029541241005063057, -0.05528227984905243, -0.015843920409679413, 0.0029474482871592045, 0.12104080617427826, -0.008324808441102505, 0.030306559056043625, 0.04565101116895676, -0.09705168753862381, -0.020861972123384476, 0.029114942997694016, 0.0296077411621809, 0.010973779484629631, 0.0068172975443303585, 0.061044495552778244, 0.020141741260886192, 0.04911822825670242, -0.0571964830160141, -0.055579617619514465, -0.03545531630516052, -0.11765123903751373, -0.008818297646939754, 0.05446399748325348, -0.005970933008939028, 0.04405023902654648, -0.003613388864323497, -0.0329517237842083, -0.012935414910316467, -1.934763349709101e-05, 0.026697326451539993, -0.053129296749830246, -0.03228570893406868, -0.012275186367332935, 0.026224032044410706, 0.02302672527730465, -0.050837673246860504, 0.025741081684827805, 0.10312948375940323, -0.029539188370108604, -0.07427799701690674, 0.02471073530614376, -0.01642158068716526, -0.07841826230287552, -0.025461403653025627, -0.01984141580760479, -0.015157817862927914, 0.011523001827299595, -0.0622590146958828, 0.07564587146043777, -0.05593707412481308, 0.014935281127691269, 0.1162702888250351, 0.028984468430280685, -0.05562213063240051, -0.002804957563057542, -0.07527478784322739, 0.00824258103966713, 0.007159755099564791, 0.07468260824680328, -0.019447872415184975, -0.043547000735998154, 0.01319774892181158, -0.05875847488641739, -0.010707953944802284, 0.008603760041296482, -0.006040955428034067, -0.007051649037748575, -0.05793587863445282, -0.02067502588033676, -0.04194958880543709, 0.029359031468629837, -0.04412413015961647, -0.01152151357382536, -0.009628399275243282, -0.0004550076264422387, 0.014580665156245232, 0.011631892994046211, 0.02370600961148739, -0.0077327280305325985, -0.07388279587030411, 0.0661095604300499, -0.0264096949249506, 0.0560988113284111, 0.052195653319358826, -0.004145532380789518, 0.06719449162483215, -0.0017596196848899126, 0.011025778949260712, 0.010993416421115398, 0.05104443058371544, 0.006415077485144138, -0.04432213678956032, 0.04864787682890892, 0.024067766964435577, 0.04349157214164734, 0.03198712319135666, -0.02557680569589138, -0.020099159330129623, 0.1005060151219368, 0.024985259398818016, -0.2935674488544464, 0.06117698922753334, -0.044841669499874115, -0.02162521332502365, 0.008550490252673626, 0.026219796389341354, 0.042448073625564575, -0.019825758412480354, -0.00990630965679884, 0.15141341090202332, 0.07242535054683685, -0.06144952028989792, 0.06032475456595421, -0.04061165452003479, 0.02571895718574524, -0.005330595653504133, 0.01748446375131607, -0.007978439331054688, 0.06801861524581909, -0.019066108390688896, -0.002027869923040271, 0.017190631479024887, 0.025616919621825218, -0.06886973977088928, 0.08623692393302917, 0.08954977244138718, 0.16805358231067657, -0.02686828002333641, -0.027303868904709816, -0.007966309785842896, 0.0312387365847826, -0.010647579096257687, -0.00483969459310174, 0.01555030420422554, -0.0008887973963283002, 0.02265963703393936, -0.011443919502198696, -0.018434133380651474, 0.026396282017230988, -0.0370098277926445, -0.0006445685285143554, 0.054378677159547806, -0.01914147660136223, -0.06755936145782471, -0.013575148768723011, -0.029640739783644676, 0.009436740539968014, 0.11012136936187744, -0.09033556282520294, 0.06731103360652924, -0.03745846822857857, -0.04693900793790817, 0.0226950291544199, -0.0013171002501621842, 0.09883630275726318, -0.024030406028032303, -0.059106748551130295, -0.0030155901331454515, -0.05955587327480316, 0.030034640803933144, 0.016571905463933945, -0.0006836079410277307, 0.059951890259981155, -0.033092278987169266, 0.016743527725338936, -0.042809225618839264, 0.038910362869501114, 0.012783131562173367, -0.045344021171331406, 0.0898829773068428, -0.021853499114513397, 0.015216737054288387, 0.0003403641749173403, -0.025864673778414726, -0.013270440511405468, 0.026283130049705505, -0.0404660701751709, 0.020385997369885445, -0.05676371976733208, -0.02529459074139595, 0.022616064175963402, 0.027032045647501945, -0.013187195174396038, -0.012926016934216022, -0.0016909287078306079, 0.027168316766619682, 0.013471598736941814, 0.01337721198797226, -0.02826637774705887, 0.007948818616569042, -0.05502937734127045, -0.019822601228952408, -0.040716636925935745, 0.0074340831488370895, 0.10254158079624176, -0.012418764643371105, -0.24764011800289154, 0.013370808213949203, -0.0529329739511013, -0.008006851188838482, -0.007571881636977196, 0.06352003663778305, -0.0020506535656750202, 0.005714168772101402, -0.020119938999414444, 0.002685686806216836, -0.022352097555994987, 0.01708162948489189, -0.038445670157670975, 0.002957175951451063, 0.04395990073680878, -0.010754339396953583, 0.06353812664747238, -0.031228451058268547, 0.01660049706697464, 0.011977244168519974, -0.005708123557269573, -0.013907717540860176, 0.17269665002822876, 0.022116268053650856, -0.046106282621622086, -0.006297786720097065, -0.025837162509560585, 0.00916844978928566, 0.06869049370288849, 0.024482814595103264, -0.08660919964313507, -0.0007941336953081191, 0.06299549341201782, -0.010036194697022438, 0.002313893986865878, -0.015244852751493454, -0.03638586401939392, -0.05056372657418251, 0.016284802928566933, 0.030577074736356735, -0.09836400300264359, 0.020067570731043816, -0.0476846918463707, 0.01894580014050007, 0.048399005085229874, 0.03280671685934067, -0.0474572516977787, -0.00805690512061119, -0.025500956922769547, 0.012252070009708405, -0.017924776300787926, -0.020691847428679466, 0.025028971955180168, -0.005129242781549692, 0.041601236909627914, 0.027640070766210556, -0.0807170495390892, -0.00810229405760765, 0.01110250223428011, -0.00530455494299531, -0.018747281283140182, -0.007673351094126701, -0.003887713188305497, -0.008425603620707989, 0.034257810562849045]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>poor_rural_cellular_network_coverage</t>
+          <t>long_call_wait_times_for_assistance</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -526,23 +526,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>["Improvement needed: I live semi-rural and cellphone coverage is really patchy. When we have power cuts that's it. Can't use internet on phone so go old school with battery radio to find out what's going on. Not really a One problem but it's an issue that really affects people in the country.\nReason for given NPS: I have had no issues with One and having been with them (and their iterations) from year dot I am very brand loyal.", "Improvement needed: Just coverage in some place I go isn't the best but I understand that this will be fixed next year\nReason for given NPS: Always been wth Vodafone,best service and best prices."]</t>
+          <t>['Improvement needed: valued assistance, value long servicing customers\nReason for given NPS: difficulty when phoning for assistance and the wait time', 'Improvement needed: Customer service- also cisibility or recommending best current plans and pricing\nReason for given NPS: Much of a much mess providers- your customer service in store is terrible and also on phone -takes ages to get through.', 'Improvement needed: The app needs some work it can be janky and maybe more help services especially when lines are busy ☺️ otherwise keep up the great work ❤️\nReason for given NPS: I have been a loyal customer with Vodafone (One NZ) all my life. They haven’t let me down once ☺️', 'Improvement needed: It is quite difficult to deal with the call centre at times .. much easier to just go into the store to sort out problems when possible .. call centre could definitely do with some improvement\n', 'Improvement needed: Customer support\nReason for given NPS: Happy with my service']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.03317408636212349, -0.030138226225972176, -0.04119260609149933, 0.007631367538124323, 0.07887499779462814, -0.045920953154563904, -0.030851438641548157, 0.04715481773018837, 0.019047174602746964, -0.00901712290942669, 0.035622477531433105, 0.006434871815145016, 0.04531092196702957, 0.02669094130396843, 0.03087550774216652, 0.040263205766677856, 0.041238680481910706, -0.04621501639485359, 0.013624983839690685, 0.023663070052862167, 0.04017530754208565, -0.0021217032335698605, -0.03470669314265251, -0.007386683952063322, 0.09792165458202362, -0.01450783759355545, -0.030726542696356773, -0.009834523312747478, -0.05840824544429779, -0.09239877760410309, 0.033533670008182526, 0.025658365339040756, 0.019082635641098022, 0.07107095420360565, 0.010815151035785675, -0.024338888004422188, 0.008026178926229477, -0.015213332138955593, 0.030685381963849068, 0.039188187569379807, -0.035462744534015656, 0.008496825583279133, -0.010235998779535294, 0.02835025079548359, -0.06788982450962067, -0.018316591158509254, 0.002062114654108882, 0.03486749529838562, 0.07783369719982147, -0.1068674772977829, -0.012102040462195873, 0.016553467139601707, -0.0034622035454958677, 0.009433533065021038, 0.06837629526853561, 0.005177750717848539, 0.02640972100198269, 0.0629517212510109, 0.03417752683162689, 0.0340459980070591, 0.025233926251530647, -0.0016458288300782442, -0.15907959640026093, -0.005423176102340221, 0.04954453557729721, 0.020919857546687126, -0.00433437479659915, -0.03213927149772644, 0.01327039860188961, -0.008981320075690746, -0.006118041463196278, 0.05551941320300102, 0.025947170332074165, 0.004757737275213003, -0.016472408547997475, 0.04743661358952522, -0.06408732384443283, 0.022419605404138565, -0.014802101068198681, 0.010896563529968262, 0.04673022776842117, -0.02431495673954487, 0.03796411678195, 0.04730857163667679, 0.002131403423845768, -0.047790322452783585, -0.02507733553647995, -0.021153172478079796, 0.009360777214169502, -0.009799595922231674, -0.027782516553997993, 0.06879125535488129, 0.004235351458191872, 0.03607760742306709, -0.04842507839202881, -0.00940211396664381, 0.02416180446743965, 0.0010164948180317879, -0.08956646919250488, 0.39077407121658325, 0.006014188285917044, -0.023027699440717697, 0.0567094050347805, 0.040214408189058304, -0.010213090106844902, -0.09650824218988419, -0.059765104204416275, -0.049537912011146545, -0.031504739075899124, 0.06092686206102371, 0.018236592411994934, -0.0444088913500309, -0.035689350217580795, -5.244871863396838e-05, 0.0058253551833331585, -0.012801362201571465, 0.023880230262875557, 0.02374645136296749, -0.07447530329227448, 0.06177512928843498, -0.0890950933098793, -0.040342073887586594, 0.01341343205422163, 0.0033870888873934746, 0.07252823561429977, 0.020082680508494377, 0.03208618238568306, 0.12012945115566254, 0.021207520738244057, 0.0291660837829113, -0.01666794903576374, 0.006552000530064106, 0.033278755843639374, 0.021169519051909447, 0.01973171904683113, -0.015028959140181541, -0.009709582664072514, 0.01285907905548811, -0.06029895693063736, 0.0380723811686039, 0.043141163885593414, -0.10123103111982346, -0.054574768990278244, -0.0646485760807991, -0.004500546492636204, 0.07469838857650757, -0.0002799101057462394, 0.07447517663240433, 0.007893817499279976, -0.0898313894867897, 0.01808169297873974, 0.006785690784454346, 0.04407880827784538, -0.003094820771366358, -0.026172945275902748, -0.004954875446856022, -0.04703006148338318, 0.04909488558769226, -0.0010532180313020945, 0.004143362864851952, 0.06052827462553978, -0.02760208025574684, -0.0235606599599123, 0.05599065497517586, 0.0036241132766008377, -0.035585060715675354, -0.03696810454130173, -0.023132244125008583, 0.0078544607385993, -0.049095042049884796, 0.005261580925434828, 0.004991620313376188, 0.0005364344106055796, -0.005903565790504217, 0.03377499058842659, -0.04532449319958687, -0.07599698007106781, 0.007710229139775038, -0.03999413922429085, -0.026741551235318184, -0.04521391540765762, 0.01990177482366562, 0.028375674039125443, -0.013487396761775017, 0.011146929115056992, 0.029535280540585518, -0.03625893220305443, 0.03907307609915733, 0.04341445490717888, -0.04016348347067833, -0.10639393329620361, -0.038669291883707047, -0.05405079573392868, -0.05229724943637848, -0.008008980192244053, -0.041153550148010254, 0.0018862542929127812, -0.015407165512442589, 0.05548741668462753, 0.006982127670198679, 0.0567149743437767, -0.05194815248250961, -0.0010422143386676908, 0.029629748314619064, -0.03598616272211075, 0.04009905457496643, -0.01024643611162901, -0.03672496974468231, 0.04760994017124176, -0.0009102686308324337, 0.0427168644964695, -0.04729078710079193, 0.0742364451289177, -0.00764923682436347, 0.0017238418804481626, 0.009188596159219742, -0.024413201957941055, 0.052006449550390244, 0.04733492434024811, 0.029478926211595535, -0.03671785444021225, 0.057645540684461594, -0.04739999398589134, -0.2585236132144928, -0.04947652667760849, -0.0035570121835917234, -0.025248777121305466, -0.06269342452287674, -0.005950050428509712, -0.04051399976015091, 0.02174866944551468, 0.04727238416671753, 0.10669795423746109, 0.07030731439590454, 0.03217345476150513, -0.031570106744766235, 0.029310470446944237, -0.026797717437148094, 0.008030010387301445, -0.053093984723091125, 0.06909285485744476, -0.0237417034804821, -0.02800898440182209, 0.0425531379878521, 0.03316013887524605, -0.025966085493564606, -0.019446931779384613, 0.08611911535263062, -0.016806436702609062, 0.14337560534477234, -0.038197312504053116, 0.011657309718430042, -0.017789553850889206, 0.026743151247501373, 0.02482111006975174, -0.030772119760513306, -0.039494410157203674, -0.013436617329716682, 0.007081862073391676, 0.019056309014558792, 0.055190298706293106, -0.06416700035333633, -0.05386900529265404, -0.06501631438732147, 0.03764592483639717, -0.00782979279756546, -0.07148140668869019, 0.025774385780096054, 0.022362925112247467, -0.04199697822332382, 0.056024935096502304, -0.023061374202370644, -0.032273583114147186, -0.01603163778781891, -0.0316639170050621, 0.06599391996860504, 0.04899265989661217, 0.06388751417398453, 0.0030058545526117086, -0.0721498429775238, 0.02985849231481552, -0.05402451753616333, -0.008868878707289696, 0.02049921080470085, -0.02519829571247101, 0.07785195857286453, -0.0959606021642685, 0.06689270585775375, 0.005824354011565447, -0.01251766737550497, -0.010154061950743198, -0.016861051321029663, 0.08413192629814148, 0.02948233112692833, 0.05472900718450546, -0.02505999244749546, 0.0017841964727267623, -0.02041032537817955, -0.016543123871088028, 0.030402034521102905, 0.01707671582698822, -0.019897112622857094, -0.043596819043159485, 0.10296205431222916, -0.032661911100149155, 0.01338346116244793, -0.02681979164481163, -0.014926022849977016, 0.025245681405067444, 0.015786679461598396, 0.038862429559230804, 0.05597075819969177, -0.019710566848516464, -0.04836336895823479, 0.01948276162147522, -0.006860759574919939, -0.054595835506916046, 0.07676929980516434, -0.06234246864914894, -0.2671824097633362, 0.007076430134475231, -0.027745334431529045, -0.04515773802995682, -0.035024210810661316, -0.021079741418361664, 0.009959698654711246, 0.04685525596141815, -0.05651846155524254, 0.011708209291100502, 0.04766397923231125, 0.014573601074516773, 0.05440547317266464, -0.07372685521841049, 0.060931477695703506, 0.0038784747011959553, -0.024467114359140396, -0.0007397569133900106, -0.047243598848581314, -0.028415149077773094, 0.034390587359666824, -0.016489580273628235, 0.12896963953971863, -0.06366828829050064, 0.00920124538242817, 0.05173081159591675, -0.026188187301158905, 0.026614481583237648, -0.0011697668815031648, 0.009390215389430523, -0.017036456614732742, 0.013446484692394733, 0.05187559500336647, -0.0042792088352143764, -0.010528330691158772, -0.044197116047143936, 0.026855815201997757, -0.051499560475349426, -0.017342135310173035, -0.008452651090919971, -0.034044258296489716, 0.051431261003017426, -0.004907737486064434, 0.06379968672990799, 0.012491926550865173, 0.002529304474592209, -0.054820265620946884, -0.025919144973158836, 0.05875220149755478, 0.035458698868751526, -0.04726232588291168, -0.05157366394996643, 0.006690306589007378, 0.01643315888941288, 0.016822874546051025, 0.06805765628814697, -0.053080715239048004, -0.0420340970158577, -0.05576810613274574, 0.010471674613654613, 0.02544686198234558, -0.1248147040605545, -0.0347430519759655, 0.017513686791062355, 0.018846940249204636]</t>
+          <t>[-0.05675090104341507, -0.04974987357854843, 0.036006249487400055, 0.0171040128916502, -0.010533411055803299, -0.014247024431824684, -0.015414968132972717, 0.008305856958031654, 0.02388005144894123, -0.07357720285654068, -0.004684446845203638, 0.023215096443891525, 0.01138340774923563, 0.023553229868412018, 0.016411298885941505, 0.05223662406206131, 0.042129576206207275, -0.023286402225494385, -0.02839016728103161, -0.002953615505248308, 0.07955745607614517, -0.0058528403751552105, -0.012881417758762836, 0.0263297688215971, -0.004514588508754969, -0.022672979161143303, 0.006268438417464495, -0.05004372075200081, -0.05076379328966141, -0.13076969981193542, 0.04922224208712578, -0.016336260363459587, 0.017477499321103096, -0.0019149959553033113, 0.008551393635571003, 0.010359910316765308, -0.03409094735980034, 0.02836322970688343, -0.02359248697757721, 0.07898294925689697, 0.02861001156270504, 0.054716892540454865, -0.07212086021900177, -0.02702571451663971, -0.044657643884420395, -0.04997619614005089, -0.032780248671770096, -0.007765127345919609, 0.074787437915802, -0.04243907332420349, -0.055047087371349335, 0.021059837192296982, 0.019791822880506516, -0.01776791922748089, 0.082039475440979, 0.009843978099524975, 0.07544076442718506, 0.03335696458816528, 0.055332500487565994, -0.002869446063414216, 0.060356512665748596, -0.017008589580655098, -0.13104556500911713, 0.07238759100437164, -0.023647960275411606, -0.01691482961177826, 0.058637045323848724, -0.0436713770031929, 0.02528105489909649, -0.03008730709552765, -0.023354871198534966, -0.0028687925077974796, -0.020753761753439903, 0.1266728788614273, 0.029628166928887367, -0.007921582087874413, 0.029101336374878883, 0.009194260463118553, 0.04377381503582001, 0.02586423046886921, -0.007509115617722273, -0.009819773957133293, -0.007758654188364744, -0.02676727995276451, 0.04221674054861069, -0.04200737550854683, -0.00018887946498580277, 0.0032323538325726986, 0.05684875696897507, 0.006382380612194538, -0.006939222104847431, 0.0034406716004014015, -0.004691455978900194, 0.09841129183769226, -0.07184595614671707, -0.08800337463617325, 0.006832853890955448, 0.049326006323099136, -0.11810431629419327, 0.38032686710357666, 0.0012956666760146618, 0.06199706718325615, -0.025914717465639114, 0.034044478088617325, 0.023907136172056198, -0.006145933642983437, -0.07459285110235214, -0.028732920065522194, -0.03860202431678772, 0.032611239701509476, -0.013534040190279484, -0.003076188964769244, 0.04802380129694939, -0.03213223069906235, -0.03433762490749359, 0.099846750497818, 0.03839481621980667, -0.04256793111562729, -0.018430504947900772, -0.002962283557280898, -0.018822884187102318, 0.02477395534515381, 0.0037459577433764935, 0.022166354581713676, -0.010447988286614418, -0.027427498251199722, 0.01258028019219637, 0.13526034355163574, -0.015407056547701359, 0.04270229488611221, 0.07248666882514954, -0.009384560398757458, -0.04069368168711662, -0.02851748839020729, -0.0401344932615757, 0.012694607488811016, 0.0015556972939521074, 0.013741838745772839, 0.02176694944500923, -0.06509246677160263, 0.0017439171206206083, -0.14898410439491272, -0.008435212075710297, -0.03607583045959473, 0.04954313486814499, 0.0664307177066803, -0.03811538964509964, 0.08727581053972244, -0.05418065935373306, -0.07767851650714874, -0.023843418806791306, 0.05913272500038147, 0.034669823944568634, -0.08070449531078339, -0.0163026861846447, -0.006295404862612486, 0.08154602348804474, -0.013515990227460861, -0.0026539391838014126, 0.00628309603780508, 0.009556974284350872, -0.024014323949813843, -0.02158011682331562, 0.03778615593910217, 0.004517367109656334, -0.07575037330389023, 0.004388759844005108, -0.03056105226278305, -0.06319598853588104, 0.03547543287277222, 0.00044133522897027433, -0.017076510936021805, 0.026833930984139442, -0.011636732146143913, 0.036957789212465286, -0.019283700734376907, -0.08357807248830795, 0.022314701229333878, 0.024575315415859222, 0.03310704603791237, 0.006405338179320097, -0.01548860128968954, -0.012041023932397366, -0.028707187622785568, 0.0076040406711399555, -0.010029994882643223, -0.00977092981338501, -0.01199355348944664, 0.0739678293466568, -0.019954459741711617, -0.02885575033724308, -0.07078830897808075, -0.010490820743143559, -0.01767895743250847, -0.028510969132184982, -0.062257081270217896, -0.02053459919989109, -0.01246513333171606, 0.06188061088323593, 0.0017537507228553295, 0.053332630544900894, -0.005350375082343817, -0.02845810353755951, 0.005114309955388308, 0.029792245477437973, 0.02452658861875534, -0.04227876663208008, -0.011320185847580433, 0.05320608988404274, -0.011077139526605606, -0.016556404531002045, 0.0167566929012537, 0.07519105076789856, 0.013816089369356632, -0.019421366974711418, 0.05477782338857651, -0.017278559505939484, 0.03299999237060547, 0.025554485619068146, 0.04250682145357132, 0.025282060727477074, 0.027471205219626427, 0.049201883375644684, -0.2999733090400696, 0.0020472274627536535, -0.043893277645111084, 0.0029132352210581303, -0.04817810282111168, 0.0037552264984697104, 0.01908697932958603, -0.05480530112981796, -0.012593519873917103, 0.019236555323004723, 0.02846466936171055, 0.016099270433187485, -0.012703510001301765, -0.030117278918623924, -0.017238685861229897, -0.0031123573426157236, -0.05619346350431442, 0.012224932201206684, -0.02829906716942787, 0.04344203695654869, -0.025650400668382645, 0.011000319384038448, -0.00942597258836031, -0.028518827632069588, 0.004427888430655003, 0.028584370389580727, 0.1630532145500183, -0.054601021111011505, -0.05776809900999069, -0.04071751609444618, 0.0037467586807906628, 0.02588462084531784, -0.028295692056417465, -0.050834737718105316, 0.01179446280002594, -0.0026252882089465857, 0.02171056903898716, 0.03430004417896271, 0.059069450944662094, -0.023358160629868507, -0.05526229739189148, 0.05732396990060806, -0.013612596318125725, -0.012169597670435905, 0.0216908510774374, 0.0038352461997419596, 0.007151936646550894, 0.02419893443584442, -0.02053709700703621, -0.018160412088036537, 0.0025583114475011826, -0.014866913668811321, 0.0402446910738945, -0.023288751021027565, 0.07279438525438309, -0.02606525830924511, -0.036942388862371445, 0.010006990283727646, -0.06734009832143784, 0.006425469648092985, 0.011471331119537354, 0.005226551555097103, 0.019728926941752434, 0.005796216428279877, 0.026357855647802353, -0.06611046940088272, -0.026292501017451286, -0.009435891173779964, -0.029571685940027237, -0.009754023514688015, -0.0067668491974473, 0.03288201242685318, -0.03163794055581093, 0.03271407634019852, -0.010584802366793156, 0.004968572407960892, 0.03967142105102539, -0.050874337553977966, -0.00277725444175303, -0.05933539941906929, 0.0344221256673336, -0.013256879523396492, 0.005606033839285374, 0.037283651530742645, 0.010957833379507065, -0.01194723229855299, -0.027052104473114014, 0.12376178801059723, -0.008058253675699234, 0.004570703487843275, -0.01926901377737522, 0.03319602459669113, -0.03137863799929619, 0.03603660315275192, 0.07860203832387924, 0.003988572396337986, -0.26942336559295654, 0.058503225445747375, 0.017061205580830574, -0.019367262721061707, -0.05739977955818176, 0.05338100343942642, -0.006549706682562828, -0.00029020695365034044, -0.09741812199354172, -0.022217245772480965, -0.0712243989109993, 0.08855725824832916, -0.01713159866631031, 0.0031460770405828953, -0.016102518886327744, 0.04697699472308159, 0.04923977330327034, -0.052244894206523895, -0.04174758121371269, -0.03723721578717232, 0.04023594409227371, 0.026675822213292122, 0.16972358524799347, -0.015465619042515755, 0.027417397126555443, 0.027716031298041344, 0.009083755314350128, -0.022913092747330666, 0.0674440786242485, -0.0421244353055954, -0.032384760677814484, -0.042943380773067474, 0.025793028995394707, -0.020044440403580666, 0.03534175083041191, -0.009543577209115028, 0.01621055044233799, 0.012255735695362091, 0.011920972727239132, 0.0025786026380956173, -0.037193216383457184, 0.020422721281647682, 0.02986627258360386, 0.004636240657418966, 0.06347041577100754, -0.00820837914943695, 0.0068708499893546104, -0.027299417182803154, 0.011024007573723793, 0.03941419720649719, -0.0856439471244812, -0.05205371230840683, -0.020023414865136147, 0.03941795974969864, 0.04312344640493393, 0.000402001547627151, -0.022032123059034348, 0.044135503470897675, -0.01823793724179268, 0.025197144597768784, 0.010809012688696384, -0.08154281973838806, 0.0971279889345169, -0.027973853051662445, -0.026101188734173775]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>slow_laggy_internet_speed</t>
+          <t>lack_of_affordable_entry_level_phone_plans</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -551,23 +551,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['Improvement needed: I want you to improve the WiFi environment. Confirmation of our contract details, resolution of double payment for broadband from October to March of last year, which has not been refunded.\nReason for given NPS: Before I knew it, I had two WiFi contracts, or the payment was not refunded.']</t>
+          <t>['Improvement needed: a wider range of low end phone deals\nReason for given NPS: thats about as high as it ever gets', 'Improvement needed: Better options for people who cannot get fibre\n', 'Improvement needed: Some free weekend data, minutes as promo like other providers\n', 'Improvement needed: Return of new phone + contact deals for existing (especially long-term) customers! Also, Google Pixel phones.\n', 'Improvement needed: Fix the reception and connectivity problem since the switch from Vodafone.  A lower price for mobile and wifi for single people living alone.\nReason for given NPS: Very expensive for just a mobile and wifi (over $120 a month), and after the switch from Vodafone to OneNZ my general mobile reception, wifi speed and connectivity has decreased.']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.0801982507109642, -0.027767203748226166, 0.015155891887843609, 0.03182840347290039, 0.03357350826263428, -0.028189750388264656, -0.044266097247600555, 0.017470484599471092, 0.0640135258436203, -0.032538216561079025, 0.05355599895119667, -0.008870904333889484, 0.078984834253788, -0.017284179106354713, 0.04174484312534332, 0.023218045011162758, 0.08041729032993317, -0.08589982241392136, -0.010811691172420979, -0.007861385121941566, 0.05617240443825722, 0.023486871272325516, 0.043687425553798676, -0.023841938003897667, -0.03594708442687988, -0.009951788932085037, -0.022744808346033096, -0.0440763495862484, -0.08470822125673294, -0.06927742809057236, 0.01109669916331768, -0.03075023554265499, 0.008664716966450214, 0.06918327510356903, 0.01344604603946209, -0.05737841874361038, -0.006465504877269268, 0.02996242046356201, -0.05035591125488281, 0.042282745242118835, -0.0009055581758730114, 0.04410697892308235, -0.07750954478979111, -0.022756721824407578, 0.019639350473880768, -0.011792137287557125, 0.05857397988438606, 0.014939813874661922, 0.11047986894845963, -0.021942880004644394, -0.0745895653963089, 0.03409113734960556, 0.020305020734667778, 0.010160353034734726, 0.057868730276823044, 0.0035262343008071184, 0.033861953765153885, 0.0367639921605587, 0.0650106817483902, 0.009868516586720943, 0.02593124471604824, 0.006267102435231209, -0.13065926730632782, 0.06614751368761063, 0.052992597222328186, 0.0007221635896712542, -0.019725631922483444, -0.00873181689530611, -0.04485108330845833, -0.02807769551873207, -0.07005932927131653, 0.050680097192525864, -0.00792727991938591, 0.13108177483081818, 0.008512823842465878, 0.06523445248603821, -0.04464470595121384, 0.01579364202916622, 0.006285971961915493, 0.04682596027851105, 0.053183749318122864, -0.02076205611228943, -0.06857962161302567, -0.06818216294050217, 0.006016189698129892, -0.08997243642807007, -0.002464093966409564, 0.028664857149124146, 0.01697884313762188, -0.034010693430900574, -0.04324867203831673, 0.008396518416702747, 0.029247842729091644, 0.06153450533747673, -0.043821923434734344, -0.008320513181388378, -0.015447464771568775, -9.773136116564274e-05, -0.03685367479920387, 0.31859058141708374, -0.031235724687576294, 0.007165946532040834, 0.07163512706756592, 0.04317784309387207, 0.08755945414304733, -0.021765902638435364, 0.010655337944626808, -0.04192955791950226, -0.01364629901945591, 0.05494055524468422, 0.004625866189599037, -0.04215696454048157, 0.04645216464996338, 0.013072734698653221, 0.04409952834248543, -0.014391574077308178, -0.018616028130054474, -0.010732501745223999, -0.05254305899143219, 0.06466857343912125, -0.020431285724043846, -0.0035857621114701033, 0.020938841626048088, -0.026758849620819092, 0.09924786537885666, -0.021095072850584984, 0.00735944788902998, 0.1248108521103859, 4.128399450564757e-05, 0.05778954178094864, -0.01249556615948677, -0.0054400316439569, 0.00945194996893406, 0.0059372601099312305, -0.01702803373336792, 0.015972036868333817, 0.017865942791104317, -0.010884406976401806, -0.012564652599394321, -0.005638240836560726, -0.07462023943662643, -0.0647730603814125, 0.0018878909759223461, -0.05650234967470169, 0.0007981546223163605, 0.07771168649196625, 0.04096335917711258, 0.07265637069940567, -0.03702424839138985, -0.0677124410867691, 0.02317502722144127, 0.036050986498594284, 0.028839511796832085, -0.06429439783096313, -0.07616031914949417, -0.013249370269477367, 0.04977193474769592, 0.03998969495296478, 0.010294890031218529, -0.04248553141951561, 0.006817791145294905, -0.07011615484952927, -0.03609433397650719, 0.011009439826011658, -0.009674499742686749, 0.019188662990927696, -0.061277683824300766, -0.01756168343126774, -0.10078419744968414, 0.008053158409893513, -0.03624524176120758, 0.002220914466306567, -0.01869359239935875, -0.005807152949273586, 0.0588320754468441, -0.03877684846520424, -0.0013786462368443608, 0.01743130013346672, -0.06435734778642654, -0.04284723475575447, 0.05214832350611687, 0.020333092659711838, -0.056571535766124725, 0.02507680095732212, 0.016896545886993408, -0.030044231563806534, -0.03416071832180023, -0.01786729134619236, 0.05408969521522522, -0.03819301351904869, -0.08033278584480286, -0.12620672583580017, -0.027732321992516518, -0.07530835270881653, -0.03253932669758797, -0.020313024520874023, 0.01595800556242466, -0.013282609172165394, 0.043030064553022385, -0.046797625720500946, 0.14084509015083313, -0.03430602326989174, -0.010854631662368774, 0.007701383903622627, -0.07771071046590805, 0.01037590391933918, -0.025010358542203903, -0.05314043164253235, 0.022779345512390137, -0.004429200664162636, -0.004991232417523861, -0.09001719951629639, 0.04589928314089775, 0.012342614121735096, -0.02706025168299675, 0.0014653708785772324, -0.003121880115941167, 0.08448977768421173, 0.011357035487890244, 0.06735669821500778, -0.02141190692782402, 0.03102598339319229, -0.07179306447505951, -0.27443885803222656, -0.013749160803854465, -0.021526699885725975, 0.009654838591814041, 0.011563320644199848, -0.022454863414168358, -0.04640152305364609, 0.03544342890381813, 0.08580463379621506, 0.06598511338233948, 0.009450158104300499, 0.005041227675974369, 0.042334798723459244, -0.04505913704633713, -0.024603432044386864, 0.001471825409680605, 0.006560007110238075, 0.06633290648460388, 0.004642936866730452, 0.020584842190146446, -0.0014018500223755836, 0.030851928517222404, 0.010120470076799393, -0.051530834287405014, 6.416683754650876e-05, -0.01739087514579296, 0.12381783872842789, -0.037716206163167953, 0.0316556841135025, -0.08657072484493256, 0.07953574508428574, 0.1003408208489418, -0.012403042055666447, -0.07121021300554276, -0.03160512447357178, 0.06807619333267212, 0.11558637768030167, 0.02614453434944153, -0.058728959411382675, -0.0029455532785505056, -0.10132718086242676, 0.04780064895749092, 0.03602154180407524, -0.018414197489619255, -0.028602339327335358, -0.004717869684100151, 0.004180281423032284, 0.006880132481455803, -0.07384346425533295, -0.017028138041496277, -0.00016888203390408307, -0.03620564565062523, 0.06211603432893753, 0.011779033578932285, 0.04810123145580292, 0.008756951428949833, -0.023316098377108574, 0.016487551853060722, -0.016830172389745712, -0.009265637025237083, 0.024926090613007545, 0.0008305919473059475, 0.05447789281606674, -0.06714895367622375, 0.09683553129434586, -0.03194258734583855, -0.01771576516330242, -0.036997754126787186, 0.008271493017673492, 0.03486909344792366, 0.01632056199014187, 0.04367872327566147, -0.04903193935751915, 0.05654842033982277, 0.054306261241436005, -0.012738427147269249, -0.022126730531454086, 0.012597821652889252, 0.0255059152841568, -0.04161185771226883, 0.06846753507852554, 0.01254415512084961, 0.051727745682001114, 0.010494998656213284, -0.036365412175655365, -0.055649563670158386, -0.006177007220685482, 0.008947470225393772, -0.01991926319897175, 0.04722048342227936, -0.0241067036986351, -0.01948840543627739, -0.04540713503956795, -0.0059827049262821674, 0.03996407240629196, -0.013492139056324959, -0.24316251277923584, 0.04727834463119507, 0.04581724852323532, -0.01843104511499405, -8.752245048526675e-05, 0.018785355612635612, 0.020948968827724457, -0.0020589479245245457, -0.07626638561487198, 0.0852549821138382, -0.05839748680591583, 0.012515189126133919, -0.052955932915210724, -0.018314726650714874, 0.03068169392645359, 0.009402443654835224, -0.00941783282905817, -0.01626386120915413, -0.016227129846811295, -0.018585816025733948, 0.015291077084839344, -0.027598364278674126, 0.11623168736696243, -0.04308268427848816, 0.030363284051418304, 0.04332193732261658, -0.007546662352979183, 0.05607324466109276, 0.07915537804365158, -0.05692720413208008, -0.05274198576807976, 0.018538450822234154, 0.02605229616165161, -0.03785333037376404, -0.018328776583075523, 0.01557433046400547, 0.028194010257720947, -0.026375040411949158, 0.0008029224700294435, 0.031153056770563126, -0.005655698478221893, 0.07973351329565048, -0.002317356877028942, 0.029825061559677124, 0.022306326776742935, 0.01873241364955902, 0.00513956556096673, -0.02516482025384903, -0.0215153768658638, 0.023719655349850655, -0.04019198939204216, -0.07466360926628113, 0.022575199604034424, 0.031281519681215286, 0.04692346602678299, 0.025797659531235695, -0.014953337609767914, -0.009813734330236912, -0.03130781278014183, -0.037511859089136124, 0.006859591696411371, -0.0875314474105835, -0.005913281347602606, -0.021525731310248375, 0.008982997387647629]</t>
+          <t>[-0.038429614156484604, -0.03819916769862175, -0.04196527600288391, -0.02605934627354145, -0.03971492499113083, -0.03167722746729851, -0.03050222247838974, 0.05560002475976944, -0.027699904516339302, -0.02243729494512081, 0.02779408171772957, 0.04880091920495033, 0.036938831210136414, -0.021757451817393303, 0.06104634702205658, 0.011688963510096073, 0.06106756255030632, -0.08741063624620438, -0.01856907643377781, 0.06995154172182083, 0.04884202778339386, -0.06565215438604355, -0.01966884173452854, -0.0018218104960396886, 0.09489967674016953, 0.00324205937795341, -0.0017342106439173222, -0.0045567168854177, -0.015167606063187122, -0.07600853592157364, 0.013417664915323257, 0.06584502756595612, 0.06826535612344742, 0.012084390968084335, 0.02313118800520897, 0.020348524674773216, -0.028558457270264626, 0.02139805257320404, 0.021465320140123367, 0.061555396765470505, -0.018428068608045578, 0.046248432248830795, -0.07420474290847778, 0.015160483308136463, -0.03371962159872055, -0.05952850356698036, -0.0200682133436203, -0.037158265709877014, 0.029003355652093887, -0.0629560574889183, 0.018421830609440804, 0.01506511028856039, -0.03437666594982147, -0.031023845076560974, 0.006169237196445465, 0.043927449733018875, 0.02386736124753952, 0.003514207899570465, 0.005310225300490856, 0.026144256815314293, 0.040301237255334854, -0.005785773042589426, -0.12593413889408112, 0.022120824083685875, 0.009687966667115688, -0.013861763291060925, 0.006774843204766512, -0.034696921706199646, -0.03496089205145836, 0.0033224092330783606, 0.02908382937312126, -0.013041937723755836, 0.016049090772867203, 0.07577777653932571, 0.006050783675163984, -0.008015169762074947, 0.011242866516113281, 0.003969498444348574, 0.03319882974028587, 0.0425652340054512, 0.03492741286754608, -0.04286389425396919, -0.013327987864613533, 0.06049861013889313, -0.03779301792383194, -0.05786946043372154, 0.04157504439353943, -0.0111017357558012, -0.0196540430188179, 0.004382785875350237, 0.026365362107753754, -0.012523507699370384, -0.00994559470564127, 0.026771273463964462, -0.06483118236064911, 0.016352614387869835, 0.029065566137433052, 0.042593810707330704, -0.14139868319034576, 0.42952170968055725, 0.014440473169088364, 0.05039733275771141, 0.046639855951070786, -0.010355100966989994, 0.015188136138021946, -0.06647718697786331, -0.08596062660217285, -0.006969721056520939, -0.006545717362314463, -0.018790988251566887, -0.02176423743367195, -0.006798397749662399, 0.03224778547883034, 0.011510205455124378, 0.010739627294242382, 0.020467223599553108, -0.012520060874521732, -0.045684050768613815, 0.005337466951459646, 0.01353183388710022, -0.03271859511733055, -0.047550566494464874, -0.011103239841759205, -0.004865226335823536, -0.027659373357892036, -0.037435878068208694, -0.037589892745018005, 0.06533288955688477, 0.009648111648857594, 0.014176391996443272, 0.022622575983405113, -0.06739688664674759, -0.023947259411215782, 0.016054831445217133, -0.027195855975151062, -0.027898207306861877, 0.01596573367714882, 0.049423009157180786, -0.013236520811915398, 0.02416006475687027, -0.0016601831885054708, -0.06931015104055405, 0.028953917324543, -0.05360594764351845, -0.0034618780482560396, 0.07803656160831451, -0.03105972707271576, 0.0907411128282547, -0.002270104130730033, -0.059384509921073914, -0.04879337176680565, 0.005784433335065842, 0.07184568047523499, -0.010629568248987198, 0.007577599957585335, -0.03891056776046753, 0.01840529404580593, 0.035685427486896515, -0.03765253350138664, -0.0008412113529630005, 0.061190877109766006, -0.043893638998270035, -0.11357927322387695, 0.07903004437685013, -0.002660294994711876, -0.06760866940021515, -0.050388216972351074, -0.01501215249300003, -0.05555065721273422, -0.023692255839705467, -0.01661609299480915, 0.042845468968153, -0.026991141960024834, 0.028592413291335106, 0.09585247933864594, -0.04154915362596512, -0.06252270191907883, 0.03469521924853325, -0.06952022761106491, 0.0011464445851743221, -0.039554495364427567, 0.0004910220741294324, -0.004718889482319355, -0.03790374845266342, -0.018264194950461388, -0.05917936563491821, -0.03318993002176285, -0.029716510325670242, 0.0579441599547863, -0.01762259565293789, -0.13290062546730042, 0.03255714848637581, -0.022404072806239128, 0.006644754204899073, -0.04156435281038284, -0.001942551345564425, -0.009737986139953136, -0.030788619071245193, 0.05832860991358757, -0.06044160574674606, 0.04190359264612198, -0.051910173147916794, -0.03827672079205513, 0.036165907979011536, 0.0128007922321558, 0.021610386669635773, 0.0733937919139862, -0.0156271792948246, 0.1270783692598343, 0.021377073600888252, 0.02373751439154148, -0.0346534363925457, 0.13326816260814667, 0.020830031484365463, 0.02297971397638321, -0.012147411704063416, 0.03836139664053917, 0.03655252233147621, 0.07172779738903046, -0.016532307490706444, -0.019711414352059364, 0.1167517602443695, 0.022670544683933258, -0.2705519199371338, 0.013372733257710934, -0.023967236280441284, -0.04910943657159805, -0.06900038570165634, -0.01281837560236454, 0.039251599460840225, -0.033793967217206955, 0.00407949835062027, 0.1272011250257492, 0.0309639610350132, 0.033625055104494095, 0.03402441367506981, 0.013270970433950424, 0.019490616396069527, -0.050669196993112564, -0.043004125356674194, 0.028720326721668243, 0.06039021536707878, 0.008397654630243778, 0.023897685110569, 0.037619855254888535, -0.022559475153684616, 0.01627180352807045, 0.04810376837849617, 0.04813891276717186, 0.18123507499694824, -0.07133391499519348, -0.012439187616109848, -0.00614481745287776, 0.03213190287351608, 0.03757240250706673, -0.0005314878071658313, -0.0008690662798471749, -0.001090500969439745, -0.01564311981201172, 0.014153256081044674, -0.014566575177013874, 0.03740588203072548, -0.048745714128017426, -0.012683361768722534, 0.02949765883386135, -0.035200510174036026, -0.02131197601556778, -0.021163174882531166, -0.00487899873405695, -0.04361381009221077, 0.09896618127822876, -0.05902429297566414, 0.0038580968976020813, -0.0021414223592728376, 0.018416546285152435, 0.06242290139198303, -0.025798432528972626, 0.07669913023710251, 0.0010955448960885406, -0.11461922526359558, 0.012866214849054813, -0.03222053870558739, 0.03426364064216614, -0.0033442808780819178, 0.0023719097953289747, 0.03920111805200577, -0.021743539720773697, 0.0032171260099858046, 0.0011891560861840844, 0.008158865384757519, -0.017612861469388008, -0.0733625739812851, 0.0011997278779745102, -0.0008584500174038112, 0.028887003660202026, 0.01509825885295868, -0.049154505133628845, -0.0398491732776165, -0.020858651027083397, 0.019954070448875427, -0.0171680748462677, 0.007524590939283371, -0.057484500110149384, 0.0006631396245211363, -0.004406634718179703, 0.02780001610517502, -0.017209777608513832, -0.023380450904369354, 0.08550923317670822, 0.03886221721768379, 0.027704885229468346, 0.02051517926156521, 0.027337776497006416, -0.04103831201791763, 0.0163186714053154, 0.018903521820902824, 0.00044271117076277733, 0.13130724430084229, -0.018643733114004135, -0.19393429160118103, -0.0014891043538227677, 0.008421204052865505, -0.023662544786930084, 0.0101047083735466, 0.016989918425679207, 0.03963587060570717, -0.017771022394299507, -0.019464870914816856, 0.03267902135848999, 0.0364297516644001, -0.04542244225740433, -0.010448952205479145, -0.05449918657541275, 0.06972341239452362, -0.013851386494934559, 0.06772638112306595, -0.014641692861914635, -0.03360247611999512, -0.010314292274415493, 0.027162494137883186, -0.0037079101894050837, 0.1079065278172493, -0.04001293703913689, -0.04466899484395981, -0.03391772508621216, -0.020858440548181534, 0.004005607683211565, 0.03779313713312149, 0.004536012187600136, -0.03404565528035164, -0.028601860627532005, 0.06396980583667755, -0.007785723078995943, -0.010499189607799053, -0.028723426163196564, 0.014947588555514812, -0.03289687633514404, 0.00608222559094429, -0.025774816051125526, -0.0931582823395729, -0.016319524496793747, -0.029410533607006073, 0.03248322755098343, 0.043465934693813324, -0.035407643765211105, -0.02033701352775097, 0.010267898440361023, 0.028184939175844193, 0.03974081203341484, -0.009027782827615738, -0.0397597998380661, 0.01705195941030979, -0.006919140927493572, -0.011321431025862694, 0.056771256029605865, -0.08025135844945908, 0.0019127929117530584, 0.003927671350538731, -0.011106755584478378, -0.008880228735506535, -0.005726899020373821, -0.018563687801361084, 0.05809035152196884, 0.005495332647114992]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>prefers_in_person_store_experience</t>
+          <t>pricing_much_higher_than_service_value</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -576,23 +576,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['Improvement needed: Sometimes hard to understand an operator when talking to them found it easier going into a store\n']</t>
+          <t>['Improvement needed: No affordable plans, ridiculous prices. Customer service below average. What we pay for is not worth it\n', "Improvement needed: Pricing deals for existing customers.\nReason for given NPS: The service provided is great but I feel I'm currently paying a lot for our broadband as our discount ended.", 'Improvement needed: Everything from service to plans\nReason for given NPS: Failed on 2 occasions, both related to landline.\nPlus mobile data still get used rather then the home wi fi.', 'Improvement needed: Reception still runs out in areas- Napier Taupo Rd which is a dangerous stretch to be unconnected. \nWould prefer an easy option to organise direct debit on my new contract. \nAs mentioned, struggling to find how I organise added data.\nOther providers appear to be better value for money (I have been loyal to Vodafone for 20 years)\nReason for given NPS: I keep running out of data (contract) and when I contacted Vodafone they say purchase on the App but the option I am yet to find.', 'Improvement needed: Fix the reception and connectivity problem since the switch from Vodafone.  A lower price for mobile and wifi for single people living alone.\nReason for given NPS: Very expensive for just a mobile and wifi (over $120 a month), and after the switch from Vodafone to OneNZ my general mobile reception, wifi speed and connectivity has decreased.']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.01379416137933731, 0.006056671030819416, 0.0351826474070549, 0.03892487287521362, -0.03836116939783096, 0.0010433453135192394, 0.04809131473302841, 0.0185551680624485, 0.010469366796314716, -0.06917111575603485, -0.03122583031654358, 0.05790606886148453, -0.025208763778209686, 0.045791786164045334, 0.03270918130874634, 0.008325504139065742, 0.06149192899465561, -0.016311543062329292, -0.07894031703472137, 0.0481826476752758, -0.00344992452301085, -0.06422698497772217, -0.003501076716929674, -0.04249417409300804, -0.08098970353603363, -0.028087476268410683, -0.050604142248630524, -0.00597318634390831, -0.04589954391121864, -0.06711874902248383, 0.022548578679561615, 0.009954879991710186, 0.04789871349930763, 0.004807367455214262, -0.015541285276412964, 0.017650816589593887, 0.029235640540719032, -0.027542980387806892, -0.014948716387152672, 0.031536877155303955, 0.007127800490707159, -0.03154057636857033, -0.023121992126107216, 0.047298263758420944, 0.0019033786375075579, -0.046771589666604996, 0.0705079585313797, -0.05162176117300987, 0.00356661481782794, -0.018200252205133438, 0.009042732417583466, 0.035548076033592224, -0.025912588462233543, -0.04745206981897354, -0.039527907967567444, 0.061295729130506516, 0.05599534511566162, -0.023684578016400337, -0.009153436869382858, 0.006769332103431225, 0.05362652614712715, -0.009114784188568592, -0.09915629774332047, 0.059848930686712265, 0.005159193649888039, 0.022886022925376892, -0.02874940261244774, -0.050419390201568604, -0.043431468307971954, -0.02990836836397648, -0.06079530343413353, 0.035895753651857376, -0.01684732362627983, 0.0803724080324173, 0.03957027941942215, -0.03483874723315239, 0.017205078154802322, -0.0201709121465683, 0.00420622993260622, 0.04802313446998596, -0.015354394912719727, -0.025867300108075142, -0.046876512467861176, -0.0442049466073513, -0.021029381081461906, -0.046821050345897675, 0.021646937355399132, 0.0009319707751274109, 0.01108518335968256, 0.0025719625409692526, 0.002199870999902487, -0.04103292524814606, 0.00495712086558342, 0.003931633662432432, -0.006107629742473364, -0.0024847984313964844, 0.026481708511710167, 0.06541307270526886, -0.035923223942518234, 0.36228302121162415, 0.03748694434762001, 0.1026386097073555, -0.015237918123602867, -0.005328314378857613, 0.025767266750335693, -0.04403567314147949, -0.010268638841807842, -0.013761050067842007, -0.006669238675385714, -0.042273540049791336, -0.05475395545363426, 0.012716987170279026, 0.04559481516480446, -0.030448997393250465, -0.01629762351512909, 0.12410025298595428, 0.06043924391269684, 0.00758889177814126, 0.04002448916435242, -0.02028690278530121, 0.007560434751212597, 0.0027292214799672365, 0.04465625435113907, -0.012298409827053547, -0.0040565310046076775, -0.042485352605581284, 0.02050190232694149, 0.053712502121925354, -0.0073244087398052216, 0.04604952782392502, 0.05810911953449249, -0.06610560417175293, -0.06526082009077072, 0.02366047166287899, -0.03131086379289627, -0.020780086517333984, -0.0322534441947937, 0.05001300200819969, 0.05564795807003975, -0.0029269021470099688, 0.006899219937622547, -0.0013305260799825191, 0.027776284143328667, -0.041368547827005386, -0.0041956244967877865, 0.09232383966445923, -0.038734085857868195, 0.024912405759096146, -0.025519486516714096, -0.03243986517190933, -0.051556482911109924, 0.014354065991938114, -0.01027049869298935, 0.030854329466819763, 0.0006981322658248246, 0.028493361547589302, 0.028473833575844765, -0.04721980169415474, -0.04996307194232941, 0.03729289770126343, 0.03872112184762955, -0.01097267959266901, 0.03641367703676224, 0.021068328991532326, -0.018221857026219368, -0.10431694984436035, -0.005024889018386602, -0.016713151708245277, 0.0012110351817682385, 0.020180920138955116, 0.01676219142973423, -0.006568070501089096, -0.021794142201542854, 0.09068375080823898, 0.09738019853830338, 0.021739408373832703, -0.06139363721013069, 0.023380525410175323, -0.025040101259946823, -0.00380509439855814, 0.0560784637928009, 0.0030327821150422096, -0.015769492834806442, -0.04733926057815552, 0.006393218878656626, -0.03578270226716995, -0.008314140141010284, -0.016892636194825172, -0.019171057268977165, 0.007533328607678413, -0.02379937469959259, -0.052324116230010986, -0.05693148821592331, -0.030537310987710953, 0.019739501178264618, -0.007383777294307947, -0.034716345369815826, -0.0462309792637825, -0.04509317874908447, 0.005324880592525005, -0.002375445095822215, 0.032415345311164856, -0.052609026432037354, 0.006823270116001368, 0.03591552749276161, 0.09418842941522598, 0.008269928395748138, -0.010229488834738731, 0.06987038254737854, -0.07154849916696548, -0.06700150668621063, 0.0060551902279257774, 0.045766431838274, 0.028626589104533195, -0.0202783215790987, -0.02948615886271, 0.022379666566848755, 0.07386249303817749, 0.08982516080141068, 0.043408434838056564, -0.012615482322871685, 0.09076517820358276, 0.014242681674659252, -0.3246293365955353, 0.07570705562829971, -0.062246453016996384, -0.003614880610257387, -0.02209007740020752, -0.0018170027760788798, 0.006431129295378923, -0.02969473786652088, 0.02124832756817341, 0.06516614556312561, 0.01612396351993084, -0.04743696749210358, 0.02904699556529522, 0.05063953250646591, 0.027538403868675232, 0.03481058403849602, -0.005198032129555941, 0.02483038231730461, 0.03383096307516098, -0.022884530946612358, -0.023415779694914818, -0.010424274951219559, -0.031838081777095795, -0.0899481475353241, 0.07705187052488327, -0.004513176623731852, 0.1670657992362976, -0.002001643180847168, -0.0900353491306305, -0.00606895238161087, 0.027453750371932983, -0.007851074449717999, -0.020527971908450127, -0.1457018107175827, 0.06875628978013992, 0.0181715190410614, 0.0029527631122618914, -0.04630769416689873, 0.06744753569364548, -0.04647604003548622, 0.037789151072502136, 0.08325935900211334, 0.04761313274502754, -0.04972663149237633, -0.022736744955182076, -0.0825265496969223, -0.021986737847328186, 0.09294424206018448, -0.06648712605237961, 0.050735145807266235, -0.009464499540627003, -0.059351786971092224, 0.03979377821087837, 0.009299014694988728, -0.005099451169371605, -0.05456336587667465, -0.02442789450287819, -0.004385614302009344, -0.044664692133665085, 0.09481149911880493, -0.06908714771270752, -0.023077020421624184, -0.03193752467632294, -0.05537182092666626, 0.012706438079476357, -0.009658360853791237, -0.02284954860806465, 0.0017406755359843373, 0.019632400944828987, 5.526270979316905e-05, -0.0157939326018095, -0.061229754239320755, -0.022846102714538574, -0.003512768307700753, 0.001220490550622344, 0.0034825506154447794, -0.05511583387851715, 0.02142336778342724, 0.007556098513305187, -0.0578061118721962, 0.02277636155486107, 0.021618785336613655, 0.029134424403309822, 0.030307630077004433, 0.02034117840230465, -0.0093158558011055, 0.01643167808651924, -0.0057486738078296185, 0.00034160332870669663, -0.012522352859377861, -0.048569682985544205, -0.003887681057676673, -0.02561393566429615, 0.0053940871730446815, 0.09115000069141388, 0.00010657565871952102, -0.29487499594688416, 0.023925211280584335, -0.0005627691280096769, 0.02736739069223404, -0.008242086507380009, 0.06302785128355026, -0.005050711799412966, -0.03419031575322151, -0.06499604880809784, -0.051392171531915665, 0.01614416018128395, -0.019435321912169456, 0.03882734850049019, -0.010612592101097107, 0.018967656418681145, 0.05914423242211342, 0.002224524738267064, -0.009093943983316422, 0.03457728773355484, -0.058790672570466995, 0.021628132089972496, 0.06294750422239304, 0.13255982100963593, 0.02958393096923828, -0.002889889059588313, -0.013301590457558632, -0.013587466441094875, -0.030697088688611984, -0.0012917405692860484, 0.023332932963967323, -0.023900633677840233, -0.020230617374181747, 0.07849984616041183, 0.004573329351842403, 0.011366816237568855, 0.008217932656407356, 0.009594742208719254, -0.07120448350906372, 0.029228338971734047, 0.015401335433125496, -0.0154643002897501, -0.021073713898658752, -0.07372722774744034, -0.01325343269854784, 0.08667673170566559, -0.022230373695492744, 0.035979628562927246, 0.05497424677014351, -0.047157175838947296, -0.0487310029566288, 0.039521850645542145, -0.0035048224963247776, -0.026938546448946, 0.009907419793307781, 0.06078384816646576, 0.07684119790792465, 0.0058820475824177265, -0.023938976228237152, -0.003171308198943734, 0.009586485102772713, -0.0021960074082016945, 0.03673836588859558, 0.06264030188322067, -0.0023242246825248003, -0.008233596570789814]</t>
+          <t>[-0.01169938500970602, -0.03815348818898201, -0.04184196516871452, 0.0001291175140067935, 0.02882090024650097, -0.08724552392959595, -0.010439001023769379, 0.08654067665338516, 0.10775726288557053, -0.018613938242197037, 0.028248682618141174, 0.028324928134679794, 0.026897504925727844, -0.008778898976743221, 0.01983642578125, 0.0022796187549829483, 0.06518858671188354, -0.012090235948562622, -0.08800290524959564, 0.051512476056814194, 0.11517006903886795, -0.06279692053794861, -0.028159011155366898, -0.039626311510801315, 0.05160452425479889, -0.03684317320585251, -0.06737300753593445, -0.0036818350199609995, -0.011830049566924572, -0.1200038343667984, 0.05257304012775421, -0.03753122687339783, 0.026029933243989944, -0.015044249594211578, 0.03654443100094795, -0.010798915289342403, -0.020015884190797806, -0.07233524322509766, 0.05180772393941879, 0.07801349461078644, 0.006288530305027962, 0.0030648557003587484, -0.09572092443704605, 0.021135786548256874, -0.10774273425340652, -0.021784132346510887, -0.004912904929369688, -0.0006116160075180233, 0.023915311321616173, 0.035477180033922195, 0.02129731886088848, 0.02337786741554737, -0.04583793506026268, 0.0236862450838089, -0.006244441028684378, 0.03498409688472748, 0.02471228875219822, 0.027509097009897232, 0.01196444220840931, 0.019919378682971, 0.02448314242064953, -0.0010343417525291443, -0.13620127737522125, 0.010660284198820591, -0.008968692272901535, -0.014546513557434082, -0.023764440789818764, -0.0034665572457015514, -0.041427794843912125, 0.0023861939553171396, 0.006434773560613394, 0.013736753724515438, -0.017611294984817505, 0.07299146056175232, 0.05780014395713806, -0.02834312617778778, -0.011772068217396736, -0.008758033625781536, -0.00887890625745058, 0.024332614615559578, 0.011753661558032036, -0.049742355942726135, -0.02712935209274292, -0.0005947177996858954, -0.027410345152020454, -0.0636616125702858, 0.06902450323104858, 0.006106663960963488, 0.05612516030669212, 0.002396339550614357, 0.014865712262690067, -0.049783624708652496, -0.052507054060697556, 0.00587537232786417, -0.03259057179093361, 0.03119291365146637, 0.015505369752645493, 0.00633367570117116, -0.09443802386522293, 0.3503132164478302, 0.03160065412521362, 0.002325147856026888, -0.03610726073384285, -0.012841821648180485, 0.02295200526714325, -0.03470604121685028, -0.03944128006696701, 0.042674556374549866, -0.013029469177126884, -0.003204964566975832, -0.03231457993388176, 0.013779024593532085, 0.018091846257448196, -0.032311275601387024, -0.05027005448937416, 0.071041539311409, 0.013945589773356915, -0.064337819814682, 0.02653486467897892, -0.009614056907594204, -0.023709407076239586, 0.015382129698991776, 0.06266891211271286, -0.0028300632257014513, -0.07663711160421371, 0.0035095924977213144, 0.05577618628740311, 0.11185909807682037, 0.0004536813357844949, 0.025884918868541718, -0.011720753274857998, -0.06404730677604675, -0.038813136518001556, -0.007666944060474634, 0.024907927960157394, 0.0036887445021420717, 0.050555091351270676, 0.05991937220096588, 0.01720508188009262, 0.09927397966384888, -0.07494246959686279, -0.04433654248714447, -0.060457587242126465, -0.05449633300304413, -0.00654344167560339, 0.04770568385720253, -0.011581091210246086, 0.036028534173965454, -0.0050229826010763645, -0.05367637425661087, -0.05657355114817619, 0.043218690901994705, -0.004252632614225149, -0.022732773795723915, -0.04643382877111435, 0.0003909441293217242, 0.018218640238046646, 0.017286885529756546, -0.007896906696259975, -0.011419222690165043, 0.043001897633075714, -0.017875123769044876, -0.03399631753563881, 0.10045371949672699, -0.01903463713824749, -0.0662103146314621, -0.031037017703056335, -0.05382854864001274, -0.07239638268947601, 0.047117363661527634, -0.06461425125598907, 0.016488533467054367, -0.054051145911216736, 0.0163690485060215, 0.11212853342294693, -0.029974447563290596, -0.05593348294496536, 0.040929313749074936, -0.023179884999990463, -0.01827465184032917, 0.033896926790475845, 0.059065815061330795, -0.06901733577251434, 0.039745405316352844, 0.045223820954561234, -0.04444887116551399, -0.017943143844604492, 0.01658659242093563, -0.00877274852246046, -0.02388259768486023, -0.0527193620800972, 0.03218422457575798, -0.056531600654125214, -0.04418061673641205, 0.03707894682884216, 0.009532930329442024, 0.010055884718894958, 0.05139927566051483, 0.048504721373319626, 0.017136061564087868, 0.06369153410196304, 0.021895654499530792, -0.06858857721090317, 0.033979665488004684, 0.003267312655225396, 0.007368556689471006, -0.006978502497076988, 0.020917290821671486, 0.006380967330187559, 0.00782478041946888, 0.04125344380736351, 0.010517638176679611, 0.04219886660575867, 0.04848911985754967, -0.03135378658771515, -0.007633451372385025, -0.02136329934000969, 0.08676488697528839, 0.00043079475290142, -0.011076576076447964, 0.003908319864422083, 0.030200963839888573, -0.01611703261733055, -0.3130135238170624, 0.01453337911516428, -0.0008602919988334179, -0.027768587693572044, -0.021645817905664444, 0.0013787451898679137, 0.10033639520406723, 0.004126240964978933, -0.029871147125959396, 0.0793735682964325, 0.010377652011811733, -0.06484884768724442, 0.016037002205848694, -0.011652552522718906, 0.028849080204963684, 0.0007735718390904367, -0.015427126549184322, 0.036297813057899475, 0.06161952391266823, 0.025313150137662888, -0.0009757454972714186, 0.020169880241155624, 0.030205165967345238, -0.05611573904752731, 0.05643375217914581, 0.012750865891575813, 0.14583684504032135, -0.042093269526958466, -0.01619592308998108, -0.05802290141582489, 0.04780125990509987, -0.01614031381905079, -0.018734218552708626, 0.023065656423568726, 0.010927657596766949, 0.0037794203963130713, 0.03684734180569649, 0.07639765739440918, -0.019321773201227188, -0.03333299979567528, -0.006515017244964838, 0.028163500130176544, -0.04300156980752945, -0.05400697514414787, 0.001559718162752688, -0.004398648161441088, 0.004406191408634186, 0.07371930778026581, -0.08324263244867325, 0.02966233156621456, -0.008858722634613514, -0.04551123455166817, 0.00767856277525425, 0.029591035097837448, 0.08299057930707932, -0.038281261920928955, -0.04462232068181038, -0.006710282992571592, -0.04461092874407768, -0.019341928884387016, 0.048465706408023834, -0.025844130665063858, 0.016030840575695038, -0.0038344315253198147, 0.05478573963046074, -0.04123500734567642, 0.04827849566936493, 0.009170804172754288, -0.049878980964422226, 0.012549184262752533, -0.02003285102546215, -0.02113165333867073, -0.026111900806427002, 0.016602054238319397, 0.024394303560256958, 0.030530061572790146, -0.028604360297322273, 0.04989831894636154, -0.052839670330286026, 0.0012806459562852979, 0.02006075158715248, 0.08015657216310501, 0.000700986769516021, -0.005571074318140745, 0.03022303618490696, -0.03376314043998718, -0.019159825518727303, 0.03622766211628914, -0.017057346180081367, -0.06415930390357971, -0.07494761794805527, -0.040725670754909515, -0.09145712852478027, 0.039983611553907394, 0.033365070819854736, 0.00495136110112071, -0.2697663903236389, -0.0027250065468251705, -0.006528607103973627, 0.018016494810581207, -0.029056323692202568, 0.05127342790365219, -0.0022201177198439837, 0.03901810571551323, -0.05302664637565613, 0.004743390250951052, 0.015193160623311996, 0.0160328671336174, 7.327413914026693e-05, -0.03948525711894035, -0.0008411739836446941, -0.015218690037727356, 0.03476804494857788, -0.03255799785256386, 0.0323185995221138, 0.051566317677497864, 0.023061318323016167, -0.0006457553245127201, 0.15332967042922974, 0.026501551270484924, -0.019855083897709846, 0.0030594675336033106, -0.04693267121911049, 0.04281070828437805, 0.05952158942818642, -0.04043090343475342, -0.07894451171159744, -0.003712267382070422, 0.07399854063987732, -0.017813127487897873, 0.005344725679606199, 0.044341493397951126, 0.017028067260980606, -0.0629740059375763, 0.04719379171729088, 0.003890722058713436, -0.0135429622605443, 0.037895672023296356, -0.07636358588933945, 0.030671847984194756, 0.09210427850484848, 0.013744302093982697, -0.0016079745255410671, -0.04486269876360893, 0.03339202702045441, -0.006675039883702993, -0.028675628826022148, -0.0029694701079279184, 0.028813190758228302, 0.07235176116228104, 0.027431977912783623, 0.02899986319243908, -0.07799647748470306, 0.012352143414318562, -0.02972908690571785, -0.06673216819763184, -0.02029542811214924, -0.016299981623888016, -0.0018122446490451694, -0.014636625535786152, 0.0029016181360930204]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>network_outages_during_power_cuts</t>
+          <t>slow_laggy_internet_speed</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -601,23 +601,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>["Improvement needed: I live semi-rural and cellphone coverage is really patchy. When we have power cuts that's it. Can't use internet on phone so go old school with battery radio to find out what's going on. Not really a One problem but it's an issue that really affects people in the country.\nReason for given NPS: I have had no issues with One and having been with them (and their iterations) from year dot I am very brand loyal."]</t>
+          <t>['Improvement needed: Broadband speed, it continually slows down.\nFaster access to help via phone.\n', 'Improvement needed: the time factor of renewing top up at 11.59 the night before my pension there being I lose all carry over. this time should be 24 hours later. If you did this you would make alot of poor people alot able to keep in touch with loved ones and their health.\nReason for given NPS: delay in receiving txt messages', 'Improvement needed: Your connectivity\nReason for given NPS: There are a few things need sorting with our internet and phone connection. Bad weather can affect coverage and often connections will drop out unexpectantly', "Improvement needed: I think costs have risen service is no better the app and website arnt usable. Reception is poor in our house and the modem drops out. I'd be happier if 10$ less a month frankly\nReason for given NPS: Reception cover poor vs spark", 'Improvement needed: connection through the modem, from one room to the next in my house it drops out. and when following up with concerns the comms over the phone many atimes there has been a slight language barrier which does not help the comms to move forward after lengthy waiting.\nReason for given NPS: connection is terrible']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.02828739769756794, 0.006221442949026823, 0.0638699159026146, -0.005292349029332399, 0.017584936693310738, -0.023335784673690796, -0.049138907343149185, 0.027251817286014557, 0.06679662317037582, -0.06389492005109787, 0.040846437215805054, -0.009784122928977013, 0.04524732381105423, 0.02778470516204834, -0.012868803925812244, 0.0029860197100788355, 0.05156407505273819, -0.033213332295417786, -0.02389036864042282, 0.03343330696225166, 0.01329912431538105, -0.06340193003416061, -0.004225555807352066, 0.018067048862576485, 0.013744371943175793, 0.0007178648957051337, 0.0263021532446146, -0.04627197980880737, -0.0802566260099411, -0.1338840126991272, 4.4546999561134726e-05, -0.010335073806345463, 0.00752334063872695, -0.0011937373783439398, 0.08542967587709427, -0.026357755064964294, 0.007288869936019182, -0.023141855373978615, -0.04168527200818062, 0.013779492117464542, 0.05409455671906471, -0.017919152975082397, -0.056147582828998566, -0.051207348704338074, -0.037693895399570465, -0.04713866487145424, 0.069304920732975, -0.010763736441731453, 0.09674020111560822, -0.05947699397802353, 0.010377984493970871, -0.0022815598640590906, 0.008920454420149326, 0.07095985114574432, 0.03994850814342499, 0.00556023558601737, 0.03173432499170303, 0.09441071003675461, 0.09404286742210388, 0.0414724163711071, 0.024576310068368912, 0.03233249485492706, -0.1489640325307846, -0.0006686439737677574, 0.04451804235577583, -0.0724821388721466, -0.0017866024281829596, -0.017433296889066696, 0.046898920089006424, 0.00769134983420372, -0.06477826088666916, -0.014520132914185524, -0.016742125153541565, 0.08747122436761856, -0.015007877722382545, 0.07428552955389023, -0.04146868363022804, 0.05886353179812431, -0.027326690033078194, 0.015432938933372498, -0.0033083611633628607, -0.02995077520608902, -0.014052711427211761, 0.027222977951169014, -0.022102611139416695, -0.03051290661096573, 0.004743577912449837, 0.016681402921676636, -0.017220402136445045, -0.01182712521404028, -0.0702047199010849, 0.03654705360531807, 0.0662018209695816, 0.054991789162158966, -0.0917050838470459, -0.03629979118704796, 0.020445073023438454, -0.014901276677846909, -0.05655324459075928, 0.35516557097435, -0.009781894274055958, -0.03679401054978371, 0.02515663020312786, 0.0560770146548748, 0.030724002048373222, -0.03247373551130295, 0.0408756285905838, -0.0300398301333189, -0.08752866089344025, 0.029936213046312332, -0.0017939117969945073, -0.052585113793611526, 0.026889614760875702, -0.008687342517077923, 0.10056241601705551, 0.014093826524913311, -0.004495724104344845, 0.011696066707372665, -0.05595165118575096, 0.002301071537658572, -0.0676301121711731, 0.05058715492486954, 0.0449523888528347, -0.008976800367236137, 0.07787954807281494, 0.008666717447340488, 0.047435957938432693, 0.09540589153766632, -0.007301926147192717, 0.006211494095623493, 0.0017432936001569033, -0.02552458643913269, 0.020899970084428787, 0.008993173949420452, 0.013212324120104313, -0.015239744447171688, 0.05615280568599701, -0.027773194015026093, -0.01786872185766697, -0.0013801121385768056, 0.06810273975133896, -0.008690816350281239, -0.012757798656821251, -0.053555745631456375, 0.03861434385180473, 0.04842543974518776, -0.026645764708518982, 0.08470482379198074, -0.017129210755228996, -0.10569603741168976, -0.029371481388807297, 0.026453359052538872, 0.014037915505468845, -0.0413922481238842, -0.0064810579642653465, 0.0824827179312706, 0.05110597983002663, -0.005664808209985495, 0.028046729043126106, -0.012541157193481922, -0.000848063500598073, -0.02261091209948063, -0.059173833578825, 0.030315343290567398, -0.0067427633330225945, -0.01322239451110363, -0.011639260686933994, -0.027978044003248215, -0.08720066398382187, 0.028345521539449692, -0.046481791883707047, -0.0028573297895491123, 0.009664525277912617, -0.0389101579785347, 0.02780858799815178, -0.00979798473417759, 0.0038781994953751564, -0.043243154883384705, -0.06135083734989166, 0.012768053449690342, 0.0008565336465835571, 0.03868213668465614, -0.00046151538845151663, 0.0027678695041686296, -0.02546166256070137, -0.008027518168091774, 0.0010270349448546767, -0.011843543499708176, 0.03740554675459862, -0.026824645698070526, -0.16472823917865753, -0.07129723578691483, -0.00010075824684463441, -0.04362816736102104, -0.027868539094924927, 0.0029139569960534573, 0.003554047318175435, -0.0037408319767564535, -0.0071104890666902065, -0.022199023514986038, 0.10176007449626923, -0.0014957538805902004, -0.006254350766539574, 0.006757369264960289, -0.06825343519449234, 0.0482642836868763, -0.07217059284448624, 0.011032111011445522, -0.0016334585379809141, -0.052102264016866684, 0.02317764423787594, -0.03433636203408241, 0.10728581994771957, 0.012632601894438267, -0.0292972419410944, 0.0057678972370922565, 0.0005911316256970167, 0.06961380690336227, 0.0009144821669906378, 0.02506440132856369, 0.04824386164546013, 0.04236813634634018, -0.021679753437638283, -0.2756405472755432, 0.010581828653812408, -0.05074235424399376, -0.07669814676046371, -0.02254815399646759, -0.018844429403543472, -0.015059429220855236, -0.06375350803136826, -0.028168637305498123, 0.04702911153435707, 0.06528981775045395, 0.0466003343462944, -0.006038169842213392, -0.047148458659648895, 0.028136663138866425, 0.006693247705698013, -0.02294148877263069, -0.024805312976241112, -0.10246308147907257, 0.03121582232415676, -0.01252292562276125, -0.0012929418589919806, -0.0034441726747900248, -0.0773133710026741, -0.014312846586108208, 0.007126815151423216, 0.13224010169506073, -0.033349063247442245, 0.055429331958293915, -0.050133466720581055, 0.013774215243756771, 0.101681649684906, -0.012449409812688828, -0.08103041350841522, -0.001855414011515677, 0.044088080525398254, 0.06220150366425514, 0.04397819936275482, 0.004295854829251766, 0.028270244598388672, -0.038536664098501205, 0.06562623381614685, 0.008635435253381729, -0.032057732343673706, 0.06840042024850845, -0.04241732880473137, 0.011934548616409302, 0.024666287004947662, -0.052815116941928864, -0.036382753401994705, 0.04849237576127052, -0.05528390407562256, 0.01854010485112667, 0.010215005837380886, 0.0718306452035904, -0.010008931159973145, -0.053424108773469925, 0.0543244443833828, -0.007963690906763077, -0.058073703199625015, 0.027981005609035492, -0.005316370632499456, 0.008981355465948582, -0.07688549160957336, 0.1142301857471466, -0.016820279881358147, 0.011704674921929836, 0.01742830127477646, 0.001184098538942635, 0.05355314165353775, -0.03863096609711647, 0.024979785084724426, -0.0007862154161557555, 0.024686133489012718, 0.02968571148812771, -0.019437463954091072, -0.01028303150087595, -0.05406275391578674, -0.021435348317027092, -0.03833429142832756, 0.07056254893541336, -0.08940818160772324, 0.013742009177803993, 0.00901896134018898, 0.010516156442463398, 0.013415798544883728, -0.011871705763041973, 0.07273940742015839, 0.06048651784658432, -0.013601718470454216, -0.020692110061645508, 0.022531108930706978, 0.003637410933151841, -0.00887085311114788, 0.0918169841170311, 0.018277378752827644, -0.22491683065891266, 0.056256163865327835, 0.01998388022184372, -0.04668153449892998, 0.006847412791103125, 0.0467604361474514, -0.015930701047182083, 0.04080989211797714, -0.05719718337059021, 0.024291975423693657, -0.08931660652160645, 0.001068960060365498, -0.028337711468338966, -0.017038049176335335, 0.007520166225731373, 0.05484086647629738, 0.02295885980129242, -0.04235624149441719, 0.0034310000482946634, 0.007836475968360901, 0.011222536675632, -0.028056642040610313, 0.09991059452295303, -0.0987415686249733, 0.08074916899204254, 0.030321497470140457, -0.016179636120796204, 0.026675907894968987, 0.054709263145923615, -0.0024582541082054377, -0.00705313915386796, -0.006955720018595457, 0.025237685069441795, -0.030214935541152954, 0.04291989281773567, 0.017566418275237083, 0.013684575445950031, 0.01018261443823576, 0.02041637897491455, -0.03997552767395973, -0.038769517093896866, 0.03333999216556549, -0.0005625914200209081, -0.016560252755880356, 0.05802484229207039, -0.022602897137403488, -0.011058484204113483, -0.0701795369386673, 0.07077734172344208, 0.03466177359223366, -0.026315264403820038, -0.012704916298389435, 0.04235745593905449, 0.017108341678977013, -0.015090246684849262, -0.003462514840066433, -0.039395522326231, -0.0004999925149604678, -0.005695550702512264, -0.0527837872505188, 0.028508733958005905, -0.05580633506178856, 0.008077427744865417, -0.08565828204154968, 0.009227579459547997]</t>
+          <t>[-0.0801982507109642, -0.027767203748226166, 0.015155891887843609, 0.03182840347290039, 0.03357350826263428, -0.028189750388264656, -0.044266097247600555, 0.017470484599471092, 0.0640135258436203, -0.032538216561079025, 0.05355599895119667, -0.008870904333889484, 0.078984834253788, -0.017284179106354713, 0.04174484312534332, 0.023218045011162758, 0.08041729032993317, -0.08589982241392136, -0.010811691172420979, -0.007861385121941566, 0.05617240443825722, 0.023486871272325516, 0.043687425553798676, -0.023841938003897667, -0.03594708442687988, -0.009951788932085037, -0.022744808346033096, -0.0440763495862484, -0.08470822125673294, -0.06927742809057236, 0.01109669916331768, -0.03075023554265499, 0.008664716966450214, 0.06918327510356903, 0.01344604603946209, -0.05737841874361038, -0.006465504877269268, 0.02996242046356201, -0.05035591125488281, 0.042282745242118835, -0.0009055581758730114, 0.04410697892308235, -0.07750954478979111, -0.022756721824407578, 0.019639350473880768, -0.011792137287557125, 0.05857397988438606, 0.014939813874661922, 0.11047986894845963, -0.021942880004644394, -0.0745895653963089, 0.03409113734960556, 0.020305020734667778, 0.010160353034734726, 0.057868730276823044, 0.0035262343008071184, 0.033861953765153885, 0.0367639921605587, 0.0650106817483902, 0.009868516586720943, 0.02593124471604824, 0.006267102435231209, -0.13065926730632782, 0.06614751368761063, 0.052992597222328186, 0.0007221635896712542, -0.019725631922483444, -0.00873181689530611, -0.04485108330845833, -0.02807769551873207, -0.07005932927131653, 0.050680097192525864, -0.00792727991938591, 0.13108177483081818, 0.008512823842465878, 0.06523445248603821, -0.04464470595121384, 0.01579364202916622, 0.006285971961915493, 0.04682596027851105, 0.053183749318122864, -0.02076205611228943, -0.06857962161302567, -0.06818216294050217, 0.006016189698129892, -0.08997243642807007, -0.002464093966409564, 0.028664857149124146, 0.01697884313762188, -0.034010693430900574, -0.04324867203831673, 0.008396518416702747, 0.029247842729091644, 0.06153450533747673, -0.043821923434734344, -0.008320513181388378, -0.015447464771568775, -9.773136116564274e-05, -0.03685367479920387, 0.31859058141708374, -0.031235724687576294, 0.007165946532040834, 0.07163512706756592, 0.04317784309387207, 0.08755945414304733, -0.021765902638435364, 0.010655337944626808, -0.04192955791950226, -0.01364629901945591, 0.05494055524468422, 0.004625866189599037, -0.04215696454048157, 0.04645216464996338, 0.013072734698653221, 0.04409952834248543, -0.014391574077308178, -0.018616028130054474, -0.010732501745223999, -0.05254305899143219, 0.06466857343912125, -0.020431285724043846, -0.0035857621114701033, 0.020938841626048088, -0.026758849620819092, 0.09924786537885666, -0.021095072850584984, 0.00735944788902998, 0.1248108521103859, 4.128399450564757e-05, 0.05778954178094864, -0.01249556615948677, -0.0054400316439569, 0.00945194996893406, 0.0059372601099312305, -0.01702803373336792, 0.015972036868333817, 0.017865942791104317, -0.010884406976401806, -0.012564652599394321, -0.005638240836560726, -0.07462023943662643, -0.0647730603814125, 0.0018878909759223461, -0.05650234967470169, 0.0007981546223163605, 0.07771168649196625, 0.04096335917711258, 0.07265637069940567, -0.03702424839138985, -0.0677124410867691, 0.02317502722144127, 0.036050986498594284, 0.028839511796832085, -0.06429439783096313, -0.07616031914949417, -0.013249370269477367, 0.04977193474769592, 0.03998969495296478, 0.010294890031218529, -0.04248553141951561, 0.006817791145294905, -0.07011615484952927, -0.03609433397650719, 0.011009439826011658, -0.009674499742686749, 0.019188662990927696, -0.061277683824300766, -0.01756168343126774, -0.10078419744968414, 0.008053158409893513, -0.03624524176120758, 0.002220914466306567, -0.01869359239935875, -0.005807152949273586, 0.0588320754468441, -0.03877684846520424, -0.0013786462368443608, 0.01743130013346672, -0.06435734778642654, -0.04284723475575447, 0.05214832350611687, 0.020333092659711838, -0.056571535766124725, 0.02507680095732212, 0.016896545886993408, -0.030044231563806534, -0.03416071832180023, -0.01786729134619236, 0.05408969521522522, -0.03819301351904869, -0.08033278584480286, -0.12620672583580017, -0.027732321992516518, -0.07530835270881653, -0.03253932669758797, -0.020313024520874023, 0.01595800556242466, -0.013282609172165394, 0.043030064553022385, -0.046797625720500946, 0.14084509015083313, -0.03430602326989174, -0.010854631662368774, 0.007701383903622627, -0.07771071046590805, 0.01037590391933918, -0.025010358542203903, -0.05314043164253235, 0.022779345512390137, -0.004429200664162636, -0.004991232417523861, -0.09001719951629639, 0.04589928314089775, 0.012342614121735096, -0.02706025168299675, 0.0014653708785772324, -0.003121880115941167, 0.08448977768421173, 0.011357035487890244, 0.06735669821500778, -0.02141190692782402, 0.03102598339319229, -0.07179306447505951, -0.27443885803222656, -0.013749160803854465, -0.021526699885725975, 0.009654838591814041, 0.011563320644199848, -0.022454863414168358, -0.04640152305364609, 0.03544342890381813, 0.08580463379621506, 0.06598511338233948, 0.009450158104300499, 0.005041227675974369, 0.042334798723459244, -0.04505913704633713, -0.024603432044386864, 0.001471825409680605, 0.006560007110238075, 0.06633290648460388, 0.004642936866730452, 0.020584842190146446, -0.0014018500223755836, 0.030851928517222404, 0.010120470076799393, -0.051530834287405014, 6.416683754650876e-05, -0.01739087514579296, 0.12381783872842789, -0.037716206163167953, 0.0316556841135025, -0.08657072484493256, 0.07953574508428574, 0.1003408208489418, -0.012403042055666447, -0.07121021300554276, -0.03160512447357178, 0.06807619333267212, 0.11558637768030167, 0.02614453434944153, -0.058728959411382675, -0.0029455532785505056, -0.10132718086242676, 0.04780064895749092, 0.03602154180407524, -0.018414197489619255, -0.028602339327335358, -0.004717869684100151, 0.004180281423032284, 0.006880132481455803, -0.07384346425533295, -0.017028138041496277, -0.00016888203390408307, -0.03620564565062523, 0.06211603432893753, 0.011779033578932285, 0.04810123145580292, 0.008756951428949833, -0.023316098377108574, 0.016487551853060722, -0.016830172389745712, -0.009265637025237083, 0.024926090613007545, 0.0008305919473059475, 0.05447789281606674, -0.06714895367622375, 0.09683553129434586, -0.03194258734583855, -0.01771576516330242, -0.036997754126787186, 0.008271493017673492, 0.03486909344792366, 0.01632056199014187, 0.04367872327566147, -0.04903193935751915, 0.05654842033982277, 0.054306261241436005, -0.012738427147269249, -0.022126730531454086, 0.012597821652889252, 0.0255059152841568, -0.04161185771226883, 0.06846753507852554, 0.01254415512084961, 0.051727745682001114, 0.010494998656213284, -0.036365412175655365, -0.055649563670158386, -0.006177007220685482, 0.008947470225393772, -0.01991926319897175, 0.04722048342227936, -0.0241067036986351, -0.01948840543627739, -0.04540713503956795, -0.0059827049262821674, 0.03996407240629196, -0.013492139056324959, -0.24316251277923584, 0.04727834463119507, 0.04581724852323532, -0.01843104511499405, -8.752245048526675e-05, 0.018785355612635612, 0.020948968827724457, -0.0020589479245245457, -0.07626638561487198, 0.0852549821138382, -0.05839748680591583, 0.012515189126133919, -0.052955932915210724, -0.018314726650714874, 0.03068169392645359, 0.009402443654835224, -0.00941783282905817, -0.01626386120915413, -0.016227129846811295, -0.018585816025733948, 0.015291077084839344, -0.027598364278674126, 0.11623168736696243, -0.04308268427848816, 0.030363284051418304, 0.04332193732261658, -0.007546662352979183, 0.05607324466109276, 0.07915537804365158, -0.05692720413208008, -0.05274198576807976, 0.018538450822234154, 0.02605229616165161, -0.03785333037376404, -0.018328776583075523, 0.01557433046400547, 0.028194010257720947, -0.026375040411949158, 0.0008029224700294435, 0.031153056770563126, -0.005655698478221893, 0.07973351329565048, -0.002317356877028942, 0.029825061559677124, 0.022306326776742935, 0.01873241364955902, 0.00513956556096673, -0.02516482025384903, -0.0215153768658638, 0.023719655349850655, -0.04019198939204216, -0.07466360926628113, 0.022575199604034424, 0.031281519681215286, 0.04692346602678299, 0.025797659531235695, -0.014953337609767914, -0.009813734330236912, -0.03130781278014183, -0.037511859089136124, 0.006859591696411371, -0.0875314474105835, -0.005913281347602606, -0.021525731310248375, 0.008982997387647629]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>incorrect_billing_and_payment_issues</t>
+          <t>poor_customer_loyalty_benefits</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -626,23 +626,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['Improvement needed: I want you to improve the WiFi environment. Confirmation of our contract details, resolution of double payment for broadband from October to March of last year, which has not been refunded.\nReason for given NPS: Before I knew it, I had two WiFi contracts, or the payment was not refunded.']</t>
+          <t>['Improvement needed: Rewards - offer to customers, not chances by entering competitions\nLong time royal customers - offer discounts every now and then or some other rewards given to them\nReason for given NPS: One NZ is not offering any better benefits than some other companies', 'Improvement needed: Give more options to make direct debits to come out on weekly or fortnightly options\nMore rewards (such as Spotify or Netflix discounts with the plan)\n', 'Improvement needed: Customer service. Number 2 would be allowing more contract flexibility (ie. allowing us to fix for 24 and 36 months).\nReason for given NPS: Good service, our internet seems to be working well, but we are missing the price advantages of your former partnering with Sky for bundling purposes', 'Improvement needed: Help for older clients in store\nReason for given NPS: 30 years using your service', 'Improvement needed: Providing actual communication about plan options.\nReason for given NPS: I was not informed that I was switched to One. I then got a giant bill that was not adequately explained to me before I was even provided an online login. My rates are not good for a family plan. I am actively seeking another option.']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-0.042122941464185715, -0.057904064655303955, 0.02498077228665352, 0.028470536693930626, -0.025736408308148384, -0.10008919984102249, -0.016103416681289673, 0.01818239875137806, 0.00994587317109108, -0.041737232357263565, 0.018580671399831772, 0.01978502795100212, -0.00790360663086176, 0.01953534036874771, 0.026050899177789688, 0.02614126168191433, 0.06672277301549911, -0.055492207407951355, 0.03773900493979454, 0.059612471610307693, 0.028801824897527695, -0.03475548326969147, -0.001797950710169971, -0.0014364172238856554, -0.0434369295835495, 0.05578428506851196, -0.024175139144062996, -0.0013695675879716873, -0.07281959801912308, -0.1391018182039261, 0.002504928968846798, -0.019284790381789207, 0.00845924112945795, -0.030383847653865814, 0.08452364802360535, -0.03929409012198448, -0.0606481172144413, -0.05449175834655762, 0.031437426805496216, -0.019854752346873283, -0.001724572735838592, 0.01531990710645914, -0.08496157824993134, -0.05358481407165527, 0.01327652856707573, -0.0042653754353523254, 0.03879646211862564, 0.04818781465291977, 0.07641850411891937, -0.013296959921717644, 0.018874408677220345, 0.007181492634117603, 0.014818829484283924, 0.08321245014667511, -0.003997579216957092, 0.0797022357583046, 0.06216350570321083, 0.0692695677280426, 0.03477136418223381, 0.016627922654151917, -0.006166381761431694, 0.012766220606863499, -0.1523565948009491, 0.10622590035200119, -0.0018095491686835885, -0.012456014752388, -0.020646998658776283, -0.010019278153777122, -0.005956071428954601, 0.048968542367219925, -0.03678552806377411, -0.07442262768745422, -0.059170912951231, 0.051922012120485306, 0.06465891748666763, -0.00932102557271719, 0.028582558035850525, 0.027367983013391495, 0.047590069472789764, 0.0410933755338192, -0.028513403609395027, -0.01926303096115589, -0.018262024968862534, 0.0013343131868168712, -0.01770741678774357, -0.08561966568231583, 0.02728024683892727, 0.0405428446829319, 0.031381018459796906, 0.007343468256294727, 0.047237712889909744, -0.02207924798130989, 0.059922415763139725, 0.028102301061153412, -0.0015889015048742294, 0.045090992003679276, -0.02594742551445961, -0.0065222736448049545, -0.10235710442066193, 0.3324856460094452, 0.061106372624635696, 0.07345190644264221, 0.0040690223686397076, 0.02763989567756653, -0.0021322837565094233, -0.05464719980955124, -0.051812052726745605, 0.03789933770895004, -0.03810954838991165, -0.020719308406114578, -0.0534222237765789, 0.0009581531630828977, 0.06795909255743027, -0.0467296727001667, -0.030095187947154045, 0.07376518100500107, -0.002882786560803652, -0.021550253033638, 0.019509291276335716, -0.034338369965553284, 0.027155309915542603, 0.014707975089550018, -0.020477019250392914, -0.02788837067782879, -0.07600998878479004, -0.046800363808870316, 0.006181459873914719, 0.10519302636384964, -0.055429887026548386, 0.029007168486714363, 0.01426024455577135, -0.010126632638275623, -0.02742808870971203, -0.026684900745749474, 0.0025181537494063377, 0.008883761242032051, 0.0117619214579463, 0.037488460540771484, 0.05357525870203972, 0.02657272480428219, -0.03843782842159271, -0.05167035758495331, -0.10157187283039093, -0.03141222149133682, -0.031697604805231094, 0.06048063561320305, -0.0002918659010902047, 0.05835371091961861, 0.043906960636377335, -0.05260026454925537, -0.05551603436470032, -0.015238311141729355, -0.011597780510783195, -0.04115881398320198, -0.010593760758638382, 0.026936059817671776, 0.05211586132645607, -0.02579844370484352, -0.016565291211009026, -0.019850781187415123, 0.09717205166816711, -0.0337725467979908, -0.05447114259004593, 0.11681380867958069, 0.01479336153715849, -0.059618592262268066, 0.01786353439092636, -0.014779414050281048, -0.04841091111302376, 0.0052843415178358555, -0.04416108876466751, 0.033140674233436584, -0.024849193170666695, -0.024226242676377296, 0.09149648994207382, -0.048475492745637894, -0.019329555332660675, 0.04807068407535553, -0.013142508454620838, -0.037683214992284775, 0.02774902805685997, 0.036267004907131195, -0.04044444486498833, -0.0353742279112339, 0.05728359892964363, -0.06604532897472382, -0.042436838150024414, -0.03238748759031296, 0.023464186117053032, -0.041187163442373276, 0.0005895880749449134, -0.0932617336511612, -0.05611879751086235, -0.023009398952126503, -0.00722480658441782, -0.025158453732728958, -0.01566266641020775, 0.0015193626750260592, 0.049642689526081085, 0.003331259125843644, 0.11801586300134659, 0.017359379678964615, 0.016548508778214455, 0.008044539950788021, -0.00036964198807254434, 0.0722552016377449, -0.013963263481855392, -0.030853791162371635, -0.006913170684129, -0.03685354068875313, 0.01484284270554781, 0.06896009296178818, 0.0442223995923996, -0.006238038185983896, -0.014372875913977623, 0.03296712040901184, 0.012825967743992805, 0.058179356157779694, 0.001953813713043928, 0.03037511371076107, -0.021916236728429794, 0.0344262532889843, 0.09653706103563309, -0.2620781362056732, 0.04539687559008598, -0.0069428798742592335, -0.03396677225828171, -0.09566309303045273, -0.017677905037999153, 0.0525134913623333, -0.04048265889286995, -0.025013133883476257, 0.174843892455101, 0.02067767083644867, 0.02484138496220112, 0.054785214364528656, -0.08262322098016739, 0.014535254798829556, 0.05891505628824234, -3.3799460652517155e-05, 0.051656268537044525, -0.00889612827450037, 0.030848901718854904, -0.08674348145723343, -0.012119102291762829, 0.030567770823836327, -0.035492900758981705, 0.015853699296712875, 0.07090455293655396, 0.16799241304397583, 0.04409215599298477, -0.09053601324558258, -0.02097976580262184, 0.056914884597063065, 0.028843369334936142, 0.020105529576539993, -0.08775624632835388, 0.07705054432153702, 0.04654242470860481, -0.013871362432837486, -0.0011970946798101068, 0.007211626041680574, -0.056570883840322495, 0.00114756403490901, 0.02961675450205803, -0.01250770315527916, 0.023156726732850075, 0.023353204131126404, 0.07539692521095276, -0.08512696623802185, 0.024653976783156395, -0.022318381816148758, 0.010667745023965836, -0.02937454544007778, -0.050697751343250275, -0.014492958784103394, 0.04084384813904762, 0.06504667550325394, -0.02175830863416195, -0.03854866698384285, 0.007860147394239902, -0.0237714946269989, -0.010988150723278522, 0.030465995892882347, -0.0702630952000618, 0.061383187770843506, -0.026214689016342163, 0.050268176943063736, -0.02036861889064312, -0.03328285738825798, -0.010398419573903084, 0.014600544236600399, 0.01728396862745285, -0.014301939867436886, -0.012415518052875996, 0.009412851184606552, 0.010188492946326733, 0.012920668348670006, -0.012604922987520695, 0.05838191136717796, -0.02681981958448887, 0.0344884879887104, -0.0577058345079422, -0.008010786958038807, -0.019334593787789345, 0.07063203305006027, -0.005374186206609011, -0.0006022516172379255, 0.0056389146484434605, 0.0036185765638947487, -0.005265285726636648, 0.047827593982219696, -0.08600844442844391, -0.03513336926698685, 0.0011320706689730287, -0.04227327182888985, 0.059186480939388275, 0.02438083291053772, 0.01400820817798376, -0.19878531992435455, -0.008626667782664299, -0.029757265001535416, -0.027433447539806366, -0.03298819810152054, 0.03592344745993614, -0.01089665200561285, -0.010380727238953114, -0.05464325472712517, -0.07634320110082626, -0.004706560634076595, 0.010985061526298523, -0.02536332793533802, -0.042109813541173935, 0.023129327222704887, 0.025747889652848244, 0.018725404515862465, -0.025045474991202354, 0.004660398233681917, -0.017415303736925125, 0.03396633639931679, 0.02850286476314068, 0.10049045830965042, -0.012868532910943031, -0.04851933568716049, -0.03081233613193035, 0.020229553803801537, 0.08482072502374649, 0.03758580982685089, 0.03213614225387573, -0.10685721039772034, -7.995154737727717e-05, 0.08197537064552307, -0.022961163893342018, 0.007585069164633751, -0.0008930568001233041, -0.00799099262803793, -0.053147945553064346, 0.00744019728153944, 0.017153402790427208, -0.05965276062488556, 0.019279854372143745, -0.03383447602391243, 0.02097424305975437, 0.013972627930343151, 0.027737483382225037, 0.008242380805313587, -0.004465626087039709, 0.021901322528719902, 0.06426883488893509, -0.035603489726781845, -0.05648190528154373, 0.012025315314531326, 0.059880126267671585, -0.01160337496548891, 0.03516402840614319, -0.07098458707332611, -0.01640482246875763, -0.02779194340109825, -0.037635885179042816, 0.008378305472433567, -0.016007911413908005, -0.005030899774283171, -0.003117532003670931, -0.06312967836856842]</t>
+          <t>[-0.03500789776444435, -0.013136548921465874, 0.01451276708394289, 0.016686007380485535, -0.025990376248955727, -0.05499196797609329, 0.05366334319114685, 0.0547175295650959, 0.08706208318471909, -0.027469580993056297, 0.01646525226533413, 0.03201144561171532, 0.020007433369755745, -0.038816310465335846, 0.02154911309480667, -0.012605525553226471, 0.07210735231637955, 0.002654175041243434, -0.0922902375459671, 0.03268313407897949, 0.014942361041903496, -0.09127337485551834, -0.015891432762145996, 0.01949063129723072, 0.04919206723570824, -0.03743570297956467, -0.04259343445301056, -0.008029983378946781, -0.0863228440284729, -0.06797879934310913, -0.00804076436907053, -0.020348461344838142, 0.07136396318674088, 0.043254509568214417, 0.027106085792183876, -0.022403590381145477, -0.04747655615210533, -0.011678465642035007, -0.009267429821193218, 0.03876039385795593, -0.0019399530719965696, -0.008279519155621529, -0.03988974913954735, 0.04140959680080414, 0.015245648100972176, -0.06371437758207321, 0.015602060593664646, -0.017058515921235085, 0.06345786899328232, -0.07478861510753632, 0.03870878741145134, 0.005196399986743927, -0.048358622938394547, 0.03183935210108757, 0.007236005272716284, 0.020025547593832016, 0.018272370100021362, 0.02884572371840477, -0.016365377232432365, -0.005123524460941553, 0.03187587112188339, -0.052846167236566544, -0.1380872130393982, 0.007007339969277382, -0.037827689200639725, 0.02396196313202381, -0.040312234312295914, -0.024980559945106506, -0.09488432854413986, 0.0025334805250167847, -0.016777241602540016, -0.043767981231212616, -0.021416544914245605, 0.00650617154315114, 0.007959691807627678, 0.06361693143844604, 0.03470652177929878, -0.013494384475052357, -0.03867166489362717, 0.034972935914993286, 0.07300642877817154, -0.0033218448515981436, -0.002385037951171398, 0.025413505733013153, 0.021980203688144684, -0.051715388894081116, 0.012116343714296818, -0.0656442642211914, 0.029473530128598213, 0.006412513088434935, 0.042723897844552994, 0.036743588745594025, -0.014345265924930573, -0.0037552572321146727, -0.08248194307088852, -0.028195366263389587, 0.011920942924916744, -0.016210220754146576, -0.09409473091363907, 0.3638712167739868, 0.02290426753461361, 0.04917753487825394, 0.014966036193072796, -0.020866617560386658, 0.042212214320898056, -0.02711951732635498, -0.027895905077457428, 0.01094862911850214, -0.015031451359391212, -0.03902200981974602, -0.012064636684954166, 0.016255808994174004, 0.0205687303096056, -0.013780518434941769, 0.008903741836547852, 0.03666931763291359, 0.0006378202233463526, 0.00539796706289053, 0.0105406753718853, 0.0508124865591526, -0.03212471678853035, 0.0037217794451862574, 0.0243214201182127, 0.04951111972332001, -0.014179886318743229, -0.028221411630511284, 0.036451555788517, 0.10601126402616501, -0.024542897939682007, 0.0303863063454628, 0.000485854601720348, -0.051070116460323334, 0.03533368185162544, 0.020062370225787163, 0.008656471036374569, -0.016941798850893974, -0.038059648126363754, 0.04682893306016922, 0.039934005588293076, 0.062243957072496414, 0.04152553901076317, -0.03790867328643799, -0.02036442793905735, -0.10340932011604309, 0.007285144180059433, 0.08314651250839233, 0.07348483800888062, 0.03613152354955673, -0.04681631922721863, 0.0005874846247024834, -0.0006635158788412809, 0.026102202013134956, -0.0003305440186522901, -0.03300923481583595, -0.00714595802128315, -0.028126448392868042, -0.020711353048682213, 0.0008258579182438552, -0.05074985325336456, 0.02794567495584488, 0.08335394412279129, -0.04377972334623337, -0.025935526937246323, 0.029562445357441902, 0.033124200999736786, -0.06717465817928314, 0.03461529687047005, -0.0028239020612090826, -0.01970554329454899, 0.0038487021811306477, -9.182879148283973e-05, 0.022508664056658745, -0.0561697855591774, -0.018406827002763748, 0.10205201804637909, 0.0040379478596150875, 0.0029155206866562366, -0.023118624463677406, -0.056562475860118866, 0.0024848056491464376, 0.019426915794610977, 0.039573196321725845, -0.03784402832388878, -0.025518149137496948, -0.010527311824262142, 0.03191744536161423, -0.04054258391261101, 0.008816004730761051, -0.015998104587197304, 0.005065739154815674, -0.06099635735154152, -0.04486580193042755, -0.10280865430831909, -0.02454034984111786, 0.0076933614909648895, -0.044834114611148834, -0.0640677809715271, -0.03385477140545845, 0.011514699086546898, 0.014601652510464191, 0.013201192952692509, -0.04842352494597435, -0.05412862449884415, -0.025096237659454346, -0.00935959443449974, 0.057669591158628464, 0.03657042607665062, -0.02478647045791149, 0.06762740761041641, -0.024639848619699478, -0.027470745146274567, 0.014579498209059238, 0.04128989949822426, 0.06016279384493828, -0.023759683594107628, 0.011536922305822372, 0.08788559585809708, 0.05986989289522171, 0.03122127428650856, -0.0588822066783905, 0.028252936899662018, 0.09624754637479782, 0.010231551714241505, -0.28016769886016846, 0.04193061217665672, -0.039777353405952454, 0.016178587451577187, -0.03096093237400055, 0.021039897575974464, -0.00965565163642168, -0.014111987315118313, 0.05352766439318657, -0.0019820155575871468, 0.10043398290872574, -0.046549130231142044, 0.014388608746230602, 0.011537226848304272, 0.018789062276482582, 0.008758503943681717, -0.02224145643413067, 0.06195836886763573, 0.033602047711610794, -0.011584426276385784, -0.006118068005889654, 0.04711092263460159, 0.07834005355834961, -0.07196886092424393, 0.09564219415187836, 0.006910095922648907, 0.13236261904239655, 0.0014174255775287747, -0.058314528316259384, -0.02576351724565029, -0.025304380804300308, 0.09449222683906555, 0.007564447354525328, -0.06466203927993774, 0.042851775884628296, 0.003429786069318652, -0.022491825744509697, -0.014606832526624203, -0.03228648379445076, -0.07476796209812164, -0.030664972960948944, 0.04380280151963234, 0.002003689529374242, -0.04352335259318352, -0.0009259923826903105, -0.03543630987405777, 0.022902199998497963, 0.06506402045488358, -0.09655306488275528, 0.07025454938411713, 0.02192901447415352, 0.01938221976161003, 0.031119555234909058, 0.061983224004507065, 0.07934355735778809, -0.003363673109561205, -0.049847714602947235, 0.05485149472951889, -0.026584941893815994, 0.03006829135119915, -0.03074304200708866, -0.02078704908490181, 0.06198451668024063, -0.06603817641735077, 0.007515698671340942, -0.035687416791915894, 0.021101554855704308, 0.020492836833000183, -0.014761488884687424, 0.060466621071100235, -0.05318713188171387, 0.047781944274902344, -0.042118269950151443, -0.08447656035423279, -0.05569453164935112, -0.0019258654210716486, -0.03885301947593689, -0.01369962003082037, -0.06741809844970703, -0.042466748505830765, 0.044396333396434784, -0.00547008914873004, 0.019465574994683266, -0.001486644265241921, -0.016410840675234795, 0.0395391471683979, 0.024614671245217323, 0.026051513850688934, 0.030688926577568054, -0.020586006343364716, -0.0672430545091629, 0.004789582919329405, -0.02439575456082821, -0.040130313485860825, 0.06770124286413193, 0.026814734563231468, -0.2742465138435364, -0.024286501109600067, -0.06041090562939644, -0.016368959099054337, -0.016775032505393028, 0.04961507394909859, 0.007826295681297779, -0.023106619715690613, -0.0674813911318779, 0.012875284999608994, 0.03807949647307396, 0.04279196262359619, -0.03335801884531975, -0.07439897209405899, 0.059889014810323715, 0.0540686771273613, 0.056371934711933136, -0.034463394433259964, 0.04736600071191788, 0.009234518744051456, -0.006358548067510128, 0.06777774542570114, 0.17059098184108734, 0.024143757298588753, -0.07226590067148209, 0.010463777929544449, -0.012409483082592487, -0.00041776621947064996, -0.03521474823355675, 0.034099869430065155, -0.07783173769712448, 0.004126737359911203, 0.06107446178793907, 0.028295237571001053, 0.005730172153562307, -0.008068505674600601, -0.03541486710309982, -0.09589078277349472, 0.008130474016070366, 0.023701922968029976, -0.016262849792838097, 0.06542810797691345, 0.017887786030769348, -0.0024106805212795734, 0.07733963429927826, -0.01338754128664732, 0.026701539754867554, -0.03311041370034218, 0.026121029630303383, -0.040012579411268234, -0.01695897988975048, -0.018285557627677917, 0.02065415494143963, -0.00165606290102005, 0.020333169028162956, -0.006721526384353638, -0.0897965282201767, -7.669395563425496e-05, 0.04661956802010536, 0.008305426687002182, -0.04284496605396271, 0.0008903489797376096, 0.016741035506129265, 0.01905038021504879, 0.04266887903213501]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>multiple_duplicate_service_subscriptions</t>
+          <t>lack_of_value_added_services</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -651,23 +651,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['Improvement needed: I want you to improve the WiFi environment. Confirmation of our contract details, resolution of double payment for broadband from October to March of last year, which has not been refunded.\nReason for given NPS: Before I knew it, I had two WiFi contracts, or the payment was not refunded.']</t>
+          <t>['Improvement needed: Rewards - offer to customers, not chances by entering competitions\nLong time royal customers - offer discounts every now and then or some other rewards given to them\nReason for given NPS: One NZ is not offering any better benefits than some other companies', 'Improvement needed: I think it would just be more information on certain sectors that you have in your company and the correct contact details for them. You should also look into your insurance policies and the definitions that you have for ALL of your customers\nReason for given NPS: Your services are great and are affordable than other phone service providers i have tried. I like the constant communication with the customer and the convenience of the app too', 'Improvement needed: Providing actual communication about plan options.\nReason for given NPS: I was not informed that I was switched to One. I then got a giant bill that was not adequately explained to me before I was even provided an online login. My rates are not good for a family plan. I am actively seeking another option.', "Improvement needed: Pricing deals for existing customers.\nReason for given NPS: The service provided is great but I feel I'm currently paying a lot for our broadband as our discount ended.", "Improvement needed: Offer more flexible mobile options when travelling overseas. Keep insurance but drop to a much smaller plan. I travel overseas for 9 months of the year but keep paying the same 12GB plan the whole time I'm away as I don't have any other option.\n"]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[-0.03507411852478981, -0.08826989680528641, -0.00831505935639143, -0.015555551275610924, 0.01153699029237032, -0.05421515926718712, -0.06274387985467911, 0.002314612502232194, 0.07856173068284988, -0.010561936534941196, 0.005389542784541845, -0.006138043012470007, 0.029260527342557907, -0.029787970706820488, 0.11236011236906052, -0.014987296424806118, 0.021504413336515427, -0.009100621566176414, -0.03609541431069374, -0.015188540332019329, 0.07677383720874786, -0.060948390513658524, -0.0025059108156710863, -0.011377686634659767, -0.02970213070511818, 0.04301159828901291, -0.06067895516753197, -0.006227601785212755, -0.030277471989393234, -0.14527763426303864, 0.051207058131694794, -0.05581013858318329, -0.060034140944480896, -0.008940145373344421, 0.06336378306150436, -0.047736529260873795, -0.030580028891563416, 0.05849096179008484, 0.0009116983273997903, 0.08441115915775299, 0.017267558723688126, -0.013850954361259937, -0.04878884181380272, -0.005364453420042992, -0.08414135873317719, -0.04081003740429878, -0.026119623333215714, 0.017146583646535873, 0.0942196324467659, 0.005036416929215193, 0.014260796830058098, 0.012416282668709755, -0.02359623648226261, 0.056625042110681534, -0.004938075318932533, 0.04632234945893288, -0.03543303534388542, 0.05323942005634308, -0.014182700775563717, 0.031215619295835495, 0.024068737402558327, 0.0037784806918352842, -0.11738594621419907, 0.07196494936943054, 0.01919831521809101, 0.016110654920339584, 0.00781263504177332, -0.07363072037696838, -0.041289035230875015, -0.001401105197146535, -0.0666717141866684, -0.002216540975496173, -0.046799805015325546, 0.06897284835577011, 0.028001660481095314, 0.032086655497550964, -0.02525608241558075, 0.006295112427324057, -0.04182364419102669, 0.02499891258776188, -0.010665353387594223, -0.03979519009590149, -0.0021770924795418978, 0.004582071676850319, -0.06633955240249634, -0.02158294804394245, 0.023935949429869652, -0.04398142918944359, 0.04925728961825371, 0.03376392647624016, -0.005851598456501961, 0.030059615150094032, 0.09508228302001953, 0.007581901736557484, -0.06887928396463394, -0.02672542631626129, -0.007940026000142097, -0.012696676887571812, -0.04017242044210434, 0.29712939262390137, 0.02198638580739498, -0.004111950285732746, 0.07790739834308624, 0.024728186428546906, -0.014681712724268436, -0.02824345789849758, -0.05218943580985069, -0.014029336161911488, 0.031071821227669716, 0.03419945389032364, -0.03765302896499634, -0.02378210797905922, 0.021427499130368233, -0.12127736210823059, -0.024235695600509644, 0.05770181491971016, -0.008304073475301266, 0.024249283596873283, 0.018158063292503357, -0.012943869456648827, 0.021845892071723938, -0.04960528388619423, 0.05928117409348488, -0.06374609470367432, -0.030872218310832977, -0.010404293425381184, 0.06974996626377106, 0.1099877581000328, -0.03759763389825821, 0.02573513612151146, -0.008357513695955276, 0.00800277665257454, -0.019798504188656807, -0.03991043567657471, 0.007091502193361521, 0.01737985946238041, 0.019080830737948418, 0.011067052371799946, 0.09755541384220123, 0.0910307988524437, -0.012323280796408653, -0.027291996404528618, -0.026012279093265533, -0.03803351894021034, 0.013933539390563965, 0.10096578299999237, 0.0005112506914883852, 0.06725526601076126, -0.011402352713048458, 0.01419779472053051, -0.05460335686802864, 0.05476246029138565, 0.021927090361714363, -0.0379861444234848, 0.0038937919307500124, 0.029511651024222374, 0.052095554769039154, -0.006881834473460913, 0.00206494377925992, 0.0032211793586611748, -0.0031169860158115625, -0.03732633218169212, 0.043772030621767044, 0.11098915338516235, 0.009714195504784584, -0.09384289383888245, 0.02992882952094078, 0.017111605033278465, -0.05282045900821686, 0.04259728640317917, -0.01765449345111847, 0.010287067852914333, -0.003127742325887084, 0.01993613690137863, 0.05169547721743584, 0.019392015412449837, -0.05206691101193428, 0.0026241333689540625, 0.021609872579574585, -0.005204190965741873, -0.015782412141561508, -0.007736030966043472, -0.02631870098412037, 0.015332639217376709, 0.00261130859144032, -0.08778627961874008, -0.016798049211502075, -0.03966418653726578, 0.000937516160774976, -0.053850043565034866, -0.06083079054951668, 0.00902897771447897, -0.028903016820549965, -0.030078256502747536, 0.031901340931653976, 0.005770500749349594, -0.014342007227241993, -0.057354576885700226, 0.10026826709508896, -0.020754145458340645, 0.060908932238817215, -0.03853254020214081, -0.03272335231304169, -0.0082657216116786, -0.02294045500457287, 0.020842265337705612, -0.003930746112018824, 0.02417750470340252, 0.04308007284998894, -0.01330381166189909, -0.010003686882555485, 0.06119886413216591, 0.0006317648803815246, 0.030471807345747948, -0.015806876122951508, 0.0143514946103096, -0.008123472332954407, 0.06362108886241913, 0.04861440137028694, 0.014515622518956661, 0.05538726970553398, 0.0642000064253807, 0.04039216414093971, -0.2510145604610443, -0.040859099477529526, 0.027479760348796844, -0.014778057113289833, -0.05812995880842209, 0.029846465215086937, 0.04896406829357147, 0.04002557322382927, -0.05257432162761688, 0.09294869750738144, 0.06678970158100128, 0.020169267430901527, 0.01609409973025322, -0.03935455158352852, 0.001100390451028943, 0.030625522136688232, -0.007115294691175222, 0.05052989721298218, -0.038916416466236115, -0.0251650121062994, -0.010852222330868244, -0.005925505422055721, 0.1169307753443718, -0.07228809595108032, 0.06490764021873474, 0.033475544303655624, 0.1336321085691452, 0.07077629864215851, -0.06898029148578644, -0.05077670142054558, 0.07406454533338547, 0.0793396383523941, 0.02229541540145874, -0.03159875050187111, -0.03242918848991394, 0.03494403883814812, -0.007697433233261108, 0.020009299740195274, -0.004755731672048569, -0.021182831376791, -0.017559640109539032, 0.04355234652757645, -0.005339651834219694, -0.060583509504795074, 0.014927227981388569, -0.052273474633693695, -0.05268273130059242, 0.0511036179959774, -0.036538686603307724, 0.0019320212304592133, -0.048483166843652725, -0.062481146305799484, -0.0008125280728563666, 0.013692104257643223, 0.04247218742966652, 0.009881476871669292, -0.03642883524298668, 0.019383657723665237, 0.005873308517038822, 0.011312051676213741, -0.0051340870559215546, 0.001198644982650876, 0.019716499373316765, -0.056235700845718384, 0.08083193004131317, 0.00046580430353060365, 0.007628454826772213, 0.04198061674833298, 0.011813570745289326, -0.02138020098209381, -0.021501412615180016, -0.03426462411880493, -0.02321968786418438, 0.027074771001935005, -0.07068853825330734, 0.0008388618007302284, 0.004048212897032499, 0.019214794039726257, -0.040336910635232925, 0.028707297518849373, 0.0337006114423275, 0.0034030580427497625, -0.0019334249664098024, 0.01602465659379959, -0.007836406119167805, -0.004361363127827644, -0.059071458876132965, 0.09495245665311813, 0.05914049968123436, -0.049247343093156815, -0.020422350615262985, 0.047208379954099655, -0.05118256062269211, 0.08276571333408356, 0.020599553361535072, -0.01728500984609127, -0.25762102007865906, -0.04673166945576668, -0.0050446223467588425, 0.014683561399579048, -0.028080090880393982, 0.0684715285897255, -0.030916450545191765, -0.03424303978681564, -0.023570744320750237, -0.038195330649614334, 0.03198210522532463, 0.11137829720973969, 0.0036197463050484657, -0.05144864693284035, 0.023601878434419632, 0.0963238924741745, -0.017507143318653107, -0.03968733549118042, -0.0492229089140892, -0.06812001019716263, 0.04138045012950897, 0.020767461508512497, 0.1775289922952652, 0.047108884900808334, -0.04187653586268425, 0.06987379491329193, 0.016916019842028618, 0.023435525596141815, -0.02467353455722332, 0.0343218594789505, -0.08918863534927368, -0.01546016987413168, 0.08062330633401871, -0.006651781499385834, -0.013839409686625004, 0.007336588576436043, -0.009547633118927479, -0.002548888558521867, 0.04812650755047798, 0.009930312633514404, -0.09231626987457275, -0.004815784282982349, -0.11450979113578796, -0.02067665569484234, 0.063277468085289, -0.0016775407129898667, -0.010693891905248165, -0.0482303760945797, -0.03369549661874771, 0.022733168676495552, -0.01730177365243435, -0.10857076942920685, 0.005140203051269054, 0.024118030443787575, -0.038349833339452744, -0.0006989872199483216, -0.03896455839276314, 0.022605065256357193, 0.013809403404593468, -0.03990159183740616, 0.028168126940727234, -0.06421557068824768, -0.003743075765669346, -0.03453735262155533, -0.02041570469737053]</t>
+          <t>[-0.03890780359506607, -0.03178982809185982, -0.007960383780300617, -0.0674196109175682, -0.02223946899175644, -0.03717512637376785, -0.08067017793655396, 0.04950591176748276, 0.05639975145459175, -0.006758823059499264, 0.0428006611764431, -0.010160339064896107, 0.048447009176015854, -0.01570604182779789, 0.05087227374315262, -0.031236544251441956, 0.04727943614125252, -0.007744828704744577, -0.06790570169687271, -0.013656338676810265, 0.04008374735713005, -0.02010623924434185, -0.01851794682443142, 0.0183522067964077, -0.03805902600288391, 0.003252906259149313, -0.07931932806968689, -0.01064793299883604, -0.03865921124815941, -0.10557608306407928, -0.000676127034239471, -0.035366203635931015, -0.0056024291552603245, -0.00614163838326931, 0.06923927366733551, -0.017790909856557846, -0.02408568188548088, 0.03118271380662918, 0.03309372812509537, 0.03851449117064476, 0.02460571937263012, -0.029413064941763878, -0.04746982082724571, 0.021274564787745476, -0.0620272159576416, -0.07273192703723907, 0.021099146455526352, -0.03252151608467102, 0.07747375965118408, -0.07608179748058319, 0.020957225933670998, 0.025796081870794296, -0.060427241027355194, 0.01145592425018549, -0.03208977356553078, 0.07404196262359619, 0.03474954143166542, 0.03573909401893616, -0.02566501870751381, 0.027759764343500137, 0.04795393720269203, -0.018181148916482925, -0.15662115812301636, 0.005867600906640291, 0.048212550580501556, 0.028144020587205887, 0.008723749779164791, -0.04754362627863884, -0.003052478889003396, -0.06409512460231781, -0.01593080163002014, 0.033314257860183716, 0.02934693917632103, 0.11724378913640976, 0.05418848991394043, -0.03184907138347626, -0.004064931068569422, -0.00914672389626503, 0.011129654012620449, 0.008367751725018024, 0.010322161950170994, -0.0485687293112278, -0.009274877607822418, 0.0707864835858345, -2.7404310458223335e-05, -0.011227849870920181, -0.0235335323959589, 0.0009386182646267116, 0.0009066593484021723, 0.020874153822660446, 0.01650081016123295, -0.041083160787820816, -0.0009451300138607621, 0.026865536347031593, -0.050732843577861786, -0.02158927358686924, 0.00887364987283945, -0.01433112658560276, -0.13772252202033997, 0.387994647026062, 0.022196665406227112, 0.06687770038843155, -0.00454235402867198, -0.005218007136136293, 0.009245366789400578, -0.01456471811980009, -0.057971738278865814, -0.029060423374176025, -0.01734679378569126, -0.0023088932503014803, -0.003264067228883505, -0.00033262319630011916, 0.06428197026252747, -0.07154039293527603, -0.01924991048872471, 0.047900669276714325, -0.03818390145897865, -0.04757094010710716, -0.027232510969042778, -0.007857812568545341, -0.014446383342146873, -0.0360114686191082, 0.08897041529417038, -0.02919323369860649, -0.013620913028717041, 0.0035316585563123226, 0.012731388211250305, 0.11881954222917557, 0.020693061873316765, 0.06041164696216583, -0.005569315515458584, 0.0010685618035495281, -0.029428692534565926, -0.010505767539143562, -0.02575726807117462, 0.012841125018894672, 0.017077691853046417, 0.06498456001281738, 0.06283441931009293, 0.07120778411626816, -0.056036900728940964, -0.04508358985185623, -0.07059147953987122, -0.04378611221909523, 0.03407514840364456, 0.057069823145866394, -0.01845553331077099, 0.05586634576320648, -0.030332554131746292, -0.002893962897360325, -0.05074641853570938, 0.029649699106812477, -0.03621641919016838, 0.025067999958992004, 0.000682867132127285, -0.01690458320081234, 0.010506964288651943, -0.04481329768896103, -0.04278668388724327, 0.018719028681516647, 0.041449759155511856, -0.025709569454193115, -0.0664495974779129, 0.09964756667613983, -0.049965448677539825, -0.024637162685394287, -0.013782642781734467, -0.0013580311788246036, -0.06073043495416641, 0.05663970485329628, -0.03947331756353378, 0.03703118860721588, -0.02082025818526745, -0.004671584814786911, 0.14350266754627228, -0.07844314724206924, -0.014370721764862537, 0.07907365262508392, -0.0018337839283049107, 0.010044611990451813, -0.012269511818885803, 0.011795440688729286, -0.026962963864207268, 0.03243710473179817, -0.004019426181912422, -0.055477555841207504, 0.005728175863623619, -0.04034571722149849, -0.016259221360087395, -0.009216120466589928, -0.09081292897462845, -0.01603987067937851, -0.027095064520835876, -0.10068129748106003, 0.05008105933666229, 0.010846384800970554, 0.03907018527388573, -0.01004890538752079, 0.06581314653158188, 0.0005424489500001073, 0.07497458904981613, 0.0247323140501976, -0.0010041823843494058, 0.01342486497014761, -0.0007208817405626178, -0.01305484864860773, -0.040814243257045746, 0.02342422679066658, 0.06351809948682785, 0.002970138331875205, 0.013208047486841679, 0.03489777818322182, 0.04539717361330986, 0.030232038348913193, -0.02096450887620449, 0.03506498783826828, -0.010013341903686523, 0.03039447031915188, 0.025808185338974, -0.02975567616522312, 0.008491646498441696, 0.09466364979743958, -0.006465262267738581, -0.3019696772098541, -0.0011885635321959853, -0.027690719813108444, -0.06624957919120789, -0.08634525537490845, -0.014610477723181248, 0.07013217359781265, 0.03209587559103966, -0.08077666908502579, 0.08650398254394531, 0.019782958552241325, -0.017212102189660072, 0.0012048479402437806, -0.016542470082640648, -0.002249577548354864, -0.009356285445392132, 0.007860127836465836, 5.805028195027262e-05, -0.00922408141195774, 0.01996130496263504, 0.021060476079583168, 0.01566769741475582, 0.05639214068651199, -0.0424925722181797, 0.02094714157283306, -0.030064065009355545, 0.14424149692058563, -0.024045538157224655, -0.02049088291823864, -0.06543165445327759, 0.008625179529190063, 0.10385417193174362, -0.03288227319717407, -0.05811384320259094, 0.025235576555132866, -0.0011255252175033092, 0.004651481751352549, 0.09365682303905487, -0.0022879221942275763, 0.009328426793217659, -0.00460678618401289, 0.032144442200660706, -0.011754697188735008, -0.024532759562134743, 0.05855376645922661, -0.01751846633851528, 0.02362154796719551, 0.003471206873655319, -0.023394804447889328, -0.010534443892538548, -0.034186094999313354, 0.01566019468009472, 0.005714853759855032, 0.04983491450548172, 0.024099405854940414, 0.00823285710066557, -0.039693862199783325, 0.020732183009386063, 0.03593885153532028, -0.012152764946222305, -0.033074118196964264, -0.007403640076518059, 0.0362548865377903, -0.023514479398727417, 0.0813986212015152, -0.026064524427056313, 0.02517077513039112, -0.0027454961091279984, 0.0054650334641337395, -0.004909235518425703, -0.05305882543325424, -0.007099365349858999, -0.017035458236932755, -0.0051230923272669315, -0.0433739610016346, 0.017296526581048965, -0.04654957354068756, 0.0010098792845383286, 0.0032438409980386496, -0.017529094591736794, -0.03821982443332672, 0.021936627104878426, 0.012195779010653496, 0.017196936532855034, 0.021455952897667885, 0.07928421348333359, -0.04066229611635208, 0.00641636922955513, -0.016396546736359596, -0.038541749119758606, -0.024146387353539467, -0.032319918274879456, 0.013715404085814953, 0.04859974980354309, 0.10775446891784668, -0.007590295281261206, -0.20591118931770325, -0.014695659279823303, 0.04818619415163994, -0.014063069596886635, -0.01940193586051464, 0.07130516320466995, -0.014953751116991043, -0.0034024629276245832, -0.04395338147878647, -0.023231137543916702, 0.05293971672654152, -0.01263428945094347, -0.008624900132417679, -0.11202677339315414, 0.04314327612519264, 0.011927845887839794, 0.04544178396463394, -0.03581041097640991, 0.00911095179617405, -0.035839471966028214, 0.034879203885793686, 0.04671671986579895, 0.1833503395318985, -0.03193278983235359, -0.025899888947606087, 0.021317044273018837, 0.02168119139969349, -0.010351339355111122, 0.015722913667559624, 0.05569246783852577, -0.04989159107208252, 0.03808148577809334, 0.0597522109746933, 0.0023925432469695807, -0.04537710174918175, 0.017267411574721336, 0.056158263236284256, -0.041621360927820206, 0.006295260973274708, -0.01358506828546524, -0.031611811369657516, 0.021417926996946335, -0.07751932740211487, 0.027367813512682915, 0.054340582340955734, -0.01178157702088356, -0.007337217219173908, -0.06492545455694199, 0.04163625091314316, 0.013896223157644272, -0.008849685080349445, -0.05577797070145607, 0.04114324226975441, 0.027683351188898087, 0.034192007035017014, 0.024663936346769333, -0.0278769563883543, 0.028364507481455803, 0.02032882161438465, -0.036740586161613464, 0.008753394708037376, -0.07546229660511017, 0.04933437332510948, 0.01723128743469715, -0.01083857100456953]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>poor_follow_up_on_complaints</t>
+          <t>excessive_waiting_time_for_service</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -676,12 +676,4662 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['Improvement needed: Following up on issues to make sure it’s been sorted\nReason for given NPS: I’ve never had any issues']</t>
+          <t>['Improvement needed: Customer service in stores\nReason for given NPS: I was there for close on 2 hours half this time standing at the front of a queue halfway through being served I had yo request an armchair as I was on the verge of passing out. This is not the way to treat elderly clients or ant clients really.', 'Improvement needed: Fast handling when called in for assistance as wait time could be a bit long which has been improved but still too long\nReason for given NPS: Long term customer and i had no issue with services provided so far and time to time, received call from one nz for any promotion that was on at the time which i have accepted few times which i appreciated', 'Improvement needed: Wait time\nReason for given NPS: I’m happy with the service I receive', 'Improvement needed: Customer service with the ability to talk to someone that does not have English as a second language. This is not racist, just that you have customers that are elderly with reduced capacity to process dialects that are spoken quickly. This opinion is backed up by most residents in my retirement village and therefore not an isolated incident.\nReason for given NPS: My landline was disconnected  for an unknown reason and it took 12 days for you to fix it. Also after sending a reply text to a service person it was not replied to. This happened twice. Asked to speak to an technician or manager that speaks English as a first language and was refused.', "Improvement needed: Reception around the country could be improved for some reason I'll have 4g signal then it disappears for whatever reason\nReason for given NPS: Had an issue with an account &amp; no-one replied until I copied CEO in!!"]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[-0.06309281289577484, -0.0014585255412384868, -0.004828004632145166, 0.008590180426836014, -0.0035659719724208117, -0.07552629709243774, -0.013151392340660095, 0.04836714267730713, 0.0731455534696579, -0.01827060990035534, 0.024621697142720222, 0.020975036546587944, 0.019590115174651146, -0.015193783678114414, 0.020658079534769058, 0.02839413844048977, 0.06106431782245636, -0.022428231313824654, -0.030558589845895767, -0.028698842972517014, 0.034979309886693954, 0.0019003018969669938, 0.07952511310577393, 0.011238078586757183, -0.005550589878112078, -0.013965622521936893, -0.06315257400274277, -0.03740868344902992, -0.10504357516765594, -0.12899084389209747, -0.023920482024550438, -0.051318682730197906, 0.04857518896460533, -0.01458363514393568, 0.03712005913257599, -0.016703231260180473, -0.018633510917425156, 0.0029493202455341816, -0.02254372648894787, -0.01029187347739935, -0.02180604822933674, 0.016175877302885056, -0.03567592799663544, -0.038715019822120667, 0.018970848992466927, -0.03924388810992241, 0.0202551931142807, -0.06272174417972565, 0.07989615947008133, -0.01582586020231247, -0.009937513619661331, -0.03593961149454117, 0.00561373820528388, -0.0018921038135886192, 0.014098267070949078, 0.0227594505995512, 0.07118123769760132, 0.007701399736106396, 0.03077688440680504, 0.005749906413257122, 0.022808557376265526, 0.03655027970671654, -0.13438138365745544, 0.019145367667078972, 0.013183078728616238, 0.01820537820458412, 0.008640583604574203, -0.04730319231748581, -0.046747222542762756, 0.017989441752433777, -0.02592613734304905, -0.03398110717535019, 0.040708012878894806, 0.10526007413864136, -0.009499328210949898, 0.0008616779814474285, 0.07010457664728165, 0.05882702395319939, -0.01365919690579176, 0.04785578325390816, -0.01572776585817337, 0.006728088017553091, -0.009089479222893715, 0.031193628907203674, 0.006115089636296034, -0.1061621904373169, 0.031835656613111496, 0.019028495997190475, 0.04430905357003212, 0.03491185978055, 0.0796203762292862, -0.004311803262680769, 0.04371212422847748, 0.039049699902534485, -0.06276903301477432, -0.02646758407354355, -0.011792907491326332, 0.0038847392424941063, -0.07780914008617401, 0.39349302649497986, -0.005068378522992134, 0.07927623391151428, 0.03277064487338066, 0.02765844017267227, 0.041294656693935394, -0.07740340381860733, 0.02483263798058033, -0.040345169603824615, -0.03424545004963875, 0.01721987873315811, 0.022955045104026794, -0.029875369742512703, 0.03487373888492584, -0.04262913763523102, 0.027169186621904373, 0.02528834529221058, 0.04006229341030121, 0.020476100966334343, -0.0467379055917263, -0.002724156714975834, 0.043309103697538376, -0.016006354242563248, 0.03168544918298721, -0.04695020988583565, 0.02613282948732376, -0.01622759737074375, 0.009780771099030972, 0.08090389519929886, 0.030839625746011734, 0.01722818985581398, -0.0016905420925468206, -0.021875202655792236, 0.024216510355472565, 0.019396374002099037, -0.012300190515816212, -0.0148558858782053, -0.009159616194665432, 0.023440375924110413, 0.0665668174624443, 0.031236933544278145, -0.02393750101327896, -0.11006727069616318, -0.05485852435231209, -0.05194062367081642, -0.0036612683907151222, 0.09344208240509033, -0.04982687160372734, 0.0355093739926815, 0.0011909635504707694, -0.07032495737075806, -0.027840428054332733, -1.8189797629020177e-05, 0.000562941306270659, -0.016649896278977394, -0.0016094547463580966, -0.05393974855542183, 0.02198565937578678, -0.013910938985645771, -0.022812696173787117, 0.04408785700798035, 0.1319931447505951, -0.03758528456091881, -0.0395161509513855, 0.010862236842513084, 0.029006153345108032, 0.0053712488152086735, 0.015836076810956, -0.038401614874601364, 0.005255462136119604, 0.037015400826931, 0.006343312095850706, 0.051587510854005814, 0.0006881699082441628, -0.06699696183204651, 0.07061439752578735, -0.03007691726088524, 0.026972005143761635, 0.03881938010454178, 0.027664830908179283, 0.04928319528698921, 0.07311814278364182, 0.024453405290842056, -0.0211194958537817, 0.028177019208669662, -0.044225770980119705, -0.025475235655903816, -0.07085297256708145, 0.015692513436079025, 0.022120237350463867, 0.0431528314948082, -0.11624942719936371, -0.06868395209312439, -0.0661359503865242, 0.011830341070890427, 0.023859214037656784, -0.030634505674242973, -0.012225831858813763, -0.034783195704221725, 0.010615941137075424, -0.013685555197298527, 0.014594611711800098, -0.037313062697649, -0.023535648360848427, 0.029426898807287216, -0.026774980127811432, 0.056258875876665115, -0.012238637544214725, -0.028717175126075745, 0.05958706513047218, 0.02236994169652462, -0.07754547148942947, -0.03852188587188721, 0.016788648441433907, 0.008644821122288704, -0.04263446480035782, 0.02234712801873684, 0.030164752155542374, 0.013249021954834461, 0.010985126718878746, -0.0034447545185685158, -0.02245866321027279, 0.08758267760276794, 0.014884207397699356, -0.2950272858142853, -0.012950853444635868, 0.006887297611683607, -0.02422119863331318, -0.048280980437994, -0.05250179022550583, -0.00465817516669631, 0.03446439653635025, 0.010514580644667149, 0.1387934535741806, -0.001362340059131384, -0.021113425493240356, 0.03331909701228142, -0.0462876595556736, -0.006389006040990353, 0.024136696010828018, 0.005113441962748766, 0.07541140913963318, 0.00993746891617775, 0.02314448356628418, -0.011439555324614048, 0.05772455036640167, 0.06091832369565964, -0.07406336814165115, 0.024856368079781532, -0.003762264270335436, 0.1473361998796463, 0.06011690944433212, -0.056923653930425644, -0.04241601750254631, -0.0014066054718568921, 0.07883496582508087, 0.04269661009311676, -0.08606717735528946, 0.04619583114981651, 0.013514895923435688, -0.004984145984053612, -0.012169567868113518, -0.07385624200105667, -0.07755494862794876, 0.012954494915902615, 0.06427425146102905, -0.0007187888259068131, -0.03164895251393318, 0.022280234843492508, -0.0032362963538616896, -0.015483943745493889, -0.003430943237617612, -0.051255613565444946, 0.03971191495656967, -0.037434861063957214, -0.011472444050014019, 0.028292924165725708, 0.04487319663167, 0.05562804639339447, 0.021869735792279243, -0.11411771178245544, 0.004895494785159826, -0.001831021043471992, -0.0007986721466295421, -0.012843437492847443, 0.012220908887684345, 0.022588379681110382, -0.016499821096658707, 0.022052666172385216, 0.03114066831767559, 0.04460962116718292, -0.03988567367196083, 0.018317008391022682, 0.03521072492003441, -0.002245836891233921, 0.048515353351831436, -0.043935295194387436, -0.0303350742906332, -0.02607131563127041, 0.01721804216504097, -0.05908937007188797, -0.015190515667200089, -0.08417245000600815, -0.06287132948637009, 0.029985865578055382, 0.013910514302551746, 0.043458446860313416, 0.002825468545779586, -0.009283574298024178, 0.0023799724876880646, -0.02365686558187008, 0.01955384388566017, 0.0033360826782882214, -0.05028174817562103, -0.045955412089824677, 0.067008838057518, -0.07004209607839584, -0.002974078990519047, 0.03932926431298256, 0.03335371986031532, -0.25707587599754333, -0.06056313216686249, 0.01581638492643833, -0.0002034765639109537, -0.051526159048080444, 0.07775264978408813, 0.014838190749287605, -0.03718555346131325, -0.013521568849682808, -0.04745560139417648, 0.005802369210869074, 0.07780524343252182, -0.03606056794524193, -0.05252951756119728, 0.01220239233225584, 0.010111297480762005, 0.00710627855733037, -0.0166519433259964, 0.03260547295212746, -0.0018786711152642965, 0.024804474785923958, 0.0507451668381691, 0.14028196036815643, -0.042698249220848083, -0.06267160177230835, 0.00020830948778893799, 0.019319137558341026, -0.028902174904942513, -0.034782156348228455, 0.0015045180916786194, -0.03961927443742752, 0.025984367355704308, 0.02186066284775734, 0.03023833967745304, -0.0048598661087453365, -0.030271869152784348, -0.0389862060546875, 0.0015390540938824415, -0.02796102501451969, -0.0015343307750299573, -0.04643363133072853, -0.01295903418213129, -0.00622795382514596, 0.026730941608548164, 0.07898440957069397, 0.01424693688750267, 0.01025602500885725, -0.055671364068984985, 0.005683626513928175, 0.035953741520643234, -0.027254696935415268, -0.014393016695976257, 0.03575257211923599, 0.031779997050762177, 0.028125645592808723, 0.02716772072017193, -0.06108325719833374, 0.010289547964930534, 0.01307451631873846, 0.011439716443419456, -0.056830693036317825, -0.057027533650398254, 0.05031418800354004, 0.008856595493853092, 0.01738065853714943]</t>
+          <t>[-0.07136910408735275, -0.04335259646177292, 0.04027774557471275, -0.02120114304125309, -0.006168908905237913, -0.061358846724033356, -0.04702453687787056, 0.017308048903942108, 0.10581507533788681, -0.04213906079530716, -0.0007807943038642406, -0.001042697113007307, 0.016084041446447372, 0.01991751603782177, 0.011465436778962612, 0.027932368218898773, 0.06317409127950668, -0.08641142398118973, 0.020863106474280357, -0.01619393192231655, 0.07206740975379944, -0.015078926458954811, -0.02651345729827881, 0.009078706614673138, -0.034033142030239105, -0.017504101619124413, -0.014692389406263828, -0.0016820384189486504, -0.055115509778261185, -0.11627541482448578, 0.01901300996541977, -0.08308038115501404, 0.003786034882068634, 0.03447190672159195, 0.02515176311135292, -0.07876027375459671, 0.030170567333698273, -0.012727554887533188, 0.0052024247124791145, 0.06914963573217392, 0.033371418714523315, 0.053245909512043, -0.08160029351711273, 0.004925783257931471, -0.059817638248205185, -0.034257709980010986, -0.01513092964887619, 0.0004546095442492515, 0.1194235160946846, -0.01705956645309925, -0.03934759646654129, 0.04970678687095642, -0.004312052391469479, 0.026541175320744514, 0.016982942819595337, 0.034565310925245285, 0.0820593312382698, 0.02798262983560562, 0.0530044324696064, 0.002848587464541197, 0.041164152324199677, -0.02932686172425747, -0.11086563020944595, 0.04322734475135803, -0.014320001006126404, -0.03749803453683853, 0.04087144136428833, -0.07960696518421173, 0.0005628216313198209, -0.022921597585082054, -0.02827402390539646, -0.0004284039023332298, -0.03354621306061745, 0.1498994678258896, 0.03943929076194763, 0.028705984354019165, -0.0220306646078825, 0.003401154186576605, 0.03473275527358055, 0.017028698697686195, 0.012507867068052292, -0.046578649431467056, -0.007963928394019604, -0.011882967315614223, -0.0025045585352927446, -0.05973200127482414, -0.028232276439666748, 0.04627509415149689, 0.03494345769286156, 0.01378375943750143, 0.0039027875754982233, -0.035778678953647614, 0.03691962733864784, 0.040464289486408234, -0.0663798600435257, -0.054803941398859024, -0.013854047283530235, 0.028620630502700806, -0.11402510851621628, 0.33628639578819275, 0.017594922333955765, 0.03851267322897911, -0.020096970722079277, 0.07303475588560104, 0.04345047473907471, 0.016661668196320534, -0.016183339059352875, 0.043536119163036346, -0.034669797867536545, 0.010012823157012463, -0.0034920566249638796, -0.015609966591000557, 0.10033642500638962, -0.07044831663370132, -0.009723666124045849, 0.07517389208078384, 0.0050821369513869286, -0.018364740535616875, -0.040517792105674744, 0.024317221716046333, 0.014124922454357147, 0.03658195212483406, 0.02595323696732521, -0.02728564478456974, -0.023101823404431343, -0.0035629584453999996, 0.0261573176831007, 0.11878211051225662, -0.01296945009380579, 0.03354690223932266, 0.012580317445099354, 0.010898723267018795, -0.05673468858003616, 0.006314584519714117, -0.023449208587408066, 0.02350662462413311, -0.0020928005687892437, 0.011995774693787098, -0.0016428808448836207, 0.005059779155999422, -0.02800360508263111, -0.08386131376028061, -0.018037745729088783, -0.054466914385557175, 0.03877680003643036, 0.05666075274348259, 0.011629716493189335, 0.12016265839338303, -0.020834166556596756, -0.04774736613035202, -0.05050724372267723, 0.07373969256877899, 0.02206224948167801, -0.06200490519404411, -0.03071760945022106, 0.0012337838998064399, 0.056010935455560684, 0.05171005800366402, -0.020040079951286316, -0.012219796888530254, 0.0133340023458004, -0.02196839451789856, 0.00845719501376152, 0.042724739760160446, -0.025005141273140907, -0.040560390800237656, -0.0021397527307271957, -0.05072083696722984, -0.08940538763999939, 0.05951027572154999, -0.03919891640543938, -0.014204013161361217, -0.013672513887286186, 0.026953496038913727, 0.06339357793331146, -0.01813371293246746, -0.04800913482904434, 0.06500668823719025, 0.02665652334690094, 0.022545186802744865, 0.042819708585739136, 0.01476890780031681, -0.019508153200149536, 0.020776662975549698, 0.0515860877931118, -0.04211409389972687, 0.0013265720335766673, -0.013837753795087337, 0.046127766370773315, -0.061456482857465744, -0.08880818635225296, -0.05271407216787338, 0.007098874542862177, -0.082476906478405, 0.02670413814485073, -0.07082108408212662, 0.017775125801563263, -0.017615269869565964, 0.08735304325819016, -0.03941277042031288, 0.09089424461126328, -0.009554308839142323, -0.05519590526819229, -0.00017277459846809506, 0.032797303050756454, 0.030432431027293205, -0.04765303432941437, 0.02066805027425289, 0.011048266664147377, 0.0021363236010074615, 0.002440112642943859, 0.0020760754123330116, 0.058630283921957016, 0.038844652473926544, 0.0027307122945785522, 0.013012034818530083, -0.031207852065563202, 0.06216612830758095, 0.03261275216937065, 0.026021448895335197, 0.01943400129675865, 0.042922910302877426, -0.004826486576348543, -0.266372412443161, 0.0035271530505269766, -0.028379427269101143, -0.01425196509808302, -0.02977011911571026, 0.02400296740233898, 0.04760485142469406, -0.03417906537652016, -0.012937991879880428, 0.06896939128637314, 0.014459717087447643, 0.042253006249666214, 0.013186044991016388, -0.051145851612091064, -0.03344857692718506, -0.008845338597893715, -0.06583210825920105, 0.07127656787633896, 0.01989968679845333, 0.009256801567971706, 0.021568143740296364, 0.004426419734954834, 0.02192368544638157, -0.052762120962142944, -0.011193809099495411, -0.018590286374092102, 0.1691468358039856, -0.0253739170730114, -0.08439522236585617, -0.09003850072622299, 0.05573980510234833, 0.037930138409137726, -0.0006462419987656176, -0.08496396243572235, 0.001322974800132215, -0.01830543763935566, 0.07276606559753418, 0.05921529233455658, 0.05999458581209183, -0.012303026393055916, -0.033565010875463486, 0.046242497861385345, -0.019551891833543777, 0.003920817282050848, 0.012005740776658058, 0.009127765893936157, -0.009484955109655857, 0.05582776665687561, -0.07111234217882156, -0.024451637640595436, 0.02880806103348732, -0.037121858447790146, 0.027179742231965065, 0.00874802190810442, 0.05527503415942192, -0.03192652389407158, -0.03471890464425087, -0.0038544514682143927, -0.0709824338555336, 0.010203761979937553, 0.03655126318335533, 0.012678246013820171, 0.001978162443265319, 0.008716044016182423, 0.02773383818566799, -0.01690519228577614, -0.013020484708249569, -0.0052323550917208195, -0.0492636077105999, 0.0022788732312619686, -0.0017881511012092233, 0.012752755545079708, -0.05506281182169914, -0.011870501562952995, 0.015164542011916637, -0.011763399466872215, 0.0018240954959765077, -0.00643487274646759, -0.017442066222429276, -0.04733050614595413, 0.027804912999272346, 0.005455213598906994, 0.02676471322774887, 0.041737571358680725, -0.007954695262014866, -0.0025450827088207006, -0.04410877823829651, 0.11356004327535629, -0.022871220484375954, 3.579081749194302e-05, -0.03987917676568031, -7.645474397577345e-05, -0.053730808198451996, 0.02839108183979988, 0.06456128507852554, 0.007716168649494648, -0.2794240117073059, 0.010581293143332005, 0.016548285260796547, 0.02015555463731289, -0.020794948562979698, 0.025102999061346054, -0.04802192375063896, 0.04451294243335724, -0.0714574009180069, -0.007340191397815943, -0.052826881408691406, 0.05436478555202484, -0.038762304931879044, -0.05104143172502518, 0.028414664790034294, 0.03927958756685257, 0.022884029895067215, -0.04970807954668999, -0.05856524780392647, -0.06019248440861702, 0.023112723603844643, -0.007992562837898731, 0.1359313726425171, -0.03488520160317421, 0.00551837682723999, 0.06576269119977951, -0.01737242005765438, 0.01031886599957943, 0.04618503153324127, -0.0523894764482975, -0.06473837047815323, -0.03648782894015312, 0.04485726356506348, -0.014433045871555805, -0.017986103892326355, 0.004271933808922768, 0.03386449068784714, -0.008157764561474323, 0.03863012045621872, -0.034884385764598846, -0.0015017468249425292, -0.012065654620528221, -0.02653343603014946, 0.0603170283138752, 0.057026319205760956, 0.012196419760584831, -0.0071119279600679874, -0.04792923852801323, 0.03287198022007942, 0.03948435187339783, -0.028359517455101013, -0.06672798097133636, -0.04160527512431145, 0.09447016566991806, 0.03790105879306793, 0.03603086620569229, -0.014788640663027763, 0.0006802020943723619, -0.021832946687936783, -0.015175837092101574, 0.02936743013560772, -0.08786056935787201, 0.054041627794504166, -0.020138639956712723, -0.038876019418239594]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>limited_internet_options_in_remote_areas</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Better options for people who cannot get fibre\n', 'Improvement needed: We are still on copper broadband,  and I understand there is great reluctance to upgrade our entire road (about 100 houses) to fiber. Millington Road, Whangarei 0179.\nReason for given NPS: No complaints. Simple.', 'Improvement needed: Giving us a better alternative to internet than Spark is offering.  We only have a coper wire connection.\nReason for given NPS: I have had good service to date', 'Improvement needed: Fibre to rural areas or vdsl broadband at Fibre prices we live 10minutes out of central nelson and not expected to have Fibre for the next few years\nReason for given NPS: Service has been consistent and even time I enter a store the staff are always helpful', 'Improvement needed: Would be great to have more options of  plans with movil data.\n']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[-0.020291706547141075, -0.05047038570046425, 0.01822429895401001, -0.01931406743824482, 0.006657234858721495, -0.013506210409104824, -0.03172651305794716, 0.05096404626965523, 0.009340363554656506, -0.024381930008530617, 0.037641044706106186, 0.04597199335694313, 0.041283849626779556, 0.04436430707573891, 0.057941943407058716, 0.00210977578535676, 0.02085987851023674, -0.04136151820421219, -0.05296303704380989, 0.04345492646098137, 0.0652078315615654, 0.052484821528196335, 0.036089859902858734, -0.0207497701048851, -0.04596967250108719, -0.014979847706854343, -0.041134580969810486, -0.003613671287894249, -0.03131662681698799, -0.09198399633169174, 0.007849596440792084, -0.010918263345956802, -0.038948167115449905, 0.03432566300034523, -0.017409851774573326, -0.03518259897828102, 0.021763529628515244, -0.044396769255399704, -0.05294036492705345, 0.040396180003881454, -0.0069948239251971245, -0.019759751856327057, -0.027026379480957985, 0.02206416055560112, -0.09415239840745926, -0.06729383021593094, 0.04576216638088226, 0.010292264632880688, 0.04376138746738434, -0.04152083396911621, 0.021572476252913475, 0.03231945261359215, -0.013350759632885456, -0.011975309811532497, 0.0269092358648777, 0.038213521242141724, 0.03337652608752251, 0.07894459366798401, -0.016000378876924515, 0.0072507052682340145, -0.002061825478449464, 0.03860311582684517, -0.12918369472026825, 0.02178175002336502, 0.03471505269408226, 0.03675492852926254, 0.0016887547681108117, 0.0034947071690112352, 0.02736467868089676, -0.0436546765267849, -0.03767998144030571, 0.08087629824876785, -0.03696883097290993, 0.08278597146272659, 0.043291348963975906, 0.0322209931910038, -0.11809887737035751, 0.058744315057992935, 0.006909954361617565, 0.004224080126732588, 0.02477192133665085, -0.05384179577231407, -0.03436112776398659, 0.019124893471598625, -0.010936940088868141, -0.013326267711818218, -0.025402460247278214, -0.003906771540641785, 0.002861479064449668, 0.003969236742705107, -0.0688902959227562, -0.05180327966809273, 0.01110717561095953, 0.026353562250733376, -0.04706990346312523, -0.006517424713820219, -0.005560038611292839, 0.017557576298713684, -0.06803268939256668, 0.35540059208869934, 0.00767248310148716, -0.010358233936131, -0.012018905021250248, -0.023345116525888443, 0.038076531141996384, -0.013285838067531586, 0.006326579954475164, 0.011678253300487995, 0.0004678170953411609, 0.04947957023978233, -0.0008776140166446567, -0.06937573105096817, 0.017585517838597298, 0.0028349892236292362, -0.02208838053047657, 0.00811808556318283, -0.05841963738203049, -0.014329689554870129, -0.03575986251235008, 0.011371455155313015, -0.08840686082839966, 0.0023186178877949715, 0.033452946692705154, 0.01727687567472458, 0.0694783478975296, 0.031372636556625366, 0.05002835392951965, 0.07568538933992386, 0.025123678147792816, 0.06889639049768448, 0.03679412975907326, -0.0633092001080513, 0.029917705804109573, -0.00965768564492464, 0.044914886355400085, -0.010151201859116554, 0.06536485254764557, 0.044224608689546585, 0.04101831093430519, 0.025944121181964874, -0.037873588502407074, -0.05844596028327942, 0.013268199749290943, -0.010392011143267155, 0.06093728169798851, 0.12396825104951859, 0.029022717848420143, 0.0697108656167984, -0.03648906573653221, -0.02729702927172184, 0.0219681728631258, 0.010516162030398846, 0.011661028489470482, 0.0042711347341537476, 0.0031186887063086033, -0.0076701464131474495, 0.03299838304519653, 0.023977873846888542, -0.01767832599580288, -0.03375067934393883, 0.028592605143785477, -0.04033375531435013, 0.02077733352780342, 0.1382325291633606, -0.02893059328198433, -0.07502368837594986, -0.04970631003379822, 0.010041389614343643, -0.03890850022435188, 0.024630634114146233, -0.06573697924613953, 0.01487936545163393, 0.02128216251730919, 0.018176959827542305, 0.07185323536396027, -0.018775291740894318, -0.07788003236055374, 0.046527206897735596, -0.1015768051147461, -0.001481165993027389, -0.06350519508123398, -0.049836158752441406, 0.02705659531056881, -0.01958644948899746, -0.02847515046596527, -0.0011312054703012109, -0.01880059204995632, -0.014476754702627659, 0.04823637381196022, -0.051159054040908813, -0.12405167520046234, -0.08208226412534714, -0.04280586913228035, -0.08465448021888733, -0.01068479847162962, 0.010036217980086803, 0.000958228309173137, -0.01908501423895359, 0.013975447043776512, -0.02743820659816265, 0.13928379118442535, 0.029612494632601738, -0.041910190135240555, -0.002676151692867279, -0.046242158859968185, -0.0018559863092377782, 0.01302215363830328, -0.021564483642578125, 0.059762660413980484, -0.029746726155281067, -0.010618159547448158, -0.0011279068421572447, 0.08370529860258102, -0.009735187515616417, -0.057896584272384644, -0.02093479596078396, -0.012830577790737152, 0.07983261346817017, 0.03803700953722, -0.010804114863276482, 0.007549594156444073, 0.08714723587036133, -0.06303084641695023, -0.27811551094055176, -0.005428996868431568, -0.024922318756580353, -0.042197924107313156, -0.025684865191578865, -0.04479862377047539, -0.00046329712495207787, -0.005073837004601955, 0.002343171276152134, 0.07809548079967499, 0.1109238713979721, -0.022050244733691216, -0.010362527333199978, 0.03345027193427086, -0.03245563805103302, -0.020048713311553, -0.028059005737304688, 0.007067505270242691, -0.03560026362538338, 0.06288908421993256, 0.023916345089673996, -0.0016151204472407699, -0.04752844199538231, -0.06037174537777901, 0.0169674064964056, 0.02782418020069599, 0.13111142814159393, -0.05438285693526268, 0.043059512972831726, -0.07286220043897629, 0.10521895438432693, 0.06569185853004456, 0.012567409314215183, -0.060466427356004715, -0.04257286339998245, 0.07070878893136978, -0.04485893249511719, 0.038801129907369614, 0.019063353538513184, -0.008057570084929466, -0.0045984783209860325, 0.06601090729236603, 0.032765183597803116, -0.085646852850914, 0.05251017212867737, -0.06302518397569656, -0.017940064892172813, 0.06871843338012695, 0.019214924424886703, -0.04549296572804451, 0.003292629262432456, 0.007173169404268265, 0.026143325492739677, 0.04056550934910774, 0.07508577406406403, 0.02112962119281292, -0.00860107596963644, 0.005619404837489128, 0.034784190356731415, 0.028582289814949036, -0.0034545711241662502, -0.04567093774676323, 0.015320874750614166, -0.08443371951580048, 0.09865012019872665, -0.026848770678043365, -0.009964934550225735, 0.03306608647108078, 0.036951154470443726, 0.02072478085756302, -0.01911265030503273, 0.04950130358338356, 0.021661145612597466, 0.053978290408849716, -0.04721376299858093, -0.022308701649308205, 0.0224363524466753, 0.045349542051553726, 0.0043267919681966305, -0.052462801337242126, 0.049275413155555725, -0.04245278984308243, 0.0052099693566560745, 0.00951553788036108, -0.013982151634991169, 0.0030148497316986322, -0.00852721743285656, -0.018850553780794144, 0.0068869213573634624, 0.014191259630024433, -0.04958982393145561, -0.01697762869298458, -0.03198590874671936, 0.04480578005313873, 0.07802926003932953, -0.020946035161614418, -0.23004019260406494, -0.012042736634612083, 0.010326852090656757, -0.06111643463373184, 0.016408344730734825, 0.05870983004570007, 0.04716811329126358, -0.017458142712712288, -0.12492735683917999, 0.02650095708668232, -0.0022876858711242676, -0.007229568436741829, -0.03065616823732853, -0.022388650104403496, 0.05323588848114014, 0.02125411666929722, -0.005986361764371395, -0.007042888551950455, -0.026708077639341354, -0.05056421086192131, 0.021009404212236404, 0.049134302884340286, 0.12441185861825943, -0.012916529551148415, 0.01224182266741991, 0.028294794261455536, -0.02090298756957054, -0.01145059335976839, -0.025429455563426018, -0.013476213440299034, -0.03216169402003288, 0.02722235396504402, 0.0012674408499151468, -0.08734583854675293, 0.006037247832864523, -0.022095149382948875, 0.019325120374560356, -0.0722041204571724, 0.04143540561199188, -0.029217971488833427, -0.08380508422851562, 0.04563283920288086, -0.07903160899877548, 0.009667756967246532, 0.020755887031555176, -0.018999269232153893, -0.052448101341724396, 0.042775899171829224, 0.027149014174938202, -0.01235289592295885, -0.013527942821383476, -0.028562216088175774, 0.04205691069364548, 0.00751675758510828, 0.06828325986862183, 0.04406921938061714, 0.02260134182870388, -0.006550280377268791, -0.02375268191099167, -0.03955797106027603, 0.04876239225268364, -0.05146145075559616, 0.0134063009172678, -0.019881021231412888, 0.01734047755599022]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>lack_of_assistance_for_elderly_customers</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Help for older clients in store\nReason for given NPS: 30 years using your service', "Improvement needed: I haven't read anything on Ones efforts for sustainability and a bit unsure how to answer the overall relationship questions as I have really interacted with One personally. Also not sure about the rewards program either and didn't know there was one.\nReason for given NPS: I haven't been with any other company to compare but haven't had any problems with One and theonthly charge is cheap for what you get.", 'Improvement needed: More knowledge about products that have or is capable of using blind and low visions navigate  around the apps stored 9n the mobile phone.\nReason for given NPS: Been very helpful in sorting out my needs within my budget and very great service', 'Improvement needed: Customer service in stores\nReason for given NPS: I was there for close on 2 hours half this time standing at the front of a queue halfway through being served I had yo request an armchair as I was on the verge of passing out. This is not the way to treat elderly clients or ant clients really.', 'Improvement needed: Ummm, maybe letting customers to nominate people who we know need assistance (like a phone &amp; connection, or a device) and then one.nz could select a person a week/ month to sponsor or support- many people don’t have the financial means to access what myself and others enjoy…. it would be great to use some of the organization’s profit to community in that way.  Not just one.nz but every big commercial company.  Just a thought.\nReason for given NPS: I haven’t had any problems- which is a good sign that I am getting the service I want']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[-0.02718205563724041, -0.015968989580869675, 0.007405092474073172, -0.03847463056445122, 0.024121807888150215, -0.013527004048228264, -0.006729458458721638, 0.03985670208930969, -0.048977404832839966, -0.03689396753907204, 0.006723523139953613, 0.04937676712870598, -0.031440917402505875, 0.03147954121232033, 0.017411522567272186, 0.016846176236867905, 0.07173249125480652, 0.007981481030583382, -0.02699228562414646, 0.06594341993331909, 0.029638085514307022, -0.029060058295726776, -0.06043395772576332, 0.03722434490919113, 0.0032295198179781437, -0.01968523859977722, -0.030316196382045746, -0.052516888827085495, -0.04638529568910599, -0.06636330485343933, -0.02085890620946884, -0.0011766026727855206, 0.04247508943080902, -0.005760314874351025, 0.0640811175107956, 0.005281145218759775, 0.017846697941422462, -0.016715986654162407, 0.000978316180408001, -0.04112257435917854, 0.009186559356749058, 0.02931414358317852, -0.06888189911842346, -0.031851671636104584, -0.008462279103696346, -0.0369546115398407, -0.01767832599580288, -0.03434721380472183, 0.06702768057584763, -0.045194193720817566, -0.03589639812707901, 0.021848417818546295, 0.00775596359744668, 0.03278665244579315, 0.04027782753109932, 0.015140600502490997, -0.008091230876743793, -0.00016784707258921117, 0.004120480734854937, 0.010377597063779831, 0.025783417746424675, -0.05323951318860054, -0.1473565399646759, 0.009659221395850182, 0.02584257535636425, 0.005254931747913361, 0.021802041679620743, -0.03611631318926811, -0.013933183625340462, -0.03721998631954193, 0.000682191748637706, -0.03294847533106804, -0.008282861672341824, 0.05085776373744011, -0.003468599868938327, -0.024156028404831886, 0.009964756667613983, -0.03513872250914574, 0.03131011873483658, 0.012469491921365261, 0.06717070192098618, 0.032694436609745026, -0.033021070063114166, -0.004306634422391653, -0.0389525406062603, -0.027048958465456963, -0.01454222109168768, -0.019085656851530075, 0.01585439406335354, 0.004589298740029335, 0.018696177750825882, 0.07238677889108658, 0.006148630753159523, 0.025769436731934547, 0.006192690692842007, -0.07252596318721771, 0.021658465266227722, 0.010135074146091938, -0.1394597887992859, 0.3806912899017334, 0.05473291501402855, 0.09038970619440079, 0.025814030319452286, -0.036519356071949005, 0.037512484937906265, -0.008095036260783672, -0.030656548216938972, 0.019827473908662796, 0.017302898690104485, 0.02163754403591156, -0.05267802253365517, 0.03130929172039032, 0.05326469987630844, 0.025183582678437233, 0.02131023444235325, 0.06903856992721558, -0.04162003472447395, 0.03149987757205963, -0.0008991616195999086, 0.000487086595967412, -0.010091639123857021, 0.005402431823313236, 0.020830897614359856, 0.047343913465738297, -0.022979775443673134, -0.019445981830358505, -0.01384702604264021, 0.10945241153240204, -0.018774181604385376, 0.01884915493428707, 0.03299902752041817, -0.0646597221493721, -0.0207944568246603, -0.025777623057365417, -0.02971794828772545, -0.015509656630456448, 0.0006015715189278126, 0.052977677434682846, 0.04283706471323967, -0.009795475751161575, 0.012300736270844936, -0.13283953070640564, -0.040382131934165955, -0.03396739065647125, 0.04548490047454834, 0.05930263176560402, -0.009555857628583908, 0.077059805393219, -0.01246644463390112, -0.00499481987208128, 0.03242991864681244, 0.05932309105992317, 0.01177913323044777, -0.0017642523162066936, -0.0028205851558595896, 0.01624099351465702, 0.06440026313066483, -0.010590285994112492, -0.026572709903120995, 0.02848075143992901, 0.13645917177200317, -0.04840186983346939, -0.07120677828788757, 0.029592188075184822, -0.014673122204840183, -0.06123534217476845, -0.042725082486867905, 0.02082058973610401, -0.03552425652742386, 0.05477302148938179, 0.05709905922412872, 0.048056598752737045, -0.028482813388109207, 0.009398054331541061, 0.1367664635181427, 0.013328289613127708, 0.007669014856219292, 0.007199590560048819, -0.039910394698381424, 0.041451938450336456, -0.05081839859485626, 0.012816456146538258, -0.023374108597636223, -4.051603173138574e-05, 0.016385963186621666, -0.003527621505782008, 0.014000965282320976, 0.0019161389209330082, 0.01893371343612671, -0.05821511894464493, -0.026611095294356346, -0.02832809090614319, -0.0070780180394649506, -0.019134098663926125, 0.010994132608175278, -0.015112070366740227, -0.05310272425413132, -0.013895222917199135, 0.05336056277155876, -0.021082241088151932, 0.03585514798760414, -0.021773340180516243, -0.02235032059252262, 0.03868907690048218, -0.02761835791170597, 0.02873855270445347, 0.04171362519264221, -0.03038213402032852, 0.08145742863416672, 0.009321575984358788, 0.018504945561289787, -0.05100548639893532, 0.11919938772916794, 0.04089343175292015, -0.0022837051656097174, 0.10973963886499405, 0.032545171678066254, -0.0022081283386796713, 0.05228139087557793, -0.012241956777870655, 0.09284228831529617, 0.12991072237491608, -0.0011059567332267761, -0.307403564453125, 0.027747424319386482, -0.017294738441705704, -0.0669267475605011, -0.08413190394639969, 0.01808832958340645, 0.026238953694701195, 0.0227931160479784, -0.04567832872271538, 0.07601772993803024, 0.047769609838724136, -0.039293862879276276, 0.007167502772063017, -0.014585892669856548, 0.002258532214909792, 0.006772297900170088, -0.019011158496141434, 0.017141681164503098, -0.03463596850633621, -0.015145648270845413, -0.006499056238681078, 0.012794301845133305, 0.0397188700735569, 0.0038489748258143663, 0.035864248871803284, 0.01006326638162136, 0.15675504505634308, -0.06935010105371475, -0.075630784034729, -0.09121853858232498, -0.04893600568175316, 0.04972931370139122, -0.07680158317089081, -0.0558137446641922, 0.057482168078422546, -0.030040767043828964, -0.04556228965520859, -0.003810920985415578, 0.030999159440398216, -0.009786104783415794, -0.05277268961071968, 0.07583020627498627, 0.016663510352373123, 0.03364590182900429, 0.0013568238355219364, -0.03249436989426613, 0.00872565247118473, 0.024980220943689346, -0.05039655417203903, -0.006998531054705381, 0.002637675032019615, -0.02111426554620266, 0.018904928117990494, 0.06449014693498611, 0.01048166025429964, 0.014916501007974148, -0.04736180976033211, 0.015063391998410225, -0.039669495075941086, 0.019846562296152115, -0.03693563491106033, 0.0023033558391034603, 0.10751784592866898, -0.025547709316015244, 0.039619918912649155, -0.05708231031894684, -0.06013139337301254, 0.006622682325541973, 0.0035807860549539328, 0.011953350156545639, -0.03530731797218323, 0.07589811086654663, -0.043993767350912094, -0.009023670107126236, -0.05995514243841171, 0.022275200113654137, 0.034579869359731674, -0.07088404148817062, -0.004583203233778477, -0.02808588184416294, -0.025851331651210785, -0.04210379719734192, 0.005775376223027706, 0.06796938180923462, -0.007588590029627085, 0.032157380133867264, -0.04072369635105133, 0.017646903172135353, 0.0397193543612957, -0.004128765780478716, -0.018049726262688637, 0.005995574872940779, -0.049318134784698486, -0.0021699608769267797, 0.10055842995643616, -0.0240864809602499, -0.2253209501504898, 0.03300537168979645, -0.029314842075109482, -0.04090740159153938, -0.0318923220038414, 0.06952695548534393, -0.031579792499542236, -0.032037153840065, -0.030727066099643707, 0.013462617062032223, 0.04703975096344948, 0.039193905889987946, 0.014167326502501965, -0.06520894914865494, 0.05727700516581535, 0.018408287316560745, 0.010281993076205254, -0.049759190529584885, -0.0010560540249571204, -0.08275064080953598, 0.04098869115114212, 0.045754507184028625, 0.1218363419175148, -0.006962941028177738, -0.06908302009105682, -0.01593511924147606, 0.0035896473564207554, -0.017841732129454613, 0.0491691417992115, -0.01697995699942112, -0.06275372207164764, -0.01500973105430603, 0.043634120374917984, 0.00416493508964777, 0.061165157705545425, -0.04673527926206589, -0.040153224021196365, -0.025029484182596207, -0.0006497138529084623, 0.0023466444108635187, -0.087227962911129, -0.016591645777225494, 0.012769706547260284, -0.055079445242881775, 0.06888072192668915, -0.03707395866513252, -0.019556041806936264, -0.026698412373661995, 0.012615456245839596, 0.020894110202789307, -0.012428821064531803, -0.038945022970438004, 0.00894072838127613, 0.049594130367040634, 0.008753699250519276, -0.029008114710450172, -0.06889328360557556, 0.006888848729431629, -0.00012467002670746297, -0.03237265720963478, -0.010054558515548706, -0.060914792120456696, 0.04071139544248581, 0.036272209137678146, -0.024191638454794884]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>lack_of_recognition_for_long_term_customers</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Given that one of the questions were about "feeling valued" - more could probably be done to enhance that. I have been using Vodafone / One for many years now and don\'t see any reason to change, however, things like loyalty discounts are always acknowledged and respected from service providers.\nReason for given NPS: Very easy to manage services and at a reasonable market price.', 'Improvement needed: Rewards in the form of lower plan costs for combined family plans as well as locality for years/ decades as a customer.\nReason for given NPS: Always been reliable.', 'Improvement needed: Recognition for being a longstanding One.NZ/Vodafone customer\nReason for given NPS: Shopfront service is great and cellular coverage is certainly widespread. What more could you ask for.', 'Reason for given NPS: Have been with Vodafone for 8 years. Hard to swi', "Improvement needed: Hate to say it but my relationship with one.nz is not much stronger than my relationship with my local supermarket. It just is there, I'm not sure that there is a value element to the relationship - this is an opportunity for one.nz as I know most other SME businesses I know feel the same about their telco's. If I got greater value, I would without question look at new solution/opportunities for my business leveraging one.nz\nReason for given NPS: I'm not entirely certain I'm consistently benefiting as a longstanding client. Given the evolving landscape, I'd appreciate more frequent communication to help me grasp possibilities for incorporating new capabilities and functionalities, as well as optimizing my investment."]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[0.013950888067483902, -0.01285869162529707, -0.01862035132944584, 0.0042222351767122746, 0.004921779967844486, -0.030790453776717186, -0.00751212053000927, 0.021523866802453995, -0.002383546205237508, -0.05117220804095268, 0.024148723110556602, 0.03688855096697807, 0.0029652437660843134, 0.014382153749465942, 0.010179800912737846, 0.01985720358788967, 0.08589767664670944, 0.027553778141736984, 0.019769858568906784, 0.013290297240018845, 0.014770104549825191, -0.05141633003950119, -0.021531855687499046, 0.05149411782622337, -0.020545076578855515, -0.021006150171160698, 0.005165717098861933, -0.037524282932281494, -0.041967883706092834, -0.13124078512191772, 0.001891812775284052, -0.025322293862700462, 0.07179461419582367, 0.00891293678432703, 0.06884025037288666, -0.028575439006090164, -0.017000745981931686, -0.033602502197027206, -0.02428128570318222, 0.013350479304790497, 0.006516645196825266, -0.0022047802340239286, -0.03466946259140968, -0.006970549467951059, -0.039368920028209686, -0.040537912398576736, 0.0275853481143713, -0.05717286095023155, -0.010106625035405159, -0.034695520997047424, -0.008590719662606716, 0.012421990744769573, -0.01290362048894167, 0.031397394835948944, 0.011145392432808876, 0.07826008647680283, -1.9877837985404767e-05, 0.029620841145515442, -0.000901117455214262, -0.007191261276602745, 0.044483039528131485, -0.027984095737338066, -0.15680532157421112, -0.03391985222697258, 0.0017112558707594872, 0.0489855632185936, -0.052336521446704865, -0.05504603311419487, -0.033089056611061096, -0.010691424831748009, 0.02244810201227665, -0.011142175644636154, -0.03586987778544426, 0.05010922625660896, -0.01497900765389204, 0.02872263267636299, 0.025516051799058914, 0.00823773629963398, 0.027354776859283447, 0.01570591703057289, 0.049309976398944855, 0.01678304746747017, -0.03421095758676529, -0.041140079498291016, -0.0689476802945137, -0.036409150809049606, -0.012146404944360256, -0.01516970805823803, 0.018514234572649002, 0.01131164375692606, 0.02844724804162979, 0.016437465324997902, 0.03215732425451279, 0.04135404899716377, -0.02387583814561367, -0.055578045547008514, -0.005045159719884396, 0.044727668166160583, -0.09994300454854965, 0.40572670102119446, -0.011510230600833893, 0.07579512894153595, -0.03406690061092377, -0.025980781763792038, 0.05956953391432762, -0.010444792918860912, -0.05284852907061577, 0.023330042138695717, -0.007676356937736273, -0.011501841247081757, -0.04809711128473282, 0.042848967015743256, 0.0441015399992466, 0.004193894099444151, -0.005233965814113617, 0.06645722687244415, -0.03325293958187103, 0.031188607215881348, -0.01170219574123621, 0.004338169936090708, -0.008618740364909172, 0.003632589243352413, 0.023623459041118622, 0.028743933886289597, -0.02709808200597763, 0.044393230229616165, 0.05091533809900284, 0.09885226935148239, -0.018684284761548042, 0.032736215740442276, -0.022470835596323013, -0.04322631657123566, -0.06228485703468323, 0.03473871946334839, -0.0162875447422266, 0.01663958467543125, -0.009076627902686596, 0.07515154033899307, 0.03859878331422806, 0.004862828180193901, -0.015639642253518105, -0.04923916235566139, 0.04071580991148949, 0.01095943059772253, 0.026938218623399734, 0.08270063251256943, 0.026017922908067703, 0.06465248763561249, -0.04323349893093109, -0.016970863565802574, 0.0032182647846639156, 0.06274879723787308, -0.014998745173215866, -0.024605387821793556, 0.01992347277700901, 0.011727171950042248, 0.05840194597840309, -0.011934257112443447, -0.05184882879257202, 0.025938428938388824, 0.08108295500278473, -0.05887525528669357, -0.03667011111974716, 0.07469714432954788, -0.0052327620796859264, -0.04837724566459656, 0.004862179048359394, -0.01707119308412075, -0.044342003762722015, 0.02575942873954773, 0.008228710852563381, 0.025686733424663544, 0.00705451425164938, 0.012218416668474674, 0.05185864120721817, -0.024909712374210358, -0.06745344400405884, 0.021500399336218834, -0.05708985775709152, -0.02523619309067726, -0.03278087079524994, -0.020474059507250786, -0.04108259454369545, 0.009799668565392494, 0.029640836641192436, -0.010023080743849277, 0.005802431609481573, -0.042310092598199844, -0.006588076241314411, 0.026108669117093086, -0.04521246999502182, -0.041709017008543015, -0.05091201886534691, 0.01016862690448761, 0.007911589927971363, -0.021233651787042618, 0.0039315433241426945, -0.012548203580081463, 0.03710260987281799, -0.07125340402126312, -0.014405695721507072, 0.02314012497663498, 0.027304109185934067, -0.04133180156350136, 0.004078920930624008, 0.0442824512720108, 0.02310347557067871, -0.0102974409237504, 0.06685075163841248, -0.021212635561823845, 0.02323335036635399, -0.016065238043665886, 0.033298663794994354, 0.026066360995173454, 0.017293598502874374, 0.028016256168484688, 0.05122678726911545, 0.02243933267891407, 0.05391906574368477, -0.01323093380779028, 0.06115128472447395, 0.1361883580684662, 0.0070619103498756886, -0.3500787317752838, 0.031357526779174805, 0.025448938831686974, 0.0012033820385113358, -0.011242536827921867, -0.04991825670003891, 0.029732907190918922, 0.007565736770629883, 0.001251852954737842, 0.07452209293842316, 0.005836166441440582, 0.017496461048722267, 0.006100742612034082, -0.025269601494073868, -0.045412011444568634, 0.020929910242557526, -0.017338037490844727, 0.018672967329621315, -0.011317089200019836, 0.0011905652936547995, -0.04775555059313774, 0.05872761830687523, 0.022668547928333282, -0.03300118073821068, 0.0372372530400753, 0.032906416803598404, 0.19803261756896973, -0.06285274773836136, -0.07859030365943909, -0.03265715762972832, 0.0008901151595637202, 0.034926895052194595, -0.08977816253900528, -0.049642644822597504, 0.07898522168397903, -0.022176947444677353, -0.04325484856963158, -0.0037328191101551056, -0.012942205183207989, -0.007101370953023434, -0.04695490375161171, 0.008309680037200451, 0.03369462862610817, -0.0005728729884140193, -0.027270661666989326, 0.004407077562063932, -0.01584133505821228, 0.08832703530788422, -0.05736149847507477, 0.03811575844883919, 0.02961108461022377, 0.0055440617725253105, 0.03710769861936569, 0.061487581580877304, 0.002712995046749711, -0.01924215629696846, -0.051815349608659744, 0.00010844692587852478, -0.035461436957120895, 0.05272432044148445, -0.03226212412118912, -0.018998049199581146, 0.008350181393325329, -0.03798770532011986, 0.036381203681230545, -0.02485593967139721, -0.07442736625671387, -0.004563933704048395, 0.0017125769518315792, -0.011928967200219631, -0.07141701877117157, 0.08434256166219711, -0.0515197291970253, -0.08838135749101639, 0.0015859624836593866, -0.02707192301750183, -0.013524566777050495, -0.0659475326538086, -0.026819663122296333, -0.04032222554087639, 0.02280566282570362, 0.013153222389519215, 0.03336089104413986, 0.06346286833286285, 0.04381817951798439, 0.08361154049634933, 0.008196921087801456, 0.023401601240038872, 0.020094361156225204, 0.004619768355041742, 0.0032788426615297794, -0.005127690266817808, -0.027752773836255074, 0.015744321048259735, 0.05393637716770172, 0.029846733435988426, -0.26521721482276917, -0.01754944771528244, -0.014370594173669815, 0.042029935866594315, 0.002711388748139143, 0.07167660444974899, -0.015856707468628883, -0.02617565169930458, -0.0710766538977623, 0.0035756065044552088, -0.005497639533132315, 0.01737927831709385, 0.003242018399760127, -0.0837397500872612, 0.03326118737459183, 0.040236324071884155, 0.012347306124866009, -0.06486066430807114, 0.008495204150676727, -0.04450863599777222, 0.06126223877072334, 0.05048523470759392, 0.13043826818466187, 0.004241781309247017, -0.051448751240968704, -0.03889104723930359, 0.00024303272948600352, 0.010169240646064281, -0.016150981187820435, -0.027039634063839912, -0.028089819476008415, -0.027770871296525, 0.08598015457391739, 0.0018657500622794032, -0.020926231518387794, 0.013259992003440857, 0.00968290027230978, -0.07870165258646011, 0.019831188023090363, 0.022354014217853546, 0.0278948787599802, 8.871562749845907e-05, -0.009336876682937145, -0.06080568954348564, 0.05794164910912514, -0.04585212841629982, 0.050052642822265625, -0.028350135311484337, -0.010445044375956059, -0.010402403771877289, -0.016637751832604408, -0.06659813225269318, -0.02364511974155903, 0.052952226251363754, 0.05127844214439392, 0.010955913923680782, -0.06102097034454346, 0.01019540335983038, 0.03335460647940636, -0.03194794803857803, -0.038873959332704544, -0.03668239712715149, 0.040403928607702255, 0.01747325249016285, -0.033986110240221024]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>disrespectful_unhelpful_in_store_staff</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Remind your front line in person staff how to treat customers. We are not always right but we are human\nReason for given NPS: I always find the your call centre staff are amazing and super lovely, I wish your staff in store were as helpful.', 'Improvement needed: Customer service &amp; technical knowledge in the Cambridge One Nz store( very keen to hook me in tgen disinterested. A staff member actually used my new I phone to claim my Spotify hours so very unimpressed.\nReason for given NPS: I like the response One Nz is making to block pornography of children from reaching or being able to access by anyone in Nz; also agree with the commitment to ensure total accessibility of mobile phone users through out Nz', 'Improvement needed: Help for older clients in store\nReason for given NPS: 30 years using your service', 'Improvement needed: No affordable plans, ridiculous prices. Customer service below average. What we pay for is not worth it\n', 'Improvement needed: Customer support\nReason for given NPS: Happy with my service']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[-0.042579833418130875, -0.01281821634620428, 0.04275170713663101, 0.008780589327216148, 0.009268716908991337, -0.03809397295117378, 0.05727365240454674, 0.030789051204919815, 0.005724270362406969, -0.03979667276144028, -0.005956435110419989, 0.010809204541146755, -0.011061565950512886, 0.009884062223136425, 0.011563331820070744, -0.030852701514959335, 0.03026100993156433, -0.002266665454953909, -0.05782431364059448, 0.023798849433660507, 0.05206144228577614, -0.036428533494472504, -0.04151428863406181, -0.002640853635966778, -0.03769516944885254, -0.03260570392012596, -0.09159816056489944, 0.009519127197563648, -0.07276055216789246, -0.076820507645607, -0.017219368368387222, -0.013217036612331867, 0.04882459342479706, -0.048831045627593994, 0.036202479153871536, -0.028134580701589584, 0.05063123255968094, -0.03471760451793671, 0.024185432121157646, -0.013113264925777912, -0.0009910084772855043, -0.022237585857510567, -0.057950153946876526, -0.026296280324459076, -0.0055152238346636295, -0.045440178364515305, 0.011114607565104961, -0.08825436979532242, 0.05112449452280998, -0.029461853206157684, -0.017247473821043968, 0.016230832785367966, 0.004156066104769707, -0.008955506607890129, -0.020526401698589325, 0.027864277362823486, 0.07279285043478012, -0.034420400857925415, 0.03405849635601044, 0.025661958381533623, 0.06519803404808044, -0.06644852459430695, -0.07866880297660828, 0.030230525881052017, -0.016785278916358948, 0.005044163670390844, -0.015088994987308979, -0.06353618949651718, -0.07778462022542953, -0.008706558495759964, 0.008237049914896488, -0.0906064510345459, 0.024995669722557068, 0.043472085148096085, 0.010106672532856464, 0.014055026695132256, 0.001659850007854402, -0.015635112300515175, 0.0093908179551363, 0.034036338329315186, 0.009895703755319118, -0.022879090160131454, -0.008602188900113106, 0.007731348276138306, -0.011555188335478306, -0.028659682720899582, -0.009757601656019688, 0.03125731274485588, 0.08597158640623093, 0.008702196180820465, 0.051545608788728714, -0.03901241347193718, 0.04405795410275459, 0.007076567504554987, -0.02887953817844391, -0.07126918435096741, -0.04882240295410156, 0.04283514246344566, -0.09221890568733215, 0.43262335658073425, 0.03211189806461334, 0.019178565591573715, -0.004255541134625673, -0.0074997516348958015, 0.06737957149744034, -7.90212579886429e-05, 0.01035574171692133, 0.005732959136366844, -0.07813724130392075, -0.0044488185085356236, -0.06367943435907364, -0.01960662752389908, 0.07026740908622742, -0.030317584052681923, 0.04281476140022278, 0.044158101081848145, 0.028781520202755928, -0.010098247788846493, -0.06176914647221565, 0.03301990032196045, 0.018672216683626175, 0.06602808833122253, 0.0036021138075739145, 0.0447656475007534, -0.017901260405778885, -0.05181911587715149, -0.03325826674699783, 0.07338409870862961, 0.015149523504078388, 0.01966180093586445, -0.01661386527121067, -0.027769340202212334, 0.007567704189568758, 0.02489415742456913, 0.014677071012556553, 0.06748398393392563, -0.034155622124671936, 0.03818536177277565, 0.09211411327123642, 0.03432505205273628, -0.03759244456887245, -0.0705915316939354, -0.04296806827187538, 0.0006402988219633698, 0.04873967170715332, 0.03716682270169258, -0.0553591251373291, 0.020826928317546844, -0.004742697346955538, 0.02116636373102665, -0.030934417620301247, 0.013421942479908466, -0.004697490483522415, 0.005749591626226902, -0.004640629980713129, -0.004020528867840767, 0.00874175876379013, -0.023841198533773422, 0.020241983234882355, -0.033766280859708786, 0.08999178558588028, -0.013561148196458817, -0.0020768141839653254, -0.06667919456958771, 0.045290153473615646, -0.01622880809009075, 0.010816371068358421, -0.010058489628136158, -0.048086266964673996, 0.01434656698256731, 0.010792871937155724, -0.0032193465158343315, -0.12719690799713135, 0.05165458843111992, 0.06999533623456955, -0.021703209728002548, 0.03623072803020477, 0.036491651087999344, -0.019214926287531853, 0.05899643152952194, 0.034770213067531586, 0.05666249245405197, -0.01045552920550108, 0.003879373427480459, 0.03871256485581398, -0.03777000308036804, -0.009395861066877842, -0.02251838892698288, 0.026181405410170555, 0.06303784996271133, -0.051234062761068344, -0.026759136468172073, -0.04946556314826012, -0.06172241270542145, 0.00824433472007513, 0.018359677866101265, -0.008743807673454285, 0.000694877584464848, 0.0174435842782259, 0.03767024725675583, 0.0614643394947052, 0.003466125810518861, -0.016293345019221306, 0.04576187953352928, 0.029376234859228134, 0.07429210841655731, 0.006540206726640463, -0.011827124282717705, 0.020754454657435417, 0.015989011153578758, -0.057356007397174835, 0.0019198987865820527, -0.02149476855993271, 0.04069346934556961, -0.03316427767276764, 0.021754348650574684, 0.07481606304645538, 0.053430814296007156, 0.03690569847822189, -0.021387744694948196, 0.02905126102268696, 0.09269851446151733, -0.0056106094270944595, -0.3266030251979828, 0.09619641304016113, -0.046655651181936264, -0.02019086293876171, -0.06913277506828308, 0.05117694288492203, 0.029392562806606293, 0.008877989836037159, -0.011049690656363964, 0.057490214705467224, 0.047668907791376114, -0.007383627351373434, 0.03516807034611702, -0.02052938938140869, -0.0003226686967536807, 0.010664565488696098, -0.0028804661706089973, 0.08997026830911636, -0.016372695565223694, -0.010996735654771328, -0.04485032707452774, 0.020320937037467957, -0.03926178440451622, -0.033631227910518646, 0.057257696986198425, 0.04029738903045654, 0.185344398021698, 0.001593400607816875, 0.007834511809051037, -0.0018874984234571457, 0.010993256233632565, 0.0393952950835228, -0.017656991258263588, -0.10302255302667618, 0.029469560831785202, 0.0037570183631032705, -0.0978744626045227, -0.016294412314891815, 0.044175177812576294, -0.009461242705583572, -0.0067175887525081635, 0.046417687088251114, -0.00019630149472504854, -0.022179938852787018, 0.00807521678507328, -0.004684257321059704, -0.06693720072507858, 0.05353774130344391, -0.06892966479063034, 0.046611327677965164, -0.01881716027855873, -0.07284843921661377, 0.024340715259313583, 0.05564418435096741, 0.0206000916659832, -0.022255180403590202, -0.030586151406168938, 0.029492734000086784, -0.010206411592662334, 0.04049989953637123, 0.01870180480182171, -0.03504427149891853, -0.013063769787549973, -0.011401261202991009, 0.00791245698928833, -0.009126756340265274, -0.011812145821750164, 0.000600963132455945, -0.00724929990246892, 0.040340859442949295, -0.029970934614539146, 0.01844719424843788, 0.02982165291905403, -0.039814144372940063, -0.03066120855510235, 0.045911651104688644, -0.06439775228500366, -0.010313513688743114, -0.10307353734970093, -0.020128527656197548, 0.003887500613927841, 0.045040495693683624, 0.035423021763563156, 0.03209969028830528, -0.001011243904940784, -0.025271330028772354, -0.01728958450257778, 0.01655488833785057, 0.07290623337030411, -0.03575407341122627, -0.03720971569418907, 0.0243302620947361, -0.04527638107538223, 0.0022388016805052757, 0.07309488207101822, 0.017482519149780273, -0.25460588932037354, -0.01868196204304695, -0.002958385506644845, 0.020915206521749496, 0.00028221821412444115, 0.08789671212434769, -0.07730691879987717, -0.03133263438940048, -0.008215774782001972, 0.001495371456257999, -0.00931999459862709, 0.0017658632714301348, -0.05793440341949463, -0.05013925954699516, 0.006532500497996807, 0.03467946499586105, 0.02572186291217804, -0.008749413304030895, 0.08988966047763824, -0.0439959317445755, 0.00931075494736433, 0.038956861943006516, 0.13154616951942444, 0.016664188355207443, -0.020761294290423393, -0.04599256440997124, -5.448168667498976e-05, -0.03003278188407421, 0.03455096855759621, 0.023865625262260437, -0.0329403318464756, -0.04273901879787445, 0.04716857895255089, 0.026428822427988052, 0.0045018852688372135, -0.05901478976011276, 0.003900103271007538, -0.0449274405837059, 0.04179031774401665, 0.00992598570883274, -0.03801526129245758, -0.009333709254860878, -0.03170531243085861, 0.004003940615803003, 0.03833790123462677, -0.04864400625228882, -0.022002896293997765, -0.00807652622461319, 0.027614550665020943, -0.03738750144839287, -0.0215852502733469, 0.010390590876340866, -0.03320619836449623, 0.07873248308897018, -0.017295803874731064, -0.0053816623985767365, -0.023101266473531723, -0.03423874080181122, -0.025343574583530426, -0.018506068736314774, -0.017886074259877205, -0.03579346463084221, 0.057610366493463516, 0.02421470545232296, 0.005797428544610739]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>need_better_information_department_contacts</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['Improvement needed: I think it would just be more information on certain sectors that you have in your company and the correct contact details for them. You should also look into your insurance policies and the definitions that you have for ALL of your customers\nReason for given NPS: Your services are great and are affordable than other phone service providers i have tried. I like the constant communication with the customer and the convenience of the app too', 'Improvement needed: Keep your promises\nReason for given NPS: Keep your promises', "Improvement needed: Pricing deals for existing customers.\nReason for given NPS: The service provided is great but I feel I'm currently paying a lot for our broadband as our discount ended.", 'Improvement needed: Support, sometimes the call center does not know how your assets are conected\n', 'Improvement needed: Be proactive in managing accounts, setup yearly reviews or make it easy to do it myself online.\n\nGenerally I can save money when I get someone on the phone but it’s at my behest and not something I can just check online.\nReason for given NPS: I have no major issues when everything is working (which it generally is) but when things change the back end systems can be unforgiving and can be frustrating to fix.']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[-0.0011106104357168078, -0.04283212497830391, 0.0938868448138237, -0.020631922408938408, 0.04119918867945671, -0.04174235090613365, 0.022065896540880203, 0.028828714042901993, -0.04068615287542343, -0.002024770714342594, 0.009977043606340885, 0.022403359413146973, 0.07149253040552139, 0.00818671565502882, 0.06156572699546814, 0.02113395556807518, 0.038781024515628815, -0.03984766826033592, -0.020902516320347786, 0.045444075018167496, 0.055785346776247025, 0.003383204573765397, 0.006681649945676327, 0.03693166747689247, -0.05791362002491951, 0.022964023053646088, -0.029066190123558044, -0.005549689754843712, -0.06527882814407349, -0.07810837030410767, 0.005506728310137987, 0.0643051341176033, 0.02857673168182373, 0.04759828746318817, 0.07245048880577087, -0.009036107920110226, 0.022083351388573647, 0.025107210502028465, -0.02572527714073658, -0.010973867028951645, 0.018535485491156578, -0.00846195314079523, -0.014768115244805813, -0.005708437878638506, -0.02590930089354515, -0.06548330932855606, -0.003662591567263007, 0.011727919802069664, 0.030814722180366516, -0.06733409315347672, -0.010155604220926762, 0.02066471241414547, -0.016193507239222527, -0.01977589540183544, 0.04252581298351288, 0.025677254423499107, 0.0676194429397583, -0.019625578075647354, -0.005896618124097586, 0.011747457087039948, 0.07279282808303833, 0.04196448624134064, -0.15436668694019318, 0.03963056579232216, -0.0023473859764635563, -0.033056337386369705, 0.00860812421888113, -0.07455900311470032, -0.01431465893983841, -0.012098216451704502, -0.052635595202445984, -0.03852193057537079, -0.038797490298748016, 0.04367770627140999, -0.0070798927918076515, -0.024321015924215317, -0.052095722407102585, 0.001464223605580628, 0.058944541960954666, 0.015782419592142105, -0.045008622109889984, -0.032488077878952026, -0.013137984089553356, -0.014771736226975918, 0.01816800981760025, -0.06343907117843628, 0.0024544894695281982, 0.007219730876386166, 0.042914435267448425, 0.0059384810738265514, 0.05801764875650406, -0.053504765033721924, 0.007380849216133356, 0.04392362758517265, -0.0640973225235939, -0.01004831399768591, -0.01122241746634245, 0.046343449503183365, -0.13838455080986023, 0.36606860160827637, -0.04320068657398224, 0.016647791489958763, 0.029796388000249863, 0.00817140657454729, 0.014314991421997547, -0.028673270717263222, 0.027498342096805573, -0.041771791875362396, -0.03653072565793991, 0.028606299310922623, 0.022171856835484505, -0.00455620838329196, -0.017952576279640198, -0.008490733802318573, 0.06928309798240662, 0.06946026533842087, 0.05645327642560005, -0.03173033893108368, -0.06659475713968277, -0.05214356631040573, 0.020791122689843178, 0.009877072647213936, 0.040896590799093246, 0.07815688103437424, 0.02954893931746483, -0.03465230017900467, -0.05448255315423012, 0.061317283660173416, -0.004325999412685633, 0.09439598023891449, -0.008922167122364044, -0.017624273896217346, -0.041655246168375015, -0.008214099332690239, 0.0004086099797859788, -0.024644773453474045, -0.007295474875718355, -8.750591950956732e-05, -0.002410103799775243, 0.04413232579827309, 0.007623071316629648, -0.08703534305095673, -0.05623390153050423, -0.04081073775887489, -0.050666023045778275, 0.13586671650409698, -0.15047051012516022, 0.022304708138108253, -0.022732669487595558, -0.07418251037597656, 0.013958577066659927, 0.004097079858183861, 0.002235097112134099, -0.04476271942257881, -0.008272098377346992, -0.02469536103308201, 0.028353387489914894, 0.012118781916797161, -0.003658987581729889, 0.028653811663389206, 0.0697760060429573, -0.0315498523414135, 0.0035159841645509005, 0.06598232686519623, 0.0013050263514742255, -0.03887903690338135, -0.07900002598762512, 0.007934118621051311, -0.028586428612470627, -0.009528019465506077, 0.007021748460829258, 0.038355886936187744, 0.019032467156648636, 0.02386712282896042, 0.1218036562204361, -0.07050461322069168, -0.008603624068200588, 0.06475584208965302, -0.013837253674864769, -0.012369727715849876, 0.028840038925409317, -0.009744446724653244, 0.025383707135915756, -0.003820266341790557, 0.03112512268126011, -0.02567393332719803, -0.025038789957761765, 0.005877434741705656, 0.007923570461571217, 0.0036695937160402536, -0.12330496311187744, 0.011769760400056839, 0.016256049275398254, -0.03478161618113518, -0.0602414608001709, -0.033727314323186874, 0.02103225328028202, -0.015083208680152893, -0.021784568205475807, -0.025692055001854897, 0.01608012430369854, -0.013970818370580673, -0.09694582968950272, 0.05719902366399765, -0.015546338632702827, 0.007787054404616356, 0.01992962509393692, -0.04410310834646225, 0.06059388816356659, 0.023973001167178154, -0.006678770296275616, -0.068488210439682, 0.12041372060775757, -0.004606221802532673, -0.043267637491226196, -0.013455056585371494, 0.020566923543810844, 0.014475401490926743, 0.018940027803182602, 0.007479147985577583, 0.03296409547328949, 0.10471558570861816, 0.02284979447722435, -0.30673420429229736, 0.021412862464785576, -0.04582526162266731, -0.012362486682832241, -0.060243476182222366, -0.002059387043118477, 0.08424865454435349, 0.030503030866384506, -0.017460880801081657, 0.13954220712184906, -0.007831254042685032, 0.012718260288238525, 0.010251856409013271, -0.019593479111790657, -0.0071629006415605545, 0.04373839497566223, 0.06574515998363495, 0.021223096176981926, 0.00018035359971690923, -0.013800814747810364, 0.025817755609750748, 0.015007790178060532, 0.01931634545326233, -0.0028288359753787518, 0.0303519144654274, -0.0040816026739776134, 0.14514215290546417, 0.028573378920555115, -0.046611323952674866, -0.00983946118503809, 0.026344673708081245, 0.05331287905573845, -0.03524536266922951, -0.1031072810292244, 0.03301123157143593, -0.014513983391225338, -0.04887765645980835, 0.02626657858490944, 0.008837473578751087, -0.03583565726876259, -0.012618569657206535, 0.0200188085436821, 0.012423975393176079, 0.00306705292314291, 0.018849246203899384, -0.017025943845510483, -0.04248466715216637, -0.022404097020626068, -0.041877154260873795, 0.013085237704217434, -0.04694519564509392, 0.017328409478068352, 0.011174151673913002, 0.04472914710640907, 0.01652105152606964, 0.005151343531906605, -0.04393511265516281, -0.009162208065390587, -0.005168826784938574, 0.023287247866392136, -0.0451040118932724, -0.0034175144974142313, 0.003623743774369359, -0.04769762232899666, -0.01142981369048357, -0.0011314575094729662, -0.035413775593042374, -0.0012577645247802138, 0.011824376881122589, 0.05535297840833664, -0.053580787032842636, 0.030508091673254967, -0.03342439606785774, 0.0021238403860479593, -0.042346544563770294, -0.017650194466114044, -0.006837827153503895, -0.0021315685007721186, -0.040387120097875595, -0.06850657612085342, 0.040260620415210724, -0.022703981027007103, 0.05962707847356796, 0.0004938060883432627, 0.023454267531633377, 0.011537902988493443, 0.042180754244327545, 0.019511574879288673, 0.004625927656888962, 0.010832160711288452, -0.01517182495445013, -0.004553217440843582, -0.03153356909751892, 0.0003256697964388877, 0.09714823216199875, -0.024567676708102226, -0.267288476228714, 0.03755655512213707, 0.05795463174581528, 0.021878723055124283, -0.007911968976259232, 0.022631162777543068, 0.015619701705873013, -0.015912415459752083, -0.0002811579906847328, -0.0063349721021950245, 0.014531786553561687, 0.0037691176403313875, -0.0747160017490387, -0.03012017346918583, 0.00598375266417861, 0.07263419032096863, 0.04085846617817879, -0.013753815554082394, -0.058625780045986176, 0.013374675996601582, 0.0032914180774241686, 0.030527815222740173, 0.1711171567440033, 0.00983354914933443, -0.03859734907746315, 0.007406369782984257, 0.02635827288031578, 0.010628758929669857, -0.010574521496891975, -0.045660875737667084, 0.02182100899517536, -0.04575749486684799, 0.003171716583892703, 0.015943903475999832, 0.024720655754208565, 0.04365145415067673, 0.013886911794543266, -0.057733505964279175, -0.008531727828085423, -0.027515742927789688, -0.05554986372590065, 0.0028994022868573666, -0.07176756113767624, 0.018962806090712547, 0.0864824503660202, 0.027301985770463943, -0.006851650774478912, 0.037587668746709824, 0.03204283490777016, 0.04227709770202637, -0.06889821588993073, -0.06256557255983353, 0.012779396958649158, 0.040115609765052795, 0.04264535382390022, 0.026670649647712708, -0.04959258437156677, 0.03521443158388138, -0.013555129058659077, 0.031066877767443657, -0.045348573476076126, -0.058203116059303284, -0.0009578893659636378, -0.007955468259751797, 0.02782793529331684]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>customer_seeking_guidance_understanding_services</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Unsure I'm still learning about your service\nReason for given NPS: At the moment I'm still learning about it", 'Improvement needed: Customer service &amp; technical knowledge in the Cambridge One Nz store( very keen to hook me in tgen disinterested. A staff member actually used my new I phone to claim my Spotify hours so very unimpressed.\nReason for given NPS: I like the response One Nz is making to block pornography of children from reaching or being able to access by anyone in Nz; also agree with the commitment to ensure total accessibility of mobile phone users through out Nz', 'Improvement needed: Keep your promises\nReason for given NPS: Keep your promises', "Improvement needed: I haven't read anything on Ones efforts for sustainability and a bit unsure how to answer the overall relationship questions as I have really interacted with One personally. Also not sure about the rewards program either and didn't know there was one.\nReason for given NPS: I haven't been with any other company to compare but haven't had any problems with One and theonthly charge is cheap for what you get.", 'Improvement needed: Providing actual communication about plan options.\nReason for given NPS: I was not informed that I was switched to One. I then got a giant bill that was not adequately explained to me before I was even provided an online login. My rates are not good for a family plan. I am actively seeking another option.']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[0.019076034426689148, -0.03760279342532158, 0.007188876159489155, -0.01476364303380251, 0.008000822737812996, -0.04379428178071976, 0.04287941753864288, 0.029964454472064972, 0.006891785655170679, -0.03300981968641281, 0.019047321751713753, 0.0177578404545784, 0.006291231606155634, 0.015716271474957466, 0.06015449017286301, 0.014167197979986668, 0.04413076117634773, 0.009388962760567665, -0.00742611289024353, 0.035825926810503006, 0.06464382261037827, -0.03675161674618721, -0.06215192377567291, -0.0005388465942814946, -0.005289530381560326, 0.004862114321440458, 0.025404850021004677, -0.0186684001237154, -0.036819685250520706, -0.0846698060631752, 0.01702105812728405, -0.02012948878109455, 0.02029251679778099, 0.012172907590866089, 0.016570385545492172, -0.006005244795233011, -0.0015273547032848, -0.003668996738269925, 0.1044604480266571, 0.040916766971349716, 0.03276004269719124, -0.045632254332304, -0.019578473642468452, 0.015057096257805824, -0.04670918732881546, -0.06155063584446907, 0.016893789172172546, 0.012075158767402172, -0.006303142290562391, -0.08320502191781998, -0.03781832382082939, 0.003029466373845935, -0.048368580639362335, -0.01942901313304901, -0.0031716369558125734, 0.046370480209589005, 0.06514502316713333, 0.040914926677942276, 0.04626201093196869, 0.006001518573611975, 0.04186711832880974, -0.06523460894823074, -0.18283507227897644, 0.05721442028880119, 0.0073028793558478355, 0.02437943033874035, -0.029939590021967888, -0.04882640019059181, -0.025012794882059097, 0.005325041711330414, -0.004832009319216013, -0.022601908072829247, -0.050456173717975616, 0.057536039501428604, 0.014216003008186817, 0.04418335482478142, 0.01899023912847042, -0.017222236841917038, 0.0003177465405315161, 0.018469154834747314, -0.029347160831093788, 0.019564848393201828, -0.0012515205889940262, -0.015987036749720573, -0.06386891007423401, 0.004630090203136206, 0.014955878257751465, 0.006294350139796734, 0.045405786484479904, 0.018400775268673897, 0.052228763699531555, -0.015647972002625465, -0.09311290085315704, -0.02128273993730545, -0.05996246635913849, -0.06425268203020096, -0.009328884072601795, -0.03515920788049698, -0.07658137381076813, 0.3699449598789215, 0.05406522378325462, 0.026688875630497932, 0.008791550993919373, -0.021695362403988838, 0.02035478502511978, -0.06737546622753143, -0.0270257368683815, 0.002682634862139821, 0.026324566453695297, -0.015005826950073242, -0.06705551594495773, -0.045026034116744995, 0.06107519567012787, 0.007368891499936581, -0.02143506146967411, 0.12087614834308624, -0.019537318497896194, -0.02532910741865635, 0.06618747860193253, -0.02986472100019455, -0.01951107569038868, -0.021480996161699295, 0.02183510735630989, -0.006093799136579037, -0.003336326451972127, -0.03999602422118187, 0.04141831770539284, 0.07608195394277573, -0.057920292019844055, 0.053567275404930115, 0.02663441002368927, 0.008238411508500576, -0.06264413148164749, 0.028941720724105835, 0.001183825428597629, 0.014435997232794762, 0.028051985427737236, -0.013822940178215504, 0.03691695258021355, 0.07419652491807938, 0.003072744468227029, -0.06226338446140289, 0.030965929850935936, -0.07662765681743622, -0.026943188160657883, 0.1084270253777504, -0.0004582645487971604, 0.028807206079363823, -0.04509272798895836, -0.02519318088889122, 0.006702953949570656, 0.08248785138130188, -0.004019428510218859, -0.008545654825866222, -0.03145157918334007, 0.028495846316218376, 0.103374183177948, -0.007873764261603355, -0.05432741716504097, 0.031904060393571854, 0.06590697169303894, -0.056274816393852234, -0.06171926110982895, 0.03966455161571503, 0.0016326674958691, -0.0888746902346611, -0.015343754552304745, 0.0012416159734129906, -0.0430896170437336, 0.0374712236225605, -0.032008446753025055, 0.06981313973665237, -0.04547945410013199, 0.07523518055677414, 0.07174479961395264, 0.010151848196983337, -0.06012384966015816, -0.002007447648793459, -0.07774057984352112, 0.007288593798875809, 0.032700248062610626, -0.016605591401457787, 0.010808343067765236, 0.009779537096619606, 0.02116011083126068, -0.03942854702472687, 0.03689780458807945, -0.054158661514520645, 0.00022900407202541828, -0.06182769313454628, -0.049368906766176224, -0.03954857960343361, -0.016901006922125816, -0.03809100389480591, 0.01784844696521759, 0.030933134257793427, -0.003680199384689331, -0.007708356715738773, 0.011845567263662815, -0.011701855808496475, 0.040073756128549576, 0.0420287624001503, -0.0761084333062172, 0.07503785192966461, -0.07348725199699402, 0.051830802112817764, 0.015887262299656868, 0.00044037718907929957, 0.061816148459911346, -0.011764196678996086, -0.04682069271802902, 0.02900092490017414, 0.050352197140455246, 0.018344242125749588, 0.041949037462472916, -0.017763031646609306, 0.045729901641607285, 0.05523694306612015, -0.0015183623181656003, 0.017723122611641884, 0.01915852539241314, 0.09181024879217148, -0.00962742604315281, -0.3102748692035675, 0.010217471048235893, -0.027842136099934578, 0.03872152045369148, -0.05847625806927681, 0.049251385033130646, 0.0340120866894722, 0.017838945612311363, -0.04774438962340355, 0.05949506536126137, 0.08890323340892792, -0.01603083312511444, 0.04402802884578705, -0.011969299986958504, 0.034723035991191864, 0.003357626497745514, 0.018665943294763565, -0.010471740737557411, -0.02281755395233631, -0.010475409217178822, -0.0033687041141092777, 0.03650486096739769, 0.05020155385136604, -0.0758785679936409, 0.0071235643699765205, 0.024120209738612175, 0.1339382827281952, -0.03569819778203964, -0.04586394876241684, -0.06931745260953903, 0.020058248192071915, 0.001385740702971816, -0.02497783862054348, -0.0851781815290451, 0.041529618203639984, 0.007176883984357119, -0.022075362503528595, 0.038458202034235, 0.0011386680416762829, -0.03920990601181984, 0.015673985704779625, 0.03417586162686348, -0.05065121129155159, 0.002754254499450326, -0.018373005092144012, -0.04247717931866646, 0.019799508154392242, 0.04528716579079628, -0.047517918050289154, 0.03790866583585739, -0.019022859632968903, 0.00853378139436245, 0.01288334559649229, 0.019939573481678963, -0.03968371823430061, -0.03136633336544037, -0.03664228692650795, -0.005685764830559492, -0.0367329865694046, 0.011608043685555458, -0.0034447601065039635, 0.07048917561769485, 0.03989909961819649, -0.0408015251159668, 0.025559179484844208, -0.02176401950418949, -0.006499000359326601, 0.04799224063754082, -0.018854960799217224, -0.033464446663856506, -0.0681162104010582, 0.007558430079370737, -0.039863962680101395, 0.0010080693755298853, -0.00815730169415474, 0.029282210394740105, 0.020087458193302155, -0.03762512654066086, -0.07023175805807114, -0.05388184264302254, 0.04048802703619003, 0.010624059475958347, 0.007062155287712812, -0.04069463536143303, 0.0380726158618927, -0.01093801949173212, 0.003984699957072735, 0.0076937745325267315, 0.006681346800178289, -0.03652878850698471, -0.03227430582046509, -0.028518564999103546, -0.07093966007232666, -0.0727890208363533, 0.11444536596536636, -0.009543991647660732, -0.2705303132534027, -0.0014718202874064445, -0.01200698409229517, 0.02775343507528305, -0.04710182920098305, 0.07449298352003098, 0.04071997106075287, 0.008268734440207481, -0.034574657678604126, 0.014676759019494057, -0.014009014703333378, 0.01227134931832552, 0.011167016811668873, -0.02815452218055725, -0.001858673756942153, 0.058424122631549835, 0.08453851193189621, -0.013587092980742455, -0.008252318948507309, -0.02943265624344349, 0.03759096562862396, 0.03373369202017784, 0.19259588420391083, 0.026462819427251816, -0.015864145010709763, 0.01796570234000683, -0.014622244983911514, -0.06691078841686249, 0.002510156948119402, -0.006452686153352261, -0.0010690120980143547, -0.042332231998443604, 0.05456777662038803, 0.003981405403465033, -0.011845031753182411, 0.019157251343131065, 0.00035678045242093503, 0.014104746282100677, 0.04869558662176132, -0.01115395687520504, -0.027354780584573746, 0.022599579766392708, -0.013602564111351967, -0.006239327136427164, 0.04160994663834572, 0.032913003116846085, -0.0347805991768837, -0.07486610859632492, -0.0029013033490628004, -0.029251940548419952, -0.009329089894890785, -0.02492322400212288, 0.01984512433409691, 0.0453970693051815, 0.08641085773706436, 0.012522347271442413, -0.08147317171096802, -0.04309817776083946, 0.012237352319061756, 0.021663885563611984, 0.019899845123291016, -0.05442896485328674, 0.06103093922138214, -0.001977690029889345, 0.024606499820947647]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>call_center_poor_issue_resolution</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Communication especially at call centre\nReason for given NPS: continual issues with service. Very difficult to resolve due to poor communication.', 'Improvement needed: TechniiCal service by telephone\nReason for given NPS: Shop service is great especially Sylvia park. Very customer focused. \nPhone service not great. Too long a wait &amp; not helpful. Sent me to store!', 'Improvement needed: Customer service with the ability to talk to someone that does not have English as a second language. This is not racist, just that you have customers that are elderly with reduced capacity to process dialects that are spoken quickly. This opinion is backed up by most residents in my retirement village and therefore not an isolated incident.\nReason for given NPS: My landline was disconnected  for an unknown reason and it took 12 days for you to fix it. Also after sending a reply text to a service person it was not replied to. This happened twice. Asked to speak to an technician or manager that speaks English as a first language and was refused.', 'Improvement needed: Lessen the waiting queue when calling through. Easier to call through to contact centre\nReason for given NPS: Great services with affordable prices', "Improvement needed: Reception around the country could be improved for some reason I'll have 4g signal then it disappears for whatever reason\nReason for given NPS: Had an issue with an account &amp; no-one replied until I copied CEO in!!"]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[-0.011641805060207844, -0.0005479151150211692, -0.012035435065627098, -0.023678340017795563, -0.07544871419668198, -0.06090537831187248, -0.0540926456451416, 0.09350807219743729, 0.023395121097564697, -0.04974234849214554, 0.04191169515252113, 0.019725363701581955, 0.06587540358304977, 0.007793445605784655, 0.03827023506164551, 0.07005991041660309, 0.045219115912914276, 0.012054147198796272, 0.00016042511560954154, 0.0660465732216835, 0.04468514770269394, -0.03948700800538063, 0.030219264328479767, 0.04478902369737625, -0.030429882928729057, 0.00967731699347496, -0.05706876143813133, -0.06658276170492172, -0.09190118312835693, -0.1656719297170639, -0.007736916188150644, 0.04806603863835335, 0.05716646835207939, 0.017783211544156075, 0.06659901142120361, -0.023058516904711723, -0.0521358884871006, 0.05133795365691185, -0.017124556005001068, 0.0097621139138937, 0.016945211216807365, 0.02240191400051117, -0.021463939920067787, -0.03864673152565956, -0.02461208403110504, -0.04935956001281738, 0.014016268774867058, -0.00660849129781127, 0.04166073724627495, -0.08188683539628983, -0.02530103549361229, -0.017687292769551277, -0.04783431068062782, 0.025555212050676346, 0.0006174578447826207, 0.05721855163574219, 0.08337146043777466, 0.02208111062645912, 0.04246051609516144, -0.006653225515037775, 0.03535207733511925, -0.04359642416238785, -0.17632119357585907, 0.049110911786556244, 0.01892981491982937, -0.029953887686133385, 0.0489613302052021, -0.0046528540551662445, -0.03557378426194191, -0.023141302168369293, -0.06159485876560211, -0.03271552175283432, -0.0017336109885945916, 0.10244066268205643, 0.03931628167629242, -0.037604186683893204, -0.01915200613439083, 0.04147777706384659, 0.038423895835876465, 0.032362524420022964, -0.0017660808516666293, -0.003275418421253562, 0.0016397754661738873, -0.028507553040981293, 0.0072045945562422276, -0.06662201881408691, 0.030643247067928314, 0.016700472682714462, 0.03144435957074165, 0.006074458360671997, 0.019610511139035225, -0.007862848229706287, 0.00984012708067894, 0.07892096042633057, -0.08543509989976883, -0.053575485944747925, -0.03923630341887474, -0.03131835535168648, -0.12412911653518677, 0.3882571756839752, -0.007666348479688168, 0.028545597568154335, 0.06114640086889267, -0.004052779637277126, 0.001401621731929481, -0.04058834910392761, -0.02993970923125744, -0.03391626849770546, -0.05697670951485634, 0.037240900099277496, 0.03969825431704521, -0.06336894631385803, 0.026623893529176712, -0.032047390937805176, 0.05864638462662697, 0.005071562249213457, 0.032293882220983505, -0.02658444084227085, -0.03247751295566559, 0.0012426087632775307, 0.0314786396920681, -0.006813004147261381, -0.0009448829223401845, 0.011795680969953537, 0.017608461901545525, -0.008515570312738419, -0.018902281299233437, 0.11882099509239197, 0.018147721886634827, 0.0008947415044531226, 0.026687240228056908, 0.005623141303658485, 0.016343070194125175, 0.010437732562422752, 0.006438239943236113, -0.006351102609187365, -0.03182443603873253, 0.023912329226732254, 0.021351667121052742, 0.018987320363521576, -0.03922104090452194, -0.07110971957445145, -0.07109072059392929, -0.027772212401032448, -0.03740262985229492, 0.10105474293231964, -0.07592543959617615, 0.021570129320025444, -0.05863271653652191, -0.0802924707531929, 0.012006957083940506, 0.012296590022742748, 0.016928356140851974, -0.0031274252105504274, -0.016930632293224335, -0.013824385590851307, -0.010233763605356216, -0.04021334648132324, 0.0028577265329658985, 0.03813619166612625, 0.053913455456495285, -0.029604164883494377, -0.0631522387266159, 0.09754560142755508, 0.0049766008742153645, -0.06036842241883278, -0.010651453398168087, 0.017214886844158173, -0.0513371117413044, 0.026706354692578316, -0.0251059141010046, 0.027793122455477715, 0.05821841582655907, -0.015031075105071068, 0.03228366747498512, 0.017777590081095695, -0.038289207965135574, 0.025846363976597786, -0.004392790608108044, 0.027418268844485283, 0.0334065705537796, 0.041155166923999786, -0.00222560646943748, -0.02258766070008278, 0.033737313002347946, -0.06699727475643158, -0.00018309539882466197, 0.009722924791276455, 0.04358634352684021, -0.045080218464136124, -0.12382687628269196, -0.06225176900625229, -0.04451228305697441, -0.030594876036047935, -0.05006251484155655, -0.020841892808675766, -0.005589095409959555, -0.011286348104476929, 0.026593510061502457, 0.0002679933968465775, 0.1075938269495964, 0.0280999056994915, -0.056650128215551376, 0.0525008849799633, -0.0020741568878293037, 0.05245271697640419, -0.03669201210141182, -0.06043753772974014, 0.020181551575660706, -0.0017344508087262511, -0.06171738728880882, -0.024306917563080788, 0.09362227469682693, 0.041058801114559174, -0.018416980281472206, -0.004880991298705339, -0.002421441487967968, 0.016965342685580254, 0.007183675188571215, 0.0013554430333897471, 0.044976137578487396, 0.10742179304361343, -0.007998684421181679, -0.2926158010959625, -3.403703522053547e-05, 0.0015548989176750183, -0.03372405469417572, -0.07357914000749588, 0.01831674948334694, -0.029115872457623482, -0.016864102333784103, 0.012264219112694263, 0.039421629160642624, 0.006881969515234232, 0.04827176034450531, 0.003389214165508747, 0.00690664304420352, 0.012887787073850632, -0.007171706296503544, -0.010339159518480301, 0.0499928779900074, -0.028109757229685783, 0.03258754685521126, 0.005346080753952265, 0.0027992306277155876, 0.010388010181486607, -0.05840082839131355, 0.0353899747133255, 0.0225079208612442, 0.1338985413312912, 0.019901089370250702, 0.013384256511926651, 0.04407485947012901, 0.058016303926706314, 0.027382632717490196, -0.008758783340454102, -0.051131684333086014, 0.03185585141181946, 0.046454548835754395, -0.007348231505602598, 0.01535748690366745, -0.009727101773023605, -0.015537760220468044, -0.06014830991625786, 0.03500322625041008, -0.052191220223903656, -0.043144430965185165, 0.04402962699532509, 0.02020512893795967, -0.05234668776392937, 0.04878941550850868, -0.04260063171386719, -0.008415007963776588, -0.017850765958428383, 0.010958722792565823, 0.02405986562371254, 0.039471182972192764, 0.07930418848991394, 0.013746723532676697, -0.0987432524561882, -0.024631815031170845, 0.014180660247802734, -0.0404888316988945, 0.0011121100978925824, -0.028542296960949898, 0.048282645642757416, -0.041591595858335495, 0.060626063495874405, 0.002065547974780202, 0.03038506768643856, 0.010755994357168674, 0.016004499047994614, 0.0422992967069149, -0.016336020082235336, 0.027543513104319572, -0.02650586888194084, 0.013986057601869106, -0.03819067031145096, 0.020163485780358315, 0.0007659686380065978, -0.07287511974573135, -0.022684995085000992, -0.0609157532453537, 0.0568978413939476, 0.02937942184507847, 0.038623955100774765, -0.05643899738788605, 0.01246965304017067, 0.030262541025877, 0.004497496411204338, 0.05938262864947319, 0.02155386097729206, -0.08570991456508636, -0.026007281616330147, 0.016491668298840523, -0.0453341081738472, -0.003343293210491538, 0.07126452028751373, -0.010500773787498474, -0.22205720841884613, 0.002082363935187459, 0.049353186041116714, -0.05134788900613785, 0.004030175972729921, 0.07927507162094116, 9.021838923217729e-05, 0.01901405118405819, -0.06099644675850868, -0.0033483998849987984, -0.015893707051873207, -0.009123983792960644, -0.027517957612872124, -0.03657110780477524, 0.02566465735435486, 0.040076665580272675, 0.03380109742283821, -0.03489161282777786, 0.004544390831142664, -0.015693988651037216, 0.0056883543729782104, 0.06994319707155228, 0.10603220015764236, -0.056362900882959366, -0.04636479541659355, 0.03282259777188301, 0.05428877845406532, 0.0018027647165581584, -0.013241162523627281, 0.0006016638362780213, -0.054066166281700134, -0.0066353739239275455, 0.05690985172986984, -0.007081964518874884, -0.004452917724847794, -0.03023431822657585, 0.01830419898033142, -0.029762741178274155, 0.02583376131951809, 0.03415891155600548, -0.0371028296649456, 0.036346908658742905, -0.009285458363592625, -0.0020865267142653465, 0.06646405160427094, 0.011908160522580147, 0.011462029069662094, 0.030043572187423706, 0.07023297995328903, -0.032514818012714386, -0.039087604731321335, -0.06474080681800842, 0.05280676484107971, -0.01675618626177311, -0.017155898734927177, 0.030148711055517197, -0.028964867815375328, 0.03545549139380455, -0.0371149480342865, 0.019595488905906677, 0.008032710291445255, -0.057489097118377686, 0.03517796844244003, -0.04781751334667206, 0.052770841866731644]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>operator_communication_clarity_issues</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Sometimes hard to understand an operator when talking to them found it easier going into a store\n', 'Improvement needed: valued assistance, value long servicing customers\nReason for given NPS: difficulty when phoning for assistance and the wait time', 'Improvement needed: connection through the modem, from one room to the next in my house it drops out. and when following up with concerns the comms over the phone many atimes there has been a slight language barrier which does not help the comms to move forward after lengthy waiting.\nReason for given NPS: connection is terrible', 'Improvement needed: Better communication with the client ok!\nReason for given NPS: Why because. They seem to want. One TV is b best provider cheers L', 'Improvement needed: Communication especially at call centre\nReason for given NPS: continual issues with service. Very difficult to resolve due to poor communication.']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[-0.02605573646724224, 0.0023859681095927954, 0.02802080474793911, -0.031729940325021744, -0.058896251022815704, -0.04788610711693764, 0.030187608674168587, 0.07948507368564606, 0.026791706681251526, -0.05762558430433273, -0.0222824327647686, -0.04805155098438263, 0.01821875385940075, 0.0042718988843262196, 0.07461041212081909, 0.052465617656707764, 0.029244650155305862, 0.0006421542493626475, 0.0038766844663769007, -0.03296268358826637, 0.04057512804865837, -0.014873056672513485, -0.020317142829298973, 0.03546904772520065, -0.05242869630455971, 0.01593875139951706, -0.019752630963921547, -0.00023148472246248275, -0.02181823179125786, -0.1962672770023346, -0.0509677417576313, 0.009079938754439354, 0.03571233153343201, 0.001985470298677683, 0.03445624187588692, 0.006509836297482252, -0.006017694715410471, 0.0013778022257611156, -0.04564966633915901, 0.04794859513640404, 0.023686865344643593, 0.01436118595302105, -0.028029322624206543, -0.009939574636518955, -0.04459397867321968, -0.07095175236463547, 0.005722877103835344, -0.010360774584114552, 0.030318135395646095, -0.09591570496559143, -0.04089517891407013, 0.00446010148152709, -0.006266663316637278, -0.00902576558291912, 0.021940849721431732, 0.004247094504535198, 0.05334590747952461, 0.08502950519323349, 0.02552894316613674, 0.008225464262068272, -0.004959760699421167, -0.0005581830046139657, -0.16318698227405548, 0.09661204367876053, 0.05100845918059349, -0.02937837690114975, 0.02534363977611065, -0.058370109647512436, -0.010428689420223236, -0.012099457904696465, 0.022474486380815506, -0.026619184762239456, -0.02456950768828392, 0.02870495617389679, 0.05229180306196213, -0.03721080720424652, -0.02101145125925541, 0.015020023100078106, 0.06641680747270584, 0.04129436984658241, -0.04150408133864403, -0.027651915326714516, 0.0005100101116113365, -0.044179026037454605, -0.04212646186351776, -0.05858584865927696, 0.061895985156297684, 0.022531650960445404, 0.01867952011525631, 0.007764574605971575, -0.029425743967294693, -0.01565411314368248, 0.020061632618308067, 0.03275799751281738, -0.02222577854990959, 0.018212905153632164, -0.004323238972574472, -0.016599083319306374, -0.09220694750547409, 0.3395460247993469, -0.03179492428898811, 0.014985188841819763, 0.020067472010850906, -0.0017658689757809043, -0.004252214450389147, -0.01828349195420742, -0.027700552716851234, -0.047915272414684296, -0.06340482831001282, 0.03017525002360344, 0.0029119860846549273, -0.03494022414088249, 0.05461113899946213, 0.027483638375997543, -0.017789416015148163, 0.1330263912677765, 0.04620246961712837, -0.007222720887511969, -0.07025589048862457, -0.002623235573992133, 0.011380458250641823, 0.0035982008557766676, 0.021652454510331154, 0.07090828567743301, -0.009707066230475903, 0.0109295304864645, 0.044712696224451065, 0.11096487939357758, -0.005922607611864805, 0.08539333939552307, 0.01789337769150734, 0.021560978144407272, -0.013545340858399868, 0.016535179689526558, 0.017800066620111465, -0.024098213762044907, -0.043385427445173264, 0.03511854633688927, 0.021430566906929016, 0.07110834121704102, 0.014285015873610973, -0.06200322508811951, -0.004785985220223665, -0.05922261252999306, -0.023848403245210648, 0.11342724412679672, -0.11229097843170166, 0.015135490335524082, -0.015232845209538937, -0.017202848568558693, 0.025586118921637535, 0.018810918554663658, 0.026988424360752106, 0.0008585429168306291, -0.026139389723539352, 0.020645422860980034, 0.00017096358351409435, -0.029089007526636124, -0.04437503218650818, 0.0406474769115448, 0.03863886371254921, -0.034348949790000916, 0.005701775662600994, 0.09506890922784805, -0.04677167162299156, -0.0009337632218375802, -0.021681182086467743, -0.02463661879301071, 0.010532958433032036, -0.017504572868347168, -0.01572602055966854, 0.016871687024831772, 0.006817555520683527, -0.03188508749008179, -0.002924236236140132, -0.0077538141049444675, -0.04192790016531944, 0.058882031589746475, -0.04258064925670624, 0.007507883012294769, 0.045092832297086716, 0.026423964649438858, 0.007455302868038416, 0.03166896104812622, 0.058503538370132446, -0.043432753533124924, 0.028931833803653717, -0.01744779944419861, 0.0477626733481884, -0.01779477298259735, -0.05179910734295845, -0.0495048388838768, -0.03524664044380188, -0.025721540674567223, -0.07553870230913162, -0.04559418931603432, 0.005083306226879358, -0.04456115886569023, -0.044736362993717194, 0.023526214063167572, 0.09315750747919083, -0.006289632525295019, -0.030526919290423393, 0.05645313486456871, -0.01752910390496254, -0.01714632660150528, 0.00013932133151683956, -0.03402130305767059, 0.011547925882041454, 0.060998160392045975, -0.02810709923505783, -0.03172338753938675, 0.004195944871753454, 0.013817708939313889, 0.031375255435705185, -0.0006623218068853021, -0.023479031398892403, 0.06093791499733925, -0.008581592701375484, 0.010612010955810547, -0.03586237132549286, 0.051666997373104095, -0.047839343547821045, -0.3392345607280731, 0.00852976180613041, -0.026854045689105988, -0.007229493465274572, -0.03858799859881401, -0.032102372497320175, 0.06337611377239227, 0.039879776537418365, 3.291330358479172e-05, 0.031692467629909515, 0.022389797493815422, 0.06905446946620941, -0.03543383255600929, -0.04812999442219734, 0.017996957525610924, -0.0077397748827934265, -0.010013329796493053, 0.027347654104232788, -0.028489818796515465, 0.02910439483821392, -0.032674357295036316, 0.033387210220098495, 0.013546955771744251, -0.0661708265542984, -0.02591659128665924, -0.017806682735681534, 0.16035351157188416, -0.031999703496694565, 0.0033670933917164803, 0.06329309195280075, 0.039275914430618286, 0.0331542082130909, -0.026526356115937233, -0.06520970910787582, 0.038372449576854706, 0.06869715452194214, -0.0338754840195179, 0.07049082219600677, 0.060322605073451996, 0.02356157824397087, -0.0025967054534703493, 0.029891032725572586, -0.05252021923661232, 0.029197275638580322, 0.01876690983772278, -0.0798482820391655, -0.05317945033311844, -0.003463966539129615, -0.03700185567140579, 0.0015896768309175968, 0.024485453963279724, 0.025098292157053947, 0.03359250724315643, 0.009230643510818481, 0.014497932977974415, -0.013405266217887402, -0.017402585595846176, 0.008625482209026814, -0.01915510930120945, 0.01669374853372574, 0.0026333052664995193, -0.03131486475467682, -0.005020076874643564, -0.01841401308774948, 0.06879311800003052, 0.04072757437825203, 0.0013409280218183994, -0.03924780711531639, 0.052810188382864, -0.010500646196305752, -0.04193554446101189, 0.046255771070718765, -0.01820593886077404, -0.021131346002221107, 0.02548098750412464, 0.05550329014658928, -0.0069308956153690815, -0.05006121098995209, -0.010651884600520134, -0.032287489622831345, 0.04750782996416092, 0.035478804260492325, 0.03230300545692444, -0.003830213565379381, 0.0346309058368206, -0.002159317024052143, 0.03308678790926933, 0.04786022752523422, 0.011010359041392803, -0.006155727431178093, 0.007610311731696129, -0.016165398061275482, 0.0062392354011535645, -0.027796456590294838, 0.06045062094926834, -0.03984268754720688, -0.28757479786872864, -0.07143567502498627, 0.05090008303523064, -0.0675688087940216, -0.03229781240224838, 0.06260227411985397, -0.005752898752689362, -0.043033722788095474, -0.1525706648826599, -0.0014668108196929097, -0.06040184199810028, -0.008948562666773796, -0.049131494015455246, 0.018742674961686134, 0.016130870208144188, 0.10440532118082047, 0.028380341827869415, -0.06755273789167404, 0.029549939557909966, -0.03268861770629883, -0.009160501882433891, -0.0006115597789175808, 0.12094930559396744, -0.04477992281317711, 0.05273967981338501, 2.3544904252048582e-05, -0.008436491712927818, -0.0026182513684034348, -0.0009529203525744379, -0.007663221564143896, 0.00015715751214884222, -0.004530848003923893, 0.10618807375431061, -0.013828861527144909, 0.020487280562520027, 0.021001823246479034, 0.022956280037760735, -0.016481181606650352, 0.016798874363303185, 0.004746443126350641, 0.03590261563658714, 0.012548505328595638, -0.006470807828009129, -0.0559285469353199, 0.09987309575080872, 0.0012266297126188874, -0.015255923382937908, -0.010860366746783257, 0.02151699922978878, -0.005286544095724821, -0.05749902129173279, 0.003521607257425785, 0.034524042159318924, 0.00473856832832098, 0.011639951728284359, 0.0330352708697319, -0.0637085810303688, -0.02222050540149212, 0.015734197571873665, 0.01994256116449833, 0.028136160224676132, -0.04349919781088829, 0.006678861565887928, -0.006675057113170624, 0.026468638330698013]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>inconsistent_internet_connectivity_within_home</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['Improvement needed: connection through the modem, from one room to the next in my house it drops out. and when following up with concerns the comms over the phone many atimes there has been a slight language barrier which does not help the comms to move forward after lengthy waiting.\nReason for given NPS: connection is terrible', 'Improvement needed: Mobile network in Albany, Auckland, mobile network in remote areas.\nReason for given NPS: Good service except around my house.', 'Improvement needed: Everything from service to plans\nReason for given NPS: Failed on 2 occasions, both related to landline.\nPlus mobile data still get used rather then the home wi fi.', 'Improvement needed: Mobile and wifi coverage in Titirangi. Our mobile coverage around the house is really bad. We have fibre broadband but it is very slow at times\nReason for given NPS: Good customer service', 'Improvement needed: Not sure it’s all been pretty smooth for me maybe just more reliable data from time to time\nReason for given NPS: I haven’t had any issues so far']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[-0.019092893227934837, -0.08898255228996277, 0.03711766004562378, -0.035472553223371506, -0.007164028938859701, -0.09000516682863235, -0.04669347032904625, 0.0721391811966896, 0.06669805198907852, -0.06452687829732895, 0.04982639476656914, -0.018519455567002296, 0.06940373033285141, -0.0008800252107903361, 0.053132686764001846, 0.07072348147630692, 0.013889477588236332, -0.048517756164073944, 0.02071251906454563, 0.07018246501684189, -0.009400095790624619, -0.0009348576422780752, 0.04047209396958351, 0.004691686015576124, -0.04840405657887459, 0.030526358634233475, -0.007489918731153011, -0.031995370984077454, -0.05569292604923248, -0.11529047787189484, -0.01676611229777336, -0.021649455651640892, -0.03570151701569557, 0.03570757061243057, 0.08211507648229599, -0.058555178344249725, -0.020421557128429413, -0.005554352421313524, 0.006145992781966925, 0.02786150388419628, 0.01954321563243866, 0.013968294486403465, -0.00988277979195118, -0.00353323039598763, -0.025921504944562912, -0.03535132482647896, 0.06366682052612305, 0.07709778845310211, 0.09344476461410522, -0.033563606441020966, -0.03854808583855629, 0.0321308858692646, -0.00401933491230011, 0.060920245945453644, 0.015822837129235268, 0.09511268883943558, 0.07208000123500824, 0.06933536380529404, 0.04488160461187363, 0.043618474155664444, 0.050195857882499695, 0.09758869558572769, -0.1272122710943222, 0.09352866560220718, 0.10747767984867096, 0.005648070015013218, -0.004199347458779812, 0.00027777065406553447, 0.04629618301987648, -0.03562755510210991, -0.05545039847493172, 0.024881867691874504, -0.03794579580426216, 0.0769074484705925, 0.04197785630822182, 0.052444808185100555, -0.02028377540409565, 0.022293731570243835, 0.011703118681907654, 0.0436764657497406, 0.03708353266119957, 0.0076476153917610645, -0.00358279119245708, 0.005214313510805368, -0.033236514776945114, -0.03179039806127548, -0.03036332316696644, -0.010878502391278744, -0.01897461898624897, -0.03151889890432358, -0.11851640790700912, -0.017537225037813187, -0.017118176445364952, 0.01428788062185049, -0.036895643919706345, -0.03556942567229271, 0.00916966237127781, -0.05209960415959358, -0.03821740671992302, 0.2998836040496826, -0.007824254222214222, -0.0005494961515069008, 0.04880569875240326, 0.02334361895918846, 0.03258945792913437, -0.02105504460632801, -0.0003376755630597472, -0.03547494485974312, -0.028994696214795113, 0.0666043683886528, -0.008366185240447521, -0.06566081941127777, 0.033810969442129135, -0.04282823204994202, 0.02660498581826687, 0.02735486626625061, -0.015289721079170704, -0.04658491164445877, 0.01384738925844431, 0.014098769053816795, -0.015832331031560898, 0.009748241864144802, 0.07048643380403519, -0.04014802724123001, 0.05825420469045639, -0.01551487110555172, 0.010418598540127277, 0.06081258878111839, -0.033223990350961685, 0.04626983776688576, -0.043559156358242035, 0.00866133812814951, 0.026370160281658173, -0.012350320816040039, -0.017995888367295265, 0.04076008126139641, 0.036326806992292404, -0.011996922083199024, 0.04449951648712158, 0.04467478021979332, -0.04201437532901764, -0.03409615531563759, 0.011930913664400578, -0.03658926486968994, 0.01897137239575386, 0.0963757336139679, -0.03627440333366394, 0.10566158592700958, 0.03239181265234947, -0.013199160806834698, -1.4291234037955292e-05, 0.0018000014824792743, 0.016499405726790428, -0.046936504542827606, -0.032636404037475586, 0.010590274818241596, 0.045458320528268814, 0.02137679047882557, 0.07206559926271439, -0.035496488213539124, 0.03980666399002075, -0.043367523699998856, -0.04436717927455902, 0.06582168489694595, -0.009615231305360794, -0.04725361615419388, -0.06982862949371338, -0.005766668822616339, -0.09999465942382812, 0.014398988336324692, -0.00890191551297903, -0.016397587954998016, -0.010740630328655243, 0.015414007939398289, 0.02891284041106701, -0.03671090677380562, -0.0671221911907196, 0.05925922840833664, -0.013557166792452335, -0.014358765445649624, 0.028433384373784065, 0.004532817751169205, -0.019271211698651314, 0.00042422732803970575, 0.056343890726566315, -0.056832101196050644, -0.01398288644850254, -0.004891613498330116, 0.061513058841228485, -0.06120887026190758, -0.10486439615488052, -0.10160577297210693, 0.013390002772212029, -0.07816216349601746, 0.04446391761302948, -0.023195261135697365, -0.011297001503407955, -0.019184166565537453, 0.07669970393180847, -0.02274409309029579, 0.1181887611746788, -0.04546986147761345, -0.009682491421699524, -0.017085708677768707, -0.06953904777765274, 0.04509827867150307, -0.04412904009222984, -0.029041709378361702, 0.04353618994355202, -0.03509245812892914, -0.0068334732204675674, -0.014536798931658268, 0.07104752957820892, -0.029802940785884857, -0.010161318816244602, -0.03985019773244858, -0.00977351050823927, 0.10099054127931595, 0.08191967010498047, 0.09864650666713715, -0.03632780909538269, 0.07857035100460052, -0.052798353135585785, -0.27674975991249084, -0.021523406729102135, 0.020420856773853302, -0.060176365077495575, -0.07175823301076889, -0.018443910405039787, -0.01698668673634529, 0.005065402947366238, 0.00458211824297905, 0.044460587203502655, 0.009825323708355427, 0.06288091838359833, 0.044826555997133255, -0.013632241636514664, -0.028823506087064743, 0.030192865058779716, 0.0006033641984686255, 0.061485569924116135, -0.037631891667842865, 0.04293513298034668, -0.03779156878590584, -0.029574207961559296, -0.027846476063132286, -0.07292619347572327, -0.02576311305165291, 0.004926538560539484, 0.1281489133834839, -0.01816416345536709, -0.012811589054763317, -0.054925452917814255, 0.08656962960958481, 0.10594828426837921, -0.015026833862066269, -0.07487639039754868, 0.002520846202969551, 0.07574711740016937, 0.0330941267311573, 0.002959907054901123, -0.012192048132419586, -0.014729528687894344, -0.05042553320527077, 0.06947928667068481, 0.05037722364068031, -0.032706912606954575, 0.012757407501339912, -0.05457336828112602, -0.04344221577048302, 0.009030725806951523, -0.051461316645145416, -0.01757330633699894, 0.015051708556711674, -0.02966844104230404, 0.016930557787418365, 0.001030394108965993, 0.018406527116894722, 0.029136301949620247, -0.012041978538036346, 0.012089972384274006, -0.0011183983879163861, -0.012781458906829357, 0.023142453283071518, -0.00015883399464655668, 0.030918166041374207, -0.07449078559875488, 0.10662801563739777, 0.0010201747063547373, -0.023388516157865524, 0.018838878720998764, 0.04579656571149826, 0.04285738617181778, 0.025098750367760658, 0.011441330425441265, -0.005935000721365213, 0.042859163135290146, -0.006612439174205065, 0.0040286569856107235, 0.03382042050361633, -0.008146706037223339, 0.0040062833577394485, -0.030871499329805374, 0.009722894057631493, -0.06596427410840988, 0.06370901316404343, -0.0017374245217069983, -0.05099346488714218, -0.05919625610113144, -0.0458393394947052, -0.019923560321331024, 0.06750359386205673, 0.026360154151916504, -0.019834870472550392, 0.02645963244140148, -0.004934171214699745, 0.0033935015089809895, 0.03878316655755043, 0.007268379908055067, -0.2052575945854187, -0.015543617308139801, -0.013788977637887001, -0.059425532817840576, -0.05482037365436554, 0.007609594147652388, 0.01781473681330681, 0.047485772520303726, -0.09032351523637772, -0.009191500023007393, -0.023595014587044716, -0.03823233023285866, -0.07700620591640472, -0.04041702300310135, 0.043249525129795074, 0.04081355780363083, 0.009251884184777737, -0.023045184090733528, -0.060024213045835495, -0.05857301130890846, 0.009487996809184551, 0.016833964735269547, 0.10211324691772461, -0.03528105095028877, 0.06545732170343399, 0.061673395335674286, 0.0027748888824135065, 0.05969845503568649, 0.04403667896986008, -0.0043878923170268536, -0.06678082048892975, -0.0057943216525018215, 0.03371330723166466, -0.010853635147213936, 0.03621731698513031, -0.03434501215815544, 0.03603162616491318, -0.051113542169332504, 0.01121164858341217, -0.04725196212530136, -0.054610997438430786, 0.041293755173683167, -0.06297414004802704, -0.02610587701201439, 0.05177516117691994, -0.006646782625466585, -0.005917797330766916, 0.03988908603787422, 0.03156087175011635, -0.04018211364746094, -0.07405994087457657, -0.07608571648597717, 0.028978297486901283, 0.020488973706960678, 0.01952158473432064, 0.02070765756070614, -0.04420015215873718, -0.0164374727755785, -0.06542635709047318, -0.034920573234558105, 0.015519952401518822, -0.05365367606282234, 0.04534516483545303, -0.06937392801046371, 0.012693215161561966]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>limited_cost_effective_family_plans</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Better plans for family of 6\nReason for given NPS: Long time customer', 'Improvement needed: Give more options to make direct debits to come out on weekly or fortnightly options\nMore rewards (such as Spotify or Netflix discounts with the plan)\n', 'Improvement needed: Customer service. Number 2 would be allowing more contract flexibility (ie. allowing us to fix for 24 and 36 months).\nReason for given NPS: Good service, our internet seems to be working well, but we are missing the price advantages of your former partnering with Sky for bundling purposes', 'Improvement needed: Providing actual communication about plan options.\nReason for given NPS: I was not informed that I was switched to One. I then got a giant bill that was not adequately explained to me before I was even provided an online login. My rates are not good for a family plan. I am actively seeking another option.', 'Improvement needed: Maybe have better options for family deals please\nReason for given NPS: Internet speed has been good and consistent.']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[0.019066818058490753, 0.010960659943521023, -0.0021086009219288826, -0.03781629353761673, -0.019642654806375504, 0.013956760056316853, -0.05043521896004677, 0.06266575306653976, -0.024061167612671852, -0.029462985694408417, 0.04404199495911598, 0.06127553433179855, 0.020860856398940086, 0.016097182407975197, 0.034426894038915634, 0.007760679814964533, -0.0011885627172887325, 0.011773736216127872, -0.04168269410729408, 0.05470243841409683, 0.08773747086524963, -0.05397220328450203, -0.009775484912097454, -0.0034957185853272676, 0.03722913935780525, 0.008055598475039005, -0.004163333214819431, 0.005860557779669762, -0.0038633649237453938, -0.08312159031629562, 0.020686153322458267, 0.03172463923692703, 0.012621757574379444, -0.03115224279463291, -0.033854544162750244, 0.00021194509463384748, 0.01529426034539938, -0.004777345806360245, -0.00279614282771945, 0.032686665654182434, 0.010956810787320137, 0.03170330822467804, -0.06148098036646843, 0.0038140250835567713, -0.04073157534003258, 0.006502791773527861, 0.00938979908823967, -0.009310669265687466, -0.008769994601607323, 0.009160407818853855, 0.013272134587168694, -0.02451857179403305, 0.027978669852018356, -0.001098807668313384, 0.033866144716739655, -0.0005425962153822184, -0.00595663208514452, -0.032181646674871445, -0.029829466715455055, 0.026279957965016365, 0.0005342364311218262, 0.05393234267830849, -0.14572812616825104, 0.014928850345313549, 0.008389348164200783, 0.02324099652469158, 0.0028037650045007467, -0.011951328255236149, 0.013557913713157177, 0.04606173560023308, 0.02322661131620407, 0.04557782784104347, 0.0700196772813797, 0.06505920737981796, 0.005281871650367975, -0.0025322088040411472, -0.007607521489262581, -0.007500445004552603, -0.011552229523658752, 0.016288219019770622, -0.010483041405677795, -0.03380569815635681, -0.0064423903822898865, 0.028579270467162132, -0.030445748940110207, -0.013954879716038704, -0.0025861146859824657, -0.07865593582391739, 0.017027055844664574, -0.016645627096295357, 0.000597428937908262, -0.01958177052438259, -0.026067649945616722, -0.012005769647657871, -0.0630572959780693, 0.044745832681655884, 0.0598139725625515, -0.003164305118843913, -0.12825892865657806, 0.4063543379306793, -0.012522516772150993, 0.02094004489481449, 0.01939298026263714, -0.01374883484095335, -0.0372912734746933, -0.02704068459570408, -0.038392797112464905, -0.005504131317138672, -0.00018616754096001387, -0.03254978358745575, -0.03962917625904083, -0.034763358533382416, 0.030900677666068077, -0.024325687438249588, 0.012341862544417381, 0.010966138914227486, 0.01799907349050045, -0.047816645354032516, 0.04376606270670891, -0.018855595961213112, -0.016913896426558495, -0.032441310584545135, -0.00016471765411552042, -0.03366070240736008, -0.027191566303372383, -0.01127240713685751, 0.04247477650642395, 0.10311442613601685, 0.051148101687431335, 0.04593081399798393, 0.10371304303407669, -0.06815027445554733, -0.007878252305090427, 0.01279398798942566, 0.007296397816389799, -0.038375914096832275, 0.014431940391659737, 0.03976036608219147, 0.01963033340871334, 0.02862989343702793, -0.014463555067777634, -0.050505924969911575, -0.06435956805944443, -0.1525968313217163, -0.02863815799355507, 0.13140954077243805, 0.053263064473867416, 0.07226110249757767, -0.013567758724093437, -0.004732208326458931, -0.0057568359188735485, 0.03667896240949631, 0.06259771436452866, -0.10044662654399872, -0.03532042354345322, 0.021954210475087166, 0.021335333585739136, -0.0037074137944728136, -0.06693094968795776, -0.003992222715169191, 0.07548205554485321, -0.014095766469836235, -0.08166100084781647, 0.07467445731163025, -0.023387134075164795, -0.10446297377347946, -0.07195453345775604, 0.026896771043539047, -0.0187508687376976, -0.04580619931221008, -0.03390302136540413, 0.04087788984179497, 0.015257726423442364, 0.020456967875361443, 0.09168744832277298, 0.006895832251757383, -0.04412047937512398, 0.04323835298418999, -0.04926474392414093, 0.05556952953338623, 0.010306949727237225, -0.03216302767395973, -0.04689403250813484, -0.024159429594874382, -0.012879569083452225, -0.014861746691167355, -0.03672444447875023, -0.007729203440248966, 0.041901759803295135, -0.045927878469228745, -0.07246866822242737, -0.008448656648397446, -0.0075127012096345425, 0.02838306501507759, -0.05128643289208412, -0.023240435868501663, 0.02504098415374756, -0.024481238797307014, 0.012235709466040134, -0.023074544966220856, 0.056814372539520264, -0.05784251168370247, -0.00951315462589264, 0.05595216527581215, 0.029030269011855125, -0.04256132245063782, 0.040446750819683075, -0.0029488117434084415, 0.0438118651509285, 0.0021246038377285004, 0.013492605648934841, -0.006187294609844685, 0.06949248909950256, -0.0022789607755839825, -0.06533428281545639, 0.06818880140781403, 0.01849537529051304, 0.042093340307474136, 0.038158006966114044, -0.0020850510336458683, 0.06290067732334137, 0.026178130879998207, 0.027345189824700356, -0.27646178007125854, 0.008430232293903828, -0.07741008698940277, 0.01716095767915249, -0.037478335201740265, -0.05704670026898384, -0.012097198516130447, -0.014228319749236107, -0.03878016769886017, 0.07600253075361252, 0.005170095711946487, -0.027713460847735405, -0.02265850268304348, 0.0880737155675888, 0.04402565956115723, -0.02187284640967846, -0.03151008114218712, -0.0216207355260849, -0.0028233807533979416, 0.054393522441387177, 0.03525971993803978, 0.04969470947980881, 0.020606309175491333, -0.05957433581352234, 0.04616393893957138, 0.03649727627635002, 0.1184670552611351, -0.11549707502126694, 0.01775219291448593, -0.018034836277365685, 0.06434770673513412, 0.06302009522914886, -0.012556599453091621, 0.004664781037718058, -0.02788608707487583, 0.059558216482400894, -0.02161107398569584, -0.07119796425104141, -0.013725758530199528, -0.0143473781645298, -0.015516326762735844, 0.05380755662918091, -0.0760108157992363, -0.07773341238498688, -0.06503355503082275, -0.03804642707109451, 0.0007024253718554974, 0.08582823723554611, -0.035864051431417465, 0.001457942882552743, 0.012123212218284607, -0.043956056237220764, 0.020354419946670532, -0.010250918567180634, 0.07503090053796768, -0.0110008604824543, -0.07743794471025467, 0.02233058400452137, -0.08538735657930374, -0.006562069058418274, -0.015228607691824436, 0.013711054809391499, 0.052463024854660034, -0.020988551899790764, 0.048593103885650635, -0.07352463901042938, 0.01764274574816227, -0.020891893655061722, -0.06656848639249802, 0.023762604221701622, -0.006240421906113625, -0.011269721202552319, -0.02258121594786644, -0.048611775040626526, 0.0038436041213572025, 0.01697462983429432, 0.026659851893782616, 0.025348778814077377, -0.05859574303030968, -0.016062969341874123, 0.023716095834970474, -0.02824380248785019, -0.058061156421899796, 0.018150342628359795, -0.009374463930726051, 0.06660895049571991, -0.003433754201978445, -0.025464748963713646, -0.04320149123668671, -0.03214338794350624, 0.001570916036143899, -0.02238740585744381, -0.014603679068386555, 0.08896351605653763, 0.05555901303887367, -0.06769543141126633, -0.26702994108200073, -0.01422562263906002, -0.06997042894363403, -0.05638965591788292, 0.03148603439331055, 0.049934424459934235, 0.008486062288284302, -0.0025244641583412886, -0.014081555418670177, 0.026494663208723068, 0.0774460881948471, 0.044408150017261505, 0.05659405142068863, 0.00789888296276331, 0.02939549647271633, -0.040097154676914215, 0.028365805745124817, -0.007056590635329485, 0.008029050193727016, 0.01573127508163452, 0.04813054949045181, 0.022004686295986176, 0.14092303812503815, -0.013443641364574432, -0.00703855138272047, -0.05508735030889511, -0.03142734616994858, 0.01639626733958721, 0.00838717631995678, -0.00949858408421278, -0.03235725685954094, 0.062333084642887115, 0.03129507601261139, 0.0018576240399852395, 0.018866054713726044, -0.024272838607430458, -0.004159071482717991, -0.01435308251529932, 0.004529181867837906, 0.009594066999852657, -0.07617444545030594, -0.025356879457831383, -0.02212858945131302, 0.0219102893024683, 0.0790322944521904, -0.06037916615605354, 0.010475370101630688, -0.006928326562047005, 0.0024326681159436703, -0.0006709463195875287, -0.008424188010394573, 0.014803380705416203, 0.06338578462600708, 0.020059894770383835, 0.033139538019895554, -3.0916045943740755e-05, -0.002482511568814516, 0.06408677995204926, 0.017671944573521614, -0.0037923362106084824, 0.005592638161033392, 0.03883551061153412, -0.01872215047478676, 0.07763030380010605, 0.026050817221403122]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>need_fiber_optic_upgrades_in_area</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Giving us a better alternative to internet than Spark is offering.  We only have a coper wire connection.\nReason for given NPS: I have had good service to date', 'Improvement needed: Fibre to rural areas or vdsl broadband at Fibre prices we live 10minutes out of central nelson and not expected to have Fibre for the next few years\nReason for given NPS: Service has been consistent and even time I enter a store the staff are always helpful', 'Improvement needed: Information on fibre and and how to get it sorted to improve on what we have now\nReason for given NPS: Costly and slow Internet, not on fibre', 'Improvement needed: Mobile and wifi coverage in Titirangi. Our mobile coverage around the house is really bad. We have fibre broadband but it is very slow at times\nReason for given NPS: Good customer service', 'Improvement needed: Broadband speed\nReason for given NPS: Nice customer service always']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[-0.03420652449131012, -0.05025124549865723, 0.04821013659238815, -0.015887193381786346, 0.03819927200675011, -0.02148161642253399, -0.052751634269952774, 0.07949232310056686, -0.012733988463878632, -0.0053647044114768505, 0.05089671537280083, -0.06700149178504944, 0.02411356195807457, -0.03159905970096588, 0.051220059394836426, 0.05244035646319389, 0.0650099366903305, -0.06516169756650925, -0.047682203352451324, -0.010072465986013412, 0.04758757725358009, -0.031753990799188614, -0.006003985647112131, -0.025125915184617043, -0.04507125914096832, -0.02162419818341732, -0.009206266142427921, -0.019482648000121117, -0.06127243861556053, -0.11204516887664795, -0.014361640438437462, 0.018679114058613777, 0.025329768657684326, 0.02808443270623684, -0.011883188970386982, -0.08717197924852371, -0.021650781854987144, -0.018004661425948143, -0.05218947306275368, 0.0634235367178917, 0.05238581821322441, 0.01658867672085762, -0.09097130596637726, 0.03390470892190933, -0.019200380891561508, -0.031303297728300095, 0.021089106798171997, -0.017314033582806587, 0.07072317600250244, -0.029795924201607704, -0.002812889637425542, -0.04618117958307266, -0.026067422702908516, -0.0626639872789383, 0.001955147134140134, 0.0657786875963211, 0.025803159922361374, 0.021588478237390518, 0.05398640036582947, -0.002336276462301612, 0.05532311648130417, 0.02653541974723339, -0.16197514533996582, 0.019608110189437866, 0.05691572278738022, -0.007636403199285269, 0.02184094302356243, -0.07100598514080048, 0.05295099318027496, 0.0389418862760067, -0.0074626062996685505, 0.004390793386846781, -0.0035630606580525637, 0.025797737762331963, 0.03225675970315933, -0.005064047873020172, 0.0137174716219306, -0.0068519096821546555, 0.048821743577718735, 0.04734856262803078, 0.0294111967086792, -0.05002299323678017, -0.031089287251234055, -0.015605704858899117, 0.0033696882892400026, -0.07033370435237885, -0.001303272438235581, 0.011462176218628883, -0.032234061509370804, 0.051445286720991135, -0.02573145367205143, -0.050634898245334625, -0.03418022394180298, -0.004487114492803812, -0.047635532915592194, -0.05600966885685921, 0.005288268439471722, -0.020050084218382835, 0.0034677512012422085, 0.3754628896713257, 0.03384517878293991, -0.03056645765900612, 0.0062182326801121235, 0.0005233842530287802, 0.06949380785226822, 0.0018213159637525678, 0.004448449704796076, 0.04322218894958496, 0.005969858728349209, -0.012126737274229527, 0.0027646878734230995, 0.02189740724861622, 0.03314889967441559, 0.036879271268844604, 0.01808849349617958, 0.032237760722637177, -0.05180240795016289, -0.02680627815425396, -0.018927114084362984, 0.021089904010295868, -0.0190125685185194, -0.02136954851448536, 0.020102787762880325, 0.012717573903501034, 0.032929349690675735, -0.07382649183273315, -0.01003080140799284, 0.052778106182813644, 0.005875627510249615, 0.08297848701477051, -0.04745805636048317, -0.00474338186904788, 0.025956010445952415, -0.0071550216525793076, 0.02082371897995472, 0.026461800560355186, 0.030076395720243454, 0.01761443167924881, 0.04125841706991196, 0.048115335404872894, -0.04424699768424034, -0.03884553536772728, 0.042390353977680206, -0.04707297682762146, 0.060602668672800064, 0.10654119402170181, -0.05634516105055809, 0.04424929618835449, -0.03279266878962517, -0.08343865722417831, 0.0263817235827446, 0.04396678879857063, -0.005940021015703678, -0.003657457884401083, -0.04244184121489525, 0.0034855185076594353, 0.04172558709979057, -0.02644517458975315, -0.01107584685087204, 0.03638976812362671, 0.02767477184534073, -0.03322695568203926, -0.010505643673241138, 0.051308028399944305, 0.020579349249601364, -0.07765589654445648, -0.08522595465183258, -0.02045375667512417, -0.03891079127788544, 0.03128867596387863, -0.04494554549455643, 0.02549164369702339, -0.027916226536035538, 0.020261134952306747, 0.08864425867795944, -0.03497442975640297, -0.06819307804107666, 0.03983002156019211, -0.007171193603426218, -0.010331662371754646, 0.032717540860176086, -0.024863509461283684, -0.04445258900523186, -0.02347446046769619, 0.031257014721632004, -0.06695940345525742, -0.04202801734209061, -0.015640800818800926, -0.018102243542671204, -0.039358656853437424, -0.1072000190615654, -0.02004125900566578, -0.04515303671360016, 0.003469552844762802, 0.010670976713299751, 0.008282125927507877, -0.06033359467983246, 0.0359681211411953, -0.0022701118141412735, -0.06140238791704178, 0.10526468604803085, -0.03440004959702492, -0.041881389915943146, 0.009857266210019588, -0.041095662862062454, 0.023837905377149582, 0.005222774110734463, -0.00047872925642877817, 0.03334524482488632, 0.023027339950203896, -0.00739051541313529, -0.035338398069143295, 0.15636254847049713, 0.025623220950365067, -0.06540676206350327, -0.04346871376037598, -0.059808239340782166, 0.006669177208095789, 0.018505429849028587, 0.031329747289419174, 0.017835820093750954, 0.06829274445772171, -0.0426330640912056, -0.3300858736038208, 0.029693888500332832, -0.01618005707859993, -0.029525019228458405, 0.0276964008808136, -0.015290386974811554, 0.03803885355591774, 0.007256594952195883, -0.03016616776585579, 0.07754912972450256, 0.017760563641786575, -0.0060043977573513985, 0.07447288185358047, -0.015397773124277592, 0.0010491107823327184, -0.00198912899941206, 0.009989035315811634, 0.0003101624606642872, -0.036502428352832794, -0.006805800832808018, -0.005528823472559452, 0.11249620467424393, -0.038890719413757324, -0.006306889932602644, 0.010879955254495144, 0.00785947497934103, 0.17238810658454895, -0.02120138891041279, -0.0008708129171282053, -0.05933103710412979, 0.04123365879058838, 0.054082415997982025, -0.014679567888379097, -0.07111116498708725, 0.04962111636996269, 0.06341873854398727, -0.01582680642604828, 0.014870754443109035, -0.010739466175436974, 0.005215536803007126, 0.021063122898340225, 0.03820493444800377, -0.02143777161836624, -0.034559667110443115, 0.015665598213672638, -0.040829602628946304, -0.01826019398868084, 0.05117522552609444, -0.032870352268218994, 0.017305316403508186, 0.006517542991787195, -0.040324438363313675, 0.03262165188789368, 0.02965066395699978, 0.022416839376091957, -0.030115215107798576, -0.023116393014788628, 9.301571844844148e-05, 0.03948946297168732, -0.05036453902721405, 0.05022832378745079, 0.028558965772390366, 0.01120185386389494, -0.0938984751701355, 0.09866989403963089, 0.033813588321208954, 0.011711512692272663, -0.0030589634552598, 0.05248812213540077, 0.033865462988615036, 0.024827176705002785, 0.00319427321664989, -0.0008731282432563603, 0.02384788542985916, 0.003867686726152897, -0.03596874698996544, -0.042323801666498184, 0.0007249823538586497, 0.04805944487452507, -0.041139740496873856, 0.06737524271011353, -0.0196759644895792, 0.03115202486515045, 0.010767986997961998, 0.010591174475848675, 0.033078040927648544, -0.024124307557940483, -0.0007458196487277746, 0.017246412113308907, -0.0007684372249059379, -0.04341738298535347, -0.0035844489466398954, -0.036241915076971054, -0.018230920657515526, 0.03936754912137985, -0.0031513958238065243, -0.26201069355010986, -0.025915944948792458, 0.09766397625207901, -0.0707678273320198, -0.06120863929390907, 0.012649914249777794, 0.0387166291475296, 0.0028805129695683718, -0.030497049912810326, 0.023432789370417595, -0.0519806370139122, -0.018674654886126518, -0.06747312843799591, -0.005547068547457457, 0.04298686981201172, 0.024801326915621758, 0.052041422575712204, 0.023610932752490044, -0.016279732808470726, -0.05670207366347313, 0.04618444666266441, 0.01615968719124794, 0.1388286054134369, 0.008998984470963478, 0.03763844445347786, 0.005027230829000473, -0.02671167254447937, 0.007983985356986523, 0.01034618355333805, -0.009202281944453716, 0.0157137680798769, 0.035414598882198334, 0.020059581845998764, -0.03902231156826019, 0.01152786798775196, 0.007346003316342831, -0.0034513783175498247, -0.05135580897331238, 0.00917966477572918, -0.015229701064527035, 0.009336299262940884, 0.050125084817409515, -0.10636201500892639, 0.047031983733177185, 0.08600518107414246, -0.021855933591723442, 0.007990903221070766, 0.03079989179968834, -0.04064265266060829, -0.049389686435461044, 0.009023096412420273, 0.010344387963414192, 0.05169430002570152, -0.024167850613594055, -0.01315231155604124, 0.012438436970114708, -0.04763173684477806, -0.004035998601466417, 0.025398755446076393, 0.00446972344070673, 0.010790389031171799, -0.0373084731400013, 0.02344725839793682, -0.030479993671178818, 0.018717985600233078]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>app_and_website_poor_usability</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>["Improvement needed: I think costs have risen service is no better the app and website arnt usable. Reception is poor in our house and the modem drops out. I'd be happier if 10$ less a month frankly\nReason for given NPS: Reception cover poor vs spark", 'Improvement needed: The app needs some work it can be janky and maybe more help services especially when lines are busy ☺️ otherwise keep up the great work ❤️\nReason for given NPS: I have been a loyal customer with Vodafone (One NZ) all my life. They haven’t let me down once ☺️', "Improvement needed: Maybe some extras monthly plans and improve the coverage in some areas that doesn't work very well, but good enough anyway.\nReason for given NPS: Good service, but coverage around Queenstown and other places could improve. Fair price (although it could be better). And it was some problems in the website a few weeks ago, now fix it.", 'Improvement needed: Consistent rural service\nReason for given NPS: Difficulty with rural mobile service\nI had great difficulty paying a prepaid bill online. Not an easy process.\nMonthly plan is OK', 'Reason for given NPS: Struggle with the one app. Not very user friendly. Went looking for info on roaming for cell info not clear and concise. Site would suggest looking at your plan went to one app couldn’t find info on plan. Tried online help spent 2 hours watching some dots blink at me. Ended up having to ring.']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[-0.04116802290081978, -0.034231167286634445, 0.007004853803664446, 0.0026102361734956503, -0.018886463716626167, -0.018099406734108925, -0.03774316981434822, 0.04275514930486679, 0.03042621910572052, -0.03970494121313095, -0.04052139073610306, 0.0650353878736496, 0.062186289578676224, 0.049518514424562454, 0.05809146538376808, 0.020997392013669014, 0.042152244597673416, -0.021022967994213104, -0.020180881023406982, 0.004545244853943586, 0.0708460882306099, 0.05367608740925789, 0.01317665632814169, -0.014370997436344624, -0.03645487129688263, 0.015949005261063576, -0.051891595125198364, -0.014306909404695034, -0.01795600727200508, -0.08169130235910416, 0.008964255452156067, -0.022480687126517296, 0.05137893185019493, 0.0018929393263533711, 0.025342227891087532, -0.012111404910683632, -0.025032099336385727, 0.058436498045921326, -0.00422468688338995, 0.023924414068460464, 0.024709761142730713, 0.012617363594472408, -0.02714100293815136, 0.054122574627399445, -0.02801082283258438, -0.054115232080221176, 0.009090964682400227, 0.003177502891048789, -0.0043091969564557076, -0.03628694638609886, -0.01587536931037903, -0.02146064303815365, -0.03051265887916088, -0.011665110476315022, 0.0318300724029541, 0.03588355332612991, 0.06288778781890869, 0.05125042423605919, -0.04548722133040428, 0.014320158399641514, 0.031022850424051285, 0.005870597902685404, -0.14610007405281067, 0.057880040258169174, 0.06680585443973541, -0.010033476166427135, -0.06981278210878372, -0.06686486303806305, 0.007645420730113983, -0.030230656266212463, -0.03414896875619888, 0.013422210700809956, 0.0062818219885230064, 0.094483382999897, 0.023142194375395775, 0.005437434650957584, 0.018379734829068184, -0.018451767042279243, 0.00428698631003499, 0.004955583717674017, 0.044613346457481384, -0.030168406665325165, -0.018820086494088173, 0.02354615554213524, 0.026748189702630043, -0.0398477241396904, 0.009489818476140499, 0.06872943043708801, 0.04953039810061455, -0.053888291120529175, -0.02035989798605442, -0.03873124346137047, 0.04971609264612198, -0.006167892832309008, -0.03854799270629883, 0.003950305748730898, 0.009726512245833874, -0.043977782130241394, -0.1330711394548416, 0.35753390192985535, -0.032335471361875534, 0.06552093476057053, 0.04780406877398491, -0.009508633986115456, 0.024286776781082153, -0.02280770242214203, -0.004662420600652695, -0.04437853395938873, -0.006463401950895786, 0.02236517332494259, 0.012426282279193401, -0.032483287155628204, 0.003542118240147829, -0.004459663759917021, 0.048382144421339035, -0.002237817971035838, -0.04440606012940407, 0.009500372223556042, 0.040206313133239746, 0.01965833641588688, -0.0389116145670414, -0.0631215050816536, 0.030091363936662674, -0.014005881734192371, -0.02496291883289814, 0.007765921298414469, 0.004656789358705282, 0.07200407236814499, -0.018765676766633987, 0.02686547115445137, 0.029596759006381035, 0.002386096864938736, -0.02538275346159935, -0.0006484357290901244, 0.018942946568131447, -0.0467434786260128, -0.0018179436447098851, -0.0064944978803396225, 0.05200254172086716, 0.04608786851167679, -0.03435468673706055, -0.03246333822607994, -0.07273829728364944, -0.024638839066028595, -0.007801203057169914, 0.08330930024385452, 0.002634436823427677, 0.05332048237323761, -0.024793000891804695, -0.04531305655837059, 3.629305865615606e-05, -0.05231180414557457, 0.03995770215988159, -0.020811492577195168, -0.049284134060144424, -0.037430133670568466, -0.010998510755598545, -0.057514041662216187, -0.003024405101314187, 0.012029455974698067, 0.03578389808535576, -0.02685229852795601, -0.05889275297522545, 0.03773745521903038, -0.010428340174257755, -0.04193282499909401, 0.013997935689985752, 0.042417239397764206, -0.06996481865644455, 0.04247802123427391, 0.008936628699302673, 0.018883150070905685, 0.028479749336838722, 0.0043433173559606075, 0.07694517821073532, -0.018972136080265045, -0.011422041803598404, 0.06073296070098877, 0.05593773350119591, 0.004740116652101278, 0.048721011728048325, -0.00010476088937139139, -0.02341591566801071, -0.005130038131028414, -0.003832385642454028, 0.006670047529041767, 0.0007575294584967196, -0.014559314586222172, 0.10551328957080841, 0.04489646852016449, -0.07689516246318817, -0.1201353520154953, -0.06515582650899887, -0.03683644160628319, -0.03492439538240433, 0.04587368294596672, 0.021581869572401047, -0.0701795443892479, 0.0075218454003334045, -0.05448365584015846, 0.09990153461694717, -0.004597623832523823, -0.059559166431427, 0.03971916809678078, 0.04122859612107277, 0.0657290369272232, -0.03752865642309189, -0.06123588979244232, 0.037424974143505096, 0.0033311084844172, -0.06660033762454987, -0.01715383492410183, 0.034264449030160904, -0.01222086139023304, 0.005577126983553171, -0.02158932387828827, 0.03523757681250572, 0.0717378631234169, 0.018623987212777138, 0.04096445441246033, 0.008325937204062939, 0.07126621901988983, -0.002108585322275758, -0.29454320669174194, 0.018532421439886093, -0.008115948177874088, 0.018095629289746284, -0.06458684802055359, -0.02234998717904091, -0.005174653604626656, -0.025214238092303276, 0.01812664419412613, 0.06603903323411942, 0.03600764274597168, -0.0329645611345768, 0.026709122583270073, 0.043994296342134476, -0.030987374484539032, -0.03684328868985176, 0.0025049587711691856, -0.012772655114531517, -0.013497542589902878, 0.00033641982008703053, -0.016254764050245285, -0.02470933087170124, 0.0821756049990654, -0.10958117991685867, 0.0295095331966877, -0.0073603973723948, 0.19432052969932556, 0.029493091627955437, -0.0007651122286915779, -0.04835894703865051, 0.031030016019940376, 0.09792611002922058, 0.010161506943404675, -0.14812202751636505, -0.030346253886818886, 0.054597385227680206, 0.024421364068984985, -0.04269712418317795, 0.007446547504514456, -0.06708673387765884, -0.061498530209064484, 0.02718198299407959, 0.023998558521270752, -0.060612887144088745, 0.011045509949326515, 0.028658300638198853, -0.010743686929345131, -0.010586188174784184, -0.03847833350300789, 0.032753393054008484, 0.00019747544138226658, -0.002504131058230996, 0.009571956470608711, 0.06658628582954407, -0.0162686537951231, -0.0207858644425869, -0.013347698375582695, 0.07749693095684052, 0.02957889996469021, 0.027165083214640617, -0.014460094273090363, -0.08040786534547806, 0.06039723753929138, -0.06418612599372864, 0.04133635386824608, 0.018840089440345764, 0.03225361183285713, -0.0501440204679966, 0.025849778205156326, 0.03221573680639267, -0.04427113011479378, 0.05212068185210228, -0.06036859378218651, 0.013583265244960785, -0.03927216678857803, -0.023288162425160408, -0.02621491812169552, -0.006885504350066185, 0.04119500517845154, -0.012920508161187172, -0.01692051626741886, 0.0598645955324173, 0.06455960869789124, -0.012691986747086048, -0.03246934711933136, 0.0053544496186077595, 0.008473453111946583, -0.06479812413454056, -0.013954785652458668, -0.06230822205543518, -0.036308810114860535, -0.0045259143225848675, -0.037856392562389374, 0.00874581653624773, 0.0584622398018837, -0.00465185334905982, -0.2560836672782898, -0.010593012906610966, 0.016608132049441338, -0.005236735567450523, -0.009326714091002941, 0.024303549900650978, 0.036566294729709625, -0.057086627930402756, -0.02861437387764454, 0.012899819761514664, -0.018337182700634003, -0.033623140305280685, -0.007915020920336246, -0.13213993608951569, 0.07984509319067001, 0.04381708800792694, 0.061147596687078476, -0.028622888028621674, 0.002641737461090088, -0.05298124626278877, 0.06178855523467064, 0.09018974006175995, 0.13878126442432404, -0.06810203194618225, -0.025543833151459694, 0.043192364275455475, -0.032044339925050735, -0.044360529631376266, 0.037383273243904114, 0.051086440682411194, -0.04959367588162422, 0.011277462355792522, 0.06512671709060669, 0.022275522351264954, -0.0062002260237932205, -0.004208491183817387, 0.017749786376953125, -0.11855669319629669, 0.013691996224224567, 0.006262097507715225, -0.012889773584902287, 0.03357294574379921, -0.04245103895664215, 0.015431870706379414, 0.042366981506347656, -0.023577367886900902, 0.026642676442861557, 0.02516018971800804, 0.04400971531867981, 0.027697062119841576, -0.005067009478807449, -0.08324819058179855, -0.011262376792728901, -0.01807233691215515, 0.017868004739284515, 0.01667056232690811, -0.015243198722600937, 0.017550040036439896, -0.0036459059920161963, -0.0005530919297598302, 0.02088688686490059, 0.0028146987315267324, 0.044836293905973434, 0.008549339137971401, 0.034856412559747696]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pricing_could_be_more_competitive</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Maybe some extras monthly plans and improve the coverage in some areas that doesn't work very well, but good enough anyway.\nReason for given NPS: Good service, but coverage around Queenstown and other places could improve. Fair price (although it could be better). And it was some problems in the website a few weeks ago, now fix it.", 'Improvement needed: Prices, better deals\nReason for given NPS: Alright phone service provider, prices are a bit high atm but otherwise fine', 'Improvement needed: Unfortunately my phone has had technical issues, and I am left with a large bill. I will need to pay out the remaining balance on my phone and then buy a new one, so that is disappointing. As said before, customer service in the CBD chch cannot be faulted.  Connectivity has not been great, and plan could offer more data for the price, so I will likely be switching providers when I get new phone. Thankyou\nReason for given NPS: Great service with face to face customer service, however help via the phone difficult', 'Improvement needed: Pricing - market has become competitive\nReason for given NPS: Easy, efficient', 'Improvement needed: Keener pricing service and equipment not competitive ...\nAlso  need easier billing\nReason for given NPS: ¹Need to improve communication on contract issues. \n² On- line dealings w robot, extremely awkward, need more characters or line.']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[-0.05447746068239212, -0.03034679964184761, -0.04712095856666565, 0.032880958169698715, 0.015025398693978786, -0.0028374874964356422, -0.003667699173092842, 0.09935527294874191, 0.045498866587877274, 0.0189199261367321, -0.014111206866800785, 0.03959832340478897, 0.015510194934904575, 0.033792540431022644, 0.024409038946032524, 0.032240722328424454, 0.08363232016563416, -0.028910135850310326, -0.029186323285102844, 0.01430071797221899, 0.05029783397912979, -0.07224062830209732, -0.00796758383512497, -0.05012446269392967, 0.004783824551850557, -0.052006419748067856, -0.03465191647410393, 0.0027678688056766987, -0.020402684807777405, -0.11659525334835052, 0.012550339102745056, 0.010412920266389847, 0.0763249397277832, 0.005234737414866686, -0.014713245443999767, 0.012984279543161392, -0.03678761050105095, -0.05140966176986694, -0.022455377504229546, 0.05283508822321892, 0.016082774847745895, 0.005220883525907993, -0.08671630918979645, 0.05483877658843994, -0.04120612144470215, -0.012390976771712303, -0.01584225706756115, -0.007128460798412561, -0.04552363604307175, 0.014443092979490757, -0.019952356815338135, -0.023049145936965942, -0.07072977721691132, -0.0035115061327815056, 0.02600794844329357, 0.030017497017979622, 0.019847065210342407, 0.03958069905638695, -0.04746146500110626, -0.009123674593865871, 0.024744149297475815, 0.06007181480526924, -0.10846121609210968, -0.01665988378226757, 0.05340646207332611, -0.014142158441245556, -0.046556513756513596, 0.04844524711370468, -0.05245375260710716, 0.08627359569072723, 0.022711876779794693, 0.035898178815841675, 0.001685228431597352, -0.002714196452870965, 0.022722188383340836, 0.008635745383799076, -0.02444578893482685, 0.014537067152559757, -0.00431192247197032, 0.014214602299034595, 0.02211582660675049, -0.04216359183192253, -0.03335017338395119, -0.01898670196533203, -0.034783344715833664, -0.04340194910764694, 0.07701636850833893, -0.009134546853601933, 0.04315818101167679, -0.015401650220155716, 0.02769252471625805, 0.018706897273659706, -0.02805461175739765, -0.007729918230324984, -0.04227963462471962, 0.045472584664821625, 0.042357563972473145, 0.025282016023993492, -0.012090058997273445, 0.38210466504096985, 0.046561531722545624, 0.004726117011159658, 0.025037609040737152, -0.051791898906230927, -0.00931444950401783, -0.06272928416728973, -0.030090967193245888, 0.028681136667728424, -0.02004205621778965, 0.0020437247585505247, 0.014682156965136528, 0.004575475584715605, 0.03352701663970947, -0.0542740561068058, -0.025529786944389343, 0.0786873921751976, -0.01909908466041088, -0.046252891421318054, 0.06061215326189995, -0.01013317983597517, 0.013956590555608273, -0.0028645142447203398, 0.01187572069466114, 0.005294246599078178, -0.04585347697138786, 0.02422817051410675, 0.011259309947490692, 0.09245486557483673, 0.005053554195910692, -0.03502550348639488, -0.009951144456863403, -0.08390919119119644, -0.03816036507487297, 0.03735653683543205, 0.021952703595161438, -0.03222360089421272, -0.0066851405426859856, 0.025585757568478584, 0.019699793308973312, 0.08903457969427109, -0.04349972680211067, -0.027204876765608788, -0.018931034952402115, -0.13584893941879272, -0.012465300969779491, 0.065633624792099, 0.05551879107952118, 0.011936689727008343, -0.014734737575054169, -0.07312142103910446, -0.009053824469447136, -0.0065279495902359486, 0.005397857632488012, -0.041778385639190674, -0.03025701269507408, -0.02436649054288864, 0.04099809750914574, 0.02857912704348564, -0.03758271411061287, -0.023233825340867043, 0.037859875708818436, 0.0014543457655236125, -0.010790176689624786, 0.10905706137418747, -0.03223990276455879, -0.0349765345454216, -0.021045248955488205, -0.0365290492773056, -0.04371575266122818, 0.00579595984891057, -0.0499572791159153, 0.03452948480844498, -0.0646406039595604, 0.056162700057029724, 0.06368750333786011, -0.03783401474356651, -0.12747988104820251, -0.0011193635873496532, -0.008312097750604153, 0.0004852738056797534, 0.10254766792058945, 0.06324214488267899, -0.056852880865335464, -0.0015013419324532151, 0.01984236016869545, -0.05669041723012924, -0.020712699741125107, 0.027312427759170532, -0.0080613037571311, 0.03601081296801567, -0.0652385875582695, 0.017558179795742035, -0.060487013310194016, 0.08198094367980957, -0.008728339336812496, 0.007677993271499872, -0.005808438640087843, -0.0025158387143164873, 0.024228878319263458, -0.01767326518893242, -0.04958637058734894, -0.022892452776432037, -0.07568091154098511, 0.027434656396508217, 0.025701453909277916, 0.02101301960647106, 0.0779651626944542, 0.0005428851582109928, 0.06871867924928665, -0.003497480181977153, 0.014774773269891739, -0.05054312199354172, 0.05253974348306656, 0.016694648191332817, -0.014558766037225723, 0.010351885110139847, 0.022345688194036484, 0.05281391367316246, 0.040965061634778976, 0.03352537006139755, -0.014916237443685532, 0.08154713362455368, 0.01024687010794878, -0.3173114061355591, 0.041749581694602966, -0.03592683747410774, 0.017272457480430603, 0.062039121985435486, -0.02805796079337597, 0.06035850569605827, 0.020726922899484634, 0.00938368123024702, 0.051439303904771805, -0.001878300216048956, -0.01736721768975258, 0.0007777705322951078, 0.004571377299726009, 0.03513462096452713, -0.04278683662414551, -0.010375631973147392, -0.02515181340277195, 0.03481326997280121, 0.012131581082940102, -0.02409428544342518, 0.0892021507024765, 0.02299066074192524, -0.03410099819302559, 0.05959387123584747, -0.0010467005195096135, 0.13494418561458588, -0.04989687353372574, -0.026310671120882034, -0.004133423790335655, 0.04034033417701721, 0.017014391720294952, -0.039087750017642975, 0.05046924576163292, 0.04047603905200958, 0.062087900936603546, 0.05037650465965271, -0.03940815106034279, -0.029862647876143456, 0.00886005163192749, 0.018522242084145546, 0.06138412281870842, -0.012969539500772953, -0.052677273750305176, -0.03846254199743271, -0.009563108906149864, -0.03457646816968918, 0.07206167280673981, -0.06156441941857338, 0.07559441030025482, 0.0009599131881259382, -0.01794378273189068, 0.046623699367046356, -0.033090658485889435, 0.06420451402664185, -0.007456881459802389, -0.0625235065817833, -0.03970715403556824, -0.04730993136763573, 0.033287208527326584, -0.006696007214486599, 0.012838080525398254, 0.019506938755512238, 0.010622095316648483, 0.04283175989985466, -0.026538701727986336, 0.03850870952010155, -0.050898920744657516, -0.05908100679516792, 0.03567662462592125, -0.019323470070958138, -0.011649277061223984, -0.03797350823879242, -0.01089468039572239, 0.01183189358562231, 0.03228307142853737, -0.0135482894256711, 0.037616975605487823, -0.03541867062449455, -0.0066396258771419525, 0.013056031428277493, 0.03772978112101555, 0.003681792179122567, 0.04332270473241806, -0.006446421146392822, -0.005213154014199972, 0.0010315418476238847, -0.017882991582155228, -0.015019024722278118, -0.02361280843615532, -0.019650962203741074, -0.011512665078043938, -0.08870518207550049, 0.0034256221260875463, 0.018407169729471207, -0.01194029487669468, -0.27839919924736023, 0.0033492203801870346, 0.00872816052287817, 0.007221887353807688, -0.03534889593720436, 0.04950648918747902, 0.008251364342868328, 0.009776134043931961, -0.03456457331776619, 0.005392038729041815, 0.07995232194662094, 0.0630662590265274, -0.045473527163267136, 0.01700936071574688, 0.013756358996033669, -0.04557202011346817, 0.0717303678393364, -0.07138609141111374, 0.023795515298843384, 0.01047354657202959, 0.025635959580540657, 0.029305584728717804, 0.2168601155281067, -0.038608014583587646, -0.0003448162751737982, -0.009142385795712471, -0.022937148809432983, 0.014734184369444847, 0.014786956831812859, -0.017741139978170395, -0.04405716061592102, -0.01037662010639906, 0.06227149814367294, -0.06978326290845871, 0.0005385762196965516, 0.060088712722063065, 0.001227390835992992, -0.056180067360401154, -0.02272530272603035, -0.01905553974211216, -0.05431796982884407, 0.02356465347111225, -0.07194730639457703, 0.02902979962527752, 0.05268460512161255, 0.010049569420516491, 0.013374630361795425, -0.05007115378975868, -0.03355444595217705, 0.010911134071648121, -0.04548029601573944, -0.01465605292469263, -0.009181980043649673, -0.020326238125562668, 0.028301328420639038, 0.0176346804946661, -0.04982418194413185, 0.026663029566407204, -0.003378507914021611, -0.05700398236513138, -0.001644398202188313, -0.011142178438603878, -0.03907501697540283, 0.018625102937221527, -0.0022065462544560432]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>poor_mobile_and_wifi_coverage_in_residential_area</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Mobile and wifi coverage in Titirangi. Our mobile coverage around the house is really bad. We have fibre broadband but it is very slow at times\nReason for given NPS: Good customer service', 'Improvement needed: Offer better plans based on loyalty and usage\nReason for given NPS: Really like the One service,  but coverage holes let it down', 'Improvement needed: Faster call centre wait times and better mobile coverage\nReason for given NPS: I have been with Vodafone (One) for 35 years using the internet and mobile services.. In that time I have always had good/prompt service :)', 'Improvement needed: Better coverage at my house\nReason for given NPS: Youre not too bad', 'Improvement needed: Internet\nReason for given NPS: Because we live at Maungatapere and have endest problems with One NZ']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[-0.017089560627937317, -0.016384737566113472, 0.019419653341174126, -0.02812241017818451, 0.059213072061538696, -0.0351850651204586, -0.03927437216043472, 0.10027536004781723, 0.046289023011922836, -0.02152833715081215, 0.015267416834831238, 0.025860067456960678, 0.03722761943936348, 0.03075334057211876, 0.05176509916782379, 0.03120516985654831, 0.01957467757165432, -0.06243215873837471, 0.02074532024562359, 0.06559721380472183, 0.033302027732133865, -0.011515344493091106, 0.03202778846025467, -0.007866794243454933, 0.03859909251332283, 0.004184048622846603, -0.022062966600060463, -0.010510813444852829, -0.02701275795698166, -0.07389616966247559, 0.005142110399901867, 0.005381742492318153, 0.00836425181478262, 0.06838016957044601, 0.05781465396285057, -0.0229170024394989, -0.04387814551591873, 0.02848304808139801, -0.042268309742212296, 0.04983542114496231, -0.03840968385338783, 0.022841503843665123, 0.0007955693290568888, 0.029733141884207726, -0.05883585289120674, -0.013339508324861526, 0.020220214501023293, 0.00021789837046526372, 0.0539516918361187, -0.09419968724250793, 0.035944826900959015, 0.03263043984770775, -0.0030567513313144445, 0.05116509273648262, 0.028849758207798004, -0.010568567551672459, 0.039637066423892975, 0.017289558425545692, 0.019066568464040756, 0.00568301510065794, 0.023321202024817467, 0.04740326479077339, -0.15628984570503235, 0.04048045352101326, 0.06413239985704422, -0.018110282719135284, -0.011719905771315098, -0.033203817903995514, 0.03436805680394173, -0.012226613238453865, -0.049506254494190216, 0.01116105355322361, -0.0006993217975832522, 0.04656875878572464, 0.05798500403761864, 0.045709215104579926, -0.045170802623033524, 0.0019586344715207815, 0.013300936669111252, 0.025744935497641563, 0.06433217972517014, -0.04087841138243675, 0.013227580115199089, 0.015752874314785004, -0.01935211755335331, -0.06251533329486847, -0.0077067213132977486, -0.024933690205216408, -0.00031543790828436613, -0.019737863913178444, -0.06739400327205658, 0.035791587084531784, -0.02598450891673565, 0.03156665712594986, -0.05226163938641548, -0.025828925892710686, 0.010659990832209587, -0.01742359809577465, -0.06929058581590652, 0.4163101315498352, 0.008881840854883194, -0.017081698402762413, 0.08603018522262573, 0.012164000421762466, -0.012443386018276215, -0.056491103023290634, -0.0346049889922142, -0.01680326834321022, -0.03649159148335457, 0.05463383346796036, 0.015621487982571125, -0.04550919309258461, -0.013829803094267845, 0.03523917496204376, 0.03980749100446701, -0.005279016215354204, 0.01585395075380802, 0.027517875656485558, -0.024139072746038437, 0.05858500301837921, -0.034454431384801865, -0.05538708344101906, 0.01917744055390358, -0.0011507014278322458, 0.0426180437207222, -0.02021140605211258, 0.053570784628391266, 0.06272890418767929, -0.03566821664571762, 0.06225943565368652, -0.06954338401556015, -0.04450545459985733, 0.021609101444482803, 0.026142282411456108, 0.018606634810566902, 0.018931806087493896, -0.0134505620226264, 0.0045306496322155, -0.005714462138712406, 0.04023655503988266, 0.01879872940480709, -0.06534452736377716, -0.035441990941762924, -0.06617417186498642, 0.07271367311477661, 0.04648146033287048, -0.0020172367803752422, 0.08976854383945465, -0.00038377547753043473, -0.09099900722503662, 0.029546327888965607, -0.002969331806525588, 0.06181745603680611, -0.0073756324127316475, -0.02765425108373165, 0.02609887905418873, -0.025150323286652565, 0.04918961599469185, 0.03151392191648483, -0.01092517003417015, 0.07968507707118988, -0.022870058193802834, -0.05192052200436592, 0.05670234188437462, -0.027171989902853966, -0.054886117577552795, -0.05172999948263168, -0.0023931660689413548, -0.04519583657383919, 0.007718097884207964, -0.001704446505755186, 0.030355872586369514, -0.008415479212999344, 0.010798485949635506, 0.07135361433029175, -0.030573919415473938, -0.10949262231588364, 0.06765531003475189, -0.049781717360019684, -0.03237374499440193, -0.03131193295121193, -0.009616312570869923, -0.0181405209004879, -0.030423244461417198, 0.06187855824828148, 0.0021910935174673796, -0.03927309438586235, 0.03928705304861069, 0.05634060874581337, -0.01832769066095352, -0.1196768581867218, -0.09672703593969345, -0.0265873484313488, -0.06318306922912598, -0.007231533993035555, -0.026136362925171852, -0.032468002289533615, -0.02223689667880535, 0.022828511893749237, -0.031128879636526108, 0.07922952622175217, -0.03891676291823387, 0.004780769348144531, 0.005083615425974131, -0.007331973873078823, 0.045521821826696396, -0.02989419922232628, -0.040355075150728226, 0.06355094909667969, -0.016867026686668396, 0.027047064155340195, -0.05331733077764511, 0.12470577657222748, -0.06430678069591522, 0.04123853147029877, -0.026700137183070183, -0.03387253358960152, 0.014229697175323963, 0.050926800817251205, 0.046900808811187744, -0.017957553267478943, 0.06196476146578789, -0.047530397772789, -0.24896672368049622, -0.05754728615283966, 0.01557153556495905, -0.021698541939258575, -0.13698476552963257, -0.0245057363063097, -0.029886508360505104, 0.0018264560494571924, -0.015115462243556976, 0.0866876170039177, 0.05732213705778122, 0.01335873268544674, 0.012563531287014484, 0.038091614842414856, -0.029635345563292503, 0.010453746654093266, -0.008268703706562519, 0.03245529532432556, -0.039592888206243515, 0.013143043965101242, 0.03432523086667061, 0.004593661054968834, -0.008002991788089275, -0.048503998667001724, 0.03556697443127632, 0.005802145693451166, 0.15036694705486298, -0.03642909601330757, 0.0014568783808499575, -0.044521622359752655, 0.057916369289159775, 0.04197164252400398, -0.028590500354766846, -0.015227771364152431, -0.0005630456143990159, 0.025696702301502228, 0.010445604100823402, 0.01441498938947916, -0.04609314352273941, -0.08069561421871185, -0.0892985537648201, 0.08241771906614304, -0.010263891890645027, -0.03729570657014847, 0.04876641184091568, -0.030720693990588188, -0.04015953466296196, 0.08546267449855804, -0.07634145021438599, -0.04983614385128021, -0.004726795479655266, -0.007738725282251835, 0.0069792792201042175, 0.0002497620298527181, 0.06095137447118759, 0.009962746873497963, -0.014934053644537926, 0.065296970307827, -0.04001063480973244, -0.04551365599036217, -0.007237270474433899, 0.024514952674508095, 0.09759789705276489, -0.1278417408466339, 0.07300163805484772, 0.016947951167821884, -0.02584514580667019, -0.03529098257422447, -0.01760350912809372, 0.0866912379860878, 0.018783360719680786, 0.038451287895441055, -0.022770598530769348, 0.012402588501572609, -0.01081919390708208, -0.022882875055074692, 0.053213782608509064, 0.028584010899066925, 0.001974509796127677, -0.032539427280426025, 0.06823543459177017, -0.008550761267542839, 0.0331672728061676, -0.04368352144956589, -0.05259209871292114, 0.0004624572757165879, -0.0017861786764115095, -0.012722703628242016, 0.01432202197611332, -0.03904437646269798, -0.07434995472431183, 0.021143648773431778, 0.022275283932685852, -0.056746065616607666, 0.04580940678715706, -0.03001996874809265, -0.2149035930633545, -0.038973283022642136, 0.023526113480329514, -0.018614163622260094, -0.05707550793886185, 0.012456974014639854, 0.0072124190628528595, 0.04683529958128929, -0.042133431881666183, 0.03708598390221596, 0.021029522642493248, -0.012277455069124699, -0.025660965591669083, -0.05258416384458542, 0.08621462434530258, 0.0005593288806267083, -0.006203745491802692, 0.005928701721131802, -0.048928387463092804, -0.04208897799253464, 0.008576287887990475, 0.005626581143587828, 0.1288856863975525, -0.04808173328638077, 0.02061992697417736, 0.059867437928915024, -0.0040338230319321156, 0.037966590374708176, 0.004949134774506092, 0.027416951954364777, -0.046669285744428635, 0.024062689393758774, 0.031669504940509796, -0.0004023988440167159, -0.0135332141071558, -0.016640784218907356, 0.050251979380846024, -0.06409478187561035, -0.020055511966347694, -0.014023514464497566, -0.01339709386229515, 0.024213416501879692, -0.014174331910908222, 0.037486691027879715, 0.013508396223187447, -0.011899160221219063, -0.025487445294857025, -0.007681832183152437, 0.04751994460821152, 0.020007828250527382, -0.030927926301956177, -0.06757959723472595, -0.007658364716917276, 0.0041359905153512955, 0.031401343643665314, 0.011368363164365292, -0.07612321525812149, -0.006813887041062117, -0.03301060199737549, -0.033420659601688385, 0.04247818514704704, -0.037051837891340256, 0.015817534178495407, -0.00782952830195427, 0.05588234215974808]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>takes_long_to_resolve_issues</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Following up on issues to make sure it’s been sorted\nReason for given NPS: I’ve never had any issues', 'Improvement needed: Broadband speed, it continually slows down.\nFaster access to help via phone.\n', 'Improvement needed: valued assistance, value long servicing customers\nReason for given NPS: difficulty when phoning for assistance and the wait time', 'Improvement needed: The entire customer service regime and experience\nReason for given NPS: Customer service is poor. The call center is not responsive. I waited for 6+ months for a response to transfer my customer details for Sky TV from Vodafone TV to Sky TV. It has never happened. I have up and now subscribe to Sky Now and have missed the opportunity to be transferred properly to the products I have asked for. I have also had my broadband plan intermittently cancelled when I have upgraded my plan. I have never had a good customer experience.', 'Improvement needed: Communication especially at call centre\nReason for given NPS: continual issues with service. Very difficult to resolve due to poor communication.']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[-0.07265707850456238, -0.006929237861186266, 0.0845046266913414, -0.0014690773095935583, -0.038477085530757904, -0.05732802674174309, -0.04209178686141968, -0.00417441176250577, 0.018315596505999565, -0.053410328924655914, 0.02309306152164936, 0.019487911835312843, 0.06063366308808327, 0.012819868512451649, 0.03406691923737526, 0.058291029185056686, 0.01840338669717312, -0.039203330874443054, -0.00433341646566987, -3.342693889862858e-05, -0.03047502040863037, -0.02658350020647049, -0.021209977567195892, 0.028077488765120506, -0.07396209239959717, 0.05138063430786133, -0.023338939994573593, -0.06735402345657349, -0.05286083370447159, -0.19085146486759186, -0.00921302754431963, 0.009566805325448513, 0.0061208936385810375, 0.02467963844537735, 0.034395452588796616, 0.009987158700823784, -0.050671037286520004, 0.021574875339865685, -0.039017051458358765, -0.008970161899924278, 0.06526313722133636, 0.06503061205148697, -0.06813886016607285, -0.03979143500328064, -0.012880688533186913, -0.01554111484438181, 0.004072627518326044, -0.005420347210019827, 0.10281606018543243, -0.03344585746526718, -0.07904484868049622, 0.020101230591535568, 0.014779467135667801, -0.025160931050777435, 0.019221534952521324, 0.08030225336551666, 0.08956577628850937, 0.014677191153168678, 0.05840785428881645, -0.030531372874975204, 0.04162614420056343, -0.0017963238060474396, -0.1017090454697609, 0.07278284430503845, 0.07409459352493286, -0.00374565995298326, 0.04723159223794937, -0.0714467316865921, 0.0015822210116311908, 0.04390344396233559, -0.03710430860519409, 0.009213927201926708, -0.008208373561501503, 0.09418933838605881, 0.01557549275457859, 0.0244229044765234, 0.008381899446249008, 0.013423955999314785, 0.0549316368997097, 0.016322936862707138, 0.005080798640847206, 0.013156889006495476, -0.04164581745862961, -0.03058742545545101, -0.026149366050958633, -0.050935298204422, -0.006089629139751196, 0.040095921605825424, 0.051358189433813095, 0.05319623649120331, 0.04983339086174965, -0.041077181696891785, 0.08069300651550293, 0.09699536859989166, -0.05152895674109459, -0.049564506858587265, -0.052870023995637894, -0.007969705387949944, -0.04559321328997612, 0.36568570137023926, -0.02147061564028263, 0.06485424935817719, 0.03645141422748566, -0.010560738854110241, 0.006393486633896828, 0.05221843719482422, -0.0180913545191288, -0.019763875752687454, -0.07077249884605408, 0.016122927889227867, -0.025484777987003326, -0.0008597570704296231, 0.08384811133146286, -0.02027689851820469, -0.004509403835982084, 0.04135892912745476, -0.012046423740684986, -0.008803344331681728, -0.07136572897434235, 0.007130129262804985, 0.04015995189547539, 0.0240144282579422, 0.03855526074767113, 0.012223804369568825, 0.02526508830487728, 0.016101354733109474, -0.05054321885108948, 0.10762003809213638, 0.006802456919103861, 0.05090562254190445, 0.02664332091808319, -0.018130755051970482, -0.013902781531214714, -0.008943726308643818, -0.03756909817457199, 0.01653444580733776, 0.018858449533581734, 0.007855677045881748, 0.040739141404628754, 0.0035674511454999447, -0.040633074939250946, -0.05010320618748665, 0.00364770763553679, -0.05732858553528786, -0.024775369092822075, 0.08393047004938126, -0.014685087837278843, 0.04630124941468239, -0.027408458292484283, -0.09661399573087692, -0.006270935758948326, 0.03544461727142334, -0.016581201925873756, -0.10264820605516434, -0.034742776304483414, -0.023154251277446747, 0.02784721367061138, -0.038360223174095154, -0.03381072357296944, 0.017002640292048454, 0.060388531535863876, -0.0025098121259361506, -0.008725988678634167, 0.04585844650864601, 0.047868985682725906, -0.008817946538329124, 0.03086070530116558, -0.07486844062805176, -0.03564636409282684, 0.03982502594590187, -0.06126106530427933, 0.05728689208626747, 0.045561373233795166, 0.006214592605829239, 0.029219863936305046, -0.03788038343191147, -0.03353772312402725, 0.023649131879210472, 0.043232932686805725, 0.020439038053154945, 0.09077830612659454, 0.0084937559440732, -0.017460575327277184, -0.012569165788590908, 0.029833827167749405, -0.06181248277425766, -0.00048809812869876623, 0.04249541088938713, 0.015198007225990295, -0.08632383495569229, -0.06803354620933533, -0.06884833425283432, -0.01703798957169056, -0.007872276939451694, -0.0021970397792756557, -0.09823589771986008, -0.010367253795266151, -0.0520813912153244, 0.029844895005226135, -0.010826810263097286, 0.03156249225139618, -0.0072811059653759, 0.016821691766381264, -0.0027153571136295795, 0.0017454252811148763, 0.023658262565732002, -0.051890671253204346, -0.0043404605239629745, 0.020884299650788307, 0.009986546821892262, -0.09234960377216339, 0.00017368832777719945, 0.03951727971434593, -0.03552355244755745, 0.009963401593267918, 0.04264965280890465, -0.016438240185379982, 0.06353187561035156, 0.03877260908484459, 0.07439548522233963, 0.020257677882909775, 0.01564943790435791, 0.05675467476248741, -0.31221193075180054, -0.012607590295374393, -0.047870006412267685, 0.0014438992366194725, -0.0066911145113408566, -0.052700746804475784, -0.009114127606153488, -0.049779463559389114, -0.014134947210550308, 0.07241395860910416, 0.02110055647790432, -0.002564989263191819, 0.006991460919380188, -0.08114920556545258, -0.039941977709531784, -0.05150791257619858, 0.007754904218018055, 0.09062814712524414, -0.026207884773612022, -0.009097841568291187, -0.02635432779788971, -0.030365625396370888, 0.019413698464632034, -0.05157410353422165, -0.06422028690576553, 0.00814791303128004, 0.19480673968791962, -0.0320364274084568, -0.055200427770614624, -0.024906322360038757, 0.0514511801302433, 0.027607757598161697, -0.006524162366986275, -0.11480334401130676, 0.017352264374494553, 0.03496715798974037, 0.0378563292324543, 0.011871025897562504, 0.03438093513250351, -0.0014763472136110067, -0.007233409211039543, 0.03369315713644028, -0.0047593447379767895, -0.009597433730959892, -0.008280141279101372, 0.01842336542904377, -0.003700995584949851, -0.025561369955539703, -0.00186343549285084, -0.01990743726491928, 0.013199174776673317, 0.01655854843556881, 0.01265726424753666, 0.019700026139616966, 0.02473152056336403, -0.007488925475627184, -0.05023575946688652, 0.000506820622831583, 0.0028549139387905598, -0.0023073626216500998, 0.009198958054184914, -0.028439657762646675, 0.021347038447856903, -0.048802450299263, 0.06280535459518433, 0.0022697928361594677, 0.000726053083781153, -0.0036734938621520996, 0.006088009104132652, -0.02729150280356407, -0.03357021510601044, 0.03977160155773163, -0.08649910241365433, 0.016728466376662254, 0.01627952605485916, 0.010950963944196701, 0.02616645023226738, 0.024084201082587242, 0.020875243470072746, -0.042672086507081985, 0.008755371905863285, -0.022441435605287552, 0.03635019063949585, -0.041208259761333466, 0.0037325299344956875, 0.03847199305891991, -0.040650106966495514, 0.018165547400712967, -0.03776973485946655, -0.019778482615947723, 0.01401743944734335, 0.016157256439328194, -0.04683959484100342, -0.013758864253759384, 0.017241137102246284, 0.012182909063994884, -0.25956782698631287, 0.0785534605383873, 0.05364440754055977, -0.039244357496500015, -0.022408386692404747, 0.030717624351382256, -0.010408295318484306, -0.0005732685094699264, -0.06739770621061325, -0.019907429814338684, -0.03184593468904495, 0.04884131997823715, -0.06088795140385628, -0.022530652582645416, 0.05249880999326706, 0.009649686515331268, 0.042731873691082, -0.05975578725337982, 0.016053520143032074, -0.0656704306602478, 0.012746665626764297, 0.04412989690899849, 0.1251440942287445, -0.0325281023979187, -0.015641553327441216, 0.005445006303489208, 0.03366120159626007, -0.01913485862314701, 0.028013650327920914, -0.009258643724024296, -0.04365263506770134, -0.004784103482961655, -0.032553549855947495, 0.007343461737036705, 0.015938201919198036, -0.006466683465987444, 0.02507110685110092, 7.941261173982639e-06, 0.005780121311545372, 0.05398029461503029, 0.02616789937019348, 0.022897368296980858, 0.007487579248845577, 0.003961834125220776, 0.06819820404052734, -0.027897359803318977, 0.03841647133231163, -0.01421816274523735, -0.03307413309812546, 0.04036424309015274, -0.023952098563313484, -0.03955192118883133, -0.028010666370391846, 0.06871336698532104, 0.051325418055057526, 0.017290540039539337, -0.010836461558938026, 0.05752168595790863, 0.00671114306896925, 0.0028360772412270308, -0.05052493140101433, -0.021540915593504906, 0.07157120853662491, 0.0038466157857328653, 0.005413004197180271]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>high_cost_for_basic_mobile_wifi_plan</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Fix the reception and connectivity problem since the switch from Vodafone.  A lower price for mobile and wifi for single people living alone.\nReason for given NPS: Very expensive for just a mobile and wifi (over $120 a month), and after the switch from Vodafone to OneNZ my general mobile reception, wifi speed and connectivity has decreased.', 'Improvement needed: More mobile data at lower prices 😂👌🏼\nReason for given NPS: I’ve had no problems and price seems competitive.', 'Improvement needed: Pricing plans for data use\nReason for given NPS: Great product but it is a tad exspensive.', 'Improvement needed: Reduced data costs\nReason for given NPS: Satisfied with coverage and call quality', 'Improvement needed: Coverage\nReason for given NPS: More options for buying $200 priced phones ,not everyone can afford a flip phone, iphone etc']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[-0.052418895065784454, -0.029542705044150352, 0.004263192415237427, -0.06623054295778275, 0.006750563625246286, -0.03348390758037567, -0.0472470261156559, 0.10587922483682632, -0.0005822476232424378, -0.012746021151542664, 0.03557366877794266, 0.044793739914894104, 0.043023910373449326, 0.024427244439721107, 0.03774436563253403, 0.020430726930499077, 0.04034898802638054, -0.09824804961681366, 0.0022391360253095627, 0.0922587662935257, 0.10117193311452866, -0.04446673020720482, -0.009398579597473145, -0.016095522791147232, 0.06184343993663788, 4.451996210264042e-05, -0.005977375898510218, 0.02336435578763485, 0.010156805627048016, -0.08426318317651749, 0.06027917191386223, 0.007890651933848858, 0.02320794202387333, 0.041197825223207474, 0.010551032610237598, -0.044101350009441376, -0.030837539583444595, -0.02471006289124489, 0.011644968762993813, 0.04777071252465248, -0.029952416196465492, 0.06829167902469635, -0.06408141553401947, 0.04111968353390694, -0.027188241481781006, -0.013337749056518078, -0.038070324808359146, -0.019111478701233864, 0.03465623781085014, -0.02961752377450466, 0.04076821357011795, 0.032260362058877945, -0.031639982014894485, -0.023473426699638367, 0.024474330246448517, 0.012276346795260906, -0.010675621218979359, 0.020526999607682228, 0.03621881455183029, -0.012691018171608448, 0.011007040739059448, 0.050489168614149094, -0.13955716788768768, 0.05363403633236885, 0.02064288966357708, -0.02152290940284729, -0.0006884295726194978, -0.008015483617782593, 0.030741561204195023, 0.01581987366080284, -0.01870942860841751, 0.02889610268175602, 0.07291591912508011, 0.0200454480946064, 0.054548073559999466, 0.02707824483513832, -0.04055992513895035, 0.0025031212717294693, 0.02663138136267662, 0.030332302674651146, 0.03744696453213692, 0.006364920176565647, 0.00964388344436884, 0.021975010633468628, 0.020277967676520348, -0.09019041061401367, 0.00980895571410656, -0.017392883077263832, -0.005341419950127602, -0.04061435908079147, -0.03770947456359863, 0.015477064996957779, -0.02131182700395584, -0.0019374627154320478, -0.08269251883029938, 0.04885474219918251, 0.04682972654700279, 0.007959853857755661, -0.09797567874193192, 0.4127506613731384, -0.0002458409289829433, 0.005522452294826508, 0.04781324416399002, -0.023522118106484413, -0.029033876955509186, -0.05491058900952339, -0.03616113215684891, 0.013175279833376408, -0.02780050039291382, 0.011900556273758411, -0.05680014193058014, -0.04510819539427757, -0.004075619857758284, 0.013873935677111149, -0.0021839237306267023, 0.04180716723203659, 0.000622699735686183, -0.032242584973573685, 0.00461972039192915, 0.09003540873527527, -0.02636820822954178, -0.09794996678829193, 0.02451498620212078, -0.0018467186018824577, -0.035658713430166245, -0.039147328585386276, 0.0538833811879158, 0.07654842734336853, -0.014290614984929562, 0.11843130737543106, 0.0038008990231901407, -0.0751924142241478, -0.018009306862950325, 0.0360172763466835, 0.016945363953709602, -0.0013887378154322505, 0.03797629475593567, 0.020732218399643898, -0.062404751777648926, 0.07537837326526642, -0.0467989407479763, -0.04437616467475891, -0.011670737527310848, -0.06233993545174599, 0.027592455968260765, 0.06767450273036957, 0.03759891912341118, 0.06052801012992859, 0.03476901724934578, -0.11607059091329575, -0.002020129468291998, 0.011797397397458553, 0.10063475370407104, -0.04836161062121391, -0.014946467243134975, -0.015424346551299095, 0.015384084545075893, 0.024548031389713287, 0.002989782253280282, -0.00600722711533308, 0.042127542197704315, -0.04033365473151207, -0.08094004541635513, 0.04224104806780815, 0.03338641673326492, -0.11004661023616791, -0.06380339711904526, -0.037173766642808914, -0.019476333633065224, -0.016846051439642906, -0.07492779940366745, 0.023610331118106842, 0.012318925932049751, 0.033058539032936096, 0.07842930406332016, -0.00048262669588439167, -0.09259490668773651, 0.014891555532813072, -0.04398220404982567, -0.034062597900629044, -0.021304430440068245, 0.006648635026067495, -0.03384706750512123, -0.03459005802869797, 0.008770307525992393, -0.026771211996674538, -0.05303952097892761, 0.03131658583879471, 0.031275179237127304, -0.015746867284178734, -0.11329175531864166, 0.016507091000676155, -0.012927736155688763, -0.046671830117702484, -0.030138567090034485, -0.015108072198927402, -0.052516087889671326, 0.014745556749403477, 0.031902216374874115, -0.021206604316830635, 0.08755484968423843, -0.015107611194252968, -0.04457332566380501, 0.012400977313518524, -0.01070385705679655, -0.0011953564826399088, -0.0068387421779334545, 0.023252980783581734, 0.07317732274532318, -0.038253676146268845, 0.0581233873963356, -0.012866389937698841, 0.10424770414829254, -0.001213741023093462, -0.02563946694135666, -0.020591003820300102, -0.029329799115657806, 0.05720370262861252, 0.009004107676446438, 0.018254680559039116, -0.010770159773528576, 0.022114811465144157, -0.011118629947304726, -0.26248323917388916, 0.008187456987798214, 0.03509918972849846, -0.062358394265174866, -0.0609700009226799, 0.0020592897199094296, 0.015694880858063698, -0.007272485177963972, -0.021479910239577293, 0.0897042453289032, 0.08389658480882645, -0.001658518216572702, -0.033414456993341446, 0.007055068854242563, -0.014926162548363209, 0.029937399551272392, -0.002960036974400282, 0.029650045558810234, 0.025156168267130852, 0.019761331379413605, 0.010531333275139332, 0.017646677792072296, -0.025881998240947723, 0.009134712629020214, -0.009567629545927048, 0.045591529458761215, 0.13515421748161316, -0.09147047251462936, 0.008633134886622429, -0.03558377921581268, 0.0727582573890686, -0.008337828330695629, -0.00959079060703516, -0.020709658041596413, -0.031839169561862946, 0.023622294887900352, 0.014361214824020863, 0.0100153349339962, 0.004973617382347584, -0.08259347826242447, -0.0602414533495903, 0.0368984192609787, -0.046218715608119965, -0.07597203552722931, -0.008980514481663704, 0.009082784876227379, -0.05964913219213486, 0.057930171489715576, -0.04875177890062332, -0.0035222661681473255, 0.009768398478627205, 0.010454826056957245, 0.0028710593469440937, -0.020117172971367836, 0.07822591811418533, -0.020388178527355194, -0.04938782379031181, 0.02137095294892788, -0.07438451796770096, -0.036107052117586136, -0.016164936125278473, 0.04884366691112518, 0.05114573612809181, -0.043155889958143234, 0.0617283470928669, -0.02584880217909813, 0.05458078533411026, -0.007357453927397728, -0.04804772883653641, 0.032863982021808624, 0.012851663865149021, 0.010926865041255951, 0.056157298386096954, 0.025818629190325737, 0.048344697803258896, -0.036552365869283676, 0.06116413697600365, 0.030979551374912262, -0.009771156124770641, -0.03421857953071594, 0.03587637469172478, -0.010096348822116852, 0.02550285868346691, -0.012441198341548443, -0.03611094504594803, 0.055041346698999405, 0.06546515971422195, -0.011616620235145092, -0.0071974326856434345, 0.008525623939931393, -0.04378119856119156, -0.021396836265921593, 0.028938807547092438, 0.004671214148402214, 0.06434865295886993, -0.03491621091961861, -0.25298038125038147, 0.008576490916311741, -0.02437940239906311, -0.00894490722566843, -0.030210820958018303, -0.011455332860350609, 0.047074880450963974, 0.002345049288123846, -0.08896487206220627, 0.07499280571937561, 0.027858437970280647, -0.0062905410304665565, 0.02076687663793564, -0.02890101447701454, 0.06179099529981613, -0.01165249664336443, 0.019416406750679016, -0.007919633761048317, -0.059610772877931595, -0.01965312846004963, -0.0039018394891172647, -0.04206187278032303, 0.09614758938550949, -0.03616577759385109, -0.013770573772490025, 0.03648070991039276, -0.048016708344221115, 0.05677805095911026, 0.08461486548185349, -0.018374508246779442, -0.015443147160112858, -0.0289542768150568, 0.059661660343408585, -0.03261030837893486, 0.008200186304748058, 0.011890341527760029, 0.03637170046567917, -0.054107192903757095, -0.0054783932864665985, -0.002754193264991045, -0.01301677618175745, 0.015292800962924957, -0.02904404327273369, 0.024823613464832306, 0.05200545862317085, 0.0055848113261163235, -0.057114530354738235, -0.027012329548597336, -0.0010426287772133946, 0.014452817849814892, -0.044702332466840744, -0.048658061772584915, 0.003668925492092967, 0.01732337661087513, 0.0239893589168787, 0.007648112252354622, -0.04574556648731232, -0.013426663354039192, -0.05128518491983414, -0.03431180119514465, 0.023382311686873436, 0.004559141583740711, 0.028699446469545364, 0.058418530970811844, 0.04152723401784897]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>need_for_loyalty_benefits_long_term_customers</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['Improvement needed: valuing long customers\nReason for given NPS: Ok prices but not excellent, OK customer service - I have a been a customer for 21 years and think this should be valued', "Improvement needed: Look after your customers especially long term ones.\nReason for given NPS: I don't have any problems as such but I've been with Vodafone/now One for 13-14 years and that individual loyalty never gets rewarded. It's all about getting new customers versus thanking those that have remained loyal to the company.", 'Improvement needed: Offer better plans based on loyalty and usage\nReason for given NPS: Really like the One service,  but coverage holes let it down', 'Improvement needed: Be pro-active about keeping your existing customers.\nReason for given NPS: If I was asked who I was with re phone and internet I would respond one.nz but as one.nz has done nothing for me to crow about I see no reason to give free advertising for them.', 'Improvement needed: Loyalty rewards for long term customers.\nReason for given NPS: Great friendly professional service.']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[-0.012411029078066349, -0.051227983087301254, 0.022274009883403778, 0.0019902768544852734, -0.03084535337984562, -0.006696699187159538, 0.00021281494991853833, 0.04542776942253113, 0.033569201827049255, -0.027279630303382874, 0.0014394954778254032, 0.042569905519485474, 0.0035774928983300924, -0.0025376572739332914, 0.06107938289642334, 0.016877440735697746, 0.08494026213884354, -0.005048141814768314, -0.050668176263570786, 0.024920249357819557, 0.01016206480562687, -0.08925161510705948, -0.013053455390036106, 0.039230067282915115, 0.024417908862233162, -0.034788645803928375, -0.0064393929205834866, -0.01881658472120762, -0.03644105792045593, -0.07242745161056519, -0.014608738012611866, -0.02367742918431759, 0.03852871432900429, 0.036231428384780884, 0.0013024132931604981, 0.00834764912724495, -0.009255340322852135, -0.04839823767542839, -0.017606742680072784, 0.07600440084934235, 0.03123881295323372, 0.008530769497156143, -0.02759789675474167, 0.02056378312408924, -0.018185704946517944, -0.0696055218577385, 0.015177345834672451, -0.022441411390900612, 0.040259476751089096, -0.007921322248876095, 0.04925864562392235, -0.008138366974890232, -0.04526829719543457, -0.00779813202098012, -0.003174892859533429, 0.08517488092184067, -0.005669404752552509, 0.031438808888196945, -0.019018657505512238, -0.014650414697825909, 0.059091340750455856, -0.057559750974178314, -0.14677514135837555, 0.01485150121152401, -0.07710714638233185, 0.020130081102252007, -0.059830594807863235, 0.020092777907848358, -0.041681885719299316, 0.03208551183342934, -0.015436425805091858, -0.030014852061867714, -0.0402955524623394, 0.026160327717661858, 0.016840945929288864, 0.07766812294721603, 0.04065043851733208, -0.012870036996901035, -0.03018976002931595, -0.0006081899045966566, 0.061234407126903534, 0.02364065870642662, -0.005943057127296925, -0.0044152019545435905, -0.030602112412452698, -0.0651441216468811, 0.012550829909741879, -0.06899741291999817, 0.029264388605952263, 0.003436432685703039, 0.048745639622211456, -0.0015467811608687043, -0.004484842531383038, 0.032796233892440796, -0.08413253724575043, -0.0500817596912384, -0.0005827493732795119, 0.015330941416323185, -0.0754098892211914, 0.39230576157569885, 0.017263583838939667, 0.03928793594241142, -0.004269915167242289, -0.022660385817289352, 0.04419754445552826, 0.005981932859867811, -0.0370335653424263, 0.03858662024140358, 0.009032119996845722, -0.02032991126179695, -0.055958185344934464, 0.046738117933273315, 0.03568952903151512, -0.009299855679273605, -0.034547384828329086, 0.06688020378351212, -0.028693608939647675, -0.02366200089454651, 0.012657425366342068, 0.01847621239721775, 0.0035424057859927416, 0.02264600805938244, 0.018576759845018387, 0.06868033856153488, -0.008310843259096146, -0.028160924091935158, 0.07545065134763718, 0.0999130979180336, -0.02326602302491665, 0.02657327987253666, -0.0069452738389372826, -0.02570602111518383, -0.028920086100697517, 0.037224095314741135, -0.006210830993950367, 0.0010415619472041726, -0.016149431467056274, 0.030992541462183, 0.03973960503935814, 0.05532458424568176, 0.024139301851391792, -0.045030977576971054, 0.05990589037537575, -0.0945698469877243, 0.022090502083301544, 0.07518058270215988, 0.08134804666042328, 0.03643401339650154, -0.05324834585189819, -0.006837302353233099, 0.01749938353896141, 0.05075432360172272, 0.009349617175757885, -0.061989136040210724, 0.012991741299629211, 0.023363694548606873, -0.00634154723957181, -0.02238958701491356, -0.07381937652826309, -0.003250454319640994, 0.0659656748175621, -0.06887100636959076, -0.036033470183610916, 0.04109027981758118, 0.028208456933498383, -0.11882071197032928, 0.025919727981090546, -0.02336067706346512, -0.03342696651816368, 0.020818496122956276, -0.009769006632268429, 0.023959022015333176, -0.04170680418610573, 0.013845926150679588, 0.07366861402988434, 0.011734707280993462, -0.033226557075977325, -0.009367638267576694, -0.05090966448187828, -0.014384633861482143, 0.0012846472673118114, 0.017585381865501404, -0.06644707173109055, -0.002347391564399004, -0.0014918865635991096, -0.014935855753719807, 0.01573178917169571, -0.035900868475437164, -0.0016246322775259614, 0.0037108692340552807, -0.037200670689344406, -0.02570882998406887, -0.07699234783649445, 0.02106628753244877, 0.029943160712718964, -0.038678862154483795, -0.07163207978010178, -0.0015367896994575858, 0.04607325792312622, -0.05286033824086189, -0.027378957718610764, -0.029163261875510216, -0.017334552481770515, -0.0643402561545372, -0.0003243606479372829, 0.04944668337702751, 0.037973932921886444, -0.00565644446760416, 0.07607376575469971, -0.04926948621869087, 0.004043299239128828, 0.02111772820353508, 0.060524776577949524, 0.05510128661990166, -0.008779104799032211, 0.006856849417090416, 0.06372162699699402, 0.04374527186155319, 0.06215657666325569, -0.019986841827630997, 0.05257654935121536, 0.11659789830446243, 0.012661106884479523, -0.31412336230278015, 0.03699660301208496, -0.03721372038125992, 0.03084484487771988, 0.004774018190801144, 0.009041906334459782, 0.0316438153386116, -0.028796585276722908, 0.015919821336865425, -0.0011558944825083017, 0.08404842019081116, -0.01659761182963848, 0.014228018000721931, -0.040167294442653656, 0.011768843047320843, 0.018343504518270493, -0.015333487652242184, 0.03069160506129265, 0.010233190841972828, -0.0007355816778726876, -0.015165547840297222, 0.02041025646030903, 0.024201640859246254, -0.04776141047477722, 0.09006716310977936, -0.024351805448532104, 0.13333208858966827, -0.041879747062921524, -0.10130482912063599, -0.033797960728406906, 0.0014158088015392423, 0.045639824122190475, -0.043662432581186295, -0.068831667304039, 0.05340569093823433, 0.0005542405997402966, -0.03450305014848709, 0.01620805263519287, 0.002674139803275466, -0.040301304310560226, 0.0027115456759929657, 0.04223624989390373, -0.05979423224925995, 0.017118509858846664, -0.015812866389751434, -0.05731020122766495, 0.05527535080909729, 0.07189181447029114, -0.062048736959695816, 0.053253404796123505, 0.03670158237218857, 0.00023810059064999223, 0.017262106761336327, 0.020262379199266434, 0.03432941064238548, -0.03968459740281105, -0.01727954111993313, 0.013182122260332108, -0.026382027193903923, 0.060916244983673096, -0.04384554550051689, 0.01899336650967598, 0.018131516873836517, -0.028781164437532425, 0.011465956456959248, -0.04037969559431076, 0.0040133073925971985, 0.04056856408715248, -0.02401789277791977, 0.020516740158200264, -0.06923577189445496, 0.012069770134985447, -0.058057572692632675, -0.09733953326940536, -0.02889617159962654, -0.0335158072412014, -0.02571892738342285, 0.015178429894149303, -0.015729522332549095, -0.022275488823652267, 0.034969035536050797, -0.06385096162557602, 0.026602985337376595, 0.047276128083467484, 0.02723276987671852, 0.07149358093738556, 0.012191255576908588, 0.027104515582323074, 0.0010219479445368052, 0.005258541088551283, -0.02675420232117176, -0.016108965501189232, -0.030090143904089928, -0.05291188880801201, 0.07276986539363861, 0.009440703317523003, -0.27884477376937866, -0.020099930465221405, -0.05714070051908493, 0.017156844958662987, -0.022642824798822403, 0.04840393736958504, 0.0009316601790487766, 0.007615349255502224, -0.12488727271556854, 0.030271129682660103, 0.006047636736184359, 0.06437921524047852, -0.022656084969639778, -0.0435798279941082, 0.05741172283887863, 0.04487939178943634, 0.06502198427915573, -0.021799275651574135, 0.011811057105660439, -0.02622668631374836, 0.025905612856149673, 0.020421722903847694, 0.17382094264030457, 0.03759259358048439, -0.04662192612886429, -0.014766151085495949, -0.01271469984203577, 0.019314242526888847, -0.004500426352024078, -0.028438622131943703, -0.03999153897166252, -0.012653614394366741, 0.05296820402145386, 0.014537736773490906, -0.0023833480663597584, 0.034072715789079666, -0.035841282457113266, -0.06271395087242126, 0.018305214121937752, 0.018326008692383766, 0.010873147286474705, 0.03130044788122177, -0.0017427445854991674, -0.008628834038972855, 0.07854858040809631, -0.012310810387134552, 0.04061117023229599, -0.020610034465789795, 0.011136563494801521, -0.03723156824707985, -0.057623255997896194, -0.04419470578432083, -0.013791841454803944, 0.017576126381754875, 0.016242526471614838, -0.028227295726537704, -0.06539009511470795, -0.0019631716422736645, 0.04402541741728783, 0.0003963342751376331, -0.06420546770095825, 0.007975488901138306, 0.02865941822528839, 0.013801668770611286, 0.014778460375964642]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>poor_in_store_customer_service_experience</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['Reason for given NPS: Offers are okay, staffing in stores seems less, and less interested in helping.', 'Improvement needed: Remind your front line in person staff how to treat customers. We are not always right but we are human\nReason for given NPS: I always find the your call centre staff are amazing and super lovely, I wish your staff in store were as helpful.', 'Improvement needed: Customer service- also cisibility or recommending best current plans and pricing\nReason for given NPS: Much of a much mess providers- your customer service in store is terrible and also on phone -takes ages to get through.', 'Improvement needed: Customer service &amp; technical knowledge in the Cambridge One Nz store( very keen to hook me in tgen disinterested. A staff member actually used my new I phone to claim my Spotify hours so very unimpressed.\nReason for given NPS: I like the response One Nz is making to block pornography of children from reaching or being able to access by anyone in Nz; also agree with the commitment to ensure total accessibility of mobile phone users through out Nz', 'Improvement needed: Help for older clients in store\nReason for given NPS: 30 years using your service']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[-0.020585499703884125, 0.014889934100210667, 0.06002017483115196, 0.0370030552148819, -0.037982966750860214, -0.0725337490439415, 0.040362343192100525, 0.044429924339056015, 0.043841563165187836, -0.08025810122489929, -0.015265557914972305, 0.023168303072452545, 0.0013596623903140426, 0.010157023556530476, 0.03110121749341488, 0.00749549362808466, 0.06914716958999634, -0.06264886260032654, -0.08089238405227661, 0.03578945994377136, 0.017057405784726143, -0.04884980618953705, -0.050434742122888565, 0.0026786839589476585, -0.025735491886734962, -0.03715205565094948, -0.06717967987060547, -0.015305699780583382, -0.07756766676902771, -0.08505447953939438, -0.004756401292979717, 0.02232590690255165, 0.06308097392320633, 0.008601782843470573, 0.0596686452627182, 0.005072606727480888, -0.034011807292699814, -0.01308509148657322, 0.03290713205933571, -0.017023982480168343, 0.03646673262119293, -0.05258488282561302, -0.05247395485639572, 0.04059655964374542, 0.005442382302135229, -0.056723643094301224, 0.03570520505309105, -0.06816384196281433, 0.07942380756139755, -0.07414841651916504, -0.034951891750097275, 0.016105134040117264, -0.03257661685347557, -0.015819327905774117, -0.028992414474487305, 0.03929276019334793, 0.06478244811296463, -0.016095682978630066, 0.04027339443564415, 0.020336199551820755, 0.04579275846481323, -0.06289369612932205, -0.11409210413694382, 0.014214133843779564, 0.05190674588084221, 0.028564808890223503, -0.020852621644735336, -0.07466764748096466, -0.05493282899260521, -0.03382112830877304, -0.07083717733621597, -0.04149336740374565, -0.006995368283241987, 0.11178905516862869, 0.01771453581750393, 0.048676393926143646, 0.015582106076180935, -0.02477286010980606, 0.034646689891815186, 0.07640419900417328, 0.010486452840268612, -0.048899661749601364, 0.0021017417311668396, -0.039794884622097015, -0.04029553756117821, -0.05496615171432495, -0.0009450988145545125, 0.017513612285256386, 0.06660528481006622, 0.025710681453347206, 0.05483207479119301, 0.026171907782554626, 0.005443476606160402, 0.0015437663532793522, -0.052011266350746155, -0.06884748488664627, 0.010702797211706638, 0.01856042630970478, -0.0879727303981781, 0.38012775778770447, 0.054874174296855927, 0.04137469828128815, 0.03785279393196106, -0.029045311734080315, 0.023572547361254692, -0.059048138558864594, 0.0032519102096557617, -0.0017023409018293023, -0.03649880737066269, -0.020135559141635895, -0.05596626177430153, -0.0269972775131464, 0.06867650151252747, -0.009112332947552204, 0.0258762389421463, 0.046605754643678665, 0.006338803563266993, -0.017330897971987724, -0.01932070590555668, 0.008730143308639526, 0.032915178686380386, 0.024760141968727112, 0.007248873356729746, -0.008986344560980797, -0.05046371743083, -0.055537667125463486, -0.006640281528234482, 0.08625724166631699, -0.023577051237225533, 0.021407771855592728, 0.02836756967008114, -0.05071111395955086, -0.00737721286714077, 0.028379220515489578, -0.031466301530599594, -0.006574718281626701, -0.005622063763439655, 0.08263566344976425, 0.05332456901669502, 0.02985342964529991, 0.0024647105019539595, -0.053070928901433945, -0.03801686316728592, -0.03367074579000473, -0.0003971927217207849, 0.04983866587281227, 0.010822132229804993, 0.054833464324474335, -0.037385787814855576, -0.02354634553194046, -0.03374432027339935, 0.047606151551008224, 0.021943524479866028, 0.025439046323299408, -0.018937235698103905, -0.0356699675321579, 0.05102001503109932, -0.03330837935209274, -0.008829591795802116, 0.037227775901556015, 0.0632193461060524, -0.016120750457048416, 0.004073609132319689, -0.02141115628182888, 0.01820310391485691, -0.03586333245038986, 0.012200103141367435, -0.01602889783680439, -0.017912497743964195, 0.028446132317185402, 0.02622099779546261, 0.023215286433696747, -0.04832053929567337, 0.06294352561235428, 0.09199199080467224, -0.02066359482705593, 0.01091432012617588, 0.02312486246228218, -0.049831122159957886, 0.025269387289881706, 0.042879343032836914, 0.06563543528318405, 0.009916912764310837, -0.0028514962177723646, 0.05236434191465378, -0.03787609934806824, -0.006204722449183464, 0.022184252738952637, -0.0037370952777564526, -0.004549428820610046, -0.058311570435762405, -0.08701692521572113, -0.08170002698898315, -0.02034156583249569, 0.01868194155395031, 0.00467710942029953, -0.03276505321264267, -0.05488242954015732, 0.03724299371242523, 0.008103019557893276, 0.06356843560934067, -0.043953053653240204, -0.029366260394454002, 0.04506732150912285, -0.00634014792740345, 0.08365466445684433, 0.018533769994974136, -0.01629759557545185, 0.041125040501356125, -0.023365743458271027, -0.05971438065171242, -0.013591133058071136, 0.09253904968500137, 0.04224224388599396, 0.024579228833317757, -0.014799791388213634, 0.06365326792001724, 0.09275899082422256, 0.0014797871699556708, 0.015584279783070087, 0.0015009932685643435, 0.08120447397232056, -0.028182977810502052, -0.2971406877040863, 0.07225199043750763, -0.06517204642295837, -0.012489790096879005, -0.07320258021354675, 0.0396987609565258, -0.018198993057012558, -0.026744751259684563, 0.03237714618444443, 0.06002620980143547, 0.02210034243762493, 0.004461216274648905, 0.07672202587127686, -0.024260303005576134, 0.03254513069987297, -0.016627026721835136, 0.01806064508855343, 0.08277703821659088, 0.025358980521559715, 0.0012267486890777946, -0.046148136258125305, 0.022511741146445274, 0.010282916948199272, -0.0702381581068039, 0.07413320988416672, 0.026635807007551193, 0.1746976375579834, -0.007896707393229008, -0.02907717600464821, -0.05977087467908859, -0.007834303192794323, 0.017103184014558792, 0.03978182002902031, -0.04076113551855087, 0.07109617441892624, 0.0056037334725260735, -0.007422782015055418, 0.0021134780254215, 0.03404562920331955, -0.05481873080134392, -0.03744874149560928, 0.03733143210411072, 0.01525717880576849, 0.0034999693743884563, -0.022391105070710182, -0.0067621623165905476, -0.05577235668897629, 0.09664434939622879, -0.08841561526060104, 0.05558972805738449, -0.0403171181678772, -0.06070993095636368, 0.01766347512602806, 0.057250138372182846, 0.031084159389138222, -0.020066186785697937, -0.039964012801647186, 0.020537106320261955, -0.02302166260778904, 0.015599450096487999, -0.020692892372608185, -0.02338756062090397, 0.0722632184624672, -0.04688766971230507, 0.014010353945195675, 0.005493547767400742, 0.015495124273002148, -0.001557549461722374, -0.03668191283941269, 0.011847109533846378, -0.022732455283403397, -0.011343094520270824, -0.043730344623327255, -0.02840028889477253, -0.007998878136277199, -0.02823878638446331, -0.06768397241830826, -0.0346316322684288, -0.047430720180273056, -0.05719401314854622, 0.011781902052462101, 0.018244663253426552, 0.040588635951280594, 0.015750175341963768, 0.005071462132036686, 0.008295567706227303, -0.03304578736424446, -0.0015321122482419014, 0.06269899755716324, -0.03863675519824028, -0.06149023771286011, -0.0013828002847731113, -0.04309722036123276, 0.017579345032572746, 0.06643109768629074, 0.026294736191630363, -0.2461324781179428, 0.00572873093187809, -0.006583374459296465, 0.010615921579301357, -0.002931935479864478, 0.07547657936811447, -0.01709960401058197, -0.03372509032487869, -0.017797322943806648, 0.013437815941870213, 0.019913552328944206, -0.05112655088305473, -0.027052277699112892, -0.07742028683423996, 0.04172081872820854, 0.04821968078613281, -0.010036472231149673, -0.0389980711042881, 0.06069258227944374, -0.030093850567936897, 0.02094312570989132, 0.0815967544913292, 0.10287785530090332, 0.0169815830886364, -0.04683208465576172, -0.0022352472878992558, 0.014750451780855656, -0.04559142887592316, -0.0026202602311968803, 0.045299313962459564, -0.03853889927268028, 0.008634292520582676, 0.08047555387020111, 0.05828048661351204, 0.007493073586374521, -0.06771794706583023, -0.004814259707927704, -0.07957645505666733, 0.019279196858406067, 0.05416223779320717, -0.010970637202262878, -0.016779549419879913, -0.0076947021298110485, -0.013778990134596825, 0.05402562394738197, -0.050317589193582535, 0.03928826376795769, -0.03719990700483322, -0.019701818004250526, -0.010691158473491669, 0.01105800922960043, -0.047213319689035416, 0.02993774227797985, 0.017618093639612198, 0.04689696431159973, 0.03314986079931259, -0.0639750212430954, -0.030603550374507904, -0.0050527420826256275, -0.02305365353822708, 0.025057101622223854, -0.06093021482229233, 0.038721028715372086, -0.009574664756655693, 0.001848295796662569]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>requires_guidance_on_current_plans</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Customer service- also cisibility or recommending best current plans and pricing\nReason for given NPS: Much of a much mess providers- your customer service in store is terrible and also on phone -takes ages to get through.', 'Improvement needed: Simplified billing communications.\nReason for given NPS: Mainly reliable, satisfactory connect.', 'Improvement needed: Keep your promises\nReason for given NPS: Keep your promises', 'Improvement needed: Check on our plan and call us if you see a better option available within One NZ\nReason for given NPS: It works well for broadband and mobile for wife and I in NZ and overseas', 'Improvement needed: Be proactive in managing accounts, setup yearly reviews or make it easy to do it myself online.\n\nGenerally I can save money when I get someone on the phone but it’s at my behest and not something I can just check online.\nReason for given NPS: I have no major issues when everything is working (which it generally is) but when things change the back end systems can be unforgiving and can be frustrating to fix.']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[0.00886327214539051, -0.06907370686531067, 0.04197772964835167, -0.020143866539001465, -0.01242271438241005, 0.000855961930938065, -0.03338499739766121, 0.016926202923059464, -0.012916387990117073, -0.037848860025405884, -0.0063564106822013855, -0.005231101531535387, 0.02752975933253765, 0.02772042155265808, 0.03816312924027443, 0.0074021522887051105, -0.03388192132115364, 0.029208378866314888, 0.03450849652290344, 0.014183209277689457, 0.04992082342505455, 0.021927814930677414, -0.04561951383948326, 0.056056663393974304, -0.05469585955142975, 0.04310322180390358, -0.00941065326333046, -0.021202262490987778, -0.05389930680394173, -0.1096946969628334, -0.0327860563993454, -0.05133476480841637, -0.053490716964006424, -0.04576359689235687, 0.005479501094669104, 0.004086801316589117, 0.009048021398484707, 0.02933170460164547, 0.03178001195192337, 0.0354791060090065, -0.01994866319000721, 0.05297404155135155, -0.03954014554619789, -0.015555305406451225, -0.01562957465648651, -0.033944275230169296, -0.0015176343731582165, -0.013211543671786785, 0.00026887457352131605, -0.0625506192445755, 0.011553873308002949, -0.02174401469528675, -0.01967255212366581, -0.06575439870357513, 0.013383232988417149, 0.0733209103345871, 0.051061082631349564, 0.04584253579378128, 0.04879562929272652, 0.040389250963926315, 0.031858235597610474, -0.018316512927412987, -0.19778972864151, 0.007382567040622234, -0.034238435328006744, 0.02531026117503643, -0.039600394666194916, -0.03964114934206009, 0.08052428811788559, 0.033953484147787094, -0.047232143580913544, -0.03500061109662056, -0.010543516837060452, 0.07621116191148758, -0.00031438798760063946, -0.02868974767625332, 0.012641588225960732, 0.025608014315366745, 0.0510086826980114, 0.0012203400256112218, 0.00010227015445707366, 0.03991164639592171, -0.03134393319487572, -0.004264126066118479, 0.017515024170279503, -0.011903539299964905, -0.0009193320292979479, 0.01802416332066059, 0.06968206912279129, -0.010624903254210949, -0.0059830727986991405, -0.08742271363735199, 0.014341103844344616, 0.03273078054189682, -0.030411209911108017, 0.01956922933459282, 0.02148643136024475, -0.0017914552008733153, -0.14712665975093842, 0.3598231077194214, 0.02420755848288536, 0.02546701766550541, 0.007669469807296991, 0.08839147537946701, 0.02819509245455265, -0.04730738326907158, -0.0389707013964653, -0.014314764179289341, 0.009767874144017696, -0.011870256625115871, -0.05873071402311325, -0.04873134568333626, 0.05024375766515732, 0.012049127370119095, 0.023671314120292664, 0.09615030139684677, -0.016507655382156372, -0.030987408012151718, -0.021045619621872902, 0.0007117674103938043, -0.003697142004966736, -0.018851706758141518, 0.05172072350978851, 0.06724902242422104, 0.002561503555625677, -0.016055196523666382, 0.0099361352622509, 0.07795815169811249, 0.011150414124131203, 0.06879701465368271, 0.028987662866711617, 0.012770889326930046, -0.02334602177143097, 0.054405439645051956, -0.02872098982334137, -0.006480576936155558, 0.029072880744934082, -0.02851717732846737, 0.05500132963061333, 0.023208172991871834, -0.0926039069890976, -0.005309829488396645, 0.02315199002623558, -0.07131535559892654, 0.028947697952389717, 0.10265704989433289, -0.04959474131464958, 0.02433614619076252, -0.02084174007177353, -0.05615321546792984, -0.05155225843191147, -0.005789517890661955, 0.02701754868030548, -0.07547146826982498, -0.04059769585728645, -0.01220051571726799, -0.06392250210046768, -0.013214885257184505, -0.0035187641624361277, 0.015400851145386696, -0.00981840118765831, -0.06251710653305054, -0.09136517345905304, 0.0550672747194767, -0.017185714095830917, -0.04405313357710838, -0.05545884370803833, -0.027313731610774994, -0.010815449059009552, 0.027729423716664314, -0.04575831815600395, 0.025828028097748756, -0.008579796180129051, 0.021719828248023987, 0.08952073007822037, 0.028244158253073692, -0.029484886676073074, 0.05851099267601967, -0.059096336364746094, -0.0003502674226183444, 0.07283546030521393, -0.04021194949746132, -0.007300039753317833, -0.015147371217608452, -0.039250168949365616, -0.043843962252140045, 0.015317416749894619, -0.05945952236652374, 0.00627449294552207, -0.05947768688201904, -0.06183585152029991, 0.02199598029255867, 0.021058518439531326, -0.032986607402563095, -0.026264308020472527, 0.015939567238092422, 0.015032409690320492, 0.012138117104768753, 0.005421238020062447, -0.01510688103735447, 0.027141859754920006, -0.009382018819451332, -0.010872235521674156, 0.07198828458786011, -0.07600358128547668, -0.016825761646032333, -0.018206454813480377, 0.0026660331059247255, 0.06559672206640244, -0.02082424983382225, -0.04527512192726135, -0.0018859851406887174, 0.07508263736963272, -0.03115813434123993, -0.021096980199217796, 0.018191637471318245, -0.04593374952673912, 0.021390073001384735, 0.023085884749889374, 0.05303439870476723, 0.04142968729138374, 0.08517308533191681, 0.07412401586771011, -0.3163013160228729, 0.023945290595293045, -0.03542372211813927, -0.005586074199527502, -0.07255952805280685, -0.013488305732607841, 0.004887718241661787, 0.046340830624103546, -0.12022389471530914, 0.08613734692335129, 0.06215481460094452, -0.027914797887206078, 0.017890606075525284, -0.008643935434520245, -0.007658009417355061, 0.017368700355291367, -0.0067438227124512196, -0.040544431656599045, -0.01984388753771782, 0.023623479530215263, 0.018846048042178154, -0.02432314306497574, -0.04376220703125, -0.08875978738069534, 0.030757972970604897, 0.0043145944364368916, 0.16483913362026215, -0.00013228609168436378, -0.016373081132769585, -0.06529243290424347, 0.0737643912434578, 0.0595519095659256, -0.04704977571964264, -0.11736579239368439, -0.014555840753018856, 0.028644951060414314, -0.010609528981149197, 0.04238691180944443, 0.052749015390872955, -0.022409139201045036, 0.02309156395494938, 0.07084927707910538, -0.0653192400932312, -0.002757774665951729, -0.020686380565166473, -0.04330655187368393, 0.029965830966830254, 0.04277907311916351, -0.02548992447555065, 0.0485028438270092, 0.032940518110990524, -0.024235179647803307, -0.017916617915034294, -0.0009493980323895812, -0.0033078452106565237, -0.03263450413942337, -0.03089698776602745, -0.03042496182024479, -0.013917770236730576, 0.069280244410038, -0.028433572500944138, 0.0508214570581913, 0.014692441560328007, -0.03340925648808479, 0.058547548949718475, -0.009912824258208275, -0.00805184431374073, 0.010155653581023216, 0.0020666595082730055, 0.026829371228814125, 0.022169239819049835, -0.003930932376533747, 0.02264949306845665, -0.0238699559122324, -0.0004162228724453598, -0.011404899880290031, 0.0027752877213060856, 0.048294615000486374, -0.014421673491597176, -0.025564879179000854, -0.031182657927274704, -0.032882239669561386, -0.002364065730944276, 0.01640002802014351, -0.0008072259952314198, 0.006867682561278343, -0.020057788118720055, 0.025818567723035812, 0.000575098383706063, -0.021421154960989952, -0.03660834580659866, -0.02593696489930153, -0.005124329123646021, 0.007422739639878273, 0.13377884030342102, -0.01775933988392353, -0.2539474666118622, 0.04176359623670578, 0.00980100966989994, -0.02346532978117466, 0.009137190878391266, 0.010541379451751709, 0.10510621219873428, 0.018977437168359756, -0.08171561360359192, -0.003338548121973872, -0.017959393560886383, 0.04794102907180786, -0.004265527240931988, 0.020060651004314423, 0.012556375935673714, 0.006495866924524307, 0.06781696528196335, -0.006084125023335218, -0.026758642867207527, -0.06721954047679901, 0.024190783500671387, 0.03161683678627014, 0.17220273613929749, -0.02413095161318779, -0.0005769308772869408, -0.011551660485565662, -0.01822975091636181, -0.01997661031782627, 0.08005073666572571, 0.01529393158853054, 0.014096301048994064, -0.012359648011624813, 0.03302619978785515, -0.009313829243183136, 0.014970644377171993, 0.05410477891564369, 0.0022701567504554987, -0.010129434987902641, 0.00799589604139328, -0.00883404165506363, -0.048071905970573425, 0.03486759588122368, 0.03190971910953522, 0.026689115911722183, 0.07369314879179001, -0.02294822223484516, 0.027838030830025673, 0.010300626046955585, -0.0317784883081913, 0.00695636123418808, 0.007543480023741722, -0.005088185425847769, 0.003189060604199767, 0.02281729318201542, 0.037661731243133545, 0.017879441380500793, 0.015492700971662998, -0.007549149915575981, -0.06229535862803459, -0.011597598902881145, -0.0005541772698052227, -0.030035166069865227, 0.06959771364927292, 0.0326538123190403, 0.02537347748875618]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>need_promotional_offers_for_loyal_customers</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Include marketing offers to existing customers\nReason for given NPS: Customer for many years, anytime l had a question or issue it was sorted very quickly', 'Improvement needed: Return of new phone + contact deals for existing (especially long-term) customers! Also, Google Pixel phones.\n', 'Improvement needed: Given that one of the questions were about "feeling valued" - more could probably be done to enhance that. I have been using Vodafone / One for many years now and don\'t see any reason to change, however, things like loyalty discounts are always acknowledged and respected from service providers.\nReason for given NPS: Very easy to manage services and at a reasonable market price.', 'Improvement needed: Ive been your customer for 18 years with the same phone number since 2005. I think I could be valued more. Value old customers more is what OneNZ can improve.\nReason for given NPS: I think 2 degree creates a good opposition. They have good incentive often offering free gifts in different circumstances. I asked One NZ for a free pair of ear buds when I purchased a phone for my girlfriend but was denied.', 'Improvement needed: Prices, better deals\nReason for given NPS: Alright phone service provider, prices are a bit high atm but otherwise fine']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[-0.02299739606678486, -0.032420262694358826, 0.011248289607465267, 0.013611706905066967, -0.016789091750979424, -0.017318259924650192, 0.030385581776499748, 0.06589135527610779, 0.028347797691822052, -0.010426168330013752, -0.025962121784687042, 0.052399709820747375, -0.019205590710043907, -0.05160636454820633, 0.07254721969366074, 0.02930866926908493, 0.05828582122921944, -0.02196287177503109, -0.08149750530719757, 0.03126804530620575, 0.016549337655305862, -0.03892246633768082, -0.03353184834122658, 0.0005756012978963554, 0.03153565526008606, -0.05220525711774826, -0.01800362765789032, -0.005936537403613329, -0.046615976840257645, -0.044314194470644, -0.01745675504207611, -0.05203676223754883, 0.05358586460351944, 0.008520208299160004, 0.018962129950523376, -0.026942159980535507, -0.04313911497592926, -0.046416301280260086, -0.013838433660566807, 0.03009994514286518, 0.014387262985110283, -0.03505239263176918, -0.02791496366262436, 0.04264475777745247, -0.002963315462693572, -0.03979506343603134, 0.015450650826096535, -0.037020549178123474, 0.04853316769003868, -0.035165514796972275, 0.06501835584640503, 0.0040857866406440735, -0.06939978897571564, -0.028973789885640144, -0.003482313361018896, 0.04085564985871315, 0.005944486241787672, -0.0004816143773496151, -0.024932749569416046, 0.004321531858295202, 0.035186052322387695, -0.034628428518772125, -0.11368701606988907, 0.014698008075356483, -0.06708408147096634, 0.027132578194141388, -0.0339682437479496, 0.005196853075176477, -0.0635586827993393, 0.039651259779930115, 0.014110279269516468, -0.04941025376319885, -0.03998614475131035, 0.049632783979177475, -0.004797705449163914, 0.033703841269016266, 0.012014630250632763, -0.018588317558169365, -0.04820870980620384, -0.025312885642051697, 0.022037765011191368, -0.021531108766794205, -0.009884271770715714, -0.017860816791653633, -0.01679699495434761, -0.07659690082073212, 0.08071321249008179, 0.01449567824602127, 0.04397854208946228, 0.009202600456774235, 0.060456790030002594, -0.006631674710661173, -0.007147566881030798, 0.024888500571250916, -0.1152588427066803, -0.04023004323244095, 0.018946686759591103, 0.016051389276981354, -0.0694340392947197, 0.37827396392822266, 0.044510964304208755, 0.04014360532164574, 0.0041359118185937405, -0.026477361097931862, 0.054233450442552567, -0.037887685000896454, -0.020948080345988274, 0.06055280938744545, -0.009609026834368706, -0.022377783432602882, -0.05577092245221138, 0.025800833478569984, 0.05268331989645958, -0.04311851039528847, -0.009423316456377506, 0.04371295124292374, -0.031142793595790863, -0.019027257338166237, 0.0020825727842748165, -0.031088247895240784, 0.02277316339313984, -0.007860107347369194, 0.034157730638980865, 0.038725629448890686, -0.012959088198840618, -0.026169084012508392, 0.03741546347737312, 0.1060628592967987, -0.04033904895186424, 0.0481426939368248, 0.007613540627062321, -0.004481877665966749, -0.007822509855031967, 0.024428658187389374, -0.0039808847941458225, -0.01665249839425087, -0.04116097092628479, 0.06045057252049446, 0.057403575628995895, 0.07839472591876984, 0.006285959389060736, -0.07739545404911041, 0.03811918571591377, -0.09198372811079025, 0.008798407390713692, 0.04293784871697426, 0.03712885081768036, 0.0564689002931118, -0.052981242537498474, -0.0025447309017181396, -0.030840475112199783, 0.012062205001711845, -0.02431545965373516, -0.04349606856703758, -0.0201468076556921, 0.037819378077983856, 0.01817299798130989, 0.01036851666867733, -0.056025367230176926, 0.04803761467337608, 0.03823252394795418, -0.053465358912944794, -0.004563792608678341, 0.035504452884197235, -0.0037954694125801325, -0.15033593773841858, 0.03787093237042427, -0.024830276146531105, -0.0073148631490767, 0.007626784965395927, -0.04258986935019493, 0.0195207167416811, -0.0932886153459549, 0.020889127627015114, 0.13412591814994812, 0.010123600251972675, -0.062114935368299484, -0.00957146193832159, -0.019930819049477577, -0.025068374350667, 0.008033344522118568, 0.012075945734977722, -0.029116708785295486, 0.008104134351015091, 0.01875711977481842, -0.048099130392074585, -0.04351568594574928, -0.031138353049755096, 0.015959732234477997, -0.014582017436623573, -0.04093968868255615, -0.0496884286403656, -0.045661941170692444, 0.006299491506069899, -0.019451571628451347, -0.011699019931256771, -0.048893965780735016, -0.030714567750692368, 0.06245450675487518, -0.029109608381986618, -0.030848102644085884, -0.03655124455690384, -0.0422610342502594, -0.04653320088982582, 0.020633656531572342, 0.06711176782846451, 0.04032642021775246, -0.025048376992344856, 0.06028130277991295, -0.005939975380897522, -0.008168261498212814, 0.007021384779363871, 0.058248113840818405, 0.025757446885108948, -0.030162395909428596, 0.05239633470773697, 0.06144525855779648, 0.020764432847499847, 0.04403258115053177, -0.015383973717689514, 0.03805600851774216, 0.1305646151304245, 0.03700811415910721, -0.2964947819709778, 0.06779035180807114, -0.021752912551164627, 0.0086861876770854, -0.01033608429133892, 0.005249157547950745, 0.07030155509710312, -0.00567195238545537, 0.005938661750406027, 0.07291636615991592, 0.09443112462759018, 0.0007000143523328006, 0.0186257753521204, -0.01240110956132412, 0.019104106351733208, 0.015962990000844002, -0.023570438846945763, 0.04093386232852936, 0.08090414106845856, -0.00969724077731371, 0.019321950152516365, 0.0062804617919027805, 0.04538770020008087, -0.05160149186849594, 0.057761140167713165, 0.018927864730358124, 0.16356469690799713, 0.03771631792187691, -0.09321366250514984, -0.04472525790333748, 0.00818630587309599, 0.0940513014793396, -0.033570438623428345, -0.0543077290058136, 0.032867372035980225, 0.023857783526182175, -0.01971057616174221, -0.01350321900099516, 0.017434507608413696, -0.026135865598917007, 0.01733882538974285, 0.0564224012196064, -0.027345426380634308, -0.024568242952227592, 0.0036118568386882544, -0.037305351346731186, 0.00814325362443924, 0.0959673747420311, -0.036025941371917725, 0.08669072389602661, 0.036767859011888504, -0.0013212283374741673, 0.06890258938074112, 0.034348636865615845, 0.052402738481760025, -0.04673740267753601, -0.02029743790626526, -0.008515848778188229, -0.021174335852265358, 0.07331422716379166, -0.011495865881443024, -0.016863947734236717, -0.018278593197464943, -0.00489333551377058, 0.004544955678284168, 0.019783131778240204, -0.016867322847247124, 0.010300584137439728, -0.005289657972753048, 0.009738090448081493, -0.040935829281806946, -0.006053251679986715, -0.011547607369720936, -0.05950016900897026, -0.04925164207816124, 0.006297842133790255, -0.033519014716148376, -0.0020248813088983297, -0.03520941361784935, -0.010543913580477238, 0.005081190261989832, -0.010742176324129105, 0.03163158893585205, 0.013487854972481728, -0.004455099813640118, 0.0610872320830822, 0.011430423706769943, 0.02880460023880005, 0.041112642735242844, 0.017054444178938866, -0.05673354119062424, 0.02898981422185898, -0.015254175290465355, -0.012781541794538498, 0.06226474046707153, -0.00493407528847456, -0.2642305791378021, -0.014215278439223766, 0.007563797757029533, 0.004993236158043146, 0.014284158125519753, 0.04996802657842636, -0.023297132924199104, -0.035951193422079086, -0.14626465737819672, 0.004222974181175232, 0.0035490861628204584, 0.03216401860117912, -0.05198155343532562, -0.02409234456717968, 0.06872663646936417, 0.034008245915174484, 0.04888955131173134, -0.031471457332372665, 0.0067593008279800415, -0.029061689972877502, 0.011248569004237652, 0.006503990385681391, 0.21177108585834503, 0.05666078254580498, -0.06901508569717407, -0.010219531133770943, -0.03962847217917442, -0.0055800676345825195, 0.0019692545756697655, 0.0025219270028173923, -0.05747230350971222, -0.023534143343567848, 0.03816134110093117, -0.015034346841275692, -0.024515751749277115, 0.01447306014597416, -0.03832855448126793, -0.021842239424586296, 0.02645217627286911, -0.021593499928712845, -0.04166687652468681, 0.02445279061794281, -0.052688539028167725, -0.022506503388285637, 0.06957532465457916, 0.004720926284790039, 0.02244030497968197, 0.004850806202739477, -0.0022846623323857784, 0.0022833107504993677, -0.008673295378684998, -0.0484645701944828, -0.028901847079396248, -0.03127378597855568, 0.014886676333844662, -0.03918074816465378, -0.07483036816120148, -0.00032100494718179107, 0.04818408936262131, 0.034501560032367706, -0.017400862649083138, 0.014327259734272957, 0.037134844809770584, 0.02184164710342884, -0.009008190594613552]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>need_better_in_store_queue_experience</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Shorter queues in store and new music on phone while waiting\nReason for given NPS: I have good phone service and people are easy to deal with', 'Improvement needed: Customer service in stores\nReason for given NPS: I was there for close on 2 hours half this time standing at the front of a queue halfway through being served I had yo request an armchair as I was on the verge of passing out. This is not the way to treat elderly clients or ant clients really.', 'Improvement needed: Had a frustrating experience with changing an old number to a new sim card. Very disappointed to find out we needed to visit a store during work hours (this is not easy to do when you work and live rurally).\n', 'Improvement needed: not having to call or email you for progress or update.  If I am told I will hear tomorrow, I either want to hear tomorrow that my query is done, or that my query is unresolved and still pending.\nReason for given NPS: We have moved twice in 6 months and the service was inefficient for booking, and unclear for the move', 'Improvement needed: Ummmm to be honest not really sure!!\nReason for given NPS: Just easy 2 deal with either by ph or instore!!']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[-0.06549810618162155, -0.04628131538629532, 0.06280278414487839, 0.00866119097918272, -0.05567675083875656, -0.0022714424412697554, -0.0013687503524124622, 0.026803117245435715, 0.05883075296878815, -0.0633273720741272, -0.03298410028219223, 0.030191728845238686, 0.019586196169257164, 0.03665624558925629, 0.04061535373330116, 0.02747182920575142, 0.05102554336190224, -0.034580767154693604, -0.1076156347990036, -0.0012033438542857766, -0.026534583419561386, -0.05017969012260437, -0.035734884440898895, -0.005861231591552496, -0.06800847500562668, -0.041156522929668427, -0.08313288539648056, -0.036578599363565445, -0.04801420122385025, -0.13706785440444946, 0.012371940538287163, 0.002783946692943573, 0.059929732233285904, -0.006269021425396204, -0.01094338484108448, -0.015390273183584213, -0.004574318882077932, -0.01515802089124918, -0.006308814510703087, 0.009638038463890553, 0.04334217682480812, 0.01921004243195057, -0.07430475205183029, 0.0217843446880579, -0.020111531019210815, -0.059815775603055954, 0.041676197201013565, -0.05445749685168266, 0.04488624259829521, -0.0417952723801136, -0.02659630961716175, 0.029414501041173935, -0.039006367325782776, -0.038608916103839874, -0.003318409202620387, 0.019852377474308014, 0.04197593778371811, 0.020280051976442337, 0.041225507855415344, 0.013056942261755466, 0.058258309960365295, -0.03754551336169243, -0.08881411701440811, 0.03286478668451309, 0.0246715247631073, -0.022074373438954353, -0.04643501713871956, -0.04662252590060234, -0.03460460156202316, 0.03962287679314613, -0.10100062936544418, 0.0026614076923578978, -0.007595240604132414, 0.10779868066310883, 0.041300274431705475, -0.0030510234646499157, 0.0009014074457809329, -0.024500995874404907, 0.033693429082632065, 0.04939648509025574, -0.010027344338595867, -0.05439509078860283, 0.004151617642492056, -0.045345209538936615, -0.026029931381344795, -0.06572793424129486, -0.00841642264276743, 0.008453898131847382, 0.049858663231134415, 0.007989616133272648, 0.047994621098041534, 0.005595646798610687, 0.02542993426322937, 0.04014856368303299, -0.004265828989446163, 0.01120903342962265, -0.013345477171242237, 0.0652044266462326, -0.04799862951040268, 0.3730011582374573, 0.05747561156749725, 0.05113016441464424, 0.01240464672446251, 0.011333851143717766, 0.03178676962852478, -0.046627484261989594, 0.009295640513300896, 0.01831578090786934, -0.025067396461963654, -0.023773720487952232, -0.03358903154730797, -0.021642029285430908, 0.10042936354875565, -0.0009533315314911306, -0.010236242786049843, 0.0941971093416214, 0.01766330562531948, -0.022777725011110306, -0.03709337115287781, 0.024754898622632027, 0.04494445398449898, 0.017106598243117332, 0.00723554752767086, -0.048529163002967834, 0.023771286010742188, -0.0137979406863451, 0.01133262924849987, 0.0894744023680687, -0.013923980295658112, 0.011295895092189312, 0.013953412882983685, -0.06517237424850464, -0.0009225864196196198, 0.06763504445552826, -0.006718160584568977, -0.022426022216677666, 0.0005460991524159908, 0.022367117926478386, 0.03126738965511322, -0.011950875632464886, -0.010686717927455902, -0.023009607568383217, 0.0004500526993069798, -0.09857461601495743, -0.0006323414272628725, 0.0932442769408226, 0.013013121671974659, 0.012930404394865036, -0.062372513115406036, -0.08570606261491776, -0.07420088350772858, 0.01733321137726307, 0.006207930855453014, 0.006748771760612726, -0.047615449875593185, -0.01950968988239765, 0.04850906878709793, -0.009957869537174702, -0.008989020250737667, 0.0001578863593749702, 0.005038691684603691, -0.03309103474020958, 0.0042683156207203865, 0.029092343524098396, -0.004018072504550219, 0.0037566765677183867, -0.02984839305281639, -0.05380105972290039, -0.05545581132173538, 0.001749774324707687, -0.013750691898167133, -0.0006799041293561459, -0.08656296133995056, 0.06676721572875977, 0.09635813534259796, -0.04721279814839363, -0.0447179414331913, 0.042128391563892365, -0.008914644829928875, -0.026337815448641777, 0.06368061155080795, -0.01608237251639366, -0.04706292599439621, -0.019556064158678055, 0.05233170837163925, -0.08270391821861267, 0.0016100498614832759, 0.023292766883969307, 0.0004056012548971921, 7.278258999576792e-05, -0.06892744451761246, -0.05489009618759155, -0.02945857122540474, 0.010980815626680851, 0.009509049355983734, -0.03182203322649002, 0.00622380618005991, -0.028782371431589127, -0.0009480986627750099, -0.04597824066877365, 0.046951938420534134, -0.012972747907042503, -0.021074187010526657, 0.026043148711323738, 0.0014795875176787376, 0.09515304118394852, -0.01881380006670952, -0.012135299853980541, 0.07464361190795898, -0.044540803879499435, -0.04333341866731644, -0.031082896515727043, 0.05177154392004013, 0.059607621282339096, -0.004341983702033758, -0.007019922137260437, 0.045886509120464325, 0.03587940335273743, 0.03709257021546364, 0.020373594015836716, 0.008238984271883965, 0.11991900950670242, -0.05461503937840462, -0.3307758569717407, 0.05990433692932129, -0.0465722382068634, -0.0030021388083696365, -0.014055863954126835, 0.03133237361907959, 0.019985077902674675, 0.030352314934134483, 0.030747031792998314, 0.04213681444525719, 0.043099358677864075, -0.001149068702943623, 0.06313487887382507, -0.007593610789626837, 0.03482941538095474, -0.003955527674406767, -0.013718858361244202, 0.06754439324140549, 0.02530713751912117, 0.02906695194542408, -0.0440506711602211, 0.008561942726373672, 0.005815644282847643, -0.07376246899366379, 0.10177477449178696, -0.0019485886441543698, 0.1891023814678192, -0.03720745071768761, -0.04080364108085632, -0.010398953221738338, 0.002466789213940501, 0.04490178823471069, -0.015290987677872181, -0.07800514250993729, 0.04809202253818512, 0.03067733161151409, 0.003166502807289362, 0.0369647815823555, 0.05967380478978157, -0.010802492499351501, -0.003962555434554815, 0.07229027897119522, 0.019773101434111595, -0.03620294854044914, -0.025133181363344193, -0.020138513296842575, -0.03405248373746872, 0.10720507800579071, -0.05705171078443527, 0.033265598118305206, 0.0015726796118542552, -0.05236903950572014, 0.030863720923662186, 0.016219008713960648, 0.015387918800115585, -0.007181796710938215, -0.004111137706786394, 0.017010744661092758, -0.03413476049900055, 0.05949363484978676, -0.049381501972675323, -0.016573019325733185, 0.01961408741772175, -0.03632544353604317, 0.011394056491553783, 0.02708047814667225, 0.009084817953407764, -0.02868688851594925, -0.01430558692663908, 0.016133835539221764, -0.023922491818666458, -0.02609683759510517, -0.037368759512901306, -0.033109135925769806, -0.020637841895222664, 0.0005248667439445853, -0.066057488322258, -0.00720562320202589, -0.003073513275012374, -0.05863874778151512, 0.0386994406580925, -0.00137778848875314, 0.03904535621404648, 0.05041523650288582, 0.008813200518488884, 0.023548712953925133, -0.006297489628195763, 0.013016574084758759, 0.0031242123804986477, -0.008400463499128819, -0.05238157883286476, -0.002283254871144891, -0.033894751220941544, 0.016633829101920128, 0.05393466725945473, 0.01600913144648075, -0.2658928334712982, 0.030029717832803726, 0.04962950199842453, 0.025392837822437286, 0.005536139942705631, 0.04524846002459526, 0.005221406929194927, -0.017922844737768173, -0.025439411401748657, -0.02038630098104477, 0.00218527321703732, -0.01862167939543724, -0.03704846650362015, -0.02591317519545555, 0.02954665571451187, 0.06230827420949936, 0.018931403756141663, -0.04166868329048157, 0.031243301928043365, -0.035369936376810074, 0.039754170924425125, 0.0826960951089859, 0.15396755933761597, -0.007592478301376104, -0.04846832901239395, -0.000377753924112767, 0.005556000396609306, -0.010923778638243675, 0.0012837615795433521, 0.017867019400000572, -0.04687851294875145, -0.0208827443420887, 0.08892969787120819, 0.04442490264773369, -0.009067501872777939, -0.0173280481249094, -0.0053964657709002495, -0.06589885801076889, -0.010132537223398685, 0.047036342322826385, 0.009359803050756454, 0.005673313047736883, -0.02143394574522972, 0.000439948751591146, 0.06525824964046478, -0.05197853595018387, 0.037913449108600616, -0.02770616114139557, -0.02648220583796501, 0.0013916161842644215, -0.013656405732035637, -0.034302275627851486, -0.006533910520374775, 0.024276571348309517, 0.03467477113008499, 0.06552732735872269, -0.021686553955078125, -0.012696905992925167, 0.009697940200567245, 0.022387096658349037, 0.019511861726641655, -0.029885785654187202, 0.08241336047649384, -0.0414869599044323, -0.03659370541572571]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>lack_of_communication_on_plan_changes</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Providing actual communication about plan options.\nReason for given NPS: I was not informed that I was switched to One. I then got a giant bill that was not adequately explained to me before I was even provided an online login. My rates are not good for a family plan. I am actively seeking another option.', 'Improvement needed: network coverage\nReason for given NPS: apart from the poor network coverage, my account always comes to me and reminders to pay.  What I get seems to suit me.', 'Improvement needed: Letting me know weeks earlier when my plan is due for payment.\n', "Improvement needed: Hate to say it but my relationship with one.nz is not much stronger than my relationship with my local supermarket. It just is there, I'm not sure that there is a value element to the relationship - this is an opportunity for one.nz as I know most other SME businesses I know feel the same about their telco's. If I got greater value, I would without question look at new solution/opportunities for my business leveraging one.nz\nReason for given NPS: I'm not entirely certain I'm consistently benefiting as a longstanding client. Given the evolving landscape, I'd appreciate more frequent communication to help me grasp possibilities for incorporating new capabilities and functionalities, as well as optimizing my investment.", 'Improvement needed: Keeping customers up to date with new plans. I keep mine the same until i went in store to get a new phone and then they changed all my plans for broadband and monthly cell phone.\nReason for given NPS: Ive been with them since i was 14. Everything has been fine. Its all i know']</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[-0.049539584666490555, -0.036775145679712296, 0.033608417958021164, -0.024227246642112732, -0.03453664109110832, 0.008587805554270744, -0.04865530878305435, 0.06819317489862442, -0.0007718148990534246, -0.022315742447972298, 0.002296153688803315, 0.03863825649023056, 0.0402083657681942, 0.0025096433237195015, 0.04471764340996742, 0.022166581824421883, 0.011122905649244785, -0.08046925812959671, 0.00834720116108656, 0.0363764762878418, 0.04414346069097519, -0.015317028388381004, -0.01765534281730652, 0.10800297558307648, 0.004401716869324446, -0.008508969098329544, -0.020649943500757217, -0.009581809863448143, -0.07874593883752823, -0.12063172459602356, 0.0074364664033055305, 0.0018265892285853624, 0.018447689712047577, 0.0052378540858626366, 0.06385048478841782, 0.018090257421135902, -0.007009444292634726, 0.023633314296603203, -0.052344609051942825, 0.05777677893638611, -0.0022432194091379642, 0.051936566829681396, -0.011837353929877281, -0.028960587456822395, -0.0584205761551857, -0.07499273121356964, 0.0397760346531868, -0.03550192713737488, 0.03944503888487816, -0.0874640941619873, 0.0428006649017334, -0.02764265611767769, 0.00011577927216421813, -0.02171078883111477, 0.033653419464826584, 0.040494561195373535, 0.05413607135415077, 0.045495662838220596, 0.047448281198740005, 0.018981261178851128, 0.03650357946753502, 0.03214523568749428, -0.1762325018644333, 0.06354748457670212, 0.007027038838714361, -0.006347872782498598, -0.029517512768507004, -0.04778733476996422, 0.04591412469744682, 0.017245378345251083, -0.003261655569076538, -0.02929883822798729, -0.00766608165577054, 0.060031332075595856, 0.03797762095928192, -0.0002972441725432873, -0.032398197799921036, 0.049312200397253036, 0.0319938138127327, 0.018481643870472908, 0.006722293794155121, -0.02185565046966076, -0.04551089555025101, -0.01665526069700718, -0.028129644691944122, -0.08454958349466324, 0.011847415938973427, 0.016711896285414696, -0.009059893898665905, -0.0162248145788908, -0.014432111755013466, -0.008950561285018921, 0.05673106759786606, 0.02424304001033306, -0.07174129784107208, 0.008525571785867214, -0.021200556308031082, -0.010210883803665638, -0.12329454720020294, 0.41213035583496094, -0.028247373178601265, 0.04553675279021263, -0.0013215128565207124, 0.06871441006660461, 0.01150623057037592, -0.05754518136382103, -0.07010132074356079, -0.05706383287906647, -0.0072229946963489056, 0.04896046221256256, -0.05466238409280777, -0.02599618025124073, 0.040920689702034, 0.03598371893167496, 0.030019331723451614, 0.06064247712492943, 0.03590929135680199, 0.01761234737932682, -0.04602409899234772, 0.021470457315444946, -0.010102789849042892, 0.016175728291273117, 0.021728627383708954, 0.012935127131640911, 0.027596741914749146, 0.010135207325220108, 0.019264528527855873, 0.07651853561401367, -0.00236169109120965, 0.05219938978552818, 0.03874727338552475, 0.026329828426241875, 0.010310079902410507, 0.01946616731584072, 0.0015966369537636638, 0.0026486883871257305, -0.013605360873043537, 0.004190340172499418, 0.020171351730823517, 0.03668488562107086, -0.020404808223247528, -0.040734417736530304, -0.022864600643515587, -0.062041644006967545, 0.07998467236757278, 0.14226147532463074, 0.002647820860147476, 0.05370304360985756, -0.006874121259897947, -0.025211500003933907, -0.03292147070169449, -0.023651903495192528, 0.03609351068735123, -0.031273696571588516, -0.005536456126719713, -0.04294975474476814, -0.03320743516087532, 0.016722382977604866, -0.01608303003013134, 0.01822478696703911, 0.08000922203063965, -0.032371994107961655, -0.03777961805462837, 0.06624846905469894, -0.002081809565424919, -0.033127736300230026, -0.05384817719459534, -0.04962433502078056, 0.01537933386862278, -0.055029384791851044, -0.03680041432380676, 0.0715411901473999, 0.05939224362373352, -0.05158998817205429, 0.10958939790725708, -0.029475850984454155, -0.017873568460345268, -0.004121630918234587, -0.01869351975619793, 0.015469381585717201, 0.01784086599946022, 0.02656410075724125, 0.014964047819375992, 0.015819519758224487, -0.03959224373102188, -0.03709385544061661, 0.029787631705403328, 0.028911715373396873, 0.05197001248598099, 0.005127867218106985, -0.07549100369215012, -0.037140484899282455, 0.014935754239559174, -0.008494221605360508, -0.051442090421915054, -0.010859811678528786, 0.006254182662814856, -0.025367800146341324, -0.02178584411740303, -0.0029947394505143166, 0.035761717706918716, 0.020538190379738808, -0.032966092228889465, 0.028938865289092064, -0.03543827310204506, -0.004382212646305561, -0.02220541425049305, -0.016145402565598488, 0.08478818088769913, 0.040111735463142395, -0.007278192788362503, -0.0025298164691776037, 0.08877076953649521, -0.004986370448023081, -0.03729991242289543, 0.04647516459226608, -0.003319202922284603, 0.03901592269539833, 0.014500918798148632, -0.002288847928866744, 0.01450424175709486, 0.1097085252404213, 0.02975965104997158, -0.2991199195384979, -0.019546179100871086, -0.004828976467251778, -0.06215709447860718, -0.0818701758980751, -0.03372785821557045, 0.012516185641288757, -0.02143186144530773, 0.015944406390190125, 0.11737257987260818, 0.03293280676007271, 0.023732447996735573, -0.0010096237529069185, -0.015846509486436844, 0.007090020924806595, -0.027665358036756516, -0.03421219810843468, 0.008208542130887508, -0.030081190168857574, -0.0003751273325178772, -0.000283884844975546, 0.03221968188881874, -0.008627698756754398, -0.08999410271644592, -0.012613767758011818, 0.017641771584749222, 0.15470963716506958, -0.07465533912181854, -0.01111725252121687, -0.004637184087187052, -0.0036454112268984318, 0.08221106976270676, -0.032978784292936325, -0.08925386518239975, 0.04403577744960785, 0.04221756383776665, -0.026027396321296692, 0.01711343415081501, 0.017697831615805626, -0.02166658453643322, -0.018831579014658928, 0.025644227862358093, -0.05228501185774803, -0.040890973061323166, -0.028611550107598305, -0.04999852180480957, -0.015047063119709492, -0.02163195051252842, -0.05855720862746239, -0.0381530337035656, 0.007639411836862564, 0.0037741712294518948, 0.024969050660729408, 0.03075476735830307, 0.07106753438711166, 0.007129975128918886, -0.0407298244535923, -0.0020204021129757166, -0.009603814221918583, -0.0047856587916612625, -0.034599706530570984, 0.052223797887563705, 0.00661058072000742, -0.02909054234623909, 0.055331721901893616, 0.01788862608373165, 0.0026331827975809574, -0.031857602298259735, -0.001733253477141261, 0.077267587184906, -0.006480344105511904, 0.034504249691963196, 0.017991572618484497, -0.046908315271139145, -0.009792620316147804, -0.03223612159490585, -0.0055532148107886314, -0.041618648916482925, -0.07160242646932602, -0.05512888357043266, 0.018187347799539566, -0.03893622010946274, 0.05447191372513771, 0.0026953737251460552, -0.027588605880737305, 0.04124001786112785, -0.005555109586566687, 0.009176482446491718, 0.006519987713545561, 0.04033956304192543, 0.005468474235385656, -0.009544379077851772, 0.05664942041039467, -0.04505099356174469, 0.13474924862384796, -0.01612754911184311, -0.21990790963172913, -0.03604012727737427, 0.016459334641695023, -0.05335612595081329, -0.02646506018936634, 0.07932338863611221, -0.017935827374458313, 0.047035276889801025, -0.08972422778606415, 0.01295439526438713, 0.01638646051287651, -0.02543608285486698, -0.044629357755184174, -0.016139356419444084, 0.02971532754600048, 0.060796868056058884, 0.0566980242729187, -0.04812198877334595, -0.035601984709501266, -0.01963188126683235, 0.01882551610469818, 0.015682069584727287, 0.13382214307785034, -0.040412724018096924, 0.00782941933721304, -0.045072488486766815, 0.006082029081881046, 0.04543759301304817, 0.030801383778452873, 0.022421881556510925, -0.07556041330099106, -0.015156030654907227, 0.015247398987412453, 0.0021079564467072487, -0.03236798942089081, -0.009733387269079685, 0.022607725113630295, -0.04294909909367561, -0.04023922234773636, -0.008450561203062534, -0.038741543889045715, 0.004600906744599342, 0.049995001405477524, -0.004634426906704903, 0.08853091299533844, -0.008328375406563282, -0.032953303307294846, 0.013223189860582352, 0.011598875746130943, 0.014914652332663536, -0.09018740057945251, -0.010968273505568504, -0.016084792092442513, 0.016324711963534355, -0.009588337503373623, 0.035661906003952026, -0.020463554188609123, -0.00223170081153512, -0.009992715902626514, 0.0006574701983481646, 0.012226960621774197, -0.036347124725580215, 0.05063149333000183, -0.02562488429248333, -0.0022310393396764994]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>confusion_due_to_brand_name_change</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Not change your brand or name again as confused as to why !\nReason for given NPS: Been with you , for many years and are happy with service provided', 'Improvement needed: not having to call or email you for progress or update.  If I am told I will hear tomorrow, I either want to hear tomorrow that my query is done, or that my query is unresolved and still pending.\nReason for given NPS: We have moved twice in 6 months and the service was inefficient for booking, and unclear for the move', "Improvement needed: Some communication. The first person I talked to about mixing up my broadband and mobile accounts wasn't able to explain what was happening very well. Consequently, the issue dragged on and created big problems for me.\nReason for given NPS: I never give anyone a ten. Also, I had some account difficulties (because i thought it was a scam - long story, didn't know I had two accounts with change from Trustpower) and got cut off which caused huge problems while travelling during very bad weather and road closures at night. However, a technician (Yulan???) was extremely helpful in sorting it all out for me.", 'Improvement needed: More advertising about your company so we can learn more.\nReason for given NPS: One NZ is new and has taken over from Vodafone  so still getting used to this new company', "Improvement needed: Stop trying to be inclusive. I am not Māori, although lots of my best friends are, so please do not address correspondence with Māori terms.  I am not Chinese or Indian, but friends who are find it offensive.\nThe performance of my mobile and internet appears to have deteriorated since the change over, and I don't understand why.\n"]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[0.006217401474714279, -0.01565813273191452, -0.007519001141190529, 0.03266492858529091, -0.012100035324692726, -0.026575833559036255, 0.03141377493739128, 0.05062559247016907, 0.048089392483234406, -0.023955000564455986, 0.0071327765472233295, -0.014563770964741707, -0.020070519298315048, -0.05965045467019081, 0.06070739030838013, 0.009877434931695461, 0.012877361848950386, -0.0768686830997467, -0.036734286695718765, -0.02185388281941414, 0.022234000265598297, 0.018875522539019585, 0.03549595922231674, 0.048564355820417404, -0.0014680905733257532, 0.003100341185927391, 0.026455432176589966, 0.028873953968286514, -0.06360987573862076, -0.1901613026857376, 0.04550185054540634, -0.021840445697307587, -0.03356252238154411, 0.014713686890900135, 0.08149741590023041, -0.00637219101190567, -0.032857585698366165, 0.001177323400042951, 0.005814627278596163, 0.036743178963661194, 0.028870820999145508, 0.009184880182147026, 0.0018658725311979651, -0.004437635187059641, -0.03544965386390686, 0.035167574882507324, 0.060539308935403824, 0.016767917200922966, 0.007828008383512497, -0.0006156483432278037, 0.006641071755439043, -0.04686349257826805, -0.01815200038254261, -0.0036033899523317814, -0.03812122717499733, 0.0705282911658287, 0.045741524547338486, 0.03333031013607979, 0.04866864159703255, 0.028185008093714714, 0.01719905622303486, 0.024171585217118263, -0.18787243962287903, 0.11016850173473358, -0.03413254767656326, -0.020148543640971184, -0.032199859619140625, -0.07234571874141693, -0.03691205754876137, 0.05655704066157341, -0.0027080446016043425, -0.00932998862117529, -0.04241439700126648, 0.0704214945435524, 0.017258211970329285, 0.018513750284910202, 0.027769464999437332, 0.01777612790465355, -0.011230670846998692, 0.0005290688131935894, -0.020895445719361305, 0.007397698238492012, -0.07160420715808868, -0.11545659601688385, -0.023896317929029465, -0.01363361719995737, 0.0085822194814682, -0.002621454419568181, 0.04830607399344444, 0.021213993430137634, 0.049142688512802124, -0.04685811325907707, 0.045560289174318314, -6.199591734912246e-05, -0.058972395956516266, -0.026244666427373886, -0.02184968627989292, 0.011605225503444672, -0.05280648171901703, 0.3777417242527008, -0.03000519797205925, 0.028120165690779686, -0.01762842945754528, 0.031125405803322792, 0.026186618953943253, -0.05857029929757118, -0.028056111186742783, 0.07547435164451599, -0.018201474100351334, 0.028200555592775345, 0.025801673531532288, 0.018500691279768944, 0.06858810037374496, -0.029324432834982872, -0.0541679747402668, 0.06207861378788948, -0.028418822214007378, -0.035608965903520584, 0.022282304242253304, -0.02828904241323471, -0.020109672099351883, 0.03089749626815319, -0.005067424848675728, 0.004279822111129761, -0.07540658116340637, 0.06201309338212013, 0.044667426496744156, 0.06433643400669098, -0.03410162031650543, -0.016070663928985596, -0.0024935707915574312, -0.030688956379890442, -0.04451875016093254, -0.00795499887317419, 0.03128870949149132, 0.039893198758363724, 0.00399850495159626, 0.07405072450637817, 0.04141133651137352, 0.02214147336781025, -0.031447507441043854, -0.04754980280995369, 0.0010256653185933828, -0.02589651569724083, -0.024460285902023315, 0.04993228241801262, -0.06280742585659027, 0.0416986458003521, -0.02366209216415882, 0.068867526948452, -0.03624922037124634, 0.014717722311615944, -0.010521197691559792, -0.022157462313771248, -0.04283417761325836, 0.005730896256864071, 0.045118462294340134, -0.03145923092961311, 0.01829986274242401, 0.011985048651695251, 0.11048468202352524, -0.029383406043052673, 0.04470725730061531, 0.023656809702515602, 0.012368309311568737, -0.08251728862524033, -0.03368570655584335, -0.04162481427192688, 0.0021383976563811302, -0.006998197641223669, 0.00848771445453167, 0.014366388320922852, -0.003143514972180128, 0.025019684806466103, 0.06737229973077774, 0.020900830626487732, 0.012366021983325481, 0.0035260620061308146, 0.007531600538641214, -0.06269876658916473, 0.08586860448122025, 0.008908483199775219, -0.02849557064473629, 0.018283141776919365, 0.04161360487341881, -0.054023969918489456, -0.03027445264160633, -0.043260324746370316, 0.052535004913806915, 0.02645215578377247, 0.0055589210242033005, -0.053495317697525024, 0.014856191352009773, 0.021201757714152336, 0.007263077422976494, -0.007057798095047474, -0.038256362080574036, 0.03370197117328644, 0.0677156075835228, -0.01794239692389965, 0.04013029858469963, 0.048200227320194244, 0.008637789636850357, -0.023927073925733566, -0.05662650614976883, 0.05344066768884659, 0.0044046854600310326, -0.043559178709983826, 0.04790704697370529, 0.004196083173155785, -0.017723698168992996, 0.06820417940616608, -0.06302289664745331, -0.02737981267273426, 0.019948439672589302, -0.04099692404270172, -0.03881824016571045, 0.06167348474264145, 0.02926136925816536, 0.0012338269734755158, -0.00515187531709671, 0.030976999551057816, 0.0418492928147316, -0.31045255064964294, 0.013795954175293446, -0.014259610325098038, 0.01007005013525486, -0.037144940346479416, 0.013463173992931843, 0.01691487804055214, 0.03430664539337158, 0.02116299234330654, 0.05111728981137276, -0.011956092901527882, -0.012927074916660786, -0.03099158965051174, -0.05289992317557335, 0.0075495485216379166, -0.004088290501385927, 0.05930880084633827, 0.010219653137028217, 0.0296403206884861, -0.018334336578845978, -0.0688416063785553, 0.0006077460711821914, 0.009117946960031986, -0.09324914962053299, 0.020294534042477608, 0.027916837483644485, 0.1820598840713501, 0.05820678547024727, -0.019938237965106964, -0.01851353421807289, -0.009604528546333313, -0.009135089814662933, 0.012866475619375706, -0.056959278881549835, 0.09506004303693771, 0.012602344155311584, -0.03151996433734894, -0.017188994213938713, -0.02845514751970768, -0.03806345909833908, 0.0604197233915329, 0.0023580414708703756, 0.024768248200416565, -0.06392642110586166, 0.047761961817741394, -0.007035538088530302, 1.861089731391985e-05, 0.028109684586524963, -0.04040270671248436, 0.049010880291461945, 0.01870555803179741, 0.06406404078006744, -0.007936091162264347, 0.05321342870593071, 0.022113313898444176, -0.03563334047794342, -0.038261979818344116, 0.008274859748780727, -0.0039237732999026775, -0.024964235723018646, -0.01860249787569046, 0.021021604537963867, 0.06627414375543594, -0.03932829573750496, -0.015990614891052246, 0.00031439325539395213, -0.04309101030230522, -0.006505884695798159, 0.011331301182508469, -0.006582024972885847, -0.02463754080235958, 0.05551397427916527, 0.025343796238303185, -0.0397031269967556, 0.020559215918183327, -0.005665991920977831, -0.05822295323014259, -0.021537940949201584, -0.02197347953915596, 0.012911700643599033, -0.006008411291986704, -0.013373860158026218, 0.033818818628787994, 0.018665166571736336, 0.0031612892635166645, -0.0024165294598788023, 0.026296131312847137, -0.002708146348595619, 0.039667095988988876, -0.0212235189974308, -0.04301939532160759, 0.032101504504680634, 0.04693575203418732, 0.0421038419008255, 0.07260758429765701, -0.0721099004149437, -0.2725094258785248, 0.04026595130562782, -0.015782536938786507, 0.03930336982011795, 0.011124258860945702, 0.0364968478679657, -0.004262450151145458, 0.03879038617014885, -0.07643305510282516, 0.016051044687628746, -0.024175208061933517, -0.00528000108897686, 0.011346329934895039, -0.0211513452231884, -0.0009936104761436582, 0.06158597394824028, 0.027401955798268318, -0.03215765208005905, 0.0333101861178875, 0.028523007407784462, 0.019530868157744408, -0.011739484965801239, 0.14593981206417084, -0.013879953883588314, -0.0302029550075531, -0.040147390216588974, -0.013288798741996288, 0.04630020633339882, -0.006798566319048405, 0.042343869805336, -0.007621302735060453, -0.010410815477371216, 0.06900285929441452, -0.030150434002280235, 0.021990515291690826, -0.016598176211118698, -0.04322740435600281, -0.07038912177085876, 0.01783738099038601, -0.0011060971301048994, -0.040610749274492264, -0.039636947214603424, -0.139818012714386, 0.0010234228102490306, 0.09798067063093185, -0.0508822463452816, -0.02097158506512642, 0.013806919567286968, -0.05720390006899834, -0.004660595208406448, -0.06493215262889862, -0.020997170358896255, -0.07863692194223404, 0.05387115851044655, -0.03273280709981918, -0.025089431554079056, -0.047741301357746124, -0.020208360627293587, 0.04670058935880661, -0.06908725947141647, -0.029495641589164734, -0.01858530193567276, 0.021294614300131798, -0.04086068645119667, 0.0007791914395056665]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>lack_of_proactive_plan_communications</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Keeping customers up to date with new plans. I keep mine the same until i went in store to get a new phone and then they changed all my plans for broadband and monthly cell phone.\nReason for given NPS: Ive been with them since i was 14. Everything has been fine. Its all i know', 'Improvement needed: Offer better plans based on loyalty and usage\nReason for given NPS: Really like the One service,  but coverage holes let it down', 'Improvement needed: Tell us when our contract finishes otherwise our bill becomes extremely high once it comes off contract\nReason for given NPS: Good since we were given deo', 'Improvement needed: Be pro-active about keeping your existing customers.\nReason for given NPS: If I was asked who I was with re phone and internet I would respond one.nz but as one.nz has done nothing for me to crow about I see no reason to give free advertising for them.', "Improvement needed: Having an opportunity to upgrade the phone on a more affordable plan. In Australia, the phone is almost free if you have a contract.\n\nHaving the best deal available automatically, rather than following up with Vodaphone to get an upgrade to a plan. \n\nHaving a plan for children which don't include internet. As most plans need to pay for roaming services to be able to get unlimited call and text. Maybe having a plan that's only $10 a month for a child to have an emergency phone. That can call and text parents or family members. Another idea from that is making a call log let's say 10 people which they can call and text unlimited.... There was something similar a while ago call buddy or mate rates I think you paid $5 a month and could call that specific person unlimited. Making it for family might work great.\nReason for given NPS: It seems for the past month. Anywhere I go I only have two bars of reception. But having technical support team is great."]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[-0.03556419536471367, -0.0068775974214077, 0.0025462154299020767, -0.031483519822359085, -0.04170481115579605, 0.009440679103136063, -0.04180429130792618, 0.06565576791763306, -0.0009816493839025497, 0.0013102764496579766, -0.013122068718075752, 0.05226746201515198, 0.05627897009253502, -0.013327853754162788, 0.023080917075276375, 0.05871644616127014, 0.03390141576528549, -0.039084311574697495, 0.017285505309700966, 0.03974784165620804, 0.0500849150121212, -0.01801164820790291, -0.023679152131080627, 0.06847791373729706, 0.005684186704456806, -0.00865992158651352, -0.012659846805036068, -0.018340205773711205, -0.060434456914663315, -0.11830484122037888, 0.0012490865774452686, -0.00877102930098772, 0.02807716839015484, -0.0008996751275844872, 0.02581322006881237, 0.0023444450926035643, -0.028523622080683708, 0.03432300314307213, -0.0630391463637352, 0.05886070430278778, -0.016771452501416206, 0.017787614837288857, -0.022047821432352066, -0.011251475661993027, -0.018619628623127937, -0.08280393481254578, 0.017411628738045692, -0.06197155639529228, 0.044520046561956406, -0.09551335871219635, 0.050368551164865494, 0.028827136382460594, -0.033305294811725616, -0.021866369992494583, 0.034429002553224564, 0.018110614269971848, 0.04877256229519844, 0.027691928669810295, 0.012180520221590996, -0.00026881921803578734, 0.022060122340917587, 0.03369083255529404, -0.17804460227489471, 0.03250056877732277, 0.0002517894026823342, 0.002441955031827092, -0.009673906490206718, -0.011264449916779995, 0.009944750927388668, 0.005948272533714771, 0.019677167758345604, -0.016323240473866463, 0.003711824305355549, 0.07411082088947296, 0.013844866305589676, 0.014107906259596348, -0.024759141728281975, 0.05205497518181801, 0.05727129802107811, 0.018522435799241066, -0.015259633772075176, -0.026340089738368988, -0.052448373287916183, 0.003299394389614463, -0.059862878173589706, -0.06884042918682098, 0.0027010547928512096, 0.0029545563738793135, 0.010155301541090012, -0.019072573632001877, -0.007153342477977276, 0.016875620931386948, 0.021707860752940178, 0.04042668268084526, -0.05444343760609627, -0.0024109650403261185, -0.01964944414794445, -0.006507930811494589, -0.14477252960205078, 0.4068599343299866, -0.041207075119018555, 0.054359860718250275, 0.008098102174699306, 0.03967571258544922, 0.04799846559762955, -0.06753282994031906, -0.06510104238986969, -0.01427133847028017, -0.013996531255543232, 0.04326882213354111, -0.04526381194591522, -0.03203001618385315, 0.058828115463256836, 0.006905221845954657, 0.07943809777498245, 0.06195179373025894, 0.04420606419444084, 0.02282106876373291, -0.06900496035814285, -0.006497592199593782, 0.014349128119647503, -0.017466619610786438, 0.058876883238554, 0.0005377091583795846, -0.016572367399930954, -0.0031449010130017996, 0.0420726016163826, 0.09865884482860565, 0.020316556096076965, 0.05198302119970322, 0.038242314010858536, 0.02542194351553917, 0.03331444412469864, 0.027412690222263336, -0.01919490098953247, -0.022580640390515327, 0.0020745228976011276, -0.003820049576461315, 0.006313482765108347, 0.054907605051994324, -0.026425033807754517, 0.0038073041941970587, -0.04180646315217018, -0.0628749281167984, 0.02519412338733673, 0.12302946299314499, -0.01938713528215885, 0.05301171913743019, -0.018814386799931526, -0.006314980797469616, -0.05530869960784912, -0.013855871744453907, 0.06261598318815231, -0.029699841514229774, -0.0058300853706896305, -0.042550913989543915, -0.026782795786857605, 0.016250327229499817, -0.01842506043612957, 0.017390942201018333, 0.05294574797153473, -0.05229267477989197, -0.025981949642300606, 0.07745195925235748, -0.01939399540424347, -0.016065096482634544, -0.04438204690814018, -0.0760553777217865, -0.011246347799897194, -0.0766674056649208, -0.03305971622467041, 0.032439086586236954, 0.04378068819642067, -0.027327483519911766, 0.08316810429096222, -0.005987581796944141, -0.05251381918787956, 0.014021617360413074, -0.02795153297483921, 0.020194830372929573, 0.041320834308862686, -0.007439522538334131, 0.06452148407697678, -0.02003157138824463, -0.05000382661819458, -0.05607691407203674, 0.025298722088336945, -0.008671656250953674, 0.05528254434466362, -0.009936683811247349, -0.08372889459133148, -0.0448232963681221, 0.010947045870125294, -0.04052488133311272, -0.07379870116710663, -0.011402231641113758, 0.01072785910218954, -0.031331535428762436, -0.015401745215058327, -0.005960135255008936, 0.05500863492488861, -0.031496286392211914, -0.06542543321847916, 0.020396577194333076, -0.025523286312818527, 0.0016590801533311605, -0.010924228467047215, 0.01709103025496006, 0.1121598482131958, 0.028457092121243477, -0.011339113116264343, -0.024888979271054268, 0.1004752367734909, -0.02712666057050228, -0.03905864432454109, 0.03169485181570053, -0.01217660866677761, 0.0567987784743309, 0.007834596559405327, 0.018109668046236038, 0.011658590286970139, 0.11026489734649658, 0.005672823172062635, -0.2769306004047394, 0.004927740897983313, -0.005372422281652689, -0.03977349027991295, -0.0683448389172554, -0.04106271639466286, 0.0423300638794899, -0.007188795600086451, -0.0029141742270439863, 0.09711606055498123, 0.04712066799402237, 0.011977015063166618, -0.01594054140150547, 0.01645580306649208, 0.0023367651738226414, 0.023874543607234955, -0.04283848777413368, -0.013528007082641125, -0.008382455445826054, -0.0032474070321768522, -0.007258638273924589, 0.01789085939526558, -0.01033005677163601, -0.05310983210802078, 0.00419715978205204, 0.017560703679919243, 0.1478399932384491, -0.04411905258893967, -0.005581393837928772, 0.005819280166178942, 0.01575181633234024, 0.09172973781824112, -0.06862590461969376, -0.09731827676296234, 0.011721739545464516, 0.006937735248357058, 0.027607521042227745, 0.006547228898853064, 0.01239293534308672, -0.010177982971072197, -0.04436037316918373, 0.026638494804501534, -0.05860282480716705, -0.03962351009249687, -0.03134915605187416, -0.05627759173512459, -0.0010859755566343665, 0.033786311745643616, -0.05711368843913078, -0.01031037513166666, 0.028181958943605423, 0.015400411561131477, 0.032229166477918625, 0.028277968987822533, 0.07861191034317017, 0.008554544299840927, -0.055375467985868454, 0.003812548005953431, 0.0034469717647880316, 0.019009677693247795, -0.034870609641075134, 0.04122978821396828, -0.008073172532022, -0.022086750715970993, 0.03420014679431915, 0.02069382183253765, 0.0011433467734605074, -0.008832631632685661, 0.009324964135885239, 0.08259990066289902, -0.015724748373031616, 0.0737331211566925, -0.004295300226658583, -0.05353508144617081, -0.02653694897890091, -0.02853442169725895, 0.014661640860140324, -0.05394252389669418, -0.03039965219795704, -0.050969697535037994, 0.01790623553097248, -0.0025803211610764265, 0.04471836984157562, 0.007012320216745138, -0.010578018613159657, 0.03634335473179817, -0.03473068028688431, 0.005331475753337145, 0.019398394972085953, 0.03112899512052536, 0.022716766223311424, 0.03381038457155228, 0.0348842479288578, -0.03540119528770447, 0.14462131261825562, -0.017778238281607628, -0.24654768407344818, -0.05102333799004555, 0.032356005162000656, -0.08036358654499054, -0.03731251880526543, 0.07482069730758667, 0.012075724080204964, -0.006942857522517443, -0.0882144644856453, 0.021481622010469437, 0.02165723778307438, -0.0062779830768704414, -0.05551503971219063, -0.02038176916539669, 0.0075011663138866425, 0.02192733995616436, 0.022683195769786835, -0.06499695777893066, -0.048317208886146545, -0.03799274563789368, 0.02338901162147522, 0.007372319232672453, 0.15751756727695465, -0.05002930760383606, 0.007383698597550392, -0.04465389624238014, 0.046669747680425644, 0.00716735702008009, 0.015961728990077972, 0.024010002613067627, -0.03604224696755409, -0.009296401403844357, 0.030912041664123535, 0.0015451731160283089, -0.02537841722369194, -0.01444634422659874, 0.07226623594760895, -0.009652690030634403, -0.046462446451187134, -0.0307205431163311, -0.04053224250674248, 0.0001725945621728897, 0.0740601196885109, -0.004182525910437107, 0.05391458794474602, -0.026192402467131615, 0.006522730458527803, 0.012661775574088097, 0.006991925183683634, 0.036178186535835266, -0.054359227418899536, -0.006332309916615486, -0.009628647938370705, 0.017436746507883072, 0.018225260078907013, 0.025455661118030548, -0.011442900635302067, 0.010628140531480312, -0.034613605588674545, 0.021475985646247864, 0.014094824902713299, -0.06786515563726425, 0.06164449825882912, 0.008093500509858131, 0.013032721355557442]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>need_simplified_billing_communications</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Simplified billing communications.\nReason for given NPS: Mainly reliable, satisfactory connect.', 'Improvement needed: Keep your promises\nReason for given NPS: Keep your promises', 'Improvement needed: Broadband and mobile accounts linked\nReason for given NPS: Not always easy to access account info. Pricing incentives for new members not available', 'Improvement needed: Customer service, answering calls promptly,  and easy to understand. Bills could be easier to understand.\nReason for given NPS: Good service. Good products, good choices.', 'Improvement needed: Keener pricing service and equipment not competitive ...\nAlso  need easier billing\nReason for given NPS: ¹Need to improve communication on contract issues. \n² On- line dealings w robot, extremely awkward, need more characters or line.']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[-0.040677957236766815, -0.04713977500796318, 0.0052146608941257, -0.017574820667505264, -0.015227081254124641, -0.0652887225151062, -0.028193846344947815, 0.06759684532880783, 0.007769628893584013, -0.014804924838244915, -0.010062938556075096, 0.006143821403384209, 0.009516878984868526, -0.008107621222734451, 0.10417880117893219, 0.027315514162182808, 0.09098418056964874, -0.008489367552101612, -0.0014696228317916393, 0.062777079641819, 0.06287753582000732, -0.030248625203967094, -0.04480849578976631, 0.043387800455093384, 8.11377030913718e-05, -0.00624896539375186, 0.005172938108444214, -0.0464162714779377, -0.0508805513381958, -0.11235174536705017, 0.0008123290026560426, -0.014503938145935535, 0.047329533845186234, -0.0016042948700487614, 0.048624273389577866, -0.013118472881615162, -0.023018067702651024, -0.03323931619524956, -0.020622534677386284, 0.028030764311552048, 0.010469567030668259, 0.04399573430418968, -0.04150206968188286, -0.019531238824129105, -0.03399592265486717, -0.11585190892219543, 0.0020851069130003452, 0.004300217144191265, 0.03496454283595085, -0.023261191323399544, 0.06070452928543091, -0.0019716795068234205, -0.03178444877266884, 0.008931870572268963, 0.005018958356231451, 0.02266674116253853, 0.058118946850299835, 0.0535445474088192, 0.0004011671699117869, -0.013851437717676163, -0.0006686695851385593, 0.011776531115174294, -0.11715509742498398, 0.07268425077199936, -0.014189201407134533, -0.012388504110276699, -0.01883331499993801, 0.05022561922669411, -0.01886073686182499, 0.08753085136413574, -0.0223460141569376, -0.017466317862272263, -0.03965415433049202, 0.07686587423086166, -0.014065827243030071, -0.03704593703150749, -0.03208589553833008, -0.012004277668893337, 0.03249213472008705, 0.023178890347480774, -0.04333757609128952, 0.023365257307887077, 0.0009805046720430255, -0.010049737058579922, -0.02305416949093342, -0.08473563194274902, 0.04604911431670189, -0.0445687361061573, 0.023008711636066437, -0.05862437188625336, -0.006809588987380266, -0.004182686563581228, 0.02297208271920681, 0.005923648830503225, -0.04231305420398712, 0.0155100729316473, -0.01685674488544464, -0.011687193997204304, -0.10983315855264664, 0.36688894033432007, 0.025269918143749237, 0.06032200902700424, 0.021109014749526978, 0.007919508963823318, 0.01799926348030567, -0.07844693958759308, 0.0048249573446810246, 0.016872113570570946, -0.033664219081401825, -0.007018493488430977, -0.051769107580184937, -0.014686040580272675, 0.04806335270404816, -0.011638371273875237, -0.016806241124868393, 0.0836317241191864, -0.012267998419702053, -0.01726614311337471, 0.029167424887418747, -0.017681529745459557, 0.055146608501672745, -0.05313411355018616, 0.001204995671287179, 0.011263224296271801, 0.0183256808668375, -0.04317823052406311, 0.06445221602916718, 0.1250467449426651, 0.03818303719162941, 0.12880556285381317, 0.0411330908536911, -0.00044219716801308095, -0.04405771940946579, 0.0446159802377224, 0.008262564428150654, -0.012021712027490139, 0.006007256451994181, 0.0184690672904253, -0.024655146524310112, 0.07506269216537476, -0.0010403243359178305, -0.06415655463933945, -0.0662364736199379, -0.052003163844347, -0.03699444606900215, 0.10517055541276932, -0.05103044956922531, 0.03478369861841202, -0.00629657506942749, -0.09045925736427307, -0.013000409118831158, 0.04516186565160751, 0.04065096005797386, -0.08125107735395432, 0.0207656342536211, -0.03139171376824379, 0.04323345795273781, -0.010967899113893509, -0.03969122841954231, 0.020016714930534363, 0.05084557086229324, -0.07326139509677887, -0.02081078663468361, 0.11430268734693527, -0.03716527298092842, -0.12435146421194077, -0.002024223795160651, -0.006729221902787685, -0.0004120586672797799, -0.035645078867673874, -0.029657870531082153, 0.05038313567638397, -0.05041287839412689, 0.042110662907361984, 0.05793023854494095, -0.04396691545844078, -0.027987360954284668, 0.05849160999059677, -0.017992647364735603, 0.0040291231125593185, 0.013797517865896225, -0.0026138024404644966, -0.028867749497294426, 0.01828555017709732, 0.029191333800554276, -0.034081146121025085, -0.013686547987163067, -0.015305597335100174, 0.028146373108029366, -0.05066341906785965, -0.024187713861465454, -0.05645017698407173, -0.032292015850543976, 0.0014547478640452027, -0.029553692787885666, 0.029117820784449577, 0.029592491686344147, 0.019809739664196968, -0.010587754659354687, 0.005034404341131449, 0.0351860374212265, -0.02326681837439537, -0.03062731958925724, 0.025286713615059853, 0.007589603774249554, 0.01714225672185421, 0.01685372181236744, -0.024334445595741272, 0.06777678430080414, 0.0014012439642101526, 0.04244459420442581, 0.005478235427290201, 0.11718074232339859, 0.0006004269234836102, -0.010027102194726467, 0.07123833149671555, 0.03430105745792389, 0.039469555020332336, 0.016609368845820427, 0.0006607361719943583, -0.01912938430905342, 0.04632818326354027, 0.0007372013060376048, -0.2722638249397278, 0.02779727429151535, 0.028156442567706108, -0.03300876542925835, -0.031109340488910675, -0.03928614407777786, 0.06595932692289352, -0.008127977140247822, -0.010398534126579762, 0.09865616261959076, 0.07900413870811462, -0.008325077593326569, 0.016246000304818153, -0.03798658773303032, 1.6417214283137582e-05, 0.06885216385126114, -0.001029323204420507, 0.0009214966557919979, -0.03654972091317177, 0.00967686902731657, 0.023253897204995155, 0.03303234651684761, 0.03648557513952255, -0.07924924045801163, 0.03594055399298668, 0.05952396243810654, 0.14508655667304993, -0.0799180194735527, 0.00038256405969150364, 0.016860103234648705, 0.0361894890666008, 0.019361330196261406, -0.024496084079146385, -0.08904165029525757, 0.00249485787935555, 0.03424081206321716, -0.03399180248379707, 0.07213076949119568, 0.007488452363759279, -0.0005588321364484727, -0.007000065874308348, 0.03957696259021759, -0.03361113741993904, -0.021540561690926552, 0.023061566054821014, -0.014242401346564293, -0.08679566532373428, -0.01735858805477619, -0.05759758874773979, 0.0014480138197541237, -0.007830972783267498, -0.04282243177294731, 0.030415019020438194, 0.06655541062355042, 0.05674702301621437, -0.011020498350262642, -0.02683703973889351, -0.035357434302568436, -0.02116384729743004, -0.007880805991590023, -0.02750544622540474, 0.003008970059454441, 0.035229917615652084, 0.003816580632701516, 0.03390800952911377, 0.017691342160105705, 0.0013956708135083318, -0.029955139383673668, -0.015527567826211452, 0.029142159968614578, -0.030444275587797165, 0.022187164053320885, 0.0038525951094925404, -0.007528618909418583, -0.030313601717352867, 0.0156329944729805, 0.006287926807999611, -0.03308119624853134, -0.02729923464357853, -0.06432154029607773, 0.014909124001860619, -0.002938717370852828, 0.0381830669939518, 0.04033471271395683, -0.02799723483622074, 0.0487445592880249, 0.037268199026584625, 0.05576750263571739, 0.01773899793624878, -0.012664509005844593, -0.04043172672390938, -0.003994206432253122, 0.0062810503877699375, -0.0012403674190863967, 0.056186407804489136, -0.09676338732242584, -0.2631693184375763, -0.01078443881124258, -0.020709766075015068, -0.01931850053369999, -0.039197809994220734, 0.060095325112342834, 0.015549184754490852, 0.00811046827584505, -0.10093624889850616, 0.0038116523064672947, 0.01389166247099638, 0.02785063348710537, -0.05332012474536896, -0.009680359624326229, 0.02741486392915249, 0.07693330943584442, 0.07484903186559677, -0.054556842893362045, -0.05103708431124687, -0.0023071826435625553, 0.02530471421778202, -0.01914641074836254, 0.15615779161453247, -0.0736008957028389, -0.010327324271202087, 0.001709231873974204, -0.028241707012057304, 0.013900439254939556, 0.05970548838376999, 0.04198513180017471, -0.027959926053881645, -0.04233986884355545, 0.09123557060956955, -0.05710355564951897, 0.019349323585629463, -0.001525804866105318, 0.004556265193969011, -0.03173781558871269, -0.0321221724152565, -0.055400170385837555, -0.08987350761890411, -0.009539631195366383, -0.015216110274195671, 0.0016169593436643481, 0.025164345279335976, 0.04634641483426094, -0.03085966594517231, -0.022372791543602943, -0.015628710389137268, 0.04862331598997116, -0.0583297424018383, 0.003297399030998349, 0.04353780671954155, 0.03712732344865799, -0.011381333693861961, 0.027719976380467415, -0.07163535058498383, 0.03627060726284981, -0.0016166209243237972, -0.05861305817961693, -0.02494390495121479, -0.04727184772491455, 0.055524151772260666, 0.02711951546370983, -0.012391189113259315]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>need_flexibility_in_direct_debit_dates</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Give more options to make direct debits to come out on weekly or fortnightly options\nMore rewards (such as Spotify or Netflix discounts with the plan)\n', 'Improvement needed: Customer service. Number 2 would be allowing more contract flexibility (ie. allowing us to fix for 24 and 36 months).\nReason for given NPS: Good service, our internet seems to be working well, but we are missing the price advantages of your former partnering with Sky for bundling purposes', 'Improvement needed: Reception still runs out in areas- Napier Taupo Rd which is a dangerous stretch to be unconnected. \nWould prefer an easy option to organise direct debit on my new contract. \nAs mentioned, struggling to find how I organise added data.\nOther providers appear to be better value for money (I have been loyal to Vodafone for 20 years)\nReason for given NPS: I keep running out of data (contract) and when I contacted Vodafone they say purchase on the App but the option I am yet to find.', "Improvement needed: Flex prepay without minutes and txt, or monthly data only prepay plans for children or tablets that doesn't get used as often as normal phones. My kids have prepay numbers for emergencies that I wish they have some data on. I also have a work tablet that would love the same thing. A reasonable amount of data like 1 or 2GB without minutes and txts. So I don't have to purchase seperately as an add on every month.\nReason for given NPS: It's generally pretty good. I like most products one nz provides", 'Improvement needed: No deposit upgrades with interest freepayments\nReason for given NPS: Never had any issues would not change']</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[-0.06534874439239502, -0.04239301010966301, 0.050186146050691605, -0.012181872501969337, -0.01504409871995449, -0.0366189107298851, -0.022549981251358986, 0.022412555292248726, 0.008668302558362484, -0.055046193301677704, 0.026446281000971794, 7.261169230332598e-05, -0.02150978520512581, -0.018147462978959084, 0.00822575856000185, -0.06152471899986267, -0.012659630738198757, 0.00043751474004238844, -0.04521476477384567, 0.020789308473467827, 0.0757138654589653, 0.003973744343966246, -0.0708482638001442, 0.04469580203294754, 0.025939663872122765, 0.0367862842977047, 0.004214074928313494, -0.0025407839566469193, -0.03570033609867096, -0.14183448255062103, 0.03267785534262657, 0.00824881810694933, -0.008966749534010887, -0.06825707107782364, 0.027834322303533554, -0.05725163593888283, -0.02182753011584282, 0.0209260955452919, 0.009186428971588612, 0.03763680160045624, 0.013134654611349106, 0.028908615931868553, -0.0250648632645607, -0.07082680612802505, -0.029377318918704987, -0.029000215232372284, -0.011672423221170902, 0.07596324384212494, -0.018592573702335358, 0.049404505640268326, 0.05741577222943306, -0.02927994914352894, 0.02146190218627453, 0.010178245604038239, 0.041774310171604156, 0.06988062709569931, -0.003929455298930407, 0.035945527255535126, -0.009202525950968266, 0.015200485475361347, -0.018269486725330353, 0.004218541085720062, -0.1550288200378418, 0.032220542430877686, -0.01521737314760685, 0.0071784211322665215, 0.010857198387384415, 0.03473609685897827, 0.0015361042460426688, 0.040625084191560745, -0.0011089540785178542, -0.01238870806992054, -0.03580918163061142, 0.08184441924095154, 0.05490317940711975, -0.0594019889831543, -0.003902317024767399, 0.012550882063806057, 0.03855803981423378, 0.026004891842603683, -0.031555742025375366, -0.0066353739239275455, 0.004918608348816633, 0.0004538734210655093, -0.025905244052410126, -0.0025308053009212017, 0.03427179530262947, -0.05165571719408035, 0.08612263202667236, -0.04076313227415085, -0.02727610617876053, -0.019178686663508415, 0.041475046426057816, -0.006498929113149643, -0.026890769600868225, 0.02230166830122471, 0.06662966310977936, 0.030281584709882736, -0.04257504269480705, 0.3485719859600067, -0.004667212720960379, 0.0830015018582344, -0.06530404835939407, 0.027164023369550705, -0.038924429565668106, -0.09831157326698303, 0.01088925264775753, -0.02730533666908741, -0.0230526365339756, -0.04284998029470444, -0.03176594525575638, -0.00077865831553936, 0.09009531885385513, -0.09773317724466324, -0.008359699510037899, 0.06779726594686508, -0.01696782186627388, -0.05447870120406151, 0.029645992442965508, -0.013065910898149014, 0.03212900087237358, 0.014464887790381908, 0.04000459611415863, 0.06351573765277863, -0.02248488925397396, -0.0060674212872982025, -0.005132792051881552, 0.06769631803035736, 0.006026683375239372, 0.07619470357894897, 0.05032895877957344, -0.028083639219403267, -0.03715820237994194, 0.009916279464960098, 0.02814604341983795, -0.039396416395902634, 0.016628187149763107, 0.010971116833388805, 0.0468267947435379, 0.009435025975108147, -0.11871659755706787, -0.044372186064720154, -0.007571029476821423, -0.019994651898741722, -0.028005922213196754, 0.09056904166936874, -0.05406995117664337, 0.03912403807044029, 0.013823740184307098, -0.03180127963423729, -0.08538199216127396, 0.008409411646425724, 0.04531305283308029, -0.06625810265541077, 0.02383047342300415, 0.02985609695315361, 0.016444966197013855, -0.039858896285295486, -0.04841897636651993, 0.013112908229231834, 0.014746299013495445, -0.04126668721437454, -0.01834798976778984, 0.034720487892627716, 0.02709893509745598, -0.08304158598184586, 0.018924809992313385, 0.041727546602487564, 0.011951864697039127, 0.004456952679902315, -0.014361626468598843, 0.0011557337129488587, -0.016495397314429283, -0.00282831909134984, 0.1124386340379715, 0.004645514767616987, 0.03496897593140602, 0.02747274562716484, -0.02628558874130249, 0.008156823925673962, -0.008606789633631706, 0.020715977996587753, -0.08262917399406433, 0.0018062699818983674, 0.017365852370858192, -0.02351321280002594, -0.02795090526342392, -0.04853439703583717, 0.04262450337409973, -0.01605728082358837, -0.05397116020321846, -0.08168386667966843, -0.05528196319937706, 0.05112150311470032, 0.024408992379903793, -0.0222023855894804, -0.011204536072909832, 0.058767568320035934, -0.032498687505722046, 0.03737582266330719, 0.05122827738523483, -0.017615651711821556, -0.00029801364871673286, 0.030370894819498062, 0.03459436818957329, -0.010440824553370476, 0.019043175503611565, -0.005201373249292374, 0.02746739611029625, -0.02085842192173004, 0.002399082062765956, 0.006773658562451601, 0.10129062086343765, 0.009481221437454224, -0.0053347875364124775, 0.032517895102500916, -0.00900159403681755, 0.06704892963171005, -0.013813360594213009, 0.01210001576691866, 0.0050552887842059135, 0.04674489051103592, 0.08529138565063477, -0.33360400795936584, 0.021388208493590355, -0.02598177082836628, -0.009372268803417683, -0.056467968970537186, -0.02785062976181507, 0.014987660571932793, -0.01379299070686102, 0.002539304317906499, 0.09703771770000458, 0.02123008668422699, 0.0022142943926155567, -0.025278059765696526, -0.0366918221116066, -0.009422684088349342, 0.010510839521884918, 0.003095494117587805, -0.005044890567660332, -0.016020536422729492, 0.0020130157936364412, 0.006684030871838331, 0.0029885906260460615, 0.01575535535812378, -0.0492563396692276, 0.024547884240746498, 0.018798815086483955, 0.15678156912326813, -0.06579623371362686, -0.025844432413578033, -0.030488401651382446, 0.050533898174762726, 0.03544196859002113, -0.05541859567165375, -0.13392505049705505, -0.012804795056581497, -0.009548614732921124, -0.021578004583716393, 0.02430284582078457, 0.036418914794921875, -0.05533987283706665, 0.03701285272836685, 0.037418775260448456, 0.0060783508233726025, 0.01670437678694725, 0.02316497452557087, 0.011470695026218891, -0.00969675462692976, 0.022234883159399033, -0.014291347935795784, 0.02165486477315426, 0.031766440719366074, -0.04101956635713577, 0.026473822072148323, 0.036408476531505585, 0.023669753223657608, -0.03821450471878052, -0.03574554622173309, 0.018389051780104637, -0.0006144832004792988, 0.01962873339653015, -0.033350687474012375, -0.013082168065011501, -0.005090479273349047, 0.022796018049120903, -0.0033393369521945715, 0.012552698142826557, -0.015913136303424835, -0.055361296981573105, -0.048030730336904526, 0.0489836186170578, -0.019666163250803947, -0.013763055205345154, 0.0038150984328240156, 0.0008240340393967927, 0.0007611004402860999, -0.011630994267761707, -0.0433250330388546, 0.08262502402067184, -6.395315722329542e-05, -0.0823269784450531, 0.058061596006155014, -0.030460305511951447, 0.10143032670021057, 0.032070696353912354, -0.003542519174516201, 0.04239419475197792, 0.023638594895601273, -0.029491547495126724, 0.0007920761127024889, -0.056314609944820404, -0.01673290878534317, -0.02986772544682026, -0.05551659315824509, 0.07107408344745636, 0.08683747053146362, -0.029988626018166542, -0.2582261264324188, 0.005154022481292486, -0.04262029007077217, -0.06391721218824387, 0.032222263514995575, 0.056374650448560715, -0.004481925163418055, -0.027110911905765533, -0.11054948717355728, -0.05275103449821472, -0.028004147112369537, 0.03450985252857208, -0.04140637069940567, -0.08099590241909027, 0.01075095497071743, 0.04033137112855911, 0.044817131012678146, -0.03709051385521889, -0.005420144181698561, -0.07634846866130829, 0.04624561592936516, 0.042584456503391266, 0.16481924057006836, -0.0003647922130767256, -0.025601448491215706, 0.022306568920612335, -0.045887984335422516, 0.05485343933105469, 0.0830298587679863, 0.05810776352882385, -0.0024509208742529154, -0.015413629822432995, 0.06433136761188507, -0.010172245092689991, 0.022945357486605644, 0.02764127030968666, -0.030715802684426308, 0.021015044301748276, 0.06918409466743469, -0.010211927816271782, -0.06252037733793259, 0.02795047126710415, -0.02731870859861374, -0.013264243490993977, 0.060037676244974136, 0.03742676228284836, -0.05025238171219826, -0.023101435974240303, 0.01837719976902008, -0.023042675107717514, -0.03163669630885124, -0.0101182134822011, 0.017952632158994675, 0.06388234347105026, -0.00357987591996789, 0.00035626956378109753, 0.02813786454498768, 0.027807148173451424, 0.0048891715705394745, -0.01981433853507042, 0.010948524810373783, -0.01163158006966114, 0.05637958273291588, -0.034734830260276794, -0.04306410253047943]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>failure_to_explain_billing_properly</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Providing actual communication about plan options.\nReason for given NPS: I was not informed that I was switched to One. I then got a giant bill that was not adequately explained to me before I was even provided an online login. My rates are not good for a family plan. I am actively seeking another option.', 'Improvement needed: Clear speaking staff\nReason for given NPS: Took 2 days for shop staff to do paperwork..then the bill was incorrect', 'Improvement needed: network coverage\nReason for given NPS: apart from the poor network coverage, my account always comes to me and reminders to pay.  What I get seems to suit me.', 'Improvement needed: Keener pricing service and equipment not competitive ...\nAlso  need easier billing\nReason for given NPS: ¹Need to improve communication on contract issues. \n² On- line dealings w robot, extremely awkward, need more characters or line.', "Improvement needed: Some communication. The first person I talked to about mixing up my broadband and mobile accounts wasn't able to explain what was happening very well. Consequently, the issue dragged on and created big problems for me.\nReason for given NPS: I never give anyone a ten. Also, I had some account difficulties (because i thought it was a scam - long story, didn't know I had two accounts with change from Trustpower) and got cut off which caused huge problems while travelling during very bad weather and road closures at night. However, a technician (Yulan???) was extremely helpful in sorting it all out for me."]</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[-0.04107597842812538, -0.054957520216703415, -0.02601095847785473, 0.03532789647579193, -0.03015882894396782, -0.11817459017038345, 0.0032957352232187986, 0.045322101563215256, 0.03475520759820938, -0.06146326661109924, 0.004089753609150648, 0.013342564925551414, -0.015522859059274197, 0.005298096686601639, 0.033459581434726715, 0.0016186711145564914, -0.00024953894899226725, -0.005040452349931002, -0.014553309418261051, 0.04477914050221443, 0.072580985724926, -0.011757174506783485, -0.05457471311092377, 0.03763691335916519, -0.04015025496482849, 0.0732366293668747, 0.027578765526413918, -0.02174803987145424, -0.06929764151573181, -0.15143060684204102, 0.004916902165859938, -0.052938636392354965, -0.010011203587055206, -0.021437985822558403, 0.07304778695106506, -0.015119078569114208, -0.08120736479759216, -0.06689218431711197, 0.01914888247847557, 0.05042602866888046, 0.0037486369255930185, 0.002157576847821474, -0.07032351940870285, -0.03600755333900452, -0.0011172456433996558, -0.01958303339779377, 0.03171302005648613, 0.027162864804267883, 0.06763774156570435, -0.029098575934767723, 0.012636100873351097, 0.043761808425188065, -0.0327167883515358, -0.0008075953810475767, -0.015472727827727795, 0.09158049523830414, 0.08036679029464722, 0.09998437017202377, 0.03153786063194275, -0.0037466147914528847, 0.008754623122513294, 0.004730291664600372, -0.14696374535560608, 0.07432195544242859, 0.019300369545817375, -0.002623124048113823, -0.02087012119591236, 0.03430292382836342, -0.01856541819870472, 0.04036400467157364, 0.005179532803595066, -0.07330002635717392, -0.05238689109683037, 0.11386671662330627, 0.014842309057712555, -0.017368586733937263, 0.031362134963274, 0.026019548997282982, 0.05108337104320526, 0.029692187905311584, -0.03854798525571823, 0.005467836745083332, -0.023320414125919342, 0.003795461030676961, 0.019732974469661713, -0.06459307670593262, 0.05579116940498352, 0.023502210155129433, 0.05907205864787102, -0.032565321773290634, 0.03248384967446327, 0.0011917895171791315, -0.0018479007994756103, 0.009626536630094051, -0.002067560562863946, 0.041158609092235565, 0.009518776088953018, -0.024694480001926422, -0.13876040279865265, 0.36213675141334534, 0.02027241140604019, 0.036334164440631866, -0.008180706761777401, 0.03233236074447632, 0.0012195003218948841, -0.04700149595737457, -0.03538962081074715, 0.00933052133768797, -0.0022725858725607395, -0.049957275390625, -0.05710679292678833, 0.01631181500852108, 0.07449836283922195, -0.05075975880026817, -0.005359310656785965, 0.06739150732755661, -0.01971437782049179, -0.06711406260728836, 0.015411132015287876, -0.038631752133369446, -0.010076763108372688, 0.007965375669300556, -0.014781185425817966, -0.01662054844200611, -0.059960391372442245, -0.035175781697034836, 0.008993522264063358, 0.11884211003780365, -0.01848744973540306, 0.000281239568721503, 0.035651419311761856, -0.03070000931620598, -0.04670988395810127, 0.017307672649621964, 0.02523888275027275, -0.006626281421631575, 0.021895308047533035, 0.05581115558743477, 0.029973242431879044, 0.056980229914188385, 0.0016506024403497577, -0.05056827515363693, -0.0868329405784607, 0.020480450242757797, -0.024241888895630836, 0.07154400646686554, -0.059446483850479126, 0.029861804097890854, 0.006604146212339401, -0.025238463655114174, -0.019337207078933716, -0.018206292763352394, 0.001958217704668641, -0.07169727981090546, 0.0006720437668263912, 0.02611551620066166, 0.09328401833772659, -0.0039937556721270084, -0.017654823139309883, 0.011592996306717396, 0.05390430614352226, -0.07383076101541519, -0.0550566092133522, 0.1062660664319992, -0.007833987474441528, -0.025968696922063828, 0.019577566534280777, 0.007516263518482447, 0.001869383966550231, -0.03787880390882492, -0.02421555481851101, 0.011617797426879406, -0.06677307933568954, -0.000535212573595345, 0.06979603320360184, -0.04950781911611557, -0.04548230394721031, 0.04550226777791977, 0.004529132507741451, -0.038891810923814774, 0.02851301059126854, -0.022517412900924683, -0.07046667486429214, 0.005891954060643911, 0.03284291923046112, -0.050625722855329514, -0.010204043239355087, -0.07314763218164444, 0.043643344193696976, -0.03488632291555405, -0.002950109075754881, -0.033800575882196426, -0.06724534928798676, -0.04450862482190132, 0.0025913831777870655, -0.021585024893283844, 0.008102158084511757, 0.008377415128052235, 0.043299853801727295, 0.01841334067285061, 0.0527353435754776, -0.003594734473153949, -0.015743205323815346, 0.046495381742715836, -0.04860537871718407, 0.0779448077082634, -0.00320411566644907, -0.0031243767589330673, 0.02620682679116726, -0.016497952863574028, 0.013179831206798553, -0.00281060254201293, 0.0023741673212498426, 0.008617214858531952, 0.00819386262446642, 0.053777195513248444, 0.003190630814060569, 0.03877205029129982, -0.00424952432513237, 0.02619483508169651, -0.0188789963722229, 0.02285010926425457, 0.05986420810222626, -0.2913846969604492, 0.033864669501781464, 0.004719181451946497, -0.05429771915078163, -0.08720789104700089, -0.0072998106479644775, 0.09659885615110397, -0.01506542693823576, -0.058815546333789825, 0.10173577070236206, 0.03769118711352348, -0.009846881031990051, 0.0592111237347126, -0.09573319554328918, -0.023210737854242325, 0.04596139118075371, -0.00697737094014883, 0.029826495796442032, -0.020508944988250732, 0.028309278190135956, -0.00920480489730835, 0.005940229166299105, 0.0467170849442482, -0.09174264222383499, 0.018499428406357765, 0.05869073048233986, 0.1751287579536438, 0.013999619521200657, 0.0012991250259801745, 0.0035030816216021776, 0.05774974077939987, 0.05162989720702171, -0.031028086319565773, -0.09063436090946198, 0.03801077976822853, 0.029190007597208023, -0.037387099117040634, 0.0030348708387464285, 0.021987752988934517, -0.024514924734830856, -0.016685010865330696, 0.08949988335371017, -0.017864899709820747, -0.001485569286160171, 0.037484340369701385, 0.04347527027130127, -0.04656356945633888, 0.03931334987282753, -0.022900201380252838, 0.043650563806295395, -0.012986144982278347, 0.001567683182656765, 0.022468555718660355, 0.055161770433187485, 0.04246113821864128, -0.021110661327838898, -0.0434219092130661, 0.024143218994140625, -0.055460426956415176, 0.003157775616273284, -0.011423674412071705, -0.013335377909243107, 0.06712117791175842, -0.021736523136496544, 0.037641704082489014, -0.035500384867191315, -0.015250817872583866, -0.048250410705804825, -0.008376690559089184, -8.072003402048722e-05, -0.055510178208351135, 0.025510050356388092, -0.03136473894119263, -0.020339567214250565, 0.028654782101511955, 0.030584508553147316, 0.020269829779863358, -0.04131793975830078, 0.002225924516096711, -0.04202383756637573, 0.006723346188664436, 0.004676567856222391, 0.0486883744597435, -0.0137330899015069, -0.009479369968175888, 0.014519982039928436, -0.011074498295783997, 0.03469417616724968, 0.059447843581438065, -0.025006283074617386, -0.03652416169643402, 0.006075512617826462, -0.026262976229190826, 0.043145257979631424, 0.046921905130147934, -0.0195208340883255, -0.2338755577802658, -0.014739567413926125, -0.024920117110013962, 0.011704052798449993, -0.04705195501446724, 0.0644003301858902, -0.015585891902446747, 0.004448644816875458, -0.03765258938074112, -0.052508026361465454, -0.0030924957245588303, 0.018507611006498337, -0.01330887246876955, -0.005327493418008089, 0.021806983277201653, 0.02604869194328785, 0.03328349068760872, -0.02616613171994686, -0.00010735525575000793, 0.027353309094905853, 0.034189190715551376, 0.017847660928964615, 0.12038615345954895, -0.030411038547754288, -0.0473741814494133, -0.0498083271086216, -0.015944847837090492, 0.03298831358551979, 0.060244254767894745, 0.04748709127306938, -0.07043030112981796, -0.01655277982354164, 0.08899306505918503, -0.010580463334918022, 0.021165069192647934, -0.027371840551495552, 0.02321036346256733, -0.03774478659033775, 0.05810033902525902, -0.048573464155197144, -0.06072523817420006, 0.0068055856972932816, -0.02797617018222809, -0.014640836976468563, 0.032533131539821625, 0.029360147193074226, -0.0009978299494832754, -0.06391309946775436, 0.0156521275639534, 0.06944705545902252, -0.03261100873351097, -0.055817458778619766, 0.025162989273667336, 0.011218142695724964, -0.006288907490670681, 0.04535297304391861, -0.05931747704744339, 0.015973566100001335, -0.0026745267678052187, -0.022389983758330345, -0.02051565609872341, -0.045688435435295105, 0.08632360398769379, 0.0012001926079392433, -0.033336933702230453]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>difficulty_managing_linked_accounts</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Broadband and mobile accounts linked\nReason for given NPS: Not always easy to access account info. Pricing incentives for new members not available', 'Improvement needed: Phone line customer service and how you deal with internet and mobile accounts - they need to be properly combines\nReason for given NPS: Really hard to get online accounts sorted with customer service, very confusing difference between land line, broadband and mobile accounts with different logins', "Improvement needed: Some communication. The first person I talked to about mixing up my broadband and mobile accounts wasn't able to explain what was happening very well. Consequently, the issue dragged on and created big problems for me.\nReason for given NPS: I never give anyone a ten. Also, I had some account difficulties (because i thought it was a scam - long story, didn't know I had two accounts with change from Trustpower) and got cut off which caused huge problems while travelling during very bad weather and road closures at night. However, a technician (Yulan???) was extremely helpful in sorting it all out for me.", 'Improvement needed: combining home broadband and mobile bills\n', 'Improvement needed: The app is clunky. I can’t seem to get access to my own details.\n']</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[-0.016006743535399437, -0.0602622888982296, 0.024940330535173416, 0.011341496370732784, -0.04773261770606041, -0.011003730818629265, 0.02071656845510006, 0.016954578459262848, 0.045036301016807556, -0.06611552089452744, -0.004456937778741121, 0.0034153370652347803, 0.055041518062353134, 0.018280988559126854, 0.07756965607404709, 0.03749456629157066, -0.014926863834261894, 0.03931606933474541, 0.032057780772447586, 0.033212944865226746, -0.029475267976522446, -0.011498036794364452, -0.015807801857590675, 0.008016536943614483, 0.00784225668758154, 0.05565687641501427, 0.00808745063841343, -0.023423196747899055, -0.04939112439751625, -0.14349834620952606, -0.016143782064318657, -0.07660659402608871, -0.0331437811255455, 0.008353027515113354, 0.0568481869995594, -0.025949135422706604, -0.043830353766679764, 0.03781697154045105, 0.061501603573560715, -0.006404353771358728, 0.02586548961699009, 0.025840945541858673, -0.04360397532582283, -0.07347001135349274, 0.0017818892374634743, -0.0045322091318666935, 0.04751216247677803, 0.0253551434725523, 0.019560765475034714, 0.003894790541380644, -0.06279753893613815, -0.033477380871772766, 9.571736882207915e-05, 0.008819120936095715, 0.006181194446980953, 0.09036476910114288, 0.10309932380914688, 0.029252735897898674, -0.04299424588680267, 0.03944803401827812, 0.015581924468278885, 0.017188498750329018, -0.10287247598171234, 0.06997865438461304, 0.019755030050873756, 0.03479713946580887, 0.0034384645987302065, -0.0033635215368121862, -0.02039443515241146, 0.012733307667076588, -0.05846141278743744, -0.038845837116241455, -0.0554448664188385, 0.04903417453169823, 0.0014845713740214705, -0.02209867537021637, 0.014829641208052635, 0.007911843247711658, 0.007972988300025463, 0.0315868966281414, -0.026800166815519333, -0.030205994844436646, -0.00950821302831173, -0.019036006182432175, -0.02648193947970867, 0.0054266746155917645, -0.013771425001323223, -0.00012329735909588635, 0.04278421401977539, 0.010131343267858028, -0.014642869122326374, -0.03502269834280014, 0.10890187323093414, -0.005299856420606375, -0.0008830564329400659, -0.021286914125084877, 0.07400988042354584, 0.04206532984972, -0.14072725176811218, 0.3473771810531616, -0.022607119753956795, 0.02652769349515438, 0.027576182037591934, -0.04390180483460426, -0.007130471523851156, -0.03640594333410263, -0.00971988309174776, -0.02718396484851837, -0.024316933006048203, -0.028748689219355583, -0.027413837611675262, -0.02934485673904419, 0.010021613910794258, -0.033511724323034286, 0.045964159071445465, 0.06951732188463211, -0.04186909645795822, -0.04503827914595604, -0.06919372826814651, -0.00031541867065243423, 0.00785883329808712, 0.03920087218284607, 0.05507300794124603, 0.041395846754312515, 0.016054166480898857, 0.0286231841892004, 0.004337582737207413, 0.06249571219086647, 0.006525842938572168, 0.06310214847326279, 0.025119265541434288, 0.07579610496759415, -0.10710350424051285, -0.007053849752992392, -0.024456819519400597, -0.02123398520052433, -0.03650113567709923, -0.009295009076595306, 0.06780155003070831, 0.03808944672346115, -0.03474131599068642, -0.05200543999671936, 0.003084226744249463, -0.03382859379053116, -0.016057239845395088, 0.16105854511260986, -0.002529203426092863, 0.0028710507322102785, -0.06096382811665535, -0.03512178361415863, 0.0008483197307214141, -0.022327229380607605, 0.00947079248726368, -0.06500325351953506, -0.037868719547986984, -0.015528416261076927, -0.00720564927905798, 0.030002586543560028, 0.021073926240205765, 0.005790337920188904, 0.00028061881312169135, -0.04150819405913353, -0.006412307266145945, 0.039423614740371704, 0.028443267568945885, -0.07115476578474045, 0.021314792335033417, -0.0049836174584925175, -0.04830325022339821, 0.03542151302099228, -0.03443917632102966, -0.008297637104988098, -0.02139795385301113, 0.029261479154229164, 0.02962394803762436, -0.0917476937174797, -0.062470898032188416, -0.020694803446531296, 0.013983884826302528, 0.036182403564453125, 0.04630603268742561, -0.03779969364404678, -0.014184224419295788, -0.027888314798474312, -0.04750486835837364, -0.009454605169594288, 0.017330722883343697, -0.044362276792526245, 0.02728312462568283, -0.0010818211594596505, -0.07262549549341202, -0.02238413505256176, -0.10162107646465302, -0.0428365059196949, 0.00036878595710732043, 0.0018773720366880298, -0.009814012795686722, -0.031233293935656548, -0.00868916418403387, 0.0270653385668993, 0.059992220252752304, 0.011813051998615265, -0.009327622130513191, 0.0217959675937891, -0.02851303108036518, 0.010552964173257351, -0.04863400012254715, 0.005931429099291563, 0.09281060099601746, -0.014439936727285385, -0.02572064846754074, -0.013050186447799206, -0.010393230244517326, 0.01972639560699463, -0.0013250315096229315, 0.017585761845111847, 0.026458151638507843, 0.04729672521352768, 0.016428716480731964, 0.062090493738651276, 0.08195751160383224, 0.06905293464660645, 0.04899931326508522, -0.3096538782119751, 0.04019879922270775, -0.07172500342130661, -0.006989514455199242, -0.06810148060321808, -0.04509385675191879, 0.039747096598148346, 0.029255228117108345, -0.05889234319329262, 0.08964857459068298, 0.060630928725004196, -0.022845033556222916, 0.015123819932341576, -0.07288715243339539, -0.028437480330467224, 0.013032332062721252, -0.0035863532684743404, 0.07519245147705078, 0.0027754211332648993, 0.013995978981256485, -0.03541914001107216, -0.0440438874065876, 0.05015287920832634, -0.02783668041229248, 0.02436446025967598, 0.012610557489097118, 0.18420371413230896, -0.08452331274747849, -0.01771954633295536, -0.009961001574993134, 0.05718052014708519, 0.05528372898697853, -0.05153489112854004, -0.12694263458251953, -0.0062391613610088825, 0.021667957305908203, -8.676172728883103e-05, 0.031153561547398567, 0.06450096517801285, -0.026110274717211723, -0.06402302533388138, 0.007455957587808371, 0.025111649185419083, 0.007479267660528421, 0.0024507101625204086, 0.06935175508260727, -0.05057684704661369, -0.029947007074952126, -0.0006369698676280677, 0.042472366243600845, 0.042375966906547546, 0.014074239879846573, 0.046438153833150864, 0.02821323834359646, -0.04111434891819954, -0.04840430989861488, -0.024966152384877205, 0.024761607870459557, 0.002023621229454875, 0.08079313486814499, -0.02016066014766693, -0.04065227508544922, -0.012625006027519703, -0.04802269488573074, 0.07485029846429825, -0.01621922105550766, -0.052153099328279495, 0.03243471309542656, 0.014015335589647293, -0.02727934718132019, 0.013238615356385708, -0.005913351662456989, -0.026156166568398476, 0.03300861269235611, -0.01661672070622444, -0.04917905479669571, -0.052287809550762177, -0.006113016977906227, -0.04131155088543892, -0.0667109563946724, 0.024889709427952766, -0.041833292692899704, 0.0638301745057106, 0.04261342063546181, -0.047042977064847946, 0.014769605360925198, 0.047667521983385086, -0.008090038783848286, 0.054254963994026184, -0.05672125518321991, 0.025950947776436806, -0.03167024999856949, -0.06333187222480774, 0.05740738660097122, 0.09650960564613342, 0.010766670107841492, -0.22283056378364563, 0.03429637849330902, 0.007666284218430519, -0.0074897585436701775, 0.007740671280771494, 0.041524264961481094, 0.006446647457778454, 0.035401634871959686, -0.017761286348104477, -0.024695923551917076, 0.0511024184525013, 0.01591627486050129, -0.03812267631292343, -0.025753378868103027, -0.0014002590905874968, -0.017049234360456467, -0.07592406868934631, -0.032278746366500854, 0.059259697794914246, -0.004118228331208229, 0.049520496279001236, 0.015467257238924503, 0.17214353382587433, 0.02069881558418274, 0.004206868354231119, -0.00943564623594284, 0.002411829773336649, 0.031597234308719635, 0.06110863760113716, 0.053341712802648544, -0.012954204343259335, -0.023801686242222786, 0.032099999487400055, -0.023279543966054916, 0.021220827475190163, -0.025772742927074432, 0.047201719135046005, -0.005084433127194643, 0.07625649124383926, -0.014343518763780594, 8.397518831770867e-05, 0.03251535817980766, -0.054871998727321625, -0.006134982220828533, 0.08170095831155777, -0.030025118961930275, -0.029572270810604095, -0.022917792201042175, 0.027614420279860497, -0.06148288771510124, -0.030630171298980713, -0.07259829342365265, -0.022717924788594246, 0.04274893179535866, 0.05408331751823425, 0.032254718244075775, -0.002067768247798085, 0.02623981051146984, -0.03150290623307228, -0.03985155001282692, 0.01331900805234909, 0.027091512456536293, 0.00033494282979518175, -0.027544377371668816, -0.01416469644755125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>clarity_needed_on_rewards_program</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>["Improvement needed: I haven't read anything on Ones efforts for sustainability and a bit unsure how to answer the overall relationship questions as I have really interacted with One personally. Also not sure about the rewards program either and didn't know there was one.\nReason for given NPS: I haven't been with any other company to compare but haven't had any problems with One and theonthly charge is cheap for what you get.", 'Improvement needed: More info around the rewards that was mentioned in one of the questions. I gave it a 5 as I’m not actually sure what they are?\nReason for given NPS: Have been with Vodafone for years and it has always been good. When the change over happened to one nz it has been seamless with no issues', "Improvement needed: Provide more - I don't know what One's NZ rewards are?\nReason for given NPS: Provide a great service, staff are very helpful and friendly", "Improvement needed: I would like cheaper option to add my teenage son to my plan.\nI'm not really aware of rewards because you have to go looking for them.\nReason for given NPS: Service always works well for me.", "Improvement needed: Rewards - don't seem to be anything I would use\nReason for given NPS: I find the service very reliable and other than a bit slow occasionally, all works well."]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[-0.05239304527640343, -0.005774803925305605, 0.03120536543428898, 0.0036799476947635412, -0.04487382248044014, -0.002856504637748003, 0.024159090593457222, 0.07190597057342529, 0.019890161231160164, -0.041986431926488876, 0.01779046282172203, -0.01477073598653078, 0.0015032367082312703, 0.04292840510606766, 0.051270991563797, 0.0011283289641141891, 0.042407065629959106, 0.014998248778283596, -0.04407361149787903, 0.03986136242747307, 0.06260596215724945, -0.040449075400829315, -0.04933610558509827, 0.0278354212641716, 0.01854166015982628, -0.003871146822348237, -0.011955099180340767, -0.08932391554117203, -0.03354938328266144, -0.14304247498512268, -0.05898086726665497, -0.02320322021842003, 0.07495652139186859, -0.0043038916774094105, -0.0137191666290164, 0.028979653492569923, -0.02131720259785652, -0.03368339315056801, -0.06697513163089752, 0.041430000215768814, 0.054673124104738235, 0.04063606634736061, -0.038226041942834854, -0.009805143810808659, 0.0014862979296594858, -0.08868100494146347, 0.0007726963958702981, 0.01734848879277706, 0.020102478563785553, -0.013673124834895134, 0.04612089321017265, -0.06701218336820602, -0.023114992305636406, 0.013138994574546814, 0.002526812255382538, 0.054096005856990814, -0.006482212338596582, 0.06928703933954239, -0.03310585021972656, 0.029066212475299835, -0.006866607815027237, 0.009829712100327015, -0.14587846398353577, 0.01741977035999298, -0.012144405394792557, 0.000695964612532407, -0.022943975403904915, -0.034433118999004364, 0.014726328663527966, 0.026736056432127953, 0.010236305184662342, 0.016466215252876282, 0.009129120036959648, 0.039494093507528305, 0.0035370204132050276, -0.05465403571724892, 0.02295195497572422, 0.010106460191309452, -0.034285008907318115, 0.030650854110717773, -0.020424403250217438, -0.022430479526519775, 0.0058219037018716335, 0.005351644940674305, -0.007140589877963066, -0.026320872828364372, 0.03020201437175274, 0.008115258067846298, 0.02605597674846649, -0.0040100207552313805, 0.03923387825489044, -0.011076997965574265, -0.0032996253576129675, 0.014629154466092587, -0.0563395656645298, -0.007498614024370909, 0.01324483659118414, -0.006327077746391296, -0.07626873254776001, 0.4079246520996094, -0.000509094272274524, 0.05405648425221443, -0.03412260487675667, -0.041514113545417786, 0.04847419261932373, -0.030727215111255646, -0.005164130590856075, 0.005156793165951967, -0.03651252016425133, -0.039306700229644775, -0.01567249931395054, -0.025608673691749573, 0.08783819526433945, -0.035434748977422714, -0.06049594283103943, 0.16986864805221558, 0.020220046862959862, 0.017275020480155945, 0.015295383520424366, -0.027203118428587914, 0.01894834078848362, 0.04025235027074814, 0.03288968279957771, -0.015597786754369736, -0.04890298843383789, -0.01167867612093687, 0.02887370064854622, 0.09168097376823425, -0.028291204944252968, 0.05597851797938347, 0.03287002071738243, -0.024478543549776077, -0.037303727120161057, 0.00029375479789450765, 0.02040679007768631, -0.035580769181251526, -0.010858582332730293, 0.014992604032158852, 0.029566103592514992, 0.05373004078865051, 0.015393996611237526, 0.026818806305527687, 0.03274322673678398, -0.12766090035438538, -0.04357454553246498, 0.07229197025299072, -0.02168228104710579, 0.016311798244714737, -0.0028581072110682726, -0.10565673559904099, 0.001663769013248384, -0.02263118140399456, -0.023664148524403572, -0.04503302276134491, -0.008410584181547165, 0.001180911436676979, 0.016613680869340897, -0.07413141429424286, -0.04426417127251625, 0.02453777566552162, 0.058300793170928955, -0.06511034816503525, -0.026479769498109818, 0.054640356451272964, 0.026931535452604294, -0.024356605485081673, 0.004863967187702656, -0.01848563365638256, -0.056572433561086655, -0.04143458977341652, -0.005239821504801512, 0.020452799275517464, -0.06145958602428436, 0.051953937858343124, 0.07863336056470871, -0.042436208575963974, -0.07505836337804794, 0.06252962350845337, 0.01686488650739193, -0.014275769703090191, 0.043882593512535095, -0.029766632243990898, -0.017830604687333107, 0.021591125056147575, 0.03132277727127075, -0.06526574492454529, 0.028616998344659805, -0.029214510694146156, 0.058577362447977066, -0.04791031405329704, -0.03178761154413223, -0.056175597012043, -0.021463826298713684, 0.01152079924941063, -0.004252763465046883, -0.04759174957871437, 0.015771301463246346, -0.0236649326980114, -0.042559120804071426, 0.004077632445842028, 0.011156896129250526, -0.054701223969459534, 0.026381323114037514, 0.07107644528150558, 0.03473765775561333, 0.014417288824915886, -0.020929541438817978, -0.043604955077171326, 0.08505843579769135, 0.020964069291949272, 0.006684825289994478, -0.007293173111975193, 0.02618694119155407, 0.05431736633181572, 0.018684370443224907, -0.0030776001513004303, 0.02376369573175907, -0.009764822199940681, -0.03183930739760399, -0.003384871408343315, 0.005603712517768145, 0.06680462509393692, 0.005549253895878792, -0.3316704034805298, 0.03267918899655342, 0.00716593861579895, 0.020358646288514137, -0.01309932116419077, -0.010503396391868591, 0.06308882683515549, 0.0002642985200509429, -0.04976988211274147, 0.044357605278491974, 0.08932127803564072, 0.011422788724303246, -0.01856406219303608, -0.03267150744795799, 0.025827646255493164, -0.005744525697082281, -0.01983662322163582, 0.023326128721237183, 0.017865700647234917, 0.008015048690140247, 0.010242347605526447, 0.017877520993351936, 0.050292592495679855, -0.09579239040613174, -0.008019983768463135, -0.0030898184049874544, 0.14263544976711273, 0.023316990584135056, -0.019697405397892, 0.01173410564661026, 0.023079007863998413, 0.07031018286943436, -0.047969408333301544, -0.11260127276182175, 0.020149869844317436, 0.05725459009408951, -0.07532847672700882, 0.04864503815770149, 0.0016649460885673761, 0.0006001392030157149, 0.03401820734143257, 0.016223672777414322, -0.05691501870751381, -0.039337195456027985, 0.01946157217025757, -0.04184937849640846, -0.003174183890223503, 0.008851129561662674, 0.02839433029294014, 0.016227323561906815, 0.08254413306713104, -0.01255052350461483, 0.008601490408182144, 0.02208886481821537, 0.032545268535614014, -0.005398898851126432, -0.0228009931743145, 0.022174665704369545, -0.02730155549943447, 0.009184005670249462, -0.013124448247253895, -0.060825150460004807, 0.0009702849201858044, -0.02947271429002285, 0.07630501687526703, 0.026676911860704422, -0.01987818256020546, -0.006400476675480604, 0.027661817148327827, 0.002463795943185687, -0.004843498580157757, -0.04600587114691734, -0.01756671816110611, -0.03914026543498039, 0.016431083902716637, 0.02031891793012619, -0.005137547850608826, -0.012349303811788559, 0.005322139244526625, -0.03548482432961464, 0.014534132555127144, 0.0009163589566014707, 0.008694981224834919, 0.025724859908223152, -0.010614894330501556, 0.07516445219516754, 0.028317423537373543, 0.014541853219270706, -0.025781573727726936, 0.029929297044873238, 0.0014674239791929722, -0.015544727444648743, -0.01800527237355709, -0.0017917498480528593, 0.05993352085351944, 0.016084153205156326, -0.26724544167518616, -0.007357439957559109, 0.03225790709257126, -0.027490921318531036, 0.041819777339696884, 0.06931840628385544, 0.047289714217185974, -0.0009278812794946134, -0.0943923145532608, -0.04018964618444443, -0.01639825664460659, 0.027474762871861458, -0.033541012555360794, -0.03143247216939926, 0.0032843060325831175, 0.08156800270080566, 0.07597548514604568, -0.044816408306360245, 0.010152542963624, -0.009960262104868889, -0.004958515055477619, 0.028704453259706497, 0.15117084980010986, -0.022446632385253906, -0.020665884017944336, -0.0017395553877577186, -0.016857534646987915, -0.04633420705795288, 0.06599029898643494, 0.021424079313874245, -0.019704626873135567, 0.005795767530798912, 0.039625491946935654, 0.021660348400473595, -0.024643588811159134, 0.05683726444840431, -0.04873581975698471, -0.014133618213236332, 0.00855653639882803, -0.005308251827955246, -0.005358377005904913, 0.02288004569709301, -0.03908782824873924, -0.10665592551231384, 0.07254726439714432, -0.05375010147690773, -0.03552275896072388, -0.015507321804761887, 0.029471587389707565, -0.017513666301965714, -0.016977963969111443, -0.009720610454678535, -0.006512240506708622, -0.038808103650808334, 0.00018299602379556745, 0.02069765329360962, -0.05039624869823456, 0.02775382064282894, 0.037674497812986374, 0.008159216493368149, -0.036142610013484955, 0.0403614416718483, 0.07235164195299149, -0.016870809718966484, 7.885642844485119e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>slow_broadband_speeds_due_to_copper_infrastructure</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['Improvement needed: We are still on copper broadband,  and I understand there is great reluctance to upgrade our entire road (about 100 houses) to fiber. Millington Road, Whangarei 0179.\nReason for given NPS: No complaints. Simple.', 'Improvement needed: Giving us a better alternative to internet than Spark is offering.  We only have a coper wire connection.\nReason for given NPS: I have had good service to date', 'Improvement needed: Mobile and wifi coverage in Titirangi. Our mobile coverage around the house is really bad. We have fibre broadband but it is very slow at times\nReason for given NPS: Good customer service', 'Improvement needed: Broadband speed\nReason for given NPS: Nice customer service always', 'Improvement needed: I live in Broadwood 0491, My mobile phone gets NO service, our internet drops out regularly and if there is any kind of storm its a joke. I have purchased a Starlink system and once i have installed it I shall cancel my account. Ive been with your company for years and the service over the pass few years has gotten worse.\nReason for given NPS: Your service goes down most days and when it is up the speed is terrible and opening a page on the internet can take ages to load.']</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[-0.027626410126686096, -0.01776457577943802, -0.004462166223675013, 0.041330981999635696, 0.0359952449798584, -0.056296393275260925, -0.06423782557249069, 0.0028551227878779173, 0.03692936897277832, -0.0199432335793972, 0.026767678558826447, -0.011914233677089214, 0.046773239970207214, -0.023088978603482246, 0.038147781044244766, 0.009079723618924618, 0.06165122985839844, -0.07375756651163101, 0.02744295261800289, 0.021795673295855522, 0.070916548371315, -0.014791328459978104, -0.01740303635597229, -0.024889307096600533, -0.010673538781702518, -0.02058292180299759, 0.02289130538702011, -0.022119924426078796, -0.04865291342139244, -0.16538946330547333, 0.01990012265741825, -0.05046787112951279, -0.017652831971645355, 0.036101408302783966, 0.012404211796820164, -0.039229199290275574, 0.008323190733790398, 0.025776470080018044, 0.02055118978023529, 0.063398078083992, 0.005296208895742893, 0.04644649848341942, -0.04535849392414093, -0.012911220081150532, 0.002955881180241704, 0.006185061763972044, 0.07529579848051071, 0.015208778902888298, 0.103755883872509, -0.034058827906847, -0.036465633660554886, 0.02202133648097515, -0.007655424065887928, 0.016092268750071526, 0.01543346792459488, 0.06266547739505768, 0.06908058375120163, 0.021205367520451546, 0.06756485253572464, -0.020142434164881706, 0.02899281121790409, -0.01657526195049286, -0.1516711413860321, 0.02730523981153965, 0.06796491146087646, -0.01297544501721859, 0.009316102601587772, -0.050815995782613754, 0.00465406384319067, 0.0063272500410676, -0.04490787535905838, 0.045014407485723495, -0.022073764353990555, 0.0317026749253273, -0.007980572991073132, 0.07268109172582626, -0.03163641691207886, -0.0069801900535821915, -0.005903713405132294, 0.04508940875530243, 0.028336187824606895, -0.03415001183748245, -0.07743258029222488, -0.04302963614463806, 0.0007284285384230316, -0.04239233583211899, -0.0320301353931427, 0.018540550023317337, -0.0023419763892889023, -0.040668364614248276, -0.04519551619887352, 0.00446123443543911, 0.0131033631041646, 0.035318709909915924, -0.04152422770857811, -0.028867555782198906, -0.009326907806098461, 0.017667405307292938, -0.03307390213012695, 0.3734050691127777, 0.006479277275502682, -0.020055538043379784, -0.025184115394949913, 0.02571728639304638, 0.07460164278745651, 0.005185054615139961, 0.010192504152655602, -0.04366782680153847, -0.00042251384002156556, 0.04734455794095993, 0.022501755505800247, 0.015711497515439987, 0.021833056584000587, -0.03286518156528473, 0.08221905678510666, -0.013832989148795605, -0.05880730599164963, -0.0018236050382256508, -0.08143370598554611, 0.07531029731035233, -0.05546172335743904, -0.001165862544439733, 0.010008634068071842, 0.017181582748889923, 0.011502630077302456, -0.037748318165540695, 0.05057254806160927, 0.08647608757019043, -0.02315605990588665, 0.06416628509759903, -0.04672040045261383, -0.04933862015604973, -0.0016136547783389688, 0.0041994359344244, -0.015946876257658005, 0.02242678590118885, 0.019139688462018967, 0.011011512018740177, 0.005191330797970295, 0.04948192834854126, -0.06943897902965546, -0.06903170049190521, -0.03776884824037552, -0.09568876028060913, 0.03388543426990509, 0.07806182652711868, 0.05146709084510803, 0.051859427243471146, 0.021931087598204613, -0.06286792457103729, -0.016798073425889015, 0.0252709798514843, 0.020371457561850548, -0.01727868802845478, -0.06692769378423691, -0.033191826194524765, 0.010261591523885727, 0.05855248123407364, 0.0326651856303215, 0.009206501767039299, 0.039849504828453064, -0.0757383406162262, -0.03073343262076378, 0.06551170349121094, 0.010220661759376526, -0.03736133128404617, -0.03809206932783127, -0.016561666503548622, -0.05497382581233978, -0.016742097213864326, -0.05094360187649727, 0.042668577283620834, 0.008686126209795475, 0.007255656644701958, 0.05863617733120918, -0.016039572656154633, -0.05775464326143265, -0.02827530726790428, -0.06366109102964401, -0.020956460386514664, 0.033383581787347794, 0.06783009320497513, -0.016426822170615196, 0.01826302520930767, 0.010503221303224564, -0.013568124733865261, -0.055132392793893814, -0.04178794473409653, 0.021928073838353157, -0.030249807983636856, -0.12094207853078842, -0.031781766563653946, -0.019057517871260643, 0.012412256561219692, -0.0365721695125103, -0.06501112133264542, 0.018695291131734848, 0.03126489371061325, 0.03135847672820091, -0.03726833686232567, 0.04428799822926521, -0.02285868301987648, -0.05928134173154831, 0.06382504105567932, -0.07831363379955292, 0.018898285925388336, -0.058304160833358765, -0.03542638197541237, -0.0013127952115610242, 0.013242971152067184, 0.03160539269447327, -0.09213360399007797, 0.08866474777460098, 0.007198259700089693, -0.01703854836523533, -0.019742848351597786, -0.003250202164053917, 0.0743081122636795, 0.03311827778816223, 0.047330934554338455, -0.0017634006217122078, 0.002129147294908762, -0.03844008967280388, -0.32185542583465576, -0.012111233547329903, 0.013590309768915176, 0.003610986517742276, 0.05123615637421608, -0.01359674334526062, -0.02883819304406643, 0.00914583820849657, 0.025677720084786415, 0.05167635530233383, 0.019040953367948532, 0.05237637087702751, -0.01743829995393753, -0.06353223323822021, -0.04370356723666191, 0.00017008876602631062, 0.012832163833081722, 0.031203987076878548, -0.027873747050762177, 0.012237275019288063, -0.012027491815388203, 0.059731438755989075, -0.0008520333212800324, -0.009040546603500843, 0.02669985219836235, 0.039277106523513794, 0.14896777272224426, -0.09934486448764801, -0.005162927322089672, -0.08171526342630386, -0.0004544015391729772, 0.02816038392484188, -0.009894715622067451, -0.04011305421590805, -0.03274049237370491, 0.04456629231572151, 0.09003403782844543, 0.05361521989107132, -0.03796215355396271, 0.020936354994773865, -0.07636614143848419, 0.032455481588840485, 0.03262645751237869, -0.01092125941067934, 0.034514013677835464, 0.013205061666667461, -0.009123817086219788, 0.024303825572133064, -0.033302828669548035, -0.02205009013414383, 0.008622714318335056, -0.02223844826221466, 0.04414534196257591, 0.06781185418367386, 0.06451405584812164, -0.010746413841843605, -0.016876719892024994, 0.06894993782043457, -0.03423365578055382, -0.029169918969273567, 0.012514902278780937, -0.03207797557115555, 0.04357590898871422, -0.03216379135847092, 0.039897698909044266, -0.02629966288805008, 0.0011340148048475385, 0.010463171638548374, -0.005835970863699913, 0.04728555306792259, 0.016626054421067238, 0.09224528074264526, -0.03177613019943237, -0.007558958139270544, 0.02658899687230587, -0.01007919292896986, -0.03239847347140312, -0.011290988884866238, 0.023760495707392693, -0.024806847795844078, 0.1052105724811554, 0.06122386455535889, 0.013663234189152718, 0.009214690886437893, -0.020915919914841652, -0.006281735375523567, 0.015940556302666664, 0.03232601657509804, -0.011454354971647263, 0.037233371287584305, 0.004546153824776411, -0.03434370458126068, -0.0407370887696743, -0.03324812278151512, 0.03357510268688202, 0.017517248168587685, -0.26768267154693604, 0.012057322077453136, 0.042500101029872894, -0.06952579319477081, -0.01720014028251171, 0.04595862701535225, 0.04930819943547249, 0.012045936658978462, -0.02812468633055687, 0.09045013040304184, -0.05070292577147484, 0.021568967029452324, -0.0327148512005806, -0.0038820442277938128, 0.05331333354115486, -0.005508012603968382, 0.020947376266121864, -0.05829743668437004, -0.06465895473957062, -0.009328239597380161, 0.0026554730720818043, -0.02067464217543602, 0.11947838962078094, -0.0062569561414420605, 0.004545461852103472, 0.039137329906225204, -0.04510139673948288, 0.05678066983819008, 0.048509880900382996, -0.02618066966533661, -0.008305472321808338, -0.03076646476984024, 0.03112306445837021, -0.04989265650510788, -0.014984671957790852, 0.04734513536095619, 0.014251132495701313, -0.01859891600906849, -0.0010633282363414764, 0.023549364879727364, 0.003637357847765088, 0.04689920321106911, -0.02523559145629406, -0.017432518303394318, 0.007617641240358353, 0.01035752147436142, -0.04431534186005592, -0.05194487422704697, 0.02288774959743023, -0.003965277224779129, -0.030934516340494156, -0.03644061088562012, 0.049715280532836914, 0.009778778068721294, 0.0610601082444191, 0.04499232769012451, -0.0423324890434742, -0.018106581643223763, 0.025688275694847107, -0.060594335198402405, 0.011655176989734173, -0.09090793132781982, -0.022017909213900566, -0.009868948720395565, 0.041989412158727646]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>poor_international_roaming_plans</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['Improvement needed: More plans for international roaming\n', 'Reason for given NPS: Only a 5 because my call to family in Canada who refuse to use messenger for calls and only use their landline was very expensive.', 'Improvement needed: Global roaming is expensive\nReason for given NPS: I’ve never had any problems with the service', "Improvement needed: I'd love a meter to show how much I was spending (especially internationally) as I roam.  It always seems cheap at the time but the accumulated cost can give me a shock\nReason for given NPS: I'd like to know more about which countries have $8/day roaming as I travel a lot and use it but also get hit with high roaming costs when the deal doesn't apply", "Improvement needed: Offer more flexible mobile options when travelling overseas. Keep insurance but drop to a much smaller plan. I travel overseas for 9 months of the year but keep paying the same 12GB plan the whole time I'm away as I don't have any other option.\n"]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[-0.009708126075565815, -0.041248761117458344, 0.03083094023168087, -0.015969984233379364, -0.019509196281433105, -0.05301538109779358, -0.055554959923028946, 0.07052288949489594, 0.030777890235185623, -0.010167627595365047, 0.04023882746696472, 0.002666666405275464, 0.02658718079328537, 0.04725588858127594, 0.012708318419754505, 0.006215672008693218, -0.011515275575220585, -0.10541784763336182, -0.04079839959740639, 0.04367329552769661, 0.10053365677595139, -0.030493974685668945, -0.02849305048584938, -0.0046232049353420734, 0.005692071747034788, 0.04713580757379532, -0.016369136050343513, 0.008316291496157646, -0.027584565803408623, -0.1261809766292572, -0.01882435381412506, -0.0029319922905415297, -0.06578627228736877, 0.046708110719919205, 0.009861699305474758, 0.0205669067800045, -0.039302412420511246, 0.027763348072767258, 0.0055619110353291035, 0.05683892220258713, 0.0012643850641325116, 0.04661436006426811, -0.007486583665013313, 0.007427234202623367, -0.0005903795245103538, -0.05648251250386238, -0.04070432111620903, 0.035857684910297394, -0.004669912625104189, -0.042215436697006226, 0.04598187282681465, 0.029612399637699127, -0.00965570006519556, -0.0006045344634912908, 0.023544693365693092, 0.026662085205316544, 0.04495616629719734, 0.031751058995723724, 0.011052637360990047, 0.005314331501722336, 0.040255263447761536, -0.018687332049012184, -0.18395507335662842, 0.049273040145635605, -0.02171940915286541, 0.055383194237947464, -0.019071971997618675, 0.004365476779639721, -0.007719320710748434, -0.006615727208554745, -0.02304767817258835, -0.03893876448273659, -0.012764955870807171, 0.056003887206315994, 0.01981334760785103, 0.036215025931596756, -0.005920072551816702, 0.02804800681769848, -0.0013518092455342412, 0.0358719639480114, 0.09411298483610153, -0.031163416802883148, -0.04013857617974281, 0.0012385714799165726, 0.05895572528243065, -0.062457241117954254, -0.0027992958202958107, -0.0030935974791646004, 0.011562483385205269, -0.027103163301944733, 0.015443112701177597, -0.009673257358372211, 0.04444866627454758, 0.04639216884970665, -0.07362312823534012, 0.00319686415605247, 0.035563189536333084, 0.028990644961595535, -0.12030335515737534, 0.3858211636543274, 0.03151354938745499, 0.026102976873517036, 0.0672585666179657, 0.03747290000319481, -0.03346669301390648, -0.02315397933125496, -0.07114109396934509, -0.06390587240457535, -0.0037101099733263254, 0.011327998712658882, -0.07156398892402649, -0.05365784466266632, 0.006040898617357016, -0.010191958397626877, -0.006767855025827885, 0.0051787537522614, 0.008320952765643597, 0.016028836369514465, -0.031300757080316544, 0.030874913558363914, -0.058568116277456284, -0.08142448216676712, 0.03723328560590744, 0.013375042006373405, 0.019532376900315285, 0.0029462098609656096, 0.030277710407972336, 0.08865028619766235, -0.02349763549864292, 0.05102548375725746, 0.019814547151327133, -0.05122973397374153, 0.010195971466600895, 0.03160273656249046, 0.012023169547319412, -0.013616821728646755, -0.0115932896733284, 0.017690595239400864, -0.012067856267094612, -0.0012242239899933338, 0.014080368913710117, -0.07503853738307953, -0.02826949954032898, -0.08452782034873962, 0.049543797969818115, 0.08899906277656555, 0.010838569141924381, 0.06309764087200165, 0.013952228240668774, -0.06686127185821533, 0.01390775479376316, -0.01207790244370699, 0.08049886673688889, -0.08635004609823227, -0.0015849085757508874, -0.029909174889326096, -0.011076671071350574, 0.021070927381515503, -0.01750638522207737, 0.005328383296728134, 0.08779200911521912, -0.04145895689725876, -0.07101387530565262, 0.14423266053199768, -0.000876276521012187, -0.06588657200336456, -0.044435352087020874, 0.021338285878300667, -0.009031948633491993, -0.014501508325338364, -0.030867235735058784, -0.009469373151659966, 0.018097329884767532, 0.007983416318893433, 0.0823611319065094, -0.008232392370700836, -0.053403761237859726, 0.04337290674448013, -0.04719579592347145, -0.05090206488966942, -0.038955334573984146, -0.033483657985925674, 0.0022110335994511843, -0.006935090757906437, 0.033575158566236496, -0.015501920133829117, -0.03307727724313736, 0.03402308002114296, 0.03409885615110397, -0.05275465175509453, -0.11500702798366547, 0.007469284348189831, -0.04941975325345993, -0.008787363767623901, -0.018475163727998734, -0.0061617884784936905, -0.0524272657930851, -0.04034416377544403, 0.07941415905952454, -0.028342202305793762, 0.12485644966363907, -0.030012665316462517, 0.0010565499542281032, -0.014610398560762405, 0.004018448293209076, -0.012914855033159256, 0.03531602397561073, -0.02109721675515175, -0.004033397883176804, 0.004040157422423363, -0.0061810072511434555, 0.008957483805716038, 0.07945720851421356, 0.01474036742001772, 0.0027633560821413994, -0.023953866213560104, -0.009977252222597599, 0.035536590963602066, 0.02864966355264187, -0.005231484305113554, -0.02234470471739769, 0.05289802700281143, -0.002040851628407836, -0.2669823169708252, -0.02332228794693947, 0.01049118209630251, 0.0010966393165290356, -0.0768221989274025, -0.021676266565918922, -0.01704423688352108, -0.017998825758695602, 0.059261925518512726, 0.09046616405248642, 0.0376984179019928, -0.005245334003120661, 0.018824590370059013, 0.05153173580765724, -0.022379493340849876, -0.02620205283164978, 0.0004991029272787273, 0.05530981346964836, -0.004676183219999075, 0.024042775854468346, 0.023590467870235443, 0.03039298765361309, -0.04543215408921242, -0.022118225693702698, 0.0336221344769001, 0.022470051422715187, 0.1870488077402115, -0.04950178042054176, -0.027469173073768616, -0.032756008207798004, 0.05772840604186058, 0.07878625392913818, 0.012802854180335999, -0.06758398562669754, -0.022757425904273987, 0.006808496080338955, 0.061248842626810074, -0.022644370794296265, 0.017740363255143166, -0.06178984045982361, -0.0034215436317026615, 0.046368204057216644, -0.03762330487370491, -0.025075050070881844, 0.012140319682657719, -0.011294400319457054, -0.04713832587003708, 0.04912322014570236, -0.038996342569589615, 0.009405001997947693, -0.03735341504216194, -0.013968637213110924, 0.023070111870765686, 0.033518798649311066, 0.07580553740262985, -0.006591553799808025, -0.06657329201698303, 0.03003431297838688, -0.055983275175094604, 0.02940598875284195, -0.04058102145791054, -0.01850256510078907, 0.06319630891084671, -0.04151584580540657, 0.047728441655635834, -0.0043568178080022335, 0.012315674684941769, 0.014169680885970592, -0.035071440041065216, 0.06861327588558197, 0.003272839356213808, 0.058644238859415054, 0.0006736312061548233, -0.050358548760414124, -0.05199970304965973, -0.03163022920489311, 0.0017530348850414157, 0.021023442968726158, -0.04305607080459595, -0.01427388470619917, 0.06335611641407013, 0.04099416732788086, 0.017431825399398804, -0.09220331162214279, -0.011571748182177544, 0.0405835323035717, -0.004725217819213867, 0.03230978548526764, 0.024249807000160217, 0.0033325115218758583, -0.06017613783478737, -0.014371145516633987, 0.0250603798776865, 0.010747671127319336, 0.07410168647766113, 0.002840505912899971, -0.24379689991474152, 0.015172240324318409, -0.03659897670149803, -0.009894602932035923, -0.015613882802426815, 0.0197796281427145, 0.020050019025802612, -0.009663251228630543, -0.06895072758197784, 0.01644965074956417, 0.031314969062805176, -0.026967240497469902, -0.016174867749214172, -0.0338456965982914, 0.07142195105552673, -0.02465408854186535, 0.04710948094725609, 0.037114135921001434, 0.030269421637058258, -0.021026436239480972, -0.0027648673858493567, 0.003791212569922209, 0.16956058144569397, -0.00888015516102314, -0.0331200547516346, 0.028584223240613937, 0.00407944293692708, 0.021399958059191704, -0.008393198251724243, 0.02359043061733246, -0.0624949187040329, -0.008565870113670826, 0.03418709337711334, -0.002992622321471572, -0.015239114873111248, -0.031208006665110588, 0.008958321996033192, -0.06949594616889954, -0.014914466999471188, -0.009387964382767677, -0.07110358029603958, 0.021458957344293594, 0.06722947955131531, 0.01569456420838833, 0.05283140018582344, -0.008791439235210419, -0.04360920935869217, -0.00044456994510255754, 0.04364224523305893, 0.021451253443956375, -0.04028872027993202, -0.0583985336124897, 0.003064171876758337, -0.035808417946100235, 0.02822803147137165, 0.039108261466026306, -0.015614064410328865, 0.0031423738691955805, -0.054978661239147186, 0.03737513720989227, 0.0730108693242073, -0.07378192245960236, -0.012620252557098866, -0.0006206341204233468, 0.02221386507153511]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>unacceptable_response_time_to_customer_issues</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Reception around the country could be improved for some reason I'll have 4g signal then it disappears for whatever reason\nReason for given NPS: Had an issue with an account &amp; no-one replied until I copied CEO in!!", "Improvement needed: Some communication. The first person I talked to about mixing up my broadband and mobile accounts wasn't able to explain what was happening very well. Consequently, the issue dragged on and created big problems for me.\nReason for given NPS: I never give anyone a ten. Also, I had some account difficulties (because i thought it was a scam - long story, didn't know I had two accounts with change from Trustpower) and got cut off which caused huge problems while travelling during very bad weather and road closures at night. However, a technician (Yulan???) was extremely helpful in sorting it all out for me.", 'Reason for given NPS: The only let down is the customer service at times', 'Improvement needed: Better call centre - making sure not transferred around various groups.\nReason for given NPS: Works well - no complaints!', 'Improvement needed: Customer service sometimes hard to engage with service\nReason for given NPS: Very useful service']</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[-0.04947187751531601, 0.0012151404516771436, 0.06528691202402115, 0.004832033067941666, -0.015056993812322617, -0.07608439773321152, -0.007992370054125786, 0.0195266455411911, 0.043909844011068344, -0.009548197500407696, -0.010255747474730015, 0.04405925050377846, 0.008462750352919102, 0.005494812969118357, 0.02643953263759613, 0.03146791830658913, 0.08674291521310806, -0.06165413185954094, 0.009343521669507027, 0.020923931151628494, 0.07460260391235352, -0.025080952793359756, -0.016542503610253334, 0.020905572921037674, -0.04392160847783089, -0.024506455287337303, -0.05041920021176338, -0.016208643093705177, -0.11394937336444855, -0.13612285256385803, -0.023596325889229774, -0.019074587151408195, 0.026766739785671234, -0.012675044126808643, 0.09141021966934204, -0.016208063811063766, -0.022053925320506096, -0.0491541288793087, 0.02364187128841877, 0.03417380526661873, 0.00459655374288559, 0.03945348411798477, -0.04278989136219025, -0.03043302707374096, -0.031765203922986984, -0.028504936024546623, 0.009697399102151394, -0.015350132249295712, 0.05168565735220909, -0.05976124480366707, -0.06446486711502075, 0.0006525442586280406, 0.02940794825553894, 0.014082280918955803, 0.03465775027871132, 0.061693694442510605, 0.07914099097251892, 0.0017655593110248446, 0.07457996904850006, -0.0215607900172472, 0.03947967663407326, -0.01378176361322403, -0.11626051366329193, 0.048923663794994354, -0.001483855303376913, 0.014917075634002686, 0.016490569338202477, -0.037012021988630295, -0.022687997668981552, 0.016384592279791832, -0.07279260456562042, -0.06212320923805237, -0.009959960356354713, 0.08236204087734222, 0.02878815308213234, 0.05154910311102867, -0.0026419167406857014, -0.03137414529919624, 0.07092513144016266, 0.029326342046260834, -0.002827450167387724, -0.009441454894840717, -0.02896277792751789, -0.045538194477558136, 0.02269923873245716, -0.06860006600618362, 0.007315704133361578, 0.06310494989156723, 0.04624733328819275, 0.055140770971775055, 0.04228613153100014, -0.047240257263183594, 0.001963383052498102, 0.03832691162824631, -0.06111639365553856, -0.06441333144903183, -0.03208533301949501, -0.007826977409422398, -0.10367115586996078, 0.3487735688686371, 0.0003019695868715644, 0.09411817789077759, -0.038868244737386703, -0.03646555542945862, 0.018114356324076653, -0.02771107293665409, 0.010343941859900951, -0.02889155223965645, -0.026899920776486397, 0.0018860003910958767, -0.010656430386006832, -0.041293948888778687, 0.06604078412055969, -0.03890823572874069, 0.020577849820256233, 0.09406350553035736, -0.004107647575438023, -0.029171673581004143, -0.04611106216907501, 0.004383221734315157, 0.013626255095005035, 0.040247704833745956, 0.007501878309994936, -0.04220902919769287, -0.005624508019536734, -0.019041970372200012, 0.008177674375474453, 0.08247366547584534, -0.045873187482357025, 0.05277528613805771, 0.04020722210407257, -0.017978783696889877, -0.015109242871403694, -0.007116182241588831, -0.04433469474315643, 0.014233780093491077, -0.014772119000554085, 0.03039465844631195, 0.08235833048820496, 0.01115146093070507, -0.01803392544388771, -0.13022196292877197, -0.054876264184713364, -0.010979627259075642, 0.02084113098680973, 0.10346853733062744, 0.010193107649683952, 0.028623564168810844, -0.030658969655632973, -0.03222246095538139, -0.06204695627093315, 0.04182806238532066, -0.00888700969517231, -0.061813537031412125, -0.01716163009405136, 0.02320871502161026, 0.014586635865271091, -0.024522235617041588, 0.0071669528260827065, -0.022968715056777, 0.09353874623775482, -0.032793618738651276, 0.013886949047446251, 0.046851810067892075, 0.02851412259042263, -0.061325859278440475, -0.0014521041885018349, -0.02147931605577469, -0.029189366847276688, 0.05588565021753311, -0.02304457686841488, -0.004438567440956831, -0.0016233579954132438, -0.01127967331558466, 0.07962485402822495, -0.03818099573254585, 0.010023620910942554, 0.025174973532557487, -0.008442142978310585, 0.057526975870132446, 0.031614672392606735, 0.05602188780903816, 0.030879994854331017, -0.010851728729903698, 0.0695880576968193, -0.010135664604604244, 0.001785657717846334, 0.00810051430016756, 0.03303440660238266, -0.0076802014373242855, -0.07820887118577957, -0.13552474975585938, -0.017683763056993484, -0.010994150303304195, -0.028625931590795517, -0.06767360121011734, 0.009892134927213192, 0.0026375851593911648, 0.07254248857498169, 0.000757076486479491, 0.07764585316181183, -0.0023008398711681366, -0.04887443408370018, 0.009837329387664795, 0.03184886649250984, 0.09325847774744034, -0.010914304293692112, -0.014935540035367012, 0.01779705286026001, 0.03814725577831268, -0.037014324218034744, -0.04140854254364967, 0.027955617755651474, -0.002743262331932783, -0.009150823578238487, 0.04197432100772858, 0.0265041533857584, 0.06697846204042435, 0.00684698298573494, 0.01467605959624052, 0.02361031249165535, 0.108473040163517, 0.04724499583244324, -0.298585444688797, 0.04060543328523636, -0.011272839270532131, -0.04454004392027855, -0.05062584578990936, 0.01619521901011467, 0.002051664749160409, -0.06021612510085106, 0.029474809765815735, 0.08696078509092331, 0.05515548586845398, 0.04567112773656845, 0.011541473679244518, -0.0830315425992012, -0.028599673882126808, -0.0039276499301195145, -0.029478879645466805, 0.055364105850458145, -0.007863682694733143, -0.05215365067124367, -0.04580619931221008, 0.010098686441779137, 0.0193479061126709, -0.06873215734958649, -0.02857428789138794, 0.016018467023968697, 0.18969225883483887, 0.008489910513162613, -0.08942952007055283, -0.0753457173705101, 0.027360735461115837, 0.07281352579593658, 0.016017410904169083, -0.06076277419924736, 0.059008363634347916, -0.0038441396318376064, -0.013104385696351528, 0.041949689388275146, 0.055003948509693146, 0.01111515425145626, -0.02047470211982727, 0.05004802718758583, 0.024478251114487648, -0.012218770571053028, 0.0332353413105011, 0.010504871606826782, 0.003969965036958456, 0.0177724901586771, -0.06588856875896454, -0.009702841751277447, -0.0019750974606722593, -0.045480627566576004, 0.01827085018157959, 0.05519455298781395, 0.06192595511674881, -0.02226693369448185, -0.05328859016299248, 0.02080717869102955, -0.014308774843811989, 0.015714112669229507, 0.012025595642626286, -0.03178923577070236, 0.04238547384738922, -0.01280174870043993, 0.0024223753716796637, -0.0018042062874883413, -0.008878051303327084, 0.001443986315280199, -0.03488445281982422, 0.014483880251646042, -0.0313701331615448, 0.05376607924699783, -0.041051529347896576, 0.0019570407457649708, 0.011185852810740471, 0.011017720215022564, -0.03743625804781914, -0.03696412220597267, -0.03146940469741821, -0.04069918394088745, 0.016271699219942093, 0.011029090732336044, 0.05675698071718216, 0.014402562752366066, 0.022058160975575447, 0.005552320275455713, -0.04675036296248436, 0.07238779217004776, 0.002334376098588109, -0.024729963392019272, -0.016319500282406807, -0.015973245725035667, -0.05038486793637276, -0.0010360678425058722, 0.06091506779193878, 0.026842331513762474, -0.23908530175685883, 0.017549805343151093, 0.023692768067121506, -0.014671689830720425, -0.004557367879897356, 0.10402265936136246, -0.016874607652425766, 0.004375819116830826, -0.10136007517576218, 0.00647805305197835, -0.08384983241558075, 0.07885438948869705, -0.0474385991692543, -0.026031792163848877, 0.03179722651839256, 0.04452453553676605, 0.012463729828596115, -0.04631964489817619, 0.01970634236931801, -0.04786953330039978, 0.020227663218975067, 0.0568762868642807, 0.11182713508605957, -0.006349224131554365, -0.02704884298145771, 0.02296222746372223, 0.011799708940088749, -0.01300477422773838, 0.01472318172454834, -0.022153452038764954, -0.052322518080472946, 0.008320966735482216, 0.061775077134370804, 0.016499441117048264, -0.013483809307217598, -0.0393378809094429, -0.027444640174508095, -0.04618912935256958, -0.007694103289395571, 0.007143302354961634, -0.03773249685764313, 0.027315378189086914, 0.0007698847912251949, 0.004758015740662813, 0.05571426451206207, -0.012478983029723167, -0.01851177029311657, -0.07989545911550522, -0.013115502893924713, -0.02428162842988968, -0.036435674875974655, -0.08277174085378647, -0.009148901328444481, 0.06581997871398926, 0.04126536846160889, 0.021511660888791084, -0.004068004433065653, -0.00848463550209999, -0.006588580086827278, -0.004199913702905178, 0.008906552568078041, -0.022954333573579788, 0.040573153644800186, -0.022688914090394974, -0.02433309517800808]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>lack_of_discounts_for_existing_customers</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Pricing deals for existing customers.\nReason for given NPS: The service provided is great but I feel I'm currently paying a lot for our broadband as our discount ended.", 'Improvement needed: Include marketing offers to existing customers\nReason for given NPS: Customer for many years, anytime l had a question or issue it was sorted very quickly', 'Improvement needed: Return of new phone + contact deals for existing (especially long-term) customers! Also, Google Pixel phones.\n', 'Reason for given NPS: Have been with Vodafone for 8 years. Hard to swi', 'Improvement needed: Should have more promotions or special\nReason for given NPS: Just ok']</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[-0.037403177469968796, -0.007935685105621815, 0.018652115017175674, 0.04784943535923958, -0.025507567450404167, -0.025875655934214592, -0.007574022281914949, 0.09047863632440567, 0.06320727616548538, 0.013133518397808075, 0.023597393184900284, 0.06886089593172073, -0.030678650364279747, 0.00021187301899772137, 0.02525770291686058, 0.0084763178601861, 0.06788124889135361, -0.04875678941607475, -0.04704749956727028, -0.012655127793550491, 0.030750706791877747, -0.11425862461328506, -0.04332374781370163, 0.023515859618782997, 0.0005841517122462392, -0.027598492801189423, -0.05129221826791763, -7.444448419846594e-05, -0.06099829450249672, -0.0750342309474945, 0.002991919871419668, -0.03213983774185181, 0.05415097624063492, 0.018302544951438904, 0.051258888095617294, -0.018832169473171234, -0.0014663556357845664, -0.039144691079854965, -0.0018459716811776161, 0.03462468087673187, 0.000952761503867805, 0.015179146081209183, -0.046391796320676804, 0.04444462060928345, -0.0026902093086391687, -0.010776219889521599, 0.013173519633710384, -0.018598053604364395, 0.07111160457134247, -0.016764413565397263, 0.07369357347488403, -0.0019008084200322628, -0.03935884311795235, -0.035287968814373016, -0.0026997688692063093, 0.032319460064172745, -0.04227760434150696, 0.030730389058589935, -0.019726159051060677, -0.0060639167204499245, 0.031179729849100113, -0.03574512526392937, -0.12274283915758133, -0.00218162196688354, -0.020007381215691566, 0.026773879304528236, -0.039089635014534, -0.042421720921993256, -0.013126039877533913, -0.005253955721855164, -0.013370540924370289, 0.0069491746835410595, -0.024087801575660706, 0.06747722625732422, 0.021021069958806038, -0.040372081100940704, 0.0204803217202425, 0.011675892397761345, 0.003550594439730048, 0.02091929130256176, 0.040095049887895584, -0.035220708698034286, -0.009764861315488815, 0.04250158369541168, -0.04218160733580589, -0.07027428597211838, 0.038229264318943024, -0.024013623595237732, 0.03157150745391846, -0.02587173879146576, 0.051571622490882874, 0.003859821707010269, 0.019013328477740288, 0.009176795370876789, -0.07881610095500946, -0.0029225375037640333, 0.0031458118464797735, 0.05716975778341293, -0.09646531939506531, 0.3882649838924408, 0.021114498376846313, 0.045984044671058655, 0.02246849797666073, -0.006858685053884983, 0.010090724565088749, -0.059975847601890564, -0.07923632115125656, 0.011011529713869095, 0.003471752628684044, 0.008463243022561073, -0.04879334941506386, 0.028011787682771683, 0.09673336893320084, -0.049543045461177826, 0.006506567820906639, 0.060646314173936844, -0.03336768224835396, -0.020394254475831985, 0.05005868524312973, 0.012360810302197933, 0.007365999277681112, 0.0140392379835248, 0.03234324976801872, 0.0064437054097652435, -0.027026081457734108, 0.007345178164541721, -0.006909813266247511, 0.09790007025003433, -0.007357203867286444, 0.010695195756852627, 0.030775468796491623, -0.06530465930700302, -0.02586136944591999, 0.010755712166428566, 0.0021503439638763666, -0.0222200695425272, -0.01706630550324917, 0.07785522192716599, 0.05329215154051781, 0.04270102083683014, 0.02021920122206211, -0.05915762856602669, -0.010115528479218483, -0.058966588228940964, 0.033163972198963165, 0.025179419666528702, 0.06060529500246048, 0.08067576587200165, -0.02462238445878029, 0.0016009754035621881, -0.024700652807950974, 0.01359535288065672, -0.036181531846523285, -0.0068858303129673, -0.026005234569311142, 0.023619236424565315, 0.0024096572306007147, -0.02866477333009243, -0.06858578324317932, 0.014013894833624363, 0.10625027865171432, -0.016249028965830803, -0.06215675175189972, 0.10557471215724945, -0.023843854665756226, -0.08028218150138855, 0.06775962561368942, 0.02014869824051857, -0.014875784516334534, 0.06113202124834061, -0.03976146876811981, 0.020710444077849388, -0.07661888748407364, -0.014573915861546993, 0.1933516561985016, -0.04245932772755623, -0.0518769808113575, 0.029298361390829086, -0.05829976499080658, 0.007851279340684414, 0.0004007337847724557, 0.015250875614583492, -0.017095137387514114, -0.022117214277386665, -0.005410082638263702, -0.08700855821371078, -0.0123045165091753, -0.03778805583715439, -0.020796164870262146, -0.032400842756032944, -0.09235319495201111, -0.08799901604652405, -0.07231036573648453, 0.019385602325201035, -0.005508083384484053, 0.015761764720082283, -0.017215855419635773, -0.030741171911358833, 0.07016398012638092, -0.005212392657995224, 0.025785602629184723, -0.047097716480493546, 0.02784213423728943, -0.0015448390040546656, 0.01843278482556343, 0.055546753108501434, 0.07367557287216187, 0.023818768560886383, 0.09462666511535645, -0.0046954769641160965, 0.016203394159674644, -9.923844481818378e-05, 0.05414819344878197, 0.027132248505949974, 0.01297043263912201, 0.05089745298027992, 0.03905177861452103, 0.024688106030225754, 0.04355720430612564, -0.03377145901322365, 0.03481451794505119, 0.10863625258207321, 0.051485877484083176, -0.29797855019569397, 0.04680817201733589, -0.005908983759582043, -0.05994502082467079, -0.022822845727205276, -0.003886663820594549, 0.047741785645484924, -0.016086498275399208, -0.047940291464328766, 0.09708347171545029, 0.030070239678025246, -0.023921281099319458, 0.008342903107404709, -0.004264875315129757, -0.008555252104997635, 0.008605658076703548, -0.009566676802933216, 0.000956492789555341, 0.04212164133787155, 0.0025533081497997046, -0.023621845990419388, 0.03355640918016434, 0.06308837234973907, -0.04110310971736908, 0.046026721596717834, 0.010616282001137733, 0.1537168025970459, -0.02569115161895752, -0.04046069458127022, -0.019032223150134087, -0.01928607188165188, 0.08355076611042023, -0.0419716015458107, -0.027425572276115417, 0.016948392614722252, 0.03127497062087059, -0.062274057418107986, -0.013004625216126442, 0.03682442754507065, -0.031523384153842926, 0.030179603025317192, 0.0383705273270607, -0.032343942672014236, -0.0054434905759990215, 0.02771386131644249, -0.029743317514657974, -0.02332596480846405, 0.10621809959411621, -0.06816654652357101, 0.04293576255440712, 0.005810089409351349, -0.009719956666231155, 0.021527959033846855, 0.009439367800951004, 0.04860758036375046, -0.012753303162753582, -0.050585873425006866, 0.012163324281573296, -0.04134165123105049, 0.041501469910144806, -0.00033162039471790195, -0.01572774350643158, 0.009488062933087349, -0.02321377955377102, 0.054694339632987976, -0.03369281813502312, 0.0016794520197436213, 0.015447927638888359, -0.012180843390524387, 0.04977477714419365, -0.04596972465515137, 0.011003384366631508, -0.006806802470237017, -0.07205051928758621, -0.08458082377910614, -0.02698473632335663, -0.006643496919423342, 0.002668451052159071, -0.009272038005292416, -0.04183153808116913, -0.021419707685709, -0.011219220235943794, 0.026617122814059258, 0.05313410237431526, -0.013083587400615215, 0.07159921526908875, 0.03129388391971588, 0.001342447125352919, -0.00031531931017525494, -0.036556411534547806, -0.05362318828701973, -0.018687747418880463, -0.00581794697791338, 0.033082377165555954, 0.07417364418506622, -0.022420460358262062, -0.21727102994918823, 0.014184110797941685, -0.02780584804713726, -0.01919158361852169, 0.027056045830249786, 0.052616186439991, -0.0048444839194417, -0.02557556889951229, -0.07020870596170425, -0.007948228158056736, 0.04385615885257721, 0.002913577016443014, -0.026916731148958206, -0.07782932370901108, 0.0643971711397171, 0.044754862785339355, 0.035006649792194366, -0.014235492795705795, 0.04187622666358948, -0.02588789351284504, 0.030637608841061592, 0.03256247565150261, 0.14726756513118744, 0.029231302440166473, -0.05443345382809639, -0.0037019113078713417, -0.06302250176668167, -0.010614562779664993, -0.00808426272124052, 0.03516740724444389, -0.07686809450387955, -0.02327992022037506, 0.06370829790830612, -0.028748229146003723, -0.02006516605615616, -0.017142701894044876, -0.04056005924940109, -0.04508354142308235, 0.02609536424279213, -0.025526341050863266, -0.07697901129722595, -0.033830221742391586, -0.044693924486637115, 0.008245429955422878, 0.05803951621055603, 0.007498129270970821, -0.012081421911716461, -0.03628355637192726, 0.014481605961918831, -0.008201313205063343, 0.009032536298036575, -0.058447811752557755, 0.019534261897206306, 0.005092523526400328, 0.02808147668838501, -0.027361441403627396, -0.0855611190199852, 0.01698245108127594, 0.024651754647493362, -0.03533836826682091, -0.012460370548069477, -0.027268340811133385, 0.015821250155568123, -0.028806231915950775, 0.022869018837809563]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>inconsistent_cellular_data_coverage</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Reception around the country could be improved for some reason I'll have 4g signal then it disappears for whatever reason\nReason for given NPS: Had an issue with an account &amp; no-one replied until I copied CEO in!!", 'Improvement needed: Internet\nReason for given NPS: Because we live at Maungatapere and have endest problems with One NZ', 'Improvement needed: All reasonably good, looking forward to improved coverage next year, but I understand from commerce commission complaint that phone coverage made nor be nz wide until later years\nReason for given NPS: The phone keeps dropping calls when I am at home in appleby,', 'Improvement needed: I thing that my tired brain can think of\nReason for given NPS: Sometimes lately the reception has not been the best', 'Improvement needed: sometime, it’s very rare, the signal not working, which mean like no signal at all, but it’s very rare.\nOnes I restart the phone, it will be alright\nReason for given NPS: Who are the ladies good? Good signal sometimes. Small small problems comes. But still it’s alright.']</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[-0.023339107632637024, -0.022537890821695328, 0.014668350107967854, -0.018752887845039368, 0.03303512558341026, -0.048960015177726746, -0.04605035483837128, 0.040435247123241425, 0.06471787393093109, -0.026666047051548958, 0.04224399849772453, -0.020714828744530678, 0.049821894615888596, 0.03637612983584404, 0.02622765302658081, 0.07784245163202286, 0.04111017659306526, -0.04444514214992523, -0.007142294198274612, 0.004046991933137178, 0.026508597657084465, -0.05221685394644737, 0.0035032746382057667, 0.003339265240356326, 0.008191274479031563, 0.04239257797598839, -0.04857230931520462, 0.018079712986946106, -0.05247294157743454, -0.18101881444454193, -0.02402048371732235, -0.04054192453622818, -0.014423167333006859, 0.05198199674487114, 0.06726185232400894, -0.019358301535248756, -0.020077921450138092, 0.03567192703485489, 0.03244582191109657, 0.07585632801055908, -0.054031047970056534, 0.031186934560537338, -0.05934074893593788, 0.005171921104192734, -0.04802967235445976, -0.037293143570423126, -0.015410489402711391, 0.051264140754938126, 0.0564139261841774, -0.03673780709505081, -0.025290317833423615, 0.003901453921571374, 0.02507149800658226, 0.023778337985277176, 0.03187037259340286, 0.059875570237636566, 0.07582699507474899, 0.07493631541728973, 0.033183399587869644, 0.03849783539772034, 0.021843578666448593, 0.012504030019044876, -0.11501223593950272, 0.07241260260343552, 0.043550699949264526, -0.05443790555000305, -0.02346823550760746, -0.07537621259689331, 0.01593102142214775, -0.03318633511662483, -0.009425695985555649, -0.0004052098374813795, 0.011576103046536446, 0.075510673224926, 0.03955964744091034, 0.02769869938492775, -0.054274510592222214, 0.017445217818021774, -0.0002383413229836151, 0.041775256395339966, -0.008512096479535103, -0.045104123651981354, 0.0101716173812747, 0.016545133665204048, 0.001263338141143322, -0.07076747715473175, -0.03878988325595856, 0.0002799260546453297, -0.026799309998750687, -0.026391157880425453, -0.03691556304693222, 0.03120942786335945, -0.003208847949281335, 0.04759770259261131, -0.06287086009979248, -0.018775898963212967, 0.04074166342616081, -0.0037138955667614937, -0.060455337166786194, 0.32291433215141296, 0.004299236927181482, 0.006763360928744078, 0.045493606477975845, 0.08683846890926361, -0.03771297261118889, -0.07744087278842926, -0.0653846338391304, -0.044129129499197006, -0.039325542747974396, 0.05770983174443245, 0.01972523145377636, -0.054296113550662994, -0.014424019493162632, -0.057003650814294815, -0.009305383078753948, 0.03924012929201126, 0.03373376652598381, -0.025855524465441704, -0.03356229513883591, 0.04278086498379707, -0.05413699150085449, -0.06386776268482208, 0.04412560164928436, 0.0009955894201993942, 0.042794644832611084, 0.019015368074178696, 0.018781980499625206, 0.08930496126413345, -0.017612043768167496, 0.0027529324870556593, -0.0034376804251223803, 0.06268283724784851, -0.03485293686389923, -0.0034149547573179007, -0.022770725190639496, 0.023653047159314156, -0.006352029740810394, 0.023923397064208984, 0.03467759117484093, 0.007238707505166531, -0.018063195049762726, -0.029026368632912636, -0.003531821770593524, -0.043799348175525665, 0.019825052469968796, 0.11522497981786728, -0.07648678123950958, 0.09121844917535782, 0.01164712943136692, -0.09400885552167892, -0.011444926261901855, 0.0149458646774292, 0.07769671082496643, -0.012577628716826439, -0.021358784288167953, 0.05280951410531998, -0.04638058319687843, 0.022148901596665382, 0.0067460862919688225, -0.02867605909705162, 0.020333008840680122, -0.013538135215640068, -0.011192437261343002, 0.12503108382225037, -0.03353068605065346, -0.007717661093920469, 0.009492992423474789, 0.0006717353244312108, -0.030172182247042656, -0.01999773271381855, 0.0066991341300308704, 0.009994549676775932, 0.01814989000558853, 0.027601459994912148, -0.02331876941025257, -0.052839260548353195, -0.11649550497531891, 0.03847949579358101, -0.009570919908583164, -0.007489419542253017, -0.01029723510146141, 0.01457691565155983, -0.020410791039466858, 0.0305140633136034, 0.016105875372886658, -0.05634472519159317, -0.029728787019848824, 0.02530110813677311, 0.05257317051291466, -0.00498514249920845, -0.076676145195961, -0.08110664784908295, -0.02044617012143135, -0.050370022654533386, -0.007227777037769556, -0.10312420129776001, 0.010661627165973186, -0.01821373775601387, 0.030081823468208313, -0.05900171771645546, 0.07673563808202744, -0.017185552045702934, 0.01599091850221157, 0.023682700470089912, -0.04902376979589462, 0.046883147209882736, -0.05379530414938927, -0.007183372974395752, 0.05322737991809845, 0.01170132402330637, 0.007240631617605686, -0.04129320755600929, -0.011894335970282555, -0.01348764169961214, 0.005520760081708431, 0.03506103530526161, -0.015290563926100731, 0.04660618677735329, 0.085988350212574, 0.05974166840314865, -0.050095945596694946, 0.07896926254034042, 0.004410082474350929, -0.2866242527961731, -0.03664170950651169, -0.0045136576518416405, 0.005656910594552755, -0.12327001988887787, 0.019923046231269836, 0.01642339490354061, 0.028294825926423073, -0.013613053597509861, 0.10213169455528259, 0.02634289674460888, 0.0564984492957592, -0.06018127128481865, -0.009177811443805695, -0.013507712632417679, 0.002328034956008196, -0.001503593404777348, 0.03547099977731705, -0.024093972519040108, -0.010786674916744232, 0.011259370483458042, -0.016319341957569122, -0.007902085781097412, -0.07329544425010681, 0.07295653223991394, 0.0018864271696656942, 0.16906532645225525, 0.012361224740743637, -0.053978826850652695, -0.004334902390837669, 0.07020072638988495, 0.07389527559280396, -0.04138891026377678, -0.0519891120493412, 0.03497356176376343, 0.002945519983768463, -0.026434890925884247, 0.037085697054862976, -0.024508940055966377, -0.045911386609077454, -0.012060759589076042, 0.051512230187654495, 0.0028927638195455074, -0.05607994645833969, 0.056010857224464417, -0.022578515112400055, -0.03416787460446358, 0.021282335743308067, -0.07453426718711853, -0.04358085244894028, -0.02846299298107624, -0.059911660850048065, 0.06301433593034744, -0.0018487413180992007, 0.08652115613222122, 0.004847835283726454, -0.060236793011426926, 0.05529974028468132, -0.04703573137521744, 0.0015406134771183133, -0.003289923770353198, -0.0477127879858017, 0.04105835035443306, -0.033729296177625656, 0.053018663078546524, -0.05129033327102661, -0.04261629283428192, -0.020970558747649193, -0.015730740502476692, 0.0420466847717762, -0.0035523725673556328, 0.021469974890351295, -0.021657703444361687, 0.03429415449500084, -0.007509302813559771, -0.013233317993581295, 0.02024235390126705, -0.0046748388558626175, -0.0005800846265628934, -0.016922343522310257, 0.07959864288568497, 0.006177110597491264, 0.04390459135174751, -0.015305018052458763, 0.010961657389998436, 0.00043696878128685057, 0.021593980491161346, 0.04936712607741356, 0.10263948887586594, 0.003024939214810729, -0.0004636525409296155, 0.02373533509671688, -0.004342274274677038, -0.03861022740602493, 0.08253493160009384, -0.02595135010778904, -0.23465241491794586, -0.023545343428850174, -0.02678602933883667, 0.01627475395798683, -0.037209056317806244, -0.026858296245336533, -0.00959982443600893, 0.003389132209122181, -0.05936509370803833, 0.00938593503087759, -0.024004409089684486, 0.0186317078769207, 0.034387510269880295, -0.04432830587029457, 0.033577173948287964, 0.05161946639418602, 0.003439190797507763, -0.03199059143662453, -0.062147967517375946, -0.015289098024368286, 0.09210021793842316, -0.014751292765140533, 0.1476258784532547, -0.04160593822598457, -0.0008312889840453863, 0.06927376985549927, -0.006919146981090307, 0.07607842981815338, 0.018619777634739876, 0.024470066651701927, -0.054633963853120804, -0.03757776692509651, 0.05273197591304779, 0.04076351970434189, -0.005770010408014059, 0.032315943390131, 0.060432855039834976, -0.031574804335832596, -0.006101368926465511, -0.025056496262550354, 0.007380237802863121, 0.04422321915626526, -0.009811016730964184, 0.01647387631237507, 0.07192202657461166, -0.03373601287603378, -0.004363804589956999, -0.007578409276902676, 0.0049758534878492355, 0.01599828712642193, -0.0845239907503128, -0.0686982125043869, -0.035366032272577286, -0.023466458544135094, 0.016703149303793907, 0.04202992096543312, -0.0945451408624649, -0.02740972675383091, -0.025193383917212486, 0.020044825971126556, 0.03222145885229111, -0.04178696870803833, -0.009549977257847786, -0.00593698350712657, 0.020320184528827667]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>need_better_special_pricing_deals</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Prices, better deals\nReason for given NPS: Alright phone service provider, prices are a bit high atm but otherwise fine', 'Improvement needed: Should have more promotions or special\nReason for given NPS: Just ok', 'Improvement needed: better plans &amp; deals\nReason for given NPS: One NZ is good but now it seems the plans are too expensive. Customer service is good when I need assistance.', 'Improvement needed: Unsure. Happy with service it provides. Maybe a prompt payment discount:)\nReason for given NPS: Reliable service. Uptosate technology. Helpful staff that will problem solve and find solutions.']</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[-0.014678845182061195, -0.05349327623844147, 0.01414481271058321, 0.016269298270344734, 0.004085204564034939, -0.059487275779247284, -0.024141913279891014, 0.07606195658445358, 0.03761747106909752, -0.004986998159438372, 0.027986392378807068, 0.05238502100110054, -0.003292832290753722, 0.06469575315713882, 0.06299030035734177, 0.033336091786623, 0.04897550866007805, -0.0450158528983593, -0.1211155354976654, 0.05854588374495506, 0.048517145216464996, -0.038210783153772354, -0.0027986206114292145, 0.007725046947598457, -0.005371005740016699, -0.06055868789553642, -0.049696557223796844, -0.04343904182314873, -0.03547026962041855, -0.1111799031496048, 0.013388660736382008, 0.023762596771121025, 0.06377584487199783, 0.015606317669153214, 0.0394868329167366, -0.031562987715005875, -0.06197255477309227, -0.06365624070167542, -0.010663001798093319, 0.03133295848965645, 0.023659735918045044, -0.0004063202941324562, -0.08110730350017548, 0.0169382281601429, -0.045326873660087585, 0.0036712095607072115, -0.03909704089164734, 0.014196839183568954, 0.023921076208353043, 0.03064434602856636, 0.016982736065983772, -0.018452854827046394, -0.051307689398527145, -0.02878679893910885, 0.018346384167671204, 0.0437113456428051, -0.0045882584527134895, 0.017639702185988426, 0.026466207578778267, 0.012981980107724667, 0.025224769487977028, 0.018400711938738823, -0.12205097079277039, -0.006497665774077177, -0.0025999972131103277, -0.043947894126176834, -0.0035548130981624126, 0.021006695926189423, -0.029030172154307365, 0.09670987725257874, 0.02732904814183712, -0.03123873472213745, 0.003267881227657199, 0.0650247186422348, 0.00763494148850441, -0.055766671895980835, 0.011949398554861546, -0.003398133208975196, -0.012062214314937592, 0.007888376712799072, -0.005720846354961395, -0.027748296037316322, -0.009440584108233452, -0.04006274789571762, -0.00866987556219101, -0.10251124203205109, 0.11912831664085388, 0.03318816050887108, 0.07175286114215851, -0.005295673385262489, 0.06436684727668762, -0.013352511450648308, 0.009086466394364834, 0.027558203786611557, -0.10224418342113495, 0.037132833153009415, 0.026171905919909477, 0.026145584881305695, -0.08839749544858932, 0.364237904548645, 0.02119399979710579, 0.04511324316263199, 0.003939769230782986, -0.03891332447528839, 0.007516477257013321, -0.03271622210741043, -0.04444415867328644, 0.04165559262037277, -0.031479839235544205, 0.008588862605392933, -0.034944407641887665, 0.02909543178975582, 0.029246505349874496, -0.058860111981630325, -0.026396995410323143, 0.04837656021118164, 0.014089611358940601, -0.05474456027150154, 0.03805460035800934, -0.02913557179272175, 0.001338759670034051, -0.0047829109244048595, 0.02874760888516903, 0.006885983515530825, -0.04784126952290535, -0.04191872850060463, 0.007241178769618273, 0.09500092267990112, 0.01563171111047268, 0.041126903146505356, 0.025311624631285667, -0.07481290400028229, 0.00629012193530798, 0.014650843106210232, 0.023679226636886597, 0.007886388339102268, -0.024506384506821632, 0.05043522268533707, 0.01373045239597559, 0.043273814022541046, -0.06817108392715454, -0.04868985339999199, -0.03354521095752716, -0.11123094707727432, -0.04222274571657181, 0.05619729682803154, -0.021803423762321472, 0.032618653029203415, -0.033159125596284866, -0.060411784797906876, -0.06627055257558823, -0.002236324595287442, -0.01283731497824192, -0.023176847025752068, -0.01451654639095068, -0.0017846990376710892, 0.043300811201334, -0.024297021329402924, -0.06598535180091858, -0.025332996621727943, 0.0632631927728653, -0.03337014093995094, -0.053193844854831696, 0.07682795822620392, -0.00773806544020772, -0.08371447771787643, 0.012872127816081047, -0.046304937452077866, -0.05494073033332825, 0.022644106298685074, -0.07191003113985062, 0.06254731118679047, -0.043679606169462204, 0.03871778026223183, 0.13505856692790985, -0.03630225732922554, -0.048717841506004333, 0.023917831480503082, -0.07050852477550507, -0.017172640189528465, 0.02938443422317505, 0.004898051265627146, -0.06787852942943573, 0.00992334634065628, 0.019441356882452965, -0.10029143840074539, 0.00751531682908535, 0.029801979660987854, 0.014804186299443245, 0.005347870290279388, -0.05055529251694679, -0.012436355464160442, -0.04949714243412018, 0.09178579598665237, 0.0064392052590847015, 0.020181212574243546, -0.02965129353106022, 0.02010617032647133, 0.025432642549276352, -0.04129031300544739, 0.012702863663434982, -0.07052520662546158, -0.04437971115112305, 0.013565810397267342, 0.037905286997556686, 0.05583863705396652, 0.041876088827848434, -0.0013241178821772337, 0.04926808923482895, -0.007653569802641869, 0.018443964421749115, 0.014213948510587215, 0.04714452102780342, -0.01826835423707962, -0.06125551089644432, 0.016079017892479897, 0.028135308995842934, 0.0487026683986187, -0.011016491800546646, -0.0037263312842696905, 0.0031138001941144466, 0.0884312242269516, 0.0526641421020031, -0.31052058935165405, 0.06534051895141602, -0.03866308927536011, -0.06539439409971237, -0.0052250162698328495, 0.0024329309817403555, 0.05360792204737663, 0.006669830530881882, -0.022646473720669746, 0.16758304834365845, 0.010124790482223034, -0.03728888928890228, 0.009649010375142097, -0.06604958325624466, 0.01485441904515028, 0.0277809277176857, -0.012054289691150188, 0.06634319573640823, 0.08003262430429459, 0.028402384370565414, -0.019088543951511383, 0.031614795327186584, 0.03587663546204567, -0.031691718846559525, 0.03891998901963234, 0.03559563681483269, 0.1701156347990036, -0.005912018474191427, -0.022435322403907776, -0.048570599406957626, 0.053600769490003586, 0.04303840175271034, -0.01298871636390686, -0.005413041915744543, 0.025059424340724945, 0.01569843664765358, -0.008261631242930889, 0.01622720994055271, 0.011057798750698566, -0.03513277694582939, -0.0014503425918519497, 0.03193753585219383, -0.029055198654532433, -0.02846580184996128, -0.010384726338088512, 0.011868664994835854, -0.016849694773554802, 0.060892317444086075, -0.0033914519008249044, 0.06889910995960236, -0.016202664002776146, -0.0292072631418705, 0.025293976068496704, -0.02464781515300274, 0.07020661979913712, 0.00808439776301384, -0.035594288259744644, -0.022624846547842026, -0.05892151966691017, 0.018876221030950546, -0.0040294695645570755, -0.02544398419559002, 0.031326599419116974, -0.02809295430779457, 0.03161308169364929, -0.004078924190253019, 0.046525441110134125, -0.025655265897512436, -0.08044148981571198, 0.04904049262404442, -0.01245734840631485, -0.009133398532867432, -0.017991911619901657, -0.015716640278697014, -0.018532944843173027, 0.02781192772090435, 0.013712501153349876, 0.03967263549566269, -0.022045724093914032, -0.012689090333878994, 0.02149844728410244, 0.039038415998220444, 0.03607196733355522, 0.0072022415697574615, -0.009213011711835861, 0.04239072650671005, 0.04291693866252899, -0.02272917330265045, -0.00860871933400631, -0.031697891652584076, -0.0577799528837204, 0.011883581057190895, -0.0061274035833776, 0.021655725315213203, 0.07477990537881851, -0.003050844185054302, -0.2194710373878479, 0.021046847105026245, 0.0110872657969594, -0.014088292606174946, 0.004760410636663437, 0.055749859660863876, -0.01954328455030918, -0.053807634860277176, -0.04405258968472481, -0.01987423188984394, 0.022182924672961235, 0.04539495334029198, -0.05155784636735916, -0.02326052263379097, 0.03855636343359947, -0.010856789536774158, 0.046128127723932266, -0.01700538583099842, 0.03714550659060478, 0.04468850791454315, 0.013284655287861824, 0.0018181606428697705, 0.1844596266746521, 0.021049434319138527, -0.06274213641881943, -0.011673899367451668, -0.05186004191637039, 0.012531379237771034, 0.04197036102414131, -0.0003650932922028005, -0.04906833916902542, 0.004216896835714579, 0.010404442436993122, -0.03240589424967766, 0.036178313195705414, 0.021567758172750473, -0.009580266661942005, -0.05782511830329895, 0.023676646873354912, 0.033098217099905014, -0.056400712579488754, 0.011077784933149815, -0.07735616713762283, 0.016428114846348763, 0.08456947654485703, -0.0025163721293210983, -0.006305348128080368, -0.017818737775087357, 0.018066201359033585, -0.007183303125202656, -0.04411367326974869, -0.037758611142635345, -0.024845687672495842, 0.007232322823256254, -0.0009011600632220507, 0.026541737839579582, -0.04132896661758423, 0.043182771652936935, 0.026264920830726624, 0.005336626432836056, -0.03730661794543266, -0.03145187348127365, -0.04459267109632492, 0.00048697926104068756, -0.003695449326187372]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>reluctance_to_upgrade_neighborhood_to_fiber</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['Improvement needed: We are still on copper broadband,  and I understand there is great reluctance to upgrade our entire road (about 100 houses) to fiber. Millington Road, Whangarei 0179.\nReason for given NPS: No complaints. Simple.', 'Improvement needed: Fibre to rural areas or vdsl broadband at Fibre prices we live 10minutes out of central nelson and not expected to have Fibre for the next few years\nReason for given NPS: Service has been consistent and even time I enter a store the staff are always helpful', 'Improvement needed: Information on fibre and and how to get it sorted to improve on what we have now\nReason for given NPS: Costly and slow Internet, not on fibre', 'Improvement needed: I live in Broadwood 0491, My mobile phone gets NO service, our internet drops out regularly and if there is any kind of storm its a joke. I have purchased a Starlink system and once i have installed it I shall cancel my account. Ive been with your company for years and the service over the pass few years has gotten worse.\nReason for given NPS: Your service goes down most days and when it is up the speed is terrible and opening a page on the internet can take ages to load.']</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[-0.021947583183646202, -0.05685604736208916, 0.01735706813633442, 0.00955298263579607, 0.04139554873108864, -0.03422917053103447, -0.08249945193529129, 0.02935701049864292, 0.01637224107980728, 0.033769141882658005, 0.042568475008010864, -0.03485472500324249, 0.01757282204926014, -0.0183031614869833, 0.020712990313768387, 0.042830631136894226, 0.038728199899196625, -0.01986580900847912, -0.06462053209543228, 0.02371479570865631, 0.04876519367098808, -0.059140462428331375, 0.05111432820558548, -0.05637110024690628, 0.004811032209545374, -0.0030250607524067163, -0.011794468387961388, -0.020051129162311554, -0.06572972238063812, -0.14769044518470764, 0.013738802634179592, -0.012173768132925034, 0.04235082492232323, 0.0185939222574234, 0.033708356320858, -0.07369479537010193, 0.0001958266948349774, -0.03500613570213318, -0.08297164738178253, 0.0846601277589798, 0.004165811464190483, 0.04600144177675247, -0.06223427504301071, 0.03941528871655464, -0.05794195830821991, -0.024739854037761688, 0.03679356724023819, 0.0181270744651556, 0.04485045000910759, -0.017287591472268105, 0.010379530489444733, 0.002467329381033778, -0.06913886219263077, -0.03310619667172432, -0.003518800251185894, 0.060126904398202896, 0.030892666429281235, 0.014841010794043541, 0.02920444682240486, 0.021096209064126015, 0.05306962504982948, 0.04225192591547966, -0.12002339214086533, 0.05436835065484047, 0.06826629489660263, -0.01600808836519718, 0.03326118737459183, -0.02954249270260334, -0.002229135949164629, 0.006281151436269283, -0.030065935105085373, 0.01947939209640026, -0.030198419466614723, 0.04368773102760315, 0.04730512574315071, 0.021571045741438866, -0.007461209781467915, 0.02599596232175827, 0.013423694297671318, 0.06851053982973099, 0.0259159617125988, -0.03753942251205444, -0.06499388813972473, -0.04446924850344658, -0.01809767261147499, -0.056983329355716705, -0.037900544703006744, 0.008017824962735176, -0.023372218012809753, 0.05333426222205162, -0.030718442052602768, -0.057160962373018265, 0.01623493991792202, -0.00793200358748436, -0.07100746780633926, -0.04582292586565018, -0.006459382362663746, -0.0007264844025485218, -0.005397127475589514, 0.373748242855072, 0.004644449800252914, -0.005358216352760792, -0.006093836389482021, -0.001129900454543531, 0.11034785956144333, -0.010362708009779453, -0.013064460828900337, 0.045862775295972824, 0.018641766160726547, -0.002090848283842206, -0.009603156708180904, 0.009341886267066002, 0.03238416090607643, 0.05195055902004242, 0.03517599031329155, 0.022231778129935265, -0.046825189143419266, 0.01889309473335743, -0.017963096499443054, 0.017272204160690308, -0.04196695610880852, 0.001855753711424768, 0.03771349415183067, -0.0458453930914402, 0.027956802397966385, -0.03402765840291977, 0.005911482963711023, 0.04563983157277107, 0.030260693281888962, 0.051811281591653824, -0.06911439448595047, -0.005603978410363197, -8.976094977697358e-05, -0.03658542409539223, -0.00189005839638412, 0.024207593873143196, 0.02661408670246601, 0.023770295083522797, 0.014306814409792423, 0.02172497846186161, -0.03963093459606171, -0.008544457145035267, 0.01967751234769821, -0.03778649494051933, 0.03071647696197033, 0.0877009853720665, -0.041596751660108566, 0.03493156284093857, -0.005150787066668272, -0.04951554909348488, 0.012949596159160137, -0.01559037808328867, -0.031012333929538727, -0.0622401088476181, -0.05510128661990166, 0.007756149861961603, 0.030125537887215614, 0.011129768565297127, -0.03056143969297409, 0.012224939651787281, 0.033052168786525726, -0.010147388093173504, -0.03867076709866524, 0.0711909681558609, 0.017737071961164474, -0.05128420889377594, -0.056894540786743164, -0.017314042896032333, -0.014512257650494576, 0.042638618499040604, -0.01682383567094803, 0.0006693094037473202, 0.009233066812157631, 0.013573147356510162, 0.061626944690942764, -0.025905027985572815, -0.10560065507888794, -0.01035638153553009, 0.011153683066368103, 0.006586790084838867, 0.040636636316776276, -0.030135946348309517, -0.03731272742152214, 0.0038288563955575228, 0.015211263671517372, -0.0392911322414875, -0.0475698821246624, 0.01421720813959837, -0.005258793476969004, -0.037346791476011276, -0.11103849112987518, -0.009680207818746567, -0.06931865215301514, -0.029477901756763458, 0.04512545466423035, -0.0239543654024601, -0.02992306463420391, 0.0329037569463253, 0.003426704555749893, -0.03726697713136673, 0.07316356897354126, -0.015758587047457695, -0.03770545870065689, -0.018756408244371414, -0.07988063246011734, 0.011396718211472034, 0.02619282715022564, -0.017553670331835747, 0.054497212171554565, 0.02576659619808197, 0.0025020046159625053, -0.036356642842292786, 0.0926860049366951, 0.02911001443862915, -0.05815080180764198, -0.003931842744350433, -0.05810651555657387, 0.033198390156030655, 0.06144264340400696, 0.04885397106409073, -0.011677957139909267, 0.10536934435367584, -0.054304469376802444, -0.3259238004684448, -0.011917014606297016, 0.029026173055171967, -0.050110384821891785, 0.021603118628263474, -0.04008185490965843, 0.0534992441534996, -0.006727887317538261, -0.025948503986001015, 0.049746762961149216, 0.025222165510058403, -0.0009201771463267505, 0.043960925191640854, 0.01006370224058628, 0.02372339740395546, -0.01123692374676466, 0.03274865448474884, 0.034747783094644547, 0.012540854513645172, 0.03541650250554085, 0.002588656498119235, 0.043937794864177704, -0.022785361856222153, -0.04196273535490036, -0.00458998279646039, 0.010513012297451496, 0.14006051421165466, -0.008293394930660725, 0.007581835612654686, -0.03454817831516266, 0.04167812317609787, 0.06651510298252106, -0.007927303202450275, -0.07988466322422028, -0.003501367988064885, 0.05347217246890068, 0.02846790850162506, -0.008029944263398647, -0.016156719997525215, 0.027542702853679657, 0.0008127990295179188, 0.02087676338851452, -0.0006034165853634477, -0.04566523805260658, 0.01571127586066723, -0.04688218608498573, 0.009207755327224731, 0.038410644978284836, -0.04276450350880623, 0.03724499046802521, 0.024081498384475708, 0.001872355118393898, 0.08146212995052338, 0.035763051360845566, 0.02370244450867176, -0.0288542527705431, -0.027609942480921745, 0.04263359680771828, 0.06914085149765015, -0.04607589542865753, 0.019817611202597618, -0.011536430567502975, 0.0165557861328125, -0.10911279916763306, 0.08960707485675812, 0.03268241509795189, 0.004931118804961443, -0.004503860138356686, 0.017678024247288704, 0.07913418114185333, 0.02795982174575329, 0.024319753050804138, -0.029418310150504112, 0.027556756511330605, -0.0191640704870224, 0.013468715362250805, -0.034141648560762405, 0.017063267529010773, 0.018935296684503555, -0.08740556240081787, 0.08007003366947174, -0.028006285429000854, 0.0212058424949646, -0.03441012278199196, -0.01648113876581192, -0.0037627778947353363, -0.0038615483790636063, 0.03096952848136425, -0.02012559026479721, -0.0010050989221781492, -0.044833697378635406, 0.009127783589065075, -0.0739617869257927, -0.03346111997961998, 0.04683035984635353, -0.020906057208776474, -0.2769412398338318, -0.03545882925391197, 0.07763844728469849, -0.040549807250499725, -0.08060209453105927, 0.028189318254590034, 0.04868397116661072, -0.014032403007149696, -0.07183872163295746, 0.03580440580844879, -0.057920221239328384, 0.014863031916320324, -0.057103924453258514, -0.037629444152116776, 0.08376262336969376, -0.018486617133021355, 0.03943486511707306, 0.04579746350646019, 0.012362468056380749, -0.05329679697751999, 0.03166097775101662, -0.01784835197031498, 0.16959866881370544, 0.01910521276295185, 0.016790950670838356, 0.03958760201931, -0.03573320060968399, 0.009705441072583199, -0.011864988133311272, -0.026437193155288696, -0.05404869467020035, 0.045596178621053696, 0.029522227123379707, -0.06357889622449875, 0.0026165887247771025, -0.021223224699497223, 0.009514124132692814, -0.07793072611093521, -0.004505906254053116, -0.013284805230796337, 0.006081721745431423, 0.08118351548910141, -0.07698211073875427, 0.016048720106482506, 0.07461864501237869, 0.004298272076994181, 0.026155292987823486, 0.05208631977438927, -0.035865917801856995, -0.020850416272878647, 0.032241303473711014, -0.014710328541696072, 0.03711606189608574, 0.004264731425791979, 0.00983957014977932, 0.06341603398323059, -0.058242861181497574, -0.0052920798771083355, -0.02828187309205532, 0.017630478367209435, 0.0005419349763542414, -0.05604899674654007, 0.021986117586493492, 0.004136149771511555, 0.019551832228899002]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>dissatisfaction_with_speed_after_brand_change</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Broadband should be faster as the the Vodafone to worth with the money I pay\nReason for given NPS: Before when it was with Vodafone it was worth paying the bills it was faster as the agreement as soon as the time that ONE NZ start maaan it was really bad slow 🤦🏽\u200d♀️… when I call and report how many times and nothing change it still the same so I’m thinking of change to another company', 'Improvement needed: Fix the reception and connectivity problem since the switch from Vodafone.  A lower price for mobile and wifi for single people living alone.\nReason for given NPS: Very expensive for just a mobile and wifi (over $120 a month), and after the switch from Vodafone to OneNZ my general mobile reception, wifi speed and connectivity has decreased.', "Improvement needed: Stop trying to be inclusive. I am not Māori, although lots of my best friends are, so please do not address correspondence with Māori terms.  I am not Chinese or Indian, but friends who are find it offensive.\nThe performance of my mobile and internet appears to have deteriorated since the change over, and I don't understand why.\n", 'Improvement needed: I live in Broadwood 0491, My mobile phone gets NO service, our internet drops out regularly and if there is any kind of storm its a joke. I have purchased a Starlink system and once i have installed it I shall cancel my account. Ive been with your company for years and the service over the pass few years has gotten worse.\nReason for given NPS: Your service goes down most days and when it is up the speed is terrible and opening a page on the internet can take ages to load.']</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[-0.053072940558195114, -0.01426200196146965, 0.02028685063123703, 0.05412992462515831, -0.047186512500047684, -0.009799261577427387, -0.029978619888424873, 0.04517270252108574, 0.07398737967014313, -0.016414489597082138, 0.013791369274258614, 0.0016826009377837181, 0.0003882393357343972, -0.02679479867219925, 0.024874843657016754, 0.0027602496556937695, 0.08813848346471786, -0.08602803945541382, -0.038391001522541046, -0.030302297323942184, -0.003446245100349188, -0.04372132569551468, 0.03789198771119118, -0.03561282157897949, -0.03931042551994324, 0.002233396749943495, -0.01110400352627039, 0.012293594889342785, -0.07614681869745255, -0.15880192816257477, 0.020166607573628426, -0.02039462886750698, -0.0033037590328603983, 0.026089876890182495, 0.013872038573026657, -0.007589280605316162, -0.044746916741132736, 0.028736362233757973, -0.004855212289839983, 0.02431943453848362, 0.009237753227353096, 0.020951692014932632, -0.045993320643901825, 0.004357663448899984, -0.013784841634333134, 0.0014212103560566902, 0.06946061551570892, 0.020481692627072334, 0.07757046073675156, -0.0024114628322422504, -0.0386781170964241, -0.02571794018149376, -0.0006603006622754037, 0.009701945818960667, -0.017198367044329643, 0.06987371295690536, 0.06492709368467331, 0.01612755097448826, 0.062288060784339905, -0.05083873122930527, 0.0005489606992341578, 0.009324893355369568, -0.16271881759166718, 0.06606657058000565, 0.011295003816485405, 0.0038139396347105503, -0.006460003554821014, -0.06694342941045761, -0.0747322291135788, 0.08656996488571167, -0.07118312269449234, 0.04332687333226204, 0.021415716037154198, 0.09773087501525879, 0.01674654707312584, 0.06034156680107117, 0.0010283414740115404, 0.005221560597419739, -0.009805814363062382, 0.04672212526202202, 0.02087165229022503, -0.026000525802373886, -0.09576617926359177, -0.11355140805244446, 0.0011149761267006397, -0.07418619096279144, 0.011086653918027878, 0.039610590785741806, 0.06717225909233093, 0.03637486323714256, 0.04457736015319824, -0.0007217079401016235, 0.04113687574863434, 0.03379166126251221, -0.05980608984827995, -0.009646767750382423, -0.05301044136285782, -0.0006530290120281279, -0.033469777554273605, 0.35957106947898865, -0.03897299990057945, 0.06574729084968567, 0.003198196878656745, 0.03539444878697395, 0.060886796563863754, -0.059062935411930084, 0.004486666526645422, 0.02464284375309944, -0.029628867283463478, 0.020994266495108604, 0.03917406126856804, 0.024798531085252762, 0.053290776908397675, -0.0007005237275734544, -0.000884753477293998, 0.05260888859629631, -0.08398256450891495, 0.025935696437954903, 0.019575048238039017, 0.013699824921786785, -0.03521585837006569, 0.03475991263985634, -0.004036461468786001, -0.03337416425347328, -0.04805890843272209, -0.035384003072977066, 0.06936056166887283, 0.0956101045012474, -0.07460246235132217, 0.011501671746373177, -0.014496102929115295, -0.028823865577578545, -0.009410949423909187, 0.045160382986068726, 0.014390025287866592, 0.006022716872394085, 0.001964100170880556, 0.04634921997785568, 0.008269255049526691, 0.046106766909360886, -0.020199069753289223, -0.04311167821288109, 0.007125575561076403, -0.05659714341163635, 0.009663527831435204, 0.0788503885269165, -0.022093551233410835, 0.03781217336654663, -0.0031643833499401808, 0.045814041048288345, 0.010899278335273266, -0.0051692272536456585, -0.024543754756450653, -0.022755181416869164, -0.07749699801206589, 0.0005786072579212487, 0.039291128516197205, 0.018834883347153664, 0.001944043324328959, -0.005305993836373091, 0.038193363696336746, -0.034652821719646454, -0.003309601219370961, 0.007912219502031803, 0.013747173361480236, -0.03308003768324852, -0.007981211878359318, -0.052061185240745544, -0.030731456354260445, 0.05356145650148392, -0.050669196993112564, -0.01167033426463604, -0.004664191976189613, 0.0012924389448016882, 0.10374649614095688, -0.01998639665544033, -0.013422348536550999, 0.01725023239850998, -0.00895414687693119, 0.0006399729172699153, 0.07270899415016174, 0.030434343963861465, -0.04655934497714043, 0.02643170766532421, 0.05531337112188339, -0.005315837450325489, -0.04217071458697319, -0.008011014200747013, 0.04875605180859566, 0.02634972147643566, -0.0557534284889698, -0.09631019830703735, -0.015046466141939163, 0.0313662551343441, -0.003851574379950762, -0.02945716120302677, -0.04357277229428291, 0.04043930396437645, 0.024115661159157753, -0.08684802800416946, 0.05962235853075981, 0.0036021883133798838, 0.01704641431570053, -0.010455676354467869, -0.0627361387014389, 0.09045027196407318, -0.050932615995407104, -0.06523671001195908, 0.0689622238278389, 0.022372758015990257, -0.043527886271476746, -0.03398117795586586, 0.01698145642876625, -0.012795585207641125, -0.011991758830845356, -0.026994217187166214, -0.003421028610318899, 0.05632004141807556, 0.04346984252333641, 0.028721993789076805, -0.042873263359069824, 0.08067016303539276, -0.026507344096899033, -0.31064850091934204, 0.04215560108423233, -0.03128598630428314, -0.013539458625018597, 0.014836575835943222, -0.024451129138469696, -0.062455229461193085, 0.017065348103642464, 0.09533408284187317, 0.035432275384664536, 0.016535639762878418, -0.008119470439851284, 0.0028837237041443586, -0.03716854751110077, 0.03524307161569595, -0.021163860335946083, 0.021741623058915138, 0.05402872711420059, 0.005185925401747227, -0.0029507207218557596, -0.05493936315178871, 0.05938439443707466, -0.014065844006836414, -0.07752136886119843, 0.0399591326713562, 0.004899121355265379, 0.18622978031635284, -0.05311303213238716, -0.04791540279984474, -0.07010494917631149, -0.028263160958886147, 0.020390985533595085, 0.02189616672694683, -0.049925897270441055, 0.0924224928021431, 0.02851765975356102, 0.05069123953580856, 0.007449680007994175, -0.032467760145664215, -0.018457071855664253, 0.003931832034140825, 0.01659439317882061, 0.018460363149642944, -0.0544544979929924, 0.006695958320051432, -0.004521101713180542, -0.01571366935968399, 0.027599578723311424, -0.08128254860639572, 0.04194124788045883, 0.008897530846297741, -0.02254110388457775, 0.018868422135710716, 0.02776324935257435, 0.04259265214204788, -0.06291665136814117, -0.03237450495362282, 0.009745065122842789, -0.005841586273163557, -0.02175096422433853, -0.014189169742166996, 0.022930746898055077, 0.050915926694869995, -0.06046975776553154, -0.01339402049779892, -0.0022207240108400583, -0.036489907652139664, -0.042938265949487686, 0.0024158358573913574, 0.058623988181352615, -0.012169742956757545, 0.08832674473524094, -0.004009556490927935, -0.0485013984143734, 0.04454581066966057, -0.0048125428147614, -0.09315880388021469, 0.04556705430150032, -0.05443134531378746, -0.06515932083129883, 0.02496824599802494, 0.03550920635461807, 0.03922785446047783, 0.0373835489153862, -0.037985846400260925, -0.05106230080127716, 0.023145342245697975, -0.021073423326015472, -0.027518587186932564, 0.013350071385502815, -0.03113112971186638, 0.026446444913744926, 0.019453171640634537, 0.01682784967124462, 0.08506825566291809, -0.023566879332065582, -0.23856030404567719, 0.006382186431437731, -0.0019152454333379865, 0.02879311330616474, -0.0017427492421120405, 0.07265142351388931, -0.011371011845767498, -0.001529416418634355, -0.049602802842855453, 0.011078160256147385, -0.055632587522268295, 0.05537146329879761, 0.022423340007662773, -0.006498606875538826, 0.06063172593712807, -0.0003523777413647622, 0.038084499537944794, 0.00022915774025022984, 0.031023647636175156, 0.011168823577463627, 0.025329316034913063, -0.00479901721701026, 0.15351252257823944, -0.01564044877886772, -0.04110471531748772, 0.01409444771707058, 0.0054787578992545605, 0.045092981308698654, 0.017014065757393837, -0.012914059683680534, -0.008168358355760574, 0.005019830074161291, 0.0323726125061512, -0.016122477129101753, -0.01137950923293829, -0.032233573496341705, -0.05349252372980118, -0.0377572663128376, -0.013924436643719673, 0.020444771274924278, 0.015221064910292625, -0.0017940278630703688, -0.018565107136964798, -0.03717132285237312, 0.0875665470957756, -0.016316387802362442, -0.04741460084915161, 0.009011506102979183, -0.04955819249153137, 0.04335325211286545, -0.03464632108807564, -0.03236613795161247, -0.027280321344733238, 0.02744109369814396, 0.028606494888663292, -0.007369259372353554, -0.05498125031590462, -0.00809792522341013, 0.026381099596619606, -0.053288206458091736, 0.02528255060315132, -0.021268095821142197, 0.02330647222697735, -0.030379753559827805, -0.007039794232696295]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>unexpected_internet_phone_disconnections</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Your connectivity\nReason for given NPS: There are a few things need sorting with our internet and phone connection. Bad weather can affect coverage and often connections will drop out unexpectantly', "Improvement needed: I think costs have risen service is no better the app and website arnt usable. Reception is poor in our house and the modem drops out. I'd be happier if 10$ less a month frankly\nReason for given NPS: Reception cover poor vs spark", 'Improvement needed: connection through the modem, from one room to the next in my house it drops out. and when following up with concerns the comms over the phone many atimes there has been a slight language barrier which does not help the comms to move forward after lengthy waiting.\nReason for given NPS: connection is terrible', 'Improvement needed: All reasonably good, looking forward to improved coverage next year, but I understand from commerce commission complaint that phone coverage made nor be nz wide until later years\nReason for given NPS: The phone keeps dropping calls when I am at home in appleby,']</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[-0.07404319941997528, -0.037691306322813034, 0.03369871526956558, -0.00986077543348074, -0.009609653614461422, -0.0973031148314476, 0.006289539858698845, 0.07721812278032303, 0.054438091814517975, -0.055964965373277664, 0.023711733520030975, 0.023314550518989563, 0.03347619250416756, 0.0035420404747128487, 0.019467826932668686, 0.04215730354189873, 0.06518195569515228, -0.07224324345588684, -0.03484611213207245, 0.03328566625714302, 0.022207317873835564, 0.018546829000115395, -0.021463828161358833, 0.030397459864616394, -0.024264737963676453, 0.021713368594646454, -0.028385363519191742, -0.025126546621322632, -0.08613137155771255, -0.0638900101184845, 0.00764611316844821, -0.008402143605053425, -0.03096049278974533, 0.01948605105280876, 0.09220392256975174, -0.006170344073325396, -0.08052168041467667, -0.0012053372338414192, 0.04199147969484329, 0.06151176244020462, -0.015598604455590248, 0.01808784529566765, -0.03447980433702469, -0.04021605849266052, -0.034536417573690414, -0.08810979127883911, 0.041852980852127075, 0.049484945833683014, 0.10491197556257248, -0.10017894953489304, 0.02729080431163311, 0.0437011644244194, -0.011126667261123657, 0.024668660014867783, 0.019424714148044586, 0.05487897992134094, 0.04772248491644859, 0.05909392237663269, 0.07755587249994278, 0.053750839084386826, 0.05946420878171921, 0.020437145605683327, -0.09264315664768219, 0.07648133486509323, 0.04160133749246597, -0.00809855293482542, 0.014977406710386276, -0.0007496349862776697, 0.0253889262676239, -0.006582663394510746, -0.064185231924057, 0.009577449411153793, -0.029912833124399185, 0.09038043767213821, 0.03600769490003586, 0.08003272861242294, -0.004940134473145008, -0.011450233869254589, -0.02654873952269554, 0.02644028328359127, 0.020799778401851654, -0.01547970250248909, 0.028911495581269264, -0.012918248772621155, -0.011542316526174545, -0.05934077873826027, 0.013659351505339146, 0.0009580571786500514, -0.03886823728680611, -0.03218093141913414, -0.0669284462928772, 0.03326331824064255, 0.018755650147795677, 0.04952581971883774, -0.07350602000951767, 0.03557063639163971, 0.009822026826441288, -0.008167066611349583, -0.06237564980983734, 0.31282320618629456, -0.04341105744242668, 0.0085577592253685, 0.05355583503842354, 0.03336220979690552, 0.033526502549648285, -0.05680163577198982, -0.0664396658539772, -0.04276517778635025, -0.020180217921733856, 0.017582284286618233, 0.013392182067036629, -0.0699986144900322, 0.041912294924259186, 0.0044687907211482525, 0.028301110491156578, 0.06469956785440445, -0.013377869501709938, -0.027064913883805275, -0.02069135569036007, 0.033942583948373795, -0.07239062339067459, -0.022172849625349045, 0.011277178302407265, -0.052774060517549515, 0.05379747599363327, -0.012873470783233643, -0.021713199093937874, 0.09373995661735535, -0.010396135970950127, 0.0007821602048352361, 0.00966005027294159, 0.05943707749247551, -0.0224019605666399, 0.02965511567890644, -0.034856975078582764, 0.014403699897229671, 0.008074954152107239, 0.01200852170586586, -0.008445384912192822, 0.008504508063197136, -0.018048493191599846, -0.10699769109487534, -0.012286748737096786, -0.04764629155397415, 0.04299620911478996, 0.06913021206855774, -0.004638065584003925, 0.049864932894706726, 0.04360103979706764, -0.019161546602845192, -0.010351443663239479, 0.04703395813703537, 0.05282483994960785, -0.04647796228528023, 0.001460881088860333, -0.006930160336196423, 0.06292397528886795, 0.044312216341495514, 0.03628728538751602, -0.022861620411276817, 0.07502969354391098, -0.06515747308731079, -0.05510959029197693, 0.06915757805109024, 0.03313114121556282, -0.05215722694993019, -0.04148000478744507, -0.08164750784635544, -0.10985271632671356, -0.005454299505800009, -0.021843625232577324, 0.0043469578959047794, 0.0011440352536737919, 0.0066015450283885, 0.014299143105745316, -0.02963710017502308, -0.05470864847302437, -0.0021517141722142696, -0.020597685128450394, -0.002056471537798643, -0.029634106904268265, 0.05505671352148056, 0.020740609616041183, 0.03733501583337784, 0.03546164929866791, -0.027961287647485733, -0.027585696429014206, -0.01874636858701706, 0.08232538402080536, -0.02421187236905098, -0.09056024253368378, -0.09114422649145126, 0.007057840470224619, -0.06490656733512878, 0.007603911682963371, 0.004492302890866995, -0.009205156937241554, -0.027945293113589287, 0.041757017374038696, -0.07236474007368088, 0.12309376895427704, -0.0456654354929924, -0.032287221401929855, 0.015976494178175926, -0.057468414306640625, 0.03354056924581528, -0.04332033917307854, 0.003965434152632952, 0.04616936668753624, 0.013700270093977451, 0.05639557167887688, 0.0013426820514723659, 0.09850328415632248, -0.019404888153076172, 0.02678978443145752, -0.04285059869289398, 0.014489343389868736, 0.08365167677402496, 0.018539687618613243, 0.04769566282629967, -0.018097450956702232, 0.07459542155265808, -0.03462739288806915, -0.24835607409477234, -0.05148490518331528, -0.025116460397839546, -0.0982961356639862, -0.0915391743183136, 0.0020771624986082315, -0.020405130460858345, -0.031485605984926224, 0.04139583557844162, 0.026752369478344917, 0.020935093984007835, 0.09677499532699585, 0.00923872645944357, -0.06536184251308441, 0.008190379478037357, -0.01712578721344471, -0.05819499120116234, 0.00926146749407053, -0.03426626697182655, 0.033273376524448395, -0.053135909140110016, -0.017665352672338486, 0.02092626877129078, -0.06899205595254898, -0.008316438645124435, 0.00875739473849535, 0.1296052485704422, 0.024874337017536163, -0.006845336873084307, -0.060407400131225586, 0.08754114806652069, 0.08112245798110962, 0.0015935577685013413, -0.08373793214559555, 0.047333959490060806, 0.02900310605764389, 0.041240595281124115, -0.007782099302858114, -0.008430179208517075, -0.019370879977941513, -0.07033410668373108, 0.07079742848873138, 0.007627598941326141, -0.0320664681494236, 0.033931437879800797, -0.04353952780365944, -0.054830823093652725, -0.0009813421638682485, -0.013300071470439434, 0.00037967460229992867, 0.05218852311372757, -0.011589950881898403, 0.07604748755693436, -0.024902712553739548, 0.05216128006577492, 0.05966075882315636, -0.0422273613512516, 0.029274113476276398, -0.031227128580212593, -0.039881374686956406, 0.011591838672757149, 0.0005089369951747358, 0.07449556142091751, -0.0784262865781784, 0.09381680935621262, -0.018253160640597343, -0.023487038910388947, -0.0047372146509587765, 0.008817613124847412, 0.04983166977763176, -0.03547033667564392, 0.06026928126811981, 0.04635126516222954, 0.020580323413014412, -0.017681796103715897, -0.014746066182851791, 0.06758776307106018, -0.057537004351615906, -0.0341930165886879, -0.058915168046951294, 0.04989377409219742, -0.05011432245373726, 0.07374794781208038, -0.02963927388191223, -0.04333563894033432, 0.010577179491519928, -0.009123111143708229, 0.018491080030798912, 0.03738216683268547, 0.07219285517930984, 0.023163240402936935, 0.03149431571364403, 0.016500331461429596, -0.008122275583446026, 0.12605836987495422, -0.04043344408273697, -0.19452014565467834, 0.04579499736428261, -0.034139249473810196, -0.041234731674194336, -0.02346688136458397, 0.052340514957904816, 0.0062719727866351604, 0.039733532816171646, -0.0779527872800827, 0.04701688885688782, -0.06520748138427734, -0.05628090351819992, -0.03192885220050812, -0.029531661421060562, 0.04926730692386627, 0.03398643061518669, 0.02099456451833248, -0.05745444446802139, -0.021139364689588547, 0.018367977812886238, 0.04653472825884819, 0.012798665091395378, 0.09512227773666382, -0.021193325519561768, 0.06446725875139236, 0.05274127796292305, 0.011134572327136993, -0.008505741134285927, 0.014555377885699272, -0.04834742471575737, -0.051590822637081146, -0.03213847428560257, 0.046469125896692276, -0.027028027921915054, -0.0028280196711421013, -0.04857442528009415, 0.021598519757390022, -0.012659972533583641, -0.02403370663523674, -0.029188785701990128, -0.07462316006422043, 0.030481550842523575, 0.012937972322106361, -0.00244109146296978, 0.0646049976348877, 0.03592469170689583, -0.03927670791745186, -0.00959041528403759, 0.05747741460800171, 0.009338387288153172, -0.03015427105128765, -0.08750265836715698, -0.03152291104197502, 0.016186708584427834, -0.0006443810998462141, 0.03761240839958191, -0.05418302118778229, -0.04266337677836418, -0.026904352009296417, -0.015941668301820755, 0.02764420211315155, -0.04719288647174835, 0.01970277726650238, -0.08230448514223099, -0.01410343311727047]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>need_cheaper_options_to_add_minors</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>["Improvement needed: I would like cheaper option to add my teenage son to my plan.\nI'm not really aware of rewards because you have to go looking for them.\nReason for given NPS: Service always works well for me.", "Improvement needed: Having an opportunity to upgrade the phone on a more affordable plan. In Australia, the phone is almost free if you have a contract.\n\nHaving the best deal available automatically, rather than following up with Vodaphone to get an upgrade to a plan. \n\nHaving a plan for children which don't include internet. As most plans need to pay for roaming services to be able to get unlimited call and text. Maybe having a plan that's only $10 a month for a child to have an emergency phone. That can call and text parents or family members. Another idea from that is making a call log let's say 10 people which they can call and text unlimited.... There was something similar a while ago call buddy or mate rates I think you paid $5 a month and could call that specific person unlimited. Making it for family might work great.\nReason for given NPS: It seems for the past month. Anywhere I go I only have two bars of reception. But having technical support team is great.", "Improvement needed: Package deal re usage.\nReason for given NPS: I feel my monthly bill is costly for what I need, as I have an elderly parent it is the only reason I need to be connected to a land line. As I can use a cell phone my 90 yr old parent can't so needs to be able to reach me on a land line, being the only reason I have it.", 'Improvement needed: Cheaper contract\n']</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[-0.033059824258089066, -0.08433348685503006, 0.032516852021217346, -0.010028141550719738, 0.005362663883715868, 0.00015375635121017694, -0.09328097105026245, 0.04409967362880707, 0.010028173215687275, 0.0005010541062802076, 0.028630761429667473, 0.04187008738517761, -0.004438471049070358, 0.031022436916828156, 0.056256070733070374, -0.00470117898657918, 0.05008653178811073, 0.03724155202507973, -0.07627460360527039, 0.016066545620560646, 0.058466456830501556, 0.0028227053117007017, 0.011774513870477676, -0.01847706362605095, -0.012562441639602184, -0.012830070219933987, -0.05617910996079445, -0.0068885404616594315, -0.0728236511349678, -0.12779991328716278, 0.06100393831729889, -0.0028727177996188402, -0.016538282856345177, -0.03593029826879501, -0.021899625658988953, -0.00822494924068451, 0.0007720911526121199, -0.00877309124916792, -0.047298580408096313, 0.01815420761704445, 0.025706853717565536, 0.04960291087627411, -0.06422992795705795, 0.01246341411024332, -0.050446767359972, -0.02208937704563141, 0.026662344112992287, 0.0029250537045300007, 0.021157430484890938, 0.00813551340252161, 0.042982760816812515, -0.004569572862237692, -0.01858559250831604, -0.017126917839050293, -0.01419897936284542, 0.027348579838871956, 0.054706722497940063, 0.0075746094807982445, 0.0010232038330286741, 0.029421458020806313, 0.025427114218473434, 0.036225419491529465, -0.11599920690059662, 0.017791232094168663, -0.004421832971274853, -0.006590597797185183, 0.007727739401161671, -0.014799716882407665, -0.029087182134389877, 0.05892283469438553, -0.024556638672947884, 0.026613600552082062, -0.01962188072502613, 0.09955370426177979, 0.005670852959156036, -0.016687816008925438, -0.018062470480799675, -0.018833791837096214, 0.021508920937776566, 0.020789645612239838, -0.07177851349115372, -0.014687106013298035, -0.038142573088407516, 0.026616675779223442, -0.0030032482463866472, -0.09114398807287216, 0.023464513942599297, -0.010510854423046112, -0.0025881596375256777, -0.011935114860534668, 0.03750995174050331, -0.09902192652225494, 0.0018224659143015742, 0.020144402980804443, -0.05558793991804123, 0.031548455357551575, 0.024177908897399902, 0.015722451731562614, -0.13898377120494843, 0.3773050308227539, 0.023040737956762314, 0.011077238246798515, -0.019838014617562294, -0.046054989099502563, -0.006982140243053436, -0.06139756739139557, -0.024098427966237068, -0.02465163730084896, 0.011528175324201584, -0.023495949804782867, -0.029437657445669174, -0.0007382260519079864, 0.03206576034426689, -0.06622950732707977, -0.04398319870233536, 0.03290950134396553, -0.010908477939665318, -0.042874980717897415, 0.009615271352231503, -0.0008585971081629395, -0.0034221643581986427, -0.01339066494256258, 0.019214341416954994, 0.012699385173618793, -0.006002620793879032, -0.015593722462654114, -0.055343326181173325, 0.06689420342445374, 0.060097016394138336, 0.07885809242725372, 0.039133138954639435, -0.0667881965637207, -0.009365005418658257, -0.004884360823780298, 0.04188784584403038, -0.06449615955352783, -0.024015992879867554, 0.06404933333396912, 0.03491148352622986, -0.03747226670384407, -0.0740940272808075, -0.045779790729284286, 0.001206004060804844, -0.06330561637878418, -0.0028564392123371363, 0.10091100633144379, 0.009725246578454971, 0.025807131081819534, -0.005230729002505541, -0.04955795034766197, -0.028833512216806412, -0.018127968534827232, -0.017209917306900024, -3.2192376238526776e-05, -0.009118796326220036, -0.010251449421048164, 0.04573486000299454, -0.05628407374024391, -0.024472413584589958, 0.007019796874374151, 0.05503513664007187, 0.01039212103933096, -0.02067667245864868, 0.07807888835668564, 0.005493855103850365, -0.07259361445903778, -0.03400065377354622, -0.012312539853155613, -0.07016084343194962, -0.0043046497739851475, -0.043075624853372574, 0.05628177523612976, 0.018552681431174278, 0.03703349083662033, 0.1209835335612297, -0.007422940339893103, -0.025085946545004845, 0.0045125181786715984, -0.03593350201845169, 0.08070136606693268, 0.045078035444021225, -0.00922536849975586, -0.04079056903719902, 0.005876278970390558, -0.045849788933992386, -0.04578515514731407, -0.013894501142203808, -0.03171597793698311, -0.009408295154571533, -0.03788461536169052, -0.08321131765842438, 0.004387543071061373, -0.049660030752420425, 0.00858347024768591, -0.041406311094760895, -0.009758844040334225, -0.0011209897929802537, -0.03901670500636101, 0.02383698709309101, -0.032650940120220184, 0.06485313177108765, -0.028924737125635147, -0.04175868630409241, 0.06946780532598495, 0.01042156107723713, 0.009248889051377773, 0.055173251777887344, -0.019467921927571297, 0.11506077647209167, -0.045007359236478806, -0.0017283069901168346, -0.011273477226495743, 0.07364498823881149, -0.005431175231933594, -0.09268475323915482, 0.027174877002835274, -0.03211284428834915, 0.05034380406141281, 0.018300291150808334, -0.025786396116018295, 0.015264640562236309, 0.07799562066793442, 0.007868865504860878, -0.3202490210533142, 0.0325806587934494, -0.022559059783816338, -0.04498215392231941, -0.007653007283806801, -0.0483979731798172, 0.05233138054609299, -0.018175341188907623, -0.047039713710546494, 0.09890775382518768, 0.03777223825454712, -0.05537043511867523, 0.0031154267489910126, 0.025981325656175613, 0.017407599836587906, 0.012113829143345356, 0.0014035626081749797, -0.04861602559685707, 0.07656682282686234, 0.0652712732553482, 0.03033280558884144, 0.06456846743822098, 0.02065212093293667, -0.0541248545050621, 0.024963373318314552, 0.020261527970433235, 0.15129220485687256, 0.021170319989323616, 0.00044397954479791224, -0.01908406801521778, 0.0716465413570404, 0.06632371246814728, 0.028150927275419235, -0.04004747048020363, -0.017362792044878006, 0.08017343282699585, -0.03359914943575859, -0.017003700137138367, 0.03299948200583458, -0.03637615218758583, 0.024580663070082664, 0.07281466573476791, -0.0026873217429965734, -0.06649649143218994, 0.028949148952960968, -0.05906743183732033, -0.010188013315200806, 0.03511461988091469, -0.007937533780932426, 0.018919499590992928, -0.026612304151058197, 0.006353185512125492, 0.03161092847585678, -0.02590205706655979, 0.06395488232374191, -0.03907792642712593, -0.04270581901073456, 0.010264875367283821, 0.019303644075989723, 0.019284246489405632, 0.002618941944092512, -0.016798442229628563, 0.02294163778424263, -0.08634505420923233, 0.03923521563410759, -0.024191657081246376, 0.010069802403450012, -0.04319760203361511, -0.03246510401368141, 0.05351861193776131, -0.011718598194420338, 0.0034347830805927515, -0.03360173478722572, -0.00010357879364164546, -0.03303997218608856, 0.033909689635038376, -0.004057636950165033, 0.048052962869405746, -0.002737603383138776, -0.041712865233421326, -0.022045446559786797, -0.0017915075877681375, -0.028173018246889114, 0.01978478766977787, -0.013799517415463924, 0.057561296969652176, 0.00039954244857653975, 0.005410568322986364, -0.00675685191527009, -0.02004692330956459, -0.09040653705596924, 0.01871543563902378, 0.012097073718905449, 0.11019717156887054, 0.034237004816532135, -0.046087596565485, -0.25053343176841736, 0.03667224943637848, 0.017725320532917976, -0.03214481472969055, 0.034610308706760406, 0.03329290822148323, 0.04421510174870491, -0.044077225029468536, -0.0382482185959816, 0.0003647877601906657, 0.022999458014965057, 0.035513170063495636, -0.02588617242872715, -0.016953827813267708, 0.03585631400346756, 0.01907305233180523, -0.007299130316823721, -0.009223544038832188, -0.009570429101586342, -0.044722042977809906, 0.05327494069933891, 0.01988302916288376, 0.16358605027198792, -0.011326203122735023, -0.018559081479907036, 0.023865163326263428, -0.032519225031137466, -0.003585509955883026, 0.04705648124217987, 0.005738761741667986, -0.01234009861946106, 0.059361737221479416, 0.055493731051683426, -0.04568326845765114, 0.05259035527706146, 0.03139922767877579, -0.03157447278499603, -0.07966111600399017, 0.009228808805346489, 0.0006144805811345577, -0.05586053431034088, 0.013391729444265366, -0.10186433792114258, 0.06067439168691635, 0.05972110480070114, -0.007391216233372688, 0.008180133067071438, 0.02745940163731575, -0.01599113456904888, 0.011685306206345558, -0.024924935773015022, 0.011191080324351788, 0.02951621450483799, -0.01765017956495285, 0.0775444284081459, 0.06154501438140869, -0.015300865285098553, 0.052038464695215225, 0.0390343964099884, -0.0017727140802890062, -0.027795784175395966, 0.01677880808711052, 0.015636812895536423, 0.05019268020987511, 0.013195344246923923]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>need_for_satellite_network_coverage</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>["Improvement needed: The satellite and partnership around that will improve my access to all services and information I use.\nReason for given NPS: Will be a 10 when you're satellite goes up next year. Hopefully that will deal with no coverage areas and access being lost due to very windy and/or stormy weather.", 'Improvement needed: Unfortunately the location of my house means that the mobile reception for my cell phone is patchy I have been told that this will improve when the satellite used next year.\nReason for given NPS: The call Centre staff have always been most helpful when needed even providing a direct phone number to avoid the que during the cyclones.', 'Improvement needed: I live in Broadwood 0491, My mobile phone gets NO service, our internet drops out regularly and if there is any kind of storm its a joke. I have purchased a Starlink system and once i have installed it I shall cancel my account. Ive been with your company for years and the service over the pass few years has gotten worse.\nReason for given NPS: Your service goes down most days and when it is up the speed is terrible and opening a page on the internet can take ages to load.', 'Improvement needed: I think you’ve already started the process with Space X\nReason for given NPS: Because of the up coming of Satellite \nAnd I like the overseas Vodafone connection']</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[-0.033662520349025726, -0.06613549590110779, -0.006153720431029797, -0.08208399266004562, 0.049965646117925644, -0.00174350431188941, -0.027599221095442772, 0.07200437784194946, -0.0035329347010701895, -0.0003304083365947008, 0.030448999255895615, -0.03708124905824661, 0.05130370706319809, 0.03314059227705002, 0.042326558381319046, 0.018454819917678833, 0.03737976402044296, -0.0028155946638435125, 0.017520517110824585, 0.041136231273412704, 0.0197172611951828, 0.03507540374994278, -0.014421950094401836, -0.0026508995797485113, 0.05501545965671539, 0.015301342122256756, 0.0133083900436759, 0.003559096483513713, -0.042645279318094254, -0.12186834961175919, -0.012145450338721275, -0.034144096076488495, -0.019326101988554, 0.028189297765493393, -0.02722899802029133, -0.041879456490278244, 0.01891811192035675, -0.0731809139251709, -0.030613655224442482, 0.054196204990148544, 0.032472480088472366, -0.0021843905560672283, -0.010442239232361317, 0.02172711491584778, -0.0591183565557003, -0.04577770456671715, 0.0368184857070446, -0.00466951634734869, 0.02419601008296013, -0.012849233113229275, 0.03270701691508293, -0.018144171684980392, 0.01754235289990902, 0.03013041242957115, 0.007617098744958639, 0.01312879379838705, 0.0479014627635479, 0.03669918328523636, -0.009272661991417408, 0.01759978197515011, 0.004907151684165001, -0.02611708641052246, -0.18454250693321228, 0.0018420960986986756, 0.006990112364292145, 0.032123494893312454, 0.005330146290361881, -0.005226721055805683, 0.04956107959151268, 0.0480903685092926, -0.03688536584377289, 0.06142289936542511, -0.023858435451984406, 0.08730223029851913, 0.01617383398115635, 0.03540109843015671, -0.058962006121873856, 0.02149347960948944, 0.03912551701068878, -0.06295622885227203, 0.018108772113919258, 0.025517981499433517, 0.018892720341682434, 0.03361181169748306, -0.002185133285820484, -0.051039040088653564, -0.016247140243649483, 0.03375191241502762, 0.028322331607341766, -0.023234892636537552, -0.04520157352089882, 0.011441501788794994, 0.023920288309454918, 0.01554328016936779, -0.06220736354589462, -0.02895284630358219, 0.00018245517276227474, -0.024538012221455574, -0.09099635481834412, 0.35515108704566956, 0.02205207571387291, -0.05484829843044281, 0.02904154732823372, 0.06989067047834396, 0.026424260810017586, -0.08771014213562012, 0.017458254471421242, -0.00434308685362339, -0.008337615057826042, 0.026255447417497635, 0.014180508442223072, -0.02023596316576004, 0.015523701906204224, -0.015142759308218956, 0.002911863150075078, 0.05493189021945, -0.0013434464344754815, -0.022467056289315224, -0.027294427156448364, -0.025984060019254684, -0.0471794568002224, -0.05072963982820511, 0.03212340548634529, 0.03278971090912819, 0.06521476805210114, -0.01447826623916626, 0.045236341655254364, 0.07220418751239777, 0.01835481822490692, 0.10570474714040756, 0.01951245591044426, -0.027317889034748077, 0.03106001205742359, 0.01111031323671341, 0.008932490833103657, 0.011740772053599358, 0.021819213405251503, 0.01490652747452259, -0.05882392078638077, 0.05630099028348923, -0.0012074541300535202, -0.047043293714523315, 0.034936096519231796, -0.05378079414367676, 0.009786292910575867, 0.08356977999210358, -0.011597293429076672, 0.05110585317015648, -0.03715779632329941, -0.11584845185279846, -0.008473708294332027, 0.002828948898240924, 0.035641804337501526, -0.029329102486371994, -0.026241360232234, 0.02382524125277996, -0.029026227071881294, 0.034553542733192444, -0.07287872582674026, 0.009502792730927467, 0.04554175212979317, -0.08131399005651474, -0.0351424477994442, 0.09632813930511475, -0.008453783579170704, -0.04659389331936836, 0.011526101268827915, 0.025880470871925354, -0.02909477986395359, 0.01653694361448288, -0.029900891706347466, 0.024574924260377884, 0.009774374775588512, 0.013753293082118034, 0.02768082171678543, -0.0486784465610981, -0.07141892611980438, 0.07089191675186157, -0.04421812668442726, -0.02992679551243782, -0.013435475528240204, -0.07062968611717224, 0.009757159277796745, 0.02350902557373047, -0.01786704733967781, -0.037010084837675095, -0.05140861123800278, 0.013899174518883228, -0.02765984833240509, -0.08685050904750824, -0.10136596113443375, 0.013112177141010761, -0.03162020817399025, -0.00504815299063921, 0.01888846978545189, -0.014815074391663074, -0.02330811135470867, -0.03684274107217789, 0.013824895024299622, -0.04475374519824982, 0.0744418278336525, -0.016664348542690277, 0.005121840164065361, 0.004193116445094347, -0.0536271408200264, 0.02172577567398548, -0.0007029759581200778, -0.014163983054459095, 0.042790308594703674, 0.007257560733705759, 0.015149472281336784, -0.02092055231332779, 0.04824560508131981, -0.003989626653492451, -0.02748686634004116, 0.013949654996395111, 0.008177656680345535, 0.035955335944890976, 0.06264647096395493, 0.05978286638855934, 0.03041359782218933, 0.07267919927835464, -0.029505981132388115, -0.313604474067688, -0.0445401705801487, 0.009836824610829353, 0.03137381374835968, -0.0018835208611562848, -0.009408066049218178, 0.0017726164078339934, 0.07531561702489853, -0.052526429295539856, 0.07017989456653595, 0.12700751423835754, -0.002635457320138812, -0.018232455477118492, -0.028204774484038353, -0.056950680911540985, -0.01323990523815155, -0.03698626905679703, 0.01115194708108902, -0.06271439045667648, -0.02650540880858898, 0.017443982884287834, 0.017955688759684563, -0.043462254106998444, -0.015071751549839973, 0.0941414088010788, 0.006564755458384752, 0.14801160991191864, -0.009742194786667824, 0.031234726309776306, -0.04352292791008949, 0.0577765516936779, 0.03792087733745575, -0.04651714488863945, -0.08968258649110794, 0.013740625232458115, 0.01502184383571148, 0.005768903531134129, 0.10879117995500565, -0.04294240102171898, -0.04329739511013031, 0.0200052447617054, 0.0570664219558239, -0.021571392193436623, 0.02148374728858471, 0.0422096773982048, -0.037524234503507614, -0.001505840802565217, 0.013360443525016308, -0.056605856865644455, -0.04744284600019455, 0.002313567092642188, -0.042833030223846436, 0.015416281297802925, 0.012316131964325905, 0.04955350235104561, -0.005085315555334091, -0.03792562335729599, -0.03372654318809509, -0.030046233907341957, 0.043422698974609375, 0.03398336470127106, 0.02790161408483982, -0.023479443043470383, -0.08923988044261932, 0.06733112037181854, -0.02426682971417904, -0.004121232312172651, 0.028177551925182343, 0.013312598690390587, 0.04125450178980827, -0.011330446228384972, 0.01578809879720211, -0.02437642589211464, 0.0013383673503994942, -0.043736930936574936, -0.05090784654021263, 0.04493240639567375, 0.039625734090805054, 0.03164925426244736, 0.0028149187564849854, 0.09384611994028091, -0.059818368405103683, -0.0075540440157055855, -0.028573088347911835, 0.008514830842614174, 0.05005963146686554, 0.02264295145869255, 0.003310741623863578, 0.05131601542234421, -0.014553948305547237, -0.033859364688396454, 0.00484052486717701, 0.00901799090206623, 0.0010311052901670337, 0.08866753429174423, -0.03120730072259903, -0.2822037935256958, 0.05955209955573082, 0.007980826310813427, 0.007951277308166027, -0.020037444308400154, -0.030872605741024017, 0.04300529509782791, 0.04762530326843262, -0.12077640742063522, -0.002001988934352994, -0.0026518581435084343, 0.02785363420844078, -0.008034822531044483, -0.04137491434812546, 0.028480762615799904, 0.03821711987257004, 0.06731702387332916, -0.02363402396440506, -0.06472215056419373, -0.03960040956735611, 0.06792636215686798, -0.02708928845822811, 0.14933134615421295, -0.03984116017818451, 0.03966081514954567, 0.03242775797843933, -0.0360473170876503, 0.007228804286569357, 0.021989652886986732, -0.006346684414893389, 0.04623506963253021, -0.016463782638311386, 0.0024392635095864534, -0.03710654377937317, -0.00575863104313612, 0.06110011786222458, 0.022232256829738617, -0.0508204810321331, -0.0278248880058527, -0.04229531064629555, -0.01856537163257599, 0.0026547512970864773, 0.007172534242272377, 0.060090892016887665, 0.05626314505934715, -0.03957880660891533, -0.03366413712501526, -0.04960485175251961, -0.006896025966852903, -0.02830016240477562, -0.033399440348148346, -0.020649760961532593, -0.016984114423394203, -0.0068372623063623905, -0.00202554021961987, 0.023321064189076424, -0.005519092548638582, 0.025509759783744812, -0.03483998775482178, 0.01314310822635889, 0.041269633919000626, -0.09526947885751724, 0.02977345883846283, 0.002285197377204895, 0.008929206989705563]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>weather_affects_network_connectivity</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Your connectivity\nReason for given NPS: There are a few things need sorting with our internet and phone connection. Bad weather can affect coverage and often connections will drop out unexpectantly', "Improvement needed: The satellite and partnership around that will improve my access to all services and information I use.\nReason for given NPS: Will be a 10 when you're satellite goes up next year. Hopefully that will deal with no coverage areas and access being lost due to very windy and/or stormy weather.", 'Improvement needed: I live in Broadwood 0491, My mobile phone gets NO service, our internet drops out regularly and if there is any kind of storm its a joke. I have purchased a Starlink system and once i have installed it I shall cancel my account. Ive been with your company for years and the service over the pass few years has gotten worse.\nReason for given NPS: Your service goes down most days and when it is up the speed is terrible and opening a page on the internet can take ages to load.', 'Improvement needed: sometime, it’s very rare, the signal not working, which mean like no signal at all, but it’s very rare.\nOnes I restart the phone, it will be alright\nReason for given NPS: Who are the ladies good? Good signal sometimes. Small small problems comes. But still it’s alright.']</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[-0.03298037499189377, -0.02812918648123741, 0.06254339963197708, 0.0328855998814106, 0.07815838605165482, -0.06098208576440811, -0.010232873260974884, 0.038036078214645386, 0.0293877050280571, -0.03162987157702446, 0.010086220689117908, -0.004937807098031044, 0.09121229499578476, 0.049757376313209534, -0.006749290972948074, 0.036452487111091614, 0.038844820111989975, -0.025211744010448456, 0.005781649611890316, 0.022242959588766098, -0.03190247714519501, 0.01246221549808979, 0.014810917899012566, -0.027868900448083878, -0.018184764310717583, 0.04395139217376709, 0.006839262321591377, 0.021454760804772377, -0.06976009160280228, -0.13058386743068695, -0.007508879527449608, 0.005564933642745018, -0.0010655294172465801, 0.03917732089757919, 0.019796129316091537, -0.025169339030981064, 0.007391144521534443, -0.024224938824772835, -0.006394036579877138, 0.046167343854904175, 0.03767840936779976, 0.0185557771474123, -0.05393874645233154, -0.012586998753249645, -0.047747835516929626, -0.07036842405796051, 0.0346110537648201, 0.0285529475659132, 0.04768671840429306, -0.07365846633911133, -0.0022067187819629908, -0.03481725603342056, -0.026834966614842415, 0.05173802748322487, 0.05184479057788849, 0.10420703142881393, 0.037325579673051834, 0.08198574185371399, 0.03145541995763779, 0.02663879469037056, 0.010482823476195335, 0.059588126838207245, -0.15719828009605408, 0.018457958474755287, 0.0869777500629425, -0.015231270343065262, -0.035839054733514786, 0.028898416087031364, 0.029884804040193558, 0.00637927046045661, -0.05053863301873207, 0.062189437448978424, -0.01297964621335268, 0.05710631608963013, 0.04883643984794617, 0.060301098972558975, -0.08865169435739517, 0.004628302063792944, -0.0017741125775501132, -0.03107619099318981, 0.039432454854249954, 0.04719100520014763, 0.015445531345903873, -0.01004590280354023, 0.03726014867424965, -0.002209058962762356, -0.028932632878422737, -0.016028007492423058, -0.04446527734398842, -0.0479222871363163, -0.06444365531206131, -0.009854172356426716, 0.009625589475035667, 0.025047089904546738, -0.04657766968011856, 0.04045073688030243, 0.046299610286951065, -0.041763342916965485, -0.046692632138729095, 0.32966482639312744, -0.08004466444253922, -0.005924795288592577, -0.002094765892252326, 0.09846846759319305, 0.03431405872106552, -0.02753681316971779, 0.016509780660271645, -0.06689559668302536, -0.06471286714076996, 0.051406946033239365, 0.0071711488999426365, -0.07408491522073746, 0.0058595770969986916, -0.009365485981106758, 0.05810810998082161, 0.033370424062013626, 0.019391944631934166, 0.036234378814697266, -0.035708263516426086, 0.03478233516216278, -0.05403691157698631, 0.01935611478984356, 0.0785263329744339, 0.03467843681573868, 0.054946377873420715, 0.005819535348564386, -0.0020565318409353495, 0.1630520522594452, -0.004069766029715538, 0.014600725844502449, 0.013541447930037975, -0.0012947377981618047, 0.03812776878476143, 0.026462534442543983, -0.0028285477310419083, -0.005289977882057428, -0.016450252383947372, -0.029422316700220108, -0.018167300149798393, 0.03561865910887718, 0.024291200563311577, -0.05495348945260048, 0.017077194526791573, -0.06465036422014236, 0.026832688599824905, 0.09364159405231476, -0.03141560032963753, 0.007922896184027195, -0.010957617312669754, -0.0726601853966713, -0.035856667906045914, 0.005415726453065872, 0.014661678113043308, -0.01313676219433546, -0.013634822331368923, 0.01922805979847908, 0.03585032373666763, 0.021896442398428917, -0.005340119358152151, -0.019067836925387383, 0.017231158912181854, -0.04404669627547264, -0.027066608890891075, 0.058745209127664566, 0.007249128073453903, -0.019250959157943726, 0.0065576061606407166, 0.004245566204190254, -0.07782934606075287, -0.015073822811245918, -0.03050883300602436, 0.005825807806104422, 0.010829883627593517, 0.02168991230428219, 0.04385583475232124, -0.017141837626695633, -0.04399557784199715, -0.0015916620614007115, -0.03766905143857002, -0.00973756518214941, 0.020128782838582993, 0.0318145826458931, 0.03894323855638504, -0.01824869215488434, 0.0067202127538621426, -0.00045244157081469893, -0.06424480676651001, 0.00804167054593563, 0.009518156759440899, -0.032284561544656754, -0.11237955838441849, -0.09694854170084, -0.005363112315535545, -0.04154566675424576, -0.03727537393569946, -0.021831251680850983, -0.0012100960593670607, -0.009929802268743515, 0.0021889398340135813, -0.0380399189889431, 0.08821038156747818, 0.00831860862672329, -0.02879919670522213, -0.02955273911356926, -0.06592027097940445, 0.0453450046479702, -0.03819437325000763, -0.04796832427382469, -0.0339505635201931, -0.04125584289431572, 0.035656072199344635, -0.029200037941336632, 0.0659828707575798, -0.0283602774143219, 0.0038915222976356745, 0.0010300211142748594, -0.0008477099472656846, 0.06852846592664719, 0.024460013955831528, 0.03194046393036842, 0.021273400634527206, 0.00044549538870342076, -0.011544030159711838, -0.30719560384750366, -0.04812385141849518, 0.012028626166284084, -0.03427431359887123, -0.014768172986805439, -0.03242228925228119, -0.0023360748309642076, -0.01061326451599598, 0.05457552149891853, 0.027682414278388023, 0.07946911454200745, 0.017102017998695374, 0.02136034332215786, -0.08137240260839462, 0.020624777302145958, -0.00545206805691123, -0.0460544154047966, 0.023209767416119576, -0.016941012814641, 0.019924553111195564, -0.029370825737714767, 0.022770965471863747, -0.04380109906196594, -0.08059429377317429, -0.010907729156315327, -0.023520858958363533, 0.13650788366794586, -0.028862176463007927, -0.03126939386129379, -0.04243358597159386, 0.025420669466257095, 0.03971618413925171, 0.0028136628679931164, -0.08635754138231277, 0.02715829759836197, 0.06870566308498383, 0.04332967475056648, 0.03790659084916115, -0.07473242282867432, -0.010217251256108284, -0.04144766926765442, 0.0795825868844986, 0.03463142737746239, -0.017168119549751282, -0.015481262467801571, -0.04485714063048363, 0.024911582469940186, 0.0050894953310489655, -0.09629666060209274, -0.038380157202482224, -0.03239823877811432, 0.017663413658738136, 0.030396312475204468, 0.051885440945625305, 0.06191651523113251, -0.022684313356876373, -0.026994753628969193, 0.04769987240433693, -0.01588664948940277, -0.005478988401591778, 0.04704378545284271, 0.00696349423378706, 0.008865611627697945, -0.07612431794404984, 0.04799136146903038, 0.009651974774897099, -0.0051711020059883595, -0.018041063100099564, 0.034442026168107986, 0.052648212760686874, -0.006232994608581066, 0.05313437432050705, -0.006289688870310783, 0.025026701390743256, 0.012723315507173538, -0.034417424350976944, 0.006572396028786898, 0.0053541031666100025, -0.017019690945744514, -0.031691864132881165, 0.05500590801239014, -0.09944815933704376, 0.0609956718981266, -0.0026355055160820484, -0.006385476794093847, -0.020060613751411438, 0.00457798270508647, 0.021894147619605064, 0.04216678440570831, -0.009504152461886406, -0.01949606090784073, -0.02489481307566166, 0.01876324601471424, -0.0291142575442791, 0.1206735149025917, 0.01215861551463604, -0.2868316173553467, 0.014496366493403912, 0.034581732004880905, -0.07470288127660751, -0.03509024530649185, -0.001756147830747068, -0.006049032788723707, 0.06609570980072021, -0.09381045401096344, -0.011210671626031399, -0.031310081481933594, -0.020198596641421318, -0.019467150792479515, -0.017475446686148643, 0.003412929829210043, 0.025527996942400932, 0.013001363724470139, -0.023984190076589584, -0.004430058877915144, 0.015424133278429508, 0.018380243331193924, 0.03906198590993881, 0.15620741248130798, -0.06381966173648834, 0.08963178098201752, 0.06793374568223953, -0.05711376294493675, 0.02732187509536743, 0.04027457907795906, 0.005211526528000832, 0.0038117386866360903, -0.03836633265018463, -0.003855309681966901, -0.029363762587308884, 0.01771201193332672, 0.0547674298286438, 0.02172277681529522, 0.0005074531072750688, 0.01395865622907877, -0.02915511652827263, 0.0013439382892102003, 0.08421950787305832, -0.014355608262121677, -0.02174515835940838, 0.038417261093854904, -0.008658436127007008, -0.0015576459700241685, -0.046991296112537384, 0.027123883366584778, 0.0010252540232613683, -0.04842579364776611, -0.04612612724304199, 0.01934628374874592, 0.038544777780771255, -0.025024719536304474, 0.000892653944902122, -0.04952159896492958, -0.0007319122669287026, -0.042563509196043015, -0.0025371641386300325, 0.030240584164857864, -0.09555339813232422, 0.012241301126778126, -0.055007025599479675, 0.047085292637348175]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>poor_tech_support_experience</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Tech support and call centre experience\n', 'Reason for given NPS: The only let down is the customer service at times', 'Improvement needed: technical support\n', 'Improvement needed: Customer service sometimes hard to engage with service\nReason for given NPS: Very useful service']</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[-0.04041679948568344, 0.04976274073123932, 0.04318365082144737, -0.02587513066828251, -0.02516292780637741, -0.09139028936624527, 0.006520936265587807, 0.03812907263636589, 0.012981897220015526, -0.07610451430082321, 0.017748132348060608, -0.026974696666002274, 0.055445391684770584, -0.024906322360038757, 0.03557124361395836, 0.06343148648738861, 0.01980021968483925, -0.05739930272102356, 0.023301688954234123, 0.00014491696492768824, 0.012085067108273506, 0.004600482992827892, 0.005532298237085342, -0.02115461230278015, -0.06727150082588196, 0.004679513163864613, -0.09651502221822739, -0.05771948769688606, -0.07806272804737091, -0.08729720115661621, -0.0164402574300766, 0.017734458670020103, 0.013084685429930687, 0.05781150609254837, 0.0729057788848877, -0.004466160666197538, -0.05077451467514038, -0.013070588931441307, -0.02154960110783577, -0.028427349403500557, -0.00543931731954217, -0.029952818527817726, -0.07560133188962936, -0.004485956393182278, 0.01877591945230961, -0.03714274615049362, -0.006577697116881609, -0.0581364743411541, 0.10358178615570068, -0.10053062438964844, -0.038876455277204514, 0.05784270167350769, 0.0005374293541535735, 0.0015375413931906223, -0.01800410822033882, 0.04451550915837288, 0.06769050657749176, 0.04676758497953415, 0.04638288542628288, -0.0019097262993454933, 0.04664630442857742, -0.011017193086445332, -0.13568782806396484, 0.04665603116154671, 0.10878590494394302, 0.04040054604411125, -0.006475006230175495, -0.07439617067575455, -0.011167957447469234, -0.030536208301782608, -0.05770536884665489, -0.018153484910726547, -0.023681042715907097, 0.07792428880929947, 0.0324007123708725, 0.019414687529206276, 0.02662164904177189, -0.0012375223450362682, 0.03316116705536842, 0.03414621949195862, 0.0340331606566906, 0.004251386970281601, -0.025557149201631546, -0.025522544980049133, -0.006772766355425119, -0.06638189405202866, -0.028562963008880615, 0.0688687339425087, 0.035166967660188675, 0.003740014974027872, -0.015127855353057384, 0.03735806420445442, 0.038127072155475616, 0.02898413874208927, -0.021540388464927673, -0.055814165621995926, 0.03384937345981598, -0.006791994906961918, -0.13313525915145874, 0.3627460300922394, 0.018796175718307495, 0.0008663083426654339, 0.05651070177555084, 0.02449425868690014, 0.028628353029489517, -0.032251596450805664, 0.01862397976219654, -0.008189317770302296, -0.060463350266218185, -0.03751419484615326, 0.010656322352588177, -0.0030009637121111155, 0.03133196383714676, 0.0017008028225973248, 0.05284370481967926, 0.041586559265851974, -0.041523706167936325, -0.002618941245600581, -0.043072085827589035, 0.029690846800804138, -0.0074837771244347095, 0.009709770791232586, 0.030020641162991524, -0.012927889823913574, -0.005405080039054155, -0.058393947780132294, -0.01729188673198223, 0.11114165186882019, -0.03302188962697983, 0.05191269516944885, 0.029630424454808235, -0.0014337755274027586, 0.007514357101172209, 0.02359187602996826, -0.024808116257190704, -0.007745436858385801, 0.012506520375609398, 0.03729620575904846, -0.003876171773299575, 0.03653836250305176, -0.013665720820426941, -0.0835438221693039, 0.0023948114831000566, 0.001385615556500852, -0.03331122547388077, 0.013947601430118084, -0.01646914705634117, 0.07406777143478394, -0.016920655965805054, -0.04601505398750305, -0.016370106488466263, -0.004491335246711969, -0.008224667981266975, 0.018654927611351013, 0.001911268220283091, -0.00048326398245990276, 0.055580973625183105, 0.005941270384937525, -0.025831010192632675, 0.05879170447587967, 0.04098636656999588, -0.07193323224782944, -0.012017033994197845, 0.03416498005390167, 0.05921325087547302, -0.021998330950737, -0.017201410606503487, 0.016051454469561577, 0.0034979074262082577, 0.01705075241625309, 0.02146720699965954, 0.00549974013119936, -0.012773021124303341, 0.00027662349748425186, 0.06349070370197296, -0.03375391289591789, -0.01680786907672882, 0.007393186446279287, -0.039624158293008804, 0.02495799958705902, 0.06924913078546524, -0.037678226828575134, 0.004762102849781513, -0.0050884876400232315, 0.04803057760000229, -0.001229846733622253, -0.026865607127547264, 0.008465752936899662, 0.03082888573408127, -0.051521413028240204, -0.08633871376514435, -0.03488856926560402, -0.07970031350851059, -0.03713170811533928, 0.03293663635849953, 0.035493481904268265, -0.022452645003795624, -0.05865870416164398, 0.041196901351213455, -0.03479013592004776, 0.08009487390518188, -0.03535151854157448, -0.038738884031772614, 0.04799787327647209, -0.05719607323408127, 0.05185451731085777, 0.005908510182052851, -0.0192073006182909, 0.04992283880710602, -0.022587914019823074, -0.06694217771291733, -0.053882382810115814, 0.08148126304149628, 0.021388303488492966, 0.007561929058283567, 0.004792359657585621, 0.012459393590688705, 0.0793536975979805, 0.020285164937376976, 0.06162559613585472, -0.017355715855956078, 0.11110129952430725, -0.012257534079253674, -0.3039718270301819, 0.013807190582156181, -0.0788746327161789, -0.03048328310251236, -0.10287142544984818, 0.020391499623656273, -0.04533293470740318, -0.04490681737661362, 0.01863342523574829, 0.030612904578447342, 0.05244524031877518, -0.008872663602232933, 0.058797962963581085, -0.0571787990629673, -0.012583513744175434, -0.02617914415895939, 0.006922559812664986, 0.10482511669397354, -0.0016854159766808152, 0.01587004028260708, -0.011362004093825817, -0.012513590045273304, -0.007562585175037384, -0.08817845582962036, 0.05113447085022926, 0.04499092325568199, 0.18312695622444153, -0.010869237594306469, 0.009393220767378807, -0.0502857081592083, -0.014698987826704979, 0.05046822503209114, 0.019966719672083855, -0.11983638256788254, 0.02741159312427044, 0.0356694832444191, 0.03163151443004608, 0.0088274497538805, 0.0445205383002758, -0.04750920087099075, -0.0773664191365242, 0.04500969499349594, 0.004337844904512167, -0.02493416704237461, -0.016064686700701714, 0.0035363086499273777, -0.04824098199605942, 0.04683980345726013, -0.06711634248495102, 0.04823508486151695, -0.037601374089717865, 0.012501504272222519, -0.036010242998600006, 0.050949469208717346, 0.03391758352518082, -0.010770072229206562, -0.09282910078763962, 0.05586126074194908, 0.01398658286780119, -0.002125767059624195, 0.010574165731668472, -0.05543164536356926, 0.033228106796741486, -0.07192455977201462, 0.04067201539874077, -0.010950864292681217, -0.010938901454210281, -0.0080095324665308, 0.03283875435590744, -0.02677285298705101, 0.012181401252746582, 0.024001531302928925, -0.033185165375471115, -0.006200190633535385, 0.0005172875826247036, -0.03963029384613037, -0.00028870374080725014, -0.05450798571109772, 0.0276672150939703, -0.026471957564353943, 0.011716953478753567, -0.017023196443915367, 0.07410389930009842, -0.002063361695036292, 0.0006590632838197052, 0.037960074841976166, -0.0077691590413451195, 0.030587708577513695, 0.04259808734059334, -0.02584867551922798, -0.04447872191667557, 0.0006670163129456341, -0.011637620627880096, 0.01870708167552948, 0.05253386124968529, 0.004171574488282204, -0.2342063933610916, 0.03187989071011543, 0.02607864886522293, -0.0181310772895813, -0.019381221383810043, 0.017435308545827866, 0.011474843136966228, -0.06086712330579758, -0.04568690434098244, 0.03419125825166702, -0.019092107191681862, -0.0333356037735939, -0.06587998569011688, -0.03376953676342964, 0.06224155053496361, 0.024908846244215965, 0.007213708944618702, -0.04173232242465019, -0.0048842704854905605, -0.028644461184740067, 0.0195440836250782, 0.08489137142896652, 0.09473925828933716, -0.06469845026731491, -0.015538004226982594, 0.033632367849349976, -0.012224721722304821, -0.021477002650499344, 0.08435610681772232, -0.003347338642925024, -0.04081666097044945, -0.02273392118513584, 0.04146616905927658, 0.0677507147192955, 0.033684320747852325, -0.01490830909460783, 0.04975847527384758, -0.08708932250738144, -0.020906198769807816, 0.06300569325685501, 0.0046366117894649506, 0.010991815477609634, 0.02285347692668438, -0.02257339470088482, 0.0736241564154625, -0.0494554303586483, 0.04336969181895256, -0.04455246031284332, 0.0037384950555860996, 0.025347338989377022, -0.0025512261781841516, -0.028964292258024216, 0.003326671663671732, 0.03262721374630928, 0.05454146862030029, 0.03757153078913689, 0.01156484056264162, 0.00037827721098437905, -0.0155253941193223, 0.00038200875860638916, 0.017135418951511383, -0.06768153607845306, 0.03874954208731651, 0.03192870318889618, -0.003008859930559993]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>dissatisfaction_with_overall_service_quality</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Your service it's absolute rubbish.\nReason for given NPS: Average service", 'Improvement needed: Getting me an internet connection, you’ve no problem charging every month for it, it would be nice to receive it.\nReason for given NPS: Paying for internet without receiving internet three quarters of the time.', 'Reason for given NPS: The only let down is the customer service at times']</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[-0.02840394899249077, -0.03013479895889759, 0.04209338128566742, -0.025252116844058037, -0.04676661267876625, -0.07473210990428925, -0.013407334685325623, 0.06500819325447083, 0.02513582818210125, 0.0036033461801707745, 0.019593294709920883, 0.018763380125164986, -0.007609879598021507, 0.010964157991111279, 0.014767123386263847, 0.002826359588652849, 0.09555339813232422, -0.04834669828414917, -0.01142224483191967, 0.0017401137156412005, 0.013569282367825508, -0.04164315015077591, -0.013618684373795986, -0.019868243485689163, -0.04878564551472664, -0.00015038816491141915, -0.03373851627111435, -0.00967571884393692, -0.06062493100762367, -0.11094478517770767, -0.06295259296894073, -0.020060427486896515, 0.04216061159968376, -0.024948732927441597, 0.058976780623197556, 0.004503225442022085, 0.00020339405455160886, -0.02906004525721073, 0.014492008835077286, 0.02168000116944313, 0.04331783205270767, -0.03168662264943123, -0.04532324895262718, 0.0023048128932714462, -0.05099888890981674, -0.08052153140306473, 0.030270744115114212, 0.05407397076487541, 0.08410017937421799, 0.024520782753825188, 0.013132533058524132, 0.013744090683758259, -0.02502361126244068, 0.05053913593292236, 5.096840686746873e-05, 0.08612840622663498, 0.06399183720350266, 0.04511665180325508, 0.014570849947631359, -0.023273250088095665, 0.033378779888153076, 0.003446369431912899, -0.14443814754486084, 0.03243650868535042, 0.022927645593881607, 0.020527563989162445, 0.0030877762474119663, -0.08019715547561646, -0.05237265303730965, 0.03246203809976578, -0.06260614842176437, -0.008582660928368568, 0.03473036363720894, 0.13880953192710876, 0.02695394493639469, 0.03365848585963249, 0.0530262291431427, 0.006402493454515934, -0.020467493683099747, 0.05929777771234512, -0.013166443444788456, -0.032851845026016235, -0.03548421710729599, 0.01140553317964077, -0.0322079099714756, -0.040857236832380295, -0.003921796102076769, 0.037820760160684586, 0.04803064092993736, 0.028796115890145302, 0.07157851755619049, -0.0005122183356434107, 0.02120276540517807, 0.008564566262066364, -0.026051465421915054, -0.03817488253116608, -0.04558447748422623, -0.0371616929769516, -0.09339249134063721, 0.3448016941547394, 0.0007884948281571269, -0.001631181687116623, 0.07623598724603653, -0.023878248408436775, 0.031589869409799576, -0.03735697641968727, 0.023400548845529556, -0.01034643966704607, -0.035085953772068024, 0.010231422260403633, -0.027986468747258186, -0.0065818773582577705, 0.018794378265738487, -0.04720089212059975, -0.03463739529252052, 0.028758756816387177, -0.007571088150143623, 0.008147717453539371, 0.023775111883878708, -0.010742715559899807, -0.007934775203466415, 0.032092127948999405, 0.01861952617764473, -0.03362046927213669, -0.02697688899934292, -0.0395980067551136, 0.042306747287511826, 0.09101506322622299, -0.058538030833005905, 0.00298061384819448, -0.048362985253334045, -0.0396895557641983, -0.013993920758366585, 0.022785678505897522, -0.007398760877549648, -0.0029656020924448967, 0.03132506459951401, 0.0413626991212368, 0.0556909404695034, 0.07772085815668106, 0.011240404099225998, -0.0854538232088089, -0.09256226569414139, -0.05638640746474266, -0.027090150862932205, 0.09946093708276749, -0.042206425219774246, 0.056281961500644684, 0.03515370190143585, -0.03846519812941551, 0.0025064933579415083, 0.023955805227160454, -0.0026240188162773848, -0.0028437406290322542, -0.028962064534425735, -0.01662755012512207, -0.03158418461680412, -0.00856921635568142, -0.014451961033046246, 0.0016657408559694886, 0.07477733492851257, -0.04455591365695, -0.03162502124905586, 0.048929087817668915, -0.008378257043659687, -0.007164194248616695, -0.040808625519275665, -0.019338419660925865, -0.05185600370168686, 0.0667046532034874, -0.04144012928009033, 0.02137250453233719, -0.03391518071293831, -0.0022547489497810602, 0.0647520050406456, -0.03691183403134346, 0.02008213847875595, 0.050570789724588394, -0.0005372390733100474, 0.00914592482149601, 0.06896056234836578, 0.03151150420308113, -0.010415957309305668, 0.03609967231750488, 0.09896081686019897, -0.03027724288403988, -0.026577584445476532, -0.006377276498824358, 0.023039640858769417, -0.025868959724903107, -0.10595858097076416, -0.0570068284869194, -0.007032649591565132, -0.021757833659648895, 0.020884022116661072, -0.031492624431848526, -0.02428552322089672, -0.009690915234386921, 0.010825872421264648, -0.014377398416399956, 0.08131100237369537, -0.021465105935931206, -0.039123810827732086, -0.003973260056227446, 0.010466920211911201, 0.10923683643341064, -0.012959547340869904, 0.034050922840833664, 0.03453584760427475, 0.04285629093647003, -0.04195762425661087, -0.029481034725904465, 0.06663292646408081, 0.0542127825319767, 0.032002758234739304, -0.058203235268592834, 0.052581992000341415, 0.04312477633357048, 0.011951548978686333, 0.061577584594488144, -0.04889446124434471, 0.07204098999500275, -0.06957489997148514, -0.30186963081359863, 0.04339232295751572, -0.0118549894541502, -0.038534216582775116, -0.03603001683950424, -0.00106633803807199, 0.014792470261454582, 0.03445352241396904, -0.002160183619707823, 0.06934580206871033, 0.04677269607782364, 0.023234158754348755, 0.04473566636443138, -0.05170136317610741, 0.013431346043944359, -0.02437427081167698, -0.011577052995562553, 0.06553968042135239, -0.015988538041710854, -0.014143847860395908, -0.03465072810649872, 0.045581839978694916, 0.017627336084842682, -0.05685151740908623, 0.012639802880585194, 0.010965880937874317, 0.1783459335565567, -0.05836237594485283, -0.04775493964552879, -0.08599403500556946, -0.015529267489910126, 0.04434259608387947, 0.01705213263630867, -0.06095447018742561, 0.08498197793960571, 0.03833812102675438, 0.028105907142162323, 0.03163929283618927, -0.022670917212963104, 0.008327161893248558, 0.033162251114845276, 0.05799510329961777, -0.01871429942548275, -0.027532655745744705, 0.036149341613054276, -0.058290012180805206, -0.023508643731474876, 0.02777707576751709, -0.16694648563861847, 0.019066650420427322, 0.005445470567792654, -0.0706021711230278, 0.03870237246155739, 0.031508829444646835, 0.04448246955871582, 0.00036271195858716965, -0.06714915484189987, 0.0036651482805609703, -0.0076249693520367146, 0.00032535570790059865, 0.03808089718222618, 0.026429640129208565, 0.05015026032924652, -0.0673731341958046, -0.02410908415913582, -0.006233857478946447, -0.007237481884658337, 0.006740403361618519, 0.0006005244213156402, 0.02497679926455021, -0.002583583816885948, 0.05112716555595398, -0.05371973663568497, -0.0553436279296875, -0.010319526307284832, 0.008326583541929722, -0.05031924322247505, 0.0111569007858634, -0.024273352697491646, -0.10818471014499664, 0.03309377655386925, -0.007754046469926834, 0.026876969262957573, 0.02052881382405758, -0.011720607057213783, -0.002122217323631048, -0.05077522248029709, 0.045487724244594574, 0.019819920882582664, -0.021374793723225594, -0.050073686987161636, 0.003873632987961173, -0.04634012654423714, -0.011653904803097248, 0.10469743609428406, 0.05514693632721901, -0.23579314351081848, -0.008501249365508556, -0.012711731716990471, -0.010559816844761372, -0.04266722500324249, 0.07194051146507263, -0.04641691595315933, 0.003434422193095088, -0.04569176957011223, -0.0020645365584641695, 0.05083933100104332, 0.033242225646972656, -0.021969368681311607, -0.1038375049829483, 0.024122115224599838, 0.013291924260556698, 0.03307553380727768, -0.08721836656332016, 0.01980835758149624, -0.020964892581105232, 0.04361255094408989, 0.04954347014427185, 0.1407499611377716, -0.028997527435421944, -0.03272298350930214, 0.051233839243650436, -0.002755703404545784, 0.014872814528644085, -0.018819216638803482, -0.002077414421364665, -0.016397837549448013, 0.0036932046059519053, 0.03162989392876625, 0.05837555602192879, -0.0013749472564086318, -0.04239920899271965, 0.0032554911449551582, -0.05298002436757088, -0.0025346344336867332, 0.0016184709966182709, -0.008611584082245827, 0.005832477007061243, -0.00022099973284639418, 0.030657362192869186, 0.06836523115634918, 0.03006555512547493, -0.016991566866636276, -0.013321363367140293, -0.010115991346538067, -0.013710696250200272, -0.02188284695148468, -0.01722395233809948, 0.015010549686849117, 0.05741364136338234, 0.015584363602101803, 0.04055272042751312, -0.07633267343044281, -0.001946801203303039, -0.013797473162412643, -0.002103041624650359, 0.01373739168047905, -0.049608949571847916, 0.03515275940299034, 0.0006977259763516486, 0.027984295040369034]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>recommends_better_pricing_transparency</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Customer service- also cisibility or recommending best current plans and pricing\nReason for given NPS: Much of a much mess providers- your customer service in store is terrible and also on phone -takes ages to get through.', 'Improvement needed: No affordable plans, ridiculous prices. Customer service below average. What we pay for is not worth it\n', 'Improvement needed: Keep your promises\nReason for given NPS: Keep your promises']</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[0.016886044293642044, -0.06366027891635895, -0.017084263265132904, 0.004909145180135965, 0.027605881914496422, -0.0028486012015491724, -0.045570652931928635, 0.09545432776212692, 0.05599372461438179, -0.000617549812886864, -0.01403767429292202, 0.028039708733558655, -0.036419495940208435, 0.041912954300642014, 0.0644330084323883, 0.022712262347340584, 0.10068721324205399, 0.0015971965622156858, -0.0628153458237648, -0.0414714515209198, 0.11435534805059433, -0.04187113046646118, 0.016918780282139778, -0.007582827005535364, -0.014550396241247654, -0.0428604781627655, -0.029263705015182495, -0.06363800913095474, -0.07533106952905655, -0.11231105774641037, -0.003182168584316969, -0.051915306597948074, 0.030966516584157944, 0.01674713008105755, 0.003967131953686476, -0.01806766353547573, -0.010175245814025402, -0.05780095234513283, 0.01542760245501995, 0.03336561098694801, 0.005157903302460909, 0.01293989084661007, -0.041888151317834854, -0.012457892298698425, -0.021624654531478882, 0.0036971312947571278, 0.036784570664167404, -0.020573599264025688, -0.0224921777844429, 0.0148726562038064, 0.03430362418293953, -0.032323017716407776, -0.04905020818114281, -0.0185821745544672, -0.024983733892440796, 0.02368174120783806, 0.0407436229288578, 0.03388190641999245, 0.0035783937200903893, 0.02033056505024433, 0.011950673535466194, 0.05263204500079155, -0.12992210686206818, 0.037835005670785904, 0.003835218958556652, -0.005631145555526018, -0.024742817506194115, -0.021724889054894447, -0.07849088311195374, 0.024310290813446045, 0.001234382507391274, 0.001735881669446826, -0.012368660420179367, 0.028469478711485863, -0.015967179089784622, -0.012468891218304634, 0.04663647711277008, 0.03154691681265831, -0.02518342435359955, 0.02341477759182453, -0.03290312737226486, 0.03322065994143486, -0.01653873361647129, -0.06939103454351425, -0.008696552366018295, -0.04806038737297058, 0.054388754069805145, 0.017645040526986122, 0.030341042205691338, -0.0363001711666584, 0.05261307954788208, -0.02680562250316143, 0.01411428116261959, 0.011523441411554813, -0.038551028817892075, 0.023468345403671265, 0.02026253379881382, 0.03989806026220322, -0.061831116676330566, 0.32576996088027954, 0.02736620232462883, -0.0002464859571773559, -0.005297552794218063, -0.005382777191698551, 0.0015695724869146943, -0.05510227382183075, 0.018955014646053314, 0.047938667237758636, -0.002020008862018585, 0.02263246662914753, -0.013202939182519913, -0.001121841836720705, 0.05779373645782471, -0.047301631420850754, -0.013155234977602959, 0.13650257885456085, 0.005732257384806871, -0.050797633826732635, 0.03680100664496422, -0.030107665807008743, 0.0052998922765254974, 0.014964216388761997, 0.05286664515733719, 0.010692870244383812, -0.034852996468544006, 0.013475990854203701, 0.04101356118917465, 0.10739336162805557, 0.028407348319888115, 0.09782211482524872, -0.011043846607208252, -0.040211740881204605, -0.034479252994060516, 0.04242642968893051, 0.010481198318302631, 0.008187219500541687, -0.02517227828502655, 0.04591893404722214, 0.06844231486320496, 0.09375456720590591, -0.07281102240085602, -0.0022102065850049257, -0.06172362342476845, -0.06295269727706909, -0.036546170711517334, 0.08873485773801804, -0.049677398055791855, 0.05244280770421028, -0.019287506118416786, -0.07732751220464706, -0.008887900970876217, 0.03916063532233238, -0.017486536875367165, -0.04954993724822998, -0.005768259055912495, -0.027822155505418777, 0.018031112849712372, -0.025498228147625923, -0.04711362347006798, 0.05483708530664444, 0.047241900116205215, -0.04197120666503906, -0.06632371991872787, 0.10712214559316635, -0.0988413617014885, -0.07038348913192749, -0.05029230937361717, -0.010484269820153713, -0.0591045618057251, -0.005382881965488195, -0.06079920008778572, 0.04315555840730667, -0.03990337252616882, 0.04444879665970802, 0.06682882457971573, -0.0013816279824823141, -0.03720585256814957, 0.023300902917981148, -0.03154531121253967, -0.037510573863983154, 0.06284531205892563, 0.022398242726922035, -0.06301970034837723, 0.026977797970175743, 0.031338684260845184, -0.02984614111483097, -0.04666346311569214, -0.003772726282477379, -0.0018756961217150092, 0.043017685413360596, -0.05885615572333336, -0.04452867805957794, -0.05955740436911583, 0.037766825407743454, 0.005332272965461016, -0.009750233963131905, -0.00972337368875742, -0.014149162918329239, -0.015073252841830254, -0.015240319073200226, 0.02155616320669651, -0.012285434640944004, -0.04318782687187195, 0.039667367935180664, -0.005040619056671858, 0.09013190120458603, 0.03533696383237839, -0.03573606163263321, 0.08480498194694519, -0.0028196931816637516, -0.011657298542559147, 0.036658018827438354, 0.0676029771566391, 0.0097902100533247, -0.054183680564165115, 0.060001686215400696, 0.04915948957204819, 0.04938441887497902, 0.0030402643606066704, 0.0185894463211298, 0.02048705704510212, 0.06297405809164047, -0.03804270923137665, -0.3305804431438446, 0.02951982244849205, -0.011095630005002022, 0.03755483031272888, -0.011563055217266083, -0.046385228633880615, 0.08920139819383621, 0.01774405501782894, -0.024537798017263412, 0.12824080884456635, 0.048418182879686356, -0.024598894640803337, 0.008732689544558525, -0.00904916226863861, 0.018891017884016037, 0.01058795116841793, 0.014140400104224682, 0.005294277332723141, 0.02618137001991272, -0.0020795713644474745, -0.034518614411354065, 0.035398926585912704, 0.03634987026453018, -0.06687060743570328, 0.03249198570847511, 0.022701561450958252, 0.15924684703350067, -0.04562756046652794, -0.039363883435726166, 0.026193389669060707, 0.055369824171066284, -0.0231953002512455, -0.03468674421310425, -0.07558031380176544, -0.02511739358305931, 0.03794087469577789, -0.00036109861684963107, 0.019445007666945457, -0.05721729248762131, -0.05021174997091293, 0.07719311118125916, 0.027732502669095993, -0.009356562048196793, -0.07681254297494888, -0.013679186813533306, -0.031908269971609116, -0.009132473729550838, 0.0671110674738884, -0.04201141372323036, 0.019958997145295143, -0.01116111595183611, -0.0561625137925148, 0.032694876194000244, 0.007544574327766895, 0.039300352334976196, -0.012717230245471, 0.00034446653444319963, -0.011291577480733395, -0.050426121801137924, 0.03576933220028877, -0.016856325790286064, 0.009655173867940903, 0.017964454367756844, -0.04609278216958046, 0.014999670907855034, -0.032404445111751556, -0.009681761264801025, 0.004413137678056955, -0.025083579123020172, 0.05384261533617973, -0.033080775290727615, -0.007159801200032234, -0.038290515542030334, -0.03243521973490715, 0.03287246823310852, 0.04917500913143158, -0.012425977736711502, 0.024503206834197044, -0.039026517421007156, -0.03668760508298874, 0.016993246972560883, 0.09392326325178146, 0.02894238755106926, 0.020789559930562973, -0.01598217524588108, 0.001926468568854034, 0.003101130248978734, 0.003349783830344677, -0.02347322180867195, 0.004611405078321695, -0.03218217194080353, -0.04946117848157883, -0.08721946179866791, 0.030438540503382683, 0.08304255455732346, -0.034666575491428375, -0.28214389085769653, 0.011701961047947407, -0.004020113032311201, 0.01086357794702053, -0.003889202605932951, 0.022255072370171547, 0.0024593668058514595, -0.05418417230248451, -0.031176159158349037, -0.004706152249127626, -0.008535517379641533, 0.0504147931933403, -0.044952642172575, -0.00941864587366581, -0.005696042440831661, 0.019962621852755547, 0.0662737712264061, -0.06926701217889786, 0.04629173129796982, 0.038589950650930405, 0.010243155062198639, -0.028319934383034706, 0.17935596406459808, -0.013064255937933922, -0.0434713289141655, 0.005636223126202822, 0.0036151395179331303, 0.03450337052345276, 0.057530950754880905, 0.03431886062026024, -0.02707928791642189, 0.012832160107791424, 0.02583461068570614, -0.028673723340034485, 0.035182274878025055, 0.032360345125198364, -0.025571180507540703, -0.06457348167896271, -0.0064120301976799965, -0.023091109469532967, -0.026447679847478867, -0.0024110027588903904, -0.048527639359235764, 0.015268570743501186, 0.03561193123459816, -0.025692230090498924, -0.02574576996266842, -0.018970521166920662, -0.005772546865046024, 0.005829240195453167, -0.05370389670133591, -0.0026454157195985317, -0.008512142114341259, 0.024539820849895477, 0.0423000194132328, 0.08826044946908951, -0.03773041442036629, 0.018252553418278694, 0.01940915733575821, -0.04818450286984444, -0.028837261721491814, -0.011575225740671158, 0.003782793879508972, -0.01224803552031517, 0.036669399589300156]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>mobile_credit_depletes_quickly</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Be fair to your customers specially in the mobile or phone credit or top up sometimes we can't use our credit but the credit it's finished easily I don't know what happened\n", "Improvement needed: I hope it will either drop prices or increase data allowances because data-featured prepaid plans are expensive in New Zealand, including One NZ 🥲\nReason for given NPS: I had a great experience with a customer service name Vincent? I forgot his name but he's a Filipino. He was outstanding and got to the problem quickly and was very polite. The support I received was thorough and timely my problem was addressed in a single interaction. He set up my new phone and was incredibly patient. He is a credit to your store. Excellent service and helpfull staff. Would highly recommended..", "Improvement needed: A few years ago I was on prepay and most of my data that I was limited to just dissapeared and my credit along with it. I paid for more data then that dissapeared within minutes for no apparent reason. I was so infuriated I got set up with an unlimited plan so I didn't have to deal with this randomness again and having my credit sucked away. I was on prepay with data for about 7 years and never had any issues and my bill was only about $25 a month. Now it's almost $50 but I do enjoy the stress free element of unlimited data.\nReason for given NPS: Ive been using this service for years and havnt had too many issues."]</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[-0.03996102511882782, 0.007808669004589319, 0.0035664173774421215, -0.026816299185156822, 0.005156729836016893, -0.08638738840818405, -0.03593527898192406, 0.07180169224739075, 0.07439856231212616, -0.07229235023260117, 0.014413043856620789, 0.02246464416384697, 0.05786539241671562, 0.03466635197401047, 0.024851426482200623, -0.028164125978946686, 0.08730732649564743, -0.029470883309841156, -0.0006143401260487735, -0.012810585089027882, -0.0011492386693134904, -0.0755731612443924, -0.02877257578074932, -0.0009736457723192871, 0.01685846410691738, 0.006009594537317753, -0.04493185505270958, -0.05819624289870262, -0.09389200806617737, -0.11989552527666092, 0.03199789673089981, -0.03613406792283058, 0.0833943635225296, 0.04004770889878273, 0.05064922943711281, 0.004329185001552105, -0.10829684883356094, 0.026690945029258728, 0.01475919596850872, 0.031661257147789, -0.047023922204971313, 0.06792563199996948, -0.08262944966554642, -0.0077561489306390285, -0.05674925446510315, -0.011035100556910038, -0.02072756737470627, 0.00524620758369565, 0.12198781222105026, -0.040541235357522964, 0.030834414064884186, 0.015697112306952477, -0.004484347999095917, 0.03152594342827797, 0.017785143107175827, 0.048094093799591064, -0.03814971446990967, 0.06067382171750069, 0.006838405039161444, 0.021357255056500435, 0.03196878731250763, -0.02071661874651909, -0.10937212407588959, 0.03668900206685066, -0.0074524544179439545, 0.03232089802622795, 0.026286931708455086, -0.03399887681007385, -0.06589393317699432, 0.002368006156757474, -0.020148102194070816, 0.03485308960080147, -0.0017430044244974852, 0.06930118054151535, 0.027608470991253853, -0.015337716788053513, 0.02006043680012226, 0.001444219145923853, -0.012288680300116539, 0.030589180067181587, 0.02703109383583069, -0.05096914991736412, -0.03251270204782486, -0.014470270834863186, -0.018220175057649612, -0.06277339160442352, 0.006824148818850517, -0.043884456157684326, 0.04539603367447853, -0.014012021943926811, 0.03625023737549782, -0.04419159144163132, 0.07342348247766495, 0.04391402006149292, -0.10658825933933258, -0.00911940447986126, -0.019741320982575417, 0.024957645684480667, -0.05119045451283455, 0.3617301881313324, 0.0026541578117758036, 0.10400350391864777, 0.028621844947338104, -0.031069781631231308, 0.024266375228762627, -0.004634515848010778, -0.009958385489881039, 0.026512855663895607, -0.055319253355264664, 0.0003671288723126054, -0.03756017982959747, 0.018083004280924797, 0.044153112918138504, -0.044508494436740875, 0.02676822803914547, 0.08878432214260101, -0.0481276772916317, -0.004788545425981283, 0.0056903609074652195, 0.08009914308786392, -0.07035405933856964, 0.023482607677578926, 0.009847438894212246, -0.022930225357413292, -0.04191465303301811, -0.021769484505057335, -0.010981163010001183, 0.09286206215620041, -0.026727067306637764, 0.04482905566692352, -0.00757189467549324, -0.005898152478039265, -0.07245306670665741, 0.011336817406117916, -0.009564261883497238, -0.010316463187336922, 0.02399354986846447, 0.03243404999375343, 0.07039119303226471, -0.057670675218105316, -0.06409870833158493, -0.006559735629707575, -0.06469868868589401, -0.0554521344602108, 0.01804019697010517, 0.028754286468029022, 0.04479902982711792, 0.05895943194627762, 0.006689923349767923, -0.046562857925891876, 0.0013796110870316625, 0.02340642921626568, 0.10414031893014908, -0.049959730356931686, -0.006363901309669018, 0.035051822662353516, 0.06441687047481537, 0.00027219849289394915, 0.011826552450656891, -0.009963366203010082, 0.040733929723501205, -0.0540672242641449, -0.04127912595868111, 0.09224192798137665, 0.048824988305568695, -0.009163685142993927, 0.04011952877044678, 0.025088118389248848, -0.04901743307709694, 0.0023580880369991064, -0.06822676211595535, 0.04567652568221092, -0.0460624098777771, -0.024592556059360504, 0.07454082369804382, -0.07734377682209015, -0.08615979552268982, 0.02982165478169918, 0.012603454291820526, 0.003609792562201619, -0.04890985041856766, -0.010635271668434143, -0.07711227238178253, -0.00451803021132946, 0.04056446626782417, 0.012840046547353268, -0.02108907885849476, -0.022050224244594574, 0.04721726477146149, -0.02128562517464161, -0.07771578431129456, -0.05245699733495712, -0.03563157841563225, -0.04972277209162712, -0.03386839106678963, 0.0037278220988810062, -0.0013562868116423488, -0.04281456768512726, -0.004058517049998045, -0.002485088538378477, 0.07792171835899353, -0.015034018084406853, -0.022033758461475372, 0.0547771193087101, -0.008116872981190681, 0.03367805480957031, -0.03543528914451599, 0.0005662078037858009, 0.0057557448744773865, -0.012966769747436047, 0.020445100963115692, 0.005327761173248291, 0.04413425549864769, 0.007482368964701891, 0.07502420246601105, -0.01874961331486702, -0.03151003271341324, 0.007349483203142881, 0.019994746893644333, -0.009811998344957829, -0.012650660239160061, -0.0076499381102621555, 0.07223204523324966, -0.28836768865585327, -7.889344124123454e-05, -0.01724909618496895, -0.04311450943350792, -0.021432381123304367, -0.044600408524274826, -0.041273824870586395, -0.05884258449077606, 0.048846978694200516, -0.014208906330168247, 0.0381832979619503, 0.013376970775425434, 0.0415070466697216, -0.011600656434893608, 0.034457623958587646, -0.007206064648926258, -0.015470289625227451, 0.04681936651468277, 0.01628355123102665, -0.012847071513533592, 0.009186496958136559, -0.035869624465703964, 0.041761044412851334, -0.038323357701301575, 0.025673430413007736, 0.007743215654045343, 0.1786564290523529, -0.017542509362101555, -0.0714583620429039, 0.03318202495574951, 0.061930399388074875, 0.07744164019823074, 0.006032334174960852, -0.0941920205950737, -0.03549005463719368, -0.011476746760308743, 0.014074109494686127, -0.052496932446956635, -0.01672736369073391, -0.028654327616095543, -0.05519622564315796, 0.03178834542632103, 0.030958732590079308, -0.024272309616208076, 0.04582541808485985, 0.0002246479270979762, -0.07121270895004272, 0.06945334374904633, -0.007391344290226698, 0.04095016047358513, 0.05852176249027252, -0.0028097443282604218, 0.04180314764380455, 0.024512575939297676, 0.0471712201833725, -0.02351338416337967, -0.0016003252239897847, 0.06019953638315201, -0.07006556540727615, -0.02683788724243641, -0.00965945702046156, -0.08532547205686569, 0.0464966744184494, -0.038508448749780655, 0.05386459454894066, 0.012154893949627876, -0.002710473956540227, -0.0014339340850710869, -0.01990819163620472, 0.014528347179293633, -0.021254917606711388, 0.07592752575874329, 0.010141138918697834, -0.020908143371343613, 0.01504856999963522, -0.018339939415454865, 0.058585137128829956, -0.0033932062797248363, 0.010677452199161053, -0.06144028156995773, 0.05778117850422859, 0.012655901722609997, 0.08523453027009964, 0.008121725171804428, -0.04614061489701271, 0.019606420770287514, 0.049008145928382874, 0.024283597245812416, -0.013370241038501263, -0.059451960027217865, -0.03625381365418434, 0.018017955124378204, -0.053631458431482315, 0.036542266607284546, 0.05322176218032837, -0.04120323807001114, -0.20201735198497772, -0.009403943084180355, -0.02632824145257473, -0.027300188317894936, 0.034929629415273666, 0.08197159320116043, 0.017405563965439796, -0.04748176038265228, -0.05198172852396965, 0.05364936590194702, -0.05364292114973068, 0.03887435793876648, 0.007538585923612118, -0.06559567153453827, 0.07988308370113373, -0.028439125046133995, 0.010164309293031693, -0.012988422997295856, 0.009945995174348354, -0.01018065307289362, 0.05051110312342644, -0.023637255653738976, 0.10677088052034378, -0.030029134824872017, -0.01101408526301384, 0.06677860021591187, 0.007662450894713402, 0.013738725334405899, 0.11619376391172409, 0.0034752110950648785, -0.02259461209177971, 0.03629918769001961, 0.027230679988861084, -0.014527500607073307, -0.005338041577488184, -0.03024810366332531, 0.0019127842970192432, -0.03472070023417473, 0.027568018063902855, -0.017804985865950584, -0.05106297880411148, 0.02580558881163597, -0.024088429287075996, -0.010124161839485168, 0.012110073119401932, -0.03475111722946167, -0.014355291612446308, -0.03361676633358002, -0.00011686584184644744, 0.10714305937290192, 0.006088250316679478, -0.09006347507238388, -0.03014736995100975, -0.02156793139874935, -0.02307802066206932, 0.02342626452445984, -0.0684419572353363, 0.03411954268813133, 0.04797631502151489, -0.03170376271009445, -0.0009546101209707558, 0.029114477336406708, 0.035470034927129745, -0.05052994564175606, 0.027762265875935555]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>recurring_unresolved_service_problems</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Communication especially at call centre\nReason for given NPS: continual issues with service. Very difficult to resolve due to poor communication.', 'Improvement needed: Getting me an internet connection, you’ve no problem charging every month for it, it would be nice to receive it.\nReason for given NPS: Paying for internet without receiving internet three quarters of the time.', "Improvement needed: Reception around the country could be improved for some reason I'll have 4g signal then it disappears for whatever reason\nReason for given NPS: Had an issue with an account &amp; no-one replied until I copied CEO in!!"]</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[-0.022598939016461372, -0.05946796014904976, 0.022833503782749176, 0.0037595382891595364, -0.006766939535737038, -0.08197173476219177, -0.0824623629450798, 0.006104414351284504, 0.02735838294029236, -0.06953153014183044, 0.04751783236861229, 0.001326443161815405, 0.08044233173131943, -0.005455991718918085, 0.04826517403125763, 0.07059382647275925, 0.014684952795505524, 0.04584846273064613, 0.023166220635175705, -0.010941685177385807, 0.027995506301522255, -0.030214695259928703, 0.017642509192228317, 0.03848223015666008, -0.09675956517457962, 0.0956140011548996, -0.04290447384119034, -0.04606461524963379, -0.037963416427373886, -0.14740242063999176, 0.012615174055099487, -0.07239871472120285, -0.029867172241210938, 0.020370855927467346, 0.07018105685710907, 0.026690568774938583, 0.004785066936165094, 0.022501975297927856, 0.030037149786949158, 0.05568338558077812, 0.008416117168962955, 0.0093805817887187, -0.0332912839949131, -0.010618040338158607, -0.06742697954177856, -0.05776377394795418, -0.005471204873174429, 0.006841231603175402, 0.08832090348005295, -0.04751376062631607, -0.017515171319246292, 0.007402084302157164, -0.02251700684428215, 0.04870082437992096, -0.018940171226859093, 0.06091936677694321, 0.05236981809139252, 0.062282416969537735, 0.03325836360454559, 0.03957824409008026, 0.024271897971630096, -0.029436223208904266, -0.15349772572517395, 0.05306875333189964, 0.021829774603247643, -0.015616093762218952, 0.005150836892426014, -0.01750621385872364, 0.037498511373996735, -0.03127104416489601, -0.08820845186710358, -0.0012660736683756113, -0.022084461525082588, 0.14785267412662506, 0.02313305251300335, 0.04342624917626381, -0.032646797597408295, -0.0387556366622448, -0.0009612177964299917, 0.01879982091486454, -0.010711525566875935, -0.03186679631471634, -0.02992440201342106, -0.033309489488601685, -0.01922517456114292, -0.013129356317222118, -0.01038104947656393, 0.020116087049245834, 0.062074899673461914, 0.015355528332293034, -0.017693160101771355, -0.02302781119942665, 0.06747068464756012, 0.014805528335273266, -0.10327926278114319, -0.030931884422898293, 0.023396864533424377, -0.0727740153670311, -0.11154833436012268, 0.33463817834854126, -0.030796078965067863, 0.05880507454276085, 0.020825102925300598, 0.021029919385910034, -0.02085435576736927, 0.01880447007715702, -0.05391477420926094, -0.04293903335928917, -0.05226543918251991, 0.01988871768116951, 0.007295006886124611, -0.051296770572662354, 0.10149392485618591, -0.06127049773931503, 0.020779497921466827, 0.02565966174006462, -0.06743176281452179, -0.05206385254859924, -0.05103844404220581, 0.04458848014473915, 0.013906055130064487, -0.0016736332327127457, 0.05761754885315895, -0.02134030871093273, -0.016222190111875534, -0.0037019108422100544, 0.01166554819792509, 0.09019699692726135, -0.02835831604897976, 0.0007702200673520565, 0.01768222264945507, 0.06185569614171982, -0.022575469687581062, -0.016918623819947243, -0.024539615958929062, 0.030765186995267868, 0.038590289652347565, -0.014956911094486713, 0.03904605284333229, 0.06442272663116455, -0.030852144584059715, -0.048491448163986206, -0.015159156173467636, -0.01774635538458824, -0.02362149953842163, 0.05677938833832741, -0.02765629068017006, 0.10740593075752258, 0.01153647806495428, -0.016515294089913368, -0.011357626877725124, 0.007664755918085575, 0.0001944665127666667, -0.022924203425645828, 0.03802154213190079, 0.04901991784572601, 0.026237254962325096, -0.03786008059978485, 0.0012666980037465692, 0.06932272762060165, 0.005686304997652769, -0.06209532171487808, -0.021650172770023346, 0.08432643115520477, -0.02172001637518406, -0.06680303812026978, 0.006243080832064152, -0.01798378676176071, -0.08189459145069122, 0.023562084883451462, -0.04898333176970482, 0.027653515338897705, 0.031476233154535294, -0.007852975279092789, 0.021980740129947662, 0.00732713658362627, -0.04270295053720474, 0.0011550085619091988, 0.023067986592650414, 0.03450299799442291, 0.04169420897960663, 0.024545295163989067, -0.08469272404909134, 0.02682235650718212, 0.01738763228058815, -0.054881539195775986, 0.004461613483726978, -0.02282046712934971, 0.0015628687106072903, -0.08370506763458252, -0.106955885887146, -0.06646060198545456, -0.026608040556311607, -0.09809073060750961, 0.08006510883569717, -0.005463997833430767, 0.04018337279558182, -0.041347991675138474, 0.10627957433462143, -0.022602882236242294, 0.09957850724458694, 0.026070212945342064, -0.02103332430124283, 0.004072284325957298, 0.009687959216535091, 0.026309959590435028, -0.0680256187915802, 0.004677814897149801, 0.005486596375703812, 0.0070230551064014435, -0.03740343824028969, 0.0024222107604146004, 0.0737253949046135, 0.02969745174050331, -0.013496706262230873, -0.0014568197075277567, -0.04662593826651573, 0.022957850247621536, 0.04521114006638527, -0.005014493595808744, 0.04564477503299713, 0.1073065996170044, -0.034881800413131714, -0.26218366622924805, 0.02133355103433132, -0.01814284175634384, -0.04213322699069977, -0.08591382205486298, -0.0015787509037181735, -0.006890607997775078, -0.013314635492861271, -0.002967709908261895, 0.05148429423570633, 0.024486355483531952, 0.003308783983811736, 0.0393499992787838, -0.031486399471759796, -0.018488064408302307, 0.003783909138292074, -0.021542519330978394, 0.0471864715218544, -0.04633374512195587, 0.033775556832551956, 0.012036808766424656, -0.08244521170854568, 0.07394994050264359, -0.10852592438459396, -0.01766749657690525, -0.02244180627167225, 0.1391456574201584, 0.02937832660973072, -0.032322876155376434, -0.05151218920946121, 0.0639197900891304, 0.04219312593340874, -0.011002745479345322, -0.07763854414224625, 0.02797367051243782, 0.03136034309864044, 0.053053319454193115, 0.07752201706171036, 0.012909666635096073, 0.005255396012216806, -0.018313148990273476, 0.07776980847120285, -0.03661865368485451, 0.03658038377761841, -0.033780816942453384, -0.028810687363147736, 0.0036323536187410355, -0.009367719292640686, 0.013240824453532696, -0.00610576244071126, -0.043070655316114426, -0.030065856873989105, 0.02619568258523941, 0.0024600212927907705, 0.030213432386517525, 0.01139201782643795, -0.00914801936596632, -0.007803908083587885, 0.05376165360212326, -0.030837295576930046, -0.008964917622506618, -0.00374962599016726, 0.00035800880868919194, -0.023224251344799995, 0.13572552800178528, 0.007131798192858696, 0.040336884558200836, -0.011539816856384277, 0.0024573253467679024, -0.012625355273485184, -0.014505247585475445, 0.006566841155290604, -0.049388084560632706, 0.030591441318392754, -0.0017548936884850264, -0.018376577645540237, -0.010314581915736198, 0.009780471213161945, -0.023915361613035202, -0.01865244284272194, 0.01920747570693493, 0.012812633067369461, 0.05263940244913101, -0.015514595434069633, 0.04976698383688927, 0.020844463258981705, -0.019070656970143318, 0.023344071581959724, 0.0026642801240086555, -0.047142330557107925, 0.004611652344465256, 0.025444459170103073, -0.04042043909430504, 0.029104679822921753, 0.04446539282798767, 0.03067784197628498, -0.22251175343990326, -0.037869907915592194, -0.005090224556624889, -0.019566431641578674, -0.031091885641217232, 0.07050415873527527, -0.00468788668513298, 0.026181714609265327, -0.049876753240823746, -0.0189212653785944, 0.008780286647379398, 0.054248157888650894, 0.0011368884006515145, -0.017610328271985054, 0.017542090266942978, 0.013460834510624409, 0.027774466201663017, -0.06932500004768372, -0.012613176368176937, -0.10118338465690613, 0.05458265170454979, 0.04286913946270943, 0.10993646830320358, -0.020037194713950157, -0.015162929892539978, 0.03917864337563515, 0.012640204280614853, 0.04741199314594269, 0.011844801716506481, 0.030560625717043877, -0.07084643095731735, -0.01708206720650196, 0.031167224049568176, -0.01276535727083683, -0.013649581000208855, 0.023297356441617012, 0.06357480585575104, 0.019978487864136696, 0.037461504340171814, -0.01223404984921217, -0.01741456799209118, 0.027981966733932495, -0.047003358602523804, 0.0037491347175091505, 0.06645666062831879, -0.034007687121629715, 0.026020383462309837, -0.02796878106892109, 0.017499711364507675, -0.027877213433384895, -0.013950161635875702, -0.10935043543577194, 0.020911674946546555, 0.05527215078473091, -0.02425636537373066, 0.03166520223021507, -0.04840577021241188, -0.006944376975297928, -0.013349656015634537, -0.0201727207750082, 0.03841548413038254, -0.0762731283903122, 0.06929968297481537, -0.01501030009239912, -0.006668464280664921]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>high_cost_for_basic_internet_plan</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Information on fibre and and how to get it sorted to improve on what we have now\nReason for given NPS: Costly and slow Internet, not on fibre', 'Improvement needed: Pricing plans for data use\nReason for given NPS: Great product but it is a tad exspensive.', 'Improvement needed: Reduced data costs\nReason for given NPS: Satisfied with coverage and call quality']</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[-0.07514458149671555, -0.044819675385951996, -0.013984589837491512, -0.03419052064418793, 0.010463481768965721, -0.020297115668654442, -0.044445667415857315, 0.09610358625650406, -0.013150522485375404, -0.027934355661273003, 0.04741620644927025, 0.03271894529461861, 0.04513274505734444, 0.017366239801049232, 0.033852919936180115, 0.03390919044613838, 0.04895009472966194, -0.10061971843242645, 0.0047053806483745575, 0.11046178638935089, 0.1071767583489418, -0.0413968563079834, -0.036704082041978836, -0.017198601737618446, 0.04329700395464897, -0.033475156873464584, 0.0023029795847833157, 0.021133577451109886, -0.01956157572567463, -0.08099840581417084, 0.07157030701637268, 0.0031438206788152456, 0.037386927753686905, 0.0281867366284132, 0.027630547061562538, -0.0555666983127594, 0.004573952406644821, -0.04400704428553581, -0.014314125292003155, 0.0368182472884655, -0.02155297063291073, 0.0653945729136467, -0.06007804721593857, 0.03914395347237587, 0.0016698440304026008, -0.025128526613116264, -0.002156883478164673, -0.02679343894124031, 0.05639848858118057, -0.006123771425336599, 0.01709701120853424, 0.02467595413327217, -0.018046332523226738, -0.012774107046425343, 0.018816743046045303, 0.025317806750535965, 0.025272216647863388, 0.016068564727902412, 0.028584623709321022, -0.0010434533469378948, -0.0048662894405424595, 0.04148116335272789, -0.14115647971630096, 0.04288147762417793, 0.0036920737475156784, 0.01467803493142128, -0.007258212193846703, 0.02513837069272995, 0.041723933070898056, 0.02106676995754242, -0.010646126233041286, 0.0052917166613042355, 0.04072009399533272, 0.037701316177845, 0.017473042011260986, 0.01817929372191429, -0.01715249754488468, 0.02025620825588703, 0.03773786872625351, 0.019465988501906395, 0.03670059144496918, 0.006218259688466787, 0.01879134587943554, 0.012950374744832516, 0.00471518374979496, -0.09862357378005981, 0.023684358224272728, -0.0033777737990021706, 0.013684079051017761, -0.05349867790937424, -0.01946491189301014, -0.005196090321987867, -0.005753065459430218, -0.02134069800376892, -0.04413263499736786, 0.02928425930440426, 0.0086177634075284, -0.008885882794857025, -0.08334469050168991, 0.3893487751483917, -0.016232924535870552, -0.041357219219207764, 0.03362185135483742, -0.025467103347182274, 0.019023079425096512, -0.06219298765063286, 0.001408671261742711, 0.02669966034591198, -0.0009911369998008013, -0.01215249951928854, -0.048904791474342346, -0.04727916046977043, 0.012026934884488583, 0.017814261838793755, 0.017906850203871727, 0.02384617179632187, -0.011909939348697662, -0.06502530723810196, 0.008390208706259727, 0.03725329786539078, -0.017234647646546364, -0.0676267221570015, 0.019323227927088737, -0.0038783105555921793, -0.017652327194809914, -0.03279366344213486, 0.06203081086277962, 0.08911212533712387, 0.01652391627430916, 0.12233920395374298, 0.006303873844444752, -0.07653489708900452, 0.010183422826230526, 0.045198626816272736, 0.020696837455034256, -0.006148279178887606, 0.06804624199867249, 0.01905624009668827, -0.07359463721513748, 0.06733384728431702, -0.07693015038967133, -0.025819748640060425, -0.022951776161789894, -0.06900624185800552, 0.02090764231979847, 0.11686702072620392, 0.05228252708911896, 0.0670371949672699, 0.03577142953872681, -0.08072302490472794, -0.008707897737622261, 0.022830219939351082, 0.08317577838897705, -0.08221334964036942, -0.029040439054369926, -0.03844835236668587, 0.04168086126446724, 0.013797569088637829, 0.00029024522518739104, -0.041308484971523285, 0.025163860991597176, -0.055563900619745255, -0.07452563941478729, 0.06441624462604523, 0.03279055655002594, -0.08170419931411743, -0.08886819332838058, -0.045658890157938004, -0.030742870643734932, -0.0004248340264894068, -0.08607998490333557, 0.01935088261961937, 0.0044804466888308525, 0.028371812775731087, 0.09537968039512634, -0.02125098556280136, -0.04946441575884819, 0.005327408667653799, -0.05536717548966408, -0.011731470003724098, 0.004924481734633446, -0.010328738950192928, -0.04444551840424538, -0.019191483035683632, -0.0279975775629282, -0.0478360652923584, -0.04911331087350845, 0.03804397955536842, 0.018992843106389046, -0.06559150665998459, -0.0882430449128151, 0.03800695762038231, -0.007619205396622419, -0.038929373025894165, -0.019390925765037537, 0.009738808497786522, -0.040397003293037415, 0.02549281157553196, 0.040624115616083145, -0.03241043537855148, 0.10445035994052887, -0.02529405616223812, -0.06908608227968216, 0.012510008178651333, -0.042572591453790665, -0.001156131154857576, 0.036115583032369614, 0.02104593627154827, 0.09173671156167984, -0.023604340851306915, 0.04422961175441742, -0.035051826387643814, 0.09339631348848343, 0.022537961602211, -0.03889175131917, -0.006205515004694462, -0.01231131237000227, 0.08823838829994202, 0.022500935941934586, 0.0474063940346241, 0.010504807345569134, 0.03439321368932724, -0.0013349826913326979, -0.28439268469810486, 0.002908193040639162, -0.0028328723274171352, -0.05606860667467117, 0.01990872621536255, -0.018373170867562294, 0.03514022380113602, 0.0015178347239270806, -0.03175504505634308, 0.10637139528989792, 0.060284215956926346, -0.017033159732818604, -0.019321570172905922, -0.015111895278096199, -0.0297626331448555, 0.020415106788277626, 0.011455444619059563, 0.029742956161499023, 0.02799425646662712, 0.02300623618066311, -0.014484229497611523, 0.026979774236679077, -0.02311422862112522, -0.02192799188196659, 0.01668521575629711, 0.043153777718544006, 0.14695382118225098, -0.08214066177606583, 0.023546643555164337, -0.05512780323624611, 0.07904308289289474, -0.013978584669530392, -0.02279563434422016, -0.04617200419306755, -0.017761453986167908, 0.029714392498135567, 0.019223514944314957, 0.048322346061468124, -0.009143670089542866, -0.0711636170744896, -0.03635136038064957, 0.014299401082098484, -0.04362509399652481, -0.057450421154499054, -0.01146426796913147, 0.015816230326890945, -0.05254758521914482, 0.06812319904565811, -0.03530893102288246, -0.011147414334118366, 0.00631502503529191, -0.039282072335481644, 0.015755387023091316, 0.02942538633942604, 0.07156851142644882, -0.02891729772090912, -0.08085613697767258, -0.003490957897156477, -0.059564340859651566, -0.011400806717574596, 0.017252936959266663, 0.02443740889430046, 0.048885028809309006, -0.018996957689523697, 0.06889934092760086, -0.03232649713754654, 0.05250893160700798, 0.0037313606590032578, -0.04907791689038277, 0.010090244002640247, -0.0071206167340278625, 0.01207557413727045, 0.032423704862594604, 0.025250433012843132, 0.007264204788953066, -0.015561109408736229, 0.02514178305864334, 0.002827224787324667, -0.0065093557350337505, -0.037404704838991165, 0.041267916560173035, -0.02302282489836216, 0.012606979347765446, 0.011222726665437222, -0.032221291214227676, 0.04034684970974922, 0.030693091452121735, 0.009935147128999233, -0.02014245092868805, 0.012269150465726852, -0.0396404042840004, -0.02016163244843483, -0.015187123790383339, 0.02476833015680313, 0.06069861724972725, -0.04311428219079971, -0.2811915874481201, 0.051216643303632736, -0.043076615780591965, -0.032865773886442184, 0.005524509586393833, -0.005254195537418127, 0.02557881735265255, 0.014648167416453362, -0.0467258021235466, 0.037454862147569656, 0.06274254620075226, -0.015403653495013714, -0.0017817218322306871, -0.032499682158231735, 0.0105014368891716, -0.00952012836933136, 0.022819362580776215, -0.0013380339369177818, -0.05039260536432266, 0.03280223160982132, -0.0063645425252616405, -0.00891106203198433, 0.09852604568004608, -0.028420090675354004, -0.015491563826799393, -0.020895803347229958, -0.05860904976725578, 0.07487393915653229, 0.08079478144645691, -0.03547346219420433, -0.02153530903160572, -0.016307970508933067, 0.04302849620580673, -0.052725739777088165, 0.002619366394355893, 0.0002158845163648948, 0.011971699073910713, -0.05914434418082237, -0.0005820169462822378, -0.0005416508065536618, -0.06227598711848259, 0.027056481689214706, -0.035181641578674316, 0.041750468313694, 0.04406096413731575, 0.03954188525676727, -0.033785298466682434, -0.022359609603881836, -0.010896027088165283, 0.008811124600470066, -0.05811779201030731, -0.007123499643057585, 0.05536644905805588, 0.040295861661434174, 0.026017386466264725, 0.012716890312731266, -0.04750017449259758, -0.006619519088417292, -0.050160255283117294, -0.041687943041324615, 0.005215960554778576, -0.002064659260213375, -0.008679401129484177, 0.04429783299565315, 0.017319703474640846]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>lack_of_incentives_on_new_purchases</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Ive been your customer for 18 years with the same phone number since 2005. I think I could be valued more. Value old customers more is what OneNZ can improve.\nReason for given NPS: I think 2 degree creates a good opposition. They have good incentive often offering free gifts in different circumstances. I asked One NZ for a free pair of ear buds when I purchased a phone for my girlfriend but was denied.', "Improvement needed: More deals on replacement phones\nReason for given NPS: I haven't had any issues at all ... I would be happy to recommend OneNZ to anybody.", 'Improvement needed: Bring in refer a friend offer.\nI have already referred so many people and they are still with Vodafone.\nReason for given NPS: I have been with you guys for almost more than 7-8 years. I have had no major issues except for 1 or 2 times where in your team helped resolve the issue asap.']</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[-0.0474502295255661, -0.004055498633533716, 0.0360153429210186, 0.001130193006247282, 0.017918666824698448, -0.020844243466854095, 0.0027126220520585775, 0.0718727558851242, 0.05076208338141441, -0.009081880562007427, 0.03724906966090202, 0.02431700937449932, -0.04538390040397644, 0.02649027109146118, 0.02192499488592148, 8.445778803434223e-05, 0.043778207153081894, -0.06580539792776108, -0.04606672748923302, 0.016559619456529617, 0.016295751556754112, -0.07158706337213516, 0.0048579019494354725, 0.02244720794260502, 0.0069465069100260735, 0.0033112824894487858, -0.05468487739562988, -0.04295031353831291, -0.03260982409119606, -0.1097506433725357, -0.015376919880509377, -0.040866412222385406, 0.047809626907110214, 0.020779894664883614, 0.04632207006216049, -0.05481595918536186, -0.03948508948087692, 0.013878253288567066, -0.009053656831383705, -0.005158797837793827, -0.006925726309418678, 0.02157452702522278, -0.08820316195487976, -0.000909430964384228, 0.01351140160113573, -0.027860650792717934, 0.007692093960940838, -0.011442141607403755, 0.0859222412109375, -0.0016379321459680796, 0.018331680446863174, -0.028824659064412117, -0.0017511651385575533, -0.0234479121863842, 0.019927510991692543, 0.04806641861796379, -0.009895039722323418, 0.05945342034101486, -0.004433376714587212, 0.017442401498556137, 0.014255691319704056, -0.019219698384404182, -0.11151957511901855, -0.04614271968603134, 0.015797747299075127, 0.025685906410217285, -0.04363007843494415, -0.020618116483092308, -0.015409864485263824, 0.014135388657450676, 0.033605776727199554, -0.006985012907534838, -0.008065460249781609, 0.03782815858721733, -0.0013381275348365307, -0.027155619114637375, 0.06147681921720505, 0.08168663829565048, -0.019113289192318916, 0.0371306948363781, 0.010824800468981266, -0.04230200871825218, -0.010042835026979446, 0.01889999583363533, -0.02525639347732067, -0.0629076212644577, 0.04630133882164955, 0.0063916719518601894, 0.06842789798974991, 0.039459098130464554, 0.031642187386751175, -0.021204780787229538, 0.02214391902089119, 0.01586945168673992, -0.09777793288230896, 0.0016369926743209362, -0.012433400377631187, 0.016517596319317818, -0.11495169997215271, 0.3814865052700043, 0.012646464630961418, 0.07471110671758652, -0.05442819371819496, 0.021484490483999252, 0.027696389704942703, -0.02031288668513298, -0.07230573892593384, -0.00016529971617273986, -0.041963621973991394, -0.013609694316983223, -0.04665277898311615, 0.04839567095041275, 0.08895282447338104, -0.079195536673069, -0.03744954988360405, 0.04840857908129692, -0.012054131366312504, 0.008271207101643085, 0.06066920608282089, 0.016522808000445366, -0.011248640716075897, 0.032364942133426666, 0.06639513373374939, -0.001884681754745543, -0.07266176491975784, 0.010692975483834743, -0.03217575326561928, 0.07987220585346222, 0.012241192162036896, 0.04296848550438881, -0.0032992849592119455, -0.028784628957509995, -0.046892233192920685, -0.002468510763719678, 0.031363822519779205, -0.00478939525783062, -0.004349116235971451, 0.008625146932899952, 0.0636104866862297, 0.03634975850582123, -0.02047891542315483, 0.04164236783981323, 0.01430436410009861, -0.10700241476297379, 0.0006892111268825829, 0.020229939371347427, 0.060539912432432175, 0.05015702173113823, -0.0029032223392277956, 0.013015521690249443, -0.040274497121572495, -0.0008275066502392292, -0.03591011092066765, -0.03582031652331352, -0.013236464001238346, -0.03134770691394806, -0.022305071353912354, -0.011066998355090618, -0.04221758246421814, 0.005748589988797903, 0.058059535920619965, -0.026886438950896263, -0.027291860431432724, 0.03231760859489441, 7.871293200878426e-05, -0.03237345442175865, 0.0444265753030777, -0.0176461823284626, -0.03240989148616791, 0.008922237902879715, -0.030742112547159195, 0.015358523465692997, -0.07047893106937408, 0.017046118155121803, 0.14296218752861023, -0.06388945132493973, -0.08433078229427338, -0.0066068414598703384, -0.017107633873820305, 0.014778872020542622, 0.036108531057834625, -0.006511473096907139, -0.05072193592786789, -0.01051841489970684, 0.017203133553266525, -0.04457326605916023, -0.030059942975640297, -0.030555911362171173, -0.003192273201420903, 0.0018872505752369761, -0.06373034417629242, -0.0558791346848011, -0.07323826849460602, 0.0736435055732727, 0.0265953466296196, 0.019268987700343132, -0.006470217369496822, 0.012942483648657799, 0.017793316394090652, -0.011341073550283909, -0.008790913969278336, -0.04240644350647926, 0.011248528957366943, 0.029805293306708336, -0.010280332528054714, 0.05163273587822914, 0.04573315009474754, -0.050884343683719635, 0.12569589912891388, -0.02211483009159565, -0.006036653183400631, 0.014298723079264164, 0.04048416018486023, 0.04445146024227142, -0.010867697186768055, 0.03807738423347473, 0.02346903830766678, 0.013026135042309761, 0.022113971412181854, -0.027205806225538254, -0.010757491923868656, 0.13494530320167542, 0.09468959271907806, -0.3102048635482788, 0.07601048052310944, -0.011916590854525566, -0.04735610634088516, -0.0506119467318058, -0.01129124779254198, 0.027701325714588165, -0.03564980998635292, -0.041359081864356995, 0.08069803565740585, 0.05888509750366211, 0.021178312599658966, 0.013032239861786366, 0.008432052098214626, 0.036403588950634, 0.0071470546536147594, -0.06397965550422668, 0.04418165981769562, 0.04561697319149971, 0.03363306447863579, -0.033423926681280136, 0.025158831849694252, 0.04066666588187218, -0.046116165816783905, -0.01166824996471405, 0.001981129636988044, 0.17196489870548248, 0.0010997975477948785, -0.07083010673522949, -0.009073489345610142, 0.03778773918747902, 0.11666315048933029, -0.07593364268541336, -0.061379529535770416, 0.02163461409509182, 0.03652907907962799, -0.023129338398575783, 0.018393918871879578, -0.02233126200735569, -0.04791988059878349, -0.00982772558927536, 0.03725190833210945, 0.003960439004004002, 0.04565034434199333, 0.01732836477458477, 0.013573572970926762, -0.052827998995780945, 0.052915655076503754, -0.025340070948004723, 0.01458648405969143, 0.018805591389536858, 0.026733040809631348, 0.011404512450098991, 0.010470214299857616, 0.05269898101687431, -0.01767118275165558, -0.021671433001756668, 0.024037759751081467, -0.0071935029700398445, 0.010615195147693157, 0.00470688845962286, -0.017432130873203278, 0.03964401036500931, -0.051763128489255905, 0.0889413058757782, 0.006336966995149851, -0.010926042683422565, -0.029572714120149612, -0.002650097943842411, 0.076483815908432, -0.015637919306755066, 0.03272513300180435, 0.009250924922525883, -0.04605311155319214, -0.0358167365193367, 0.005167337600141764, 0.01637914776802063, 0.017762525007128716, -0.00031447201035916805, -0.05647808313369751, -0.04129995033144951, 0.00036487210309132934, -0.00034019374288618565, 0.046645473688840866, -0.046996116638183594, 0.0217481330037117, -0.0015420786803588271, -0.03152630478143692, 0.010442233644425869, -0.024006502702832222, -0.015832550823688507, -0.015613041818141937, 0.015044240280985832, 0.04049346223473549, 0.10255811363458633, -0.006998170632869005, -0.21074700355529785, -0.017903823405504227, 0.06019270420074463, -0.04402563348412514, 0.013112642802298069, 0.06825977563858032, 0.0006204392993822694, -0.052822474390268326, -0.052422184497117996, -0.010544173419475555, 0.020772287622094154, 0.0332280769944191, -0.04597781226038933, -0.02409559302031994, 0.043068960309028625, 0.01668383739888668, 0.054921042174100876, -0.02529403567314148, 0.06642019003629684, -0.02221008390188217, 0.04670130833983421, 0.04277980327606201, 0.1778254359960556, -0.016621319577097893, -0.047988492995500565, -0.0062222108244895935, -0.04354831203818321, 0.010840616188943386, 0.0050872256979346275, 0.04609501734375954, -0.08504900336265564, -0.005437555257230997, 0.05294762924313545, 0.012999029830098152, -0.013331460766494274, 0.023589804768562317, -0.03902726620435715, -0.08959674835205078, 0.025414593517780304, -0.013347136788070202, -0.06332702189683914, 0.010501483455300331, -0.06896407902240753, -0.06310950219631195, 0.06515369564294815, -0.06502743065357208, -0.03259606659412384, -0.06595088541507721, -0.02231997437775135, 0.041079819202423096, -0.021120449528098106, -0.05451883375644684, 0.007246090564876795, -0.014810943976044655, -0.004735180176794529, -0.03445734456181526, -0.09510212391614914, 0.009006436914205551, 0.025718562304973602, -0.021327432245016098, 0.008268753997981548, -0.01280899252742529, 0.007614879868924618, -0.0015049859648570418, -0.01775660738348961]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>need_for_more_data_allowance</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>['Improvement needed: As increase in GB would be awesome.\nReason for given NPS: Have found them very easy to deal with. The change over from Vodafone to One was seamless. Always have great deals and I find it very cost effective for myself. Looking forward to seeing what they are planning for the future', 'Improvement needed: Have better mobile plans with more data\n', 'Improvement needed: More gb for the same plan\nReason for given NPS: Price is bit too high but im happy for the spacex project']</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[-0.023964662104845047, -0.046227265149354935, 0.021216556429862976, -0.0941273644566536, 0.05392298474907875, 0.013406414538621902, -0.036479175090789795, 0.035061292350292206, 0.05211871862411499, 0.008421854116022587, 0.004536159336566925, -0.04191417619585991, 0.004974139854311943, 0.012513717636466026, 0.03321341052651405, 0.022266289219260216, 0.03950317203998566, -0.019460398703813553, -0.04872842878103256, 0.03486558422446251, 0.08257931470870972, -0.03973351791501045, -0.014837062917649746, 0.0026515950448811054, -0.020981745794415474, 0.011603664606809616, -0.04111833870410919, -0.07298540323972702, -0.016992639750242233, -0.13861338794231415, -0.012693540193140507, -0.0286854337900877, 0.018728012219071388, -0.03227224200963974, 0.026560476049780846, -0.05099312961101532, -0.007819270715117455, 0.0051202005706727505, -0.04031071439385414, 0.0649988129734993, -0.00206362153403461, 0.023273080587387085, -0.05439334362745285, 0.00974900834262371, -0.05857846513390541, -0.029135812073946, -0.04256453737616539, 0.0008457322255708277, 0.038838762789964676, -0.00041606093873269856, 0.0196710042655468, -0.006007062736898661, -0.03014342300593853, 0.01395410392433405, 0.0329611636698246, 0.018367310985922813, 0.029750222340226173, 0.030833346769213676, -0.032710980623960495, 0.013937453739345074, 0.031879570335149765, 0.035967983305454254, -0.10591770708560944, -0.027843954041600227, 0.01198615226894617, -0.019673973321914673, -0.026125680655241013, -0.03605818748474121, 0.015880636870861053, 0.026187358424067497, -0.0348234698176384, -0.011569780297577381, -0.028260860592126846, 0.10160170495510101, 0.008552794344723225, -0.027600662782788277, -0.003954359330236912, 0.03726158291101456, -0.031814608722925186, -0.009774905629456043, -0.028801778331398964, 0.0012840124545618892, 0.036043111234903336, 0.012293854728341103, -0.03439616039395332, -0.11699537932872772, -0.014321863651275635, -0.014230006374418736, -0.022681523114442825, -0.036891210824251175, 0.033231399953365326, -0.024524541571736336, 0.006688185967504978, 0.032897572964429855, -0.06433597952127457, -0.014321776106953621, 0.005908304825425148, 0.05888665094971657, -0.08137372136116028, 0.41133996844291687, 0.014593633823096752, 0.002982416423037648, -0.019974440336227417, 0.018343767151236534, 0.0038136327639222145, -0.006958065088838339, -0.0010826713405549526, 0.005756877362728119, -0.038324933499097824, -0.010161236859858036, 1.255080633200123e-06, -0.03807288780808449, 0.016156038269400597, -0.03102695755660534, 0.014746209606528282, 0.03921327739953995, -0.03151862695813179, -0.04285665228962898, -0.022701628506183624, -0.028167055919766426, 0.022710373625159264, 0.0031838587019592524, 0.06068004295229912, 0.05601775273680687, -0.008033568039536476, -0.01291626412421465, 0.048901498317718506, 0.07366032153367996, 0.04029769450426102, 0.08183689415454865, -0.01851317286491394, -0.01409257110208273, -0.05013163760304451, 0.009257305413484573, 0.002646774286404252, -0.059938278049230576, 0.050763677805662155, 0.009238755330443382, 0.04311079904437065, 0.051031239330768585, -0.029146375134587288, -0.05371736362576485, -0.021193576976656914, -0.06577863544225693, 0.0182675551623106, 0.12289227545261383, -0.024673445150256157, 0.02763579972088337, -0.04556475207209587, -0.10605821013450623, -0.022232333198189735, 0.05568509176373482, 0.018734203651547432, -0.06497958302497864, -0.00287046586163342, 0.01069173589348793, 0.020556138828396797, -0.031967468559741974, -0.03067314624786377, 0.016348108649253845, 0.04468504339456558, -0.05660586804151535, -0.003367315512150526, 0.023203320801258087, -0.00448165787383914, -0.05863447114825249, -0.022284578531980515, 0.029512478038668633, -0.021447209641337395, 0.013872448354959488, 0.03143739700317383, 0.005987111944705248, -0.06849129498004913, 0.02967718057334423, 0.09855818003416061, -0.03900008276104927, -0.04398752748966217, 0.07866799086332321, -0.04912734404206276, 0.03819703310728073, 0.008536599576473236, 0.018542002886533737, -0.03147491440176964, 0.03629908710718155, -0.019320305436849594, -0.022487159818410873, 0.0021801176480948925, 0.03613877296447754, -0.0013486536918208003, -0.04372872784733772, -0.07146189361810684, 0.02468172088265419, -0.05200586095452309, -0.021284442394971848, -0.009726052172482014, -0.04884505271911621, 0.013434621505439281, 0.06315239518880844, -0.03220643848180771, -0.07300101965665817, 0.01285591535270214, -0.04522262141108513, 0.026642976328730583, 0.05366857722401619, -0.013048737309873104, -0.0066485595889389515, 0.0009981474140658975, 0.00034472791594453156, 0.07250747084617615, -0.0304703451693058, 0.04964983090758324, -0.026771821081638336, 0.0751495212316513, -0.009346650913357735, -0.027059219777584076, 0.051157914102077484, 0.04355478286743164, -0.002253935905173421, 0.03376215323805809, 0.011258327402174473, -0.015522019006311893, 0.02606615610420704, 0.04720212519168854, -0.3364797830581665, -0.0020273332484066486, 0.0006102928891777992, -0.005394239444285631, -0.024060245603322983, -0.016886236146092415, 0.09190572053194046, 0.07127437740564346, -0.08578891307115555, 0.0876006931066513, 0.026431506499648094, -0.02024167776107788, -0.0016292432555928826, 0.026031192392110825, -0.02580145373940468, -0.006693488918244839, 0.009446682408452034, -0.00933911558240652, -0.028456101194024086, 0.03965966776013374, 0.0067676641047000885, 0.03443007171154022, -0.007279559504240751, -0.025693533942103386, 0.024607349187135696, -0.00155950291082263, 0.16811397671699524, -0.04140552133321762, -0.05010400339961052, -0.010447044856846333, 0.04598298296332359, 0.08928455412387848, -0.05830992013216019, -0.08344948291778564, 0.017206255346536636, 0.0021136326249688864, -0.0971442386507988, 0.09453917294740677, -0.018180644139647484, -0.035147860646247864, 0.02664303407073021, 0.03752531856298447, -0.041972871869802475, -0.01141694188117981, 0.03632056713104248, -0.01739305816590786, -0.03514261171221733, -0.019539769738912582, 0.012725615873932838, 0.019939877092838287, -0.022512312978506088, 0.0460275299847126, 0.022289041429758072, 0.0308104045689106, 0.06938638538122177, -0.00748373894020915, -0.03805401921272278, -0.0023793636355549097, -0.009671450592577457, 0.04174324497580528, 0.024778204038739204, -0.03663079813122749, -0.023189404979348183, -0.0029909389559179544, 0.020705007016658783, -0.00752450292930007, -0.04427742213010788, -0.036147747188806534, -0.030245056375861168, 0.02189716324210167, 0.008080027997493744, 0.005951716564595699, -0.01705138012766838, -0.040752701461315155, -0.03517802059650421, 0.02808423899114132, 0.018330557271838188, 0.03723146766424179, -0.0029566201847046614, -0.03731078654527664, 0.03157671540975571, 0.003991811070591211, -0.017427532002329826, 0.05060012638568878, 0.01572280190885067, 0.024687813594937325, 0.037026990205049515, 0.059210244566202164, 0.01821199245750904, -0.016803763806819916, -0.006106792017817497, -0.012846692465245724, -0.020590875297784805, 0.01539420336484909, 0.06395894289016724, -0.007161759305745363, -0.27174273133277893, 0.007144230883568525, -0.005334889050573111, -0.001249963534064591, 0.0028690763283520937, 0.03682791441679001, -0.0017453768523409963, 0.021952776238322258, -0.053866442292928696, 0.005272051319479942, -0.014503834769129753, 0.07503017783164978, 0.0057499404065310955, 0.021796058863401413, 0.03890378773212433, 0.052172549068927765, 0.055910371243953705, -0.029296113178133965, -0.050405099987983704, -0.030567185953259468, 0.0737750306725502, 0.011086939834058285, 0.17273424565792084, -0.033078908920288086, -0.044902458786964417, 0.048530396074056625, -0.031141497194767, 0.004006725735962391, 0.046362731605768204, -0.005998282693326473, -0.04120125249028206, -0.005665226373821497, 0.028436269611120224, -0.036420710384845734, -0.017391934990882874, 0.08967743068933487, -0.041137922555208206, -0.021851401776075363, 0.03208352252840996, 0.001011574873700738, -0.011705577373504639, -0.010071099735796452, -0.07912946492433548, 0.03740014508366585, 0.10008908808231354, 0.0436771884560585, -0.023859592154622078, -0.05960166081786156, 0.0018457259284332395, 0.0015748708974570036, -0.007003162521868944, 0.0015106479404494166, -0.008964778855443, 0.019010739400982857, 0.0446624755859375, 0.01906389370560646, -0.054368529468774796, 0.05014988034963608, 0.054137151688337326, -0.025169122964143753, -0.002303145593032241, -0.026453524827957153, -0.019947722554206848, 0.009359815157949924, -0.02276766300201416]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>monthly_plans_with_additional_benefits</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Maybe some extras monthly plans and improve the coverage in some areas that doesn't work very well, but good enough anyway.\nReason for given NPS: Good service, but coverage around Queenstown and other places could improve. Fair price (although it could be better). And it was some problems in the website a few weeks ago, now fix it.", 'Improvement needed: give a more data and less speaking time  plan.\nReason for given NPS: It looks good for service.', 'Improvement needed: Better add-ons for pay monthly plans.\nReason for given NPS: Very good carrier provider for mobile. Great customer service in-store and online/over the phone so any problems I have had have been resolved very quickly. Could introduce better add-ons for mobiles on pay monthly plans. Service and value is great for the price you pay for phone plans.']</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[-0.08141522854566574, -0.04183247312903404, 0.06799417734146118, 0.0351889431476593, -0.02617722377181053, -0.02933705411851406, -0.009300014935433865, 0.0276274923235178, 0.011273986659944057, -0.013428537175059319, 0.020201846957206726, 0.0720747858285904, -0.00639605987817049, -0.014836575835943222, 0.016925161704421043, -0.01271327305585146, 0.008518061600625515, 0.026004932820796967, -0.04972097650170326, 0.02888433262705803, 0.04158495366573334, -0.061752062290906906, -0.018165063112974167, 0.018256597220897675, 0.039990589022636414, 0.035295333713293076, -0.03512302786111832, -0.023451371118426323, -0.03398176655173302, -0.0607166662812233, 0.021341491490602493, -0.029684782028198242, -0.02629661373794079, -0.041297800838947296, -0.029509177431464195, -0.02697455883026123, -0.015523836016654968, 0.04799850285053253, -0.04051923379302025, 0.07086404412984848, -0.030846234411001205, 0.028329947963356972, -0.03833949565887451, 0.023410234600305557, -0.06029241159558296, -0.026625221595168114, -0.00523492181673646, -0.009528844617307186, 0.0050545139238238335, -0.024114105850458145, 0.05790790542960167, 0.004148750100284815, 0.011719951406121254, 0.03709697350859642, 0.01819908432662487, 0.032123588025569916, -0.005686874967068434, 0.025333380326628685, -0.04323670268058777, 0.0587606318295002, 0.027127288281917572, 0.022571491077542305, -0.16188272833824158, 0.01829257607460022, -0.07275743037462234, 0.00013074996240902692, -0.031602222472429276, -0.012827877886593342, 0.011082886718213558, 0.04500770568847656, -0.03711846470832825, 0.00070491450605914, 0.022260865196585655, 0.05333123728632927, 0.0334024615585804, -0.026476901024580002, -0.0229649655520916, -0.023971503600478172, -0.03555715084075928, 0.07788708060979843, -0.01791542023420334, -0.033571723848581314, 0.017414692789316177, 0.002823379822075367, 0.029940448701381683, -0.050719719380140305, -0.029466064646840096, -0.07021337747573853, 0.01368334423750639, 0.03676772862672806, 0.021637970581650734, -0.02732960507273674, -0.03255082294344902, 0.0006163052166812122, -0.004676609765738249, 0.016578344628214836, 0.05880212038755417, 0.004195024725049734, -0.1079348772764206, 0.38474059104919434, 0.03310805931687355, -0.009274949319660664, -0.0016081166686490178, -0.042434290051460266, -0.00716794328764081, -0.020478764548897743, -0.025692684575915337, -0.033988844603300095, -0.009443234652280807, -0.026089897379279137, -0.05323682352900505, 0.014628601260483265, 0.019575035199522972, -0.058348022401332855, -0.005362624768167734, 0.02772005833685398, -0.010969143360853195, -0.07876145094633102, 0.07496029138565063, 0.014796780422329903, -0.002337297424674034, -0.019370708614587784, 0.060656458139419556, 0.010053787380456924, -0.027292899787425995, -0.002410103101283312, 0.040297649800777435, 0.09518389403820038, -0.033882830291986465, 0.024409834295511246, 0.0932651162147522, -0.04354112222790718, -0.004191489424556494, 0.026072682812809944, 0.016209326684474945, -0.046430859714746475, 0.047118715941905975, 0.006955427583307028, 0.0708661898970604, 0.06411533057689667, 0.0276934877038002, 0.006196378264576197, 0.0017381467623636127, -0.13134758174419403, 0.03096531704068184, 0.1259564757347107, 0.011871441267430782, 0.041544340550899506, 0.01619611494243145, -0.001710620941594243, -0.03580519184470177, 0.059906426817178726, 0.09235531836748123, -0.05264730751514435, 0.026157300919294357, 0.010250106453895569, 0.024890875443816185, -0.027305686846375465, -0.044584061950445175, 0.0029198683332651854, 0.032124899327754974, 0.0022954712621867657, -0.03979972004890442, 0.060779377818107605, 0.03776588663458824, -0.07732279598712921, -0.023060129955410957, -0.028767693787813187, -0.0072359321638941765, -0.014654448255896568, 0.002417584415525198, -0.0056505706161260605, 0.005384079180657864, -0.01275112759321928, 0.12543930113315582, 0.008856394328176975, -0.03566084802150726, 0.011331947520375252, -0.039152320474386215, -0.007587132044136524, -0.012564019300043583, 0.025022216141223907, -0.03957159444689751, -0.06818024069070816, -0.007828664034605026, 0.0037283978890627623, 0.014004767872393131, -0.010035410523414612, -0.0024136228021234274, -0.08278249204158783, -0.013021874241530895, 0.008860023692250252, -0.05945969745516777, -0.004806707613170147, -0.005656690336763859, -0.07371100783348083, -0.03523849695920944, 0.009546532295644283, 0.012688739225268364, 0.000602344109211117, 0.05736500024795532, -0.09986437112092972, -0.02891421504318714, 0.017328886315226555, 0.012868214398622513, -0.01990167796611786, -0.020132742822170258, -0.017748815938830376, 0.07114798575639725, -0.04239082708954811, -0.0037159319035708904, -0.005596268456429243, 0.14516322314739227, 0.02612527646124363, -0.0059584700502455235, 0.05397640913724899, -0.037414662539958954, -0.01565956138074398, 0.010636461898684502, -0.043980516493320465, 0.04110805317759514, 0.08825787156820297, 0.07332035154104233, -0.2727164328098297, 0.009387542493641376, -0.009117357432842255, -0.03894014284014702, -0.03706660866737366, -0.03580596670508385, 0.029426859691739082, -0.014044651761651039, -0.04153990000486374, 0.053033772855997086, 0.03978833183646202, -0.07019376009702682, 0.00119398336391896, 0.013643777929246426, -0.007026503328233957, 0.04006090760231018, -0.005099881906062365, -0.055248964577913284, 0.00901863630861044, 0.03324183449149132, 0.027795933187007904, 0.026446936652064323, 0.04054464399814606, -0.052238233387470245, 0.04290977492928505, 0.006462445482611656, 0.09751082956790924, -0.015941698104143143, -0.04268898069858551, -0.03433138132095337, 0.02455034665763378, 0.0743255764245987, -0.028951922431588173, -0.08585251867771149, 0.036404915153980255, 0.0025304078590124846, -0.0570770800113678, 0.012714403681457043, 0.008251870982348919, -0.054922718554735184, 0.05532466992735863, 0.11344948410987854, -0.08925921469926834, -0.00012266550038475543, -0.02108965627849102, -0.06002264469861984, -0.003450975986197591, 0.06419233232736588, -0.005676470696926117, 0.0005939721595495939, -0.0295167975127697, -0.00861889123916626, 0.021103981882333755, -0.004105507396161556, 0.1352575272321701, -0.028623366728425026, -0.0847068503499031, 0.023566070944070816, -0.039226435124874115, 0.04353964701294899, 0.006973311770707369, -0.0002587373019196093, 0.047048136591911316, -0.04630213975906372, 0.10167526453733444, -0.02826056070625782, -0.017031362280249596, -0.026035340502858162, -0.05712640658020973, 0.06412411481142044, 0.0010530228028073907, -0.0461902879178524, -0.02703874744474888, -0.028242429718375206, -0.004301062319427729, -0.08139770478010178, 0.022029470652341843, 0.07864676415920258, -0.049548547714948654, -0.05763166397809982, 0.037944089621305466, -0.0866406261920929, -0.02393784187734127, 0.005075909197330475, -0.013543122448027134, 0.03619636595249176, -0.011866752989590168, -0.0008815088658593595, -0.007099510170519352, 0.010245666839182377, -0.02497558668255806, -0.0010998465586453676, -0.017015717923641205, 0.04382714629173279, 0.05474639683961868, 0.0055235340259969234, -0.28356748819351196, 0.015971338376402855, -0.047481756657361984, -0.053476400673389435, -0.027165116742253304, 0.03037971258163452, -0.013099219650030136, 0.042573392391204834, -0.07048648595809937, 0.015337828546762466, 0.021460581570863724, 0.06319104880094528, -0.010976362973451614, -0.02914590574800968, 0.043352894484996796, 0.036708150058984756, 0.04395158216357231, -0.001283131306990981, 0.009584562852978706, 0.010455479845404625, 0.00749743077903986, 0.042021244764328, 0.1675175279378891, 0.015215233899652958, -0.052931103855371475, 0.004457509610801935, 0.00985798891633749, -0.015493892133235931, 0.02034689672291279, 0.016097206622362137, 0.0005130467470735312, 0.024606382474303246, 0.037130627781152725, -0.0002622630272526294, -0.00318542611785233, 0.0628858283162117, -0.021742932498455048, 0.021413812413811684, 0.017558733001351357, -0.0274590365588665, -0.04450022429227829, -0.006606453564018011, -0.02528599463403225, 0.06805978715419769, 0.06692884862422943, -0.00561047438532114, 0.01301372330635786, -0.02804212085902691, -0.002143032383173704, 0.0019984575919806957, 0.0023621516302227974, -0.03463517129421234, -0.0005094789084978402, 0.045566100627183914, 0.04028014466166496, -0.04626019671559334, 0.009188675321638584, 0.025898456573486328, 0.03212711587548256, -0.006527986843138933, -0.025554846972227097, 0.0034924449864774942, -0.010140468366444111, 0.06268685311079025, 0.004409834276884794]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>prefers_in_store_experience</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Sometimes hard to understand an operator when talking to them found it easier going into a store\n', 'Improvement needed: It is quite difficult to deal with the call centre at times .. much easier to just go into the store to sort out problems when possible .. call centre could definitely do with some improvement\n', "Improvement needed: Bring back a depot to matamata\nReason for given NPS: There is no shop locally which makes it hard for those of us that don't drive. We used to hav3 one but it has been closed so am thinking of may change"]</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[-0.02198110520839691, -0.00593894999474287, 0.048023998737335205, 0.04699224233627319, -0.023878810927271843, -0.006663279142230749, 0.014756985008716583, 0.02327149733901024, 0.03299574553966522, -0.05826086923480034, -0.04417026415467262, 0.04584668576717377, -0.03670618310570717, 0.05177932605147362, 0.025583069771528244, 0.002614589175209403, 0.03897681087255478, 0.000246479146881029, -0.08795076608657837, 0.017025185748934746, -0.009459535591304302, -0.06508438289165497, 0.025408143177628517, -0.053599659353494644, -0.07342097908258438, -0.018920842558145523, -0.053012654185295105, 0.0030110653024166822, -0.058759406208992004, -0.10173138231039047, 0.02583211101591587, 0.0024921291042119265, 0.0442979596555233, -0.015104178339242935, -0.01742657460272312, 0.019838888198137283, 0.01186521165072918, -0.010065515525639057, -0.03080701269209385, 0.03138221800327301, 0.032701924443244934, -0.01729390397667885, -0.04401455447077751, 0.043040331453084946, -0.01654740609228611, -0.05531187728047371, 0.04629488289356232, -0.06361723691225052, 0.019657030701637268, -0.015753600746393204, -0.015216992236673832, 0.0289178267121315, -0.026834195479750633, -0.06124614551663399, -0.04151511937379837, 0.08186547458171844, 0.044025029987096786, 0.0009268029825761914, -0.013654488138854504, 0.02268257737159729, 0.061124369502067566, -0.010525496676564217, -0.09670674055814743, 0.044506609439849854, 0.028451483696699142, 0.027283739298582077, -0.04290688782930374, -0.0730394721031189, -0.052541498094797134, -0.004894268233329058, -0.08943212777376175, 0.026883814483880997, -0.04598306864500046, 0.09598492085933685, 0.04117843508720398, -0.006614362355321646, 0.021901041269302368, -0.01275948528200388, -0.0021353259216994047, 0.025909874588251114, -0.02254001423716545, -0.027065686881542206, -0.05072855204343796, -0.0345839224755764, -0.03440471366047859, -0.06628966331481934, -0.010108144022524357, 0.020722955465316772, 0.05051968991756439, 0.005601593758910894, 0.016374606639146805, -0.04110682010650635, 0.015214277431368828, 0.005267782602459192, -0.011057402938604355, 0.014082006178796291, 0.018637297675013542, 0.07403814792633057, -0.04528145492076874, 0.35058948397636414, 0.043173376470804214, 0.07197396457195282, -0.024756433442234993, -0.01066629309207201, 0.033867184072732925, -0.020641779527068138, -0.01012013852596283, 0.026147697120904922, -0.018575087189674377, -0.04092596843838692, -0.052467167377471924, 0.007284523919224739, 0.06985060125589371, -0.03921431675553322, -0.019242005422711372, 0.09416374564170837, 0.01788531057536602, -0.016018487513065338, 0.039259202778339386, -0.018520662561058998, 0.004313332960009575, 0.013450893573462963, 0.05366517975926399, -0.025163061916828156, -0.006978677120059729, -0.04835398867726326, 0.012534497305750847, 0.06432507932186127, -0.012394296936690807, 0.019646521657705307, 0.026670806109905243, -0.07431793957948685, -0.04579789564013481, 0.034330032765865326, -0.028939342126250267, -0.005615639965981245, -0.03576100617647171, 0.055723946541547775, 0.060181308537721634, 0.007543120067566633, -0.020396951586008072, 0.011871950700879097, 0.04913150146603584, -0.06441710889339447, -0.0002884001296479255, 0.0708090290427208, 0.0015745041891932487, 0.01011035218834877, -0.04151665046811104, -0.030227569863200188, -0.05667391046881676, 0.008802304044365883, 0.011748647317290306, 0.026036251336336136, -0.00904232356697321, 0.022631365805864334, 0.010131094604730606, -0.0409623347222805, -0.05014105141162872, 0.022250289097428322, 0.005536240991204977, -0.01604899764060974, 0.03692632541060448, 0.01973964273929596, -0.037644241005182266, -0.05774027481675148, -0.008162220939993858, -0.024983607232570648, -0.008158593438565731, 0.03662709519267082, 0.012530374340713024, 6.658518032054417e-06, -0.02379327081143856, 0.06404293328523636, 0.10197001695632935, -0.0015238780761137605, -0.07833226025104523, 0.008240667171776295, -0.02155844122171402, 0.00018984432972501963, 0.07832649350166321, -0.021312154829502106, -0.004769438877701759, -0.02636902406811714, 0.012069066055119038, -0.035408735275268555, -0.0063193971291184425, -0.0049335234798491, -0.036734696477651596, -0.004832328762859106, -0.044046834111213684, -0.056087709963321686, -0.054102689027786255, -0.011271806433796883, 0.028858443722128868, -0.008264418691396713, -0.02705676108598709, -0.012660573236644268, -0.033701393753290176, -0.018739065155386925, -0.014156266115605831, 0.015551134012639523, -0.04878830909729004, 0.01894126646220684, 0.015782078728079796, 0.1064457967877388, 0.004629355855286121, -0.017253780737519264, 0.07605308294296265, -0.06831078976392746, -0.07016392797231674, 0.0024736651685088873, 0.047815147787332535, 0.02708420529961586, -0.016378093510866165, -0.015735888853669167, 0.023272879421710968, 0.0851621925830841, 0.06903088092803955, 0.034728311002254486, -0.014725057408213615, 0.07919885218143463, 0.019016774371266365, -0.3341899812221527, 0.07617317885160446, -0.06255829334259033, 0.006463988218456507, -0.01344013586640358, -0.02164304628968239, 0.01784203201532364, -0.03502217307686806, 0.026484349742531776, 0.06552103906869888, 0.0050130728632211685, -0.042088583111763, 0.039109308272600174, 0.03214053437113762, 0.025607576593756676, 0.006750368047505617, -0.0024621915072202682, 0.03611340373754501, 0.037946250289678574, 0.02806057594716549, -0.013403176330029964, -0.047320663928985596, -0.02669692412018776, -0.10088936984539032, 0.07082948833703995, 0.008766026236116886, 0.18106429278850555, -0.0014938839012756944, -0.06933285295963287, -0.013668261468410492, 0.03320041298866272, -0.0004182401462458074, -0.005777026992291212, -0.11471804976463318, 0.05106392130255699, 0.03769681602716446, 0.0019688899628818035, -0.021128805354237556, 0.06193317472934723, -0.04075707122683525, 0.057072266936302185, 0.10004083812236786, 0.015234509482979774, -0.05647415295243263, -0.021282603964209557, -0.07652164250612259, -0.022749412804841995, 0.09254372119903564, -0.0585290789604187, 0.06072664633393288, -0.021307436749339104, -0.03653049096465111, 0.051973856985569, 0.025504637509584427, -0.009045175276696682, -0.033329278230667114, -0.024946318939328194, -0.0025617817882448435, -0.0340251699090004, 0.09062417596578598, -0.033259402960538864, -0.0261523574590683, -0.003219376318156719, -0.06258180737495422, 0.016185522079467773, 0.0034827175550162792, -0.00739795109257102, 0.007773015648126602, 0.020461300387978554, 0.0030488725751638412, -0.005609442479908466, -0.05975111573934555, -0.0371442474424839, -0.015717947855591774, -0.006165646482259035, 0.017654718831181526, -0.06572838127613068, 0.031941965222358704, 0.01553249079734087, -0.04805324971675873, 0.008967654779553413, -0.004676078911870718, 0.021618355065584183, 0.03656741604208946, 0.009646570309996605, -0.004001480061560869, 0.01595141924917698, -0.005005341023206711, 0.022538162767887115, -0.011923611164093018, -0.05228178948163986, -0.016010353341698647, -0.02400892600417137, 0.012976933270692825, 0.10544039309024811, 0.023427940905094147, -0.28062427043914795, 0.019731178879737854, 0.02760504186153412, 0.013784619979560375, -0.005117213819175959, 0.05315918102860451, 0.003991108387708664, -0.04223193600773811, -0.05835193395614624, -0.0331679992377758, -0.009264678694307804, -0.002794479951262474, 0.009186804294586182, -0.011858899146318436, 0.0033271079882979393, 0.04840010777115822, 0.039460450410842896, -0.020215963944792747, 0.07749980688095093, -0.05231533199548721, 0.0298827663064003, 0.07170604914426804, 0.1457763910293579, 0.031201262027025223, -0.011254294775426388, -0.025082016363739967, -0.021681420505046844, -0.020340053364634514, -0.0010861183982342482, 0.046822674572467804, -0.03600488603115082, -0.00483856862410903, 0.10263277590274811, 0.007206052541732788, 0.017559420317411423, 0.03311862051486969, -0.008018299005925655, -0.06272616237401962, 0.02253364771604538, 0.024667900055646896, -0.017835350707173347, -0.009039496071636677, -0.08991692215204239, -0.002169298706576228, 0.07538629323244095, -0.051883865147829056, 0.041118863970041275, 0.03685940429568291, -0.07004240900278091, -0.04317556321620941, 0.044709157198667526, -0.00263133249245584, -0.016046807169914246, 0.02357368730008602, 0.06341084837913513, 0.06517349928617477, -0.011646756902337074, -0.023726746439933777, 0.0070213559083640575, 0.005978093482553959, -0.010281174443662167, 0.007387995719909668, 0.09344993531703949, 0.005032556597143412, -0.012942686676979065]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>unexpected_high_bills_after_plan_change</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Providing actual communication about plan options.\nReason for given NPS: I was not informed that I was switched to One. I then got a giant bill that was not adequately explained to me before I was even provided an online login. My rates are not good for a family plan. I am actively seeking another option.', 'Improvement needed: Keeping customers up to date with new plans. I keep mine the same until i went in store to get a new phone and then they changed all my plans for broadband and monthly cell phone.\nReason for given NPS: Ive been with them since i was 14. Everything has been fine. Its all i know', 'Improvement needed: Tell us when our contract finishes otherwise our bill becomes extremely high once it comes off contract\nReason for given NPS: Good since we were given deo']</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>[-0.08093217015266418, -0.06622062623500824, 0.010282957926392555, 0.03406309336423874, 0.03246134892106056, -0.07335620373487473, 0.015839703381061554, 0.027517223730683327, 0.025585107505321503, -0.024983394891023636, 0.02152530662715435, 0.07484186440706253, -0.003891703439876437, -0.006916130892932415, -0.033618491142988205, -0.029296372085809708, -0.00046739692334085703, -0.08990892767906189, -0.052337951958179474, 0.07820075750350952, 0.026824001222848892, 0.011459904722869396, -0.04249238595366478, 0.014855422079563141, 0.04809555038809776, 0.03206644579768181, -0.008758991956710815, -0.021417373791337013, -0.06698493659496307, -0.1644434779882431, 0.04254935681819916, -0.025411298498511314, -0.028221426531672478, -0.046039775013923645, 0.07303620129823685, 0.012507441453635693, -0.07053208351135254, 0.021386979147791862, 0.07777845859527588, 0.048816945403814316, -0.03883478790521622, 0.05022411420941353, -0.059830863028764725, -0.08399075269699097, -0.04360177367925644, -0.022348785772919655, 0.05631875991821289, 0.022142667323350906, 0.09300665557384491, 0.02463340573012829, 0.026273557916283607, -0.03988165035843849, 0.003045265795662999, 0.03583819791674614, 0.04900973290205002, 0.03675948083400726, 0.04425428807735443, 0.06145569682121277, 0.05307347699999809, 0.04635338485240936, 0.01811544969677925, 0.040458302944898605, -0.14537708461284637, 0.06165965273976326, -0.007224864326417446, 0.002913091331720352, -0.03547821566462517, -0.007581594865769148, 0.035467036068439484, 0.07695517688989639, -0.0014023849507793784, -0.02919018641114235, -0.02982563152909279, 0.04976779222488403, 0.06357907503843307, -0.02838166616857052, 0.006361168343573809, 0.03335006162524223, 0.01572270318865776, 0.02684972435235977, 0.011816641315817833, -0.014224683865904808, -0.03681711107492447, -0.03784240409731865, 0.0003846517647616565, -0.08554854243993759, 0.04259571433067322, -0.009669560939073563, 0.027971157804131508, -0.06853587925434113, 0.03208531066775322, -0.013684215024113655, -0.010465024039149284, 0.024690836668014526, -0.028990676626563072, 0.02990829199552536, 0.05040861293673515, 0.013637633994221687, -0.04546861723065376, 0.420206218957901, -0.010155994445085526, 0.0013273546937853098, 0.00602513924241066, 0.06263314932584763, 0.0103222681209445, -0.064424529671669, -0.016784247010946274, 0.03788802772760391, -0.017611678689718246, -0.017517821863293648, -0.010353273712098598, -0.031015390530228615, 0.043553922325372696, 0.004966980777680874, 0.004562344402074814, 0.0354691743850708, -0.023210611194372177, -0.04590654745697975, -0.005944942124187946, 0.022654732689261436, 0.007724381051957607, 0.02781958319246769, -0.03158826008439064, -0.051813893020153046, -0.04209476709365845, 0.009118301793932915, 0.045096416026353836, 0.08089768886566162, -0.048091720789670944, 0.013551813550293446, 0.023587217554450035, -0.03131779283285141, -0.04031262919306755, 0.018641924485564232, -0.00019743586017284542, -0.016934311017394066, 0.04405774176120758, 0.030222631990909576, 0.012189667671918869, 0.01675134152173996, -0.04032798856496811, -0.008290541358292103, -0.05028996989130974, -0.08904819935560226, 0.03961098566651344, 0.10161390155553818, -0.04476722702383995, 0.031880997121334076, 0.059374161064624786, -0.025856057181954384, -0.04059901461005211, 0.0018295494373887777, 0.011496314778923988, -0.07826831191778183, -0.01046968437731266, -0.01846441999077797, 0.018289215862751007, 0.03614581748843193, 0.03944521024823189, -0.009901699610054493, 0.07511446624994278, -0.026624273508787155, -0.06731818616390228, 0.010426340624690056, 0.05852871388196945, -0.048639290034770966, -0.055740538984537125, -0.08286955952644348, -0.00847283098846674, -0.0042145512998104095, -0.05339477211236954, 0.03076953999698162, -0.025659024715423584, -0.006002750247716904, 0.11334890127182007, -0.020853523164987564, -0.0351698137819767, 0.023175030946731567, -0.005575431976467371, -0.02924269624054432, -0.01397792063653469, 0.012559657916426659, -0.04528595507144928, 0.004465808160603046, 0.04501669853925705, -0.04767505079507828, -0.035758163779973984, -0.023682696744799614, 0.018594523891806602, -0.0005340168718248606, 4.995818744646385e-05, -0.001237070420756936, -0.03952475264668465, -0.06825234740972519, -0.031142087653279305, -0.02422265335917473, 0.003756523597985506, 0.04339606687426567, 0.05730290710926056, -0.02409370243549347, 0.06703534722328186, -0.02285967394709587, -0.013706780038774014, 0.040780168026685715, -0.03221086785197258, 0.0017039927188307047, -0.029222920536994934, -0.0354376919567585, 0.06179105490446091, 0.004161874298006296, 0.05931864306330681, 0.006881005596369505, 0.12560820579528809, -0.014340748079121113, -0.00597584992647171, -0.0065637510269880295, -0.036658596247434616, 0.07353734225034714, -0.0030686138197779655, -0.018936317414045334, 0.040433600544929504, -0.008786646649241447, 0.0871475487947464, -0.2845460772514343, -0.0024497807025909424, 0.0025271193590015173, -0.06187348812818527, -0.08116716891527176, -0.01660976931452751, 0.012955076061189175, -0.05086950585246086, -0.04138966277241707, 0.08034393936395645, -0.007717581931501627, -0.010793064720928669, 0.005272286012768745, -0.03887699171900749, 0.05381646379828453, 0.014459853991866112, -0.006182505749166012, -0.000618381891399622, -0.010819712653756142, 0.0520988292992115, -0.03410767391324043, 0.03336000442504883, -0.02234520949423313, -0.04835231229662895, 0.011876125819981098, 0.018596472218632698, 0.16658972203731537, -0.032408103346824646, -0.04259735345840454, -0.0016519837081432343, 0.007624804507941008, -0.010083598084747791, -0.017659369856119156, -0.05712147802114487, 0.05703940987586975, 0.025813905522227287, -0.005374453961849213, 0.03740035742521286, -0.02773609571158886, -0.08812347054481506, 0.008483078330755234, 0.02088967151939869, -0.06249804422259331, -0.01765855774283409, 0.03014681488275528, 0.014130617491900921, -0.04521489515900612, 0.04342284053564072, 0.011741409078240395, 0.02523762732744217, 0.021253515034914017, -0.029775692149996758, -0.02491123043000698, 0.02110349014401436, 0.11720454692840576, -0.05380058288574219, -0.05964362248778343, 0.04876619577407837, -0.027362236753106117, -0.025778522714972496, 0.016160188242793083, 0.005174977704882622, 0.05095314607024193, 0.008536839857697487, 0.04333377256989479, -0.0025733155198395252, 0.0021770780440419912, -0.007784877438098192, -0.05176401138305664, 0.029805347323417664, -0.020438140258193016, -0.01160360500216484, 0.025273039937019348, -0.04197848215699196, 0.050709404051303864, 0.0011824031826108694, 0.011697841808199883, -0.0033883443102240562, -0.06836359202861786, -0.014782451093196869, 0.029593316838145256, -0.027542488649487495, 0.011794437654316425, 0.00606619194149971, -0.027837375178933144, 0.010049202479422092, -0.06124017387628555, 0.017859291285276413, 0.006043366622179747, 0.025828152894973755, 0.006001358386129141, -0.017984019592404366, 0.026353728026151657, 0.039964575320482254, 0.1010131761431694, -0.013928679749369621, -0.22500449419021606, -0.0008425622945651412, -0.04349618777632713, -0.06478609144687653, -0.005927343852818012, 0.055196505039930344, -0.041170451790094376, 0.05571674555540085, -0.024019552394747734, 0.018616188317537308, -0.027275854721665382, 0.02275855466723442, 0.021092014387249947, 0.014417732134461403, -0.02079332061111927, 0.0018292427994310856, 0.014259826391935349, 0.02512669563293457, -0.007531273178756237, 0.04015037417411804, 0.0003660108195617795, 0.00713450787588954, 0.16450485587120056, 0.012605023570358753, -0.022200042381882668, -0.08374818414449692, 0.010056844912469387, 0.043408364057540894, 0.07277627289295197, -0.01581769622862339, -0.02442823350429535, 0.003078056499361992, 0.031168468296527863, -0.0442049466073513, 0.010254011489450932, -0.0021420724224299192, 0.021250726655125618, -0.0032505120616406202, -0.012429015710949898, 0.009355435147881508, -0.03799891099333763, -0.005274625960737467, -0.027704978361725807, -0.039831917732954025, 0.04912383481860161, 0.03937525674700737, -0.02168913744390011, -0.019803982228040695, 0.04741640388965607, 0.05283014848828316, -0.0629548504948616, -0.02860076166689396, -0.00813018623739481, 0.0696350708603859, -0.002949061570689082, 0.003032208885997534, -0.06439851224422455, 0.005606920924037695, 0.005172761622816324, -0.023062247782945633, 0.008215922862291336, -0.015247555449604988, 0.0033628849778324366, -0.028233224526047707, -0.03738202154636383]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>need_for_affordable_entry_level_phone_plans</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Coverage\nReason for given NPS: More options for buying $200 priced phones ,not everyone can afford a flip phone, iphone etc', 'Improvement needed: The prepaid plans and monthly plans can be of better value but I don’t love that once data is maxed your still able to access the internet\nReason for given NPS: I think the credit bundles can be better value', "Improvement needed: Package deal re usage.\nReason for given NPS: I feel my monthly bill is costly for what I need, as I have an elderly parent it is the only reason I need to be connected to a land line. As I can use a cell phone my 90 yr old parent can't so needs to be able to reach me on a land line, being the only reason I have it."]</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>[-0.04136193171143532, -0.0701688900589943, -0.025372251868247986, -0.038115862756967545, -0.04769671708345413, -0.018700048327445984, -0.01737894117832184, 0.06388776004314423, -0.05812928453087807, -0.029183560982346535, 0.015832724049687386, 0.03676668927073479, 0.01805264689028263, -0.011318578384816647, 0.06390296667814255, 0.021656488999724388, 0.08308522403240204, -0.055401504039764404, -0.029569534584879875, 0.08060432225465775, 0.03404313325881958, -0.04678379371762276, -0.036885689944028854, 6.793851207476109e-05, 0.09318596124649048, 0.006913511082530022, 0.009076381102204323, 0.017760461196303368, -0.01760033145546913, -0.04449877515435219, 0.015039274469017982, 0.08365440368652344, 0.05816085636615753, 0.014559198170900345, -0.006889937445521355, 0.014906983822584152, -0.02422991767525673, 0.011260890401899815, 0.028599945828318596, 0.06345661729574203, 0.006936181802302599, 0.03828629478812218, -0.0850079134106636, 0.015367181971669197, -0.020519936457276344, -0.06168819218873978, -0.005311247427016497, -0.02183540165424347, 0.0024734176695346832, -0.03930804505944252, 0.02890494279563427, -0.0016060194466263056, -0.04857578128576279, -0.03446567803621292, -0.005290708038955927, 0.05042902007699013, 0.028311774134635925, 0.004997633397579193, 0.010925151407718658, 0.02809525839984417, 0.03294408321380615, -0.00024301398661918938, -0.12803766131401062, 0.05829568952322006, -0.02815340645611286, -0.00691189244389534, -0.0033896046224981546, -0.01731952093541622, -0.008857637643814087, 0.042267415672540665, -0.00310292886570096, -0.021412286907434464, 0.03520992025732994, 0.07451292127370834, 0.010776621289551258, 0.008360063657164574, 0.016862258315086365, -0.012514085508883, 0.020513491705060005, 0.021736951544880867, 0.006403259467333555, -0.018307510763406754, -0.003320647869259119, 0.044412095099687576, -0.03245146572589874, -0.054373763501644135, 0.05059663951396942, 0.0014533114153891802, -0.003663324750959873, -0.0027841664850711823, 0.04493655264377594, -0.005032590124756098, -0.0345601886510849, 0.02566489391028881, -0.0685521811246872, -0.0005852188915014267, 0.037252284586429596, 0.025829261168837547, -0.12029662728309631, 0.4061124920845032, 0.01604224182665348, 0.012092146091163158, 0.046275291591882706, -0.030263716354966164, 0.008788435719907284, -0.07322710007429123, -0.05889400467276573, -0.010534224100410938, -0.00350011489354074, -0.03247733786702156, -0.032541897147893906, -0.027174463495612144, 0.016633683815598488, 0.0012890639482066035, 0.01658920757472515, 0.040010664612054825, -0.0027914687525480986, -0.062258556485176086, 0.02520219422876835, -0.01698392443358898, -0.018745915964245796, -0.05972689762711525, -0.02914837747812271, 0.009185696952044964, -0.022977346554398537, -0.07911771535873413, -0.007313859649002552, 0.06546489149332047, 0.0147383539006114, 0.056940510869026184, 0.02294548973441124, -0.04817582294344902, -0.038119930773973465, 0.02679198421537876, -0.022617727518081665, -0.03134674206376076, 0.023331502452492714, 0.04287823289632797, -0.035558611154556274, 0.035524092614650726, -0.00799170508980751, -0.06763818860054016, 0.05255308747291565, -0.08195829391479492, -0.016494300216436386, 0.09321814775466919, -0.04205874353647232, 0.09024336189031601, -0.0031449429225176573, -0.10585075616836548, -0.03753172606229782, 0.016964923590421677, 0.10002203285694122, -0.038651514798402786, 0.0008407190907746553, -0.02206624113023281, 0.04595160484313965, 0.006908096838742495, -0.03386756777763367, 0.005564889870584011, 0.02301793172955513, -0.0717134177684784, -0.10015745460987091, 0.07523218542337418, -0.009183245711028576, -0.12940888106822968, -0.0442834198474884, -0.03134632483124733, -0.045448269695043564, -0.022363491356372833, -0.017009882256388664, 0.05017339065670967, -0.026062553748488426, 0.051253464072942734, 0.07921280711889267, -0.01350573729723692, -0.057129524648189545, 0.03351195156574249, -0.06803762167692184, -0.0017703680787235498, -0.0478232242166996, -0.010530280880630016, -0.01175609603524208, -0.03468302637338638, -0.01186976209282875, -0.06942442059516907, -0.023318910971283913, -0.03307155519723892, 0.07234211266040802, -0.02906772680580616, -0.120028555393219, 0.025685511529445648, -0.016936074942350388, 0.02304309792816639, -0.044802989810705185, 0.002648317953571677, -0.0484716035425663, -0.01573815569281578, 0.049204785376787186, -0.07265831530094147, 0.03882047161459923, -0.05855259671807289, -0.046586472541093826, 0.04681260883808136, 0.025036893784999847, 0.017086274921894073, 0.05913989245891571, -0.0005561532452702522, 0.13767755031585693, 0.009757532738149166, 0.023210428655147552, -0.01639353483915329, 0.1573084592819214, 0.022819606587290764, 0.020643172785639763, -0.02342829294502735, 0.028412597253918648, 0.02716829627752304, 0.06358761340379715, -0.00565296271815896, -0.006947219371795654, 0.07481357455253601, 0.02897893451154232, -0.267556369304657, 0.016548292711377144, -0.020618559792637825, -0.0021910350769758224, -0.03599609434604645, -0.017021585255861282, 0.053189776837825775, -0.04856527969241142, -0.0022996366024017334, 0.09572327136993408, 0.05514829233288765, 0.00657040486112237, 0.05366325005888939, 0.007578861899673939, 0.027431312948465347, -0.029886946082115173, -0.02818969637155533, 0.0008776088361628354, 0.043809570372104645, 0.008566462434828281, 0.026702219620347023, 0.0512159988284111, -0.005567473825067282, 0.015508200041949749, 0.05751415714621544, 0.05291197448968887, 0.1806264966726303, -0.0833694189786911, -0.007923437282443047, -0.007592521607875824, 0.03947743773460388, 0.00725321751087904, 0.021612348034977913, -0.026027604937553406, -9.674327884567901e-05, -0.005262436810880899, 0.005309164524078369, 0.004751329310238361, 0.0330238863825798, -0.06684560328722, 0.01509152166545391, 0.03670692443847656, -0.050885364413261414, -0.011176583357155323, -0.035548485815525055, -0.006827875506132841, -0.0449870303273201, 0.0937141552567482, -0.037732403725385666, 0.014828432351350784, 0.005705967079848051, -0.014006545767188072, 0.055382322520017624, -0.041312094777822495, 0.053106505423784256, -0.010512503795325756, -0.10595241189002991, 0.0098676523193717, -0.04506147652864456, 0.034255415201187134, -0.0009080267045646906, -3.133396967314184e-05, 0.01601210981607437, -0.013528498820960522, -0.0028821139130741358, -0.00418234895914793, 0.008759219199419022, -0.01937556080520153, -0.08210012316703796, -0.01324282493442297, 0.004597471095621586, -0.02610691264271736, 0.024667205289006233, -0.01982688158750534, -0.027545368298888206, -0.02417815290391445, 0.017111262306571007, 0.002773924497887492, 0.008786054328083992, -0.04246722161769867, 0.008528584614396095, -0.029399685561656952, 0.023002000525593758, -0.022171849384903908, -0.013913960196077824, 0.07913411408662796, 0.05495057627558708, 0.022127049043774605, -0.009034193120896816, 0.02648216485977173, -0.04341230168938637, 0.01789282262325287, 0.015243463218212128, 0.025464752689003944, 0.11764689534902573, -0.03540743514895439, -0.22111207246780396, 0.0025326034519821405, 0.0047745127230882645, -0.01639086939394474, 0.013497872278094292, -0.01555593777447939, 0.06406374275684357, -0.01442280225455761, -0.038841795176267624, 0.046887412667274475, 0.0316849909722805, -0.030621035024523735, 0.0021147842053323984, -0.026019753888249397, 0.05594215542078018, -0.009051777422428131, 0.09170963615179062, -0.011298483237624168, -0.058385010808706284, -0.012872528284788132, 0.03847820311784744, -0.02937607280910015, 0.11084075272083282, -0.029559751972556114, -0.028833555057644844, -0.02240348421037197, -0.01856197603046894, -0.002475796500220895, 0.05653754621744156, 0.005065610632300377, 0.018058722838759422, -0.028542492538690567, 0.06632405519485474, -0.01171417161822319, 0.011533414013683796, -0.00045160370063968003, -0.024506356567144394, -0.013277375139296055, -0.0005410732119344175, -0.0061060539446771145, -0.08352065831422806, -0.007814070209860802, -0.045152660459280014, 0.05317133665084839, 0.03960443660616875, -0.019095759838819504, -0.012414708733558655, 0.0021375720389187336, 0.0066322023048996925, 0.03347345069050789, -0.004643215332180262, -0.027716975659132004, 0.0029744466301053762, -0.02986196242272854, -0.02273506298661232, 0.04633137211203575, -0.07106576859951019, 0.00972689688205719, -0.0003724868001881987, 0.007228442933410406, -0.005830093752592802, 0.00473967706784606, -0.011136715300381184, 0.05473405495285988, 0.002442375523969531]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>need_for_accessibility_features_guidance</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>['Improvement needed: More knowledge about products that have or is capable of using blind and low visions navigate  around the apps stored 9n the mobile phone.\nReason for given NPS: Been very helpful in sorting out my needs within my budget and very great service', "Improvement needed: Flex prepay without minutes and txt, or monthly data only prepay plans for children or tablets that doesn't get used as often as normal phones. My kids have prepay numbers for emergencies that I wish they have some data on. I also have a work tablet that would love the same thing. A reasonable amount of data like 1 or 2GB without minutes and txts. So I don't have to purchase seperately as an add on every month.\nReason for given NPS: It's generally pretty good. I like most products one nz provides", 'Improvement needed: Ummmm to be honest not really sure!!\nReason for given NPS: Just easy 2 deal with either by ph or instore!!']</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[0.009183677844703197, -0.08358040452003479, 0.018177228048443794, -0.022578706964850426, 0.0033682850189507008, 0.019576959311962128, 0.013891980983316898, 0.011403795331716537, -0.0510910302400589, -0.029739059507846832, -0.03507327660918236, 0.017139982432127, 0.03410711884498596, -0.0007533795433118939, 0.030562125146389008, 0.023865817114710808, 0.014902046881616116, 0.03960467875003815, -0.0002680518082343042, 0.0426626019179821, 0.07953154295682907, 0.04193585738539696, -0.011409249156713486, -0.011017206124961376, -0.06406649202108383, 0.025604592636227608, 0.022088689729571342, -0.023545676842331886, -0.04737135022878647, -0.13251957297325134, -0.013464045710861683, -0.038075242191553116, -0.0023214262910187244, -0.001046005985699594, -0.02303101308643818, -0.0008094300283119082, -0.02041112445294857, 0.031581245362758636, -0.0015734266489744186, 0.02742866799235344, 0.023957420140504837, 0.017107386142015457, -0.021014299243688583, -0.03260938450694084, -0.03149619698524475, -0.0548849031329155, -0.002844736212864518, -0.020208708941936493, 0.0029022442176938057, -0.06338206678628922, -0.041806064546108246, -0.00553377578034997, -0.034928154200315475, -0.014057333581149578, 0.013144092634320259, 0.07708008587360382, 0.03944593295454979, -0.0037751123309135437, 0.020749026909470558, 0.015726808458566666, 0.022502699866890907, 0.004102990031242371, -0.1493103802204132, 0.04620787128806114, 0.0006904205656610429, 0.021069688722491264, -0.03769272565841675, -0.06812981516122818, 0.02112499251961708, -0.018775885924696922, -0.0037110396660864353, -0.020250750705599785, -0.033342987298965454, 0.05199338123202324, 0.02694769762456417, -0.007830758579075336, -0.0034905781503766775, -0.0037921597249805927, 0.007505379617214203, -0.009269246831536293, 0.02888134866952896, 0.035188209265470505, -0.027228685095906258, -0.011196186766028404, 0.026960177347064018, 0.0025181202217936516, -0.00014765009109396487, 0.026484007015824318, 0.0080803157761693, -0.03060472384095192, -0.013895036652684212, -0.06814835965633392, 0.017922772094607353, 0.03681780397891998, -0.04644156992435455, -0.053344517946243286, 0.04698847979307175, -0.03276108577847481, -0.08272112160921097, 0.3791150152683258, 0.034974221140146255, 0.025294220075011253, -0.01888352818787098, 0.0014260425232350826, 0.06444887071847916, -0.017046302556991577, 0.03881628066301346, -0.044199079275131226, -0.012044617906212807, -0.022143403068184853, -0.015690691769123077, -0.04426083713769913, 0.010804318822920322, 0.011709140613675117, -0.025038540363311768, 0.06069083511829376, -0.04096587002277374, -0.04803822562098503, 0.05858147144317627, -0.026660820469260216, -0.021119151264429092, -0.033048201352357864, 0.029073329642415047, 0.012401510030031204, 0.01655116118490696, 0.01543457992374897, 0.0535566508769989, 0.08351275324821472, 0.062332142144441605, 0.09498196840286255, 0.04269574210047722, -0.004068978130817413, -0.002570349955931306, 0.024897698312997818, -0.01436231005936861, -0.016228631138801575, 0.030739815905690193, -0.012103477492928505, 0.022773800417780876, 0.05577930063009262, -0.08616726845502853, -0.05644795298576355, 0.03410180285573006, -0.014525770209729671, 0.013538237661123276, 0.1187131330370903, -0.09497750550508499, 0.0149921216070652, -0.02916121296584606, -0.04827776551246643, -0.0004999176017008722, 0.007199401501566172, -0.004598161205649376, -0.02867433987557888, -0.03711429238319397, -0.00716492161154747, -0.003788040718063712, -0.026795484125614166, -0.02299417182803154, 0.039927635341882706, 0.04670771211385727, -0.07469790428876877, -0.05083756148815155, 0.033563319593667984, -0.014861428178846836, -0.07578512281179428, -0.02349916473031044, 0.0220171008259058, -0.07062387466430664, 0.02775157243013382, -0.021473096683621407, -0.00919440295547247, -0.0036563538014888763, 0.06780251115560532, 0.08267643302679062, -0.0024901179131120443, -0.07781436294317245, 0.050178322941064835, -0.06493382155895233, -0.019059481099247932, 0.0456632636487484, -0.07151015102863312, -0.051047638058662415, -0.012372657656669617, -0.025105198845267296, 0.0016563930548727512, 0.030264250934123993, -0.08259835094213486, 0.03930460661649704, 0.009847650304436684, 0.003548010252416134, -0.04205163195729256, -0.0179646834731102, -0.04586885869503021, 0.005318231415003538, 0.028458869084715843, -0.02199646271765232, -0.0034419631119817495, -0.011414152570068836, -0.06038161367177963, 0.04927057400345802, 0.03186078369617462, -0.05016108602285385, 0.06755751371383667, -0.04718144237995148, -0.02015037089586258, 0.004159336909651756, -0.01221725158393383, 0.07418239116668701, -0.012591121718287468, -0.042865607887506485, 0.03735745698213577, 0.0518738217651844, -0.00694770785048604, 0.025898735970258713, -0.009321322664618492, -0.001054792432114482, 0.02874561958014965, -0.001045841141603887, 0.07045406103134155, 0.050490450114011765, 0.07480224967002869, 0.0027100604493170977, -0.358394056558609, 0.016617299988865852, 0.012628060765564442, 0.029179047793149948, -0.11911733448505402, -0.033398229628801346, 0.025027412921190262, 0.016415700316429138, -0.04522554948925972, 0.046585313975811005, 0.08154243230819702, -0.004147578030824661, -0.0038600070402026176, 0.04061423987150192, -0.006267547141760588, -0.0005128884222358465, -0.024311572313308716, 0.001036990201100707, -0.012045743875205517, 0.014431430026888847, 0.01081168930977583, 0.01911286637187004, -0.021674003452062607, -0.051092203706502914, -0.02650967612862587, -0.017993025481700897, 0.17734482884407043, -0.032240234315395355, -0.010302543640136719, -0.058427128940820694, 0.010293935425579548, 0.08973658829927444, -0.0471598282456398, -0.14263418316841125, -0.0016606469871476293, 0.043753352016210556, -0.02817952260375023, 0.05042899772524834, 0.03128809109330177, -0.03722647577524185, 0.046819500625133514, 0.05327214300632477, 0.013499045744538307, -0.029273681342601776, -0.02712738700211048, -0.020501697435975075, 0.04012257605791092, 0.012980190105736256, -0.03566359728574753, 0.06476226449012756, 0.05209200456738472, 0.022950967773795128, -0.015606476925313473, 0.0841817632317543, -0.024639837443828583, 0.006357730831950903, -0.013553193770349026, 0.03377089649438858, -0.0066901640966534615, 0.03474685922265053, -0.011019140481948853, 0.010515420697629452, 0.04035516083240509, -0.06541028618812561, 0.020190684124827385, 0.0013456542510539293, -0.02570868656039238, 0.013078957796096802, -0.00831612292677164, 0.0021352958865463734, -0.05368449166417122, 0.03465345501899719, 0.023724419996142387, -0.003903905628249049, -0.051619041711091995, 0.030706044286489487, 0.03172542154788971, 0.03890260308980942, 0.005509378854185343, -0.02978365868330002, 0.0068439883179962635, 0.03700623661279678, 0.006024748552590609, 0.019855568185448647, 0.03727271780371666, 0.027696732431650162, -0.005187417380511761, -0.03193838894367218, -0.017390236258506775, 0.015141577459871769, -0.048564713448286057, -0.025423796847462654, -0.03125448152422905, -0.059973157942295074, 0.10842742770910263, 0.01033166702836752, -0.2508496344089508, 0.011745265685021877, 0.032134413719177246, -0.005405501928180456, -0.0076300413347780704, 0.02604989893734455, 0.050001438707113266, -0.028799908235669136, -0.0990862250328064, -0.045368682593107224, -0.0054005407728254795, 0.007913820445537567, -0.037893760949373245, -0.03429950401186943, 0.004998981021344662, 0.027101503685116768, 0.10877160727977753, -0.010171634145081043, -0.019994297996163368, -0.10244341939687729, 0.05883830040693283, 0.06903838366270065, 0.16095302999019623, -0.01948501355946064, -0.01744338683784008, -0.009491329081356525, 0.0007048921543173492, -0.046504393219947815, 0.02824452333152294, 0.012599964626133442, 0.028667094185948372, -0.0010616644285619259, 0.055161576718091965, 0.0020753012504428625, 0.00710789579898119, 0.05523625761270523, 0.01977827213704586, -0.034463394433259964, 0.006913693621754646, -0.03312494233250618, 0.014658668078482151, 0.027009695768356323, -0.034351497888565063, -0.027538690716028214, 0.04824601486325264, 0.0018021098803728819, 0.019347231835126877, 0.02339177392423153, 0.02311835251748562, -0.009768887422978878, -0.017011288553476334, 0.015389376319944859, -0.051755521446466446, 0.06784825772047043, 0.0709538459777832, 0.0202464759349823, -0.001537892036139965, 0.008688582107424736, -0.030439941212534904, -0.0005203154869377613, 0.037711478769779205, -0.028234172612428665, 0.035758089274168015, 0.020757341757416725, 0.004116198047995567]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>language_barrier_with_customer_service</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>['Improvement needed: connection through the modem, from one room to the next in my house it drops out. and when following up with concerns the comms over the phone many atimes there has been a slight language barrier which does not help the comms to move forward after lengthy waiting.\nReason for given NPS: connection is terrible', 'Improvement needed: I find the personal manning your help lines are very hard to understand at times because\nof their accents and English not being their first language.\nReason for given NPS: Very satisfied with my current arrangements and support.', 'Improvement needed: Customer service with the ability to talk to someone that does not have English as a second language. This is not racist, just that you have customers that are elderly with reduced capacity to process dialects that are spoken quickly. This opinion is backed up by most residents in my retirement village and therefore not an isolated incident.\nReason for given NPS: My landline was disconnected  for an unknown reason and it took 12 days for you to fix it. Also after sending a reply text to a service person it was not replied to. This happened twice. Asked to speak to an technician or manager that speaks English as a first language and was refused.']</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>[0.0015250846045091748, 0.01779685541987419, 0.02210712805390358, 0.008630816824734211, -0.07051388174295425, -0.04281367361545563, 0.015022979117929935, 0.003502470441162586, 0.03979131206870079, -0.05988257750868797, -0.016349559649825096, 0.010356303304433823, 0.00463541503995657, 0.004878007806837559, 0.09873604774475098, 0.04482082650065422, 0.0438246987760067, -0.002641601487994194, -0.039246998727321625, 0.0062171989120543, 0.022453058511018753, -0.018002241849899292, -0.01501820981502533, -0.003666972741484642, -0.05698287859559059, 0.037714965641498566, -0.019177984446287155, 0.011010917834937572, -0.042557425796985626, -0.14246684312820435, -0.028490213677287102, -0.011883559636771679, -0.047463200986385345, -0.024736519902944565, 0.05817730352282524, 0.021613361313939095, -0.038496408611536026, -0.01853048801422119, 0.03337668627500534, 0.04748745262622833, 0.00631539523601532, -0.012122890911996365, -0.008864817209541798, -0.019472919404506683, 0.013936765491962433, -0.06686609238386154, -0.0007023109355941415, 0.01419142447412014, -0.008109643124043941, -0.08181323111057281, -0.02957332320511341, 0.008148974739015102, 0.018830137327313423, -0.022209281101822853, -0.002934457268565893, 0.07799499481916428, 0.0861595943570137, -0.0016613443149253726, -0.005943831522017717, 0.019956449046730995, 0.002697645453736186, -0.015522940084338188, -0.1366749107837677, 0.10061604529619217, -0.05764716863632202, 0.05951779708266258, 0.015221222303807735, 0.008383217267692089, -0.022568168118596077, -0.004491142928600311, -0.05170678347349167, -0.04522280395030975, -0.018626481294631958, 0.08757336437702179, 0.03314145281910896, 0.04116861894726753, 0.0036936006508767605, -0.03895075246691704, 0.03517858684062958, 0.03915878012776375, -0.021986600011587143, -0.05859671160578728, -0.028833670541644096, -0.048929814249277115, -0.025503337383270264, 0.0008643549517728388, 0.0015309222508221865, 0.020487068220973015, -0.01192088145762682, 0.021406076848506927, -0.02660634182393551, -0.031641628593206406, -0.0021743669640272856, 0.012997527606785297, -0.03961706534028053, -0.07635215669870377, 0.006699820980429649, -0.05980934575200081, -0.15906214714050293, 0.3331105709075928, 0.029794225469231606, -0.017822440713644028, -0.019478321075439453, -0.019946975633502007, 0.006808304227888584, -0.019897999241948128, -0.013323558494448662, 0.0008661722531542182, 0.001133854384534061, 0.001702613546513021, -0.05679061636328697, -0.049218177795410156, 0.0793413370847702, 4.980339508620091e-05, 0.004477222450077534, 0.05148846283555031, -0.006305057555437088, -0.0651046559214592, 0.01818416267633438, -0.004648340865969658, -0.03960418328642845, 0.0071977670304477215, 0.011621938087046146, -0.03621304780244827, -0.034173496067523956, 0.015617196448147297, 0.056995246559381485, 0.10395630449056625, 0.0183513592928648, 0.06308872252702713, 0.03680964559316635, -0.03724110499024391, 0.003915079403668642, -0.012484523467719555, 0.008929398842155933, 0.0049183606170117855, -0.029730239883065224, 0.04440014064311981, 0.04204092547297478, 0.027849320322275162, -0.021200770512223244, -0.09537452459335327, -0.028992362320423126, -0.006824180483818054, -5.9186193539062515e-05, 0.06839346885681152, -0.06412709504365921, 0.03853025287389755, -0.014152268879115582, -0.03073406219482422, 0.010523459874093533, 0.061837371438741684, 0.013318946585059166, -0.03553786501288414, -0.03354279324412346, 0.02118288166821003, 0.05698880925774574, -0.049602095037698746, -0.01899835281074047, 0.024959247559309006, 0.07828132063150406, -0.0726022720336914, -0.03444697707891464, 0.07961008697748184, 0.03508700802922249, -0.06487685441970825, -0.04110896959900856, -0.0029812525026500225, -0.033801764249801636, -0.02128535509109497, -0.01453235000371933, 0.04272966831922531, -0.0005477307131513953, -0.0026651895605027676, 0.03352170065045357, -0.014149116352200508, -0.07846565544605255, 0.01356732938438654, -0.032333262264728546, 0.011129522696137428, 0.007217185106128454, 0.030881255865097046, 0.01545295212417841, -0.009286596439778805, 0.046037282794713974, -0.059726323932409286, 0.010246251709759235, -0.06763169169425964, 0.04885227605700493, -0.04106104001402855, -0.02784036658704281, 0.016606571152806282, -0.04109670966863632, -0.058607880026102066, 0.032668791711330414, -0.027608908712863922, -0.00597522733733058, -0.0014583716401830316, 0.030821755528450012, 0.0016830520471557975, 0.06132376566529274, 0.08389240503311157, -0.07208599895238876, 0.030719121918082237, -0.004134320188313723, 0.021881792694330215, 0.03303410857915878, -0.03251408040523529, 0.040415208786726, 0.010324203409254551, -0.0005512366187758744, 0.013098838739097118, 0.1039515808224678, 0.04687688499689102, 0.018963715061545372, 0.019463909789919853, -0.007361933588981628, 0.05212968587875366, 0.028134897351264954, 0.004150743130594492, -0.027186697348952293, 0.09275103360414505, -0.03261256217956543, -0.34391695261001587, 0.02932722307741642, 0.037407036870718, 0.033370841294527054, -0.06103638559579849, 0.008487898856401443, 0.057803258299827576, -0.005813216790556908, 0.026696087792515755, 0.06895194947719574, 0.0693599209189415, 0.00501552689820528, -0.018267683684825897, 0.022122934460639954, 0.009134132415056229, -0.014117092825472355, 0.03594790771603584, 0.07382883131504059, 0.01724616438150406, -0.013536600396037102, 0.035503365099430084, -0.044853225350379944, 0.02673770859837532, -0.06060362979769707, -0.03138335421681404, -0.03234989196062088, 0.1722577065229416, -0.02405914105474949, -0.03206586092710495, -0.08285972476005554, 0.03993384912610054, 0.06063879653811455, -0.03271415829658508, -0.07575469464063644, 0.06733491271734238, 0.024410279467701912, 0.04973471164703369, 0.06305861473083496, 0.0495464950799942, -0.016439303755760193, 0.032805029302835464, 0.05995570123195648, -0.023916764184832573, -0.021588614210486412, 0.04706209897994995, -0.03710256516933441, -0.021122321486473083, -0.01826455071568489, -0.05599309876561165, -0.025508083403110504, -0.02107774280011654, 0.0074674105271697044, 0.05899464339017868, 0.11528889089822769, -0.041367094963788986, -0.013877663761377335, -0.0025728046894073486, 0.021454403176903725, -0.0005656036082655191, 0.02875056304037571, -0.020362628623843193, 0.0013030351838096976, 0.062491532415151596, 0.002678515622392297, 0.021408824250102043, -0.007013142574578524, 0.024978341534733772, 0.02507608011364937, 0.0018292744643986225, 0.06452983617782593, -0.05090802535414696, 0.08324282616376877, -0.0419360026717186, -0.0196604672819376, -0.014828706160187721, 0.07499998807907104, -0.02755078300833702, -0.008640981279313564, -0.0496990866959095, -0.06783735007047653, 0.0679326131939888, 0.04187732934951782, 0.042821887880563736, -0.024655040353536606, 0.01813211478292942, 0.006482766009867191, 0.02725602313876152, -0.009253288619220257, 0.005510443355888128, 0.0019591047894209623, -0.0486350879073143, -0.029026810079813004, -0.024771980941295624, 0.007130842190235853, 0.06616097688674927, -0.010099436156451702, -0.2661263942718506, 0.005973039194941521, -0.0026798509061336517, -0.010285802185535431, 0.012730518355965614, 0.06458974629640579, 0.01765279844403267, -0.02803446538746357, -0.12841929495334625, -0.00997142679989338, -0.003162110922858119, 0.005733237136155367, 0.009321357123553753, -0.03217247128486633, 0.02923937514424324, 0.014869973994791508, 0.06521397083997726, -0.001413316815160215, 0.016349636018276215, 0.016412004828453064, 0.018433894962072372, 0.04860645905137062, 0.13975851237773895, 0.014997003600001335, -0.025865640491247177, -0.02386876381933689, 0.022901680320501328, -0.027369624003767967, 0.006502407602965832, 0.026705008000135422, -0.0829911082983017, 0.02627691440284252, 0.03979897126555443, 0.004036282189190388, -0.013444959186017513, -0.02276618406176567, 0.012328142300248146, -0.06233526021242142, 0.06089223548769951, -0.04303966835141182, -0.016226492822170258, 0.050499290227890015, -0.030530454590916634, -0.04215036332607269, -0.003776689525693655, 0.00209665740840137, 0.026115301996469498, -0.04977044090628624, 0.02910461835563183, -0.028625784441828728, -0.035908881574869156, -0.04533478617668152, 0.01039168145507574, 0.03845924511551857, 0.04113686829805374, 0.0013729534111917019, -0.04553027078509331, -0.045471809804439545, -0.038206394761800766, 0.017307044938206673, 0.013946802355349064, -0.08691366016864777, 0.010627889074385166, -0.01383751630783081, 0.0076346490532159805]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>cellular_signal_issues_in_certain_areas</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>["Improvement needed: The only thing that I couldn't take advantage of about the company was its app, I was never able to access it correctly because my app store is from another country, so there are different features of the app I couldn't enjoy, I would love for the app to be global.\nReason for given NPS: I believe that the service is of good quality, but I feel the signal problems, and I would love to have options and packages with the target audience of students.", 'Improvement needed: Better 5G coverage\nReason for given NPS: Easy to use and good coverage', 'Improvement needed: Better coverage\n']</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>[-0.00023474717454519123, -0.045971788465976715, 0.04932031035423279, -0.03469008207321167, 0.004276574589312077, -0.04514486715197563, -0.0337250716984272, 0.06298930943012238, 0.05680888891220093, -0.0025211269967257977, 0.02232368476688862, -0.021625857800245285, 0.012581711634993553, 0.02739385887980461, 0.055082373321056366, 0.06307410448789597, 0.04970048367977142, -0.04253119230270386, -0.021353784948587418, -0.01765177957713604, 0.02580771967768669, 0.0009571590344421566, 0.017366982996463776, 0.021167630329728127, -0.020771842449903488, -0.006524863187223673, -0.016570961102843285, 0.007572509348392487, -0.05909983068704605, -0.16058625280857086, 0.010369320400059223, 0.020038926973938942, 0.056429680436849594, 0.05331505089998245, 0.02605227567255497, -0.022928420454263687, -0.04488156735897064, 0.019926222041249275, -0.026169495657086372, 0.05762678384780884, 0.037768393754959106, 0.01602880284190178, -0.026059940457344055, 0.030796175822615623, -0.03722326457500458, -0.0576300323009491, -0.009158723056316376, 0.006859139073640108, 0.04514321684837341, -0.1001652404665947, -0.000789299258030951, 0.017708614468574524, -0.020244481042027473, 0.030723772943019867, 0.03150366246700287, 0.006884221453219652, 0.05978786200284958, 0.09192107617855072, 0.07153531908988953, 0.022840898483991623, 0.050776753574609756, -0.003129277378320694, -0.13193883001804352, 0.045347437262535095, 0.08499099314212799, -0.07738658040761948, 0.021290725097060204, -0.05126117169857025, 0.020530859008431435, 0.009482936933636665, -0.029615843668580055, 0.012019443325698376, 0.01124604046344757, 0.052170202136039734, 0.04949963837862015, 0.022161688655614853, -0.06738362461328506, -0.009207303635776043, -0.010278361849486828, 0.005605130922049284, -0.016134586185216904, -0.028266459703445435, 0.004561327863484621, 0.002714670728892088, -0.008801493793725967, -0.04738345742225647, -0.03134220466017723, -0.0076497383415699005, -0.037916965782642365, -0.009182766079902649, -0.07356385141611099, 0.006393206771463156, -0.03285649046301842, 0.07801948487758636, -0.08776385337114334, -0.012254077009856701, 0.02602137066423893, -0.03486241027712822, -0.04944257810711861, 0.35981932282447815, 0.012523215264081955, 0.0020911009050905704, 0.0448046438395977, 0.09249932318925858, 0.034431472420692444, -0.03478008881211281, -0.05049506947398186, -0.01898662932217121, -0.06379243731498718, 0.07405462861061096, -0.004507741425186396, -0.04795419052243233, 0.0024309917353093624, 0.029185252264142036, -0.01644141785800457, -0.005263376981019974, 0.019778655841946602, 0.011360766366124153, -0.0690770149230957, -0.01220044493675232, -0.03388475626707077, -0.029408780857920647, 0.016870083287358284, 0.0132466284558177, 0.08120176196098328, 0.007288262248039246, 0.0398113839328289, 0.1010809913277626, -0.003947731107473373, -0.00817456841468811, 0.0033753400202840567, 0.0457826592028141, -0.01494390144944191, 0.05598718300461769, 0.004426521249115467, 0.0017544892616569996, 0.014976094476878643, 0.011139585636556149, 0.016373027116060257, 0.03197649493813515, -0.01912819594144821, -0.06770975887775421, 0.009806247428059578, -0.056637294590473175, 0.051104094833135605, 0.07912468910217285, -0.03503222018480301, 0.04205716401338577, 0.00031779560958966613, -0.06508152186870575, -0.01914912648499012, 0.027248339727520943, 0.037419866770505905, 0.01804681308567524, 0.008715758100152016, 0.04298677295446396, -0.04596095159649849, 0.00717457989230752, 0.004000366665422916, 0.013049040921032429, 0.014840145595371723, -0.02309720776975155, -0.008246447890996933, 0.11615477502346039, 0.00032068919972516596, -0.04499348998069763, -0.05884551629424095, -0.04556657373905182, -0.05273716151714325, -0.0214962437748909, -0.032715462148189545, 0.008061825297772884, 0.009558393619954586, 0.0038867127150297165, 0.03371906280517578, -0.005776429548859596, -0.07280897349119186, 0.04703725501894951, -0.022898174822330475, -0.014316834509372711, 0.006492055952548981, 0.026005640625953674, 0.025328008458018303, -0.019629526883363724, 0.0197563748806715, -0.04616016522049904, -0.01840408705174923, 0.004843460395932198, 0.024351058527827263, -0.023574305698275566, -0.08411572128534317, -0.0938270092010498, -0.05175141245126724, -0.05800400674343109, -0.03182211518287659, -0.08719121664762497, -0.010167675092816353, -0.010293697938323021, 0.0002508928009774536, -0.06402354687452316, 0.08812084048986435, -0.007795632351189852, -0.04013388603925705, 0.006403140723705292, 0.02474283240735531, 0.03761857748031616, -0.022607270628213882, -0.05227549001574516, 0.024443065747618675, -0.006567418575286865, 0.02524321898818016, -0.012616744264960289, 0.10863947123289108, -0.035510364919900894, 0.0045080664567649364, -0.029077421873807907, -0.04125073179602623, 0.04804329201579094, 0.028953369706869125, 0.02018595114350319, -0.012423303909599781, 0.05829990282654762, -0.06197715178132057, -0.32216617465019226, -0.026835303753614426, 0.036933328956365585, 0.0067833117209374905, -0.1132139191031456, -0.013394574634730816, -0.0016127870185300708, -0.0013058293843641877, 0.04391847923398018, 0.08140189945697784, 0.049974214285612106, 0.023855125531554222, -0.0160539373755455, -0.004425122402608395, 0.05225396156311035, 0.0076958658173680305, -0.06958946585655212, 0.04464014247059822, -0.025031616911292076, 0.022262679412961006, -0.007936405017971992, -0.00238861539401114, -0.01975134015083313, -0.025062143802642822, -0.012667168863117695, -0.04248001053929329, 0.14658525586128235, -0.020274804905056953, -0.024712413549423218, -0.026848996058106422, 0.05994464457035065, 0.061940208077430725, -0.00813575554639101, -0.033271290361881256, 0.017501339316368103, 0.05395195260643959, 0.0094010503962636, 0.058017756789922714, 0.0234988946467638, -0.016707463189959526, -0.09340483695268631, 0.028584763407707214, -0.009407520294189453, 0.030950602144002914, -0.0066070049069821835, -0.04294007644057274, -0.012460575439035892, 0.037196338176727295, -0.03092401847243309, -0.03151275962591171, 0.0183186624199152, -0.03692091628909111, 0.048264093697071075, 0.04307325929403305, 0.1000170186161995, 0.026266735047101974, -0.02287883497774601, -9.60195466177538e-05, -0.037118617445230484, -0.010983359068632126, -0.008275865577161312, 0.00024548760848119855, 0.015587495639920235, -0.09683635085821152, 0.08382440358400345, 0.024662906304001808, -0.03580758348107338, 0.012393786571919918, 0.014628060162067413, 0.07066838443279266, 0.006329663563519716, 0.07544443756341934, 0.017744045704603195, -0.018333205953240395, 0.021880939602851868, -0.06381544470787048, 0.02995198778808117, -0.01610940508544445, -0.032608333975076675, -0.03718240186572075, 0.03815767168998718, -0.001500635757111013, 0.06494378298521042, -0.037581007927656174, -0.006777606438845396, 0.03164717182517052, 0.00843067467212677, 0.004204839933663607, 0.02975081466138363, -0.014134660363197327, -0.01080748625099659, 0.045783109962940216, 0.05175251513719559, -0.05191706866025925, 0.058195650577545166, -0.020090945065021515, -0.24349762499332428, -0.0496751144528389, 0.03928469493985176, -0.052090249955654144, -0.07402950525283813, -0.006264548748731613, 0.011489521712064743, 0.004726820159703493, -0.10178843885660172, 0.039374031126499176, -0.03444007784128189, -0.05032321438193321, 0.009359914809465408, -0.0009971408871933818, 0.0503920242190361, 0.04937930405139923, 0.008727985434234142, -0.03121728077530861, -0.026450224220752716, -0.056627366691827774, 0.07644474506378174, 0.026922468096017838, 0.13604994118213654, -0.019750304520130157, 0.024269798770546913, 0.03539687395095825, -0.018786923959851265, 0.0357983261346817, 0.011443079449236393, -0.019198521971702576, -0.02589259296655655, 0.007795548066496849, 0.02721041440963745, 0.003216174663975835, 0.0062820082530379295, 0.03431399166584015, 0.047677166759967804, -0.02731185220181942, 0.0005727894022129476, 0.01364324614405632, 0.03816666454076767, 0.06770564615726471, -0.08902612328529358, 0.008330894634127617, 0.04237804934382439, -0.011357582174241543, -0.023549169301986694, 0.015742992982268333, 0.05708544701337814, -0.009083063341677189, -0.053901009261608124, -0.07544386386871338, -0.02095738798379898, -0.01656234823167324, -0.029043059796094894, 0.03889559581875801, -0.08294767141342163, -0.030020415782928467, 0.025805819779634476, 0.020717455074191093, 0.0625094547867775, -0.06492916494607925, 0.017329109832644463, -0.01573227532207966, -0.002591671422123909]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>need_for_pensioner_discounts</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Cost is always a consideration, particularly when one is on a limited income ie: pension.\nWould it be possible to instigate a discount for Gold card members? This wouldn't impact on your profit very much.\nThe other thing that is annoying to a large group of customers is the time it takes to get assistance over the phone. Sometimes it is easier to travel to a ONE shop for assistance.\nReason for given NPS: I put 5 down because I am unsure about other companies out there and how you compare to them.", 'Improvement needed: Prices, better deals\nReason for given NPS: Alright phone service provider, prices are a bit high atm but otherwise fine', 'Improvement needed: Cost and more options. More coverage in rural places\nReason for given NPS: The survice is ok but really need more affordable costings']</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[-0.05169375240802765, -0.017932958900928497, -0.02290322817862034, -0.018359651789069176, 0.008001035079360008, -0.001686865114606917, 0.03311944380402565, 0.06632444262504578, -0.002145184902474284, 0.0047987885773181915, -0.013728603720664978, 0.04435337334871292, -0.027850572019815445, 0.048273369669914246, 0.03228595480322838, 0.008932242169976234, 0.01157010905444622, 0.039231110364198685, -0.05268431082367897, 0.07389836013317108, 0.06512750685214996, -0.06328213214874268, -0.034033529460430145, 0.03873855993151665, 0.01744677871465683, -0.017768803983926773, -0.052796993404626846, -0.004493329208344221, -0.04430149123072624, -0.03982575982809067, 0.030143728479743004, -0.034447986632585526, -0.011196617037057877, -0.008118410594761372, -0.006402099505066872, -0.00023904821136966348, 0.0018257341580465436, 0.0022171323653310537, -0.03924747556447983, 0.004037761129438877, 0.01020563580095768, 0.043322958052158356, -0.04704682528972626, 0.00023234054970089346, 0.018111977726221085, -0.0025155567564070225, -0.026966143399477005, -0.0047446307726204395, 0.02443057857453823, -0.017606647685170174, 0.038972318172454834, -0.001296801376156509, -0.002960765268653631, -0.05157431215047836, -0.010478493757545948, 0.005655805580317974, 0.008028787560760975, 0.045343220233917236, -0.02032237872481346, -0.006436925381422043, 0.007818274199962616, -0.006576217710971832, -0.14621640741825104, 0.02490660734474659, -0.05867072939872742, 0.01671452820301056, -0.013102145865559578, 0.019215496256947517, 0.017597291618585587, 0.01835092343389988, -0.004989154636859894, 0.0150361442938447, 0.036046355962753296, 0.039629239588975906, 0.022006452083587646, -0.05627794191241264, 0.0018523301696404815, 0.0064736767672002316, -0.025712283328175545, 0.00012747063010465354, 0.03100837767124176, 0.005845109466463327, -0.004892473574727774, 0.03437575697898865, -0.01797799952328205, -0.0663737878203392, 0.032888755202293396, -0.04178961366415024, 0.08024149388074875, -0.03215352073311806, 0.06057426333427429, 0.022258568555116653, 0.020893847569823265, 0.06237887591123581, -0.027526533231139183, -0.016312411054968834, 0.04517865553498268, 0.07065380364656448, -0.0967322364449501, 0.39503687620162964, 0.029142167419195175, 0.047263823449611664, 0.022168466821312904, -0.022869175300002098, 0.014338121749460697, -0.05662175640463829, -0.03740585222840309, 0.004505878314375877, -0.00039205612847581506, -0.03444216027855873, -0.036812569946050644, -0.010374616831541061, 0.05559331923723221, -0.033295705914497375, -0.0019049164839088917, 0.030372582376003265, -0.011790218763053417, -0.017822209745645523, 0.03081873618066311, -0.02054639719426632, 0.025680584833025932, -0.003396988147869706, -0.009920024313032627, 0.07909120619297028, -0.038480233401060104, -0.04916886240243912, -0.002584320493042469, 0.10108382254838943, 0.024197490885853767, 0.040395040065050125, 0.002947856904938817, -0.037892550230026245, 0.0025320141576230526, -0.01344968844205141, 0.02417389303445816, -0.023337865248322487, -0.020171139389276505, 0.05674435943365097, 0.047897450625896454, 0.031052889302372932, 0.017421534284949303, -0.0742417499423027, -0.014010845683515072, -0.0832538977265358, -0.004727989435195923, 0.07127292454242706, 0.0337856225669384, 0.0668230727314949, -0.01721038669347763, -0.025768078863620758, -0.0004275775281712413, 0.025123311206698418, 0.00987246260046959, -0.05971783772110939, -0.038829658180475235, 0.01688871905207634, -0.013562415726482868, -0.03666583076119423, -0.05649002641439438, -0.016813570633530617, 0.07158508896827698, -0.09111298620700836, -0.05262620002031326, 0.03687252476811409, -0.004005806520581245, -0.07764121145009995, 0.00657853065058589, -0.009268869645893574, -0.005292374640703201, 0.047094058245420456, -0.02082200162112713, 0.05700143799185753, -0.06408505886793137, 0.023252014070749283, 0.15083423256874084, 0.028049370273947716, 0.014382031746208668, 0.042786892503499985, -0.044718362390995026, 0.03602968901395798, -0.030347205698490143, -0.026466628536581993, -0.06388876587152481, 0.025235440582036972, -0.014204033650457859, -0.04880156368017197, -0.01982160471379757, -0.040066491812467575, 0.026531927287578583, -0.03310149535536766, -0.06527402997016907, -0.032246969640254974, -0.0516759417951107, 0.015251277014613152, -0.011061878874897957, 0.052869509905576706, -0.07893698662519455, 0.027457015588879585, 0.040198348462581635, -0.006796008441597223, 0.014966094866394997, -0.10931221395730972, 0.021452385932207108, 0.05050051584839821, 0.02093634195625782, 0.024044431746006012, 0.0029495181515812874, -0.009196790866553783, 0.13017064332962036, 0.030241763219237328, 0.039569661021232605, -0.02169772982597351, 0.1300242841243744, 0.0426710844039917, -0.03097498044371605, 0.06900942325592041, -0.0025215367786586285, -0.01723545975983143, 0.053086165338754654, -0.006262738723307848, 0.07822214066982269, 0.08230597525835037, 0.026774844154715538, -0.31103095412254333, -0.007201845292001963, -0.05894703418016434, -0.061443816870450974, 0.008743436075747013, -0.015868401154875755, 0.04096505790948868, -0.02197740040719509, -0.07728441804647446, 0.06515888124704361, -0.002448536455631256, -0.07253962010145187, 0.02849932201206684, -0.013997869566082954, 0.00704115629196167, 0.0280923955142498, -0.03093748353421688, -0.023233681917190552, 0.003397891763597727, 0.046396832913160324, 0.023040028288960457, -0.005106160882860422, 0.04543738812208176, 0.012293357402086258, 0.12768657505512238, 0.003394354833289981, 0.15767262876033783, -0.02303394488990307, -0.02602398954331875, -0.026999399065971375, -0.002166437217965722, 0.03815232962369919, -0.020048074424266815, -0.0700228288769722, 0.01906544715166092, 0.01475136261433363, -0.05550647899508476, -0.02515351213514805, 0.0122211379930377, -0.027485869824886322, 0.017477592453360558, 0.0701906681060791, -0.05845329165458679, 0.04456591606140137, -0.05822938308119774, -0.050729162991046906, 0.011309079825878143, 0.07299266010522842, -0.014782789163291454, 0.06893733143806458, 0.02003655582666397, -0.044278159737586975, 0.0243101604282856, 0.0024665414821356535, 0.021075882017612457, -0.05615202337503433, -0.034354131668806076, -0.03762781247496605, -0.07662130147218704, 0.038507334887981415, 0.01284647174179554, -0.02388579770922661, 0.03003377467393875, -0.030068587511777878, 0.02904612384736538, -0.005121495574712753, -0.007570385467261076, 0.020933905616402626, -0.01866387575864792, 0.011998245492577553, 0.005390329286456108, -0.007631888147443533, -0.030659494921565056, -0.0834684669971466, -0.08318817615509033, 0.045111458748579025, 0.004529899451881647, 0.04842723533511162, 0.014651624485850334, -0.02121155895292759, -0.004580287262797356, -0.037961505353450775, -0.008496500551700592, 0.040556274354457855, -0.036991775035858154, 0.007518272381275892, -0.010255791246891022, 0.017453771084547043, 0.009411151520907879, -0.007100753020495176, -0.049677565693855286, 0.018073176965117455, -0.0031610913574695587, 0.04588332772254944, 0.05929884314537048, -0.08044660836458206, -0.26094529032707214, 0.02320263534784317, 0.002477650297805667, -0.004856291692703962, 0.05126296728849411, 0.00442625442519784, 0.002794038038700819, -0.010792259126901627, -0.06816379725933075, 0.0033895294182002544, 0.053610458970069885, 0.06706850975751877, -0.01267632283270359, -0.045147933065891266, 0.032771360129117966, 0.011689301580190659, 0.021562810987234116, 0.014702181331813335, -0.011038149707019329, -0.003805827582255006, 0.027890706434845924, -0.02654239907860756, 0.16638287901878357, 0.02000514417886734, -0.024282069876790047, -0.05020599439740181, -0.02707715332508087, -0.019948964938521385, 0.08002118766307831, -0.030913790687918663, 0.0014279159950092435, -0.03047463856637478, 0.0309163648635149, -0.06162596493959427, 0.03135290741920471, 0.02930745668709278, -0.09452666342258453, 0.0018952692626044154, 0.03126724809408188, 0.021292954683303833, -0.031468890607357025, -0.04060743749141693, -0.05189047381281853, -0.022987792268395424, 0.08107103407382965, 0.029680997133255005, -0.008366071619093418, -0.009861046448349953, -0.006790906190872192, -0.03598275035619736, -0.012562370859086514, -0.002073428826406598, -0.006289321463555098, -0.05322563275694847, 0.002719642361626029, -0.003776071360334754, -0.05855502933263779, 0.012719118036329746, 0.03061600960791111, -0.011716124601662159, -0.04183610528707504, -0.008909226395189762, 0.025650568306446075, 0.009965031407773495, 0.013086650520563126]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>positive_sentiment_ethical_business_practices</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Customer service &amp; technical knowledge in the Cambridge One Nz store( very keen to hook me in tgen disinterested. A staff member actually used my new I phone to claim my Spotify hours so very unimpressed.\nReason for given NPS: I like the response One Nz is making to block pornography of children from reaching or being able to access by anyone in Nz; also agree with the commitment to ensure total accessibility of mobile phone users through out Nz', "Improvement needed: I haven't read anything on Ones efforts for sustainability and a bit unsure how to answer the overall relationship questions as I have really interacted with One personally. Also not sure about the rewards program either and didn't know there was one.\nReason for given NPS: I haven't been with any other company to compare but haven't had any problems with One and theonthly charge is cheap for what you get.", 'Improvement needed: Unfortunately the location of my house means that the mobile reception for my cell phone is patchy I have been told that this will improve when the satellite used next year.\nReason for given NPS: The call Centre staff have always been most helpful when needed even providing a direct phone number to avoid the que during the cyclones.']</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>[-0.010069665499031544, 0.008228085935115814, -0.020346129313111305, -0.04389388486742973, 0.015270828269422054, 7.236145029310137e-05, 0.023299435153603554, 0.03413688391447067, 0.054771628230810165, 0.016668150201439857, -0.03227544575929642, 0.010319212451577187, 0.007738003507256508, 0.002761431038379669, -0.00030277465702965856, 0.05022146552801132, 0.1023910716176033, -0.007840264588594437, -0.05484997108578682, 0.03966414928436279, 0.02045580744743347, -0.0388847254216671, 0.024021098390221596, -0.02464156225323677, 0.01241142675280571, -0.04298257827758789, -0.0325201079249382, 0.009734779596328735, -0.08922097086906433, -0.08041667193174362, -0.02197439596056938, -0.014622801914811134, 0.08068028837442398, 0.014177030883729458, 0.03573271259665489, 0.054451294243335724, -0.03576350957155228, -0.010710624977946281, -0.02977173961699009, 0.004347383510321379, -0.03120669536292553, -0.04110456630587578, -0.01600336655974388, 0.018430693075060844, 0.0046034082770347595, -0.04626850038766861, 0.06380122154951096, -0.029201701283454895, -0.014263052493333817, -0.03627379238605499, -0.004837137181311846, -0.02217998169362545, -0.059534355998039246, 0.00415696669369936, -0.005133823491632938, 0.0523248128592968, 0.0858694538474083, 0.042169369757175446, -0.0052679735235869884, 0.006469097454100847, 0.04988006502389908, 0.025582969188690186, -0.14177541434764862, 0.053488682955503464, 0.009287051856517792, 0.02779073268175125, -0.08520427346229553, -0.010427470318973064, -0.1151716336607933, -0.01669517531991005, 0.028514763340353966, -0.01654769480228424, 0.058204635977745056, 0.03596866875886917, 0.0043343547731637955, 0.03920452669262886, 0.07476740330457687, -0.0202798992395401, -0.02075192518532276, -0.013949592597782612, 0.04324473440647125, 0.08200474083423615, -0.00699252262711525, -0.011299001052975655, -0.03455410152673721, -0.018940048292279243, -0.016768479719758034, 0.013748325407505035, 0.08735454827547073, 0.01882757432758808, 0.032894302159547806, -0.009816242381930351, -0.03841254487633705, -0.02599155530333519, -0.04085541144013405, -0.05114017799496651, -0.058164145797491074, 0.03494708612561226, -0.05242163687944412, 0.3944784700870514, -0.045009415596723557, 0.04373716190457344, -0.01849425584077835, -0.07194912433624268, 0.020655067637562752, -0.030310239642858505, 0.015942126512527466, -0.017029693350195885, 0.01771337352693081, -0.006834359839558601, -0.004551921039819717, -0.04030044376850128, 0.05845687538385391, -0.06580424308776855, -0.03390232473611832, 0.07069630175828934, -0.007533842232078314, 0.0038205476012080908, 0.020764827728271484, -0.06474260240793228, -0.04466134309768677, 0.012463108636438847, 0.03129364550113678, -0.04054175689816475, -0.0385160855948925, -0.039855096489191055, 0.05167195573449135, 0.05702774226665497, 0.05431932210922241, 0.011061460711061954, -0.003764005843549967, 0.02386893518269062, -0.010421312414109707, 0.02954084612429142, -0.012041609734296799, 0.00465297931805253, -0.06094827502965927, 0.006234216969460249, 0.062292974442243576, 0.06027710810303688, 0.0010491171851754189, -0.023623822256922722, -0.06036871671676636, -0.10261333733797073, -0.06290696561336517, 0.06769745796918869, 0.04193917289376259, 0.03955863416194916, -0.04916032776236534, 0.005785528104752302, 0.008666865527629852, 0.08844581246376038, -0.018368521705269814, -0.009868915192782879, 0.015264230780303478, -0.002377560595050454, 0.030685240402817726, 0.00015875294047873467, -0.042683687061071396, -0.004622409585863352, 0.10191931575536728, -0.024249255657196045, -0.04839159548282623, 0.08888661116361618, -0.0327095203101635, -0.08636642247438431, 0.03718619793653488, -0.01672263629734516, 0.015649395063519478, 0.07034417986869812, 0.002859278814867139, -0.003317816648632288, -0.025426555424928665, 0.02365712635219097, 0.04164993017911911, -0.022864561527967453, 0.05710718035697937, -0.013613301329314709, -0.026795942336320877, 0.030889203771948814, 0.06626501679420471, -0.033106978982686996, -0.05700001120567322, 0.02368621714413166, 0.03292720019817352, 0.059739332646131516, 0.020611919462680817, -0.040750257670879364, 0.009937846101820469, 0.015478747896850109, -0.071780726313591, -0.022927256301045418, -0.048707861453294754, 0.05528115853667259, -0.03831787407398224, 0.000680048658978194, -0.060824014246463776, -0.021686211228370667, -0.044701967388391495, 0.012862464413046837, -0.05193905532360077, -0.005388814490288496, -0.07506779581308365, 0.01367842499166727, 0.04064634069800377, 0.010258308611810207, 0.08152665942907333, 0.021514402702450752, 0.06296661496162415, 0.012184293009340763, -0.04593710973858833, 0.031789373606443405, 0.028645852580666542, -0.0015690549043938518, 0.03659446910023689, 0.02143709547817707, 0.05434854328632355, 0.06642363965511322, 0.0018109355587512255, 0.04490814357995987, -0.025418411940336227, 0.035443320870399475, -0.082326740026474, -0.2888786494731903, 0.005691187921911478, -0.06209608539938927, 0.009123171679675579, -0.011911275796592236, 0.017764171585440636, 0.013513924553990364, -0.02818257361650467, 0.02211853303015232, 0.054391853511333466, 0.06262175738811493, -0.047219183295965195, -0.03656947240233421, 0.004285610746592283, 0.05703483149409294, -0.02444961853325367, -0.03300664201378822, 0.006430877838283777, -0.03226219117641449, -0.018462657928466797, -0.0237822737544775, 0.010078402236104012, 0.07594699412584305, -0.045668136328458786, 0.050291165709495544, -0.004001416731625795, 0.12330392003059387, 0.011927985586225986, -0.034435976296663284, 0.04118627682328224, 0.024877404794096947, -0.0008417126373387873, 0.02525930665433407, -0.15077069401741028, 0.10038045793771744, 0.018911609426140785, 0.05037664994597435, -0.0016848676605150104, -0.09711166471242905, 0.037392888218164444, 0.045161452144384384, 0.07073378562927246, -0.018772214651107788, -0.053320351988077164, 0.014353242702782154, -0.03990691900253296, 0.028462715446949005, -0.027991747483611107, -0.06206813454627991, 0.020359694957733154, -0.008132009766995907, 0.010349548421800137, 0.04978442192077637, 0.04853939265012741, 0.01103872712701559, -0.026500118896365166, -0.050390925258398056, -0.03338397666811943, -0.029768388718366623, 0.018160613253712654, 0.010524675250053406, -0.016960764303803444, 0.026863951236009598, 0.013967683538794518, -0.012526480481028557, -0.013391701504588127, 0.026803651824593544, 0.0238258745521307, 0.0037397511769086123, 0.05478067696094513, -0.05690961703658104, 0.041867561638355255, -0.010104654356837273, -0.0867113247513771, -4.862774949287996e-05, 0.008009634912014008, -0.05165601521730423, -0.002549949334934354, -0.03847455233335495, -0.006771683227270842, 0.04230477288365364, 0.0020451059099286795, 0.0029543768614530563, 0.02885372005403042, 0.004667069762945175, -0.01440561842173338, -0.020261716097593307, -0.03383064642548561, 0.07277167588472366, -0.028833793476223946, 0.012083170004189014, -0.012326584197580814, -0.054413266479969025, -0.03515792638063431, 0.07955413311719894, 0.01834268867969513, -0.258279025554657, -0.031580500304698944, -0.0694451555609703, -0.0031052071135491133, -0.03787798807024956, 0.07619373500347137, 0.02766283042728901, -0.019470637664198875, -0.09059731662273407, 0.05726439878344536, 0.02089502103626728, 0.05374481528997421, 0.013779458589851856, -0.01600486971437931, 0.015980016440153122, -0.02682184800505638, 0.022452471777796745, -0.040024466812610626, 0.020212503150105476, -0.046327654272317886, 0.06202571094036102, 0.008420035243034363, 0.1668059527873993, 0.0046603018417954445, 0.0193868987262249, -0.008992576971650124, -0.006945515517145395, -0.007666554301977158, -0.053261157125234604, 0.000844800379127264, 0.06292213499546051, 0.009026048704981804, 0.05496138334274292, -0.028927164152264595, -0.013940611854195595, 0.0004647463792935014, -0.04037586972117424, -0.06256593763828278, -0.023211417719721794, -0.001152239041402936, -0.05282367393374443, 0.04917285218834877, 0.013599364086985588, -0.023949308320879936, 0.02385086566209793, 0.002373814582824707, -0.005791494622826576, -0.031897105276584625, 0.055532000958919525, -0.028119340538978577, -0.01461689081043005, 0.04818539321422577, 0.017345957458019257, 0.02071615494787693, -0.01557083334773779, 0.0007659092079848051, -0.01527970191091299, -0.021244142204523087, -0.020786665380001068, -0.0575484000146389, -0.034429870545864105, 0.017314327880740166, 0.0065095024183392525, 0.0502510741353035, -0.025103578343987465]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>need_data_only_prepaid_plans_for_children_tablets</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Flex prepay without minutes and txt, or monthly data only prepay plans for children or tablets that doesn't get used as often as normal phones. My kids have prepay numbers for emergencies that I wish they have some data on. I also have a work tablet that would love the same thing. A reasonable amount of data like 1 or 2GB without minutes and txts. So I don't have to purchase seperately as an add on every month.\nReason for given NPS: It's generally pretty good. I like most products one nz provides", 'Improvement needed: Would be great to have more options of  plans with movil data.\n', "Improvement needed: I would like to add more devices to my plan but I found the price too high for adding new number/chips ($30). Maybe there could be an option for adding data only SIM cards? I have a tablet and laptop but it's annoying to have to share the connection in my phone whenever I want to access the internet.\n"]</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>[0.004356713034212589, -0.06045331433415413, 0.03215564787387848, -0.07947750389575958, -0.011622156016528606, -0.021588847041130066, -0.05272074416279793, 0.07234097272157669, -0.02550710178911686, -0.008269723504781723, 0.0213353019207716, 0.015126977115869522, 0.03745933622121811, 0.02873351238667965, 0.044934727251529694, -0.007891613990068436, 0.06128966435790062, -0.09351411461830139, -0.03596014529466629, 0.05303299054503441, 0.06658151000738144, -0.046919241547584534, -0.01582484319806099, -0.04333110526204109, 0.03234078362584114, -0.005086862947791815, 0.007758177351206541, -0.038809873163700104, -0.012222572229802608, -0.10952013731002808, 0.011327077634632587, 0.026729173958301544, -0.037044983357191086, -0.01808139868080616, 0.022874800488352776, -0.017926258966326714, 0.04194556176662445, 0.023925406858325005, -0.014336568303406239, 0.07271174341440201, -0.053290944546461105, 0.021449927240610123, -0.06175384670495987, 0.08233385533094406, -0.036976564675569534, -0.036933258175849915, -0.028798159211874008, -0.012285389937460423, 0.12275750935077667, -0.056708693504333496, 0.07871370762586594, 0.02573307603597641, 0.01150268130004406, -0.002772406442090869, 0.0034641679376363754, 0.034244149923324585, -0.020247932523489, -0.02543434500694275, 0.045236747711896896, 0.0465298667550087, 0.020455146208405495, 0.045273590832948685, -0.12456225603818893, 0.06784093379974365, -0.054549239575862885, 0.06916792690753937, 0.0014608876081183553, -0.016602519899606705, 0.011966762132942677, 0.009974121116101742, -0.013026513159275055, -0.012042171321809292, -0.0023588440380990505, 0.1123078465461731, -0.01309808436781168, 0.023590518161654472, 0.025425469502806664, -0.010506115853786469, -0.030945291742682457, 0.008152531459927559, -0.043041545897722244, 0.013984056189656258, -0.0018454886740073562, 0.04503904655575752, 0.003825343446806073, -0.0764145478606224, 0.003659925889223814, -0.06158323585987091, 0.04887827858328819, -0.00430974131450057, -0.017008746042847633, 0.007148852106183767, 0.011917781084775925, 0.04616192728281021, -0.07240451127290726, -0.02178201451897621, 0.020256109535694122, 0.02553977631032467, -0.10611975193023682, 0.4082430601119995, -0.024654434993863106, 0.03769085928797722, 0.02011483907699585, -0.009104386903345585, -0.017992865294218063, -0.03276284411549568, -0.029649488627910614, -0.05066009610891342, -0.051991600543260574, -0.019764110445976257, -0.06885551661252975, -0.054786328226327896, 0.041470278054475784, -0.012990254908800125, -0.004134112037718296, 0.01547179277986288, -0.02134641259908676, -0.025344496592879295, 0.006346743553876877, -0.02349928580224514, -0.06626540422439575, -0.009321718476712704, 0.012802266515791416, -0.01288468949496746, 0.009593990631401539, -0.05646681785583496, 0.03275430575013161, 0.10405850410461426, -0.022125069051980972, 0.08395363390445709, 0.06158589571714401, -0.053845953196287155, -0.0443795770406723, 0.030325092375278473, -0.018763156607747078, -0.009650733321905136, 0.013309016823768616, -0.04092695564031601, -0.004994060378521681, 7.742559682810679e-05, -0.045323193073272705, -0.06238037347793579, -0.01067010685801506, -0.05674365907907486, -0.02526799589395523, 0.06936659663915634, 0.03881203755736351, 0.07265303283929825, -0.04154433310031891, -0.031037062406539917, 0.0027006962336599827, 0.09611932188272476, 0.07979893684387207, -0.023199979215860367, -0.012502171099185944, 0.03941084071993828, 0.026097388938069344, -0.014714213088154793, -0.038755785673856735, -0.011678427457809448, 0.06496673822402954, -0.035630594938993454, -0.051619429141283035, 0.06975224614143372, -0.024813208729028702, -0.08357569575309753, 0.01954532042145729, 0.02430398389697075, -0.0004371187533251941, 0.0022254320792853832, -0.02240314707159996, 0.05891512334346771, -0.020287437364459038, 0.011613347567617893, 0.07212881743907928, -0.01891986094415188, -0.021146204322576523, 0.018276464194059372, -0.04442375525832176, 0.004402526188641787, -0.050774574279785156, -0.02937198616564274, 0.007290000561624765, -0.035846978425979614, 0.006756946444511414, -0.06491122394800186, 0.002986531937494874, 0.02931319549679756, 0.060697901993989944, -0.06481581926345825, -0.08065781742334366, 0.0016968974377959967, -0.025611283257603645, -0.04668431729078293, -0.03197973594069481, 0.012700678780674934, -0.042954497039318085, -0.00890539400279522, 0.03283550590276718, -0.063232421875, 0.04923402518033981, -0.03306809067726135, 0.014384554699063301, 0.06037123128771782, 0.027518263086676598, -0.006175129674375057, 0.027699951082468033, -0.01695595681667328, 0.07158950716257095, -0.030934615060687065, 0.07005386054515839, 0.021294500678777695, 0.0792379304766655, -0.015980716794729233, -0.04590506851673126, 0.05273790657520294, -0.017084361985325813, 0.010711937211453915, 0.019276300445199013, 0.024769609794020653, 0.0012345283757895231, 0.032890912145376205, 0.012134985066950321, -0.2857219874858856, 0.019360151141881943, -0.049832914024591446, -0.004932090174406767, -0.08680195361375809, 0.01675843447446823, 0.04926964268088341, -0.005731208715587854, -0.03826281800866127, 0.10785789042711258, 0.0524003840982914, 0.020345892757177353, 0.01441429927945137, 0.018115201964974403, -0.02813507430255413, -0.036704763770103455, 0.01645788736641407, -0.00889675971120596, 0.0014842849923297763, 0.03406422212719917, 0.010387403890490532, -0.00440254108980298, -0.025731761008501053, -0.034576334059238434, 0.05059986189007759, 0.04084031656384468, 0.17324815690517426, -0.006501405965536833, -0.009205996990203857, -0.011998960748314857, 0.06124718859791756, 0.08686673641204834, -0.05668932572007179, -0.04864514619112015, 0.008967721834778786, -0.012054746970534325, -0.0765896737575531, 0.02961157076060772, 0.0033859300892800093, -0.052504729479551315, -0.04587402939796448, 0.08008544892072678, -0.014470812864601612, -0.06069771200418472, -0.007780768442898989, -0.010874693281948566, -0.040835436433553696, 0.029458027333021164, -0.01704922690987587, 0.0570857860147953, -0.0059499884955585, -0.010130537673830986, 0.011982978321611881, -0.016340848058462143, 0.05639471486210823, 0.0011899909004569054, -0.00863723922520876, 0.048305295407772064, -0.09585727006196976, 0.006347354967147112, -0.05438815802335739, -0.012152008712291718, -0.04029642045497894, -0.0496206060051918, -0.061856959015131, -0.03865355625748634, -0.00026768207317218184, -0.010171635076403618, -0.008311175741255283, 0.03120076283812523, 0.006851309910416603, 0.03248251974582672, -0.025379329919815063, 0.02004399709403515, -0.007593335118144751, -0.010944669134914875, 0.06840752810239792, -0.01196934375911951, -0.01921822875738144, 0.01656227372586727, -0.0420248843729496, 0.05548369139432907, 0.010080714710056782, 0.022513240575790405, 0.037469252943992615, 0.007287335582077503, 0.04645100608468056, 0.03967911750078201, -0.004102243576198816, -0.04339071735739708, -0.02117643505334854, 0.012945090420544147, 0.06857826560735703, 0.0008817960042506456, 0.11943566799163818, 0.009816961362957954, -0.21873867511749268, 0.008778870105743408, -0.03468523919582367, -0.006170366890728474, 0.034747447818517685, 0.011111964471638203, -0.0013877920573577285, 0.014829651452600956, -0.04115622490644455, 0.032078925520181656, -0.019626908004283905, 0.0495464988052845, 0.006115079391747713, -0.015491589903831482, -0.004802710842341185, 0.01722916215658188, 0.07295349985361099, 0.010386772453784943, -0.056200265884399414, -0.03309805691242218, 0.053941428661346436, -0.06518597900867462, 0.159730464220047, -0.007435306906700134, -0.058764662593603134, -0.0017767241224646568, -0.034553904086351395, 0.04504803568124771, 0.062179338186979294, 0.031574878841638565, -0.05404701083898544, 0.015574539080262184, 0.027755215764045715, 0.03583073243498802, 0.018563665449619293, 0.00922741461545229, -0.06019102782011032, -0.03500040993094444, 0.02857121452689171, 0.028632095083594322, -0.04484707489609718, -1.2943526598974131e-05, -0.03156181797385216, 0.07229746878147125, 0.04746411368250847, 0.020308248698711395, -0.007522764150053263, -0.035891514271497726, 0.005269303917884827, -0.02508585713803768, 0.011375888250768185, -0.05891144648194313, -0.026016999036073685, 0.007595357950776815, 0.005727986805140972, 0.009076977148652077, -0.016446717083454132, 0.0009859505807980895, 0.02291637845337391, -0.03347400575876236, -0.0077026584185659885, -0.032326195389032364, -0.0004167513397987932, 0.05229395627975464, -0.0385994091629982]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>data_plan_expiry_poor_timing</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>['Improvement needed: the time factor of renewing top up at 11.59 the night before my pension there being I lose all carry over. this time should be 24 hours later. If you did this you would make alot of poor people alot able to keep in touch with loved ones and their health.\nReason for given NPS: delay in receiving txt messages', "Improvement needed: Be fair to your customers specially in the mobile or phone credit or top up sometimes we can't use our credit but the credit it's finished easily I don't know what happened\n", 'Improvement needed: Providing clearer expectations around throttled speeds when data runs out on unlimited plans\n']</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>[-0.12634719908237457, 0.0034114080481231213, 0.04213247820734978, -0.000552311132196337, -0.013869142159819603, -0.021317025646567345, -0.06769334524869919, -0.03219650685787201, 0.031577613204717636, -0.010018856264650822, 0.022064290940761566, 0.024723734706640244, 0.06342273205518723, 0.030086377635598183, -0.018051600083708763, 0.002762258518487215, 0.020717142149806023, -0.04460037499666214, 0.00025274042855016887, 0.024569518864154816, 0.07277566194534302, -0.053590163588523865, -0.05863766372203827, 0.0170541200786829, -0.015029855072498322, 0.07004202157258987, -0.021320225670933723, -0.046432942152023315, -0.1012638583779335, -0.15505899488925934, -0.010569283738732338, 0.004924302455037832, -0.013652742840349674, -0.0245937779545784, 0.04811999946832657, -0.036559801548719406, -0.009091618470847607, 0.06371308118104935, -0.03708631917834282, 0.06529930233955383, -0.07107673585414886, 0.041703611612319946, -0.09811577945947647, -0.010068630799651146, -0.06820850819349289, -0.05680276080965996, -0.0321747250854969, -0.00033140782034024596, 0.07180093228816986, 0.007389027159661055, -0.03598345071077347, 0.02438320219516754, 0.005229463800787926, 0.04313323646783829, -0.004387216176837683, 0.05084595829248428, 0.08141355961561203, 0.019802603870630264, 0.021721813827753067, 0.001452925382182002, 0.013241621665656567, 0.010939257219433784, -0.1576939821243286, 0.043725185096263885, -0.015621806494891644, -0.003965090960264206, 0.006092488765716553, -0.08534110337495804, -0.007833337411284447, -0.022280123084783554, -0.01668277569115162, -0.043835218995809555, -0.024814758449792862, 0.12532953917980194, 0.05880803242325783, 0.01996069960296154, 0.00480511412024498, 0.017735455185174942, 0.013673456385731697, 0.06744816899299622, -0.0023118930403143167, 0.013713435269892216, -0.017171913757920265, -0.008655724115669727, 0.002826533978804946, -0.012400805950164795, -0.008174991235136986, -0.013175013475120068, 0.04837512597441673, 0.011939589865505695, 0.0219423808157444, 0.030963234603405, 0.03835562244057655, 0.033394262194633484, -0.01661657728254795, 0.047178082168102264, 0.04820568859577179, 0.025742363184690475, -0.07824401557445526, 0.3971799910068512, -0.02303469367325306, 0.05489113926887512, -0.03922112658619881, 0.08459020406007767, 0.00911890622228384, -0.06320470571517944, -0.031022589653730392, -0.03563721105456352, -0.033228252083063126, -0.03229793533682823, -0.011911132372915745, -0.0343322716653347, 0.052788496017456055, -0.02605130895972252, 0.04090029001235962, 0.0627901628613472, -0.04089164361357689, -0.0337173268198967, -0.037985533475875854, 0.012702526524662971, -0.0365697517991066, 0.01307862251996994, 0.023955950513482094, -0.007545069791376591, -0.002399490913376212, -0.04325377941131592, 0.01346626877784729, 0.10094214230775833, -0.053790174424648285, 0.0016933613223955035, 0.031089436262845993, -0.010344765149056911, -0.030756140127778053, 0.01593795418739319, -0.012792973779141903, 0.022317921742796898, 0.004373748321086168, 0.023123709484934807, 0.03966045007109642, -0.06377764791250229, -0.07116237282752991, -0.044417887926101685, -0.017910107970237732, -0.05264633148908615, 0.0396350622177124, 0.11422836035490036, 0.03370947018265724, 0.06283079832792282, -0.04965408891439438, -0.06278296560049057, -0.01179865188896656, 0.004847354721277952, 0.06440853327512741, -0.05384568125009537, -0.013356412760913372, -0.010326710529625416, 0.007188537158071995, -0.011085569858551025, -0.0007121167727746069, -0.004302516579627991, 0.005947781261056662, -0.04721471667289734, -0.06630133092403412, 0.04665711149573326, -0.005262620747089386, -0.025257878005504608, -0.005282288417220116, 0.016311056911945343, 0.017397988587617874, 0.02958754450082779, 0.005451053846627474, 0.0012341225519776344, 0.051668595522642136, -0.046187009662389755, 0.09416110813617706, -0.0047531393356621265, 0.025500813499093056, 0.00633589643985033, -0.05594850331544876, -0.009212859906256199, -0.024708470329642296, 0.028871333226561546, -0.04411744698882103, -0.031629957258701324, 0.030948549509048462, -0.02639896050095558, -0.015266318805515766, 0.03802846744656563, 0.0627267137169838, 0.0041159456595778465, -0.08540990203619003, -0.0754355788230896, -0.02339676022529602, -0.03065050207078457, -0.03826708719134331, -0.07311645895242691, -0.035228848457336426, 0.04596782475709915, 0.05139565467834473, -0.034007757902145386, 0.1337134838104248, -0.051639262586832047, -0.035601500421762466, 0.06161639466881752, -0.03179223835468292, -0.029804494231939316, -0.033904124051332474, -0.02411157265305519, 0.035842686891555786, -0.028369992971420288, -0.008178855292499065, -0.016370344907045364, 0.032320648431777954, 0.0068429880775511265, -0.03648378327488899, 0.046554822474718094, -0.020310355350375175, 0.030631082132458687, 0.0017838412895798683, -0.0002035652578342706, 0.03703572601079941, 0.07195517420768738, 0.07341278344392776, -0.26094958186149597, 0.039847612380981445, -0.04324457421898842, 0.010196688584983349, -0.029447389766573906, 0.0023142839781939983, -0.02435011975467205, -0.04210316762328148, 0.03926347196102142, 0.04085632786154747, 0.01764899678528309, -0.005678954534232616, -0.00018052944506052881, -0.010659094899892807, -0.04201151430606842, -0.01058962196111679, 0.020131494849920273, -0.01540088839828968, -0.01621570996940136, 0.01022186130285263, 0.010094746947288513, -0.03506530448794365, 0.02065061777830124, -0.07163235545158386, 0.04970976337790489, 0.020768141373991966, 0.153787761926651, -0.08228196948766708, -0.05611150711774826, -0.05566851794719696, 0.050822146236896515, 0.02776535227894783, -0.04443584010004997, -0.06965238600969315, -0.0061227683909237385, -0.01945548877120018, -0.004641890525817871, 0.05686701461672783, -0.0042024170979857445, -0.05504399910569191, -0.043669238686561584, 0.04397957772016525, 0.019648833200335503, -0.035414885729551315, 0.02540629357099533, -0.008860863745212555, 0.02047964744269848, 0.06342507898807526, -0.029149994254112244, 0.028505655005574226, 0.041041333228349686, -0.02991699054837227, 0.03780294209718704, 0.052227865904569626, 0.10207352787256241, -0.013775230385363102, -0.07401272654533386, 0.02420205809175968, -0.009755723178386688, -0.023380842059850693, -0.0108064915984869, -0.051551852375268936, 0.04025597125291824, 0.004009098280221224, 0.018133223056793213, -0.013499809429049492, 0.0027341193053871393, -0.06096324324607849, -0.041589684784412384, 0.05135772377252579, -0.022060927003622055, 0.05385651811957359, -0.027915814891457558, -0.062025286257267, 0.0371946282684803, -0.013316301628947258, -0.0275383610278368, -0.02846512198448181, -0.03908095136284828, -0.03115774877369404, 0.04988842085003853, -0.0010684023145586252, 0.03791837394237518, -0.0036569549702107906, 0.004846266936510801, 0.014475550502538681, 0.008163098245859146, 0.055530887097120285, 0.0199044868350029, -0.028860269114375114, -0.004214010201394558, -0.024048177525401115, -0.009923979640007019, 0.022272376343607903, 0.09786668419837952, 0.01451086439192295, -0.2522604167461395, 0.04696144536137581, -0.010787452571094036, -0.03419337049126625, 0.0215936116874218, -0.0029807661194354296, -0.02979527786374092, 0.029278086498379707, -0.03355608880519867, 0.010569551959633827, -0.04701293632388115, 0.05319575220346451, -0.037848100066185, -0.015571597032248974, -0.017866645008325577, -0.0074534001760184765, 0.03488738834857941, -0.032717425376176834, -0.03161517530679703, -0.013800486922264099, 0.002618891652673483, -0.0031537548638880253, 0.1302582323551178, 0.0012293219333514571, -0.04512026160955429, 0.03832881897687912, 0.037238165736198425, 0.06680241972208023, 0.09747558832168579, 0.04818696901202202, -0.03386320918798447, 0.015458173118531704, 0.0725463256239891, 0.0233022291213274, -0.0035749489907175303, 0.05083904787898064, -0.00979352742433548, -0.024446262046694756, 0.023785708472132683, 0.04753642901778221, -0.0031619383953511715, 0.03746301308274269, 0.03927126154303551, 0.02723674662411213, 0.06101054325699806, -0.01868106797337532, 0.005616388283669949, -0.05161120370030403, 0.02785077691078186, 0.035146407783031464, -0.025614062324166298, -0.0342862531542778, -0.03571378067135811, 0.002170990454033017, -0.008456041105091572, 0.06378430873155594, 0.00627604266628623, -0.0009716341155581176, 0.019803615286946297, -0.002769946353510022, 0.06857860833406448, -0.03869577869772911, -0.002472839318215847, 0.006535818800330162, -0.05173654109239578]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>need_to_highlight_relationship_value</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Hate to say it but my relationship with one.nz is not much stronger than my relationship with my local supermarket. It just is there, I'm not sure that there is a value element to the relationship - this is an opportunity for one.nz as I know most other SME businesses I know feel the same about their telco's. If I got greater value, I would without question look at new solution/opportunities for my business leveraging one.nz\nReason for given NPS: I'm not entirely certain I'm consistently benefiting as a longstanding client. Given the evolving landscape, I'd appreciate more frequent communication to help me grasp possibilities for incorporating new capabilities and functionalities, as well as optimizing my investment.", "Improvement needed: I am passed my use by date and so I like talking to a human on the phone, and I hate waiting because I feel it is wasting the precious time I have left.\nSo - improve your waiting time - you are supposed to be a communications firm for heaven's sake!\nReason for given NPS: There are so many good deals out there and I know very little about the technology behind the companies.   People are more willing to switch these days which is interesting.   However, I don't feel qualified to judge.", "Improvement needed: Keeping in touch with your business customers..... I haven't had contact regarding my business account since my last phone upgrade. Makes me wonder now if it was just a sales call rather than a genuine business support contact\nReason for given NPS: I have always been with One NZ (previously Vodafone) &amp; have never had any issues"]</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>[-0.030705774202942848, 0.028028292581439018, 0.006171276327222586, -0.025229787454009056, 0.003413149621337652, -0.07042647153139114, -0.012112297117710114, 0.044829145073890686, 0.04776976257562637, 0.013561010360717773, -0.018399406224489212, -0.023428618907928467, 0.03969288617372513, 0.04423573613166809, 0.02175275795161724, 0.01912512630224228, 0.00018524736515246332, 0.09497394412755966, -0.0904938131570816, -4.970114241586998e-05, 0.038348596543073654, 0.01105695404112339, -0.03966154530644417, 0.016475338488817215, -0.025723565369844437, 0.020845288410782814, -0.03234225511550903, -0.023801293224096298, -0.08047561347484589, -0.1326916515827179, -0.011498318053781986, 0.040403638035058975, 0.025293827056884766, 0.01567777432501316, 0.018148545175790787, -0.05104602873325348, -0.04618982598185539, -0.0800803005695343, 0.029884666204452515, 0.016623923555016518, 0.05733368545770645, -0.04172954335808754, -0.035988498479127884, 0.016397569328546524, -0.10386379063129425, -0.03879774361848831, 0.045234739780426025, -0.003623174037784338, 0.009653664194047451, -0.09179146587848663, 0.03529874235391617, -0.01649423874914646, -0.00991855002939701, -0.02961292676627636, 0.0054701222106814384, 0.06340312212705612, 0.05742312967777252, 0.017648184671998024, 0.011587973684072495, -0.015506857074797153, 0.025892505422234535, 0.08581908047199249, -0.14215925335884094, 0.01615249365568161, -0.001534517272375524, -0.027212031185626984, -0.008825915865600109, -0.011723458766937256, 0.0037529964465647936, -0.010115517303347588, 0.0007493953453376889, -0.012264091521501541, -0.010856802575290203, 0.040138836950063705, 0.05222640931606293, -0.039315659552812576, -0.0001720823347568512, -0.03534165024757385, 0.06048496440052986, -0.005160919390618801, -0.03857407718896866, 0.03379034250974655, -0.05699402838945389, -0.04527153819799423, 0.019906390458345413, -0.00024334013869520277, 0.00230307225137949, -0.08742723613977432, 0.02508244477212429, -0.02440289594233036, 0.01813417114317417, -0.08273912221193314, -0.020088886842131615, 0.013384340330958366, -0.07703287899494171, -0.007951714098453522, -0.021778777241706848, -0.06777777522802353, -0.08233335614204407, 0.35943520069122314, 0.0026569990441203117, 0.028333492577075958, 0.00463402085006237, -0.0023012214805930853, -0.014033529907464981, -0.016255460679531097, 0.011426993645727634, -0.021373193711042404, -0.042321059852838516, 0.0015962597681209445, -0.017167042940855026, -0.040077511221170425, 0.012337946332991123, -0.09410812705755234, 0.021478045731782913, 0.050863128155469894, 0.004059958271682262, -0.012019971385598183, 0.01299314759671688, -0.05387036129832268, 0.02564847283065319, -0.001966339536011219, 0.06066962704062462, 0.023426581174135208, -0.024176375940442085, 0.02473093383014202, 0.03166821226477623, 0.08401654660701752, 0.052309550344944, 0.04696589708328247, 0.05329984799027443, 0.04660272225737572, -0.06321113556623459, 0.03803031146526337, -0.06192950904369354, -0.043980348855257034, 0.0031775692477822304, 0.019160017371177673, 0.017773933708667755, 0.09137619286775589, -0.014443227089941502, -0.1033075675368309, -0.033371519297361374, -0.035101260989904404, -0.024818280711770058, 0.1124618649482727, -0.0544796846807003, 0.03213382512331009, -0.049493979662656784, -0.0017643077298998833, -0.039768241345882416, -0.004784551449120045, 0.010299860499799252, 0.01492316834628582, -0.03759177774190903, 0.04785413667559624, 0.0022803572937846184, -0.05029419809579849, -0.016085350885987282, -0.0007345285266637802, 0.024903278797864914, -0.05820261314511299, -0.054620638489723206, 0.03451646491885185, 0.001432764227502048, -0.0990281030535698, 0.012322318740189075, -0.014153984375298023, -0.05376656353473663, 0.002376610180363059, 0.0007296621333807707, 0.08285730332136154, -0.049364350736141205, 0.05150138959288597, 0.1568034142255783, -0.0333872064948082, -0.014215473085641861, 0.04473259672522545, -0.0009215188911184669, -0.03797473758459091, 0.07717202603816986, 0.016971517354249954, -0.030749037861824036, 0.06018269062042236, 0.01624007150530815, -0.051320187747478485, 0.0176796093583107, -0.001753367600031197, 0.0031601882074028254, 0.030285311862826347, -0.007055582012981176, -0.028827033936977386, -0.029739325866103172, -0.009813924320042133, -0.023855986073613167, 0.001140256761573255, -0.014079045504331589, -0.04326111078262329, -0.03483475372195244, 0.00585421547293663, 0.05832939222455025, -0.023158011958003044, 0.010386588983237743, -0.006190442945808172, 0.035065725445747375, -0.004980326164513826, -0.020511990413069725, 0.0006027068593539298, 0.00619798619300127, 0.01038481667637825, -0.02484492026269436, 0.010392547585070133, 0.06091766059398651, 0.01674105040729046, -0.060908980667591095, -0.03532794862985611, -0.045856788754463196, 0.08426926285028458, 0.0046712844632565975, 0.050175394862890244, 0.03538570925593376, 0.032798901200294495, 0.039294611662626266, -0.30530568957328796, 0.050710372626781464, -0.030456220731139183, -0.01514822244644165, -0.07481098175048828, -0.002445131540298462, 0.04662168398499489, 0.03897621110081673, -0.024246277287602425, 0.05411866679787636, 0.053894590586423874, 0.0013876577140763402, -0.06703308969736099, -0.019954057410359383, -0.0003985232033301145, -0.0073574017733335495, -0.009845693595707417, -0.015459425747394562, 0.005738023202866316, 0.001289278152398765, 0.030763346701860428, -0.026816312223672867, 0.02315988950431347, -0.06535573303699493, 0.03944109007716179, -0.07623905688524246, 0.16742289066314697, 0.018892081454396248, -0.06746633350849152, -0.006588124204427004, 0.011470195837318897, 0.013451546430587769, -0.06147366017103195, -0.07654233276844025, 0.014008129946887493, 0.01535746082663536, -0.053753651678562164, 0.01279538031667471, 0.04097156971693039, -0.01642865128815174, 0.07801118493080139, -0.007696402724832296, -0.0004377320874482393, -0.03808792680501938, 0.06348709762096405, -0.04553619772195816, 0.06469328701496124, 0.05745401233434677, 0.031954921782016754, 0.09360615164041519, 0.06835929304361343, 0.010299058631062508, 0.026566797867417336, 0.08830235153436661, -0.008408443070948124, -0.0204230435192585, -0.014491638168692589, 0.029399456456303596, -0.07433474063873291, -0.004351858049631119, 0.019669607281684875, -0.03051496483385563, 0.0020656415726989508, -0.011638006195425987, 0.07568326592445374, -0.01597181335091591, -0.01399802602827549, -0.021661847829818726, 0.029845835641026497, 0.003815112402662635, -0.02037513628602028, -0.013670151121914387, -0.011566641740500927, -0.01314909290522337, 0.017161188647150993, 0.031213274225592613, -0.03768868371844292, 0.01832394488155842, -0.01766653172671795, 0.03375021368265152, -0.040633946657180786, 0.004570444114506245, 0.01953953132033348, 0.012247657403349876, 0.053503260016441345, 0.0299445278942585, -0.026570653542876244, 0.004824517294764519, 0.043436337262392044, -0.03680381551384926, -0.057900816202163696, -0.06575331836938858, 0.0010981542291119695, 0.03487203270196915, 0.006159957032650709, -0.02476768009364605, -0.2326153814792633, 0.015400710515677929, -0.001248988090083003, 0.03292739763855934, 0.007025367114692926, 0.0700576901435852, 0.052653152495622635, -0.004054049029946327, -0.09844303876161575, -0.041983719915151596, 0.00377723784185946, -0.015744365751743317, 0.0036697627510875463, -0.021768713369965553, -0.008784602396190166, 0.029262728989124298, -0.005936946254223585, -0.016916634514927864, 0.0018796233925968409, 0.003966627176851034, 0.031067021191120148, -0.002793011488392949, 0.1604207158088684, 0.06329909712076187, -0.011870462447404861, -0.016281794756650925, 0.0030730252619832754, -0.06982064247131348, 0.06439153850078583, 0.04528167098760605, -0.012915595434606075, 0.09184614568948746, 0.08967531472444534, -0.0025579144712537527, -0.006492039188742638, 0.051242049783468246, 0.03595597296953201, -0.05201024189591408, 0.01800370030105114, -0.008327705785632133, -0.022207731381058693, 0.08582812547683716, -0.06258352845907211, -0.010711985640227795, 0.0767616257071495, -0.03562457859516144, 0.02390335313975811, 0.004649917595088482, -0.011530512012541294, -0.009772973135113716, -0.004692310467362404, -0.0021972637623548508, -0.03435969725251198, 0.05038563534617424, 0.037277307361364365, -0.02410581149160862, -0.011636920273303986, 0.0907629132270813, 0.01827039197087288, -0.008106452412903309, -0.05613219365477562, -0.00740303099155426, 0.01812836155295372, 0.01976313628256321, -0.006390671711415052]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>delay_in_receiving_text_messages</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>['Improvement needed: the time factor of renewing top up at 11.59 the night before my pension there being I lose all carry over. this time should be 24 hours later. If you did this you would make alot of poor people alot able to keep in touch with loved ones and their health.\nReason for given NPS: delay in receiving txt messages', "Improvement needed: Some communication. The first person I talked to about mixing up my broadband and mobile accounts wasn't able to explain what was happening very well. Consequently, the issue dragged on and created big problems for me.\nReason for given NPS: I never give anyone a ten. Also, I had some account difficulties (because i thought it was a scam - long story, didn't know I had two accounts with change from Trustpower) and got cut off which caused huge problems while travelling during very bad weather and road closures at night. However, a technician (Yulan???) was extremely helpful in sorting it all out for me."]</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[-0.04912860319018364, 0.03296547010540962, 0.0104460334405303, 0.007308310363441706, -0.036473359912633896, -0.06770382076501846, -0.03799491748213768, -0.007902741432189941, 0.08367078006267548, -0.06962660700082779, 0.0003544229257386178, -0.01967144012451172, 0.024326564744114876, -0.0383334755897522, -0.017104344442486763, 0.0427926741540432, 0.07367446273565292, -0.073356494307518, -0.04388575255870819, 0.007148751989006996, 0.03290358930826187, 0.04830636829137802, -0.017065908759832382, 0.0283664483577013, -0.015195176936686039, -0.0016546297119930387, -0.012450014241039753, -0.00891190581023693, -0.08559215813875198, -0.108307845890522, 0.03010384552180767, -0.05132804065942764, 0.0072440896183252335, -0.01863369345664978, 0.010780255310237408, -0.06948839873075485, -0.03424789756536484, -0.011957402341067791, -0.00591204222291708, 0.07602085173130035, 0.02541072480380535, 0.02668234519660473, -0.08865627646446228, -0.03790852800011635, -0.026349276304244995, -0.09240633994340897, 0.0010395381832495332, 0.018876060843467712, 0.08262205123901367, -0.06966844946146011, -0.04377969354391098, 0.06018204987049103, 0.033343687653541565, 0.009504739195108414, 0.03741459548473358, 0.055069927126169205, 0.01664976216852665, 0.047813236713409424, 0.09090594947338104, 0.026998799294233322, 0.015921857208013535, -0.006612694822251797, -0.1440667361021042, 0.07335418462753296, -0.016691172495484352, -0.010437334887683392, -0.013095151633024216, -0.022848621010780334, 0.027813559398055077, -0.005710733588784933, -0.004804258234798908, -0.005248975474387407, -0.001216753851622343, 0.14419570565223694, 0.02060120739042759, 0.02019990049302578, 0.011753990314900875, 0.00213842885568738, 0.013061877340078354, 0.09571323543787003, 0.006561981048434973, 0.014474324882030487, -0.056586362421512604, -0.058568570762872696, -0.019150545820593834, -0.03628126159310341, 0.014277700334787369, -0.0210442952811718, -0.0024290401488542557, -0.001900436356663704, -0.03112165816128254, -0.06576719880104065, -0.004647203721106052, 0.0898706242442131, -0.1038823202252388, 0.0020402432419359684, -0.0051480624824762344, -0.0026311601977795362, -0.07261848449707031, 0.31887054443359375, 0.010679506696760654, 0.07307299971580505, -0.005850363988429308, 0.03249520808458328, 0.027707045897841454, 0.0076238797046244144, -0.026639970019459724, -0.08055040240287781, -0.06768018007278442, 0.0509529747068882, -0.04274110496044159, -0.0509021021425724, 0.06307028979063034, -0.0028307070024311543, -0.019519072026014328, 0.07694391906261444, 0.023267757147550583, -0.016190027818083763, -0.011113565415143967, 0.027499770745635033, 8.05011804914102e-05, 0.0529157854616642, 0.012096723541617393, -0.02561250701546669, 0.04429098963737488, -0.008720621466636658, 0.02817564457654953, 0.11698583513498306, -0.01780679076910019, 0.029851824045181274, 0.02741626836359501, 0.022137239575386047, -0.05745459720492363, 0.033638883382081985, -0.05443643778562546, 0.0162077434360981, -0.034088440239429474, 0.02112763375043869, 0.035703785717487335, -0.0018281611846759915, 0.004489292856305838, -0.0995861291885376, 0.0038160260301083326, -0.029536118730902672, 0.006194595247507095, 0.09429550915956497, 0.024815350770950317, 0.046722814440727234, -0.04465354606509209, -0.021474383771419525, -0.0743522122502327, 0.03310098871588707, 0.06112167239189148, -0.03372030332684517, -0.04429402947425842, -0.009967764839529991, 0.04334310442209244, 0.013937612995505333, 0.0020846815314143896, -0.01578102447092533, 0.017205584794282913, -0.00933328177779913, -0.003607990453019738, 0.064717136323452, 0.00502875866368413, -0.013798332773149014, -0.029373278841376305, -0.05414567515254021, -0.020128369331359863, -0.03494083508849144, 0.00488676642999053, 0.02334124594926834, -0.003157681319862604, -0.020539164543151855, 0.042199671268463135, 0.01004725880920887, -0.026365157216787338, 0.016346361488103867, -0.012127055786550045, -0.021998330950737, 0.06022414192557335, 0.0298813134431839, 0.021865079179406166, 0.00912388227880001, 0.0514894537627697, -0.05244792252779007, -0.0016078222543001175, -0.036482781171798706, 0.07780647277832031, -0.025534169748425484, -0.034828875213861465, -0.08776424825191498, 0.0025775134563446045, -0.05714654549956322, -0.06889478117227554, -0.08067570626735687, -0.018613042309880257, -0.018513137474656105, 0.014419631101191044, -0.01570962183177471, 0.09730250388383865, 0.03470621630549431, -0.0402023121714592, 0.0031867260113358498, -0.01058194600045681, -0.009388266131281853, -0.0011982949217781425, -0.02515941858291626, 0.032143525779247284, -0.020592857152223587, -0.009074529632925987, -0.06050671264529228, 0.05594543367624283, -0.027384914457798004, -0.029781347140669823, 0.0132990637794137, -0.009187795221805573, 0.06312877684831619, 0.02733355388045311, 0.011696724221110344, -0.04366350919008255, 0.05657683685421944, 0.012798470444977283, -0.294560045003891, 0.0035837276373058558, 0.020894918590784073, -0.03502259775996208, -0.06073024123907089, 0.008145906031131744, -0.027442876249551773, -0.02057815156877041, 0.052863042801618576, 0.034260377287864685, 0.06795255094766617, 0.0399925597012043, 0.014028246514499187, -0.03554987162351608, 0.0005822089151479304, -0.006251124199479818, -0.0865640938282013, 0.05324476957321167, 0.0005296277813613415, -0.03270052373409271, -0.01957186870276928, -0.006870228331536055, 0.00935176108032465, -0.07251914590597153, -0.022404314950108528, 0.005912263877689838, 0.1296011060476303, 0.03181713819503784, -0.03498098999261856, -0.03646809607744217, 0.06222794950008392, 0.11099494993686676, -0.0036698232870548964, -0.08249365538358688, -0.0529271736741066, 0.0449196882545948, 0.02699315920472145, 0.06740938872098923, 0.013946149498224258, 0.003071174491196871, -0.035723067820072174, 0.09824299067258835, 0.07582036405801773, -0.02633490040898323, 0.012376602739095688, -0.056979842483997345, 0.004870319273322821, -0.039255913347005844, -0.009552418254315853, 0.009943120181560516, 0.07538935542106628, -0.013686321675777435, 0.03300737962126732, 0.06066599488258362, 0.08047819137573242, 0.010381530039012432, -0.06241382658481598, 0.0400153249502182, -0.03762315213680267, 0.005606257356703281, 0.0029928674921393394, 0.028799019753932953, -0.03433869406580925, 0.011631658300757408, 0.010502330958843231, -0.021649980917572975, -0.009026122279465199, -0.012327867560088634, -0.017026502639055252, 0.030305800959467888, 0.027275655418634415, 0.06424398720264435, -0.05376267433166504, -0.0056069702841341496, 0.02134420908987522, -0.006835532374680042, -0.002051800489425659, -0.025440549477934837, -0.046256765723228455, -0.04918621852993965, 0.04221976175904274, 0.033176954835653305, 0.08764740824699402, 0.00817873515188694, 0.0033168504014611244, -0.020488420501351357, 0.013426155783236027, 0.07753106206655502, -0.011465657502412796, 0.013071652501821518, -0.02894587069749832, 0.03230566531419754, 0.01069120317697525, 0.04068528115749359, 0.09745465964078903, -0.030315415933728218, -0.20384147763252258, 0.0254835095256567, 0.04843522980809212, -0.05860316753387451, 0.0016878768801689148, 0.03316787630319595, 0.042500127106904984, 0.0005228732479736209, -0.13547483086585999, -0.0013748015044257045, -0.11392361670732498, 0.035085760056972504, -0.059644535183906555, 0.027277976274490356, 0.009431339800357819, 0.042338259518146515, 0.01858501322567463, -0.048991985619068146, -0.06370892375707626, -0.08563664555549622, 0.008315743878483772, 0.00550525076687336, 0.09831301122903824, -0.07465414702892303, 0.010062836110591888, 0.0510164350271225, -0.0012200868222862482, 0.011448902077972889, 0.08578982949256897, 0.005405920557677746, -0.02208678424358368, -0.012792855501174927, 0.06074104830622673, 0.007946650497615337, -0.010758424177765846, 0.03135191649198532, 0.03353765606880188, 0.00016979766951408237, 0.009504028595983982, -0.004313107114285231, -0.04662443324923515, 0.06575720757246017, -0.05171990022063255, -0.024749107658863068, 0.0365266315639019, -0.006751418579369783, -0.04222453385591507, -0.033020053058862686, 0.006778949871659279, 0.034364599734544754, -0.04656694456934929, -0.059300459921360016, -0.008195579051971436, 0.07675912231206894, 0.030727794393897057, 0.06637071073055267, -0.03264939785003662, 0.010184744372963905, -0.012846733443439007, 0.014824078418314457, 0.01778695173561573, -0.10535288602113724, 0.0790875032544136, -0.02441190741956234, -0.03306436538696289]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>lack_of_value_for_business_customers</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Hate to say it but my relationship with one.nz is not much stronger than my relationship with my local supermarket. It just is there, I'm not sure that there is a value element to the relationship - this is an opportunity for one.nz as I know most other SME businesses I know feel the same about their telco's. If I got greater value, I would without question look at new solution/opportunities for my business leveraging one.nz\nReason for given NPS: I'm not entirely certain I'm consistently benefiting as a longstanding client. Given the evolving landscape, I'd appreciate more frequent communication to help me grasp possibilities for incorporating new capabilities and functionalities, as well as optimizing my investment.", "Improvement needed: Keeping in touch with your business customers..... I haven't had contact regarding my business account since my last phone upgrade. Makes me wonder now if it was just a sales call rather than a genuine business support contact\nReason for given NPS: I have always been with One NZ (previously Vodafone) &amp; have never had any issues"]</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[0.017200909554958344, -0.008901622146368027, -0.023573732003569603, -0.061610568314790726, 0.004365427419543266, -0.03405028209090233, -0.0021115359850227833, 0.06550679355859756, 0.07896140962839127, 0.011213688179850578, 0.029624436050653458, 0.03508340194821358, 0.040310297161340714, -0.027374042198061943, 0.004870040807873011, -0.007205040194094181, 0.048921458423137665, -0.05269140005111694, -0.04103529080748558, 0.027486559003591537, 0.042176224291324615, -0.07944220304489136, -0.02717888541519642, 0.01744958758354187, -0.0018583218334242702, -0.05907169356942177, -0.03772205859422684, -0.02548762783408165, -0.06633102893829346, -0.10615449398756027, -0.016564777120947838, -0.01638737879693508, 0.07518412172794342, 0.015278958715498447, 0.10284499078989029, -0.01805761456489563, -0.014953412115573883, -0.045824989676475525, 0.02793685346841812, 0.013526852242648602, 0.0029000858776271343, -0.019157037138938904, -0.023489197716116905, 0.0035171720664948225, -0.04074198380112648, -0.0222444087266922, 0.01812693290412426, -0.020524894818663597, 0.03893468901515007, -0.03747846558690071, -0.011909615248441696, -0.005207240115851164, -0.06234545633196831, -0.01901848427951336, -0.0045498693361878395, 0.04703894630074501, 0.009888307191431522, 0.019236041232943535, 0.004547541029751301, 0.022553905844688416, 0.04408160597085953, -0.05511461943387985, -0.1480005979537964, -0.05466205254197121, 0.03518372401595116, 0.018237024545669556, -0.0396047867834568, -0.05196928605437279, -0.08778531849384308, -0.012155404314398766, 0.01637277752161026, -0.002315996214747429, 0.011556589044630527, 0.050126682966947556, 0.023497415706515312, -0.029292136430740356, 0.003244760213419795, 0.0074993218295276165, 0.02328830026090145, 0.01944742351770401, 0.024643011391162872, 0.02052532695233822, -0.015754256397485733, 0.012671326287090778, -0.04984583333134651, -0.04260334372520447, -0.0017456436762586236, 0.0018839326221495867, 0.033368874341249466, -0.008975600823760033, 0.0338013581931591, 0.00015896202239673585, -0.009090883657336235, 0.02438162826001644, -0.03078065626323223, -0.01827380806207657, -0.028508281335234642, 0.016120003536343575, -0.10618117451667786, 0.40714940428733826, 0.042028095573186874, 0.06264781206846237, -0.004318232648074627, -0.048432979732751846, 0.02040155790746212, -0.04558904841542244, -0.05474482476711273, 0.013194422237575054, 0.0013357753632590175, 0.00528032286092639, -0.032842714339494705, 0.014007379300892353, 0.06004311889410019, -0.05075879767537117, -0.008614855818450451, 0.07778679579496384, -0.05009232833981514, -0.02149597555398941, -0.02347719855606556, -0.0005699352477677166, -0.008202645927667618, -0.014679953455924988, 0.06134732440114021, 0.04808260127902031, -0.01645379513502121, 0.010207725688815117, 0.04554716497659683, 0.08945655822753906, -0.0009565179934725165, 0.03202812373638153, -0.022147050127387047, -0.028367381542921066, -0.04629414156079292, 0.016875620931386948, -0.029145721346139908, -0.029726233333349228, 0.007834861986339092, 0.06384273618459702, 0.039146069437265396, 0.09169264137744904, -0.00921908114105463, -0.07312893122434616, -0.06356614083051682, -0.04661375656723976, 0.014461157843470573, 0.06080316752195358, 0.030080340802669525, 0.026602763682603836, -0.04810386151075363, -0.01877295970916748, -0.019548337906599045, 0.04171103984117508, -0.0020414667669683695, 0.00496456865221262, 0.026177892461419106, 0.013037857599556446, 0.028125539422035217, -0.006128033623099327, -0.056718386709690094, -0.014913857914507389, 0.07362676411867142, -0.03469854220747948, -0.06338982284069061, 0.06916244328022003, -0.010718044824898243, -0.03330570459365845, 0.0032199209090322256, 0.017895566299557686, -0.06093171611428261, 0.03888775408267975, -0.020992513746023178, 0.02324366755783558, -0.05703215301036835, 0.013617614284157753, 0.1485098898410797, -0.050636742264032364, -0.04453850910067558, 0.023954397067427635, -0.05040489882230759, 0.007376597262918949, 0.01641477271914482, 0.044482190161943436, -0.034269779920578, 0.011300344951450825, 0.014055056497454643, -0.01849413849413395, 0.0019762790761888027, -0.01847841590642929, -0.01785089634358883, 0.020364193245768547, -0.059354018419981, -0.06752818822860718, -0.0662224069237709, -0.008593115024268627, -0.010249325074255466, -0.015032017603516579, 0.00035222506267018616, 0.003757419064640999, 0.00979126151651144, -0.0051321787759661674, 0.0037508271634578705, 0.038018908351659775, -0.025494977831840515, -0.0008882126421667635, 0.00011006338900187984, 0.04570915922522545, 0.04367602989077568, 0.017791491001844406, 0.04006166383624077, -0.004805481527000666, 0.014114420861005783, 0.006728155538439751, 0.007554270792752504, 0.01480485126376152, 0.0054611642844974995, 0.06869999319314957, 0.07254154980182648, 0.039747003465890884, 0.03338814526796341, -0.007880660705268383, 0.02751581184566021, 0.11824202537536621, -0.01000754814594984, -0.3245619535446167, 0.05635293200612068, -0.018061097711324692, -0.030471885576844215, -0.0544356144964695, 0.04121023043990135, 0.04095771908760071, 0.05409088730812073, -0.048206206411123276, 0.10161113739013672, 0.027998417615890503, -0.03617239370942116, 0.0021597519516944885, -0.009185399860143661, -0.01836530491709709, -0.008209092542529106, -0.0425410196185112, 0.00579815125092864, -0.015060687437653542, -0.026081418618559837, -0.014219383709132671, 0.005658491514623165, 0.014500400982797146, -0.03373163193464279, 0.05570095404982567, -0.02652881108224392, 0.1701827198266983, -0.04987890273332596, -0.03698369115591049, -0.0004751394153572619, 0.01795966736972332, 0.0776868611574173, -0.08614665269851685, -0.030662259086966515, 0.0509803481400013, -0.004131617955863476, -0.02807312086224556, 0.06278781592845917, -0.032567329704761505, 0.025629345327615738, -0.018212521448731422, 0.030601339414715767, 0.0021172077395021915, -0.036928337067365646, 0.034041304141283035, 0.002064377535134554, 0.03696511685848236, 0.044510193169116974, -0.0659676194190979, 0.05799190700054169, 0.014471888542175293, 0.01583777740597725, 0.024893486872315407, 0.07410147041082382, 0.03180805966258049, -0.01872531697154045, -0.03333668038249016, 0.02372458390891552, -0.013865264132618904, 0.023663155734539032, -0.011806254275143147, -0.04114655405282974, 0.055267684161663055, 0.018210766837000847, 0.03594563156366348, -0.04505891352891922, -0.00040949039976112545, -0.0021811651531606913, 0.005758573766797781, 0.030466705560684204, -0.04633519798517227, 0.03833258897066116, 0.0059690955094993114, -0.055118340998888016, -0.04700775071978569, 0.013757084496319294, -0.04539237171411514, -0.02495598793029785, -0.02126287668943405, -0.024318857118487358, -0.014632408507168293, 0.018619785085320473, 0.021684596315026283, 0.03925729915499687, 0.03949442505836487, 0.0912306159734726, 0.013321955688297749, 0.01810799352824688, 0.030715294182300568, -0.005011336877942085, -0.038511957973241806, -0.07011028379201889, -0.04767218604683876, 0.015691932290792465, 0.0927436575293541, -0.014655206352472305, -0.23732587695121765, -0.003934579435735941, -0.028960304334759712, 0.016400286927819252, -0.0009896591072902083, 0.07288261502981186, -0.0042473622597754, -0.032811786979436874, -0.06911329180002213, 0.00563189759850502, 0.030062520876526833, -0.03855891898274422, -0.013478625565767288, -0.09650535881519318, 0.06690682470798492, 0.004120569210499525, 0.006387018598616123, -0.06000782549381256, 0.029186146333813667, -0.029348716139793396, 0.031388141214847565, 0.04631069675087929, 0.18408644199371338, 0.030206315219402313, -0.061869826167821884, -0.020212020725011826, -0.010881231166422367, -0.025519201532006264, 0.008218759670853615, 0.03276020660996437, -0.034478809684515, -0.026525240391492844, 0.10437014698982239, -0.02086171880364418, -0.0209537073969841, -0.00871382188051939, -0.017987549304962158, -0.08336225152015686, 0.0347297303378582, -0.034671347588300705, -0.0024953624233603477, 0.00125453295186162, -0.032982658594846725, -0.020499348640441895, 0.05439535900950432, -0.007966401055455208, 0.007304564118385315, -0.048337943851947784, 0.06761132180690765, -0.0028793849050998688, -0.018425555899739265, -0.015905575826764107, 0.028976090252399445, 0.054859839379787445, 0.030606767162680626, 0.015527397394180298, -0.06626905500888824, -0.007345095276832581, 0.045221660286188126, -0.03237404301762581, -0.026393651962280273, -0.024311145767569542, -0.0014792365254834294, 0.02136489376425743, -0.015028676018118858]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>request_for_native_english_speaking_customer_service</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Customer service with the ability to talk to someone that does not have English as a second language. This is not racist, just that you have customers that are elderly with reduced capacity to process dialects that are spoken quickly. This opinion is backed up by most residents in my retirement village and therefore not an isolated incident.\nReason for given NPS: My landline was disconnected  for an unknown reason and it took 12 days for you to fix it. Also after sending a reply text to a service person it was not replied to. This happened twice. Asked to speak to an technician or manager that speaks English as a first language and was refused.', 'Improvement needed: Being able to talk to someone who can understand English when I try to get in touch with One nz\n']</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[-0.018795056268572807, -0.02288050390779972, 0.029491979628801346, -0.02758353017270565, -0.050526656210422516, -0.052462898194789886, -0.0009398980182595551, 0.015667203813791275, 0.007543220650404692, -0.03732174634933472, -0.011241878382861614, 0.001961618894711137, -0.028445633128285408, 0.006901800632476807, 0.08886834233999252, 0.027654649689793587, 0.048600565642118454, -0.04790524020791054, -0.04314190149307251, 0.05689547210931778, 0.05336933583021164, -0.03751364350318909, -0.01029860507696867, 0.009250548668205738, -0.06382664293050766, -0.022706788033246994, -0.00676420982927084, 0.007864996790885925, -0.033615417778491974, -0.08581741154193878, -0.009454943239688873, 0.020549733191728592, 0.03543810918927193, -0.014551607891917229, 0.028885042294859886, -0.013811313547194004, -0.040556903928518295, -0.03422141447663307, 0.010591994971036911, 0.033530570566654205, 0.012700635008513927, -0.017848225310444832, -0.002194093307480216, -0.029189832508563995, 0.02850187011063099, -0.045687854290008545, -0.018766123801469803, -0.006636019330471754, -0.006301515735685825, -0.0360945500433445, -0.005892050918191671, -0.017937416210770607, 0.018151987344026566, -0.0545477531850338, 0.039018504321575165, 0.08870060741901398, 0.06025374308228493, -0.0017527984455227852, 0.04400405287742615, 0.015543774701654911, 0.02709457464516163, -0.005868418607860804, -0.15950408577919006, 0.08773952722549438, -0.05126498267054558, 0.041113488376140594, 0.012517369352281094, -0.010118342936038971, -0.05165104195475578, -0.021470753476023674, -0.052341312170028687, -0.045826900750398636, 0.008106290362775326, 0.10240299999713898, 0.023715268820524216, 0.048994313925504684, -0.013450415804982185, -0.024107003584504128, 0.018129531294107437, 0.017535902559757233, -0.019191943109035492, -0.019896967336535454, -0.04987362027168274, -0.056585829704999924, -0.005804561544209719, -0.0362858921289444, -0.010812230408191681, 0.034957122057676315, 0.010426981374621391, 0.029840994626283646, -0.009330005384981632, -0.019317490980029106, 0.010708719491958618, 0.017638584598898888, -0.05370895192027092, -0.047418054193258286, 0.0029639771673828363, 0.009196857921779156, -0.1309119611978531, 0.3822356164455414, 0.05127552151679993, 0.005157627165317535, 0.011037697084248066, -0.049794383347034454, -0.022462068125605583, -0.051632992923259735, -0.01028184313327074, -0.0387699231505394, 0.003988121170550585, 0.007958377711474895, -0.05747876688838005, -0.01123056560754776, 0.025113491341471672, -0.015060581266880035, -0.008054759353399277, 0.05798142030835152, 0.015230393968522549, -0.035789474844932556, -0.007501781918108463, -0.015878718346357346, -0.015937259420752525, 0.0005345641984604299, -0.00826132670044899, -0.07332146167755127, -0.035303808748722076, -0.04804912582039833, 0.052479881793260574, 0.08305907994508743, 0.011977773159742355, 0.09903308004140854, 0.052895285189151764, -0.021550046280026436, -0.04284883290529251, -0.051039665937423706, -0.004656681790947914, 0.010086304508149624, 0.0010779271833598614, 0.008962364867329597, 0.02947474829852581, 0.061725717037916183, -0.01527462713420391, -0.151293084025383, -0.0668354406952858, 0.0048133996315300465, -0.0036624243948608637, 0.07081938534975052, -0.04274984076619148, 0.01720399595797062, -0.02259126678109169, -0.04888027533888817, 0.00315137323923409, 0.06350869685411453, 0.0394957959651947, -0.04098501428961754, 0.028376396745443344, 0.01476031169295311, 0.10359837859869003, -0.04403171315789223, -0.04037905111908913, -0.008841770701110363, 0.07186787575483322, -0.08352497220039368, 0.004503770265728235, 0.04487685114145279, -0.00972930807620287, -0.11558996886014938, -0.04264584183692932, -0.01644248515367508, -0.0060274116694927216, 0.013636636547744274, 0.015241858549416065, 0.01618407666683197, -0.0306010153144598, 0.04105044901371002, 0.05436057597398758, 0.007922311313450336, -0.021477695554494858, 0.00949126947671175, -0.03832634910941124, 0.005867217667400837, -0.004045860841870308, 3.284851845819503e-05, 0.05421437323093414, 0.012811737135052681, 0.046922486275434494, -0.05604064464569092, 0.025678357109427452, -0.024791782721877098, 0.04445723444223404, -0.039097607135772705, -0.056159090250730515, -0.024907810613512993, -0.02861771546304226, -0.01722327433526516, 0.016380181536078453, 0.0014605170581489801, -0.01459699496626854, -0.021952979266643524, 0.06180804595351219, 0.01911141909658909, 0.04768115654587746, 0.048391155898571014, -0.05868816003203392, 0.03269993141293526, -0.003731470787897706, 0.02320573478937149, 0.03942584991455078, -0.0001971102028619498, 0.03765084594488144, 0.012952422723174095, -0.03725511580705643, 0.005527411121875048, 0.11232350766658783, 0.05834288150072098, -0.01847102679312229, 0.02119145728647709, 0.01665683463215828, 0.021423133090138435, 0.0220034122467041, 0.009761427529156208, -0.028092361986637115, 0.06163334846496582, -0.01808645762503147, -0.3406125009059906, 0.046162672340869904, 0.04245225340127945, -0.022205160930752754, -0.03919806331396103, -0.015513429418206215, 0.06656107306480408, 0.00985381193459034, 0.06587913632392883, 0.07329197227954865, 0.061286188662052155, 0.011162660084664822, 0.06705042719841003, 0.02568494901061058, 0.05029447004199028, 0.04141763225197792, 0.05376265570521355, 0.019321199506521225, 0.03836207836866379, -0.01954745128750801, 0.057449113577604294, -0.00975929293781519, 0.041897911578416824, -0.07544533163309097, -0.004156965296715498, 0.004384615458548069, 0.15524114668369293, -0.006389792542904615, -0.03232195973396301, -0.05340321362018585, 0.03955315053462982, 0.05356951430439949, 0.014085316099226475, -0.12521135807037354, 0.06545892357826233, 0.013059421442449093, 0.007036309689283371, 0.05591718852519989, 0.03050638549029827, -0.0029021366499364376, 0.018998021259903908, -0.009379718452692032, -0.04484753683209419, 0.0010689420159906149, 0.01742919348180294, -0.051240574568510056, -0.016368478536605835, 0.04227597266435623, -0.06482010334730148, 0.035576123744249344, -0.04749027267098427, 0.0004285358591005206, 0.04295797273516655, 0.07210104912519455, -0.0016802212921902537, -0.013597625307738781, -0.01674167439341545, -0.021935755386948586, -0.024100443348288536, 0.00790743064135313, -0.022699633613228798, 0.04456701874732971, 0.036940574645996094, -0.029590247198939323, 0.0158113781362772, -0.0334104485809803, -0.00930328480899334, 0.03791771084070206, -0.011066346429288387, 0.015513811260461807, -0.07775227725505829, 0.032011594623327255, -0.017923004925251007, 0.018158823251724243, -0.04724365100264549, 0.07172902673482895, 0.0024686106480658054, -0.045599956065416336, -0.027512922883033752, -0.07794371992349625, 0.04580910503864288, 0.0035863672383129597, 0.08757849782705307, -0.042968589812517166, 0.021395821124315262, 0.03625119477510452, 0.00015574863937217742, 0.03105551190674305, 0.036117129027843475, 0.04357001557946205, -0.03640075400471687, -0.031390100717544556, -0.025458138436079025, -0.024795593693852425, 0.0511268712580204, 0.012284805998206139, -0.22922489047050476, 0.014113076031208038, 0.02108141966164112, 0.0017359125195071101, 0.0010204985737800598, 0.07242780178785324, -0.022902121767401695, -0.026828834787011147, -0.11512763053178787, 0.01941692642867565, -0.03927524760365486, -0.00980404857546091, -0.0025019191671162844, -0.056989338248968124, 0.02706286311149597, 0.014702667482197285, 0.08331990242004395, 0.0035497089847922325, 0.012834321707487106, -0.03286496922373772, 0.01960795745253563, 0.013167271390557289, 0.14294502139091492, 0.015814458951354027, 0.01241570059210062, 0.01687641069293022, 0.00413820194080472, -0.04321141913533211, -0.004162783734500408, -0.017043964937329292, -0.037324439734220505, 0.014935312792658806, 0.07715461403131485, 0.0325048603117466, -0.016524557024240494, -0.004270416218787432, -0.05392182618379593, -0.0736950933933258, 0.03590819612145424, -0.008518717251718044, -0.02620837464928627, 0.044450223445892334, -0.023123659193515778, -0.027254415675997734, 0.002645541913807392, 0.026159584522247314, 0.005829316098242998, -0.05964326485991478, 0.020052071660757065, -0.013647126033902168, -0.027715757489204407, -0.05629314109683037, 0.03387532755732536, 0.019337696954607964, 0.027628716081380844, -0.011395182460546494, -0.054115381091833115, -0.04665404558181763, -0.023152897134423256, -0.002292450750246644, 0.01296007540076971, -0.04301559925079346, 0.06897038221359253, -0.02678677998483181, -0.004924601875245571]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>paying_for_internet_without_receiving_service</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Getting me an internet connection, you’ve no problem charging every month for it, it would be nice to receive it.\nReason for given NPS: Paying for internet without receiving internet three quarters of the time.', 'Improvement needed: Unfortunately my phone has had technical issues, and I am left with a large bill. I will need to pay out the remaining balance on my phone and then buy a new one, so that is disappointing. As said before, customer service in the CBD chch cannot be faulted.  Connectivity has not been great, and plan could offer more data for the price, so I will likely be switching providers when I get new phone. Thankyou\nReason for given NPS: Great service with face to face customer service, however help via the phone difficult']</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[-0.0461965948343277, -0.026121016591787338, -0.024275947362184525, -0.006447033025324345, 0.02148965187370777, -0.09972023218870163, 0.003321023192256689, 0.061399757862091064, 0.025126848369836807, -0.024281514808535576, 0.056844405829906464, 0.024621572345495224, 0.007044463884085417, -0.046513497829437256, -0.009273180738091469, -0.013536188751459122, 0.07458218932151794, -0.015409213490784168, -0.014315844513475895, 0.040467847138643265, 0.049725838005542755, -0.060272227972745895, -0.040215276181697845, -0.011337787844240665, 0.03780222311615944, -0.0029801942873746157, -0.02931644581258297, 0.007081164047122002, -0.03486587479710579, -0.06912697106599808, 0.04483115300536156, -0.04422054812312126, -0.04660943150520325, 0.011523454450070858, 0.02237025462090969, -0.09737281501293182, 0.029004601761698723, -0.054211631417274475, 0.0008568302728235722, 0.026655366644263268, 0.005636628717184067, 0.03324072062969208, -0.06278476119041443, 0.03697265312075615, -0.007127613294869661, -0.04775727912783623, 0.07430889457464218, 0.014754148200154305, 0.08896448463201523, 0.0027574850246310234, 0.00827418826520443, 0.09143418073654175, -0.00617642980068922, 0.053414348512887955, 0.02349880337715149, 0.07470232248306274, 0.026106415316462517, -0.014051446691155434, 0.05140167102217674, 0.00788271427154541, 0.008106444031000137, 0.012880001217126846, -0.11894920468330383, 0.013492795638740063, 0.02975316345691681, 0.07888026535511017, 0.0034691819455474615, 0.018660226836800575, -0.00024091731756925583, 0.029107047244906425, -0.03215615451335907, 0.029025275260210037, -0.06245240941643715, 0.05835769325494766, 0.05639536306262016, 0.018996138125658035, 0.007886235602200031, 0.05521600320935249, -0.03157218173146248, 0.015871327370405197, 0.006947230082005262, 0.003278324380517006, 0.008793705143034458, 0.04973827674984932, -0.07638981938362122, -0.03957689553499222, -0.03102271445095539, -0.03802028298377991, 0.022387010976672173, 0.01541629433631897, -0.04911315068602562, -0.01424002181738615, -0.0006727292202413082, 0.01080863643437624, -0.0467010922729969, -0.013527609407901764, -0.008474831469357014, -0.02231314405798912, -0.09466877579689026, 0.36947083473205566, -0.028109369799494743, 0.014594877138733864, 0.0020027710124850273, 0.010556871071457863, 0.05841565504670143, -0.06276656687259674, -0.019961168989539146, -0.013737626373767853, -0.01189723052084446, 0.0258852019906044, -0.04481848329305649, 0.014990399591624737, 0.07190117239952087, -0.05216566473245621, -0.01960742473602295, 0.08204393088817596, -0.02556495927274227, 0.017688976600766182, 0.05469222739338875, -0.01819768361747265, -0.03415413945913315, -0.006556972861289978, 0.0436277911067009, -0.009558108635246754, 0.0035792868584394455, -0.03180819749832153, 0.045777831226587296, 0.10150867700576782, 0.021970968693494797, 0.08352474123239517, -0.027150480076670647, -0.1193072646856308, -0.011515231803059578, -0.006453086622059345, 0.013234726153314114, -0.011963224969804287, 0.02524442784488201, 0.025884592905640602, -0.03730316460132599, 0.03883935883641243, -0.033212680369615555, -0.058180611580610275, -0.03989223390817642, -0.03881853446364403, 0.012509030289947987, 0.03676192834973335, 0.08500605821609497, 0.09065224975347519, 0.010794500820338726, -0.03895100578665733, -0.0256637129932642, 0.048539306968450546, -0.01808418333530426, -0.04363018646836281, -0.01853477954864502, -0.018426988273859024, 0.04547536000609398, 0.0023766704834997654, -0.018079042434692383, -0.013624449260532856, 0.027837036177515984, -0.08486275374889374, -0.04623326659202576, 0.08771762251853943, 0.015347323380410671, -0.07252292335033417, -0.0403270348906517, 0.003115191590040922, -0.08374742418527603, 0.03355518355965614, -0.06424026191234589, -0.013765392825007439, -0.03816959634423256, -0.00264090858399868, 0.09128238260746002, -0.044952310621738434, -0.06646911799907684, 0.007501429412513971, -0.007264778483659029, 0.006919866893440485, -0.059863556176424026, -0.053594473749399185, -0.010413141921162605, -0.004864164628088474, 0.009026224724948406, -0.024869730696082115, -0.04084938019514084, -0.039537932723760605, 0.025901347398757935, -0.08622635900974274, -0.0505254752933979, -0.027803894132375717, -0.03304029256105423, -0.0607687309384346, 0.0049070436507463455, 0.01586604304611683, -0.028267741203308105, -0.009302250109612942, 0.03308720141649246, -0.007100451271981001, 0.11912674456834793, 0.005268278066068888, -0.030032707378268242, -0.011948863044381142, -0.023731864988803864, 0.03300570696592331, 0.030478596687316895, 0.026219407096505165, 0.05104377493262291, 0.00881865806877613, 0.04918069764971733, -0.009104127064347267, 0.0531696155667305, 0.02905913069844246, -0.009589196182787418, 0.0008451329194940627, 0.047045640647411346, 0.07098257541656494, 0.04281964525580406, -0.014040838927030563, -0.04583057016134262, 0.00637705996632576, -0.0062631238251924515, -0.26870712637901306, -0.038779713213443756, -0.010038144886493683, -0.05749296769499779, -0.03583705052733421, -0.05616997182369232, 0.050687409937381744, -0.02887122519314289, -0.033419735729694366, 0.10205850750207901, 0.07725707441568375, 0.008413282223045826, -0.01005821768194437, -0.019142650067806244, -0.026053007692098618, 0.0520310178399086, -0.008505959995090961, -0.0054170177318155766, -0.04264982044696808, 0.03435847908258438, -0.025893624871969223, 0.010473765432834625, 0.01110822707414627, -0.031047675758600235, 0.02665787935256958, 0.029184840619564056, 0.13890665769577026, 0.030606474727392197, 0.004955904558300972, -0.07780732959508896, 0.030500268563628197, 0.06015139818191528, 0.006929731462150812, -0.11371208727359772, -0.023022469133138657, 0.02590922825038433, 0.04206112399697304, 0.01991061307489872, 0.018129855394363403, -0.07699873298406601, -0.008138032630085945, 0.045078571885824203, -0.042185503989458084, 0.023530498147010803, 0.023660361766815186, -0.02085941471159458, -0.03989219292998314, 0.029041022062301636, -0.04831473156809807, -0.019496910274028778, -0.021602943539619446, -0.0392644889652729, 0.04614000394940376, 0.059832341969013214, 0.0811690166592598, 0.014237555675208569, -0.0025050139520317316, -0.003233605530112982, -0.051929570734500885, 0.01079053059220314, 0.012385371141135693, 0.007825617678463459, 0.023213151842355728, -0.08577731251716614, 0.0859457328915596, -0.0191520843654871, -0.049854718148708344, 0.05397580564022064, 0.03303493559360504, 0.029081692919135094, -0.016915837302803993, 0.05080295354127884, 0.03314986452460289, 0.0424799881875515, -0.038888849318027496, 0.009146288968622684, 0.03817107900977135, -0.043886635452508926, -0.01878763549029827, -0.014504107646644115, 0.003731371136382222, 0.029815081506967545, 0.08457859605550766, 0.041741687804460526, -0.03306860849261284, 0.05575241521000862, -0.009488134644925594, 0.026955844834446907, -0.018078327178955078, 0.006772608030587435, -0.04136309772729874, -0.006886622868478298, -0.03301388397812843, 0.014383099041879177, 0.09685038775205612, -0.00326969800516963, -0.24348673224449158, 0.00566626712679863, -0.01930398866534233, -0.035918984562158585, 0.004986728075891733, 0.03993614390492439, 0.036677900701761246, 0.028812237083911896, -0.09632106125354767, 0.03632001578807831, 0.009292419999837875, 0.003765659173950553, -0.0547872893512249, -0.09114622324705124, 0.07076363265514374, 0.006481733173131943, 0.04868181049823761, -0.025516578927636147, -0.06333301961421967, -0.01266671996563673, 0.07420201599597931, -0.0017216600244864821, 0.12525397539138794, -0.054647352546453476, 0.01571320742368698, -0.02220924384891987, -0.055558349937200546, 0.04071321338415146, 0.054793521761894226, 0.005561682861298323, -0.0891469269990921, 0.02360871620476246, 0.04144791513681412, -0.04532915726304054, -0.017571238800883293, -0.04074978455901146, 0.027532286942005157, 0.014852182008326054, -0.0019961984362453222, -0.045714691281318665, -0.09672089666128159, 0.027049269527196884, -0.013275603763759136, 0.027256624773144722, 0.002646471606567502, 0.032008737325668335, -0.0059710294008255005, -0.04738501459360123, 0.03350435197353363, 0.03386910259723663, 0.02558823488652706, -0.022851968184113503, 0.0682886391878128, 0.09117894619703293, 0.008198224008083344, -0.0010502130025997758, -0.08295499533414841, -0.01504543237388134, 0.04380369186401367, -0.02530463971197605, -0.016624776646494865, -0.042243652045726776, 0.033611103892326355, 0.0197067279368639, -0.03684493154287338]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>need_guidance_combining_services</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Phone line customer service and how you deal with internet and mobile accounts - they need to be properly combines\nReason for given NPS: Really hard to get online accounts sorted with customer service, very confusing difference between land line, broadband and mobile accounts with different logins', 'Improvement needed: combining home broadband and mobile bills\n']</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[-0.003346816636621952, -0.08407717943191528, 0.02213006094098091, -0.05704932287335396, -0.006778055336326361, -0.053236301988363266, -0.04544249549508095, 0.009223871864378452, 0.03163024038076401, -0.04347461089491844, 0.006348007824271917, -0.015687689185142517, 0.07460116595029831, 0.014332130551338196, 0.10406049340963364, 0.002828204073011875, 0.017952483147382736, 0.04501064866781235, -0.013563662767410278, 0.0021097396966069937, 0.02266559563577175, 0.022626468911767006, -0.05276349186897278, -0.0129290372133255, -0.03128928691148758, 0.045530788600444794, -0.03250580281019211, -0.05342474207282066, -0.04970508813858032, -0.1063561663031578, 0.03410644456744194, -0.015189500525593758, -0.08557131141424179, -0.008719152770936489, 0.01128560770303011, 0.0218612402677536, 0.03180024400353432, 0.02047615870833397, 0.0527830570936203, 0.004358603619039059, 0.04589740186929703, 0.008976232260465622, -0.05568796023726463, 0.001319651142694056, -0.046460431069135666, -0.0743754431605339, -0.024701740592718124, 0.04071053862571716, 0.011993520893156528, -0.010959786362946033, 0.015790382400155067, -0.0024301446974277496, -0.062399689108133316, -0.010055894032120705, 0.007852253504097462, 0.09595583379268646, 0.03747537359595299, 0.03652288392186165, 0.015104014426469803, 0.024704037234187126, 0.04542836174368858, -0.016415365040302277, -0.16192661225795746, 0.05673183128237724, 0.020437274128198624, -0.006817646790295839, -0.017064133659005165, -0.04139123857021332, 0.03426189720630646, 0.0464075468480587, -0.06136157736182213, 0.01996559277176857, -0.022036606445908546, 0.09637180715799332, -0.016566041857004166, 0.016208652406930923, 0.005646516568958759, -0.02097759023308754, 0.02439926005899906, 0.02138928882777691, -0.047258492559194565, -0.012227063998579979, -0.02582930028438568, 0.010688324458897114, -0.025817587971687317, 0.035156071186065674, -0.021902527660131454, -0.001677410677075386, 0.0501546673476696, -0.017045985907316208, 0.016599731519818306, -0.07579159736633301, 0.004493268206715584, -0.007756301201879978, -0.0416693314909935, -0.026325488463044167, 0.027643486857414246, -0.04865409433841705, -0.09702262282371521, 0.34203413128852844, 0.047442760318517685, 0.0021303712856024504, 0.04245429486036301, -0.021666722372174263, -0.012569225393235683, -0.05954339727759361, -0.023884523659944534, -0.034924060106277466, 0.013280450366437435, -0.022837571799755096, -0.009365115314722061, -0.04684944078326225, 0.05638130381703377, -0.04992398992180824, -0.03598841279745102, 0.08345283567905426, -0.05360815301537514, -0.0205764789134264, 0.030691422522068024, -0.03973689302802086, 0.025976011529564857, -0.0666266605257988, 0.06087956950068474, 0.027492642402648926, 0.005663249641656876, -0.037238989025354385, 0.027805402874946594, 0.08460413664579391, -0.0013210377655923367, 0.07246110588312149, 0.017655925825238228, 0.04849696904420853, -0.00409218855202198, -0.010409006848931313, -0.014360649511218071, -0.004463403020054102, 0.03749645873904228, -0.01604670286178589, 0.06912239640951157, 0.029395421966910362, -0.037066731601953506, -0.052252255380153656, 0.027215538546442986, -0.06550193578004837, 0.04481280595064163, 0.117278553545475, -0.04046254977583885, 0.027807313948869705, -0.05629565194249153, -0.02706834301352501, -0.04056604206562042, 0.043779078871011734, 0.0020567558240145445, -0.022635741159319878, -0.010768566280603409, -0.016611693426966667, 0.039328962564468384, -0.036346253007650375, -0.013869027607142925, 0.033046092838048935, -0.005498205311596394, -0.059142932295799255, -0.056335531175136566, 0.07393892109394073, -0.0340200774371624, -0.08760606497526169, -0.042699843645095825, 0.015769949182868004, -0.09320181608200073, 0.047477349638938904, -0.07837963849306107, 0.021796761080622673, 0.03466642647981644, 0.05443904548883438, 0.0684267058968544, -0.03375045955181122, -0.04755057021975517, 0.07330261915922165, -0.01772540621459484, -0.002307132352143526, 0.032326411455869675, -0.008235102519392967, -0.03946908935904503, 0.035500720143318176, 0.010686967521905899, -0.06083260476589203, 0.0028557039331644773, -0.07202044874429703, -0.029377643018960953, -0.07166936248540878, -0.10156231373548508, 0.04151984304189682, 0.018596787005662918, -0.042920324951410294, 0.05227202922105789, 0.0027885513845831156, -0.011166469193994999, -0.018682900816202164, 0.03359972685575485, -0.025001438334584236, 0.06120389699935913, -0.007027721498161554, -0.042693931609392166, 0.04948820546269417, -0.01234919298440218, 0.018084926530718803, -0.002521773334592581, 0.042520154267549515, 0.07928156852722168, -0.016218092292547226, -0.010111344046890736, 0.0015068012289702892, 0.07500410079956055, 0.03689061477780342, 0.022770246490836143, 0.02928869239985943, -0.0059473467990756035, 0.07614832371473312, -0.007188200484961271, 0.041069258004426956, 0.009031351655721664, 0.053080350160598755, 0.02817653864622116, -0.30493834614753723, -0.014116531237959862, -0.01660909689962864, 0.02972126565873623, -0.0680813118815422, 0.021396508440375328, 0.06052281707525253, 0.09076432138681412, -0.13305407762527466, 0.06076006963849068, 0.0989140197634697, -0.0022979932837188244, 0.001769038732163608, -0.0006864329916425049, -0.01635177806019783, 0.02070232480764389, -0.014124679379165173, -0.008643893525004387, -0.03557505086064339, 0.05016665533185005, 0.009149140678346157, 0.005051559768617153, 0.04669990763068199, -0.08497428148984909, 0.026505088433623314, 0.011873370967805386, 0.16361984610557556, -0.0025660316459834576, -0.006059115752577782, -0.08003424108028412, 0.0404120497405529, 0.09194321185350418, -0.000484619929920882, -0.09664642065763474, 0.006180432625114918, 0.023692425340414047, 0.03243472799658775, 0.064235620200634, 0.008968321606516838, -0.026022756472229958, -0.009633012115955353, 0.03642900660634041, -0.03714507073163986, -0.04669329524040222, 0.010226435959339142, -0.05282953009009361, -0.032004207372665405, 0.054744139313697815, -0.05958667770028114, 0.010731367394328117, -0.027405424043536186, -0.033183738589286804, -0.011048663407564163, 0.006838053464889526, -0.024308761581778526, -0.006939571816474199, -0.05100390315055847, -0.0014401376247406006, 0.012687219306826591, -0.016921009868383408, 0.009524459950625896, 0.050969257950782776, 0.0335751473903656, -0.060494739562273026, 0.06244322657585144, -0.009797845967113972, 0.021172476932406425, 0.05995716527104378, -0.01626662351191044, -0.024369139224290848, -0.03056568093597889, -0.021329155191779137, -0.03196244314312935, 0.03962995484471321, -0.025491029024124146, 0.02782606892287731, -0.010152093134820461, 0.025883261114358902, -0.025525597855448723, -0.02699783444404602, 0.001284286961890757, -0.03897453844547272, -0.006410242058336735, 0.028486374765634537, 0.026226261630654335, -0.027301529422402382, -0.01082077156752348, 0.022104138508439064, 0.014442074112594128, -0.034965936094522476, -0.02388378046452999, -0.013016331940889359, -0.00046955994912423193, 0.023317817598581314, 0.10180755704641342, -0.019417090341448784, -0.2603822648525238, 0.03073945827782154, 0.01119218673557043, -0.005128573160618544, -0.05878128483891487, 0.044840846210718155, 0.011811388656497002, -0.038510583341121674, -0.04037115350365639, 0.006825868505984545, 0.02677406184375286, 0.00390240759588778, 0.00296228239312768, -0.042941488325595856, 0.00282019330188632, 0.05610039830207825, 0.10657089948654175, -0.02146686613559723, -0.0524534210562706, -0.05609041824936867, 0.03946540877223015, 0.031025731936097145, 0.18458285927772522, -0.017375539988279343, 0.02071937918663025, 0.04240535572171211, 0.0016679682303220034, -0.014162673614919186, 0.06943201273679733, 0.014678948558866978, -0.007392521947622299, 0.014108488336205482, 0.03564368933439255, -0.013139716349542141, -0.0007557116914540529, 0.01655285619199276, 0.019225239753723145, 0.003161602420732379, 0.009027442894876003, -0.011961392126977444, -0.04921744391322136, 0.01326723676174879, -0.010388688184320927, -0.0061429161578416824, 0.052103687077760696, 0.008350661024451256, -0.024642381817102432, -0.012696661055088043, -0.01717720553278923, -0.0014477010117843747, -0.031590353697538376, -0.023705238476395607, 0.01636871136724949, 0.025166422128677368, 0.04107804596424103, 0.005342966876924038, -0.012121724896132946, 0.0004073826421517879, -0.037911660969257355, 0.005476606544107199, 0.042337335646152496, -0.06371700018644333, 0.04553968831896782, 0.03965609148144722, -0.02486439049243927]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>need_affordable_data_plans_for_additional_devices</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>["Improvement needed: I would like to add more devices to my plan but I found the price too high for adding new number/chips ($30). Maybe there could be an option for adding data only SIM cards? I have a tablet and laptop but it's annoying to have to share the connection in my phone whenever I want to access the internet.\n", "Improvement needed: don't think i have anything else to add - apart from making 5G more available in areas\nReason for given NPS: ease of use when paying bill - able to add on family member"]</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>[-0.042168933898210526, -0.047850146889686584, 0.048205140978097916, -0.05006367713212967, 0.02318669855594635, -0.05370742827653885, -0.062210869044065475, 0.08478207886219025, -0.00850872416049242, 0.005244511179625988, 0.028906550258398056, 0.02238336391746998, 0.035679854452610016, -0.013770646415650845, 0.0845663994550705, 0.02954437956213951, 0.09269099682569504, -0.07538723200559616, -0.020407671108841896, 0.047092605382204056, 0.02616025321185589, -0.06736096739768982, -0.02457447350025177, -0.020599953830242157, -0.016819793730974197, 0.016370171681046486, 0.001434930833056569, -0.019369125366210938, -0.04484454542398453, -0.09043268859386444, -0.02007002755999565, 0.01348055899143219, -0.012737566605210304, -0.0013990334700793028, 0.02487240917980671, -0.047066327184438705, 0.009312089532613754, 0.003088628174737096, -0.01458946242928505, 0.06498901546001434, -0.06045134738087654, 0.0037334722001105547, -0.08475134521722794, 0.05652185529470444, -0.0448588952422142, -0.036219507455825806, -0.012347784824669361, -0.025971360504627228, 0.04636043310165405, -0.03425480052828789, 0.05307823792099953, 0.03306347876787186, -0.02472439780831337, -0.019716424867510796, 0.022829784080386162, 0.04480082541704178, 0.0013409421080723405, 0.014260471798479557, 0.016251424327492714, 0.007533677853643894, 0.039224058389663696, 0.055376168340444565, -0.10827794671058655, 0.04274636507034302, -0.008130291476845741, -0.005903434474021196, -0.008716854266822338, -0.05334186553955078, 0.0055345152504742146, 0.03669718652963638, -0.016950247809290886, -0.02627655304968357, 0.045995067805051804, 0.07945225387811661, -0.0006984177161939442, 8.74255201779306e-05, 0.004793489817529917, 0.0041680415160954, -0.04142109304666519, 0.04601078853011131, 0.00409828731790185, 0.018783727660775185, -0.026858976110816002, 0.05356273800134659, -0.013719985261559486, -0.077953040599823, -0.01709032617509365, 0.008900956250727177, -0.029660917818546295, 0.002302827313542366, 0.003172272816300392, -0.007347949780523777, 0.002207911806181073, 0.023563716560602188, -0.07191082835197449, -0.0011592241935431957, 0.05517912656068802, 0.025479532778263092, -0.08524885028600693, 0.3878672122955322, 0.00449950760230422, -0.004430535715073347, 0.057207025587558746, -0.00907459668815136, 0.008291328325867653, -0.06927389651536942, -0.044631607830524445, -0.015175584703683853, -0.054358627647161484, -0.021692967042326927, -0.004124113358557224, -0.02518244832754135, 0.004425486084073782, 0.002098107011988759, 0.07024552673101425, 0.033151622861623764, -0.08282596617937088, -0.04425133019685745, 0.01746250130236149, -0.023794982582330704, -0.06209513172507286, -0.0328357070684433, 0.051786307245492935, 0.00606171041727066, -0.0016973691526800394, -0.07714839279651642, -0.0020238887518644333, 0.07942094653844833, -0.009172995574772358, 0.09243422001600266, 0.0037058701273053885, -0.063447006046772, -0.06040174886584282, 0.05898689106106758, 0.010363358072936535, -0.018167035654187202, 0.032252971082925797, -0.0378902442753315, 0.03685653582215309, 0.03751145303249359, -0.022800162434577942, -0.028465591371059418, 0.011341270059347153, -0.08356774598360062, 0.025933418422937393, 0.09870407730340958, 0.013095906935632229, 0.08347728848457336, 0.008043975569307804, -0.0869341641664505, 0.011685711331665516, 0.0429559089243412, 0.07589831203222275, -0.039861347526311874, -0.0302424356341362, 0.03876142576336861, 0.041503142565488815, -0.04411115124821663, -0.05449215695261955, 0.026979055255651474, 0.04908313229680061, -0.02385392040014267, -0.06678814440965652, 0.08796735852956772, -0.01227852888405323, -0.12314927577972412, -0.01697031781077385, 0.02036040835082531, -0.01802685111761093, -0.005964185576885939, -0.042913228273391724, 0.042408332228660583, -0.02070288360118866, 0.017168233171105385, 0.08403981477022171, -0.04961683601140976, -0.07385662198066711, 0.03733367100358009, -0.0968904197216034, -0.015136315487325191, -0.047038670629262924, -0.022337112575769424, -0.03877108544111252, -0.04761439934372902, -0.021325835958123207, -0.06953945010900497, 0.006309450604021549, 0.04598923772573471, 0.009519503451883793, -0.018967587500810623, -0.11969006061553955, 0.01453562080860138, -0.020726097747683525, 0.008635887876152992, -0.0009581706835888326, -0.03371308743953705, -0.051374029368162155, 0.030426548793911934, 0.02376307174563408, -0.06684816628694534, 0.0764254480600357, -0.07530158758163452, -0.01885061338543892, 0.06273656338453293, -0.007111370097845793, 0.0002810537989716977, -0.017219655215740204, 0.00560930697247386, 0.07208073884248734, -0.03982289507985115, 0.050915006548166275, -0.02523043192923069, 0.11242353171110153, 0.012973610311746597, -0.06237585470080376, 0.04207255691289902, -0.03612795099616051, 0.03736555948853493, 0.03949720039963722, -0.0022241652477532625, -0.003037429181858897, 0.06393100321292877, 0.02268238179385662, -0.2651830017566681, -0.009171891026198864, -0.030489282682538033, -0.006838285829871893, -0.07240030914545059, 0.010309449397027493, 0.05862879008054733, 0.016470713540911674, -0.053741320967674255, 0.1099313423037529, 0.04805397614836693, -0.02587984874844551, 0.043162841349840164, -0.012528718449175358, -0.022990496829152107, 0.0014111751224845648, 0.021740511059761047, 0.008378030732274055, -0.04527539014816284, 0.03174487128853798, 0.016098627820611, 0.06325161457061768, -0.004360555671155453, 0.001229200977832079, 0.051998335868120193, 0.08473143726587296, 0.16662923991680145, -0.06588228791952133, -0.0011344054946675897, -0.018433736637234688, 0.06157336384057999, 0.07560800760984421, -0.02603866718709469, -0.03869960084557533, 0.007170042488723993, 0.043029531836509705, -0.04695750027894974, 0.024751540273427963, 0.0025468680541962385, -0.07441573590040207, -0.012981078587472439, 0.051263004541397095, -0.03294515237212181, -0.05637301877140999, 0.03218459337949753, -0.010685284622013569, -0.028578920289874077, 0.0795934721827507, -0.028748581185936928, 0.028583353385329247, -0.029841141775250435, 0.0008965398883447051, 0.024933364242315292, -0.012976236641407013, 0.0993119329214096, -0.009352799504995346, -0.07427436113357544, 0.035689275711774826, -0.00332060270011425, 0.027072321623563766, -0.0008436357020400465, -0.015519337728619576, -0.022177813574671745, -0.02377154864370823, 0.0381627194583416, -0.01602291315793991, 0.009859913028776646, 0.010476507246494293, -0.03764548897743225, 0.017903150990605354, 0.018517427146434784, -0.026046155020594597, -0.004853610880672932, 0.019351571798324585, -0.000593625649344176, -0.03116771951317787, 0.01353425346314907, 0.00655770767480135, -0.0025953410658985376, -0.038799066096544266, -0.0043917372822761536, -0.0069960057735443115, 0.021124009042978287, 0.018192600458860397, -0.0005288267275318503, 0.06866098195314407, 0.045608580112457275, 0.014389255084097385, 0.01440117321908474, -0.039870988577604294, -0.0372563935816288, -0.005848877597600222, 0.021768270060420036, 0.012927871197462082, 0.07598421722650528, -0.00847936887294054, -0.23114216327667236, 0.0065111988224089146, -0.009349893778562546, 0.0052696638740599155, -0.010335982777178288, 0.011942623183131218, 0.013458602130413055, 0.010775416158139706, -0.03825078904628754, 0.06450764834880829, -0.011761854402720928, 0.04502938687801361, -0.030124489217996597, -0.004152664914727211, 0.06257689744234085, 0.011532731354236603, 0.10428109019994736, 0.0011280205799266696, -0.06922562420368195, -0.03174930810928345, 0.040897127240896225, -0.022065356373786926, 0.14183582365512848, -0.04504212737083435, -0.04570401459932327, 0.04519353806972504, -0.028696030378341675, 0.02806811034679413, 0.04714934155344963, 0.026501048356294632, -0.03733878955245018, -0.039753589779138565, -0.004256087355315685, -0.005595431663095951, -0.013430711813271046, 0.05639401078224182, -0.019106218591332436, -0.03600988909602165, -0.010411862283945084, 0.00851752795279026, -0.04308239370584488, -0.0005955465021543205, -0.08722294121980667, 0.06304462254047394, 0.08382084220647812, 0.012600714340806007, -0.05282444879412651, -0.009482522495090961, -0.00932619534432888, 0.01759178750216961, 0.031208401545882225, -0.02177276834845543, -0.0013956415932625532, 0.0012017785338684916, -0.0008863792754709721, 0.01862025447189808, -0.04142392799258232, 0.062839075922966, 0.02862565591931343, -0.03222200646996498, 0.01258867047727108, -0.02741127274930477, -0.024684064090251923, 0.02897164784371853, -0.0025427048094570637]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>need_clearer_communication_on_contract_details</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Keener pricing service and equipment not competitive ...\nAlso  need easier billing\nReason for given NPS: ¹Need to improve communication on contract issues. \n² On- line dealings w robot, extremely awkward, need more characters or line.', 'Improvement needed: Staff needing to explain any deals so customers can understand\nReason for given NPS: No Company is really perfect always room for improvement']</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>[-0.029477432370185852, -0.046609800308942795, 0.0331086590886116, -0.05109836906194687, -0.014332269318401814, -0.025759022682905197, -0.027842869982123375, 0.05095887556672096, 0.046242352575063705, -0.008032933808863163, -0.01361042819917202, -0.02344605326652527, 0.024572884663939476, 0.0055807423777878284, 0.06133769452571869, 0.0005448340671136975, 0.033991288393735886, -0.011741249822080135, -0.03820349648594856, 0.01892329379916191, 0.06783750653266907, -0.04074210301041603, -0.004559818189591169, 0.08001900464296341, 0.020300712436437607, 0.00034359865821897984, -0.03550717607140541, -0.015864893794059753, -0.012983620166778564, -0.14012649655342102, -0.016428949311375618, 0.029110178351402283, -0.00042457570089027286, 0.03681030869483948, 0.04441734403371811, -0.008975010365247726, -0.02945941872894764, -0.021989421918988228, -0.06189940869808197, 0.050962548702955246, 0.03791607543826103, 0.033329226076602936, 0.005897906143218279, -0.016841785982251167, -0.0006060453597456217, -0.07186690717935562, 0.03826737031340599, -0.005632463376969099, 0.01940094493329525, -0.06753124296665192, 0.03464912623167038, -0.024868246167898178, -0.0148058095946908, -0.012583286501467228, 0.009502162225544453, 0.06062512472271919, 0.06665157526731491, 0.06460268050432205, 0.03971077501773834, 0.010459632612764835, 0.028827613219618797, 0.03892871364951134, -0.14841802418231964, 0.06902161985635757, 0.011592053808271885, -0.016727488487958908, -0.0037543668877333403, 0.005365931428968906, 0.002187215955927968, 0.026806218549609184, 0.011487655341625214, -0.031621746718883514, -0.04846064746379852, 0.06910939514636993, 0.016611678525805473, -0.05709072947502136, -0.014500985853374004, 0.03377501294016838, 0.04122979938983917, 0.008179835043847561, -0.05267984792590141, 0.0010883380891755223, -0.0250950139015913, -0.01963352970778942, -0.05319686233997345, -0.08621733635663986, 0.06284517794847488, 0.029570942744612694, 0.03186691924929619, -0.026134226471185684, -0.025512419641017914, -0.05018329620361328, 0.02606966905295849, 0.026164986193180084, -0.08998776972293854, 0.05584487318992615, -0.023039216175675392, 0.0015398224350064993, -0.09500528872013092, 0.3888669013977051, -0.022376835346221924, 0.008524215780198574, -0.010469763539731503, 0.011955886147916317, 0.032299868762493134, -0.013239750638604164, -0.01209417823702097, -0.01820581778883934, -0.011768724769353867, 0.0494147427380085, -0.05708359554409981, -0.005583802238106728, -0.019172608852386475, 0.01724088564515114, 0.0274365171790123, 0.118582583963871, 0.035925500094890594, -0.004776695743203163, -0.038985755294561386, -0.0025268620811402798, 0.026290377601981163, 0.03191152215003967, 0.020253092050552368, 0.05473042652010918, -0.006419608369469643, -0.018252696841955185, 0.049271322786808014, 0.03222649171948433, 0.014515891671180725, 0.05897378548979759, 0.02428552135825157, 0.003406808478757739, -0.001522660139016807, 0.04631224274635315, 0.044822413474321365, 0.007210812997072935, -0.034061357378959656, 0.02798932045698166, 0.014522993937134743, 0.040421102195978165, 0.010503068566322327, -0.08847253769636154, -0.0443652905523777, -0.050388116389513016, -0.02749950997531414, 0.1167316734790802, -0.022616729140281677, 0.05551899969577789, -0.01773419976234436, -0.06116874888539314, -0.036645375192165375, 0.03261842578649521, 0.07523823529481888, -0.05836613476276398, -0.02216820791363716, -0.02928147278726101, -0.008301091380417347, -0.01501493714749813, -0.052413634955883026, 0.026543596759438515, 0.10552363097667694, -0.05867554992437363, -0.0010859403992071748, 0.08730768412351608, -0.0017452111933380365, -0.0924859270453453, -0.008178628981113434, 0.009740429930388927, -0.0034682198893278837, -0.06431056559085846, -0.061743807047605515, 0.043486688286066055, -0.008074291981756687, -0.020303277298808098, 0.06697237491607666, -0.0396331325173378, -0.003482677275314927, 0.01842780038714409, -0.0388023741543293, -0.010447219014167786, 0.031102776527404785, 0.0042190575040876865, -0.01757560670375824, 0.005146731156855822, -0.001365864067338407, -0.03540444374084473, -0.02115381509065628, 0.022473258897662163, 0.026540812104940414, -0.005576018244028091, -0.048289574682712555, -0.032555513083934784, 0.005949819460511208, 0.016581108793616295, -0.040187906473875046, -0.00653635011985898, 0.016081277281045914, -0.028065847232937813, -0.07671187818050385, -0.047925129532814026, 0.06876468658447266, 0.012394285760819912, -0.07125740498304367, 0.06534428894519806, -0.012068988755345345, 0.0449054054915905, -0.008385973051190376, -0.01407568622380495, 0.05480583384633064, 0.029307257384061813, -0.00702707702293992, 0.015195660293102264, 0.035983022302389145, 0.004632959607988596, -0.02717028744518757, -0.007326688151806593, 0.0009682193049229681, 0.06543420255184174, 0.0016222276026383042, 0.008294112049043179, -0.06455854326486588, 0.10044998675584793, 0.02594051882624626, -0.3370390832424164, 0.006969823502004147, 0.0022540190257132053, -0.041988566517829895, -0.028850898146629333, -0.023598957806825638, 0.05393591150641441, 0.01639484241604805, 0.02053704299032688, 0.07634726911783218, 0.05339337885379791, 0.03006955236196518, -0.02643395960330963, -0.062442366033792496, -0.0260207150131464, 0.02599490061402321, -0.001704544061794877, 0.00556738069280982, -0.018153324723243713, 0.025515340268611908, -0.016804378479719162, 0.02845144458115101, -0.029698818922042847, -0.03967685252428055, 0.022228559479117393, 0.00031569323618896306, 0.17245061695575714, -0.07444638013839722, -0.026739729568362236, -0.016234418377280235, 0.04592093080282211, 0.06714895367622375, -0.03058134764432907, -0.0963890478014946, 0.023332513868808746, 0.03942674770951271, -0.028669215738773346, 0.059547461569309235, 0.029168490320444107, -0.030888793990015984, -0.0016673675272613764, 0.025135785341262817, -0.031459249556064606, -0.018112048506736755, -0.005732209421694279, -0.0695539191365242, -0.0363268218934536, -0.031666938215494156, -0.09450682252645493, -8.518766662746202e-06, 0.02925724722445011, 0.05377191677689552, 0.023419512435793877, 0.0652829110622406, 0.06308116763830185, 0.02642156556248665, -0.020621664822101593, -0.06173329800367355, -0.03266632556915283, 0.013347380794584751, -0.033989302814006805, 0.022579045966267586, 0.007530856411904097, -0.03738781437277794, 0.05503521114587784, 0.016101187095046043, -0.021785562857985497, -0.05040895566344261, 0.001022068434394896, 0.0243709497153759, 0.010651396587491035, 0.03490636125206947, -0.012249869294464588, -0.04964884743094444, 0.005505971610546112, 0.023165494203567505, -0.006958194077014923, -0.01852024346590042, -0.02416745387017727, -0.021941309794783592, 0.03749009221792221, -0.024600042030215263, 0.056271933019161224, -0.010645085014402866, 0.011988073587417603, 0.03451784327626228, 0.042815130203962326, 0.010409271344542503, -0.013694755733013153, 0.004363888408988714, -0.039879921823740005, -0.017588384449481964, 0.009283075109124184, -0.03297610208392143, 0.08500052243471146, -0.04146741330623627, -0.26768994331359863, -0.03859031945466995, -0.0026259426958858967, -0.018510473892092705, -0.05449850857257843, 0.04226043447852135, 0.0005653095431625843, 0.02214936912059784, -0.10156024247407913, 0.0458245575428009, 0.012706869281828403, -3.191556243109517e-05, -0.05038612708449364, -0.003931012935936451, -0.012667132541537285, 0.0739232525229454, 0.0676637813448906, -0.0586787648499012, -0.060294054448604584, -0.008782551623880863, 0.004693088121712208, -0.019506053999066353, 0.1350804567337036, -0.011901549063622952, 0.02167242206633091, 0.03748480975627899, -0.036453187465667725, 0.027827579528093338, 0.03782685101032257, 0.03028562292456627, -0.03078656643629074, -0.006934518460184336, 0.03633349388837814, 0.048807933926582336, -0.02853856422007084, 0.03381511941552162, 0.012018230743706226, -0.07826255261898041, 0.003937201574444771, 0.02936217002570629, -0.00028987208497710526, -0.008252652361989021, 0.015788232907652855, 0.024303847923874855, 0.05818679556250572, 0.02691471204161644, -0.0551222562789917, -0.03020254708826542, 0.036900270730257034, -0.03028312511742115, -0.0746263712644577, -0.0274354200810194, -0.014128611423075199, 0.02344510518014431, -0.0066030602902174, 0.02861882746219635, 0.0017889722948893905, 0.02613004669547081, 0.017478160560131073, 0.0063246735371649265, -0.021583788096904755, -0.046892985701560974, 0.01886008121073246, -0.006436957512050867, -0.009579995647072792]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>poor_online_virtual_assistant_experience</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Keener pricing service and equipment not competitive ...\nAlso  need easier billing\nReason for given NPS: ¹Need to improve communication on contract issues. \n² On- line dealings w robot, extremely awkward, need more characters or line.', 'Improvement needed: Telephone help desk - a human; not via chat bot\nReason for given NPS: Hard to get through when you need them; but looking forward to NZ-wide coverage next year.']</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[-0.03455868735909462, -0.002873088466003537, 0.04640374332666397, -0.024562833830714226, 0.0019361645681783557, -0.028675086796283722, 0.005974375177174807, 0.011248613707721233, 0.04030913487076759, -0.04928091540932655, 0.03630749136209488, 0.035238754004240036, 0.06418884545564651, -0.029928697273135185, 0.06194649636745453, 0.024175072088837624, 0.0023454136680811644, -0.07567431032657623, -0.0015277869533747435, 0.03487410023808479, 0.016297193244099617, -0.0013266457244753838, 0.031065890565514565, 0.003422091482207179, -0.06110358238220215, -0.016538554802536964, -0.08827398717403412, -0.05143941566348076, -0.051830440759658813, -0.0708901509642601, -0.025594210252165794, 0.03047064319252968, 0.042302943766117096, 0.08346576988697052, 0.022375306114554405, -0.006378285586833954, -0.03466658666729927, 0.06198893114924431, -0.02571296878159046, -0.006995485629886389, 0.02217128314077854, -0.02066214755177498, -0.05128541216254234, -0.012241056188941002, 0.005741530563682318, -0.07870028913021088, 0.004700810182839632, -0.028168031945824623, 0.0729389563202858, -0.0631711483001709, 0.011994612403213978, -0.019392305985093117, -0.01576446183025837, -0.0010521882213652134, 0.04424365609884262, 0.01445845142006874, 0.05015123263001442, 0.054666075855493546, 0.006876111030578613, 0.018034860491752625, 0.031895026564598083, -0.014526069164276123, -0.12615354359149933, 0.05497894808650017, 0.06290850788354874, 0.03474646434187889, -0.022936269640922546, -0.06593625992536545, -0.013216559775173664, -0.045934829860925674, -0.042005907744169235, 0.03683339059352875, -0.06256034970283508, 0.07593011856079102, 0.02670302800834179, 0.04550647363066673, -0.014074048027396202, 0.018933521583676338, 0.025213167071342468, 0.05357850342988968, 0.01787593774497509, 0.007682704832404852, -0.03864661231637001, 0.016893021762371063, 0.004058211576193571, -0.06306135654449463, 0.003486509434878826, 0.05958673357963562, 0.06939592957496643, 0.011772179044783115, -0.05121718719601631, 0.01697724312543869, 0.021659674122929573, 0.020582465454936028, -0.005896961782127619, -0.03867641091346741, 0.018105247989296913, -0.0022467749658972025, -0.11519977450370789, 0.3531864583492279, -0.009623263031244278, 0.01638595573604107, 0.03467727452516556, -0.051301997154951096, 0.04127541929483414, -0.045760009437799454, 0.01818852126598358, -0.08248394727706909, 0.03442171588540077, -0.00254601682536304, -0.02257547713816166, 0.019921256229281425, -0.021071994677186012, -0.0020031186286360025, 0.008069073781371117, 0.058595750480890274, 0.009888038039207458, 0.023326855152845383, -0.019660143181681633, -0.028812134638428688, 0.0011207249481230974, 0.01629657670855522, 0.03496668487787247, 0.0057028415612876415, 0.022527385503053665, -0.04803694412112236, 0.01566486246883869, 0.08115982264280319, -0.054023370146751404, 0.0309398602694273, 0.04946326091885567, -0.006405453197658062, -0.011428945697844028, -0.007540249265730381, -0.009478331543505192, -0.01960974745452404, 0.030790040269494057, 0.012139583006501198, 0.024148443713784218, 0.03028654307126999, -0.04276188835501671, -0.04060904309153557, -0.06169195845723152, 0.010967324487864971, 0.00570833683013916, 0.11910594999790192, 0.02060149982571602, 0.08519556373357773, -0.04049914330244064, -0.009468259289860725, 0.0060737417079508305, 0.0023108520545065403, -0.0014078377280384302, 0.009778800420463085, 0.005763843655586243, -0.0537351593375206, 0.05556865409016609, 0.021163929253816605, -0.03358900547027588, -0.005564747843891382, 0.02589573711156845, -0.05280929431319237, 0.007247000467032194, 0.03784154728055, -0.010552659630775452, -0.046064648777246475, -0.032802071422338486, -0.002083385596051812, -0.039862196892499924, 0.02702045813202858, 0.03300291672348976, -0.05021664872765541, -0.029760155826807022, 0.01961640641093254, 0.11890265345573425, -0.03930734097957611, -0.021937355399131775, 0.0685475692152977, -0.04420127719640732, 0.021906867623329163, 0.01086181029677391, -0.035373978316783905, -0.03668978810310364, 0.01545900572091341, 0.018239282071590424, -0.0029069921001791954, 0.017945338040590286, -0.018254905939102173, 0.03334441035985947, -0.040918685495853424, -0.08036868274211884, -0.06108187511563301, -0.09876684099435806, -0.03444425389170647, 0.020512107759714127, 0.05508560314774513, -0.02118837833404541, -0.054650045931339264, -0.015392109751701355, -0.027358878403902054, 0.07445678114891052, -0.021140139549970627, -0.03406758978962898, 0.012797219678759575, -0.0004007428651675582, 0.016200315207242966, 0.02591530606150627, -0.04416749253869057, 0.09701480716466904, 0.01416293065994978, -0.08104351162910461, -0.04326977953314781, 0.05158708989620209, 0.013756930828094482, -0.006197693292051554, 0.0021560422610491514, 0.05771468207240105, 0.09926803410053253, 0.022428082302212715, 0.029267573729157448, -0.01994115114212036, 0.12415916472673416, -0.007568881381303072, -0.2739759683609009, 0.016059551388025284, -0.08274585753679276, -0.04525376483798027, -0.09689413756132126, -0.012564216740429401, 0.03580532968044281, -0.004022316541522741, 0.0737328752875328, 0.061503611505031586, 0.050064995884895325, -0.05169025436043739, 0.06592979282140732, -0.02771061472594738, 0.04707503318786621, 0.00600682245567441, 0.051019199192523956, 0.06687838584184647, 0.013829830102622509, 0.01272698026150465, -0.026722343638539314, 0.02542048692703247, 0.04742308706045151, -0.0661342442035675, 0.008572502061724663, 0.03229288011789322, 0.16779083013534546, -0.03842378407716751, 0.018867146223783493, -0.0394289568066597, 0.058393895626068115, 0.07533732056617737, -0.01046152226626873, -0.11391843855381012, -0.021356137469410896, 0.02824976108968258, 0.05923369526863098, -0.010443796403706074, 0.03659523278474808, -0.06171966716647148, -0.0634382888674736, 0.0521000437438488, 0.033260297030210495, -0.05391090735793114, -0.023328999057412148, 0.004574451595544815, -0.05016366392374039, 0.04578406736254692, -0.08388500660657883, 0.035087522119283676, -0.0007567866123281419, -0.028095943853259087, 0.012958585284650326, 0.03638846427202225, 0.01240789145231247, -0.0186536256223917, -0.07763825356960297, 0.03216763585805893, -0.01929589919745922, 0.04960909113287926, -0.020628955215215683, -0.02131124772131443, 0.04312902316451073, -0.08957094699144363, 0.04189683496952057, 0.028992751613259315, 0.014751804061233997, -0.020749220624566078, 0.06705906242132187, -0.032849136739969254, -0.037610575556755066, 0.07639145851135254, -0.03528177738189697, 0.014567027799785137, -0.010144234634935856, -0.06137889623641968, -0.028889860957860947, -0.039708517491817474, -0.0065560596995055676, -0.014084686525166035, -0.04561012238264084, -0.012149143032729626, 0.007968859747052193, 0.00565142510458827, 0.005669429898262024, 0.004382718820124865, -0.0058082593604922295, -0.006590330507606268, 0.03118639439344406, -0.012446995824575424, -0.07382950931787491, 0.01971300318837166, -0.0553792305290699, 0.010377245023846626, 0.08110502362251282, 0.004994725808501244, -0.23702451586723328, -0.004756991285830736, -0.005975839216262102, 0.02030700072646141, -0.011634334921836853, 0.06317604333162308, -0.0525546558201313, -0.09649619460105896, -0.018009604886174202, -0.003094888525083661, 0.0222956333309412, -0.03368338569998741, -0.044832680374383926, -0.028915245085954666, 0.0326085239648819, 0.0885569378733635, -0.03109627589583397, -0.01938045769929886, 0.034669701009988785, -0.04972226545214653, -0.02006521075963974, 0.06552444398403168, 0.1152518019080162, -0.06042458117008209, -0.014713114127516747, -0.0014808215200901031, -0.011200377717614174, -0.07769832015037537, 0.04809886962175369, -0.03398040682077408, -0.07937243580818176, 0.0028258839156478643, 0.06579666584730148, 0.07713205367326736, 0.007727739866822958, -0.06672903150320053, 0.009863271377980709, -0.06861497461795807, 0.007229684852063656, 0.010976877063512802, 0.03634218871593475, 0.03267339989542961, 0.03969384729862213, -0.009521394968032837, 0.06093950942158699, 0.033007942140102386, 0.027676347643136978, -0.025451423600316048, -0.015237046405673027, -0.003226055298000574, 0.02597307600080967, -0.08342235535383224, 0.03788067027926445, 0.04449167847633362, 0.04694070667028427, 0.05035857856273651, 0.006551200989633799, -0.025191372260451317, -0.03649546578526497, -0.07241067290306091, 0.025574564933776855, -0.04651303589344025, 0.021528998389840126, -0.006437988951802254, -0.00180365692358464]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>service_disruption_during_emergencies</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Some communication. The first person I talked to about mixing up my broadband and mobile accounts wasn't able to explain what was happening very well. Consequently, the issue dragged on and created big problems for me.\nReason for given NPS: I never give anyone a ten. Also, I had some account difficulties (because i thought it was a scam - long story, didn't know I had two accounts with change from Trustpower) and got cut off which caused huge problems while travelling during very bad weather and road closures at night. However, a technician (Yulan???) was extremely helpful in sorting it all out for me.", 'Improvement needed: I live in Broadwood 0491, My mobile phone gets NO service, our internet drops out regularly and if there is any kind of storm its a joke. I have purchased a Starlink system and once i have installed it I shall cancel my account. Ive been with your company for years and the service over the pass few years has gotten worse.\nReason for given NPS: Your service goes down most days and when it is up the speed is terrible and opening a page on the internet can take ages to load.']</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[0.00013813842087984085, -0.01825813762843609, 0.053129952400922775, -0.025565406307578087, 0.013780343346297741, -0.011666728183627129, 0.048877421766519547, 0.04257018491625786, 0.036065008491277695, -0.05685897544026375, -0.04225127771496773, 0.027419939637184143, 0.030577488243579865, 0.030261205509305, 0.024385923519730568, 0.00366655713878572, 0.05715721845626831, -0.008211825974285603, -0.04368545487523079, 0.027014821767807007, 0.039065442979335785, 0.0022790224757045507, -0.019284512847661972, 0.024235596880316734, -0.023239536210894585, 0.008218909613788128, -0.0012228585546836257, 0.015041356906294823, -0.05442323908209801, -0.10456996411085129, 0.007449526339769363, -0.07200188934803009, -0.018825016915798187, -0.01003264356404543, 0.07221603393554688, -0.015483351424336433, 0.0014989484334364533, 0.05148390680551529, 0.07940203696489334, 0.046816665679216385, 0.051073744893074036, -0.004566976334899664, -0.08989595621824265, -0.0698193609714508, -0.06530481576919556, -0.10793405026197433, 0.03187672048807144, 0.032370589673519135, 0.05752449482679367, -0.06965572386980057, 0.02310093864798546, -0.032145511358976364, 0.010057504288852215, 0.021684346720576286, 0.018143529072403908, -0.0026567818131297827, 0.036665178835392, 0.0031993912998586893, 0.05535784736275673, 0.03270816057920456, 0.030746497213840485, -0.022246450185775757, -0.158930703997612, 0.024454381316900253, 0.020492209121584892, -0.040957845747470856, 0.008200657553970814, -0.03422190994024277, 0.03849300369620323, -0.012466964311897755, -0.07643046230077744, -0.04009201377630234, 0.016290999948978424, 0.13419407606124878, -0.01016142126172781, 0.012094885110855103, -0.0034405055921524763, -0.03538044914603233, -0.02045067772269249, 0.021398141980171204, 0.026706118136644363, -0.02880627103149891, -0.012222057208418846, -0.021395834162831306, -0.015293133445084095, -0.01801799237728119, -0.009451466612517834, -0.004055850673466921, 0.015767961740493774, 0.015670929104089737, -0.027274779975414276, 0.012910926714539528, 0.07569854706525803, 0.06439612805843353, -0.06885333359241486, -0.045552853494882584, 0.011548533104360104, -0.014543469995260239, -0.04130147397518158, 0.3683079183101654, 0.01133954431861639, 0.028443191200494766, 0.017269598320126534, 0.04837195947766304, 0.012871287763118744, -0.05257275328040123, 0.028947295621037483, -0.08072762191295624, -0.06563584506511688, -0.000333867414155975, 0.009937794879078865, -0.05554363504052162, 0.07392749190330505, 0.0006851889193058014, 0.01027341466397047, 0.0730515718460083, 0.0015824598958715796, -0.008269242011010647, -0.014659496955573559, 0.014804043807089329, -0.00908706896007061, 0.05799979344010353, 0.01543662790209055, -0.03677073493599892, 0.007309794891625643, 0.01186753436923027, 0.08180525153875351, 0.1386534571647644, -0.02516312152147293, 0.006227159406989813, 0.013664836063981056, 0.009183603338897228, 0.00036316088517196476, -0.0119598638266325, -0.010005075484514236, -0.03923342376947403, 0.01644018292427063, -0.01411410141736269, 0.005790477618575096, 0.03518231213092804, 0.07129693776369095, -0.07065267860889435, -0.024717293679714203, -0.07550709694623947, 0.04251772537827492, 0.09722311049699783, -0.04225882515311241, 0.06630240380764008, 0.005832866299897432, -0.06586221605539322, -0.032683346420526505, 0.02780577354133129, 0.020850010216236115, -0.01681082881987095, -0.030600860714912415, 0.030728211626410484, 0.061991170048713684, 0.05651571601629257, -0.00021640789054799825, 0.0027559350710362196, 0.0027112001553177834, -0.05013452470302582, -0.0202153529971838, 0.06497492641210556, -0.049042459577322006, -0.07449691742658615, -0.010668185539543629, -0.005281453486531973, -0.05910170450806618, -0.0030784625560045242, -0.04574224352836609, 0.014028344303369522, 0.0046904440969228745, 0.015150655061006546, 0.07732892781496048, 0.02312435582280159, 0.009288808330893517, 0.012438843958079815, -0.02549900859594345, 0.028683137148618698, 0.0019305371679365635, -0.03388889133930206, 0.033489927649497986, 0.024668902158737183, -0.0026448287535458803, -0.010434410534799099, -0.0011913470225408673, -0.01063821092247963, 0.0465194508433342, -0.034931156784296036, -0.030332166701555252, -0.06824038922786713, 0.04400092735886574, -0.057199981063604355, -0.001837034709751606, 0.006838737055659294, -0.01976802572607994, -0.04738413169980049, 0.0371064692735672, -0.012590025551617146, 0.09171337634325027, 0.005763899069279432, -0.04201681539416313, 0.017049040645360947, 0.0027816989459097385, 0.010034189559519291, -0.0428541898727417, 0.03512752428650856, -0.033339016139507294, 0.03284637629985809, 0.010986109264194965, -0.009777480736374855, 0.09497377276420593, 0.006905905436724424, 0.04346098750829697, -0.012558141723275185, 0.00528720673173666, 0.07821675390005112, -0.022544272243976593, 0.007370914798229933, 0.050700344145298004, 0.044992584735155106, 0.033846791833639145, -0.2936697006225586, -0.02070634253323078, -0.005251426715403795, -0.043850403279066086, -0.09744255989789963, 0.01832234300673008, 0.0402296781539917, -0.012263505719602108, -0.04345724359154701, -0.013179239816963673, 0.08205398917198181, -0.014932669699192047, -0.0017263860208913684, -0.05848917365074158, 0.06018667295575142, -0.004536584950983524, -0.0512007474899292, -0.0004346052883192897, -0.02166496403515339, -0.001133115030825138, -0.021492628380656242, 0.053983576595783234, -0.02376745454967022, -0.09493257850408554, -0.0373343788087368, -0.02323668636381626, 0.15891310572624207, -0.06917108595371246, -0.013215688988566399, -0.10729947686195374, -0.029062431305646896, 0.05690698325634003, 0.03275919705629349, -0.09536177664995193, 0.014089913107454777, 0.007584958802908659, 0.03469029441475868, 0.04383610561490059, -0.04064076393842697, -0.03231947496533394, -0.02270338498055935, 0.056148309260606766, 0.011276323348283768, -0.01036786288022995, 0.0333966389298439, -0.07792653888463974, -0.021810641512274742, 0.016147872433066368, -0.07481274008750916, -0.01496252790093422, 0.03438476473093033, -0.05724157392978668, 0.010910226963460445, 0.03716375306248665, 0.12269078940153122, -0.04830899089574814, -0.02286115474998951, 0.03409508988261223, -0.04540263116359711, -0.03361980989575386, 0.02525782398879528, 0.04254239425063133, 0.019153647124767303, -0.019752752035856247, 0.04609491303563118, 0.027671577408909798, 0.026864228770136833, -0.0003756049554795027, -0.04196743667125702, -0.029912181198596954, -0.051723383367061615, 0.10435594618320465, -0.03848514333367348, 0.020084189251065254, -0.00913055520504713, 0.014838160946965218, -0.007810552138835192, -0.022120943292975426, -0.06058789789676666, -0.025803420692682266, 0.03446740657091141, 0.010436778888106346, 0.03282782807946205, 0.0275410283356905, 0.01725597493350506, -0.042901113629341125, -0.04952019453048706, 0.06929433345794678, 0.01892613247036934, -0.011932538822293282, -0.01528899185359478, -0.008997290395200253, -0.022841300815343857, 0.0017931428737938404, 0.06753590703010559, 0.0072014182806015015, -0.23136772215366364, 0.02805878035724163, 0.022785674780607224, -0.034582510590553284, -0.004250476136803627, 0.0461614653468132, -0.05622059106826782, 0.02632337436079979, -0.04185838624835014, 0.006081681698560715, -0.05757874995470047, -0.014440104365348816, 0.02278340980410576, -0.011831671930849552, 0.011953592300415039, 0.06513884663581848, 0.06354063749313354, -0.044580478221178055, -0.0314762219786644, -0.03938129544258118, 0.004208515863865614, 0.005001272074878216, 0.1317083090543747, -0.03508038818836212, 0.055227767676115036, 0.03320692852139473, -0.0008216177229769528, 0.021221300587058067, 0.027762167155742645, 0.007052593864500523, 0.007298133801668882, -0.047852545976638794, 0.014507158659398556, -0.008568127639591694, -0.016909798607230186, -0.06019125506281853, 0.05965498462319374, 0.04705476015806198, 0.018308648839592934, -0.005639032926410437, -0.04495622590184212, 0.02332807518541813, 0.03502313047647476, -0.04327505826950073, 0.05702303349971771, -0.013017350807785988, -0.02694985643029213, -0.09938225150108337, 0.03514422848820686, -0.0009203787194564939, -0.011762244626879692, -0.08180252462625504, -0.022684650495648384, 0.023543331772089005, 0.02124079503118992, 0.031847864389419556, -0.06160268560051918, 0.027757545933127403, 0.008187166415154934, -0.01443138625472784, 0.06104826554656029, -0.03693775460124016, 0.06871236860752106, -0.07572108507156372, 0.0077751027420163155]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>lack_of_training_on_customer_infrastructure</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Support, sometimes the call center does not know how your assets are conected\n', 'Improvement needed: TechniiCal service by telephone\nReason for given NPS: Shop service is great especially Sylvia park. Very customer focused. \nPhone service not great. Too long a wait &amp; not helpful. Sent me to store!']</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[-0.008380159735679626, -0.014047943986952305, 0.020739788189530373, -0.021415840834379196, 0.0024659265764057636, -0.0529380664229393, -0.07386746257543564, 0.031129201874136925, 0.0037877375725656748, -0.012367842718958855, 0.022925283759832382, 0.019634094089269638, 0.014073684811592102, 0.006902323104441166, 0.062221918255090714, 0.03552550822496414, 0.05515839904546738, -0.0031770525965839624, -0.014440321363508701, 0.018845809623599052, 0.024936558678746223, -0.021881883963942528, -0.062207888811826706, 0.01040270272642374, -0.024178674444556236, 0.0023000382352620363, -0.024392632767558098, -0.047066204249858856, -0.07330400496721268, -0.10976502299308777, -0.0010984917171299458, -0.03387797996401787, 0.05986000970005989, 0.035814106464385986, 0.07437803596258163, -0.04336869344115257, -0.010398613288998604, -0.009660346433520317, 0.020446069538593292, 0.006942792795598507, -0.012679843232035637, -0.014009181410074234, -0.03901563212275505, -0.0008955812081694603, -0.007030869368463755, -0.049887318164110184, 0.013040386140346527, -0.06429653614759445, 0.04564743489027023, -0.09244100004434586, 0.001854078727774322, -0.010586688295006752, -0.018614359200000763, -0.02516414411365986, -0.0024414879735559225, 0.06057791784405708, 0.02686861716210842, 0.02569550648331642, 0.007142703980207443, 0.04481576755642891, -0.003434551879763603, -0.021301908418536186, -0.17551250755786896, 0.0002689874090719968, 0.003552349517121911, 0.03711574897170067, -0.023945201188325882, -0.04533582180738449, -0.009163076989352703, 0.020193520933389664, -0.014278849586844444, 0.014062680304050446, -0.048122040927410126, 0.05119897425174713, 0.03548913449048996, 0.02730296552181244, -0.0474550798535347, -0.0007791327661834657, 0.08167890459299088, 0.03631145879626274, 0.014477390795946121, -0.06493323296308517, -0.04231706261634827, 0.0060933432541787624, -0.016435915604233742, -0.027613751590251923, -0.013402488082647324, -0.014216617681086063, 0.007379627320915461, 0.010975276120007038, 0.001552874338813126, 0.0035897872876375914, 0.008487019687891006, 0.027965674176812172, -0.0484260693192482, -0.0273625198751688, -0.008755061775445938, 0.036089327186346054, -0.13345342874526978, 0.3858048915863037, 0.017335226759314537, 0.041124168783426285, -0.050989095121622086, 0.031881630420684814, 0.033012550324201584, -0.010581864975392818, -0.04941492900252342, 0.01146715972572565, -0.016960088163614273, -0.029773110523819923, -0.01594666764140129, 0.009001866914331913, 0.019831158220767975, -0.018183991312980652, 0.041938360780477524, 0.07924745231866837, -0.045110560953617096, 0.004825217183679342, -0.05475269630551338, 0.047793447971343994, 0.015616974793374538, -0.0454929955303669, 0.05728299170732498, -0.0016379916341975331, -0.0018886836478486657, -0.012693524360656738, -0.02520572394132614, 0.09579421579837799, -0.0023443116806447506, 0.0454738475382328, 0.005859379190951586, -0.032396476715803146, -0.07125770300626755, -0.004271410871297121, -0.010611140169203281, 0.007307582069188356, 0.007229446433484554, 0.018586894497275352, -0.013591624796390533, 0.06460075080394745, -0.028712017461657524, -0.03938038647174835, 0.026700397953391075, -0.02109627053141594, 0.012541025876998901, 0.07709561288356781, 0.017652684822678566, 0.06878232955932617, -0.015224393457174301, -0.027510588988661766, -0.05144824832677841, 0.010301151312887669, 0.0005916120717301965, 0.018738264217972755, 0.020981524139642715, -0.022800378501415253, 0.034088294953107834, 0.010468507185578346, -0.05837106704711914, 0.016057515516877174, 0.013734465464949608, -0.08651646971702576, -0.03836799040436745, 0.08509105443954468, 0.009304909966886044, -0.05468127876520157, 0.02454129233956337, 0.032357510179281235, -0.016713880002498627, 0.017919709905982018, -0.010622513480484486, 0.027027184143662453, -0.014895614236593246, 0.014923617243766785, 0.10891138762235641, -0.08382346481084824, -0.08208043873310089, 0.02872929908335209, -0.02180987037718296, 0.03406880423426628, 0.03375162184238434, -0.00031428103102371097, 0.027721568942070007, 0.018491946160793304, 0.0019611408933997154, 0.02199256233870983, 0.02665594406425953, -0.04827234894037247, -0.01012621819972992, -0.02044665813446045, -0.05545428767800331, -0.03357398137450218, -0.03652369976043701, -0.08518093824386597, -0.0051254755817353725, -0.028021426871418953, 0.030552126467227936, -0.005951457656919956, 0.020163433626294136, -0.002767442259937525, 0.0005163024761714041, 0.045360080897808075, 0.012400423176586628, 0.010742966085672379, -0.07590267062187195, 0.041659895330667496, 0.0033220245968550444, -0.014794505201280117, 0.015630336478352547, 0.041085343807935715, 0.024341009557247162, -0.01851043663918972, 0.06454961746931076, 0.0031233716290444136, 0.021137457340955734, 0.04479066655039787, 0.06129860877990723, 0.06961879134178162, -0.014801633544266224, 0.015658188611268997, 0.005502049811184406, 0.1241764947772026, -0.007063096854835749, -0.32027971744537354, 0.04134265333414078, 0.03348980471491814, -0.05100277066230774, -0.046745698899030685, 0.024542273953557014, 0.07603351026773453, 0.041630711406469345, -0.038428954780101776, 0.07163302600383759, 0.07825352251529694, 0.008281019516289234, 0.042905598878860474, -0.05916595458984375, -0.03880903124809265, 0.0324769988656044, -0.0037354344967752695, 0.005598105024546385, -0.018595218658447266, 0.011182992719113827, -0.0023245783522725105, 0.032801996916532516, 0.036892298609018326, -0.09009843319654465, 0.019317517057061195, -0.00139601097907871, 0.15925589203834534, -0.04757305607199669, -0.009216868318617344, -0.06755433976650238, -0.018472149968147278, 0.08258062601089478, -0.058751076459884644, -0.10169211775064468, 0.06014410778880119, -0.028959199786186218, 0.018688002601265907, 0.03358735144138336, 0.03034129925072193, 0.00214231014251709, -0.0022266812156885862, 0.06535892933607101, 0.01179133728146553, -0.046328864991664886, 0.046340763568878174, -0.05376666039228439, -0.03617527708411217, 0.02354605495929718, -0.09708309173583984, -0.005325855687260628, 0.0019629651214927435, -0.018223531544208527, 0.0713358074426651, 0.05214855447411537, -0.019286613911390305, 0.013706628233194351, -0.05227632448077202, 0.06129380315542221, -0.03381059318780899, 0.025525031611323357, 0.016545461490750313, -0.0309571735560894, 0.013768301345407963, -0.05497118830680847, 0.06312525272369385, -0.04688490554690361, -0.027425050735473633, 0.006769851315766573, 0.06480769068002701, 0.010297968983650208, -0.06916611641645432, 0.03669591620564461, 0.026311874389648438, -0.01173199899494648, -0.011204945854842663, -0.02100061997771263, -0.019076047465205193, -0.04348223656415939, -0.02568100206553936, -0.04853520542383194, -0.012446006760001183, 0.0022903471253812313, 0.042668361216783524, 0.06284205615520477, 0.027964482083916664, 0.05286219343543053, -0.022037381306290627, 0.01589963585138321, 0.0694923996925354, 0.010744883678853512, -0.02488119713962078, -0.0024284846149384975, -0.02706165239214897, 0.007333145942538977, 0.12187893688678741, 5.1573511882452294e-05, -0.23002144694328308, -0.008721336722373962, 0.0545637309551239, 0.021666208282113075, 0.004566485993564129, 0.07816975563764572, 0.027969874441623688, -0.03800854831933975, -0.03788801655173302, -0.04774467274546623, 0.019570350646972656, -0.03912654146552086, -0.014154422096908092, -0.024740828201174736, 0.038451120257377625, 0.056746091693639755, 0.05540868639945984, -0.042633283883333206, 0.001778189791366458, -0.03644195571541786, -0.0009301400277763605, 0.08901726454496384, 0.11312859505414963, -0.005853744689375162, -0.054591596126556396, -0.015047256834805012, -0.056928474456071854, -0.050446946173906326, 0.05198181793093681, -0.006810567807406187, -0.08208150416612625, -0.011287764646112919, 0.08050565421581268, 0.005596802104264498, -0.04727683961391449, -0.018544860184192657, 0.04009638726711273, -0.03682410717010498, 0.008293535560369492, -0.02369173802435398, 0.0034530030097812414, -0.013162815943360329, 0.0015786964213475585, -0.05305219441652298, 0.002641590777784586, 0.006078412290662527, 0.03368193656206131, -0.08876987546682358, 0.004376068711280823, -0.0007443472277373075, -0.005760017316788435, -0.04797516390681267, 0.039330679923295975, 0.05171378701925278, 0.010544727556407452, 0.082815982401371, -0.008410627953708172, -0.04122088849544525, -0.017210984602570534, -0.051627788692712784, 0.006848471239209175, -0.0651138573884964, 0.03982701152563095, 0.030357055366039276, 0.00967116467654705]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>issues_with_landline_service_quality</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Everything from service to plans\nReason for given NPS: Failed on 2 occasions, both related to landline.\nPlus mobile data still get used rather then the home wi fi.', 'Improvement needed: Customer service with the ability to talk to someone that does not have English as a second language. This is not racist, just that you have customers that are elderly with reduced capacity to process dialects that are spoken quickly. This opinion is backed up by most residents in my retirement village and therefore not an isolated incident.\nReason for given NPS: My landline was disconnected  for an unknown reason and it took 12 days for you to fix it. Also after sending a reply text to a service person it was not replied to. This happened twice. Asked to speak to an technician or manager that speaks English as a first language and was refused.']</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[-0.025338927283883095, -0.03122476488351822, 0.03171105310320854, -0.02640189230442047, -0.03901692479848862, -0.03670014813542366, -0.04113294184207916, 0.04599558562040329, -0.006868449971079826, -0.024556728079915047, 0.010888668708503246, 0.039247024804353714, 0.018917378038167953, -0.00439442927017808, 0.04774618521332741, 0.01474773045629263, 0.09027397632598877, -0.013639124110341072, -0.010639793239533901, 0.032501693814992905, 0.041960712522268295, -0.030127516016364098, -0.012449918314814568, 0.039456695318222046, -0.004537646658718586, 0.026172412559390068, -0.07186777144670486, -0.048029545694589615, -0.06153007969260216, -0.14122338593006134, -0.03569737449288368, -0.007391090039163828, 0.023934269323945045, 0.00019987343694083393, 0.06283274292945862, -0.0081106498837471, 0.03029552847146988, 0.004448952618986368, 0.05204104632139206, 0.049513887614011765, 0.026188798248767853, 0.004627683199942112, -0.003656887449324131, -0.031138064339756966, -0.07937509566545486, -0.09991834312677383, 0.06606725603342056, 0.014157845638692379, 0.06136981397867203, -0.026866251602768898, -0.02495839260518551, 0.06997757405042648, -0.03027372434735298, 0.03153299540281296, -0.00574816670268774, 0.0819827988743782, 0.05706480145454407, 0.054278936237096786, 0.055375419557094574, 0.005331071559339762, 0.05163274705410004, -0.03539206460118294, -0.1584065705537796, 0.07177486270666122, 0.014210723340511322, -0.013959962874650955, 0.0195118747651577, -0.024743251502513885, -0.06659510731697083, -0.046573273837566376, -0.04276344180107117, 0.022322090342640877, 0.008774635381996632, 0.12417273968458176, 0.05256672948598862, 0.04842832684516907, -0.05379878729581833, 0.004980242811143398, 0.01374776754528284, 0.054692354053258896, -0.014220928773283958, -0.053150177001953125, 0.009606662206351757, 0.038906872272491455, -0.013013451360166073, -0.05555376410484314, 0.010755589231848717, 0.03252187743782997, -0.011522457003593445, 0.005303083918988705, 0.017988864332437515, 0.0007039859774522483, 0.014843697659671307, 0.05295056849718094, -0.07664048671722412, -0.018859144300222397, -0.03539963439106941, -0.07608261704444885, -0.13221997022628784, 0.30132099986076355, -0.0075243632309138775, 0.004371045157313347, -0.009244992397725582, 0.009010436944663525, 0.006741206627339125, -0.06360775232315063, -0.034636739641427994, -0.02941295877099037, -0.005887222476303577, 0.04369896277785301, 0.004319385159760714, -0.04048144817352295, -0.002419866621494293, -0.0069955443032085896, -0.004205876495689154, 0.015854166820645332, 0.01658548414707184, -0.05770040303468704, -0.04912619665265083, 0.021254153922200203, -0.037302762269973755, 0.0218538548797369, 0.001933066756464541, -0.054711952805519104, 0.011644948273897171, 0.03476165235042572, 0.04226665943861008, 0.11871358007192612, -0.029623083770275116, 0.019940868020057678, 0.00443354481831193, 0.01743563450872898, -0.05219358578324318, 0.011312199756503105, -0.010132098570466042, 0.0013247178867459297, 0.053060002624988556, 0.07100881636142731, 0.0014009649166837335, 0.03244492784142494, -0.0344783216714859, -0.11705648899078369, -0.07012230157852173, -0.012316129170358181, -0.00877982284873724, 0.0808028057217598, -0.07088801264762878, 0.09196586906909943, -0.02462485432624817, -0.01406366378068924, -0.03610658273100853, 0.020618127658963203, 0.030019957572221756, 0.005665572825819254, 0.023637957870960236, 0.02157399244606495, 0.0074587054550647736, -0.039322108030319214, 0.0010772516252472997, 0.027952279895544052, 0.05470167100429535, -0.004379468970000744, -0.054015763103961945, 0.06639374047517776, -0.010919761843979359, -0.042798954993486404, -0.08014064282178879, -0.0398186556994915, -0.058336276561021805, 0.04048624634742737, -0.0162651464343071, -0.010681090876460075, 0.02899286523461342, 0.017038945108652115, -0.02510090358555317, -0.03715633600950241, -0.03212430328130722, 0.05398593097925186, -0.023902397602796555, -0.02177346870303154, 0.024337951093912125, 0.03481214866042137, -0.0022556018084287643, 0.04842131957411766, 0.06499826908111572, -0.06398559361696243, -0.0336952731013298, -0.025227421894669533, 0.0606602281332016, -0.03780960664153099, -0.10367053002119064, -0.08030172437429428, -0.0312875434756279, -0.07110990583896637, -0.011541100218892097, -0.013330534100532532, 0.007684985641390085, -0.00046491139801219106, 0.06318352371454239, 0.0045554800890386105, 0.11264263838529587, 0.0101419473066926, -0.04712778329849243, -0.014856744557619095, -0.006718254182487726, 0.07078208774328232, -0.011264702305197716, 0.00591411953791976, 0.007282095495611429, 0.05128104239702225, -0.018208034336566925, -0.012808320112526417, 0.10467942804098129, 0.02078847773373127, -0.042504146695137024, -0.01871671713888645, -0.007855326868593693, 0.02083156816661358, 0.025010621175169945, 0.07354535162448883, -0.03387530893087387, 0.08479135483503342, -0.02334451675415039, -0.3198508024215698, 0.0026237047277390957, -0.005237352568656206, -0.05878908187150955, -0.056482695043087006, 0.07405342906713486, 0.0034529813565313816, 0.03889070451259613, 0.02073207125067711, 0.0650814101099968, 0.0738135427236557, 0.02634783275425434, 0.020360218361020088, -0.01694445125758648, -0.037647418677806854, -0.019477801397442818, -0.027495412155985832, 0.03749048709869385, -0.031255874782800674, -0.009025448933243752, -0.027631651610136032, 0.004167573526501656, 0.0010230176849290729, -0.10073186457157135, 0.02217678725719452, -0.018474336713552475, 0.13043348491191864, -0.045839935541152954, -0.02139705792069435, -0.052067216485738754, 0.04803483188152313, 0.04101929813623428, -0.018608493730425835, -0.06529221683740616, 0.07538861036300659, 0.022050917148590088, 0.04009914770722389, 0.08701232075691223, 0.02765630930662155, -0.030956242233514786, -0.018202129751443863, 0.035689134150743484, 0.016624240204691887, -0.0029295647982507944, -0.02640797384083271, -0.03719431534409523, -0.015585397370159626, 0.02808551862835884, -0.08582818508148193, -0.03844304755330086, 0.002331784926354885, -0.03084912709891796, 0.03493303805589676, -0.014740420505404472, 0.037565622478723526, -5.7726818340597674e-05, -0.03419727087020874, 0.0236763097345829, 0.003324579680338502, -0.025748956948518753, 0.034991055727005005, 0.0056615895591676235, 0.06151009351015091, -0.06134803593158722, 0.07866117358207703, -0.0012755402131006122, 0.014667002484202385, 0.030321164056658745, 0.013984259217977524, 0.030333664268255234, 0.02746637538075447, 0.01767466776072979, -0.05079931020736694, 0.014398797415196896, -0.018208185210824013, 0.018928760662674904, -0.017537983134388924, -0.017876775935292244, -0.008401949889957905, -0.1325080394744873, 0.08039501309394836, -0.005958137102425098, 0.04162777587771416, -0.03740311041474342, 0.004545525182038546, -0.04036053642630577, 0.002367588924244046, 0.059857115149497986, 0.04662151634693146, -0.034367550164461136, -0.007289379835128784, 0.03894021734595299, -0.022906005382537842, 0.02357161045074463, 0.1415698230266571, 0.0054696956649422646, -0.2084396779537201, -0.012398048304021358, -0.01255117543041706, -0.04510650411248207, -0.02770049124956131, 0.058109063655138016, -0.02178426831960678, 0.04296064376831055, -0.09388452023267746, -0.023074256256222725, 0.0011347283143550158, -0.0022033522836863995, -0.028122572228312492, -0.06899382919073105, 0.04529394581913948, 0.04386371746659279, -0.014762511476874352, -0.07003651559352875, -0.005969897378236055, -0.03439868614077568, 0.04041891172528267, 0.024951184168457985, 0.10453017801046371, -0.01797179877758026, -0.01767086423933506, 0.0067394268698990345, -0.0006908726063556969, -0.004372211638838053, 0.0523359589278698, -0.01858130469918251, -0.017266999930143356, 0.019376125186681747, 0.08972956985235214, 0.014312113635241985, 0.01513847429305315, 0.005691405851393938, 0.041130173951387405, -0.05487014725804329, -0.023752331733703613, -0.014240238815546036, -0.05039450526237488, 0.0711253210902214, 0.013865296728909016, 0.03319769725203514, 0.034762296825647354, -0.017513636499643326, -0.01293997373431921, 0.03264639899134636, 0.04173082485795021, 0.0021167860832065344, -0.032569147646427155, -0.08323489874601364, 0.038526423275470734, -0.003735193284228444, 0.009163205511868, 0.02075660042464733, -0.027735276147723198, 0.005475446581840515, -0.02657116949558258, 0.023871522396802902, 0.04658309370279312, -0.07707403600215912, 0.05037238076329231, 0.003099573776125908, -0.002788947429507971]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>needs_assistance_comparing_plans</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Check on our plan and call us if you see a better option available within One NZ\nReason for given NPS: It works well for broadband and mobile for wife and I in NZ and overseas', 'Improvement needed: Be proactive in managing accounts, setup yearly reviews or make it easy to do it myself online.\n\nGenerally I can save money when I get someone on the phone but it’s at my behest and not something I can just check online.\nReason for given NPS: I have no major issues when everything is working (which it generally is) but when things change the back end systems can be unforgiving and can be frustrating to fix.']</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[-0.04703480750322342, -0.09050524234771729, 0.011740191839635372, -0.008404131978750229, 0.0032513649202883244, 0.009733479470014572, -0.03166569024324417, 0.06450628489255905, -0.038422491401433945, -0.03565794602036476, -0.0209078136831522, 0.015020453371107578, 0.030773131176829338, 0.023858359083533287, 0.03750288859009743, -0.0020129322074353695, -0.00022045914374757558, 0.024326199665665627, -0.03143560141324997, 0.0526035837829113, 0.05202518403530121, 0.014413632452487946, -0.05225864425301552, 0.010073632933199406, -0.010725460015237331, 0.0009615894523449242, -0.0004918802296742797, -0.006432294845581055, -0.02625236287713051, -0.1030900850892067, 0.025352295488119125, -0.01938515156507492, -0.002958559663966298, -0.04400697723031044, 0.02724173292517662, 0.027260031551122665, -0.000791676458902657, 0.028186490759253502, 0.006946560926735401, 0.03471583127975464, 0.006983950734138489, 0.029049817472696304, -0.05563746765255928, 0.0048602125607430935, -0.03564528375864029, -0.03465725854039192, -0.01986839435994625, 0.017232248559594154, -0.01377218309789896, -0.03164150193333626, 0.040401604026556015, -0.07904146611690521, -0.033491164445877075, -0.03220316767692566, 0.0444008931517601, 0.052964694797992706, 0.050305627286434174, 0.03729826584458351, 0.04558764398097992, 0.03590771183371544, 0.03817274793982506, 0.0045736003667116165, -0.17974111437797546, 0.029992595314979553, 0.026743726804852486, 0.013533181510865688, 0.000108289961644914, -0.03523503243923187, 0.021677488461136818, 0.03461994230747223, -0.02427416853606701, -0.04049808159470558, 0.02729474939405918, 0.09206069260835648, 0.00013581200619228184, -0.007263308856636286, 0.013993524946272373, 0.001647955272346735, 0.022013431414961815, -0.018306350335478783, -0.030756855383515358, 0.029112065210938454, -0.05717720463871956, -0.025598635897040367, 0.027684250846505165, -0.024071453139185905, -0.015912124887108803, 0.038562025874853134, 0.07100149244070053, -0.014611410908401012, 0.013235046528279781, -0.014922959730029106, -0.0030903287697583437, 0.02898024395108223, -0.01782648265361786, -0.022204609587788582, 0.010301835834980011, -0.019736848771572113, -0.11513995379209518, 0.40385064482688904, 0.044941533356904984, 0.015273005701601505, 0.018038569018244743, -0.008966764435172081, 0.011984501034021378, -0.051868945360183716, -0.04983566701412201, -0.042777400463819504, 0.021411750465631485, -0.03026486746966839, -0.041446834802627563, -0.06291371583938599, 0.0022440007887780666, -0.0008707336965017021, 0.006970447488129139, 0.06669284403324127, 0.06166030839085579, -0.04948724806308746, 0.019846096634864807, -0.030723711475729942, -0.014612024649977684, -0.03895040974020958, 0.01891355961561203, 0.012061350978910923, -0.0482754148542881, -0.03829300403594971, 0.009998162277042866, 0.07356872409582138, -0.00455658370628953, 0.029548168182373047, 0.058860909193754196, -0.018773311749100685, -0.021727275103330612, -0.014438627287745476, -0.0785486176609993, -0.025012182071805, 0.019070038571953773, -0.008247354999184608, 0.024493632838129997, 0.02013670839369297, 0.024981588125228882, -0.054136428982019424, -0.0029844960663467646, -0.11242012679576874, -0.039203133434057236, 0.12202098965644836, -0.10572630912065506, 0.061647046357393265, -0.0050691720098257065, -0.0998130515217781, -0.011820681393146515, -0.027123870328068733, 0.02757451869547367, -0.08160393685102463, -0.03381412848830223, 0.02322503551840782, -0.011098984628915787, -0.024771595373749733, 0.026606837287545204, 0.01554227713495493, 0.08953583985567093, -0.06529408693313599, -0.09203992784023285, 0.051706522703170776, -0.002106685424223542, -0.06241418421268463, -0.056169211864471436, -0.03235052898526192, -0.025028135627508163, -0.005145236384123564, -0.0016636663349345326, 0.014370553195476532, -0.004478107672184706, 0.009247702546417713, 0.09943573921918869, -0.003054284257814288, -0.03673760965466499, 0.04012486711144447, 0.009106512181460857, 0.0071572414599359035, 0.02304801717400551, -0.0036990304943174124, -0.03817266225814819, 0.006399032659828663, -0.00047746719792485237, -0.020341970026493073, 0.005061869043856859, -0.02155289798974991, 0.0512332059442997, -0.012817198410630226, -0.03594721481204033, -0.06498483568429947, 0.010625425726175308, 0.00502174673601985, -0.03433094918727875, 0.002293843310326338, -0.029324881732463837, -0.022029688581824303, -0.004023438319563866, 0.0025689934846013784, 0.06423734128475189, -0.01137700304389, -0.012858393602073193, 0.04817292094230652, -0.046827662736177444, -0.002260496374219656, -0.015277156606316566, -0.004790998995304108, 0.10361525416374207, 0.028781447559595108, -0.02879025787115097, -0.009875589050352573, 0.06212533265352249, 0.016156252473592758, -0.02211874909698963, 0.039587635546922684, -0.0004663876898121089, 0.017415141686797142, 0.03725684806704521, 0.08761239796876907, 0.01971394754946232, 0.07293212413787842, 0.08091132342815399, -0.31301283836364746, -0.002646988956257701, -0.05772354453802109, 0.04706043004989624, -0.06787616014480591, -0.01555231586098671, 0.027220072224736214, -0.018047040328383446, -0.1032276451587677, 0.12236860394477844, 0.02734910324215889, -0.04484736546874046, 0.027289818972349167, 0.02431410178542137, 0.014992645010352135, -0.01586269773542881, -0.009356006979942322, -0.00691180769354105, -0.0028888732194900513, -0.0009680898510850966, 0.006133523304015398, -0.005666453391313553, 0.033446669578552246, -0.045241035521030426, 0.031051786616444588, 0.02010650560259819, 0.1928854137659073, -0.013996150344610214, -0.00882493332028389, -0.03873675316572189, -0.009119991213083267, 0.0722983330488205, -0.060741592198610306, -0.08477609604597092, 0.010028031654655933, 0.01790696196258068, -0.04411337152123451, -0.023269303143024445, 0.051658812910318375, -0.0384281761944294, 0.009855846874415874, 0.06927868723869324, -0.033046070486307144, -0.01832924783229828, -0.049569662660360336, -0.07482036203145981, 0.013572799041867256, 0.02474791556596756, -0.02302941307425499, 0.05158214643597603, -0.019906822592020035, -0.02740904502570629, -0.026479771360754967, 0.007010729052126408, 0.05270327255129814, 0.021922456100583076, -0.09145443886518478, -0.024800213053822517, -0.008637309074401855, 0.01788420043885708, 0.0038770604878664017, -0.005441016983240843, 0.045926567167043686, -0.007224920205771923, 0.04991695284843445, 0.008403236046433449, -0.008571880869567394, -0.001041113631799817, -0.00861376989632845, 0.04691833257675171, -0.011722072027623653, -0.03615029901266098, -0.0033349983859807253, 0.03111143782734871, -0.021971484646201134, 0.018822787329554558, 0.005840765777975321, -0.001305698766373098, 0.0052172522991895676, -0.01769331470131874, 0.008125828579068184, -0.022038672119379044, 0.013608199544250965, -0.009072951972484589, 0.017222935333848, 0.050908412784338, -0.0028737469110637903, 0.04079881310462952, 0.03151405230164528, 0.011098007671535015, 0.016788676381111145, -0.017236316576600075, 0.003946766722947359, -0.006698244716972113, 0.07135527580976486, 0.009403134696185589, -0.23873768746852875, 0.04078849405050278, 0.000640873855445534, -0.025743721053004265, -0.037667643278837204, 0.022501032799482346, 0.03247774392366409, 0.019892176613211632, -0.016235291957855225, -0.03092004358768463, 0.03179318830370903, 0.05403720960021019, -0.026776406913995743, -0.005877184681594372, -0.018106117844581604, -0.0005524821463041008, 0.09108225256204605, -0.0427698940038681, -0.02262030728161335, -0.038766346871852875, 0.03529391810297966, 0.014789042063057423, 0.1840805560350418, -0.03368089720606804, -0.0453822985291481, -0.03709238022565842, 0.04332251101732254, -0.027137955650687218, 0.08823272585868835, 0.00895727425813675, -0.02452498860657215, -0.010126516222953796, 0.0635000616312027, 0.011461100541055202, 0.036988433450460434, 0.07481679320335388, 0.0009500389569438994, 0.03193720057606697, -0.00014087281306274235, 0.005063613411039114, -0.06372114270925522, -0.006500803865492344, 0.007715325802564621, 0.004135656636208296, 0.11263512820005417, 0.024412976577878, -0.011360075324773788, -0.014199474826455116, -0.038808126002550125, -0.03485561162233353, -0.04853028804063797, -0.004777432885020971, -0.029263503849506378, 0.019945459440350533, 0.03472539037466049, 0.004409730434417725, -0.023173270747065544, 0.019572939723730087, -0.03139011561870575, -0.02061176672577858, 0.019602395594120026, 0.012722729705274105, 0.08440177142620087, 0.011588710360229015, -0.023335617035627365]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>poor_handover_of_customer_information</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Communication between stores and online services. Also between chat and all of them, thw fact ypu don't keep notes on clients file is rather appalling also. \nHave spoken to 4 different people since signing up 3 weeks ago and each one has given me different information each time regarding the same matter.\nReason for given NPS: Had nothing but a muck around with you guys, I've switched over to a pay monthly plan. Was told by chat to human that I can go pick up phone from closest store just to wait for a confirmation email. Haven't had a email let alone heard from anyone. Spoke to chat again today and was given different information again. Most displeased.", 'Improvement needed: Better call centre - making sure not transferred around various groups.\nReason for given NPS: Works well - no complaints!']</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[0.011075092479586601, -0.059397418051958084, 0.015731651335954666, -0.0011020037345588207, 0.015981297940015793, -0.07586320489645004, 0.0046347351744771, -0.0047345152124762535, 0.05660077929496765, -0.014425920322537422, 0.001171364332549274, 0.032822005450725555, 0.048328742384910583, -0.0446440614759922, 0.03604455664753914, -0.00346528016962111, 0.034514378756284714, -0.06972038745880127, -0.07386476546525955, 0.01015817653387785, 0.0523817352950573, -0.023648779839277267, -0.038350652903318405, 0.053726959973573685, 0.021243931725621223, -0.0028910895343869925, -0.03188319131731987, -0.018093708902597427, -0.09916497021913528, -0.10758169740438461, -0.009253064170479774, 0.04875747486948967, -0.02340342104434967, 0.05333114415407181, 0.08775907754898071, -0.02010483294725418, -0.02612225152552128, -0.00951110478490591, -0.019131606444716454, 0.040579792112112045, 0.01544734463095665, 0.02276737429201603, -0.02859310619533062, 0.0197211392223835, 0.03322683647274971, -0.024454250931739807, 0.0027444001752883196, 0.013574124313890934, 0.07231330126523972, -0.051203805953264236, -0.004592539742588997, 0.06147223338484764, -0.01561360526829958, 0.001084042014554143, 0.03579956665635109, 0.06289983540773392, 0.029888061806559563, 0.006850210018455982, 0.021344659850001335, 0.042506299912929535, 0.022270062938332558, 0.018770059570670128, -0.1665976196527481, 0.026093045249581337, -0.038743168115615845, 0.005569479428231716, 0.02557322010397911, -0.022969242185354233, -0.03004823438823223, -0.007793964818120003, -0.039660174399614334, -0.07369379699230194, -0.02978653833270073, 0.06323200464248657, 0.010905918665230274, 0.041677363216876984, -0.0437503457069397, 0.004611575976014137, 0.020541662350296974, 0.016212094575166702, 0.007119183894246817, -0.044938091188669205, 0.004395348485559225, 0.020440369844436646, -0.012026025913655758, -0.05580560117959976, 0.015875600278377533, 0.001660483074374497, 0.004413291811943054, -0.030187416821718216, 0.0028334360104054213, -0.02559540420770645, 0.057729706168174744, 0.04323340579867363, -0.07841337472200394, -0.017799705266952515, 0.008707921020686626, 0.028735613450407982, -0.11362049728631973, 0.360845685005188, -0.008263746276497841, 0.04848939925432205, -0.002497683744877577, -0.023062821477651596, 0.02645736001431942, -0.07226431369781494, -0.01137732993811369, 0.011900709941983223, -0.008687958121299744, -0.03547864779829979, -0.051940515637397766, -0.051984965801239014, -0.01887541078031063, -0.05217886343598366, 0.07335728406906128, 0.05143900215625763, -0.0059573897160589695, 0.011245070956647396, 0.0015339686069637537, 0.03076881542801857, -0.02703144960105419, -0.015954140573740005, 0.052048537880182266, 0.041574906557798386, -0.02957228757441044, 0.009128847159445286, 0.00904402881860733, 0.07250305265188217, -0.04204219952225685, 0.07554082572460175, 0.03252648189663887, -0.015176579356193542, -0.030402902513742447, -0.04193505644798279, -0.004321616142988205, -0.002892889780923724, -0.004363056737929583, 0.025975793600082397, 0.04914172366261482, 0.020455144345760345, -0.007851745001971722, -0.10556791722774506, -0.05082332715392113, -0.021579788997769356, -0.013727180659770966, 0.11127573996782303, 0.0023211557418107986, 0.049077898263931274, 0.03462019935250282, -0.037959687411785126, 0.0049549913965165615, 0.023802433162927628, 0.046451907604932785, -0.05113856494426727, -0.025999272242188454, -0.001809124369174242, 0.043379299342632294, 0.0023874894250184298, -0.0015332812909036875, 0.02939559333026409, 0.0948675125837326, -0.0863850861787796, -0.028562253341078758, 0.05670200660824776, 0.023194370791316032, -0.08294963836669922, 0.009771743789315224, 0.0502726249396801, -0.029663220047950745, 0.013313713483512402, -0.03247963637113571, -0.019278869032859802, -0.03115972690284252, 0.03714680299162865, 0.09250485152006149, -0.05452197417616844, -0.0021065264008939266, 0.0029203216545283794, -0.04155537858605385, -0.00886126421391964, -0.007744431961327791, -0.022858263924717903, -0.012879571877419949, -0.012414581142365932, 0.03092901222407818, 0.014805040322244167, -0.020509742200374603, -0.016036979854106903, 0.03515210002660751, -0.018573138862848282, -0.10613951086997986, -0.047441516071558, -0.03654538840055466, -0.04771285876631737, -0.05007403343915939, -0.021251283586025238, -0.028888361528515816, 0.0008100935374386609, 0.044990986585617065, -0.015301160514354706, 0.035756293684244156, 0.0596311055123806, -0.09542647749185562, 0.01094246655702591, -0.07879436761140823, 0.08163098990917206, 0.014784077182412148, -0.03687369450926781, 0.011801867745816708, 0.003208664944395423, 0.011076576076447964, -0.005851810798048973, 0.0724848061800003, 0.009410100989043713, -0.0049156928434967995, -0.0250629223883152, 0.024330122396349907, 0.04134397953748703, 0.022626807913184166, -0.0019459632458165288, -0.015670785680413246, 0.07369064539670944, 0.04013419523835182, -0.31795164942741394, 0.053165242075920105, 0.0035323267802596092, -0.030340947210788727, -0.09457537531852722, -0.012303554452955723, 0.03573272377252579, -0.004835661966353655, 0.04993784427642822, 0.0914350301027298, 0.06769667565822601, -0.002071351045742631, 0.01857265643775463, 0.004548957105726004, -0.02406543493270874, -0.006376161240041256, 0.027790619060397148, 0.08138611912727356, -0.017516784369945526, -0.018265893682837486, -0.02508508414030075, 0.04469660669565201, 0.044562648981809616, -0.04193255677819252, 0.03515005484223366, -0.01958887279033661, 0.17261888086795807, -0.037372514605522156, -0.03747440502047539, -0.010532713495194912, 0.029039839282631874, 0.09077036380767822, -0.012682870030403137, -0.053882550448179245, 0.03146570920944214, -0.01577259600162506, -0.011235775426030159, 0.034233082085847855, -0.00026896173949353397, -0.060854289680719376, -0.016692928969860077, -0.0018034036038443446, 0.0103430962190032, -0.07834584265947342, 0.04180913791060448, -0.01582622528076172, -0.0353640578687191, 0.03512950614094734, -0.07399772107601166, 0.040090542286634445, 0.024613408371806145, 0.012021742761135101, 0.006036172620952129, 0.0743400976061821, 0.03934429585933685, -0.010723494924604893, -0.02673005312681198, 0.06260411441326141, -0.009054656140506268, 0.06383336335420609, 0.01260418351739645, -0.02711881510913372, 0.032935138791799545, -0.05106952041387558, 0.017726831138134003, -0.018065491691231728, -0.010605520568788052, 0.02300387993454933, 0.01809008978307247, 0.03396807983517647, -0.029585598036646843, 0.06246824562549591, 0.01450180634856224, 0.027180064469575882, -0.05918183550238609, 0.01724766194820404, -0.02200639434158802, -0.010942548513412476, -0.0320013202726841, -0.07245142012834549, -0.0038916650228202343, 0.04342494159936905, 0.07134152948856354, -0.0014215135015547276, -0.038736604154109955, 0.01451900415122509, 0.04523923993110657, 0.055943191051483154, -0.009452405385673046, -0.030159855261445045, -0.035096630454063416, 0.007678310852497816, -0.05185173451900482, 0.016736967489123344, 0.10119415819644928, 0.00476941280066967, -0.24431666731834412, 0.024093104526400566, -0.02487664297223091, 0.017986256629228592, 0.010634630918502808, 0.06696461886167526, 0.006147097330540419, 0.021723594516515732, -0.04807620868086815, -0.017501350492239, 0.018103674054145813, -0.024780306965112686, -0.021682946011424065, -0.017384754493832588, 0.044827900826931, 0.022571532055735588, 0.036962978541851044, 0.007097452878952026, -0.06878818571567535, -0.05297265946865082, -0.00852169655263424, 0.02497105300426483, 0.14460761845111847, 0.07123193889856339, -0.057515475898981094, 0.009387598372995853, -0.0018520877929404378, -0.011491511948406696, -0.018239745870232582, 0.026158640161156654, -0.06024749204516411, -0.005747799761593342, 0.08895132690668106, -0.007046790793538094, -0.03173542022705078, 0.007174008991569281, 0.019323432818055153, -0.12927892804145813, 0.01029051560908556, -0.0116221709176898, -0.02059043198823929, -0.029709098860621452, 0.015222669579088688, -0.034742847084999084, 0.06655222922563553, -0.003991980105638504, -0.010461384430527687, -0.025057202205061913, 0.06077350303530693, -0.0017470570746809244, -0.05948447063565254, -0.09480473399162292, -0.01963500864803791, 0.0236703772097826, 0.0628371387720108, 0.0143283661454916, -0.043373361229896545, -0.020551446825265884, -0.016656190156936646, 0.003889533458277583, 0.03949270397424698, -0.039867300540208817, 0.004643441643565893, -0.030667057260870934, 0.032807692885398865]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>annoying_surveys_unwanted_questionnaires</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Don't send annoying questionaires\n", 'Improvement needed: even shorter waiting times on the phone when I have a problem and no advertising while I am waiting.\nReason for given NPS: You have been all right for me. If I have a problem I have managed to get  through to you with not too long a waiting time, although I wouldnt mind that to shorten. My last issue was resolved quite fast. My plan is ok for now, so you are doing ok for me at the moment.']</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[0.034841954708099365, 0.045492492616176605, 0.025333305820822716, 0.014349482953548431, 0.06547314673662186, -0.03132041543722153, 0.012163640931248665, -0.00574851967394352, 0.040059901773929596, 0.03946207836270332, 0.04765349254012108, 0.015828732401132584, 0.02342147007584572, 0.006686193402856588, 0.029123201966285706, 0.0380975641310215, 0.03822139650583267, -0.021781573072075844, 0.0036769562866538763, 0.04038795828819275, 0.00460425578057766, -0.0018879263661801815, 0.05089781433343887, -0.008274484425783157, -0.009398739784955978, 0.0025493837893009186, -0.020061615854501724, -0.04532359540462494, -0.08670903742313385, -0.10788865387439728, 0.01000614371150732, -0.04131874069571495, 0.04737158119678497, -0.033624984323978424, 0.00879758782684803, 0.003279072465375066, -0.010002188384532928, 0.008435321040451527, 0.013743744231760502, 0.033343128859996796, -0.0017326396191492677, -0.005310939624905586, -0.02575390227138996, -0.051759205758571625, -0.014373444020748138, -0.061069440096616745, -0.03877125680446625, -0.06994737684726715, 0.04427552595734596, 0.004597799852490425, -0.04317481815814972, -0.03474697098135948, -0.041002094745635986, 0.01029715221375227, 0.030828142538666725, -0.018367953598499298, 0.04893043264746666, -0.032429106533527374, -0.016731329262256622, 0.040540218353271484, 0.03880993276834488, -0.005452923476696014, -0.06752842664718628, 0.04660356417298317, 0.004277834203094244, 0.022443003952503204, -0.004936850164085627, -0.04069957509636879, -0.049936991184949875, 0.009244360029697418, -0.03589493781328201, -0.044258929789066315, -0.05409225448966026, 0.06862666457891464, 0.0472501739859581, 0.033590786159038544, -0.052717581391334534, 0.0020920149981975555, -0.005283056292682886, 0.012590087950229645, -0.04725177213549614, -0.0006007952615618706, -0.007080791983753443, -0.011291270144283772, 0.043847206979990005, -0.08523167669773102, 0.029685234650969505, 0.05050787329673767, 0.07833688706159592, 0.00545129319652915, 0.02680923417210579, -0.07900267094373703, 0.0002252094418508932, 0.06860434263944626, -0.01198106724768877, -0.0521792471408844, 0.021917907521128654, -0.010813949629664421, -0.0860106498003006, 0.3608182966709137, -0.034034427255392075, 0.04892750829458237, 0.008245841600000858, -0.03217390552163124, -0.011282960884273052, -0.016950877383351326, -0.007194998674094677, -0.029374925419688225, -0.03809439390897751, 0.01876007951796055, 0.02325396239757538, -0.0334635004401207, 0.045040782541036606, -0.04917306452989578, -0.017549213021993637, -0.007065413054078817, 0.036949142813682556, 0.02138597145676613, 0.020611565560102463, -0.042620059102773666, -0.03795884549617767, 0.01341976784169674, 0.08383254706859589, -0.02039305865764618, 0.04316568374633789, 0.023707015439867973, -0.012511663138866425, 0.10742820054292679, 0.015649298205971718, 0.0029312053229659796, 0.01665826141834259, -0.058384545147418976, -0.07106856256723404, 0.01508126687258482, -0.05030762404203415, -0.011365742422640324, -0.03106709010899067, 0.020811161026358604, 0.09131863713264465, -0.003394683822989464, 0.015917405486106873, -0.06644655019044876, -0.04463622346520424, -0.06973498314619064, -0.02761979028582573, 0.0915391594171524, -0.07787739485502243, 0.006756958086043596, 0.03004155494272709, -0.05528872460126877, -0.021383116021752357, 0.018036559224128723, 0.005796156357973814, -0.035637591034173965, 0.0420270636677742, 0.03694618120789528, 0.04445000737905502, 0.04825162887573242, -0.023707574233412743, 0.002191361738368869, 0.04620950669050217, -0.02798798680305481, -0.006623722612857819, 0.05479323863983154, 0.0967390388250351, -0.04207439348101616, -0.03838706016540527, -0.04588589072227478, -0.09944120049476624, 0.06732302904129028, 0.001832451089285314, -0.03071163035929203, -0.11593814194202423, 0.07051696628332138, 0.09288270026445389, -0.003912566229701042, 0.043976906687021255, 0.05318095162510872, 0.02542233094573021, -0.01160462573170662, -0.021970640867948532, -0.013088189996778965, -0.0011260518804192543, 0.005913688801229, 0.00646654237061739, -0.03824447840452194, -0.034746211022138596, -0.07682301104068756, 0.0324568971991539, 0.030622852966189384, -0.05338669940829277, -0.07292714715003967, -0.013064584694802761, -0.02661890536546707, -0.012185745872557163, -0.04680676385760307, 0.012652774341404438, -0.017002606764435768, -0.038428518921136856, -0.04259226471185684, 0.02741863764822483, -0.007182159926742315, -0.031292624771595, 0.03970106691122055, 0.0205891951918602, 0.041940413415431976, 0.04469763860106468, -0.01994483731687069, 0.12297013401985168, 0.058580294251441956, -0.0026091875042766333, -0.023242337629199028, -0.006568836979568005, -0.008279464207589626, 0.005451018922030926, -0.014540166594088078, -0.018283339217305183, 0.008004480041563511, 0.01880023255944252, -0.025702644139528275, -0.023421635851264, 0.0776573196053505, 0.014265468344092369, -0.3034100830554962, 0.004898171406239271, -0.018251990899443626, 0.02095641754567623, -0.05714910849928856, -0.03436777740716934, 0.09332472831010818, -0.04147621616721153, 0.03351028636097908, 0.18503156304359436, 0.0045851184986531734, 0.014617961831390858, 0.011788377538323402, -0.013532779179513454, 0.002535533159971237, 0.004692306276410818, -0.02595474012196064, -0.009122677147388458, 0.02045968547463417, -0.02042074128985405, 0.053570158779621124, 0.009212588891386986, 0.04052797704935074, -0.03018488548696041, -0.027286730706691742, 0.007511965464800596, 0.14965301752090454, 0.03594910725951195, -0.06533604115247726, 0.004269234836101532, 0.038786597549915314, 0.10771529376506805, 0.07083750516176224, -0.05853983759880066, -0.033115286380052567, 0.019157493487000465, -0.043530452996492386, 0.01373351737856865, -0.015780940651893616, -0.010838606394827366, -0.04196000099182129, 0.0022388591896742582, -0.006679710000753403, -0.04987373948097229, 0.012688505463302135, -0.041951343417167664, -0.04756913706660271, 0.0016417520819231868, -0.07352396100759506, 0.05156498774886131, -0.0097724050283432, -0.0017789171542972326, 0.09342337399721146, 0.0298637542873621, 0.058508291840553284, 0.0007278191624209285, -0.14262033998966217, -0.03349047526717186, 0.013807953335344791, 0.0020276361610740423, -0.0060508232563734055, 0.01975163258612156, 0.03687619790434837, -0.05361483618617058, -0.01736224815249443, -0.0005939267575740814, -0.021899638697504997, 0.03227151185274124, 0.047536831349134445, 0.013109981082379818, 0.008337444625794888, 0.09998965263366699, 0.013461750000715256, -0.03307546675205231, -0.061714183539152145, 0.039647188037633896, -0.02476946823298931, -0.033900246024131775, -0.024544356390833855, -0.041442543268203735, 0.0009572358103469014, 0.04302136227488518, -0.006019605323672295, 0.021945051848888397, -0.006494918838143349, 0.02108820155262947, -0.022409619763493538, 0.039346225559711456, 0.021071063354611397, 0.02015829086303711, 0.024424366652965546, 0.007928458042442799, -0.057247936725616455, -0.034685444086790085, 0.09375989437103271, -0.0015673896996304393, -0.1960836499929428, -0.054025426506996155, 0.016619794070720673, 0.011485259979963303, 0.06397823989391327, 0.045438945293426514, -0.07844829559326172, 0.01519381906837225, 0.004306096583604813, 0.005439043510705233, -0.09127994626760483, 0.10784019529819489, -0.03048420138657093, -0.08221300691366196, 0.03142911568284035, 0.026991812512278557, 0.040036916732788086, -0.006819993257522583, 0.0852818414568901, -0.038003597408533096, 0.045496340841054916, -0.022585105150938034, 0.1623719036579132, 0.0011330912820994854, -0.01814628206193447, 0.0016687544994056225, -0.010821309871971607, -0.07455237209796906, -0.01780460774898529, -0.026752086356282234, -0.047854769974946976, -0.022457411512732506, 0.04972801357507706, -0.021389340981841087, -0.014067002572119236, -0.02124214917421341, 0.008187822997570038, -0.035948604345321655, -0.02959905005991459, -0.05438464507460594, -0.03486688807606697, 0.02950531244277954, -0.036430247128009796, 0.024061791598796844, 0.07647179812192917, -0.011966112069785595, 0.0161480363458395, -0.02289651148021221, 0.061290442943573, -0.004667529836297035, -0.00863621849566698, -0.08106225728988647, -0.017235267907381058, 0.05762156471610069, 0.031448300927877426, 0.029121391475200653, -0.003708559786900878, -0.0008637686260044575, 0.02796921879053116, -0.004566678777337074, -0.02026251144707203, -0.01930241473019123, 0.07276202738285065, -0.0031704118009656668, -0.01270571630448103]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>extremely_slow_paperwork_processing</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Clear speaking staff\nReason for given NPS: Took 2 days for shop staff to do paperwork..then the bill was incorrect', 'Improvement needed: Faster call centre wait times and better mobile coverage\nReason for given NPS: I have been with Vodafone (One) for 35 years using the internet and mobile services.. In that time I have always had good/prompt service :)']</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[-0.058640073984861374, -9.631527791498229e-05, 0.03888431563973427, -0.03776217997074127, -0.0043840669095516205, -0.06762649118900299, -0.032328736037015915, -0.018216637894511223, 0.07523668557405472, -0.00713146710768342, 0.01496970932930708, 0.08269208669662476, 0.03828078880906105, -0.023616451770067215, -0.01811126247048378, -0.0023998564574867487, 0.02733958140015602, -0.04397080838680267, -0.009507736191153526, 0.01901807077229023, 0.01881060190498829, 0.006277063395828009, -0.051710646599531174, 0.022169221192598343, -0.04763488098978996, 0.05842261016368866, -0.09030960500240326, -0.07148877531290054, -0.09508702158927917, -0.15693174302577972, -0.0052398270927369595, -0.03133189678192139, 0.02102089859545231, 0.05333464965224266, 0.11143145710229874, -0.04799073562026024, -0.03197956830263138, 0.05955641716718674, 0.01151835173368454, -0.019670989364385605, -0.0042497701942920685, 0.03960058465600014, -0.07466340810060501, 0.010154221206903458, 0.00417614821344614, -0.04204943776130676, 0.013234209269285202, -0.024621648713946342, 0.07938820123672485, 0.016858655959367752, -0.07433689385652542, -0.01538484264165163, 0.018081896007061005, -0.0005150106735527515, -0.0004111668386030942, 0.024838246405124664, 0.14159713685512543, -0.014569375663995743, 0.04470906779170036, -0.001855551148764789, 0.005279670003801584, 0.026827268302440643, -0.16732580959796906, 0.0898478627204895, 0.03276833891868591, -0.02380185015499592, -0.021902846172451973, -0.11375100165605545, -0.010674472898244858, -0.011991996318101883, -0.04853847622871399, 0.012998365797102451, -0.01724882237613201, 0.10444896668195724, 0.035025935620069504, -0.03248058259487152, -0.007492674980312586, 0.0032009040005505085, -0.009792142547667027, 0.04907076805830002, -0.026342974975705147, 0.003662112867459655, -0.05901648849248886, -0.036349259316921234, -0.04704662039875984, 0.0007506210240535438, -0.03642211854457855, 0.013827637769281864, 0.10046115517616272, -0.013722775503993034, 0.05876157805323601, -0.02339501678943634, 0.03261110559105873, 0.06131657958030701, -0.03145875781774521, -0.05745293200016022, 0.018845435231924057, 0.06854280084371567, -0.049785859882831573, 0.3442007899284363, -0.03632773086428642, 0.02735919877886772, 0.0505891852080822, -0.0012107854709029198, 0.004078809171915054, 0.007515307515859604, -0.0074073560535907745, -0.04939619451761246, -0.0846107229590416, -0.027931464836001396, -0.03525177761912346, 0.014110658317804337, 0.046653132885694504, -0.005807753652334213, 0.048865363001823425, 0.04715520143508911, -0.0040957136079669, -0.003565710037946701, -0.09940697997808456, 0.043979473412036896, 0.040987949818372726, 0.004756198264658451, 0.0045867846347391605, 0.017767107114195824, 0.009549195878207684, -0.013639201410114765, -0.008418753743171692, 0.0611322820186615, 0.0018658534390851855, 0.050742123275995255, 0.050202883780002594, 0.038731321692466736, -0.012732574716210365, -0.003401820082217455, 0.012299872934818268, -0.0016813527327030897, -0.013532205484807491, 0.019053006544709206, 0.039959367364645004, -0.013093501329421997, -0.06625677645206451, -0.01360198762267828, -0.049370456486940384, -0.05554866045713425, -0.03300291299819946, 0.14091680943965912, -0.022614965215325356, 0.031236248090863228, -0.03279814124107361, -0.0794818326830864, -0.042117536067962646, 0.02340160310268402, 0.04662341997027397, -0.07347455620765686, -0.03834863379597664, -0.03649601340293884, 0.03245515748858452, 0.008023761212825775, -0.014292752370238304, -0.0482555590569973, 0.042576342821121216, -0.029795024544000626, -0.013450341299176216, 0.07940486818552017, 0.05259419605135918, 0.011605756357312202, -0.0002564051828812808, -0.03280889242887497, -0.01871040090918541, 0.027050070464611053, -0.010561704635620117, 0.008284768089652061, 0.008840280584990978, -0.00039035637746565044, 0.09312533587217331, -0.010899738408625126, 0.03029276244342327, 0.014339560642838478, 0.01181422546505928, -0.022235145792365074, 0.09817603975534439, 0.006896289996802807, -0.05059850588440895, 0.0006391916540451348, 0.06935981661081314, -0.04136354848742485, -0.02377297356724739, 0.005893951281905174, 0.00790336076170206, -0.036551229655742645, -0.09542860835790634, -0.057709936052560806, -0.03449872136116028, -0.050284549593925476, -0.06339658796787262, -0.04032815620303154, 0.002611886477097869, -0.013574848882853985, 0.005733087193220854, -0.048873044550418854, 0.09914248436689377, -0.00487851956859231, 0.01561101246625185, 0.038594163954257965, 0.06783077865839005, 0.018235772848129272, -0.003223743289709091, 0.007859207689762115, 0.03834294155240059, 0.028065452352166176, -0.0739293321967125, -0.047363024204969406, 0.08647316694259644, -0.04574410617351532, 0.002344992943108082, 0.022307997569441795, -0.025818107649683952, 0.060301925987005234, 0.0644027516245842, 0.028933778405189514, -9.303003753302619e-05, 0.014727295376360416, 0.03428516909480095, -0.28817832469940186, 0.03860849142074585, -0.02145657129585743, 0.023350359871983528, 0.0035279053263366222, -0.025581466034054756, 0.040909457951784134, 0.010811940766870975, 0.016182532534003258, 0.07844463735818863, 0.004846121650189161, 0.017250563949346542, 0.015756981447339058, -0.0262623131275177, -0.029974566772580147, 0.017063327133655548, 0.01274243462830782, 0.09140962362289429, 0.026945553719997406, 0.02458452247083187, 0.012201749719679356, 0.016425717622041702, -0.02153022214770317, -0.006727319210767746, -0.018365103751420975, -0.013723211362957954, 0.17033258080482483, -0.08994384855031967, -0.011771019548177719, -0.02117576263844967, 0.03153148293495178, 0.048268090933561325, -0.018623609095811844, -0.12251061946153641, -0.008665141649544239, 0.01866147480905056, 0.019893037155270576, 0.018660614266991615, 0.042316779494285583, -0.000310461618937552, -0.06282413750886917, 0.024813447147607803, 0.05857760086655617, -0.0018596930895000696, 0.03310687094926834, 0.04302850365638733, -0.028279494494199753, -0.03404960408806801, -0.028808478266000748, -0.02589126117527485, 0.039476003497838974, -0.010319631546735764, 0.0006041230517439544, 0.003116271458566189, 0.03287976607680321, -0.001409890130162239, -0.009965687990188599, 0.016753364354372025, -0.07328467816114426, -0.02683395892381668, 0.01123132649809122, -0.06532487273216248, 0.03132505714893341, 0.012252811342477798, 0.0274564977735281, 0.02233557589352131, -0.016790859401226044, 0.01360958069562912, -0.017239663749933243, -0.0005662949988618493, 0.0002715529699344188, 0.04922223091125488, -0.07137688249349594, -0.009457801468670368, 0.038097694516181946, 0.010164015926420689, -0.01929604448378086, 0.01813146471977234, -0.01691254787147045, -0.07832203060388565, 0.006808076985180378, 0.010088125243782997, 0.060792095959186554, -0.02054072916507721, -0.008919639512896538, 0.010900055058300495, 0.007362214848399162, 0.012660950422286987, -0.036539237946271896, -0.0074874707497656345, -0.010241984389722347, -0.008740758523344994, -0.06076431646943092, 0.06593742966651917, 0.06046822667121887, -0.0051994407549500465, -0.26340341567993164, 0.025239892303943634, 0.0033722943626344204, -0.007640232797712088, -0.006322529632598162, 0.020138943567872047, -0.042869772762060165, 0.0230698324739933, 0.00733230309560895, 0.07435207813978195, -0.04771574214100838, 0.005764773581176996, -0.059993401169776917, -0.06221514195203781, 0.04116122052073479, 0.019175807014107704, -0.015731774270534515, -0.0306056160479784, -0.006009802687913179, -0.05924760550260544, -0.0010446449741721153, -0.008843811228871346, 0.12743479013442993, 0.021064065396785736, -0.020307857543230057, 0.01937706768512726, 0.039880506694316864, 0.014202417805790901, 0.05907778814435005, -0.06720217317342758, 0.008063385263085365, -0.024173462763428688, 0.021228307858109474, 0.017189225181937218, -0.01401438843458891, -0.00645775580778718, 0.0020838119089603424, 0.04185155779123306, 0.002897213213145733, -0.0036514054518193007, -0.0006286646821536124, -0.014258286915719509, 0.029224826022982597, -0.057249318808317184, 0.02850610949099064, -0.004904951434582472, 0.008617180399596691, -0.023742448538541794, -0.011624461971223354, 0.03578835353255272, -0.02889835461974144, -0.041622407734394073, -0.041682589799165726, 0.061312898993492126, 0.0817277804017067, 0.04760245233774185, 0.011835522018373013, 0.007065592333674431, -0.009248013608157635, -0.008057918399572372, 0.01029911544173956, -0.052333198487758636, 0.007833951152861118, 0.03755228966474533, -0.04786830022931099]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>monthly_payment_due_date_reminder</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Letting me know weeks earlier when my plan is due for payment.\n', "Improvement needed: The only thing I would like is faster broadband, however that is not entirely necessary, just would be nice to have.\n\nOn a separate note, is there a way to link bill due dates into a calendar directly from the app? If so this might alleviate the late payments!\nReason for given NPS: We have had fibre at two houses so far in the last few years, and apart from major power outages (not One.NZ's doing) our internet connection has not once dropped. Speeds are fast too, considering we now live in a rural township!"]</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[-0.08335420489311218, -0.0357571542263031, 0.01440233364701271, 0.0010519057977944613, -0.026133088394999504, -0.04783370718359947, 0.012391217052936554, 0.004661244340240955, 0.003663962706923485, -0.02320452407002449, 0.0025898911990225315, 0.010679862461984158, -0.026229536160826683, 0.03126556798815727, -0.00893350038677454, -0.046788956969976425, 0.00048088093171827495, 0.01148931123316288, 0.014596414752304554, 0.02988487295806408, 0.04923863336443901, 0.00019814261759165674, -0.0025685944128781557, 0.04077370837330818, -0.0138040566816926, 0.028486190363764763, 0.03053913451731205, -0.0318581722676754, -0.06956881284713745, -0.06288333237171173, 0.037722036242485046, -0.045174021273851395, 0.021956559270620346, -0.005879195872694254, 0.04976901412010193, -0.08066953718662262, -0.013947835192084312, -0.014970830641686916, -0.014120697975158691, 0.005721542052924633, 0.007794864475727081, 0.051518943160772324, -0.03879496827721596, 0.0037822045851498842, -0.035118479281663895, -0.02767683006823063, 0.0655289888381958, 0.025435542687773705, 0.0364191010594368, -0.032043203711509705, 0.017785826697945595, 0.01045145746320486, 0.01885179989039898, 0.024861279875040054, 0.025169076398015022, 0.04016437754034996, 0.01710071600973606, 0.048133525997400284, 0.05387667566537857, 0.043100837618112564, 0.06109469011425972, -0.009125735610723495, -0.16293300688266754, 0.06616916507482529, -0.05475938692688942, -0.011256699450314045, -0.002070608315989375, -0.023485837504267693, 0.0323033481836319, 0.00413562823086977, 0.0025583526585251093, -0.032631680369377136, -0.03515276685357094, 0.04411397501826286, 0.045840222388505936, -0.04949970170855522, 0.03836099058389664, 0.024584339931607246, -0.02238350361585617, 0.027967030182480812, -0.011148369871079922, 0.03341662138700485, 0.02961820177733898, -0.01911144144833088, -0.03478892147541046, -0.023859495297074318, 0.05047046020627022, -0.014382214285433292, 0.03569028154015541, -0.02649441547691822, 0.02473609708249569, -0.06607168167829514, -0.016437692567706108, -0.006267146207392216, -0.07155445963144302, 0.008044805377721786, 0.039371319115161896, -0.003105772193521261, -0.09725307673215866, 0.3703482151031494, 0.018310517072677612, 0.06561695784330368, -0.04724235460162163, -0.01049601100385189, -0.0045403046533465385, -0.048519957810640335, 0.03260212764143944, -0.0009159286855719984, -0.06680674105882645, -0.002169741317629814, -0.09102243930101395, 0.011624674312770367, 0.11069060862064362, -0.10703875124454498, -0.018561122938990593, 0.07372535765171051, 0.0256558395922184, -0.05132269859313965, 0.097749724984169, -0.005009698681533337, 0.06017278879880905, -0.003668092656880617, 0.020566897466778755, -0.017760438844561577, -0.022350065410137177, -0.018492845818400383, 0.025703441351652145, 0.07644297927618027, 0.007242879830300808, 0.041670236736536026, 0.05196958780288696, -0.04503200575709343, -0.06089991331100464, -0.02124367281794548, 0.0596492737531662, 5.568173583014868e-05, 0.03030906617641449, -0.023892447352409363, 0.04336677864193916, -0.03797108680009842, -0.03320581465959549, -0.045330941677093506, -0.040795791894197464, -0.045690231025218964, -0.06355020403862, 0.08382488787174225, 0.009540564380586147, 0.03319351375102997, 0.08368799835443497, -0.05442754551768303, -0.07125996053218842, 0.08130419999361038, 0.026899304240942, -0.01958620175719261, -0.0010038078762590885, 0.03167228028178215, 0.05448612570762634, -0.024205265566706657, 0.028890104964375496, 0.027323316782712936, -0.0038596312515437603, -0.028110140934586525, -0.04872644692659378, 0.009120441973209381, 0.05940903350710869, -0.10575906187295914, 0.015145030803978443, -0.025862928479909897, 0.021570920944213867, -0.009831606410443783, -0.018434666097164154, -0.021372975781559944, -0.023584503680467606, -0.05245160311460495, 0.16322657465934753, 0.029419397935271263, 0.038070883601903915, 0.007595317903906107, 0.011586262844502926, -0.04298052564263344, 0.013424263335764408, 0.0214189812541008, -0.04125117510557175, -0.006921940017491579, 0.04343525320291519, -0.05433369055390358, -0.04626840353012085, -0.02630731463432312, -0.0012497083516791463, -0.05413088575005531, 0.04051065444946289, -0.06481116265058517, -0.011187884025275707, 0.06929200142621994, -0.04912763088941574, -0.02085682936012745, -0.031395141035318375, -0.010882114991545677, 0.031059440225362778, 0.02015531063079834, 0.061300233006477356, -0.03140225633978844, 0.0015797388041391969, 0.0021131846588104963, 0.014645708724856377, 0.030026385560631752, 0.054291337728500366, -0.032416269183158875, 0.011194705963134766, -0.0061709024012088776, 0.03687276691198349, 0.03477727994322777, 0.11643235385417938, 0.006734718568623066, -0.002429436193779111, 0.0500674694776535, -0.0499647855758667, -0.010959403589367867, -0.0025804450269788504, -0.006992195267230272, 0.031192924827337265, 0.04655405879020691, 0.08461670577526093, -0.23760800063610077, 0.047508496791124344, 0.029723655432462692, -0.044720955193042755, -0.009388410486280918, -0.015763407573103905, 0.06669441610574722, -0.03827909752726555, 0.022341076284646988, 0.037294186651706696, 0.0688248723745346, 0.010136550292372704, 0.038019683212041855, -0.08945707231760025, -0.03286021202802658, 0.07851163297891617, -0.02547493763267994, -0.045045897364616394, 0.007712965365499258, -0.0039050502236932516, -0.07073631882667542, -0.017056070268154144, 0.0004603185225278139, -0.04770641028881073, 0.03300432488322258, 0.006761209573596716, 0.09631681442260742, 0.026638401672244072, -0.07281158119440079, -0.04047863185405731, 0.06983853131532669, 0.04404210299253464, -0.02480180747807026, -0.15679903328418732, 0.0019582679960876703, -0.0034641576930880547, -0.04658073931932449, 0.01874319091439247, 0.02150682546198368, -0.04618775099515915, 0.0355665422976017, 0.07324876636266708, 0.0016901629278436303, 0.009747656062245369, -0.010797519236803055, 0.005327845923602581, -0.04647817835211754, 0.019291577860713005, -0.020758287981152534, -0.003458532504737377, 0.060299281030893326, -0.057871948927640915, 0.06937553733587265, 0.04686206579208374, 0.08738275617361069, -0.03907138109207153, -0.03773636743426323, 0.029757212847471237, -0.018918167799711227, -0.03399696573615074, 0.04913369193673134, -0.02118099108338356, 0.015259080566465855, -0.00453026220202446, 0.045282911509275436, -0.020570026710629463, -0.047651030123233795, -0.08761873096227646, -0.0370812751352787, 0.0847642794251442, -0.0033862912096083164, -0.01906178705394268, -0.03749816119670868, -0.04672586917877197, 0.024030569940805435, -0.05522288382053375, 0.033359602093696594, 0.023053448647260666, -0.02634216658771038, -0.05015217885375023, 0.004040824715048075, 0.01706848293542862, 0.02660730667412281, 0.03383878245949745, 0.0115681616589427, 0.08553434163331985, 0.02006123587489128, 0.03052983060479164, 0.009804273955523968, -0.0224501583725214, -0.07478868216276169, 0.0015991502441465855, -0.03273816034197807, 0.058731865137815475, -0.010232201777398586, 0.0002560382999945432, -0.27243128418922424, 0.041381485760211945, -0.03139522671699524, -0.015242183580994606, -0.007483170833438635, 0.05147034674882889, -0.014185989275574684, -0.004629102535545826, -0.09569042176008224, 0.029813487082719803, -0.03191324323415756, 0.014656092040240765, -0.0161367729306221, 0.001512027345597744, 0.013199457898736, 0.046328380703926086, -0.010677139274775982, -0.0326760858297348, -0.014096622355282307, -0.08251931518316269, 0.0050537921488285065, -0.01687105931341648, 0.15769970417022705, 0.008967572823166847, -0.014673308469355106, 0.001541363773867488, -0.0529463030397892, 0.025759823620319366, 0.10130207985639572, 0.02995685115456581, -0.05722710117697716, 0.03969927132129669, 0.07588227838277817, -0.034818682819604874, -0.025586659088730812, 0.054852139204740524, -0.018942508846521378, 0.017514772713184357, 0.022236671298742294, -0.03265635669231415, -0.03903171047568321, 0.02506268210709095, -0.02626623399555683, 0.01062123104929924, 0.003992235753685236, 0.03396535664796829, -0.020009268075227737, -0.06844287365674973, -0.02446042001247406, 4.354942939244211e-05, -0.011148584075272083, -0.07649581879377365, -0.05248316004872322, 0.05395487695932388, 0.013819294050335884, 0.025722743943333626, -0.008149489760398865, -0.01694556325674057, 0.004912777803838253, 0.011513874866068363, -0.002565672853961587, -0.00918961875140667, 0.014979877509176731, 0.011833243072032928, -0.06574685871601105]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>need_clearer_information_on_throttled_data_speeds</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Providing clearer expectations around throttled speeds when data runs out on unlimited plans\n', "Improvement needed: I'd love a meter to show how much I was spending (especially internationally) as I roam.  It always seems cheap at the time but the accumulated cost can give me a shock\nReason for given NPS: I'd like to know more about which countries have $8/day roaming as I travel a lot and use it but also get hit with high roaming costs when the deal doesn't apply"]</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[-0.05483569577336311, -0.0190782081335783, 0.022627947852015495, -0.008700001053512096, 0.04253774881362915, -0.007802818436175585, -0.045920923352241516, 0.015346749685704708, 0.07967673242092133, 0.00504284305498004, 0.02649785950779915, -0.010840686038136482, 0.04386214539408684, 3.614331581047736e-05, -0.005539951846003532, 0.03291045501828194, 0.08034209161996841, -0.050449635833501816, -0.01883580908179283, 0.008485564962029457, 0.060219310224056244, -0.04483377933502197, -0.023908253759145737, 0.019402606412768364, 0.013684801757335663, 0.003908531740307808, -0.009061614982783794, -0.021752703934907913, -0.05584215745329857, -0.1492462456226349, 0.006740898825228214, -0.04365849867463112, 0.0023763414938002825, 0.04812232032418251, 0.00792388990521431, -0.04556206241250038, 0.01221901923418045, 0.04496093466877937, -0.052043087780475616, 0.03709396719932556, -0.009496494196355343, 0.041909314692020416, -0.06539085507392883, 0.04053551331162453, -0.04300790652632713, -0.025614744052290916, 0.00019083537335973233, 0.04361646994948387, 0.07646084576845169, -0.010000399313867092, -0.052198152989149094, 0.031112078577280045, 0.006640301551669836, 2.8635327907977626e-05, 0.044647086411714554, 0.028441384434700012, 0.0465473011136055, 0.039739940315485, 0.06493634730577469, -0.030451184138655663, 0.008546675555408001, 0.03313798829913139, -0.09988923370838165, 0.0642785131931305, 0.045899953693151474, -0.032353777438402176, -0.0027631379198282957, -0.03501133620738983, -0.0003675614425446838, 0.00490172766149044, -0.06724626570940018, 0.010422500781714916, -0.022672630846500397, 0.09166188538074493, 0.00580634456127882, -0.013199297711253166, -0.04242604598402977, 0.025057503953576088, -0.023223433643579483, 0.017006298527121544, 0.020620211958885193, -0.08730319887399673, -0.026947077363729477, -0.04151161015033722, 0.007902801036834717, -0.0790250152349472, 0.022005585953593254, 0.010724392719566822, 0.05137164145708084, -0.01584414765238762, -0.032996226102113724, -0.005277817603200674, 0.022026894614100456, 0.059576209634542465, -0.07695519924163818, 0.03529125452041626, -0.00576263852417469, 0.06497470289468765, -0.0531061589717865, 0.36859622597694397, -0.013979234732687473, -0.0036045480519533157, -0.005037650931626558, 0.0609174408018589, 0.047909583896398544, -0.025207875296473503, 0.03162243217229843, 0.007504910696297884, -0.04907841607928276, 0.0061708902940154076, 0.037613119930028915, -0.011496443301439285, 0.020484022796154022, 0.0010637358063831925, 0.08505136519670486, 0.051541220396757126, -0.04546382278203964, -0.01932554319500923, -0.054552096873521805, 0.035965900868177414, -0.0301128588616848, 0.003300826298072934, 0.031723182648420334, 0.047822702676057816, 0.035843148827552795, -0.0254463292658329, 0.05523502454161644, 0.08820340037345886, -0.03275255113840103, 0.06938762962818146, 0.00894908420741558, -0.020447639748454094, -0.009609506465494633, 0.016257964074611664, 0.036746758967638016, -0.010874530300498009, 0.03524862974882126, 0.004734788555651903, 0.030228305608034134, -0.01475407462567091, -0.03225206956267357, -0.046057604253292084, -0.013529659248888493, -0.08971589058637619, 0.006697237025946379, 0.130684956908226, 0.00017688462685327977, 0.051909398287534714, 0.0008995355456136167, -0.10090538114309311, -0.01074850745499134, 0.00937145296484232, 0.01736934669315815, -0.0773601233959198, -0.0754513069987297, 0.017042042687535286, 0.03600873053073883, 0.030403289943933487, -0.012531707063317299, -0.005447570234537125, -0.011305793188512325, -0.04970446228981018, -0.052224449813365936, 0.06990556418895721, -0.02306600846350193, -0.00900331325829029, -0.016939394176006317, 0.045117463916540146, -0.05250414460897446, 0.00748972175642848, -0.03901902213692665, -0.013495163060724735, -0.058613505214452744, -0.01409477274864912, 0.09008302539587021, -0.04370550811290741, -0.03583097085356712, 0.03656361252069473, -0.04061735048890114, -0.04745189845561981, 0.03081010840833187, -0.005231537390500307, -0.011201341636478901, 0.016107521951198578, 0.045296959578990936, -0.04481341689825058, -0.05102986842393875, 0.018696608021855354, 0.04102642089128494, -0.006398084107786417, -0.13096821308135986, -0.10997793078422546, -0.0008382658124901354, -0.031089462339878082, -0.05572064593434334, -0.06892724335193634, 0.028942227363586426, 0.05928443372249603, -0.023752886801958084, -0.08081088960170746, 0.06990841776132584, -0.018394486978650093, -0.031291279941797256, 0.07968465238809586, -0.04551539197564125, 0.03644740954041481, -0.0677429810166359, -0.050822604447603226, 0.07232395559549332, 0.012246732600033283, 0.03847268223762512, -0.06491515040397644, 0.04310740903019905, 0.0017704155761748552, -0.03710673376917839, -0.009173661470413208, -0.029674582183361053, 0.03284197300672531, 0.006111776456236839, 0.0503639318048954, -0.004481489770114422, 0.07121604681015015, -0.027287334203720093, -0.3110863268375397, -0.022147204726934433, -0.006314195226877928, 0.0011133813532069325, -0.015066523104906082, -0.026754340156912804, 0.030526718124747276, 0.032411135733127594, 0.016517676413059235, 0.039478402584791183, 0.006909549236297607, 0.0028914096765220165, -0.02381538599729538, -0.05991487577557564, 0.015151211991906166, 0.011736319400370121, 0.03288586810231209, 0.028281809762120247, -0.0450424924492836, 0.034087590873241425, -0.02666100673377514, 0.04522164911031723, -0.024873333051800728, -0.041320256888866425, 0.033963851630687714, 0.013602564111351967, 0.15635138750076294, -0.08032349497079849, 0.03553454205393791, -0.07128538936376572, 0.04650562256574631, 0.049345362931489944, -0.01910359039902687, -0.027664057910442352, -0.0006204517558217049, 0.009335475973784924, -0.026821697130799294, 0.037883564829826355, -0.021114245057106018, -0.027884051203727722, -0.03881335258483887, 0.01638627052307129, 0.01712922379374504, -0.03154997155070305, -0.012907871045172215, -0.018347706645727158, -0.03352280706167221, 0.007464362308382988, -0.08483187109231949, -0.02603316120803356, 0.023493431508541107, 0.0038934526965022087, 0.022244617342948914, 0.032848913222551346, 0.13344800472259521, 0.006747350096702576, -0.03855501115322113, 0.06089996173977852, -0.017935164272785187, 0.01214771531522274, -0.010136505588889122, -0.011879670433700085, -0.003655381966382265, -0.06394104659557343, 0.028164120391011238, -0.0008380857761949301, -0.03797841817140579, -0.032870784401893616, -0.03975854441523552, 0.054974380880594254, -0.002745941514149308, 0.06541736423969269, -0.052078984677791595, 0.03347177430987358, 0.0205988772213459, 0.008071755059063435, -0.011292601004242897, 0.006217824760824442, -0.03581911697983742, -0.046230610460042953, 0.04231295734643936, 0.04056346416473389, 0.07815491408109665, 0.02672005631029606, -0.013061261735856533, -0.035926055163145065, 0.035081155598163605, 0.012396631762385368, -0.03695881739258766, 0.012761639431118965, -0.03483732417225838, -0.01626206934452057, 0.0004655682132579386, -0.044390395283699036, 0.05980519577860832, -0.0037107649259269238, -0.25428760051727295, -0.0018304550321772695, 0.012885598465800285, 0.000389848806662485, 0.022886399179697037, 0.02551523596048355, 0.020326610654592514, 0.0038632869254797697, -0.05152817815542221, 0.06287600845098495, -0.08463794738054276, 0.06441795825958252, -0.021695315837860107, 0.018841058015823364, 0.02774285338819027, 0.05925128236413002, 0.07853790372610092, -0.00012124818749725819, -0.06998956203460693, -0.03887356072664261, 0.038839150220155716, -0.032748542726039886, 0.15495724976062775, 0.007061670068651438, -0.0384940467774868, 0.0576215460896492, -0.028170958161354065, 0.07991544902324677, 0.03922225534915924, -0.009739188477396965, -0.05468587204813957, -0.04720676690340042, 0.0160260908305645, 0.012068860232830048, -0.02597249671816826, 0.06218945235013962, 0.007968323305249214, -0.014875070191919804, 0.03919878974556923, 0.0045977188274264336, 0.009399875067174435, 0.013303149491548538, 0.016070572659373283, 0.0024240221828222275, 0.04262914881110191, 0.011768319644033909, -0.03821314871311188, -0.03547113388776779, 0.01903105154633522, 0.04177478700876236, -0.02399136684834957, -0.03659374266862869, 0.005528390873223543, 0.007337828166782856, 0.0490843690931797, 0.015512638725340366, -0.052186112850904465, -0.0031725347507745028, 0.023920701816678047, -0.03285566344857216, 0.01881430856883526, -0.040752314031124115, 0.009641766548156738, -0.029489845037460327, -0.013937094248831272]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>need_value_added_service_for_long_standing_customers</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Ive been your customer for 18 years with the same phone number since 2005. I think I could be valued more. Value old customers more is what OneNZ can improve.\nReason for given NPS: I think 2 degree creates a good opposition. They have good incentive often offering free gifts in different circumstances. I asked One NZ for a free pair of ear buds when I purchased a phone for my girlfriend but was denied.', 'Improvement needed: Bring in refer a friend offer.\nI have already referred so many people and they are still with Vodafone.\nReason for given NPS: I have been with you guys for almost more than 7-8 years. I have had no major issues except for 1 or 2 times where in your team helped resolve the issue asap.']</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>[-0.033349767327308655, -0.04378705471754074, 0.03205520287156105, -0.008022504858672619, 0.0029028719291090965, -0.0035724586341530085, -0.045461107045412064, 0.04212075471878052, 0.018062425777316093, -0.021948568522930145, 0.022093236446380615, 0.035301778465509415, 0.006645556539297104, -0.009989023208618164, 0.04251140356063843, -0.004550895653665066, 0.08143805712461472, 0.0035106996074318886, -0.024094825610518456, 0.01372236106544733, 0.07345158606767654, -0.05924546346068382, -0.03748790919780731, 0.0189044289290905, -0.007733034435659647, -0.028848174959421158, -0.0520181842148304, -0.03009258210659027, -0.009677894413471222, -0.08045801520347595, 0.004465307574719191, -0.03475194051861763, 0.02345908060669899, 0.003990838769823313, 0.042617928236722946, -0.016163980588316917, -0.0019199785310775042, -0.046713296324014664, 0.04102277383208275, 0.06888185441493988, 0.03140721097588539, -0.008352288044989109, -0.026661451905965805, 0.004442115779966116, -0.07032888382673264, -0.05658302083611488, 0.027601217851042747, -0.012697204947471619, 0.06171583756804466, -0.007892929948866367, 0.018166029825806618, 0.015068731270730495, -0.040421195328235626, 0.015354810282588005, 0.00458556180819869, 0.0843973457813263, 0.0026794911827892065, 0.0021744263358414173, 0.02299121767282486, 0.01478776428848505, 0.060325492173433304, -0.07000929117202759, -0.15386863052845, 0.002499195747077465, -0.01687338948249817, 0.02070421539247036, -0.00949044805020094, -0.02507886476814747, -0.027525221928954124, 0.0012364897411316633, -0.01632724143564701, -0.011499792337417603, -0.017211025580763817, 0.09800730645656586, 0.03209632635116577, 0.024875259026885033, 0.016157064586877823, 0.001505620894022286, -0.01620149053633213, 0.01048386562615633, 0.04697917401790619, -0.03844909742474556, -0.0103424321860075, -0.006245121825486422, -0.03506358712911606, -0.049388542771339417, 0.003920001443475485, -0.008570270612835884, 0.01671738736331463, -0.0022341711446642876, 0.04926476255059242, -0.042669303715229034, -0.012676558457314968, 0.04757944494485855, -0.07036653161048889, -0.060805439949035645, -0.014488181099295616, 0.026039723306894302, -0.09043685346841812, 0.37978869676589966, 0.05088445171713829, 0.03919672593474388, -0.042311858385801315, -0.009183188900351524, 0.03416765108704567, 0.01134657021611929, -0.05855024978518486, 0.023013973608613014, -0.00038767504156567156, 0.001774109317921102, -0.05489649251103401, 0.04902791604399681, 0.04510877653956413, -0.04895539954304695, -0.027230802923440933, 0.09048141539096832, -0.026003384962677956, -0.04170065373182297, -0.036264125257730484, -0.019234435632824898, 0.00866128783673048, 0.018685946241021156, 0.030376248061656952, 0.01843535527586937, 0.014402664266526699, -0.018459511920809746, 0.06758502870798111, 0.11730080097913742, -0.02879537083208561, 0.06377724558115005, -0.00718359649181366, -0.04357116296887398, -0.038937997072935104, -0.009606743231415749, -0.019420918077230453, 0.030680611729621887, 0.019595008343458176, 0.016347821801900864, 0.045084770768880844, 0.03812672570347786, -0.03658458590507507, -0.08747196942567825, -0.03452227637171745, -0.0765477642416954, 0.05027712136507034, 0.05625525489449501, 0.019887041300535202, 0.06323602795600891, -0.0034197652712464333, -0.05815896391868591, -0.03169479966163635, 0.07834229618310928, -0.01530419196933508, -0.05151229724287987, -0.01566958986222744, 0.02230633795261383, 0.06537357717752457, -0.03081829845905304, -0.0392705537378788, -0.01731567271053791, 0.07326056063175201, -0.026000114157795906, -0.019997168332338333, 0.0375199168920517, 0.0065517607145011425, -0.10659854114055634, 0.010193762369453907, -0.024155329912900925, -0.05453335866332054, 0.06514807790517807, -0.04554072022438049, 0.040053173899650574, -0.03847646713256836, 0.012627881951630116, 0.0966382697224617, -0.03945223242044449, -0.03074353188276291, 0.07444620132446289, -0.016964107751846313, 5.0713981181615964e-05, -0.037048257887363434, 0.03299848735332489, -0.057438790798187256, 0.006742478348314762, 0.013445795513689518, -0.049014750868082047, 0.0006094285054132342, -0.018585151061415672, -0.02679472416639328, -0.02054639346897602, -0.056372810155153275, -0.010639036074280739, -0.021961836144328117, -0.04650191217660904, 0.0329822339117527, -0.054310452193021774, -0.02427751198410988, 0.014884056523442268, 0.08182182163000107, -0.017608800902962685, 0.037197817116975784, 0.032624609768390656, -0.023342804983258247, -0.034004952758550644, -0.0064023202285170555, 0.0474325530230999, -0.004059758968651295, 0.048532821238040924, 0.03975670039653778, -0.02186352200806141, 0.00039110041689127684, 0.027573231607675552, 0.08752818405628204, 0.057458147406578064, -0.012467054650187492, 0.02653755061328411, -0.015141972340643406, 0.03995996341109276, 0.0501907654106617, -0.01767299883067608, 0.04383648931980133, 0.1132233515381813, 0.009650548920035362, -0.3319084942340851, 0.0276783537119627, -0.021476343274116516, -0.04592432826757431, -0.03230014443397522, 0.026268888264894485, 0.06353167444467545, 0.018002087250351906, -0.07620661705732346, 0.04306849464774132, 0.07915113866329193, -0.034494709223508835, 0.02523534744977951, -0.05128204822540283, -0.009185614064335823, 0.012707473710179329, -0.002373253693804145, 0.005647328682243824, 0.0037272500339895487, 0.012539181858301163, -0.004580599255859852, 0.056898292154073715, 0.017010552808642387, -0.037064339965581894, 0.03758310526609421, 0.0017700530588626862, 0.1503959745168686, -0.07956673949956894, -0.07181111723184586, -0.07147336006164551, 0.022957537323236465, 0.04514749348163605, -0.045317765325307846, -0.06225613132119179, 0.023150494322180748, 0.0002546096802689135, -0.0370493084192276, 0.09206345677375793, -9.879494609776884e-05, 0.004682091996073723, 0.013083191588521004, 0.042680203914642334, -0.03637155517935753, 0.004533553030341864, 0.03223244845867157, -0.012667883187532425, 0.03063325770199299, 0.04599284008145332, -0.011763550341129303, -0.004796441178768873, -0.03231867030262947, -0.06678912788629532, 0.006581989582628012, 0.04373590648174286, 0.06398037075996399, -0.02591726742684841, -0.015100858174264431, 0.017353637143969536, -0.0010244379518553615, -0.0031848258804529905, -0.02677626721560955, 0.015616459771990776, 0.03175182640552521, 0.004923928529024124, 0.06836254894733429, -0.022845540195703506, -0.004977978765964508, 0.016800086945295334, -0.022695180028676987, 0.010587435215711594, -0.031779058277606964, -0.011375637724995613, -0.05132516101002693, -0.028542369604110718, -0.010914573445916176, -0.03495721518993378, -0.05310043320059776, -0.00037974698352627456, -0.025612611323595047, 0.0027683067601174116, 0.003632962703704834, -0.014846592210233212, -0.00030511111253872514, 0.037328753620386124, 0.029176082462072372, 0.06975351274013519, -0.039968352764844894, 0.06994311511516571, -0.015966663137078285, -0.028703773394227028, -0.018471697345376015, -0.025792162865400314, -0.04807921126484871, 0.006253468804061413, 0.07386867702007294, -0.0019442969933152199, -0.2587525248527527, 0.02248341031372547, -0.022404026240110397, -0.0018037348054349422, -0.026729559525847435, 0.08795739710330963, -0.03607875481247902, 0.03999677672982216, -0.09600503742694855, -0.01731141284108162, -0.02951943874359131, 0.053432852029800415, -0.0027704876847565174, -0.06398636847734451, 0.04691731184720993, 0.032241858541965485, 0.063453309237957, -0.04905817657709122, -0.01511151809245348, -0.0755375549197197, 0.047536469995975494, -0.0042419894598424435, 0.17950591444969177, 0.012139569967985153, -0.002898629754781723, 0.011443962343037128, 0.0036809269804507494, 0.0033193056005984545, 0.008455725386738777, -0.01138550415635109, -0.051233112812042236, -0.015036608092486858, 0.0616498701274395, -0.0028066770173609257, -0.025495100766420364, 0.022412732243537903, -0.006555614527314901, -0.023412592709064484, 0.020990123972296715, 0.024598805233836174, -0.04377858713269234, 0.015237721614539623, -0.06418899446725845, 0.008153202943503857, 0.07391709834337234, 0.013873933814466, 0.007339521311223507, -0.03175124526023865, 0.0450049564242363, -0.007983402349054813, -0.0513426698744297, -0.07107628881931305, -0.020844222977757454, 0.06451034545898438, 0.020865535363554955, -0.0004566582210827619, -0.027944110333919525, 0.011887621134519577, 0.04451115429401398, 0.015062193386256695, -0.01973024755716324, -0.08013956248760223, 0.03354969620704651, -0.011409048922359943, -0.01093221828341484]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>lack_of_proactive_account_management_assistance</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Bring back account managers\n', "Improvement needed: Keeping in touch with your business customers..... I haven't had contact regarding my business account since my last phone upgrade. Makes me wonder now if it was just a sales call rather than a genuine business support contact\nReason for given NPS: I have always been with One NZ (previously Vodafone) &amp; have never had any issues"]</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>[-0.01773439347743988, -0.015487536787986755, 0.044414322823286057, -0.04077766090631485, -0.02124876342713833, -0.043100506067276, 0.029909901320934296, 0.02704831399023533, -0.00159269361756742, -0.06193209066987038, 0.016830239444971085, 0.0046193418093025684, 0.01173713430762291, -0.00686876755207777, 0.021654441952705383, 0.03502855449914932, 0.03232479840517044, 0.018036536872386932, -0.0003882315941154957, 0.030079463496804237, -0.011308358982205391, -0.023194998502731323, -0.023348689079284668, 0.03395300731062889, -0.013013104908168316, 0.0016633381601423025, -0.00515082897618413, -0.01590004749596119, -0.0951983854174614, -0.10588685423135757, -0.0021296825725585222, -0.06040800362825394, 0.02269885689020157, 0.02737329714000225, 0.0695645660161972, -0.008655826561152935, -0.06592529267072678, 0.052693672478199005, -0.023987116292119026, -0.032633066177368164, -0.0029510115273296833, 0.041891757398843765, -0.06238182261586189, -0.005823937710374594, 0.027488989755511284, -0.03304823487997055, 0.026794390752911568, -0.037756409496068954, 0.027767572551965714, -0.049144353717565536, 0.008794950321316719, -0.015203814022243023, -0.007129226811230183, 0.030438825488090515, 0.05039530247449875, 0.03892671316862106, 0.0454123392701149, -0.01777496747672558, -0.0248960480093956, 0.0068926336243748665, 0.03705048933625221, 0.01577148213982582, -0.12718799710273743, -0.0036456980742514133, 0.014179576188325882, -0.00016397870786022395, 0.05196593329310417, -0.07999259978532791, -0.004251040052622557, -0.011989818885922432, -0.026324637234210968, -0.034542541950941086, -0.06682712584733963, 0.043964602053165436, -0.005175481550395489, -0.012064063921570778, 0.021859249100089073, 0.0050385561771690845, 0.04205775260925293, 0.06096036732196808, -0.004880503751337528, 0.02095135673880577, -0.03826652839779854, 0.0034038887824863195, -0.03077046573162079, -0.012347979471087456, -0.019855551421642303, 0.010489625856280327, 0.03691999614238739, -0.0013736806577071548, 0.007524934597313404, 0.025416528806090355, 0.06724863499403, 0.008129122667014599, -0.016904789954423904, -0.06263953447341919, 0.03704601526260376, 0.044109493494033813, -0.16652968525886536, 0.42586302757263184, -0.011172756552696228, 0.07817652821540833, 0.0029295324347913265, -0.044107936322689056, 0.044384267181158066, -0.021954242140054703, -0.009403201751410961, 0.009418798610568047, -0.02423027902841568, -0.0426451601088047, -0.00985525269061327, -0.009784351103007793, 0.05938582867383957, -0.043982621282339096, 0.04606577008962631, 0.0884721577167511, -0.005563798360526562, -0.007497085258364677, -0.06010647118091583, 0.030704721808433533, 0.04147961735725403, -0.00036900470149703324, 0.06280393153429031, 0.024099167436361313, -0.06088685616850853, -0.018563490360975266, -0.00540764257311821, 0.09123128652572632, 0.025433190166950226, 0.021201102063059807, 0.0404568649828434, -0.009407232515513897, -0.04882931709289551, -0.06834682822227478, 0.002885687630623579, -0.046512652188539505, 0.007734966464340687, 0.008246672339737415, 0.05504722520709038, 0.02488502487540245, -0.047815725207328796, -0.01817903481423855, -0.013966592960059643, -0.06819836795330048, 0.013914191164076328, 0.11854808032512665, -0.004331403877586126, 0.020047107711434364, -0.05536184832453728, -0.019713453948497772, -0.020797209814190865, 0.008120433427393436, 0.0003279585507698357, -0.025727109983563423, 0.010133674368262291, -0.0041106282733380795, 0.032061271369457245, 0.002973074559122324, -0.010865667834877968, 0.0536833219230175, 0.02634226158261299, -0.07686951011419296, 0.0009766451548784971, 0.027447346597909927, 0.031091032549738884, -0.021393628790974617, -0.0036576176062226295, -0.015116038732230663, -0.06806298345327377, 0.02129681408405304, -0.017049888148903847, -0.00409154174849391, -0.031249752268195152, -0.021735012531280518, 0.08537309616804123, -0.053111910820007324, -0.0003997147432528436, 0.0010810431558638811, -0.03901514410972595, 0.020974328741431236, 0.03366365283727646, -0.05315745249390602, 0.01919752173125744, -0.02240973338484764, -0.031624455004930496, 0.006464400794357061, -0.00821071956306696, -0.046706754714250565, 0.018404759466648102, -0.0545145720243454, -0.07071813195943832, -0.020638857036828995, -0.06921903043985367, -0.04573435336351395, -0.004951997194439173, -0.008099328726530075, -0.03183599188923836, -0.044569771736860275, 0.002285862574353814, -0.027274178341031075, 0.0849260464310646, 0.013438674621284008, -0.014136353507637978, 0.009387703612446785, 0.010239116847515106, 0.04803405702114105, -0.04189959540963173, 0.00825671385973692, 0.12574754655361176, 0.01646558754146099, 0.0003390854690223932, -0.03471918776631355, 0.048735156655311584, 0.015080162324011326, 0.02825288474559784, 0.0303121879696846, 0.0407986044883728, 0.031175510957837105, 0.028466476127505302, 0.0008495089132338762, 0.04381716996431351, 0.12103594839572906, 0.03937700018286705, -0.30649638175964355, 0.04212787002325058, -0.0627971738576889, -0.02421063929796219, -0.12047742307186127, -0.0036516226828098297, 0.05920030549168587, 0.00593041256070137, -0.031857721507549286, 0.05930465832352638, 0.021896125748753548, -0.01187082938849926, 0.015844853594899178, 0.01137593388557434, 0.04105818271636963, 0.03480967506766319, -0.02957330085337162, 0.012934434227645397, -0.014910613186657429, -0.02592102438211441, -0.03654809668660164, -0.001892870874144137, 0.0579884797334671, 0.0444377176463604, 0.009186717681586742, 0.047724250704050064, 0.16529580950737, -0.05217038094997406, -0.031280361115932465, -0.03143727034330368, -0.02783147245645523, 0.07364626973867416, -0.06211940944194794, -0.1254880428314209, 0.03755024075508118, -0.018537376075983047, -0.04419787973165512, -0.030201395973563194, 0.03239934518933296, -0.03203892335295677, -0.05633684620261192, 0.037710051983594894, -0.01201649010181427, -0.0008604530594311655, -0.01869826950132847, 0.021532775834202766, -0.002077221404761076, 0.007430522236973047, -0.03814643248915672, 0.009393516927957535, -0.01548424456268549, 0.04622846469283104, 0.006820065435022116, 0.03457169979810715, 0.018102895468473434, -0.001991414465010166, -0.0741652101278305, 0.07257141172885895, -0.021157171577215195, 0.047713860869407654, -0.0025885768700391054, -0.03543614596128464, 0.0069595035165548325, -0.031982239335775375, 0.023392219096422195, -0.022854719310998917, -0.07145731896162033, -0.012512065470218658, 0.023913437500596046, 0.03817633166909218, -0.037775322794914246, 0.022780781611800194, -0.011469949036836624, -0.011427139863371849, -0.046375520527362823, -0.013569802977144718, 0.06493630260229111, -0.048559948801994324, -0.027828728780150414, -0.06291530281305313, -0.0125056067481637, -0.015342000871896744, 0.04119442403316498, 0.012458015233278275, -0.02370751090347767, 0.06896911561489105, -0.025628741830587387, -0.002898036502301693, 0.04272393137216568, -0.027553243562579155, 0.01733488030731678, 0.025797123089432716, -0.03486757352948189, 0.03141426667571068, 0.1239321306347847, 0.0005214069969952106, -0.20669028162956238, -0.013476582244038582, 0.012366910465061665, -0.03189355134963989, -0.02119980938732624, 0.0685700848698616, -0.013320762664079666, -0.02949574589729309, -0.055258121341466904, -0.007976180873811245, 0.0689016804099083, 0.005248685367405415, -0.04197436198592186, -0.04555661603808403, 0.043373119086027145, -0.003976977430284023, -0.012678602710366249, -0.05693617835640907, 0.02533804439008236, -0.05745847895741463, 0.06483008712530136, 0.02253073640167713, 0.16764245927333832, -0.016522152349352837, -0.04229968041181564, -0.013292059302330017, 0.06755824387073517, -0.001423391280695796, 0.08059455454349518, 0.0225509200245142, -0.026268193498253822, -0.008860691450536251, 0.0406537726521492, 0.03182969242334366, 0.05142758786678314, -0.04879447817802429, 0.04997430741786957, 0.04702605679631233, 0.008209573104977608, -0.027239559218287468, -0.041254375129938126, -0.008177594281733036, 0.007050686050206423, -0.016259944066405296, 0.05939507484436035, -0.06295549124479294, 0.016838928684592247, -0.02907726727426052, 0.026250818744301796, 0.03309500589966774, -0.0036694053560495377, -0.047423355281353, 0.025198275223374367, 0.06069508567452431, 0.040307678282260895, 0.009697754867374897, -0.03221724554896355, 0.020348865538835526, -0.005112862680107355, 0.00795464776456356, 0.012313383631408215, -0.011099742725491524, 0.04711182415485382, -0.056994132697582245, 0.0030384990386664867]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>network_signal_dropouts_after_5g_rollout</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>['Improvement needed: since 5g, there  is alot of signal drop out. if it was not for sure signal and now wifi calling i would not be able to connect to the network from home.\nReason for given NPS: pricing and carryover data', 'Improvement needed: Better 5G coverage\nReason for given NPS: Easy to use and good coverage']</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>[-0.0490943118929863, -0.02755107916891575, 0.03871777653694153, -0.055722277611494064, -0.014645964838564396, -0.015197436325252056, -0.07417137920856476, 0.04675499349832535, 0.094697505235672, -0.05188075080513954, 0.0718679204583168, 0.0066398452036082745, 0.039427902549505234, 0.006100970320403576, 0.04490051418542862, 0.031496353447437286, 0.06613325327634811, -0.058019690215587616, -0.02786576747894287, -0.03670872747898102, -0.005088424310088158, -0.04419085383415222, -0.005792470183223486, 0.003109196200966835, 0.05516817420721054, 0.019854364916682243, -0.004085501655936241, -0.05819087103009224, -0.05914045870304108, -0.13090181350708008, 0.00962382648140192, 0.014846029691398144, 0.00604624068364501, 0.028639718890190125, 0.06849350780248642, -0.06894480437040329, -0.04060462489724159, 0.007412660866975784, -0.026832198724150658, 0.08286608010530472, 0.04779811203479767, 0.000533361395355314, -0.037974730134010315, -0.027961229905486107, -0.004748557228595018, -0.05241709202528, 0.014028592966496944, -0.031146027147769928, 0.08560923486948013, -0.04437386989593506, 0.013478079810738564, -0.04803268983960152, -0.02653580717742443, 0.041073862463235855, 0.0019484238000586629, 0.02940792590379715, 0.06660287082195282, 0.08178438991308212, 0.05234101787209511, 0.06007900461554527, 0.0327882319688797, 0.023795468732714653, -0.16818378865718842, 0.03829839453101158, 0.004004979971796274, -0.04039039835333824, 0.02392467111349106, -0.0177608672529459, 0.019386202096939087, 0.018779797479510307, -0.003964161034673452, 0.047010187059640884, -0.026337364688515663, 0.061269745230674744, 0.05856969952583313, 0.10106408596038818, -0.005280740093439817, -0.020349906757473946, 0.0021285894326865673, 0.0013790465891361237, 0.04184292256832123, 0.026019295677542686, -0.007812726311385632, 0.01604251191020012, -0.016654938459396362, -0.06769692152738571, -0.023593969643115997, -0.03298673406243324, -0.021412210538983345, 0.0048769209533929825, -0.0310834813863039, 0.039186008274555206, -0.032407693564891815, 0.04911176860332489, -0.10947449505329132, 0.0023930990137159824, 0.03470589593052864, -0.06442689895629883, -0.04290870204567909, 0.3325495719909668, -0.029279431328177452, -0.04498966038227081, 0.07287373393774033, 0.08567124605178833, 0.05069141834974289, -0.05907122418284416, -0.01077695470303297, 0.00519901979714632, -0.033301256597042084, 0.05840190500020981, 0.028629764914512634, -0.06180191412568092, 0.06488989293575287, 0.01536557637155056, 0.01887400820851326, -0.013476156629621983, -0.04872831329703331, 0.026827266439795494, -0.038530707359313965, 0.03934396803379059, -0.04616327956318855, -0.02529444359242916, 0.05055742338299751, -0.009754424914717674, 0.08776769042015076, 0.014939993619918823, 0.01569972187280655, 0.10396138578653336, -0.018034368753433228, 0.004812773782759905, -0.0376763679087162, -0.018401291221380234, 0.019808625802397728, -0.011448875069618225, 0.026945987716317177, 0.00212702713906765, 0.05061779171228409, 0.020777584984898567, -0.04546216502785683, 0.044853679835796356, -0.007761180866509676, -0.05170540511608124, 0.02334551140666008, -0.052696529775857925, -0.005493485368788242, 0.0842687115073204, -0.011838805861771107, 0.07585541903972626, 0.006340628024190664, -0.034443389624357224, -0.011373021639883518, 0.05420085787773132, 0.05195438116788864, 0.02662630006670952, 7.436706800945103e-05, 0.06760570406913757, 0.018783407285809517, 0.03479810804128647, -0.02974998950958252, 0.032230477780103683, -0.0015732141910120845, -0.06418189406394958, -0.05169785022735596, 0.054603151977062225, -0.03696293383836746, -0.05017855390906334, -0.04772206395864487, -0.04933706298470497, -0.05269937217235565, -0.05029268562793732, -0.028830664232373238, 0.0058537316508591175, 0.021991046145558357, -0.03738497570157051, 0.05364692583680153, -0.01906653121113777, -0.032402653247117996, -0.005346999038010836, -0.04965747147798538, -0.02691224403679371, 0.017900241538882256, 0.03250635415315628, 0.025036323815584183, -0.0017026772256940603, -0.011783580295741558, -0.030026419088244438, -0.05732244625687599, -0.0136293089017272, 0.04499894753098488, -0.00876625906676054, -0.14536131918430328, -0.07285190373659134, -0.0009586304659023881, -0.07184683531522751, -0.012691041454672813, -0.04864739254117012, -0.07242204993963242, 0.017135608941316605, 0.026123350486159325, -0.04087105765938759, 0.08171451836824417, -0.023512443527579308, 0.020009595900774002, 0.012236514128744602, -0.005436992738395929, 0.03565840423107147, -0.04183051362633705, -0.014741775579750538, 0.04517511650919914, -0.013727845624089241, 0.05574753135442734, 0.011796987615525723, 0.08632440865039825, 0.004846867173910141, 0.04043490067124367, -0.007128824945539236, -0.01866099052131176, 0.07346218079328537, -0.016240069642663002, -0.009303939528763294, 0.007887238636612892, 0.07260549068450928, -0.04879934340715408, -0.24207139015197754, -0.024769702926278114, 0.02439034916460514, -0.044104453176259995, -0.07752681523561478, -0.0364110991358757, -0.07722381502389908, -0.009074353612959385, 0.03643757849931717, 0.08944109082221985, 0.07166250795125961, 0.048705678433179855, 0.015111792832612991, 0.022660447284579277, 0.049503229558467865, -0.027033502236008644, -0.005534316413104534, 0.05139490216970444, -0.04365598037838936, -0.008323727175593376, -0.05717230588197708, -0.0043460531160235405, -0.02485690265893936, -0.08993829786777496, 0.04075060039758682, 0.024477653205394745, 0.11843858659267426, -0.03147028759121895, -0.011875591240823269, -0.02169235236942768, 0.050555676221847534, 0.14429564774036407, 0.022215764969587326, -0.008435838855803013, -0.0005187148344703019, 0.07239105552434921, 0.0350189171731472, 0.06220018118619919, -0.03741893544793129, -0.022626420482993126, -0.07007087022066116, 0.010430012829601765, 0.03630266338586807, -0.06770983338356018, 0.02822648361325264, -0.03533751517534256, -0.037880901247262955, 0.030745210126042366, -0.05262579768896103, -0.03358879312872887, 0.016747495159506798, -0.017747851088643074, 0.03992105647921562, -0.025371164083480835, 0.07606877386569977, 0.013168727047741413, -0.02811741828918457, 0.03181247040629387, -0.0030013639479875565, -0.025292102247476578, 0.004468098282814026, 0.006850600708276033, 0.009747505187988281, -0.10524196922779083, 0.03944722190499306, -0.0073638916946947575, 0.023063132539391518, 0.02556421607732773, 0.03342452645301819, 0.059523265808820724, 0.021171024069190025, 0.05515439063310623, -0.019839582964777946, -0.009456263855099678, 0.025466812774538994, 0.0013394138077273965, -0.014138548634946346, -0.03028074838221073, -0.039899539202451706, -0.024872545152902603, 0.07773905992507935, -0.009957139380276203, 0.053553927689790726, -0.02557067945599556, -0.035094473510980606, 0.050912417471408844, 0.045658696442842484, 0.004048071336001158, 0.007651735097169876, 0.022752204909920692, 0.015504058450460434, 0.011952970176935196, 0.044515520334243774, -0.06339064240455627, 0.10531339049339294, -0.044567156583070755, -0.2285076081752777, 0.009097492322325706, 0.027972295880317688, -0.034804534167051315, -0.018678784370422363, 0.03653762489557266, 0.0044774156995117664, 0.03585469722747803, -0.08747418969869614, 0.019830957055091858, -0.07998695224523544, -0.035413194447755814, -0.03322919085621834, -0.03805546835064888, 0.03674556687474251, 0.021179363131523132, -0.01213087048381567, -0.06296467781066895, -0.04143304005265236, -0.022614743560552597, 0.0508272685110569, -0.03620520979166031, 0.09265917539596558, -0.05736532434821129, -0.0010879358742386103, 0.046755678951740265, 0.007082964293658733, 0.021568121388554573, 0.03810621052980423, -0.026845261454582214, -0.021500641480088234, 0.004855774343013763, 0.04482676833868027, -0.04367808997631073, -0.018507851287722588, 0.008561640977859497, -0.028323201462626457, 0.017277434468269348, 0.023234976455569267, 0.014507186599075794, 0.01318573672324419, 0.008448894135653973, -0.020936235785484314, 0.030675798654556274, 0.05777275562286377, -0.008941967971622944, -0.03692007437348366, -0.06376765668392181, 0.04556497186422348, 0.03431270644068718, -0.06082984805107117, -0.07572894543409348, 0.03413504362106323, 0.009045696817338467, -0.008584053255617619, 0.06185394525527954, -0.06173690780997276, 0.016774235293269157, 0.008602725341916084, -0.03599085286259651, 0.017404157668352127, -0.1267370879650116, -0.0016092268051579595, -0.07126712799072266, 0.013077950105071068]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>broadband_plan_issues_during_upgrades</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>['Improvement needed: The entire customer service regime and experience\nReason for given NPS: Customer service is poor. The call center is not responsive. I waited for 6+ months for a response to transfer my customer details for Sky TV from Vodafone TV to Sky TV. It has never happened. I have up and now subscribe to Sky Now and have missed the opportunity to be transferred properly to the products I have asked for. I have also had my broadband plan intermittently cancelled when I have upgraded my plan. I have never had a good customer experience.', "Improvement needed: I'd love a meter to show how much I was spending (especially internationally) as I roam.  It always seems cheap at the time but the accumulated cost can give me a shock\nReason for given NPS: I'd like to know more about which countries have $8/day roaming as I travel a lot and use it but also get hit with high roaming costs when the deal doesn't apply"]</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[-0.07366633415222168, -0.08393846452236176, 0.04259604588150978, 0.0027588433586061, -0.02408614195883274, -0.041318152099847794, -0.08339737355709076, 0.06932030618190765, 0.0016395548591390252, -0.025694580748677254, 0.052579332143068314, -0.008834549225866795, 0.0504099503159523, -0.04373054578900337, 0.04639589414000511, 0.06978964805603027, 0.040185973048210144, -0.08704020828008652, -0.015860499814152718, 0.03175050765275955, 0.016605572775006294, 0.004448278807103634, 0.011280654929578304, 0.04005563631653786, -0.01048470102250576, -0.01217333972454071, -0.014581731520593166, -0.022033298388123512, -0.048023298382759094, -0.1417759358882904, 0.011843713000416756, -0.014736287295818329, -0.030505631119012833, 0.021510152146220207, 0.04205619543790817, -0.049589745700359344, 0.008595707826316357, 0.02137128636240959, -0.008632457815110683, 0.06697452813386917, -0.0032622525468468666, 0.03635263070464134, -0.07444291561841965, -0.030247271060943604, -0.0522351935505867, -0.011121377348899841, 0.0787472128868103, 0.012262169271707535, 0.0517130009829998, -0.04185018688440323, -0.012183831073343754, -0.0004507774137891829, 0.00498261209577322, 0.014029348269104958, -0.02104644663631916, 0.07894083112478256, 0.0357515923678875, 0.030758513137698174, 0.05577613785862923, 0.04822620376944542, 0.028219105675816536, 0.01989157684147358, -0.17021042108535767, 0.08600909262895584, 0.05346127599477768, 0.009103173390030861, 0.001027551363222301, -0.03340945765376091, 0.009168392047286034, 0.03674086928367615, -0.047005198895931244, -0.017727885395288467, 0.019678931683301926, 0.06326284259557724, 0.07807808369398117, 0.06359868496656418, -0.02940065786242485, 0.02711038663983345, 0.02623872645199299, 0.03692834451794624, 0.007596077397465706, -0.05039522051811218, -0.03064667619764805, -0.016032660380005836, -0.0027892563957720995, -0.06495891511440277, -0.022750800475478172, 0.0019557971972972155, -0.020259572193026543, 0.021418999880552292, -0.04753223806619644, 0.013612194918096066, 0.021850964054465294, 0.024696286767721176, -0.041605930775403976, -0.020117051899433136, 0.0035596147645264864, -0.003317367983981967, -0.03395053371787071, 0.36442965269088745, 0.033546332269907, -0.01141894981265068, -0.0037581739015877247, 0.04658682644367218, 0.049166418612003326, -0.03368593752384186, -0.05724059417843819, 0.003779189893975854, -7.832321716705337e-05, 0.0019209703896194696, -0.01411860715597868, -0.020290525630116463, 0.04897700250148773, 0.019171487540006638, 0.047550689429044724, 0.02164478786289692, -0.0458245649933815, -0.049083903431892395, -0.03737938776612282, 0.007439348381012678, -0.01907368004322052, -0.001130750635638833, 0.0363011509180069, -0.01268331240862608, 0.00033468182664364576, 0.0033620321191847324, 0.0843171700835228, 0.07399111241102219, -0.05372485890984535, 0.062361933290958405, 0.000675876741297543, -0.04375700280070305, 0.014426091685891151, 0.004078851547092199, 0.005147303454577923, 0.032234497368335724, 0.03402737155556679, 0.043915074318647385, -0.004485718905925751, 0.08433175832033157, -0.04566604271531105, -0.05513380095362663, -0.004865327849984169, -0.07721079885959625, 0.02444612793624401, 0.13712207973003387, -0.020919479429721832, 0.07244823127985, 0.009354463778436184, -0.03780418634414673, -0.027292447164654732, 0.018462011590600014, 0.02534610405564308, -0.04730099439620972, -0.06022793799638748, 0.016898980364203453, -0.0048760343343019485, 0.024734463542699814, 0.04028827324509621, 0.006816628389060497, 0.058059435337781906, -0.03765289485454559, -0.05968673527240753, 0.07090063393115997, 0.007543580606579781, -0.08228447288274765, -0.058900345116853714, -0.04384852945804596, -0.03252553194761276, 0.006923299748450518, -0.06834420561790466, 0.007867447100579739, 0.0015369178727269173, 0.0006351147894747555, 0.06817258894443512, -0.007790588308125734, -0.029590943828225136, -0.00024142091569956392, -0.031335946172475815, -0.058308523148298264, 0.021113885566592216, 0.005293690133839846, -0.039588749408721924, -0.03680171072483063, 0.013728580437600613, -0.07954710721969604, -0.03706859424710274, -0.0278612170368433, 0.04892747476696968, -0.039779357612133026, -0.1331120878458023, -0.04289959743618965, -0.012224778532981873, -0.04276486858725548, 0.004055592231452465, -0.033686935901641846, -0.03469054773449898, 0.01201891154050827, 0.024990040808916092, -0.03966953977942467, 0.09800277650356293, -0.0005545796011574566, -0.03793688118457794, -0.0430864654481411, -0.05820862576365471, 0.01170040387660265, -0.0474030040204525, -0.004938506055623293, 0.08824808150529861, -0.0075014750473201275, 0.006992489565163851, -0.029304156079888344, 0.10692090541124344, 0.024576986208558083, -0.0025314283557236195, -0.015310968272387981, -0.05616440623998642, 0.06800461560487747, 0.03176390007138252, 0.07680988311767578, 0.013542805798351765, 0.10871434211730957, 0.015485484153032303, -0.2996462285518646, 0.02627657726407051, -0.0034961386118084192, -0.03309846296906471, -0.06494233012199402, -0.008838656358420849, 0.02501579001545906, -0.011109049431979656, -0.027773572131991386, 0.08227597177028656, 0.035057924687862396, 0.015332313254475594, 0.020001612603664398, -0.05697331950068474, 0.02464260347187519, -0.05173233896493912, -0.004465274978429079, 0.03334592655301094, -0.01906723715364933, 0.030179601162672043, -0.042037758976221085, 0.06256218999624252, -0.041138820350170135, -0.06490442156791687, 0.008694082498550415, 0.007880158722400665, 0.1388227492570877, -0.05956202372908592, -0.05192591995000839, -0.08257125318050385, 0.06296860426664352, 0.07491615414619446, -0.03659149259328842, -0.08529189974069595, 0.016248580068349838, 0.0450560599565506, 0.02080610953271389, 0.017183585092425346, 0.0002779335482046008, -0.03706635162234306, -0.01773153990507126, 0.014658858068287373, -0.027079327031970024, -0.014845713973045349, 0.0016153958858922124, -0.011957777664065361, -0.01817134954035282, 0.029908329248428345, -0.015121529810130596, -0.014149617403745651, -0.00467493012547493, 0.007563929073512554, 0.03206798806786537, 0.04160101339221001, 0.07774922251701355, -0.03293731063604355, -0.07049316167831421, 0.04157133400440216, 0.0564858578145504, -0.010588470846414566, 0.045405060052871704, 0.009321765042841434, 0.017761558294296265, -0.07789085060358047, 0.0696779265999794, 0.004806027747690678, 0.018914127722382545, 0.05023125931620598, -0.033823370933532715, 0.0396251417696476, 0.045540910214185715, 0.0283858310431242, -0.00879847165197134, 0.025751642882823944, -0.03644406422972679, -0.021544422954320908, -0.024149838835000992, -0.03737901151180267, 0.013722723349928856, -0.05848544463515282, 0.04612429440021515, -0.03547491505742073, 0.00837339274585247, -0.03319296985864639, -0.0262887142598629, 0.0291323009878397, 0.0011615334078669548, 0.024251187220215797, -0.019316570833325386, 0.012915805913507938, -0.03011944331228733, -0.012885580770671368, 0.005006888881325722, -0.037632640451192856, 0.06210365891456604, 0.019476868212223053, -0.22777532041072845, 0.0060934037901461124, 0.013142663054168224, -0.10925065726041794, -0.018312843516469002, 0.05635372921824455, 0.013225187547504902, 0.06448585540056229, -0.103095643222332, 0.030275242403149605, -0.04989006742835045, -0.006181669421494007, -0.06591420620679855, -0.02456016093492508, 0.046260688453912735, 0.011016794480383396, 0.07454010844230652, 0.009830020368099213, -0.03271112218499184, -0.060654956847429276, -0.0021892955992370844, -0.006482259836047888, 0.1309908628463745, -0.005017308983951807, 0.037106748670339584, -0.025623727589845657, -0.009755839593708515, 0.07932484894990921, 0.02494061179459095, -0.010588244535028934, -0.004645608365535736, 0.009549764916300774, 0.04319519177079201, -0.025562293827533722, -0.008112904615700245, 0.030745485797524452, 0.030415406450629234, -0.0213658194988966, -0.0006164858350530267, 0.033768314868211746, -0.004302563611418009, 0.03451661765575409, -0.031161274760961533, 0.05972762778401375, 0.0629931390285492, 0.01010272279381752, 5.540454003494233e-05, 0.004063810687512159, -0.0008017931249924004, -0.027851562947034836, -0.03332046791911125, -0.041722238063812256, 0.03636232763528824, 0.005283364560455084, 0.008462945930659771, 0.0004080478101968765, -0.03262355178594589, 0.00556713854894042, -0.027190016582608223, 0.0006524039781652391, 0.04863493889570236, -0.030977295711636543, 0.01148173026740551, -0.00981525145471096, 0.019084127619862556]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>need_flexible_overseas_data_roaming_plans</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Offer more flexible mobile options when travelling overseas. Keep insurance but drop to a much smaller plan. I travel overseas for 9 months of the year but keep paying the same 12GB plan the whole time I'm away as I don't have any other option.\n", 'Improvement needed: I think you’ve already started the process with Space X\nReason for given NPS: Because of the up coming of Satellite \nAnd I like the overseas Vodafone connection']</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>[0.014089662581682205, -0.05747763812541962, 0.046040646731853485, -0.06272315233945847, 0.005606615450233221, -0.022037532180547714, -0.07534220814704895, 0.0666993111371994, -0.022526346147060394, -0.01160124409943819, 0.03326931595802307, -0.013311151415109634, 0.03371606767177582, 0.014102838933467865, 0.028350410982966423, 0.016419852152466774, -0.01642582379281521, -0.05712238326668739, -0.04279370605945587, 0.045361895114183426, 0.06674642860889435, 0.0005408532451838255, -0.054792895913124084, 0.013940630480647087, -0.0008280717884190381, 0.028876418247818947, -0.003971314523369074, -0.006286876276135445, -0.018641740083694458, -0.11277420818805695, -0.05005156248807907, 0.0008259883034043014, -0.07127565145492554, 0.04151099920272827, 0.012582202441990376, 0.011525625362992287, -0.018508659675717354, 0.01519843190908432, 0.011923502199351788, 0.0673462525010109, -0.004074609838426113, 0.03954382613301277, 0.009627417661249638, 0.0016841610195115209, -0.04389835149049759, -0.07590839266777039, -0.03442125767469406, 0.04401678591966629, -0.027499329298734665, -0.007387414574623108, 0.08063993602991104, 0.029878705739974976, -0.025103403255343437, -0.01801752671599388, 0.05643609166145325, 0.06864769011735916, 0.020017949864268303, 0.042085643857717514, 0.010081326588988304, 0.019700028002262115, 0.03170740604400635, 0.04224257543683052, -0.13238702714443207, 0.05459839105606079, -0.040582526475191116, 0.0410434864461422, -0.008936534635722637, 0.007875258103013039, 0.02766553871333599, 0.009933329187333584, -0.058313287794589996, -0.010695097036659718, -0.06220429390668869, 0.09477335214614868, 0.03109120763838291, 0.036429740488529205, -0.04802095517516136, -0.012963048182427883, 0.007142877206206322, 0.007849706336855888, 0.055943798273801804, -0.007055886555463076, -0.01569616235792637, 0.007685468066483736, -0.0010347217321395874, -0.041053950786590576, -0.028689704835414886, -0.03668304905295372, 0.03682345151901245, -0.0054329982958734035, -0.047489020973443985, 0.005389287136495113, 0.055492300540208817, 0.023247983306646347, -0.09562791138887405, -0.047296326607465744, 0.0465492345392704, 0.07010458409786224, -0.08999653905630112, 0.3666590452194214, 0.028228117153048515, 0.023266326636075974, 0.01724104769527912, 0.04512958601117134, -0.06001659110188484, -0.03755539283156395, -0.03720643371343613, -0.011351694352924824, -0.004468063358217478, 0.004670086782425642, -0.05522722750902176, -0.043509457260370255, -0.024659009650349617, -0.021367952227592468, -0.031777288764715195, 0.016146918758749962, -0.02789793349802494, -0.018438350409269333, -0.018798978999257088, 0.000994953908957541, -0.06034345552325249, -0.06581775844097137, 0.045157622545957565, 0.025247881188988686, 0.015641754493117332, -0.02765469439327717, 0.07483730465173721, 0.05622408539056778, 0.009573429822921753, 0.08013875037431717, 0.03806387260556221, -0.02770369127392769, -0.05464199557900429, 0.020010948181152344, -0.0035290447995066643, -0.007527586538344622, 0.04530315846204758, -0.005446118302643299, -0.0027859488036483526, 0.009766452945768833, -0.01819002628326416, -0.06408903002738953, 0.0064340499229729176, -0.08495104312896729, 0.021152785047888756, 0.1097017303109169, -0.006895998027175665, 0.06760533154010773, -0.010879912413656712, -0.09962154179811478, -0.011504980735480785, 0.004512059967964888, 0.09027685225009918, -0.07091713696718216, 0.0026297701988369226, 0.025443991646170616, -0.005958526860922575, 0.0073640779592096806, -0.03397655487060547, -0.015063407830893993, 0.042570021003484726, -0.0556270033121109, -0.05283259227871895, 0.1486886739730835, -0.010590935125946999, -0.12004305422306061, 0.003938746638596058, 0.03249647095799446, 0.007088263984769583, -0.00010247582395095378, -0.015456351451575756, 0.00201029353775084, -0.0011759232729673386, 0.0384770892560482, 0.047652896493673325, -0.0013558316277340055, -0.041636720299720764, 0.057235077023506165, -0.07274771481752396, -0.04043826460838318, -0.04933404177427292, -0.021198172122240067, 0.019055934622883797, -0.013228566385805607, 0.020069144666194916, -0.024740353226661682, -0.020545585080981255, 0.020023411139845848, 0.03742660582065582, -0.0884556844830513, -0.09000959247350693, -0.01161161344498396, -0.02414824068546295, 0.009595523588359356, 0.0017817254411056638, -0.010803387500345707, -0.031335197389125824, -0.012021852657198906, 0.04680389165878296, -0.06432957202196121, 0.09969402104616165, -0.013402018696069717, 0.013289855793118477, 0.0061213187873363495, -0.0160798542201519, -0.043802399188280106, 0.030141519382596016, 0.004690092988312244, -0.006969924084842205, 0.018557988107204437, 0.041161805391311646, 0.018970876932144165, 0.1068064346909523, -0.004901666659861803, -0.021096790209412575, 0.017326144501566887, -0.00859398115426302, 0.04656818509101868, 0.039576053619384766, 0.015699999406933784, -0.01393189374357462, 0.03788117691874504, 0.03327103331685066, -0.2918298840522766, -0.019980695098638535, 0.016915438696742058, -0.0016635573701933026, -0.07390990853309631, -0.019657908007502556, 0.01996639557182789, 0.031134499236941338, 0.014211161993443966, 0.07471920549869537, 0.026552662253379822, -0.0029163553845137358, -0.013008574955165386, 0.011238943785429, -0.016690846532583237, -0.02476641908288002, 0.03848585486412048, 0.020612291991710663, -0.024136260151863098, 0.004478313960134983, 0.022530950605869293, 0.04347533360123634, -0.0611116886138916, -0.03908783197402954, 0.03696458041667938, 0.030112219974398613, 0.1911204755306244, -0.11233535408973694, -0.03428126499056816, -0.030932163819670677, 0.061247315257787704, 0.05405109003186226, -0.045719213783741, -0.11249189078807831, -0.034900322556495667, 0.0007043692166917026, 0.0061257947236299515, 0.02062888629734516, 0.033389393240213394, -0.040030401200056076, 0.029969558119773865, 0.027672182768583298, -0.03581889718770981, -0.03686394542455673, 0.013791318982839584, -0.029041698202490807, -0.038863539695739746, 0.030752452090382576, -0.025001268833875656, 0.003749159397557378, -0.04187371954321861, -0.020702986046671867, 0.05987364053726196, 0.019569847732782364, 0.06748779118061066, -0.0041487980633974075, -0.03413448855280876, 0.03327522426843643, -0.010105641558766365, 0.057640209794044495, -0.05132988840341568, 0.004136368632316589, 0.03619728237390518, -0.010088587179780006, 0.03220200538635254, -0.006735223811119795, -0.015107156708836555, 0.06232094392180443, -0.04827655479311943, 0.028545057401061058, 0.01221635565161705, 0.018672775477170944, -0.0022993956226855516, -0.007876303978264332, -0.05719023197889328, -0.05920926481485367, 0.00705718295648694, 0.0659819021821022, -0.008261128328740597, -0.019493957981467247, 0.06088278070092201, 0.01908833719789982, 0.03008527308702469, -0.061254341155290604, 0.0018884297460317612, 0.05136900767683983, 0.03771873190999031, 0.01878320798277855, 0.03575342893600464, -0.002800353802740574, -0.03402944654226303, -0.03724740445613861, 0.02873455174267292, 0.019138026982545853, 0.09563779085874557, -0.018784144893288612, -0.24868017435073853, -0.009147110395133495, -0.0506097748875618, -0.002415684750303626, -0.0013262106804177165, 0.01007143035531044, 0.049391571432352066, -0.010693928226828575, -0.08145395666360855, 0.04952973872423172, -0.023673292249441147, -0.022138917818665504, 0.0010758716380223632, -0.007719952147454023, 0.06559798121452332, 0.014144755899906158, 0.07688847929239273, 0.03432333841919899, -0.010589051060378551, -0.08735962957143784, 0.042384106665849686, -0.02511114999651909, 0.1934461146593094, -0.013012674637138844, -0.0033172443509101868, 0.043908923864364624, 0.01628929190337658, 0.027584198862314224, 0.033494193106889725, 0.043214671313762665, -0.005019498988986015, -0.027303388342261314, 0.01045132428407669, -0.010246740654110909, -0.01436516735702753, 0.005242979619652033, -0.014727425761520863, -0.017759889364242554, 0.015824999660253525, -0.061251718550920486, -0.0465020090341568, 0.027170702815055847, 0.02589249424636364, 0.00011791554425144568, 0.06071830168366432, 0.016297442838549614, -0.06536582112312317, -0.004776327405124903, 0.015640469267964363, -0.006812246050685644, -0.03411879017949104, -0.06029560789465904, -0.00525833573192358, -0.029570909217000008, -0.02176547795534134, -0.004124818369746208, -0.0009096639696508646, 0.02473163977265358, -0.02413206733763218, 0.003045098390430212, 0.04029225558042526, -0.047103140503168106, 0.019982118159532547, -0.000930732989218086, -0.0016718098195269704]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>need_for_stable_connectivity_during_extreme_weather</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>["Improvement needed: The satellite and partnership around that will improve my access to all services and information I use.\nReason for given NPS: Will be a 10 when you're satellite goes up next year. Hopefully that will deal with no coverage areas and access being lost due to very windy and/or stormy weather.", 'Improvement needed: Unfortunately the location of my house means that the mobile reception for my cell phone is patchy I have been told that this will improve when the satellite used next year.\nReason for given NPS: The call Centre staff have always been most helpful when needed even providing a direct phone number to avoid the que during the cyclones.']</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>[-0.04605434462428093, -0.03650360926985741, 0.025247467681765556, 0.00449406960979104, 0.042825937271118164, -0.013969709165394306, -0.026806939393281937, 0.04201105982065201, -0.010492321103811264, -0.028612734749913216, -0.02383119985461235, -0.009661043994128704, 0.09183394908905029, 0.024636777117848396, 0.012477005831897259, 0.05987934395670891, 0.09478776901960373, 0.013659080490469933, 0.03134879097342491, 0.05494767427444458, -0.006924934219568968, 0.01167267095297575, -0.0041609229519963264, -0.004855531267821789, -0.0411347970366478, 0.030973436310887337, -0.006225035060197115, 0.005646516568958759, -0.021044693887233734, -0.1273067593574524, -0.03656242415308952, 0.018005983904004097, -0.013629624620079994, 0.03830472752451897, -0.005314095411449671, -0.002184690907597542, -0.006036621984094381, -0.043106809258461, 0.01615997590124607, 0.05223153159022331, 0.02180999517440796, 0.036981094628572464, -0.05778675153851509, -0.026038682088255882, -0.016279075294733047, -0.06767643243074417, 0.013674506917595863, 0.010957234539091587, 0.05921725928783417, -0.05586493760347366, 0.01837211847305298, -0.0013950694119557738, -0.015989702194929123, -0.00627118069678545, 0.026654552668333054, 0.12580445408821106, 0.008634127676486969, 0.041144877672195435, 0.003205647226423025, -7.879234908614308e-05, 0.016125109046697617, 0.04857529699802399, -0.12945376336574554, 0.015538603067398071, 0.07517635822296143, -0.006897034123539925, -0.045280978083610535, 0.010118533857166767, 0.01861824467778206, 0.010589499957859516, -0.03785732015967369, 0.037028003484010696, -0.0027113414835184813, 0.04527023807168007, 0.062007542699575424, 0.04150347784161568, -0.04592738300561905, -0.00572725897654891, 0.003672416554763913, 0.0062454682774841785, 0.055520448833703995, 0.029211755841970444, 0.0006197104230523109, -0.027447514235973358, 0.026158219203352928, -0.034197382628917694, -0.002278166590258479, -0.01841457188129425, -0.04720111936330795, -0.0035487741697579622, -0.08151762187480927, -0.006576365791261196, 0.01738804392516613, 0.03299654647707939, -0.04240007698535919, 0.05291406437754631, 0.041052646934986115, -0.007408160250633955, -0.037615153938531876, 0.36429986357688904, -0.05460943654179573, 0.018705349415540695, 0.007538875564932823, 0.07211343199014664, 0.01499895565211773, -0.0171049814671278, 0.019693369045853615, -0.07012530416250229, -0.0560084693133831, -0.03728857263922691, 0.006059352308511734, -0.06862074136734009, 0.02247750200331211, 0.01187965925782919, 0.0386841855943203, 0.04958373308181763, -0.018667196854948997, -6.47894266876392e-05, -0.049229200929403305, 0.012494874186813831, -0.03506068140268326, 0.024087829515337944, 0.08473369479179382, 0.047562554478645325, 0.04719405248761177, -0.03511865437030792, 0.020390354096889496, 0.09635061770677567, 0.024798152968287468, 0.050716135650873184, 0.01207160297781229, -0.024187779054045677, 0.04065806791186333, 0.006628015078604221, -0.028635334223508835, -0.018552249297499657, 0.009481467306613922, -0.024570953100919724, 0.0036518678534775972, 0.03896927461028099, 0.009318732656538486, -0.05939275026321411, 0.07575120031833649, -0.09514942765235901, 0.034340452402830124, 0.05179499834775925, -0.021925197914242744, 0.025820890441536903, -0.023697013035416603, -0.08525826036930084, -0.0035194922238588333, -0.033421050757169724, 0.04778357595205307, -0.0416773296892643, 0.007223039865493774, 0.005646558944135904, 0.02835872955620289, 0.025589972734451294, -0.03136097639799118, -0.00798663031309843, 0.022131791338324547, -0.060892947018146515, -0.022400962188839912, 0.0875200405716896, -0.041005853563547134, -0.055827345699071884, 0.00257658283226192, 0.007432369515299797, -0.05804671347141266, -0.003289645304903388, -0.026947276666760445, -0.006336454302072525, 0.05039536580443382, 0.02894270047545433, 0.07542628794908524, -0.032933495938777924, -0.0923585370182991, 0.02262209728360176, -0.04088345542550087, 0.023859115317463875, 0.01142342109233141, 0.010872608982026577, -0.015303353779017925, 0.008149140514433384, 0.003966040443629026, -0.025137951597571373, -0.057055070996284485, -0.030718497931957245, 0.019481578841805458, -0.05200722813606262, -0.10180620104074478, -0.13472476601600647, 0.032799120992422104, 0.007283821702003479, -0.01987031102180481, -0.030900586396455765, -0.00397108681499958, -0.006335914134979248, 0.03311512991786003, -0.05607355386018753, 0.06916917860507965, -0.010075247846543789, -0.048360954970121384, -0.016156509518623352, -0.006420264020562172, 0.051959965378046036, -0.03879876062273979, -0.0338878333568573, 0.013575226068496704, 0.005041561555117369, 0.05159023776650429, -0.01764655113220215, 0.10477196425199509, -0.023873748257756233, -0.017288075760006905, -0.016699930652976036, -0.0004761400050483644, 0.060657136142253876, 0.008909696713089943, 0.052291058003902435, 0.08655565977096558, 0.036194346845149994, -0.009774881415069103, -0.3245815932750702, -0.0394890122115612, -0.01399901881814003, 0.002126933541148901, 0.03351050242781639, -0.022011272609233856, 0.055870093405246735, -0.03185572847723961, -0.01168079487979412, 0.0002072650531772524, 0.09251730889081955, -0.022069966420531273, 0.028699325397610664, -0.060119789093732834, -0.0018444336019456387, 0.02800096943974495, -0.04991553723812103, -0.01955942064523697, -0.020480163395404816, 0.03789280354976654, -0.016115421429276466, 0.04382786154747009, -0.08020711690187454, -0.054819196462631226, 0.004942777566611767, -0.01799267716705799, 0.1763254702091217, -0.09112256020307541, 0.0015873570227995515, -0.05013003945350647, 0.027785593643784523, 0.0015039750142022967, 0.007659687660634518, -0.09063596278429031, 0.013196537271142006, 0.052065279334783554, 0.0065009030513465405, 0.005352453328669071, -0.03253469988703728, -0.00936473160982132, 0.01618991233408451, 0.05077757686376572, 0.012969885021448135, -0.020468086004257202, -0.05169834941625595, -0.052950192242860794, -0.010663533583283424, 0.01894967630505562, -0.06301619857549667, -0.01735498011112213, -0.001163614448159933, -0.010581545531749725, -0.014839067123830318, 0.013030861504375935, 0.0394376702606678, 0.010098261758685112, -0.012969162315130234, 0.022736215963959694, -0.023518985137343407, -0.015988238155841827, 0.015329890884459019, 0.005986729636788368, -0.00792363379150629, -0.013780210167169571, 0.05441741645336151, 0.03884231299161911, 0.01451974269002676, -0.011260868981480598, 0.0356498584151268, 0.009868633933365345, -0.03535471484065056, 0.023516973480582237, -0.02826172485947609, 0.021286584436893463, 0.02218618430197239, -0.05373755469918251, 0.0013211985351517797, 0.013861574232578278, -0.01475625392049551, -0.025365261361002922, 0.04104318097233772, -0.05676880478858948, 0.06355705857276917, 0.007652269676327705, 0.014657443389296532, 0.013475407846271992, -0.006775964982807636, -0.005567292217165232, 0.009379766881465912, 0.021701883524656296, -0.030471377074718475, 0.003357485868036747, 0.01579608954489231, -0.058892395347356796, 0.09338544309139252, 0.0020239721052348614, -0.30432605743408203, -0.0007009589462541044, 0.02432180941104889, -0.08920001238584518, -0.05431731417775154, -0.013191201724112034, 0.03518321365118027, 0.03698386251926422, -0.11278027296066284, 0.02946469374001026, -0.0335557721555233, 0.019239608198404312, -0.0127464160323143, 0.021843457594513893, 0.04523826390504837, -0.0017279660096392035, 0.04542256146669388, -0.04100937396287918, -0.03578260913491249, -0.05301254242658615, 0.016874870285391808, 0.009515554644167423, 0.14225144684314728, -0.011940945871174335, 0.033184610307216644, 0.09286744892597198, -0.03971484303474426, 0.0413600355386734, 0.004510415717959404, -0.02021474950015545, 0.016939090564846992, -0.03353438153862953, -0.016999350860714912, -0.026345405727624893, 0.02882688120007515, 0.06178859621286392, 0.01765594817698002, 0.008079846389591694, 0.06047562509775162, -0.027044465765357018, 0.009792668744921684, 0.0955016016960144, 0.03895086050033569, -0.0206610020250082, 0.040175408124923706, -0.04487306997179985, -0.006494731176644564, -0.004289065953344107, -0.006899803876876831, -0.024744700640439987, -0.03519754111766815, -0.05194234102964401, -0.011345180682837963, -0.013166225515305996, 0.011520336382091045, 0.033307917416095734, -0.026139967143535614, 0.03817034885287285, -0.038753192871809006, -0.0008047298179008067, 0.04738430678844452, -0.06364484876394272, 0.029959896579384804, -0.0408066101372242, 0.03857722133398056]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>lack_of_value_added_service_for_long_standing_customers</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Be pro-active about keeping your existing customers.\nReason for given NPS: If I was asked who I was with re phone and internet I would respond one.nz but as one.nz has done nothing for me to crow about I see no reason to give free advertising for them.', 'Improvement needed: Loyalty rewards for long term customers.\nReason for given NPS: Great friendly professional service.']</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>[-0.03248162567615509, -0.01851615123450756, 0.016012011095881462, -0.0064238086342811584, -0.00017753806605469435, -0.02084372192621231, -0.07603700459003448, 0.042714718729257584, 0.036712683737277985, -0.01639399491250515, 0.03146298974752426, 0.03027646616101265, 0.023729361593723297, -0.008960037492215633, 0.033526428043842316, -0.00463655823841691, 0.0799858421087265, -0.0476212315261364, -0.012136941775679588, 0.00772348465397954, 0.06265019625425339, -0.07013172656297684, -0.024432897567749023, 0.021643271669745445, -0.0018409424228593707, -0.02250281348824501, -0.04088549315929413, -0.04412609711289406, -0.008922075852751732, -0.09701448678970337, -0.003615764668211341, -0.03407342731952667, 0.04318765923380852, 0.0013435602886602283, 0.06999746710062027, -0.02212209440767765, -0.004557211417704821, -0.025169089436531067, 0.027072083204984665, 0.053026314824819565, 0.012172279879450798, -0.0032558601815253496, -0.02230805717408657, 0.008287135511636734, -0.07036008685827255, -0.057032715529203415, 0.03966233506798744, -0.03550334647297859, 0.08488249778747559, -0.03300398215651512, 0.003567087696865201, 0.020267846062779427, -0.02778785489499569, 0.02298627980053425, 0.001478506368584931, 0.07765945792198181, -0.009132875129580498, 0.004893049597740173, 0.006789178121834993, 0.007092549931257963, 0.053975943475961685, -0.0778355672955513, -0.14932440221309662, -0.02128911390900612, 0.018233664333820343, 0.023557301610708237, -0.013001218438148499, -0.04317036643624306, -0.03886869177222252, -0.027767037972807884, 0.004189836326986551, 0.01017302367836237, -0.01129943784326315, 0.09781215339899063, 0.026117337867617607, 0.017400484532117844, 0.02644363045692444, 0.01568325236439705, -6.49774847261142e-07, 0.029311951249837875, 0.05677318572998047, -0.038439519703388214, -0.015016085468232632, 0.011022104881703854, -0.039636243134737015, -0.05095122009515762, -0.018376072868704796, -0.01561004389077425, -0.00509228277951479, 0.004312037490308285, 0.05191294476389885, -0.014264106750488281, 0.0008308007381856441, 0.037213705480098724, -0.07090332359075546, -0.057167891412973404, -0.012766413390636444, 0.02337692491710186, -0.10998701304197311, 0.39636287093162537, 0.04386750981211662, 0.06776338815689087, -0.01613522879779339, -0.013236547820270061, 0.03582640737295151, 0.017057957127690315, -0.06749024987220764, 0.030332859605550766, -0.0014900326495990157, 0.012996036559343338, -0.04069404676556587, 0.052169978618621826, 0.05244912952184677, -0.052908726036548615, -0.022910092025995255, 0.08083037286996841, -0.0352742038667202, -0.030804073438048363, -0.049078889191150665, 0.003064811462536454, -5.57272978767287e-05, 0.010290427133440971, 0.03869660198688507, 0.0007063827360980213, -0.005721059162169695, 0.01397827547043562, 0.05107643082737923, 0.11412107944488525, -0.028303198516368866, 0.035621438175439835, -0.014247828163206577, -0.05994473397731781, -0.03462247550487518, -0.004644853062927723, -0.01919894479215145, 0.02976742945611477, 0.016748826950788498, 0.036777447909116745, 0.052469898015260696, 0.034693099558353424, -0.025376036763191223, -0.09428828209638596, -0.04095529019832611, -0.05730007588863373, 0.06027119979262352, 0.05057866498827934, 0.030913054943084717, 0.07410451024770737, -0.007287792861461639, -0.012377850711345673, -0.03895667567849159, 0.067594513297081, -0.0247541181743145, -0.03502678498625755, 0.0011806152760982513, 0.009381826967000961, 0.04838564991950989, -0.003953564912080765, -0.04555266723036766, -0.010648747906088829, 0.08305548876523972, -0.015327409841120243, -0.05250369384884834, 0.06416888535022736, -0.014698395505547523, -0.0645979642868042, 0.00219523417763412, -0.010255695320665836, -0.05376439914107323, 0.06072916090488434, -0.03895857185125351, 0.0401185043156147, -0.023247452452778816, -0.0090187331661582, 0.11393532156944275, -0.06448731571435928, -0.03091702237725258, 0.07246850430965424, -0.02084045484662056, 0.006920365616679192, -0.038767971098423004, 0.03265872597694397, -0.04415976628661156, 0.011991201899945736, 0.01687590964138508, -0.046923015266656876, 0.010501224547624588, -0.02213435247540474, -0.035795342177152634, -0.010061424225568771, -0.06571327894926071, -0.026686524972319603, -0.02777504175901413, -0.045719534158706665, 0.035122767090797424, -0.0479746051132679, 0.001760779065079987, -0.004539462272077799, 0.08601570129394531, -0.018829548731446266, 0.03865367919206619, 0.02171023003757, -0.004214650020003319, -0.033634401857852936, -0.006366981193423271, 0.050707120448350906, 0.002035978250205517, 0.03149732947349548, 0.04566039890050888, -0.004731158260256052, 0.010964498855173588, 0.02129119448363781, 0.06810575723648071, 0.05099109560251236, 0.0013819324085488915, 0.034474700689315796, 0.009410436265170574, 0.03148745372891426, 0.05049353465437889, -0.02876707725226879, 0.05106310918927193, 0.13342370092868805, -0.014141500927507877, -0.32248544692993164, 0.027211112901568413, -0.021229473873972893, -0.060525182634592056, -0.028083492070436478, 0.007278949022293091, 0.04038421809673309, 0.025425590574741364, -0.06255084276199341, 0.0629192367196083, 0.04705072194337845, -0.014796020463109016, 0.010899228043854237, -0.05334605276584625, -0.01758503168821335, -0.003910582512617111, 0.003578013041988015, 0.030894918367266655, 0.0019037349848076701, 0.01064995676279068, -0.009638466872274876, 0.05373987555503845, 0.012434917502105236, -0.022051982581615448, 0.02606150694191456, -0.003365500597283244, 0.15185324847698212, -0.10278823971748352, -0.07271989434957504, -0.08052010834217072, 0.015118887647986412, 0.06630700081586838, -0.057820893824100494, -0.022530382499098778, 0.031190253794193268, -0.015442563220858574, -0.025167638435959816, 0.07564736157655716, -0.013461367227137089, 0.01721162721514702, -0.0006194449961185455, 0.03641166538000107, -0.03338208049535751, 0.012714694254100323, 0.04384022578597069, -0.010872794315218925, 0.018788669258356094, 0.04111193120479584, -0.033486224710941315, -0.010050768032670021, -0.028555288910865784, -0.04050303250551224, 0.008302802219986916, 0.04934774711728096, 0.07236822694540024, 0.001957116648554802, -0.034328412264585495, 0.03089112415909767, 0.00014794821618124843, -0.0061865197494626045, -0.035277098417282104, 0.00916208140552044, 0.056006599217653275, -0.01610560528934002, 0.060569487512111664, -0.023866288363933563, -0.004282545298337936, 0.021991925314068794, -0.018241509795188904, 0.024751460179686546, -0.04866740107536316, 0.01199856586754322, -0.058646511286497116, -0.04381509870290756, -0.021701708436012268, -0.021290581673383713, -0.03422465920448303, -0.013829197734594345, -0.019973451271653175, -0.01705881953239441, -0.010067997500300407, -0.00917065143585205, -0.001002306817099452, 0.03463473170995712, 0.020369386300444603, 0.07947663217782974, -0.0399036630988121, 0.04307534918189049, -0.01013632770627737, -0.023991279304027557, -0.010944284498691559, -0.0321182943880558, -0.024872614070773125, -0.004517532419413328, 0.08399509638547897, 0.010530341416597366, -0.2312997728586197, 0.007951686158776283, -0.002720428630709648, -0.0015265577239915729, -0.02836599387228489, 0.1052093356847763, -0.04551520198583603, 0.024658162146806717, -0.07678093016147614, -0.011678464710712433, -0.0011812674347311258, 0.02026813104748726, -0.00979901198297739, -0.09757884591817856, 0.055816520005464554, 0.025256089866161346, 0.0398271381855011, -0.054206687957048416, -0.0025490487460047007, -0.06745486706495285, 0.047949884086847305, 0.016149276867508888, 0.16342294216156006, -0.0018982553156092763, -0.03307582437992096, 0.0021436603274196386, 0.007070356048643589, 0.010655001737177372, -0.022301560267806053, -0.00093686836771667, -0.07436057180166245, -0.006052342709153891, 0.06935334205627441, 0.011531665921211243, -0.04357829689979553, -0.005623744335025549, 0.021218782290816307, -0.035749033093452454, 0.023096900433301926, 0.010599106550216675, -0.034530118107795715, 0.018476324155926704, -0.05053720250725746, -0.014795408584177494, 0.061680782586336136, -0.006609706208109856, 0.003471170784905553, -0.045112110674381256, 0.05943601578474045, -0.0009853513911366463, -0.04776561260223389, -0.07777176797389984, 0.007518071681261063, 0.07577433437108994, 0.028949961066246033, 0.0008681206381879747, -0.04130815714597702, 0.006053786259144545, 0.042815033346414566, -0.014604337513446808, -0.011718535795807838, -0.08576121926307678, 0.024297980591654778, -0.004503719508647919, -0.0010799798183143139]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>lack_of_accessibility_to_human_support</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Have a list of winners for your rewards. I mean, do real people actually win? Have better support, speaking to a real person and getting a reply I don’t think\nIs too much to ask. Def not good customer service.\nReason for given NPS: Wifi at home is pretty average, doesn’t always work.\nTrying to contact you by phone is an actual task! Feels like such a chore and no pleasure at all. Very painful', 'Improvement needed: Telephone help desk - a human; not via chat bot\nReason for given NPS: Hard to get through when you need them; but looking forward to NZ-wide coverage next year.']</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[-0.042055826634168625, -0.0152497673407197, -0.01357537042349577, -0.015286996029317379, -0.005212010815739632, -0.003850719891488552, 0.005300683435052633, 0.015606955625116825, -0.0001233556540682912, -0.036626435816287994, 0.02237613871693611, 0.03200521320104599, 0.012788034975528717, -0.0034474844578653574, 0.05717242509126663, 0.05098786950111389, 0.005455578211694956, 0.041604313999414444, -0.02288375236093998, 0.063560850918293, 0.05072694644331932, -0.00010807762737385929, -0.0013883280334994197, 0.002490653656423092, -0.0682385116815567, 0.012280551716685295, -0.016451017931103706, -0.0257751252502203, -0.03558267652988434, -0.09735339879989624, 0.025772474706172943, -0.03398409113287926, 0.025039557367563248, 0.01278119906783104, 0.052441999316215515, -0.0173908993601799, -0.007450902834534645, -0.00847486313432455, 0.0017233788967132568, 0.039704013615846634, -0.017883919179439545, -0.0033749768044799566, -0.038911134004592896, -0.013570239767432213, -0.0016110860742628574, -0.0021315354388207197, -0.01637597382068634, -0.030600057914853096, 0.027955705299973488, -0.08425633609294891, -0.02440696395933628, 0.0645301416516304, -0.004921098239719868, 0.034295208752155304, 0.0404730886220932, 0.014609537087380886, 0.05164394527673721, 0.007939562201499939, 0.016925908625125885, -0.023120010271668434, 0.04399654269218445, -0.008527390658855438, -0.13130711019039154, 0.02877914160490036, 0.02233242243528366, 0.012267231941223145, 0.0013928897678852081, -0.07396185398101807, -0.0032117264345288277, -0.06754948198795319, 0.004151355475187302, -0.029420925304293633, 0.006997306831181049, 0.03426782414317131, 0.0276250671595335, 0.019536467269062996, 0.004473511129617691, -0.034853748977184296, 0.05374123156070709, -0.01477953139692545, 0.04801877215504646, 0.03659835457801819, -0.02935517020523548, 0.01313798502087593, 0.026935065165162086, -0.002285849768668413, -0.00027453043730929494, -0.00897405669093132, -0.0342034287750721, 0.041660409420728683, -0.04179374873638153, -0.02759711630642414, 0.04792027920484543, 0.08528456836938858, -0.04636586084961891, -0.056936971843242645, 0.013405363075435162, -0.03660367429256439, -0.13722367584705353, 0.42225518822669983, 0.055873043835163116, 0.09287283569574356, 0.019897371530532837, -0.01402116660028696, 0.05572875216603279, 0.019921354949474335, 0.028289232403039932, -0.024180475622415543, -0.021310755982995033, -0.02894768863916397, -0.0013642320409417152, -0.023382995277643204, 0.037962865084409714, -0.0030525843612849712, 0.01955156773328781, 0.034410711377859116, -0.03635643795132637, -0.018758535385131836, -0.002836712868884206, 0.024344829842448235, -0.022355185821652412, -0.01568865403532982, 0.04111596196889877, 0.01059073768556118, -0.003976944833993912, 0.019697312265634537, 0.04499848932027817, 0.09752815216779709, 0.04706810414791107, -0.011107965372502804, 0.0504111610352993, -0.030735936015844345, -0.0026464478578418493, -0.03761404752731323, -0.02575295977294445, -0.014570838771760464, 0.00022886740043759346, 0.005264321342110634, 0.025139642879366875, 0.029040561988949776, 0.031169425696134567, -0.1008281484246254, -0.03739987313747406, -0.03442729264497757, 0.025087719783186913, 0.07719095796346664, -0.05513659864664078, 0.028042379766702652, -0.018238231539726257, 0.01928316429257393, 0.008880243636667728, 0.02790755406022072, -0.04364796355366707, 0.01647338829934597, -0.02617623656988144, -0.019958525896072388, 0.01848677173256874, -0.029787737876176834, -0.011859436519443989, 0.04578201100230217, 0.10365324467420578, -0.06149003282189369, -0.05356399714946747, 0.028285229578614235, 0.0373493917286396, -0.0257522352039814, -0.043262433260679245, 0.020823298022150993, -0.0019515828462317586, 0.01260258350521326, 0.025093719363212585, -0.029706358909606934, -0.004338313825428486, 0.02890998125076294, 0.06068793684244156, -0.03465750068426132, -0.0605846606194973, 0.03963277116417885, -0.025409739464521408, 0.05268481746315956, -0.003165631555020809, -0.09031476825475693, -0.05864935368299484, -0.03335822746157646, -0.013445660471916199, 0.01825624331831932, -0.009607082232832909, -0.04420892149209976, 0.04002780094742775, -0.010821734555065632, -0.007434865925461054, -0.02985866367816925, -0.06949988007545471, -0.0652012750506401, 0.014310869388282299, 0.032267358154058456, -0.014275863766670227, -0.06989245116710663, 0.018275192007422447, 0.013464577496051788, 0.047334399074316025, 0.05195896700024605, -0.048473916947841644, 0.05384870618581772, -0.024261536076664925, 0.0006043493049219251, -3.856799958157353e-05, -0.023700803518295288, 0.05166563764214516, 0.005980583839118481, -0.030306685715913773, 0.022908750921487808, 0.040185753256082535, 0.0330139622092247, -0.03007369488477707, 0.04451063275337219, 0.022607706487178802, 0.004759803414344788, 0.054805938154459, 0.006737772841006517, 0.048246078193187714, 0.08242085576057434, -0.010244320146739483, -0.3183942139148712, -0.0037562197539955378, -0.026395263150334358, -0.03808271512389183, -0.1356656700372696, -0.002150886692106724, 0.023460013791918755, -0.03068159520626068, -0.056203972548246384, 0.07790461927652359, 0.10162824392318726, 0.006675818003714085, -0.03515719994902611, 0.03629671409726143, -0.01811361126601696, -0.0006210820865817368, -0.04126592352986336, 0.028977785259485245, -0.014332301914691925, -0.015512462705373764, -0.0066373636946082115, 0.009552179835736752, -0.009081893600523472, -0.02569912001490593, -0.006903436034917831, -0.00574830174446106, 0.18870320916175842, -0.022213047370314598, 0.0017873379401862621, -0.03281087428331375, -0.05196254327893257, 0.11666721105575562, -0.06902026385068893, -0.1781313717365265, 0.035485558211803436, 0.027671363204717636, -0.0263202041387558, -0.054505329579114914, 0.029836619272828102, -0.016442464664578438, -0.019583716988563538, 0.04387422278523445, 0.0008266392396762967, -0.01778484135866165, -0.01532506849616766, -0.011215969920158386, 0.017682237550616264, 0.0120589854195714, -0.04065777733922005, 0.015235415659844875, 0.01739729940891266, -0.001772240735590458, -0.05251382291316986, 0.08794412761926651, -0.04317805543541908, 0.02247319370508194, -0.006485016085207462, 0.05415421351790428, -0.011151984333992004, 0.07238484919071198, -0.02032138593494892, 0.0015087089268490672, 0.03750962018966675, -0.06907875090837479, 0.02134561724960804, -0.02287764474749565, -0.035206593573093414, 0.03299771994352341, -0.013581396080553532, -0.01086485106498003, -0.04726840928196907, 0.06009602174162865, 0.013402734883129597, 0.01903667114675045, -0.008327010087668896, 0.021462827920913696, 0.01981632225215435, 0.0008814312168397009, -0.010984045453369617, -0.04820220544934273, 0.0069849067367613316, 0.039834991097450256, 0.017926383763551712, 0.017801331356167793, 0.044290732592344284, 0.03198806941509247, -0.03773900493979454, -0.015575061552226543, 0.030051447451114655, -0.02592380717396736, 0.008070957846939564, 0.017092455178499222, -0.051638178527355194, -0.04381049424409866, 0.07031740248203278, -0.006659421604126692, -0.234592005610466, -0.014566384255886078, 0.011916957795619965, -0.014061637222766876, -0.02876967377960682, 0.018338125199079514, 0.03457985818386078, -0.04168420657515526, -0.0972176343202591, -0.0392831452190876, 0.015169816091656685, 0.023470647633075714, -0.055104296654462814, -0.01887275092303753, 0.042426422238349915, 0.009592074900865555, 0.02626127377152443, -0.00735831493511796, -0.05526881664991379, -0.08100701868534088, 0.04585832357406616, 0.05986863002181053, 0.1487063765525818, -0.038154806941747665, -0.06820860505104065, -0.014327021315693855, 0.020324504002928734, -0.009135023690760136, 0.022434867918491364, -0.009586313739418983, -0.07106205075979233, -0.01903887651860714, 0.015380728989839554, 0.005321833770722151, 0.019901277497410774, -0.03393259644508362, 0.05891958251595497, -0.0658039003610611, 0.060801323503255844, -0.02706398069858551, 0.011110935360193253, 0.02469828724861145, 0.01371086947619915, -0.05165188014507294, 0.07230496406555176, -0.04777097329497337, 0.04805919528007507, -0.007661810144782066, 0.06056581065058708, -0.003402928588911891, -0.03850101679563522, -0.021718954667448997, 0.002765157725661993, 0.057521261274814606, 0.03652004152536392, 0.03059523180127144, 0.01484793983399868, -0.005833045579493046, -0.008002880029380322, -0.03976898267865181, 0.012848825193941593, 0.004355030134320259, 0.02608460746705532, 0.04224256053566933, -0.00020966814190614969]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>challenges_for_elderly_customers</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>["Improvement needed: I am passed my use by date and so I like talking to a human on the phone, and I hate waiting because I feel it is wasting the precious time I have left.\nSo - improve your waiting time - you are supposed to be a communications firm for heaven's sake!\nReason for given NPS: There are so many good deals out there and I know very little about the technology behind the companies.   People are more willing to switch these days which is interesting.   However, I don't feel qualified to judge.", "Improvement needed: Package deal re usage.\nReason for given NPS: I feel my monthly bill is costly for what I need, as I have an elderly parent it is the only reason I need to be connected to a land line. As I can use a cell phone my 90 yr old parent can't so needs to be able to reach me on a land line, being the only reason I have it."]</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[-0.04373912513256073, -0.0035872606094926596, 0.01838606782257557, -0.007851644419133663, -0.02779114805161953, 0.041155945509672165, 0.021744834259152412, 0.029209420084953308, -0.05311931297183037, -0.04955734312534332, -0.019575590267777443, 0.04009877145290375, -0.0324719101190567, 0.022921565920114517, 0.04426039010286331, 0.037893932312726974, 0.07212661951780319, 0.013688169419765472, -0.03256616368889809, 0.07472642511129379, -0.0014874250628054142, -0.03278966248035431, -0.029103653505444527, 0.025858646258711815, -0.016350921243429184, -0.016636529937386513, -0.04101453721523285, -0.023092135787010193, -0.05151903256773949, -0.12204420566558838, -0.026999589055776596, 0.0013521132059395313, 0.06340193748474121, -0.013513871468603611, 0.060180436819791794, 0.044348154217004776, -0.0016043533105403185, -0.021838340908288956, 0.0068089887499809265, -0.014730963855981827, 0.020645903423428535, 0.030500587075948715, -0.05017395690083504, -0.06969856470823288, -0.03737594187259674, -0.05586283653974533, -0.051552556455135345, 0.002267934614792466, 0.0021086945198476315, -0.025766195729374886, -0.0774005725979805, -0.013574423268437386, 0.012831353582441807, 0.011425407603383064, 0.015417707152664661, 0.004362559877336025, 0.025999892503023148, 0.0049504670314490795, 0.0018745013512670994, 0.030372343957424164, -0.00562547892332077, -0.07517712563276291, -0.14372047781944275, 0.06646546721458435, 0.010816967114806175, 0.06404982507228851, -0.009702782146632671, 0.014933476224541664, -0.04649766534566879, 0.03241026774048805, -0.025875667110085487, -0.0415116548538208, 0.005835029762238264, 0.0786278024315834, 0.018560858443379402, 0.02538641355931759, -0.014127304777503014, -0.04508931189775467, 0.029464222490787506, 0.033223558217287064, 0.06766214966773987, 0.022292250767350197, -0.03569769114255905, -0.0035903919488191605, -0.07370591908693314, -0.042573120445013046, -0.04564576968550682, -0.004568401724100113, 0.03605898469686508, -0.014845029450953007, 0.0041215140372514725, 0.07904896885156631, 0.010537928901612759, -0.006054510362446308, -0.012374086305499077, -0.09765935689210892, 0.018502796068787575, -0.022552702575922012, -0.09072404354810715, 0.3330346643924713, 0.012961340136826038, 0.05517817661166191, 0.023558758199214935, -0.03605421259999275, 0.052150625735521317, -0.040101125836372375, 0.003860343247652054, 0.0005390266887843609, 0.030706780031323433, 0.017577266320586205, -0.06045503169298172, 0.0026940391398966312, 0.05463603138923645, 0.02129915915429592, -0.03119228221476078, 0.0931515321135521, -0.0344061404466629, 0.027071040123701096, 0.006707239430397749, -0.02066708914935589, -0.023865515366196632, 0.03732067346572876, -0.005415553227066994, 0.03672308847308159, 0.0029697902500629425, -0.017402036115527153, 0.005884184502065182, 0.10487747937440872, -0.04272610321640968, 0.04773016273975372, 0.007742361165583134, -0.026755349710583687, -0.05656750127673149, 0.022652115672826767, -0.021610284224152565, -0.024021171033382416, -0.006527741905301809, 0.05921728163957596, 0.01791924051940441, 0.054412391036748886, -0.032013747841119766, -0.0936954990029335, 0.0029017534106969833, -0.060142211616039276, 0.01821436546742916, 0.0891362875699997, 0.02204921841621399, 0.038832198828458786, -0.0010655488586053252, -0.05327528342604637, 0.05697973817586899, 0.02627304196357727, 0.06423291563987732, -0.01543444860726595, -0.01553711574524641, 0.0075981211848556995, 0.0356624610722065, -0.009194992482662201, -0.05140252038836479, -0.004638771992176771, 0.1111525222659111, -0.0036641100887209177, -0.04356237128376961, 0.06594839692115784, 0.03404497355222702, -0.12020065635442734, -0.010122179985046387, -0.023303424939513206, -0.009578537195920944, 0.06165233254432678, 0.045120153576135635, 0.03971458971500397, -0.008810578845441341, 0.054135531187057495, 0.1000102236866951, 0.06187376379966736, -0.0009385463781654835, -0.011743142269551754, -0.03619375452399254, 0.038659244775772095, -0.03435693681240082, 0.0166472177952528, -0.01434987224638462, -0.027481157332658768, 0.02695031650364399, -0.07228627800941467, 0.05310235172510147, -0.0029710964299738407, 0.04946235567331314, -0.038544539362192154, -0.005774943623691797, -0.03109349124133587, -0.043594956398010254, 0.021792173385620117, 0.0011015560012310743, -0.03801031410694122, -0.031431470066308975, 0.023285409435629845, 0.05639321729540825, -0.006595644634217024, 0.0055717588402330875, -0.026549525558948517, -0.02585090883076191, 0.046036288142204285, -0.009840067476034164, 0.013979986310005188, 0.02666538767516613, -0.04591779783368111, 0.08349882811307907, -0.013371182605624199, 0.008673655800521374, -0.034453801810741425, 0.08670858293771744, 0.04741066321730614, -0.0031850296072661877, 0.034752070903778076, -0.0001190905095427297, 0.033026281744241714, 0.03145650401711464, 0.04290588200092316, 0.09057117253541946, 0.1306435465812683, -0.01580698788166046, -0.3443698287010193, 0.017698710784316063, -0.01523029338568449, -0.055572669953107834, -0.027373502030968666, 0.04164467006921768, 0.04150127246975899, 0.03313097357749939, -0.030308621004223824, 0.0680147111415863, 0.07145371288061142, -0.04456998407840729, 0.007631449028849602, -0.054547540843486786, 0.015659866854548454, -0.014837638475000858, -0.015263186767697334, 0.0038099035155028105, -0.009315308183431625, -0.01569298468530178, -0.014389949850738049, 0.030949121341109276, 0.07565201818943024, -0.0014469001907855272, 0.03612460196018219, 0.02684801258146763, 0.1724226325750351, -0.09675716608762741, -0.11130398511886597, -0.0579826757311821, -0.014168639667332172, -0.014237580820918083, -0.08625774085521698, -0.06376892328262329, 0.07130203396081924, -0.02052859403192997, -0.0022193160839378834, 0.03604736179113388, 0.01177402026951313, -0.00646581407636404, -0.014121124520897865, 0.062072206288576126, 0.030496889725327492, -0.0022354943212121725, -0.02882595919072628, -0.022109970450401306, 0.0015557535225525498, 0.02408054657280445, -0.050111040472984314, 0.015519251115620136, 0.01950317621231079, -0.011912979185581207, 0.04792901501059532, 0.021314943209290504, -0.009060848504304886, -0.03247370570898056, -0.030714664608240128, 0.008074672892689705, -0.036264777183532715, 0.03340445086359978, -0.03660472109913826, 0.02759023755788803, 0.07450927048921585, -0.01624065451323986, 0.056981462985277176, -0.02551782689988613, -0.03258100152015686, 0.026904264464974403, -0.0077798799611628056, -0.018611516803503036, 0.02149977907538414, 0.08077415078878403, -0.057743772864341736, -0.0516614206135273, -0.027144020423293114, 0.014721798710525036, -0.010477657429873943, -0.03722434490919113, 0.002386030973866582, -0.024134641513228416, 0.012527767568826675, -0.02916758321225643, 0.028882911428809166, 0.06767439842224121, 0.013421647250652313, 0.006616417318582535, -0.04242301359772682, -0.01655007153749466, 0.018570218235254288, -0.04956725239753723, 0.008317949250340462, -0.02542758360505104, -0.05119894817471504, -0.0004384073836263269, 0.035580143332481384, -0.0352754220366478, -0.2753124535083771, 0.009687240235507488, -0.04090726748108864, -0.014287969097495079, 0.002999131800606847, 0.0411994569003582, -0.001224811072461307, 0.03332963213324547, -0.04887336120009422, -0.009025802835822105, 0.017292775213718414, 0.050204165279865265, 0.022401822730898857, -0.051321618258953094, 0.044329192489385605, 0.04413742944598198, 0.019091887399554253, -0.01728673093020916, 0.010335590690374374, -0.07021646201610565, 0.02326928824186325, 0.05751322954893112, 0.1252913773059845, -0.02820194512605667, -0.019473470747470856, 0.029542211443185806, 0.0024144896306097507, -0.010948672890663147, 0.025413019582629204, -0.021708840504288673, -0.04796507954597473, -0.015701405704021454, 0.07139787822961807, -0.000582389475312084, 0.03611843287944794, 0.021021580323576927, -0.07158350944519043, -0.029036935418844223, 0.01646171137690544, 0.00952495913952589, -0.04387635737657547, -0.0003977208398282528, -0.047770220786333084, -0.03695620596408844, 0.07940896600484848, -0.03887820988893509, -0.028332462534308434, -0.014943962916731834, 0.008120323531329632, -0.02558310329914093, -0.004631968215107918, -0.08912134170532227, -0.007030709646642208, 0.03222624212503433, 0.037902381271123886, 0.035066962242126465, -0.026314465329051018, -0.02449970878660679, -0.005733857862651348, -0.056250158697366714, -0.031423985958099365, -0.016381260007619858, 0.012075892649590969, 0.002349806483834982, -0.02609340287744999]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>need_for_international_roaming_usage_tracker</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>["Improvement needed: I'd love a meter to show how much I was spending (especially internationally) as I roam.  It always seems cheap at the time but the accumulated cost can give me a shock\nReason for given NPS: I'd like to know more about which countries have $8/day roaming as I travel a lot and use it but also get hit with high roaming costs when the deal doesn't apply", "Improvement needed: Offer more flexible mobile options when travelling overseas. Keep insurance but drop to a much smaller plan. I travel overseas for 9 months of the year but keep paying the same 12GB plan the whole time I'm away as I don't have any other option.\n"]</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>[-0.003063140669837594, -0.07252617925405502, 0.04709239676594734, -0.07178208976984024, 0.027583809569478035, -0.03758600726723671, -0.005887708626687527, 0.06959041953086853, 0.01680655963718891, -0.012055497616529465, 0.031365349888801575, -0.0251773614436388, -0.0007201599655672908, 0.05975271761417389, -0.00954147893935442, -0.01058551762253046, -0.0006060100859031081, -0.029091065749526024, 0.0012479574652388692, 0.0073717571794986725, 0.06242283433675766, -0.010242637246847153, -0.0016258612740784883, 0.013450829312205315, -0.017473503947257996, 0.09320873767137527, -0.00818655826151371, 0.005718022119253874, -0.04546438530087471, -0.11122766882181168, -0.020661817863583565, -0.048075731843709946, -0.010492052882909775, 0.07673884183168411, -0.03662579134106636, -0.02150648832321167, -0.0293235182762146, -0.009777973406016827, 0.03133471682667732, 0.04702875763177872, 0.010422419756650925, 0.0590113028883934, 0.00805529486387968, 0.0015949802473187447, -0.025789659470319748, -0.06301896274089813, -0.017971856519579887, 0.04979219287633896, -0.049031373113393784, 0.022585926577448845, 0.07035542279481888, 0.026391196995973587, 0.024529490619897842, -0.00304040708579123, 0.0332227386534214, 0.054054491221904755, 0.07018362730741501, 0.023892780765891075, 0.023435305804014206, -0.012208325788378716, 0.04691505804657936, 0.004625903908163309, -0.19262486696243286, 0.03527140989899635, -0.05840889364480972, 0.05010024830698967, -0.017552481964230537, 0.025967689231038094, 0.023851953446865082, -0.00933963805437088, -0.07141194492578506, -0.017656128853559494, -0.048211559653282166, 0.06873881816864014, 0.012872458435595036, -0.016780436038970947, 0.01826794259250164, 0.01134768407791853, -0.0101711954921484, 0.009032445959746838, 0.051148343831300735, -0.0003006167826242745, -0.01615734212100506, 0.0051344940438866615, 0.05325884744524956, -0.04376880079507828, 0.012733597308397293, -0.019480938091874123, 0.04562917351722717, -0.0489383190870285, -0.03436189144849777, -0.010726979933679104, 0.04779447987675667, 0.05651942268013954, -0.07570352405309677, -0.058970190584659576, 0.03047986701130867, 0.033512670546770096, -0.11290673166513443, 0.34472617506980896, 0.03657586872577667, 0.009917045943439007, 0.01795000396668911, 0.04352083429694176, -0.01829957775771618, -0.01851758174598217, -0.01516571082174778, -0.058321382850408554, -0.029991809278726578, 0.0046654753386974335, -0.03212793916463852, -0.03839968889951706, 0.024096518754959106, -0.05501679331064224, 0.04044695571064949, 0.007728531025350094, 0.006909327581524849, -0.00013518879131879658, 0.01988193951547146, 0.00876160804182291, -0.007602108642458916, -0.06287694722414017, 0.07051403820514679, 0.02090168558061123, 0.06440837681293488, 0.020704932510852814, 0.08506570756435394, 0.055664315819740295, -0.0019022204214707017, 0.08055304735898972, 0.0028967461548745632, -0.030270176008343697, -0.0760597214102745, 0.03471732139587402, 0.018589310348033905, -0.025380369275808334, 0.020384132862091064, 0.027729203924536705, -0.008164172060787678, 0.0029289156664162874, -0.01856280118227005, -0.037911687046289444, 0.046851061284542084, -0.06792626529932022, 0.02129240892827511, 0.14452330768108368, 0.00799991749227047, 0.049244143068790436, 0.0021475651301443577, -0.14492666721343994, 0.020365435630083084, 0.028443844988942146, 0.029998304322361946, -0.07641841471195221, 0.008436060510575771, 0.018151776865124702, 0.022740047425031662, 0.0010700792772695422, -0.03164632245898247, 0.008708616718649864, 0.006388738285750151, -0.07884664833545685, -0.03301677852869034, 0.1171950176358223, 0.005218000616878271, -0.11483502388000488, -0.006423098035156727, 0.03340688347816467, -0.05365414544939995, -0.0025816617999225855, 0.0015635343734174967, 0.0011040550889447331, -0.010987116023898125, 0.023467563092708588, 0.04064697027206421, -0.02884901873767376, -0.06584985554218292, 0.08580441772937775, -0.03872743621468544, -0.05941144749522209, -0.02153625339269638, -0.052825283259153366, -0.052978429943323135, 0.008952025324106216, 0.01766008883714676, -0.02725263498723507, 0.017040370032191277, -0.03366943076252937, 0.011219808831810951, -0.012005625292658806, -0.0925925150513649, -0.017678966745734215, -0.017551187425851822, -0.004568631295114756, 0.03637564927339554, 0.011797693558037281, -0.08368147909641266, 0.008251947350800037, 0.052214499562978745, -0.0900692492723465, 0.11279092729091644, -0.008240758441388607, 0.05258827283978462, -0.00967673771083355, 0.026497112587094307, 0.012915685772895813, -0.011213919147849083, -0.009171755984425545, 0.001438176492229104, -0.020829975605010986, 0.0493953563272953, 0.006487639620900154, 0.06921381503343582, 0.012720786966383457, -0.013042819686233997, -0.034691791981458664, -0.011462689377367496, 0.029484529048204422, 0.05369707942008972, 0.03209288790822029, -0.03971045836806297, 0.04809939116239548, -0.007083044853061438, -0.3095543086528778, -0.04370657727122307, 0.05599387735128403, 0.09602762013673782, -0.05123639479279518, -0.03060602955520153, 0.03207765892148018, 0.009143364615738392, 0.029439326375722885, 0.04422510415315628, 0.06358372420072556, 0.02074412629008293, -0.010545280762016773, 0.04601408168673515, -0.009837799705564976, 0.009088318794965744, -0.00668684858828783, 0.0046489122323691845, -0.05101466551423073, 0.00033404355053789914, 0.04596563056111336, -0.0327005460858345, -0.04952298477292061, -0.009844232350587845, 0.026795392856001854, -0.008948864415287971, 0.16012677550315857, -0.03312189504504204, -0.0419604517519474, -0.03105301782488823, 0.028290487825870514, 0.04092506691813469, -0.031971342861652374, -0.12064249813556671, -0.012222407385706902, 0.018288861960172653, 0.008115271106362343, 0.019898733124136925, 0.03281697258353233, -0.04074988514184952, 0.014484602026641369, 0.03872646763920784, 0.0002489230246283114, 0.012539033778011799, 0.02573627047240734, -0.03482420742511749, -0.014672022312879562, -0.01537069771438837, -0.02820213884115219, 0.01612778566777706, -0.004140917211771011, 0.0004813397827092558, 0.06427343189716339, 0.032930415123701096, 0.008762446232140064, -0.029997996985912323, -0.024829067289829254, 0.0327223539352417, -0.07528025656938553, 0.04387153312563896, -0.07389205694198608, -0.0051782866939902306, 0.0047296457923948765, -0.03548375144600868, 0.05478641018271446, -0.019629990682005882, -0.044431909918785095, 0.027022860944271088, -0.03755253180861473, 0.06736063212156296, 0.006701603997498751, 0.009515213780105114, -0.01704998128116131, -0.05573694780468941, -0.058147091418504715, -0.01961222104728222, 0.0029355313163250685, 0.006782687269151211, -0.027185076847672462, -0.02364203706383705, 0.05524725466966629, 0.03767073154449463, 0.001417523599229753, -0.06742988526821136, -0.01722918264567852, 0.05944995954632759, 0.043478142470121384, 0.01905958727002144, 0.04353364184498787, -0.021737273782491684, -0.025887247174978256, -0.036074601113796234, 0.05129861831665039, -0.02569757215678692, 0.05261105298995972, 0.006854521110653877, -0.236724391579628, 0.002732314867898822, -0.015906695276498795, 0.051297202706336975, -0.019891779869794846, -0.00686465110629797, 0.04216807335615158, 0.03175944462418556, -0.11976365745067596, -0.011868657544255257, -0.018683351576328278, -0.029125332832336426, -0.015672465786337852, -0.00513248797506094, 0.046301767230033875, 0.03470780327916145, 0.02493303269147873, 0.040073953568935394, 0.004185003228485584, -0.06263658404350281, 0.06543304771184921, -0.003166911657899618, 0.153206005692482, 0.009864424355328083, 0.006752997171133757, 0.044646911323070526, -0.004909328650683165, 0.007057091686874628, 0.017338111996650696, -0.00866187084466219, -0.06617298722267151, -0.05304832011461258, 0.04897305741906166, -0.019335726276040077, 0.002759492490440607, 0.014204630628228188, 0.0036799206864088774, -0.0844707265496254, -0.01989673636853695, -0.024906570091843605, -0.009677905589342117, 0.011820395477116108, -0.005846066400408745, -0.004069154150784016, 0.07260863482952118, -0.009245585650205612, -0.030338849872350693, -0.01645520143210888, 0.032320763915777206, -0.0011839071521535516, -0.0197078175842762, -0.07779087871313095, -0.05506164953112602, 0.0014143447624519467, 0.04272192344069481, 0.031605787575244904, -0.015403922647237778, 0.016995014622807503, -0.040919821709394455, 0.029844390228390694, 0.044607676565647125, -0.049836415797472, 0.03287186846137047, -0.02893524058163166, 0.0006528347148559988]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>need_for_consistent_5g_coverage</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Better 5G coverage\nReason for given NPS: Easy to use and good coverage', "Improvement needed: don't think i have anything else to add - apart from making 5G more available in areas\nReason for given NPS: ease of use when paying bill - able to add on family member"]</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>[-0.042451124638319016, -0.07267265766859055, -0.0010271412320435047, -0.03762160986661911, 0.011533237993717194, -0.005009682849049568, -0.03589732572436333, 0.08165252953767776, -0.004207707941532135, -0.019953373819589615, 0.05355639010667801, -0.023066062480211258, 0.022856922820210457, 0.027301810681819916, 0.040689561516046524, 0.07040629535913467, 0.07022247463464737, -0.009868872351944447, 0.006979270838201046, 0.01532302051782608, 0.0486452616751194, -0.05304654687643051, -0.014705246314406395, -0.01926346682012081, 0.022726714611053467, 0.010228295810520649, 0.0022604239638894796, 0.03186021372675896, -0.02993389405310154, -0.13813909888267517, -0.013239218853414059, -0.016154946759343147, 0.009057164192199707, 0.030903680250048637, -0.006826028227806091, -0.059826988726854324, -0.03565147519111633, -0.0018837936222553253, -0.005957461893558502, 0.10337703675031662, -0.010030863806605339, 0.0274580679833889, -0.03247670456767082, -0.02278747782111168, -0.06280859559774399, -0.037006355822086334, -0.01636614464223385, 0.0483827143907547, 0.02147647924721241, -0.004232160281389952, 0.04485654830932617, 0.0001306749472860247, -0.013214625418186188, 0.008443382568657398, 0.0013727834448218346, 0.08738808333873749, 0.07196615636348724, 0.06935400515794754, 0.028411533683538437, 0.016438737511634827, 0.02239360474050045, 0.036165911704301834, -0.13191746175289154, 0.07361021637916565, 0.008250362239778042, -0.001119933440349996, -0.008523231372237206, -0.022825004532933235, 0.028061363846063614, 0.032614801079034805, -0.05523909628391266, 0.032572608441114426, -0.013139644637703896, 0.07904578000307083, 0.028647227212786674, 0.04259165748953819, -0.025939567014575005, -0.009347776882350445, -0.013898181729018688, 0.020172324031591415, 0.026782670989632607, -0.005648251157253981, -0.01680496521294117, 0.013980171643197536, -0.009767313487827778, -0.09110274910926819, -0.007741509471088648, -0.015453471802175045, -0.035667963325977325, 0.01433358434587717, -0.05928190425038338, 0.030659887939691544, -0.024210048839449883, 0.02431359514594078, -0.06089751422405243, -0.006567608565092087, 0.016438374295830727, -0.013606074266135693, -0.08022841066122055, 0.32091572880744934, 0.0017759738257154822, -0.015861647203564644, 0.029545018449425697, 0.06161084398627281, 0.016431640833616257, -0.07474153488874435, -0.04156901314854622, 0.009596188552677631, 0.02054889127612114, 0.03292982280254364, 0.028520315885543823, -0.06753439456224442, 0.02550661377608776, -0.0852336511015892, -0.02941042184829712, 0.046372584998607635, -0.0007680642884224653, -0.02956770919263363, 0.005768900737166405, 0.010455310344696045, -0.033463504165410995, -0.05298874154686928, 0.044166844338178635, 0.013543304987251759, 0.10200416296720505, -0.008215358480811119, 0.02287188544869423, 0.07949129492044449, -0.009620600380003452, 0.08409485965967178, -0.005980128888040781, -0.007536616176366806, 0.054868750274181366, -0.022506849840283394, 0.0076379673555493355, 0.015691250562667847, 0.011248868890106678, 0.02133237197995186, -0.008004358969628811, 0.05554911866784096, -0.040154390037059784, -0.06627637892961502, 0.04197351634502411, -0.05197705700993538, 0.022419510409235954, 0.12053629010915756, -0.041281674057245255, 0.09989851713180542, -0.015100784599781036, -0.10264981538057327, 0.006824261508882046, 0.002644085558131337, 0.05771486088633537, -0.009985039010643959, -0.01636291667819023, 0.0532449409365654, -0.023997221142053604, -0.011892996728420258, -0.017744937911629677, -0.019785486161708832, 0.013507259078323841, -0.04493169113993645, -0.018640274181962013, 0.12238086760044098, -0.06428889185190201, -0.0607580803334713, -0.025359125807881355, 0.011821220628917217, -0.03933688998222351, -0.04991123452782631, -0.009632613509893417, 0.043465837836265564, 0.013186734169721603, 0.02526080049574375, 0.011879128403961658, -0.047409556806087494, -0.1177535131573677, 0.05336894094944, -0.018670704215765, -0.04320573806762695, -0.02315445989370346, 0.009122787043452263, 0.013700306415557861, 0.036982715129852295, -0.018643567338585854, -0.04890783503651619, -0.032429952174425125, -0.013093283399939537, 0.0832415223121643, -0.04257328435778618, -0.06749752163887024, -0.06220070645213127, 0.0012466973857954144, 0.0014322753995656967, 0.006255246698856354, -0.06477948278188705, -0.05629168450832367, -0.02093697339296341, 0.04679381102323532, -0.05451951175928116, 0.06255754828453064, -0.03818425536155701, -0.002910004463046789, -0.00040298295789398253, 0.0009029463981278241, 0.06346755474805832, -0.005767883267253637, 0.01904861070215702, 0.06603921949863434, 0.017581049352884293, 0.02706308662891388, -0.05129222571849823, 0.05356774106621742, -0.01132199913263321, -0.0029270509257912636, 0.01274071540683508, -0.00616904441267252, 0.05633879825472832, 0.07231172174215317, 0.0698171928524971, -0.007439132779836655, 0.1093287393450737, -0.02844645269215107, -0.2835721969604492, -0.048208095133304596, 0.009733665734529495, -0.0005326503305695951, -0.03825768083333969, -0.027853094041347504, 0.00636353949084878, 0.013481060042977333, -0.041049011051654816, 0.08606293052434921, 0.055434420704841614, 0.022846492007374763, -0.050478093326091766, -0.005287276115268469, -0.04518954083323479, 0.011838901787996292, -0.0035387580282986164, 0.01247304305434227, -0.04192059487104416, 0.00739922234788537, 0.005083911120891571, 0.006445865612477064, -0.049833204597234726, -0.08387720584869385, 0.10306747257709503, 0.021291330456733704, 0.17061461508274078, -0.04099145904183388, 0.0026211722288280725, -0.00797379668802023, 0.06020991504192352, 0.06571024656295776, -0.03545849025249481, -0.05406695604324341, 0.010150710120797157, 0.056026559323072433, -0.039200667291879654, 0.06849921494722366, -0.02087246999144554, -0.02757030911743641, 0.043503306806087494, 0.05067482590675354, -0.03688565641641617, -0.05803516134619713, -0.026937231421470642, -0.023561133071780205, -0.02309025265276432, 0.021148407831788063, -0.05738295987248421, -0.0679568350315094, -0.013577019795775414, -0.05265320464968681, 0.0564502477645874, -0.032692063599824905, 0.06783138960599899, 0.020873460918664932, -0.05970169976353645, 0.02821234054863453, -0.02972320467233658, 0.00363576109521091, -0.00899640005081892, -0.006393397692590952, 0.016696691513061523, -0.05893605574965477, 0.014423277229070663, -0.021222053095698357, -0.001709713484160602, 0.0031053724233061075, 0.026144692674279213, 0.05703484266996384, 0.01565401442348957, 0.006421850062906742, -0.04396558552980423, 0.02257998287677765, 0.010356427170336246, -0.01852170191705227, 0.023125803098082542, 0.010086629539728165, -0.0007235007942654192, -0.01800868846476078, 0.08571287244558334, 0.00872314814478159, 0.04566850885748863, -0.019427964463829994, -0.0012194343144074082, 0.0009848360205069184, 0.01023682951927185, 0.043901633471250534, 0.04650135710835457, 0.02289057895541191, 0.0012643173104152083, 0.029340030625462532, 0.025528589263558388, -0.05677587911486626, 0.048475123941898346, -0.07348841428756714, -0.25569775700569153, -0.038050390779972076, -0.03037293441593647, 0.03190897777676582, -0.04572091996669769, 0.002435015980154276, 0.028889361768960953, 0.004665135871618986, -0.11897371709346771, 0.021862540394067764, -0.0622115284204483, 0.03512555733323097, -0.0006480261799879372, -0.04504568502306938, 0.03046146035194397, 0.039155807346105576, 0.00491974875330925, -0.0811261311173439, -0.1259566694498062, -0.05979210510849953, 0.08210442215204239, -0.03572041913866997, 0.14293964207172394, -0.06337158381938934, -0.005829057190567255, 0.06316176801919937, -0.0034759603440761566, 0.05034971237182617, 0.01867673732340336, 0.01339846570044756, -0.016660792753100395, -0.03250543400645256, 0.04399304836988449, -0.013695782981812954, -0.0014737987658008933, 0.021370798349380493, -0.002713803667575121, -0.02960902638733387, 0.001459008431993425, -0.018989812582731247, -0.0031058089807629585, 0.05219205096364021, 0.027436042204499245, 0.03295409306883812, 0.07289088517427444, -0.04167959466576576, -0.025600364431738853, -0.021806087344884872, -0.01458774320781231, 0.019246671348810196, -0.04168276488780975, -0.03080739825963974, 0.03077426552772522, -0.013864682987332344, 0.03320470079779625, 0.01743531972169876, -0.05254155397415161, 0.03409916162490845, -0.044103190302848816, 0.005596859380602837, 0.008433645591139793, -0.06640760600566864, 0.03652319312095642, -0.0013504187809303403, 0.04279658570885658]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>confused_about_contract_details</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>['Improvement needed: I want you to improve the WiFi environment. Confirmation of our contract details, resolution of double payment for broadband from October to March of last year, which has not been refunded.\nReason for given NPS: Before I knew it, I had two WiFi contracts, or the payment was not refunded.', 'Improvement needed: Not change your brand or name again as confused as to why !\nReason for given NPS: Been with you , for many years and are happy with service provided']</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[-0.010595238767564297, -0.031708210706710815, 0.013886973261833191, -0.0068316226825118065, -0.0065511553548276424, -0.05581437423825264, 0.020538711920380592, 0.004478689283132553, 0.030590031296014786, 0.020271040499210358, 0.02184811607003212, -0.0028958169277757406, -0.006944086868315935, -0.009689562022686005, 0.01134506519883871, -0.03437631204724312, -0.027671581134200096, -0.045070480555295944, -0.05705348774790764, 0.025605101138353348, 0.08907714486122131, -0.0548773929476738, -0.025576958432793617, 0.034469615668058395, 0.03766576200723648, 0.039448391646146774, -0.04264606535434723, 0.006789300590753555, -0.015244831331074238, -0.16392217576503754, 0.01537481788545847, -0.004862003028392792, -0.0422232560813427, 0.02387300878763199, 0.07292589545249939, 0.002455594250932336, -0.04190312325954437, -0.010718144476413727, 0.012625055387616158, 0.052214473485946655, 0.019110361114144325, 0.012111810967326164, -0.017653172835707664, -0.03035610541701317, 0.028809141367673874, -0.03894142434000969, 0.03793342784047127, 0.0019191171741113067, 0.009594084694981575, -0.014915146864950657, 0.03514879569411278, -0.013907400891184807, 0.0005566194304265082, 0.04021763801574707, -0.014987027272582054, 0.12155452370643616, 0.045553259551525116, 0.04393980652093887, 0.032799944281578064, 0.049739670008420944, 0.027365459129214287, 0.02510474994778633, -0.156170055270195, 0.07202788442373276, -0.008970438502728939, -0.013135751709342003, -0.01879674382507801, -0.017549097537994385, 0.014613404870033264, 0.027713974937796593, 0.015392920933663845, -0.03410256654024124, -0.09466556459665298, 0.053968604654073715, 0.022490615025162697, -0.07341029495000839, 0.006404089275747538, 0.06940694153308868, 0.04059945046901703, 0.013885902240872383, -0.07800586521625519, 0.0006020705914124846, -0.04976186528801918, -0.024625616148114204, -0.04120010882616043, -0.04921560734510422, 0.07205455750226974, 0.0361076295375824, 0.04432890936732292, -0.002242883201688528, 0.008215097710490227, -0.06456438452005386, -0.023790284991264343, -0.005659403745085001, -0.06281647831201553, 0.05474543571472168, 0.01633714698255062, 0.013934174552559853, -0.08600026369094849, 0.38650262355804443, 0.008179373107850552, -0.0029095341451466084, 0.012687629088759422, 0.00332020316272974, 0.014611798338592052, 0.01305240299552679, -0.03667174652218819, 0.004520375747233629, -0.010344535112380981, 0.033796221017837524, -0.058114904910326004, 0.025058675557374954, -0.004260418936610222, -0.040173839777708054, 0.03290839493274689, 0.08063898235559464, -0.035071104764938354, -0.01462631393224001, 0.024162329733371735, -0.015435849316418171, -0.022517066448926926, 0.021303227171301842, 0.0035561618860810995, 0.05017639324069023, -0.06415878236293793, 0.008288695476949215, 0.028064606711268425, 0.02400183118879795, 0.026038534939289093, 0.02869976870715618, 0.05096839740872383, -0.02561688795685768, -0.06194980442523956, -0.005220594350248575, 0.028846466913819313, 0.028212623670697212, 0.013455976732075214, 0.05805753916501999, 0.01147875189781189, -0.0071696131490170956, -0.02654109336435795, -0.03830244392156601, -0.016626376658678055, -0.0220472551882267, -0.03572146221995354, 0.06991516798734665, -0.00496236328035593, 0.07155656814575195, 0.009962709620594978, 0.026897678151726723, -0.09079589694738388, 0.03320785611867905, 0.036684077233076096, -0.08469639718532562, -0.0007824654458090663, 0.0024414551444351673, -0.00888133142143488, -0.02170695550739765, -0.05834757164120674, 0.025152131915092468, 0.1053013727068901, -0.048185043036937714, 0.014136413112282753, 0.11626814305782318, 0.019354863092303276, -0.09016717225313187, 0.0004790652310475707, 0.032809652388095856, -0.0035364783834666014, -0.06661006808280945, -0.03836556524038315, 0.006199791096150875, -0.021958906203508377, -0.01760943792760372, 0.0923224687576294, 0.006818275898694992, 0.008957506157457829, 0.0030839075334370136, -0.017366770654916763, -0.04203997552394867, -0.008102791383862495, 0.011945758946239948, -0.02035505510866642, -0.00892955157905817, -0.007836567237973213, -0.04427298903465271, -0.06827959418296814, -0.027987387031316757, -0.03870615363121033, -0.01137015875428915, -0.024548344314098358, -0.00642732298001647, -0.017181241884827614, -0.0036959059070795774, -0.012544081546366215, -0.037825409322977066, 0.0033609834499657154, -0.02444886416196823, -0.025841299444437027, -0.039980024099349976, 0.10454628616571426, 0.032170820981264114, -0.06687626987695694, 0.06771587580442429, -0.03159216046333313, 0.021456509828567505, 4.0063008782453835e-05, 0.013778595253825188, 0.021177897229790688, 0.02570093609392643, -0.010380049236118793, 0.046500422060489655, -0.05812736600637436, -0.015939950942993164, -0.0012499234871938825, -0.018414655700325966, -0.026688044890761375, 0.08601939678192139, 0.00778660923242569, -0.0011115953093394637, -0.07132526487112045, 0.05713621899485588, 0.1036631390452385, -0.34510135650634766, 0.02843347005546093, -0.0033496732357889414, -0.05497901141643524, -0.04031892120838165, -0.010319250635802746, 0.05733448639512062, -0.006949583534151316, -0.03583459556102753, 0.08290301263332367, 0.08385975658893585, -0.04397351294755936, -0.04146208241581917, -0.08523691445589066, -0.01440701074898243, 0.014021757990121841, 0.009632512927055359, -0.0169785525649786, 0.0013634009519591928, 0.015148657374083996, -0.01080807764083147, 0.0019912496209144592, -0.05570945888757706, -0.030285531654953957, 0.025803852826356888, 0.00527988001704216, 0.1625075489282608, -0.020222343504428864, -0.046050332486629486, -0.05538276955485344, 0.03423535078763962, 0.04190238192677498, -0.03787613287568092, -0.061271216720342636, 0.050284676253795624, -0.01426398940384388, -0.00863295141607523, 0.029156669974327087, 0.028134681284427643, -0.043863389641046524, 0.012987444177269936, 0.029459310695528984, -0.01378028467297554, 0.021036600694060326, 0.003048837883397937, -0.030679874122142792, -0.011382637545466423, 0.01631099358201027, -0.05227702111005783, 0.027237292379140854, 0.014538559131324291, 0.05597454309463501, -0.015482201240956783, 0.07053666561841965, 0.09621601551771164, 0.035487569868564606, -0.01996760070323944, -0.020574741065502167, -0.026263004168868065, 0.014210016466677189, -0.0007729698554612696, 0.019653258845210075, 0.044503353536129, -0.009282504208385944, 0.05551676079630852, -0.010422398336231709, -0.0543203167617321, -0.02983480878174305, -0.001985252136364579, -0.04987625405192375, 0.03447544947266579, 0.01877555251121521, 0.039149485528469086, -0.0013791989767923951, 0.020683081820607185, 0.008047389797866344, 0.026728495955467224, -0.006401339545845985, 0.04185469076037407, 0.007872859947383404, -0.0147653603926301, -0.055846672505140305, 0.012896021828055382, -0.03729238733649254, 0.0009701864910311997, 0.008605861105024815, 0.013046673499047756, -0.04071240872144699, -0.01835431344807148, -0.01343880407512188, -0.024704385548830032, 0.020032115280628204, 0.025516433641314507, 0.022598592564463615, 0.054236166179180145, -0.043232060968875885, -0.30114078521728516, 0.02977774664759636, -0.02799960784614086, -0.0011974959634244442, -0.009698184207081795, -0.0010463821236044168, 0.015425154007971287, 0.010316145606338978, -0.0731281265616417, 0.014931373298168182, 0.05576670914888382, 0.024229450151324272, -0.021019743755459785, -0.03486449643969536, -0.04151458293199539, 0.02414906769990921, 0.06610288470983505, -0.04845438897609711, -0.039427079260349274, 0.0019135200418531895, 0.030940014868974686, 0.013887440785765648, 0.12220676243305206, 0.006451248191297054, 0.026736576110124588, 0.002036909107118845, -0.030200082808732986, 0.03578001633286476, 0.05507824569940567, 0.04243900254368782, 0.002848636591807008, -0.014745772816240788, 0.08520805090665817, 0.03591662272810936, -0.019012389704585075, 0.02189243771135807, 0.0034309634938836098, -0.017989233136177063, 0.03679187223315239, 0.054745569825172424, -0.057907767593860626, -0.02520802430808544, -0.031907640397548676, 0.057805392891168594, 0.04921879991889, 0.007461029104888439, -0.018117019906640053, -0.05593271180987358, 0.004137026611715555, -0.03933248296380043, -0.027622444555163383, -0.03403504565358162, -0.02819829434156418, 0.0007852931739762425, -0.0016814947593957186, 0.0024615300353616476, 0.006662100087851286, 0.01725921779870987, 0.021280404180288315, 0.00854506529867649, -0.02943509817123413, -0.0020668762736022472, 0.023841267451643944, 0.014799867756664753, -0.031143710017204285]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>difficulties_using_digital_channels_elderly_customers</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>['Improvement needed: I am older generation and find the waiting times quite long when ringing by phone. I am not pc savvy but that is partly my own fault\nReason for given NPS: It was great service they were very helpful and explained things in a easy to understand way.']</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>[-0.034420184791088104, -0.02978774532675743, -0.0014858403010293841, -0.05476188287138939, 0.007339695934206247, -0.021584616973996162, -0.03198996186256409, 0.04069982469081879, -0.018998954445123672, -0.025944555178284645, 0.016588853672146797, 0.003545560175552964, -0.021758724004030228, 0.02083517238497734, 0.0616067610681057, 0.05434417724609375, 0.07360828667879105, -0.029551658779382706, -0.012344331480562687, 0.0800849124789238, 0.02361610345542431, 0.022594379261136055, -0.02237570658326149, 0.027385229244828224, 0.005481476429849863, -0.028575940057635307, -0.0007717044209130108, -0.04726023226976395, -0.04165159538388252, -0.1270444244146347, -0.025846989825367928, -0.010424279607832432, 0.0607813224196434, 0.005997763946652412, 0.03859283775091171, -0.04489514231681824, -0.02904796041548252, -0.04178287461400032, -0.04543622210621834, -0.00525749521329999, -0.011284423060715199, 0.0035739452578127384, -0.03795893117785454, -0.08381515741348267, -0.056814324110746384, -0.0599232017993927, -0.028273556381464005, 0.040289752185344696, 0.0746428370475769, -0.0381433330476284, -0.025724537670612335, 0.059905536472797394, 0.006282235030084848, 0.026706116273999214, 0.013988889753818512, 0.019103821367025375, 0.013263256289064884, 0.04737882688641548, 0.02242998220026493, 0.018252689391374588, 0.021593140438199043, -0.016674550250172615, -0.1529407799243927, 0.078973688185215, -0.023631593212485313, 0.050773464143276215, 0.021851645782589912, 0.009130457416176796, -0.02032066136598587, -0.005966582801192999, -0.023976163938641548, -0.024079712107777596, -0.018949348479509354, 0.05008035525679588, 0.0441431850194931, 0.025613531470298767, -0.014964047819375992, -0.054413098841905594, -0.0006163944490253925, 0.012971713207662106, 0.04235001653432846, -0.003325375262647867, -0.04753110930323601, -0.03407571464776993, -0.019641397520899773, -0.02449316345155239, -0.06708106398582458, -0.047707486897706985, -0.019435275346040726, 0.014859459362924099, -0.04301879182457924, 0.09050174802541733, -0.0026931005995720625, 0.03607705235481262, -0.04394206404685974, -0.0876939594745636, 0.03440244123339653, -0.013720174320042133, -0.06306292861700058, 0.3491259515285492, 0.06220084801316261, 0.06986586004495621, 0.03685326874256134, 0.015562492422759533, 0.051362063735723495, -0.040824562311172485, -0.04002247005701065, 0.03421882539987564, 0.018930397927761078, 0.04268140345811844, -0.07210677862167358, -0.01673874817788601, 0.040486834943294525, 0.026765527203679085, 0.016369886696338654, 0.09165579080581665, -0.07597945630550385, 0.03300163894891739, -0.02910430170595646, -0.003915712237358093, -0.019999923184514046, -0.02043524757027626, -0.004911918193101883, 0.06505166739225388, 0.03916634991765022, -0.02392447553575039, 0.030123546719551086, 0.1260678619146347, -0.08653850853443146, 0.04548869654536247, -0.0017419321229681373, -0.037241362035274506, -0.03572257608175278, 0.019532736390829086, -0.017846276983618736, -0.006938203703612089, 0.0187897477298975, 0.040509775280952454, 0.02259451523423195, 0.013418225571513176, -0.050617765635252, -0.09156910330057144, -0.021882621571421623, 0.0032073515467345715, 0.014970997348427773, 0.0504513680934906, -0.02405126765370369, 0.06465780735015869, -0.012361405417323112, 0.0020479972008615732, 0.07261815667152405, -0.0003510240640025586, 0.05173890292644501, -0.0328192375600338, -0.0036593435797840357, 0.009976718574762344, 0.054271817207336426, 0.023184766992926598, -0.030985001474618912, -0.0023335423320531845, 0.11890719830989838, -0.041092172265052795, -0.019283104687929153, 0.05898863077163696, 0.002359293634071946, -0.040897440165281296, -0.02267646975815296, -0.014230350963771343, -0.0232202410697937, 0.029927223920822144, 0.022823425009846687, 0.014491725713014603, -0.010014343075454235, 0.02830071933567524, 0.045893970876932144, 0.005780907813459635, 0.00010505405953153968, 0.0068381167948246, -0.04809742048382759, 0.030057644471526146, -0.06211650371551514, 0.012218577787280083, 0.023212136700749397, 0.0010103628737851977, 0.019710566848516464, -0.057416439056396484, 0.009935867041349411, -0.01304429117590189, 0.0727137103676796, -0.0322948582470417, -0.04289884492754936, -0.0592108853161335, -0.047738924622535706, -0.04713272303342819, 0.005646767094731331, -0.009218200109899044, -0.05076651647686958, 0.012675905600190163, 0.01566055417060852, -0.012886771000921726, 0.07321635633707047, -0.029288792982697487, -0.031561288982629776, 0.017351172864437103, -0.03017677739262581, 0.021375209093093872, 0.02357867732644081, -0.05939027667045593, 0.06576675176620483, -0.03714733570814133, 0.007984486408531666, -0.04500073939561844, 0.09250439703464508, 0.008456253446638584, 0.006476688198745251, 0.036465637385845184, -0.0011060121469199657, 0.050826434046030045, 0.012948237359523773, 0.042919427156448364, 0.06191524118185043, 0.1267249435186386, -0.03617474436759949, -0.3493823707103729, 0.011872041039168835, 0.004280381370335817, -0.034849945455789566, -0.06459369510412216, 0.004554334562271833, 0.04817400872707367, 0.03745808079838753, -0.0027556666173040867, 0.0784563422203064, 0.05811780318617821, -0.024217696860432625, -0.005087082739919424, -0.08823630958795547, 0.016453195363283157, 0.006344003137201071, -0.003208597656339407, 0.053452394902706146, -0.021809697151184082, 0.0029839808121323586, -0.029506314545869827, 0.003027898259460926, 0.06818675249814987, -0.02206386998295784, 0.013729005120694637, 0.009964220225811005, 0.15945301949977875, -0.0615752711892128, -0.050187092274427414, -0.01361924409866333, 0.02356032282114029, 0.05065423995256424, -0.0530804768204689, -0.04302554577589035, 0.010739943943917751, 0.002479463815689087, 0.04627754166722298, 0.08424882590770721, 0.060993742197752, -0.02647031657397747, -0.05768512934446335, 0.04049725830554962, 0.03543899580836296, -0.0172473955899477, 0.0026480471715331078, -0.027935415506362915, -0.023745011538267136, 0.039077889174222946, -0.06437933444976807, -0.015746353194117546, 0.012660170905292034, -0.02682308480143547, 0.039970673620700836, 0.063217394053936, -0.0026718624867498875, -0.029938586056232452, -0.026913505047559738, 0.03969064727425575, -0.00024975521955639124, 0.038221415132284164, -0.025186723098158836, 0.013534831814467907, 0.05947288125753403, -0.06727813929319382, 0.03869536891579628, -0.01577066071331501, -0.01137363351881504, 0.05007481202483177, 0.03209274634718895, 0.045256223529577255, 0.028772754594683647, 0.11635085195302963, -0.039289407432079315, -0.006268046330660582, -0.01694638840854168, 0.01594596542418003, -0.02933960035443306, -0.04061077535152435, 0.014738702215254307, -0.005459236912429333, 0.007758835796266794, -0.031085224822163582, 0.031134437769651413, 0.029133744537830353, -0.010200276970863342, -0.00587561447173357, -0.009544895961880684, 0.008380590938031673, 0.04284927621483803, -0.030928771942853928, -0.03747355565428734, -0.0011843654792755842, -0.034220315515995026, -0.0076560466550290585, 0.06802158057689667, -0.03866194188594818, -0.24671046435832977, 0.016467265784740448, -0.052996739745140076, -0.032048992812633514, -0.03643297776579857, 0.03907782956957817, 0.016822589561343193, 0.024563219398260117, -0.07805748283863068, 0.01065291278064251, -0.06059994548559189, 0.009902998805046082, -0.010750710032880306, -0.07662191241979599, 0.07193886488676071, 0.05276741459965706, -0.032880835235118866, -0.00797955971211195, -0.019302895292639732, -0.057622890919446945, 0.04130246862769127, 0.021389203146100044, 0.116876021027565, 0.022573281079530716, -0.021589089184999466, 0.0208838302642107, -0.03852439299225807, 0.025907354429364204, 0.032218087464571, -0.025842320173978806, -0.04646935313940048, -0.017497781664133072, 0.07627642154693604, -0.007863376289606094, 0.020276155322790146, 0.0029182657599449158, -0.02632797136902809, -0.047684211283922195, 0.0057056196965277195, 0.01463788840919733, -0.03246940299868584, 0.018963243812322617, -0.08478186279535294, -0.01533103920519352, 0.07649549096822739, 0.027614129707217216, -0.028694426640868187, 0.013276399113237858, 0.005975470412522554, -0.00431108521297574, -0.04013295844197273, -0.07401876896619797, 0.0036082256119698286, 0.04788517579436302, 0.03336852788925171, 0.0245659239590168, -0.07005026936531067, -0.008430112153291702, -0.034251127392053604, -0.05212128534913063, -0.007464398629963398, -0.08455394208431244, 0.020433492958545685, 0.008953170850872993, 0.0007728131604380906]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>lack_of_loyalty_benefits</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Your customer support is punishing. Fix this. But also reward long term loyalty with better plans.\n']</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>[-0.044668931514024734, 0.00659120362251997, 0.007812073919922113, -0.018069930374622345, -0.02858089841902256, -0.049246013164520264, 0.03939815238118172, 0.052090149372816086, 0.07452742010354996, -0.02782578393816948, 0.018276235088706017, 0.011632019653916359, 0.042954221367836, -0.032091520726680756, 0.0280353631824255, -0.012370127253234386, 0.050552841275930405, 0.01703059859573841, -0.10705401748418808, 0.049394894391298294, -0.0317576564848423, -0.11017462611198425, -1.1502624147397e-05, 0.020493630319833755, 0.039650339633226395, -0.007675178349018097, -0.028469443321228027, -0.00047693608212284744, -0.055651403963565826, -0.07663246989250183, -0.010432223789393902, -0.037659548223018646, 0.05335972085595131, 0.04354019835591316, 0.01678277738392353, -0.00025537353940308094, -0.03089134767651558, -0.0037773088552057743, -0.043672241270542145, 0.03541424497961998, 0.020069535821676254, 0.024676676839590073, -0.023853790014982224, 0.03022606670856476, 0.005043964833021164, -0.07114686816930771, -0.009592471644282341, -0.025835171341896057, 0.07621186226606369, -0.06396187096834183, 0.05931786820292473, 0.014286013320088387, -0.03590146824717522, 0.016000952571630478, 0.009976016357541084, 0.03235765919089317, 0.02527448534965515, 0.038334861397743225, -0.02918689325451851, -0.022125663235783577, 0.026436101645231247, -0.03521803393959999, -0.11465422064065933, -0.0017213127575814724, -0.0022935622837394476, -0.0012228887062519789, -0.01886122301220894, -0.023095613345503807, -0.05152863636612892, -0.012450605630874634, 0.017994841560721397, -0.0058129532262682915, -0.0343497134745121, 0.009622504934668541, 0.003065529279410839, 0.034119613468647, 0.01937001384794712, -0.005721705500036478, -0.023033160716295242, 0.0033343930263072252, 0.054972533136606216, -0.0034707607701420784, -0.026149675250053406, 0.06407865136861801, 0.007997269742190838, -0.062131527811288834, 0.011967462487518787, -0.07338257133960724, -0.0029390498530119658, 0.043834883719682693, 0.016364185139536858, 0.004910352639853954, 0.03300327807664871, -0.0010729990899562836, -0.08157750964164734, -0.019646383821964264, -0.00015515224367845803, 0.007819628342986107, -0.14172253012657166, 0.3960803151130676, 0.026240721344947815, 0.05339180305600166, 0.031927596777677536, -0.01056690327823162, 0.056937675923109055, -0.0010817236034199595, -0.02381623163819313, -0.012130219489336014, -0.022493058815598488, -0.026845186948776245, -0.0013040723279118538, 0.04178723320364952, 0.025081155821681023, -0.01771443523466587, -0.007472447119653225, 0.03700031340122223, 0.0033153498079627752, 0.020970087498426437, -0.011255519464612007, 0.06881579756736755, -0.017708295956254005, -0.0034925579093396664, 0.041944753378629684, 0.05564083904027939, -0.012165580876171589, -0.025419965386390686, 0.017111504450440407, 0.08483344316482544, -0.0009867144981399179, -0.007754406426101923, -0.01978565752506256, -0.027683710679411888, 0.035714488476514816, -0.003028599312528968, -0.010501010343432426, -0.010565061122179031, -0.032562632113695145, 0.04175266623497009, 0.045877501368522644, 0.04562555253505707, 0.05865484103560448, -0.02786310575902462, 0.01273528765887022, -0.06981831789016724, 0.019866371527314186, 0.06589510291814804, 0.07263853400945663, 0.03290977329015732, -0.052690695971250534, 0.051264263689517975, -0.01951795630156994, -0.018615102395415306, -0.04893902689218521, -0.02454703114926815, 0.015665289014577866, -0.0402512326836586, -0.07666933536529541, 0.015433788299560547, -0.06696489453315735, 0.02726639062166214, 0.06962414085865021, -0.05442921817302704, -0.04339391738176346, 0.07139343023300171, 0.032460764050483704, -0.020716065540909767, 0.017943914979696274, -0.008460276760160923, -0.03114512376487255, -0.026657814159989357, -0.007875845767557621, 0.01918295957148075, -0.04046471789479256, -0.013484151102602482, 0.10729484260082245, -0.032256774604320526, -0.017590852454304695, -0.01253523025661707, -0.03914574161171913, 0.005939421243965626, 0.01698554866015911, -0.002916363999247551, -0.05435017868876457, 0.0020803906954824924, -0.023141473531723022, 0.031430553644895554, -0.023279525339603424, -0.011051367968320847, -0.0045584626495838165, -0.0064820535480976105, -0.0672401487827301, -0.037120167165994644, -0.1187048852443695, -0.04011598974466324, 0.02762642689049244, -0.0258091501891613, -0.046531934291124344, -0.038381628692150116, -0.0040196022018790245, 0.0010387660004198551, -0.013909546658396721, -0.05258602276444435, -0.0125897116959095, -0.036378975957632065, 0.02193702757358551, 0.03646232187747955, 0.034144312143325806, -0.015370247885584831, 0.07874219119548798, -0.00044403772335499525, 0.008611264638602734, -0.00218445947393775, 0.02903793379664421, 0.04365484043955803, -0.03557869419455528, 0.018897507339715958, 0.0918111577630043, 0.016354108229279518, 0.05588587000966072, -0.03985368832945824, 0.0184127576649189, 0.10236843675374985, 0.030776124447584152, -0.28806164860725403, 0.02600681409239769, -0.06578114628791809, 0.006465735379606485, -0.03148822486400604, -0.012134748511016369, 0.012112842872738838, -0.01916259340941906, 0.024694044142961502, 0.02826140820980072, 0.056491877883672714, -0.024178946390748024, 0.004065210931003094, 0.011094700545072556, -0.003918320406228304, 0.007828420959413052, -0.04247453436255455, 0.06742030382156372, 0.018500342965126038, 0.008025559596717358, 0.013548720628023148, 0.021411439403891563, 0.04526598006486893, -0.0685633197426796, 0.09242089092731476, -0.0040901112370193005, 0.13666582107543945, 0.01185644418001175, -0.050317566841840744, -0.027132783085107803, -0.02156681939959526, 0.11967676132917404, -0.032665930688381195, -0.08064389228820801, 0.02135101519525051, 0.0013844758505001664, -0.010708969086408615, -0.05845986306667328, -0.011544482782483101, -0.041018757969141006, -0.026542024686932564, 0.053563300520181656, -0.028491688892245293, -0.010018223896622658, -0.01882115565240383, -0.05812942981719971, 0.018154503777623177, 0.05341414362192154, -0.09323865920305252, 0.0618729405105114, 0.0532475970685482, 0.06358230113983154, 0.02214198186993599, 0.03367575630545616, 0.07615699619054794, -0.007115524262189865, -0.07422884553670883, 0.024532487615942955, -0.005616101436316967, 0.05552694573998451, -0.028499187901616096, 0.005180394742637873, 0.04787440598011017, -0.06678470224142075, 0.015482158400118351, -0.02174166776239872, -0.009879520162940025, 0.019353166222572327, -0.006423925515264273, 0.043717071413993835, -0.03789052367210388, 0.01546438317745924, -0.030517134815454483, -0.1056375652551651, -0.05573666840791702, 0.006043481174856424, -0.005721274763345718, -0.0034003157634288073, -0.032210297882556915, -0.04712405800819397, 0.01361835841089487, -0.03933979943394661, 0.02182537317276001, -0.00037800282007083297, -0.013049313798546791, 0.0756964311003685, -0.0033731916919350624, -2.1880063286516815e-05, 0.07258682698011398, 0.0007394893909804523, -0.03859788924455643, 0.020482337102293968, 0.03240543603897095, -0.04591462016105652, 0.09179279953241348, 0.0118047334253788, -0.25663208961486816, -0.03636937960982323, -0.021492183208465576, -0.006139121018350124, -0.02202606573700905, 0.022848540917038918, 0.01602550595998764, -0.03037530928850174, -0.11090460419654846, 0.012727590277791023, 0.07415196299552917, 0.04186277464032173, -0.05400693416595459, -0.07287289947271347, 0.05028163269162178, 0.028595393523573875, 0.05028726905584335, -0.017089897766709328, 0.0013782057212665677, 0.014236791990697384, 0.01942761242389679, 0.04771042987704277, 0.1630282998085022, -0.0021501737646758556, -0.06165891885757446, -0.02028733305633068, -0.0021161360200494528, 0.03031378611922264, -0.028426527976989746, 0.03340251371264458, -0.08148881793022156, -0.004368400201201439, 0.0460481233894825, 0.028470847755670547, -0.0023252239916473627, -0.005608346313238144, -0.0032185418531298637, -0.09017583727836609, 0.011276207864284515, -0.026596656069159508, 0.01804221048951149, 0.040164001286029816, 0.03862679377198219, -0.017828742042183876, 0.10453445464372635, -0.05335327610373497, 0.034031424671411514, 0.010964347049593925, 0.037202998995780945, -0.03734610602259636, -0.02565869688987732, 0.012296763248741627, -0.0005941519048064947, 0.02876625396311283, 0.01503777876496315, -0.00818751659244299, -0.07542434334754944, 0.029837269335985184, 0.06302113085985184, -0.010442678816616535, -0.06639207899570465, 0.019661521539092064, 0.0336744599044323, 0.04606807231903076, 0.030563797801733017]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>poor_communication_clarify_from_customer_service</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Customer service sometimes hard to engage with service\nReason for given NPS: Very useful service']</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>[0.0008432312170043588, -0.009446540847420692, 0.025225218385457993, -0.016698205843567848, -0.04052772745490074, -0.10481372475624084, 0.016453443095088005, 0.048056554049253464, 0.08040286600589752, -0.04542742297053337, -0.011069508269429207, -0.009351029992103577, 0.007806890644133091, -0.005844559520483017, 0.06716295331716537, 0.036872148513793945, 0.06500734388828278, -0.03161434084177017, -0.024664022028446198, 0.023216888308525085, 0.08048179745674133, -0.021476706489920616, -0.047636546194553375, 0.06275336444377899, -0.027748173102736473, -0.0157052930444479, -0.04134276136755943, 0.003619919763877988, -0.0661754459142685, -0.10509359836578369, -0.006643739063292742, 0.0205009076744318, 0.02829938568174839, 0.016303276643157005, 0.06978797912597656, -0.005779101047664881, -0.007677610032260418, -0.04510600119829178, -0.00931345671415329, 0.035251352936029434, 0.019720278680324554, -0.024387767538428307, -0.018189288675785065, 0.010301901958882809, -0.003398689441382885, -0.0546121783554554, 0.03004060871899128, 0.003433967474848032, 0.05765184015035629, -0.11666746437549591, -0.016254328191280365, 0.012269976548850536, -0.03408992663025856, -0.011723706498742104, -0.0012123716296628118, 0.049810413271188736, 0.09620913118124008, 0.04673195630311966, 0.03399737551808357, 0.015318043529987335, 0.0279218889772892, -0.006358485668897629, -0.15579891204833984, 0.05345110595226288, 0.005496099125593901, -0.02428119070827961, -0.007336782291531563, -0.058350641280412674, -0.05864059552550316, -0.010518359020352364, -0.017634069547057152, -0.08316833525896072, -0.014478941448032856, 0.07512716203927994, 0.02093135565519333, 0.006509949918836355, -0.0027895201928913593, 0.0014280484756454825, 0.03142265975475311, 0.06992476433515549, -0.024118781089782715, -0.030107997357845306, -0.015710582956671715, -0.019159575924277306, -0.02985997498035431, -0.05617160722613335, 0.03478330746293068, 0.022610995918512344, 0.02167109213769436, -0.0009042491437867284, 0.023885851725935936, -0.013245698064565659, 0.0009685411932878196, 0.01498415507376194, -0.07051309943199158, -0.030800960958003998, -0.005444576498121023, -0.038085948675870895, -0.12594468891620636, 0.3890674114227295, -0.015793466940522194, 0.03764137253165245, 0.02328478917479515, 0.009931618347764015, -0.01456898357719183, -0.04442775622010231, -0.0018709837459027767, -0.028431659564375877, -0.031065721064805984, 0.023495158180594444, -0.042986396700143814, -0.04820854961872101, 0.04301196709275246, 0.003257965436205268, 0.022998381406068802, 0.1040479838848114, 0.02493426576256752, -0.007278769742697477, -0.037232644855976105, 0.008637930266559124, -0.00736306281760335, 0.03321537747979164, 0.013602650724351406, 0.007074746303260326, -0.01737084798514843, -0.03457919880747795, 0.02653614990413189, 0.08968004584312439, -0.02895546890795231, 0.051895998418331146, 0.007269637659192085, -0.004711094778031111, 0.03525639697909355, 0.0032233395613729954, 0.02263491228222847, 0.0013702950673177838, -0.010186255909502506, 0.05436059087514877, 0.06429783999919891, 0.07550781965255737, 0.00869347620755434, -0.09980372339487076, -0.09452184289693832, -0.02063978835940361, 0.01668402925133705, 0.10025887936353683, -0.031224021688103676, 0.05849691480398178, -0.017879417166113853, -0.03567017987370491, -0.01731242798268795, 0.019898271188139915, 0.059304945170879364, -0.03896458446979523, -0.0239257849752903, -0.030238637700676918, 0.045049749314785004, -0.034066010266542435, -0.03719291090965271, 0.022131167352199554, 0.12857018411159515, -0.06931068003177643, 0.0035022886004298925, 0.03602353855967522, 0.01039979886263609, -0.04469652846455574, -0.006119202356785536, -0.01672729291021824, 0.008265241980552673, -0.01859196089208126, -0.005284776911139488, 0.04276912659406662, -0.001369501813314855, -0.014994715340435505, 0.04417979717254639, -0.02565952017903328, 0.004568073898553848, 0.017742278054356575, -0.03176867961883545, 0.019173232838511467, 0.03362924978137016, 0.05860302224755287, 0.02011118270456791, 0.028640251606702805, 0.02415410801768303, -0.02214341051876545, 0.007341773249208927, 0.002009069547057152, 0.05679795891046524, -0.025688420981168747, -0.06110680103302002, -0.06648753583431244, -0.012520397081971169, -0.01575610227882862, -0.019230062142014503, -0.006062121596187353, 0.00528332032263279, -0.023973248898983, 0.01038749422878027, 0.047327104955911636, 0.061703041195869446, -0.011445047333836555, -0.06986714154481888, 0.0791439488530159, -0.04802873730659485, 0.07531296461820602, 0.007381546311080456, -0.02495599165558815, 0.033570196479558945, 0.04558061435818672, -0.029725033789873123, -0.01408658642321825, 0.057872217148542404, 0.03404568135738373, 0.015119745396077633, 0.011597266420722008, 0.036822084337472916, 0.07465668022632599, -0.03584680333733559, -0.012100613676011562, -0.027622893452644348, 0.07646298408508301, -0.012108437716960907, -0.2993045747280121, -0.0005678519955836236, 0.015033225528895855, -0.027962366119027138, -0.06287666410207748, 0.01715056039392948, 0.04347436875104904, 0.02348998375236988, 0.04338543489575386, 0.05254950001835823, 0.051352497190237045, 0.0388178713619709, 0.008716457523405552, -0.05388534814119339, -0.028846539556980133, 0.013787813484668732, -0.005436769686639309, 0.051080282777547836, -0.01547964010387659, -0.000578318431507796, -0.03261110186576843, 0.037860624492168427, 0.05469978600740433, -0.09407921135425568, 0.0022478254977613688, 0.02673918567597866, 0.18196555972099304, 0.0002908882743213326, -0.0064456891268491745, -0.04001663625240326, 0.011195204220712185, 0.046862032264471054, 0.01696205325424671, -0.07459598779678345, 0.06269066035747528, 0.028999125584959984, -0.034184716641902924, 0.019662031903862953, -0.016123510897159576, -0.05453783646225929, -0.006335082929581404, 0.04267267510294914, -0.03327973186969757, -0.0355309434235096, 0.005571669898927212, -0.02960592694580555, -0.046731576323509216, 0.012021712027490139, -0.07779207080602646, 0.02995333820581436, -0.02637294866144657, 0.027220137417316437, 0.03553348407149315, 0.085665263235569, 0.0558808408677578, 0.022641772404313087, -0.046185173094272614, 0.003179588820785284, -0.025759346783161163, -0.027289269492030144, -0.013041827827692032, 0.016773182898759842, 0.03040505014359951, -0.06711239367723465, 0.036160681396722794, 0.0017033397452905774, 0.0027263937518000603, -0.019774435088038445, 0.003540781792253256, 0.037792593240737915, -0.0369880385696888, 0.0752456933259964, -0.03400712087750435, -0.024558236822485924, 0.016409169882535934, 0.030355433002114296, -0.03613759204745293, -0.05124744400382042, -0.10083522647619247, -0.06887029856443405, 0.04116450622677803, 0.03382478654384613, 0.06332270801067352, 0.007117698900401592, -0.004153036046773195, -0.01664586551487446, 0.02713349275290966, 0.05662376061081886, 0.026389189064502716, -0.02733587846159935, -0.05610579252243042, -0.010242313146591187, -0.03394776210188866, -0.030837303027510643, 0.08587493747472763, -0.02527386136353016, -0.24787016212940216, -0.051836248487234116, 0.00601354893296957, -0.011117835529148579, -0.03497945889830589, 0.09417421370744705, -0.02156880684196949, -0.010137921199202538, -0.0851668044924736, 0.026252083480358124, -0.022253863513469696, -0.005471406038850546, -0.04649456590414047, -0.031697068363428116, 0.02881237119436264, 0.06774543225765228, 0.058480676263570786, -0.07417799532413483, 0.01571958139538765, 0.012035232037305832, 0.018520468845963478, 0.020640265196561813, 0.09866355359554291, -0.0033768597058951855, -0.008096693083643913, 0.01776084303855896, -0.024694187566637993, -0.009731927886605263, -0.0013869565445929766, 0.015555012039840221, -0.0685264989733696, -0.00435294397175312, 0.04105186462402344, 0.03448958322405815, -0.024583052843809128, -0.05555245652794838, 0.01405416615307331, -0.06751183420419693, 0.014998947270214558, -0.010821647942066193, -0.03360477462410927, 0.009767718613147736, 0.009946818463504314, 0.004893323872238398, 0.043443650007247925, 0.022024275735020638, -0.03771590441465378, -0.06588838249444962, 0.01937791518867016, -0.014073867350816727, -0.05624288320541382, -0.03797106444835663, 0.028818229213356972, 0.02081988751888275, 0.024188218638300896, 0.015864072367548943, -0.052242934703826904, -0.01646486297249794, 0.01648707129061222, 0.015917742624878883, 0.01297059003263712, -0.07744894176721573, 0.0484946109354496, -0.04067375138401985, 0.021558351814746857]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>difficulty_engaging_with_customer_service</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Customer service sometimes hard to engage with service\nReason for given NPS: Very useful service']</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>[0.009335284121334553, -0.0066322884522378445, 0.05121608078479767, -0.007371642626821995, -0.0755845308303833, -0.04107435420155525, 0.06751290708780289, 0.05423913151025772, 0.0406263992190361, -0.06229209154844284, -0.03158900886774063, 0.04900609329342842, 0.0024819166865199804, -0.037562478333711624, 0.09297885000705719, 0.04328945279121399, 0.07110367715358734, 0.011507575400173664, -0.045049846172332764, 0.023879868909716606, -0.020452477037906647, -0.02162751369178295, -0.045909732580184937, 0.03940488025546074, -0.02429351955652237, -0.009704358875751495, -0.04658597707748413, -0.02453053742647171, -0.06627219915390015, -0.11682504415512085, 0.008681295439600945, 0.009656988084316254, 0.07036302983760834, -0.015466880984604359, 0.05302048847079277, 0.021571077406406403, -0.012331063859164715, -0.006387221161276102, 0.02951137349009514, 0.011510586366057396, 0.05582250654697418, -0.03602156415581703, -0.04870762303471565, -0.03175200894474983, -0.054838843643665314, -0.08395496755838394, 0.040401771664619446, 0.008628916926681995, 0.04972846806049347, -0.046535149216651917, -0.03582846373319626, -0.010385985486209393, -0.03489331156015396, -0.00866749044507742, 0.04193965718150139, 0.056390807032585144, 0.07563004642724991, -0.009337439201772213, 0.026541994884610176, 0.01921963505446911, 0.03088262677192688, -0.04804055392742157, -0.09641983360052109, 0.09595415741205215, 0.037470292299985886, 0.007872016169130802, -0.012044250033795834, -0.0492640845477581, -0.03766924515366554, 0.026186158880591393, -0.02534494362771511, -0.03788086026906967, -0.03945682942867279, 0.11737091839313507, 0.03235386684536934, 0.039205871522426605, -0.006258088629692793, -0.04936317354440689, 0.04966587573289871, 0.031705182045698166, -0.02828442119061947, -0.0530465692281723, -0.039483439177274704, -0.0083016874268651, -0.03740241378545761, -0.05683771148324013, 0.004662897437810898, -0.006972652394324541, 0.06166330724954605, 0.030170273035764694, 0.03286278247833252, 0.014037884771823883, 0.0037801347207278013, 0.005359223578125238, -0.08463266491889954, -0.08156954497098923, 0.021318774670362473, -0.05802541971206665, -0.1392168402671814, 0.33293741941452026, -0.007699351292103529, 0.04013168811798096, 0.005416331347078085, 0.0005826453561894596, 0.013963842764496803, -0.05761152505874634, -0.010571042075753212, -0.004217301495373249, -0.03841971606016159, 0.003159907413646579, -0.060844726860523224, 0.005804986692965031, 0.01819894090294838, 0.0015620439080521464, -0.0052253371104598045, 0.14005939662456512, -0.009916712529957294, -0.04159528762102127, -0.024965234100818634, -0.035917073488235474, 0.0059577226638793945, 0.019418325275182724, -0.015386253595352173, 0.03073910064995289, -0.05590859428048134, -0.030146202072501183, 0.01570231094956398, 0.10143425315618515, -0.03197113052010536, 0.019635792821645737, 0.04847600683569908, -0.004169282969087362, -0.027301477268338203, 0.013777717016637325, -0.04738688841462135, -0.010134859941899776, 0.003707581665366888, 0.03655848652124405, 0.047740638256073, 0.10496895015239716, -0.0023478197399526834, -0.06058119237422943, -0.02422342449426651, -0.06885220855474472, 0.01964648626744747, 0.08418555557727814, -0.054146867245435715, 0.05535788834095001, -0.035899318754673004, -0.04968216270208359, -0.015046965330839157, 0.01887778751552105, 0.009817630052566528, -0.015032242052257061, -0.027965988963842392, 0.0030482839792966843, 0.0466536320745945, -0.00893310271203518, -0.02411261387169361, 0.0333426259458065, 0.06304842233657837, -0.047450222074985504, -0.00383849092759192, 0.0481545515358448, 0.05331706255674362, -0.05298811197280884, 0.0257631354033947, -0.05799458175897598, -0.04227723553776741, 0.02384270168840885, -0.03173692151904106, 0.055270444601774216, -0.0037473246920853853, 0.04114275798201561, 0.060145970433950424, -0.04967242851853371, -0.02083609811961651, 0.027017757296562195, 0.0008844347903504968, 0.04114523530006409, 0.026365086436271667, 0.06870047003030777, 0.041955772787332535, -0.0187437254935503, 0.028323525562882423, -0.07380002737045288, 0.04398522526025772, -0.04332759976387024, 0.03925409913063049, -0.04116326943039894, -0.027030212804675102, -0.051634762436151505, -0.053494639694690704, 0.013556924648582935, -0.013804269023239613, 0.002336007310077548, 0.0040563419461250305, -0.04213425889611244, 0.04321584850549698, 0.038443028926849365, 0.03548065945506096, -0.037185199558734894, -0.03523668274283409, 0.025774512439966202, 0.020891284570097923, 0.04071493446826935, 0.028565652668476105, 0.01890878565609455, 0.0549871027469635, 0.016288666054606438, -0.017030751332640648, -0.0018680159701034427, 0.10052680224180222, 0.02668587490916252, 0.01294039748609066, -0.0015882884617894888, 0.039921727031469345, 0.07760809361934662, -0.006570952944457531, 0.036584850400686264, 0.012945739552378654, 0.08772899955511093, 0.03134380280971527, -0.326630562543869, 0.01955536939203739, -0.03675065562129021, -0.0037746294401586056, -0.05133714899420738, 0.005497484002262354, 0.07657214999198914, 0.007073490414768457, -0.024432998150587082, 0.0626671239733696, 0.07853507995605469, 0.00425111735239625, 0.012510091997683048, -0.07357889413833618, 0.027129828929901123, -0.005721867550164461, -0.002740053692832589, 0.02511359564960003, 0.0023762970231473446, -0.024889742955565453, -0.03951525688171387, 0.013763947412371635, 0.06738126277923584, -0.06460747867822647, -0.031968921422958374, 0.027360694482922554, 0.17044073343276978, -0.025409109890460968, -0.07410640269517899, -0.07397902011871338, -0.006127028726041317, 0.0858224481344223, -0.04511245712637901, -0.06398174911737442, 0.06210436299443245, 0.017755689099431038, 0.05671170353889465, 0.03204260766506195, 0.054450083523988724, -0.014791550114750862, 0.0010225883452221751, 0.02988477423787117, -0.012757143005728722, 0.010537547059357166, 0.020329345017671585, -0.006944609805941582, -0.05281836539506912, 0.021564168855547905, -0.11067948490381241, 0.010216324590146542, -0.024583186954259872, -0.025803836062550545, 0.04661477729678154, 0.0235653817653656, -0.022126056253910065, -0.0016365154879167676, -0.03543861210346222, 0.025270482525229454, 0.035122133791446686, 0.04233143478631973, -0.035867199301719666, 0.03117227740585804, 0.05167842656373978, -0.040203966200351715, 0.009156177751719952, -0.0032681033480912447, -0.021484965458512306, 0.051039520651102066, -0.0054182386957108974, 0.014719368889927864, -0.04372101649641991, 0.05088646709918976, -0.04258066415786743, 0.00518806092441082, -0.0003643808886408806, -0.005176257807761431, -0.03740067780017853, -0.011876487173140049, -0.029536418616771698, -0.0926603227853775, 0.030702073127031326, 0.007782583590596914, 0.04359075054526329, 0.006209096871316433, -0.00025846881908364594, -0.0048639955930411816, -0.043765924870967865, -0.015698518604040146, 0.05614396929740906, -0.046448975801467896, -0.025001974776387215, -0.014237146824598312, -0.04818952828645706, 0.010793020017445087, 0.07681458443403244, -0.0028725196607410908, -0.21780820190906525, -0.019880853593349457, -0.010752481408417225, 0.01316505391150713, -0.03363437205553055, 0.09426294267177582, -0.004985201172530651, -0.021008076146245003, -0.06698102504014969, -0.009904125705361366, 0.009283173829317093, 0.0016588387079536915, -0.027217276394367218, -0.056359536945819855, 0.04082198813557625, 0.04066544398665428, 0.02981085516512394, -0.06366973370313644, -0.010363574139773846, -0.04754306375980377, 0.06815920770168304, 0.054200589656829834, 0.15502527356147766, 0.0006316560320556164, -0.022473160177469254, 0.008821023628115654, 0.008475791662931442, -0.04768301546573639, -0.012717826291918755, -0.026998549699783325, -0.07281915843486786, -0.03487880527973175, 0.035596683621406555, 0.028830457478761673, -0.011646497994661331, -0.05364871025085449, 0.01967853493988514, -0.033639874309301376, 0.03202817216515541, -0.035917848348617554, -0.023995855823159218, 0.026503097265958786, -0.013857555575668812, -0.04311223700642586, 0.044665928930044174, -0.004737254697829485, 0.02207123674452305, -0.03713657334446907, 0.027724184095859528, 0.009180034510791302, -0.030945248901844025, -0.06616933643817902, 0.030185243114829063, 0.046895306557416916, 0.03345419839024544, 0.0007683031144551933, -0.06435663253068924, -0.001675532665103674, 0.005375012289732695, 0.006609083153307438, -0.012172446586191654, -0.04525686055421829, 0.0932992473244667, -0.024181565269827843, 0.014505908824503422]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>need_for_increased_data_allowance_with_reduced_talk_time</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>['Improvement needed: give a more data and less speaking time  plan.\nReason for given NPS: It looks good for service.']</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>[-0.04671859368681908, 0.004033522214740515, 0.03083515539765358, -0.04990106076002121, 0.01601269282400608, 0.0018714213510975242, -0.04685661941766739, 0.025717230513691902, 0.03935440629720688, 0.008411896415054798, -0.02798738144338131, 0.00448210071772337, 0.01960597187280655, 0.012363948859274387, 0.059889741241931915, 0.026115547865629196, 0.07564978301525116, -0.050276126712560654, 0.001390330959111452, 0.04226559400558472, 0.08548002690076828, -0.04121633619070053, -0.011348708532750607, 0.03503675386309624, -0.002253864426165819, -0.02080773562192917, -0.04785410687327385, -0.05828097462654114, -0.0301247276365757, -0.1430128812789917, 0.013069992884993553, -0.010558271780610085, 0.04698532074689865, -0.02475261315703392, 0.005694929976016283, -0.016403958201408386, -0.006726851686835289, -0.014369518496096134, -0.06473861634731293, 0.07618659734725952, 0.022256862372159958, 0.043884120881557465, -0.03444409370422363, 0.004513929598033428, -0.05516595393419266, -0.03789427503943443, -0.03735636919736862, -0.020158488303422928, -0.0028404269833117723, -0.010369619354605675, -0.00934908352792263, -0.012329617515206337, -0.0067035844549536705, -0.0439053475856781, 0.0296272411942482, 0.026018895208835602, 0.056410711258649826, 0.04837273061275482, 0.000728698680177331, -0.01045677438378334, 0.003190429415553808, 0.05129299685359001, -0.12116675823926926, 0.01882822997868061, 0.03255284205079079, -0.012307987548410892, -0.017409900203347206, -0.0164602342993021, 0.028250327333807945, 0.021481921896338463, -0.05688399448990822, -0.014428247697651386, -0.010986978188157082, 0.051889438182115555, 0.023128360509872437, -0.026294808834791183, 0.004417698830366135, 0.01903284154832363, 0.05147648975253105, -0.008517135865986347, 0.003974291030317545, -0.006472911685705185, 0.008553040213882923, 0.00821272749453783, -0.009893317706882954, -0.13877800107002258, 0.01670040935277939, -0.002045475644990802, -0.032913509756326675, -0.027359576895833015, -0.03494996577501297, -0.01989629864692688, 0.015276889316737652, 0.033672481775283813, -0.0438452884554863, -0.023220660164952278, -0.02791723981499672, 0.07154476642608643, -0.08949228376150131, 0.4188057482242584, -0.03606169670820236, 0.03994760662317276, -0.049767326563596725, 0.006700699217617512, -0.002385525032877922, -0.04503447189927101, 0.01619345135986805, -0.044570907950401306, -0.01180522982031107, 0.0011141248978674412, 0.0041126408614218235, -0.03526553139090538, 0.04182111471891403, -0.019858762621879578, 0.0041739740408957005, 0.08653280138969421, 0.010485049337148666, -0.031009890139102936, -0.04628414660692215, 0.03088030405342579, 0.025880729779601097, 0.016701262444257736, 0.06609830260276794, 0.02079082280397415, 0.028102057054638863, -0.011759184300899506, 0.038383983075618744, 0.07673105597496033, 0.01847195066511631, 0.09008494764566422, 0.011483441106975079, -0.028490161523222923, -0.0041984380222857, 0.007809855509549379, 0.023783419281244278, -0.041825469583272934, 0.011499793268740177, 0.023081976920366287, 0.031275440007448196, 0.015887675806879997, -0.031337786465883255, -0.08588426560163498, -0.028668740764260292, -0.041896115988492966, 0.045504577457904816, 0.11718004941940308, -0.027376290410757065, 0.014514039270579815, -0.01646888628602028, -0.08017231523990631, -0.008595500141382217, 0.02317787893116474, 0.05136696249246597, -0.09113429486751556, -0.02076292596757412, -0.01972265914082527, 0.0630485936999321, -0.02425321377813816, -0.0281150471419096, -0.005496006924659014, 0.03769461065530777, -0.044333212077617645, 0.011544160544872284, 0.040240656584501266, -0.00825902633368969, -0.0871913731098175, -0.04710489138960838, 0.014948423951864243, 0.002243299037218094, 0.01591847650706768, -0.024683218449354172, 0.015682213008403778, -0.01981644704937935, 0.016873391345143318, 0.07977566123008728, -0.032753366976976395, -0.027157248929142952, 0.05610969662666321, -0.008655761368572712, -0.0009954272536560893, 0.023268943652510643, 0.004978374112397432, -0.013798531144857407, 0.028965136036276817, -0.01683236099779606, -0.02505527064204216, 0.010012395679950714, 0.057461079210042953, 0.02942384034395218, 2.7591060643317178e-05, -0.07120541483163834, -0.020940054208040237, -0.026909412816166878, 0.004948697984218597, -0.03027363121509552, -0.056765493005514145, 0.042359694838523865, 0.07619191706180573, -0.042780183255672455, -0.006818372290581465, 0.026340555399656296, -0.03581966832280159, -0.008913135156035423, 0.06138334050774574, 0.01542856264859438, 0.007170851808041334, -0.02403995580971241, 0.016265541315078735, 0.10363704711198807, -0.013614550232887268, 0.0389598049223423, -0.06548803299665451, 0.09025225043296814, 0.012710303999483585, -0.009876174852252007, 0.026021722704172134, 0.027348771691322327, -0.007972145453095436, 0.011961109936237335, -0.004530342761427164, -0.0017219793517142534, 0.05036306381225586, 0.021634912118315697, -0.34033194184303284, 0.01288527436554432, 0.02312368154525757, -0.01721469685435295, 0.008182755671441555, -0.02705017849802971, 0.04163691774010658, 0.008324874565005302, -0.019757861271500587, 0.06354004144668579, 0.004923446103930473, 0.014090120792388916, -0.031211765483021736, 0.013618405908346176, -0.008808226324617863, -0.005304013378918171, 0.008760134689509869, -0.011077133007347584, -0.029213083907961845, 0.0053796544671058655, 0.010598692111670971, 0.06122605875134468, -0.004949996247887611, -0.07622447609901428, -0.008742230013012886, 0.012691313400864601, 0.15808436274528503, -0.10098998993635178, -0.028835570439696312, 0.014128785580396652, 0.033964309841394424, 0.06947509199380875, -0.04809727147221565, -0.1039641946554184, 0.014328127726912498, 0.04182330518960953, -0.06021185591816902, 0.10168701410293579, -0.011087366379797459, -0.025799933820962906, -0.02384624257683754, 0.054062988609075546, -0.03579070419073105, -0.014055666513741016, -0.006280741188675165, 0.0017047468572854996, -0.018899181857705116, -0.025982826948165894, -0.025428978726267815, 0.005685554817318916, 0.002395347226411104, 0.03823249787092209, 0.0232054702937603, 0.03503012657165527, 0.07174204289913177, -0.039906907826662064, -0.03964763134717941, -0.005848684813827276, -0.021541522815823555, 0.006524513475596905, -0.019003266468644142, -0.012910434044897556, -0.020732251927256584, -0.004975419957190752, 0.0023953041527420282, 0.010942969471216202, -0.034073732793331146, -0.02342260256409645, -0.07234807312488556, 0.050246067345142365, -0.009061899036169052, 0.046404968947172165, -0.038484033197164536, -0.021046748384833336, -0.026866909116506577, 0.026029666885733604, -0.020351018756628036, 0.009136205539107323, -0.04210479184985161, -0.046772487461566925, 0.05190829187631607, 0.009987670928239822, 0.0246998630464077, 0.026097023859620094, -0.017419323325157166, -0.015021380968391895, 0.021526381373405457, 0.06275478005409241, -0.026232874020934105, -0.006489594001322985, -0.04201313853263855, -0.05129336193203926, -0.002107238629832864, -0.007344760932028294, 0.09066750854253769, -0.03767182677984238, -0.2741527259349823, 0.007442664820700884, 0.009739488363265991, -0.04944410175085068, -0.0039533087983727455, 0.06161334365606308, -0.01005883514881134, 0.03508012369275093, -0.09184201061725616, 0.01647935062646866, -0.03724834695458412, 0.07521190494298935, -0.047075867652893066, 0.013590391725301743, 0.03816943243145943, 0.049965426325798035, 0.06960570812225342, -0.027041010558605194, -0.04532598331570625, -0.025645090267062187, 0.05529187619686127, -0.014094965532422066, 0.12317907810211182, -0.01886475831270218, 0.03811299428343773, 0.017818070948123932, -0.04473930224776268, 0.01829497143626213, 0.046231865882873535, -0.008869433775544167, -0.043609458953142166, -0.021987343207001686, 0.0738997682929039, 0.002435208298265934, -0.01283032912760973, 0.022126786410808563, -0.05179976299405098, -0.010413631796836853, 0.017266156151890755, -0.009007982909679413, -0.01719694212079048, 0.020667027682065964, -0.024147143587470055, 0.003097925102338195, 0.0869135931134224, 0.05005698651075363, -0.03052522800862789, -0.07885942608118057, 0.011346702463924885, -0.004578507039695978, -0.0022249978501349688, 0.000653263065032661, 0.011381122283637524, 0.03840622678399086, 0.035149045288562775, 0.032168835401535034, -0.02079341746866703, 0.049570098519325256, 0.07928156107664108, -0.03482554480433464, 0.008104882203042507, -0.057511523365974426, 0.004480693489313126, -0.022184886038303375, -0.01201646775007248]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>request_referral_incentives_loyalty_program</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Bring in refer a friend offer.\nI have already referred so many people and they are still with Vodafone.\nReason for given NPS: I have been with you guys for almost more than 7-8 years. I have had no major issues except for 1 or 2 times where in your team helped resolve the issue asap.']</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>[-0.03045862354338169, -0.008730498142540455, 0.0021666965913027525, -0.021724503487348557, -0.05314602330327034, 0.016370896250009537, 0.040728844702243805, 0.09030287712812424, 0.00018241033831145614, -0.038901589810848236, 0.007429851684719324, 0.01392908301204443, -0.008204441517591476, -0.014836505986750126, 0.04659363254904747, 0.00027707836125046015, 0.05637442320585251, -0.0008514173096045852, -0.05815669521689415, 0.05515718087553978, 0.0016525990795344114, -0.08758275210857391, -0.018108617514371872, 0.03280067443847656, 0.004580674227327108, -0.005610159132629633, -0.040892865508794785, -0.06086551398038864, -0.07139767706394196, -0.05334339663386345, 0.015524919144809246, -0.08136029541492462, 0.024610646069049835, 0.04772244766354561, -0.034617237746715546, 0.03161957859992981, 0.005812690127640963, -0.031241701915860176, -0.020730702206492424, 0.03962153568863869, 0.015754934400320053, 0.001476122299209237, 0.009411429986357689, 0.011022353544831276, -0.00048451474867761135, -0.07823959738016129, 0.015384305268526077, 0.014610222540795803, 0.04510634019970894, 0.014158221893012524, 0.06774840503931046, -0.03134307637810707, -0.03622986376285553, 0.024493392556905746, 0.01551953237503767, 0.06277836114168167, -0.002369797322899103, 0.018565189093351364, -0.022922363132238388, 0.01005532592535019, 0.0023572896607220173, 0.005361489020287991, -0.1536477506160736, 0.023775091394782066, -0.07157342880964279, 0.04475576803088188, -0.024185054004192352, -0.010384466499090195, -0.01760069467127323, -0.0011064136633649468, 0.007285425439476967, -0.018824566155672073, -0.0682750716805458, 0.011797086335718632, 0.015174811705946922, 0.002137890551239252, 0.056518182158470154, 0.025505907833576202, -0.05593027174472809, -0.002521322574466467, -0.02875737100839615, 0.004653730429708958, -0.022649487480521202, 0.007473880425095558, 0.019125422462821007, -0.03263288363814354, 0.06746818125247955, -0.027748193591833115, 0.05579224228858948, 0.034772422164678574, 0.014160922728478909, -0.031243517994880676, -0.007814386859536171, -0.0016684590373188257, -0.1116585060954094, -0.01108046155422926, 0.040295444428920746, -0.025689132511615753, -0.08369791507720947, 0.33727195858955383, 0.015127493999898434, 0.011498830281198025, -0.016276143491268158, -0.019644610583782196, 0.03620542585849762, -0.036685775965452194, 0.004840610083192587, 0.0019701628480106592, -0.026790395379066467, -0.008070215582847595, -0.022609541192650795, -0.01702483370900154, 0.03130652382969856, -0.04028887674212456, -0.06206498667597771, 0.11247994005680084, 0.010895445942878723, 0.014695714227855206, 0.028875257819890976, -0.010938235558569431, 0.012141408398747444, 0.025136254727840424, 0.03443606197834015, -0.003721982939168811, -0.022956915199756622, -0.0462828166782856, 0.029902901500463486, 0.11680024862289429, 0.003359748050570488, 0.05262615531682968, 0.053283970803022385, 0.010598929598927498, -0.035049207508563995, -0.010523984208703041, 0.02270744927227497, -0.00982521753758192, 0.021682564169168472, -0.06312879174947739, 0.06766009330749512, 0.08073673397302628, 0.011955010704696178, -0.030039070174098015, 0.04133611544966698, -0.11466522514820099, -0.017414651811122894, 0.051540497690439224, 0.025449562817811966, 0.013212580233812332, -0.03213091194629669, -0.014430630952119827, 0.030456658452749252, -0.02418113872408867, -0.035597264766693115, -0.037579186260700226, 0.033005353063344955, 0.012021607719361782, 0.038685981184244156, 0.001949014374986291, -0.03234344720840454, 0.010721860453486443, 0.04297091066837311, -0.0683632418513298, -0.014064397662878036, 0.00871871504932642, 0.034170087426900864, -0.13024765253067017, -0.010040028020739555, -0.04022610932588577, -0.03473933786153793, -0.015226681716740131, -0.004892793018370867, 0.026717327535152435, -0.052561454474925995, 0.018249694257974625, 0.1052916869521141, 0.007697264663875103, -0.05594657361507416, -0.0010782468598335981, 0.015114683657884598, 0.017223592847585678, 0.02652638778090477, -0.017754748463630676, -0.02379877306520939, 0.011279517784714699, -0.007445237599313259, -0.004715187940746546, -0.03366243094205856, -0.08500940352678299, -0.00826300960034132, 0.002360082697123289, -0.08439890295267105, -0.0567503422498703, -0.09074091166257858, -0.014085645787417889, 0.05337071418762207, -0.012178545817732811, -0.04048362374305725, -0.02160048857331276, 0.03979022800922394, 0.008088654838502407, -0.010322707705199718, 0.010318118147552013, -0.06500635296106339, 0.0524042509496212, -0.007328332401812077, 0.07471705973148346, -0.00768910301849246, 0.005765543319284916, 0.044566813856363297, -0.003717375686392188, -0.012778018601238728, 0.011470483615994453, 0.04845663532614708, 0.07220745831727982, -0.04335764795541763, 0.02817678637802601, 0.020353524014353752, -0.01065812911838293, 0.02035553753376007, 0.0064082033932209015, 0.012155113741755486, 0.12216927856206894, 0.04710429534316063, -0.32557401061058044, 0.039041806012392044, -0.02098369225859642, 0.03035929426550865, -0.019281161949038506, -0.0036436107475310564, 0.059904519468545914, -0.051745664328336716, -0.007966944947838783, 0.001143318833783269, 0.13934414088726044, 0.046567294746637344, 0.06053672730922699, 0.01432777289301157, 0.041439563035964966, 0.01756959781050682, -0.0408453606069088, 0.08997749537229538, 0.11279095709323883, -0.036608390510082245, 0.02727038785815239, -0.011891971342265606, 0.057193953543901443, -0.08606182783842087, 0.037438128143548965, -0.001457703998312354, 0.09306727349758148, 0.00032654954702593386, -0.07575526833534241, -0.023779194802045822, 0.04567774757742882, 0.08630737662315369, -0.02091941609978676, -0.0886615440249443, 0.002107552019879222, 0.011648481711745262, -0.01896793581545353, 0.018808230757713318, 0.024897180497646332, -0.05936790630221367, -0.0018197245663031936, 0.037668004631996155, 0.02804611064493656, 0.016577932983636856, 0.030939379706978798, -0.029190510511398315, 0.0215766578912735, 0.042486272752285004, -0.02186860330402851, 0.0930633544921875, 0.025448139756917953, -0.005850429181009531, 0.010667819529771805, 0.0009925657650455832, 0.08648056536912918, -0.03968984633684158, -0.035764213651418686, 0.012051261030137539, -0.008370844647288322, 0.003088583005592227, -0.03167770802974701, -0.011963172815740108, 0.03140244260430336, -0.04337108135223389, 0.030525466427206993, -0.01860680989921093, 0.0035639656707644463, 0.013704005628824234, 0.009232619777321815, 0.051918476819992065, -0.02425810694694519, -0.017241142690181732, 0.013886029832065105, -0.028300203382968903, -0.026103738695383072, -0.011572930961847305, -0.011814393103122711, -0.010931262746453285, -0.05934777110815048, -0.07265900075435638, 0.03938000276684761, -0.05538000166416168, -0.035468026995658875, -0.011502551846206188, 0.014162949286401272, 0.05025594308972359, 0.02649073675274849, 0.022982032969594002, 0.025418933480978012, 0.04429251328110695, -0.018666015937924385, -0.0025281200651079416, -0.044116683304309845, -0.039248015731573105, 0.07227925956249237, 0.007600329350680113, -0.28004661202430725, -0.00017864191613625735, -0.04708371311426163, -0.010881329886615276, 0.011353935115039349, 0.04084305092692375, 0.00235171802341938, -0.031286489218473434, -0.10036692768335342, -0.029202479869127274, 0.044501546770334244, 0.023688780143857002, -0.03555803373456001, -0.026799757033586502, 0.051481712609529495, 0.0222308486700058, 0.06329812854528427, -0.008544623851776123, 0.009939536452293396, -0.03221535682678223, 0.015397123992443085, 0.031302548944950104, 0.18497398495674133, -0.021647989749908447, -0.04390530660748482, 0.03193711116909981, -0.02377910539507866, -0.007894749753177166, 0.0637206882238388, 0.0027859604451805353, -0.04515651613473892, 0.001545117236673832, 0.0337955541908741, 0.005480040796101093, -0.03586424142122269, 0.06487326323986053, -0.08005327731370926, -0.02880217880010605, 0.013798341155052185, 0.007913434877991676, -0.04292181134223938, 0.04138012230396271, -0.01661156304180622, -0.07357668876647949, 0.0592767708003521, 0.029689541086554527, -0.03777424991130829, -1.3347145795705728e-05, 0.035295408219099045, 0.01852335035800934, -0.037770312279462814, -0.054625775665044785, 0.03234459087252617, -0.0425419881939888, 0.023856613785028458, 0.0013763272436335683, -0.08532748371362686, -0.043995101004838943, 0.04578770324587822, 0.0018413231009617448, -0.045011915266513824, 0.03275532275438309, 0.04485787823796272, -0.011696801520884037, 0.02118544466793537]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>improving_calendar_integration_for_bill_reminders</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>["Improvement needed: The only thing I would like is faster broadband, however that is not entirely necessary, just would be nice to have.\n\nOn a separate note, is there a way to link bill due dates into a calendar directly from the app? If so this might alleviate the late payments!\nReason for given NPS: We have had fibre at two houses so far in the last few years, and apart from major power outages (not One.NZ's doing) our internet connection has not once dropped. Speeds are fast too, considering we now live in a rural township!"]</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>[-0.09034343808889389, -0.03231872618198395, 0.06324724107980728, -0.0014567050384357572, -0.014971893280744553, -0.047515928745269775, -0.054469335824251175, 0.03776569664478302, 0.0009714603656902909, 0.006549145095050335, -0.022304078564047813, 0.08687524497509003, 0.07392038404941559, 0.013601327314972878, 0.049193065613508224, -0.050887104123830795, 0.0022963520605117083, 0.0668802410364151, -0.012500532902777195, 0.010726557113230228, 0.035851795226335526, 0.01810799352824688, -0.013706286437809467, 0.08971338719129562, -0.02037183754146099, 0.04838486760854721, -0.020384054630994797, -0.04739125818014145, -0.05712101235985756, -0.14076891541481018, 0.014350855723023415, -0.05346599593758583, 0.02956373430788517, -0.019815601408481598, 0.009993629530072212, -0.044029705226421356, -0.015396700240671635, 0.032282181084156036, -0.00805561151355505, 0.015844587236642838, 0.012514895759522915, 0.06822942197322845, -0.041173920035362244, -0.059069085866212845, -0.0792347863316536, -0.11231542378664017, 0.010443251579999924, 0.026677727699279785, -0.02048458904027939, 0.017013777047395706, -0.004565374925732613, -0.02999194525182247, 0.0031763077713549137, -0.0021769581362605095, 0.03535277768969536, 0.07271499186754227, 0.002746245823800564, 0.0930478423833847, 0.04554907977581024, 0.0031705081928521395, 0.036342646926641464, 0.0314161591231823, -0.14512701332569122, 0.10899975895881653, -0.013856295496225357, -0.03816604241728783, -0.04979778453707695, 0.040716011077165604, 0.006066624075174332, 0.016628308221697807, -0.06502142548561096, 0.009259521961212158, 0.006204989273101091, 0.07570561021566391, 0.008263138122856617, -0.03472321853041649, 0.012195221148431301, 0.014017890207469463, -0.019211137667298317, 0.007215460296720266, -0.02004583552479744, 0.06915150582790375, 0.004489469807595015, -0.05917344614863396, 0.007789429277181625, -0.028482474386692047, 0.017467103898525238, -0.030292773619294167, 0.04135042801499367, -0.03267804533243179, 0.005414523649960756, -0.00927015207707882, 0.01633346453309059, 0.03298494592308998, -0.007088493090122938, 0.0006674600881524384, 0.05272779241204262, -0.0012647383846342564, -0.08444419503211975, 0.33221322298049927, -0.02969198301434517, 0.038955073803663254, -0.010251600295305252, -0.030861519277095795, -0.005388467572629452, -0.06718436628580093, 0.00910294521600008, -0.055725496262311935, -0.06995639950037003, -0.01647871732711792, -0.011206572875380516, -0.003916363697499037, 0.04788842424750328, -0.02673926390707493, 0.04177192971110344, 0.02686508558690548, 0.04345441609621048, -0.0016882792115211487, 0.0086681442335248, 0.002413213485851884, 0.04868803918361664, -0.025594456121325493, 0.02671714313328266, 0.04624316841363907, -0.00539375701919198, 0.010887162759900093, 0.03448660299181938, 0.058124005794525146, -0.01905433088541031, 0.06805919855833054, 0.02429346926510334, 0.03306090086698532, 0.021219760179519653, 0.016463978216052055, 0.02657649666070938, -0.03401855379343033, -0.0013928269036114216, -0.035377636551856995, 0.0642455667257309, 0.0016841641627252102, -0.020632334053516388, -0.03933652490377426, -0.0036095476243644953, -0.06446003168821335, -0.02892104722559452, 0.16986776888370514, -0.08071719855070114, 0.0009713582694530487, 0.041379887610673904, -0.08297309279441833, -0.04667273536324501, 0.020915815606713295, 0.029884448274970055, -0.044696491211652756, 0.02306571789085865, 0.004145550541579723, 0.04880179464817047, 0.026340993121266365, 0.006176626775413752, 0.044978752732276917, -0.007774530444294214, -0.0007832139963284135, -0.034099120646715164, 0.05663395673036575, 0.002886753296479583, -0.0777069628238678, -0.006188939791172743, -0.030698155984282494, -0.07028385996818542, -0.050797466188669205, -0.03332000970840454, 0.006913420744240284, 0.0022307303734123707, 0.009029262699186802, 0.17941245436668396, 0.010192661546170712, -0.026728348806500435, 0.009309876710176468, 0.06016070395708084, -0.010089874267578125, 0.05772218108177185, -0.06863101571798325, -0.057030435651540756, -0.018465202301740646, 0.024021612480282784, -0.005648917052894831, -0.007226862013339996, -0.032811108976602554, 0.017899375408887863, 0.034941140562295914, 0.0038601572159677744, -0.032994017004966736, 0.006541503127664328, -0.012066295370459557, -0.006072116084396839, -0.05686529353260994, 0.004667093511670828, 0.015431961044669151, 0.005732002202421427, -0.018597863614559174, -0.005418323911726475, -0.06815100461244583, -0.042254526168107986, 0.01967497356235981, 0.06258394569158554, 0.025198301300406456, -0.011897433549165726, -0.04593293368816376, 0.10623832792043686, -0.017769504338502884, 0.026939503848552704, -0.009047083556652069, 0.10016561299562454, -0.0737217590212822, -0.054210465401411057, 0.0377010703086853, 0.014670725911855698, 0.021075500175356865, -0.010497156530618668, 0.0055510373786091805, 0.028446221724152565, 0.047525178641080856, 0.035925835371017456, -0.28904423117637634, -0.020044252276420593, 0.009680675342679024, -0.0008736354066058993, -0.026116712018847466, -0.043188318610191345, 0.04384535923600197, 0.007679450325667858, -0.024472760036587715, 0.09898220002651215, 0.006040982436388731, 0.008000818081200123, 0.012631218880414963, -0.05131598562002182, 0.013754861429333687, 0.0040466259233653545, -0.022844621911644936, -0.012740795500576496, -0.011196744628250599, 0.06231669709086418, 0.006396880839020014, 0.031067272648215294, 0.029610099270939827, -0.08942604809999466, 0.007981863804161549, -0.02054726332426071, 0.14007048308849335, -0.051636774092912674, -0.047779928892850876, -0.012935864739120007, 0.04306519404053688, 0.057182010263204575, -0.024218836799263954, -0.11550714820623398, -0.008079715073108673, 0.061121728271245956, -0.025553835555911064, 0.015944914892315865, 0.027844658121466637, -0.05845126882195473, -0.009250400587916374, 0.03444972634315491, 0.01785924844443798, -0.05510948970913887, 0.019791673868894577, -0.04533376917243004, -0.004905853420495987, -0.037513021379709244, -0.019365033134818077, -0.020790094509720802, -0.008307036943733692, -0.09282062202692032, 0.05547695606946945, 0.03990352153778076, 0.06551094353199005, -0.04965292662382126, -0.00015100142627488822, 0.019275778904557228, -0.04635656625032425, -0.026762209832668304, -0.01951151341199875, -0.03351649269461632, 0.017995070666074753, -0.014199725352227688, 0.06293977797031403, 0.05100797861814499, -0.016706638038158417, -0.045777954161167145, -0.051691941916942596, 0.06393109261989594, -0.027360783889889717, -0.023500636219978333, -0.06866118311882019, -0.04611821472644806, 0.027476470917463303, -0.008972941897809505, -0.03708089888095856, 0.019920973107218742, -0.007068915292620659, -0.048098284751176834, 0.002859213389456272, 0.004465469159185886, 0.016729306429624557, 0.007503600791096687, 0.04448448121547699, 0.03208820894360542, 0.025602838024497032, 0.03357613831758499, 0.01062625553458929, -0.0038957574870437384, 0.03433036804199219, -0.0012407185276970267, 0.018016576766967773, 0.08861903846263885, 0.08493075519800186, 0.0014266733778640628, -0.24864870309829712, 0.017860911786556244, 0.0023084492422640324, -0.07017918676137924, -0.035841088742017746, 0.03340814635157585, -0.02003346011042595, -0.039568573236465454, -0.027674339711666107, -0.041537508368492126, -0.03061782568693161, 0.03717634081840515, -0.03276660665869713, -0.013607431203126907, -0.02573261596262455, 0.062194354832172394, 0.021548593416810036, -0.014674611389636993, 0.00266519864089787, -0.04087216407060623, 0.02542988583445549, 0.029065027832984924, 0.16013595461845398, 0.014337309636175632, -0.023148320615291595, 0.021736156195402145, 0.018876254558563232, -0.02493474632501602, 0.10631553083658218, 0.03873175010085106, -0.06973995268344879, -0.05468876287341118, 0.06067259982228279, 0.031052706763148308, 0.017475910484790802, 0.03582300990819931, 0.03343060985207558, -0.040272798389196396, -0.027211099863052368, -0.02167956531047821, -0.03530791774392128, 0.041310977190732956, -0.03052617609500885, -0.022976500913500786, 0.032115571200847626, 0.05111614987254143, -0.019266095012426376, -0.051577214151620865, 0.03558574989438057, 0.021885791793465614, -0.0257103331387043, -0.0877908393740654, -0.008465345948934555, 0.05985432118177414, 0.001155445701442659, 0.052288495004177094, 0.004096838179975748, -0.008018256165087223, -0.015977932140231133, 0.0002208299993071705, -0.0007227461319416761, -0.05597306787967682, 0.037261128425598145, -0.016676707193255424, -0.024997970089316368]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>costly_landline_service_for_elderly_connectivity</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Package deal re usage.\nReason for given NPS: I feel my monthly bill is costly for what I need, as I have an elderly parent it is the only reason I need to be connected to a land line. As I can use a cell phone my 90 yr old parent can't so needs to be able to reach me on a land line, being the only reason I have it."]</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>[-0.029840335249900818, -0.06940174102783203, 0.005823197774589062, -0.025890745222568512, 0.02396884746849537, -0.024425815790891647, -0.020157963037490845, 0.058693524450063705, -0.003954618237912655, -0.026188291609287262, 0.004434668924659491, 0.04558061435818672, 0.007077183574438095, 0.04814078286290169, 0.036337368190288544, 0.03522877395153046, 0.05607741326093674, 0.0070806159637868404, 0.006199587602168322, 0.09276974946260452, 0.06474041938781738, -0.05738430842757225, -0.03679484501481056, -0.0014226402854546905, 0.02695572003722191, 0.0341588519513607, -0.025471821427345276, -0.039045389741659164, -0.013620411045849323, -0.06755680590867996, 0.02500060386955738, 0.024824783205986023, 0.0055346922017633915, 0.013592698611319065, -0.009004435501992702, -0.004696820396929979, 0.056426409631967545, -0.016018129885196686, 0.020151792094111443, 0.003954131156206131, 0.030148664489388466, 0.061992544680833817, -0.0366671048104763, -0.022905627265572548, -0.03634987398982048, -0.09776902198791504, -0.012713552452623844, -0.0011272430419921875, 0.032502416521310806, -0.0018828051397576928, -0.03560177981853485, 0.0497707761824131, -0.009091041050851345, 0.04107018932700157, 0.019014185294508934, 0.04132051765918732, -0.002621899824589491, 0.05635671317577362, 0.011159123852849007, 0.006672844290733337, 0.04946896806359291, -0.020149240270256996, -0.137034609913826, 0.04373886436223984, 0.012182608246803284, -0.029365159571170807, 0.035341568291187286, 0.00486094132065773, 0.01507186982780695, -0.015354991890490055, -0.011349697597324848, 0.04394058510661125, 0.003250659443438053, 0.028065703809261322, 0.04465330392122269, 0.02441016212105751, -0.0839255079627037, -0.010176023468375206, -0.010173232294619083, 0.02087698131799698, 0.0704970434308052, 0.05220895633101463, -0.006244257558137178, 0.07056114822626114, -0.0319996140897274, -0.058527473360300064, -0.0011920109391212463, -0.048230644315481186, -0.03194811940193176, -0.017293037846684456, -0.02209833636879921, 0.060156531631946564, -0.0059856390580534935, 0.001110147568397224, -0.07688809931278229, -0.010740668512880802, 0.0279359370470047, -0.016776232048869133, -0.09429849684238434, 0.3609921336174011, 0.012600422836840153, 0.014136041514575481, 0.006358034908771515, -0.01917438767850399, 0.009470737539231777, -0.05620754137635231, -0.02650400623679161, 0.0027794609777629375, 0.0035843669902533293, 0.052467670291662216, -0.038947708904743195, -0.026128144934773445, 0.02060657925903797, 0.013398798182606697, 0.0054717520251870155, 0.05637785792350769, -0.026247533038258553, 0.010791072621941566, 0.004428040701895952, 0.05135892704129219, -0.059757400304079056, -0.02842921018600464, 0.01659986563026905, 0.015488561242818832, 0.006800353992730379, -0.018999634310603142, 0.026723599061369896, 0.13840727508068085, 0.014450116083025932, 0.03907768055796623, 0.01534445770084858, -0.0587739422917366, 0.001205011853016913, 0.028376339003443718, 0.01753041334450245, 0.006361117586493492, 0.04397227615118027, 0.03484337031841278, -0.022252768278121948, 0.027271801605820656, -0.05087902769446373, -0.09976325929164886, -0.025342009961605072, -0.0071060433983802795, 0.009602244012057781, 0.09466735273599625, 0.01867711916565895, 0.08063403517007828, 0.02074841596186161, -0.03794874995946884, 0.02587643451988697, 0.03253360465168953, 0.0884481742978096, -0.02131079137325287, -0.02929690107703209, -0.002597777871415019, 0.061486780643463135, -0.0012320310343056917, -0.05411061272025108, 0.010460659861564636, 0.07104519009590149, -0.026708537712693214, -0.06981252133846283, 0.08717850595712662, 0.007779628969728947, -0.11242320388555527, -0.08794768154621124, -0.04111097380518913, -0.05431735888123512, 0.00023686912027187645, -0.0027787068393081427, 0.04203414171934128, 0.031227579340338707, 0.015969131141901016, 0.056809473782777786, 0.011977924965322018, -0.053383953869342804, 0.011726274155080318, -0.03474004194140434, 0.01745055429637432, -0.02611645683646202, 0.017385326325893402, -0.006640556734055281, 0.00426551653072238, 0.0014128461480140686, -0.03467746451497078, -0.0151973282918334, 0.043046049773693085, 0.044058188796043396, -0.0683259665966034, -0.07876188308000565, 0.010671388357877731, -0.009674080647528172, -0.04513578861951828, -0.002349344315007329, -0.006753002759069204, -0.05429751053452492, 0.009732354432344437, 0.05768387392163277, 0.013746850192546844, 0.09365539252758026, -0.04989928752183914, -0.07460040599107742, 0.005280897952616215, -0.030029186978936195, 0.04384075850248337, 0.008307247422635555, -0.007177372928708792, 0.04898793622851372, -0.016237344592809677, 0.018014641478657722, -0.030618082731962204, 0.17293812334537506, 0.018624937161803246, -0.06528210639953613, 0.014607833698391914, -0.03933488577604294, 0.03660956770181656, 0.022708075121045113, 0.04852442815899849, 0.022031180560588837, 0.051214560866355896, -0.018865425139665604, -0.299284964799881, -0.042044706642627716, 0.007737413048744202, -0.07894621044397354, -0.020304538309574127, 0.027449948713183403, 0.03718031942844391, 0.007075043860822916, -0.003692509839311242, 0.06637322902679443, 0.05622271075844765, -0.01734018512070179, 0.019557224586606026, -0.003922195639461279, -0.01856646127998829, 0.0034668806474655867, -0.01404498890042305, 0.029068879783153534, -0.03325924649834633, 0.0014432963216677308, 0.006552555598318577, 0.007429943419992924, -0.01076438557356596, -0.036488763988018036, 0.04254920780658722, 0.0005153107340447605, 0.14973285794258118, -0.1046689823269844, -0.02350473962724209, -0.0528012178838253, 0.04228249192237854, -0.021326500922441483, -0.022570239380002022, -0.03943558782339096, 0.011127560399472713, 0.002952481620013714, 0.05071096867322922, 0.04116576164960861, -0.023289674893021584, -0.07809053361415863, -0.08167286962270737, 0.03253066539764404, 0.014124819077551365, -0.042258862406015396, -0.043889742344617844, 0.0017143136356025934, -0.013188909739255905, 0.013390514999628067, -0.049628835171461105, -0.047275297343730927, 0.006508819758892059, -0.052903592586517334, 0.06838011741638184, 0.008450277149677277, 0.0622403658926487, -0.010237403213977814, -0.01709573343396187, 0.02186674065887928, -0.07515663653612137, -0.02513139508664608, 0.027262868359684944, 0.045966826379299164, 0.050108011811971664, -0.09168212115764618, 0.10206150263547897, -0.04090021550655365, 0.00622958317399025, 0.03311464935541153, -0.013501102104783058, 0.01980351097881794, 0.034113992005586624, 0.05556784197688103, -0.038569822907447815, 0.010608626529574394, 0.0037688531447201967, 0.01647661253809929, -0.0014064545975998044, 0.024112671613693237, -0.041020628064870834, -0.038821980357170105, 0.032216038554906845, -0.04495709389448166, 0.012667876668274403, 0.031557127833366394, -0.04099447652697563, -0.030761927366256714, 0.028987761586904526, 0.017164083197712898, 0.003113468876108527, -0.020336123183369637, -0.06388819962739944, 0.028781648725271225, -0.06165679916739464, -0.03633245825767517, 0.11199703067541122, -0.03823792561888695, -0.2827485203742981, 0.03863504156470299, -0.036174558103084564, -0.06078187748789787, -0.05041038244962692, 0.012889644131064415, -0.003936639986932278, 0.052785828709602356, -0.05400944873690605, 0.002130978973582387, 0.03308799862861633, 0.0182627085596323, 0.0097358962520957, -0.052881546318531036, 0.06663887947797775, 0.009488388895988464, 0.024391690269112587, -0.042086221277713776, -0.053668659180402756, -0.03531785309314728, 0.01673697680234909, -0.030153650790452957, 0.1025926023721695, -0.027170365676283836, -0.0005266614025458694, 0.023104121908545494, -0.05342600494623184, 0.030167002230882645, 0.09652504324913025, -0.06048368662595749, -0.04178742319345474, -0.014877969399094582, 0.02777947671711445, -0.03526128828525543, 0.05319337919354439, -0.024798434227705002, -0.02309485711157322, -0.022674670442938805, -0.02843344397842884, -0.007094585336744785, -0.05127516761422157, 0.052524201571941376, -0.016114933416247368, 0.02425118163228035, 0.07227379083633423, 0.03015102446079254, -0.038208406418561935, 0.009106189012527466, -0.011396221816539764, -0.0117656784132123, 0.002510250546038151, -0.045667748898267746, 0.061180707067251205, 0.0036894900258630514, 0.048758674412965775, 0.04036189243197441, -0.04869137704372406, -0.008194606751203537, -0.036892931908369064, -0.051028333604335785, 0.019827187061309814, -0.0558372400701046, 0.006603923626244068, 0.023831170052289963, 0.020343054085969925]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>reactive_instead_of_proactive_communication</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Keeping in touch with your business customers..... I haven't had contact regarding my business account since my last phone upgrade. Makes me wonder now if it was just a sales call rather than a genuine business support contact\nReason for given NPS: I have always been with One NZ (previously Vodafone) &amp; have never had any issues"]</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>[-0.06346581131219864, 0.012862792238593102, 0.005212731659412384, -0.030521554872393608, -0.021475359797477722, -0.017705241218209267, 0.02777811512351036, 0.03577515855431557, 0.01575060561299324, 0.027908572927117348, -0.04266045242547989, 0.020433787256479263, 0.021571841090917587, -0.005255596712231636, 0.0046286084689199924, 0.046675484627485275, 0.024761440232396126, 0.09233609586954117, 0.0035450526047497988, 0.01222157757729292, -0.0006187758408486843, 0.013924258761107922, -0.005418259184807539, 0.028761649504303932, 0.0014058630913496017, 0.06456141173839569, -0.04870101436972618, 0.012500583194196224, -0.04713105037808418, -0.1254638284444809, 0.01867123879492283, -0.04570052772760391, 0.0052809822373092175, 0.007264519575983286, -0.02395682781934738, -0.02404043637216091, -0.035606689751148224, -0.010832000523805618, -0.0633719265460968, 0.06724024564027786, 0.03376547619700432, -0.02217232435941696, -0.04009740799665451, -0.014562692493200302, -0.019270913675427437, -0.05354712903499603, 0.023241862654685974, -0.010163994506001472, -0.003034980036318302, -0.05815882608294487, -0.016617711633443832, 0.03225092589855194, 0.00323700625449419, -0.03212223947048187, 0.051243074238300323, 0.038896579295396805, 0.03910133242607117, 0.052629463374614716, 0.024396702647209167, -0.03388258069753647, 0.028559820726513863, 0.08713687211275101, -0.12432701140642166, 0.07289490103721619, 0.016693364828824997, -0.0374780036509037, -0.014717510901391506, -0.016096988692879677, 0.07871022820472717, 0.021324286237359047, -0.02616206929087639, 0.012457826174795628, -0.024834495037794113, 0.05410785973072052, 0.04161664471030235, -0.03518039360642433, -0.032461121678352356, 0.04685830697417259, 0.0684906542301178, 0.003775564022362232, -0.026867203414440155, -0.044726062566041946, -0.06101119890809059, 0.014435619115829468, -0.04592978581786156, -0.03827113285660744, 0.03688500449061394, -0.02365725114941597, 0.053932350128889084, -0.031988609582185745, -0.06746310740709305, -0.01707671396434307, 0.04852008819580078, 0.06396602094173431, -0.026263559237122536, 0.031437862664461136, -0.0002811131125781685, -0.02150777541100979, -0.05496480315923691, 0.3590754568576813, -0.08371904492378235, 0.0615154467523098, -0.012289482168853283, 0.008034251630306244, -0.001421743188984692, -0.08214932680130005, -0.014932314865291119, -0.015047413296997547, -0.0491354800760746, 0.03932781517505646, -0.03714979439973831, -0.021566804498434067, 0.032086435705423355, -0.03758196905255318, 0.04923577234148979, 0.037280451506376266, 0.021715382114052773, -0.001331593724898994, -0.018855508416891098, 0.004004293587058783, 0.06429814547300339, 0.009129233658313751, 0.040263768285512924, 0.022958209738135338, 0.02137705124914646, -0.021860694512724876, 0.08938437700271606, 0.07689323276281357, -0.03678205609321594, 0.07040423154830933, 0.01865696907043457, 0.05439933389425278, -0.009052274748682976, 0.024608969688415527, 0.04394727945327759, -0.004149581305682659, -0.003424881724640727, -0.015059941448271275, 0.06707186251878738, 0.05810721591114998, 0.03340694680809975, -0.012985405512154102, -0.042079292237758636, -0.06524237990379333, 0.03781776502728462, 0.09698954969644547, -0.027252385392785072, 0.02363477647304535, -0.017583472654223442, 0.02430550940334797, -0.05137014016509056, 0.027736075222492218, 0.022703036665916443, 0.027123410254716873, -0.05119982734322548, 0.03732774406671524, -0.011320960707962513, -0.010967865586280823, -0.02769557386636734, -0.018276575952768326, -0.03268952667713165, -0.044087160378694534, 0.06155668944120407, 0.05882003903388977, -0.0657930076122284, -0.07171334326267242, 0.014421936124563217, -0.04340404272079468, 0.009296918287873268, -0.049075230956077576, -0.006833513732999563, -0.006633289158344269, 0.0285927876830101, -0.05216967314481735, 0.05280430242419243, 0.057242363691329956, -0.07389894872903824, -0.038100000470876694, 0.014620460569858551, 0.01877051591873169, 0.09958084672689438, -0.006830986589193344, 0.030831007286906242, 0.012574486434459686, -0.05352935940027237, -0.07050133496522903, 0.025777850300073624, 0.011103404685854912, 0.06402280181646347, 0.025249451398849487, -0.047705862671136856, -0.046008143573999405, 0.019981125369668007, -0.04413485899567604, -0.05354941636323929, 0.010716940276324749, 0.03910616412758827, -0.04227930307388306, 0.011066713370382786, 0.014573310501873493, 0.05354224890470505, 0.05960792303085327, -0.09402134269475937, -0.0060352301225066185, -0.03464273735880852, -0.013040860183537006, -0.07572659850120544, 0.03462529554963112, 0.03786348178982735, 0.008608761243522167, -0.049757398664951324, -0.01610899530351162, 0.057023368775844574, -0.004511669743806124, -0.08708924800157547, -0.026703691110014915, -0.059340525418519974, 0.051876042038202286, -0.016179248690605164, 0.008056705817580223, -0.016926556825637817, 0.024646643549203873, -0.01833629049360752, -0.32239994406700134, -0.001259073382243514, 0.02744516171514988, -0.01546152587980032, -0.007274199277162552, -0.04656128212809563, 0.017978068441152573, -0.020345404744148254, 0.007343333680182695, 0.024021897464990616, 0.07858947664499283, 0.04918530955910683, -0.025631720200181007, 0.0355338416993618, 0.05420411750674248, 0.0558110848069191, -0.011523486115038395, -0.06193407252430916, -0.026476606726646423, -0.037361618131399155, -0.05634629353880882, -0.01013409998267889, 0.024790504947304726, -0.0645698755979538, 0.04063127934932709, -0.0021625333465635777, 0.156794011592865, 0.011863217689096928, -0.008183248341083527, 0.03651098906993866, 0.034942686557769775, 0.03661748021841049, -0.02528735250234604, -0.09195002913475037, -0.005157634150236845, 0.05040213093161583, 0.022316541522741318, 0.03970231115818024, 0.03727542608976364, -0.004690611734986305, 0.011653243564069271, 0.033564239740371704, -0.004334310069680214, -0.09987407922744751, 0.007369504310190678, -0.0704285204410553, 0.0015898698475211859, -0.02273639477789402, -0.02525678463280201, 0.011661488562822342, 0.019011646509170532, 0.031157081946730614, 0.010871579870581627, 0.011038157157599926, 0.004918535239994526, 0.0017740287585183978, 0.02190440706908703, 0.01060489658266306, -0.01619146019220352, 0.023211121559143066, 0.012614159844815731, 0.06788665056228638, -0.06440402567386627, -0.021417470648884773, 0.06356102973222733, -0.0005437653162516654, 0.006236120592802763, -0.03951701521873474, 0.02860577404499054, 0.01592232659459114, -0.0430263914167881, 0.10082598775625229, -0.012376166880130768, -0.020446766167879105, -0.006656721234321594, 0.06523122638463974, -0.029223289340734482, -0.016956187784671783, -0.023380327969789505, 0.007229792885482311, -0.006659172009676695, 0.007201128639280796, 0.035121023654937744, 0.04780887812376022, -0.024141237139701843, -0.03657996654510498, -0.014982485212385654, 0.02290758304297924, -0.021561764180660248, -0.02832869626581669, -0.028568334877490997, 0.03792193531990051, -0.02137608639895916, 0.006205459125339985, 0.059382177889347076, -0.00992173608392477, -0.2741333842277527, -0.06909497827291489, 0.059657201170921326, -0.09158173948526382, -0.06430842727422714, 0.051476381719112396, 0.009231321513652802, -0.03179142624139786, -0.13499078154563904, 0.011765869334340096, 0.00631042942404747, 0.02668633870780468, -0.03190360590815544, 0.06529923528432846, 0.015145188197493553, 0.04928453639149666, 0.026641737669706345, -0.07929770648479462, -0.03471674770116806, -0.0786067470908165, 0.03958912193775177, 0.03693376109004021, 0.15787459909915924, -0.01769896224141121, 0.06461489200592041, 0.012101318687200546, 0.009995751082897186, -0.030655087903141975, 0.046964436769485474, 0.0005848696455359459, -0.054173968732357025, -0.027137115597724915, 0.019256992265582085, -0.023646298795938492, 0.006081034429371357, -0.017059486359357834, 0.02275831438601017, -0.036662641912698746, -0.06557068973779678, -0.024309512227773666, -0.04071643948554993, 0.040644071996212006, 0.015913400799036026, -0.004583239555358887, 0.058120664209127426, 0.012711129151284695, -0.015826750546693802, -0.017522215843200684, -0.04936491698026657, -0.009180955588817596, 0.007282485719770193, -0.004195360466837883, 0.0030771454330533743, 0.03353988751769066, 0.010257289744913578, 0.019991327077150345, 0.0014694046694785357, 0.021839184686541557, -0.05980747193098068, 0.023342667147517204, 0.06466151028871536, -0.03973039239645004, 0.06725815683603287, -0.02391425147652626, 0.00354854017496109]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>lack_of_weekend_in_store_staffing</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>["Improvement needed: More staff weekends.\nReason for given NPS: Possibly need more staff on the floor particularly weekend's when foot traffic is more heavy. Room for improvements"]</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>[-0.03696358948945999, -0.012390951626002789, 0.006906029302626848, 0.006382920779287815, 0.0033450282644480467, -0.01121634803712368, -0.03298821300268173, 0.03348508104681969, -0.03459712490439415, -0.056332770735025406, -0.03819577768445015, 0.06553451716899872, 0.03212171047925949, 0.0409870445728302, 0.05583151429891586, -0.08391305059194565, 0.04103316366672516, -0.0349762886762619, -0.052619583904743195, -0.0064405351877212524, 0.03828100115060806, -0.05400305986404419, -0.043494563549757004, -0.00019011519907508045, -0.05531001091003418, -0.03933192789554596, -0.05211246758699417, -0.0518166646361351, -0.07761430740356445, -0.09715335816144943, -0.04943371191620827, -0.03546367585659027, 0.013874344527721405, -0.020778581500053406, 0.10132011771202087, 0.026643069460988045, 0.029585350304841995, 0.003940880298614502, 0.016155054792761803, -0.007606178522109985, -0.003720490261912346, 0.006202366668730974, -0.04194624722003937, 0.017500801011919975, -0.043763771653175354, -0.04765508323907852, 0.03855378180742264, -0.04975844919681549, 0.014176449738442898, -0.01293239090591669, -0.0002658820303622633, 0.0011597430566325784, -0.0006620645290240645, 0.006556215696036816, -0.02550320513546467, 0.0411779060959816, 0.03762410208582878, -0.001180135179311037, -0.03019946813583374, 0.008254285901784897, 0.04051394760608673, -0.023758145049214363, -0.1279151737689972, -0.015909992158412933, 0.0169211495667696, 0.001299091149121523, -0.04647776484489441, -0.034809209406375885, -0.02379918470978737, 0.028161371126770973, -0.04008634015917778, -0.010605216026306152, -0.037839651107788086, 0.055572107434272766, 0.003408766584470868, -0.0037552574649453163, 0.014500499702990055, -0.03893464058637619, 0.012696851044893265, 0.02472737990319729, -0.00627282727509737, -0.06174076348543167, 0.016627924516797066, -0.0207793228328228, -0.03389406204223633, -0.009470822289586067, 0.011246414855122566, 0.03214487060904503, 0.03711767494678497, 0.02812541462481022, 0.017056312412023544, -0.014780689962208271, 0.03576023504137993, -0.011126450262963772, -0.08005186170339584, -0.03922833502292633, 0.05036446452140808, 0.08905577659606934, -0.09677436202764511, 0.4544036388397217, -0.013035056181252003, 0.10143616795539856, 0.020077405497431755, 0.028090933337807655, 0.003860115073621273, -0.02712271362543106, -0.03680460900068283, -0.021634619683027267, -0.06739728897809982, -0.005534699186682701, -0.07736990600824356, 0.018137488514184952, 0.09118058532476425, -0.03673611953854561, 0.03330826014280319, 0.05151558667421341, 0.030481930822134018, 0.04858408868312836, -0.019000373780727386, 0.05680888891220093, 0.04366748034954071, -0.009937536902725697, 0.04633047804236412, 0.027753010392189026, -0.026339886710047722, -0.004922827705740929, -0.07396632432937622, 0.08607075363397598, 0.01969044841825962, -0.011803461238741875, 0.0004573613405227661, -0.017020191997289658, -0.0024694071616977453, 0.013950132764875889, 0.03549271076917648, -0.019646260887384415, -0.008420897647738457, -0.007731354795396328, 0.024418151006102562, -0.021728014573454857, -0.04619757831096649, -0.014827825129032135, 0.01241666916757822, -0.01988929696381092, 0.07038258761167526, 0.11994761973619461, -0.017201831564307213, 0.02568846195936203, -0.02644268423318863, -0.0021171378903090954, -0.08366070687770844, 0.033790260553359985, -0.03984149172902107, 0.00028883543564006686, 0.02774885483086109, 0.029422501102089882, 0.033449720591306686, 0.009039483033120632, -0.0034704392310231924, -0.007207178045064211, 0.042977701872587204, 0.008623985573649406, 0.005893402267247438, -0.05348268151283264, -0.011557938531041145, -0.018853437155485153, 0.034457817673683167, 0.03642284870147705, -0.05124988779425621, -0.0327119342982769, 0.00921816099435091, 0.010568239726126194, -0.03845806047320366, 0.03722715377807617, 0.15123812854290009, -0.043012604117393494, -0.01759541966021061, 0.0650491863489151, 0.001741523388773203, 0.04669729992747307, 0.043911371380090714, 0.04493943601846695, -0.021274475380778313, 0.024384362623095512, 0.012973271310329437, -0.022320032119750977, -0.024981243535876274, 0.010697484947741032, -0.03313414007425308, 0.042425718158483505, -0.035614270716905594, -0.09600356966257095, -0.03235769644379616, -0.07147497683763504, 0.027754949405789375, -0.022053904831409454, 0.009725569747388363, 0.00036482620635069907, 0.03042016364634037, -0.04661456495523453, 0.031116491183638573, -0.03306817263364792, 0.03336719796061516, 0.041405804455280304, 0.034125760197639465, 0.08361643552780151, 0.026051295921206474, -0.04682188481092453, 0.05119702219963074, 0.035405464470386505, 0.004669708199799061, -0.045960377901792526, 0.04942508041858673, -0.03929728642106056, -0.032812029123306274, 0.06992203742265701, 0.06222342699766159, 0.01596124656498432, 0.07265541702508926, 0.007570977788418531, 0.03767675906419754, 0.1051063984632492, 0.03553272783756256, -0.28939899802207947, 0.05504582077264786, -0.008407974615693092, -0.03501921519637108, -0.04860744997859001, -0.001397029496729374, 0.013422288931906223, -0.02083894982933998, 0.018562985584139824, 0.08856435120105743, 0.017722012475132942, 0.007050736807286739, -0.013569653034210205, -0.036865465342998505, 0.03422823175787926, -0.010632446967065334, -0.009499945677816868, 0.022199951112270355, -0.003339111804962158, 0.0011299699544906616, 0.04059167578816414, 0.002909999340772629, -0.02807951346039772, -0.04986618086695671, 0.04823405295610428, -0.0011132622603327036, 0.15333978831768036, -0.028933964669704437, 0.009271800518035889, -0.05182425677776337, -0.021701551973819733, 0.026751400902867317, -0.024340244010090828, -0.07789817452430725, 0.06538084149360657, 0.0027888459153473377, -0.04654557630419731, -0.03850974142551422, 0.030749231576919556, 0.0003805352607741952, -0.013363252393901348, 0.09868460148572922, -0.020847242325544357, -0.007854390889406204, 0.00880962610244751, -0.02807084284722805, -0.04100130498409271, 0.06151958927512169, -0.03957321494817734, -0.007492279168218374, -0.010283639654517174, -0.07386072725057602, 0.02184094674885273, 0.03502034395933151, 0.05737008899450302, 0.0006522270850837231, -0.018581682816147804, 0.026402797549962997, -0.020050859078764915, 0.013956291601061821, 0.0031034955754876137, -0.010317884385585785, 0.01788156107068062, 0.006076411809772253, 0.02047606371343136, 0.018265753984451294, -0.04494984447956085, -0.046054936945438385, 0.024347050115466118, 0.03968542441725731, -0.013732954859733582, -0.036312539130449295, -0.010326647199690342, -0.022764448076486588, -0.024078579619526863, -0.042665399610996246, -0.011185766197741032, -0.004273229278624058, -0.03451407328248024, -0.02791360206902027, -0.003117859596386552, -0.04956438019871712, 0.06154168024659157, 0.041545234620571136, 0.029217684641480446, 0.05846984684467316, -0.04407964274287224, 0.00859719980508089, 0.06688462197780609, 0.014602182433009148, -0.0015767160803079605, 0.005492896772921085, -0.018560145050287247, 0.013210093602538109, 0.07833030074834824, 0.036748431622982025, -0.2376784384250641, 0.030931876972317696, 0.04139755666255951, -0.02795426920056343, 0.07671210914850235, 0.08944263309240341, -0.05951541289687157, -0.0022334251552820206, -0.04527487978339195, -0.020486509427428246, 0.02912522293627262, -0.009923979640007019, -0.05974870175123215, -0.04756029322743416, 0.02960476092994213, 0.048598214983940125, 0.004360186867415905, -0.02230115793645382, 0.03736699000000954, -0.033462923020124435, -0.0037822150625288486, 0.038636308163404465, 0.14988823235034943, -0.03465220704674721, -0.009392927400767803, -0.02465175837278366, 0.0309397391974926, -0.04316982999444008, 0.029501741752028465, 0.055051159113645554, -0.025423839688301086, -0.06728597730398178, 0.06019167602062225, -0.015864495187997818, -0.04721605032682419, -0.06338243186473846, -0.02055940218269825, -0.03005978651344776, 0.021623054519295692, -0.02779415436089039, -0.05056978389620781, -0.0020187494810670614, -0.049567531794309616, -0.03773297742009163, 0.016241081058979034, -0.05898405611515045, 0.0009108365629799664, -0.03165268898010254, 0.04515806958079338, -0.006800177972763777, -0.0243523046374321, -0.03175268694758415, -0.034178465604782104, 0.0455654039978981, -0.015464549884200096, -0.008062867447733879, -0.0030661870259791613, 0.0004235851520206779, 0.01949768327176571, 0.010960482060909271, -0.022135766223073006, -0.01866310089826584, 0.016236957162618637, 0.0021913768723607063, 0.025912052020430565]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>need_proactive_account_management_assistance</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Hate to say it but my relationship with one.nz is not much stronger than my relationship with my local supermarket. It just is there, I'm not sure that there is a value element to the relationship - this is an opportunity for one.nz as I know most other SME businesses I know feel the same about their telco's. If I got greater value, I would without question look at new solution/opportunities for my business leveraging one.nz\nReason for given NPS: I'm not entirely certain I'm consistently benefiting as a longstanding client. Given the evolving landscape, I'd appreciate more frequent communication to help me grasp possibilities for incorporating new capabilities and functionalities, as well as optimizing my investment."]</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>[-0.023603130131959915, -0.046328336000442505, 0.06273259222507477, -0.0454697348177433, -0.020290514454245567, -0.01962778903543949, 0.05801517516374588, 0.02989332377910614, -0.03035450540482998, -0.05138460174202919, 0.0036586355417966843, 0.0008528137113898993, -0.0005145916366018355, -0.0023997060488909483, 0.0421224944293499, 0.03959428146481514, 0.024950778111815453, 0.04072275012731552, -0.0031318715773522854, 0.03396284207701683, -0.00813255738466978, -0.006261155474931002, -0.038350436836481094, 0.03038611076772213, -0.013355648145079613, -0.0006678604404442012, 0.0012594977160915732, 0.010303370654582977, -0.10445830971002579, -0.09124131500720978, -0.0011316085001453757, -0.05423097312450409, 0.023516159504652023, 0.01939908042550087, 0.0476088710129261, 0.0010359579464420676, -0.07226722687482834, 0.04752495884895325, -0.007247399538755417, -0.022676754742860794, 0.01707710325717926, 0.02668660320341587, -0.062008559703826904, -0.014020186848938465, 0.025525042787194252, -0.029322752729058266, 0.04365970939397812, 0.0030969891231507063, 0.012492390349507332, -0.012085143476724625, 0.03692397475242615, -0.029787903651595116, -0.015882201492786407, 0.027550173923373222, 0.05700690299272537, 0.040125977247953415, 0.05111915245652199, -0.0011638515861704946, -0.018775686621665955, 0.010869924910366535, 0.04232129827141762, 0.022974343970417976, -0.13232360780239105, 0.049053069204092026, -0.0175252053886652, 0.002038785256445408, 0.05167774111032486, -0.033020954579114914, 0.006605972070246935, 0.030442649498581886, -0.061915311962366104, -0.043488506227731705, -0.06872724741697311, 0.049204446375370026, -0.003988352138549089, 0.0016510540153831244, 0.025329653173685074, -0.005432333331555128, 0.021321868523955345, 0.04436444491147995, -0.015366215258836746, 0.04163793474435806, -0.021819978952407837, -0.014450553804636002, -0.030586030334234238, -0.012734530493617058, -0.007602124474942684, 0.03031953051686287, 0.07142733782529831, -0.02292545884847641, 0.00994458980858326, 0.03031483292579651, 0.052766308188438416, 0.010264305397868156, -0.02445043809711933, -0.06910742074251175, 0.027296841144561768, 0.03818955272436142, -0.12689736485481262, 0.41705358028411865, -0.0048026409931480885, 0.03780641779303551, 2.7090914954897016e-05, -0.07060550153255463, 0.04090113192796707, -0.04214518144726753, 0.006869629491120577, 0.027301844209432602, -0.017442135140299797, -0.06426943093538284, -0.03085498884320259, -0.025079773738980293, 0.04980430006980896, -0.04618581756949425, 0.04853731766343117, 0.10324136167764664, 0.0028996921610087156, -0.0193780530244112, -0.02360585518181324, -0.0014302986674010754, 0.05485539883375168, 0.008605577051639557, 0.047468286007642746, 0.040015216916799545, -0.03534884378314018, -0.06530553102493286, 0.016046443954110146, 0.1002008244395256, 0.0048412540927529335, 0.054712966084480286, 0.04396171495318413, 0.0144425667822361, -0.064899742603302, -0.035811897367239, 0.0001470937713747844, -0.04312368482351303, 0.0005737043684348464, -0.01012410782277584, 0.03446151688694954, 0.02865954302251339, -0.046250633895397186, -0.01957111805677414, 0.004854675382375717, -0.11155196279287338, -0.005826541222631931, 0.11762741953134537, -0.009840485639870167, 6.804544682381675e-05, -0.03720293566584587, -0.0783332958817482, -0.00872382428497076, 0.004824305418878794, 0.026555592194199562, -0.043028492480516434, -0.011253376491367817, 0.01527297031134367, 0.07517440617084503, -0.02596687711775303, -0.009055370464920998, 0.03197397664189339, -0.0009680212242528796, -0.09349299222230911, -0.0027568796649575233, 0.01958409696817398, 0.045073725283145905, -0.08740057051181793, 0.009485027752816677, -0.031828612089157104, -0.05279354006052017, 0.01670916937291622, -0.03613980859518051, -0.005056469701230526, -0.06148919090628624, 0.00023012985184323043, 0.07880373299121857, -0.02616792544722557, 0.006663039326667786, 0.0025433888658881187, -0.026695726439356804, 0.014189249835908413, 0.0213778093457222, -0.06433020532131195, 0.004140136763453484, -0.029337285086512566, -0.021682456135749817, -0.019604070112109184, -0.00791649054735899, -0.059737395495176315, 0.028866367414593697, -0.056692901998758316, -0.06539129465818405, -0.02871522679924965, -0.06374289840459824, -0.03154902160167694, -0.023929160088300705, -0.0046804603189229965, -0.06771211326122284, -0.04761410877108574, -0.007925058715045452, -0.02454158291220665, 0.09092351049184799, -0.00588603550568223, -0.020336009562015533, 0.015335369855165482, 0.028957832604646683, 0.05374757945537567, -0.050690244883298874, 0.008381140418350697, 0.11400647461414337, -0.004831621889024973, 0.007485951296985149, -0.016871197149157524, 0.07790620625019073, 0.013959669508039951, 0.03180648013949394, 0.00673406757414341, 0.02436092682182789, 0.029352368786931038, 0.007550976239144802, 0.02957538515329361, 0.047890983521938324, 0.081919364631176, 0.03280346095561981, -0.31148281693458557, 0.03555929660797119, -0.06563790142536163, 0.009209370240569115, -0.10429275780916214, -0.004506213590502739, 0.08191218227148056, -0.008678869344294071, -0.036935243755578995, 0.04207509011030197, 0.06065985932946205, -0.03783890977501869, 0.024228088557720184, 0.0040033189579844475, 0.055524133145809174, 0.04726137965917587, -0.017728522419929504, 0.002836413448676467, -0.011332196183502674, -0.022014403715729713, -0.04559692367911339, -0.018235160037875175, 0.06637270748615265, 0.03686296567320824, 0.028568359091877937, 0.0426822192966938, 0.1798631101846695, -0.04640429839491844, -0.021687762811779976, -0.016849011182785034, -0.014536294154822826, 0.04371103644371033, -0.04214811325073242, -0.15629352629184723, 0.036047644913196564, -0.013748873956501484, -0.04998406767845154, -0.004312211647629738, 0.03193793073296547, -0.04247066378593445, -0.037418268620967865, 0.031103327870368958, -0.02241426333785057, -0.007378811482340097, -0.023905305191874504, 0.018913909792900085, -0.008536187000572681, 0.018022863194346428, -0.027347605675458908, 0.012897850945591927, -0.005130372941493988, 0.03530494496226311, 0.01475522294640541, 0.02479117549955845, 0.0039201597683131695, -0.027261190116405487, -0.05076175183057785, 0.07176493108272552, -0.014538058079779148, 0.045950211584568024, 0.005970570724457502, -0.023251216858625412, -0.028538189828395844, -0.011935516260564327, 0.026061246171593666, -0.00611274316906929, -0.07404658198356628, -0.0029580960981547832, 0.01868540793657303, 0.021808944642543793, -0.015108145773410797, -0.033369410783052444, -0.02060776762664318, 0.014162427745759487, -0.03129202499985695, -0.021306606009602547, 0.04305195435881615, -0.03308606520295143, -0.03457856923341751, -0.046361103653907776, 0.004720021970570087, -0.038991961628198624, 0.049185432493686676, 0.02045130915939808, -0.012379596941173077, 0.05668936297297478, -0.004548550117760897, 0.000750198494642973, 0.02802220545709133, -0.015003811568021774, 0.0074185156263411045, 0.027358757331967354, -0.04556689411401749, 0.013755655847489834, 0.09250186383724213, -0.0009288377477787435, -0.23298905789852142, 0.005150594748556614, -0.007621662225574255, -0.017720744013786316, -0.014870872721076012, 0.04974889010190964, -0.010063649155199528, 0.012675012461841106, -0.044370535761117935, 0.003245451021939516, 0.022765597328543663, 0.04363435506820679, -0.030302556231617928, -0.004128912929445505, 0.02787655219435692, -0.007388743571937084, 0.023726046085357666, -0.05144180357456207, 0.018237851560115814, -0.0583859384059906, 0.06732504814863205, -0.013502471148967743, 0.1732240915298462, -0.008418824523687363, -0.0019068499095737934, -0.00396954407915473, 0.06653239578008652, -0.007036208175122738, 0.09515547007322311, 0.009210255928337574, -0.0004719518474303186, -0.01665475405752659, 0.02386355772614479, 0.019370371475815773, 0.0575745552778244, -0.021884895861148834, 0.0017524141585454345, 0.07662735879421234, 0.008775490336120129, -0.007704210001975298, -0.03374693915247917, -0.0058592380955815315, -0.016313588246703148, 0.00562493409961462, 0.0661650225520134, -0.02848144620656967, -0.005381755065172911, -0.03751302510499954, -0.004078173544257879, 0.008046225644648075, 0.0034275834914296865, -0.05549035966396332, 0.009001825004816055, 0.0383085161447525, 0.035367269068956375, -0.008638675324618816, -0.019624752923846245, 0.009490882977843285, -0.0071564484387636185, 0.01961631327867508, 0.004827708471566439, 0.007287947926670313, 0.05137502774596214, -0.08256563544273376, -0.007343103177845478]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>need_guidance_on_current_plans</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Hate to say it but my relationship with one.nz is not much stronger than my relationship with my local supermarket. It just is there, I'm not sure that there is a value element to the relationship - this is an opportunity for one.nz as I know most other SME businesses I know feel the same about their telco's. If I got greater value, I would without question look at new solution/opportunities for my business leveraging one.nz\nReason for given NPS: I'm not entirely certain I'm consistently benefiting as a longstanding client. Given the evolving landscape, I'd appreciate more frequent communication to help me grasp possibilities for incorporating new capabilities and functionalities, as well as optimizing my investment."]</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>[-0.007124723866581917, -0.07243920117616653, 0.03849467262625694, -0.031088221818208694, -0.002454156754538417, 0.016276385635137558, -0.04411448910832405, 0.019285155460238457, -0.024578429758548737, -0.011301473714411259, 0.020485950633883476, 0.0034209375735372305, 0.02061064913868904, 0.028012443333864212, 0.04235570877790451, 0.01859036087989807, -0.018005475401878357, -0.010831207036972046, 0.03711153194308281, 0.01767807826399803, 0.046929068863391876, 0.0006571575067937374, -0.06240234524011612, 0.0509016215801239, -0.04355815052986145, 0.029335441067814827, 0.014639997854828835, -0.03522595018148422, -0.06010974198579788, -0.08366996794939041, -0.027510395273566246, -0.024788236245512962, -0.03165232762694359, -0.024014534428715706, -0.009322059340775013, 0.007503131870180368, 0.017003878951072693, 0.024894187226891518, 0.033149536699056625, 0.030524305999279022, 0.010041540488600731, 0.04785982146859169, -0.04648355022072792, -0.01594800129532814, -0.00823268387466669, -0.042261213064193726, 0.001376044936478138, -0.009650961495935917, 0.009614840149879456, -0.060040853917598724, -0.00030782216344960034, -0.027841046452522278, -0.03140142560005188, -0.05856603384017944, 0.021383093670010567, 0.06762564182281494, 0.05023501068353653, 0.03223969414830208, 0.05061471089720726, 0.029778707772493362, 0.05049232766032219, -0.018577132374048233, -0.19472359120845795, 0.03660987690091133, -0.025656744837760925, 0.004076341632753611, -0.04070642963051796, -0.030939433723688126, 0.07779651880264282, 0.05930390581488609, -0.03573445975780487, -0.032569319009780884, -0.006707596126943827, 0.07354888319969177, -0.0069223446771502495, -0.012613334693014622, 0.040767643600702286, 0.018420526757836342, 0.04284054785966873, -0.010040098801255226, -0.016015011817216873, 0.053155317902565, -0.0327233150601387, -0.020319286733865738, -0.0009087582002393901, -0.012109355069696903, -0.006518096663057804, 0.055438537150621414, 0.048070356249809265, -0.010104077868163586, 0.027268456295132637, -0.04048046097159386, 0.01830575242638588, 0.018699003383517265, -0.030861597508192062, 0.01177774928510189, 0.02191849797964096, 0.0035518924705684185, -0.12696924805641174, 0.41686397790908813, 0.02684953436255455, 0.010883580893278122, 0.069412462413311, 0.04188212752342224, 0.02062702365219593, -0.05270332470536232, -0.0419057235121727, -0.013553119264543056, 0.020319657400250435, 0.002786223078146577, -0.050866346806287766, -0.03856673091650009, 0.023013832047581673, 0.00822636391967535, 0.0348287932574749, 0.08309052884578705, -0.0009760636603459716, -0.00922458153218031, -0.016949661076068878, 0.01159768644720316, 0.006716436240822077, -0.033849164843559265, 0.03183959424495697, 0.06641130149364471, 0.015570453368127346, -0.046107254922389984, 0.02399616502225399, 0.0748356431722641, 0.003198558697476983, 0.07780931144952774, 0.03558078780770302, 0.037366390228271484, -0.028309229761362076, 0.0494762547314167, -0.016550876200199127, -0.012525009922683239, 0.030601557344198227, -0.03719165548682213, 0.04602053388953209, 0.020137397572398186, -0.05716027319431305, -0.009683774784207344, 0.03428038954734802, -0.11481713503599167, 0.022912966087460518, 0.10446317493915558, -0.040802329778671265, 0.031308114528656006, -0.003753259079530835, -0.07195625454187393, -0.0362447127699852, -0.002981489757075906, 0.05529551953077316, -0.08872627466917038, -0.02532106824219227, -0.007919722236692905, -0.04454417899250984, -0.018422581255435944, -0.0102760074660182, 0.016646824777126312, -0.007086253724992275, -0.060444023460149765, -0.11168406903743744, 0.07275351881980896, -0.029347797855734825, -0.051312025636434555, -0.05784865468740463, -0.030211254954338074, -0.006794572342187166, 0.00033804867416620255, -0.04889298602938652, 0.041238125413656235, 0.011058861389756203, 0.013892410323023796, 0.1336776614189148, 0.024016709998250008, -0.03111026994884014, 0.03782626986503601, -0.03612712398171425, -0.011180534027516842, 0.0549570694565773, -0.04003795608878136, -0.007921152748167515, 0.009974673390388489, -0.02418205514550209, -0.058828387409448624, 0.007648422848433256, -0.055906735360622406, 0.0009568484383635223, -0.041650090366601944, -0.0761764645576477, 0.0012792808702215552, -0.0008948864415287971, 0.016859428957104683, -0.02783544920384884, -0.007454084698110819, -0.0031392306555062532, -0.005435626953840256, -0.0038683905731886625, -0.027028441429138184, 0.015228970907628536, -0.03742833808064461, -0.029524315148591995, 0.07203397154808044, -0.04992009326815605, -0.0095991725102067, -0.013118074275553226, -0.017243023961782455, 0.08945097029209137, -0.002759510651230812, -0.03517290577292442, 0.012207211926579475, 0.10975181311368942, -0.03336263820528984, -0.018156737089157104, -0.003360518254339695, -0.016789594665169716, 0.018767789006233215, 0.008701159618794918, 0.038574013859033585, 0.04644840210676193, 0.07593071460723877, 0.06157334893941879, -0.313585102558136, 0.033039871603250504, -0.041524581611156464, -0.0007496143807657063, -0.04819648340344429, -0.026587508618831635, 0.010705296881496906, 0.02911604754626751, -0.07931000739336014, 0.08389431983232498, 0.05835818871855736, -0.06106073409318924, 0.028926223516464233, -0.017675282433629036, -0.0049672513268888, 0.0013656060909852386, -0.003972520586103201, -0.02642221376299858, -0.011185728013515472, 0.024721425026655197, -0.006795549765229225, -0.025209927931427956, -0.02567177265882492, -0.07559013366699219, 0.03433842584490776, 0.01457878015935421, 0.16796615719795227, -0.009766860865056515, -0.02044420875608921, -0.06264745444059372, 0.05696110054850578, 0.04415149986743927, -0.04069806635379791, -0.11219228059053421, -0.0016880894545465708, 0.02318502962589264, -0.004687644075602293, 0.017901519313454628, 0.009650615975260735, -0.04323199391365051, 0.030701493844389915, 0.055969350039958954, -0.07356903702020645, -0.017547154799103737, -0.05122940614819527, -0.04497387632727623, 0.016336968168616295, 0.022813908755779266, -0.012742522172629833, 0.031091324985027313, 0.025757012888789177, -0.03028080053627491, -0.0314471609890461, -0.009020475670695305, -0.004634832963347435, -0.01452112477272749, -0.03270899876952171, -0.012531953863799572, -0.0022341348230838776, 0.04745221510529518, -0.023201175034046173, 0.031155014410614967, -0.0002585392212495208, -0.028646200895309448, 0.06049155071377754, -0.016535192728042603, -0.014760070480406284, 0.019248854368925095, -0.015051634050905704, 0.02336041070520878, 0.013433423824608326, -0.041016485542058945, 0.012036159634590149, -0.0033978961873799562, 0.012823468074202538, -0.02453075349330902, -0.010496512055397034, 0.040629792958498, -0.014550997875630856, -0.020068250596523285, -0.015408521518111229, -0.06547895073890686, 0.006809160578995943, 0.022060822695493698, 0.006000564433634281, 0.017523879185318947, -0.004093923140317202, -0.02028554491698742, 0.00040187526610679924, 0.008243086747825146, -0.02518567070364952, -0.008872427977621555, 0.007351355627179146, -0.02447596751153469, 0.09272276610136032, -0.012640523724257946, -0.2742736041545868, 0.04283272847533226, 0.006845849100500345, -0.02194960229098797, -0.0026076752692461014, 0.009127240628004074, 0.0991298109292984, -0.006443502381443977, -0.05892721191048622, 0.03448532894253731, -0.0010627779411152005, 0.05680517479777336, -0.013437597081065178, 0.0020264722406864166, 0.004058179445564747, -0.009647486731410027, 0.10233811289072037, -0.008349061943590641, -0.03706226125359535, -0.05150841921567917, 0.032065365463495255, 0.009816000238060951, 0.17553219199180603, -0.0066730547696352005, 0.0015825876034796238, -0.013545763678848743, -0.0013792035169899464, -0.004207114689052105, 0.04845748469233513, 0.005962694529443979, 0.01061611995100975, -0.007581237703561783, 0.024400964379310608, -0.011915601789951324, 0.034540411084890366, 0.04038403928279877, -0.026250643655657768, 0.003362022340297699, -0.0009478415595367551, -0.015406202524900436, -0.009681680239737034, 0.028401704505085945, 0.02500361017882824, 0.03577772155404091, 0.09511754661798477, -0.009085425175726414, 0.0036131003871560097, 0.025746511295437813, -0.04592697322368622, -0.0007214586366899312, -0.013273394666612148, 0.01058153435587883, -0.005147999618202448, 0.01731777749955654, 0.03561956435441971, 0.037659186869859695, -0.00433187372982502, -0.034697771072387695, -0.04296291247010231, -0.0025327466428279877, 0.003977189306169748, -0.029985085129737854, 0.04055098816752434, 0.0263246800750494, 0.02681686356663704]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>need_local_store_or_service_center</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Bring back a depot to matamata\nReason for given NPS: There is no shop locally which makes it hard for those of us that don't drive. We used to hav3 one but it has been closed so am thinking of may change"]</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>[-0.02326946333050728, -0.054510679095983505, 0.020527565851807594, -0.008616342209279537, -0.00789078138768673, -0.02417667768895626, -0.044154297560453415, 0.08983544260263443, -0.03929884731769562, -0.06785951554775238, -0.006808899808675051, 0.0262902844697237, 0.0026634507812559605, -0.008382651023566723, 0.0746091902256012, -0.007250070571899414, 0.05960064381361008, 0.05835065618157387, -0.02662937343120575, 0.024897711351513863, 0.008399400860071182, -0.0640392005443573, -0.04882300645112991, -0.019151266664266586, -0.053160686045885086, -0.003450357588008046, -0.04859999567270279, 0.027084356173872948, -0.029200254008173943, -0.09849708527326584, -0.004700215067714453, 8.663968765176833e-05, 8.4974046330899e-05, 0.0030282551888376474, 0.06553467363119125, -0.051363132894039154, 0.03850901871919632, -0.006576537154614925, 0.006214197259396315, 0.010801331140100956, 0.03440507873892784, -0.007128472439944744, -0.05394713953137398, 0.06745339184999466, -0.05431300029158592, -0.03219231590628624, 0.0434928722679615, -0.0007789211813360453, 0.06837090849876404, -0.014763894490897655, 0.09124770760536194, 0.05195286124944687, -0.05161652714014053, -0.02202625386416912, -0.04582267254590988, 0.11246383190155029, 0.07566053420305252, 0.04997456446290016, 0.021248141303658485, 0.03152736276388168, 0.05116639286279678, -0.0382356233894825, -0.15945367515087128, 0.05451135337352753, -0.024305514991283417, -0.048309627920389175, 0.05350614711642265, -0.024634914472699165, -0.0055594127625226974, -0.012173889204859734, -0.10238441824913025, -0.016394557431340218, -0.022272426635026932, 0.117307648062706, 0.0017086496809497476, -0.03211205080151558, -0.008431033231317997, -0.014129760675132275, 0.03745710104703903, -0.018383126705884933, 0.010138384997844696, -0.040683019906282425, -0.033925969153642654, 0.01196412742137909, -0.08140043914318085, 0.026001496240496635, 0.005635478999465704, 0.042312141507864, 0.04691233113408089, -1.982897265406791e-05, -0.028895307332277298, -0.06256861984729767, 0.04566575586795807, 0.029614977538585663, -0.09030023962259293, -0.07084491103887558, -0.008515714667737484, 0.00858693290501833, -0.10355517268180847, 0.3404700458049774, 0.05296316370368004, 0.021466195583343506, -0.0043076821602880955, -0.052557602524757385, 0.02613978646695614, -0.04521506279706955, -0.00018273253226652741, 0.020627211779356003, 0.002323793713003397, 0.0006826943135820329, -0.00400273222476244, 0.004687819629907608, 0.03783688321709633, -0.039250459522008896, 0.05663386732339859, 0.021300550550222397, 0.005584662780165672, -0.03978973254561424, -0.014155592769384384, -0.007765809539705515, 0.018244829028844833, 0.022118613123893738, 0.022638414055109024, -0.018772093579173088, 0.005444818176329136, -0.04841341823339462, -0.004104785621166229, 0.0890624076128006, 0.030294975265860558, 0.006455648224800825, -0.01569916494190693, -0.002886159811168909, -0.02596532739698887, -0.004485386423766613, 0.02174396999180317, 0.004309430718421936, -0.012565158307552338, 0.0003588059335015714, 0.01707749255001545, 0.017652273178100586, -0.025692664086818695, 0.00358894863165915, 0.0003093936247751117, -0.03769732266664505, 0.024164626374840736, 0.050435420125722885, 0.020317574962973595, 0.0024415829684585333, -0.055268265306949615, -0.08671293407678604, -0.03076559118926525, 0.03327881172299385, -0.025402646511793137, 0.03315921872854233, -0.003808301407843828, -0.02957071177661419, 0.05545985698699951, -0.04822962358593941, 0.007451244629919529, -0.006789098493754864, 0.023012934252619743, -0.018420442938804626, -0.01743004471063614, 0.04824385419487953, -0.013975199311971664, -0.10629396885633469, 0.008014161139726639, -0.014027579687535763, -0.050087738782167435, 0.04351704940199852, 0.0030132189858704805, 0.06085168942809105, -0.015408901497721672, 0.04405698925256729, 0.08896221220493317, -0.015598076395690441, -0.05877220258116722, 0.0621587373316288, -0.001599509734660387, 0.023778358474373817, -0.029369285330176353, 0.041809458285570145, -0.016681144014000893, -0.002877082210034132, 0.052528586238622665, -0.07015170902013779, -0.004614923149347305, -0.04723697155714035, -0.03699339181184769, -0.036472346633672714, -0.07441851496696472, -0.05585043504834175, -0.021469760686159134, -0.0859324038028717, 0.04233729839324951, 0.01783674582839012, -0.03005843237042427, -0.04473382979631424, 0.08086449652910233, -0.01843377575278282, 0.13310123980045319, 0.058025553822517395, -0.026033656671643257, 0.021201957017183304, -0.029687311500310898, 0.05785365402698517, -0.02536810375750065, -0.03586630895733833, 0.050521016120910645, -0.07494747638702393, 0.012564845383167267, 0.042554013431072235, 0.09480509161949158, 0.03578544035553932, -0.048523448407649994, 0.020482299849390984, 0.034291237592697144, 0.028130508959293365, 0.061870772391557693, 0.02834419533610344, 0.04662695154547691, 0.0968128889799118, -0.05136435478925705, -0.29757437109947205, 0.02856326289474964, -0.023747265338897705, -0.012968563474714756, -0.046602923423051834, 0.012440874241292477, 0.05270497500896454, 0.015225628390908241, -0.05932427570223808, 0.027755552902817726, 0.0956789180636406, -0.021344369277358055, 0.044801972806453705, 0.04454883188009262, 0.03039637953042984, 0.03176255151629448, 0.024054355919361115, 0.04002756625413895, -0.008694403804838657, 0.024750210344791412, 0.0022744943853467703, -0.034949351102113724, -0.016587533056735992, -0.04247922822833061, 0.05584963411092758, -0.02038431167602539, 0.15889114141464233, 0.01371277030557394, 0.02697460725903511, -0.05497177690267563, 0.04187573865056038, 0.013625801540911198, -0.06312696635723114, -0.1166444942355156, 0.04052998125553131, 0.03830891102552414, -0.030445696786046028, 0.03086027316749096, 0.052635710686445236, 0.049030862748622894, -0.03914271667599678, 0.05395263433456421, -0.016453636810183525, -0.00839168205857277, 0.044426824897527695, -0.05670321360230446, -0.02071867138147354, 0.10598132014274597, -0.049097079783678055, -0.012617267668247223, -0.027211390435695648, -0.06696909666061401, 0.02854335308074951, 0.038996074348688126, -0.010243698954582214, -0.043680984526872635, 0.004770949482917786, -0.013024227693676949, 0.015187828801572323, 0.022164586931467056, -0.02756122127175331, 0.0212765671312809, 0.007474743761122227, -0.07168737053871155, 0.06618877500295639, -0.003970724064856768, 0.0014149036724120378, -0.01747117191553116, 0.02057674340903759, -0.022788183763623238, 0.0075945728458464146, -0.047356244176626205, -0.0440344363451004, 0.012051085010170937, -0.017591116949915886, -0.015312614850699902, -0.0016530132852494717, 0.01083740871399641, -0.028199324384331703, -0.040350984781980515, 0.009429873898625374, -0.005624810699373484, 0.067628413438797, 0.01984645426273346, -0.006427373271435499, 0.01567862555384636, 0.020190482959151268, -0.0029091450851410627, 0.021248307079076767, -0.0740848258137703, -0.011021020822227001, -0.009983671829104424, -0.0144041758030653, 0.006720793899148703, 0.08603761345148087, 0.029278768226504326, -0.24152632057666779, 0.0028197485953569412, 0.05410101264715195, -0.011445288546383381, 0.00442854966968298, 0.021535538136959076, 0.0038892512675374746, -0.0059515018947422504, -0.034949976950883865, 0.02366628497838974, 0.045476801693439484, -0.040384501218795776, -0.0016669679898768663, -0.08665098249912262, -0.007302354089915752, 0.031001465395092964, 0.059845130890607834, 0.014232219196856022, 0.01625232957303524, -0.046070460230112076, 0.022799335420131683, 0.06708376109600067, 0.1387823075056076, -0.010300948284566402, -0.05029269680380821, 0.006938502658158541, 0.04625573381781578, -0.0003538636374287307, 0.041461218148469925, 0.04931730031967163, -0.026559751480817795, 0.017078904435038567, 0.014410622417926788, -0.02245185896754265, -0.022646572440862656, -0.010685525834560394, -0.023881880566477776, 0.002491303253918886, 0.04362903907895088, -0.004190151579678059, -0.05157501995563507, 0.0018592651467770338, -0.09412191808223724, 0.019919181242585182, 0.057619404047727585, -0.03852679207921028, -0.028629016131162643, 0.006780968047678471, 0.004664371255785227, -0.011410980485379696, -0.0015293075703084469, -0.06716200709342957, -0.03349021449685097, -0.058315373957157135, -0.011957618407905102, 0.0692783072590828, -0.0073755825869739056, -0.027519559487700462, -0.0533185712993145, -0.0026865603867918253, 0.04481303691864014, -0.05591651052236557, 0.08615529537200928, -0.03657234460115433, -0.0014836812624707818]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>difficulty_switching_telecom_providers_after_long_subscription</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>['Reason for given NPS: Have been with Vodafone for 8 years. Hard to swi']</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>[-0.057454343885183334, -0.0800136998295784, 0.019564548507332802, 0.019604509696364403, -0.029919303953647614, 0.004565875511616468, -0.024618465453386307, 0.04339546710252762, 0.020366843789815903, -0.053644511848688126, -0.010595211759209633, -0.007424906827509403, 0.012014794163405895, -0.027611922472715378, 0.08668266236782074, 0.05270815268158913, 0.03515849635004997, -0.03342637047171593, 0.007660936564207077, 0.04846466705203056, 0.049905892461538315, -0.030242919921875, 0.018896257504820824, 0.01596686989068985, -0.003536164527758956, 0.039256274700164795, -0.0031433121766895056, -0.05567730590701103, -0.04981934279203415, -0.1466474086046219, -0.014146095141768456, -0.0041979639790952206, -0.03087429702281952, 0.01072011049836874, 0.08511114120483398, -0.02555852197110653, -0.0778564065694809, -0.01946384645998478, -0.010851842351257801, 0.10298728197813034, 0.056566204875707626, 0.035443589091300964, -0.01786387525498867, -0.052127156406641006, -0.06742206960916519, -0.10824397951364517, 0.015702417120337486, 0.03556358441710472, 0.11706847697496414, -0.006181083619594574, -0.027601581066846848, 0.045662298798561096, -0.002130703767761588, 0.03145967423915863, 0.014824257232248783, 0.05798282101750374, 0.056685443967580795, 0.04582357034087181, 0.06953004747629166, 0.02471235767006874, 0.030929386615753174, 0.018293160945177078, -0.13768890500068665, 0.10193763673305511, 0.009298776276409626, 0.0527341403067112, -0.01168456394225359, -0.014594139531254768, -0.04900585860013962, -0.004690594505518675, -0.0502416156232357, 0.00500432588160038, -0.08668219298124313, 0.05703243985772133, 0.07150556892156601, 0.09417112916707993, -0.012331884354352951, 0.006902919616550207, 0.030558735132217407, 0.022788897156715393, 0.07237937301397324, -0.02441548742353916, -0.0014637631829828024, -0.03979559987783432, 0.00011244390771025792, -0.0800744891166687, 0.007906929589807987, -0.0469263531267643, 0.0025644302368164062, -0.006773659493774176, -0.012225547805428505, 0.05176723003387451, 0.10714694112539291, 0.05007125809788704, -0.06171460077166557, -0.05204664170742035, 0.027042197063565254, -0.018054859712719917, -0.056633297353982925, 0.34488531947135925, -0.005754564423114061, 0.028319349512457848, -0.00430068327113986, 0.010076697915792465, 0.034172359853982925, -0.05105774104595184, -0.04764741286635399, 0.060391854494810104, 0.003676363732665777, 0.05663555487990379, -0.04136492684483528, -0.00495173642411828, 0.008065510541200638, -0.03441055119037628, -0.005632459651678801, 0.0574636235833168, -0.017142098397016525, 0.0004969121655449271, -0.01221656147390604, 0.04011846333742142, -0.07008522748947144, -0.027806980535387993, -0.021367397159337997, 0.013618620112538338, 0.0011824584798887372, -0.0011958945542573929, 0.02780238352715969, 0.08847889304161072, -0.06347023695707321, 0.03744876757264137, -0.002228000434115529, -0.012286245822906494, -0.04860106110572815, 0.036037150770425797, -0.005930122919380665, 0.020188702270388603, 0.006470588501542807, 0.0037933429703116417, 0.0173948984593153, 0.019015634432435036, -0.013974526897072792, -0.05984984710812569, 0.03878701850771904, -0.011159222573041916, 0.05335194244980812, 0.08964197337627411, -0.05862961709499359, 0.06132129952311516, -0.010185034945607185, 0.012669797986745834, 0.0025225216522812843, -0.0009132588165812194, -0.009289694018661976, -0.045782312750816345, -0.012285389006137848, 0.025869321078062057, 0.0750688910484314, 0.0224500373005867, 0.0013742573792114854, -0.05824751779437065, 0.0007277953554876149, -0.06361641734838486, 0.03423433378338814, 0.09986229240894318, 0.03182186558842659, -0.09153054654598236, 0.019712457433342934, -0.054948195815086365, -0.05130012333393097, 0.013005144894123077, -0.052677031606435776, 0.021161053329706192, -0.004400644451379776, 0.016794223338365555, 0.04140924662351608, -0.05135367810726166, -0.03879149258136749, -0.021147795021533966, -0.009363804012537003, -0.0009291429305449128, -0.015016324818134308, -0.02216455340385437, 0.004566321149468422, -0.04843318462371826, -0.0030220779590308666, -0.040134496986866, 0.010186235420405865, -0.051345303654670715, 0.05101257935166359, -0.03949238732457161, -0.07430421561002731, -0.03998949006199837, -0.08331930637359619, -0.017797593027353287, -7.733431993983686e-05, -0.017431925982236862, -0.06630691885948181, -0.022193152457475662, 0.12483427673578262, -0.05811263620853424, 0.07848969101905823, -0.00536187831312418, 0.006188292987644672, -0.02698214165866375, -0.047883737832307816, -0.0038613108918070793, -0.0034876586869359016, -0.0016967931296676397, 0.10432523488998413, -0.032806653529405594, 0.03268451243638992, -0.00036352098686620593, 0.1001930683851242, 0.001608107821084559, 0.018001949414610863, -0.009497889317572117, -0.022333800792694092, 0.08455140888690948, 0.047804657369852066, 0.06439212709665298, 0.018388578668236732, 0.11081300675868988, 0.0608411468565464, -0.27673086524009705, -0.011277910321950912, -0.049097079783678055, -0.017420761287212372, -0.04783380776643753, -0.010840077884495258, 0.0003806408494710922, -0.004490524996072054, -0.01502098049968481, 0.021058252081274986, 0.07763385027647018, 0.07713565230369568, -0.02332749404013157, -0.07024744898080826, 0.019162096083164215, -0.0014952700585126877, 0.03806166723370552, 0.05247393622994423, -0.032679326832294464, 0.019598213955760002, -0.05954952538013458, -0.005158650688827038, -0.00753837451338768, -0.06384316831827164, 0.026203641667962074, 0.05025893822312355, 0.1411222517490387, -0.044745072722435, -0.02339714951813221, -0.026691198348999023, 0.052197977900505066, 0.08219662308692932, -0.017504950985312462, -0.08992470800876617, -0.008498047478497028, 0.02515171468257904, 0.059417031705379486, 0.011706804856657982, 0.030772170051932335, -0.02501918561756611, -0.01750926300883293, 0.016553601250052452, -0.0167472492903471, -0.024693237617611885, 0.04172860085964203, 0.015032773837447166, -0.03285354748368263, 0.04604577273130417, -0.028394944965839386, -0.002383049577474594, -0.014366764575242996, -0.07928140461444855, 0.014984214678406715, 0.034293241798877716, 0.03258264809846878, -0.011853971518576145, -0.05219215899705887, 0.05061757192015648, 0.047946538776159286, 0.008325119502842426, -0.021673595532774925, 0.04903630167245865, 0.031116526573896408, -0.05077143386006355, 0.008099139668047428, -0.006661479827016592, -0.013082725927233696, 0.0655137449502945, 0.019003137946128845, 0.01585537940263748, 0.012188443914055824, 0.005720669403672218, -0.06537970155477524, 0.03152487799525261, -0.09067998081445694, -0.007902096956968307, -0.0388118252158165, -0.025622453540563583, -0.013793454505503178, -0.017916206270456314, 0.055026665329933167, -0.005029491614550352, 0.02385956607758999, 0.007944624871015549, -0.02353879064321518, 0.012879230082035065, -0.027897534891963005, 0.04798011854290962, 0.02192101813852787, 0.010562706738710403, -0.026048583909869194, 0.00021120283054187894, -0.05157329887151718, 0.024836739525198936, 0.05060388892889023, -0.01936427876353264, -0.2152813822031021, 0.01983083412051201, -0.006659314036369324, -0.0026290761306881905, -0.06629078090190887, 0.0646311491727829, -0.014078645966947079, 0.017890388146042824, -0.0989486426115036, -0.022862104699015617, -0.01087171956896782, 0.04278922453522682, -0.004119467921555042, -0.010906039737164974, 0.05764494836330414, 0.02595452032983303, -0.013623441569507122, 0.016540268436074257, -0.0007871374255046248, -0.0075617325492203236, 0.03433940187096596, -0.02753910794854164, 0.1311432123184204, 0.005155076272785664, 0.005134893581271172, 0.008828510530292988, 0.029003579169511795, 0.00807978305965662, 0.014337290078401566, -0.02443968690931797, -0.04838290438055992, -0.003732522949576378, 0.07630577683448792, -0.024530818685889244, 0.02021223120391369, -0.03246408700942993, -0.02915842831134796, -0.024829654023051262, 0.01714693382382393, -0.002131316578015685, -0.044477444142103195, 0.0016550127184018493, -0.0021221712231636047, -0.008753355592489243, 0.07924222201108932, -0.0053529273718595505, -0.0118612851947546, 0.011424954980611801, -0.021480172872543335, -0.0011091975029557943, -0.08992340415716171, -0.05522209033370018, -0.002087812405079603, 0.05022197589278221, -0.0656697228550911, -0.008766037411987782, -0.03282495588064194, -0.014312466606497765, -0.005161965265870094, -0.0884002074599266, 0.01440522912889719, -0.08576273173093796, 0.010697090066969395, -0.06002200022339821, 0.01619199849665165]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>limited_range_of_mobile_data_plans</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Would be great to have more options of  plans with movil data.\n']</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>[-0.018858831375837326, -0.01599913462996483, 0.009847903624176979, -0.05697989836335182, -0.020666809752583504, -0.0355011448264122, -0.05763304606080055, 0.047069668769836426, 0.039015695452690125, -0.006601295899599791, 0.03214848414063454, 0.016587289050221443, 0.049478642642498016, 0.03375767171382904, 0.024481456726789474, 0.002456163289025426, 0.03880360350012779, -0.05068959668278694, -0.015520981512963772, 0.033094290643930435, 0.06425943225622177, -0.018017146736383438, -0.010097701102495193, 0.00988763477653265, 0.010548700578510761, 0.019015826284885406, -0.024903832003474236, -0.04222218319773674, -0.04882485419511795, -0.13495378196239471, -0.01799711585044861, -0.01714220829308033, -0.004069589078426361, -0.010954436846077442, 0.017970480024814606, 0.0015250486321747303, -0.0040031117387115955, 0.006401268765330315, 0.015352722257375717, 0.0840226486325264, -0.06986573338508606, 0.02187531255185604, -0.03634469211101532, 0.006313371937721968, -0.11384488642215729, -0.044572945684194565, -0.042115937918424606, 0.005453852936625481, 0.010921279899775982, -0.05991432070732117, -0.012241010554134846, 0.0147355692461133, -0.03145143762230873, 0.003446680959314108, 0.05941840633749962, 0.02995418757200241, -0.013589199632406235, 0.018204523250460625, -0.0006714542978443205, 0.01777012273669243, 0.023955754935741425, 0.04551832750439644, -0.11972173303365707, 0.03786003962159157, -0.012217594310641289, 0.003969123587012291, -0.014319730922579765, -0.024655351415276527, 0.0009992566192522645, -0.01964395120739937, -0.007442148867994547, 0.014823323115706444, 0.018519945442676544, 0.08223968744277954, 0.0049615586176514626, 0.026792991906404495, -0.05439797043800354, 0.03856296092271805, -0.01743113249540329, 0.013945494778454304, 0.003685595002025366, -0.04917774721980095, -0.015778176486492157, 0.003544738981872797, -0.013660132884979248, -0.04284599423408508, -0.010380655527114868, -0.02896636538207531, -0.03171912580728531, -0.012377310544252396, -0.014972246252000332, -0.00789396557956934, -0.0034283127170056105, -0.008479129523038864, -0.08190552145242691, -0.018192552030086517, 0.058887921273708344, 0.061890073120594025, -0.0724165216088295, 0.4056876599788666, 0.026648590341210365, 0.047455497086048126, 0.025533990934491158, 0.04270051419734955, -0.02611413225531578, -0.01578408107161522, -0.0700124129652977, -0.034327056258916855, 0.0004283952875994146, -0.01238932739943266, -0.016209695488214493, -0.06798257678747177, 0.017784548923373222, -0.016366012394428253, 0.005946704652160406, 0.028280062600970268, -0.043025434017181396, -0.034808047115802765, -0.008819126524031162, 0.03232467919588089, -0.09383292496204376, -0.04102814942598343, 0.03914354741573334, -0.022998925298452377, 0.022348064929246902, 0.02532217837870121, 0.04861223325133324, 0.09356078505516052, -0.0052632601000368595, 0.059158071875572205, 0.007436648011207581, -0.04448641091585159, -0.060570091009140015, 0.014668865129351616, -0.005552984308451414, -0.0007016761228442192, 0.05590899661183357, 0.02957727387547493, 0.06525221467018127, 0.013967807404696941, -0.04310886561870575, -0.06953027099370956, -0.0023520938120782375, -0.05415448173880577, 0.05486977845430374, 0.10852760076522827, 0.009171667508780956, 0.07413726300001144, -0.028621090576052666, -0.08795058727264404, -0.01301139872521162, 0.02671373263001442, 0.09458664804697037, -0.0384499654173851, -0.020674485713243484, 0.03448878601193428, -0.011352743953466415, 0.006230010185390711, -0.04344320297241211, 0.005432778503745794, 0.05303674191236496, -0.02012060210108757, -0.02656201645731926, 0.12223917245864868, -0.018703097477555275, -0.06620384007692337, -0.03129785135388374, 0.05490541458129883, -0.0033572057727724314, -0.034229155629873276, -0.021178804337978363, 0.03435593470931053, 0.034785572439432144, 0.018190447241067886, 0.05576496943831444, 0.003618574235588312, -0.10052898526191711, 0.0395292304456234, -0.08366896957159042, 0.02166254073381424, -0.06838210672140121, -0.0014112029457464814, 0.014484941028058529, -0.005610250402241945, 0.01610218547284603, -0.00912527833133936, -0.011378045193850994, 0.030640916898846626, 0.06394340842962265, -0.01136549562215805, -0.10486570745706558, -0.015658846125006676, -0.03385356441140175, -0.06463444977998734, -0.0968223288655281, -0.0670478492975235, 0.008050177246332169, 0.031201086938381195, 0.010568431578576565, -0.04730569198727608, 0.12009236961603165, -0.009241766296327114, -0.07077304273843765, 0.07403699308633804, -0.017456458881497383, -0.015878736972808838, -0.026811743155121803, -0.006306374911218882, 0.015537398867309093, -0.007554168347269297, 0.024383321404457092, -0.006028057541698217, 0.06874005496501923, -0.03804370388388634, -0.017504142597317696, 0.03131471201777458, -0.030528146773576736, 0.02258913777768612, 0.03229653090238571, -0.014741834253072739, 0.010510340332984924, 0.06839672476053238, -8.202691242331639e-05, -0.2841769754886627, 0.0007717767730355263, -0.0027903481386601925, -0.013722456060349941, -0.09865700453519821, 0.01765785738825798, -0.022053144872188568, -0.006640873849391937, -0.030233968049287796, 0.05938716605305672, 0.05160965397953987, 0.03704924136400223, -0.044481657445430756, 0.012033563107252121, -0.038783807307481766, -0.019617125391960144, -0.03145955502986908, 0.03226093575358391, -0.01494353823363781, 0.018000807613134384, 0.04403587803244591, -0.008670761249959469, -0.05769392475485802, -0.044346146285533905, 0.0245676189661026, 0.03799670562148094, 0.18034309148788452, -0.08795985579490662, -0.03215327858924866, -0.029924586415290833, 0.08636358380317688, 0.04901129752397537, -0.05810433253645897, 0.007591811940073967, 0.000627055880613625, -0.012775993905961514, -0.0707746148109436, 0.005581743083894253, -0.0020787278190255165, -0.014301583170890808, -0.02246236801147461, 0.0784405767917633, 0.01617223024368286, -0.09262628853321075, 0.019773097708821297, -0.06383519619703293, -0.02201845869421959, 0.06796165555715561, -0.010798066854476929, -0.006369985640048981, -0.018799467012286186, 0.024311687797307968, 0.03537165746092796, 0.023656541481614113, 0.09933483600616455, 0.016619829460978508, -0.060774773359298706, 0.07461754977703094, -0.03659527003765106, 0.00950679462403059, -0.0493440255522728, -0.05406986176967621, 0.006600791122764349, -0.0013505517272278666, 0.030277162790298462, -0.01730710081756115, 0.012816477566957474, 0.019278062507510185, -0.023492954671382904, 0.056677933782339096, 0.026501698419451714, 0.033262595534324646, 0.030689898878335953, 0.017456991598010063, -0.009695169515907764, -0.02489800564944744, 0.03972847759723663, 0.020598888397216797, -0.01833062246441841, -0.043422482907772064, -0.0026622777804732323, 0.020437398925423622, 0.030725376680493355, -0.0007502182270400226, 0.0025087259709835052, 0.028908925130963326, 0.040267497301101685, 0.04387342929840088, -0.013904023915529251, -0.021512851119041443, 0.032296519726514816, -0.011451805010437965, 0.005584327969700098, 0.020101213827729225, 0.11152631789445877, -0.03237791731953621, -0.23606832325458527, -0.025558501482009888, -0.015911605209112167, 0.015763716772198677, 0.014677495695650578, 0.07725982367992401, 0.04069003835320473, -0.013747930526733398, -0.10728731751441956, 0.015242515131831169, -0.023430412635207176, 0.020080918446183205, 0.03361808508634567, 0.016814429312944412, 0.0599505715072155, -0.0035468637943267822, 0.012608914636075497, 0.0055005354806780815, -0.05264313891530037, -0.04085876792669296, 0.03887048736214638, 0.021866075694561005, 0.13989131152629852, -0.02661304362118244, -0.03164730221033096, 0.047175854444503784, 0.022304655984044075, 0.026789940893650055, -0.015742531046271324, -0.009359450079500675, -0.062321074306964874, -0.007468178868293762, 0.05934098735451698, -0.012813807465136051, -0.012753814458847046, 0.06450273841619492, 0.019258618354797363, -0.012893269769847393, 0.04081286862492561, -0.025177963078022003, -0.03738653287291527, -0.0010438431054353714, -0.038994815200567245, 0.03575962781906128, 0.08109502494335175, -0.016466818749904633, -0.04624205082654953, 0.0034095868468284607, -0.008945350535213947, 0.02570640854537487, -0.004999665543437004, -0.03237583860754967, -0.00738019123673439, 0.021428558975458145, 0.04283488541841507, 0.0689031258225441, -0.007764982525259256, 0.03352847322821617, -0.0004344467888586223, -0.020802302286028862, 0.037854764610528946, -0.013521204702556133, -0.0024359733797609806, 0.002408150350674987, 0.03289147466421127]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>regular_check_on_ideal_plan</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Check with the customer regularly to ensure you are on the right plan\nReason for given NPS: Good to work with']</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>[-0.03079938143491745, -0.03716392070055008, 0.03896704688668251, 0.011702491901814938, -0.02182665653526783, 0.04904976487159729, 0.026146525517106056, 0.013133211992681026, -0.00581212155520916, -0.02926545962691307, 0.016340607777237892, 0.03452294319868088, 0.004193924367427826, 0.06364361941814423, -0.0033912304788827896, -0.0002475320652592927, 0.05145324766635895, -0.021122943609952927, -0.04345458745956421, 0.025851601734757423, 0.08523575961589813, -0.03422833979129791, -0.05857546627521515, 0.029505018144845963, 0.026557698845863342, 0.02617017924785614, 0.025637410581111908, -0.028902500867843628, -0.07455311715602875, -0.1487010270357132, 0.02521608956158161, -0.008100715465843678, 0.03033364750444889, -0.03590252622961998, 0.014053812250494957, 0.01707635074853897, -0.03987060859799385, 0.020476702600717545, -0.012617439962923527, 0.04367769509553909, -0.05195653811097145, 0.018608849495649338, -0.05685724690556526, -0.02985353395342827, -0.04813230410218239, 0.007956305518746376, 0.0015841443091630936, 0.011526871472597122, 0.01163913682103157, 0.0073778461664915085, 0.014166067354381084, -0.011941357515752316, -0.02798277698457241, 0.006132280454039574, 0.03295748680830002, 0.040325477719306946, 0.028440838679671288, 0.012876723892986774, 0.04835136607289314, 0.04188760742545128, 0.02688593976199627, 0.06948782503604889, -0.12788847088813782, 0.017923399806022644, -0.05431539565324783, 0.04094879329204559, 0.0024052062071859837, -0.0448169931769371, 0.001965888775885105, 0.054173439741134644, 0.017210407182574272, -0.042063597589731216, 0.027371929958462715, 0.07769952714443207, 0.015233407728374004, -0.01841447316110134, 0.002569877542555332, 0.005712328944355249, -0.024365583434700966, 0.038170743733644485, -0.05177345499396324, -0.03263907507061958, 0.009911834262311459, -0.0019231955520808697, 0.015444633550941944, -0.022240713238716125, -0.009616158902645111, 0.050652991980314255, 0.07581544667482376, -0.025396421551704407, 0.02093099057674408, -0.018288899213075638, 0.014338422566652298, 0.011105572804808617, 0.062117669731378555, 0.006296233739703894, 0.025278469547629356, 0.026476720348000526, -0.09710343182086945, 0.3952125310897827, -0.026527302339673042, 0.004338177852332592, -0.0046815425157547, 0.06173717603087425, 0.004473937675356865, -0.054264456033706665, -0.049219414591789246, -0.04356507211923599, 0.041136234998703, -0.047485943883657455, -0.033596981316804886, -0.022104661911725998, 0.08479616791009903, -0.02826106734573841, 0.01184184942394495, 0.04764046147465706, 0.05282808467745781, -0.0050408439710736275, 0.031553927809000015, -0.06076619774103165, -0.013900741934776306, -0.0003203869564458728, 0.03537382185459137, 0.008731545880436897, 0.0042823622934520245, -0.023275921121239662, 0.021921586245298386, 0.06842567026615143, -0.027619702741503716, 0.07490543276071548, 0.08282318711280823, -0.04358214512467384, -0.02639361098408699, -0.011384320445358753, 0.0181446336209774, -0.01406202744692564, 0.021616702899336815, 0.029675129801034927, 0.04742029309272766, 0.03004097379744053, -0.06541973352432251, -0.03223958611488342, -0.02885880321264267, -0.09797190129756927, 0.028504207730293274, 0.15584097802639008, -0.018018214032053947, 0.03476398065686226, 0.014501006342470646, -0.09569147974252701, -0.0003481042804196477, -0.05573001131415367, 0.006218641996383667, -0.0435713492333889, -0.02046467550098896, 0.028459830209612846, 0.0010752019006758928, 0.0017493185587227345, -0.040201958268880844, -0.018552366644144058, -0.01669580489397049, 0.02109406143426895, -0.07141144573688507, 0.07332393527030945, -0.05699852854013443, -0.07242709398269653, -0.012850512750446796, -0.06252019852399826, -0.028732428327202797, -0.018775302916765213, 0.02070649527013302, 0.018560092896223068, 0.022712357342243195, 0.04880671203136444, 0.0674193799495697, 0.018464332446455956, -0.0181930810213089, 0.005545970052480698, -0.043394699692726135, -0.006453588604927063, 0.02381402999162674, -0.01937546767294407, -0.018444854766130447, 0.01572931930422783, -0.04198473319411278, -0.03554058074951172, 0.015883522108197212, -0.062046922743320465, 0.01741713285446167, -0.05486956611275673, -0.0621892511844635, 0.005900000687688589, -0.03363434597849846, 0.04410292208194733, -0.005340221803635359, -0.052242640405893326, -0.01631501317024231, -0.004715107847005129, -0.010458017699420452, -0.023985398933291435, 0.053908687084913254, -0.02773105353116989, -0.013703664764761925, 0.010645443573594093, -0.010368901304900646, 0.0005991851794533432, 0.00831617321819067, -0.0337245836853981, 0.057149361819028854, 0.013668403029441833, -0.07118729501962662, -0.01582680083811283, 0.03721205145120621, 0.025633476674556732, -0.03587665781378746, 0.029734235256910324, -0.0557856410741806, 0.008045783266425133, 0.027618244290351868, -0.010389001108705997, 0.05954015254974365, 0.06598377227783203, 0.068900927901268, -0.26950424909591675, -0.012506100349128246, -0.052886929363012314, 0.03299318253993988, -0.044076427817344666, -0.035762012004852295, 0.03483940660953522, -0.04080904275178909, -0.032102249562740326, 0.08705122023820877, 0.07351648062467575, -0.006748043932020664, 0.011414874345064163, 0.005795830395072699, -0.001519404468126595, 0.06903307884931564, 0.006532022263854742, -0.0644998773932457, -0.04647088795900345, 0.05834832414984703, 0.002881536027416587, 0.04676094278693199, 0.007812172174453735, -0.07552651315927505, 0.03234027326107025, -0.032385773956775665, 0.17030495405197144, -0.036388859152793884, 0.022953951731324196, 0.02101675048470497, 0.04651236906647682, 0.023179862648248672, -0.023714426904916763, -0.05487179011106491, 0.07676733285188675, 0.014333776198327541, -0.05080677568912506, 0.023392774164676666, 0.003967743832617998, -0.03860892355442047, 0.062086671590805054, 0.03892241790890694, -0.08120833337306976, -0.045755885541439056, -0.05288813263177872, -0.04986532777547836, -0.02492436021566391, 0.02665713056921959, -0.026431530714035034, 0.01186142023652792, 0.006035965867340565, -0.03597932308912277, -0.010743685066699982, 0.017500875517725945, 0.07070086896419525, 0.027538567781448364, -0.0752282589673996, -0.029431626200675964, -0.06426797062158585, 0.03526601195335388, 0.00558603135868907, -0.026107599958777428, 0.010887442156672478, -0.02799755148589611, 0.03010377660393715, -0.04562670364975929, 0.026117855682969093, -0.02601584419608116, -0.007090340834110975, 0.052705589681863785, -0.004038389306515455, -0.05259377881884575, 0.0210819523781538, -0.04589368775486946, 0.013746984302997589, -0.014965725131332874, 0.01453743688762188, 0.04720934107899666, -0.0173001941293478, -0.043261926621198654, 0.07064881175756454, -0.041451480239629745, 0.015819167718291283, -0.05562395602464676, -0.026297882199287415, 0.006181009113788605, -0.005136970430612564, 0.020054753869771957, 0.046792346984148026, -0.00985600333660841, -0.029453329741954803, 0.003642913419753313, -0.033016957342624664, 0.0661868155002594, 0.0820663720369339, -0.009604261256754398, -0.2895044684410095, 0.003977260086685419, -0.07854041457176208, -0.007100873161107302, -0.024285703897476196, 0.03606220707297325, 0.027479730546474457, 0.004975916817784309, -0.07962260395288467, -0.00830476451665163, 0.031139031052589417, -0.001736724516376853, 0.00470314035192132, -0.0770443007349968, 0.009491791017353535, -0.06617405265569687, 0.06578553467988968, -0.0596386156976223, 0.03255852311849594, -0.09122682362794876, -0.011065689846873283, 0.012976640835404396, 0.17843040823936462, 0.0018808856839314103, 0.009186300449073315, 0.017222406342625618, 0.023621246218681335, -0.01573552004992962, 0.015634434297680855, 0.05048869177699089, 0.03473110869526863, 0.0007394238491542637, 0.03841162100434303, -0.012874852865934372, 0.041450005024671555, 0.08453423529863358, 0.008613723330199718, -0.020393693819642067, -0.027065850794315338, -0.03821178898215294, -0.023728501051664352, -0.027493685483932495, 0.003235903335735202, 0.03797842562198639, 0.030247393995523453, -0.03962072357535362, -0.01969464123249054, 0.05474754422903061, 0.020028170198202133, 0.03843967244029045, 0.0011224630288779736, -0.001858213567174971, -0.03483607992529869, -0.008000614121556282, 0.02981523983180523, 0.0362597294151783, -0.004887525457888842, 0.03316064924001694, 0.0038784071803092957, 9.715968189993873e-05, -0.03396850451827049, -0.03118169493973255, 0.11182110756635666, -0.0013832062250003219, -0.004192286636680365]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>need for bundling internet options</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>['Reason for given NPS: Extensive outreach and flexible internet bundles']</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>[-0.06373941153287888, -0.10384968668222427, 0.02509997971355915, -0.022207168862223625, 0.022718796506524086, 0.004230571910738945, -0.0669575184583664, 0.06243611127138138, -0.03328735753893852, -0.047192566096782684, 0.025373652577400208, 0.028941728174686432, 0.004749952349811792, 0.01950979046523571, 0.09235336631536484, 0.05051874741911888, 0.045361876487731934, -0.03455660119652748, -0.05854187533259392, 0.0652029886841774, 0.018981585279107094, -0.004416749347001314, -0.014480859972536564, -0.014101468026638031, -0.04498779773712158, -0.05276595056056976, -0.02110258862376213, -0.04383848235011101, -0.03357240557670593, -0.0856083482503891, 0.019587380811572075, -0.004458867013454437, -0.04404499754309654, 0.03774358704686165, 0.0014356836909428239, -0.0528838224709034, 0.035173967480659485, -0.013030375353991985, -0.08189628273248672, 0.025161124765872955, 0.05803140252828598, 0.015946362167596817, -0.0293465293943882, 0.028310323134064674, -0.016010697931051254, -0.07538700103759766, 0.03841229900717735, 0.025882534682750702, 0.04043542966246605, 0.004255125764757395, 0.06722110509872437, 0.054631683975458145, -0.035951752215623856, -0.014267010614275932, 0.011971057392656803, 0.09352713823318481, 0.022291142493486404, 0.06135327368974686, 0.0010973410680890083, 0.04420467093586922, 0.0010507075348868966, 0.020993400365114212, -0.11245409399271011, 0.10853885114192963, 0.007173951715230942, 0.034344010055065155, -0.020545469596982002, 0.06482377648353577, 0.01767568849027157, 0.062851183116436, -0.0802670270204544, 0.040910664945840836, -0.04351271688938141, 0.07807581126689911, 0.017896000295877457, 0.06868507713079453, -0.03006364405155182, 0.04905693978071213, 0.0023702436592429876, -0.01527433842420578, 0.008571087382733822, 0.01725754886865616, 0.00095736252842471, 0.03507037088274956, -0.04796185344457626, -0.04911071062088013, -0.005820735823363066, -0.009399120695888996, 0.002820875495672226, -0.03343215212225914, -0.01676776632666588, -0.039102036505937576, 0.02596309781074524, -0.008289040066301823, -0.06382627040147781, 0.006247470621019602, -0.017764659598469734, -0.027405885979533195, -0.07275265455245972, 0.3128080368041992, -0.015988530591130257, -0.027887096628546715, 0.027883609756827354, -0.06283527612686157, 0.05659768730401993, -0.04516993463039398, 0.006848186254501343, 0.02702486142516136, 0.005207069683820009, 0.02143167145550251, 0.008408905938267708, -0.03703475371003151, -0.007317454554140568, 0.00558334868401289, 0.0024611405096948147, 0.03628700226545334, -0.13140232861042023, -0.023543303832411766, 0.03474125638604164, -0.013053975068032742, -0.05449773371219635, 0.009801434352993965, 0.05306066572666168, 0.03150319308042526, 0.021709496155381203, 0.002239729044958949, 0.025370515882968903, 0.07931896299123764, 0.006934656761586666, 0.11481186747550964, -0.0016960966167971492, -0.026332193985581398, 0.013334064744412899, -0.003069915110245347, 0.042771078646183014, -0.01882406324148178, 0.04529598727822304, 0.024150457233190536, 0.005544685292989016, 0.05357205122709274, -0.035762250423431396, -0.017619166523218155, 0.05083520710468292, -0.05566416680812836, 0.036500051617622375, 0.11971315741539001, -0.0025815670378506184, 0.04907546937465668, -0.03492450341582298, -0.042236413806676865, 0.02701847068965435, 0.015063190832734108, -0.003253416856750846, -0.029932571575045586, -0.009711566381156445, 0.003153948811814189, 0.04288098216056824, 0.02813713252544403, -0.04420141875743866, -0.022043680772185326, -0.000750666600652039, -0.05930681154131889, -0.02590860426425934, 0.10964912921190262, -0.04648805037140846, -0.12361927330493927, -0.008344902656972408, -0.008364294655621052, -0.02659452334046364, -0.02111518196761608, -0.06535040587186813, 0.03538369759917259, 0.009430207312107086, 0.03204566240310669, 0.08084023743867874, -0.024545766413211823, -0.09165164083242416, 0.015061833895742893, -0.03345033526420593, -0.015698948875069618, -0.024506527930498123, -0.020736688748002052, -0.016991587355732918, -0.012978065758943558, -0.003167274408042431, -0.035755958408117294, -0.03422287106513977, -0.052823230624198914, 0.03963063657283783, -0.0449257493019104, -0.12591910362243652, -0.028861479833722115, -0.011407260783016682, -0.0276676993817091, 0.025960762053728104, -0.012851719744503498, -0.06742198020219803, -0.004277565982192755, 0.012531455606222153, -0.04728269577026367, 0.0900905653834343, -0.029049359261989594, -0.025270715355873108, -0.011808164417743683, -0.029123898595571518, 0.03424934670329094, 0.002521940041333437, -0.05713246762752533, 0.06721913069486618, -0.02503586746752262, 0.02697773650288582, 0.01825418695807457, 0.12444005161523819, 0.012492654845118523, -0.024473417550325394, -0.0014019752852618694, 0.03310832381248474, 0.0654679462313652, 0.06321730464696884, 0.08515332639217377, 0.017247218638658524, 0.08769264817237854, 0.016330568119883537, -0.286024808883667, -0.0037023744080215693, -0.010705679655075073, -0.028090201318264008, 0.0060303667560219765, -0.051413774490356445, 0.04748079925775528, 0.026456281542778015, -0.055527396500110626, 0.06709504127502441, 0.09990408271551132, -0.02277245745062828, 0.0011499865213409066, 0.01458591129630804, -0.02175232768058777, -0.019311463460326195, -0.013581566512584686, -0.0013321478618308902, -0.05146639794111252, 0.07092369347810745, -0.04911056533455849, 0.02104981616139412, -0.0029068016447126865, -0.04407872259616852, 0.0018301161471754313, 0.04203731194138527, 0.15484619140625, -0.060071803629398346, 0.019358055666089058, -0.08730261027812958, 0.08823571354150772, 0.1089840829372406, -0.02192109078168869, -0.08569551259279251, -0.012411070056259632, 0.05356951057910919, -0.03703182935714722, 0.004313223995268345, 0.0049775028601288795, -0.0179044920951128, -0.022866837680339813, 0.03593936190009117, 0.006580169778317213, -0.07973968982696533, 0.04262261465191841, -0.02296789363026619, -0.040076080709695816, 0.03860902413725853, -0.04271246865391731, -0.038293927907943726, 0.0054610855877399445, -0.07744795829057693, 0.036593835800886154, -0.013294479809701443, 0.005146243143826723, -0.0019471781561151147, 0.0009526194771751761, 0.029463687911629677, 0.020265672355890274, 0.029525194317102432, 0.02516542561352253, 0.011322719976305962, -0.004868935327976942, -0.10915416479110718, 0.04130157455801964, 0.022044211626052856, -0.012437126599252224, 0.051358774304389954, -0.027589088305830956, -0.02808205410838127, 0.014105272479355335, 0.005609443411231041, -0.020693577826023102, 0.09537539631128311, -0.034806735813617706, 0.007507066708058119, 0.008103487081825733, 0.029138684272766113, 0.02740636095404625, -0.02264401875436306, 0.026312649250030518, -0.045311108231544495, 0.041747305542230606, 0.004912306554615498, 0.006790129002183676, 0.014559971168637276, 0.013304157182574272, -0.02681831642985344, -0.016105754300951958, 0.036272671073675156, -0.04801920801401138, -0.019104033708572388, -0.03754910081624985, -0.018588628619909286, 0.0909302681684494, -0.03730182722210884, -0.22766883671283722, 0.05331643298268318, 0.006307670380920172, -0.03842659294605255, -0.010020211338996887, 0.028036629781126976, 0.04540836438536644, 0.003053495893254876, -0.06417475640773773, 0.04144589602947235, 0.03818186745047569, 0.019160745665431023, -0.0860954001545906, -0.05181518942117691, 0.06704284250736237, 0.018164455890655518, 0.09177503734827042, 0.018102439120411873, -0.06139165535569191, -0.022924859076738358, 0.028327779844403267, -0.013534587807953358, 0.17502786219120026, -0.02910696528851986, 0.02719745598733425, 0.050123315304517746, -0.04024990648031235, 0.03837038204073906, 0.013552350923418999, -0.009201799519360065, -0.025896918028593063, -0.00738151092082262, 0.016531815752387047, -0.07747282087802887, -0.004172480199486017, -0.03258368372917175, -0.008423087187111378, -0.0356137789785862, 0.014768200926482677, -0.0161968432366848, -0.04776604101061821, 0.026297366246581078, -0.04504474252462387, 0.017260149121284485, 0.04080582037568092, 0.012565769255161285, -0.007953223772346973, 0.01853281445801258, -0.0015584746142849326, 0.004984406754374504, -0.04132278636097908, -0.02090408466756344, 0.03298173099756241, 0.01590079441666603, 0.02595948427915573, 0.00896537583321333, 0.015312002040445805, -0.030307533219456673, -0.04751997068524361, -0.01740843988955021, 0.04484543204307556, -0.065618596971035, -0.013850094750523567, -0.012290805578231812, 0.012337865307927132]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>lack of flexible pricing plans</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>['Reason for given NPS: Extensive outreach and flexible internet bundles']</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>[-0.03602181747555733, -0.05437609180808067, -0.02675517275929451, 0.03081326000392437, -0.03292976692318916, 0.008173185400664806, -0.0898975059390068, 0.08307671546936035, -0.006221686955541372, -0.004742155782878399, 0.04931052029132843, 0.07684573531150818, 0.007383189629763365, 0.015882005915045738, 0.056647609919309616, 0.014769477769732475, 0.04108330234885216, -0.07023552805185318, -0.03958631306886673, 0.03309730812907219, 0.060468804091215134, -0.05494923144578934, -0.05450412258505821, 0.017380591481924057, 0.02221611700952053, -0.06775698065757751, -0.008669099770486355, -0.005284195300191641, 0.003747238777577877, -0.11686583608388901, 0.008765802718698978, 0.03187720850110054, 0.030048908665776253, -0.02517920546233654, 0.027323929592967033, -0.0005016861250624061, -0.011597937904298306, -0.005585670005530119, 0.02833404764533043, 0.036954451352357864, -0.012533246539533138, 0.037232208997011185, -0.05269160866737366, -0.03709859773516655, -0.02529890276491642, -0.03922242671251297, 0.003307218896225095, -0.034800656139850616, -0.015732819214463234, 0.010199385695159435, 0.0553307831287384, -0.006022690795361996, -0.0052042496390640736, 0.004907514434307814, -0.002028848510235548, 0.059178777039051056, -0.05558338388800621, 0.014617948792874813, 0.007222849875688553, 0.005902945529669523, -0.013786961324512959, -0.0006935023120604455, -0.1530417948961258, 0.05279194191098213, 0.002740581287071109, 0.04395362362265587, -0.02733822539448738, 0.027323443442583084, -0.004062661435455084, 0.06986062228679657, 0.012086024507880211, 0.027216050773859024, -0.017805516719818115, 0.06085875257849693, 0.0005978114786557853, -0.02613249607384205, 0.01777413859963417, 0.012481233105063438, 0.05090920627117157, 0.020990747958421707, 0.04527510330080986, -0.028952384367585182, -0.026766447350382805, 0.011162467300891876, -0.03711823374032974, -0.07858492434024811, 0.026136048138141632, -0.044432178139686584, 0.08059787005186081, 7.05565107637085e-05, 0.00201596156693995, -0.004998201970010996, 0.002935242373496294, -0.018399912863969803, -0.055084988474845886, 0.03784795105457306, 0.04380176588892937, 0.07812927663326263, -0.1074490174651146, 0.33963608741760254, 0.05480366200208664, 0.05855702608823776, 0.041644174605607986, -0.041370440274477005, -0.04311226308345795, -0.0642109289765358, -0.09517896175384521, 0.07165298610925674, -0.016471708193421364, 0.0002710495318751782, -0.04933014139533043, 0.026866896077990532, 0.011026754975318909, -0.02724272757768631, -0.005918848793953657, 0.03339838236570358, -0.0463855117559433, -0.02589258924126625, 0.047124799340963364, -0.019783636555075645, -0.03386649861931801, 0.0069325328804552555, 0.025672253221273422, -0.0045020924881100655, -0.04862184077501297, 0.04419533163309097, 0.004542947746813297, 0.10493187606334686, 0.004279929678887129, 0.03516455367207527, 0.057793065905570984, -0.07645357400178909, -0.024391338229179382, 0.0007668008911423385, 0.010662270709872246, -0.00048324643285013735, 0.05811373516917229, 0.038587622344493866, 0.0191615279763937, 0.05993206426501274, -0.07572448998689651, -0.0195162370800972, -0.029404105618596077, -0.07775504887104034, -0.0032710712403059006, 0.05891324207186699, 0.011831862851977348, 0.04839553311467171, 0.00944929476827383, 0.010734527371823788, -0.0647769495844841, -0.0074885631911456585, -0.0024610916152596474, -0.05834313854575157, 0.0015792347257956862, -0.01698814332485199, -0.01785227842628956, 0.029557451605796814, -0.03749311342835426, -0.0022276851814240217, 0.05344994738698006, -0.016841039061546326, -0.09933947026729584, 0.09405384212732315, -0.048592280596494675, -0.06197212263941765, 0.007697106804698706, -0.01709006354212761, -0.022467857226729393, 0.028099052608013153, -0.0412713997066021, 0.028723180294036865, -0.004982116632163525, 0.007388337515294552, 0.11503584682941437, -0.025318698957562447, -0.07551687210798264, 0.03487773984670639, -0.06260158866643906, -0.04570389166474342, 0.006065063178539276, 0.03417245298624039, -0.016169393435120583, -0.026344168931245804, 0.031388115137815475, -0.03429947420954704, -0.030554180964827538, -0.009077540598809719, 0.018299449235200882, -0.004171314649283886, -0.0847969576716423, -0.04690632224082947, -0.02092694118618965, 0.04994126409292221, -0.012429638765752316, -0.006605939473956823, -0.0025857235305011272, -0.02252180688083172, 0.05767785385251045, -0.00920040998607874, -0.005945313721895218, -0.0487205870449543, -0.028155619278550148, 0.010071058757603168, -0.022117042914032936, 0.020910555496811867, 0.056142326444387436, 0.0038343537598848343, 0.06432482600212097, 0.012020527385175228, 0.06316408514976501, 0.04315110668540001, 0.09169613569974899, -0.01400684006512165, -0.046556707471609116, 0.06695864349603653, 0.01452688593417406, 0.05746845528483391, 0.03775034472346306, 0.004639716818928719, 0.01629824936389923, 0.09280215948820114, 0.0376780740916729, -0.28902459144592285, 0.040262527763843536, -0.028917724266648293, -0.05543601140379906, -0.03951052948832512, -0.06868679076433182, 0.024089857935905457, -0.005414701532572508, -0.0574064701795578, 0.15210078656673431, 0.03138688579201698, -0.029585594311356544, -0.017695777118206024, -0.058704134076833725, 0.009036939591169357, -0.022729000076651573, -0.017254166305065155, -0.0022022647317498922, 0.029251910746097565, 0.0026278968434780836, -0.029911862686276436, 0.07288111001253128, 0.002883139532059431, -0.052944883704185486, 0.05466516688466072, 0.02489503100514412, 0.1892523616552353, -0.14825229346752167, -0.03682349622249603, -0.021174808964133263, 0.03843073546886444, 0.021081484854221344, -0.06965669989585876, 0.0029904088005423546, -0.028344333171844482, -0.007346080616116524, -0.004698363598436117, -0.004311463329941034, 0.01771678775548935, -0.02383279614150524, -0.023137439042329788, 0.0008971099159680307, -0.032292440533638, -0.05353478714823723, -0.03432746231555939, 0.0216982401907444, -0.019428227096796036, 0.0882929265499115, -0.035200268030166626, 0.03136551007628441, -0.014360340312123299, -0.09282678365707397, 0.02270413376390934, -0.029394088312983513, 0.09074777364730835, -0.006112674716860056, -0.02374892495572567, 0.02923041768372059, -0.007644461002200842, 0.0425986647605896, -0.003085703356191516, 0.01835421659052372, 0.0911211222410202, -0.012591422535479069, 0.02216457948088646, -0.014685339294373989, 0.03803927078843117, 0.008100531995296478, -0.07594986259937286, 0.015369530767202377, -0.02153150551021099, 0.039671432226896286, -0.019909333437681198, -0.016277631744742393, 0.005148528143763542, -0.035476911813020706, -0.017761778086423874, 0.02069447562098503, -0.026034219190478325, -0.008897311985492706, -0.012587837874889374, 0.014872154220938683, 0.02607186697423458, 0.019012317061424255, -0.0132258590310812, 0.042526595294475555, 0.0038329167291522026, -0.04594685509800911, -0.023102888837456703, -0.003411737969145179, -0.010831900872290134, -0.013768348842859268, 0.008366536349058151, 0.03160109743475914, 0.10905283689498901, -0.029839104041457176, -0.19798259437084198, 0.012822924181818962, -0.014958671294152737, 0.006558547727763653, 0.016769422218203545, 0.06606701761484146, -0.0073010558262467384, -0.057897765189409256, 0.01302847359329462, -0.011665990576148033, 0.03869890794157982, -0.023984000086784363, -0.022965451702475548, -0.045692067593336105, 0.06825113296508789, -0.002694985130801797, 0.0972764790058136, -0.02757972851395607, 0.06913956254720688, -0.051279183477163315, 0.009935866110026836, 0.0030233021825551987, 0.21438683569431305, -0.03983099386096001, -0.06196450814604759, -0.0406503863632679, -0.026268262416124344, 0.05657011643052101, 0.040736451745033264, 0.04091329500079155, -0.04029719531536102, -0.0037663967814296484, 0.04482175037264824, -0.029482802376151085, 0.001378841931000352, -0.04429973289370537, 0.03638838231563568, -0.006063632667064667, -0.013254201039671898, -0.0016987636918202043, -0.0556110180914402, 0.0443616546690464, 0.0052187759429216385, -0.03422288969159126, 0.05776945501565933, 0.009420054964721203, -0.05533688887953758, -0.008230590261518955, 0.0016059037297964096, 0.008226441219449043, -0.04286815598607063, -0.043919507414102554, 0.021716885268688202, 0.03951621055603027, 0.008441577665507793, 0.02435952238738537, -0.014487197622656822, 0.011016047559678555, -0.038777194917201996, -0.05088339000940323, 0.013617471791803837, -0.014167752116918564, -0.028200842440128326, 0.03355232998728752, 0.01788862980902195]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>difficulty_changing_numbers_between_sim_cards</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Had a frustrating experience with changing an old number to a new sim card. Very disappointed to find out we needed to visit a store during work hours (this is not easy to do when you work and live rurally).\n']</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>[-0.02792320027947426, -0.02634892612695694, 0.03609937056899071, -0.0031266126316040754, -0.04893467575311661, -0.01924315094947815, -0.03363921120762825, -0.0033913697116076946, 0.03328678384423256, -0.049375493079423904, -0.03763282671570778, -0.044963255524635315, 0.007982349954545498, -0.023273764178156853, 0.06846559792757034, 0.0009899325668811798, -0.018768131732940674, -0.03679344058036804, -0.05117703601717949, 0.05398642644286156, 0.06425686180591583, -0.02027125097811222, -0.03182230517268181, 0.026009006425738335, 0.01504285354167223, 0.08252690732479095, -0.02594633214175701, -0.0019768420606851578, -0.056298982352018356, -0.1546214371919632, -0.012269064784049988, 0.03288552165031433, 0.037104591727256775, 0.008341405540704727, 0.04785079509019852, -0.040274836122989655, -0.06860113143920898, 0.029847338795661926, 0.0063361916691064835, 0.033598534762859344, 0.024536417797207832, 0.03884794935584068, -0.018550332635641098, -0.04378144070506096, -0.04699522256851196, -0.08890741318464279, -0.012694435194134712, 0.09193933755159378, 0.10305014252662659, -0.05700758099555969, 0.017489688470959663, 0.029530998319387436, -0.016559874638915062, 0.01668565534055233, 0.02423154003918171, 0.026276541873812675, 0.11628704518079758, 0.06637942045927048, 0.07005709409713745, 0.018746474757790565, 0.0036463236901909113, 0.0014990060590207577, -0.1244579330086708, 0.14148668944835663, -0.015082593075931072, -0.046235665678977966, -0.002161802724003792, -0.03718196973204613, 0.0012877772096544504, 0.03607264906167984, -0.045863404870033264, -0.0019194484921172261, -0.010925169102847576, 0.07673043757677078, 0.048306141048669815, 0.02989477477967739, -0.06925611197948456, 0.019719654694199562, 0.03961224481463432, 0.021267879754304886, 0.004985278472304344, -0.052522946149110794, -0.04870160296559334, -0.02618757076561451, 0.0365179181098938, -0.050092071294784546, -0.031219592317938805, 0.001375982421450317, -0.025814713910222054, -0.027852455154061317, -0.04461194947361946, 0.004398683551698923, 0.04789687320590019, 0.045214638113975525, -0.05856591463088989, -0.06216312572360039, 0.014441631734371185, -0.014413435943424702, -0.07264482229948044, 0.3155723810195923, 0.0746174082159996, 0.021934324875473976, -0.02744091860949993, 0.018836505711078644, 0.028129208832979202, -0.06515910476446152, -0.07142667472362518, -0.03243270143866539, -0.06430870294570923, -0.013819137588143349, -0.029722154140472412, -0.05250656604766846, 0.03596217557787895, 0.02179596945643425, -0.046286895871162415, 0.08318309485912323, -0.03237953409552574, -0.011753949336707592, 0.03680448234081268, 0.029739364981651306, -0.07097817957401276, 0.0023517096415162086, -0.06916472315788269, -0.0030790905002504587, 0.0038392392452806234, 0.015043025836348534, -0.0028920697513967752, 0.0635344535112381, -0.07473522424697876, 0.05417872592806816, 0.06403638422489166, 0.017981918528676033, -0.06155594065785408, 0.01348926778882742, -0.01839657686650753, -0.0004978533834218979, -0.01595745049417019, 0.0329049788415432, 0.007773707155138254, 0.007476943079382181, -0.023913279175758362, -0.05068547651171684, 0.04833371937274933, -0.0348401740193367, 0.039315491914749146, 0.0760897621512413, -0.06986718624830246, 0.053032081574201584, 0.03901343047618866, -0.0427960567176342, 0.014408471062779427, -0.002492264611646533, 0.036650221794843674, -0.046449214220047, -0.010285931639373302, -0.016542023047804832, 0.0846327692270279, 0.011944682337343693, 0.01933957077562809, -0.005783154163509607, 0.07357615232467651, -0.030925028026103973, -0.03359164670109749, 0.13247834146022797, 0.07196550071239471, -0.06351781636476517, -0.014181314967572689, -0.06105652451515198, -0.05131023749709129, -0.046359527856111526, -0.015144754201173782, 0.033000361174345016, -0.0038588508032262325, 0.09038884937763214, 0.08631353825330734, -0.08297941833734512, -0.032301150262355804, 0.029364988207817078, 0.029857195913791656, -0.010117889381945133, -0.03866197168827057, 0.006453515496104956, 0.007173960562795401, -0.05117511376738548, 0.0013498379848897457, -0.02859044261276722, -0.008113324642181396, -0.045238081365823746, 0.03687986359000206, -0.03487295284867287, -0.03449142351746559, -0.014104915782809258, -0.06563077121973038, -0.012245283462107182, -0.03996061161160469, -0.04185238853096962, -0.03322255238890648, 0.006977630313485861, 0.025054294615983963, -0.04016461595892906, 0.11038472503423691, 0.003926501143723726, 0.02905125357210636, 0.02704724483191967, -0.04439406469464302, 0.008182866498827934, -0.01309740636497736, -0.0688319280743599, 0.05132659524679184, 0.03809148445725441, 0.05103234946727753, -0.026601023972034454, 0.09176183491945267, -0.008308536373078823, -0.030252262949943542, 0.029644683003425598, -0.009411490522325039, 0.06143244355916977, 0.04777393862605095, 0.025877751410007477, -0.010328685864806175, 0.050740472972393036, 0.04956740513443947, -0.30756092071533203, -0.020595433190464973, -0.03666296973824501, -0.03146626427769661, -0.09446091949939728, 0.004505573306232691, 0.022465750575065613, -0.019743040204048157, 0.014712073840200901, 0.05712176859378815, 0.03907022625207901, 0.028478683903813362, -0.022626519203186035, -0.0007425168296322227, 0.013953065499663353, -0.012746046297252178, -0.0065483832731842995, 0.06829813122749329, 0.016847951337695122, 0.04234861955046654, -0.03816989064216614, 0.007574257906526327, -0.010256709530949593, -0.05024662986397743, -0.012292586266994476, 0.04345501586794853, 0.15811052918434143, -0.0555654875934124, -0.020421937108039856, 0.01812041364610195, 0.052461232990026474, 0.056540459394454956, -0.0033712207805365324, -0.02620386704802513, 0.026623565703630447, -0.0075439452193677425, 0.010646780021488667, 0.04455867037177086, 0.06600885838270187, 0.009739473462104797, -0.01503842230886221, 0.03804459050297737, 0.05751548334956169, -0.025998374447226524, 0.04199192672967911, -0.02075606770813465, -0.06616159528493881, 0.04852311313152313, -0.0161154605448246, 0.029169440269470215, -0.02903200127184391, -0.027453355491161346, -0.022647621110081673, -0.0042390478774905205, 0.059027548879384995, -0.04456161707639694, -0.031890738755464554, 0.032429393380880356, 0.035690274089574814, -4.3802225263789296e-05, -0.05417218431830406, 0.02189129777252674, 0.04130221903324127, -0.0003015330876223743, 0.024576306343078613, 0.02017911523580551, -0.02302403934299946, -0.00472289090976119, 0.003793875453993678, 0.056495003402233124, 0.056568846106529236, 0.019999327138066292, 0.009348091669380665, 0.016799593344330788, -0.018869703635573387, -0.018110085278749466, -0.008392022922635078, 0.04099011793732643, 0.01666969433426857, -0.038088440895080566, 0.006434634793549776, -0.0022236777003854513, 0.04612002149224281, -0.001029541133902967, 0.014771740883588791, -0.0029900306835770607, 0.026974022388458252, 0.06078566610813141, 0.03751789778470993, -0.01380994264036417, -0.026561465114355087, -0.015348921529948711, 0.023846520110964775, 0.0415479876101017, 0.0692552849650383, -0.04639234393835068, -0.18062834441661835, -0.006891114637255669, -0.02661886252462864, 0.0005852457252331078, -0.06994008272886276, 0.014870496466755867, 0.011899816803634167, 0.0096656559035182, -0.09380266815423965, -0.03795468062162399, -0.07217235863208771, -0.025150582194328308, 0.0261430311948061, 0.02176193706691265, 0.025895923376083374, 0.027280189096927643, -0.052768148481845856, -0.008576837368309498, -0.013709877617657185, -0.024077028036117554, 0.07272128760814667, -0.020497774705290794, 0.15357178449630737, -0.03216949477791786, -0.027007712051272392, 0.03507620096206665, 0.01290037203580141, 0.06844094395637512, 0.06974425911903381, 0.05471629649400711, -0.09352055191993713, -0.04063424468040466, 0.06391001492738724, -0.04304872080683708, 0.002468706574290991, 0.0028003016486763954, 0.015239248983561993, -0.03154892474412918, 0.01050322875380516, 0.025076281279325485, -0.06268198043107986, 0.013730502687394619, -0.06390117853879929, -0.06117498129606247, 0.09957771003246307, 0.0033306479454040527, -0.04502116143703461, 0.06838823109865189, 0.001249182503670454, 0.0022115500178188086, -0.07634587585926056, -0.02857954427599907, -0.024836108088493347, -0.018321046605706215, -0.01018005982041359, -0.0069104828871786594, -0.10516813397407532, -0.04254767671227455, -0.004754622001200914, 0.005857690703123808, 0.022926796227693558, -0.05489617586135864, 0.045662131160497665, -0.02813757210969925, -0.023349501192569733]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>need_convenient_sim_card_replacement_process</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Had a frustrating experience with changing an old number to a new sim card. Very disappointed to find out we needed to visit a store during work hours (this is not easy to do when you work and live rurally).\n']</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>[-0.038508426398038864, -0.029769571498036385, 0.021316226571798325, -0.0283527672290802, -0.02355530485510826, -0.06446269154548645, 0.0019503360381349921, 0.06885359436273575, 0.007195395417511463, 0.00617055082693696, -0.01892770826816559, 0.0030909038614481688, 0.007827171124517918, -0.030541151762008667, 0.06645418703556061, 0.005887313280254602, 0.03741290420293808, -0.03717615082859993, -0.04088776931166649, 0.0012496530544012785, -0.008117116056382656, -0.05432157218456268, -0.0971006229519844, 0.037533070892095566, 0.007305802311748266, 0.0421120747923851, -0.00913226418197155, 0.028090007603168488, -0.0453423373401165, -0.09291058778762817, 0.005239755846560001, 0.0566488541662693, 0.009963146410882473, 0.051811546087265015, 0.035149410367012024, -0.03698650375008583, -0.04965268820524216, 0.014060422778129578, 0.0029755812138319016, 0.015257532708346844, 0.03661371394991875, 0.051907435059547424, -0.05171138048171997, 0.019561761990189552, 0.04343447461724281, -0.054549794644117355, 0.01362500712275505, 0.006946048233658075, 0.11764991283416748, -0.020787037909030914, 0.0702509805560112, 0.016279492527246475, -0.004641745705157518, -0.03302769735455513, 0.03946782648563385, 0.07030737400054932, 0.11953186243772507, -0.012977366335690022, 0.07522393763065338, -0.04798873886466026, 0.018323013558983803, 0.006847003009170294, -0.11121994256973267, 0.07778985798358917, -0.0030442180577665567, -0.03615007922053337, -0.012546851299703121, -0.04764547571539879, 0.0360865481197834, 0.06450870633125305, -0.06861143559217453, 0.017700865864753723, -0.022852079942822456, 0.08017442375421524, 0.01844155415892601, -0.0032700588926672935, -0.018252864480018616, -0.014616799540817738, -0.01689247041940689, 0.07907144725322723, -0.01716519333422184, 0.0003911948879249394, -0.02718609757721424, 0.0395667627453804, -0.03571012243628502, -0.06749464571475983, -0.02296285517513752, 0.04121677577495575, -0.004429792985320091, -0.02447638101875782, 0.029262438416481018, 0.01473184209316969, 0.054416924715042114, 0.06433682888746262, -0.07056122273206711, -0.038439709693193436, 0.009999454021453857, 0.007365483324974775, -0.06808406859636307, 0.36452290415763855, 0.0327826589345932, 0.02979430742561817, 0.05382494255900383, 0.04108642041683197, -0.007354914676398039, -0.06549812853336334, -0.05761713162064552, -0.007811146788299084, -0.048078376799821854, -0.03799453377723694, -0.009414232335984707, -0.0041854167357087135, 0.04878285154700279, -0.0038503892719745636, 0.0006285696872510016, 0.08036159723997116, -0.009980897419154644, -0.018963564187288284, 0.05051826313138008, 0.018340671434998512, -0.04538607969880104, -0.031129833310842514, -0.013333526439964771, -0.014186875894665718, 0.001517409342341125, -0.05796090513467789, 0.004116999916732311, 0.060787346214056015, -0.03610245883464813, 0.09877099096775055, 0.06710614264011383, -0.00956706702709198, -0.062105871737003326, 0.03479752689599991, -0.0018002804135903716, -0.03429755941033363, 0.029710203409194946, 0.005345952697098255, -0.0446150042116642, -0.030092941597104073, 0.018162427470088005, -0.06147061660885811, 0.013114416971802711, -0.06819793581962585, 0.015501432120800018, 0.0738648995757103, -0.0343584269285202, 0.06004805490374565, -0.007303830701857805, -0.10958535224199295, -0.022983787581324577, 0.048872753977775574, 0.04701412469148636, -0.02267375774681568, 0.044982459396123886, -0.04988739266991615, 0.056281473487615585, -0.0019093016162514687, -0.026899302378296852, 0.040893811732530594, 0.056465160101652145, -0.0430162250995636, -0.03665217384696007, 0.14487318694591522, 0.055017195641994476, -0.08851928263902664, 0.006674368400126696, -0.013258577324450016, -0.002864428097382188, -0.014507397077977657, 0.003550044959411025, 0.037897903472185135, -0.00043414367246441543, 0.05167924985289574, 0.09439150243997574, -0.04094516485929489, 0.010410577058792114, 0.024280693382024765, -0.0009463152382522821, 0.024922648444771767, -0.008099707774817944, 0.004966221749782562, -0.02263324148952961, -0.035818733274936676, 0.022013431414961815, -0.04879019409418106, -0.00035220038262195885, -0.029585570096969604, 0.026904763653874397, -0.06690232455730438, -0.08306801319122314, 0.02724592387676239, -0.039156608283519745, -0.009247834794223309, 0.01277796272188425, -0.007984083145856857, -0.09269670397043228, -0.04055383428931236, 0.03216743841767311, -0.051175013184547424, 0.03690170496702194, -0.05391599237918854, 0.026141269132494926, 0.01052147801965475, 0.0060959793627262115, 0.043981265276670456, -0.008617724291980267, -0.029483219608664513, 0.029718555510044098, 0.06340880692005157, 0.06591688096523285, 0.008891133591532707, 0.12033530324697495, 0.03753534331917763, -0.01767916977405548, -0.013877516612410545, -0.015558642335236073, 0.016800664365291595, 0.061989907175302505, -0.008644056506454945, -0.015564165078103542, 0.04497546702623367, 0.04139229655265808, -0.2526344060897827, -0.038899894803762436, -0.019841359928250313, 0.021180585026741028, -0.06904821842908859, -0.046100515872240067, 0.011292221024632454, -0.08487368375062943, 0.037049029022455215, 0.04255738481879234, 0.08018264919519424, -0.05086863413453102, 0.036540817469358444, 0.04557732120156288, 0.046057313680648804, -0.008951006457209587, 0.008199973963201046, 0.050462085753679276, -0.014778115786612034, 0.0027102951426059008, -0.019525635987520218, -0.00018610306142363697, -0.008803567849099636, -0.03948516771197319, 0.01420125737786293, 0.0008564481395296752, 0.16831780970096588, -0.07294408231973648, -0.01834496296942234, 0.0022684226278215647, 0.016181351616978645, 0.05899796262383461, 0.010766997933387756, -0.10691844671964645, 0.03048958256840706, -0.010748394764959812, -0.0006417376571334898, 0.04551517590880394, 0.06430093944072723, -0.008326169103384018, -0.0002830293378792703, 0.01680588908493519, 0.005578320473432541, -0.02653229609131813, 0.032030198723077774, -0.03525661304593086, -0.057320136576890945, 0.060619331896305084, -0.07082823663949966, 0.04061475768685341, 0.03089476190507412, -0.03540533035993576, -0.004956503864377737, -0.007617509458214045, 0.07381761074066162, -0.03390840068459511, -0.010473169386386871, 0.033998049795627594, -0.03374075889587402, -0.004601553548127413, -0.061852119863033295, 0.028631480410695076, 0.002732065739110112, 0.005405495408922434, 0.00709871668368578, -0.010266775265336037, -0.028078794479370117, -0.026822440326213837, -0.05935882776975632, 0.004402935970574617, -0.0033138126600533724, -0.0025175411719828844, -0.006479395087808371, -0.014831741340458393, -0.027224944904446602, -0.022232290357351303, -0.00447899429127574, 0.01982276886701584, 0.010063383728265762, -0.08699092268943787, 0.026187658309936523, -0.01675749570131302, 0.04855421558022499, 0.009809119626879692, 0.0004453855217434466, 0.0648549348115921, 0.023878464475274086, 0.06915419548749924, 0.025574078783392906, -0.02512180432677269, -0.0517914853990078, 0.011447169817984104, 0.045830994844436646, 0.002118194242939353, 0.05388149619102478, -0.05582902207970619, -0.2167654037475586, -0.03592931106686592, -0.01557489950209856, 0.02950446866452694, -0.04591913893818855, -0.02615993842482567, 0.03199421986937523, 0.04123431071639061, -0.049707598984241486, 0.021416345611214638, -0.07628300040960312, -0.036175597459077835, 0.013896940276026726, -0.03316463157534599, 0.0520307682454586, 0.013780854642391205, 0.009544038213789463, -0.04907505586743355, -0.05887909233570099, -0.06757055968046188, 0.011785231530666351, -0.06308061629533768, 0.14307060837745667, -0.045259956270456314, -0.07405732572078705, 0.03886890411376953, 0.024940095841884613, 0.05573064461350441, 0.06635277718305588, 0.01858738251030445, -0.028308404609560966, -0.02136838249862194, 0.0406460240483284, -0.016124548390507698, 0.05788487195968628, -0.04180704057216644, -0.053943052887916565, -0.009297429583966732, -0.004847860429435968, -0.009366851300001144, -0.0753353089094162, -0.02323814295232296, -0.009061047807335854, -0.07239736616611481, 0.05477804318070412, -0.014665991999208927, -0.07784376293420792, 0.03490441292524338, -0.056906603276729584, 0.05997438356280327, -0.07009082287549973, -0.03424219787120819, -0.024965258315205574, -0.0004475913301575929, -0.013315058313310146, 0.017520679160952568, -0.07435102015733719, -0.002098577795550227, 0.049424707889556885, 0.05243125930428505, -0.0007274287636391819, -0.0330854170024395, 0.07311669737100601, 0.03417051583528519, 0.0004186296137049794]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>providing_sponsored_services_underprivileged_communities</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Ummm, maybe letting customers to nominate people who we know need assistance (like a phone &amp; connection, or a device) and then one.nz could select a person a week/ month to sponsor or support- many people don’t have the financial means to access what myself and others enjoy…. it would be great to use some of the organization’s profit to community in that way.  Not just one.nz but every big commercial company.  Just a thought.\nReason for given NPS: I haven’t had any problems- which is a good sign that I am getting the service I want']</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>[0.030010292306542397, -0.03327015042304993, -0.01891683228313923, -0.008553521707654, 0.08090624958276749, -0.03132082149386406, -0.061071764677762985, 0.008445130661129951, -0.04805797338485718, -0.0077644106931984425, 0.04856060817837715, 0.004692478571087122, -0.0015903384191915393, -0.011895719915628433, 0.0667034164071083, 0.028978535905480385, 0.04272099956870079, 0.08049046248197556, -0.004841682035475969, 0.01476864144206047, 0.01372723188251257, -0.05684110149741173, -0.03422785550355911, -0.0324215330183506, 0.06392425298690796, -0.00020224612671881914, -0.08199987560510635, -0.027585886418819427, -0.046453118324279785, -0.07918563485145569, 0.052383843809366226, -0.005347844213247299, 0.05611063912510872, 0.03330080583691597, 0.037833694368600845, -0.02126869186758995, 0.02443057857453823, -0.019692789763212204, -0.0652015209197998, 0.03180723637342453, 0.0174596905708313, -0.019326211884617805, -0.05134182795882225, 0.03399071842432022, -0.040032364428043365, -0.03180617094039917, 0.027728356420993805, -0.021420376375317574, -0.05060071498155594, -0.06124088913202286, 0.04534630477428436, 0.004814134445041418, -0.032073792070150375, 0.038233913481235504, -0.011216179467737675, 0.007147106342017651, 0.016951503232121468, -0.0052508083172142506, -0.019583262503147125, 0.03730945289134979, 0.026650741696357727, 0.024339275434613228, -0.15936821699142456, 0.04974393919110298, 0.013373244553804398, 0.036754414439201355, 0.02114914543926716, -0.007710051257163286, -0.015127607621252537, -0.02640010043978691, -0.009342769160866737, 0.006109141744673252, -0.02743997611105442, 0.02686673402786255, 0.0463324636220932, 0.039394788444042206, 0.014929297380149364, 0.031059985980391502, -0.04001104086637497, -0.006966663058847189, 0.039933111518621445, -0.020676931366324425, 0.008359193801879883, 0.03173219412565231, -0.04406154155731201, -0.02479184791445732, 0.06160861998796463, -0.017145337536931038, 0.027774829417467117, 0.024264611303806305, 0.01257651299238205, 0.020408526062965393, 0.014223115518689156, 0.015076771378517151, -0.05534457042813301, -0.03316681832075119, -0.0020978867541998625, -0.058216799050569534, -0.09316062182188034, 0.3847629129886627, -0.01713794656097889, 0.018566280603408813, 0.06057240441441536, -0.05860816687345505, 0.012700625695288181, -0.07745315134525299, 0.004795013461261988, -0.010645884089171886, 0.023465802893042564, 0.039418429136276245, -0.05561633035540581, -0.014620240777730942, 0.058008283376693726, -0.009883043356239796, -0.016036834567785263, 0.01774940825998783, -0.03329326957464218, 0.057402826845645905, 0.006222830619663, -0.03608885779976845, -0.02750002034008503, -0.01877046562731266, 0.007932126522064209, -0.02716994844377041, -0.002452365355566144, -0.004374283831566572, -0.0028781583532691, 0.07597046345472336, 0.030589858070015907, 0.020420176908373833, -0.07316659390926361, 0.00531308026984334, 0.0014282235642895103, 0.004106298554688692, 0.0067303115501999855, -0.054995883256196976, 0.023975137621164322, 0.01020849496126175, 0.015544255264103413, 0.10001036524772644, 0.024269428104162216, -0.006206458434462547, -0.04232143983244896, -0.09338314831256866, -0.016248559579253197, 0.04160270839929581, -0.0028922446072101593, 0.07903497666120529, 0.0028260606341063976, 0.018591037020087242, -0.003948231693357229, 0.030078871175646782, -0.054599203169345856, -0.015490845777094364, -0.009977986104786396, -0.0027834817301481962, 0.045941658318042755, -0.026039062067866325, -0.013270729221403599, 0.049833279103040695, 0.02949569933116436, -0.08304376155138016, 0.0034167878329753876, 0.08148869127035141, 0.014292605221271515, -0.1199961006641388, -0.06603844463825226, -0.004796164110302925, -0.03373738005757332, 0.010471212677657604, -0.023287203162908554, 0.011992952786386013, 0.020012246444821358, 0.020915018394589424, 0.10375651717185974, -0.001794362673535943, -0.08969209343194962, 0.012720316648483276, -0.043676573783159256, -0.0005303854704834521, 0.025740092620253563, 0.009002955630421638, -0.04438849538564682, 0.003190381685271859, -0.023361535742878914, -0.02769027277827263, -0.030836790800094604, 0.009823153726756573, -0.045906223356723785, -0.04172118008136749, -0.09186926484107971, -0.015786942094564438, -0.08066470175981522, -0.04297391325235367, 0.04851216822862625, -0.004945633001625538, 0.01929682120680809, -0.035307325422763824, 0.06077514961361885, 0.028396235778927803, -0.014620214700698853, 0.01671498641371727, -0.07205365598201752, 0.025062594562768936, -0.039015840739011765, 0.01308982353657484, 0.024770399555563927, -0.00906088575720787, 0.05710852891206741, -0.045755863189697266, -0.001300731673836708, 0.02325592376291752, 0.08306294679641724, 0.03203660994768143, 0.018623003736138344, 0.046919818967580795, 0.016549788415431976, 0.03905563801527023, 0.06807579845190048, 0.00275226216763258, 0.019190164282917976, 0.10529932379722595, -0.010503878816962242, -0.3121827244758606, -0.030445927754044533, -0.03514420613646507, 0.00334970117546618, -0.08694372326135635, 0.013065540231764317, 0.03916716203093529, 0.016234656795859337, -0.061284273862838745, 0.10603164881467819, 0.08703320473432541, -0.020945796743035316, 0.0061222561635077, 0.09081950038671494, 0.01230676006525755, -0.003003963502123952, -0.06024659052491188, 0.02879655733704567, 0.007872487418353558, 0.0005806079716421664, 0.01978599652647972, 0.02794003300368786, 0.10121745616197586, 0.010751032270491123, 0.034556835889816284, 0.056968968361616135, 0.1329580545425415, 0.021851737052202225, -0.03414604067802429, -0.06000250577926636, 0.022201234474778175, 0.0332966111600399, -0.030245736241340637, -0.07008278369903564, -0.02802247926592827, 0.021100202575325966, -0.005997065920382738, 0.033489856868982315, -0.02805551514029503, -0.012458241544663906, -0.02899119071662426, 0.05276283621788025, -0.03635331988334656, -0.029292376711964607, -0.015546323731541634, -0.011333057656884193, 0.002079302677884698, 0.044873591512441635, -0.05308283120393753, -0.021683812141418457, -0.034065600484609604, -0.03884526714682579, 0.049056801944971085, 0.08630087226629257, 0.04437867924571037, 0.004013060126453638, -0.05039949715137482, 0.03921904042363167, -4.737827111966908e-05, -0.005141743924468756, 0.04662047699093819, -0.005187916569411755, 0.027698423713445663, -0.053939975798130035, 0.09468340873718262, -0.018243679776787758, -0.044677603989839554, 0.038196906447410583, -0.03322909399867058, 0.04344746842980385, -0.06820414215326309, 0.004926573019474745, -0.03117424063384533, -0.02944924309849739, -0.0051341247744858265, 0.0006614261073991656, -0.011658870615065098, -0.01844608597457409, -0.03464348614215851, -0.004874508827924728, 0.08447547256946564, 0.022135747596621513, 0.003979915287345648, -0.04149332642555237, -0.042410317808389664, 0.042860645800828934, -0.07055561989545822, 0.02849603444337845, -0.00710597587749362, -0.006837043911218643, 0.006381136830896139, 0.05920980125665665, -0.049348410218954086, 0.03459104150533676, 0.053152892738580704, -0.02632948011159897, -0.279878705739975, -0.029079129919409752, 0.02744358405470848, -0.07520399242639542, -0.039275579154491425, -0.0013897025492042303, 0.04783990979194641, -0.01973605342209339, -0.06742502748966217, 0.0018184331711381674, 0.05797165632247925, 0.07254014164209366, 0.011256477795541286, -0.018831048160791397, 0.05800488218665123, -0.011057117022573948, 0.00302057689987123, -0.02968909777700901, -0.03138015419244766, -0.06835760176181793, 0.051753439009189606, 0.02713390439748764, 0.16964012384414673, -0.01374323945492506, -0.031039709225296974, 0.042746301740407944, -0.03268269822001457, -0.0072578201070427895, 0.006813465617597103, 0.019992563873529434, -0.035859812051057816, 0.007807287387549877, 0.0012559499591588974, 0.019496040418744087, 0.01425231620669365, -0.009254592470824718, -0.027389446273446083, -0.04273681342601776, 0.014273246750235558, 0.030474111437797546, -0.04180647060275078, 0.03176916390657425, 0.010740242898464203, 3.1512863643001765e-05, 0.02028787136077881, -0.015790455043315887, 0.01489200722426176, -0.03437906131148338, 0.01083734817802906, 0.05604337155818939, 0.001912563107907772, -0.06285686790943146, 0.033650800585746765, 0.0019838609732687473, 0.02949383482336998, 0.01619756780564785, -0.06717076897621155, 0.02789163962006569, 0.04972640052437782, -0.02958454005420208, -0.018188348039984703, -0.04791547730565071, -0.016159864142537117, 0.022419923916459084, 0.009873838163912296]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>need_guidance_on_fiber_optic_availability</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Information on fibre and and how to get it sorted to improve on what we have now\nReason for given NPS: Costly and slow Internet, not on fibre']</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>[-0.02740435302257538, -0.04984288290143013, 0.009101847186684608, -0.0275366622954607, 0.0345621332526207, 0.004430874716490507, -0.042877793312072754, 0.049808453768491745, -0.035076312720775604, 0.0006162255303934216, 0.04029230400919914, -0.06387609988451004, 0.023360025137662888, -0.0017736215377226472, 0.04814719408750534, 0.04419111832976341, 0.0649590864777565, -0.07536744326353073, 0.01537497527897358, 0.011056328192353249, 0.10247534513473511, -0.04160342365503311, -0.04545498639345169, -0.0264159943908453, -0.05211241915822029, -0.004570329561829567, 0.036051325500011444, -0.05934371054172516, -0.07734423875808716, -0.12099753320217133, -0.02938958816230297, -0.028584348037838936, 0.010583890601992607, 0.02693622000515461, 0.010420996695756912, -0.0745198056101799, -0.0011019280645996332, -0.04711325839161873, -0.0246769730001688, 0.03054383024573326, 0.0411185584962368, 0.01320794876664877, -0.0721677839756012, 0.025611957535147667, -0.011343635618686676, -0.04756644740700722, 0.0323319137096405, -0.02221774309873581, 0.04864390939474106, -0.019445359706878662, -0.03383760154247284, 0.0018236989853903651, -0.015980415046215057, -0.07551907002925873, 0.013510318472981453, 0.08221599459648132, 0.040530651807785034, -0.011933094821870327, 0.051354240626096725, -0.010088685899972916, 0.027501346543431282, -0.0006189059349708259, -0.16705064475536346, 0.004528275225311518, 0.0410955473780632, 0.013631525449454784, 0.007028056308627129, -0.07439392060041428, 0.042580291628837585, -0.0026494241319596767, -0.0035799609031528234, 0.030309412628412247, -0.04579511284828186, 0.04701713100075722, 0.014879241585731506, 0.004535262007266283, 0.08016226440668106, -0.0003799734404310584, 0.03583667799830437, 0.048947516828775406, 0.023667417466640472, -0.002823946299031377, -0.005068325903266668, -0.02607131376862526, 0.00676173809915781, -0.03724804148077965, -0.025853578001260757, 0.029187999665737152, -0.03241598233580589, 0.009757481515407562, -0.029570240527391434, -0.021970342844724655, 0.00257304310798645, -0.0013723387382924557, -0.058026041835546494, -0.03830738365650177, 0.03053848259150982, -0.01479171123355627, -0.03974641487002373, 0.36621007323265076, 0.03808469697833061, -0.030407201498746872, 0.02873345836997032, 0.028142714872956276, 0.06038818880915642, -0.025218848139047623, -0.011226831935346127, 0.030773134902119637, 0.014042957685887814, -0.004551403224468231, 0.0073853726498782635, -0.04297708719968796, 0.06037537008523941, 0.026668313890695572, 0.02200794778764248, 0.08064770698547363, -0.051309555768966675, -0.030221087858080864, 0.022445863112807274, 0.005352676380425692, -0.0318637415766716, -0.014587417244911194, 0.0641179233789444, 0.001204444095492363, 0.0633382722735405, -0.06144885718822479, 0.018513698130846024, 0.06808921694755554, 0.029085813090205193, 0.09388245642185211, -0.023487407714128494, -0.03066496178507805, -9.946361387846991e-05, -0.009237630292773247, 0.004276311490684748, 0.02258356660604477, 0.05667879804968834, -0.014297590591013432, 0.04778237268328667, 0.026116255670785904, -0.03952432796359062, -0.0608128197491169, 0.059516143053770065, -0.036368343979120255, 0.055679913610219955, 0.10171221941709518, -0.04989073425531387, 0.06909707188606262, -0.0577947236597538, -0.08894998580217361, 0.013171670958399773, 0.029551217332482338, 0.01835557445883751, -0.0415339395403862, -0.02831852249801159, 0.02576267160475254, 0.04076733812689781, -0.007676934357732534, -0.03537915647029877, 0.028694046661257744, 0.010437938384711742, -0.07458030432462692, -0.04448290169239044, 0.08141261339187622, -0.029272036626935005, -0.04066959396004677, -0.05943705886602402, 0.022659907117486, -0.018495848402380943, 0.005328976549208164, -0.007417566142976284, 0.005212919786572456, 0.03593738377094269, -0.004197000525891781, 0.032109346240758896, -0.0357045903801918, -0.06956847012042999, 0.04012635722756386, -0.0361664742231369, 0.020902540534734726, 0.030891085043549538, -0.028585700318217278, -0.012115025892853737, 0.0234526339918375, 0.02730783261358738, -0.034215621650218964, -0.0445999801158905, -0.03632928431034088, -0.009220470674335957, -0.05103018879890442, -0.11120447516441345, -0.06578755378723145, -0.051065072417259216, 0.015523923560976982, 0.01582033932209015, 0.006587529554963112, -0.06095148250460625, 0.016180604696273804, -0.018795115873217583, -0.04419626668095589, 0.09644103050231934, -0.04709668457508087, -0.03732641041278839, 0.04204709455370903, -0.038448020815849304, 0.022678786888718605, 0.02334875427186489, 0.024576714262366295, 0.014056346379220486, 0.007410997990518808, 0.004958819597959518, -0.016853956505656242, 0.10152147710323334, -0.0026504641864448786, -0.060517631471157074, -0.047562167048454285, -0.023932766169309616, 0.03904839605093002, 0.005789290182292461, 0.07701198011636734, 0.044919420033693314, 0.04027184098958969, -0.03538043051958084, -0.31039875745773315, 0.01170372311025858, -0.03052419237792492, 0.018184008076786995, 0.03717498853802681, -0.008372807875275612, 0.025880996137857437, 0.01301226019859314, -0.05527431517839432, 0.05972453951835632, 0.07444535195827484, 0.017415044829249382, 0.030693840235471725, -0.023911500349640846, -0.02636377513408661, -0.010918546468019485, 0.015939397737383842, -0.03874460607767105, -0.04892335459589958, -0.005288765300065279, -0.022073762491345406, 0.06461411714553833, -0.0681862160563469, -0.026420360431075096, 0.009758805856108665, 0.02649003639817238, 0.17373549938201904, -0.036390405148267746, -0.007806191686540842, -0.07918377965688705, 0.036186590790748596, 0.05408839136362076, -0.050156593322753906, -0.07322650402784348, 0.044212836772203445, 0.05284212529659271, -0.031431809067726135, 0.007655597757548094, -0.0012912368401885033, 0.009004607796669006, 0.04538538306951523, 0.038284458220005035, -0.027509137988090515, -0.004365765489637852, -0.010614929720759392, -0.0565204843878746, 0.008143650367856026, 0.059633128345012665, -0.06301438063383102, 0.02461436204612255, 0.019745301455259323, -0.050851091742515564, 0.004656281787902117, 0.03178054466843605, -0.004079819191247225, 0.0008712729904800653, -0.02795896679162979, 0.022391226142644882, 0.010691387578845024, -0.03428107500076294, 0.03464401885867119, 0.029636843129992485, 0.022225478664040565, -0.049177058041095734, 0.08044669777154922, 0.012315451167523861, 0.009372405707836151, 0.009352113120257854, 0.04460509866476059, 0.033949896693229675, 0.01486209873110056, 0.0017711567925289273, -0.014681425876915455, 0.05019301548600197, 0.02635084092617035, -0.03045414760708809, -0.027968747541308403, -0.023798825219273567, 0.054961640387773514, -0.06958310306072235, 0.12077862024307251, -0.01816537417471409, 0.026579007506370544, 0.009678760543465614, 0.05530385300517082, 0.026416946202516556, -0.0021311910822987556, -0.0006755521753802896, 0.03674060106277466, 0.017321068793535233, -0.034260161221027374, -0.016493402421474457, -0.04861573502421379, -0.06724679470062256, 0.052838463336229324, -0.010243105702102184, -0.2902400493621826, 0.007506055757403374, 0.05087237060070038, -0.018024275079369545, -0.05547785758972168, 0.015660319477319717, 0.07846072316169739, -0.020659081637859344, -0.06037495285272598, 0.05078533664345741, -0.05177468806505203, 0.021182984113693237, -0.06574129313230515, -0.022720640525221825, 0.026285182684659958, 0.019123204052448273, 0.04240018129348755, -0.017256809398531914, -0.04939109832048416, -0.057294100522994995, 0.06250787526369095, 0.00863225944340229, 0.12365223467350006, -0.0067947180941700935, 0.009854747913777828, 0.02694752626121044, -0.0066015166230499744, 0.030932139605283737, 0.006724983919411898, -0.0018304706318303943, 0.01643461547791958, 0.007197703700512648, 0.04030579328536987, -0.05767868831753731, 0.02623949944972992, -0.00025050604017451406, -0.020201900973916054, -0.028220131993293762, 0.03867971524596214, -0.04104160517454147, -0.001675881096161902, 0.037949852645397186, -0.05074060708284378, -0.016037916764616966, 0.0883636325597763, -0.029952216893434525, -0.013805987313389778, 0.02648526430130005, -0.02953939139842987, -0.0426059253513813, 0.004412143956869841, 0.02117391675710678, 0.0627528578042984, 0.005252052564173937, -0.011697066947817802, 0.022341476753354073, -0.02211710438132286, -0.012233659625053406, -0.013663453981280327, -0.003938392736017704, 0.02568703703582287, -0.039735760539770126, 0.019620271399617195, -0.0007098850328475237, 0.039954908192157745]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>proactive_account_management_assistance</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Be proactive in managing accounts, setup yearly reviews or make it easy to do it myself online.\n\nGenerally I can save money when I get someone on the phone but it’s at my behest and not something I can just check online.\nReason for given NPS: I have no major issues when everything is working (which it generally is) but when things change the back end systems can be unforgiving and can be frustrating to fix.']</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>[-0.02200639434158802, -0.018086809664964676, 0.06855323910713196, -0.04221690446138382, -0.029505738988518715, -0.01170905027538538, 0.06221863627433777, 0.016411591321229935, -0.02848663739860058, -0.04719923064112663, 0.004359587095677853, -0.0014411486918106675, -0.008749976754188538, -0.00878092646598816, 0.01757790334522724, 0.03491318225860596, 0.014955843798816204, 0.04473942518234253, -0.006975533440709114, 0.022239867597818375, -0.01720019243657589, -0.016173550859093666, -0.02447172999382019, 0.02506992779672146, 0.004438673611730337, 0.013235068880021572, 0.00029843125957995653, 0.013810483738780022, -0.08978482335805893, -0.10359838604927063, 0.003989542368799448, -0.07836660742759705, 0.02622743509709835, 0.02244606427848339, 0.023845482617616653, 0.013975447043776512, -0.07787258923053741, 0.05858822911977768, -0.010072793811559677, -0.014993665739893913, 0.0082722008228302, 0.0232020802795887, -0.05575239658355713, -0.024925008416175842, 0.02507876232266426, -0.01933801919221878, 0.05562352389097214, -0.0012111434480175376, -0.0029307673685252666, -0.012507797218859196, 0.022129256278276443, -0.04005558788776398, -0.00701854657381773, 0.04924294725060463, 0.057479266077280045, 0.03983939066529274, 0.040646351873874664, 0.004923967178910971, -0.03243718296289444, 0.010166747495532036, 0.04121023416519165, 0.03817024081945419, -0.14947491884231567, 0.06043980270624161, -0.04133705422282219, 0.003940980415791273, 0.04845939204096794, -0.026063892990350723, 0.00325943436473608, 0.00171477603726089, -0.06532827764749527, -0.03496972471475601, -0.05458040162920952, 0.031263239681720734, 0.005720359738916159, 0.019676165655255318, 0.024960333481431007, -0.007361465133726597, 0.013238511979579926, 0.06180303171277046, -0.01175631582736969, 0.0459902361035347, -0.024062415584921837, -0.013074246235191822, -0.02820475399494171, -0.003221644787117839, -0.014570008032023907, 0.022053539752960205, 0.0605490580201149, -0.03176852688193321, -0.0020775599405169487, 0.03669188544154167, 0.012748430483043194, -0.00434107007458806, -0.015730522572994232, -0.06697653234004974, 0.04316367954015732, 0.02718476578593254, -0.09786245971918106, 0.3916228413581848, -0.026903202757239342, 0.03715713694691658, -0.013983115553855896, -0.07751881331205368, 0.02949894219636917, -0.05210570991039276, -0.012246904894709587, 0.03192345052957535, -0.010528650134801865, -0.05322819575667381, -0.03151509538292885, -0.031897906213998795, 0.047891415655612946, -0.040081631392240524, 0.044870901852846146, 0.11974383890628815, -0.0020577574614435434, -0.013861763291060925, -0.01280501764267683, -0.0017935485811904073, 0.053195927292108536, 0.007675372064113617, 0.046257514506578445, 0.02850664034485817, -0.04846048355102539, -0.04219691455364227, 0.031239431351423264, 0.1118026077747345, -0.0035313901025801897, 0.04743484780192375, 0.05827539041638374, 0.016934430226683617, -0.07920737564563751, -0.03871569037437439, 0.0004842168709728867, -0.048864781856536865, 0.0085226371884346, -0.017695631831884384, 0.04702436551451683, 0.043480291962623596, -0.04740360751748085, -0.010065524838864803, 0.004308053757995367, -0.1222679540514946, -0.030802279710769653, 0.12537367641925812, -0.008976399898529053, -0.0013996338238939643, -0.031661007553339005, -0.05227162688970566, -0.0074872225522994995, 0.01903902180492878, 0.025915823876857758, -0.0420454666018486, -0.008781366050243378, 0.03134933114051819, 0.07447832077741623, -0.021886669099330902, -0.0032339009921997786, 0.044933103024959564, -0.020351089537143707, -0.07754401862621307, 0.004864479415118694, 0.03594795614480972, 0.04395837336778641, -0.10552439838647842, 0.009101690724492073, -0.04556651413440704, -0.03766530752182007, 0.008935395628213882, -0.030741488561034203, -0.01689774915575981, -0.04069297015666962, -0.011959080584347248, 0.05278343707323074, -0.001057957299053669, 0.007493259850889444, -0.03370685875415802, -0.02674446627497673, 0.004031759221106768, 0.019628126174211502, -0.05710892006754875, 0.012393835000693798, -0.04269109293818474, -0.03352253884077072, -0.01065936777740717, -0.028270095586776733, -0.0675082877278328, 0.03913605585694313, -0.053473200649023056, -0.04428814351558685, -0.03475930169224739, -0.05359053984284401, -0.04082213714718819, -0.024293940514326096, -0.01824180968105793, -0.07407905906438828, -0.04921726882457733, -0.02014557085931301, -0.009468680247664452, 0.09936872869729996, 0.024844296276569366, -0.026666132733225822, 0.003473744262009859, 0.04337306693196297, 0.062282755970954895, -0.06374901533126831, 0.010245608165860176, 0.1038433313369751, 0.001974385930225253, -0.010772444307804108, -0.016284430399537086, 0.0662340521812439, 0.016087191179394722, 0.038236185908317566, 0.012850018218159676, 0.00779064791277051, 0.0537133514881134, -0.010600211098790169, 0.02834625355899334, 0.04637330025434494, 0.07446001470088959, 0.0409633032977581, -0.30478236079216003, 0.04517219960689545, -0.06659753620624542, 0.01679273135960102, -0.10832729190587997, 0.002893660683184862, 0.07338223606348038, -0.023069411516189575, -0.025997402146458626, 0.02146471105515957, 0.07845450192689896, -0.02064468525350094, 0.008329774253070354, 0.02109324187040329, 0.08190512657165527, 0.04949904605746269, -0.013448124751448631, -0.004549082368612289, -0.010753885842859745, -0.036653921008110046, -0.06285285204648972, -0.01479333732277155, 0.07366756349802017, 0.05127006024122238, 0.03025626763701439, 0.031261980533599854, 0.14282174408435822, -0.06469650566577911, -0.040179088711738586, -0.01612064242362976, -0.014513688161969185, 0.03533053398132324, -0.05790533497929573, -0.14964626729488373, 0.037619199603796005, -0.012800285592675209, -0.04258508235216141, -0.0028859765734523535, 0.03018924966454506, -0.03955557569861412, -0.03431880846619606, 0.030194509774446487, -0.006970138754695654, -0.0334816612303257, -0.026649903506040573, 0.012407983653247356, 0.006151946727186441, 0.008799207396805286, -0.0227940883487463, 0.006096420343965292, -0.023837385699152946, 0.050572872161865234, 0.031418271362781525, 0.03611760586500168, 0.01504813227802515, -0.03460146114230156, -0.04540205001831055, 0.08552572131156921, -0.016458261758089066, 0.036417655646800995, 0.0147551279515028, -0.03143307566642761, -0.02429511956870556, -0.007339272648096085, 0.038885634392499924, -0.022425375878810883, -0.06488160789012909, -0.008512849919497967, 0.029383666813373566, 0.03226211294531822, -0.02240382507443428, -0.02479235827922821, -0.012804372236132622, 0.018881287425756454, -0.025257134810090065, -0.01321069709956646, 0.05189645290374756, -0.03505275771021843, -0.03351704031229019, -0.04406151920557022, 0.018053825944662094, -0.030441151931881905, 0.027486814185976982, 0.020252015441656113, -0.01569334790110588, 0.049199774861335754, -0.006910836324095726, -0.0017915640491992235, 0.022380555048584938, -0.007516097277402878, 0.00879568513482809, 0.020305482670664787, -0.05117053911089897, 0.02025383524596691, 0.07394930720329285, -0.0054770102724432945, -0.2442815899848938, 0.006422361824661493, -0.018844502046704292, -0.047813355922698975, -0.024738825857639313, 0.06666213274002075, -0.008407562039792538, 0.013377394527196884, -0.03429233282804489, -0.008588453754782677, 0.026436805725097656, 0.041933927685022354, -0.009175329469144344, 0.0021097715944051743, 0.014101794920861721, 0.005231259856373072, 0.019004138186573982, -0.06627509742975235, 0.050889886915683746, -0.0680890902876854, 0.06983999907970428, 0.0028090032283216715, 0.173407644033432, -0.00058140535838902, 0.008983658626675606, -0.0023258791770786047, 0.07085024565458298, -0.014004534110426903, 0.07728870213031769, 0.016780132427811623, 0.013980747200548649, -0.010935929603874683, 0.04145875945687294, 0.020136704668402672, 0.06620769947767258, 0.0010598850203678012, 0.016340527683496475, 0.08893436193466187, 0.0034518735483288765, -0.0027709328569471836, -0.032983291894197464, -0.002717935713008046, -0.015932507812976837, -0.0032740880269557238, 0.06331847608089447, -0.021406982094049454, -0.015124611556529999, -0.03828947991132736, 0.00546265160664916, -0.006900454871356487, 0.011740215122699738, -0.0668928399682045, 0.028581740334630013, 0.024507634341716766, 0.047448307275772095, -0.013546813279390335, -0.0228279959410429, -0.0051712775602936745, -0.02159777842462063, 0.031104974448680878, 0.019937844946980476, 0.016830936074256897, 0.04110086336731911, -0.08989688009023666, 0.01276613213121891]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ease_of_conducting_yearly_plan_reviews</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Be proactive in managing accounts, setup yearly reviews or make it easy to do it myself online.\n\nGenerally I can save money when I get someone on the phone but it’s at my behest and not something I can just check online.\nReason for given NPS: I have no major issues when everything is working (which it generally is) but when things change the back end systems can be unforgiving and can be frustrating to fix.']</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>[-0.019437294453382492, 0.010323182679712772, 0.04421146586537361, 0.04528907313942909, -0.024749500676989555, 0.02734834887087345, -0.03482012823224068, 0.04747907444834709, -0.005102550610899925, 0.013214953243732452, -0.05580306425690651, 0.1048426702618599, 0.015132465399801731, 0.012375681661069393, -0.005165054462850094, -0.04304321110248566, 0.02348952740430832, -0.01598690077662468, 0.005831895396113396, -0.0057957228273153305, 0.06026327237486839, 0.04138270020484924, -0.010186817497015, 0.02518594264984131, -0.027032937854528427, 0.032764848321676254, -0.03232041746377945, -0.06764639168977737, -0.09879791736602783, -0.13546600937843323, 0.018604565411806107, -0.015370979905128479, 0.023256627842783928, 0.003022192744538188, -0.001983103808015585, 0.04156413674354553, 0.006004909984767437, 0.008931715041399002, -0.0382036529481411, 0.045330215245485306, -0.011716695502400398, 0.07684014737606049, -0.009703047573566437, -0.02827329747378826, -0.013042139820754528, -0.038980867713689804, 0.021639466285705566, -0.02454230561852455, -0.014114122837781906, 0.016939736902713776, -0.009502298198640347, -0.02614670991897583, 0.004328284878283739, -0.016720466315746307, 0.00793017540127039, 0.03815818950533867, -0.022373413667082787, 0.006688024383038282, 7.860962796257809e-05, 0.00610897084698081, 0.023774290457367897, 0.020743977278470993, -0.14813455939292908, 0.00018499059660825878, -0.04454352334141731, 0.009570050984621048, -0.04805436730384827, 0.017401577904820442, -0.07120152562856674, 0.030297202989459038, -0.025332201272249222, -0.02636227384209633, 0.011145154014229774, 0.02834963984787464, -0.007108466699719429, 0.009941000491380692, 0.023956317454576492, -0.018692011013627052, 0.0027153980918228626, 0.02010512910783291, -0.02145223878324032, 0.02032037451863289, -0.02815748006105423, -0.014485947787761688, 0.009341812692582607, -0.04966661334037781, -0.024903900921344757, 0.00712232943624258, 0.10618942230939865, -0.0007266123429872096, 0.030605319887399673, -0.021322721615433693, 0.008610555902123451, 0.020593276247382164, -0.01956329308450222, -0.007926387712359428, 0.015781208872795105, -0.036279287189245224, -0.10042459517717361, 0.3434811234474182, -0.020210009068250656, 0.06894069910049438, -0.017552854493260384, -0.012768971733748913, -0.001001229858957231, -0.058969635516405106, -0.004699666518718004, -0.04252466931939125, 0.01896023564040661, -0.0012168502435088158, -0.04772055149078369, -0.01877753995358944, 0.048702172935009, -0.01383842620998621, -0.016878675669431686, 0.0731302946805954, 0.0039329519495368, 0.014929373748600483, 0.005028893705457449, -0.03839654102921486, 0.030330443754792213, -0.039373114705085754, 0.026484858244657516, 0.03519284352660179, 0.03878192976117134, 0.014848697930574417, 0.0774771049618721, 0.06797202676534653, 0.05917403846979141, 0.054846011102199554, 0.055491622537374496, -0.01865852065384388, -0.0888354480266571, 0.0633276104927063, -0.013421907089650631, -0.05364437401294708, -0.003919258248060942, 0.025187548249959946, 0.11491762101650238, 0.020220045000314713, -0.044859856367111206, -0.007585439365357161, -0.055858392268419266, -0.03487702086567879, -0.021943137049674988, 0.13606207072734833, -0.08498214930295944, 0.04849790781736374, 0.021977784112095833, -0.05805942788720131, -0.009909345768392086, 0.01458621583878994, 0.03449433669447899, -0.12992364168167114, 0.017519112676382065, 0.0036972942762076855, -0.012691285461187363, -0.01700606197118759, 0.014771493151783943, 0.04172927886247635, 0.03365864232182503, -0.024038197472691536, -0.040770769119262695, 0.05855872482061386, 0.025787286460399628, -0.06968197226524353, -0.0008905783761292696, -0.019223231822252274, -0.030597414821386337, 0.01771978661417961, -0.008758191019296646, 0.028934486210346222, -0.0314137265086174, 0.05857308581471443, 0.056758902966976166, -0.003862156765535474, 0.03474723547697067, 0.010731237009167671, 0.03771478682756424, -0.01777656003832817, 0.035679057240486145, 0.007064223755151033, -0.023370184004306793, 0.03159188851714134, 0.0037742573767900467, 0.00011885674757650122, -0.01043750997632742, -0.07092969119548798, 0.034579671919345856, -0.0035578880924731493, -0.040485601872205734, -0.02149866335093975, -0.002692586276680231, 0.06021295487880707, -0.019829867407679558, 0.033255960792303085, -0.013783005066215992, 0.015864459797739983, -0.014836860820651054, -0.00997435487806797, 0.019966229796409607, -0.033326491713523865, 0.014890863560140133, 0.026500988751649857, 0.07790815830230713, -0.015557806938886642, -0.020548049360513687, 0.007680858019739389, 0.11251642554998398, 0.058143891394138336, -0.07324425131082535, -0.049155157059431076, 0.08600437641143799, -0.033554207533597946, -0.019611164927482605, 0.07559237629175186, -0.0027112062089145184, 0.025922857224941254, 0.024314546957612038, -0.009654075838625431, 0.08150315284729004, 0.02494318038225174, 0.02597424015402794, -0.3038727641105652, -0.01003414299339056, 0.004530228674411774, 0.05003289878368378, -0.0059204306453466415, -0.07137447595596313, 0.014360050670802593, -0.04584753140807152, -0.03702378273010254, 0.10209404677152634, 0.05258547142148018, -0.009731550700962543, -0.011004968546330929, -0.032761212438344955, 0.03626488149166107, -0.004728210624307394, -0.006687242072075605, -0.004140360746532679, -0.009959427639842033, 0.01874149963259697, 0.05733911320567131, 0.005215355660766363, 0.02592235617339611, -0.07371934503316879, -0.03502456098794937, -0.019623396918177605, 0.17219005525112152, -0.12319116294384003, -0.016554733738303185, 0.007298298645764589, 0.011018945835530758, 0.04746834561228752, -0.0076661789789795876, -0.09836757183074951, -0.03427187725901604, 0.040089696645736694, -0.04237665235996246, 0.03648747131228447, 0.006215270143002272, -0.04126210883259773, 0.08989706635475159, 0.04749694839119911, -0.03841424360871315, -0.009472902864217758, -0.022055916488170624, -0.06187910959124565, 0.022717881947755814, 0.014845598489046097, -0.044649653136730194, -0.008812575601041317, 0.0014046619180589914, -0.08338890224695206, 0.07462117075920105, 0.044337838888168335, 0.03675434738397598, -0.04218151792883873, -0.05160322040319443, -0.01795894093811512, 0.03868270665407181, 0.005263740662485361, -0.035346467047929764, 0.004183415789157152, 0.049454204738140106, -0.04132828116416931, -0.010760840028524399, -0.004671071656048298, -0.007702984381467104, 0.0173738244920969, 0.007584497332572937, 0.0746011808514595, -0.03605489060282707, 0.023284634575247765, -0.0436054952442646, -0.012414430268108845, 0.019382834434509277, -0.007699369452893734, -0.06117989122867584, 0.031964268535375595, -0.02669871784746647, -0.07423307001590729, 0.02198668383061886, -0.023409834131598473, 0.04044821113348007, -0.00919067021459341, -0.026886941865086555, 0.04893485829234123, -0.03787624463438988, 0.004943899344652891, -0.030511466786265373, -0.01622188650071621, -0.03806331381201744, -0.009763968177139759, -0.07020004838705063, 0.07626893371343613, 0.047058477997779846, -0.016879204660654068, -0.2836158871650696, -0.017231294885277748, -0.04209776967763901, -0.04819275066256523, 0.049134980887174606, 0.02499108947813511, 0.011461219750344753, 0.030685273930430412, -0.027800993993878365, -0.01753576472401619, 0.0406620129942894, 0.04234719276428223, -0.050974998623132706, -0.02101348340511322, 0.01804116554558277, -0.006991721224039793, 0.06008043885231018, -0.05613899603486061, 0.04395890235900879, 0.01935173012316227, 0.06299327313899994, 0.01747518964111805, 0.16988548636436462, 0.029089581221342087, -0.04206358641386032, -0.015726039186120033, 0.013497216627001762, -0.02713605761528015, 0.013613459654152393, 0.006889008916914463, 0.0347231924533844, -0.06987173110246658, 0.0275846179574728, -0.03482041880488396, 0.018231967464089394, 0.028034139424562454, -0.012987947091460228, -0.01760243996977806, 0.004754665307700634, -0.03371419012546539, -0.03388870880007744, -0.01148727536201477, 0.010522175580263138, -0.005464556626975536, 0.06142155081033707, -0.03602588176727295, -0.021419983357191086, 0.0010139994556084275, -0.017472436651587486, -0.010482662357389927, -0.07088228315114975, -0.005933001171797514, -0.0036844646092504263, 0.0688546672463417, 0.03420116379857063, -0.00717015890404582, 0.03090602345764637, 0.03295992314815521, -0.02420283667743206, -0.10069262236356735, -0.02218730002641678, -0.061455994844436646, 0.06995853781700134, 0.06696554273366928, 0.021517446264624596]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>lack_of_proactive_status_updates</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>['Improvement needed: not having to call or email you for progress or update.  If I am told I will hear tomorrow, I either want to hear tomorrow that my query is done, or that my query is unresolved and still pending.\nReason for given NPS: We have moved twice in 6 months and the service was inefficient for booking, and unclear for the move']</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>[-0.07597111165523529, 0.003541031386703253, 0.028680993244051933, -0.00935302022844553, 0.001040795468725264, -0.010590347461402416, -0.06799338757991791, 0.01535146962851286, 0.019860055297613144, 0.014865170232951641, 0.033329904079437256, 0.030450301244854927, 0.017728395760059357, -0.0010064744856208563, -0.04367941617965698, 0.06128328666090965, 0.055439695715904236, -0.022361423820257187, -0.0005877411458641291, -0.019418809562921524, -0.01975499466061592, 0.027028052136301994, 0.01564035750925541, 0.050144582986831665, -0.06560215353965759, 0.07590916752815247, -0.03719721734523773, 0.00260210782289505, -0.08280713856220245, -0.11543124914169312, -0.028513144701719284, -0.037279292941093445, 0.01645384356379509, 0.0015492357779294252, 0.035882141441106796, -0.02668100968003273, -0.005768100265413523, 0.01690952107310295, 0.007214017678052187, 0.007065193727612495, 0.03439679369330406, 0.006394107360392809, -0.05859503895044327, -0.0017226741183549166, -0.012370946817100048, -0.033729929476976395, 0.008659066632390022, -0.01479300856590271, 0.052732303738594055, -0.06866242736577988, 0.0580650195479393, 0.059982944279909134, 0.01791350729763508, 0.006907249800860882, 0.04504551365971565, 0.008773287758231163, 0.049544427543878555, 0.07474870979785919, 0.007867618463933468, -0.009735962375998497, 0.031466539949178696, 0.0357210673391819, -0.155584454536438, 0.008962912485003471, 0.007166680879890919, -0.05843391641974449, -0.0005619672010652721, -0.11757470667362213, 0.0636901929974556, -0.018661344423890114, -0.02168494649231434, 0.034927379339933395, -0.010505419224500656, 0.11935970932245255, 0.01285256166011095, -0.049529463052749634, 0.026395276188850403, 0.08546431362628937, 0.06509228050708771, 0.020460693165659904, 0.00536973774433136, -0.01515078917145729, -0.053167566657066345, 0.0318075567483902, -0.022020185366272926, -0.028125610202550888, -0.00040229232399724424, 0.03687469661235809, 0.025944890454411507, -0.009884643368422985, -0.024016890674829483, 0.011487885378301144, 0.07043271511793137, 0.047635748982429504, -0.05132955685257912, 0.006622247863560915, -0.012914062477648258, 0.007346343714743853, -0.11398603022098541, 0.36279767751693726, -0.03783862292766571, 0.06605009734630585, -0.016124019399285316, 0.03446595370769501, 0.038384292274713516, -0.022335369139909744, -0.03117337077856064, 0.003828051732853055, -0.05793960019946098, -0.011270854622125626, -0.018730424344539642, 0.01119762472808361, 0.09433994442224503, -0.055310435593128204, 0.07180797308683395, 0.0530078187584877, 0.00031962868524715304, 0.02036111056804657, -0.030816731974482536, -0.019531013444066048, 0.011713942512869835, -0.005630447994917631, 0.10731974244117737, -0.006809120532125235, -0.03287636861205101, 0.04749586433172226, 0.035970162600278854, 0.06730280071496964, 0.024266162887215614, 0.09082414209842682, 0.01929619163274765, 0.05452987179160118, -0.005599464289844036, -0.0487554557621479, -0.0038637674879282713, -0.020495479926466942, 0.006300015840679407, 0.026297837495803833, 0.03671106696128845, 0.02152179926633835, -0.06327618658542633, -0.014142170548439026, 0.023455386981368065, -0.054254259914159775, -0.0201120525598526, 0.11080382764339447, -0.02401491068303585, 0.09407128393650055, -0.04023550823330879, -0.0074415048584342, -0.07718074321746826, 0.011604146100580692, 0.014926927164196968, 0.005647648591548204, 0.0014130064519122243, -0.019054003059864044, 0.019234761595726013, -0.0181875079870224, -0.029562747105956078, 0.012570234015583992, -0.0026467000134289265, -0.0660524070262909, -0.004864993505179882, 0.06841253489255905, -0.03205769509077072, 0.026560062542557716, 0.020328233018517494, -0.003561158198863268, -0.04114396125078201, 0.03587836027145386, 0.011686855927109718, 0.022012894973158836, 0.03049360029399395, -0.05085279047489166, 0.10734234750270844, -0.014915334060788155, -0.007967750541865826, 0.040518566966056824, 0.03964589163661003, -0.005107355769723654, 0.05087045207619667, -0.06260571628808975, -0.026628127321600914, 0.006357012782245874, -0.042201489210128784, -0.04111179709434509, 0.030558746308088303, 0.0029935413040220737, 0.05331035330891609, -0.01355962548404932, -0.08521238714456558, -0.12896546721458435, 0.022965040057897568, -0.055620864033699036, 0.010653458535671234, -0.013460854068398476, -0.03559812530875206, -0.02646821178495884, 0.020326249301433563, -0.03953636437654495, 0.07830685377120972, -0.01808226853609085, -0.02554256282746792, -0.05976642295718193, -0.03676286339759827, 0.011018345132470131, -0.04513810575008392, 0.014519324526190758, 0.08681140840053558, -0.02381945587694645, -0.009921246208250523, -0.0056322901509702206, 0.05746082589030266, -0.027462031692266464, -0.011765980161726475, -0.006983377505093813, -0.040612149983644485, 0.029718494042754173, 0.04508887976408005, 0.05194210261106491, 0.00975474901497364, 0.11162588745355606, 0.012235219590365887, -0.29083940386772156, 0.01406116597354412, -0.008609950542449951, -0.031127430498600006, -0.045924872159957886, -0.03242925927042961, 0.04227752611041069, 0.006331666372716427, -0.0006541372858919203, 0.044756338000297546, 0.028668535873293877, 0.011576058343052864, -0.0067696417681872845, 0.024164801463484764, 0.0006053972756490111, 0.012793419882655144, 0.011173824779689312, -0.028957339003682137, -0.006796649191528559, -0.05178823322057724, -0.01419163029640913, -0.03471699729561806, 0.004243894014507532, -0.08932112902402878, 0.02421359345316887, -0.0082333879545331, 0.0986865982413292, 0.016070721670985222, -0.0629730224609375, -0.046362824738025665, -0.01940077915787697, 0.07728149741888046, -0.04312175512313843, -0.15462800860404968, 0.04929929971694946, 0.021059304475784302, -0.011647463776171207, -0.01823463849723339, -0.007091559935361147, 0.02383219264447689, -0.02613585628569126, 0.05721912160515785, -0.017191778868436813, -0.058772630989551544, 0.02585097774863243, -0.06033255532383919, 0.07164184004068375, 0.05839182063937187, -0.022369366139173508, -0.030785836279392242, 0.040776368230581284, 0.04843432828783989, 0.05605513975024223, -0.007875283248722553, -0.028124092146754265, -0.035487763583660126, -0.05852523446083069, 0.06552305817604065, -0.005672769621014595, 0.052092038094997406, -0.0230471920222044, -0.013107981532812119, 0.00788109004497528, 0.000671400863211602, 0.05521206930279732, -0.041668858379125595, -0.03518708050251007, -0.0461476668715477, 0.03962423652410507, 0.049203962087631226, -0.052499037235975266, 0.042705241590738297, -0.04460885748267174, -0.051830075681209564, -0.015122071839869022, 0.022013666108250618, 0.055370256304740906, -0.04268311709165573, 0.03335563465952873, -0.03788045793771744, -0.043938640505075455, -0.011306156404316425, 0.010980244725942612, 0.03752760961651802, 0.000861724023707211, 0.031191907823085785, -0.011767948977649212, -0.014865693636238575, -0.01012150477617979, -0.027456510812044144, 0.031732674688100815, 0.010799421928822994, 0.037115588784217834, 0.003380522597581148, 0.11368416994810104, 0.0322645902633667, -0.22015026211738586, -0.0499233677983284, 0.05004185810685158, -0.08197431266307831, -0.0474272221326828, 0.058479566127061844, -0.0029724992346018553, -0.023588307201862335, -0.09643446654081345, -0.03939248248934746, 0.011827368289232254, 0.014611849561333656, -0.04451634734869003, -0.0515095554292202, -0.013385200873017311, 0.026729898527264595, -0.0009296635980717838, -0.06260073184967041, -0.01304358709603548, -0.07410341501235962, 0.020405365154147148, 0.023027094081044197, 0.15858903527259827, -0.030787188559770584, -0.018228208646178246, 0.03968983516097069, 0.0216059647500515, 0.014466671273112297, 0.015282331965863705, 0.011207858100533485, -0.06611600518226624, -0.026587795466184616, 0.026507947593927383, 0.001005635131150484, -0.03168768808245659, 0.025813361629843712, 0.0425613634288311, -0.011205780319869518, -0.05593431740999222, -0.017053503543138504, -0.038558296859264374, 0.006437618751078844, 0.00438627228140831, 0.012444430962204933, 0.07274768501520157, -0.08686098456382751, 0.0036389068700373173, 0.025963857769966125, -0.006777733098715544, 0.019308732822537422, -0.03700781241059303, -0.02668616734445095, -0.004475500900298357, 0.036630064249038696, 0.011689547449350357, 0.01856899820268154, 0.020620174705982208, 0.03423328325152397, -0.028285445645451546, 0.0110970139503479, 0.02003210410475731, -0.023910684511065483, 0.07959102839231491, -0.024302860721945763, -0.01352771744132042]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>difficulty_transferring_services_during_relocation</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>['Improvement needed: not having to call or email you for progress or update.  If I am told I will hear tomorrow, I either want to hear tomorrow that my query is done, or that my query is unresolved and still pending.\nReason for given NPS: We have moved twice in 6 months and the service was inefficient for booking, and unclear for the move']</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>[-0.00889341440051794, -0.07100608944892883, 0.05903646722435951, -0.03147532418370247, -0.027985263615846634, -0.04056383669376373, -0.016525769606232643, 0.01226498931646347, 0.0036883417051285505, -0.04553832858800888, -0.0040275841020047665, 0.005443198140710592, 0.04434648156166077, -0.03190428391098976, 0.03437372297048569, 0.04027342423796654, -0.0007997357752174139, 0.026673825457692146, -0.037400323897600174, 0.014603110030293465, -0.00018107375944964588, -0.0003018104180227965, -0.0009153425926342607, 0.02327089011669159, -0.030371803790330887, 0.0572257824242115, -0.04737650603055954, -0.005675479304045439, -0.07323715835809708, -0.13830254971981049, -0.028949253261089325, -0.05763871967792511, -0.08468055725097656, 0.013753557577729225, 0.13969045877456665, 0.06276118755340576, -0.02504945546388626, 0.040244463831186295, 0.02456096187233925, 0.04709429293870926, 0.04074971377849579, 0.023073537275195122, -0.07202194631099701, -0.04179272800683975, -0.046039313077926636, -0.07573375850915909, -0.0003251422895118594, 0.028104184195399284, 0.04957316443324089, -0.028742341324687004, 0.020282935351133347, 0.016707170754671097, -0.0456550307571888, 0.07254362106323242, 0.0004480564093682915, 0.08849352598190308, 0.09418171644210815, 0.04864107444882393, 0.024744808673858643, 0.039058391004800797, 0.020426196977496147, 0.00034979224437847733, -0.15495526790618896, 0.09982243925333023, 0.06266952306032181, -0.0044521428644657135, 0.009112403728067875, -0.06111758574843407, 0.005684895906597376, -0.008474095724523067, -0.09378062933683395, -0.017168955877423286, -0.043173648416996, 0.13182468712329865, 0.08751219511032104, 0.023354416713118553, -0.008592157624661922, 0.01729718968272209, 0.040802448987960815, 0.015553026460111141, 0.03791538253426552, -0.06149732694029808, -0.033488329499959946, 0.026443012058734894, -0.07178373634815216, 0.006969277281314135, -0.016989899799227715, 0.0032500748056918383, 0.017465392127633095, 0.007641377858817577, 0.012300852686166763, -0.035921573638916016, 0.052123308181762695, 0.022573621943593025, -0.07300428301095963, -0.034906335175037384, 0.028550641611218452, -0.018996452912688255, -0.09538881480693817, 0.3282051682472229, 0.020242538303136826, 0.04469837248325348, -0.00817751232534647, 0.02912643365561962, 0.003770617302507162, -0.031202521175146103, -0.01580715738236904, -0.022892506793141365, -0.046753089874982834, 0.01656961999833584, -0.04728303849697113, -0.0059691304340958595, 0.04163860157132149, 0.01219337061047554, 0.01434194017201662, 0.06623318046331406, -0.03156633302569389, 0.004204774275422096, -0.03814327344298363, 0.0069245267659425735, -0.029711654409766197, 0.01668497361242771, -0.0020554594229906797, 0.010515820235013962, -0.037498071789741516, 0.0071390061639249325, 0.013164796866476536, 0.05404873192310333, -0.012210601009428501, 0.01822926476597786, 0.005829862784594297, 0.038444869220256805, -0.04710071161389351, 0.00798685010522604, -0.032425250858068466, 0.014452970586717129, 0.01867334172129631, -0.033326465636491776, 0.0071104406379163265, 0.045426830649375916, 0.02797660417854786, -0.027964306995272636, 0.02512035146355629, -0.02594008669257164, 0.024026719853281975, 0.09765416383743286, -0.04946712404489517, 0.031540658324956894, -0.005888733081519604, 0.002170100575312972, -0.029548313468694687, 0.0040707760490477085, 0.0005131148500367999, -0.023673254996538162, -0.03943870961666107, -0.009478618390858173, 0.01837865263223648, 0.003950761631131172, -0.022828776389360428, 0.0016610685270279646, 0.06317589432001114, -0.0473468154668808, 0.004267754964530468, 0.08042262494564056, 0.04647156968712807, -0.059092167764902115, -0.01431992370635271, -0.0451824814081192, -0.03383268415927887, 0.030367346480488777, -0.0585453137755394, 0.049473460763692856, 0.002567456103861332, 0.04889494925737381, 0.06147114560008049, -0.08889003098011017, -0.03611503913998604, 0.015604285523295403, -0.013483786955475807, -0.012174614705145359, 0.02588105946779251, -0.027470270171761513, -0.017166979610919952, 0.000851753109600395, 0.04294607415795326, -0.034413352608680725, -0.020531171932816505, -0.06180797517299652, 0.013417894020676613, -0.005973364692181349, -0.0630934089422226, -0.05244017392396927, -0.042515382170677185, -0.05783190578222275, 0.04114647954702377, 0.0450814925134182, -0.012741148471832275, -0.016720442101359367, 0.08374319970607758, 0.001970464363694191, 0.10513128340244293, 0.0240649301558733, -0.03135846555233002, 0.008537779562175274, -0.03132494539022446, -0.010360206477344036, -0.008571828715503216, 0.006096262950450182, 0.02686917595565319, 0.05609077587723732, 0.00795226264744997, -0.0004827491065952927, 0.08891334384679794, 0.020488392561674118, -0.010625109076499939, 0.010103634558618069, -0.042993273586034775, 0.055350590497255325, 0.09669899940490723, 0.037785161286592484, 0.00731791602447629, 0.07667271792888641, 0.05603763461112976, -0.32284075021743774, 0.012200228869915009, -0.05823342129588127, 0.0025433991104364395, -0.0835193544626236, 0.027730338275432587, 0.057509392499923706, 0.004625295754522085, -0.015768293291330338, 0.04979189112782478, 0.0775044783949852, -0.003154776059091091, 0.03272209316492081, 0.01119324192404747, 0.03753608092665672, -0.04045085608959198, -0.03882110118865967, 0.11597102880477905, -0.002424974227324128, -0.005012166686356068, -0.004216088447719812, -0.04697934910655022, 0.004305471666157246, -0.05276208370923996, 0.004384943284094334, 0.00453276326879859, 0.170848548412323, -0.10948871821165085, -0.020844150334596634, -0.06239129975438118, 0.037298187613487244, 0.060597602277994156, 0.004778976086527109, -0.10049537569284439, 0.015971671789884567, 0.02258034609258175, 0.062273938208818436, 0.03852960839867592, 0.06581483036279678, 0.00035932910395786166, 0.011594063602387905, 0.0009623044170439243, 0.0029902448877692223, -0.008914712816476822, 0.05707913637161255, 0.009282642044126987, -0.0401291623711586, 0.015965089201927185, -0.042612474411726, 0.01194196566939354, -0.04405201971530914, -0.026911141350865364, 0.01242753118276596, -0.015092391520738602, 0.009771316312253475, -0.028783012181520462, -0.021360766142606735, 0.022591181099414825, 0.053733255714178085, 0.0032805614173412323, -0.028710611164569855, -0.007175443693995476, 0.05799151211977005, -0.049440596252679825, 0.05467338114976883, -0.02996039018034935, 0.023153286427259445, 0.07477571815252304, -0.0358424186706543, 0.02514357678592205, -0.005782687105238438, -0.004628985654562712, -0.02722068503499031, 0.051327113062143326, -0.04567226022481918, -0.01492986734956503, -0.07286038994789124, 0.06266196817159653, -0.025620518252253532, -0.07695426791906357, 0.014794724062085152, -0.04860152676701546, 0.04583835229277611, 0.022716525942087173, 0.00233393139205873, 0.047150902450084686, -0.009244647808372974, -0.008032449521124363, -0.02927393466234207, -0.04526175558567047, -0.004004749469459057, -0.044062674045562744, -0.06973884999752045, 0.04947182536125183, 0.06841766834259033, -0.04114707559347153, -0.22975845634937286, 0.0046760872937738895, 0.036024756729602814, -0.032929837703704834, -0.04962369427084923, 0.022367890924215317, -0.008160894736647606, 0.031709831207990646, -0.020481528714299202, -0.016708457842469215, -0.007181788329035044, -0.07256627082824707, 0.002420735312625766, -0.04098903387784958, 0.04004882648587227, 0.014734627678990364, 0.035886600613594055, -0.02059529721736908, -0.02545907534658909, -0.06679142266511917, 0.024520015344023705, -0.004069080576300621, 0.1518549919128418, 0.012331558391451836, -0.013249046169221401, 0.026156172156333923, 0.02095828205347061, 0.024796711280941963, 0.023339200764894485, -0.003156252671033144, -0.039679575711488724, 0.004736902192234993, -0.01680968515574932, 0.00303525454364717, -0.043188344687223434, 0.0009757162188179791, 0.006268761586397886, -0.015090875327587128, 0.017902033403515816, 0.009873823262751102, -0.03153015673160553, 0.016043029725551605, -0.00144991185516119, 0.003369926940649748, 0.08776675909757614, -0.004260804038494825, -0.009148317389190197, -0.03868032619357109, 0.00980951264500618, 0.007318602409213781, -0.01606011763215065, -0.04949991777539253, 0.005302393808960915, -0.014298700727522373, 0.011051159352064133, 0.008032457903027534, -0.029486408457159996, -0.019097354263067245, -0.041033074259757996, -0.03291235491633415, 0.07594352215528488, -0.09994585812091827, 0.04388289153575897, -0.06070268526673317, -0.009987909346818924]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>prices_high_compared_to_competition</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Prices, better deals\nReason for given NPS: Alright phone service provider, prices are a bit high atm but otherwise fine']</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>[-0.03726968541741371, -0.0389106459915638, -0.04510829597711563, 0.045490365475416183, 0.05404447019100189, -0.04060692340135574, 0.014212236739695072, 0.0712113082408905, 0.0574304424226284, -0.019107379019260406, 0.006892141420394182, -0.0006791214691475034, 0.011420195922255516, 0.023956449702382088, -0.020890986546874046, -0.00590444216504693, 0.03968028724193573, -0.08311745524406433, -0.03201577067375183, 0.042928945273160934, 0.03700321912765503, -0.05847731605172157, -0.010948884300887585, -0.07096430659294128, 0.04205221310257912, -0.019599132239818573, -0.02098621241748333, 0.02665548399090767, -0.029695609584450722, -0.1382451355457306, 0.051748745143413544, -0.04192538559436798, 0.07432781904935837, -0.00612420542165637, 0.01588437519967556, -0.0019682678394019604, -0.02756699174642563, -0.053188711404800415, -0.010272338055074215, 0.012644506059587002, 0.0025582483503967524, 0.03957098349928856, -0.07184663414955139, 0.03863007575273514, -0.014058816246688366, -0.01449166052043438, -0.039897724986076355, 0.025941822677850723, 0.0008997683180496097, 0.04244038090109825, -0.004168967716395855, -0.012360727414488792, -0.036248259246349335, -0.030063729733228683, 0.011865245178341866, 0.019836358726024628, 0.030580388382077217, 0.055195074528455734, 0.0164179690182209, 0.0006481866585090756, 0.034369926899671555, 0.018720904365181923, -0.13587699830532074, 0.009702521376311779, 0.05601389333605766, -0.024119718000292778, -0.03329768404364586, 0.020703420042991638, -0.03448249772191048, 0.03063780814409256, 0.03661232441663742, 0.007458630483597517, -0.0003122222260572016, 0.025721846148371696, 0.03669144585728645, -0.019794760271906853, -0.046830348670482635, -0.02949294075369835, -7.220417955977609e-06, 0.014596914872527122, 0.01790391467511654, -0.021715110167860985, -0.055950768291950226, -0.031127171590924263, 0.006416874472051859, -0.03918939083814621, 0.10087917000055313, 0.027965500950813293, 0.04874901846051216, -0.04254128411412239, 0.008878805674612522, -0.0021433199290186167, -0.04780537262558937, 0.0063776178285479546, -0.053189557045698166, 0.033696938306093216, 0.03593014180660248, 0.01549165416508913, 0.0023511990439146757, 0.38922280073165894, 0.01557998452335596, 0.003858053358271718, -0.028757035732269287, -0.022082388401031494, 0.005317022558301687, -0.04282744228839874, -0.03051682561635971, 0.04153560474514961, 0.00019404686463531107, 0.01951545476913452, 0.014671864919364452, -0.021670985966920853, 0.02808428555727005, -0.042737361043691635, -0.028146982192993164, 0.04083291068673134, 0.033138588070869446, -0.07297973334789276, 0.0696398913860321, 0.007616764400154352, -0.01871686615049839, 0.011201851069927216, 0.008359181694686413, -0.01245531253516674, -0.05159221589565277, 0.01601310260593891, 0.031154142692685127, 0.07668304443359375, 0.018374867737293243, -0.06057991832494736, 0.0006328130257315934, -0.07153641432523727, -0.056388624012470245, 0.02921995334327221, 0.01633489318192005, -0.025994237512350082, 0.010690484195947647, 0.04018949717283249, 0.04548564925789833, 0.08905578404664993, -0.052247948944568634, -0.0492783784866333, 0.014793334528803825, -0.10624010115861893, -0.010716412216424942, 0.05300872027873993, 0.021322516724467278, 0.02179410122334957, -0.014037917368113995, -0.03676830604672432, -0.016467439010739326, -0.013310845009982586, 0.024256134405732155, -0.04584968835115433, -0.0492965392768383, 0.00017917844525072724, 0.024328475818037987, 0.03480791300535202, 0.01903177984058857, -0.06884358078241348, 0.049143169075250626, 0.019545089453458786, -0.050996266305446625, 0.08132459223270416, -0.0007685702294111252, -0.037953589111566544, -0.021066797897219658, -0.006895247381180525, -0.04365401715040207, 0.018606651574373245, -0.0350613035261631, 0.027983689680695534, -0.0739797055721283, 0.029928531497716904, 0.09439928829669952, -0.042910389602184296, -0.07564474642276764, 0.016631660982966423, -0.002938793506473303, 0.008076961152255535, 0.07105638086795807, 0.039025723934173584, -0.10299680382013321, 0.031116943806409836, -0.0012313735205680132, -0.057535018771886826, -0.05571524426341057, 0.016459975391626358, 0.007460773456841707, 0.05994677171111107, -0.06984270364046097, -0.021646082401275635, -0.04869876801967621, 0.06543761491775513, 0.01241812389343977, 0.03335568681359291, -0.00797510240226984, 0.026416268199682236, 0.05199243500828743, -0.018214920535683632, 0.00045118259731680155, -0.0002590591611806303, -0.0631265863776207, 0.035894233733415604, -0.006044592242687941, 0.029922619462013245, 0.0257085133343935, -0.011789443902671337, 0.08446730673313141, -0.01391350943595171, -0.0051795002073049545, -0.024363122880458832, -0.008264916948974133, 0.030225975438952446, -0.02788461372256279, -0.0335039459168911, 0.041504692286252975, 0.09172441810369492, 0.025943225249648094, 0.04442611336708069, -0.022605182603001595, 0.0451529324054718, 0.012753729708492756, -0.33769553899765015, 0.03698398545384407, -0.0024000336416065693, 0.0038898212369531393, 0.05415794253349304, 0.00941342394798994, 0.0572882816195488, -0.02162805385887623, -0.004521943628787994, 0.09440559148788452, -0.012244528159499168, -0.021765029057860374, -0.015003961510956287, 0.01901823654770851, 0.04206838831305504, -0.059815846383571625, -0.03796160966157913, 0.03766099363565445, 0.0718599408864975, -0.0033645087387412786, -0.03304280340671539, 0.02461790107190609, -0.004621833097189665, -0.017835570499300957, 0.0374893844127655, -0.007214587181806564, 0.15272462368011475, -0.023447310552001, -0.026163004338741302, -0.023267598822712898, 0.0058875358663499355, -0.018006639555096626, -0.03449710085988045, 0.03015226498246193, 0.01584824174642563, 0.026176244020462036, 0.015259075909852982, -0.0037684745620936155, -0.025103015825152397, -0.0497683510184288, -0.015315466560423374, 0.040392979979515076, -0.03492927923798561, -0.04070939123630524, -0.02831200510263443, -0.0013752595987170935, 0.0008262041374109685, 0.08056946098804474, -0.08808290958404541, 0.0743313580751419, 0.005053951870650053, -0.00682877330109477, 0.023682240396738052, -0.022169632837176323, 0.03691435232758522, -0.03278634697198868, -0.10736507177352905, -0.02989988587796688, -0.03962370380759239, 0.002178677124902606, 0.0042518931441009045, -0.008576820604503155, 0.06846471130847931, 0.026056671515107155, 0.036742206662893295, -0.009294360876083374, 0.07069256156682968, -0.04881298542022705, -0.03479418903589249, 0.07500675320625305, -0.028706863522529602, -0.012610331177711487, -0.025715507566928864, -0.038865622133016586, 0.017930954694747925, 0.05413718894124031, 0.002537662861868739, 0.06289614737033844, -0.008691221475601196, 0.05225048586726189, 0.024819891899824142, 0.05897819995880127, 0.011719908565282822, 0.0467178113758564, 0.028616925701498985, -0.0130233783274889, 0.041705578565597534, -0.017694523558020592, 0.028174787759780884, -0.03290512412786484, -0.03298940509557724, 0.010454319417476654, -0.05641985312104225, -0.002567861694842577, -0.006685685832053423, 0.029339486733078957, -0.2877369225025177, 0.01269538700580597, 0.013715501874685287, 0.03390786796808243, -0.020745541900396347, -0.010979138314723969, 0.009551839902997017, 0.0029711758252233267, -0.006260739639401436, -0.009565085172653198, 0.03705678507685661, 0.04887353256344795, -0.006465650163590908, 0.004558714106678963, -0.02133955992758274, -0.018884655088186264, 0.03417768329381943, -0.03332514315843582, 0.06731095165014267, 0.09311063587665558, -0.000975252827629447, 0.030684644356369972, 0.16678735613822937, -0.016406340524554253, -0.02161998488008976, -0.030271602794528008, -0.06448148936033249, 0.011236765421926975, 0.03142907842993736, -0.035222187638282776, -0.047014232724905014, -0.020029651001095772, 0.049383070319890976, -0.046011168509721756, 0.005024265497922897, 0.07663989812135696, 0.021097173914313316, -0.018090980127453804, 0.033377427607774734, -0.004166177473962307, -0.04484840855002403, 0.012753002345561981, -0.08676953613758087, -0.013052772730588913, 0.07246027886867523, -0.00873029138892889, -0.0016931798309087753, -0.06046486273407936, -0.00768521660938859, -0.029681693762540817, -0.07112222164869308, -0.013238208368420601, -0.0034735780209302902, 0.01700863428413868, 0.004711623303592205, -0.010785230435431004, -0.06922748684883118, 0.0021476540714502335, 0.005013985559344292, -0.05770214647054672, -0.027635088190436363, 0.036326393485069275, -0.04203340783715248, -0.0031151766888797283, 0.002819404238834977]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>need_assistance_comparing_plans</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>["Improvement needed: I am passed my use by date and so I like talking to a human on the phone, and I hate waiting because I feel it is wasting the precious time I have left.\nSo - improve your waiting time - you are supposed to be a communications firm for heaven's sake!\nReason for given NPS: There are so many good deals out there and I know very little about the technology behind the companies.   People are more willing to switch these days which is interesting.   However, I don't feel qualified to judge."]</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>[-0.05179687216877937, -0.09487518668174744, 0.012460114434361458, -7.104561518644914e-05, 0.004772985819727182, 0.012075800448656082, -0.024699153378605843, 0.06108035519719124, -0.029654549434781075, -0.038977254182100296, -0.01650054380297661, 0.01831197179853916, 0.034944795072078705, 0.016193244606256485, 0.0366998128592968, -0.0032853777520358562, -0.002907196059823036, 0.006788888946175575, -0.03049376979470253, 0.05239337682723999, 0.04744848236441612, -0.0007316809496842325, -0.06011121720075607, 0.005652269348502159, -0.005070733372122049, 0.0014943615533411503, 0.007859009318053722, -0.014198330231010914, -0.03208573907613754, -0.10164473205804825, 0.0208219476044178, -0.009753048419952393, -0.0008875609491951764, -0.03821466118097305, 0.03643709793686867, 0.02922462485730648, -0.007267362903803587, 0.03201553225517273, 0.01508644875138998, 0.02365519478917122, 0.008761998265981674, 0.025289518758654594, -0.05711620673537254, 0.004886096343398094, -0.03130793571472168, -0.03478674963116646, -0.014526293613016605, 0.023613685742020607, -0.0073449271731078625, -0.027610663324594498, 0.04039906710386276, -0.07947257906198502, -0.029328754171729088, -0.030391568318009377, 0.04479515925049782, 0.04532471299171448, 0.046324074268341064, 0.03478150814771652, 0.045500945299863815, 0.030008431524038315, 0.032514967024326324, 0.009169013239443302, -0.1758236289024353, 0.04485548660159111, 0.021569998934864998, 0.012638689018785954, -0.0005870857858099043, -0.028969690203666687, 0.014059717766940594, 0.04325501620769501, -0.015384151600301266, -0.03571934252977371, 0.021732525900006294, 0.08385264873504639, -0.00297912466339767, 0.002556276274845004, 0.018739454448223114, -0.003062725765630603, 0.015870554372668266, -0.014804370701313019, -0.026750963181257248, 0.027220485731959343, -0.06094120442867279, -0.0334814228117466, 0.0295456200838089, -0.03193311765789986, -0.014292207546532154, 0.05622138828039169, 0.06881410628557205, -0.011808298528194427, 0.025448644533753395, -0.0015203405637294054, -0.0011907900916412473, 0.024066930636763573, -0.017596082761883736, -0.02631218545138836, 0.020309828221797943, -0.021178362891077995, -0.10039470344781876, 0.41763290762901306, 0.034736089408397675, 0.01959575153887272, 0.02381100505590439, -0.016938067972660065, 0.0264404509216547, -0.061590760946273804, -0.050331052392721176, -0.0346810482442379, 0.022184208035469055, -0.029565831646323204, -0.039372265338897705, -0.05423979088664055, 0.0008785765967331827, 0.0018259311327710748, 0.006733247544616461, 0.06287279725074768, 0.06978653371334076, -0.04669245705008507, 0.022417638450860977, -0.025042906403541565, -0.023921195417642593, -0.044873081147670746, 0.013098638504743576, 0.01148381270468235, -0.05055592581629753, -0.053675927221775055, 0.007738360203802586, 0.08418764173984528, -0.004848877899348736, 0.03272209316492081, 0.061188988387584686, -0.012086696922779083, -0.020728059113025665, -0.013715733774006367, -0.06683659553527832, -0.025775855407118797, 0.018403703346848488, -0.00878580380231142, 0.01925949566066265, 0.021302862092852592, 0.018200868740677834, -0.059807971119880676, 0.0035935724154114723, -0.10784343630075455, -0.03524174913764, 0.12161674350500107, -0.09760861098766327, 0.06364424526691437, -0.004645232111215591, -0.10484018176794052, -0.012614629231393337, -0.03300056606531143, 0.03728862851858139, -0.08454923331737518, -0.031221497803926468, 0.022287635132670403, -0.005815568845719099, -0.026113880798220634, 0.029981205239892006, 0.01407352089881897, 0.08812416344881058, -0.06497319787740707, -0.09004160016775131, 0.059786949306726456, 0.0012309649027884007, -0.0746370255947113, -0.04847002774477005, -0.028594454750418663, -0.022700238972902298, -0.021699873730540276, 0.0019486970268189907, 0.021706145256757736, -0.00035011922591365874, 0.006301725748926401, 0.1069674864411354, -0.00945939589291811, -0.03578764200210571, 0.02609790489077568, 0.018236728385090828, 0.0030286952387541533, 0.018949301913380623, -0.009385486133396626, -0.03778046369552612, 0.005839972756803036, 0.002283032750710845, -0.03154632821679115, 0.0008213403052650392, -0.018334180116653442, 0.04807460308074951, -0.014340458437800407, -0.0396081805229187, -0.06822846084833145, 0.004430537112057209, 0.011125619523227215, -0.04370519146323204, 0.0021180452313274145, -0.037003323435783386, -0.026868615299463272, 0.0018529059598222375, -0.0071466658264398575, 0.07620466500520706, -0.026502231135964394, -0.020704887807369232, 0.047592755407094955, -0.03621528297662735, 0.0003655396867543459, -0.022678406909108162, -0.010353694669902325, 0.10124724358320236, 0.033210404217243195, -0.02618919312953949, -0.014644959010183811, 0.07461658120155334, 0.01667853444814682, -0.019086619839072227, 0.03969528153538704, 0.004416371695697308, 0.019073721021413803, 0.02714524418115616, 0.08876211941242218, 0.02113863080739975, 0.058228932321071625, 0.07444276660680771, -0.3108842074871063, -0.003811093745753169, -0.05605649948120117, 0.04140035808086395, -0.062029123306274414, -0.020028013736009598, 0.027856098487973213, -0.0191783644258976, -0.08729415386915207, 0.12874522805213928, 0.021814893931150436, -0.05720791593194008, 0.029221391305327415, 0.020512215793132782, 0.018148988485336304, -0.020583581179380417, -0.006777977105230093, 0.005152498371899128, 0.0022838201839476824, 0.0021811015903949738, -0.006168333347886801, -0.008936068043112755, 0.03908119723200798, -0.04911523312330246, 0.03306015208363533, 0.025822006165981293, 0.2009180784225464, -0.017304738983511925, -0.00272159930318594, -0.03332642465829849, -0.012669083662331104, 0.06703899055719376, -0.052695270627737045, -0.07677460461854935, 0.014898277819156647, 0.02049456723034382, -0.03831195831298828, -0.02837461419403553, 0.04280718043446541, -0.042859792709350586, 0.004449070896953344, 0.06406549364328384, -0.034837596118450165, -0.024204514920711517, -0.052567046135663986, -0.06942933797836304, 0.007630317471921444, 0.02197480946779251, -0.027371445670723915, 0.05388700217008591, -0.01703091710805893, -0.029469389468431473, -0.02601374313235283, 0.0034549764823168516, 0.05607635900378227, 0.02555665373802185, -0.09118849039077759, -0.01158948615193367, -0.004284298047423363, 0.015010801143944263, 0.003554337192326784, -0.017635326832532883, 0.04123454540967941, -0.012043705210089684, 0.04575178027153015, 0.012126749381422997, -0.011289091780781746, -0.0016785355983301997, -0.01126550417393446, 0.04970608651638031, -0.009932938031852245, -0.04518109932541847, -0.008971861563622952, 0.046528857201337814, -0.009109868668019772, 0.009430142119526863, -0.0009933295659720898, -0.0008016922511160374, 0.0006129529792815447, -0.016762612387537956, 0.01568959280848503, -0.032219767570495605, 0.021883847191929817, -0.010813719592988491, 0.015687165781855583, 0.04144953191280365, 0.010382960550487041, 0.02788626216351986, 0.03530286252498627, 0.018532127141952515, 0.01577012799680233, -0.009855072945356369, 0.003958165179938078, -0.010729665867984295, 0.06104561313986778, 0.011929706670343876, -0.2407526820898056, 0.04686342179775238, 0.0032017400953918695, -0.01939285174012184, -0.036552801728248596, 0.012203714810311794, 0.02700233645737171, 0.012190235778689384, -0.017964189872145653, -0.02580353058874607, 0.03431360423564911, 0.05190408229827881, -0.02798701822757721, -0.017074016854166985, -0.011983338743448257, -0.004815110936760902, 0.09651772677898407, -0.0409533716738224, -0.022990185767412186, -0.02094518393278122, 0.03652704507112503, 0.009146067313849926, 0.18440011143684387, -0.030403029173612595, -0.03938193619251251, -0.03385606035590172, 0.04467190429568291, -0.018582411110401154, 0.07748499512672424, 0.007631626911461353, -0.027000201866030693, -0.016706032678484917, 0.05009901151061058, 0.0036503917071968317, 0.03794524818658829, 0.06637761741876602, -0.012828412465751171, 0.03224412351846695, 0.004491635598242283, 0.007013001944869757, -0.0495295487344265, -0.005897706374526024, 0.0017748993122950196, 0.006963537540286779, 0.115223728120327, 0.028462816029787064, -0.014192315749824047, -0.00930416863411665, -0.04060310125350952, -0.02749519981443882, -0.04588931053876877, -0.004807984922081232, -0.031410012394189835, 0.02230072021484375, 0.02884373627603054, 0.003434065729379654, -0.03014409728348255, 0.013122611679136753, -0.027294792234897614, -0.02880808711051941, 0.015947643667459488, 0.013736279681324959, 0.08104314655065536, 0.0056712753139436245, -0.022666804492473602]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>lack_of_coverage_based_plan_adjustments</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Offer better plans based on loyalty and usage\nReason for given NPS: Really like the One service,  but coverage holes let it down']</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>[-0.05357499048113823, -0.026282135397195816, 0.00852795597165823, -0.010180383920669556, 0.009628809057176113, 0.012439889833331108, -0.057686131447553635, 0.03974010795354843, -0.009319269098341465, 0.012886333279311657, 0.04244012013077736, 0.008292960934340954, 0.05320604890584946, 0.02509681135416031, 0.0013986093690618873, 0.01168292947113514, 0.018250172957777977, -0.033920638263225555, 0.012662778608500957, 0.05492747947573662, 0.0443139486014843, -0.0034700348041951656, -0.02026211842894554, 0.05608741194009781, 0.039303120225667953, 0.009772134944796562, -0.005967562552541494, -0.02270989678800106, -0.03936852887272835, -0.14889973402023315, 0.0126324612647295, -0.008948282338678837, -0.013307157903909683, 0.005596228409558535, 0.04249991104006767, 0.010520686395466328, -0.028233902528882027, 0.023638512939214706, 0.0018548013176769018, 0.033185362815856934, -0.04093850776553154, 0.06587275117635727, -0.047927290201187134, -0.01737920567393303, -0.054251279681921005, -0.028320906683802605, 0.001838034950196743, -0.012850332073867321, 0.006185474339872599, -0.05708182975649834, 0.047998104244470596, -0.044383544474840164, 0.03235979750752449, 0.00917037297040224, 0.039741382002830505, 0.003117949003353715, 0.028286200016736984, 0.01858501322567463, 0.0020789371337741613, 0.03168705105781555, 0.007138024549931288, 0.03588617593050003, -0.1808132827281952, 0.034625135362148285, 0.008187486790120602, 0.021319888532161713, -0.026777947321534157, -0.05553416162729263, 0.062382955104112625, 0.01835772581398487, -0.023751139640808105, 0.007128107827156782, -0.02265062928199768, 0.0423436239361763, 0.0267495047301054, 0.00814823154360056, -0.003224944230169058, 0.05692771449685097, 0.019937831908464432, 0.023747026920318604, 0.02692778967320919, -0.010008499026298523, -0.002058636164292693, 0.020434804260730743, 0.019130898639559746, -0.08622412383556366, 0.004424696788191795, -0.022352539002895355, 0.009612005203962326, -0.005414031911641359, 0.01612931676208973, -0.06024147942662239, 0.018667617812752724, 0.007177168503403664, -0.03156939521431923, -0.002865711459890008, 0.027811996638774872, 0.008308475837111473, -0.11715243011713028, 0.42811310291290283, 0.0342024527490139, 0.023735329508781433, -0.006246889941394329, 0.07112778723239899, -0.030562322586774826, -0.07590876519680023, -0.07894456386566162, -0.02523994632065296, 0.01269550435245037, -0.0020287244115024805, -0.003232113551348448, -0.010311862453818321, 0.04023569077253342, 0.008684985339641571, 0.002796479966491461, 0.03128810599446297, 0.035045452415943146, -0.019075999036431313, -0.014369696378707886, 0.014209981076419353, 0.01592075452208519, -0.05008023977279663, 0.017307167872786522, 0.014729888178408146, -0.0056553613394498825, 0.03604155033826828, 0.008465863764286041, 0.08597782254219055, -0.009626640938222408, 0.03323124349117279, 0.04575660452246666, -0.04091257229447365, 0.0119829336181283, -0.01674146018922329, -0.042190536856651306, -0.022675486281514168, -0.006219007540494204, 0.054121702909469604, -0.0019795577973127365, 0.05854136496782303, -0.03390508145093918, -0.00287881912663579, -0.026004118844866753, -0.09646657854318619, 0.0394514724612236, 0.14212223887443542, -0.019161397591233253, 0.07847968488931656, -0.007960530929267406, -0.10617777705192566, -0.03228602930903435, -0.01100059226155281, 0.0016320080030709505, -0.02330317534506321, -0.030140673741698265, 0.012774774804711342, -0.04118653014302254, 0.030546514317393303, -0.004075573291629553, 0.0004055050667375326, 0.06924756616353989, -0.034915752708911896, -0.07784467935562134, 0.08328627049922943, -0.030218852683901787, -0.006622215732932091, -0.024427030235528946, -0.03394458442926407, -0.024803053587675095, -0.005052399821579456, -0.025864344090223312, 0.021250449120998383, 0.03298623859882355, -0.005242482293397188, 0.08891180902719498, 0.0006183225195854902, -0.10501979291439056, 0.03688345476984978, -0.007701407186686993, -0.0012794403592124581, 0.02779727429151535, -0.021967001259326935, -0.029918093234300613, -0.002233783481642604, -0.019486213102936745, -0.03841312974691391, -0.032971352338790894, 0.025105826556682587, 0.0267951600253582, -0.01829184591770172, -0.0817239060997963, -0.05232234671711922, -0.036059994250535965, -0.005994990933686495, -0.02387291193008423, -0.02822033315896988, -0.012490523979067802, 0.004466429352760315, 0.01305261068046093, -0.012759768404066563, 0.06413310021162033, -0.008468742482364178, 0.003135605715215206, 0.02175718918442726, -0.04585270583629608, 0.0180159080773592, -0.012435493059456348, -0.01769232377409935, 0.08470937609672546, 0.0503954254090786, -0.008011585101485252, -0.03167513385415077, 0.052124928683042526, -0.00128162931650877, 0.006129169836640358, 0.0741373747587204, 0.0048376768827438354, 0.026349738240242004, 0.05523858591914177, 0.020183436572551727, 0.06622593104839325, 0.09237708896398544, 0.04924970865249634, -0.2918221354484558, -0.02489979937672615, -0.049564022570848465, -0.015394282527267933, -0.08449313044548035, -0.04631758853793144, 0.010384329594671726, 0.009215968661010265, -0.038523297756910324, 0.15340015292167664, 0.016821909695863724, 0.043892085552215576, -0.024303408339619637, 0.00967598520219326, -0.029149986803531647, -0.03315258398652077, -0.011527595110237598, -0.028616013005375862, -0.0289333276450634, 0.013466865755617619, 0.019297663122415543, 0.044435471296310425, -0.03521033003926277, -0.054272718727588654, 0.05276846885681152, 0.011617211624979973, 0.16972826421260834, -0.06336847692728043, -0.04963911697268486, -0.011734258383512497, 0.006845557596534491, 0.0782179981470108, -0.06062237173318863, -0.03851011022925377, 0.021661659702658653, 0.023676348850131035, -0.048732299357652664, 0.02337563782930374, -0.036425475031137466, -0.0414884053170681, 0.033585406839847565, 0.034193623811006546, -0.056249991059303284, -0.04354078695178032, -0.013617257587611675, -0.019322367385029793, -0.02128281630575657, 0.028934558853507042, -0.06283204257488251, -0.03470788523554802, -0.0026983246207237244, -0.054111164063215256, 0.02393733151257038, 0.014665442518889904, 0.12385722249746323, -0.004297367297112942, -0.09651470184326172, 0.03240178897976875, -0.026951314881443977, -0.007206483278423548, -0.024388719350099564, -0.0033951392397284508, 0.09405063837766647, -0.050714459270238876, 0.00902524683624506, -0.03532305732369423, 0.018580934032797813, -0.022057348862290382, -0.024796953424811363, 0.09059394150972366, -0.018942855298519135, 0.023971648886799812, -0.0004804103809874505, -0.008785529062151909, -0.04525516554713249, -0.015306202694773674, 0.026276037096977234, 0.002547434763982892, -0.02096661739051342, -0.04319515824317932, 0.061599016189575195, -0.0021923533640801907, 0.0017418471397832036, -0.005884339101612568, -0.03046092577278614, 0.037875428795814514, -0.03134055808186531, 0.0049753133207559586, 0.04078343138098717, 0.023555465042591095, -0.021441485732793808, -0.004232904873788357, 0.03970526531338692, 0.023341253399848938, 0.11224154382944107, -0.025997543707489967, -0.22972452640533447, -0.006086952518671751, -0.025439085438847542, -0.032908082008361816, -0.024064242839813232, 0.02655387856066227, 0.002395202638581395, -0.006672698073089123, -0.033831484615802765, -0.05047203227877617, 0.01558342669159174, 0.03844614326953888, -0.01581168733537197, -0.03914964199066162, 0.015220294706523418, 0.005661634262651205, 0.018847288563847542, -0.034847237169742584, 0.010020309127867222, -0.022805318236351013, 0.06526244431734085, 0.03392713516950607, 0.16771690547466278, -0.03298202529549599, -0.038277529180049896, -0.03376787528395653, 0.019570065662264824, -0.001880368567071855, 0.014297174289822578, 0.031045930460095406, -0.050346001982688904, -0.0269746296107769, 0.03058939427137375, 0.011832142248749733, -0.014324893243610859, 0.014966166578233242, 0.046723611652851105, -0.005641996394842863, -0.021744562312960625, -0.007399027701467276, -0.03752392157912254, -0.019214367493987083, 0.08408498018980026, 0.04092522710561752, 0.05703485384583473, -0.03397708013653755, -0.00398454861715436, -0.0051130568608641624, 0.030617503449320793, 0.01648792438209057, -0.06668210029602051, 0.006569197867065668, -0.007527013774961233, 0.009053518064320087, 0.040243975818157196, -0.006803448311984539, -0.04515255242586136, 0.014587605372071266, -0.024455536156892776, -0.00924453791230917, 0.04399801790714264, -0.060344148427248, 0.01590069755911827, 0.01667609065771103, 0.03568672761321068]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>need_for_wearable_device_plans</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Wearable plan for iwatch\n']</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>[-0.023357568308711052, -0.046329014003276825, 0.056417856365442276, -0.07394581288099289, -0.046942710876464844, 0.0038490535225719213, -0.01248722430318594, 0.05040998384356499, -0.06557560712099075, -0.014071037992835045, -0.00921724271029234, 0.014131157658994198, 0.0220692977309227, 0.00870898924767971, 0.09669290482997894, 0.012540649622678757, 0.09191173315048218, -0.04294915124773979, -0.017075184732675552, 0.08706819266080856, 0.06807202845811844, 7.901138451416045e-05, -0.04490678384900093, 0.02282414399087429, -0.04865428805351257, -0.007516882382333279, 0.02555091120302677, 0.006974311545491219, -0.03866023197770119, -0.08050946891307831, -0.011758255772292614, 0.010272610932588577, 0.037231966853141785, 0.016212446615099907, -0.028886444866657257, -0.04035867750644684, -0.005273200571537018, 0.029869237914681435, -0.008712765760719776, 0.05004798620939255, -0.05441570654511452, 0.017113910987973213, -0.028432268649339676, 0.020151890814304352, 0.010684950277209282, -0.0005622934550046921, -0.0014534300426021218, -0.024805476889014244, 0.0037290870677679777, -0.054584186524152756, 0.07818202674388885, 0.040882132947444916, 0.009779307059943676, -0.030692869797348976, 0.032547954469919205, 0.05208078771829605, 0.005707508884370327, -0.0053401184268295765, 0.03487284854054451, -0.008668726310133934, 0.027041001245379448, 0.022487256675958633, -0.11293493956327438, 0.04854615032672882, -0.01255947444587946, 0.012217729352414608, 0.002610116731375456, -0.028321735560894012, 0.035035062581300735, 0.01659584790468216, 0.017458220943808556, -0.016454238444566727, 0.06166177988052368, 0.051002178341150284, 9.476776540395804e-06, 0.02116192877292633, 0.024656007066369057, -0.04614022374153137, 0.014033802784979343, 0.02229316160082817, -0.01428269874304533, 0.03893809765577316, -0.04828121140599251, 0.03820396587252617, 0.006810687482357025, -0.03590016812086105, 0.001147691742517054, -0.0001633358479011804, -0.01684819534420967, 0.01236574538052082, -0.08108785003423691, -0.003649090649560094, -0.02523566596210003, 0.01586471125483513, -0.05010281130671501, -0.012972494587302208, 0.016563324257731438, 0.02094864286482334, -0.11787684261798859, 0.3820701241493225, -0.0033680624328553677, 0.035142023116350174, 0.03364287316799164, 0.030187362805008888, 0.0006920263404026628, -0.06211595982313156, -0.05758614093065262, -0.049338776618242264, -0.02107856422662735, 0.0026195526588708162, 0.002898950595408678, -0.0036430684849619865, 0.009038764983415604, 0.024904152378439903, 0.03484870493412018, 0.08522836118936539, -0.03287947550415993, 0.02146425098180771, 0.0576506108045578, -0.047042954713106155, -0.0374273806810379, -0.021876424551010132, 0.040510695427656174, -0.013039615005254745, -0.03496668115258217, -0.029382919892668724, 0.021442778408527374, 0.09532800316810608, 0.0018352479673922062, 0.09784115105867386, 0.02118711732327938, -0.04574232175946236, -0.07336787134408951, 0.010010971687734127, -0.009381481446325779, -0.03604724630713463, 0.00343432673253119, -0.02338719181716442, 0.0026494250632822514, 0.047193609178066254, 0.0033540225122123957, -0.02103671059012413, 0.06881052255630493, -0.12230895459651947, 0.015223688445985317, 0.106364406645298, -0.04303749278187752, 0.05281824618577957, -0.01846248470246792, -0.05757748335599899, 0.0050095259211957455, 0.022770650684833527, 0.029970427975058556, -0.05515279620885849, 0.03064456768333912, 0.026013663038611412, 0.021310199052095413, -0.062031783163547516, -0.024872660636901855, 0.0283712986856699, 0.02339750900864601, -0.04533999413251877, -0.01260867528617382, 0.027869366109371185, -0.0017534727230668068, -0.09933244436979294, -0.005739810410887003, -0.0006917000864632428, 0.017944324761629105, -0.015862174332141876, -0.02497974969446659, 0.034066155552864075, -0.008175477385520935, 0.07078026980161667, 0.10377910733222961, 0.031038053333759308, -0.07163529843091965, 0.07064365595579147, -0.0630989819765091, -0.01843593642115593, -0.039444610476493835, -0.03629950061440468, -0.018332790583372116, -0.04867258667945862, -0.007003606762737036, -0.030812149867415428, 0.0427725650370121, -0.044298794120550156, 0.056640345603227615, 0.018313327804207802, -0.03677567467093468, -0.04286116361618042, 0.008544162847101688, 0.02254832349717617, 0.012963870540261269, -0.003337086411193013, -0.08759436756372452, -0.013076812960207462, -0.011246629990637302, -0.02320357970893383, 0.023992793634533882, -0.059321802109479904, -0.013927016407251358, 0.06007011607289314, 0.04368571937084198, -0.01453410554677248, -0.01671309396624565, -0.020249370485544205, 0.061890508979558945, 0.014708834700286388, 0.03616030514240265, 0.013869747519493103, 0.12092611938714981, -0.009576410986483097, -0.04364248737692833, -0.02436474710702896, -0.03629462420940399, 0.023595884442329407, 0.031250085681676865, -0.000585391593631357, 0.015506411902606487, 0.08558236807584763, -0.006689657457172871, -0.2828249931335449, 0.028502412140369415, 0.00015083041216712445, -0.003823669161647558, -0.10321017354726791, 0.003295476082712412, 0.008866050280630589, -0.030777420848608017, -0.029274621978402138, 0.08281973749399185, 0.10119350254535675, -0.013662395067512989, -0.00528625026345253, -0.013890220783650875, -0.051138971000909805, 0.030663134530186653, -0.00617498392239213, -0.026119887828826904, -0.04501170665025711, -0.02688712440431118, 0.05247381329536438, 0.06835320591926575, -0.042292311787605286, 0.0075246780179440975, 0.012700124643743038, 0.017776373773813248, 0.19457150995731354, -0.04897845908999443, -0.04043634235858917, -0.028486570343375206, 0.005170474294573069, 0.06756588816642761, -0.054775115102529526, -0.1260838806629181, 0.0013504276284947991, 0.013302682898938656, -0.03914604336023331, 0.0002036301593761891, 0.018219636753201485, -0.07952939718961716, -0.03402823954820633, 0.06397029012441635, -0.031788963824510574, -0.0033294183667749166, -0.04832472279667854, -0.041293054819107056, -0.03256655111908913, 0.004317066632211208, -0.01911761797964573, 0.03909929469227791, 0.0003128446696791798, -0.03546043857932091, 0.010920729488134384, -0.016389714553952217, 0.048944126814603806, -0.06269464641809464, -0.07744161039590836, -0.010620002634823322, -0.038918595761060715, 0.04691313952207565, -0.04958998039364815, 0.0391700454056263, -0.008890791796147823, -0.04700668901205063, 0.016843188554048538, -0.030129041522741318, -0.0062972987070679665, 0.012147250585258007, -0.02455895021557808, -0.027125533670186996, 0.015479089692234993, 0.015207001939415932, 0.0458417609333992, -0.007242903113365173, 0.033236898481845856, -0.07710995525121689, -0.008228256367146969, 0.031669341027736664, 0.031043902039527893, -0.022638170048594475, 0.014744924381375313, 0.037417907267808914, 0.02342388592660427, 0.01392846554517746, 0.013912748545408249, 0.025189388543367386, 0.027141844853758812, -0.011202552355825901, 0.0037996412720531225, -0.009956449270248413, -0.012260787189006805, 9.886825137073174e-05, 0.048813991248607635, -0.008713637478649616, 0.1500626504421234, -0.03844822943210602, -0.2615337371826172, 0.00399505440145731, 0.028778156265616417, 0.04138106480240822, -0.04254504665732384, -0.01755727082490921, 0.030094150453805923, 0.006070930976420641, -0.062223564833402634, 0.024133693426847458, -0.029142532497644424, 0.0009371141204610467, -0.004964926745742559, 0.015765922144055367, 0.05155257135629654, 0.00016805621271487325, 0.10637619346380234, -0.04796096310019493, -0.018047219142317772, -0.08864431828260422, 0.04707734286785126, 0.01443214900791645, 0.136701300740242, -0.03865087404847145, -0.007013529073446989, 0.03781214728951454, 0.016253359615802765, -0.004075045697391033, 0.039034370332956314, 0.026982955634593964, 0.001957810251042247, -0.034248776733875275, 0.02324369177222252, 0.03248687461018562, -0.010591818951070309, 0.009543018415570259, 0.009043529629707336, -0.030481480062007904, -0.024450691416859627, -0.01591396890580654, 0.038466040045022964, -0.03993010148406029, -0.004175717476755381, 0.017602499574422836, 0.12291209399700165, 0.018338384106755257, -0.0548483207821846, 0.0006300782551988959, -0.04808502271771431, -0.015671081840991974, -0.02340187504887581, -0.03229193389415741, -0.019026054069399834, 0.0107895378023386, -0.03335774317383766, -0.02841845713555813, 0.02930820733308792, 0.013893562369048595, 0.030395368114113808, 0.0039061259012669325, 0.050119973719120026, -0.020628631114959717, -0.043855033814907074, 0.04361632093787193, 0.02759338729083538]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>need for proactive support on broadband</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>["Improvement needed: More technical support could be available for broadband services\nReason for given NPS: I'm very satisfied with the service provided by one.nz"]</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>[-0.07819375395774841, -0.06207134947180748, 0.01829083077609539, -0.0537271648645401, -0.0021809171885252, -0.018920112401247025, -0.05588144063949585, 0.08895615488290787, -0.04454764723777771, -0.00894429162144661, 0.03114568628370762, -0.021386606618762016, 0.020980484783649445, -0.018664710223674774, 0.02967187948524952, 0.09330824762582779, 0.03558969497680664, -0.01593438722193241, 0.026067443192005157, 0.04628468677401543, 0.006728454492986202, 0.03720131516456604, -0.05013600364327431, 0.00784932728856802, -0.03720345348119736, -0.013550421223044395, 0.0037707281298935413, -0.03224183991551399, -0.04786759614944458, -0.08069130778312683, 0.019733216613531113, -0.04236691817641258, 0.002407986670732498, 0.06442438066005707, 0.016434194520115852, -0.0960174947977066, 0.00536902341991663, -0.033098649233579636, -0.018400903791189194, 0.01663876324892044, 0.03819147124886513, 0.03153982385993004, -0.03903375566005707, 0.0010780594311654568, -0.016620852053165436, -0.0020988041069358587, 0.08344858139753342, 0.0014710873365402222, 0.01969963125884533, -0.018124504014849663, -0.012563588097691536, 0.09654239565134048, 0.007228044793009758, 0.017828410491347313, 0.03507624939084053, 0.04862755164504051, 0.014880473725497723, 0.04405345767736435, 0.01608976721763611, 0.02616332285106182, 0.0463491752743721, 0.01315991673618555, -0.14128512144088745, 0.0964287519454956, 0.033816054463386536, 0.03249077871441841, 0.008473609574139118, 0.00251758168451488, -0.004208687227219343, 0.01975416950881481, -0.08259501308202744, 0.020094024017453194, -0.0037407001946121454, 0.08693497627973557, 0.026745885610580444, 0.06577561795711517, -0.005778579041361809, 0.03247859701514244, 0.03515886515378952, 0.015358326956629753, 0.017880631610751152, -0.027408655732870102, -0.0027554004918783903, 0.001314598717726767, -0.02252110093832016, -0.05375877395272255, -0.017088402062654495, 0.0013864556094631553, 0.017156431451439857, -0.027071116492152214, -0.07337808609008789, 0.07249514758586884, 0.02743733488023281, 0.028729619458317757, -0.046756960451602936, -0.0698968768119812, -0.010869151912629604, 0.0191547442227602, -0.0731956884264946, 0.3154420256614685, 0.0050177318044006824, -0.012379086576402187, -0.008486633189022541, -0.0255398191511631, 0.07251013070344925, -0.05977021902799606, 0.0018448904156684875, 0.06283515691757202, 0.005022275727242231, 0.015545843169093132, 0.0035863080993294716, -0.011114144697785378, 0.037431664764881134, -0.02678065001964569, 0.07179869711399078, 0.015031649731099606, -0.07671920210123062, 0.004207543097436428, -0.007704766467213631, -0.010672158561646938, 0.02042519673705101, 0.03524370864033699, 0.03910786285996437, 0.0026708601508289576, 0.014007451012730598, -0.0034796337131410837, 0.09215380996465683, 0.09463845938444138, -0.04205198213458061, 0.12256412953138351, -0.025289393961429596, -0.06548848748207092, 0.0003574905567802489, 0.01661229133605957, 0.023035025224089622, 0.011967813596129417, 0.03416634351015091, 0.017754696309566498, -0.04009317234158516, 0.11514518409967422, 0.00037073841667734087, -0.0767367035150528, -0.0009352292981930077, -0.07023870199918747, 0.01941102370619774, 0.08708486706018448, 0.017836276441812515, 0.03737262636423111, -0.0038369919639080763, -0.035578563809394836, -0.02100781351327896, 0.03245442360639572, 0.003916017711162567, -0.032788291573524475, -0.029580047354102135, 0.006557416170835495, 0.06259415298700333, 0.010038153268396854, 0.019794678315520287, 0.0017499446403235197, -0.00048691846313886344, -0.0971677377820015, -0.023139588534832, 0.06600290536880493, -0.009376874193549156, -0.11029995232820511, -0.015031726099550724, -0.035324759781360626, -0.025872640311717987, -0.02441573701798916, -0.03839988633990288, -0.00970943458378315, 0.010770266875624657, -0.010925632901489735, 0.04014187678694725, 0.009654167108237743, -0.06475638598203659, -0.023243281990289688, -0.02383110299706459, -0.031432654708623886, 0.018089478835463524, -0.06179216131567955, 0.029185300692915916, -0.053186316043138504, -0.015771223232150078, -0.058144230395555496, -0.0628051906824112, -0.05063740536570549, 0.05892155319452286, -0.06855801492929459, -0.12017704546451569, -0.054388850927352905, 0.0035001414362341166, -0.020629767328500748, 0.014123204164206982, -0.03415806591510773, -0.056010205298662186, -0.043419770896434784, 0.01238634716719389, -0.04105572775006294, 0.08821158856153488, -0.007253556977957487, -0.03145886957645416, -0.042125049978494644, -0.01687767542898655, 0.06510032713413239, -0.02568385936319828, -0.007057421840727329, 0.10040449351072311, -0.032321855425834656, 0.028607981279492378, 0.007623827550560236, 0.14317834377288818, -0.019035087898373604, -0.020735396072268486, -0.034007903188467026, -1.7760659829946235e-05, 0.07199346274137497, 0.026184162124991417, 0.08774609118700027, 0.01912049390375614, 0.08191164582967758, -0.04704074189066887, -0.2773173749446869, -0.029190240427851677, -0.010487932711839676, -0.004829776473343372, -0.030896129086613655, -0.02306404709815979, 0.021390141919255257, -0.0003946040815208107, -0.060165464878082275, 0.060580063611269, 0.11986871063709259, 0.025642629712820053, -0.013448520563542843, -0.01836499199271202, -0.008387875743210316, -0.01675715111196041, 0.0029685571789741516, 0.010894281789660454, -0.04672275111079216, 0.022267920896410942, -0.06314420700073242, 0.034625351428985596, -0.043746113777160645, -0.0447000116109848, 0.0448092482984066, 0.030415011569857597, 0.12794244289398193, -0.04204520210623741, -0.006399764679372311, -0.1000857874751091, 0.029744578525424004, 0.025256779044866562, -0.08125116676092148, -0.15731734037399292, 0.0008573554805479944, 0.0365566723048687, 0.02844284661114216, 0.007322084624320269, -0.007272735238075256, -0.015866879373788834, -0.036840617656707764, 0.013307706452906132, -0.0023954075295478106, -0.0230791624635458, -0.024357538670301437, -0.0005274965078569949, 0.002599038416519761, 0.05073946341872215, -0.04398786649107933, -0.0197162888944149, -0.013000722974538803, 0.003426599781960249, 0.037773311138153076, 0.06752920895814896, 0.01030427124351263, 0.005987131968140602, -0.017021898180246353, 0.09764766693115234, 0.03752509504556656, 0.034709539264440536, 0.045286960899829865, 0.038716189563274384, -0.0010951634030789137, -0.06335314363241196, 0.05257914960384369, 0.02465832605957985, -0.02200966142117977, 0.0782242864370346, -0.019382284954190254, 0.028875285759568214, 0.037449732422828674, 0.03738456219434738, -0.07296843081712723, 0.029752491042017937, -0.008339034393429756, -0.018486671149730682, 0.022693870589137077, -0.03090439736843109, 0.02254103682935238, -0.05918823555111885, 0.06663545966148376, -0.012301005423069, 0.026532458141446114, -0.0013799573061987758, -0.013192463666200638, 0.028692319989204407, 0.021621985360980034, -0.003053204622119665, -0.01463923417031765, 0.011488227173686028, 0.005505457520484924, 0.006010802928358316, -0.029524726793169975, -0.06372526288032532, 0.041936177760362625, 0.0058563449420034885, -0.24160891771316528, -0.008561105467379093, -0.004934021271765232, -0.0721389502286911, -0.03888360410928726, 0.05825582891702652, 0.027977069839835167, 0.006769728381186724, -0.11676252633333206, 0.05772949010133743, -0.022252019494771957, -0.0011806910624727607, -0.05308351293206215, -0.011989613063633442, 0.05320485681295395, 0.014463852159678936, 0.048447851091623306, -0.03682670369744301, -0.08983401209115982, -0.07051752507686615, 0.03118596225976944, -0.005923171993345022, 0.17516085505485535, -0.01270234864205122, 0.03889971971511841, 0.0061448970809578896, 0.010349222458899021, 0.036808550357818604, 0.01318820659071207, -0.02707591839134693, 0.003668325487524271, -0.032287564128637314, 0.007475482299923897, -0.030700646340847015, 0.012469552457332611, -0.037174519151449203, -0.0077648949809372425, 0.023577924817800522, -0.012795682065188885, -0.0333712063729763, 5.775246972916648e-05, 0.01958383060991764, 0.01159044448286295, -0.010879031382501125, 0.06907492130994797, 0.02427782118320465, -0.026543403044342995, -0.013985185883939266, 0.010571426711976528, 0.000918087549507618, -0.013523236848413944, -0.05803350731730461, 0.04424421489238739, 0.0216525848954916, -0.00881611555814743, 0.007759547792375088, -0.010591906495392323, -0.0016734428936615586, -0.0493832565844059, -0.0090296296402812, 0.04177488759160042, -0.029171250760555267, 0.04351133108139038, 0.006258951500058174, 0.021047329530119896]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>phone_technical_issues_leading_to_large_bill</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Unfortunately my phone has had technical issues, and I am left with a large bill. I will need to pay out the remaining balance on my phone and then buy a new one, so that is disappointing. As said before, customer service in the CBD chch cannot be faulted.  Connectivity has not been great, and plan could offer more data for the price, so I will likely be switching providers when I get new phone. Thankyou\nReason for given NPS: Great service with face to face customer service, however help via the phone difficult']</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>[-0.07249228656291962, -0.051962923258543015, -0.0027942180167883635, -0.017213309183716774, -0.01873897947371006, -0.09358308464288712, -0.017369434237480164, 0.05575950816273689, -0.0024444740265607834, -0.0397908017039299, 0.024573063477873802, 0.07289272546768188, 0.028748733922839165, 0.0031951460987329483, 0.012048749253153801, 0.04355282336473465, 0.09813209623098373, -0.07296489924192429, 0.011221453547477722, 0.07951324433088303, 0.08726981282234192, 0.0017203029710799456, -0.004007257055491209, 0.02402902953326702, 0.020236220210790634, 0.045621391385793686, -0.01925092190504074, -0.04072898253798485, -0.05215875804424286, -0.14594216644763947, -0.006983902305364609, -0.011376218870282173, 0.03396565094590187, 0.00682487478479743, 0.08976171165704727, -0.014751686714589596, -0.04698393493890762, -0.017451543360948563, 0.03947868198156357, 0.0418832041323185, -0.012918064370751381, 0.07263520359992981, -0.051717180758714676, -0.059481170028448105, -0.07261934876441956, -0.038123756647109985, 0.04697563126683235, 0.04917389526963234, 0.06101367995142937, -0.05225033313035965, 0.005586944054812193, -0.013603104278445244, 0.006674807518720627, 0.0379190593957901, 0.0027959612198174, 0.04417720064520836, 0.08885615319013596, 0.0415143184363842, 0.08153670281171799, -0.021107526496052742, 0.05058402568101883, -0.011411262676119804, -0.1622278094291687, 0.13160879909992218, 0.03002919815480709, 0.013322967104613781, -0.014558237046003342, 0.03247950226068497, 0.0033028554171323776, 0.0017633986426517367, -0.005016989540308714, 0.014292759820818901, -0.04591458663344383, 0.05959118902683258, 0.0464264377951622, 0.02710001729428768, -0.013089028187096119, 0.0028423883486539125, -0.03554432839155197, 0.022503359243273735, 0.012443161569535732, -0.020011091604828835, -0.019197404384613037, -0.03858429938554764, -0.025519704446196556, -0.07707342505455017, 0.04590855538845062, 0.01153124962002039, 0.00797516480088234, -0.07487685978412628, 0.01710875891149044, 0.0024811942130327225, 0.033285435289144516, 0.030000805854797363, -0.04899781569838524, -0.015679843723773956, 0.018694033846259117, 0.012422606348991394, -0.08427485078573227, 0.36062681674957275, -0.012416161596775055, 0.02225032076239586, 0.02310531586408615, 0.030380815267562866, 0.05294305086135864, -0.0013902924256399274, -0.009772227145731449, 0.0006503675831481814, -0.014058616943657398, -0.0178187545388937, 0.016790077090263367, -0.006688167806714773, 0.007337689399719238, -0.004636405035853386, 0.015357968397438526, 0.04808388277888298, -0.018576351925730705, -0.05332124978303909, -0.05195264518260956, 0.0068989526480436325, -0.018012184649705887, 0.003858022391796112, -0.014882516115903854, -0.0010856500593945384, -0.012708507478237152, 0.012392294593155384, 0.04765486717224121, 0.13298194110393524, -0.02731151692569256, 0.024567298591136932, -0.014156892895698547, 0.0052347565069794655, -0.0536499097943306, 0.027239376679062843, -0.012336592189967632, -0.0071513354778289795, 0.0406544953584671, 0.0029754044953733683, 0.017863804474473, 0.011125613935291767, -0.04583727568387985, -0.09305404126644135, -0.038213081657886505, -0.054951246827840805, -0.013622445985674858, 0.07009688019752502, -0.05816476047039032, 0.04845345392823219, 0.03754802420735359, -0.08267828077077866, -0.025750601664185524, 0.029681870713829994, 0.06407152116298676, -0.061489660292863846, 0.0128674590960145, 0.01116408221423626, 0.021915478631854057, 0.029051780700683594, 0.008399203419685364, -0.0016813077963888645, 0.06974668800830841, 0.0036093469243496656, -0.051504503935575485, 0.08326604962348938, 0.05984024703502655, -0.08123866468667984, -0.042514726519584656, -0.0541059784591198, -0.05316920951008797, -0.04977560415863991, -0.06839681416749954, 0.042532779276371, -0.0073786536231637, -0.00828232616186142, 0.043730560690164566, -0.033296745270490646, -0.06071026250720024, 0.03641299530863762, -0.020491160452365875, -0.005588056519627571, 0.015715179964900017, 0.006171226967126131, -0.002457116963341832, -0.04242303594946861, 0.026711417362093925, -0.05066557973623276, 0.0016665724106132984, -0.01804768480360508, 0.037372250109910965, -0.02277669683098793, -0.02874615602195263, 0.0423736535012722, -0.032312922179698944, -0.06597614288330078, -0.033340465277433395, -0.0582214817404747, -0.009420963935554028, 0.02037161961197853, 0.040992189198732376, -0.023755986243486404, 0.05173386633396149, -0.026259778067469597, -0.0674424096941948, 0.04167545586824417, 0.009004802443087101, 0.04778910428285599, -0.02111426182091236, -0.026109158992767334, 0.023302942514419556, -0.0098258713260293, 0.05263155698776245, 0.0023468374274671078, 0.12883692979812622, -0.00028829113580286503, -0.01627613976597786, -0.010440682992339134, -0.001346693141385913, 0.0823596939444542, 0.03702002018690109, 0.010613713413476944, -5.070224142400548e-05, 0.04819711297750473, 0.030653156340122223, -0.3229561448097229, -0.04813472926616669, 0.010469229891896248, -0.0572572723031044, -0.09310565143823624, -0.0017585530877113342, -0.001992281759157777, -0.07225622236728668, -0.009472494944930077, 0.061248261481523514, -0.0036648220848292112, 0.016249880194664, 0.0029870590660721064, -0.04643216356635094, -0.006338897626847029, -0.011629675514996052, -0.0504290945827961, 0.03701396659016609, -0.0060756877064704895, 0.044288232922554016, -0.012014612555503845, 0.009571828879415989, -0.051288556307554245, -0.046770837157964706, 0.024857327342033386, 0.013704610988497734, 0.12082313746213913, -0.05408914014697075, -0.04052252322435379, -0.004770851228386164, 0.05745132267475128, 0.02606392093002796, -0.016547661274671555, -0.06511218100786209, 0.028806712478399277, 0.002507437253370881, -0.021178532391786575, 0.09784216433763504, 0.011367060244083405, -0.026751454919576645, -0.09064890444278717, 0.014907879754900932, -0.03322884440422058, 0.0173774603754282, 0.07876349240541458, 0.036103762686252594, -0.037067171186208725, 0.03472064062952995, -0.01538324635475874, -0.005118074826896191, 0.03662562370300293, -0.0064253308810293674, 0.03972721844911575, 0.031233372166752815, 0.11203919351100922, -0.04252875596284866, -0.04177926108241081, 0.04581369459629059, -0.01361088640987873, -0.05530340597033501, -0.017542138695716858, -0.011544547975063324, 0.036447376012802124, -0.022240078076720238, 0.039233528077602386, 0.008165203966200352, -0.03330415114760399, 0.0546652153134346, -0.042938392609357834, 0.03967578336596489, 0.015905803069472313, 0.02485816553235054, -0.011589816771447659, -0.014834009110927582, 0.015798460692167282, 0.00021371134789660573, 0.07551786303520203, -0.026850078254938126, -0.013140153139829636, -0.05822959169745445, 0.055098794400691986, 0.015823373571038246, 0.04005325958132744, -0.052306633442640305, -0.005880351178348064, -0.023371024057269096, 0.018148284405469894, 0.046462975442409515, 0.012483038939535618, -0.054544348269701004, 0.026209430769085884, -0.023343631997704506, -0.007612010929733515, -0.007589275483042002, 0.10408657789230347, -0.004861227702349424, -0.21589389443397522, 0.04513559490442276, -0.03855464980006218, -0.010553409345448017, -0.08047132194042206, 0.04121144860982895, -0.026746513321995735, 0.04439413174986839, -0.030198922380805016, -0.002186798257753253, -0.06495457142591476, 0.01564921624958515, -0.010243699885904789, 0.002984743332490325, 0.026978835463523865, -0.02842024900019169, 0.043188877403736115, 0.018410075455904007, -0.003740335814654827, 0.0036531826481223106, 0.0189676471054554, -0.025892628356814384, 0.11544302105903625, -0.02871950902044773, -0.0018395398510619998, -0.02751930244266987, -0.01701687090098858, 0.050729040056467056, 0.0774572342634201, -0.026257965713739395, -0.03362445905804634, -0.001927499077282846, 0.05237577483057976, -0.029328150674700737, 0.0084782550111413, -0.03609490767121315, 0.04525056108832359, -0.06909751147031784, -0.03666697442531586, 0.01780916377902031, -0.055719103664159775, 0.029754364863038063, -0.019704140722751617, -0.019885290414094925, 0.04724861681461334, 0.05523962154984474, -0.02036556974053383, 0.013281097635626793, 0.026134589686989784, 0.05915071442723274, -0.02706812508404255, -0.050153039395809174, -0.01533345878124237, 0.06146816909313202, -0.02108410932123661, 0.048334624618291855, -0.020854393020272255, 0.0077360570430755615, -0.052915383130311966, -0.023008398711681366, -0.0315345823764801, -0.05668165534734726, -0.03434387221932411, -0.0030342452228069305, -0.0007178242667578161]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>need_to_pay_remaining_phone_balance</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Unfortunately my phone has had technical issues, and I am left with a large bill. I will need to pay out the remaining balance on my phone and then buy a new one, so that is disappointing. As said before, customer service in the CBD chch cannot be faulted.  Connectivity has not been great, and plan could offer more data for the price, so I will likely be switching providers when I get new phone. Thankyou\nReason for given NPS: Great service with face to face customer service, however help via the phone difficult']</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>[-0.0722125992178917, -0.05055667459964752, -0.010435204952955246, -0.03170865401625633, -0.022376812994480133, -0.05960199236869812, 0.002216011518612504, 0.031936924904584885, 0.031116684898734093, -0.03726169094443321, 0.013448195531964302, 0.006550035905092955, 0.000618393300101161, 0.015056475065648556, 0.02361002005636692, -0.027548430487513542, 0.07707580924034119, -0.008447750471532345, -0.028019964694976807, 0.05174868553876877, 0.022222016006708145, -0.028986208140850067, -0.023267868906259537, 0.04226359352469444, 0.038450244814157486, 0.011476928368210793, -0.029461655765771866, -0.030926570296287537, -0.06245093420147896, -0.08342523127794266, -0.004151721950620413, 0.01706414856016636, -0.004136791918426752, -0.005979030858725309, 0.04208468273282051, 0.006763073615729809, -0.06786585599184036, -0.02444828860461712, 0.027475867420434952, 0.07984165102243423, -0.013341682031750679, 0.08892281353473663, -0.03290383890271187, -0.029894689098000526, -0.019470613449811935, -0.05757098272442818, 0.04222258925437927, 0.04410160705447197, 0.09702032059431076, -0.02496165595948696, 0.08911837637424469, -0.008321869187057018, -0.032313525676727295, 0.03353002294898033, 0.00039700488559901714, 0.07088858634233475, 0.06503485143184662, 0.03526594117283821, 0.038396093994379044, 0.0401531346142292, 0.061447639018297195, -0.04391719400882721, -0.12319532781839371, 0.020274149253964424, -0.040149983018636703, 0.007817871868610382, 0.004244673997163773, -0.0073455339297652245, -0.005124163348227739, 0.07704444974660873, -0.015379763208329678, -0.04091362655162811, -0.0478917695581913, 0.05662459880113602, -0.001833809888921678, 0.0027596137952059507, 0.029353929683566093, -0.007698984816670418, -0.04430123046040535, 0.06633804738521576, -0.0010780299780890346, 0.0037953201681375504, 0.02786092460155487, 0.05798695981502533, -0.016558967530727386, -0.029073985293507576, 0.023300547152757645, -0.015954598784446716, 0.010704775340855122, -0.011587939225137234, 0.019754678010940552, -0.003504419233649969, 0.032597362995147705, 0.059327442198991776, -0.06418538093566895, 0.01037099864333868, -0.014442003332078457, 0.025734569877386093, -0.12316667288541794, 0.3934211730957031, 0.023743730038404465, 0.0494869165122509, 0.02693481184542179, 0.02999487705528736, 0.04042268544435501, -0.024137120693922043, -0.03911558538675308, 0.01711115427315235, -0.04256641864776611, -0.03656851127743721, -0.05019903928041458, -0.001343808602541685, 0.05624500289559364, -0.026310982182621956, 0.02400912716984749, 0.12363243848085403, -0.0016731234500184655, -0.02286197990179062, 0.020542025566101074, -0.007833575829863548, -0.010656229220330715, 0.021741123870015144, -0.033420536667108536, 0.04352385550737381, -0.016984138637781143, -0.04336144030094147, 0.0356871634721756, 0.09522917121648788, 0.03736553341150284, 0.05748118460178375, 0.01621275395154953, -0.06694906949996948, -0.04547029361128807, -0.008841528557240963, -0.024060098454356194, -0.009907446801662445, 0.023206043988466263, 0.027766743674874306, 0.027764225378632545, 0.007931816391646862, -0.030749604105949402, -0.1385909616947174, -0.0763595849275589, -0.05529443919658661, -0.004727746360003948, 0.09446489810943604, -0.004071192815899849, 0.022729285061359406, 0.005657213274389505, -0.09795894473791122, -0.027417033910751343, 0.06810031831264496, 0.03884917497634888, -0.03557268902659416, 0.015421334654092789, 0.015180755406618118, 0.02853994630277157, -0.01699790731072426, -0.021301474422216415, 0.005370647180825472, 0.04578777030110359, -0.10311095416545868, -0.058891210705041885, 0.049703240394592285, 0.064365915954113, -0.06060865521430969, -0.0041242921724915504, -0.0064037214033305645, -0.03750533610582352, -0.029606953263282776, 0.005650681909173727, 0.020932361483573914, -0.05533935874700546, -0.02205601893365383, 0.08012329787015915, -0.05846242234110832, -0.01923191361129284, 0.07077495008707047, -0.021855052560567856, 0.01376740075647831, -0.029651610180735588, 0.024340860545635223, -0.041822075843811035, 0.005293217487633228, -0.01113246101886034, -0.0455227792263031, -0.019950471818447113, -0.06636607646942139, 0.018686549738049507, -0.008110138587653637, -0.043484512716531754, -0.05170522630214691, -0.0074026938527822495, -0.009957920759916306, -0.03477972000837326, -0.008568551391363144, -0.046172115951776505, 0.010394290089607239, 0.028108568862080574, -0.014440241269767284, 0.1051936224102974, 0.0013705192832276225, -0.019157275557518005, -0.013184640556573868, 0.011688736267387867, 0.06906621903181076, 0.0008771860157139599, 0.023170094937086105, 0.034556396305561066, 0.017036154866218567, 0.07075397670269012, 0.01565902680158615, 0.14473214745521545, 0.022668147459626198, 0.04081583395600319, -0.02556954137980938, 0.029874751344323158, 0.02407110296189785, 0.031695835292339325, -0.04157359153032303, -0.034130822867155075, 0.025530006736516953, 0.05842209979891777, -0.25448888540267944, -0.045124270021915436, 0.014499666169285774, -0.06990032643079758, -0.05101378634572029, -0.02537107840180397, 0.03300733491778374, -0.04525717347860336, -0.04448840022087097, 0.03844411298632622, 0.05471816286444664, 0.009127560071647167, 0.007330713793635368, -0.0563504733145237, 0.05440441146492958, -0.007724543567746878, -0.027498476207256317, 0.009546884335577488, -0.008473374880850315, -0.025237349793314934, -0.013056662864983082, -0.0217208843678236, -0.03752738609910011, -0.0429869070649147, 0.09389657527208328, 0.03025856614112854, 0.1575167179107666, -0.022032277658581734, -0.06103596091270447, -0.007115520536899567, 0.02161284349858761, 0.04372149705886841, -0.018317919224500656, -0.1043996512889862, 0.024426063522696495, -0.018722597509622574, -0.07844312489032745, -0.01773608848452568, -0.022412752732634544, -0.02644863724708557, 0.017016422003507614, 0.046303704380989075, -0.04464200511574745, 0.03464305400848389, 0.046250395476818085, 0.031131841242313385, -0.06398957967758179, 0.013921535573899746, -0.032829489558935165, -0.020793115720152855, 0.010430894792079926, -0.028117025271058083, -0.010526273399591446, 0.05429484695196152, 0.1236884742975235, -0.022896360605955124, -0.01896596886217594, 0.021748151630163193, -0.07014583796262741, -0.025407379493117332, -0.0042816768400371075, -0.021438593044877052, 0.013384740799665451, 0.025112153962254524, 0.050178173929452896, -0.006676286458969116, -0.0581158883869648, 0.017343388870358467, -0.032800376415252686, 0.02299504540860653, 0.0018874251982197165, 0.023450586944818497, 0.03527829796075821, -0.012847349047660828, -0.04513506218791008, 0.019353976473212242, 0.08038346469402313, 0.019187621772289276, -0.006972917355597019, -0.030723394826054573, 0.029896656051278114, -0.02021072804927826, 0.06808902323246002, 0.042570337653160095, -0.009651501663029194, 0.0713823139667511, 0.039253029972314835, 0.05088666081428528, 0.01836773194372654, -0.02049829810857773, -0.054544009268283844, 0.05485115200281143, -0.008317365311086178, 0.010808571241796017, 0.07965916395187378, 0.0002569760545156896, -0.2035684883594513, 0.016257306560873985, -0.04608984664082527, 0.01501060463488102, -0.028541116043925285, 0.048928890377283096, 0.02435503527522087, 0.033454783260822296, -0.13190792500972748, 0.024376429617404938, -0.013239892199635506, 0.025698114186525345, -0.01788407564163208, -0.03320816531777382, 0.05092262849211693, -0.024095389991998672, 0.02912467159330845, -0.057007722556591034, -0.04781854897737503, -0.005353577900677919, 0.05196278169751167, -0.02545091323554516, 0.10862788558006287, -0.04064163565635681, -0.01481496449559927, -0.0031719838734716177, -0.0149841932579875, 0.06237061694264412, 0.10348553210496902, 0.002094720955938101, -0.07000398635864258, 0.012804105877876282, 0.04363252595067024, -0.024190200492739677, -0.016539862379431725, -0.04203798621892929, -0.033435266464948654, 0.0150431664660573, -0.024798963218927383, 0.0009539655293338001, -0.04545939713716507, -0.0024728639982640743, -0.03065413422882557, 0.005645721219480038, 0.045278679579496384, -0.009631405584514141, -0.062063101679086685, -0.04662121832370758, 0.028339102864265442, 0.048233818262815475, -0.02450859174132347, -0.08457563072443008, -0.02053333818912506, 0.0011835715267807245, -0.016664117574691772, 0.02330680564045906, -0.07706266641616821, 0.00978816021233797, 0.046481840312480927, -0.02004360780119896, -0.04363781586289406, -0.028508925810456276, 0.013194696046411991, -0.038938239216804504, -0.022880762815475464]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>frequent_internet_outages_in_rural_areas</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Internet\nReason for given NPS: Because we live at Maungatapere and have endest problems with One NZ']</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>[-0.015186425298452377, -0.06694168597459793, -0.006437190342694521, 0.021099666133522987, 0.06494908779859543, -0.05907926335930824, -0.01335766352713108, 0.018221136182546616, 0.0022712789941579103, -0.023445358499884605, 0.024156194180250168, 0.011594206094741821, 0.0557500496506691, 0.008871466852724552, 0.028102528303861618, 0.028333554044365883, 0.05016908049583435, -0.04700343310832977, 0.02666027657687664, 0.014429653063416481, 0.039916954934597015, 0.011360863223671913, 0.005815372336655855, 0.0026105036959052086, 0.0052304393611848354, -0.000488038087496534, -0.01829175464808941, -0.04039080813527107, -0.07095429301261902, -0.07618236541748047, 0.014725499786436558, 0.00596877234056592, -0.0014633730752393603, 0.02713858149945736, 0.008119581267237663, -0.040020961314439774, 0.028712231665849686, -0.026466142386198044, 0.0007488957489840686, 0.0060053314082324505, 0.000724655226804316, -0.0034539690241217613, 0.016830163076519966, -0.028183456510305405, -0.09130982309579849, -0.03663725405931473, 0.02715153619647026, 0.002403907710686326, 0.05664953961968422, -0.05128956958651543, -0.022352201864123344, 0.01638266071677208, 0.0023458346258848906, 0.018730808049440384, 0.05609644204378128, 0.0336369052529335, -0.00036936847027391195, 0.10218171775341034, 0.05574420094490051, 0.00592211727052927, 0.057139214128255844, 0.019526639953255653, -0.1456885188817978, 0.01707964763045311, 0.049109723418951035, -7.457409083144739e-05, 0.0035383228678256273, -0.00025544027448631823, 0.039396315813064575, -0.0524541512131691, -0.061830468475818634, 0.07999169826507568, -0.026294194161891937, 0.06683538854122162, -0.013776115141808987, 0.06291502714157104, -0.051555778831243515, 0.030642705038189888, -0.03879040852189064, 0.009532214142382145, 0.04659968242049217, -0.01891391910612583, 0.025185476988554, -0.0006512535619549453, -0.009366962127387524, -0.04320014268159866, 0.005398428067564964, 0.02358918823301792, 0.015684543177485466, 0.004007442854344845, -0.052604906260967255, 0.048872072249650955, 0.046024028211832047, 0.02723819576203823, -0.03617218881845474, -0.02996341697871685, -0.013936222530901432, 0.007760229054838419, -0.03760693222284317, 0.37474843859672546, -0.003011505352333188, -0.01939368061721325, 0.02436200901865959, 0.021912675350904465, 0.03605900704860687, -0.01960029825568199, -0.007787646260112524, -0.06058816984295845, -0.023752091452479362, 0.0406121164560318, 0.013498656451702118, -0.04317673668265343, 0.013914650306105614, -0.00845571979880333, 0.015939224511384964, -0.02360626868903637, 0.023525899276137352, -0.010279417969286442, -0.058235976845026016, 0.06176050379872322, -0.07582135498523712, 0.037649914622306824, 0.05117879807949066, -0.009685252793133259, 0.11007783561944962, 0.026061786338686943, 0.05924731120467186, 0.11151741445064545, 0.033063266426324844, 0.010173073969781399, -0.019529422745108604, 0.026517648249864578, -0.007412976585328579, -0.012353437021374702, 0.01769741252064705, 0.008764420635998249, 0.049160439521074295, -0.003409165656194091, -0.03703068941831589, 0.03795090317726135, 0.050290923565626144, -0.09395726025104523, 0.027122894302010536, -0.04308326169848442, 0.016992729157209396, 0.09852635860443115, 0.049648579210042953, 0.08317843824625015, 0.016764387488365173, -0.05977253615856171, 0.02049301564693451, 0.043428633362054825, -0.009182224981486797, -0.03132572025060654, -0.010338881053030491, 0.04431656748056412, 0.030987229198217392, 0.046169932931661606, 0.03814912587404251, -0.02702687680721283, 0.029788454994559288, -0.04715458303689957, 0.013899522833526134, 0.054510798305273056, -0.032699450850486755, -0.06656360626220703, -0.03493223339319229, -0.02197415940463543, -0.06509558111429214, 0.019793780520558357, -0.02294018305838108, -0.0015244799433276057, -0.005940204951912165, -0.04328757897019386, 0.06552237272262573, -0.06586414575576782, -0.038907188922166824, -0.025948073714971542, -0.0612330287694931, -0.00824698619544506, -0.010642766952514648, 0.027988770976662636, 0.004324415698647499, 0.013578396290540695, -0.01677238568663597, 0.003739849431440234, -0.025351330637931824, -0.013650710694491863, 0.05823783949017525, -0.08018235117197037, -0.11112803220748901, -0.11803150177001953, -0.0017075070645660162, -0.08727243542671204, 0.02990863099694252, -0.012497350573539734, -0.0004319555009715259, -0.01595393568277359, 0.06739060580730438, -0.06075118109583855, 0.11700090765953064, -0.0072124553844332695, -0.03101038560271263, -0.009324870072305202, -0.037822265177965164, 0.031749527901411057, -0.010987293906509876, -0.0416456013917923, 0.010730810463428497, -0.01575436256825924, 0.04181349650025368, -0.023392420262098312, 0.08882798254489899, 0.009100808762013912, -0.056469112634658813, 0.008085446432232857, -0.006970718037337065, 0.06948211044073105, 0.01468721590936184, 0.07377246767282486, 0.004046418704092503, 0.042569052428007126, -0.05578293651342392, -0.2660509943962097, -0.06018460541963577, -0.002138350857421756, -0.08577597886323929, -0.03213717043399811, -0.03357352316379547, -0.025891322642564774, -0.008178540505468845, 0.018058588728308678, 0.06405322253704071, 0.07328753173351288, 0.0234035924077034, 0.0012479395372793078, -0.026549536734819412, 0.00038256836705841124, 0.02291717752814293, -0.04233160242438316, 0.03726751729846001, -0.05724254623055458, 0.007032363209873438, -0.0028477683663368225, -0.004858462605625391, -0.0217991154640913, -0.05974133312702179, 0.025701483711600304, -0.03605443984270096, 0.11719343811273575, -0.06128830090165138, 0.01668710447847843, -0.06936042755842209, 0.011447702534496784, 0.04654766246676445, -0.009263192303478718, -0.06756706535816193, 0.010905977338552475, 0.03445402905344963, 0.026349535211920738, 0.04322414472699165, 0.006805185228586197, 0.011082079261541367, -0.034635283052921295, 0.07248306274414062, 0.01325366273522377, -0.04029829800128937, 0.00348542514257133, -0.019650042057037354, -0.019465094432234764, 0.013881811872124672, -0.02137478068470955, -0.03779999166727066, 0.00526276882737875, -0.02356954850256443, 0.08672597259283066, 0.05004160851240158, 0.0433211624622345, -0.015345514751970768, -0.04407268762588501, 0.015166506171226501, 0.015104231424629688, -0.022364454343914986, 0.037997767329216, -0.027858924120664597, 0.06830981373786926, -0.08573702722787857, 0.1368398368358612, -0.022419536486268044, -0.0021663338411599398, 0.006660141982138157, -0.0008575154352001846, 0.05684732273221016, -0.018051257357001305, 0.10233008861541748, -0.06251195818185806, -0.010477074421942234, -0.01246900949627161, -0.03596428409218788, 0.038242973387241364, -0.019721470773220062, 0.008783720433712006, -0.04439025744795799, 0.09028822183609009, -0.08859281241893768, 0.02535202167928219, 0.038587912917137146, -0.015876110643148422, 0.0066735283471643925, -0.05851604416966438, 0.03813356161117554, 0.03663063794374466, 0.023507634177803993, 0.0004527097335085273, -0.004300172906368971, -0.035175811499357224, -0.02382594347000122, 0.04061887040734291, 0.02042577788233757, -0.2633648216724396, 0.008602762594819069, -0.042640265077352524, -0.07288996875286102, -0.014303911477327347, 0.027455268427729607, 0.0005818177596665919, 0.061551760882139206, -0.036787763237953186, 0.04995307698845863, -0.019246146082878113, 0.028245681896805763, -0.028519848361611366, -0.08450084179639816, 0.0456879585981369, 0.03729879483580589, -0.025541268289089203, -0.02272518165409565, -0.050635501742362976, -0.08942383527755737, 0.013551057316362858, 0.0067134154960513115, 0.11544852703809738, -0.03521789237856865, 0.031209126114845276, 0.0431937538087368, 0.009426092728972435, 0.022719327360391617, 0.009935691021382809, 0.0026532055344432592, -0.010321577079594135, -0.014144878834486008, 0.051582153886556625, -0.012455763295292854, 0.008656550198793411, -0.02375819720327854, -0.016723062843084335, -0.05053364858031273, 0.011710052378475666, -0.04426797106862068, -0.06234681233763695, 0.0959622710943222, -0.0335208959877491, 0.02756439708173275, 0.027897940948605537, 0.0027733950410038233, -0.0453263483941555, -0.04532010108232498, 0.06640591472387314, 0.05300731211900711, -0.018528664484620094, -0.09068809449672699, -0.017931470647454262, 0.03519522398710251, -0.002838185988366604, 0.09136192500591278, -0.023753181099891663, -0.01120110135525465, -0.03616727888584137, -0.050636086612939835, 0.0066937655210494995, -0.08759584277868271, 0.019250867888331413, -0.03376207500696182, 0.0037532588467001915]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>mobile_data_usage_instead_of_wifi</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Everything from service to plans\nReason for given NPS: Failed on 2 occasions, both related to landline.\nPlus mobile data still get used rather then the home wi fi.']</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>[0.00934696476906538, 0.003739832201972604, 0.03761518746614456, -0.07479748129844666, 0.036370061337947845, -0.04406185820698738, -0.031740155071020126, 0.06429358571767807, 0.0634295642375946, 0.026086172088980675, 0.03341932222247124, -0.0005657380679622293, 0.02226044051349163, 0.021725969389081, 0.015039484947919846, -0.007305464241653681, 0.06621182709932327, -0.0747438594698906, -0.011239631101489067, 0.046507202088832855, 0.048112865537405014, -0.04866332933306694, 0.040525928139686584, 0.01199345476925373, 0.02504882402718067, 0.0532207228243351, -0.031419698148965836, 0.004929094109684229, -0.01604139618575573, -0.09163309633731842, 0.017811737954616547, -0.032096702605485916, -0.012503454461693764, 0.08008325845003128, 0.024779772385954857, -0.03818032145500183, 0.014763420447707176, -0.013635843060910702, -0.03058646060526371, 0.07817210257053375, -0.035223882645368576, 0.03662057965993881, -0.04143951088190079, 0.04744173586368561, -0.061395879834890366, 0.008612707257270813, -0.01041710376739502, 0.03776445612311363, 0.06409015506505966, -0.019907144829630852, 0.022684911265969276, 0.07084766775369644, -0.03032425418496132, 0.0034314205404371023, 0.07257755100727081, 0.05060389265418053, 0.024147186428308487, 0.009411275386810303, 0.040738530457019806, -0.004553694278001785, 0.055179063230752945, 0.07596875727176666, -0.09766906499862671, 0.052495453506708145, 0.016727933660149574, -0.03308100625872612, -0.02446764148771763, -0.0281602181494236, 0.021305998787283897, -0.05036267638206482, -0.07512909919023514, 0.026440763846039772, -0.03068307787179947, 0.04568251967430115, 0.05788588151335716, 0.036514248698949814, -0.060878802090883255, -0.0032134775537997484, -0.003943720366805792, 0.019193632528185844, 0.014688178896903992, -0.017987530678510666, 0.022585218772292137, 0.015642954036593437, -0.005178781226277351, -0.062093622982501984, -0.07009659707546234, -0.012152105569839478, -0.021261515095829964, -0.045879460871219635, -0.08044566959142685, 0.00023406741092912853, 0.009663863107562065, 0.03736792504787445, -0.07221417874097824, -0.007571178954094648, 0.004364876076579094, 0.060895055532455444, -0.059216853231191635, 0.41217300295829773, -0.056263092905282974, 0.057940199971199036, 0.01325534749776125, 0.02565578557550907, -0.01402686070650816, -0.020256267860531807, -0.03078063577413559, -0.014063330367207527, -0.017355600371956825, 0.07016530632972717, 0.007868264801800251, -0.051868271082639694, -0.029653726145625114, -0.0031993987504392862, 0.03189859911799431, 0.017075445502996445, -0.009907339699566364, 0.0015957187861204147, -0.003450074465945363, 0.11670336127281189, -0.03783059120178223, -0.06791085004806519, 0.048432283103466034, -0.0013568018330261111, 0.021997442469000816, -0.033059101551771164, 0.042955487966537476, 0.0493832565844059, -0.042925138026475906, 0.05525587126612663, -0.023755067959427834, -0.018753934651613235, -0.09167957305908203, -0.0035995140206068754, -0.019789906218647957, 0.004300054628401995, 0.03575420752167702, -0.005179771222174168, 0.027747467160224915, 0.003158104605972767, -0.00746001023799181, -0.042385656386613846, -0.006361108273267746, -0.036977797746658325, 0.05171968787908554, 0.08472628891468048, 0.04076656699180603, 0.05287797376513481, 0.016315883025527, -0.09123740345239639, -0.00197812682017684, 0.052493155002593994, 0.06247307360172272, 0.005839772522449493, -0.059094686061143875, 0.050139911472797394, -0.005184421315789223, 0.039769720286130905, -0.0005890821339562535, -0.017823800444602966, 0.022295331582427025, -0.017696604132652283, -0.055837761610746384, 0.04118983447551727, 0.010721559636294842, -0.057641755789518356, 0.00696366373449564, 0.012494862079620361, -0.05542435869574547, -0.024202823638916016, -0.017801230773329735, -0.027204973623156548, -0.04288872703909874, 0.00991824921220541, 0.08943124115467072, -0.008419782854616642, -0.0776384025812149, 0.006847206503152847, -0.028424816206097603, -0.024575063958764076, -0.003163043176755309, -0.011928158812224865, -0.012102249078452587, -0.03863335773348808, 0.01356583833694458, 0.010287301614880562, -0.023097742348909378, 0.026014739647507668, 0.04769900441169739, 0.02778737060725689, -0.10511893033981323, -0.03133910149335861, -0.03640713542699814, -0.10336271673440933, -0.014892666600644588, -0.0563776008784771, 0.00891927070915699, 0.006988590117543936, -0.009527066722512245, -0.047331273555755615, 0.09591130912303925, 0.031773850321769714, 0.0011461690301075578, 0.03495747223496437, -0.021549321711063385, 0.015280548483133316, -0.06898099184036255, -0.014168938621878624, 0.04120352119207382, -0.029724344611167908, 0.05653472989797592, -0.03251150622963905, 0.057094983756542206, -0.016894226893782616, -0.003801722079515457, -0.04913501441478729, 0.001573994872160256, 0.024652522057294846, 0.027776090428233147, 0.025003710761666298, -0.04227258637547493, 0.026120128110051155, -0.030451778322458267, -0.2734816372394562, -0.027140947058796883, 0.035072583705186844, -0.06234216317534447, -0.11644283682107925, 0.001914986758492887, -0.02281210385262966, -0.0045940992422401905, 0.004702084697782993, 0.0632975846529007, 0.014094010926783085, 0.025064684450626373, -0.03640336915850639, 0.0006412270595319569, 8.341413195012137e-05, -0.026326773688197136, 0.007155288010835648, -0.027947550639510155, -0.014063892886042595, 0.007233251817524433, 0.009588653221726418, -0.03334483131766319, -0.010024486109614372, -0.0362822450697422, 0.009657814167439938, 0.008694292977452278, 0.1463831514120102, -0.004783595446497202, -0.026095598936080933, 0.015226954594254494, 0.046334508806467056, 0.04041620343923569, -0.013163060881197453, -0.09485002607107162, -0.019115760922431946, -0.011682880111038685, 0.009866361506283283, -0.017867470160126686, -0.0203541349619627, -0.05770347639918327, -0.05705346539616585, 0.07395931333303452, -0.0013445671647787094, -0.08429283648729324, 0.04918788745999336, -0.038848910480737686, -0.04115564748644829, 0.0023924356792122126, -0.0855572298169136, -0.01051407027989626, -0.008158119395375252, 0.04235478863120079, 0.03524727374315262, -0.010769620537757874, 0.06800875067710876, 0.012566136196255684, 0.010000093840062618, 0.07195378094911575, -0.03947265073657036, -0.026254458352923393, -0.03599800914525986, 0.029829952865839005, 0.021983813494443893, -0.08136214315891266, 0.03827090561389923, -0.027397681027650833, -0.05127366632223129, -0.004272720776498318, -0.03156966343522072, 0.06272205710411072, -0.0032796822488307953, 0.04813559725880623, 0.021596606820821762, 0.030665267258882523, 0.03438752144575119, -0.025173023343086243, 0.03164048492908478, 0.014014655724167824, 0.025740887969732285, -0.03861952945590019, 0.007901913486421108, 0.02185734175145626, 0.040265411138534546, -0.017282189801335335, -0.0026038172654807568, 0.036181896924972534, 0.05438768118619919, 0.014907083474099636, 0.011342843063175678, -0.01733202114701271, -0.03926190733909607, -0.025390565395355225, 0.039050642400979996, -0.06117092818021774, 0.086920827627182, -0.009075035341084003, -0.2213166207075119, -0.014681283384561539, 0.004073733929544687, 0.023471176624298096, -0.04684083163738251, -0.0035267802886664867, 0.023421144112944603, 0.060119543224573135, -0.11681462824344635, 0.08858366310596466, -0.07538961619138718, -0.011743497103452682, -0.008078260347247124, -0.03075733594596386, 0.08359110355377197, -0.0011936519294977188, 0.0188415739685297, 0.001212875242345035, -0.04267704114317894, -0.03275590017437935, 0.0749116912484169, -0.030484037473797798, 0.1259310394525528, -0.05085660517215729, 0.009831313043832779, 0.11333934962749481, -0.0171288400888443, 0.05876648798584938, 0.07142551988363266, 0.019422287121415138, -0.07479255646467209, -0.042644962668418884, 0.07422395795583725, -0.02933325618505478, 0.008788591250777245, 0.0067820679396390915, 0.0331198014318943, -0.05931737273931503, 0.011656258255243301, -0.018922053277492523, 0.006684600841253996, 0.03822135552763939, -0.041483987122774124, 0.03642801195383072, 0.06830484420061111, 0.02405933476984501, -0.02069881185889244, -0.03778693452477455, 0.0550442598760128, 0.002117358148097992, -0.003816998563706875, -0.08206532895565033, -0.05305582657456398, 0.03292883187532425, 0.03816862776875496, 0.03724073991179466, -0.06378217786550522, -0.026897678151726723, 0.010114789009094238, -0.03121408261358738, 0.03822442144155502, -0.021916327998042107, 0.014487848617136478, -0.026826675981283188, 0.030584663152694702]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>difficulty_locating_data_add_on_options</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Reception still runs out in areas- Napier Taupo Rd which is a dangerous stretch to be unconnected. \nWould prefer an easy option to organise direct debit on my new contract. \nAs mentioned, struggling to find how I organise added data.\nOther providers appear to be better value for money (I have been loyal to Vodafone for 20 years)\nReason for given NPS: I keep running out of data (contract) and when I contacted Vodafone they say purchase on the App but the option I am yet to find.']</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>[-0.07071958482265472, -0.05770500376820564, 0.0737672820687294, -0.027194492518901825, -0.01708192378282547, 0.021592063829302788, -0.006089570000767708, 0.0635705515742302, 0.04227311536669731, -0.026754319667816162, 0.03866022080183029, -0.010556298308074474, 0.004098374396562576, -0.0002158788702217862, 0.07190793752670288, 0.047435175627470016, -0.01510513387620449, -0.0011466984869912267, 0.006843987852334976, 0.0001509821740910411, 0.04418446496129036, -0.02473999373614788, -0.01239372044801712, -0.031203988939523697, -0.021854529157280922, 0.05245836451649666, -0.060966856777668, -0.015555487014353275, -0.051563989371061325, -0.18170247972011566, -0.005008857697248459, -0.029548976570367813, 0.06740312278270721, -0.018929684534668922, 0.013479250483214855, -0.02318083494901657, 0.0012567822122946382, 0.07971455901861191, 0.008304477669298649, -0.006718085613101721, -0.006753171794116497, 0.030348993837833405, -0.06894202530384064, 0.018544163554906845, -0.08846333622932434, -0.05014738067984581, 0.04836179316043854, 0.0024032059591263533, 0.04925279691815376, -0.07056553661823273, 0.013456527143716812, 0.009031680412590504, -0.019082363694906235, -0.003991374280303717, 0.04308808594942093, 0.06620234996080399, 0.1109670102596283, 0.05594814568758011, 0.0034451880492269993, 0.06992240995168686, 0.029668789356946945, 0.008995126001536846, -0.11399559676647186, 0.07718504220247269, 0.08164294064044952, 0.006909885909408331, 0.007417360786348581, -0.06928437203168869, -0.015825623646378517, -0.05073844641447067, -0.0246004406362772, -0.00139134144410491, -0.04124332219362259, 0.11289114505052567, 0.04808725416660309, 0.007290178444236517, -0.04193472862243652, 0.0008975974633358419, 0.0245769452303648, 0.02193470485508442, 0.003756867488846183, -0.03471725434064865, -0.046564869582653046, 0.042628213763237, 0.03765098378062248, -0.04376741498708725, -0.03185858204960823, 0.031039685010910034, 0.03954583778977394, -0.009324993938207626, 0.012739784084260464, -0.0823623463511467, 0.001966052921488881, 0.03463176637887955, -0.04658050462603569, -0.03421159088611603, -0.011794224381446838, 0.01749054342508316, -0.07385102659463882, 0.3502216041088104, -0.029263479635119438, 0.04467683285474777, -0.06254875659942627, 0.036260996013879776, -0.025109365582466125, -0.058708809316158295, -0.045780107378959656, -0.011423089541494846, 0.018245063722133636, -0.03129644691944122, 0.016198623925447464, -0.0007425251533277333, -0.025042451918125153, -0.033820223063230515, -0.0036592399701476097, 0.059876441955566406, -0.0676860362291336, -0.08312143385410309, -0.08173781633377075, 0.019345400854945183, -0.006105294916778803, -0.01600158028304577, 0.026296081021428108, 0.06862855702638626, 0.0041778236627578735, -0.005023162811994553, -0.006352143827825785, 0.0662011057138443, 0.001951337093487382, 0.015580859035253525, 0.0617189034819603, 0.027739103883504868, -0.059960562735795975, 0.02869313955307007, 0.011578124947845936, -0.015736589208245277, 0.03018808364868164, 0.03251546993851662, 0.07420158386230469, -0.030345318838953972, -0.050436317920684814, -0.029102271422743797, 0.0029863363597542048, -0.02136019989848137, 0.056643761694431305, 0.10595638304948807, -0.0554194375872612, 0.025758545845746994, -0.03162229433655739, -0.058546826243400574, -0.002905039582401514, 0.01151162851601839, -0.026862857863307, 0.03076319769024849, -0.017670078203082085, 0.018065450713038445, -0.00235761608928442, -0.047024939209222794, -0.010340492241084576, 0.0049277860671281815, 0.013797803781926632, -0.01451415941119194, 0.013453611172735691, 0.07964914292097092, 0.0012712470488622785, -0.08274407684803009, -0.010414311662316322, 0.01604577712714672, -0.0201457217335701, 0.06397495418787003, -0.02625809982419014, 0.05507131665945053, -0.015135184861719608, 0.0978202223777771, 0.041190117597579956, -0.044701095670461655, -0.015627719461917877, 0.04479460045695305, -0.011990665458142757, 0.02937818318605423, -0.00123915437143296, -0.026629973202943802, -0.020080702379345894, -0.03809363394975662, -0.02371159940958023, -0.05258334055542946, 0.004314467776566744, -0.014682216569781303, 0.007270618807524443, 0.00799497403204441, -0.03764720633625984, -0.03668481484055519, -0.021810952574014664, -0.05021591857075691, -0.007851773872971535, -0.0443962961435318, 0.02118096873164177, -0.037185922265052795, 0.06947679072618484, -0.06186651438474655, 0.09390229731798172, 0.0018133096164092422, 0.017648091539740562, 0.026303531602025032, -0.04644429683685303, -0.020321201533079147, -0.024728676304221153, 0.006354955490678549, 0.057884588837623596, -0.047777581959962845, -0.027202529832720757, 0.023735152557492256, 0.0777902826666832, -0.007241451647132635, -0.04467055946588516, -0.0072106607258319855, -0.02768184244632721, 0.03201303631067276, 0.019767295569181442, 0.01948193833231926, 0.0008534059161320329, 0.05167761817574501, 0.017006417736411095, -0.32829368114471436, -0.02512115053832531, -0.049196675419807434, 0.01250156108289957, -0.14232440292835236, -0.0010443951468914747, 0.05854468792676926, 0.028298044577240944, -0.058787036687135696, 0.06790069490671158, 0.044917743653059006, -0.03601326048374176, 0.012683738954365253, -0.020483888685703278, 0.010681632906198502, -0.02987135387957096, 0.044364579021930695, -0.021023422479629517, -0.014633700251579285, 0.0365629680454731, 0.0057083251886069775, 0.017769830301404, -0.039332520216703415, -0.07061325758695602, -0.025321463122963905, -0.01696084253489971, 0.15483593940734863, -0.024019969627261162, -0.020024264231324196, -0.03256361186504364, 0.04729596525430679, 0.06928123533725739, -0.04299357160925865, -0.07046182453632355, 0.012195262126624584, 0.013592714443802834, -0.0053895884193480015, 0.04241679608821869, 0.03998173400759697, -0.007034712936729193, -0.003557066200301051, 0.011143106035888195, -0.015028262510895729, -0.06171879172325134, 0.10615266114473343, -0.05794430151581764, 0.02721082791686058, -0.050380587577819824, -0.03971570357680321, 0.02854178473353386, 0.003974867984652519, 0.014837415888905525, 0.04863039404153824, -0.017914654687047005, 0.043128494173288345, -0.014860723167657852, -0.0026291136164218187, 0.03029736690223217, 0.03361642733216286, 0.02839786186814308, -0.024803360924124718, -0.033281151205301285, 0.017018962651491165, -0.028170762583613396, 0.036623019725084305, -0.019378451630473137, -0.011323463171720505, 0.0031944592483341694, 0.02875801920890808, 0.0048133512027561665, -0.02202726900577545, -0.03310481086373329, -0.020555783063173294, 0.05271994695067406, -0.006820031441748142, -0.02134712226688862, -0.03335125744342804, -0.0013727956684306264, 0.024949871003627777, -0.019449783489108086, -0.016954397782683372, -0.0011351522989571095, 0.017067711800336838, 0.026470275595784187, 0.00795931089669466, 0.014151347801089287, 0.014241297729313374, -0.03946537524461746, 0.04971722885966301, -0.058035507798194885, -0.0329618826508522, -0.06406930834054947, -0.0005590989603661001, -0.011455624364316463, 0.08650121837854385, 0.0045907325111329556, -0.22794519364833832, 0.005633746739476919, 0.027170192450284958, -0.022262118756771088, -0.03723102807998657, 0.0506146214902401, 0.002878875471651554, 0.03901713714003563, -0.03557442128658295, -0.012206879444420338, -0.06271942704916, 0.028417173773050308, -0.0170061644166708, -0.07413392513990402, 0.007647389080375433, 0.0427488349378109, -0.007941540330648422, -0.004079205449670553, 0.024674562737345695, -0.06530458480119705, 0.06625287234783173, 0.07553483545780182, 0.18462783098220825, 0.04303765669465065, -0.05078251659870148, 0.028940146788954735, -0.03587988764047623, -0.03708368539810181, 0.022795140743255615, 0.03900813311338425, -0.04099901393055916, -0.025019008666276932, 0.018047183752059937, 0.017447520047426224, -0.0018967128125950694, 0.04876790568232536, 0.05054060369729996, -0.02915656566619873, 0.03666374832391739, -0.0023552984930574894, 0.006601888220757246, 0.024949239566922188, -0.09096457064151764, 0.027190566062927246, 0.07270623743534088, -0.02770727314054966, -0.007998400367796421, 0.007466958835721016, 0.059575583785772324, 0.013835029676556587, -0.01910422556102276, -0.008942503482103348, -0.028502050787210464, 0.009099461138248444, 0.05003103241324425, 0.03698648884892464, -0.01303192786872387, 0.036772795021533966, 0.004287819378077984, -0.03463468328118324, 0.011853134259581566, -0.025923023000359535, 0.09758379310369492, -0.04248470440506935, 0.005983495619148016]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>needs_better_information_department_contacts</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Check on our plan and call us if you see a better option available within One NZ\nReason for given NPS: It works well for broadband and mobile for wife and I in NZ and overseas']</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>[0.007126494310796261, -0.04183053970336914, 0.09223911911249161, -0.020146191120147705, 0.03998120129108429, -0.045115210115909576, 0.01623593084514141, 0.03515659645199776, -0.03573980927467346, -0.003092023078352213, 0.012582114897668362, 0.023508474230766296, 0.06913059949874878, 0.015428545884788036, 0.06313063204288483, 0.024583308026194572, 0.03710431605577469, -0.0395226925611496, -0.019665533676743507, 0.04669411480426788, 0.0648076981306076, 0.0028997384943068027, 0.013556722551584244, 0.034993186593055725, -0.05923038721084595, 0.021687494590878487, -0.032217565923929214, 0.0038512125611305237, -0.06424252688884735, -0.07891364395618439, 0.008734850212931633, 0.054550979286432266, 0.030367625877261162, 0.04352546110749245, 0.06420590728521347, -0.008292502723634243, 0.02744305320084095, 0.018235499039292336, -0.028755024075508118, -0.0065499283373355865, 0.0114950155839324, -0.004973429720848799, -0.011582587845623493, -0.004511879291385412, -0.023765772581100464, -0.06016918271780014, -0.0068457345478236675, 0.006291968282312155, 0.02566652186214924, -0.06709234416484833, -0.014927761629223824, 0.025820596143603325, -0.017965959385037422, -0.02752980962395668, 0.03600586950778961, 0.031153162941336632, 0.06421604752540588, -0.016660189256072044, -0.0054441518150269985, 0.01697542332112789, 0.07497894763946533, 0.03884124383330345, -0.15164734423160553, 0.03230805695056915, -0.002523605013266206, -0.034481655806303024, 0.013848917558789253, -0.07941934466362, -0.013251709751784801, -0.023596778512001038, -0.052064649760723114, -0.04140056297183037, -0.04162187874317169, 0.04967646300792694, -0.00851453561335802, -0.0358722023665905, -0.054258834570646286, 0.010299243032932281, 0.06091894209384918, 0.014158221893012524, -0.04559880867600441, -0.03448835760354996, -0.010341229848563671, -0.015460937283933163, 0.017001166939735413, -0.06415114551782608, 0.006580818444490433, -0.0005653480184264481, 0.03870703652501106, 0.004748318810015917, 0.0532204695045948, -0.06711342930793762, 0.005479517858475447, 0.040114160627126694, -0.06228141114115715, -0.0020683545153588057, -0.007571172434836626, 0.04948249086737633, -0.1520892232656479, 0.3701416850090027, -0.03154588118195534, 0.016157284379005432, 0.021680552512407303, 0.01893790252506733, 0.006959628313779831, -0.021024251356720924, 0.021959591656923294, -0.041547782719135284, -0.037237077951431274, 0.02726334147155285, 0.021097958087921143, -0.01607786864042282, -0.011707373894751072, -0.009948543272912502, 0.06689431518316269, 0.07077828794717789, 0.05846745893359184, -0.03039604425430298, -0.0712866261601448, -0.04853207245469093, 0.02338241972029209, 0.012467652559280396, 0.04414179548621178, 0.07314138114452362, 0.03227481618523598, -0.0292052049189806, -0.051840294152498245, 0.05196123197674751, -0.007969530299305916, 0.0911165177822113, -0.017156392335891724, -0.029707616195082664, -0.034717023372650146, -0.007792108226567507, -0.0011176749831065536, -0.024128712713718414, -0.003441809443756938, 0.004182438366115093, 0.004163780249655247, 0.04402105510234833, 0.009989455342292786, -0.082784503698349, -0.06292089074850082, -0.03427637368440628, -0.045149561017751694, 0.130198672413826, -0.14994491636753082, 0.01995869353413582, -0.020549528300762177, -0.07895825058221817, 0.015545488335192204, 0.0026009969878941774, -0.005245163571089506, -0.0476270392537117, -0.015281368046998978, -0.027780642732977867, 0.02005128003656864, 0.010656198486685753, -0.010566778481006622, 0.029084058478474617, 0.07218064367771149, -0.02951728366315365, 0.0008560721180401742, 0.06278539448976517, -0.0038617218378931284, -0.027265368029475212, -0.08419831097126007, 0.004606990143656731, -0.02808103896677494, -0.006405813619494438, 0.007710843347012997, 0.03139905259013176, 0.01618533581495285, 0.0235475804656744, 0.10956622660160065, -0.06596718728542328, -0.0074754818342626095, 0.07336752861738205, -0.026633543893694878, -0.006791375111788511, 0.03279079124331474, -0.0019697516690939665, 0.026902787387371063, -0.004410406108945608, 0.030587999150156975, -0.021867703646421432, -0.024735255166888237, 0.007910652086138725, 0.009208372794091702, 0.003591544460505247, -0.12135542184114456, 0.01051337830722332, 0.015164191834628582, -0.034261103719472885, -0.05764022842049599, -0.03135818988084793, 0.02847457490861416, -0.010702880099415779, -0.019924592226743698, -0.02227087691426277, 0.01140254270285368, -0.011210961267352104, -0.08982083201408386, 0.058496516197919846, -0.021584447473287582, 0.012700438499450684, 0.019757628440856934, -0.044094424694776535, 0.05845707282423973, 0.020110972225666046, -0.007865785621106625, -0.06573132425546646, 0.10946980863809586, -0.005686312448233366, -0.04330501705408096, -0.007432908285409212, 0.013796163722872734, 0.012988623231649399, 0.027087684720754623, 0.006311824545264244, 0.0296593327075243, 0.11513298749923706, 0.030048567801713943, -0.31301355361938477, 0.019882304593920708, -0.044296588748693466, -0.009952322579920292, -0.058764249086380005, 0.002606630325317383, 0.08567560464143753, 0.03208763524889946, -0.02506006881594658, 0.13523350656032562, -0.006500225514173508, 0.017782796174287796, 0.012327214702963829, -0.02519732154905796, -0.008940220810472965, 0.047457121312618256, 0.05682143568992615, 0.014466773718595505, 0.004366534296423197, -0.013337740674614906, 0.02565324679017067, 0.012235349975526333, 0.010069342330098152, 0.000985497608780861, 0.03392164036631584, -0.002313968725502491, 0.146015927195549, 0.03425297513604164, -0.048886943608522415, -0.010648119263350964, 0.033048365265131, 0.052777864038944244, -0.03845875710248947, -0.09983497858047485, 0.02753455750644207, -0.020735012367367744, -0.05003027617931366, 0.026900967583060265, 0.011872312985360622, -0.03626224771142006, -0.015373975969851017, 0.020383967086672783, 0.010972962714731693, 0.0026288835797458887, 0.01720265857875347, -0.017902996391057968, -0.04403902590274811, -0.017483511939644814, -0.04176424816250801, 0.01661444641649723, -0.047508008778095245, 0.023596851155161858, 0.0106649836525321, 0.04491652548313141, 0.022738702595233917, -0.0032725331839174032, -0.048078715801239014, -0.017658472061157227, -0.006189547013491392, 0.02806462161242962, -0.04486357793211937, 0.0025489262770861387, 0.011528129689395428, -0.048637185245752335, -0.01058143563568592, -0.005183793604373932, -0.0327068492770195, -0.0025176384951919317, 0.0122586814686656, 0.05785975605249405, -0.049396149814128876, 0.040873248130083084, -0.030144885182380676, -0.005385045427829027, -0.04621915891766548, -0.014146248809993267, -0.002760455012321472, -0.006507562939077616, -0.03671923652291298, -0.06802089512348175, 0.037808217108249664, -0.020329883322119713, 0.05654458329081535, -0.0009740341338329017, 0.018632620573043823, 0.013733705505728722, 0.037435952574014664, 0.03211567550897598, -0.001097674248740077, 0.00774711649864912, -0.011652177199721336, -0.005715100094676018, -0.03439866378903389, 0.002290121978148818, 0.10331609100103378, -0.02835504338145256, -0.2695668637752533, 0.027835944667458534, 0.06034174561500549, 0.023247579112648964, -0.009244941174983978, 0.027214478701353073, 0.020534610375761986, -0.010394085198640823, -0.003021882614120841, -0.0049998462200164795, 0.013239586725831032, 0.004951872397214174, -0.06908829510211945, -0.024510683491826057, 0.004992176778614521, 0.07073501497507095, 0.03761110454797745, -0.010524731129407883, -0.06185386702418327, 0.005227385088801384, 0.0032410251442342997, 0.030625764280557632, 0.16496364772319794, 0.010614649392664433, -0.0463072769343853, 0.009445574134588242, 0.02474520355463028, 0.011023649014532566, -0.0039409734308719635, -0.04450290650129318, 0.016673753038048744, -0.03675320744514465, 0.006000393070280552, 0.02170281670987606, 0.02627621218562126, 0.040000542998313904, 0.02176610752940178, -0.06373059004545212, -0.010600117966532707, -0.02646687813103199, -0.06411376595497131, 0.0018238076008856297, -0.06823819875717163, 0.02374420501291752, 0.08260991424322128, 0.024947240948677063, -0.007705104071646929, 0.038686878979206085, 0.03223944455385208, 0.032225143164396286, -0.06455056369304657, -0.06224570423364639, 0.017365535721182823, 0.03844985365867615, 0.05046556890010834, 0.026731951162219048, -0.046259161084890366, 0.0371384397149086, -0.016519512981176376, 0.04017263278365135, -0.03780526667833328, -0.06072309985756874, 0.002112266141921282, -0.003805035026744008, 0.03193066269159317]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>needs_assistance_bundling_services</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Check on our plan and call us if you see a better option available within One NZ\nReason for given NPS: It works well for broadband and mobile for wife and I in NZ and overseas']</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>[-0.019029462710022926, -0.07428735494613647, 0.049198973923921585, -0.056820403784513474, 0.05124519765377045, -0.04063110798597336, -0.04249873384833336, 0.041455890983343124, -0.031539879739284515, -0.05487664416432381, -0.007735248189419508, 0.015537720173597336, -0.0011254880810156465, 0.015392527915537357, 0.0916413739323616, 0.017595509067177773, 0.07482924312353134, 0.06614348292350769, -0.08428237587213516, 0.026264077052474022, 0.0390627458691597, -0.009195416234433651, -0.03563004732131958, 0.011612524278461933, -0.08210794627666473, -0.03361498937010765, -0.027331355959177017, -0.05744436755776405, -0.0328662171959877, -0.11442194879055023, 0.01567094586789608, -0.03311644122004509, -0.0571589358150959, 0.00641353614628315, 0.055418629199266434, 0.009914613328874111, 0.023778125643730164, 0.012556524015963078, -0.000622197927441448, 0.03572986274957657, 0.06861832737922668, 0.012260749004781246, -0.07838355749845505, -0.0037004181649535894, -0.019422540441155434, -0.11345752328634262, -0.02380484528839588, 0.028900252655148506, 0.052478063851594925, -0.028289737179875374, 0.043176308274269104, 0.006443620193749666, -0.06927499175071716, -0.03501361235976219, 0.0029121385887265205, 0.08234341442584991, 0.05219653621315956, 0.038877129554748535, 0.026244018226861954, 0.04849458485841751, 0.029835792258381844, -0.0059220134280622005, -0.13809071481227875, 0.06765112280845642, 0.03385183587670326, 0.0023775158915668726, 0.03603167459368706, -0.0038376059383153915, 0.04137410968542099, 0.011375692673027515, -0.07075956463813782, 0.008395644836127758, -0.004766462836414576, 0.10094073414802551, 0.03994322940707207, 0.01458402257412672, 0.012798509560525417, -0.021267704665660858, 0.014756713062524796, -0.03267183154821396, -0.03074418567121029, 0.024084148928523064, -0.017768487334251404, 0.046575527638196945, -0.03159276768565178, 0.0077556041069328785, -7.497592741856351e-05, 0.0038851723074913025, 0.04897676035761833, -0.008429580368101597, 0.0018689939752221107, -0.035401467233896255, 0.031185021623969078, 0.023813938722014427, -0.10151882469654083, -0.03292512148618698, 0.0007450318080373108, -0.032539643347263336, -0.13815216720104218, 0.3523116111755371, 0.02705462835729122, 0.0023433337919414043, 0.013684810139238834, -0.04447074234485626, 0.009844953194260597, -0.04985905811190605, -0.023900112137198448, -0.017822539433836937, -0.019868815317749977, -0.01302884891629219, -0.007435383275151253, -0.024572737514972687, 0.051266614347696304, -0.007121996488422155, 0.004357248079031706, 0.03735731542110443, -0.10343506932258606, -0.021251611411571503, -0.0022507833782583475, -0.023394273594021797, -0.025511858984827995, 0.02242758497595787, 0.055575575679540634, 0.0233538206666708, -0.026556944474577904, -0.004156989976763725, 0.0015097621362656355, 0.08258216828107834, 0.013960407115519047, 0.04805872216820717, 0.010393536649644375, 0.03838234394788742, -0.007577387150377035, -0.02338073030114174, -0.041947267949581146, -0.03078339621424675, 0.009200520813465118, 0.042615678161382675, 0.05266324058175087, 0.05566667392849922, 0.0018136563012376428, -0.0042832838371396065, 0.011106738820672035, -0.06581319868564606, 0.009747431613504887, 0.07742489874362946, -0.08477286249399185, 0.07976554334163666, -0.03967028483748436, -0.0253358893096447, 0.0016778081189841032, 0.03773913532495499, -0.04836789891123772, -0.01701262593269348, -0.006349493283778429, -0.014621695503592491, 0.04038451611995697, -0.00789015181362629, -0.05325694754719734, 0.057483211159706116, 0.022197112441062927, -0.10534355789422989, -0.029409827664494514, 0.05937841907143593, 0.004164617508649826, -0.08009651303291321, -0.00451896246522665, 0.010625733993947506, -0.04393722116947174, -0.0007405210635624826, -0.0415528230369091, 0.07199740409851074, -0.027355365455150604, 0.03475159779191017, 0.07659842818975449, -0.029712865129113197, -0.0268205888569355, 0.03641895577311516, -0.0072625428438186646, 0.029873019084334373, -0.02246284671127796, 0.0005212616524659097, -0.022904781624674797, 0.0008408108842559159, 0.003517755074426532, -0.03855245187878609, -0.015890533104538918, -0.07014473527669907, 0.044531479477882385, -0.05708173289895058, -0.10186837613582611, -0.03424455597996712, -5.8113295381190255e-05, -0.03568369895219803, 0.06802795827388763, 0.028624624013900757, -0.05289694294333458, -0.03146335855126381, 0.02912030555307865, -0.00641322135925293, 0.09148647636175156, 0.0032837670296430588, -0.01492736954241991, 0.04722369462251663, 0.004637872334569693, 0.0018349474994465709, -0.017699841409921646, -0.037900250405073166, 0.03303566947579384, 0.005002256482839584, 0.026624100282788277, 0.006397574208676815, 0.07452073693275452, 0.028870051726698875, -0.011438824236392975, 0.04286365211009979, -0.0067478083074092865, 0.05323758348822594, 0.030637487769126892, 0.05589761584997177, -0.0005061636329628527, 0.0630461648106575, 0.04593074694275856, -0.3137574791908264, 0.04704120010137558, -0.02896784245967865, 0.014058487489819527, -0.0870872288942337, 0.04659292474389076, 0.0834459662437439, -0.0003022287564817816, -0.08376871794462204, 0.02848261222243309, 0.10042392462491989, -0.03113473206758499, 0.04360133409500122, 0.024304961785674095, 0.014469562098383904, -0.027892224490642548, -0.05344953015446663, -0.0152369299903512, -0.0463152751326561, 0.04665254428982735, -0.019468024373054504, -0.026078952476382256, 0.049294888973236084, -0.0425795316696167, -0.012756578624248505, 0.022834626957774162, 0.18306775391101837, -0.032007623463869095, -0.007817897945642471, -0.11195336282253265, 0.0037746578454971313, 0.1137816458940506, -0.008573918603360653, -0.11568725854158401, 0.03364689648151398, 0.006437043659389019, -0.05300392583012581, 0.017707332968711853, 0.03210870176553726, -0.031456656754016876, -0.025635624304413795, 0.04525384306907654, 0.012037546373903751, -0.03146999329328537, 0.037418898195028305, -0.02022315375506878, -0.019426856189966202, 0.01300071645528078, -0.05357411131262779, -0.010944564826786518, -0.026193350553512573, -0.05381564050912857, 0.0071409279480576515, 0.018974415957927704, -0.016114259138703346, -0.005354846827685833, -0.03406710550189018, -0.019680531695485115, 0.016131902113556862, 0.016571467742323875, 0.009978791698813438, 0.007566386368125677, 0.025394801050424576, -0.07151953876018524, 0.015216509811580181, 0.0014889962039887905, -0.0025284579023718834, 0.03616038337349892, -0.033270787447690964, -0.0441397950053215, -0.02684023417532444, 0.012791551649570465, -0.02580389194190502, 0.0658397302031517, -0.04741852357983589, 0.023628177121281624, 0.023458300158381462, 0.011473323218524456, -0.002193440916016698, -0.025935126468539238, -0.0011604473693296313, 0.007949592545628548, 0.02796768769621849, -0.00412744702771306, 0.04704255983233452, 0.05325651913881302, -0.04442412033677101, 0.013249881565570831, 0.008346191607415676, -0.021942611783742905, -0.017733464017510414, 0.031695857644081116, -0.025892214849591255, 0.02293798327445984, 0.12252537161111832, -0.0043139043264091015, -0.21498820185661316, 0.05098140984773636, 0.004515346139669418, -0.05261419713497162, -0.04168809577822685, 0.04081600904464722, 0.01501526404172182, 0.012160665355622768, -0.017770307138562202, -0.011403825134038925, 0.027524128556251526, 0.0503583699464798, -0.04803229123353958, -0.046262823045253754, 0.03667540103197098, 0.010135329328477383, 0.09460518509149551, -0.02083481103181839, -0.011835016310214996, -0.028241649270057678, 0.04469430819153786, 0.01212390884757042, 0.17946918308734894, -0.008626223541796207, -0.022575238719582558, 0.029691429808735847, -0.004992670379579067, -0.023014938458800316, 0.06277263164520264, 0.023603273555636406, -0.04707825183868408, 0.009475058875977993, 0.012615297921001911, 0.013305211439728737, -0.009665288031101227, 0.009814899414777756, 0.00445129768922925, -0.0022848984226584435, 0.02349778264760971, 0.021947631612420082, -0.03699851036071777, 0.018361639231443405, -0.02027023583650589, -0.004404766485095024, 0.04960814490914345, -0.022886015474796295, 0.004362897016108036, -0.04642489552497864, -0.007682110648602247, 0.0005340312491171062, -0.005921189207583666, -0.03768986463546753, 0.008432146161794662, 0.03750796616077423, 0.04634448140859604, 0.008193585090339184, -0.012285690754652023, 0.0010571922175586224, -0.023118356242775917, -0.0002575442777015269, 0.04479314014315605, -0.09209680557250977, 0.02651185169816017, -0.015158379450440407, -0.01953948847949505]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>poor_reception_and_connectivity_after_rebranding</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Fix the reception and connectivity problem since the switch from Vodafone.  A lower price for mobile and wifi for single people living alone.\nReason for given NPS: Very expensive for just a mobile and wifi (over $120 a month), and after the switch from Vodafone to OneNZ my general mobile reception, wifi speed and connectivity has decreased.']</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>[-0.021554410457611084, -0.003492519957944751, 0.02099609375, -0.030231449753046036, -0.005418054293841124, -0.05255328491330147, -0.07535545527935028, 0.07949740439653397, 0.07126367092132568, -0.03381539508700371, 0.03625337779521942, -0.0010792608372867107, 0.04698421061038971, -0.0497455820441246, 0.08795099705457687, 0.09315228462219238, 0.07866918295621872, -0.03120923973619938, -0.024891138076782227, 0.00226696883328259, -0.02280939742922783, 0.0015068576904013753, 0.012742321006953716, 0.049514468759298325, 0.02078457549214363, 0.030073300004005432, 0.022443238645792007, -0.009266003966331482, -0.025755008682608604, -0.1348804086446762, -0.0012025233590975404, 0.03565063700079918, 0.004694611299782991, 0.05718487501144409, 0.061815295368433, -0.044007476419210434, -0.044583551585674286, 0.01170327141880989, -0.02296902798116207, 0.04332875832915306, 0.021016541868448257, 0.0009484068141318858, -0.02278894931077957, -0.020635807886719704, -0.0020855912007391453, -0.045358333736658096, 0.027523305267095566, 0.007041566539555788, 0.06607095897197723, -0.08023671060800552, 0.009078438393771648, 0.010273913852870464, -0.019594309851527214, 0.03004561737179756, -0.0076438128016889095, 0.07820071280002594, 0.07704630494117737, 0.05434558913111687, 0.047341518104076385, 0.011271873489022255, 0.025340160354971886, 0.008814128115773201, -0.17467430233955383, 0.07498963922262192, 0.026216885074973106, -0.014041392132639885, -0.02648346684873104, -0.01762135699391365, 0.0008788187406025827, 0.06700033694505692, -0.013802292756736279, 0.006138480734080076, 0.014338759705424309, 0.018678024411201477, 0.019957667216658592, 0.0802575945854187, -0.048496123403310776, 0.004150628112256527, 0.04599030315876007, 0.0538598857820034, 0.0232962928712368, 0.022281883284449577, -0.028779836371541023, -0.00978176947683096, 0.018419528380036354, -0.04746021702885628, -0.022919805720448494, -0.004554440267384052, -0.017290856689214706, 0.007001710589975119, 0.004587035160511732, -0.005193890072405338, 0.01008062344044447, 0.02968677505850792, -0.10959098488092422, -0.02184355817735195, -0.035410813987255096, -0.07881398499011993, -0.07261450588703156, 0.34514814615249634, -0.05578547343611717, 0.03920689970254898, 0.010953019373118877, 0.0540972575545311, 0.05668409913778305, -0.08435215055942535, -0.02784806862473488, -0.02398538775742054, -0.03674859181046486, 0.07602077722549438, 0.007076875772327185, -0.03983704745769501, 0.02220001257956028, -0.007323914207518101, 0.029390543699264526, 0.04329085350036621, -0.037296734750270844, 0.022267842665314674, -0.034251902252435684, -0.02835586667060852, -0.027925092726945877, -0.018543299287557602, 0.021420389413833618, -0.005052609369158745, 0.02570248208940029, 0.0034043730702251196, 0.053632862865924835, 0.0818663239479065, -0.08249088376760483, 0.041003815829753876, -0.013297522440552711, 0.0290300901979208, 0.03739498183131218, 0.03854420781135559, 0.00435944739729166, 0.03721722587943077, -0.03715630993247032, -0.01545526459813118, -0.004047204274684191, 0.0939139574766159, 0.012346369214355946, -0.07019547373056412, 0.008111351169645786, -0.018128901720046997, 0.007766862399876118, 0.08115391433238983, -0.06832389533519745, 0.06621336191892624, -0.03601306676864624, 0.009771485812962055, -0.003973163664340973, -0.01742434687912464, 0.011499938555061817, -0.0037866965867578983, -0.040688954293727875, -0.009089074097573757, -0.0010435318108648062, 0.028331199660897255, -0.0031122227665036917, 0.039267778396606445, 0.06744100153446198, -0.06949687749147415, -0.014346473850309849, 0.02706027403473854, -0.0024868545588105917, -0.06504106521606445, 0.0031085254158824682, -0.0425531379878521, -0.041235219687223434, 0.02044844813644886, -0.04235321283340454, -0.01823951117694378, 0.04993036389350891, 0.0020020869560539722, 0.07537973672151566, -0.024455763399600983, -0.039063725620508194, -0.01171498280018568, -0.0038277250714600086, -0.040784820914268494, 0.05361732468008995, 0.007760193198919296, -0.026150766760110855, 0.0011798206251114607, 0.009377210400998592, -0.02816872112452984, -0.028381427749991417, -0.006878519896417856, 0.07190460711717606, 0.0005076740053482354, -0.10676876455545425, -0.10209816694259644, 0.04776802659034729, -0.0527910478413105, 0.013033884577453136, -0.022090137004852295, -0.06455553323030472, -0.008773822337388992, 0.05969250947237015, -0.03473995625972748, 0.06315119564533234, -0.0019065998494625092, -0.025608032941818237, -0.052686721086502075, -0.01951877772808075, 0.07481877505779266, -0.013107487931847572, -0.05510634183883667, 0.056911930441856384, -0.041428323835134506, -0.0021017943508923054, 0.00855035800486803, 0.09727591276168823, -0.016932614147663116, 0.01951993629336357, -0.031144067645072937, -0.007586503401398659, 0.06405080109834671, 0.021023038774728775, 0.043267346918582916, -0.003892735345289111, 0.09434932470321655, -0.0593390129506588, -0.27387624979019165, 0.012811917811632156, 0.015549181029200554, -0.02398710325360298, -0.05619654059410095, -0.034058257937431335, -0.017778463661670685, 0.016782721504569054, 0.09393295645713806, 0.0737614706158638, 0.014037766493856907, 0.06444811075925827, 0.015368448570370674, 0.011217577382922173, 0.011639203876256943, -0.009208093397319317, -0.028550969436764717, 0.048935916274785995, -0.03933100774884224, -0.02964955009520054, -0.04922904446721077, 0.04626322537660599, 0.03802447393536568, -0.07919114083051682, 0.014620397239923477, 0.02182084135711193, 0.14882758259773254, 0.000286870141280815, -0.05451821908354759, -0.007559745106846094, 0.06077717989683151, 0.06856784969568253, 0.012281598523259163, -0.048203952610492706, 0.018483132123947144, 0.06312385946512222, 0.058532100170850754, 0.0340164378285408, -0.06376536190509796, -0.03364836424589157, -0.0687456801533699, -0.020421475172042847, 0.04225495457649231, -0.07388745993375778, 0.03268104046583176, 0.003989616874605417, -0.05628230795264244, -0.019739273935556412, -0.06372514367103577, 0.053360674530267715, 0.0018610397819429636, 0.016804249957203865, 0.009835116565227509, 0.04664023220539093, 0.02359936572611332, 0.01249940600246191, -0.0677827000617981, -0.02179665118455887, -0.009909351356327534, -0.03878176584839821, 0.00464246142655611, 0.04513948783278465, 0.0021901908330619335, -0.1195901483297348, 0.028696825727820396, 0.049711357802152634, 0.020932182669639587, 0.0011571623617783189, 0.006671328097581863, 0.027020128443837166, -0.018156904727220535, 0.06540179252624512, 0.00459320330992341, -0.0406530536711216, 0.010292252525687218, -0.0362592451274395, -0.03616923838853836, -0.02984496019780636, -0.028415346518158913, -0.044236671179533005, 0.012620852328836918, -0.023617452010512352, 0.07079046964645386, -0.011531450785696507, -0.03033614717423916, 0.009629880078136921, 0.028427772223949432, -0.014082170091569424, 0.015203159302473068, -0.0025576772168278694, -0.06976224482059479, 0.03850489854812622, 0.024107281118631363, -0.016995316371321678, 0.06181899830698967, -0.031180711463093758, -0.22520802915096283, -0.01807226799428463, 0.01845082826912403, -0.03819572180509567, -0.06675851345062256, 0.06529280543327332, -0.0057987370528280735, 0.04574748873710632, -0.13091599941253662, -0.00251731532625854, 0.0119479326531291, -0.03795406594872475, -0.015162366442382336, -0.04358333349227905, 0.08653069287538528, -0.00266050617210567, 0.04097473993897438, -0.04342455416917801, -0.04867607355117798, -0.021791204810142517, -0.036186058074235916, -0.030077913776040077, 0.10752050578594208, -0.06635995209217072, -0.021940451115369797, 0.025917788967490196, -0.004743378609418869, 0.06529990583658218, -0.013158183544874191, 0.021918026730418205, -0.04136768728494644, -0.00966479629278183, 0.031611762940883636, -0.03973878547549248, -0.005375773645937443, -0.008842199109494686, 0.020630987361073494, -0.05331636965274811, -0.006930195726454258, -0.0007067715050652623, 0.04382960498332977, 0.05260711535811424, -0.03706001117825508, 0.03053743951022625, 0.0733712688088417, -0.011050073429942131, -0.029966533184051514, 0.033627837896347046, 0.03542060777544975, 0.0047499435022473335, -0.1010039672255516, -0.051037952303886414, 0.010564599186182022, 0.001992893870919943, 0.029768357053399086, 0.007242375519126654, -0.09883943945169449, 0.02500208467245102, -0.009739250876009464, -0.003797388169914484, 0.025363776832818985, -0.05742841213941574, 0.04457683488726616, -0.022703878581523895, 0.03967072442173958]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>request_for_google_pixel_phone_availability</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Return of new phone + contact deals for existing (especially long-term) customers! Also, Google Pixel phones.\n']</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>[-0.03260384127497673, -0.06250666081905365, -0.009921953082084656, -0.032418012619018555, -0.03289562836289406, -0.01916695013642311, -0.022862575948238373, 0.07155539840459824, -0.07994747161865234, 0.0179637111723423, -0.0009743123664520681, -0.011476975865662098, 0.007704486139118671, 0.013042896054685116, 0.007847664877772331, 0.007305080536752939, 0.1157747134566307, -0.09442766010761261, -0.0303569994866848, 0.01620149053633213, 0.08743010461330414, -0.03497990220785141, -0.0007353046094067395, 0.03661097213625908, 0.006256101652979851, 0.00036234286380931735, 0.006602955516427755, -0.016304710879921913, -0.06963746249675751, -0.07226067036390305, 0.003821362042799592, 0.018087167292833328, 0.03240126743912697, -0.007016479037702084, 0.022748131304979324, -0.017524581402540207, -0.011530671268701553, 0.024691849946975708, 0.027736524119973183, 0.08451083302497864, 0.032205305993556976, 0.056696705520153046, -0.08361629396677017, 0.01502898707985878, -0.023948533460497856, -0.021161021664738655, -0.030099930241703987, 0.02460271306335926, 0.027294626459479332, -0.08418101072311401, 0.051269032061100006, 0.0609302781522274, 0.02690143883228302, -0.016231948509812355, -0.028805777430534363, 0.06061447039246559, 0.07751549035310745, 0.04155049845576286, 0.039068106561899185, 0.012055585160851479, 0.061861008405685425, -0.006631676573306322, -0.12474844604730606, 0.03468427434563637, -0.02670149877667427, 0.014474336057901382, -0.028646500781178474, -0.07512716948986053, -0.01947026513516903, -0.011444424279034138, 0.023795288056135178, 0.03585360571742058, -0.03666131570935249, 0.08875779807567596, 0.01178240031003952, 0.01831497997045517, 0.049925003200769424, -0.002648736583068967, -0.024095134809613228, -0.015190075151622295, -0.02073332481086254, 0.02018636465072632, -0.002797503490000963, 0.027460278943181038, 0.0572284534573555, -0.05787304788827896, 0.007413064129650593, 0.08786484599113464, -0.003064380958676338, 0.027650637552142143, -0.006188270170241594, -0.054322224110364914, 0.0034551932476460934, 0.07632195204496384, -0.1063854768872261, 0.01174156554043293, 0.014882971532642841, 0.05583481118083, -0.06149114668369293, 0.33948686718940735, 0.0047633470967411995, 0.046353161334991455, 0.015653524547815323, 0.02414809539914131, -0.019617166370153427, -0.025519613176584244, -0.037915561348199844, -0.039103612303733826, -0.06084815040230751, -0.01896051876246929, 0.006987917236983776, -0.005097162909805775, 0.04624934121966362, -0.011155798099935055, 0.0028498407918959856, 0.045953311026096344, 0.004976713564246893, -0.03606240823864937, 0.044528692960739136, -0.07467034459114075, -0.07813683152198792, 0.0077840168960392475, -0.0008186720660887659, -0.034705739468336105, -0.008269795216619968, -0.03214108571410179, 0.004119965713471174, 0.11093918234109879, 0.02325049228966236, 0.028017643839120865, 0.044903285801410675, -0.03511683642864227, -0.09671451151371002, -0.004197537899017334, -0.012566805817186832, 0.014454999007284641, 0.0302632674574852, -0.01751544699072838, -0.001144068199209869, 0.0006305805291049182, -0.04766879230737686, -0.12296447157859802, 0.03960271179676056, 0.01359502598643303, 0.07184594869613647, 0.08808484673500061, -0.04138145595788956, 0.08716276288032532, -0.039809729903936386, -0.08277333527803421, -0.014490623027086258, 0.007353873457759619, 0.03420068696141243, 0.025369131937623024, 0.025453804060816765, -0.006448380183428526, 0.05742665007710457, 0.0293638464063406, -0.0447949655354023, 0.013490363955497742, 0.05431288108229637, 0.018079020082950592, -0.02931283600628376, 0.08545593172311783, -0.0067083886824548244, -0.09199217706918716, -0.03812980651855469, -0.024776991456747055, -0.03136478736996651, 0.012731526978313923, 0.026705868542194366, 0.03340065851807594, -0.0024272012524306774, 0.054797206073999405, 0.005600377917289734, -0.02805943414568901, -0.08365736901760101, 0.04249272122979164, -0.031829312443733215, 0.00486191688105464, -0.030994929373264313, -0.02950500324368477, 0.01891680434346199, -0.025300001725554466, 0.0036904735025018454, -0.06447410583496094, -0.032995812594890594, -0.03972380608320236, 0.05585099756717682, -0.032630037516355515, -0.10871642827987671, -0.06563700735569, 0.020736292004585266, 0.0010605795541778207, 0.05555345118045807, 0.0002019232779275626, -0.08150196820497513, -0.058149758726358414, 0.01091872900724411, -0.03666677325963974, 0.07741113007068634, -0.014221477322280407, -0.034479279071092606, -0.027268482372164726, 0.00539783900603652, 0.010776345618069172, 0.03406526893377304, 0.04499585181474686, 0.02214031107723713, 0.009571447037160397, 0.03274408355355263, 0.003432533936575055, 0.0947008952498436, 0.022253677248954773, -0.022588254883885384, 0.01064166147261858, -0.005216110963374376, 0.02939739264547825, 0.01483554020524025, 0.01573525369167328, -0.015069350600242615, 0.07010413706302643, -0.0385039784014225, -0.242127925157547, 0.00727996276691556, -0.04361555725336075, -0.0046540251933038235, -0.0696009173989296, -0.015151946805417538, 0.0438363179564476, -0.026635706424713135, 0.03055875562131405, 0.05443565174937248, 0.1052016094326973, 0.018538448959589005, 0.011060715653002262, 0.03166411444544792, 0.001086507341824472, -0.04162765294313431, 0.006190395448356867, -0.013415928930044174, 0.0394684262573719, -0.05888541787862778, 0.045308806002140045, 0.00024058543203864247, -0.03488980978727341, -0.05376604571938515, 0.08337969332933426, 0.04245276749134064, 0.13223305344581604, -0.005147869698703289, -0.06890137493610382, -0.05247711390256882, 0.06877386569976807, 0.03679635748267174, -0.027546236291527748, -0.08680855482816696, 0.061049748212099075, -0.01762234792113304, -0.010071499273180962, 0.013944510370492935, 0.027612658217549324, 0.01748252473771572, -0.014745072461664677, 0.020530860871076584, -0.03697947412729263, -0.023322392255067825, 0.01908060722053051, -0.017263425514101982, 0.03735756129026413, 0.10121972113847733, -0.028883351013064384, 0.041024573147296906, -0.010497987270355225, -0.017214275896549225, 0.051534369587898254, -0.013244861736893654, 0.040578365325927734, -2.41355701291468e-05, -0.04849652945995331, 0.03807121142745018, -0.023149646818637848, 0.02567710354924202, -0.06047888472676277, -0.012646732851862907, -0.006071888376027346, 0.0015489562647417188, 0.02891475521028042, -0.06317951530218124, -0.016981277614831924, -0.06967867165803909, -0.04759041592478752, 0.041348375380039215, 0.008981755934655666, -0.004676126409322023, 0.01994154043495655, 0.04716724902391434, 0.010083436034619808, -0.016814587637782097, 0.09567846357822418, -0.012823292054235935, -0.0023356471210718155, -0.12184431403875351, 0.05646073818206787, 0.027452444657683372, 0.05128578841686249, -0.034890394657850266, 0.0659153014421463, 0.039797719568014145, 0.06463559716939926, 0.05596289411187172, 0.026334339752793312, 0.010858464054763317, -0.03964989259839058, 0.006023800931870937, -0.044319037348032, -0.08054783940315247, 0.10612725466489792, -0.016839703544974327, -0.19242650270462036, 0.037472229450941086, -0.02600213512778282, 0.016022376716136932, -0.047940079122781754, 0.052942343056201935, 0.01579723134636879, 0.034883711487054825, -0.13391786813735962, 0.01853073015809059, -0.07121416926383972, 0.005956035573035479, -0.016579685732722282, -0.03871050104498863, 0.004895283840596676, -0.021745741367340088, 0.036334581673145294, -0.03865867480635643, -0.058921631425619125, -0.07421739399433136, 0.07518429309129715, 0.000626029446721077, 0.13652251660823822, -0.04141111299395561, -0.009961692616343498, 0.04792722687125206, -0.02421271987259388, -0.0010461766505613923, 0.01833982765674591, 0.006750804837793112, -0.02775820903480053, -0.023519888520240784, 0.04521428421139717, -0.05984712019562721, -0.02100171521306038, 0.04993588477373123, -0.021528495475649834, -0.01526368223130703, 0.013714299537241459, 0.018652774393558502, -0.04983680322766304, -0.027323201298713684, -0.034893184900283813, 0.011624347418546677, 0.09696746617555618, -0.0244525708258152, -0.08423517644405365, 0.05670490860939026, -0.014201695099473, -0.0034865865018218756, -0.010018270462751389, -0.1152690127491951, -0.01852976717054844, -0.016217447817325592, -0.04801281541585922, 0.03489210829138756, -0.01350661925971508, -0.02559594251215458, 0.010484202764928341, 0.011044713668525219, 0.06880487501621246, -0.03932294622063637, 0.05274104326963425, -0.017412973567843437, -0.003921640571206808]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>lack_of_rural_broadband_upgrades</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Internet\nReason for given NPS: Because we live at Maungatapere and have endest problems with One NZ']</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>[-0.0533309169113636, -0.07950069010257721, 0.014390310272574425, -0.003894319524988532, 0.0506240613758564, -0.06868600100278854, -0.10198862105607986, 0.03273841366171837, -0.03319750353693962, 0.014409136027097702, 0.047282103449106216, -0.026709523051977158, 0.04656802862882614, -0.04715598002076149, 0.05563901737332344, 0.05054540932178497, 0.0365566648542881, -0.04546224698424339, 0.0030350680463016033, 0.0031997724436223507, 0.03225681185722351, 0.031117476522922516, -0.004862392786890268, 0.02156512252986431, 0.05065867304801941, -0.019479602575302124, -0.04000198841094971, -0.036510568112134933, -0.03367956355214119, -0.10905762016773224, 0.032955579459667206, 0.02023453637957573, -0.010698274709284306, 0.039134033024311066, -0.005296252202242613, -0.07656023651361465, 0.051500122994184494, -0.018695227801799774, -0.003836504416540265, 0.02493070811033249, -0.009365199133753777, 0.03246571496129036, -0.01813453435897827, 0.0029409462586045265, -0.07045894116163254, -0.011039363220334053, 0.03992731496691704, 0.013831650838255882, 0.055210404098033905, -0.07153484970331192, -0.03226998820900917, 0.02994769625365734, -0.0015555742429569364, -0.02223087288439274, 0.03737795352935791, 0.06723660230636597, 0.0021183842327445745, 0.09226702153682709, 0.02155304327607155, 0.010734918527305126, 0.05274710804224014, 0.009641285985708237, -0.16225296258926392, 0.025112925097346306, 0.0779917910695076, 0.014656313695013523, 6.845390453236178e-05, -0.04673813655972481, -0.0011186882620677352, 0.004229652229696512, -0.00542487483471632, 0.05845405161380768, 0.011060965247452259, 0.01956629939377308, 0.010425224900245667, 0.02217746712267399, -0.053455304354429245, 0.02864699438214302, 0.01782701164484024, 0.01820402778685093, 0.04130801558494568, -0.05260251834988594, -0.026759831234812737, 0.029678605496883392, -0.026155030354857445, -0.06392761319875717, -0.01364863570779562, 0.005775533616542816, -0.032562993466854095, 0.02586795948445797, -0.05022967606782913, 0.019489962607622147, 0.03239991515874863, 0.0042068930342793465, -0.04140935465693474, -0.005577091593295336, -0.008748849853873253, 0.03526517376303673, -0.0681169182062149, 0.3750776946544647, 0.024475280195474625, 0.013834543526172638, -0.011325006373226643, -0.005120270885527134, 0.032559797167778015, -0.02552102878689766, -0.051838189363479614, -0.018491841852664948, -0.010625735856592655, 0.014070866629481316, 0.0045937709510326385, 0.025211364030838013, 0.012088201940059662, 0.023882007226347923, 0.020195333287119865, -0.011888638138771057, -0.06390680372714996, 0.003924831748008728, -0.05103350803256035, 0.05742857605218887, -0.06002063676714897, 0.03141395002603531, 0.043576113879680634, -0.004945884924381971, 0.03954549878835678, 0.013770786114037037, 0.04161689057946205, 0.06716456264257431, 0.011489136144518852, 0.06731460988521576, -0.027467427775263786, -0.0340459942817688, 0.03392036259174347, -0.018105583265423775, 0.04648575559258461, 0.007922476157546043, 0.03624378517270088, 0.058954719454050064, -0.030711686238646507, 0.06482198089361191, 0.006361730396747589, -0.08722426742315292, -0.024228114634752274, -0.034467797726392746, 0.01989181526005268, 0.09578432142734528, 0.030699577182531357, 0.0634755939245224, -0.010418558493256569, -0.027587469667196274, -0.006644625216722488, 0.02864924445748329, -0.016854524612426758, -0.0035644446033984423, -0.02190028876066208, 0.007508151698857546, -0.020152077078819275, 0.017851265147328377, 0.012171922251582146, 0.00015529115626122802, 0.06686586886644363, -0.016521865501999855, -0.03761386126279831, 0.056019291281700134, -0.012960047461092472, -0.06356482952833176, -0.06508566439151764, -0.005664215423166752, -0.020184792578220367, -0.004172403831034899, -0.049436263740062714, 0.025200124830007553, -0.020308496430516243, -0.016651980578899384, 0.11768513172864914, -0.05596571043133736, -0.07140131294727325, -0.010770360939204693, -0.01646735519170761, -0.050880998373031616, -0.022266874089837074, 0.015277252532541752, -0.006421333644539118, -0.028816990554332733, -0.011421817354857922, -0.02193659357726574, -0.04640032351016998, -0.01639515720307827, 0.029951613396406174, -0.042057305574417114, -0.12368231266736984, -0.03705533593893051, 0.011523613706231117, -0.037475571036338806, 0.03917749971151352, -0.015500007197260857, 0.010778854601085186, 0.00634098332375288, 0.08492399007081985, -0.04066624492406845, 0.06385070085525513, -0.03087429143488407, -0.011178312823176384, -0.026370944455266, -0.04200020432472229, 0.027979174628853798, 0.004741389770060778, -0.029212530702352524, 0.0999426320195198, 0.00873931311070919, 0.053632866591215134, -0.05917765572667122, 0.13127632439136505, 0.026858747005462646, -0.04644085839390755, 0.019560575485229492, -0.001362624578177929, 0.01767311803996563, 0.053038302809000015, 0.06804489344358444, -0.014700248837471008, 0.10682395100593567, -0.05783833563327789, -0.2898678183555603, 0.0017044449923560023, 0.013624015264213085, -0.07429900020360947, -0.012507298029959202, -0.032166529446840286, 0.015698276460170746, 0.027329059317708015, -0.015985343605279922, 0.09946682304143906, 0.04108797386288643, 0.012325827963650227, -0.005307137966156006, -0.008031309582293034, -0.03486359491944313, -0.027661772444844246, -0.030674925073981285, 0.06633763015270233, -0.025229131802916527, -0.003087482415139675, -0.010269120335578918, 0.07858207821846008, -0.04757535085082054, -0.040368735790252686, 0.05224776640534401, -0.03932046890258789, 0.14069269597530365, -0.09684128314256668, 0.0006665963446721435, -0.07421809434890747, 0.03422214835882187, 0.08243509382009506, -0.06054502725601196, -0.07851596921682358, -0.004156908486038446, 0.046739183366298676, 0.0032939580269157887, 0.023356791585683823, -0.045258767902851105, -0.004289885051548481, -0.034377600997686386, 0.041579946875572205, -0.0044352407567203045, -0.04451067000627518, -0.002787592587992549, 0.006079958286136389, -0.046879418194293976, 0.01650346629321575, 0.009885265491902828, -0.015478546731173992, -0.010139462538063526, 0.016949737444519997, 0.062187667936086655, 0.03589487820863724, 0.02616593986749649, -0.01877799816429615, -0.07509566843509674, 0.03598223999142647, 0.03740351274609566, 0.00630154088139534, 0.03922165930271149, -0.0015599998878315091, 0.031511176377534866, -0.08971104770898819, 0.09238266199827194, 0.02210150845348835, 0.01874287985265255, 0.011906927451491356, -0.0161921177059412, 0.04502962529659271, 0.03250446543097496, 0.06662937998771667, -0.049113545566797256, -0.008566203527152538, -0.049829691648483276, -0.006042587570846081, 0.025961391627788544, 0.002243892988190055, 0.018313243985176086, -0.07236304879188538, 0.04070616886019707, -0.02819257788360119, -0.0017782102804630995, 0.011906135827302933, -0.020200617611408234, 0.050454847514629364, -0.0037415302358567715, -0.0024076143745332956, 0.010171344503760338, 0.03682519495487213, -0.013244488276541233, -0.01990368589758873, -0.019394660368561745, -0.049255985766649246, 0.09222189337015152, -0.004197390284389257, -0.2427009493112564, -0.019687160849571228, 0.036575015634298325, -0.11442409455776215, -0.0439067967236042, 0.046571068465709686, -0.006733493413776159, 0.03331756219267845, -0.0817219465970993, 0.03187191113829613, 0.0068832156248390675, 0.001168229733593762, -0.01609674096107483, -0.09444235265254974, 0.07966671139001846, 0.00555249722674489, 0.0548071563243866, 0.019394265487790108, -0.03826839104294777, -0.0886717215180397, -0.010406757704913616, -0.00633378978818655, 0.13712428510189056, -0.007392785511910915, 0.014886491931974888, 0.009616314433515072, -0.03387102857232094, 0.023621736094355583, -0.007044770754873753, -0.023349694907665253, -0.024306368082761765, 0.026454055681824684, 0.028049955144524574, -0.032896045595407486, -0.021883681416511536, -0.016693828627467155, 0.01565958932042122, -0.04118321090936661, -0.007424337323755026, -0.010164967738091946, -0.04585001990199089, 0.05758792906999588, -0.019229484722018242, 0.07472430169582367, 0.05075063556432724, 0.005131484474986792, -0.038664110004901886, -0.00344222248531878, 0.02041771449148655, -0.0037130648270249367, -0.03270552679896355, -0.039254408329725266, 0.029373807832598686, 0.025349605828523636, 0.016527358442544937, 0.06986992061138153, -0.0407596081495285, -0.007112519815564156, -0.036450378596782684, -0.005223529413342476, 0.01967688277363777, -0.07081703841686249, 0.007328844163566828, 0.022785743698477745, 0.008130037225782871]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>need_proactive_support_on_broadband</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Broadband speed\nReason for given NPS: Nice customer service always']</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>[-0.05856999009847641, -0.0711645781993866, 0.020428815856575966, -0.04909369722008705, -0.002756075467914343, -0.026331916451454163, -0.04478427767753601, 0.09264863282442093, 0.0021718996576964855, -0.023752911016345024, 0.03953580930829048, -0.018005363643169403, 0.03050164133310318, -0.02906636893749237, 0.041536059230566025, 0.0892055407166481, 0.0654762014746666, 0.004179251845926046, -0.002859803382307291, 0.0351574644446373, 0.04122607409954071, 0.03222791850566864, -0.024941125884652138, 0.017381226643919945, -0.06277228146791458, -0.020077167078852654, 0.00076868204632774, -0.030923275277018547, -0.05533862113952637, -0.08402326703071594, 0.017008407041430473, -0.04413300007581711, -0.004504255019128323, 0.07617506384849548, 0.009835890494287014, -0.08556744456291199, -0.008261912502348423, -0.031513094902038574, -0.02411479875445366, 0.02300996519625187, 0.02999716065824032, 0.030963867902755737, -0.05028149485588074, 0.003932515624910593, -0.012709349393844604, -0.006230840925127268, 0.06099019944667816, 0.008629743941128254, 0.06277020275592804, -0.023628441616892815, -0.0012011196231469512, 0.08922580629587173, -0.018517576158046722, -0.0002857389918062836, 0.026711832731962204, 0.04652487486600876, 0.03284101188182831, 0.04667002707719803, 0.03480822965502739, 0.014633172191679478, 0.0539204366505146, 0.01812913455069065, -0.12981373071670532, 0.08100175857543945, 0.03995506092905998, 0.014512147754430771, 0.023023026064038277, -0.013849301263689995, -0.002605926478281617, 0.0070546590723097324, -0.051116250455379486, 0.023524897173047066, -0.012654021382331848, 0.07461915910243988, 0.0322842113673687, 0.057336095720529556, -0.011270699091255665, 0.018743447959423065, 0.01580572873353958, 0.012619247660040855, 0.031117402017116547, -0.03221018239855766, -0.02264753170311451, -0.002830958692356944, -0.004285075236111879, -0.050813231617212296, -0.01946096494793892, -0.00017914404452312738, -0.006283092778176069, -0.029831822961568832, -0.10682542622089386, 0.04365597292780876, 0.042431604117155075, 0.04023271054029465, -0.059328339993953705, -0.0662325918674469, -0.009771608747541904, 0.017014892771840096, -0.058970723301172256, 0.3648986518383026, 0.0115590188652277, -0.0032849463168531656, -0.0120347049087286, -0.004444550257176161, 0.07795051485300064, -0.044409338384866714, -0.00541477557271719, 0.04435956850647926, -0.012909007258713245, 0.02605520188808441, 0.011287775821983814, -0.010529224760830402, 0.053222913295030594, -0.029564477503299713, 0.07114081084728241, 0.009297342970967293, -0.04849737137556076, -0.009034201502799988, -0.023184316232800484, 0.01113804429769516, -0.008245370350778103, 0.014061322435736656, 0.047797221690416336, 0.023991059511899948, 0.034892331808805466, -0.03258881717920303, 0.08673235028982162, 0.09116917103528976, -0.01784396730363369, 0.10112368315458298, -0.021332893520593643, -0.05273304507136345, 0.02983637899160385, 0.016537686809897423, -0.0025034653954207897, 0.005484122317284346, 0.03293689712882042, 0.009737086482346058, -0.022635288536548615, 0.09922297298908234, -0.023107772693037987, -0.06772392243146896, -0.0004957866622135043, -0.07877915352582932, 0.039961304515600204, 0.07414305955171585, -0.0074517079629004, 0.0406082347035408, -0.007271495182067156, -0.05141635239124298, -0.035858556628227234, 0.016800932586193085, 0.005233319476246834, -0.019118746742606163, -0.03361482545733452, 0.005529854912310839, 0.04407259076833725, -0.0003636049514170736, 0.010537336580455303, 0.0070025441236793995, 0.0012303657131269574, -0.09870005398988724, -0.010305634699761868, 0.04200330004096031, -0.002158366609364748, -0.07715490460395813, -0.017557382583618164, -0.017887450754642487, -0.04287412390112877, -0.024844292551279068, -0.0453958697617054, -0.002172666834667325, -0.024069398641586304, -0.005961064714938402, 0.04634964466094971, -0.005851528141647577, -0.04928936809301376, -0.00039086194010451436, -0.024607524275779724, -0.023836802691221237, 0.027135787531733513, -0.06300946325063705, 0.011233179830014706, -0.04151443392038345, -0.0217597596347332, -0.04908430948853493, -0.049311067909002304, -0.055777691304683685, 0.06400610506534576, -0.06663016229867935, -0.12251157313585281, -0.06124245002865791, -0.007720043882727623, -0.043113626539707184, 0.013518652878701687, -0.012023873627185822, -0.03597477450966835, -0.04598735645413399, 0.026813795790076256, -0.04718881472945213, 0.10010696202516556, -0.018082857131958008, -0.04692234471440315, -0.0327511765062809, -0.026538854464888573, 0.05246077850461006, -0.032687027007341385, 0.009326212108135223, 0.09606363624334335, -0.04679083451628685, 0.02248232252895832, -0.01164143718779087, 0.12017998844385147, 0.006622012704610825, -0.031157739460468292, -0.042845651507377625, -0.02448088489472866, 0.07353219389915466, 0.027600286528468132, 0.09620748460292816, 0.0008102569845505059, 0.0885297879576683, -0.0666959211230278, -0.2864222824573517, -0.024214722216129303, -0.018536919727921486, -0.01386137306690216, -0.0687420591711998, -0.020715124905109406, 0.026925671845674515, 0.003500093938782811, -0.024097416549921036, 0.06763017922639847, 0.09113463759422302, 0.03280800208449364, -0.010845387354493141, -0.031262025237083435, -0.011343915946781635, 0.016171367838978767, -0.0018140650354325771, 0.01742430031299591, -0.018852101638913155, 0.01379095297306776, -0.020867817103862762, 0.02554822899401188, -0.041599586606025696, -0.04799829423427582, 0.0514838732779026, 0.022420436143875122, 0.14494432508945465, 0.008613049983978271, 0.017578676342964172, -0.06392061710357666, 0.03839518502354622, 0.053235460072755814, -0.06670574098825455, -0.16827258467674255, -0.010034344159066677, 0.0318257212638855, 0.03744915500283241, -0.016824645921587944, -0.012731770984828472, -0.021967044100165367, -0.04421183094382286, 0.04312334582209587, -0.022971797734498978, -0.04498713091015816, -0.008078886196017265, -0.013447343371808529, 0.018476692959666252, 0.054547376930713654, -0.060352131724357605, -0.0029156527016311884, -0.009143668226897717, 0.006946125067770481, 0.020616095513105392, 0.06233867630362511, 0.015592128969728947, 0.011532245203852654, -0.024423757568001747, 0.06916411966085434, 0.03984759747982025, 0.028845682740211487, 0.03234763815999031, 0.03399572893977165, -0.013201466761529446, -0.07401973754167557, 0.04886811971664429, 0.01073525007814169, -0.02734430879354477, 0.05858078598976135, 0.009015358053147793, 0.04467425122857094, 0.04370531067252159, 0.03925038129091263, -0.04734406620264053, 0.02698824554681778, -0.007198363542556763, -0.0326189324259758, 0.019218221306800842, -0.031282659620046616, 0.02377583272755146, -0.06017051264643669, 0.052613452076911926, -0.0014665911439806223, 0.031500183045864105, -0.01863010972738266, -0.023970626294612885, 0.03396720811724663, 0.014321177266538143, 0.006923123728483915, 0.015764055773615837, 0.0022542388178408146, 0.0007051702705211937, 0.03111051209270954, -0.009386121295392513, -0.08155591040849686, 0.07588906586170197, -0.012636658735573292, -0.25045499205589294, -0.019956350326538086, 0.005596607457846403, -0.06836168467998505, -0.051241714507341385, 0.04286802560091019, 0.027348197996616364, -0.0070835258811712265, -0.13933444023132324, 0.06393387913703918, -0.05378064140677452, 0.018606331199407578, -0.07253513485193253, -0.0008656903519295156, 0.05462517961859703, 0.0008576816762797534, 0.04546082019805908, -0.036083050072193146, -0.07717198133468628, -0.05389174818992615, 0.02350790612399578, -0.0008851508609950542, 0.15513287484645844, -0.03885149955749512, 0.027200963348150253, 0.010417778044939041, 0.010802803561091423, 0.02608378976583481, 0.03664427623152733, -0.01102037075906992, -0.032130006700754166, -0.032480426132678986, 0.0001604048302397132, -0.034975841641426086, 0.013012106530368328, -0.02339770458638668, 0.01381263229995966, 0.00311648054048419, -0.002571243094280362, -0.011731117963790894, 0.005033600609749556, 0.02734488621354103, 0.00304276030510664, 0.0014470892492681742, 0.04987376555800438, -0.009580218233168125, 0.002466523787006736, 0.007285258732736111, 0.010796197690069675, 0.007353016175329685, -0.020219113677740097, -0.051865413784980774, 0.041291531175374985, 0.03243526443839073, -0.007778083439916372, 0.007370258681476116, -0.01061558909714222, 0.009208960458636284, -0.018403420224785805, 0.010866174474358559, 0.024533238261938095, -0.04639142006635666, 0.04856537654995918, 0.005583908408880234, 0.02384229190647602]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>need_proactive_contract_expiry_notifications</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Tell us when our contract finishes otherwise our bill becomes extremely high once it comes off contract\nReason for given NPS: Good since we were given deo']</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>[-0.1003464013338089, -0.009659381583333015, 0.07028444856405258, -0.035953279584646225, 0.00656144879758358, -0.04581420123577118, -1.093795526685426e-05, 0.03842565044760704, 0.008208680897951126, 0.0036537321284413338, -0.010808776132762432, 0.03234568238258362, -0.014826788567006588, 0.020691758021712303, 0.0030735768377780914, 0.004881745204329491, 0.05215844884514809, 0.02114327810704708, -0.047331564128398895, -0.01988520473241806, 0.04088904336094856, -0.009305935353040695, -0.02186238020658493, 0.06994594633579254, -0.024423256516456604, 0.08545682579278946, -0.03137354180216789, -0.013106637634336948, -0.06037328392267227, -0.07831231504678726, -0.007154420483857393, -0.03157355263829231, -0.024146778509020805, -0.005265907850116491, 0.049398023635149, -0.028120584785938263, -0.05067792907357216, -0.006774021312594414, 0.0036929224152117968, 0.05401010438799858, 0.01624324545264244, 0.04832608997821808, -0.057575125247240067, -0.05264033004641533, 0.01853230968117714, -0.06619741767644882, 0.011360175907611847, -0.023861829191446304, 0.04394064098596573, 0.0017753083957359195, 0.07720150053501129, 0.008404258638620377, 0.037651900202035904, -0.0005311598069965839, -0.030364584177732468, 0.024143878370523453, 0.02781500853598118, 0.05401313677430153, 0.02393198572099209, -0.005700304172933102, 0.037295855581760406, 0.02574022300541401, -0.13902594149112701, 0.035030391067266464, -0.03611081466078758, -0.023922203108668327, 0.04039578139781952, -0.043241217732429504, 0.003389537800103426, 0.01375820953398943, 0.03294770047068596, 0.022130833938717842, -0.07849264144897461, 0.12764973938465118, 0.006352542899549007, -0.00573033606633544, 0.03206326812505722, 0.04775600880384445, 0.046127039939165115, 0.019209876656532288, -0.04716534912586212, 0.01643933355808258, -0.03180892765522003, -0.008238378912210464, -0.04893888160586357, -0.04664377123117447, 0.04419291019439697, 0.016895068809390068, 0.1031050905585289, -0.01060089934617281, -0.024146435782313347, -0.011982551775872707, 0.04681391268968582, 0.04521890729665756, -0.08513195067644119, -0.0011203220346942544, -0.0016586714191362262, 0.026265114545822144, -0.0942612737417221, 0.3580186367034912, -0.039779216051101685, 0.03294102102518082, -0.04684346914291382, 0.0033790688030421734, 0.05270359292626381, -0.021051624789834023, -0.009785068221390247, 0.03815247863531113, -0.05077806115150452, -0.01612553745508194, -0.05915778502821922, 0.022034361958503723, 0.060352958738803864, -0.044947002083063126, -0.0056488122791051865, 0.09505276381969452, -0.02322583831846714, 0.011287187226116657, -0.005617158487439156, -0.018163910135626793, -0.011717691086232662, 0.012321548536419868, 0.03899066150188446, 0.0268209557980299, -0.039085905998945236, -0.014424123801290989, 0.04108012095093727, 0.10401151329278946, 0.004632077179849148, 0.027768537402153015, 0.0059302388690412045, 0.025081990286707878, -0.04959005117416382, 0.02680668793618679, 0.006843310780823231, 0.04018928483128548, -0.0165040772408247, 0.009921183809638023, 0.011246548034250736, 0.025380173698067665, -0.020936867222189903, -0.08264651149511337, 0.02071380615234375, -0.055345568805933, -0.03485376760363579, 0.07443225383758545, 0.021097013726830482, 0.09038958698511124, -0.0037503126077353954, -0.04574921354651451, -0.05310797691345215, 0.05317186564207077, 0.08979114145040512, -0.028349297121167183, 0.01216963492333889, 0.011068220250308514, 0.033926673233509064, -0.03532097116112709, -0.047966741025447845, 0.03986519202589989, -0.0018041487783193588, -0.04896911233663559, 0.014585472643375397, 0.06123943254351616, 0.025795338675379753, -0.07522216439247131, 0.06912948191165924, -0.042418260127305984, -0.039615046232938766, -0.006107594817876816, -0.027270415797829628, 0.02890041656792164, -0.017969924956560135, -0.023996291682124138, 0.08709593117237091, 0.003892212174832821, 0.041809242218732834, 0.004532174207270145, 0.018103426322340965, -0.006270868703722954, -0.02976464480161667, -0.056688547134399414, -0.028339320793747902, -0.019202223047614098, 0.010821252129971981, -0.04809827357530594, -0.002326838206499815, -0.03393803536891937, 0.05998210236430168, 0.0009693627362139523, -0.06619511544704437, -0.07069902122020721, -0.008907563053071499, 0.005847787018865347, -0.003603041870519519, -0.006612156983464956, -0.07234746962785721, -0.009455637075006962, 0.0004975140327587724, -0.069358229637146, 0.14344646036624908, -0.03321272134780884, -0.048210516571998596, -0.004229695536196232, 0.03406783938407898, 0.045517295598983765, -0.04193798825144768, 0.051402557641267776, 0.07630083709955215, -0.03493645042181015, 0.021732350811362267, 0.024050114676356316, 0.08589440584182739, -0.013567527756094933, -0.022802060469985008, 0.019542645663022995, -0.02890167385339737, 0.05631766840815544, -0.002821003319695592, 0.008564709685742855, 0.006458851043134928, 0.11403696984052658, 0.053542349487543106, -0.2958289086818695, 0.02396269515156746, -0.03652098774909973, -0.03822700306773186, -0.021854115650057793, -0.024639373645186424, 0.055415257811546326, -0.022033946588635445, -0.009325887076556683, 0.009601973928511143, 0.08826936781406403, 0.022084036841988564, -0.0025851032696664333, -0.0463809072971344, 0.041689157485961914, 0.04096098244190216, -0.032654423266649246, -0.04311626777052879, 0.016383720561861992, -0.027454223483800888, -0.008796248584985733, -0.02504955418407917, -0.004951310344040394, -0.04881797358393669, 0.08242127299308777, 0.027591539546847343, 0.109298937022686, -0.04645795002579689, -0.10693830251693726, -0.06503453850746155, 0.019815795123577118, 0.020599376410245895, -0.021969521418213844, -0.15529771149158478, -0.0085975993424654, 0.00033066392643377185, -0.0383169949054718, 0.018059052526950836, -0.008617330342531204, -0.0091274818405509, -0.02029353380203247, 0.03326379135251045, -0.009482651948928833, -0.02812565118074417, 0.020155860111117363, -0.08740493655204773, 0.0558534674346447, 0.0663200169801712, -0.046563614159822464, -0.0005912540364079177, 0.05551229044795036, 0.04613174498081207, 0.06943558156490326, 0.014477533288300037, 0.04193088412284851, -0.04259559139609337, -0.041692838072776794, 0.023272205144166946, -0.017103668302297592, 0.008992108516395092, -0.0004828149394597858, 0.0016804143087938428, 0.021180512383580208, -0.007220811676234007, 0.0436321496963501, 0.007812086958438158, -0.06646459549665451, -0.048941705375909805, 0.004792638123035431, 0.02706419862806797, -0.03439240902662277, 0.05014403909444809, -0.059096574783325195, -0.1063087210059166, 0.014720551669597626, 0.016479214653372765, 0.03526746854186058, -0.03300081565976143, -0.020900141447782516, -0.012439864687621593, -0.01825343631207943, -0.034247469156980515, 0.007918551564216614, 0.01194079965353012, -0.014022869057953358, 0.04608319327235222, -0.0035169038455933332, 0.0089265126734972, 0.03342821076512337, 0.0015492873499169946, 0.0319828987121582, 0.041747476905584335, -0.01957385614514351, 0.01506426278501749, 0.13950693607330322, -0.007639690302312374, -0.23780687153339386, -0.033028632402420044, 0.03163865953683853, -0.07073880732059479, -0.036666277796030045, 0.02826371043920517, -0.04858577623963356, -0.0040512713603675365, -0.07457981258630753, 0.010832767933607101, -0.035434603691101074, 0.022386623546481133, -0.05898716673254967, -0.025299500674009323, 0.0020193695090711117, -0.006585773546248674, 0.024834774434566498, -0.03647740185260773, -0.0322122685611248, -0.055469315499067307, 0.014044956304132938, -0.06742843985557556, 0.1686890572309494, 0.01290122326463461, 0.01653265953063965, 0.029276268556714058, 0.010145461186766624, 0.034284837543964386, 0.07347945868968964, 0.02497776784002781, -0.014406868256628513, 0.008579864166676998, 0.039791256189346313, -0.012233937159180641, -0.014949268661439419, 0.04633857682347298, -0.005187107250094414, -0.015040472149848938, -0.022836701944470406, -0.010667547583580017, -0.022049028426408768, 0.007283393759280443, -0.006565972696989775, 0.025524340569972992, 0.054519325494766235, -0.007719217333942652, -0.03580161929130554, -0.020745277404785156, 0.048256512731313705, 0.010565533302724361, -0.022183235734701157, -0.09298091381788254, -0.03460820019245148, 0.061602480709552765, -0.018631592392921448, 0.019698647782206535, 0.025196924805641174, -0.008294439874589443, 0.005229154136031866, 0.0008976198732852936, 0.011318333446979523, -0.04371941089630127, 0.022358737885951996, -0.0018742178799584508, -0.025709494948387146]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>avoid_surprise_high_bills_after_contract</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Tell us when our contract finishes otherwise our bill becomes extremely high once it comes off contract\nReason for given NPS: Good since we were given deo']</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>[-0.06413193047046661, -0.018273329362273216, -0.0005572244408540428, 0.011906387284398079, 0.047727931290864944, -0.07745110988616943, 0.04708508029580116, 0.02017984353005886, 0.04064541682600975, -0.015107120387256145, 0.006496654823422432, 0.09494692832231522, -0.024239538237452507, -0.00935436598956585, -0.04549350589513779, -0.046243082731962204, -0.010946787893772125, 0.031828176230192184, -0.0969058945775032, 0.024604687467217445, 0.044078316539525986, -0.003474780125543475, -0.019754033535718918, -0.013949287123978138, 0.059422992169857025, -0.0024544086772948503, -0.046495333313941956, -0.0366755835711956, -0.06634838134050369, -0.13567684590816498, 0.014374877326190472, -0.001053558778949082, -0.0693713054060936, -0.01641555316746235, 0.040216125547885895, 0.004688685294240713, -0.06194519251585007, 0.0022995045874267817, 0.07894277572631836, 0.0358256921172142, -0.01870129443705082, 0.05215909332036972, -0.04894767701625824, -0.09686289727687836, -0.007524555549025536, -0.052633047103881836, 0.041931167244911194, 0.021100101992487907, 0.10671301186084747, 0.03384135290980339, -0.001949733472429216, -0.005973663181066513, -0.006117081735283136, 0.00909053161740303, 0.00630946597084403, 0.06584194302558899, 0.047785673290491104, 0.04199055954813957, 0.028965163975954056, 0.03603163734078407, 0.03866858035326004, 0.029990028589963913, -0.09205127507448196, 0.02336077019572258, 0.040917329490184784, 0.012130338698625565, -0.012628357857465744, 0.0314897857606411, -0.020427560433745384, 0.0762350782752037, 0.03405288979411125, 0.004029618576169014, -0.05958544835448265, 0.0643671527504921, 0.036200668662786484, -0.03469861298799515, 0.02000664733350277, 0.028456341475248337, 0.02472921647131443, 0.03851112350821495, -0.03666149452328682, 0.0022600784432142973, -0.0038065104745328426, -0.027076782658696175, -0.04015278443694115, -0.09020692855119705, 0.09447071701288223, 0.020818060263991356, 0.02324553020298481, -0.0446833111345768, 0.027989313006401062, -0.03790206089615822, -0.007584873586893082, 0.0323612242937088, -0.059120360761880875, 0.062127485871315, 0.023308701813220978, 0.01223322656005621, -0.04425978288054466, 0.4062526822090149, -0.00730114383623004, 0.003797353245317936, -0.004026944749057293, 0.03337763622403145, 0.01967793144285679, -0.04377955198287964, 0.0006391803617589176, 0.045157477259635925, -0.03797643631696701, -0.0035297793801873922, -0.009310993365943432, -0.0008072998025454581, -0.008567703887820244, -0.01753670535981655, -0.012813165783882141, 0.04668062552809715, -0.012155991047620773, 0.000971825560554862, -0.017507947981357574, -0.01621103286743164, -0.01656338758766651, 0.024361083284020424, -0.010679430328309536, 0.032185591757297516, -0.0434601716697216, -0.06293227523565292, 0.048399828374385834, 0.06896304339170456, -0.001933901570737362, 0.0227328110486269, -0.026664987206459045, -0.0774402916431427, 0.0017764809308573604, 0.022081052884459496, 0.007910774089396, -0.02283659018576145, -0.010220657102763653, 0.036498621106147766, 0.020469382405281067, 0.012452660128474236, 0.004952469374984503, -0.04387742653489113, -0.05139793083071709, -0.06334841996431351, -0.017181264236569405, 0.06944829970598221, 0.0034870069939643145, 0.05235041677951813, 0.04882368817925453, -0.07897940278053284, -0.05897179991006851, -0.0033696689642965794, 0.0028164531104266644, -0.08295196294784546, -0.0018753441981971264, -0.021700918674468994, 0.007706154603511095, 0.02700219675898552, -0.044467538595199585, 0.028224948793649673, 0.04291251301765442, 0.013258415274322033, -0.030143102630972862, 0.02896883711218834, 0.005698727909475565, -0.042282477021217346, -0.0169537290930748, -0.07676263898611069, -0.0002238147280877456, -0.017942318692803383, -0.09431472420692444, 0.006494767963886261, -0.028362760320305824, 0.013346650637686253, 0.08678974211215973, -0.022342022508382797, -0.04889610409736633, -0.01158950850367546, 0.018662365153431892, 0.00676943501457572, -0.022700950503349304, -0.036006949841976166, -0.03873520344495773, -0.026240089908242226, 0.05533101409673691, -0.022913755849003792, -0.04953467473387718, 0.019673030823469162, 0.007971255108714104, -0.007952671498060226, -0.031698521226644516, 0.027003135532140732, -0.024650488048791885, -0.03835216909646988, -0.04005637392401695, -0.04069111868739128, -0.005892611108720303, 0.03221694380044937, 0.014139079488813877, -0.05037906393408775, -0.0023989961482584476, -0.03348219394683838, -0.026599930599331856, 0.06503459066152573, 0.029720479622483253, 0.07219099253416061, -0.003466591238975525, -0.0397690050303936, 0.08741109818220139, -0.026021374389529228, 0.010843605734407902, -0.021307693794369698, 0.06923121213912964, -0.022627072408795357, -0.034973811358213425, 0.018833797425031662, 0.007586538325995207, 0.1366911083459854, -0.01095777191221714, -0.038129255175590515, 0.004230269696563482, 0.052289534360170364, 0.08563002198934555, -0.34077340364456177, 0.018114369362592697, -0.01678829826414585, -0.08777912706136703, -0.023755958303809166, -0.007028757594525814, 0.02115061692893505, -0.03358422964811325, -0.028826428577303886, 0.05713311582803726, -0.02398112043738365, -0.03126015514135361, -0.03395611792802811, -0.07444248348474503, 0.019159816205501556, 0.055993545800447464, -0.03441556170582771, 0.004214172717183828, -0.01736489124596119, 0.06157781556248665, -0.001622976385988295, 0.0686572715640068, -0.04389553144574165, -0.05357320234179497, 0.026828179135918617, 0.003942864015698433, 0.12906520068645477, -0.0006005542236380279, -0.028311798349022865, -0.016029590740799904, 0.03443511202931404, -0.01784270443022251, -0.0017179208807647228, -0.054868102073669434, -0.00398740079253912, 0.03728180006146431, 0.00547914020717144, 0.0002979821583721787, -0.021685294806957245, -0.08425122499465942, 0.01971450075507164, 0.02491329051554203, -0.03605176508426666, -0.06414613127708435, 0.02369002252817154, -0.0002874712226912379, -0.06634943187236786, 0.06393652409315109, -0.03388727828860283, 0.025551432743668556, 0.0701344907283783, -0.023173173889517784, 0.043230582028627396, 0.03330504149198532, 0.12857948243618011, -0.060810770839452744, -0.023555293679237366, 0.01847829297184944, -0.027169547975063324, -0.026489628478884697, 0.015956774353981018, -0.046498339623212814, 0.028198858723044395, 0.014088360592722893, 0.04158804193139076, 0.01483600027859211, 0.010822448879480362, -0.01427115686237812, -0.00035712067619897425, 0.005087458994239569, 0.008573572151362896, 0.04207756370306015, -0.008179780095815659, -0.04397903010249138, 0.02378629893064499, 0.03133951872587204, -0.0007902566576376557, -0.015894966199994087, -0.07484880089759827, 0.002519250148907304, 0.04866712912917137, -0.005968932993710041, 0.030057677999138832, -0.008907151408493519, 0.01057449635118246, 0.03673922270536423, -0.00943612027913332, 0.05235184356570244, 0.03611711785197258, 0.01063359621912241, -0.00715232640504837, 0.023461423814296722, -0.015343249775469303, 0.05395680293440819, 0.09316638112068176, -0.01120136771351099, -0.255442351102829, -0.016287408769130707, -0.0398966446518898, -0.04215205833315849, -0.04041919484734535, 0.032845668494701385, -0.029748916625976562, -0.027917582541704178, -0.04222366213798523, 0.03297895938158035, -0.013094387948513031, 0.07034419476985931, 0.024582166224718094, -0.020375030115246773, -0.026325464248657227, -0.01164827961474657, 0.0621250756084919, 0.004814328160136938, -0.00872004870325327, 0.04688144475221634, -0.026882732287049294, -0.006533584091812372, 0.202621191740036, 0.018509145826101303, 0.0037536665331572294, -0.01828860491514206, -0.01608162559568882, 0.02101253904402256, 0.028169620782136917, -0.015991201624274254, -0.004107211250811815, 0.018092477694153786, 0.024839965626597404, -0.029096387326717377, -0.001029915758408606, 0.0045507741160690784, 0.012620572932064533, 0.024819733574986458, 0.003212893847376108, -0.003698008367791772, -0.041253991425037384, 0.042984310537576675, 0.0030424175783991814, -0.017956284806132317, 0.02753797359764576, 0.03384440764784813, -0.04845475032925606, -0.01823386363685131, 0.05843329429626465, 0.015416739508509636, -0.047171395272016525, -0.023947829380631447, 0.01633564569056034, 0.04668122157454491, 0.0018481692532077432, -0.011297425255179405, -0.024313384667038918, 0.018992634490132332, 0.04189634323120117, -0.019591649994254112, -0.02276526764035225, -0.03227648511528969, -0.010471525602042675, 0.04355491325259209, -0.01575753465294838]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>poor_explanation_of_account_merging</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Some communication. The first person I talked to about mixing up my broadband and mobile accounts wasn't able to explain what was happening very well. Consequently, the issue dragged on and created big problems for me.\nReason for given NPS: I never give anyone a ten. Also, I had some account difficulties (because i thought it was a scam - long story, didn't know I had two accounts with change from Trustpower) and got cut off which caused huge problems while travelling during very bad weather and road closures at night. However, a technician (Yulan???) was extremely helpful in sorting it all out for me."]</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>[-0.018823470920324326, -0.03081534244120121, -0.02282801643013954, 0.016875965520739555, -0.03119857795536518, -0.10091106593608856, 0.0005122953443787992, -0.024388659745454788, 0.08658084273338318, -0.04747799411416054, 0.06941384822130203, -0.04893650487065315, 0.04055814445018768, -0.049017686396837234, 0.05905579403042793, 0.0029853973537683487, -0.03884873911738396, -0.027839845046401024, -0.0441761389374733, 0.015764901414513588, 0.00525747612118721, -0.019821053370833397, -0.022593026980757713, 0.02957773767411709, 0.006991864647716284, 0.05738760530948639, -0.036546193063259125, -0.016062917187809944, -0.10496509075164795, -0.1806749701499939, 0.031173845753073692, -0.0132563766092062, -0.0428188294172287, 0.0015290688024833798, 0.08908921480178833, -0.011179156601428986, -0.030250733718276024, 0.04450681805610657, -0.025060158222913742, 0.024904239922761917, 0.00412514666095376, 0.014935079962015152, -0.08865866810083389, -0.009902963414788246, 0.017676904797554016, -0.014412582851946354, -0.03078552708029747, 0.04814596846699715, -0.001535570016130805, -0.008470998145639896, 0.02251812070608139, -0.043307170271873474, -0.03734585642814636, 0.0314311645925045, 0.004615796264261007, 0.10769158601760864, 0.05212092399597168, 0.08237729966640472, -0.01472173910588026, 0.045712556689977646, 0.034085359424352646, 0.0400732047855854, -0.11401474475860596, 0.01308452058583498, 0.04528860002756119, -0.010646442882716656, 0.03017089143395424, -0.0441172756254673, -0.023163631558418274, 0.06276170909404755, -0.07932380586862564, -0.04141315817832947, -0.03911959007382393, 0.07079567760229111, -0.05414661392569542, -0.006186097860336304, -0.031924884766340256, 0.01317688450217247, -0.004201306961476803, 0.12137101590633392, -0.049279093742370605, 0.04540171101689339, -0.04008433222770691, -0.015384129248559475, -0.020244289189577103, 0.009193042293190956, -0.00465824268758297, -0.018980860710144043, 0.02730521559715271, -0.030444201081991196, 0.03239469230175018, -0.025074299424886703, 0.07614567875862122, -0.02428734488785267, -0.003204138483852148, 0.017283130437135696, 0.03917909041047096, 0.029888242483139038, -0.05767247825860977, 0.36855196952819824, 0.0038203918375074863, 0.019655026495456696, 0.03783144801855087, -0.010630548000335693, -0.014376581646502018, -0.029215386137366295, -0.01134048867970705, -0.0268288254737854, 0.01509785559028387, -0.07960207015275955, -0.0013314943062141538, -0.06783422082662582, 0.012080274522304535, -0.05800442397594452, 0.01781771518290043, 0.04018788784742355, -0.01829596608877182, 0.014472631737589836, -0.0315927229821682, -0.007613316178321838, -0.0013277385151013732, -0.030298611149191856, -0.004833359271287918, 0.026065589860081673, -0.01557095255702734, -0.017224356532096863, -0.022745562717318535, 0.08416100591421127, 0.004758251365274191, 0.0060390811413526535, 0.027918154373764992, 0.03967594727873802, -0.038109708577394485, -0.023829342797398567, -0.002989606698974967, -0.03389976918697357, -0.03790491446852684, 0.059396591037511826, 0.07790140062570572, 0.014328411780297756, -0.021939462050795555, -0.06361863017082214, -0.0151765001937747, -0.00037019443698227406, -0.0037103421054780483, 0.15236707031726837, -0.014199999161064625, -0.025567876175045967, -0.06186046078801155, 0.013630695641040802, -0.003656694432720542, -0.010862567462027073, -0.018311643972992897, -0.062493227422237396, 0.021924016997218132, 0.0056237163953483105, 0.04306690767407417, -0.010769578628242016, -0.04055958613753319, 0.02089817263185978, 0.04321127012372017, -0.05132633075118065, -0.03451937809586525, 0.05600470304489136, 0.07403987646102905, -0.04788552597165108, 0.006728581618517637, 0.019687188789248466, -0.005260140635073185, 0.014422799460589886, -0.022402824833989143, -0.03275689482688904, -0.008359255269169807, -0.010357175022363663, 0.09934211522340775, -0.031349554657936096, -0.016627784818410873, -0.015611563809216022, 0.010137688368558884, -0.011287344619631767, 0.0716538056731224, -0.026564644649624825, -0.0897020697593689, 0.01319996640086174, 0.004623635672032833, -0.033030495047569275, -0.06701772660017014, -0.026250967755913734, 0.013339195400476456, -0.008022062480449677, -0.09339417517185211, 0.009913270361721516, -0.08155114948749542, -0.018897196277976036, -0.04752928018569946, -0.0453910157084465, -0.018867991864681244, 0.0007312551606446505, 0.004194153472781181, 0.002170621184632182, 0.04995502904057503, 0.01745561510324478, -0.028302831575274467, 0.008154192939400673, -0.053935158997774124, 0.056656528264284134, -0.027751248329877853, -0.034407928586006165, 0.09380055963993073, 0.00621122308075428, 0.0019293084042146802, -0.011665081605315208, -0.025187356397509575, 0.04208262264728546, 0.048993825912475586, -0.0005910963518545032, -0.03335697203874588, 0.02853509970009327, -0.009978322312235832, -0.005591998808085918, 0.00534882303327322, 0.039139118045568466, 0.07420703768730164, -0.29384326934814453, -0.017799293622374535, -0.011310667730867863, -0.026382457464933395, -0.05028923973441124, -0.03438687324523926, 0.053111374378204346, 0.05093833804130554, -0.037364643067121506, 0.045455873012542725, 0.013781523331999779, -0.007554531097412109, -0.0035670227371156216, -0.024657366797327995, -0.04588550329208374, 0.03175501525402069, -0.04278218001127243, 0.0857992172241211, -0.01836797036230564, 0.031631626188755035, -0.01135235745459795, 0.015766719356179237, 0.07766393572092056, -0.03827843815088272, 0.025196116417646408, 0.04966580122709274, 0.19189918041229248, -0.021554384380578995, 0.0345970019698143, 0.049369923770427704, 0.02397826500236988, 0.06338619440793991, -0.010866081342101097, -0.05450664833188057, 0.034362856298685074, 0.00964190810918808, -0.002454139990732074, 0.001172045711427927, 0.0018182351486757398, -0.01986827701330185, -0.07273809611797333, 0.008569157682359219, -0.006813551299273968, -0.05659395456314087, 0.05860687419772148, 0.015080975368618965, -0.0649341344833374, 0.00892565120011568, 0.029960094019770622, 0.05837490037083626, 0.0071807499043643475, 0.013951705768704414, 0.007974222302436829, 0.07530919462442398, 0.07088678330183029, -0.021477311849594116, -0.052149225026369095, 0.06774207949638367, -0.011238164268434048, 0.015024187043309212, 0.013492231257259846, -1.7272274135393673e-06, 0.01866891421377659, -0.053016986697912216, 0.06912992894649506, -0.022771604359149933, -0.05246417224407196, -0.03450700640678406, 0.0008176325354725122, -0.003451032331213355, -0.006788130383938551, 0.047394804656505585, -0.0286551583558321, -0.0196644626557827, -0.01635485514998436, 0.048192739486694336, -0.02641121670603752, 0.0034531799610704184, -0.014800329692661762, -0.016252005472779274, 0.016139162704348564, -0.08076246827840805, 0.0640726238489151, -0.009412802755832672, -0.054795194417238235, 0.01995355263352394, 0.032930903136730194, 0.04967797175049782, -0.014389198273420334, -0.01736452803015709, -0.0035818300675600767, 0.026459582149982452, -0.051750700920820236, 0.06485290080308914, 0.0350099615752697, -0.0207456573843956, -0.29028698801994324, -0.0041479263454675674, 0.012228090316057205, 0.0033172701951116323, 0.034264858812093735, 0.05023935064673424, 0.0057387398555874825, 0.00039372153696604073, -0.0035908108111470938, -0.05194953829050064, 0.03397161141037941, 0.024221638217568398, 0.011262725107371807, -0.031279727816581726, -0.004479791037738323, 0.05176446586847305, 0.0109535101801157, -0.03423824906349182, 0.03134011849761009, 0.02848971262574196, 0.028501972556114197, 0.014202174730598927, 0.15056352317333221, 0.02128576673567295, -0.0553470253944397, 0.03502794727683067, 0.004871038720011711, -0.011858796700835228, 0.05990055948495865, 0.03880305960774422, -0.06370871514081955, 0.018079517409205437, 0.06338436156511307, -0.003780562896281481, -0.005639288574457169, -0.013749475590884686, 0.023897144943475723, -0.020892977714538574, 0.06991273164749146, -0.013469697907567024, -0.017707696184515953, -0.007488025818020105, -0.0337245836853981, 0.02142629399895668, 0.05950041860342026, -0.027539348229765892, -0.007725278846919537, -0.01962737739086151, 0.027557414025068283, -0.030538924038410187, -0.017614927142858505, -0.04716720059514046, -0.01942049339413643, -0.024783840402960777, 0.02279929630458355, 0.0224628709256649, -0.0609678253531456, 0.042795274406671524, 0.0295171607285738, 0.003027434227988124, 0.02109268493950367, -0.01642349176108837, 0.049875419586896896, -0.05227756127715111, -0.007758926134556532]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>poor_accessibility_and_seating_instore</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Customer service in stores\nReason for given NPS: I was there for close on 2 hours half this time standing at the front of a queue halfway through being served I had yo request an armchair as I was on the verge of passing out. This is not the way to treat elderly clients or ant clients really.']</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>[-0.019905272871255875, -0.04601883515715599, 0.04623294994235039, -0.011556087993085384, -0.020349958911538124, -0.01136796921491623, -0.00543828634545207, 0.023641617968678474, 0.024169694632291794, -0.04534091055393219, -0.004707049578428268, 0.014013774693012238, -0.007703103590756655, -0.003831994952633977, 0.040028225630521774, -0.02128743566572666, 0.058928292244672775, 0.0159474927932024, -0.05242927372455597, 0.05696849152445793, 0.05938912555575371, -0.01439636666327715, -0.02458914928138256, -0.03987538069486618, -0.0435183122754097, 0.025321682915091515, -0.018675867468118668, -0.0044662547297775745, -0.04093609377741814, -0.13514114916324615, -0.023387514054775238, -0.0562928281724453, 0.05608980730175972, 0.0007163702393881977, 0.03488451614975929, -0.023833515122532845, -0.059739794582128525, 0.0154862767085433, -5.4884381825104356e-05, 0.031117945909500122, 0.021359913051128387, 0.007196763530373573, -0.05180167779326439, -0.005352881737053394, 0.013560162857174873, -0.0916675478219986, -0.01889800652861595, -0.01820908859372139, 0.07221119105815887, -0.02939375676214695, -0.05467010289430618, 0.031133199110627174, -0.0064235953614115715, 0.009046868421137333, -0.042983319610357285, 0.041764914989471436, 0.06361507624387741, -0.0037382186856120825, 0.010770191438496113, 0.011909468099474907, 0.048029977828264236, -0.042600516229867935, -0.1525324583053589, 0.07454655319452286, 0.03676798567175865, 0.022883251309394836, -0.03580808639526367, -0.06794276088476181, 0.0145183764398098, -0.047034136950969696, 0.01583768241107464, -0.03880518674850464, 0.014626902528107166, 0.06684574484825134, 0.04348747804760933, -0.015529908239841461, 0.010998201556503773, -0.008519014343619347, 0.04037262871861458, 0.0054354616440832615, 0.061497144401073456, -0.0297047458589077, -0.06025423854589462, 0.03455496206879616, 0.04286466911435127, -0.039469361305236816, -0.005514681339263916, 0.02968764491379261, 0.000874150253366679, -0.004946005530655384, -0.01995759829878807, -0.016291216015815735, 0.04682740569114685, 0.04831276088953018, -0.05457135662436485, -0.028354546055197716, 0.01444978453218937, -0.005582872312515974, -0.048858534544706345, 0.3626879155635834, 0.06145275756716728, 0.0790264829993248, -0.007500852923840284, 0.020619969815015793, 0.004145049024373293, -0.03289274871349335, 0.04598196595907211, -0.02393932454288006, -0.012551243416965008, -0.00299815833568573, -0.03553001955151558, -0.05173851177096367, 0.05597179755568504, 0.02487853914499283, -0.010817884467542171, 0.027067601680755615, 0.02044900692999363, -0.02141047641634941, -0.0038555439095944166, -0.018298564478754997, -0.06844740360975266, -0.003868298837915063, -0.004236936569213867, -0.005429644603282213, -0.0032017577905207872, 0.006501195020973682, 0.042095597833395004, 0.06891797482967377, 0.022877151146531105, 0.01900961622595787, 0.03125970810651779, -0.011544383130967617, 0.036210596561431885, 0.004557054955512285, -0.004030915442854166, -1.169619554275414e-05, -0.031010404229164124, 0.01472525391727686, 0.09261568635702133, 0.017034025862812996, -0.014297381974756718, -0.0818551555275917, -0.0051530348137021065, -0.020811783149838448, 0.05420355498790741, 0.10623188316822052, -0.06085241958498955, -0.007297673262655735, -0.032902467995882034, -0.017421172931790352, 0.007958522066473961, -0.008747308515012264, 0.00357924890704453, 0.014443013817071915, -0.03858518972992897, -0.04446283355355263, -0.020325327292084694, 0.006890933960676193, 0.007526696193963289, 0.006618796847760677, 0.048244502395391464, -0.03532392159104347, -0.0028910248074680567, -0.002518321154639125, -0.006411351263523102, -0.02806893363595009, -0.009289790876209736, 0.023452723398804665, -0.058693889528512955, 0.00402770284563303, 0.00011457172513473779, -0.008116903714835644, -0.047209206968545914, 0.07235559821128845, 0.1210649162530899, -0.013970750384032726, -0.03769581764936447, 0.055482760071754456, -0.03232467174530029, 0.00896233320236206, 0.03517989441752434, -0.042022742331027985, -0.10482529550790787, -0.02965776063501835, 0.008177331648766994, -0.044211845844984055, -0.02668878063559532, -0.014067795127630234, 0.041338447481393814, 0.08058430999517441, -0.012803053483366966, -0.10614906251430511, -0.11232330650091171, -0.0329529233276844, -0.0055071464739739895, 0.002861439948901534, -0.017837248742580414, -0.05130947753787041, 0.04667747765779495, -4.822172559215687e-05, 0.10635701566934586, 0.02564964070916176, -0.10485869646072388, 0.0420416034758091, -0.0042833187617361546, 0.003080330090597272, -0.003157898783683777, -0.07229699939489365, 0.03146440163254738, -0.06841441243886948, -0.05628540739417076, 0.020395588129758835, 0.014866660349071026, 0.026215754449367523, 0.01933624967932701, -0.029551498591899872, 0.023170873522758484, 0.02625322714447975, 0.04201989993453026, -0.0028756679967045784, 0.027961844578385353, 0.0513167530298233, -0.023954086005687714, -0.3154074251651764, 0.0689782127737999, -0.021074354648590088, -0.01377220917493105, -0.14006277918815613, -0.0025289743207395077, 0.022146454080939293, 0.00737843569368124, 0.01204604934900999, 0.023902403190732002, 0.06074273958802223, -0.011407794430851936, 0.01215001754462719, 0.06542254984378815, -0.013550151139497757, -0.011952206492424011, -0.02728334628045559, 0.05583648383617401, 0.022417085245251656, -0.020352743566036224, -0.02260667271912098, 0.05271640419960022, -0.022675873711705208, -0.025154128670692444, 0.00960646290332079, -0.0036575060803443193, 0.20615407824516296, -0.031919173896312714, -0.006001309026032686, -0.0379042886197567, 0.034188397228717804, 0.08922210335731506, -0.02847093529999256, -0.11294810473918915, -0.002178217750042677, 0.037217527627944946, -0.023863956332206726, -0.0074352906085550785, 0.01239111740142107, -0.048791151493787766, -0.025457262992858887, 0.033950481563806534, 0.033629875630140305, -0.009092803113162518, 0.023237207904458046, -0.002176612615585327, -0.015381947159767151, 0.030062388628721237, -0.02803860791027546, 0.0954313725233078, 0.01073313970118761, -0.03566361218690872, -0.0031642019748687744, 0.13224777579307556, -0.0003768163442146033, 0.0002923687279690057, 0.02119522914290428, 0.04220421612262726, 0.021013764664530754, 0.04099878668785095, -0.043020859360694885, -0.01920764148235321, 0.042953744530677795, -0.06420229375362396, -0.012737841345369816, 0.02174394577741623, 0.019598916172981262, -0.027564970776438713, 0.012810231186449528, 0.021203942596912384, -0.048154059797525406, -0.005841382313519716, 0.005483679939061403, -0.007904605008661747, -0.025563478469848633, 0.01606421172618866, 0.001957604894414544, 0.05541440099477768, -0.009390149265527725, -0.025909967720508575, 0.024322571232914925, 0.07059890776872635, 0.04014480113983154, 0.010208886116743088, 0.0007688577170483768, 0.013877153396606445, 0.010351545177400112, -0.04923410713672638, 0.0035021421499550343, -0.037424542009830475, -0.031814441084861755, 0.008638005703687668, -0.038337837904691696, 0.026676302775740623, 0.09631878137588501, 0.02915104478597641, -0.24731822311878204, -0.023112226277589798, 0.009003075771033764, -0.004503315314650536, -0.008060780353844166, 0.04433048143982887, -0.05228632688522339, -0.02752023935317993, -0.03102615661919117, -0.06201999634504318, 0.014145072549581528, 0.004200658295303583, -0.0969623476266861, -0.06366820633411407, 0.031207121908664703, 0.023254120722413063, 0.09995265305042267, -0.021388540044426918, 0.03652026876807213, -0.07543868571519852, 0.015563366003334522, 0.03843243047595024, 0.1424655318260193, 0.012083495035767555, -0.030080094933509827, -0.0022258739918470383, 0.02017854154109955, -0.0007922700606286526, -0.031395260244607925, 0.0616195946931839, -0.07972019165754318, -0.03568524122238159, 0.050441477447748184, -0.003663673298433423, -0.01395386178046465, 0.004005091730505228, 0.0353391133248806, -0.037128157913684845, 0.05979035049676895, -0.009823441505432129, -0.007939857430756092, 0.003993488848209381, -0.06428242474794388, 0.0018053504172712564, 0.04826952517032623, 0.014563689939677715, 0.04517894983291626, 0.04800306260585785, 0.07993677258491516, -0.0037671399768441916, -0.007351039908826351, -0.013478082604706287, -0.03116535395383835, 0.016551805660128593, 0.04099986329674721, 0.01652641035616398, -0.010926405899226665, -0.010868345387279987, -0.015519305132329464, 0.010952339507639408, 0.023705078288912773, -0.06504539400339127, -0.022815225645899773, -0.023246347904205322, 0.03661014884710312]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>need_promotional_free_weekend_data_minutes</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Some free weekend data, minutes as promo like other providers\n']</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>[-0.03237364813685417, -0.04897104576230049, 0.03759641945362091, -0.007027211133390665, 0.050461601465940475, -0.0055909124203026295, -0.033981796354055405, 0.0023853550665080547, 0.0154072605073452, -0.008603445254266262, -0.038455747067928314, 0.06179610639810562, 0.02335285395383835, 0.023008394986391068, 0.044499799609184265, 0.006339670158922672, 0.05297616124153137, -0.03544202074408531, -0.0451800711452961, 0.025896675884723663, 0.04813191667199135, -0.05263512581586838, -0.03787827491760254, -0.02876000665128231, -0.013196858577430248, -0.030872223898768425, -0.010743699036538601, -0.04149730131030083, -0.07516997307538986, -0.09081539511680603, -0.029160942882299423, -0.054824210703372955, 0.0034098324831575155, 0.008616670966148376, 0.08161799609661102, -0.0054779695346951485, -0.04780905693769455, 0.0024662569630891085, -0.0033114859834313393, 0.030634069815278053, 0.007595091592520475, 0.018827158957719803, -0.03426218032836914, 0.05585339665412903, -0.06001358851790428, -0.05881056934595108, -0.0054888613522052765, -0.026299742981791496, 0.05632568895816803, 0.03759808838367462, 0.008729987777769566, 0.014487413689494133, -0.010853330604732037, 0.011978909373283386, 0.020043663680553436, 0.041964419186115265, 0.033827461302280426, -0.013618960976600647, -0.022023960947990417, -0.005946573335677385, 0.00011562521103769541, 0.04256169870495796, -0.1287422627210617, 0.02858293242752552, -0.02204843796789646, 0.020729944109916687, -0.020438650622963905, -0.0014130697818472981, -0.010985877364873886, 0.00721693504601717, -0.0733296126127243, -0.022561702877283096, 0.004186626058071852, 0.07049354165792465, 0.00014069290773477405, 0.024640647694468498, -0.03244448080658913, -0.003991240635514259, -0.03720127046108246, 0.002613034565001726, -0.0395258367061615, -0.029747212305665016, 0.020964758470654488, -0.02042207308113575, 0.012165006250143051, -0.05623382702469826, 0.035223666578531265, 0.029234815388917923, 0.07955416291952133, -0.010895773768424988, 0.007756161503493786, -0.01878778450191021, 0.02843335084617138, 0.038787342607975006, -0.08441218733787537, -0.03468615934252739, 0.07161280512809753, 0.04842003062367439, -0.04321505129337311, 0.3641200065612793, -0.05869052931666374, 0.06183647736907005, 0.010778470896184444, -0.04812745377421379, -0.02079031988978386, -0.07945308834314346, -0.024426067247986794, 0.0025324802845716476, -0.04325879365205765, 0.003268004395067692, -0.04311312362551689, -0.0012524892808869481, 0.07271774858236313, -0.0925593227148056, 0.012822195887565613, 0.046169377863407135, 0.015542233362793922, -0.033446311950683594, 0.028426002711057663, 0.006620731204748154, -0.022738449275493622, -0.056226152926683426, 0.05105435475707054, 0.0037468131631612778, 0.014766152016818523, -0.006507072597742081, 0.003794983960688114, 0.10613048821687698, -0.012409412302076817, 0.046109504997730255, 0.04093426838517189, 0.012782661244273186, -0.05639531835913658, 0.029943089932203293, 0.012630010023713112, -0.0821986049413681, 0.041138824075460434, 0.008829407393932343, 0.0668596401810646, -0.03523621708154678, -0.05302445590496063, -0.04873346537351608, -0.013931876048445702, -0.045412711799144745, -0.008141979575157166, 0.13145679235458374, 0.0038609032053500414, 0.04803759232163429, -0.011661875061690807, -0.06597112119197845, -0.059696048498153687, 0.03813674673438072, 0.009137963876128197, -0.06417494267225266, -0.02516261860728264, 0.03353790193796158, 0.07286012917757034, 0.0049813371151685715, -0.0070359595119953156, 0.009045579470694065, -0.012713843025267124, -0.025932153686881065, 0.04364199936389923, 0.0455721840262413, -0.0035500035155564547, -0.1275719851255417, 0.02932306006550789, 0.04159877821803093, -0.021847324445843697, -0.0033761525992304087, -0.030119454488158226, -4.750865628011525e-05, -0.06349704414606094, 0.02215421386063099, 0.16890886425971985, -0.03404727205634117, -0.00799565576016903, 0.053743720054626465, 0.022521693259477615, -0.01897898130118847, 0.011917192488908768, -0.06095637008547783, -0.021850669756531715, 0.006377840414643288, -0.0014962360728532076, -0.060046300292015076, -0.042180247604846954, 0.017583291977643967, 0.00467752106487751, 0.049552228301763535, -0.03560334071516991, -0.0759766548871994, -0.026953885331749916, -0.02597789652645588, -0.06154313310980797, -0.068284772336483, 0.006321388762444258, -0.006058102939277887, 0.039903562515974045, -0.07216370850801468, 0.022224627435207367, -0.061259154230356216, 0.003339730203151703, 0.033276379108428955, 0.052011098712682724, 0.04403914883732796, -0.015252125449478626, -0.03185272216796875, 0.09380654245615005, 0.00585176469758153, 0.028360698372125626, -0.035492755472660065, 0.03181051090359688, -0.06745335459709167, -0.008590444922447205, 0.0650850310921669, -0.005957480054348707, -0.00176955945789814, 0.014457027427852154, 0.04543846473097801, -0.019655730575323105, 0.0822533518075943, 0.01841629482805729, -0.2933671176433563, 0.039890553802251816, -0.003198410617187619, 0.006847409065812826, -0.018436994403600693, 0.00669431034475565, 0.033872682601213455, -0.039552222937345505, 0.028402160853147507, 0.10274013131856918, 0.06348053365945816, -0.009016908705234528, -0.07423592358827591, -0.06408321857452393, -0.011445639654994011, -0.017959481105208397, -0.012247908860445023, 0.04937125742435455, 0.011996216140687466, 0.03132038936018944, 0.10343372076749802, -0.045652538537979126, 0.03461777791380882, -0.06153314933180809, 0.01280889194458723, -0.009151080623269081, 0.15734989941120148, 0.014742703177034855, -0.0013030865229666233, -0.051619935780763626, 0.018628258258104324, 0.038280241191387177, -0.00689280591905117, -0.06920631229877472, -0.003090805606916547, 0.009369107894599438, -0.02443423867225647, 0.041346389800310135, -0.012874509207904339, -0.005602986551821232, -0.028698526322841644, 0.07922614365816116, 0.049868952482938766, -0.026059618219733238, 0.04283801466226578, -0.017942067235708237, -0.016467679291963577, 0.03933686763048172, -0.024201640859246254, -0.001009895233437419, 0.021145543083548546, -0.035742975771427155, 0.08912772685289383, 0.06078621372580528, 0.07822595536708832, -0.044712040573358536, -0.016684645786881447, 0.025144333019852638, -0.055054690688848495, -0.0027630955446511507, 0.010731823742389679, -0.049108974635601044, 0.007225017063319683, -0.008818629197776318, 0.002777336398139596, 0.03247491270303726, -0.03342273458838463, -0.040326543152332306, -0.002863707020878792, 5.44574941159226e-05, 0.00571245513856411, -0.02051522396504879, 0.0003584898659028113, 0.005928830709308386, 0.0076003363355994225, -0.03979303687810898, 0.01673208735883236, 0.0006832577637396753, 0.0018709271680563688, -0.010996291413903236, -0.012236658483743668, 0.01364401075989008, 0.03376447781920433, 0.04088166728615761, -0.007545655593276024, 0.03976679965853691, 0.033830054104328156, 0.06324534118175507, -0.0027882957365363836, -0.007741507142782211, 0.0023839480709284544, 0.01676170714199543, -0.01134152989834547, 0.03753459081053734, 0.0734587013721466, -0.006465825252234936, -0.270989328622818, 0.046389009803533554, 0.018389398232102394, -0.03930973261594772, 0.09135138988494873, 0.038571637123823166, -0.011122859083116055, -0.00997259933501482, -0.10896468907594681, -0.03353755921125412, -0.055251769721508026, 0.055578820407390594, -0.03863965719938278, -0.021323226392269135, 0.03924904018640518, 0.05745427682995796, 0.02759089134633541, 0.00983559899032116, -0.024021562188863754, 0.008638618513941765, 0.027114735916256905, 5.001482350053266e-05, 0.1844886839389801, -0.01315357070416212, -0.028744475916028023, 0.018549855798482895, -0.010917809791862965, -0.050437141209840775, 0.11300013214349747, 0.019941935315728188, -0.03876815363764763, -0.032334621995687485, 0.0654648020863533, -0.003559467848390341, -0.06224284693598747, 0.03304425999522209, -0.05120726674795151, 0.008907555602490902, 0.009922647848725319, -0.01304593589156866, -0.025442618876695633, 0.009471211582422256, -0.04718129336833954, -0.0018696615006774664, 0.04562399163842201, 0.008929532021284103, 0.011172464117407799, -0.066237673163414, -0.02912890538573265, 0.028102446347475052, -0.014671814627945423, -0.01980558969080448, -0.036117278039455414, -0.005917312111705542, -0.005699314642697573, 0.004986469633877277, 0.010653555393218994, 0.031182140111923218, 0.06416728347539902, -0.015890710055828094, -0.018197596073150635, -0.01898464933037758, 0.021307505667209625, -0.02864133194088936, -0.023919835686683655]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>provide_better_on_hold_music</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Shorter queues in store and new music on phone while waiting\nReason for given NPS: I have good phone service and people are easy to deal with']</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>[-0.08853718638420105, -0.008699150756001472, 0.05037132650613785, -0.04488878324627876, 0.014939479529857635, 0.041159749031066895, -0.0359627902507782, -0.007883756421506405, 0.03752540796995163, -0.05080881342291832, -0.0064516132697463036, 0.05756481736898422, 0.027352923527359962, 0.002740865806117654, 0.02515878714621067, 0.06500943005084991, 0.09199946373701096, 0.01929299533367157, -0.06732068210840225, 0.005358537193387747, -0.0003782950807362795, 0.02618485502898693, -0.050439897924661636, 0.002827024320140481, -0.014495286159217358, -0.06277177482843399, -0.06215905398130417, -0.07401279360055923, -0.05331818014383316, -0.07416883856058121, 0.0044892774894833565, -0.017246907576918602, 0.05517689511179924, 0.015968341380357742, -0.02828502468764782, -0.012672586366534233, -0.009025299921631813, 0.007510998286306858, -0.05834929645061493, 0.03800145909190178, 0.0313015952706337, 0.04455377534031868, -0.06119358539581299, -0.03996562212705612, -0.02307332307100296, 0.012696879915893078, -0.0017467548605054617, -0.01968887262046337, 0.06981536746025085, 0.006914286874234676, -0.040207475423812866, -0.015769731253385544, -0.05828356370329857, -0.011951415799558163, 0.04030749946832657, -0.005700299050658941, 0.05109314247965813, 0.029511913657188416, 0.00786319375038147, 0.019520211964845657, 0.02895575389266014, 0.009043224155902863, -0.08062780648469925, 0.03203648328781128, -0.020468449220061302, 0.005576552357524633, 0.03391191363334656, -0.011894812807440758, -0.014617839828133583, 0.07268840819597244, -0.07344672083854675, 0.015217115171253681, 0.023745840415358543, 0.05234792083501816, -0.011621705256402493, -0.0061613162979483604, 0.028941314667463303, -0.016718178987503052, -0.06091199442744255, 0.0037610619328916073, 0.01085907593369484, -0.05106322839856148, -0.013424074277281761, -0.056748371571302414, 0.007414324674755335, -0.04689193516969681, -0.010880636051297188, -0.0025346516631543636, -0.022049639374017715, -0.006705075036734343, -0.03951270133256912, -0.009809327311813831, 0.05501505360007286, 0.04427461698651314, -0.045420803129673004, 0.011716562323272228, 0.01604633219540119, 0.0530579537153244, -0.09092895686626434, 0.3609294891357422, 0.019608519971370697, 0.03970491141080856, -0.041757263243198395, 0.006237015128135681, 0.013320314697921276, -0.06008527800440788, 0.02906906045973301, 2.5583656679373235e-05, 0.0023396448232233524, -0.035331811755895615, 0.04724974185228348, -0.00789022259414196, 0.025074122473597527, -0.014741244725883007, 0.027180802077054977, 0.07818282395601273, 0.01492159441113472, 0.05178559571504593, 0.0008319782209582627, -0.04524996876716614, 0.015511144883930683, 0.004905948881059885, 0.01722705364227295, 0.044945526868104935, 0.07517620921134949, -0.061204735189676285, 0.007602652534842491, 0.035429004579782486, 0.004809438716620207, 0.03429345041513443, -0.015745773911476135, -0.011257752776145935, -0.017828237265348434, -0.010778259485960007, -0.03270173817873001, -0.030584586784243584, -0.0010225437581539154, -0.004293432924896479, 0.0678439512848854, -0.000782080227509141, 0.030304111540317535, -0.12669596076011658, -0.018421707674860954, -0.12200009077787399, 0.0252138152718544, 0.09687689691781998, -0.03553755581378937, 0.009422725066542625, -0.0183275006711483, -0.063740074634552, -0.07573255151510239, -0.012414642609655857, 0.018048668280243874, 0.015055139549076557, 0.00011537998216226697, 0.01119875255972147, 0.03540821745991707, 0.009349949657917023, -0.03538715839385986, 0.048931121826171875, -0.0010141902603209019, -0.026895754039287567, 0.024399498477578163, -0.006259938236325979, -0.02917512319982052, -0.0320766419172287, -0.07211810350418091, -0.031922850757837296, -0.027467133477330208, -0.00010216867667622864, -0.07603225111961365, 0.0049418117851018906, -0.01726592890918255, 0.019549529999494553, 0.10979276895523071, -0.029011620208621025, -0.04805178940296173, 0.030286408960819244, 0.011686098761856556, -0.01247090008109808, 0.014537268318235874, -0.05276389792561531, -0.031480226665735245, 0.003144507296383381, 0.021767817437648773, -0.023444853723049164, -0.04794977977871895, 0.0007067437982186675, 0.03219351917505264, 0.040778402239084244, -0.03440684825181961, -0.045852433890104294, 0.026902547106146812, 0.03346133232116699, -0.045968297868967056, -0.08287997543811798, -0.003931400831788778, -0.020431073382496834, -0.022417118772864342, 0.019789690151810646, -0.026947785168886185, -0.026801925152540207, -0.05231012403964996, 0.029330508783459663, 0.05502057820558548, 0.08706832677125931, -0.02812531776726246, -0.02580161765217781, 0.052736587822437286, 0.006323978304862976, -0.008876685984432697, -0.012041467241942883, 0.07339354604482651, 0.03600185364484787, -0.052907854318618774, -0.017609596252441406, -0.00371874519623816, 0.035570595413446426, -0.019692163914442062, 0.0038029777351766825, 0.016659962013363838, 0.02459293231368065, -0.013511871919035912, -0.34114184975624084, 0.03179098665714264, -0.024954376742243767, -0.01871277019381523, 0.027706263586878777, -0.010315765626728535, 0.03912625461816788, 0.002754181856289506, -0.00048116641119122505, 0.05413026735186577, -0.03293309360742569, -0.015406517311930656, 0.01693892851471901, -0.011706017889082432, -0.03450041264295578, -0.030631210654973984, -0.020321745425462723, -0.023606980219483376, 0.05556628108024597, 0.0034957316238433123, 0.007139332592487335, 0.012656359933316708, -0.030315611511468887, -0.022264517843723297, 0.08693190664052963, -0.04740280285477638, 0.15730436146259308, 0.018203746527433395, -0.0007021833444014192, -0.011039996519684792, 0.02175477147102356, 0.048010990023612976, -0.04099132865667343, -0.1342608630657196, -0.06472844630479813, 0.03695708140730858, 0.04342522472143173, 0.01430636178702116, -0.019874628633260727, -0.021479995921254158, 0.04125140979886055, 0.08171135187149048, 0.004151849541813135, -0.06229173019528389, -0.0350373350083828, -0.03974949195981026, -0.0655168816447258, -0.01169784925878048, -0.020802807062864304, -0.018584134057164192, 0.002859084866940975, 0.002077148063108325, -0.009171275421977043, 0.020064545795321465, 0.0540468655526638, -0.024206800386309624, -0.015437261201441288, 0.0494551807641983, 0.005288099870085716, 0.03606954216957092, -0.005584849044680595, 0.015435539186000824, 0.03091289848089218, -0.05044049769639969, 0.012478710152208805, 0.0021162154152989388, 0.02336912229657173, -0.011996790766716003, 0.023832645267248154, 0.013019975274801254, 0.0007554931216873229, -0.038175154477357864, -0.022988975048065186, 0.038237929344177246, 0.05537525191903114, -0.04547540470957756, -0.018482249230146408, -0.027985049411654472, -0.017383838072419167, -0.031577218323946, 0.0354669913649559, 0.054428644478321075, 0.00539394561201334, -0.005887498613446951, -0.025413740426301956, 0.05710941553115845, 0.0835832729935646, 0.0360020250082016, 0.049467187374830246, -0.018224865198135376, -0.014867379330098629, 0.048860397189855576, -0.02665940672159195, -0.0039811343885958195, 0.0332881323993206, 0.02701936662197113, -0.2802065312862396, 0.034170184284448624, 0.046012453734874725, 0.007209176663309336, -0.05520205944776535, 0.04647073149681091, 0.0036839675158262253, -0.008986486122012138, -0.12330394238233566, 0.0455908440053463, -0.04135051742196083, 0.06755150854587555, -0.04090483486652374, 0.0093528525903821, 0.006327948998659849, 0.030197324231266975, 0.13185755908489227, -0.06765048205852509, -0.012409711256623268, -0.03690061345696449, 0.02966219373047352, 0.11211786419153214, 0.2044914960861206, 0.011653469875454903, -0.0427379384636879, 0.035736020654439926, 0.010905042290687561, 0.015942731872200966, 0.004802549723535776, -0.006957949139177799, -0.06568367034196854, -0.0019496924942359328, 0.0006289647426456213, -0.00619397172704339, -0.042661309242248535, 0.0172896608710289, -0.019035039469599724, -0.0009645160753279924, -0.00506746768951416, 0.005822824779897928, 0.026643764227628708, -0.002560144755989313, -0.03838566690683365, 0.012849350459873676, 0.09214513748884201, -0.04202670603990555, 0.04210123047232628, -0.004787151236087084, 0.03691122680902481, 0.03071352280676365, 0.00032910870504565537, -0.05125975236296654, -0.011518338695168495, 0.019868263974785805, 0.007520321756601334, 0.050432462245225906, -0.014156130142509937, 0.010940714739263058, 0.07782036811113358, 0.05835961550474167, 0.008954924531280994, -0.05700527876615524, 0.05172023922204971, 0.017116066068410873, 0.043567150831222534]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>need_to_provide_value_for_retention</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Be pro-active about keeping your existing customers.\nReason for given NPS: If I was asked who I was with re phone and internet I would respond one.nz but as one.nz has done nothing for me to crow about I see no reason to give free advertising for them.']</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>[-0.03546140342950821, 0.013414963148534298, -0.03028264082968235, -0.022807834669947624, -0.005686384625732899, 0.0023111971095204353, -0.01068561989814043, 0.029544647783041, 0.05993333086371422, 0.01078425906598568, -0.019923755899071693, -0.03974248841404915, 0.02494138665497303, -0.0071540409699082375, 0.030817754566669464, 0.01410836260765791, 0.012130368500947952, 0.056032028049230576, -0.052738796919584274, 0.006416982971131802, 0.04620305821299553, -0.04774245619773865, -0.01878391019999981, 0.016618525609374046, -0.01506551168859005, -0.020078986883163452, -0.051367584615945816, -0.05480204522609711, -0.021266672760248184, -0.12485864758491516, -0.00010290579666616395, -0.0441502183675766, -0.0022800681181252003, -0.0027452248614281416, -0.03455116227269173, 0.02075585164129734, -0.016527989879250526, -0.023983096703886986, 0.007857833988964558, 0.08151356875896454, 0.03648613765835762, 0.012762542814016342, -0.07048767805099487, -0.013999704271554947, -0.04807524010539055, -0.01158840861171484, 0.012941200286149979, -0.04189600422978401, 0.04731668531894684, -0.0006005663308314979, 0.05769551917910576, 0.05020800232887268, -0.03835206851363182, -0.020705722272396088, -0.03542396426200867, 0.0762096717953682, 0.05058581382036209, 0.03546268120408058, -0.010622435249388218, -0.012265818193554878, 0.018526576459407806, 0.0018556469585746527, -0.13556011021137238, -0.024401940405368805, -0.0029123208951205015, 0.023586438968777657, -0.007856917567551136, -0.009023272432386875, 0.01305299997329712, 0.048302117735147476, -0.01499317865818739, -0.003119220957159996, -0.02708074077963829, 0.09571492671966553, 0.0357167012989521, -0.009335777722299099, 0.04090365767478943, 0.022055070847272873, -0.011080117896199226, -0.03258151561021805, 0.03402595594525337, 0.032316289842128754, -0.023338420316576958, -0.01158488541841507, -0.008655637502670288, -0.06300215423107147, 0.03879178315401077, -0.021949373185634613, 0.04564836248755455, -0.02379961684346199, 0.021569278091192245, -0.02462960034608841, 0.010258960537612438, 0.07185932248830795, -0.006984045263379812, 0.02873261086642742, 0.03694174066185951, -0.010618230327963829, -0.10815922170877457, 0.37985068559646606, 0.025841573253273964, 0.03261200711131096, -0.03197300806641579, 0.0003198293852619827, 0.03022201918065548, -0.042060486972332, 0.006489216815680265, -0.03165040537714958, -0.043096255511045456, -0.06429029256105423, 0.0013424484059214592, 0.0011586154578253627, 0.03337519243359566, -0.037046536803245544, 0.02695891261100769, 0.09744206070899963, -0.03530662879347801, -0.012790164910256863, -0.005495310295373201, -0.030844854190945625, -0.004824237432330847, 0.013328923843801022, 0.05862801894545555, 0.05451519042253494, -0.017230764031410217, -0.0007109643775038421, 0.03632558137178421, 0.10845889896154404, 0.016636686399579048, 0.031084030866622925, 0.0009072867105714977, -0.07912099361419678, -0.04238263517618179, -0.013995255343616009, -0.03758072108030319, -0.017711499705910683, 0.033707816153764725, 0.0457865409553051, 0.04185425490140915, 0.025403115898370743, -0.006116445176303387, -0.06378279626369476, -0.005100658163428307, -0.03047632984817028, 0.007403611205518246, 0.1605057418346405, -0.021225586533546448, 0.006834781263023615, -0.031906239688396454, -0.05373338982462883, -0.04221639409661293, 0.014280470088124275, -0.006550568155944347, -0.03284308686852455, 0.012482491321861744, -0.0032366907689720392, -0.0045185936614871025, -0.03646523877978325, -0.04146333783864975, -0.00619444390758872, -0.011455148458480835, -0.09797246754169464, -0.0438896119594574, 0.08158401399850845, -0.005839996505528688, -0.022702140733599663, -0.020950673148036003, -0.06976071000099182, 0.0027264337986707687, 0.0037020479794591665, -0.016632895916700363, 0.028994014486670494, -0.016208134591579437, -0.018954595550894737, 0.09357190877199173, -0.03832315281033516, -0.06249816343188286, 0.02171248570084572, 0.014325191266834736, -0.026888061314821243, 0.020384203642606735, 0.023438934236764908, -0.0609508752822876, 0.04718473181128502, 0.0015182157512754202, -0.059670645743608475, -0.04682569578289986, -0.024208053946495056, 0.02049257420003414, 0.05006445571780205, -0.0766834020614624, -0.010775895789265633, -0.040433283895254135, -0.036552928388118744, 0.007946428842842579, -0.02272327058017254, -0.03970096632838249, 0.006314421072602272, -0.02257455512881279, -0.0006363785360008478, 0.01712913066148758, 0.009389689192175865, -0.006556941196322441, 0.004835902713239193, 0.026847366243600845, 0.0350809246301651, 0.0031824298202991486, -0.009360047057271004, 0.05371412634849548, 0.016896123066544533, 0.01819901168346405, -0.04841084033250809, 0.052598461508750916, 0.001912205945700407, -0.03870626538991928, 0.0023925635032355785, 0.01558656245470047, -0.0033065099269151688, 0.03992726281285286, -0.010749349370598793, 0.04149939864873886, 0.04702647775411606, 0.0826287791132927, -0.3511870503425598, 0.050767816603183746, -0.022696603089571, -0.015737390145659447, 0.05455571413040161, -0.03610086813569069, 0.08778595924377441, 0.003662765957415104, -0.07750660181045532, 0.009698108769953251, 0.04350810497999191, -0.037151746451854706, 0.001269602682441473, 0.013348945416510105, -0.007931136526167393, -0.01950203999876976, 0.006792296189814806, -0.04746580496430397, -0.0035830005072057247, 0.014927771873772144, 0.009527371264994144, -0.02097366936504841, -0.005598654504865408, -0.052490267902612686, 0.0888233631849289, -0.028100935742259026, 0.16904495656490326, -0.02180919051170349, -0.032638367265462875, -0.030806127935647964, 0.0024219881743192673, 0.06745553761720657, -0.041658878326416016, -0.1031636968255043, -0.0020013321191072464, -0.007615316193550825, -0.09256377071142197, 0.053764909505844116, 0.053005632013082504, -0.021905817091464996, 0.044803325086832047, 0.08351830393075943, 0.011852506548166275, -0.03171899542212486, -0.009621703065931797, -0.03860686719417572, -0.02135741338133812, 0.057080551981925964, -0.004587278701364994, 0.0682733803987503, 0.0404856912791729, 0.010715828277170658, -0.014323399402201176, 0.03648769110441208, 0.038672082126140594, 0.0010838750749826431, -0.009259901940822601, 0.045566193759441376, -0.03146090731024742, 0.01252884604036808, -0.01518325787037611, -0.04806040599942207, 0.005400768481194973, -0.019724808633327484, 0.03624272719025612, -0.02358277700841427, -0.016743315383791924, -0.005256090313196182, -0.002723165787756443, -0.037038084119558334, -0.014581792056560516, -0.01584949903190136, -0.04685044288635254, -0.015045315027236938, -0.01655571348965168, 0.006044454872608185, -0.0821109414100647, 0.03618493303656578, -0.02570641227066517, -0.028239065781235695, 0.016428695991635323, -0.024610459804534912, 0.025580132380127907, 0.05464257299900055, 0.07053454220294952, 0.07758419960737228, 0.0314631350338459, 0.04970613121986389, 0.00298662343993783, 0.009388660080730915, -0.029388094320893288, -0.013826344162225723, 0.006886840332299471, -0.006269571837037802, 0.03658866137266159, -0.03887912631034851, -0.2687411606311798, 0.029350049793720245, 0.03543771430850029, 0.03686832636594772, 0.03777960687875748, 0.028495164588093758, 0.03038591891527176, 0.025000227615237236, -0.12062949687242508, 0.016872333362698555, -0.04287068918347359, 0.04699822515249252, -0.02886110544204712, -0.021751876920461655, 0.01760653220117092, 0.0053617144003510475, 0.07551804184913635, -0.06827396154403687, -0.03775039315223694, -0.05104224011301994, 0.05286644399166107, -0.002202295698225498, 0.1296803504228592, 0.012380042113363743, -0.054338548332452774, -0.02644840069115162, -0.018053676933050156, 0.013406696729362011, 0.11540510505437851, 0.015931645408272743, -0.02189856395125389, 0.021112127229571342, 0.10040822625160217, -0.009394194930791855, 0.011861251667141914, 0.052478253841400146, -0.05242085084319115, -0.042436160147190094, 0.014562784694135189, 0.017419708892703056, 0.037353962659835815, -0.010860719718039036, -0.06872569769620895, 0.01818014681339264, 0.08395562320947647, -0.02483607456088066, 0.04564014822244644, -0.04338102787733078, 0.024121498689055443, -0.017926020547747612, -0.018092963844537735, 0.012520384974777699, 0.012830168008804321, -0.006335517857223749, 0.015237023122608662, 0.042178675532341, 0.01489327847957611, 0.014970580115914345, -0.011457080952823162, 0.01052172388881445, -0.02737457863986492, -0.036284931004047394, 0.05939886346459389, -0.0025898832827806473, -0.044159092009067535]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>needs_proactive_customer_retention_initiatives</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Be pro-active about keeping your existing customers.\nReason for given NPS: If I was asked who I was with re phone and internet I would respond one.nz but as one.nz has done nothing for me to crow about I see no reason to give free advertising for them.']</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>[-0.04245128855109215, 0.01266619935631752, 0.01094463374465704, -0.03699234127998352, -0.031965624541044235, 0.027743685990571976, 0.008784507401287556, 0.039317574352025986, 0.04173668473958969, -0.012660892680287361, -0.004091300070285797, 0.060791224241256714, -0.009175946936011314, -0.008043171837925911, 0.025720464065670967, 0.03686807304620743, 0.07316295057535172, 0.02323785610496998, -0.008531300351023674, 0.011192776262760162, 0.009755426086485386, -0.04487829655408859, -0.03995005041360855, 0.038826413452625275, 0.0019203873816877604, -0.0011989256599918008, -0.028962720185518265, -0.04764112830162048, -0.04660431295633316, -0.09482935816049576, -0.02792101353406906, -0.02337225340306759, 0.061946555972099304, -0.0036236303858458996, -0.014547537080943584, 0.041775304824113846, -0.031220389530062675, -0.012086547911167145, 0.02588167041540146, 0.042572636157274246, 0.017425870522856712, 0.010468854568898678, -0.05320143699645996, -0.008136612363159657, -0.03876952454447746, -0.01570727303624153, 0.027803799137473106, -0.04824599623680115, 0.004832486622035503, -0.015742450952529907, 0.08395353704690933, -0.014702807180583477, -0.06894785910844803, -0.01178738009184599, 0.029857324436306953, 0.05688624829053879, 0.029252082109451294, 0.02570152096450329, 0.01886034943163395, -0.0055661676451563835, 0.04662937670946121, -0.012034013867378235, -0.16016317903995514, -0.0006726421415805817, -0.02043815515935421, 0.016702095046639442, -0.014832434244453907, -0.006453985348343849, -0.033642493188381195, 0.05724793300032616, -0.047433216124773026, -0.01972704567015171, -0.050844281911849976, 0.10816656053066254, 0.024737082421779633, 0.056507330387830734, 0.039388351142406464, 0.004690936300903559, 0.0074479226022958755, -0.0020425054244697094, 0.017578469589352608, -0.03291064873337746, -0.01775675266981125, 0.012656986713409424, -0.07543899118900299, -0.07484740018844604, -0.006049437914043665, -0.017364442348480225, 0.03577698394656181, -0.04707895591855049, 0.03511239215731621, 0.040320299565792084, 0.021438678726553917, 0.024980027228593826, -0.04146069288253784, -0.03981097415089607, 0.024710465222597122, 0.007036927156150341, -0.05578615516424179, 0.376128613948822, 0.0038041705265641212, 0.041681401431560516, -0.03475040942430496, -0.007016910705715418, 0.0676906481385231, -0.08204679936170578, -0.0019934545271098614, 0.004523566924035549, -0.014563246630132198, -0.0658610537648201, -0.01093310210853815, 0.018389355391263962, 0.059877313673496246, -0.030891496688127518, 0.04033961519598961, 0.09771160781383514, -0.028265930712223053, 0.0377676784992218, -0.02235516346991062, 0.006641668267548084, 0.02675538882613182, 0.031840626150369644, 0.04478968307375908, 0.001957542262971401, -0.04115179181098938, -0.01834888383746147, 0.04655371978878975, 0.10367000102996826, -0.026911446824669838, 0.0428217351436615, -0.0017529390752315521, -0.02681557647883892, -0.032700929790735245, 0.00428373459726572, -0.03214261308312416, -0.0366671159863472, -0.0033800816163420677, 0.010296930558979511, -0.015998268499970436, 0.05775799974799156, 0.007002958096563816, 0.006244315300136805, 0.022215303033590317, -0.15739081799983978, 0.009323709644377232, 0.14731089770793915, 0.0520288310945034, 0.02024383470416069, 0.0071059176698327065, -0.03956059738993645, -0.010262222960591316, 0.057437457144260406, 0.04394776001572609, -0.023110762238502502, 0.01069667749106884, -0.02444452978670597, 0.07687315344810486, -0.004992924630641937, -0.03650229424238205, 0.042836423963308334, -0.004233143292367458, -0.06924768537282944, -0.014690516516566277, 0.07480543106794357, 0.058765482157468796, -0.08580375462770462, 0.027482453733682632, -0.058604490011930466, -0.03998076543211937, 0.032965268939733505, -0.035754475742578506, 0.06252940744161606, -0.047183189541101456, 0.01792083866894245, 0.06889482587575912, -0.010266209952533245, -0.0701717883348465, -0.02073432132601738, -0.0047360374592244625, -0.00929050613194704, 0.03218581900000572, 0.013583121821284294, 0.016940666362643242, -0.025533020496368408, 0.0005306209204718471, -0.04570046067237854, 0.025599729269742966, -0.035492297261953354, 0.004934436175972223, 0.03481001779437065, -0.06919051706790924, -0.0344158373773098, -0.010455729439854622, -0.022605620324611664, 0.017106350511312485, -0.03810198977589607, -0.049778301268815994, -0.040077995508909225, 0.01071336679160595, -0.022041628137230873, -0.007825499400496483, -0.02829498052597046, -0.051199473440647125, -0.013615413568913937, -0.014387203380465508, 0.07826994359493256, 0.0021410947665572166, 0.01562297809869051, 0.08371326327323914, 0.00794301275163889, 0.00385099439881742, -0.004042778629809618, 0.10531408339738846, 0.0063908896408975124, 0.0009189377306029201, -0.008168973959982395, 0.011247043497860432, 0.04683942720293999, -0.02863786369562149, -0.0013203115668147802, 0.06315933167934418, 0.14197947084903717, 0.00834761094301939, -0.3235589861869812, 0.03558662161231041, -0.0038985481951385736, -0.031222248449921608, -0.010648113675415516, 0.008435798808932304, 0.05674164369702339, -0.018769744783639908, -0.009073141030967236, 0.030462348833680153, 0.08240380138158798, -0.02357276901602745, 0.044130485504865646, 0.023632638156414032, 0.028258871287107468, 0.019099855795502663, -0.02245767042040825, -0.02938423678278923, -0.0031896261498332024, -0.03446770831942558, -0.030524253845214844, 0.059756699949502945, 0.014733627438545227, -0.0264429934322834, 0.07120049744844437, 0.007342819590121508, 0.11009325832128525, -0.0156794935464859, -0.062033962458372116, -0.034779131412506104, -0.01760314218699932, 0.068800188601017, -0.03154227137565613, -0.12910304963588715, 0.014211732894182205, -0.020965255796909332, -0.04644709452986717, 0.0029341396875679493, 0.002406004350632429, -0.01358669251203537, -0.0015401967102661729, 0.0854729562997818, -0.016277002170681953, -0.05629299581050873, 0.02217581495642662, -0.04306238144636154, -0.03329797461628914, 0.07208257168531418, -0.051054295152425766, 0.039702173322439194, 0.023106688633561134, -0.023755915462970734, 0.03243028372526169, 0.0029733001720160246, -0.017270706593990326, -0.004551208112388849, -0.006103875115513802, 0.07745546847581863, -0.013244321569800377, 0.007458400446921587, -0.023290393874049187, 0.005656449124217033, 0.00738733122125268, 0.0007599190576002002, 0.05647708848118782, -0.05525205284357071, -0.017127113416790962, 0.0343216173350811, -0.0094908457249403, 0.013338804244995117, -0.056053731590509415, 0.041807420551776886, -0.05401236191391945, -0.0876651480793953, -0.03850989788770676, -0.0521746464073658, -0.03692882880568504, -0.038053397089242935, -0.05347089841961861, -0.05659911409020424, 0.02260284125804901, -0.015167414210736752, -0.010379374027252197, 0.02430724911391735, 0.035129450261592865, 0.08538474887609482, 0.027894966304302216, -0.010279924608767033, 0.015726270154118538, -0.002070121932774782, 0.03036385588347912, 0.0018170027760788798, -0.04661542549729347, -0.02406313456594944, 0.08201894909143448, -0.014394928701221943, -0.2392377108335495, -0.019164634868502617, -0.02155941352248192, -0.008301477879285812, 0.008407091721892357, 0.1120465025305748, -0.007460274267941713, 0.023677831515669823, -0.059604257345199585, 0.014715407975018024, -0.011727233417332172, 0.02671203389763832, -0.015078959055244923, -0.013819679617881775, 0.037159278988838196, 0.03857387229800224, 0.0659731775522232, -0.04525222256779671, -0.026885181665420532, -0.06486618518829346, 0.033648014068603516, -0.02035895735025406, 0.16128869354724884, 0.0041945260018110275, -0.06782761961221695, -0.019346926361322403, -0.011792481876909733, -0.02252832055091858, 0.03727322444319725, -0.012081429362297058, -0.056051239371299744, 0.02271992526948452, 0.0818513035774231, 0.027386290952563286, -0.023080643266439438, 0.01114989910274744, -0.009641682729125023, -0.0036587631329894066, -0.03474260866641998, -0.022465264424681664, -0.02252902276813984, 0.007926760241389275, -0.005850465036928654, -0.014369526877999306, 0.06585927307605743, -0.045012567192316055, 0.021080639213323593, -0.036689694970846176, 0.03891906514763832, 0.019839327782392502, -0.02585102990269661, -0.08349090069532394, -0.0009669350110925734, 0.03349846601486206, 0.0428345613181591, 0.04154053330421448, -0.04986110329627991, -0.01285533793270588, 0.023885836824774742, 0.03509313613176346, -0.03597446158528328, -0.030918633565306664, 0.014275805093348026, -0.027587169781327248, 0.0039591132663190365]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>need_more_options_for_mid_range_smartphones</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Coverage\nReason for given NPS: More options for buying $200 priced phones ,not everyone can afford a flip phone, iphone etc']</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>[-0.05676523596048355, -0.03400071710348129, 0.015303132124245167, -0.08994188159704208, -0.01126246340572834, 0.009595416486263275, -0.03356131538748741, 0.08407019823789597, -0.002134613459929824, 0.020920978859066963, 0.039392124861478806, 0.016575120389461517, 0.03398645296692848, 0.027595167979598045, 0.0926961675286293, 0.024491405114531517, 0.1238093301653862, -0.07264913618564606, -0.020627086982131004, 0.029978787526488304, 0.06665261834859848, -0.008772622793912888, 0.022348131984472275, -0.0057379440404474735, 0.030881527811288834, -7.038559851935133e-05, -0.003784041851758957, -0.0348636768758297, -0.053537219762802124, -0.10559826344251633, 0.018418457359075546, 0.055462099611759186, 0.02772355079650879, 0.007123488932847977, -0.073829285800457, -0.032207489013671875, -0.008032454177737236, 0.008877229876816273, -0.009118716232478619, 0.049433838576078415, -0.005110091529786587, 0.031103044748306274, -0.013358830474317074, 0.0031576163601130247, -0.05576322600245476, -0.03513867035508156, -0.0075154490768909454, 0.01909790188074112, 0.01537887193262577, -0.08050676435232162, 0.035741206258535385, 0.013184086419641972, -0.027735112234950066, -0.03390881046652794, -0.0036073762457817793, 0.008846966549754143, 0.03409656882286072, 0.020505152642726898, 0.0350780189037323, -0.016871865838766098, 0.06986567378044128, 0.009800754487514496, -0.09126675128936768, 0.0726163238286972, 0.003991860896348953, -0.034679215401411057, -0.007466227747499943, -0.04215005785226822, -0.044765669852495193, 0.032069869339466095, -0.02632508985698223, 0.02382063865661621, 0.020050395280122757, 0.07988706976175308, -0.010079305619001389, -0.007418186403810978, -0.042334433645009995, -0.0296651441603899, -0.039331648498773575, -0.006614315789192915, 0.04016967862844467, -0.03355560824275017, -0.03043760173022747, 0.035670191049575806, 0.03402990847826004, -0.04039585962891579, -0.007123658433556557, 0.02007770724594593, -0.04301052540540695, -0.03880017250776291, 0.008338543586432934, -0.04565202072262764, -0.002860710257664323, 0.01859043352305889, -0.08589393645524979, -0.03620966896414757, 0.012696275487542152, 0.0035538156516849995, -0.10532114654779434, 0.4156157076358795, 0.03885667398571968, 0.030465010553598404, 0.05466847866773605, -0.027324913069605827, 0.04261615127325058, -0.013496092520654202, -0.04256278648972511, -0.015428979881107807, -0.02191590704023838, 0.009706808254122734, 0.024036439135670662, -0.031924545764923096, 2.7481741199153475e-05, 0.01865936443209648, 0.02589087374508381, 0.013418054208159447, -0.0531107522547245, -0.01778176985681057, 0.052149660885334015, 0.004550775047391653, -0.06322228908538818, -0.037266090512275696, 0.008150517009198666, -0.01513311080634594, 0.014005650766193867, -0.04133337363600731, -0.002454530680552125, 0.04628259316086769, -0.03243708610534668, 0.04961980879306793, -0.008089588955044746, -0.061722856014966965, -0.035812608897686005, 0.03777723386883736, 0.034161411225795746, -0.009028684347867966, 0.00767558766528964, 0.010014385916292667, 0.0590539388358593, 0.012155674397945404, -0.024908222258090973, -0.048543836921453476, 0.056547533720731735, -0.08922398835420609, 0.06322750449180603, 0.10476427525281906, 0.002970213769003749, 0.027848126366734505, -0.010545716620981693, -0.09459324181079865, -0.012648499570786953, 0.03455508500337601, 0.07136352360248566, 0.012573083862662315, 0.009424892254173756, 0.013105661608278751, 0.01684456691145897, -0.016550997272133827, -0.055498767644166946, 0.024716651067137718, 0.04305081069469452, 0.005565841682255268, -0.06411852687597275, 0.09769884496927261, 0.00815366581082344, -0.10824272781610489, -0.033087652176618576, 0.015230504795908928, -0.059471841901540756, 4.265836832928471e-05, -0.01112732570618391, 0.04823882132768631, -0.004973720293492079, 0.027259042486548424, 0.08242452889680862, 0.018198398873209953, -0.13679561018943787, 0.0025908921379595995, -0.06760003417730331, 0.00890574511140585, -0.015648197382688522, 0.006832387764006853, -0.010400759056210518, -0.03435426950454712, 0.010079887695610523, -0.008845462463796139, 0.033649787306785583, -0.017414959147572517, 0.05337095633149147, 0.007036870811134577, -0.09352893382310867, 0.010558811947703362, 0.027643030509352684, -0.003379232482984662, -0.015237788669764996, -0.042006198316812515, -0.06304160505533218, -0.005727543495595455, 0.019326884299516678, -0.08777716755867004, 0.04434192180633545, -0.04720386117696762, -0.02893735282123089, 0.0325922854244709, 0.03655759245157242, 0.0018804376013576984, 0.012134636752307415, -0.015650589019060135, 0.08277945220470428, -0.0054450128227472305, 0.017639828845858574, 0.021718358621001244, 0.17179802060127258, 0.020703312009572983, -0.04449661076068878, -0.03159772604703903, 0.011813669465482235, 0.02498992346227169, 0.03949841856956482, -0.01674453727900982, -0.00794362835586071, 0.09380455315113068, -0.04578235745429993, -0.26758232712745667, -0.011158584617078304, -0.0018603835487738252, -0.037459973245859146, -0.06297417730093002, -0.044446785002946854, 0.007587070111185312, -0.002959434175863862, 0.02805015631020069, 0.06074686348438263, 0.007331450469791889, -0.017466967925429344, 0.01316857896745205, 0.019963208585977554, -0.02675740234553814, 0.005115309730172157, -0.01578124240040779, 0.004730509594082832, -0.002040565712377429, 0.029454633593559265, 0.009767647832632065, 0.09250325709581375, -0.042197369039058685, -0.029113374650478363, 0.02986842580139637, 0.049164045602083206, 0.14565742015838623, -0.04450254514813423, -0.006062409374862909, -0.0030017183162271976, 0.06881806254386902, 0.06090255826711655, -0.0019127988489344716, 0.0008095983066596091, 0.012461952865123749, 0.042178042232990265, -0.03615942224860191, -0.07292822748422623, -0.042000558227300644, -0.03045511245727539, -0.020402995869517326, 0.06497107446193695, -0.021426966413855553, -0.06435742229223251, -0.0049748728051781654, -0.03235003724694252, -0.04283534735441208, 0.055528901517391205, -0.011098146438598633, -0.006177511997520924, -0.014626584947109222, 0.03871210664510727, 0.00602329196408391, -0.055165018886327744, 0.04329152777791023, 0.03037896379828453, -0.1072457954287529, 0.022016720846295357, 0.018445780500769615, 0.0426691472530365, -0.05172343924641609, -0.008128256537020206, -0.03774857148528099, -0.043240759521722794, -0.004680727608501911, -0.02455364540219307, -0.0067663975059986115, -0.017641227692365646, -0.038325242698192596, 0.007802876643836498, 0.025158798322081566, 0.0282807145267725, -0.024218492209911346, 0.027375642210245132, 0.009345860220491886, 0.004092947579920292, 0.10284317284822464, 0.039738550782203674, 0.03059694916009903, -0.07517828047275543, 0.007849850691854954, 0.03421856462955475, 0.015442898496985435, 0.024461807683110237, 0.022531749680638313, 0.017991693690419197, 0.036916013807058334, -0.07100709527730942, 0.010806429199874401, -0.01998870261013508, -0.036274995654821396, -0.017338337376713753, -0.0007843681960366666, -0.018307723104953766, 0.10932384431362152, -0.03927706927061081, -0.20935727655887604, 0.018529459834098816, 0.01933194138109684, 0.028027616441249847, -0.03055732324719429, 0.028414767235517502, 0.010565324686467648, -0.0394350029528141, -0.08569110929965973, 0.10541515797376633, -0.028728673234581947, -0.015208372846245766, -0.0061162058264017105, -0.006343257613480091, 0.06449777632951736, -0.036251265555620193, 0.051626432687044144, -0.01665852963924408, -0.022356096655130386, -0.01604059711098671, 0.05235632136464119, 0.02392284758388996, 0.1398870199918747, -0.03286673128604889, -0.0622415728867054, 0.06815849244594574, -0.005314710084348917, 0.0056746299378573895, -0.021288014948368073, -0.0019388782093301415, -0.019176051020622253, -0.03373967856168747, -0.011569514870643616, -0.03380099684000015, -0.0035234177485108376, 0.03276321291923523, -0.0013956190086901188, -0.07768949121236801, -0.0010038246400654316, -0.007817854173481464, -0.0018430770142003894, -0.023963844403624535, -0.060741573572158813, 0.016941215842962265, 0.1039520800113678, -0.027385182678699493, -0.06485820561647415, 0.031638842076063156, 0.02630440704524517, 0.009480896405875683, -0.03895372524857521, -0.041625406593084335, -0.024279436096549034, 0.012213553301990032, 0.020786061882972717, 0.06280715763568878, 0.02487107180058956, -0.0011641429737210274, 0.004756084643304348, 0.026983067393302917, 0.06069059669971466, -0.01431784313172102, 0.00826139934360981, 0.002843323862180114, 0.030816415324807167]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>issues_with_online_prepaid_payments</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Consistent rural service\nReason for given NPS: Difficulty with rural mobile service\nI had great difficulty paying a prepaid bill online. Not an easy process.\nMonthly plan is OK']</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>[-0.04816253483295441, -0.06641913950443268, 0.03886063024401665, 0.002409807639196515, 0.03909623995423317, -0.07778336107730865, -0.058394480496644974, 0.02190004661679268, 0.03523346036672592, -0.0760132372379303, 0.04679015278816223, 0.04356791079044342, -0.01608370617032051, -0.0017841971712186933, 0.025740275159478188, 0.030078591778874397, 0.05529901012778282, -0.1043085977435112, 0.021847529336810112, 0.0490541011095047, -0.016542091965675354, -0.038876764476299286, 0.017293434590101242, -0.022357555106282234, -0.001693054218776524, 0.015554298646748066, -0.012212314642965794, -0.047190312296152115, -0.05572556331753731, -0.13842377066612244, -0.01873723790049553, -0.047425903379917145, 0.02319701947271824, 0.054965898394584656, 0.08177737146615982, -0.020411992445588112, -0.051227644085884094, 0.0006524380296468735, 0.004576455801725388, 0.016985703259706497, -0.021892350167036057, 0.04215262830257416, -0.04758709296584129, -0.006842269096523523, 0.014471035450696945, -0.028345057740807533, 0.10129784047603607, 0.04901806265115738, 0.07996863126754761, -0.047602470964193344, 0.05705089494585991, 0.0036046961322426796, -0.012126011773943901, 0.05918686464428902, -0.0010125135304406285, 0.03851788863539696, 0.03407556563615799, 0.055145397782325745, 0.008223853074014187, 0.05857622250914574, 0.04053894057869911, -0.003965412732213736, -0.13558463752269745, 0.11360467970371246, -0.016305340453982353, 0.0408855676651001, 0.020642198622226715, 0.006706291809678078, 0.0046980357728898525, 0.018197881057858467, -0.03545853868126869, -0.014219587668776512, -0.0809779018163681, 0.08131156116724014, 0.06815566122531891, 0.021313002333045006, 0.040188390761613846, 0.024691708385944366, 0.02373960241675377, 0.0705256387591362, -0.01268593780696392, 0.009393366985023022, -0.011207476258277893, 0.027729524299502373, -0.04826103150844574, -0.09741071611642838, 0.04173358529806137, 0.002665467094630003, 0.03915587440133095, 0.00784779991954565, -0.006306806113570929, -0.01447387132793665, 0.04043491184711456, 0.009221474640071392, -0.06206138804554939, 0.0274950060993433, 0.018953241407871246, -0.03150520846247673, -0.09751008450984955, 0.31366124749183655, 0.005757335107773542, 0.0921616405248642, 0.04216042906045914, 0.022201992571353912, 0.01682208850979805, -0.03435129672288895, -0.05957867577672005, -0.015515737235546112, 0.009387332946062088, -0.005816929508000612, -0.04538800194859505, -0.027002012357115746, 0.06495960056781769, -0.04757273942232132, -0.025030266493558884, 0.0503716878592968, -0.03759138286113739, -0.02560233883559704, 0.010138443671166897, -0.06552611291408539, -0.015213941223919392, 0.026798492297530174, -0.007835248485207558, -0.003317133989185095, -0.04016480967402458, -0.001550826127640903, -0.013326551765203476, 0.12062326073646545, -0.060776643455028534, 0.07529778778553009, 0.03245193511247635, -0.01255869586020708, -0.07288582623004913, -0.021593859419226646, -0.023794492706656456, -0.007396691013127565, 0.023887697607278824, 0.017814097926020622, 0.04915561154484749, 0.029873019084334373, -0.04731861874461174, -0.06779118627309799, -0.09167347103357315, -0.04553688317537308, -0.03295472264289856, 0.08379828929901123, 0.06063321977853775, 0.09245947748422623, 0.014017615467309952, -0.054430726915597916, -0.03212081268429756, 0.009975424967706203, -0.008444398641586304, -0.011158961802721024, -0.016728417947888374, 0.04464812949299812, 0.02985263802111149, -0.018704531714320183, -0.02002723515033722, 0.0058923461474478245, 0.04556185007095337, -0.04893389344215393, -0.015120822936296463, 0.099372997879982, 0.019362924620509148, -0.046567898243665695, 0.007888736203312874, -0.04193471372127533, -0.04787371680140495, 0.010347799398005009, -0.022321896627545357, -0.011113956570625305, -0.016015030443668365, -0.00755207659676671, 0.08023107051849365, -0.01809396967291832, -0.024999255314469337, 0.043078966438770294, 0.008456707932054996, -0.02108607068657875, -0.019081955775618553, 0.03687845170497894, -0.05685344710946083, -0.061163194477558136, 0.03493785113096237, -0.05469471216201782, -0.0444246381521225, -0.020981354638934135, 0.0365423709154129, -0.08265192806720734, -0.005876144859939814, -0.08841192722320557, -0.09324502944946289, -0.04308287799358368, -0.032717250287532806, 0.027422839775681496, -0.0071136741898953915, -0.019580867141485214, 0.04338480159640312, -0.04388868063688278, 0.13956935703754425, 0.013980777002871037, 0.011986896395683289, -0.0032309284433722496, 0.02780752442777157, 0.05265649035573006, 0.04261748865246773, -0.04397161677479744, 0.023842189460992813, -0.02859099768102169, 0.013687475584447384, 0.07820256799459457, 0.0855085477232933, 0.06405579298734665, 0.01786915585398674, 0.027203461155295372, 0.013178214430809021, 0.05468454211950302, 0.04945665970444679, 0.022784104570746422, 0.003091986756771803, 0.03759986534714699, 0.05074939876794815, -0.2784080505371094, 0.0411563441157341, -0.0467686802148819, -0.0268754493445158, -0.08105391263961792, -0.02507624961435795, 0.05434195697307587, -0.039378564804792404, 0.01046248059719801, 0.14514774084091187, 0.053306978195905685, 0.00880477949976921, 0.07845619320869446, -0.05975864827632904, 0.022573836147785187, 0.04936356097459793, -0.010242592543363571, 0.01355291623622179, -0.018936237320303917, 0.022699257358908653, -0.0997697040438652, -0.02743729017674923, 0.011664437130093575, -0.025619830936193466, 0.030492907389998436, 0.03266991302371025, 0.1503661423921585, -0.007674055639654398, -0.11961327493190765, -0.037263303995132446, 0.07929601520299911, 0.0855323001742363, -0.02126784436404705, -0.1094021275639534, 0.06881880760192871, -0.005745629779994488, 0.029610125347971916, 0.029186729341745377, 0.06342478841543198, -0.040907327085733414, -0.015377471223473549, 0.013596310280263424, 0.017062654718756676, 0.006502625998109579, 0.018131857737898827, 0.02328839711844921, -0.0981123074889183, 0.003533195238560438, -0.019923361018300056, 0.007161206565797329, 0.024586496874690056, -0.0031816770788282156, 0.00883929617702961, 0.01747540570795536, 0.059199001640081406, -0.010561290197074413, -0.019188188016414642, 0.03695818409323692, -0.042080413550138474, -0.011218640953302383, -0.0043091364204883575, -0.049349479377269745, 0.0006966703222133219, -0.059521425515413284, 0.06601543724536896, 0.008612322621047497, -0.05182434618473053, 0.011722232215106487, 0.0038330552633851767, -0.006866442505270243, 0.01642754301428795, 0.030212076380848885, -0.014844579622149467, 0.048400867730379105, -0.029688771814107895, -0.006967960856854916, 0.053049031645059586, -0.022512251511216164, 0.010171748697757721, -0.031026944518089294, -0.016697632148861885, 0.04533468559384346, 0.04692135006189346, -0.01602809876203537, -0.018096668645739555, 0.0016612997278571129, 0.008948775939643383, 0.014702780172228813, -0.0022250046022236347, -0.027194684371352196, -0.029830850660800934, -0.010226763784885406, -0.0002520924317650497, 0.024061618372797966, 0.07400860637426376, 0.03489375486969948, -0.17885880172252655, 0.008795257657766342, -0.026965271681547165, -0.05487712472677231, -0.003879985073581338, 0.049231138080358505, -0.014403021894395351, -0.04580063372850418, -0.10644248127937317, -0.005049275700002909, -0.004544032271951437, 0.004783601500093937, 0.0003318178351037204, -0.04666655510663986, 0.02314230613410473, 0.013710725121200085, -0.05076753348112106, -0.0322173573076725, -0.022348664700984955, -0.08624652028083801, 0.016627822071313858, -0.03005274012684822, 0.10799391567707062, -0.015036815777420998, -0.005532389041036367, 0.0011966307647526264, 0.019766494631767273, 0.032668836414813995, 0.0893181562423706, 0.008274449966847897, -0.09602708369493484, 0.0715164914727211, 0.03228209540247917, -0.01256884541362524, 0.016649316996335983, -0.016977794468402863, -0.020470354706048965, -0.017781179398298264, 0.02534141018986702, -0.018542282283306122, -0.06296879798173904, 0.035948581993579865, -0.03756600245833397, -0.005499057937413454, -0.016718745231628418, 0.02251402661204338, -0.015222510322928429, -0.00306310155428946, 0.008964888751506805, 0.012239637784659863, -0.030441608279943466, -0.11281684786081314, -0.011351202614605427, 0.024315856397151947, -0.01630955934524536, -0.006203305441886187, -0.03043965809047222, -0.0035936832427978516, -0.0003973806160502136, -0.02635195292532444, 0.00508479168638587, -0.02053423412144184, -0.020534537732601166, -0.0004114517359994352, -0.029320912435650826]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>need_simpler_prepaid_payment_process</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Consistent rural service\nReason for given NPS: Difficulty with rural mobile service\nI had great difficulty paying a prepaid bill online. Not an easy process.\nMonthly plan is OK']</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>[-0.05442538484930992, -0.050786733627319336, -0.0016318982234224677, -0.03690411522984505, 0.013738373294472694, -0.07117430865764618, -0.04786090552806854, 0.01890169456601143, 0.025071270763874054, -0.024317847564816475, 0.021798046305775642, 0.0026971830520778894, -0.008909367024898529, -0.021014699712395668, 0.04650045186281204, 0.020843032747507095, 0.0732015073299408, -0.02195027470588684, -0.005905596073716879, 0.061911311000585556, 0.017766617238521576, -0.017495466396212578, -0.06905063986778259, 0.008569955825805664, 0.027134427800774574, -0.00263793021440506, 0.022693337872624397, -0.028054647147655487, -0.02146897092461586, -0.1156608983874321, 0.03649768605828285, -0.003731420496478677, 0.029200008139014244, 0.01643066108226776, 0.04894871637225151, -0.04157109558582306, -0.05567428097128868, -0.024072783067822456, -0.013599934987723827, -0.010018211789429188, 0.006086059845983982, 0.04781632497906685, -0.07715614885091782, 0.028965281322598457, 0.02445954643189907, -0.07364310324192047, 0.02772863209247589, 0.004752719309180975, 0.06120055168867111, -0.011606432497501373, 0.05555766075849533, -0.02946355752646923, -0.016782352700829506, -0.02019050158560276, 0.022985029965639114, 0.029765482991933823, 0.02856709435582161, -0.006466124206781387, 0.022535057738423347, 0.016619998961687088, -0.005090660415589809, -0.0008385758264921606, -0.10626872628927231, 0.0952950045466423, -0.019918857142329216, 0.008520054630935192, -0.012155473232269287, -0.008130625821650028, -0.025850392878055573, 0.06239203363656998, -0.03207656368613243, -0.00595906563103199, -0.05092914402484894, 0.05324435606598854, 0.012768849730491638, -0.05571360141038895, 0.017292199656367302, 0.0027890249621123075, 0.006265759468078613, 0.07547259330749512, -0.028364285826683044, 0.014965901151299477, -0.008134251460433006, 0.05083589628338814, -0.042095161974430084, -0.053822048008441925, 0.021394988521933556, -0.00289781391620636, 0.05733402818441391, -0.03587927296757698, 0.016495944932103157, -0.05397422984242439, 0.014000503346323967, 0.0021070006769150496, -0.05683198571205139, 0.017038416117429733, 0.0394800566136837, 0.007795895449817181, -0.1014479398727417, 0.3259882628917694, 0.007989011704921722, 0.09358713775873184, 0.05960927903652191, 0.008677840232849121, 0.010248525999486446, -0.06339716166257858, -0.032949283719062805, 0.025354161858558655, -0.009937053546309471, -0.018740225583314896, -0.0740991085767746, 0.000981054501608014, 0.060664962977170944, -0.0638461634516716, -0.04628175124526024, 0.052475716918706894, -0.03462696075439453, -0.022602854296565056, 0.048128046095371246, -0.06231866031885147, 0.035765133798122406, -0.03992848843336105, -0.01724383234977722, 0.0133200166746974, -0.058450981974601746, -0.052408911287784576, 0.02516336552798748, 0.07554572820663452, 0.005285034421831369, 0.12042287737131119, 0.05160408467054367, -0.03907334432005882, -0.06298855692148209, 0.029329534620046616, 0.013926937244832516, -0.006871139630675316, -0.017181826755404472, 0.03847866877913475, -0.0009513273253105581, -0.012248401530086994, -0.04250602424144745, -0.030784741044044495, -0.02980642206966877, -0.0732778012752533, -0.05439257621765137, 0.10037914663553238, 0.011675434187054634, 0.038315847516059875, -0.015530345030128956, -0.11151683330535889, -0.048971034586429596, 0.02708333730697632, 0.024123793467879295, -0.04365718737244606, 0.02493247203528881, 0.006187371909618378, 0.05959918349981308, -0.05968993529677391, -0.01655949465930462, 0.01955595053732395, 0.05017505958676338, -0.059406206011772156, -0.024847015738487244, 0.11478766053915024, 0.03504287078976631, -0.11170879006385803, 0.03349778801202774, -0.02478901855647564, -0.014881100505590439, -0.011181659996509552, -0.03988317400217056, 0.0249716117978096, -0.05734289810061455, 0.026234669610857964, 0.10082855820655823, -0.03436817601323128, 0.0005731601850129664, 0.039756495505571365, 0.019275158643722534, -0.008353300392627716, 0.02422442100942135, -0.0012288546422496438, -0.05691618099808693, -0.04367142915725708, 0.061959248036146164, -0.07546434551477432, -0.0414050929248333, 0.00822068378329277, -0.0076474458910524845, -0.09733953326940536, -0.018199007958173752, -0.042830392718315125, -0.06595486402511597, 0.021678945049643517, -0.034052301198244095, 0.051574382930994034, 0.0036797113716602325, -0.02029614895582199, 0.04036272317171097, -0.021882418543100357, 0.06711050122976303, 0.014297034591436386, 0.006677888799458742, 0.03153300657868385, 0.018519269302487373, 0.03480437770485878, 0.06907208263874054, -0.01570291817188263, 0.04743820056319237, 0.02123652771115303, 0.07245369255542755, 0.06844872236251831, 0.12730416655540466, 0.05081828311085701, 0.011038781143724918, 0.03524560481309891, -0.02136756293475628, 0.05368126183748245, 0.05374692380428314, 0.0115900207310915, 0.009332737885415554, 0.010555315762758255, 0.05033888295292854, -0.27219441533088684, 0.04850076884031296, -0.0035783059429377317, -0.004253561142832041, -0.02669462189078331, -0.034258872270584106, 0.040085501968860626, -0.06587332487106323, -0.03230655565857887, 0.11285167932510376, 0.09103460609912872, -0.04620653763413429, 0.050919096916913986, -0.024914970621466637, -0.005228887312114239, 0.08817406743764877, 0.015641167759895325, 0.039770953357219696, 0.0147895198315382, 0.022974729537963867, -0.054909516125917435, -0.003441867884248495, 0.033110376447439194, -0.024661937728524208, 0.021037457510828972, 0.03829403966665268, 0.1934863179922104, -0.07524731755256653, -0.044081706553697586, -0.024208642542362213, 0.04852109029889107, 0.05468754470348358, -0.02629990316927433, -0.10227780044078827, 0.014114594087004662, 0.018645882606506348, 0.025180991739034653, 0.04109068587422371, 0.048861317336559296, -0.029647719115018845, 0.01888841576874256, 0.019861547276377678, -0.004157467745244503, -0.01577877625823021, -0.009616855531930923, 0.03296675533056259, -0.1051589846611023, 0.004221946932375431, -0.03363107144832611, 0.02820022962987423, 0.040877729654312134, -0.0259734895080328, -0.014411678537726402, 0.03817887231707573, 0.05314984172582626, -0.005088046658784151, -0.008973048999905586, 0.03745775297284126, -0.07830503582954407, -0.019214987754821777, -0.013488300144672394, -0.05889756605029106, 0.010815517976880074, -0.02073270082473755, 0.012896711938083172, -0.012444337829947472, -0.011116750538349152, -0.0347125269472599, -0.03724708780646324, -0.001947443000972271, -0.014135942794382572, 0.01453785877674818, -0.013720022514462471, 0.05515122041106224, -0.01011675875633955, 0.027458863332867622, 0.015397920273244381, 0.005662286654114723, -0.0057185641489923, -0.04244597256183624, 0.0010426854714751244, 0.024947719648480415, 0.02498801238834858, 0.01654522307217121, -0.03210301324725151, 0.044243957847356796, 0.031271304935216904, 0.006040122825652361, -0.006920651067048311, -0.04367959499359131, -0.05902441218495369, -0.028784332796931267, 0.01994597539305687, 0.07266055792570114, 0.03475237637758255, -0.05442025512456894, -0.2403940111398697, 0.00795244611799717, -0.04838776960968971, -0.014162314124405384, 0.018795790150761604, 0.0189160518348217, 0.0450749546289444, -0.04109152778983116, -0.07957237213850021, 0.03549841418862343, 0.0033977183047682047, -0.006825367920100689, 0.010150345042347908, -0.0627489984035492, 0.03752537816762924, 0.010847304947674274, 0.0025158580392599106, -0.0386207178235054, -0.037489332258701324, -0.08353981375694275, 0.04347172752022743, -0.032818179577589035, 0.15990574657917023, -0.020481694489717484, -0.040979865938425064, 0.042174648493528366, -0.014133084565401077, 0.02534233033657074, 0.1143711730837822, 0.034278370440006256, -0.04343254864215851, 0.03492412716150284, 0.05523531138896942, -0.011519226245582104, 0.04311646521091461, 0.0025587594136595726, -0.048579152673482895, -0.009006627835333347, -0.006928162183612585, -0.039483003318309784, -0.07909473031759262, -0.026710839942097664, 0.006033460143953562, -0.029279014095664024, 0.00114756531547755, -0.017693746834993362, -0.02895774506032467, -0.01303431112319231, -0.04000353440642357, 0.04654676094651222, -0.0399244949221611, -0.031706713140010834, -0.003660916117951274, 0.03017069771885872, 0.01687433011829853, 0.019921420142054558, -0.07598946988582611, 0.03660185635089874, 0.0356445275247097, -0.028407912701368332, -0.02896561287343502, -0.0278527420014143, 0.06525177508592606, 0.04040476679801941, -0.03527650982141495]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>need_for_greater_brand_awareness</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>['Improvement needed: More advertising about your company so we can learn more.\nReason for given NPS: One NZ is new and has taken over from Vodafone  so still getting used to this new company']</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>[0.010092019103467464, -0.0026990179903805256, 0.017638271674513817, -0.03850046917796135, 0.022075463086366653, 0.038217633962631226, -0.003039668081328273, 0.11834502220153809, 0.03068135865032673, -0.032968200743198395, -0.02612796612083912, 0.02883923053741455, 0.0156200360506773, -0.02000913955271244, 0.0633121132850647, 0.010730870068073273, 0.08329129964113235, -0.02276061289012432, -0.024849165230989456, -0.010915123857557774, 0.050833068788051605, 0.01759289763867855, 0.050710950046777725, 0.03761781007051468, -0.00894838571548462, -0.06105842441320419, -0.03299012407660484, -0.0026451738085597754, -0.03613060340285301, -0.09551146626472473, 0.049267955124378204, -0.005338386632502079, 0.07594127207994461, 0.010156309232115746, -0.0067660692147910595, -0.025583568960428238, -0.026228243485093117, -0.00549322459846735, -0.027131658047437668, -0.01927473582327366, 0.0005394114996306598, 0.018257811665534973, -0.018668361008167267, 0.006356571801006794, -0.05685794726014137, -0.019756751134991646, -0.0102930199354887, -0.017909284681081772, -0.05860864743590355, -0.03760235756635666, 0.005490579642355442, -0.004365431610494852, -0.06829646229743958, -0.031301986426115036, -0.027914611622691154, 0.010324627161026001, 0.0003521751204971224, -0.04414329677820206, 0.014397925697267056, -0.012333999387919903, 0.05427258834242821, -0.011179051361978054, -0.12778739631175995, 0.040609367191791534, -0.014384845271706581, -0.014429600909352303, -0.018403928726911545, 0.01344631053507328, -0.073895663022995, 0.056496601551771164, 0.008725517429411411, 0.019810643047094345, 0.02158319018781185, 0.1037437692284584, 7.714334060437977e-06, 0.023331785574555397, 0.04379110410809517, -0.032649703323841095, -0.014091444201767445, -0.028395967558026314, 0.03299209475517273, 0.043455157428979874, 0.0009780556429177523, -0.09965832531452179, -0.05210404098033905, -0.07880226522684097, 0.014636353589594364, 0.010328290984034538, 0.03323179483413696, 0.036498088389635086, 0.02947084605693817, -0.02984398417174816, 0.0032460270449519157, 0.007197904400527477, -0.04500175267457962, -0.06102275103330612, -0.016950547695159912, 0.011463496834039688, -0.07310084253549576, 0.423965185880661, 0.021654777228832245, 0.041697908192873, 0.0045693302527070045, -0.04068119078874588, 0.041085220873355865, -0.03853695094585419, -0.007704626768827438, 0.06533779203891754, -0.0026427165139466524, -0.029294464737176895, 0.016240229830145836, 0.012114539742469788, 0.01805749349296093, -0.008064406923949718, -0.028031010180711746, 0.037913016974925995, -0.00877055712044239, 0.0023502646945416927, -0.005738120060414076, -0.021975042298436165, 0.006571282632648945, 0.000361970771336928, 0.01804850436747074, -0.005709151271730661, -0.021445317193865776, -0.010292647406458855, 0.028684113174676895, 0.059786632657051086, -0.0004550113808363676, 0.04375871643424034, -0.019307147711515427, -0.029963327571749687, 0.00666926009580493, 0.07233046740293503, -0.008967220783233643, -0.06141296774148941, -0.027925601229071617, 0.036866918206214905, 0.03367448225617409, 0.09949249029159546, 0.02545958012342453, -0.025251392275094986, 0.011352703906595707, -0.09492786973714828, -0.011434844695031643, 0.05196480453014374, -0.016185157001018524, 0.020760146901011467, -0.03705578297376633, -0.03241569921374321, 0.03277049958705902, 0.004098151344805956, -0.027805618941783905, 0.007851187139749527, -0.02867935225367546, -0.024064088240265846, 0.06778381764888763, -0.019808677956461906, -0.005768296308815479, 0.03636106848716736, 0.06491123139858246, 0.00027504953322932124, -0.01481980737298727, 0.02492368407547474, -0.008349177427589893, -0.08171907067298889, -0.04241275042295456, -0.05098054185509682, -0.0272909477353096, 0.0069176689721643925, 0.0035623747389763594, 0.008287609554827213, -0.029529165476560593, 0.056827299296855927, 0.10984288901090622, -0.010875588282942772, -0.06177341565489769, 0.03934471309185028, -0.019314154982566833, 0.004497104790061712, 0.1085052564740181, -0.03057536855340004, -0.01043008454144001, 0.019560182467103004, 0.03646942973136902, -0.028943819925189018, 0.03000936098396778, 0.0077822571620345116, 0.011051494628190994, 0.03372965008020401, -0.02650727704167366, -0.005047076381742954, -0.010432910174131393, 0.039912283420562744, -0.012073547579348087, -0.004562607500702143, -0.02951258048415184, 0.0178140327334404, 0.022947924211621284, -0.061107736080884933, -0.08290610462427139, -0.03477701544761658, -0.04735153540968895, -0.007426995784044266, -0.018020186573266983, 0.07900764048099518, 0.03603643551468849, -0.024366045370697975, 0.10221713036298752, -0.0373651385307312, -0.007260158658027649, -0.0012573035201057792, 0.02604745328426361, -0.0098763732239604, -0.015823200345039368, -0.009601275436580181, 0.07623063772916794, 0.023113878443837166, 0.01293204165995121, -0.049337130039930344, 0.014294596388936043, 0.10139623284339905, -0.04990305006504059, -0.33839234709739685, 0.05371742323040962, 0.0030204185750335455, -0.012961352244019508, 0.010457259602844715, 0.0242545735090971, 0.025748945772647858, 0.06656379997730255, 0.04989910125732422, 0.07864074409008026, 0.006786549463868141, -0.008201203308999538, -0.004636198282241821, -0.03179223835468292, -0.00594786973670125, -0.0063065653666853905, -0.03850657492876053, 0.03656255081295967, 0.05448876693844795, 0.030738987028598785, -0.023667456582188606, 0.08360739797353745, 0.012441578321158886, -0.008467329666018486, 0.053157057613134384, 0.0016563269309699535, 0.15681342780590057, 0.05507451668381691, -0.03312857821583748, 0.0029613592196255922, 0.003936740569770336, 0.03282826766371727, -0.03024725615978241, -0.10517186671495438, 0.03027602843940258, -0.008892119862139225, -0.045325763523578644, -0.0038868917617946863, -0.0449628047645092, -0.004997805692255497, 0.018979229032993317, 0.023601191118359566, -0.0364261157810688, -0.06762070208787918, -0.0026695632841438055, -0.016518253833055496, -0.011646643280982971, 0.04264871031045914, -0.06083345040678978, 0.025231564417481422, 0.0555153489112854, 0.03599562123417854, 0.040514059364795685, -0.0021533018443733454, -0.025688432157039642, -0.059729088097810745, -0.05238251015543938, -0.015760865062475204, -0.033966559916734695, 0.05702521651983261, -0.014192178845405579, 0.002555533777922392, 0.03141283988952637, -0.0515250563621521, 0.002620931714773178, 0.014979176223278046, -0.05073882266879082, 0.009901103563606739, 0.01592876762151718, 0.023847635835409164, -0.05000694468617439, 0.05492476001381874, -0.01144530437886715, -0.1062493771314621, 0.010858346708118916, -0.038784127682447433, -0.03762161359190941, -0.05635512247681618, -0.025529708713293076, -0.0079042362049222, -0.007161193992942572, 0.0005943551659584045, -0.026932861655950546, -0.0010803608456626534, 0.04483833536505699, 0.03344978019595146, -0.003850796725600958, -0.031623270362615585, 0.04709860682487488, -0.02116190828382969, -0.003967138007283211, 0.05965939536690712, 0.012545762583613396, -0.00081915024202317, 0.06308689713478088, -0.036349669098854065, -0.25688180327415466, -0.025000082328915596, -0.010904982686042786, 0.058280330151319504, -0.043231941759586334, 0.05903973802924156, 0.03189348429441452, -0.0068235029466450214, -0.047260358929634094, 0.04203854873776436, 0.00879502110183239, 0.01259203627705574, 0.011877002194523811, -0.0033404757268726826, 0.049684204161167145, 0.038452308624982834, -0.004512077663093805, -0.019274696707725525, 0.01968991570174694, -0.014235143549740314, 0.020836278796195984, 0.000549415941350162, 0.19713446497917175, -0.030570615082979202, -0.09444589912891388, -0.02881127968430519, -0.014554674737155437, 0.013625713996589184, -0.022286806255578995, 0.0033148503862321377, 0.010544626973569393, 0.0021349876187741756, 0.024218160659074783, -0.03206140920519829, 0.023414094001054764, 0.013257196173071861, -0.01735215075314045, -0.07631944864988327, -0.01641853153705597, 0.00021471327636390924, 0.03435994312167168, -0.01993783935904503, -0.0025315238162875175, 0.009589793160557747, 0.08551277220249176, -0.04502332583069801, -0.02058371901512146, -0.012920300476253033, -0.0516308918595314, -0.03320261463522911, -0.03658011183142662, -0.013602086342871189, -0.018718956038355827, 0.06708540767431259, 0.034043412655591965, -0.0019144578836858273, -0.02720218151807785, -0.0007242584251798689, 0.03495084494352341, -0.03306949511170387, -0.03229864686727524, -0.04240017384290695, -0.06053885072469711, 0.05155108869075775, 0.029747160151600838]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>need_for_inclusive_yet_appropriate_language</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Stop trying to be inclusive. I am not Māori, although lots of my best friends are, so please do not address correspondence with Māori terms.  I am not Chinese or Indian, but friends who are find it offensive.\nThe performance of my mobile and internet appears to have deteriorated since the change over, and I don't understand why.\n"]</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>[-0.018952317535877228, -0.030457453802227974, -0.016388503834605217, -0.04159396514296532, -0.022006813436746597, 0.0012893426464870572, -0.05242428183555603, -0.008020388893783092, 0.000824756920337677, -0.010736498050391674, -0.03643910214304924, -0.010638754814863205, -0.02232927270233631, -0.01987398788332939, 0.07951683551073074, 0.02535651996731758, 0.04997876286506653, -0.0010524207027629018, -0.06823183596134186, 0.006147175095975399, 0.08271621912717819, 0.021560925990343094, 0.02444485016167164, -0.01965070329606533, -0.03925836458802223, -0.004281564615666866, 0.004495866131037474, 0.0027727035339921713, -0.02050187811255455, -0.15271228551864624, -0.03131004422903061, -0.004925453569740057, 0.01552522648125887, -0.006914972793310881, 0.0008585788891650736, -0.011096786707639694, -0.029716553166508675, -0.011145406402647495, -0.04466105252504349, 0.06871867924928665, -0.009199963882565498, 0.010710270144045353, -0.000739366514608264, -0.029062427580356598, -0.022490056231617928, -0.036608316004276276, -0.07356184720993042, 0.03511246293783188, -0.06294899433851242, -0.0374494306743145, -0.01081178244203329, -0.026704121381044388, 0.005748986266553402, -0.03324182331562042, 0.019149968400597572, 0.10427679866552353, 0.044204868376255035, 0.0048171659000217915, -0.00574627798050642, -0.010470045730471611, 0.015875035896897316, 0.03334815800189972, -0.13427825272083282, 0.08562929183244705, -0.02924533560872078, 0.044081803411245346, -0.022950883954763412, -0.010519684292376041, 0.027279598638415337, 0.018103741109371185, -0.051508840173482895, -0.01917377859354019, 0.04692091420292854, 0.10910715162754059, 0.04136035963892937, -0.03488859161734581, 0.050939783453941345, -0.033495090901851654, 0.05682975798845291, -0.029156601056456566, 0.0062515949830412865, 0.005403460934758186, -0.03940610587596893, -0.04417053610086441, 0.01845075748860836, -0.07615990191698074, -0.005053613800555468, 0.028113028034567833, -0.04925820976495743, -0.001417161780409515, -0.02196592651307583, -0.06182105094194412, 0.033832743763923645, 0.043497584760189056, -0.005357788410037756, -0.025494974106550217, 0.006901111453771591, -0.025092050433158875, -0.0864764153957367, 0.3923187851905823, 0.021933896467089653, 0.015190312638878822, 0.008624710142612457, -0.017945371568202972, 0.015019167214632034, -0.010415523312985897, 0.011037571355700493, -0.03449295461177826, 0.035285964608192444, -0.031132420524954796, -0.05310356989502907, -0.04037097841501236, 0.03963635861873627, -0.024734294041991234, -0.009295671246945858, 0.025376368314027786, 0.04737348109483719, -0.056972093880176544, 0.03934544324874878, -0.01588590070605278, -0.005350041668862104, -0.008792378939688206, -0.011497878469526768, -0.00960853137075901, 0.014990928582847118, -0.021640511229634285, 0.04096490517258644, 0.07640179991722107, 0.051395270973443985, 0.09233864396810532, 0.0649002268910408, -0.040826547890901566, 0.03183616325259209, 0.010787786915898323, 0.013939880765974522, -0.05759647861123085, -0.008040203712880611, 0.0052734250202775, 0.04917295277118683, 0.00889377761632204, -0.024891305714845657, -0.12779609858989716, -0.04834793135523796, -0.016411390155553818, -0.007379360031336546, 0.06512670964002609, -0.09495239704847336, 0.02358255162835121, -0.035406265407800674, 0.0011407493147999048, -0.017963090911507607, 0.02661249414086342, 0.014936855994164944, -0.023754024878144264, -0.004140123259276152, 0.003923526033759117, 0.026715947315096855, -0.06408947706222534, -0.03238748386502266, -0.029292186722159386, 0.07661841809749603, -0.10254701226949692, -0.03070361539721489, 0.07173484563827515, -0.01784818433225155, -0.0585198700428009, -0.04376921430230141, 0.023716581985354424, 0.014888232573866844, -0.006386129651218653, 0.02574440836906433, -0.012525921687483788, 0.015432807616889477, 0.04508165642619133, 0.06666496396064758, -0.016045283526182175, -0.04155677184462547, 0.09949542582035065, -0.03734460845589638, 0.014458408579230309, 0.03585188835859299, -0.03919728472828865, -0.007430074270814657, 0.028109636157751083, -0.0010942047229036689, -0.04165562242269516, 0.013374725356698036, -0.04069218039512634, 0.073359914124012, -0.02471473067998886, -0.04872524365782738, 0.014233808033168316, -0.002881376538425684, -0.03470379486680031, 0.014225238002836704, 0.012459780089557171, 0.03627146780490875, -0.0337233729660511, 0.0029323254711925983, -0.03134613111615181, 0.00964687205851078, 0.06130148470401764, 0.0018916315166279674, 0.023171620443463326, -0.008719204925000668, -0.012879307381808758, 0.035408489406108856, -0.041367918252944946, 0.04562864452600479, 0.015012660063803196, -0.03602182865142822, -0.028142450377345085, 0.059101782739162445, 0.029194911941885948, -0.0102468216791749, -0.01250869408249855, -0.00655314140021801, 0.028952788561582565, 0.041628092527389526, 0.00044013591832481325, -0.007926787249743938, 0.05642349645495415, -0.008928426541388035, -0.34867843985557556, 0.028097834438085556, 0.03954312205314636, -0.0026455125771462917, -0.0086180055513978, -0.03481452912092209, 0.0413510724902153, -0.00997395534068346, -0.021756747737526894, 0.09408679604530334, 0.0019439704483374953, 0.003894631750881672, -0.007418599911034107, 0.06510262191295624, -0.009804787114262581, 0.046280864626169205, -0.02377135306596756, 0.00043188119889236987, 0.02249114215373993, 0.02311815693974495, 0.04936334490776062, 0.008956043049693108, 0.006065496243536472, -0.052312467247247696, -0.009515509940683842, -0.0002267405652673915, 0.2041166126728058, -0.012475671246647835, 0.013681290671229362, -0.053159598261117935, 0.014720812439918518, 0.053797245025634766, -0.004715526010841131, -0.13450244069099426, 0.0544750951230526, 0.03570575639605522, -0.0584101602435112, 0.04712272807955742, 0.06332584470510483, -0.018592465668916702, 0.07489941269159317, 0.004601767752319574, -0.038151878863573074, -0.008356954902410507, -0.016372548416256905, -0.03919665142893791, -0.016522299498319626, 0.013937829062342644, -0.01138567365705967, 0.03443346917629242, 0.018722236156463623, 0.0091295400634408, 0.002740864409133792, 0.06849769502878189, -0.04700238257646561, 0.0026751423720270395, -0.03667613863945007, 0.00035641880822367966, -0.008223715238273144, 0.032623857259750366, 0.018317898735404015, -0.03199421986937523, -0.007167911622673273, 0.0010906504467129707, 0.03192033991217613, 0.02668120339512825, -0.011587485671043396, -0.005790495779365301, 0.006036160979419947, 0.03963639587163925, -0.0815940797328949, 0.011634325608611107, 0.0038937008939683437, -0.01459527388215065, -0.054915934801101685, 0.07437054812908173, -0.03648608922958374, 0.018288174644112587, 0.006971023511141539, -0.035016871988773346, 0.08199311047792435, 0.020521175116300583, 0.05669489502906799, -0.0052675469778478146, 0.0422145240008831, 0.02057664282619953, -0.0020933938212692738, 0.02523360773921013, -0.017583206295967102, 0.02222767286002636, -0.027612578123807907, 0.016766434535384178, 0.0234436746686697, -0.01230153813958168, 0.01889807917177677, -0.03520630672574043, -0.25590142607688904, 0.011030253954231739, 0.04170127585530281, 0.003813448827713728, 0.01939363032579422, 0.041815098375082016, 0.06041458994150162, -0.04587855190038681, -0.1349039226770401, 3.094658677582629e-05, -0.010209285654127598, 0.03584546223282814, 0.000509724544826895, 0.006467937957495451, -0.03254825621843338, 0.013844463974237442, 0.10397488623857498, -0.008985758759081364, 0.0028949736151844263, -0.09055159986019135, 0.04153987392783165, 0.014434019103646278, 0.14426788687705994, -0.009303102269768715, -0.025656316429376602, -0.03341962769627571, 0.0017780638299882412, -0.034113381057977676, 0.01073925755918026, 0.02191358432173729, -0.01589004136621952, 0.021955497562885284, 0.05992814525961876, -0.03567437827587128, 0.01377460639923811, 0.02462085895240307, 0.006619927007704973, -0.07557166367769241, 0.04908439517021179, -0.012090436182916164, -0.026137007400393486, 0.04000953584909439, -0.01277532521635294, -0.01700138859450817, 0.023665715008974075, -0.00850732158869505, 0.03650534525513649, -0.042986899614334106, -0.04176485911011696, -0.06595459580421448, -0.007464415393769741, 0.02438298985362053, -0.03006524033844471, 0.03094743750989437, 0.03522168844938278, 0.01835525594651699, 0.02459530718624592, 0.010662895627319813, -0.007769646123051643, -0.01039363443851471, -0.008607330732047558, -0.057172805070877075, 0.008857804350554943, 0.049721475690603256, -0.03572709485888481]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>need_assistance_combating_spam_scam_messages</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Scams are on the rise, I would like to see less scam messages, I know it's impossible to stop it, but a few more barriers in place to help keep scammers out, I get alot of texts from unknown numbers talking about undelivered parcels and unclaimed money, I wish sometimes I could change my number and start again\nReason for given NPS: I have been a customer for a while now, don't really have much to complain about, there is always room for improvement, I guess now and again my data can be slow, but I don't really use a hell of alot, it would probably be cheaper for me if I used prepay however I find being on account is really convenient, I'm glad I don't have to top up, I know I always have calls, texts and data, happy customer"]</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>[-0.003631663043051958, -0.02395753562450409, -0.02003062330186367, -0.02739538811147213, 0.02136295661330223, -0.050329480320215225, 0.002794137690216303, 0.02145453542470932, -0.03164330869913101, -0.020750025287270546, -0.021767161786556244, -0.006556629668921232, 0.020146621391177177, -0.022480081766843796, 0.09802411496639252, 0.0481734573841095, 0.07197660207748413, -0.01209650281816721, 0.02129044383764267, 0.05021485686302185, 0.04724091291427612, 0.04177036136388779, -0.005017727613449097, 0.019091052934527397, 0.02233007550239563, 0.01798909157514572, -0.019891170784831047, -0.021387731656432152, -0.12652212381362915, -0.07453194260597229, 0.04630739241838455, -0.044000908732414246, 0.004710925742983818, 0.016114890575408936, 0.06821827590465546, -0.009271213784813881, -0.04412723705172539, 0.01594688557088375, -0.00418836297467351, -0.009055275470018387, 0.005497447680681944, 0.03353011608123779, -0.057426098734140396, -0.010980627499520779, -0.0015645928215235472, -0.07009051740169525, 0.007150059100240469, 0.036135874688625336, 0.02226082608103752, -0.055959053337574005, -0.028998220339417458, -0.046321697533130646, 0.0011497236555442214, 0.006535127758979797, 0.047913312911987305, 0.0019646110013127327, 0.04492432624101639, 0.030184973031282425, 0.06899548321962357, 0.022284002974629402, 0.021991128101944923, 0.020375601947307587, -0.07329205423593521, 0.035801563411951065, 0.02689656987786293, 0.023199521005153656, 0.03550492599606514, 0.047398339956998825, 0.060237906873226166, 0.06920067965984344, -0.010979631915688515, 0.007335579954087734, -0.06870821118354797, 0.05558611452579498, 0.005012787412852049, 0.07263154536485672, -0.03402188792824745, 0.003539887722581625, 0.008071254007518291, 0.020342271775007248, -0.04217005521059036, 0.004804493859410286, -0.02925703302025795, -0.04935143142938614, -0.025055011734366417, -0.061429109424352646, 0.03695836663246155, 0.036057740449905396, 0.07841010391712189, -0.0004480548668652773, 0.03922758623957634, 0.019952278584241867, 0.015186230652034283, 0.031080882996320724, -0.06326642632484436, -0.04863964021205902, -0.06748687475919724, -0.015292751602828503, -0.10439594835042953, 0.3698529601097107, -0.0039277891628444195, 0.0030649418476969004, -0.03286789357662201, -0.09537780284881592, 0.04420541226863861, -0.05490134656429291, -0.06578841805458069, -0.011104337871074677, -0.02300265245139599, -0.013378221541643143, -0.04185888171195984, -0.03924812749028206, 0.0014073200291022658, 0.006206221878528595, 0.01016357820481062, 0.045675430446863174, 0.011756560765206814, -0.0529618114233017, -0.06086147949099541, -0.01737845502793789, -0.020237058401107788, 0.009763120673596859, 0.05961613729596138, 0.05255788937211037, 0.0534210130572319, -0.06513325870037079, 0.002146249171346426, 0.15271985530853271, 0.050339337438344955, 0.055642787367105484, 0.02692783996462822, 0.06743020564317703, -0.03954257443547249, 0.008729982189834118, -0.0036960027646273375, -0.012597882188856602, -0.051964789628982544, 0.010997068136930466, 0.02749698981642723, 0.017631564289331436, -0.024055982008576393, -0.11223618686199188, 0.016806287690997124, -0.05869712308049202, -0.03359776735305786, 0.06870796531438828, -0.027601629495620728, 0.00781393051147461, -0.026251349598169327, -0.07785259932279587, 0.003357488429173827, 0.028918476775288582, 0.0013869076501578093, -0.004238242749124765, -0.006734296213835478, -0.02075769752264023, 0.0506180115044117, 0.023169085383415222, -0.03664558380842209, 0.01106099784374237, 0.05255137383937836, -0.003578576259315014, 0.01065334677696228, 0.10200367867946625, 0.06323748081922531, -0.11622422188520432, 0.009412332437932491, -0.020254651084542274, -0.06357808411121368, -0.0018690924625843763, -0.008224248886108398, 0.022285575047135353, -0.048679713159799576, 0.0022397609427571297, -0.0026067341677844524, -0.054417651146650314, 0.014771765097975731, -0.015350453555583954, -0.028935329988598824, 0.055933915078639984, -0.003187081776559353, -0.04072610288858414, -0.02375771664083004, 0.04408406466245651, -0.00831637904047966, -0.08110681921243668, -0.018509412184357643, 0.01659201830625534, 0.04222848266363144, -0.05447773262858391, -0.10152139514684677, -0.04331585019826889, -0.02520056627690792, -0.051916562020778656, -0.06339635699987411, 0.013124445453286171, -0.029005562886595726, -0.014075218699872494, 0.04636143520474434, 0.013681001029908657, 0.09054839611053467, 0.018497401848435402, -0.031472936272621155, 0.019278457388281822, -0.037217818200588226, 0.03974587097764015, 0.03736424446105957, -0.023702429607510567, 0.05439811572432518, -0.0017375211464241147, 0.006221795920282602, -0.03838946670293808, 0.0388738289475441, -0.02791491709649563, 0.029923295602202415, 0.04732716828584671, 0.061713580042123795, 0.03423287719488144, -0.025047240778803825, 0.020668698474764824, -0.020263217389583588, 0.06160368397831917, 0.00517929857596755, -0.3158542811870575, -0.030713576823472977, -0.0030806094873696566, -0.010746855288743973, -0.07447483390569687, -0.006727367639541626, 0.05476176366209984, -0.0043410989455878735, 0.031166914850473404, 0.05753328651189804, 0.041258856654167175, -0.08991266041994095, -0.012922320514917374, -0.04982593283057213, 0.04893164709210396, -0.0217078048735857, -0.050558339804410934, 0.032985106110572815, 0.0003930720267817378, 0.026275277137756348, -0.10629013180732727, 0.005794013384729624, 0.10306558758020401, -0.028104154393076897, 0.007528782356530428, 0.036926984786987305, 0.1547822803258896, 0.0851801186800003, -0.06459613889455795, -0.023153435438871384, 0.006474640220403671, 0.09090673178434372, -0.023064276203513145, -0.10914091020822525, 0.008606880903244019, 0.02526410110294819, -0.015086368657648563, 0.05077097937464714, 0.0416339710354805, 0.04697386920452118, -0.03717759624123573, 0.017149943858385086, 0.03346894681453705, -0.04663535952568054, -0.0009010038338601589, -0.05954498425126076, -0.026792490854859352, -0.0170583613216877, -0.03565765917301178, 0.05717988312244415, 0.04591958224773407, 0.06452202051877975, 0.04962380602955818, 0.06392271816730499, 0.009144578129053116, -0.04211670905351639, -0.04979049414396286, -0.028568509966135025, -0.0013487052638083696, 0.016208110377192497, -0.04130896180868149, -0.046712376177310944, 0.016170388087630272, -0.02727203629910946, 0.04137180745601654, 0.005456451326608658, -0.03451402112841606, 0.008904952555894852, 0.025667767971754074, 0.003980535082519054, -0.0414777509868145, 0.07928240299224854, -0.009475452825427055, 0.07026805728673935, -0.011800665408372879, 0.029069295153021812, -0.013785300776362419, -0.038005899637937546, -0.056702710688114166, 0.036339130252599716, 0.03005319833755493, 0.019529933109879494, 0.056393448263406754, 0.009303058497607708, 0.014360510744154453, -0.02114206738770008, 0.01005427073687315, 0.02115614339709282, 0.04951324313879013, 0.011660756543278694, -0.021935682743787766, 0.04835152253508568, -0.033327531069517136, 0.005885033868253231, 0.037104394286870956, -0.010119976475834846, -0.19802729785442352, -0.013869685120880604, 0.008580970577895641, 0.0529458150267601, -0.03504255414009094, 0.02726675756275654, 0.06905896961688995, -0.012017251923680305, -0.07778406143188477, 0.0017351872520521283, -0.027146760374307632, 0.08333788067102432, -0.06721822917461395, -0.013779318891465664, -0.011324486695230007, -0.010121881030499935, -0.0013259778497740626, -0.04183756560087204, -0.04104640334844589, -0.04891219362616539, 0.02370261214673519, -0.004776795860379934, 0.18235501646995544, -0.005946989171206951, -0.059923212975263596, 0.027403658255934715, 0.026049751788377762, 0.014484113082289696, 0.019932644441723824, -0.006435421761125326, -0.02860935591161251, -0.05098269134759903, 0.010504184290766716, -0.009823856875300407, 0.024959741160273552, -0.007299012504518032, -0.025005508214235306, -0.02972213737666607, 0.011381356976926327, -0.03738181293010712, -0.04043969139456749, 0.036905527114868164, 0.00018166312656830996, 0.010539938695728779, 0.0634329617023468, -0.0005902278353460133, -0.00976321380585432, -0.038376789540052414, 0.0374792255461216, 0.0110515421256423, -0.07120257616043091, -0.06559191644191742, 0.01610080525279045, 0.03358375281095505, 0.019474171102046967, 0.035738468170166016, -0.0394151546061039, -0.00463663088157773, 0.0013888211688026786, 0.018045924603939056, -0.029044749215245247, -0.031152408570051193, 0.04390210658311844, -0.0037910868413746357, -0.023862101137638092]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>need_option_to_change_phone_number_easily</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Scams are on the rise, I would like to see less scam messages, I know it's impossible to stop it, but a few more barriers in place to help keep scammers out, I get alot of texts from unknown numbers talking about undelivered parcels and unclaimed money, I wish sometimes I could change my number and start again\nReason for given NPS: I have been a customer for a while now, don't really have much to complain about, there is always room for improvement, I guess now and again my data can be slow, but I don't really use a hell of alot, it would probably be cheaper for me if I used prepay however I find being on account is really convenient, I'm glad I don't have to top up, I know I always have calls, texts and data, happy customer"]</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>[-0.06203485652804375, -0.09810833632946014, 0.03526362031698227, -0.010110484436154366, -0.08881967514753342, -0.015251470729708672, 0.015881633386015892, 0.034484393894672394, -0.02239340916275978, 0.0005310056731104851, -0.019480086863040924, 0.03449499234557152, 0.004971582442522049, -0.02511347085237503, 0.07917120307683945, 0.03054390288889408, 0.03397369757294655, 0.010592100210487843, -0.07538623362779617, 0.027839208021759987, 0.061570119112730026, 0.0029695462435483932, -0.03951013833284378, 0.044402942061424255, -0.01180698350071907, -0.010438880883157253, -0.03886585310101509, 0.053591180592775345, -0.10789506137371063, -0.0952218621969223, 0.032419878989458084, 0.04778466001152992, 0.07051073759794235, -0.02665403112769127, 0.008981404826045036, -0.016215985640883446, -0.04891820624470711, 0.013535386882722378, -0.010982319712638855, 0.07129668444395065, 0.021442841738462448, 0.0605049692094326, -0.01161080040037632, -0.009044487960636616, -0.040221527218818665, -0.06322701275348663, 0.05444930121302605, 0.04074076935648918, 0.07104678452014923, -0.031636953353881836, 0.03747646510601044, 0.05073247849941254, -0.03756898641586304, -0.0005458899540826678, 0.06165396422147751, 0.06680203974246979, 0.11422654241323471, 0.040171924978494644, 0.04262162744998932, 0.010164443403482437, 0.039688777178525925, 0.02525532804429531, -0.09351253509521484, 0.09594990313053131, -0.04074443504214287, -0.034103505313396454, 0.04954849183559418, -0.04239104315638542, -0.02367028221487999, 0.04514998942613602, -0.055614717304706573, 0.013430965133011341, -0.04856853187084198, 0.09584725648164749, 0.01659921184182167, -0.0030871634371578693, -0.06761463731527328, -0.013445327989757061, 0.011511704884469509, 0.022206762805581093, 0.0011157088447362185, -0.03983382135629654, -0.04714854806661606, -0.008883548900485039, 0.00032533358898945153, -0.05877586081624031, -0.0006909187068231404, 0.0031937614548951387, 0.02721565216779709, -0.005931435152888298, -0.019238576292991638, -0.03456385061144829, 0.07003754377365112, 0.07506512105464935, -0.048028863966464996, -0.003020102623850107, -0.02662329375743866, 0.01727299392223358, -0.12916339933872223, 0.3504057228565216, 0.005788850598037243, 0.031503573060035706, -0.032808851450681686, 0.003436049912124872, 0.032489113509655, -0.07407978922128677, -0.0297385286539793, -0.022611776366829872, -0.037423327565193176, -0.0056318119168281555, 0.023844437673687935, -0.02214690111577511, 0.025933722034096718, -0.010840740986168385, -0.020145347341895103, 0.1097717434167862, -0.007240439299494028, -0.0030323343817144632, 0.030588097870349884, -0.012415318749845028, -0.022364186123013496, -0.007014180067926645, -0.01693999581038952, 0.04675702378153801, 0.05181907117366791, -0.0080334497615695, 0.011244716122746468, 0.0582987405359745, 0.007980807684361935, 0.08772260695695877, 0.07191116362810135, -0.03739789128303528, -0.06561572104692459, -0.00047152250772342086, 0.00029145547887310386, -0.029587967321276665, 0.0069688246585428715, 0.057971302419900894, -0.014788600616157055, -0.030599607154726982, -0.020199986174702644, -0.12841151654720306, -0.03999430313706398, 0.005384156946092844, 0.03793748840689659, 0.09680098295211792, -0.07556905597448349, -0.005473053082823753, 0.01160370372235775, -0.06755046546459198, -0.038395944982767105, 0.016208702698349953, 0.037091948091983795, -0.0415884293615818, 0.0006241622613742948, -0.02266567386686802, 0.07131843268871307, -0.024902399629354477, 0.000318414211506024, -0.02728661149740219, 0.04928286001086235, -0.03298153355717659, 0.007910310290753841, 0.06072205305099487, 0.02751549892127514, -0.11287743598222733, -0.048885270953178406, -0.04332556203007698, -0.03345578908920288, -0.04995568096637726, -0.0308018010109663, 0.048774778842926025, -0.03958028554916382, 0.10073147714138031, 0.09215881675481796, -0.023700257763266563, -0.0013272151118144393, -0.00440995255485177, -0.026936925947666168, -0.0012306406861171126, -0.0381087027490139, -0.010545515455305576, 0.03079019859433174, -0.02937939576804638, -0.034310005605220795, -0.030738677829504013, 0.011683117598295212, -0.0333288311958313, 0.07062312960624695, 0.013978172093629837, -0.04666915535926819, 0.04296974465250969, 0.024663476273417473, -0.051249079406261444, -0.024639030918478966, -0.03429635241627693, -0.04551676660776138, -0.03776693716645241, 0.019298721104860306, -0.019437843933701515, 0.07965341210365295, 0.012242239899933338, -0.03564824163913727, 0.019850879907608032, 0.02035493403673172, 0.019550606608390808, 0.03680538758635521, -0.04380921646952629, 0.06569106876850128, 0.02556159533560276, 0.016067391261458397, -0.012995587661862373, 0.10222119837999344, 0.054968517273664474, -0.04232165589928627, -0.015210499987006187, -0.044977158308029175, 0.024244247004389763, 0.06478794664144516, -0.03649260103702545, 0.036124203354120255, 0.07500741630792618, 0.031680282205343246, -0.28534945845603943, -0.012116269208490849, 0.009009056724607944, -0.0322258360683918, -0.052333682775497437, -0.03636457771062851, 0.015267670154571533, -0.041794512420892715, 0.019126469269394875, 0.063088059425354, 0.07394766062498093, -0.04516029357910156, -0.0048244912177324295, -0.016804402694106102, 0.007535452488809824, -0.004972765222191811, -0.014304012060165405, -0.02027646265923977, 0.007133636623620987, -0.012697157450020313, 0.01501965057104826, 0.03958098962903023, -0.0148010840639472, -0.05956356227397919, 0.029862158000469208, -0.0014621028676629066, 0.14399436116218567, -0.03165352717041969, 0.022808624431490898, 0.020672254264354706, 0.040334731340408325, 0.03018156811594963, 0.016369016841053963, -0.09994500130414963, 0.03569984808564186, 0.024875786155462265, -0.023271575570106506, 0.04155663028359413, 0.03150910139083862, 0.010216687805950642, 0.03091900423169136, 0.024149488657712936, 0.0059422156773507595, -0.05804143473505974, 0.037167660892009735, -0.022066878154873848, -0.041885558515787125, 0.01609950326383114, -0.045875392854213715, 0.027278989553451538, 0.010903476737439632, 0.04015318676829338, 0.04920663684606552, 0.026116838678717613, 0.058978959918022156, -0.014908275566995144, -0.02867468073964119, 0.0064428118057549, 0.0021569356322288513, -0.004259562119841576, -0.03160947933793068, 0.007074099965393543, -0.0036712477449327707, -0.04009351506829262, -0.024207158014178276, -0.016304781660437584, -0.05104130506515503, -0.021471748128533363, -0.028853807598352432, 0.03545104339718819, -0.013418019749224186, 0.022570775821805, 0.02009686455130577, 0.034156378358602524, -0.04939117282629013, 0.004497219808399677, -0.0074448492377996445, 0.019187040627002716, -0.04129781946539879, -0.06656210869550705, 0.025388086214661598, -0.014236241579055786, 0.06236901134252548, 0.018631402403116226, -0.0274796299636364, -0.010649753734469414, 0.046743690967559814, 0.09031980484724045, -0.02591552957892418, 0.01796557940542698, -0.06402800232172012, -0.03369733318686485, -0.006920287851244211, 0.012020998634397984, 0.12210245430469513, -0.10738197714090347, -0.21170921623706818, 0.005904819816350937, -0.01898237131536007, 0.028350157663226128, -0.022474851459264755, 0.04829024150967598, -0.006377897225320339, 0.026393063366413116, -0.07306664437055588, 0.010719258338212967, -0.05398043617606163, -0.046674881130456924, 0.005585530307143927, -0.009746532887220383, 0.031098129227757454, 0.001822153222747147, 0.005313211120665073, -0.0401638001203537, -0.026471778750419617, -0.010947294533252716, 0.0814238116145134, -0.0010885795345529914, 0.13416661322116852, 0.006290396675467491, 0.010589199140667915, 0.032649118453264236, 0.015186138451099396, 0.010373726487159729, 0.06475546211004257, 0.04453330114483833, -0.02712271362543106, -0.03574809804558754, 0.03314698860049248, -0.04920003563165665, 0.012027805671095848, -0.04724544659256935, -0.015882456675171852, -0.09902118146419525, -0.04679049178957939, -0.051456268876791, -0.05070778727531433, 0.023888641968369484, -0.08226527273654938, 0.016915317624807358, 0.08766304701566696, -0.021916339173913002, -0.026336949318647385, 0.051657866686582565, -0.005723460111767054, 0.043571025133132935, -0.062037087976932526, -0.024532880634069443, -0.04548944532871246, 0.026261841878294945, -0.018659939989447594, 0.0493486113846302, -0.03988032042980194, 0.007270116824656725, 0.012117525562644005, 0.013535475358366966, -0.022469205781817436, -0.017825381830334663, 0.09540881216526031, -0.010634582489728928, -0.02053322084248066]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>need_affordable_child_safety_phone_plans</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Having an opportunity to upgrade the phone on a more affordable plan. In Australia, the phone is almost free if you have a contract.\n\nHaving the best deal available automatically, rather than following up with Vodaphone to get an upgrade to a plan. \n\nHaving a plan for children which don't include internet. As most plans need to pay for roaming services to be able to get unlimited call and text. Maybe having a plan that's only $10 a month for a child to have an emergency phone. That can call and text parents or family members. Another idea from that is making a call log let's say 10 people which they can call and text unlimited.... There was something similar a while ago call buddy or mate rates I think you paid $5 a month and could call that specific person unlimited. Making it for family might work great.\nReason for given NPS: It seems for the past month. Anywhere I go I only have two bars of reception. But having technical support team is great."]</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>[-0.02464156597852707, -0.0902162566781044, -0.011951116845011711, -0.04593859612941742, -0.023250462487339973, 0.008381322957575321, -0.019795749336481094, 0.05579609423875809, -0.06827059388160706, -0.006788591854274273, -0.0012249123537912965, 0.024501455947756767, 0.02438284270465374, 0.026233091950416565, 0.07028219848871231, 0.015019813552498817, 0.10662969201803207, -0.02251851186156273, -0.033316027373075485, 0.07858018577098846, 0.06094895303249359, -0.016478480771183968, -0.013286830857396126, -0.02730296552181244, 0.046849384903907776, -0.016422050073742867, 0.0065332455560564995, 0.02694813907146454, -0.04654360190033913, -0.02254951186478138, 0.03541959449648857, 0.03407757356762886, 0.02237613871693611, -0.015710705891251564, -0.001984585542231798, 0.0077214776538312435, 0.029084578156471252, 0.03130478411912918, 0.035395026206970215, 0.056006573140621185, -0.017272697761654854, 0.07657664269208908, -0.059777263551950455, -0.013513639569282532, -0.06264042109251022, -0.04138658568263054, 0.024894867092370987, -0.006896430626511574, 0.04296890273690224, -0.08254534751176834, 0.0537090003490448, -0.010654828511178493, -0.005021074786782265, -0.006004814058542252, 0.003377901390194893, -0.008824720047414303, 0.02453773468732834, -0.03563610836863518, 0.03751962631940842, 0.046850256621837616, 0.03421424701809883, 0.003657272784039378, -0.13083146512508392, 0.07065026462078094, -0.04550723731517792, 0.00978263933211565, -0.014436272904276848, 0.005953236948698759, 0.01625807210803032, 0.036219269037246704, 0.020487867295742035, -0.006316845305263996, 0.043003637343645096, 0.09457283467054367, -0.0065744793973863125, 0.030933357775211334, 0.01837790384888649, -0.058191049844026566, -0.0011835756013169885, 0.026835132390260696, -0.03314003348350525, -0.007853468880057335, -0.020804818719625473, 0.04871073365211487, 0.0012250436702743173, -0.06112300977110863, 0.029492242261767387, -0.015958335250616074, 0.01937597431242466, 0.010756322182714939, 0.011261509731411934, 0.023063059896230698, 0.002471957355737686, 0.029224848374724388, -0.05173006281256676, -0.00957318115979433, 0.002684412756934762, 0.024073859676718712, -0.1445499211549759, 0.3848373293876648, 0.005507557652890682, 0.008957436308264732, 0.0021553628612309694, -0.020751528441905975, -0.0001701599539956078, -0.07513158768415451, -0.044876422733068466, -0.0655968114733696, -0.04912279173731804, -0.024339940398931503, -0.026272835209965706, -0.039520468562841415, 0.04203172028064728, -0.018115930259227753, 0.014187890104949474, 0.05805572494864464, 0.02962769754230976, -0.027381017804145813, 0.04441371187567711, -0.014498090371489525, -0.04032575339078903, -0.039003968238830566, -0.00037994852755218744, 0.0087013253942132, 0.04132028669118881, -0.055529557168483734, 0.021181678399443626, 0.11322274059057236, 0.03590372949838638, 0.11247643083333969, 0.023277513682842255, -0.06681273132562637, -0.0308880265802145, 0.020632511004805565, 0.008022910915315151, -0.02869540825486183, 0.0027313753962516785, 0.015856606885790825, -0.014280008152127266, -0.012589067220687866, 0.01821264810860157, -0.10582278668880463, -0.015523637644946575, -0.10961974412202835, 0.01573728583753109, 0.06528440117835999, -0.061270348727703094, 0.05379584804177284, 0.002000105567276478, -0.07933329045772552, -0.007711279205977917, 0.03894640877842903, 0.12693724036216736, -0.04464654624462128, 0.017234018072485924, 0.0104969572275877, 0.028989801183342934, -0.006689176894724369, -0.0033606740180402994, 0.011102903634309769, 0.1050514355301857, -0.02131888084113598, -0.08539656549692154, 0.06558257341384888, -0.04550612345337868, -0.12227141857147217, -0.03940218314528465, -0.00921468622982502, -0.03657851368188858, -0.09332522749900818, -0.01815425418317318, 0.07789334654808044, 0.011629628948867321, 0.03580627590417862, 0.044495828449726105, -0.016247525811195374, -0.04232049360871315, 0.03497804328799248, -0.05025587975978851, 0.042490068823099136, -0.05220252275466919, -0.04174724221229553, -0.014942175708711147, -0.02662004344165325, -0.027265075594186783, -0.045655980706214905, -0.0032452272716909647, -0.014766287058591843, 0.06517147272825241, -0.01847257651388645, -0.09446361660957336, -0.01697750948369503, 0.016377629712224007, -0.007949198596179485, -0.051914382725954056, 0.011735217645764351, -0.04282129183411598, -0.0346524752676487, 0.050139863044023514, -0.014043706469237804, 0.05916809290647507, -0.08011726289987564, -0.03608376905322075, 0.048589956015348434, -0.012751111760735512, 0.026982389390468597, 0.025316249579191208, -0.040008943527936935, 0.06997103989124298, 0.013806390576064587, 0.05972087010741234, 0.02005990594625473, 0.1398697793483734, -0.015935292467474937, -0.04201323911547661, 0.022018611431121826, -0.009164702147245407, 0.0675165131688118, 0.041020702570676804, -0.011072216555476189, 0.005752507597208023, 0.06424564868211746, 0.015876932069659233, -0.2816082537174225, -0.005471817217767239, -0.0332169272005558, -0.012027470394968987, -0.07962259650230408, 0.008624429814517498, 0.02507488802075386, -0.08166047185659409, -0.018715599551796913, 0.08622591942548752, 0.06598970293998718, -0.010188491083681583, -0.00797487236559391, 0.017777955159544945, 0.007661417592316866, -0.024653391912579536, -0.04890872538089752, -0.04050157591700554, 0.035487279295921326, 0.027876615524291992, 0.011138689704239368, 0.03802229091525078, -0.01892177201807499, -0.024875203147530556, 0.08951261639595032, 0.03242667019367218, 0.18212932348251343, -0.04954838007688522, 0.020107107236981392, -0.027181152254343033, 0.05482834577560425, -0.0006673462921753526, 0.007521928753703833, -0.019035615026950836, 0.015866076573729515, 0.010806132107973099, -0.0647469311952591, 0.025362400338053703, -0.010498535819351673, -0.07222593575716019, -0.026408124715089798, 0.06346548348665237, -0.04758452996611595, -0.025669679045677185, -0.031942274421453476, -0.033918436616659164, -0.03965111821889877, 0.07821468263864517, -0.010534893721342087, 0.00563607644289732, -0.006387201137840748, -0.047059476375579834, 0.036650076508522034, -0.01972288265824318, 0.05131298303604126, -0.017689283937215805, -0.04150712490081787, 0.021542364731431007, -0.07746683061122894, -0.0005914236535318196, -0.031518884003162384, 0.02630426362156868, 0.016876567155122757, -0.03695203363895416, -0.0013564489781856537, -0.01031847670674324, 0.024170376360416412, -0.018164798617362976, -0.07354007661342621, 0.03066837787628174, -0.024250993505120277, 0.03220324590802193, 0.020488882437348366, -0.02522440068423748, -0.022144006565213203, -0.004541405942291021, 0.032517556101083755, -0.024597235023975372, -0.04852985590696335, -0.01897670142352581, 0.038698483258485794, 0.03223076090216637, -0.013159873895347118, 0.002562936395406723, -0.004493278451263905, 0.03643358498811722, 0.040016572922468185, 0.037999313324689865, 0.010933353565633297, -0.040804553776979446, -0.005971614737063646, 0.000646301603410393, 0.037384796887636185, 0.02319384552538395, 0.1005716398358345, -0.043946996331214905, -0.2203100174665451, 0.02136017009615898, -0.06154205650091171, 0.013361792080104351, -0.0070730289444327354, -0.01419827714562416, 0.04531019553542137, 0.014668979682028294, 0.008439880795776844, 0.013674450106918812, -0.0007589938468299806, 0.033368226140737534, 0.01890682801604271, -0.0259053073823452, 0.03157152980566025, 0.0007556018535979092, 0.04558585211634636, -0.005377200432121754, -0.06325326859951019, 0.004689844325184822, 0.054446883499622345, 0.010058336891233921, 0.13864058256149292, 0.014320643618702888, -0.010009314864873886, -0.020810186862945557, -0.03294087573885918, 0.002157630166038871, 0.08005647361278534, 0.0033879545517265797, 0.006653132848441601, -0.007644700352102518, 0.011264518834650517, -0.016313429921865463, 0.026342768222093582, -0.0361691378057003, -0.0494537279009819, -0.055480606853961945, -0.030884653329849243, -0.00563209131360054, -0.0561816543340683, 0.01996424049139023, -0.009988329373300076, 0.029152533039450645, 0.08131132274866104, -0.004302142187952995, -0.040539830923080444, -0.029108908027410507, 0.02394413948059082, 0.012176170945167542, -0.018231108784675598, -0.03670258820056915, 0.012000762857496738, -0.023741457611322403, -0.020931771025061607, 0.06893058866262436, -0.03542160987854004, 0.020245308056473732, -0.02570980228483677, 0.005720550660043955, -0.011499778367578983, 0.0050332145765423775, -0.0076256804168224335, 0.04753590002655983, 0.0034975213930010796]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>company_not_keeping_service_promises</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Keep your promises\nReason for given NPS: Keep your promises']</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>[-0.022087281569838524, -0.002167072845622897, -0.01004926860332489, 0.007188273593783379, 0.006241223309189081, -0.050616633147001266, -0.0025368547067046165, -0.02228240855038166, 0.027973396703600883, -0.023021673783659935, 0.009569388814270496, 0.03323899209499359, 0.014568059705197811, -0.008544833399355412, -0.05470293387770653, 0.006538348272442818, 0.006728248670697212, -0.02891612984240055, -0.052427519112825394, 0.026416517794132233, 0.11833655089139938, -0.010797634720802307, -0.027492612600326538, 0.06948034465312958, -0.04472337290644646, -0.020920630544424057, -0.017600426450371742, 0.02494703233242035, -0.05031328648328781, -0.08471153676509857, 0.0007728901109658182, -0.09806064516305923, -0.07911113649606705, -0.014690190553665161, 0.09549862146377563, 0.02168295904994011, 0.02417120523750782, 0.004828775301575661, 0.039666108787059784, 0.07891392707824707, -0.029641306027770042, 0.005470464937388897, -0.012852706015110016, -0.026622090488672256, -0.03404512256383896, -0.012820512987673283, -0.011446342803537846, -0.0073796906508505344, 0.05457887053489685, -0.01810752972960472, -0.001120871864259243, -0.006909939926117659, -0.05819622054696083, 0.0018020678544417024, -0.012881645932793617, 0.09609571099281311, 0.013458669185638428, 0.0067989579401910305, 0.04623754322528839, 0.027342520654201508, 0.03818082809448242, -0.0591108575463295, -0.114643394947052, 0.037240006029605865, -0.014014564454555511, 0.041135985404253006, -0.024170707911252975, -0.06681181490421295, 0.0021715702023357153, -0.005744806956499815, 0.008710199035704136, -0.03306252509355545, -0.028768133372068405, 0.10769790410995483, 0.01089546736329794, -0.002888963557779789, 0.020250139757990837, 0.03455612063407898, -0.01757877506315708, 0.03381670266389847, -0.01864771731197834, -0.05011488124728203, -0.012582439929246902, 0.01877976581454277, -0.0350036695599556, -0.04035468026995659, -0.022231414914131165, -0.006480952724814415, 0.07068303227424622, -0.015886515378952026, -0.03356228023767471, -0.0076430425979197025, -0.0009027350461110473, -0.04025671258568764, -0.08822886645793915, -0.010358327999711037, 0.00018150806135963649, 0.0013688707258552313, -0.13908082246780396, 0.3523840606212616, -0.010226354002952576, 0.06297244131565094, -0.022339727729558945, 0.03197222948074341, 0.026217369362711906, -0.05661102011799812, -0.006669952999800444, 0.008483756333589554, -0.027180291712284088, 0.03002289868891239, 0.01410689763724804, 0.02840828336775303, 0.0613352432847023, -0.027150707319378853, 0.02743302471935749, 0.05420703813433647, 0.004166426137089729, -0.0095833046361804, -0.0681772455573082, 0.0007726628100499511, -0.002012640470638871, 0.030647162348031998, 0.058121439069509506, -0.005333348643034697, -0.07269605994224548, -0.003751053474843502, 0.026239778846502304, 0.07916252315044403, -0.026437662541866302, 0.022440794855356216, -0.02250220812857151, 0.005463730543851852, -0.013007435016334057, -0.0015411080094054341, 0.02823936752974987, 0.0316329151391983, -0.01121121272444725, 0.045317377895116806, 0.04855647310614586, 0.03260199353098869, 0.004774352535605431, -0.06884941458702087, -0.012158980593085289, -0.06211245432496071, 0.06905122846364975, 0.01691295951604843, 0.02987079508602619, 0.07196121662855148, -0.027535419911146164, 0.011507624760270119, -0.07109689712524414, 0.04112991318106651, 0.02379246987402439, -0.069300077855587, -0.01919182762503624, -0.07463758438825607, -0.01723065972328186, 0.008477123454213142, -0.04285303130745888, 0.024564167484641075, 0.0444510355591774, -0.021906379610300064, -0.007582136895507574, 0.026552041992545128, -0.009027422405779362, -0.05923407897353172, 0.010294383391737938, -0.02859354019165039, -0.00382120325230062, 0.019414633512496948, -0.05302201583981514, 0.022550789639353752, -0.03161490336060524, -0.062465034425258636, 0.07767163962125778, -0.006585985887795687, -0.0013207517331466079, 0.06048694998025894, 0.016611045226454735, 0.029860449954867363, -0.04381590336561203, 0.013445314951241016, 0.01056121475994587, 0.037395451217889786, 0.02962327189743519, -0.022501599043607712, 0.00970554817467928, -0.03997650742530823, 0.024180999025702477, -0.0218870397657156, -0.04987703636288643, -0.006953333038836718, -0.04932596534490585, -0.026142405346035957, 0.020954756066203117, -0.03757679462432861, -0.013187662698328495, 0.01836933009326458, 0.05817461013793945, -0.0057301828637719154, 0.07621438056230545, 0.04535238444805145, -0.0370485819876194, 0.019368169829249382, -0.009021208621561527, 0.03793812543153763, 0.003056311048567295, 0.026616835966706276, 0.04998638853430748, 0.055890295654535294, -0.05453871190547943, -0.025144062936306, 0.025189664214849472, 0.015330797992646694, 0.02357911504805088, 0.07380281388759613, 0.021447589620947838, 0.06823538988828659, -0.01288656983524561, 0.023044440895318985, 0.029473060742020607, 0.09865090996026993, 0.004895167425274849, -0.2844889163970947, 0.030121712014079094, -0.054764073342084885, -0.05757397413253784, -0.058361172676086426, 0.05149288848042488, 0.038943663239479065, 0.01687696762382984, -0.042361851781606674, 0.07610742002725601, 0.039572328329086304, 0.009940370917320251, 0.0003647415724117309, -0.030631130561232567, -0.01632147654891014, -0.004067091271281242, 0.02111143432557583, -0.0026502907276153564, 0.0067316219210624695, 0.004937411285936832, -0.0340363048017025, -0.04524415358901024, 0.011674178764224052, -0.09195025265216827, 0.007033737376332283, 0.0035813276190310717, 0.16953778266906738, -0.030560797080397606, -0.06908485293388367, -0.061892732977867126, 0.061340466141700745, 0.09899047762155533, -0.0005410816520452499, -0.11204845458269119, 0.00807966385036707, 0.02132180705666542, -0.0351656973361969, 0.009098543785512447, 0.011276362463831902, -0.0161871537566185, 0.02837391383945942, 0.07906676828861237, -0.03385055065155029, -0.01161286886781454, 0.03386626020073891, -0.07993392646312714, -0.06214117258787155, 0.030971426516771317, -0.07426874339580536, 0.00046878287685103714, 0.01153713557869196, -0.0010898940963670611, 0.04340264946222305, 0.026553023606538773, 0.0590723380446434, -0.017354542389512062, -0.0216186735779047, 0.059251874685287476, -0.006841785740107298, -0.0037763093132525682, -0.03675593435764313, 0.0019471087725833058, 0.01960480771958828, -0.011173330247402191, 0.0974993109703064, -0.03986517712473869, -0.029121657833456993, 0.02084851823747158, 0.03522728756070137, 0.028341149911284447, -0.03637571632862091, 0.04760526493191719, -0.03219835087656975, -0.008395260199904442, 0.011825580149888992, 0.009104850701987743, -0.014447314664721489, -0.050882674753665924, -0.07031475752592087, 0.004700102843344212, 0.0026589306071400642, 0.04114425554871559, 0.05866299197077751, 0.011496187187731266, 0.01929653435945511, 0.022122323513031006, -0.04129329323768616, 0.04975973442196846, 0.015559221617877483, -0.0066320449113845825, 0.017643511295318604, 0.0015836321981623769, -0.0025855188723653555, -0.04023992642760277, 0.12985451519489288, 0.023454733192920685, -0.2559613883495331, -0.02917342819273472, -0.025228463113307953, -0.034886185079813004, -0.054849978536367416, 0.0570504330098629, -0.04140166938304901, 0.01606675237417221, -0.07321745902299881, 0.0450606606900692, -0.08095677196979523, 0.05466609075665474, 0.04453344643115997, -0.047538742423057556, 0.028745127841830254, 0.023532109335064888, 0.0740266814827919, -0.05229445919394493, 0.024027274921536446, 0.011200368404388428, 0.04122554883360863, 0.01824621483683586, 0.18242517113685608, -0.0010537453927099705, -0.013235894031822681, 0.025497928261756897, 0.007752387318760157, 0.021250542253255844, -0.013028948567807674, 0.010218006558716297, -0.06609005481004715, 0.021291688084602356, 0.042418934404850006, 0.05056992545723915, -0.02935902588069439, -0.054703082889318466, 0.04226180911064148, 0.019333254545927048, 0.052475716918706894, 0.009105325676500797, -0.06262550503015518, 0.024224678054451942, 0.005087703466415405, 0.04775727167725563, 0.06576666235923767, -0.03769725561141968, -0.031124800443649292, -0.029906919226050377, 0.02980990521609783, -0.014626806601881981, -0.07065002620220184, -0.15619982779026031, 0.008587186224758625, 0.05641332268714905, -0.035747237503528595, 0.011902231723070145, -0.02377794124186039, -0.06860051304101944, -0.02365291118621826, -0.010837684385478497, 0.016546282917261124, -0.055004190653562546, 0.002746710553765297, 0.020194612443447113, -0.01771729625761509]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>misleading_service_promise_advertisements</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Keep your promises\nReason for given NPS: Keep your promises']</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>[0.012639176100492477, -0.027899496257305145, -0.0007135673076845706, 0.02359588071703911, 0.026684889569878578, -0.05666563659906387, -0.018797356635332108, 0.02078094705939293, 0.04589632526040077, -0.0065777478739619255, 0.03654317185282707, 0.02704937756061554, -0.015112285502254963, -0.027434946969151497, 0.024704381823539734, 0.006050768308341503, 0.03902189061045647, -0.028091004118323326, -0.04072915017604828, 0.03231937065720558, 0.1584998220205307, 0.0010863665957003832, -0.022448891773819923, 0.02576304040849209, 0.01997157372534275, -0.015003297477960587, -0.029256341978907585, 0.03533236309885979, -0.008763152174651623, -0.09970516711473465, 0.010702909901738167, -0.07870838791131973, -0.06829799711704254, -0.030075225979089737, 0.0352831706404686, 0.0034414981491863728, 0.014668246731162071, 0.03032803162932396, 0.019207408651709557, 0.0600697286427021, -0.007459933403879404, 0.01825697533786297, -0.05832945182919502, 0.010864906944334507, -0.06615865975618362, -0.014095058664679527, -0.0016391708049923182, 0.0243725273758173, 0.019100895151495934, -0.020075397565960884, 0.009540926665067673, 0.018413802608847618, -0.019611775875091553, 0.022565534338355064, 0.019847126677632332, 0.02162906527519226, -0.014314847998321056, 0.03490760922431946, -0.018505262210965157, 0.1012997031211853, -0.004002908710390329, -0.018215758726000786, -0.11252295970916748, 0.060710277408361435, 0.006479757837951183, 0.0030892661307007074, 0.009550182148814201, -0.0716155469417572, -0.031183689832687378, -0.022270355373620987, 0.014879530295729637, -0.014502224512398243, -0.05311322212219238, 0.07757017761468887, -0.043633755296468735, -0.03153710067272186, -0.0028458579909056425, 0.05515553429722786, -0.0005065375007688999, -0.00983672309666872, 0.004327946808189154, -0.03871787339448929, -0.0021328076254576445, 0.009023994207382202, 0.0017637808341532946, -0.042517825961112976, 0.015476425178349018, 0.018804214894771576, 0.08030340075492859, 0.01710163615643978, 0.0394340381026268, -0.01928757131099701, -0.019147248938679695, -0.008841784670948982, -0.046012524515390396, 0.025150921195745468, -0.036906689405441284, 0.02166963927447796, -0.07574453204870224, 0.3460441529750824, 0.00033766761771403253, 0.04304596036672592, 0.041538335382938385, 0.014980249106884003, 0.01002348493784666, -0.0857909768819809, -0.0303083136677742, 0.012725187465548515, -0.0005499853868968785, 0.05106828734278679, -0.020960574969649315, -0.006186117418110371, 0.0369628369808197, -0.06234809011220932, -0.018223173916339874, 0.04881817474961281, -0.024343091994524002, -0.02292669378221035, -0.02426847442984581, -0.013199222274124622, -0.0450761504471302, 0.00495559349656105, 0.004904573317617178, -0.0430811271071434, -0.08711926639080048, -0.014602432027459145, 0.021372133865952492, 0.07894296944141388, -0.01882951892912388, 0.0521966852247715, -0.02917802520096302, 0.021755872294306755, 0.00776553712785244, -0.00824622344225645, 0.013052569702267647, -0.015370267443358898, -0.004678684752434492, 0.061256568878889084, 0.09144934266805649, 0.06945773214101791, 0.0020541278645396233, -0.03650592640042305, -0.02851717919111252, -0.0327187180519104, -0.001435372163541615, 0.038858458399772644, 0.014183172024786472, 0.10906174033880234, -0.034780219197273254, 0.045395947992801666, -0.035926904529333115, 0.06653719395399094, 0.02145024761557579, -0.023983178660273552, -0.04732632264494896, -0.06202041730284691, 0.014728178270161152, 0.008825770579278469, -0.05910974368453026, 0.02185942605137825, 0.05248003080487251, -0.06854193657636642, 0.013890002854168415, 0.0027238698676228523, -0.0082625737413764, -0.029579849913716316, -0.005571048706769943, 0.005590219050645828, -0.02763241156935692, 0.020078934729099274, -0.059826530516147614, 0.008614164777100086, -0.06663153320550919, -0.08348222076892853, 0.07418953627347946, 0.006937707308679819, -0.033994466066360474, 0.05705380439758301, 0.009265591390430927, -0.0095111895352602, -0.0009615049348212779, 0.005041888449341059, 0.008416540920734406, 0.028008924797177315, 0.05443676561117172, -0.036352209746837616, -0.03133481740951538, 0.012680282816290855, 0.05139297619462013, -0.032226383686065674, -0.05290203541517258, -0.0422682985663414, -0.055055372416973114, -0.0414634570479393, -0.011044373735785484, -0.02292594499886036, 0.025332296267151833, -0.01167253777384758, 0.11713048815727234, -0.02352437935769558, 0.08957907557487488, 0.0002197177236666903, -0.06170182302594185, -0.013816248625516891, -0.029073383659124374, -2.957537435577251e-05, 0.0003535062132868916, -0.005997196771204472, 0.04321194440126419, 0.016347791999578476, -0.0571453757584095, -0.001430712640285492, 0.006044134963303804, -0.0016074074665084481, -0.00968922395259142, 0.023081554099917412, -0.0007501567015424371, 0.04686236009001732, 0.02630366012454033, 0.015943514183163643, 0.006362964399158955, 0.07916043698787689, 0.019141729921102524, -0.3093666434288025, -0.009049628861248493, -0.011348625645041466, -0.05702913552522659, -0.026129228994250298, 0.022675039246678352, 0.03684883192181587, 0.04044103994965553, -0.03807417303323746, 0.07772809267044067, 0.031393058598041534, -0.01019060704857111, 0.0241615679115057, -0.044778354465961456, 0.016963409259915352, 0.0017760784830898046, -0.03323204442858696, -0.024066103622317314, 0.00918744970113039, 0.02739986777305603, -0.011842012405395508, -0.03489202260971069, 0.036622170358896255, -0.09638739377260208, 0.008298835717141628, 0.03378019109368324, 0.16122794151306152, 0.04260525852441788, -0.0686245858669281, -0.06766653805971146, 0.057587720453739166, 0.05837816372513771, 0.0077945091761648655, -0.05520055070519447, -0.005655275657773018, 0.016140075400471687, -0.014332476072013378, 0.026644352823495865, -0.021639758720993996, -0.03150076046586037, -0.017122479155659676, 0.06861770153045654, -0.00827849842607975, -0.06610596925020218, 0.04702426493167877, -0.038807712495326996, -0.05410856008529663, 0.07272076606750488, -0.05142846331000328, 0.029599402099847794, -0.009881586767733097, 0.022620532661676407, 0.07119853049516678, 0.013618928380310535, 0.09069349616765976, -0.04869691655039787, -0.011413056403398514, 0.03811805695295334, -0.022008679807186127, 0.007603388279676437, 0.019580159336328506, -0.027712250128388405, 0.02434556558728218, -0.030884623527526855, 0.057504065334796906, 0.02467283234000206, -0.015649935230612755, -0.040544651448726654, 0.005709173623472452, 0.004363491199910641, -0.049218688160181046, 0.06525120884180069, -0.005811077076941729, 0.03892042115330696, 0.02168899215757847, 0.01751163974404335, -0.03931737691164017, -0.07635603845119476, -0.01902085356414318, -0.0015618584584444761, -0.021105172112584114, 0.06017483025789261, 0.03537340089678764, -0.028846697881817818, -0.014270350337028503, -0.009083746001124382, -0.0603683665394783, 0.06825252622365952, -0.019746338948607445, 0.01359317172318697, -0.007616802118718624, 0.029009351506829262, 0.007839999161660671, -0.020319771021604538, 0.06467074900865555, -0.024275779724121094, -0.3095926344394684, -0.01132957823574543, 0.010542668402194977, -0.021286379545927048, -0.043553583323955536, 0.05566434562206268, -0.02588219754397869, -0.0005854708724655211, -0.09689445048570633, 0.023119356483221054, -0.05627240613102913, 0.023260820657014847, 0.003286367282271385, -0.07229737937450409, -0.010181302204728127, 0.05939202755689621, 0.060760460793972015, -0.06098705530166626, 0.006467991042882204, -0.014662162400782108, 0.031258586794137955, -0.015622755512595177, 0.1862782984972, 0.01591925136744976, -0.052637260407209396, 0.045186638832092285, -0.04782746359705925, 0.006785148289054632, 0.024555301293730736, -0.008295856416225433, -0.02676565945148468, 0.020538728684186935, 0.04394051060080528, 0.04136054590344429, -0.024456221610307693, -0.040599994361400604, 0.013560693711042404, -0.005010142922401428, 0.08168338239192963, 0.03383994475007057, -0.06320703774690628, 0.017798390239477158, -0.01904783397912979, 0.06258316338062286, 0.09191890060901642, -0.01057606004178524, 0.004284060560166836, -0.03430982306599617, -0.025519371032714844, -0.005496237892657518, -0.05387725681066513, -0.13861334323883057, 0.025936270132660866, 0.039196327328681946, 0.043785642832517624, 0.045387301594018936, -0.061741653829813004, -0.044629037380218506, 0.021315356716513634, 0.01925874873995781, 0.0337471142411232, -0.01718365214765072, 0.028372207656502724, -0.0020519341342151165, -0.001331028062850237]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>awareness_needed_on_sustainability_initiatives</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>["Improvement needed: I haven't read anything on Ones efforts for sustainability and a bit unsure how to answer the overall relationship questions as I have really interacted with One personally. Also not sure about the rewards program either and didn't know there was one.\nReason for given NPS: I haven't been with any other company to compare but haven't had any problems with One and theonthly charge is cheap for what you get."]</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>[0.023878617212176323, -0.00019544347014743835, 0.03150328993797302, -0.029546549543738365, 0.051119934767484665, 0.03703494742512703, 0.0215089563280344, 0.04600511118769646, 0.01732502691447735, -0.011227604001760483, -0.042044539004564285, -0.009416237473487854, -0.010705109685659409, 0.03736066818237305, 0.04582137614488602, 0.011060541495680809, -0.031962182372808456, 0.04881248250603676, 0.02042365074157715, -0.01212925836443901, 0.04426857829093933, 0.009158833883702755, 0.03772871568799019, 0.03802623599767685, -0.01627926528453827, 0.024875996634364128, -0.002659822814166546, -0.0335562489926815, -0.04765939712524414, -0.10269097983837128, -0.023842066526412964, -0.05484628677368164, 0.08060336112976074, 0.0006081540486775339, -0.0185839906334877, 0.034497447311878204, 0.01891954243183136, 0.031549517065286636, -0.033327799290418625, 0.01687152124941349, 0.0065397885628044605, 0.019450033083558083, 0.012747089378535748, -0.012268275022506714, -0.054125215858221054, -0.05862629413604736, 0.05054699257016182, -0.034498583525419235, -0.05862727761268616, -0.10042125731706619, 0.03095816820859909, -0.008189225569367409, -0.06479296833276749, -0.018329398706555367, 0.03677940368652344, 0.05129438266158104, 0.03408360853791237, 0.04308454319834709, 0.036773841828107834, -0.008634272962808609, 0.0843479111790657, 0.0124460244551301, -0.1944482922554016, 0.022544756531715393, 0.06611891835927963, -0.013610445894300938, -0.05184999108314514, 0.020760614424943924, 0.021636061370372772, -0.027540739625692368, -0.0261452104896307, -0.018716346472501755, 0.05118529498577118, 0.08285994827747345, 0.04261353239417076, 0.013531350530683994, 0.021072005853056908, -0.024700123816728592, -0.011427100747823715, -0.06422407180070877, 0.040510859340429306, 0.07405164837837219, -0.011577094905078411, -0.04103793576359749, -0.016277741640806198, -0.04750538244843483, -0.02590474858880043, 0.03700106218457222, 0.06821027398109436, -0.0003278888761997223, 0.004729789216071367, 0.015818387269973755, 0.022526884451508522, -0.011563305743038654, -0.021012481302022934, -0.042768049985170364, 0.0583944097161293, 0.002940303413197398, -0.06441178917884827, 0.39069458842277527, 0.0028761981520801783, 0.04062771052122116, 0.009603776037693024, 0.010561059229075909, 0.04418003559112549, -0.0445992574095726, -0.025710107758641243, -0.012270186096429825, 0.016380969434976578, -0.04891087859869003, 0.008983911015093327, -0.031090732663869858, 0.01795702427625656, -0.0039294022135436535, 0.010835882276296616, 0.06563987582921982, 0.0024634378496557474, 0.05028897896409035, -0.021760018542408943, -0.03973804786801338, -0.011642218567430973, 0.003136394778266549, 0.04730602726340294, -0.03480731323361397, 0.03139675408601761, -0.011570903472602367, 0.019060969352722168, 0.03870917484164238, 0.03874562680721283, 0.09790658950805664, 0.01147044450044632, -0.013230766169726849, -0.021526901051402092, 0.029995646327733994, -0.02159402333199978, -0.08178415149450302, -0.009902560152113438, 0.004391904920339584, -0.016029348596930504, 0.03752085939049721, 0.044177841395139694, -0.00459437957033515, 0.016300208866596222, -0.17033810913562775, -0.031491562724113464, 0.0822875052690506, 0.03617444634437561, 0.02455776371061802, -0.0296286903321743, -0.05140693485736847, 0.025065451860427856, 0.042119745165109634, 0.016475895419716835, 0.007386149372905493, 0.01868405006825924, -0.02548052929341793, 0.05144427344202995, -0.020169636234641075, 0.039378151297569275, 0.04355338588356972, -0.017726069316267967, -0.010823842138051987, -0.05608565732836723, 0.1218651756644249, 0.05115301534533501, -0.07166604697704315, -0.01682884432375431, -0.025827528908848763, -0.022892199456691742, 0.026606818661093712, 0.007465471979230642, 0.03281524032354355, 0.031201079487800598, -0.0008657546131871641, 0.13738316297531128, 0.0018248327542096376, -0.009218540973961353, -0.0024474647361785173, -0.020227467641234398, 0.031077351421117783, 0.060189880430698395, -0.06303505599498749, -0.00994676724076271, -0.017834855243563652, 0.036061760038137436, 0.0033691299613565207, 0.009528875350952148, -0.03820117563009262, 0.006358625832945108, 0.037544701248407364, -0.05148644372820854, -6.83593752910383e-05, -0.0031034855637699366, 0.06115911155939102, 0.030145134776830673, 0.0104660764336586, 0.0011502982815727592, -0.06078456714749336, -0.006246746983379126, -0.03355628252029419, -0.04856731370091438, -0.014312515035271645, -0.05450357124209404, 0.032670341432094574, -7.970200385898352e-06, 0.015713637694716454, -0.0072189318016171455, 0.031100979074835777, 0.08609770238399506, 0.011956159956753254, -0.0171575415879488, 0.027317101135849953, 0.07741738855838776, 0.010670607909560204, -0.02038286253809929, 0.021221572533249855, 0.03205067291855812, 0.0392036996781826, 0.012541214935481548, 0.007953839376568794, 0.07731812447309494, 0.04066770523786545, -0.06298860162496567, -0.32367733120918274, -0.005857372656464577, -0.016869602724909782, 0.011198072694242, -0.012378836050629616, 0.05579116940498352, 0.001660480396822095, -0.02243707701563835, -0.04330483824014664, 0.029146768152713776, 0.09581094235181808, 0.029516832903027534, 0.009249730966985226, 0.01678485795855522, 0.030280597507953644, -0.0061894492246210575, -0.030962983146309853, -0.049268171191215515, -0.009929856285452843, -0.02194800227880478, -0.023164188489317894, 0.029323995113372803, 0.038084037601947784, -0.007586689665913582, 0.02258497104048729, -0.014462456107139587, 0.1262279599905014, 0.03355592116713524, -0.03134233504533768, -0.017723185941576958, -0.06372367590665817, 0.056261397898197174, -0.048606324940919876, -0.2135174572467804, -0.02368858829140663, 0.004841814283281565, -0.05409780517220497, -0.007377631962299347, -0.04769878461956978, -0.03565695881843567, 0.0351240336894989, 0.0663456991314888, -0.08207367360591888, 0.009947394020855427, 0.002849181182682514, -0.037446074187755585, 0.0036272802390158176, 0.030388548970222473, 0.010294070467352867, 0.005769073963165283, 0.024018961936235428, -0.002780595328658819, 0.05401260033249855, 0.008132480084896088, -0.05587230622768402, 0.014422783628106117, -0.03824438527226448, 0.016165638342499733, -0.011223766952753067, -0.006488820072263479, 0.008229516446590424, 0.008915284648537636, 0.010723723098635674, -0.0157362949103117, 0.025246504694223404, -0.025596175342798233, -0.048255663365125656, 0.012867927551269531, 0.011437183246016502, -0.008630000054836273, -0.029385719448328018, 0.03386532515287399, -0.03486460819840431, -0.09601462632417679, -0.004307352472096682, -0.024830324575304985, -0.035120993852615356, -0.09108725935220718, 0.01266330573707819, -0.030125604942440987, 0.006538959685713053, -0.011615360155701637, -0.04084140062332153, 0.002062487415969372, 0.01963847316801548, 0.04779275879263878, -0.05624351650476456, -0.043773699551820755, -0.007711287122219801, -0.015392838045954704, 0.06325560808181763, -0.006338126957416534, -0.02436704933643341, -0.0466611422598362, 0.06388280540704727, 0.008422291837632656, -0.24446003139019012, -0.02903369627892971, 0.023793058469891548, -0.017923105508089066, -0.03852104768157005, 0.061023470014333725, 0.054627541452646255, 0.020115183666348457, -0.028279876336455345, 0.013864228501915932, -0.028132617473602295, 0.0241056177765131, -0.0076891714707016945, -0.011543062515556812, 0.02776789851486683, 0.01843688264489174, -0.010089480318129063, 0.016640232875943184, -0.04469158127903938, -0.06388337910175323, 0.053939469158649445, -0.008478207513689995, 0.13566195964813232, 0.01580488495528698, -0.042308490723371506, 0.010230498388409615, -0.04140084236860275, 0.0005520048434846103, 0.040624357759952545, -0.018905574455857277, 0.024904433637857437, -0.014172797091305256, 0.05454877391457558, 0.019952543079853058, 0.013177035376429558, 0.03888680040836334, 0.009684616699814796, -0.03750891238451004, -0.034615546464920044, -0.010757610201835632, 0.009575272910296917, -0.004945053718984127, 0.005130928009748459, -0.011052288115024567, 0.07931406795978546, -0.0579400397837162, -0.03338780999183655, -0.10767027735710144, -0.0034500611945986748, -0.008301261812448502, -0.025008419528603554, -0.01572723127901554, -0.004107918590307236, 0.0245215967297554, 0.02286512963473797, 0.0054572876542806625, -0.0046366434544324875, -0.05053483322262764, -0.0465499646961689, -0.05590483173727989, -0.009710955433547497, -0.04318055883049965, -0.04564640671014786, 0.02367853932082653, 0.03667395934462547]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>failure_to_transfer_existing_services</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>['Improvement needed: The entire customer service regime and experience\nReason for given NPS: Customer service is poor. The call center is not responsive. I waited for 6+ months for a response to transfer my customer details for Sky TV from Vodafone TV to Sky TV. It has never happened. I have up and now subscribe to Sky Now and have missed the opportunity to be transferred properly to the products I have asked for. I have also had my broadband plan intermittently cancelled when I have upgraded my plan. I have never had a good customer experience.']</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>[-0.021386122331023216, -0.09014119952917099, 0.01810222864151001, -0.021794790402054787, -0.043850429356098175, -0.04331075772643089, -0.03037947602570057, 0.01365156751126051, 0.02918230928480625, -0.020019611343741417, 0.0379721038043499, -0.04809580370783806, 0.027376234531402588, -0.033948864787817, -0.010889098979532719, 0.027828598394989967, 0.01943245343863964, 0.006846444681286812, -0.021082250401377678, -0.005007924512028694, 0.0029452836606651545, -0.007666654884815216, -0.04640784114599228, 0.0549793615937233, -0.06305154412984848, 0.07641363888978958, -0.025868773460388184, -0.011875533498823643, -0.11352454870939255, -0.13137789070606232, -0.04005195200443268, -0.08033367246389389, -0.143911212682724, 0.006132626440376043, 0.11275336891412735, 0.007684940937906504, 0.009332929737865925, 0.005599552765488625, 0.030877508223056793, 0.07184216380119324, 0.03287108987569809, 0.014771604910492897, -0.07206977158784866, 0.005818328820168972, -0.010621120221912861, -0.06608263403177261, 0.005384878255426884, 0.07513558864593506, 0.11332493275403976, -0.060438286513090134, 0.04702029004693031, 0.05053769052028656, -0.012904856353998184, 0.05405275523662567, -0.03266694396734238, 0.114867202937603, 0.07392138242721558, 0.06659042090177536, 0.027501046657562256, 0.0176252294331789, 0.02676987275481224, -0.0043477159924805164, -0.17656324803829193, 0.04248480498790741, 0.018276700749993324, 0.04480602964758873, 0.008362693712115288, -0.007247721776366234, 0.01223338209092617, -0.004671855829656124, -0.08664773404598236, -0.03475956246256828, -0.030132722109556198, 0.14127203822135925, 0.04031345248222351, 0.03172944858670235, 0.013498318381607533, 0.015425187535583973, -0.007781296037137508, 0.026290997862815857, -0.0027258251793682575, -0.0396806076169014, -0.032931048423051834, 0.057432468980550766, -0.08059559017419815, 0.027507571503520012, -0.007219878491014242, 0.024777987971901894, 0.05566110834479332, 0.023155653849244118, 0.006816694512963295, -0.00045391012099571526, 0.06107628345489502, 0.032188139855861664, -0.04758918657898903, 0.009576178155839443, 0.002043949905782938, -0.009849470108747482, -0.08626999706029892, 0.33530327677726746, -0.022126639261841774, 0.016570040956139565, -0.015386841259896755, 0.05233781039714813, 0.029070043936371803, 0.011735208332538605, -0.06119518727064133, -0.04425780847668648, -0.014792757108807564, 0.010514864698052406, -0.04116346314549446, -0.013966789469122887, 0.08081364631652832, -0.041297413408756256, 0.004848994314670563, 0.03994257003068924, -0.04615475609898567, 0.0011301866034045815, -0.04365112632513046, -1.3491929166775662e-05, -0.030034326016902924, 0.019739311188459396, 0.06416283547878265, -0.02076478861272335, -0.029535381123423576, -0.023244470357894897, -0.012155461125075817, 0.0824291929602623, 0.033033374696969986, 0.017870232462882996, 0.011382094584405422, 0.032693345099687576, -0.09251965582370758, -0.006347848102450371, -0.013109457679092884, 0.00260126031935215, 0.012631343677639961, -0.02827386185526848, 0.01675579510629177, 0.05402863770723343, 0.021448250859975815, -0.04866883158683777, -0.03952774032950401, 0.011351579800248146, -0.011024927720427513, 0.042982179671525955, 0.017622124403715134, 0.042995911091566086, -0.010830597020685673, 0.06762474030256271, -0.017195332795381546, 0.03564836084842682, -0.005808251444250345, -0.017750728875398636, -0.029325949028134346, -0.004815808497369289, 0.0641801655292511, 0.004708524327725172, 0.00028558835037983954, 0.031141528859734535, 0.05265635624527931, -0.05406508967280388, -0.05636867508292198, 0.0970134437084198, -0.03030429780483246, -0.0613495297729969, -0.03642236068844795, -0.03736136481165886, -0.03593648970127106, 0.01862405426800251, -0.053641993552446365, -0.0028537209145724773, 0.026360517367720604, -0.03092091530561447, 0.05252460017800331, -0.06269948929548264, -0.032523080706596375, -0.019923750311136246, 0.008536959998309612, 0.018007081001996994, 0.02876460552215576, -0.03341984003782272, -0.019939778372645378, 0.003980675712227821, 0.03195498511195183, -0.01898564212024212, 0.0058341058902442455, -0.0766792818903923, 0.02038855291903019, -0.016393134370446205, -0.07432650029659271, 0.015438495203852654, -0.03310767933726311, -0.07890156656503677, 0.05460728332400322, 0.014511380344629288, -0.020920777693390846, 0.002389512024819851, 0.06689368188381195, -0.005591206252574921, 0.07351630926132202, 0.03166496008634567, -0.03302125632762909, 0.03805151954293251, -0.037959836423397064, -0.02134687267243862, -0.035464175045490265, 0.012958141043782234, 0.029996875673532486, 0.019469792023301125, -0.02646862342953682, -0.006135839503258467, 0.06549397110939026, 0.0691828653216362, -0.004763817880302668, 0.0007361355237662792, -0.047929149121046066, 0.05999232828617096, 0.0721745416522026, 0.00025733685470186174, 0.009416724555194378, 0.06630983203649521, 0.049312904477119446, -0.3068537712097168, 0.005028296262025833, -0.01599176600575447, -0.08130010217428207, -0.03665575385093689, 0.041122548282146454, 0.07392128556966782, -0.01938025839626789, -0.06463401764631271, 0.0820380225777626, 0.07091715186834335, 0.01739630289375782, 0.02180360071361065, 0.022781427949666977, 0.007476144470274448, -0.0393674299120903, -0.07019824534654617, 0.06155870854854584, -0.0020355714950710535, -0.0010599814122542739, -0.03518437221646309, -0.025201674550771713, 0.024557843804359436, -0.029483050107955933, -0.0073012844659388065, -0.026753144338726997, 0.153664231300354, -0.019693374633789062, -0.029565881937742233, -0.029109738767147064, 0.025498639792203903, 0.07913098484277725, 0.006531061138957739, -0.09540443867444992, 0.03213289752602577, 0.043862923979759216, 0.03114178031682968, 0.06986125558614731, 0.048402488231658936, -0.020237183198332787, 0.017719179391860962, 0.02646927535533905, -0.028734559193253517, -0.03006167523562908, 0.06727001816034317, 0.008118623867630959, -0.02823583222925663, 0.021596809849143028, -0.0733618438243866, 0.008061866275966167, -0.02464304119348526, 0.026157133281230927, -0.001388669479638338, -0.010615835897624493, 0.016274791210889816, -0.002174639143049717, -0.01692596636712551, 0.018354786559939384, 0.030314991250634193, -0.02181582897901535, -0.03886706382036209, 0.018859492614865303, 0.02114182896912098, -0.06657276302576065, 0.08576066792011261, -0.06366220861673355, 0.020508049055933952, 0.033093392848968506, 0.00030757684726268053, 0.00839985255151987, -0.02505633980035782, 0.016438685357570648, -0.003246953012421727, 0.03603488951921463, -0.0243403110653162, 0.012203292921185493, -0.08070559799671173, 0.03981485962867737, -0.01175417099148035, -0.04643912985920906, -0.02736552618443966, -0.07416148483753204, 0.06275225430727005, -0.011186210438609123, 0.012812701053917408, 0.08682532608509064, 0.00903997477144003, 0.03407290205359459, -0.03090992011129856, -0.05820281431078911, -0.010127757675945759, -0.01898542419075966, -0.08220731467008591, 0.03966924175620079, 0.07674306631088257, -0.023078378289937973, -0.20462021231651306, -0.007484443951398134, 0.01374115515500307, -0.0372019037604332, -0.04000601917505264, 0.02519165724515915, 0.027377447113394737, 0.02716897241771221, -0.03809605538845062, -0.007679695263504982, -0.003633126150816679, -0.05987659469246864, 0.028412403538823128, -0.07143540680408478, 0.04700007289648056, 0.003590201959013939, 0.03722437843680382, -0.05011535808444023, -0.027247093617916107, -0.017798949033021927, -0.009729070588946342, 0.0036030884366482496, 0.11426879465579987, -0.006753988564014435, -0.015065005049109459, 0.06115550547838211, 0.007193328812718391, 0.00725601427257061, 0.023019451647996902, -0.00827996525913477, -0.03669794648885727, 0.031400129199028015, 0.015331669710576534, -0.03951122611761093, -0.018519751727581024, 0.0016651507467031479, 0.0315968282520771, -0.041942860931158066, 0.01800120435655117, -0.007066287100315094, -0.013315636664628983, 0.009509970434010029, -0.018622636795043945, 0.05216069892048836, 0.07835995405912399, -0.0047507211565971375, 0.000988938845694065, -0.041416291147470474, -0.01647530309855938, 0.0019812704995274544, 0.03287576138973236, -0.06585309654474258, 0.020452257245779037, 0.0049875411204993725, 0.014456631615757942, 0.026778947561979294, -0.020552879199385643, 0.0034740834962576628, -0.002633370691910386, -0.05244464427232742, 0.06188739091157913, -0.08175826817750931, 0.049822162836790085, -0.03814137354493141, 0.014978590421378613]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>allow_unlimited_calls_texts_limited_contacts</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Having an opportunity to upgrade the phone on a more affordable plan. In Australia, the phone is almost free if you have a contract.\n\nHaving the best deal available automatically, rather than following up with Vodaphone to get an upgrade to a plan. \n\nHaving a plan for children which don't include internet. As most plans need to pay for roaming services to be able to get unlimited call and text. Maybe having a plan that's only $10 a month for a child to have an emergency phone. That can call and text parents or family members. Another idea from that is making a call log let's say 10 people which they can call and text unlimited.... There was something similar a while ago call buddy or mate rates I think you paid $5 a month and could call that specific person unlimited. Making it for family might work great.\nReason for given NPS: It seems for the past month. Anywhere I go I only have two bars of reception. But having technical support team is great."]</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>[-0.018511157482862473, -0.016674291342496872, 0.014123136177659035, -0.02970891073346138, -0.08685825020074844, -0.08101438730955124, -0.00381656177341938, 0.03486887738108635, 0.0016997483326122165, -0.04887259379029274, -0.03435639664530754, 0.0464695580303669, 0.03335392475128174, 0.02188175916671753, 0.02083466947078705, 0.042178913950920105, 0.05335021764039993, -0.015882274135947227, -0.08925289660692215, 0.030648689717054367, 0.0769106075167656, 0.025600900873541832, 0.010847406461834908, 0.023735973984003067, -0.021300997585058212, 0.003739018691703677, -0.034959446638822556, -0.0349215529859066, -0.038867320865392685, -0.10752404481172562, 0.034355536103248596, 0.02757830172777176, -0.015913818031549454, 0.028166241943836212, 0.008350069634616375, 0.009473048150539398, -0.04015052691102028, -0.04017389193177223, -0.03322046995162964, 0.08279857039451599, -0.006597391329705715, 0.012761744670569897, -0.02185307815670967, -0.02400238998234272, -0.03466377779841423, -0.10306747257709503, -0.034048691391944885, 0.02497238479554653, 0.028798146173357964, -0.0678182914853096, 0.020733172073960304, 0.04944378137588501, 0.003802303923293948, -0.01741393841803074, 0.009067518636584282, 0.030075961723923683, 0.003893624059855938, 0.033612195402383804, 0.01373992208391428, 0.006701563019305468, 0.05227665230631828, 0.012002643197774887, -0.11883442848920822, 0.0679117813706398, -0.06144820153713226, 0.025195252150297165, 0.021818868815898895, 0.056211359798908234, 0.026943864300847054, -0.018189283087849617, -0.024797122925519943, 0.026714209467172623, -0.022796915844082832, 0.09364677965641022, 0.012296611443161964, 0.05939549207687378, -0.08092501014471054, 0.013551492244005203, 0.009012025780975819, 0.09759745746850967, -0.0006758551462553442, -0.08718021214008331, -0.004790265113115311, -0.027794551104307175, 0.01862410642206669, -0.04686461389064789, -0.023141173645853996, -0.02915281616151333, -0.026350481435656548, -0.0036292579025030136, -0.02859053760766983, -0.05431324988603592, 0.04013078287243843, 0.04337598383426666, -0.1006508618593216, 0.009262887760996819, 0.03622573986649513, 0.04420741647481918, -0.1480376273393631, 0.3345400094985962, -0.023351620882749557, 0.018575333058834076, -0.009355018846690655, 0.012530448846518993, -0.01695813611149788, 0.02770291455090046, -0.04856421798467636, -0.02760056033730507, -0.0190576184540987, -0.004351858049631119, 0.003407958894968033, -0.07140792161226273, -0.007557251024991274, -0.008774137124419212, 0.011039870791137218, 0.049976639449596405, 0.011806979775428772, -0.0569944828748703, -0.016771480441093445, -0.049558479338884354, -0.0395452082157135, 0.031813547015190125, 0.011626019142568111, 0.02836310863494873, 0.060301464051008224, 0.0003956642758566886, 0.03281369432806969, 0.10466384142637253, 0.018465252593159676, 0.047546759247779846, 0.024800172075629234, -0.019977495074272156, -0.031046243384480476, -0.003000294789671898, -0.020576773211359978, -0.0046096071600914, 0.01857762038707733, 0.019709700718522072, 0.0625772774219513, 0.04562349244952202, -0.005905785132199526, -0.14145582914352417, 0.0008993820520117879, -0.010869831778109074, 0.06049482524394989, 0.07547589391469955, -0.01334953773766756, 0.04723440483212471, -0.05137212574481964, -0.014569105580449104, 0.0028118430636823177, 0.03468652814626694, 0.04910346865653992, -0.03249949589371681, 0.001997973071411252, 0.0030660820193588734, 0.07277451455593109, 0.033250484615564346, -0.041662417352199554, 0.031032590195536613, 0.04027920588850975, 0.004385163076221943, 0.014646118506789207, 0.10748813301324844, -0.021737221628427505, -0.09428229182958603, -0.03825417906045914, 0.016330135986208916, -0.06289159506559372, -0.03275427967309952, -0.028815284371376038, -0.004527323879301548, 0.047232694923877716, -0.008912086486816406, 0.03407318890094757, 0.017743831500411034, -0.05230414867401123, 0.013721528463065624, -0.06669019907712936, 0.050055816769599915, -0.0423196405172348, -0.012449966743588448, 0.0023199564311653376, 0.013881443999707699, -0.0015464609023183584, -0.03922409191727638, -0.026006978005170822, -0.023164719343185425, 0.08960854262113571, -0.0454634428024292, -0.10602696985006332, 0.017679275944828987, 0.0022711383644491434, -0.058923956006765366, -0.08635592460632324, -0.014026498422026634, 0.026550985872745514, 0.022486884146928787, -0.009466431103646755, -0.024807097390294075, 0.11492806673049927, 0.00798130501061678, -0.11793944239616394, 0.0483112670481205, 0.026779843494296074, 0.015946269035339355, -0.017968278378248215, -0.0096100689843297, 0.04249601438641548, -0.028105340898036957, 0.013266846537590027, -0.01775461621582508, 0.0958080142736435, -0.01100874412804842, -0.05110090970993042, 0.03960118070244789, -0.0390174500644207, 0.07422874867916107, 0.020018644630908966, -0.06322883814573288, 0.02823243848979473, 0.047242358326911926, -0.007035006303340197, -0.2830098569393158, -0.004961288068443537, 0.006332967430353165, -0.02079862728714943, -0.07086578756570816, -0.0068097831681370735, 0.025590822100639343, -0.08413691073656082, -0.0012561982730403543, 0.05868405103683472, 0.04316980391740799, 0.020472953096032143, -0.04122522845864296, 0.011717990972101688, 0.00022016647562850267, -0.004505080636590719, -0.07959528267383575, 0.015652259811758995, -0.006304389797151089, 0.027978574857115746, 0.005032736342400312, -0.02531314082443714, -0.002308400347828865, -0.040613431483507156, 0.036481257528066635, 0.03681511431932449, 0.15456800162792206, -0.005600588396191597, -0.027300577610731125, -0.02073156274855137, 0.07523547112941742, 0.023899612948298454, -0.031747493892908096, -0.07570391893386841, -0.020499132573604584, 0.04615962877869606, -0.0706341415643692, 0.04493257775902748, 0.041081130504608154, 0.008918692357838154, -0.029164310544729233, 0.0569269172847271, -0.010131035931408405, -0.11125390976667404, 0.03692204877734184, -0.03722362965345383, -0.0016259761760011315, 0.005619316827505827, -0.03990359604358673, -0.016243843361735344, 0.0037730822805315256, 0.0234209056943655, 0.047418128699064255, 0.038555435836315155, 0.07499063014984131, -0.01656610704958439, -0.04197501391172409, 0.021096525713801384, -0.019161047413945198, 0.012109176255762577, -0.05169985443353653, -0.03078637458384037, -0.016769051551818848, 0.005795198958367109, 0.04654799401760101, 2.6748779418994673e-05, 0.037273988127708435, -0.012776176445186138, -0.01949581503868103, 0.008509506471455097, -0.03205562382936478, 0.03523413836956024, -0.012199493125081062, -0.015002481639385223, -0.05828498303890228, 0.0003382365975994617, 0.051373161375522614, -0.015586311928927898, -0.06036681681871414, -0.05997316539287567, 0.027396127581596375, 0.009024000726640224, 0.01824873313307762, 0.014751818962395191, -0.0327032096683979, 0.03303447365760803, 0.06333179771900177, 0.07415374368429184, -0.019535567611455917, -0.021977053955197334, -0.037185002118349075, 0.035534411668777466, -0.03883480653166771, 0.05465123429894447, 0.12350233644247055, -0.060791611671447754, -0.1972780078649521, -0.05509278178215027, -0.01391337625682354, -0.013051047921180725, 0.0025635669007897377, 0.08315040916204453, 0.058073990046978, 0.017986109480261803, -0.14235395193099976, 0.007558302488178015, -0.06524629145860672, 0.059734977781772614, -0.00020632651285268366, 0.02855604514479637, 0.036904048174619675, -0.0067725833505392075, 0.04407469928264618, -0.0074190301820635796, -0.03128174692392349, -0.012163590639829636, 0.031510524451732635, 0.004862329922616482, 0.13085640966892242, -0.009045406244695187, -0.021302511915564537, 0.07144813239574432, 0.030600879341363907, 0.009183472022414207, -0.025766320526599884, -0.04896809905767441, -0.013508777134120464, -0.024716226384043694, 0.022667882964015007, -0.04781562089920044, 0.051679253578186035, -0.004526149015873671, 0.04450421780347824, -0.022738829255104065, 0.02332664094865322, -0.012026835232973099, -0.04394406080245972, 0.018701691180467606, -0.07915467768907547, 0.02010016143321991, 0.04516119509935379, -0.026506494730710983, -0.02989744395017624, 0.06515797227621078, 0.0013786698691546917, 0.025184251368045807, -0.03440123423933983, -0.02918066456913948, 0.039739206433296204, 0.03423802927136421, 0.04925858601927757, 0.05835894122719765, -0.022128576412796974, 0.06075148284435272, -8.848572906572372e-05, 0.0002907793677877635, 0.03580904006958008, -0.03134321793913841, 0.020772967487573624, 0.0332079753279686, 0.05662193149328232]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>desire_current_best_available_plan_upgrades</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Having an opportunity to upgrade the phone on a more affordable plan. In Australia, the phone is almost free if you have a contract.\n\nHaving the best deal available automatically, rather than following up with Vodaphone to get an upgrade to a plan. \n\nHaving a plan for children which don't include internet. As most plans need to pay for roaming services to be able to get unlimited call and text. Maybe having a plan that's only $10 a month for a child to have an emergency phone. That can call and text parents or family members. Another idea from that is making a call log let's say 10 people which they can call and text unlimited.... There was something similar a while ago call buddy or mate rates I think you paid $5 a month and could call that specific person unlimited. Making it for family might work great.\nReason for given NPS: It seems for the past month. Anywhere I go I only have two bars of reception. But having technical support team is great."]</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>[-0.059118688106536865, -0.0599760003387928, 0.04340092092752457, 0.006861527916043997, -0.015600031241774559, 0.025984162464737892, -0.07563072443008423, 0.03371234983205795, -0.010470911860466003, 0.012889516539871693, 0.03439702093601227, 0.0018515512347221375, 0.01294698752462864, -0.007203095126897097, 0.007113938219845295, 0.04383394494652748, 0.04668213054537773, -0.06955204904079437, -0.036021292209625244, 0.005776330828666687, 0.04967675358057022, -0.06298066675662994, -0.01172350998967886, 0.02199621871113777, 0.01878584548830986, -0.007967052981257439, -0.027386028319597244, -0.0037025308702141047, -0.0412580668926239, -0.11570918560028076, -0.017488176003098488, -0.013405682519078255, 0.005929430015385151, -0.01539883017539978, -0.0204884335398674, 0.010116800665855408, -0.012240217067301273, 0.04318085312843323, -0.004026622511446476, 0.04831622168421745, -0.027465373277664185, 0.059671614319086075, -0.1333923637866974, -0.011440837755799294, -0.024672701954841614, -0.00809551402926445, 0.04045792669057846, -0.0035398569889366627, 0.055806998163461685, -0.011337551288306713, 0.05177529156208038, 0.00045439921086654067, -0.04099082946777344, 0.0064722769893705845, 0.023617364466190338, 0.053859956562519073, 0.011924132704734802, 0.05899977311491966, -0.004045458044856787, 0.03129136562347412, 0.023747630417346954, 0.02763897180557251, -0.14742715656757355, 0.018173763528466225, -0.07490408420562744, -0.010398028418421745, -0.03236743435263634, -0.07525443285703659, -0.0030596593860536814, 0.059932492673397064, 0.009212114848196507, -0.011356239207088947, 0.020696062594652176, 0.02856116183102131, 0.021321771666407585, 0.01574406586587429, 0.026469789445400238, 0.01709091290831566, 0.016072390601038933, 0.02241990529000759, -0.017345372587442398, 0.026068320497870445, -0.028619633987545967, -0.011345496401190758, -0.003775162622332573, -0.05256952717900276, 0.01157086156308651, 0.07361479848623276, 0.05684370920062065, 0.04310808703303337, 0.006692924071103334, -0.049055445939302444, 0.008528660982847214, -0.009680085815489292, -0.04300007224082947, 0.04698411002755165, -0.004083376843482256, -0.007619874086230993, -0.06313293427228928, 0.400022029876709, -0.011923503130674362, 0.01901170238852501, 0.021758005023002625, -0.017207397148013115, 0.02573457919061184, -0.03914311155676842, -0.009237570688128471, -0.00026550237089395523, -0.006233030930161476, -0.024986589327454567, -0.047911789268255234, -0.026760194450616837, 0.04264397546648979, 0.0046788956969976425, 0.00943143293261528, 0.039341434836387634, 0.031043600291013718, -0.04175017401576042, 0.001031514024361968, -0.01814427226781845, -0.03924088552594185, 0.013704990036785603, 0.06330645829439163, -0.01388135552406311, -0.05832623690366745, -0.030459532514214516, 0.02041732892394066, 0.054546162486076355, -0.01866663061082363, 0.04240661486983299, 0.03854628652334213, 0.03935444355010986, -0.02366311103105545, 0.010749580338597298, -0.003216196782886982, -0.01153965387493372, 0.04073426499962807, 0.0007773319375701249, 0.020608244463801384, 0.005231190472841263, -0.04266166687011719, -0.032086506485939026, 0.055493567138910294, -0.12206435948610306, 0.021747764199972153, 0.1333673745393753, -0.013537019491195679, 0.06137672811746597, -0.013012709096074104, -0.04757525026798248, -0.024947263300418854, 0.025961635634303093, 0.04651344567537308, -0.05943617597222328, 0.009204625152051449, 0.019948353990912437, -0.018172234296798706, 0.004448000807315111, -0.046798042953014374, 0.02431483007967472, 0.04695654660463333, 0.0027505019679665565, -0.0671965479850769, 0.05431174114346504, -0.023297255858778954, -0.09961892664432526, -0.06322764605283737, -0.009373310953378677, -0.032043684273958206, 0.040267426520586014, -0.03975796699523926, 0.03986184671521187, -0.047912292182445526, 0.029564576223492622, 0.09323178231716156, 0.007303406018763781, -0.0436394065618515, -0.025567669421434402, -0.020548317581415176, -0.0340762622654438, 0.0008844747208058834, -0.05299898236989975, -0.07362491637468338, -0.023055879399180412, 0.01499231904745102, -0.03544505313038826, 0.02762817218899727, -0.012847362086176872, -0.0039401366375386715, -0.026648476719856262, -0.058175329118967056, 0.023167340084910393, 0.018364159390330315, 0.040156640112400055, 0.02185763791203499, -0.008342168293893337, -0.024851111695170403, 0.04969292879104614, -0.00926472432911396, -0.018561938777565956, 0.03447546064853668, -0.023352837190032005, -0.049597933888435364, -0.03289834037423134, 0.004498607479035854, -0.019823331385850906, -0.02670810930430889, 0.009998987428843975, 0.11158344894647598, -0.0016875640721991658, -0.027124973013997078, -0.009231140837073326, 0.14027243852615356, 0.05604036897420883, -0.055941905826330185, -0.010775497183203697, -0.06259828805923462, -0.0237673819065094, 0.03851701691746712, 0.00023194453387986869, 0.07014835625886917, 0.0986306220293045, 0.0212407149374485, -0.3061589300632477, 0.06185100972652435, -0.02156224474310875, -0.0337870791554451, 0.018490493297576904, -0.08741515874862671, 0.04851434752345085, -0.040091514587402344, -0.004691705573350191, 0.07897128909826279, 0.041284799575805664, -0.055258508771657944, 0.046317506581544876, 0.021908815950155258, 0.051337942481040955, -0.04085351154208183, 0.026393337175250053, -0.01507982611656189, 0.006505516357719898, -0.008814720436930656, 0.03899625688791275, 0.047286052256822586, 0.02036874368786812, -0.07753773033618927, 0.004443789832293987, -0.0038446125108748674, 0.1309664100408554, -0.04300817474722862, -0.048550140112638474, -0.00922311283648014, 0.04863995686173439, 0.05059482157230377, -0.050107441842556, -0.0696951225399971, 0.04958746209740639, 0.0020284492056816816, 0.012896809726953506, -0.00540713407099247, 0.009841874241828918, -0.00531633198261261, 0.03801519423723221, 0.040078695863485336, -0.033709265291690826, -0.07480943948030472, -0.047086454927921295, -0.05776742473244667, 0.024353574961423874, 0.03969818726181984, 0.022427434101700783, 0.02418009750545025, 0.021566851064562798, 0.01755211316049099, 0.024003515020012856, -0.04573832079768181, 0.06233604624867439, -0.017151134088635445, -0.06292365491390228, 0.0020955135114490986, -0.006741818506270647, 0.039595939218997955, -0.0315202921628952, -0.01056437287479639, -0.014965172857046127, -0.02920479327440262, 0.05777638778090477, -0.08781424164772034, 0.03155456855893135, 0.005761703010648489, -0.041922181844711304, 0.03204983100295067, -0.022992638871073723, -0.07990896701812744, 0.0029300390742719173, 0.010456172749400139, 0.011890302412211895, -0.012057610787451267, 0.02353491075336933, 0.008868626318871975, -0.007785026449710131, -0.06038110703229904, 0.005493934731930494, -0.04437001794576645, -0.006314449943602085, -0.030120130628347397, -0.027544479817152023, 0.045745447278022766, 0.014993027783930302, 0.0225991141051054, -0.05467255041003227, 0.03329191356897354, -0.013143564574420452, -0.04525845870375633, 0.009065685793757439, -0.061554204672575, 0.1006775051355362, 0.0164371095597744, -0.2397862821817398, 0.00412183441221714, 0.0143499206751585, -0.06702066957950592, -0.01619688980281353, 0.02086750417947769, 0.02386646904051304, 0.02327091433107853, -0.07550393044948578, 0.00982564315199852, -0.017575887963175774, 0.06302014738321304, -0.016665248200297356, -0.003314764704555273, 0.001303791650570929, -0.018157625570893288, 0.09893709421157837, -0.03326508775353432, 0.0266459621489048, -0.03933548182249069, 0.030341917648911476, -0.008425148203969002, 0.16147162020206451, 0.025557398796081543, 0.02451612986624241, 0.0031788835767656565, 0.0011103411670774221, 0.011646722443401814, -0.05840427055954933, -0.017965970560908318, -0.012145050801336765, 0.021288253366947174, 0.009434288367629051, -0.00801061186939478, -0.002420851495116949, 0.11605002731084824, 0.0032563558779656887, -0.014885291457176208, -0.009951097890734673, 0.022259769961237907, -0.03455272316932678, 0.0719405859708786, -0.04640674218535423, 0.10172351449728012, 0.10021813958883286, -0.04682648181915283, -0.01737396791577339, 0.03823747858405113, -0.0376872755587101, -0.028678473085165024, -0.030469724908471107, -0.01983119733631611, 0.0037284858990460634, -0.02126060612499714, 0.009568420238792896, 0.03794790431857109, -0.004485718440264463, -0.030859775841236115, -0.013268751092255116, 0.014711677096784115, 0.03998902812600136, 0.017329968512058258, 0.06679518520832062, 0.017288031056523323, 0.005445987917482853]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>poor_guidance_on_roaming_charges_and_plans</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>['Reason for given NPS: Struggle with the one app. Not very user friendly. Went looking for info on roaming for cell info not clear and concise. Site would suggest looking at your plan went to one app couldn’t find info on plan. Tried online help spent 2 hours watching some dots blink at me. Ended up having to ring.']</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>[-0.00837305560708046, -0.039163146167993546, 0.030840495601296425, -0.005100857932120562, -0.001595336594618857, -0.08757423609495163, -0.019974512979388237, 0.04977484419941902, 0.04234413802623749, -0.013509288430213928, 0.0294494666159153, 0.01987316831946373, 0.030430443584918976, 0.05492601543664932, 0.015227003954350948, 0.016963284462690353, -0.005903368815779686, -0.07642263174057007, 0.00448120990768075, 0.041760653257369995, 0.07838143408298492, -0.04874427244067192, -0.0084595438092947, 0.006097042467445135, -0.0017637450946494937, 0.0498964749276638, -0.0033038859255611897, -0.0029433800373226404, -0.04132738336920738, -0.11726632714271545, 0.02408994548022747, -0.030112415552139282, -0.08274254202842712, 0.03702128678560257, -0.013866085559129715, 0.018531380221247673, -0.024039501324295998, -0.0027868784964084625, 0.036956146359443665, 0.04557546228170395, -0.016512950882315636, 0.07192292809486389, -0.03746617212891579, 0.006009924225509167, -0.02825385332107544, -0.0400824099779129, -0.004925272893160582, 0.021072816103696823, 0.007902364246547222, -0.050934284925460815, -0.007950261235237122, 0.018262231722474098, -0.03059985861182213, -0.02315070480108261, 0.031587809324264526, 0.02087307535111904, 0.0435330756008625, 0.034081313759088516, 0.037664320319890976, -0.011393982917070389, 0.019118065014481544, -0.019651731476187706, -0.1827322542667389, 0.02999734878540039, -0.022029783576726913, 0.008523101918399334, -0.03389810398221016, -0.004584089852869511, 0.0010701293358579278, -0.0009735751082189381, -0.018235737457871437, -0.025288183242082596, -0.019544774666428566, 0.048485781997442245, 0.035307690501213074, 0.0028035473078489304, -0.013496528379619122, 0.0792870819568634, 0.014803766272962093, 0.0376814603805542, 0.0422174446284771, -0.0166474562138319, -0.0007983006071299314, 0.013582395389676094, 0.05957482010126114, -0.06768660247325897, 0.023324742913246155, 0.014586053788661957, 0.025957630947232246, -0.01862240768969059, 0.06643721461296082, -0.05343668535351753, 0.022098645567893982, 0.03762655705213547, -0.08342708647251129, 0.014734677970409393, 0.060551319271326065, 0.03885156288743019, -0.1571209877729416, 0.393130898475647, 0.041807711124420166, 0.03637741506099701, 0.048170484602451324, 0.0622410848736763, -0.026058586314320564, -0.0715772956609726, -0.06487539410591125, -0.014867582358419895, -0.01201967429369688, -0.01131890807300806, -0.05938700586557388, -0.07059841603040695, 0.005772314500063658, -0.03472205623984337, -0.007245062384754419, 0.08291907608509064, -0.022000664845108986, -0.006992347538471222, -0.02423141337931156, 0.008824779652059078, -0.04890497028827667, -0.07100101560354233, 0.05617527291178703, 0.03270808979868889, 0.004066247493028641, 0.012396261096000671, 0.020127270370721817, 0.10082545131444931, -0.029729682952165604, 0.06418750435113907, 0.018163608387112617, -0.04804140701889992, 0.0012703636894002557, 0.04836892709136009, 0.025448014959692955, -0.024231422692537308, 0.018833354115486145, 0.008414698764681816, 0.0325080007314682, 0.02202747017145157, -0.04505876451730728, -0.04971024766564369, -0.024355709552764893, -0.055823009461164474, 0.027099762111902237, 0.08328676968812943, -0.0011585976462811232, 0.03473779559135437, 0.014775514602661133, -0.06150663644075394, -0.022260364145040512, -0.02038450725376606, 0.0690266564488411, -0.0791575014591217, -0.02837500534951687, -0.010251865722239017, -0.014314830303192139, 0.038341112434864044, -0.05688367411494255, 0.007963737472891808, 0.06316608935594559, -0.024257617071270943, -0.08493077009916306, 0.1225438266992569, -0.011699399910867214, -0.03142707794904709, -0.022523539140820503, -0.0004485836543608457, -0.05872096121311188, -0.007642581593245268, -0.08314132690429688, 0.009812905453145504, -0.008243299089372158, 0.014006507582962513, 0.08846870809793472, -0.028496088460087776, -0.07620575278997421, 0.03456617891788483, -0.06203693524003029, -0.03650757670402527, 0.024020904675126076, -0.033812250941991806, -0.015286688692867756, -0.022498860955238342, 0.014394309371709824, -0.02516467310488224, -0.0531313419342041, -0.006281211972236633, 0.02955498732626438, -0.03910968452692032, -0.09279599040746689, -0.0381888784468174, -0.008854659274220467, -0.010880528017878532, -0.02790829911828041, -0.008436910808086395, -0.039476294070482254, -0.022849295288324356, 0.03238978981971741, -0.011251458898186684, 0.10683099925518036, -0.03755435347557068, -0.025507381185889244, 0.05078032240271568, -0.016190800815820694, 0.047702040523290634, 0.012230033986270428, -0.020744161680340767, 0.02359602227807045, -0.02492549642920494, 0.00026390852872282267, 0.030926568433642387, 0.07337962090969086, -0.016295986250042915, -0.001413419027812779, 0.00926511362195015, 0.0009020335273817182, 0.05718977376818657, -0.0073018670082092285, 0.010980688966810703, -0.02611595205962658, 0.02363869547843933, 0.04256979003548622, -0.26758211851119995, -0.012857870198786259, -0.011782258749008179, 0.03432368487119675, -0.10391731560230255, -0.008421001955866814, 0.014331314712762833, 0.006683031562715769, -1.9531840734998696e-05, 0.08872955292463303, 0.03887259215116501, -0.024444054812192917, 0.0134187126532197, 0.007266453932970762, 0.00017649968503974378, -0.002933687064796686, 0.01638265885412693, 0.05410018563270569, 0.0034594079479575157, 0.04400854557752609, -0.0012811857741326094, 0.005498902406543493, -0.043242860585451126, -0.06974399834871292, 0.01361929066479206, 0.03670194745063782, 0.1802125722169876, -0.04415568336844444, -0.015116308815777302, -0.0398142971098423, 0.08371300250291824, 0.06307071447372437, 0.003875511698424816, -0.07235056161880493, -0.03197219595313072, 0.007450731471180916, 0.025752786546945572, 0.0030783091206103563, 0.022968798875808716, -0.07325562089681625, -0.011505190283060074, 0.0563138872385025, -0.049251627177000046, -0.020746508613228798, -0.00955404806882143, 0.022297469899058342, -0.05352800711989403, 0.04775208234786987, -0.033935412764549255, 0.013842436484992504, -0.01634829118847847, -0.03368893265724182, 0.009202709421515465, -0.01929469406604767, 0.06230376660823822, -0.01346314512193203, -0.06324831396341324, 0.046516552567481995, -0.07664988189935684, 0.015406089834868908, -0.0069204773753881454, -0.01608002372086048, 0.08624466508626938, -0.05113343894481659, 0.04826151952147484, -0.009383535012602806, 0.0462125688791275, 0.01267287228256464, -0.03045256808400154, 0.06087701395153999, -0.008800245821475983, 0.04881907254457474, 0.0002585303445812315, -0.05182527005672455, -0.049465689808130264, -0.021738450974225998, 0.00172805308829993, 0.025452328845858574, -0.047211773693561554, -0.025900760665535927, 0.021491630002856255, 0.05568348243832588, 0.024536851793527603, -0.06257815659046173, -0.027068108320236206, 0.004286360926926136, 0.0009123976924456656, 0.00597405293956399, 0.010642068460583687, -0.04525583237409592, -0.07234526425600052, 8.995858661364764e-05, -0.01717940904200077, 0.010212711058557034, 0.11038174480199814, 0.014298995956778526, -0.22494831681251526, 0.014453214593231678, 0.008680564351379871, -0.012590992264449596, -0.03342273458838463, 0.043679963797330856, 0.033401940017938614, -0.020710622891783714, -0.05528554692864418, 7.623944838996977e-05, 0.04679422080516815, 0.0034218362998217344, -0.047248829156160355, -0.009472932666540146, 0.06158875301480293, -0.0034734192304313183, 0.05021754652261734, 0.029475294053554535, 0.012715732678771019, -0.014675155282020569, 0.012618066743016243, 0.03024482913315296, 0.1617083102464676, -0.0019427256193012, -0.05206204205751419, 0.0008386218105442822, -0.008682933636009693, 0.04571939632296562, 0.054883599281311035, 0.02084210142493248, -0.08387374877929688, -0.016980299726128578, 0.02391224168241024, 0.005528406240046024, 0.02085784263908863, -0.03991826996207237, 0.013806341215968132, -0.05735639110207558, -0.011980141513049603, -0.01657905988395214, -0.030539274215698242, 0.03490115702152252, 0.06733186542987823, 0.009071825072169304, 0.05921978875994682, 0.007444193121045828, -0.012883712537586689, 0.024235524237155914, 0.0280277281999588, 0.0551404170691967, -0.026827411726117134, -0.024622920900583267, 0.009852933697402477, 0.00830747652798891, 0.05664621293544769, 0.055965691804885864, -0.05232882499694824, -0.013905763626098633, -0.06956006586551666, 0.011005563661456108, 0.049992792308330536, -0.05223282799124718, 0.025954116135835648, -0.01606694981455803, 0.04638548940420151]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>lack_of_plan_information_accessibility</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>['Reason for given NPS: Struggle with the one app. Not very user friendly. Went looking for info on roaming for cell info not clear and concise. Site would suggest looking at your plan went to one app couldn’t find info on plan. Tried online help spent 2 hours watching some dots blink at me. Ended up having to ring.']</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>[-0.020362654700875282, -0.06348557770252228, -0.0006720194942317903, -0.006121339276432991, -0.016622450202703476, 0.041219502687454224, -0.026980236172676086, 0.027848612517118454, -0.035541556775569916, 0.004925520159304142, -0.021813586354255676, 0.049069665372371674, 0.06242549419403076, -0.013497912324965, 0.008541674353182316, 0.007505223620682955, -0.0270571019500494, -0.019668759778141975, -0.01157776452600956, 0.0532313771545887, 0.10092223435640335, 0.0010057413019239902, -0.026023034006357193, 0.05612373724579811, -0.016536129638552666, 0.022658439353108406, 0.014022575691342354, 0.02116704359650612, -0.049841392785310745, -0.10510893911123276, -0.0025688926689326763, -0.012159230187535286, 0.02016492746770382, -0.013848674483597279, 0.05405386537313461, -0.012208058498799801, -0.039536625146865845, 0.08691320568323135, -0.026089316233992577, 0.049757760018110275, -0.020834358409047127, 0.024820759892463684, -0.023492049425840378, -0.011557443998754025, -0.016329443082213402, -0.06186489388346672, -0.020633621141314507, -0.01863689161837101, 0.05139295011758804, -0.08657053858041763, -0.01339802797883749, 0.012509607709944248, -0.031363584101200104, -0.017995400354266167, 0.030614472925662994, 0.06854680180549622, 0.028873823583126068, -0.005776591133326292, 0.04081122949719429, 0.024323908612132072, 0.015994975343346596, 0.013172605074942112, -0.16488581895828247, 0.062462881207466125, -0.009778964333236217, 0.012415681965649128, -0.021036513149738312, -0.057271745055913925, 0.0328802727162838, -0.06258464604616165, 0.01843460649251938, -0.03419829532504082, -0.0023632764350622892, 0.07409556955099106, 0.05346083641052246, -0.014496659860014915, -0.0277584008872509, 0.02329285629093647, 0.04314687103033066, -0.022694028913974762, 0.00793661829084158, -0.01250204537063837, -0.039521340280771255, -0.0029808965045958757, -0.00898352824151516, -0.021702099591493607, -0.01959197409451008, 0.04324178397655487, 0.0445423349738121, -0.007249101530760527, -0.019943589344620705, -0.06544911861419678, 0.023781288415193558, 0.045259032398462296, -0.06451348215341568, 0.002675411058589816, 0.0199428740888834, -0.0009970777900889516, -0.10334382206201553, 0.39186879992485046, 0.000643027073238045, 0.0650777593255043, 0.024629531428217888, 0.0324869230389595, 0.03978665918111801, -0.037670500576496124, -0.03098471835255623, -0.036556534469127655, 0.009507449343800545, -0.007370911072939634, -0.028487710282206535, -0.04877886921167374, 0.03832544386386871, 0.01833426021039486, 0.057018425315618515, 0.04249871149659157, -0.004761917516589165, -0.0563255250453949, -0.01948867365717888, -0.019327055662870407, -0.07124581933021545, -0.014063266105949879, 0.0420113168656826, 0.04746725782752037, -0.047439463436603546, 0.018864896148443222, 0.01186498161405325, 0.057987477630376816, 0.040633801370859146, 0.061104968190193176, 0.05925079435110092, -0.005546720698475838, 0.004932536277920008, 0.001820458797737956, -0.0457010455429554, -0.02893669717013836, 0.020232586190104485, -0.011559599079191685, 0.040806856006383896, 0.013339999131858349, -0.05541657283902168, -0.02261737361550331, -0.02390638366341591, -0.024739157408475876, 0.017515964806079865, 0.12629081308841705, -0.0481424480676651, 0.058635905385017395, 0.0024193411227315664, -0.03362901136279106, -0.03538819029927254, -0.020790643990039825, 0.018306612968444824, -0.050269290804862976, -0.01807285100221634, -0.04106995463371277, -0.022340470924973488, 0.005774711724370718, 2.0919062535540434e-06, 0.054891202598810196, 0.061195045709609985, -0.04359661787748337, -0.05583950877189636, 0.06717626750469208, -0.012665343470871449, -0.03839566558599472, -0.05761277675628662, 0.0450170561671257, -0.019396580755710602, -0.05975274741649628, -0.015976546332240105, -0.006032103206962347, 0.007427032571285963, 0.004018469247967005, 0.11245564371347427, -0.028967557474970818, -0.03505849465727806, 0.03587495908141136, -0.03967459127306938, -0.025769969448447227, -0.008883659727871418, -0.06490258872509003, -0.014606854878365993, -0.026614053174853325, -0.03900659829378128, 0.003130420809611678, 0.016752295196056366, -0.0347474031150341, 0.03675050288438797, 0.010800782591104507, -0.04668714106082916, -0.0401013046503067, -0.03152765333652496, -0.062173161655664444, -0.05565299838781357, -0.02061881683766842, 0.01531355082988739, -0.03520159795880318, 0.01936795562505722, -0.03031889721751213, 0.061422813683748245, 0.010707663372159004, -0.07658345997333527, 0.0877469852566719, -0.06629372388124466, -0.02307848073542118, 0.017095185816287994, -0.01496878918260336, 0.057588234543800354, 0.00964391604065895, -0.011419330723583698, -0.005388158839195967, 0.06935368478298187, -0.011798382736742496, -0.026293044909834862, 0.02581757865846157, 0.0051901256665587425, 0.022584563121199608, 0.007758664898574352, 0.01958250254392624, 0.015780800953507423, 0.07966736704111099, 0.02491070330142975, -0.29828348755836487, 0.0070817237719893456, -0.019827984273433685, -0.01325951423496008, -0.15485166013240814, -0.03238020837306976, 0.03232651576399803, -0.018203046172857285, -0.03919614106416702, 0.11913125216960907, 0.053767457604408264, 0.0023356496822088957, -0.00827018916606903, 0.019400866702198982, -0.02038097009062767, -0.040028300136327744, 0.011845521628856659, 0.017440779134631157, 0.002125726779922843, 0.02123354934155941, 0.03329093009233475, 0.012217915616929531, -0.02647733874619007, -0.04179299250245094, -0.031857334077358246, -0.01889985240995884, 0.20415166020393372, -0.06654558330774307, -0.00890242587774992, -0.025450287386775017, 0.022839181125164032, 0.10566921532154083, -0.07263042032718658, -0.10393951088190079, -0.00966536346822977, -0.009600711986422539, -0.04624253511428833, 0.013285696506500244, 0.02271418832242489, -0.055061012506484985, 1.0111296433024108e-05, 0.017308996990323067, -0.03284803777933121, -0.024665595963597298, -0.02408355474472046, -0.03607933223247528, 0.015043294988572598, 0.03476674109697342, -0.019254954531788826, 0.009966571815311909, 0.024298883974552155, 0.021580122411251068, 0.002294018166139722, 0.08558381348848343, 0.060457173734903336, 0.009119746275246143, -0.02553967572748661, 0.04330137372016907, -0.00012886665354017168, 0.028768351301550865, -0.019636090844869614, 0.005519750528037548, 0.057117968797683716, -0.02679034322500229, 0.016031600534915924, 0.03881188854575157, -0.012630662880837917, 0.003743387758731842, -0.0048217191360890865, 0.029924975708127022, -0.056200768798589706, 0.04192686080932617, 0.07071682065725327, 0.01839221827685833, -0.023390185087919235, -0.014597675763070583, 0.021980488672852516, 0.004529657773673534, 0.006706726271659136, -0.04192672297358513, -0.010218892246484756, 0.015527171082794666, 0.07056676596403122, -0.004721920471638441, 0.028039542958140373, 0.07965705543756485, -0.029261140152812004, -0.04420764371752739, -0.017796723172068596, 0.02043471857905388, 0.021029839292168617, -0.02702680230140686, 0.024740219116210938, -0.02762427181005478, 0.15603682398796082, -0.004191018640995026, -0.23516453802585602, -0.005437156651169062, 0.01929943822324276, -0.034471720457077026, 0.01986432634294033, 0.02804783172905445, 0.039630111306905746, -0.021689891815185547, -0.03712303563952446, -0.019017251208424568, 0.02114713378250599, -0.01199169922620058, -0.08598102629184723, -0.042034395039081573, -0.010875856503844261, 0.02584952302277088, 0.07984882593154907, -0.004037688951939344, -0.030710967257618904, -0.0646938607096672, 0.016301361843943596, 0.07890115678310394, 0.15632392466068268, -0.009884749539196491, -0.04327399283647537, -0.03996756672859192, 0.049067143350839615, 0.01884683035314083, 0.01815645582973957, 0.03943571448326111, -0.06529612839221954, -0.02650398015975952, 0.05439084395766258, 0.008774615824222565, 0.00016787555068731308, 0.02753198891878128, 0.05905788391828537, -0.040214311331510544, 0.014306342229247093, -0.031226256862282753, -0.022010844200849533, -0.005047252401709557, 0.021762803196907043, -0.004186378791928291, 0.06376665085554123, -0.014957095496356487, 0.030302053317427635, 0.002120204269886017, 0.025388816371560097, 0.002703228732571006, -0.058833926916122437, -0.02567996084690094, -0.04723454639315605, 0.0511772558093071, 0.048057690262794495, 0.005965870805084705, -0.009623724967241287, 0.016183998435735703, -0.029363857582211494, -0.013799258507788181, 0.022552458569407463, -0.02718651480972767, 0.026173118501901627, 0.025212306529283524, -0.013993841595947742]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>lack_of_consistency_across_communication_channels</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Communication between stores and online services. Also between chat and all of them, thw fact ypu don't keep notes on clients file is rather appalling also. \nHave spoken to 4 different people since signing up 3 weeks ago and each one has given me different information each time regarding the same matter.\nReason for given NPS: Had nothing but a muck around with you guys, I've switched over to a pay monthly plan. Was told by chat to human that I can go pick up phone from closest store just to wait for a confirmation email. Haven't had a email let alone heard from anyone. Spoke to chat again today and was given different information again. Most displeased."]</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>[-0.0036499749403446913, -0.05532832443714142, -0.031194081529974937, -0.04800530895590782, -0.016309436410665512, -0.061253055930137634, -0.06267064809799194, 0.018269820138812065, 0.0610235333442688, -0.013852142728865147, -0.010750146582722664, -0.04289530590176582, 0.055462367832660675, -0.003807279048487544, 0.06286147981882095, 0.0810345932841301, 0.02482287399470806, -0.014227150939404964, -0.010880520567297935, 0.01300191693007946, 0.04755382612347603, -0.0028866201173514128, 0.03485764563083649, 0.03675344958901405, -0.010601775720715523, 0.014776782132685184, -0.01979604735970497, -0.000781012000516057, -0.03624383732676506, -0.18262532353401184, 0.011081489734351635, -0.0074642798863351345, 0.009740564972162247, 0.006273139733821154, 0.051864173263311386, -0.04647606983780861, -0.025756483897566795, -0.0213856790214777, -0.060137126594781876, 0.05515723675489426, 0.005954126827418804, 0.02683357708156109, -0.013554000295698643, -0.04127880558371544, -0.021718231961131096, -0.08067196607589722, -0.007667172700166702, 0.06710021197795868, 0.042456310242414474, -0.07672817260026932, 0.008176729083061218, -0.021755078807473183, -0.010122395120561123, -0.018960434943437576, 0.020966151729226112, 0.08261819183826447, 0.037597980350255966, 0.11357235163450241, 0.020784549415111542, -0.014623369090259075, 0.020704912021756172, 0.047864045947790146, -0.1225765123963356, 0.06799332797527313, 0.03219328820705414, 0.006053507793694735, 0.008451482281088829, 0.019115779548883438, -0.00662912055850029, -0.004928977694362402, -0.006326662376523018, 0.006801678333431482, 0.013746973127126694, 0.05809641256928444, 0.05031288042664528, 0.006489644292742014, -0.0170679222792387, 0.015850385650992393, 0.013240424916148186, 0.04926476255059242, 0.003647349076345563, -0.04086427018046379, -0.0224441010504961, -0.027286352589726448, -0.03657088056206703, -0.052615027874708176, 0.004350960720330477, -0.007081726100295782, -0.04115825518965721, 0.0015622242353856564, -0.07803506404161453, 0.02635713666677475, 0.04277706518769264, 0.023644018918275833, -0.07395388185977936, 0.008201627992093563, -0.003898046212270856, -0.010355747304856777, -0.05975601449608803, 0.3724403977394104, -0.014527799561619759, 0.05004275217652321, 0.016326120123267174, 0.043184034526348114, 0.028344396501779556, -0.04334935173392296, -0.06528709083795547, -0.040795184671878815, -0.03207768127322197, 0.05339182913303375, -0.02788764052093029, -0.0691557452082634, 0.02349206805229187, -0.060254231095314026, 0.00029189622728154063, 0.084417924284935, 0.01875501312315464, 0.00027408890309743583, -0.0433727391064167, 0.001345143187791109, -0.022965610027313232, 0.02060396783053875, 0.04035790637135506, 0.008992807008326054, 0.03549801558256149, -0.0012851424980908632, 0.011645043268799782, 0.08270346373319626, 0.004225509241223335, 0.03576064482331276, 0.007226601708680391, 0.05155903473496437, 0.048293039202690125, -0.02161085605621338, -0.020767759531736374, 0.013985395431518555, -0.016540812328457832, -0.010852186940610409, 0.05911371856927872, 0.048789072781801224, -0.016081659123301506, -0.0666346549987793, 0.005051092244684696, 0.005029088351875544, -0.004891883581876755, 0.10104993730783463, -0.03810655698180199, 0.06035034731030464, -0.03852492943406105, 0.0011239342857152224, -0.025541281327605247, -0.03962092846632004, 0.00913356151431799, -0.02177152968943119, -0.008546297438442707, -0.013556680642068386, -0.0022843058686703444, 0.006921614054590464, -0.0007540762308053672, -0.02781529724597931, 0.05866016447544098, -0.022576410323381424, 0.020643580704927444, 0.1149023249745369, -0.032295629382133484, -0.02310243435204029, 0.004986126907169819, -0.018883371725678444, -0.014893434941768646, -0.032984185963869095, 0.00598726375028491, 0.008478556759655476, 0.04208103194832802, 0.007888581603765488, 0.006716348230838776, -0.06329165399074554, -0.08661799877882004, 0.016709838062524796, 0.016895946115255356, 0.029453633353114128, 0.04838971421122551, 0.01503126323223114, -0.004991995636373758, 0.06141268089413643, -0.024871602654457092, -0.06484634429216385, 0.008844757452607155, -0.020659858360886574, 0.06589687615633011, -0.009315047413110733, -0.059904519468545914, -0.0787772536277771, 0.010550212115049362, -0.02585948072373867, -0.032588522881269455, -0.02233702503144741, 0.03316519036889076, -0.023031415417790413, -0.02807442471385002, 0.007393680512905121, 0.061524149030447006, 0.03755570575594902, -0.03100738115608692, 0.018026983365416527, -0.06503333896398544, 0.022113749757409096, -0.0021057729609310627, -0.011372961103916168, 0.048681218177080154, 0.012849106453359127, -0.02663952112197876, -0.0514308400452137, 0.013337223790585995, 0.0025513218715786934, -0.04610922932624817, -0.011683506891131401, 0.04966452717781067, 0.08706061542034149, 0.012261389754712582, 0.06009058654308319, -0.03981500864028931, 0.08555252104997635, -0.0126918014138937, -0.32993370294570923, -0.01399556640535593, 0.03385036066174507, -0.032156769186258316, -0.011319398880004883, -0.017182156443595886, 0.033296626061201096, 0.036423154175281525, 0.015123441815376282, 0.08421577513217926, 0.030341239646077156, 0.0663912370800972, -0.03778628259897232, -0.0266595259308815, -0.032560981810092926, 0.03830374404788017, -0.037833742797374725, 0.07522827386856079, -0.021245962008833885, 0.013978485949337482, -0.05805392935872078, 0.024745086207985878, 0.014120773412287235, -0.07499150186777115, -0.003906851168721914, -0.012750816531479359, 0.1721474677324295, -0.027032215148210526, -0.01137327216565609, 0.03229080140590668, -0.00492198346182704, 0.07855445146560669, -0.012701457366347313, -0.05880407989025116, -0.00816315971314907, 0.09374573826789856, 0.020287226885557175, 0.052807725965976715, 0.04551935940980911, -0.008145306259393692, -0.028317691758275032, 0.03718327358365059, 0.011970074847340584, -0.06581107527017593, -0.03796776384115219, -0.02981542982161045, -0.05463435873389244, -0.02837393805384636, -0.09065146744251251, -0.0048206159844994545, 0.016321539878845215, 0.00023717318254057318, 0.021516960114240646, 0.024038422852754593, 0.0102369524538517, 0.0290822871029377, -0.02899503894150257, -0.007052179891616106, 0.004351341165602207, 0.005903735291212797, -0.011620573699474335, -0.007090374361723661, -0.007052760571241379, -0.015201732516288757, 0.06633882224559784, 0.004151578061282635, 0.021915728226304054, -0.005896498914808035, 0.04409348592162132, 0.058033835142850876, -0.02981252782046795, 0.07404708862304688, -0.024222413077950478, -0.009862653911113739, 0.00349497445859015, 0.01936114765703678, -0.01828794553875923, -0.012047289870679379, -0.03360636159777641, -0.012069969438016415, 0.0654011070728302, -0.013485335744917393, 0.07094751298427582, 0.014490731060504913, 0.037246547639369965, -0.015135593712329865, 0.00035170247429050505, 0.03246447816491127, 0.06312140822410583, 0.016780825331807137, 0.011058702133595943, 0.058325476944446564, -0.012439842335879803, -0.02191884070634842, 0.057142261415719986, -0.008216802962124348, -0.2495168298482895, -0.057370804250240326, 0.0028164894320070744, -0.00945997890084982, -0.047615282237529755, 0.03938793018460274, 0.04694760590791702, -0.031450673937797546, -0.10883384943008423, 0.00985141471028328, -0.030741140246391296, 0.0026551990304142237, -0.05184582993388176, -0.03628014400601387, 0.03209918364882469, 0.07716970145702362, 0.039713941514492035, -0.08247584849596024, -0.05520585924386978, -0.07122393697500229, 0.03252851963043213, 0.01777321845293045, 0.141945481300354, -0.028657611459493637, 0.0058845034800469875, 0.012757068499922752, -0.019486477598547935, 0.04262779653072357, 0.01998532935976982, 0.014869604259729385, -0.09662183374166489, -0.009026410058140755, 0.03077242150902748, 0.008875306695699692, -0.024665560573339462, 0.03876601159572601, 0.03596388176083565, -0.05466089025139809, 0.011502053588628769, -0.050691425800323486, 0.018748469650745392, 0.034978851675987244, -0.008486844599246979, -0.04661334306001663, 0.061148080974817276, 0.030089324340224266, -0.04031416028738022, -0.024106618016958237, 0.006599541287869215, -0.026186738163232803, -0.0933479517698288, -0.017376240342855453, 0.016632694751024246, 0.00852535292506218, 0.02169831655919552, 0.047503869980573654, -0.06501497328281403, 0.0075933984480798244, -0.04226066172122955, -0.01922985166311264, 0.006384376902133226, -0.09179426729679108, 0.01631670445203781, -0.03867502883076668, -0.02710353583097458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>need_for_clearer_data_overage_policies</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>['Improvement needed: The prepaid plans and monthly plans can be of better value but I don’t love that once data is maxed your still able to access the internet\nReason for given NPS: I think the credit bundles can be better value']</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>[-0.038190606981515884, -0.019131887704133987, 0.018212826922535896, -0.0710025206208229, 0.03771456331014633, -0.002775907749310136, -0.06322995573282242, 0.007554162293672562, 0.044452130794525146, 0.004989073146134615, 0.025066370144486427, 0.0012963366461917758, 0.043964873999357224, 0.04639746621251106, 0.008634503930807114, 0.023539947345852852, 0.05102240666747093, -0.02431994304060936, -0.036563366651535034, 0.024042198434472084, 0.04893551766872406, -0.026194225996732712, -0.031102489680051804, 0.009865290485322475, -0.05390813946723938, 0.01895091123878956, -0.02821164019405842, -0.07954142242670059, -0.08424269407987595, -0.15389417111873627, -0.031215647235512733, -0.05034796521067619, -0.021886827424168587, 0.028949739411473274, 0.05683410167694092, -0.02485848218202591, 0.047911614179611206, 0.0018665927927941084, -0.03689020499587059, 0.023195838555693626, 0.020846430212259293, 0.044822048395872116, -0.06640729308128357, 0.004041705746203661, -0.06172993406653404, -0.037160929292440414, -0.00911835115402937, -0.023230133578181267, 0.010644354857504368, 0.02465829811990261, -0.006054425612092018, 0.04656045511364937, -0.024042127653956413, 0.0029343615751713514, 0.052975330501794815, 0.05069452524185181, 0.06281978636980057, 0.07039596140384674, -0.005001128185540438, -0.012973910197615623, 0.04199913516640663, 0.016893809661269188, -0.10607737302780151, 0.00445964653044939, -0.006422978825867176, 0.02247089333832264, -0.0014038537628948689, -0.03950189799070358, 0.004070339724421501, 0.0012232083827257156, -0.06066276133060455, -0.050246741622686386, -0.025413963943719864, 0.09110995382070541, -0.012034344486892223, 0.004858505912125111, -0.025925444439053535, 0.010379635728895664, -0.004717920441180468, 0.010118916630744934, 0.015177205204963684, -0.01504326332360506, 0.051358409225940704, -0.012935803271830082, 0.013201064430177212, -0.09480835497379303, 0.00567531306296587, -0.0036124226171523333, 0.027097109705209732, 0.0013759809080511332, -0.0002046333538601175, -0.012205085717141628, 0.08854463696479797, 0.050752848386764526, -0.0458056703209877, 0.013875193893909454, -0.016065360978245735, 0.06585074961185455, -0.08817657828330994, 0.41951361298561096, -0.028825797140598297, 0.035959869623184204, 0.003922919277101755, 0.06368638575077057, -0.008766928687691689, -0.0487515851855278, 0.027694128453731537, -0.0011996118118986487, 0.014325253665447235, -0.024772288277745247, -0.01871052384376526, -0.054669298231601715, 0.03196166828274727, -0.0002908296592067927, 0.03090626560151577, 0.07359275966882706, -0.011757479049265385, -0.02273792028427124, -0.027469301596283913, 0.010524150915443897, 0.03097115084528923, 0.02406231500208378, 0.0581490732729435, 0.023105423897504807, 0.024764861911535263, -0.004086812026798725, 0.023673221468925476, 0.10629811882972717, -0.0026331322733312845, 0.07923087477684021, -0.022942939773201942, -0.01841333881020546, -0.04049423336982727, -0.026182126253843307, 0.013585738837718964, -0.0060918680392205715, 0.028966424986720085, 0.021843193098902702, 0.07108128815889359, -0.033518653362989426, -0.029477447271347046, -0.04893209785223007, -0.02259945496916771, -0.06510668992996216, 0.02531418390572071, 0.14508338272571564, 0.009805839508771896, 0.047404468059539795, -0.058640286326408386, -0.08790455013513565, 0.002652976429089904, 0.05496600642800331, 0.016480369493365288, -0.06154942139983177, -0.016119476407766342, 0.034264810383319855, -0.0013191994512453675, -0.009406650438904762, -0.014240368269383907, -0.019502917304635048, 0.054399874061346054, -0.06201576441526413, -0.03404659032821655, 0.06473937630653381, -0.039314981549978256, -0.007396709639579058, 0.016915151849389076, 0.01311586145311594, -0.06888997554779053, 0.056387759745121, -0.03375108167529106, -0.0017501169349998236, -0.026442410424351692, 0.0035268564242869616, 0.04814431071281433, -0.05221626162528992, -0.020190201699733734, 0.008698416873812675, -0.04895756393671036, -0.033901624381542206, 0.010800172574818134, -0.047193191945552826, -0.030972832813858986, 0.044496167451143265, 0.010816320776939392, -0.024694640189409256, -0.011657940223813057, 0.05112854763865471, 0.037880975753068924, 0.006790322717279196, -0.08016685396432877, -0.07776612043380737, -0.003175574354827404, -0.05148715898394585, -0.023300398141145706, -0.03945499286055565, 0.01932493783533573, 0.04705490916967392, -0.013620643876492977, -0.08509385585784912, 0.038866013288497925, 0.00935789942741394, -0.04729589819908142, 0.05270082876086235, -0.03295760974287987, 0.0530383437871933, -0.029022913426160812, -0.039123788475990295, 0.04220663011074066, -0.012055139988660812, 0.04248026758432388, -0.005830822978168726, 0.020839901641011238, 0.01627192460000515, -0.01235517393797636, 0.0012227966217324138, 0.012958260253071785, 0.03333193436264992, 0.017077138647437096, 0.025042418390512466, 0.04733734950423241, 0.09021302312612534, 0.015248194336891174, -0.30494603514671326, -0.025850800797343254, -0.023412495851516724, -0.042108211666345596, -0.02630672976374626, -0.0388505682349205, 0.05104191228747368, 0.014636846259236336, -0.0349280908703804, 0.0708899050951004, 0.010038058273494244, 0.013353178277611732, -0.022604601457715034, -0.04452132806181908, -0.021365245804190636, 0.00502764293923974, 0.05752529576420784, 0.012181369587779045, -0.05852358043193817, -0.008973957039415836, -0.013521270826458931, 0.05823896452784538, -0.0015517029678449035, -0.09318631887435913, 0.057857804000377655, -0.018319683149456978, 0.1746196299791336, -0.04422631859779358, -0.0005543072475120425, 0.009860485792160034, 0.031528737396001816, 0.04081857204437256, -0.05580736696720123, -0.09662728011608124, 0.03540690615773201, 0.029232872650027275, -0.04102764278650284, 0.07045934349298477, 0.0024178707972168922, -0.049439240247011185, 0.01142884325236082, 0.05050406605005264, -0.018091250211000443, -0.04936840012669563, 0.05480828508734703, -0.02444598078727722, -0.05712136998772621, 0.027745632454752922, -0.09669188410043716, -0.007189983036369085, 0.02624388411641121, -0.0038941141683608294, 0.0485331155359745, 0.046281661838293076, 0.062193144112825394, 0.009952440857887268, -0.046855948865413666, 0.04843764379620552, -0.007592013571411371, 0.009625455364584923, 0.0015329588204622269, -0.0335773229598999, 0.013005083426833153, -0.07457946240901947, 0.039460282772779465, -0.03638524189591408, 0.006587696727365255, -0.034091558307409286, -0.03808688372373581, 0.029842961579561234, -0.04390379413962364, 0.05558351054787636, -0.06482556462287903, -0.029035285115242004, -0.007900443859398365, 0.02805374562740326, -0.0144937289878726, -0.004335198551416397, -0.040912091732025146, -0.05175289884209633, 0.04095447063446045, -0.0003132886777166277, 0.0248080026358366, 0.02922818437218666, 0.03452920913696289, 0.020123111084103584, -0.026760313659906387, 0.05372118204832077, -0.005473686382174492, 0.00816931389272213, -0.013542897067964077, -0.03474362939596176, -0.032775409519672394, -0.01967969536781311, 0.061625316739082336, 0.015695134177803993, -0.24826548993587494, 0.014638198539614677, -0.004766497295349836, 0.015397707931697369, 0.03657348453998566, 0.028346575796604156, -0.028719933703541756, 0.03338667377829552, -0.031879786401987076, 0.057634033262729645, -0.05898196995258331, 0.0626140758395195, -0.04810381680727005, -0.005584773141890764, 0.02871151641011238, 0.053774770349264145, 0.06452957540750504, -0.017520828172564507, -0.023657165467739105, -0.018276240676641464, 0.012435082346200943, -0.023822695016860962, 0.14397208392620087, 0.0012325586285442114, -0.017011212185025215, 0.03933141008019447, -0.019927198067307472, 0.04309741407632828, 0.039851557463407516, 0.011436859145760536, -0.08662858605384827, -5.305058220983483e-05, 0.03278453275561333, 0.015821076929569244, 0.03879117965698242, 0.05181443318724632, -0.0338248535990715, -0.040706198662519455, 0.03087962046265602, -0.04109857231378555, 0.004390599671751261, -0.0055544632486999035, -0.0059565710835158825, 0.011657354421913624, 0.06479305773973465, 0.011746278032660484, -0.04287772998213768, -0.022693680599331856, 0.033044710755348206, 0.018222181126475334, 0.0001434242440154776, -0.027078069746494293, -0.03139645233750343, 0.04093293845653534, 0.017225373536348343, 0.03950250521302223, -0.03979228064417839, 0.013008789159357548, 0.008930678479373455, -0.020952889695763588, -0.01977546699345112, -0.03467384725809097, 0.04358552396297455, -0.038990121334791183, -0.01817440427839756]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>request_for_more_cost_effective_data_bundles</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>['Improvement needed: The prepaid plans and monthly plans can be of better value but I don’t love that once data is maxed your still able to access the internet\nReason for given NPS: I think the credit bundles can be better value']</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>[-0.034691065549850464, -0.03929430991411209, 0.040942639112472534, -0.041843313723802567, 0.09098117798566818, 6.508796650450677e-05, -0.07413721084594727, 0.056718066334724426, -0.0153511893004179, -0.014089646749198437, 0.011759689077734947, -0.004865709692239761, -0.01758384332060814, 0.04280851408839226, 0.06593157351016998, 0.025521745905280113, 0.0638044998049736, -0.02371031790971756, -0.039945296943187714, 0.03439682722091675, 0.036936208605766296, -0.020108537748456, 0.00757746584713459, -0.025944065302610397, -0.06486140191555023, -0.018262963742017746, -0.04180445149540901, -0.0832298994064331, -0.03795260936021805, -0.1315181851387024, 0.020552068948745728, -0.047590482980012894, 0.025147924199700356, -0.031208595260977745, -0.003340806346386671, -0.02417876571416855, 0.018544230610132217, 0.01710912398993969, -0.04102732986211777, 0.042369041591882706, 0.03849014267325401, 0.0030118690337985754, -0.0673055574297905, 0.02261308953166008, -0.061283886432647705, -0.05768553912639618, -0.028369387611746788, -0.01083112321794033, 0.01597747765481472, 0.049510516226291656, -0.03648458421230316, -0.00042469307663850486, -0.05596170201897621, -0.017890317365527153, 0.08478972315788269, 0.039128802716732025, 0.008927825838327408, 0.03269139304757118, -0.025506339967250824, 0.012563265860080719, 0.026377715170383453, 0.054394833743572235, -0.08648166805505753, 0.0013386002974584699, 0.03240556642413139, -0.028448140248656273, -0.015622185543179512, 0.0007715721731074154, 0.007273189723491669, 0.05196992680430412, -0.015165969729423523, 0.009806722402572632, -0.011994798667728901, 0.05945549160242081, 0.012842101976275444, 0.014271361753344536, -0.0032354500144720078, 0.011314203962683678, -0.0336141511797905, -0.03856277093291283, -0.06507224589586258, 0.04774128273129463, 0.011520869098603725, 0.007523384876549244, -0.031241722404956818, -0.06250336021184921, 0.016584768891334534, -0.010128174908459187, 0.019953003153204918, -0.028824463486671448, 0.02664400450885296, -0.03913632407784462, -0.015310309827327728, 0.0452699139714241, -0.07368737459182739, 0.006045378278940916, 0.023728199303150177, 0.042537011206150055, -0.04833333194255829, 0.38433021306991577, -0.020842207595705986, -0.01894254796206951, -0.012903292663395405, -0.02657546103000641, -0.0080867949873209, -0.07925939559936523, -0.012456540949642658, 0.03466932848095894, -0.03917112573981285, -0.03732888400554657, 0.05040891095995903, -0.0018376351799815893, 0.015918171033263206, -0.03752398490905762, -0.004805527161806822, 0.0689372792840004, -0.06012045219540596, -0.036961495876312256, 0.0063323937356472015, 0.0015831554774194956, -0.006755504757165909, 0.00027083102031610906, 0.07369977235794067, 0.0009669658611528575, -0.03599881753325462, -0.02183065190911293, 0.003908333834260702, 0.0953882560133934, 0.03866502642631531, 0.06862160563468933, 0.035455379635095596, 0.014203928411006927, -0.08208044618368149, 0.024081218987703323, 0.023912103846669197, -0.05520991235971451, 0.054634224623441696, 0.03508204594254494, 0.0401017889380455, 0.06030464917421341, -0.030868984758853912, -0.00273985811509192, -0.051430657505989075, -0.10626795887947083, -0.0242654737085104, 0.10812889039516449, -0.02841545082628727, 0.0213957317173481, -0.037564098834991455, -0.07450293004512787, 0.008758450858294964, 0.0223381407558918, 0.012044142931699753, -0.05471149832010269, 0.0023504113778471947, 0.013819031417369843, 0.08883342146873474, -0.008389304392039776, -0.04819008335471153, 0.011022192426025867, 0.035723812878131866, -0.048620548099279404, -0.011159718036651611, 0.12487966567277908, -0.04411701112985611, -0.1168726459145546, -0.021589959040284157, 0.01898953691124916, -0.016950290650129318, -0.0020122979767620564, -0.011841791681945324, 0.08581215143203735, -0.007242318708449602, 0.0511949248611927, 0.09425338357686996, -0.04115060344338417, -0.07232487946748734, -0.016945041716098785, -0.03749726712703705, 0.01810251548886299, 0.0294867604970932, 0.030383888632059097, -0.016811499372124672, -0.017419248819351196, -0.046609051525592804, -0.007433190010488033, -0.013827400282025337, 0.050828658044338226, -0.006119143217802048, 0.011152447201311588, -0.06929020583629608, 0.0019814863335341215, -0.003128727665171027, 0.04673413932323456, 0.019528990611433983, -0.023503145202994347, -0.003067794255912304, 0.02246405929327011, -0.017491718754172325, -0.06197633594274521, 0.03560769557952881, -0.04147855564951897, -0.048928435891866684, 0.07887580245733261, 0.016002275049686432, 0.018508438020944595, 0.0022811151575297117, -0.01575886644423008, 0.02105339989066124, -0.04646368697285652, 0.008851596154272556, -0.015646841377019882, 0.08664998412132263, 0.026807567104697227, -0.08158275485038757, 0.042335908859968185, 0.04249504208564758, 0.039596498012542725, 0.013651479966938496, 0.037467677146196365, -0.0022545894607901573, 0.030667174607515335, 0.025954008102416992, -0.3339815139770508, 0.06178876757621765, -0.012368537485599518, -0.010757088661193848, -0.002500073751434684, -0.024403493851423264, 0.06288332492113113, 0.030241170898079872, -0.05118488892912865, 0.05137135833501816, 0.05036505311727524, -0.0041222223080694675, 0.05503586679697037, 0.020239045843482018, 0.038963012397289276, -0.0073026190511882305, 0.013065706938505173, -0.01193225011229515, -0.04965895041823387, -0.0007288948399946094, -0.0156638715416193, 0.0534449927508831, 0.034914128482341766, -0.018667353317141533, 0.0064238267950713634, -0.0020156055688858032, 0.12517033517360687, -0.07541278749704361, -0.01927473396062851, -0.03463554382324219, 0.05802790820598602, 0.07782892882823944, 0.004497780464589596, -0.08081857860088348, 0.009728750213980675, 0.01005534827709198, -0.05483509227633476, 0.05468478426337242, -0.001971794292330742, -0.02612488530576229, -0.008475205861032009, 0.0339106060564518, -0.006359526887536049, -0.053599342703819275, 0.037577878683805466, -0.0059976703487336636, -0.047446832060813904, 0.019527943804860115, -0.04435274749994278, -0.014886697754263878, -0.04050596430897713, -0.04580935463309288, 0.09157142788171768, 0.006495701614767313, 0.026237595826387405, -0.013222724199295044, -0.04618319123983383, -0.0012460136786103249, -0.03667926788330078, 0.011925015598535538, -0.009524398483335972, 0.000648936431389302, -0.01239058654755354, -0.013392820954322815, 0.015564225614070892, -0.016872989013791084, 0.004699715878814459, -0.019511766731739044, -0.05347254127264023, 0.008870541118085384, -0.02715056575834751, 0.021473081782460213, -0.041521504521369934, 0.005848600994795561, -0.011664742603898048, 0.037059441208839417, 0.00923534482717514, 0.039571065455675125, -0.006735583301633596, -0.012793741188943386, 0.03983612358570099, 0.06909875571727753, -0.02502150647342205, 0.033297084271907806, 0.056196510791778564, 0.039849068969488144, 0.022125525400042534, 0.0013218693202361465, 0.005644859746098518, -0.009011906571686268, 0.0051421900279819965, -0.03282533213496208, -0.08310634642839432, 0.04102416709065437, 0.1019880473613739, -0.0013524085516110063, -0.24126404523849487, 0.09311491250991821, -0.011184526607394218, -0.054330628365278244, -0.02737375721335411, 0.04754794016480446, -0.04508358985185623, -0.023728523403406143, 0.014237805269658566, -0.0001969072181964293, 0.020110690966248512, 0.10427471995353699, -0.019501585513353348, -0.0019276050152257085, 0.02892514131963253, 0.007840343751013279, 0.07240428775548935, -0.008258184418082237, -0.01865224912762642, 0.027622250840067863, 0.037124212831258774, 0.004674480762332678, 0.19329196214675903, -0.0302059855312109, -0.030091898515820503, 0.05505787208676338, -0.06671549379825592, -0.018500735983252525, 0.03679048642516136, -0.015703845769166946, -0.026570500805974007, -0.013608956709504128, -0.0050267609767615795, 0.0032507474534213543, -0.005076437257230282, 0.07099912315607071, -0.01567142829298973, -0.011503022164106369, 0.014192495495080948, -0.011787754483520985, -0.027155892923474312, -0.0007668652106076479, -0.09283943474292755, 0.01912512816488743, 0.06532882899045944, 0.014707453548908234, -0.015455333516001701, -0.06082228571176529, -0.023651832714676857, 0.00468436349183321, -0.004156437236815691, -0.0167683158069849, 0.03100263699889183, 0.007114463020116091, 0.035080622881650925, 0.06323546171188354, -0.04039699584245682, 0.03734678402543068, -0.0032501276582479477, -0.025232667103409767, -0.011425879783928394, -0.05420209839940071, -0.02931341715157032, -0.02483757585287094, -0.011015660129487514]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>lack_of_bundling_options</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Customer service. Number 2 would be allowing more contract flexibility (ie. allowing us to fix for 24 and 36 months).\nReason for given NPS: Good service, our internet seems to be working well, but we are missing the price advantages of your former partnering with Sky for bundling purposes']</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>[-0.02655845507979393, -0.06435728073120117, 0.030184580013155937, -0.012841456569731236, 0.002065637381747365, -0.02324460819363594, -0.09017527103424072, 0.035063207149505615, 0.0068781329318881035, -0.032775864005088806, 0.011415080167353153, 0.04704282805323601, -0.008855544030666351, 0.007871153764426708, 0.052839383482933044, 0.023509303107857704, 0.03703511133790016, 0.012878854759037495, -0.08913994580507278, -0.0007516737096011639, 0.02969193272292614, -0.03619765862822533, -0.01620933972299099, -0.014905157499015331, -0.07410166412591934, -0.034205831587314606, -0.04263842850923538, -0.07454868406057358, -0.04256361350417137, -0.16971392929553986, 0.000908136775251478, -0.024850135669112206, -0.0644904151558876, -0.016836609691381454, 0.037505198270082474, -0.0274935495108366, 0.01482799369841814, 0.036821722984313965, -0.050618670880794525, 0.04061561077833176, 0.03656407818198204, 0.028710084035992622, -0.06480003148317337, 0.017399387434124947, -0.0038505862466990948, -0.07134604454040527, 0.013129143044352531, -0.02806301787495613, 0.07940317690372467, -0.022540738806128502, 0.07159437239170074, 0.028576957061886787, -0.054685745388269424, -0.07399305701255798, 0.0021657065954059362, 0.1021074652671814, 0.022940097376704216, 0.04082368314266205, -0.022863803431391716, 0.04197663068771362, -0.01951330155134201, 0.0171218141913414, -0.11930640041828156, 0.05000216141343117, 0.025881877169013023, 0.02119564265012741, 0.013158799149096012, 0.011302979663014412, 0.015199638903141022, 0.024973992258310318, -0.04235684499144554, 0.0373222678899765, -0.0031900133471935987, 0.09615615010261536, 0.018495775759220123, -0.027616608887910843, 0.017875541001558304, 0.027156874537467957, 0.009780628606677055, 0.005596666131168604, -0.0418609119951725, -0.0014279406750574708, -0.05856969580054283, 0.05417958274483681, -0.03617586940526962, -0.015362254343926907, -0.010748754255473614, -0.002076544798910618, -0.0012241265503689647, -0.013727501034736633, 0.017024097964167595, -0.07839397341012955, 0.049556683748960495, 0.023403838276863098, -0.10292825847864151, 0.04556162282824516, 0.0019965805113315582, 0.003951371181756258, -0.12075813859701157, 0.36722251772880554, -0.007593908347189426, 0.02084634080529213, 0.015482299029827118, -0.024274084717035294, 0.010163123719394207, -0.04513152316212654, -0.0424274317920208, 0.010955454781651497, -0.009640093892812729, -0.013718224130570889, 0.02926737070083618, -0.019772635772824287, 0.04661846160888672, -0.027298908680677414, -0.008575000800192356, 0.02019982784986496, -0.11683440953493118, -0.028945116326212883, -0.0009210742427967489, 0.011949921026825905, -0.051860202103853226, 0.017247028648853302, 0.07398534566164017, 0.014608228579163551, -0.02777894027531147, 0.03194331005215645, -0.030696142464876175, 0.07988876104354858, 0.039209600538015366, 0.033900778740644455, 0.024827737361192703, 0.00692802993580699, -0.00418825400993228, -0.050317611545324326, 0.0068280319683253765, -0.05526319146156311, -0.006964816711843014, 0.11027076095342636, 0.08051148056983948, 0.0332077257335186, -0.0368356928229332, 0.007013469003140926, 0.030577735975384712, -0.01344410702586174, 0.025655627250671387, 0.07593302428722382, -0.03308902680873871, 0.07850682735443115, -0.06449303776025772, 0.042397234588861465, -0.02250918745994568, -0.006125135812908411, -0.04785289615392685, 0.013870875351130962, 0.04835868626832962, -0.016871703788638115, 0.003827593056485057, 0.028340375050902367, -0.08001125603914261, 0.0376039557158947, 0.008923027664422989, -0.06012213975191116, -0.03079347312450409, 0.08714140951633453, -0.06031372398138046, -0.02517087385058403, 0.014662639237940311, 0.019162515178322792, -0.00032719707814976573, -0.030901245772838593, -0.03323671594262123, 0.06548496335744858, -0.010142333805561066, 0.034858588129282, 0.12145781517028809, -0.008029522374272346, -0.07749959081411362, 0.0014694613637402654, 0.0013355780392885208, 0.02091413550078869, 0.01089524943381548, -0.008930234238505363, -0.015315700322389603, -0.017273275181651115, -0.022992659360170364, -0.03251425176858902, 0.008248096331954002, -0.06086336076259613, 0.02164629101753235, 0.008063198998570442, -0.11514158546924591, -0.05496201291680336, -0.006883163470774889, -0.04892374575138092, 0.04186610132455826, -0.008484601974487305, -0.026189325377345085, -0.033929601311683655, 0.02794664166867733, -0.02546166628599167, 0.0761902928352356, -0.004553543403744698, -0.009265800938010216, 0.028547687456011772, -0.0024546312633901834, 0.006799453869462013, 0.012037971056997776, -0.057299595326185226, 0.03574981540441513, -0.01144121028482914, 0.0024256694596260786, 0.02192915417253971, 0.05804548040032387, 0.04530640318989754, -0.05544658377766609, 0.04137507826089859, -0.00812123529613018, 0.05695958063006401, 0.04252346232533455, 0.022456852719187737, 0.03001094050705433, 0.06549646705389023, 0.03982340171933174, -0.3036050498485565, 0.06889983266592026, -0.007440475281327963, -0.028949115425348282, -0.062269292771816254, -0.03394852951169014, 0.0595073327422142, -0.008899366483092308, -0.04574313014745712, 0.0610152930021286, 0.052056096494197845, -0.021250776946544647, 0.0015644477680325508, 0.033952344208955765, -0.026747876778244972, -0.03657994046807289, -0.07099015265703201, -0.013554555363953114, -0.04693446680903435, 0.03851346671581268, -0.013390548527240753, -0.014541666954755783, 0.011668022722005844, -0.05618046224117279, -0.02690757066011429, 0.004340659826993942, 0.1687227487564087, -0.02027685008943081, 0.014595113694667816, -0.050851233303546906, 0.026910677552223206, 0.15666703879833221, -0.013513089157640934, -0.061568327248096466, 0.00887698121368885, 0.03923008218407631, -0.06171465665102005, -0.014330202713608742, 0.006206480786204338, 0.005743192974478006, 0.000788190052844584, 0.04705476760864258, 0.004201781004667282, -0.06069639325141907, 0.07110589742660522, -0.03379112482070923, -0.01721111871302128, 0.03380898758769035, -0.048387497663497925, 0.012853611260652542, 0.028995132073760033, -0.022123301401734352, 0.03342266380786896, -0.018299268558621407, 0.0018296845955774188, 0.007145474664866924, -0.042380206286907196, -0.005420051980763674, 0.02214837074279785, 0.05524112656712532, -0.00583762489259243, -0.0074782054871320724, -0.015855127945542336, -0.07216063141822815, -0.008301280438899994, -0.007526534143835306, 0.009884200990200043, 0.005206333473324776, -0.005543218459933996, -0.03497672453522682, -0.018030457198619843, 0.02555503137409687, -0.0026097572408616543, 0.05688665434718132, -0.027854183688759804, 0.04305615648627281, 0.046215854585170746, 0.032922882586717606, 0.040223557502031326, -0.03328165411949158, -0.017461666837334633, 0.010496631264686584, 0.044853609055280685, 0.013543502427637577, 0.05068914219737053, 0.04175633564591408, -0.022073516622185707, -0.025512415915727615, 0.002225074917078018, 0.011677676811814308, -0.0386793315410614, 0.007954591885209084, -0.010258495807647705, 0.014636398293077946, 0.12622444331645966, -0.003945623524487019, -0.1951892226934433, 0.03238201513886452, 0.0591873973608017, -0.056131649762392044, 0.004669952671974897, 0.05659394711256027, 0.031038321554660797, -0.04778716713190079, -0.03938136622309685, -0.018578598275780678, 0.02302037738263607, 0.030638208612799644, -0.06690860539674759, -0.06985462456941605, 0.059117987751960754, 0.004347075242549181, 0.0694781169295311, -0.0020971547346562147, 0.03724442422389984, -0.007672422099858522, 0.02385804057121277, 0.04340653494000435, 0.15920385718345642, -0.011749034747481346, -0.04540455341339111, 0.027799252420663834, -0.016667518764734268, -0.004606602247804403, 0.009683443233370781, 0.039410654455423355, -0.10284711420536041, 0.019159788265824318, 0.02808546833693981, -0.05217858403921127, -0.05346750468015671, 0.020591940730810165, 0.0505068264901638, -0.05580206960439682, 0.03325136750936508, -0.011145297437906265, -0.023149114102125168, 0.02215401642024517, -0.010997200384736061, -0.01601305603981018, 0.025511484593153, -0.07905218750238419, 0.04489467665553093, 0.008510522544384003, -0.0022790252696722746, 0.0017350533744320273, -0.0321485660970211, -0.00023207353660836816, 0.010715995915234089, 0.027695931494235992, 0.052512601017951965, 0.036445628851652145, 0.01783940941095352, 4.911241830996005e-06, 0.009876479394733906, -0.010560162365436554, 0.010637925006449223, -0.06985297799110413, 0.018534328788518906, -0.015119326300919056, -0.008338471874594688]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>missing_discounts_on_partner_services</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Customer service. Number 2 would be allowing more contract flexibility (ie. allowing us to fix for 24 and 36 months).\nReason for given NPS: Good service, our internet seems to be working well, but we are missing the price advantages of your former partnering with Sky for bundling purposes']</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>[-0.042793937027454376, 0.01755923219025135, 0.007171059027314186, 0.020015351474285126, -0.03248288109898567, -0.06035715341567993, -0.0025237370282411575, 0.0936376228928566, 0.08765619993209839, -0.011440725065767765, 0.01560338493436575, 0.011014210060238838, 0.026692643761634827, 0.025156140327453613, 0.05800221487879753, -0.01393326185643673, 0.03582774102687836, 0.009249857626855373, -0.07742410898208618, -0.00224949698895216, 0.02214350365102291, -0.12283387780189514, -0.03002605214715004, 0.0018790311878547072, -0.04101373255252838, -0.006591564044356346, -0.06252814829349518, -0.03346071392297745, -0.04387343302369118, -0.0874486044049263, 0.0396229587495327, -0.0323898047208786, 0.0027988029178231955, 0.020760929211974144, 0.03835899382829666, 0.01322244480252266, -0.03330378234386444, -0.014578141272068024, 0.022387102246284485, 0.017992205917835236, 0.03186575323343277, -0.010799264535307884, -0.01781940646469593, 0.02908303588628769, -0.07206501811742783, 0.0017622412415221334, 0.02936502732336521, -0.019066929817199707, 0.05772554501891136, -0.05042097717523575, 0.06362556666135788, -0.00812065415084362, -0.048792578279972076, -0.004002706613391638, -0.017343446612358093, 0.07471976429224014, 0.007964490912854671, 0.07130659371614456, -0.006863613147288561, 0.006291891913861036, -0.003963457886129618, -0.020624233409762383, -0.14977049827575684, 0.01515180803835392, -0.04756537079811096, -0.0010906560346484184, -0.011389598250389099, -0.056525811553001404, 0.0077741448767483234, -0.033233821392059326, -0.0019086332758888602, 0.024328766390681267, -0.016103865578770638, 0.06979873031377792, 0.04785472899675369, 0.0019320176215842366, 0.011765550822019577, -0.0028082476928830147, -0.011146319098770618, 0.04795457050204277, 0.0031502083875238895, -0.02802921086549759, -0.03553279861807823, 0.09229621291160583, -0.02277865819633007, -0.03642676770687103, 0.04736979305744171, -0.05399889871478081, 0.04260963574051857, -0.029829027131199837, 0.02970379777252674, -0.044580429792404175, -0.007455043029040098, 0.0028667140286415815, -0.10812951624393463, 0.04528483748435974, 0.06255901604890823, 0.023404166102409363, -0.1109326109290123, 0.36764416098594666, 0.0044576190412044525, 0.047386534512043, 0.030557207763195038, -0.008235580287873745, -0.017148390412330627, -0.07254843413829803, -0.03763454407453537, -0.01918497495353222, 0.009989266283810139, 0.0560954287648201, 0.005043190438300371, 0.011684351600706577, 0.07474514096975327, -0.06627769023180008, 0.030798953026533127, 0.08763197064399719, -0.011708512902259827, 0.01502847671508789, 0.04531693086028099, -0.025572502985596657, -0.020421121269464493, 0.009556698612868786, 0.07553795725107193, -0.013318276032805443, -0.06437075138092041, 0.023671485483646393, -0.0022763987071812153, 0.09076804667711258, -0.022672628983855247, 0.0406792052090168, 0.011729593388736248, -0.03383323550224304, -0.008159160614013672, -0.0075454446487128735, -9.628279258322436e-06, 0.00872254092246294, 0.0132985208183527, 0.060538094490766525, 0.0319337323307991, 0.05249784141778946, 0.0006164477672427893, -0.04547247663140297, 0.009501436725258827, -0.05993932485580444, 0.05024862289428711, 0.07477037608623505, 0.024828407913446426, 0.07992993295192719, -0.03410649672150612, -0.00022205023560672998, -0.036622483283281326, -0.004061030689626932, -0.014932912774384022, -0.019376490265130997, -0.04656815901398659, 0.017819508910179138, 0.023264020681381226, -0.04928286746144295, -0.07211743295192719, 0.05033488571643829, 0.05351659655570984, -0.03566538542509079, -0.07052455097436905, 0.10517539083957672, -0.0018776346696540713, -0.10621203482151031, 0.058648668229579926, 0.028571628034114838, -0.05011522024869919, 0.03920893371105194, -0.036127496510744095, 0.04051515832543373, -0.06501280516386032, -0.02367284521460533, 0.1571987420320511, -0.04339432343840599, -0.038380034267902374, 0.05317262187600136, -0.018138334155082703, -0.012562332674860954, -0.008789092302322388, 0.014281793497502804, -0.012324033305048943, -0.01482492033392191, -0.0042620436288416386, -0.05540460720658302, -0.0028594573959708214, -0.042326103895902634, -0.0006165774539113045, -0.05399613082408905, -0.08302375674247742, -0.08176805824041367, -0.0510711707174778, -0.032775964587926865, 0.04353700578212738, 0.03059319034218788, -0.02787717618048191, -0.07165569067001343, 0.03052312135696411, 0.005010840483009815, 0.07261724770069122, -0.05679619312286377, 0.04689193516969681, -0.01070314273238182, 0.03017641231417656, 0.026018081232905388, -0.013872796669602394, 0.0433436818420887, 0.06522355228662491, 0.005804365035146475, 0.05495496839284897, 0.004403847735375166, 0.04616425931453705, 0.008569983765482903, 0.00010397975711384788, 0.019456733018159866, -0.012689508497714996, 0.00826359074562788, -0.04329380765557289, 0.01277204044163227, 0.0164065882563591, 0.10557109862565994, 0.023975089192390442, -0.25805914402008057, 0.01314037386327982, -0.02628364972770214, -0.038398753851652145, -0.04709261655807495, 0.007193591445684433, 0.04381945729255676, 0.02539367787539959, -0.06942117214202881, 0.10702524334192276, 0.05881531536579132, 0.019584685564041138, -0.02152251824736595, -0.02803703211247921, 0.0009890664368867874, 0.03589604049921036, 0.029412390664219856, 0.014700762927532196, 0.004150158725678921, 0.039193011820316315, 0.01108342595398426, -0.028195800259709358, 0.020688273012638092, -0.005725888069719076, 0.06559761613607407, 0.014494393020868301, 0.13588134944438934, 0.0157000795006752, -0.039497535675764084, -0.04873687028884888, -0.0028054891154170036, 0.07719409465789795, -0.03090794011950493, -0.0777309238910675, 0.022327033802866936, 0.06506802886724472, -0.0034327551256865263, -0.04551880061626434, 0.01005492638796568, -0.05049590766429901, -0.011573455296456814, -0.000546193215996027, -0.02250433713197708, 0.0004761310701724142, 0.06340552866458893, -0.05733522027730942, -0.008820434100925922, 0.051518578082323074, -0.039583608508110046, 0.08331530541181564, -0.022234637290239334, -0.014568318612873554, 0.006561802234500647, 0.028837965801358223, 0.029460297897458076, 0.0020987209863960743, -0.052173323929309845, 0.029894016683101654, -0.06324152648448944, -0.0031854165717959404, 0.02773096226155758, -0.01239833328872919, -0.02729758620262146, -0.029200488701462746, 0.08876578509807587, -0.04746587947010994, 0.011597681790590286, 0.01019497774541378, 0.027508912608027458, 0.045695286244153976, -0.02271760255098343, -0.03675861284136772, -0.049036670476198196, -0.020961996167898178, -0.07624130696058273, -0.02653423696756363, 0.04615708440542221, 0.037998273968696594, -0.02895759791135788, -0.05789167061448097, -0.009909091517329216, 0.02234141156077385, 0.04953949525952339, -0.008915310725569725, 0.04479554295539856, 0.048794638365507126, 0.02349596843123436, 0.029788149520754814, 0.011854134500026703, -0.058905575424432755, -0.08497940003871918, -0.004676842596381903, 0.03608902543783188, 0.04594544693827629, 0.09548387676477432, 0.01064323540776968, -0.20787709951400757, -0.014227823354303837, 0.0008047900046221912, -0.0368284247815609, -0.024224812164902687, 0.02737206034362316, -0.01848379708826542, -0.037233006209135056, -0.07949630171060562, -0.04938170313835144, 0.0512080192565918, -0.0027724187821149826, -0.04503616690635681, -0.07974367588758469, 0.03611185401678085, 0.020190803334116936, 0.02559727057814598, -0.004028884693980217, 0.0672336146235466, 0.0038437070325016975, 0.01797718182206154, 0.018870042636990547, 0.1492922455072403, 0.029304644092917442, -0.019493430852890015, 0.014170048758387566, -0.025603575631976128, -0.021133042871952057, 0.023440856486558914, 0.03608278930187225, -0.0569302923977375, 0.01996435970067978, 0.037608299404382706, -0.03391030430793762, -0.05021125450730324, 0.02392546832561493, -0.03394710645079613, 0.0011169796343892813, 0.06650267541408539, -0.006812090519815683, -0.07785090804100037, -0.06089866906404495, -0.0786660760641098, -0.024218376725912094, 0.07784600555896759, 0.036320626735687256, -0.02847191132605076, -0.006697230041027069, 0.030563298612833023, 0.001749789109453559, -0.003083077957853675, -0.05010123923420906, 0.024452557787299156, 0.008249872364103794, 0.011838506907224655, 0.0037350410129874945, -0.09704839438199997, 0.007034239359200001, 0.007050228770822287, -0.005969029851257801, -0.02865622565150261, -0.03988086059689522, 0.026033470407128334, -0.02861315943300724, 0.006279241293668747]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>staff_misusing_customer_devices</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Customer service &amp; technical knowledge in the Cambridge One Nz store( very keen to hook me in tgen disinterested. A staff member actually used my new I phone to claim my Spotify hours so very unimpressed.\nReason for given NPS: I like the response One Nz is making to block pornography of children from reaching or being able to access by anyone in Nz; also agree with the commitment to ensure total accessibility of mobile phone users through out Nz']</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>[-0.01502223964780569, 0.015151037834584713, 0.044509682804346085, -0.05235655605792999, 0.016972731798887253, -0.08544185012578964, 0.07468880712985992, 0.010590246878564358, 0.019046593457460403, 0.03360937163233757, 0.0292095635086298, 0.032673925161361694, 0.01925407163798809, -0.027248920872807503, 0.012735565192997456, -0.006510434206575155, 0.06980003416538239, -0.02696433663368225, 0.020557871088385582, 0.029831571504473686, 0.04475899040699005, -0.0032287766225636005, -0.004753826651722193, 0.0025937885511666536, -0.04187188670039177, 0.03320655971765518, -0.043200764805078506, -0.03237539902329445, -0.08017077296972275, -0.09785987436771393, -0.027301831170916557, -0.024469271302223206, -0.005888189189136028, 0.0028085948433727026, 0.06844575703144073, -0.03942839428782463, 0.0275898315012455, -0.0535639263689518, 0.04465578868985176, 0.019853349775075912, -0.010871417820453644, -0.06009808927774429, -0.019823677837848663, 0.007402489893138409, -0.03695343807339668, -0.00891940202564001, -0.01288125105202198, -0.01594042405486107, 0.05897948518395424, -0.07388773560523987, 0.052610624581575394, 0.07487621903419495, 0.01289525255560875, 0.03446882218122482, -0.024752572178840637, 0.04171115532517433, 0.046973105520009995, 0.05051930621266365, 0.04079953208565712, 0.03425520285964012, 0.05938247963786125, 0.01839158684015274, -0.11712053418159485, 0.059070635586977005, -0.029919655993580818, 0.037381816655397415, 0.00993306189775467, -0.08343462646007538, -0.05419871211051941, -0.024387115612626076, -0.056912194937467575, -0.051607731729745865, -0.01202128641307354, 0.017963530495762825, 0.006081986241042614, 0.05714269354939461, -0.02976631000638008, -0.012033065780997276, 0.00034285843139514327, 0.019369611516594887, -0.03552272543311119, -0.0021397373639047146, 0.00021292321616783738, 0.02767849527299404, 0.013078445568680763, -0.011360462754964828, -0.03092947043478489, 0.016101868823170662, 0.05662669613957405, -0.020040085539221764, -0.016758404672145844, -0.0174705907702446, 0.000983064528554678, 0.03342748060822487, -0.00762171670794487, -0.041256699711084366, -0.004182781558483839, -0.014525034464895725, -0.10607126355171204, 0.34770476818084717, -0.008453120477497578, 0.00653234776109457, 0.009098370559513569, 0.05785643309354782, 0.04120926558971405, -0.06351356953382492, -0.03551819175481796, -0.01942466013133526, -0.039960138499736786, 0.03623538836836815, -0.05467933416366577, -0.022650787606835365, 0.025404151529073715, -0.005520364735275507, 0.08270824700593948, 0.08062770962715149, -0.02254735678434372, 0.02348407544195652, -0.012585513293743134, 0.026097191497683525, -0.014691765420138836, 0.01807868666946888, -0.018672555685043335, 0.01746608316898346, -0.03639519214630127, -0.02959912084043026, -0.0028943244833499193, 0.09743988513946533, -0.08051624149084091, 0.03754854202270508, -0.04958145320415497, -0.0022375830449163914, -0.05682172253727913, 0.00800295826047659, 0.0024919831193983555, 0.06347217410802841, 0.012486872263252735, 0.024327902123332024, 0.07868952304124832, 0.035557880997657776, 0.004358631558716297, -0.07114903628826141, -0.011040878482162952, -0.026916569098830223, 0.028710320591926575, 0.07785093039274216, -0.03128747642040253, 0.06038212031126022, 0.012925171293318272, 0.03989047184586525, 0.005463623907417059, 0.08150433748960495, -0.009141805581748486, 0.010477235540747643, 0.002141158562153578, 0.029877521097660065, 0.03574223071336746, 0.013305209577083588, -0.018098503351211548, 0.015884362161159515, 0.08282893896102905, -0.03035510890185833, -0.011079477146267891, -0.001799863064661622, 0.061538491398096085, -0.04251481965184212, 0.04554097726941109, 0.01975887455046177, -0.06622344255447388, 0.012353479862213135, -0.04603325575590134, 0.010954402387142181, -0.07072571665048599, -0.006331923417747021, 0.043598875403404236, -0.01040888112038374, -0.0378035306930542, 0.020506901666522026, -0.017165495082736015, -0.009903901256620884, 0.007474774029105902, 0.03530124947428703, -0.03940845653414726, -0.01680806092917919, 0.06245720759034157, 0.024212857708334923, 0.045343250036239624, -0.05974980816245079, 0.016639722511172295, 0.03191628307104111, -0.08117685467004776, -0.03947100415825844, -0.02661963179707527, -0.05778473988175392, 0.03287341818213463, 0.009056293405592442, -0.01602747291326523, 0.0007077949703671038, 0.01832711510360241, -0.006140540819615126, 0.07020427286624908, 0.02942865900695324, -0.039261892437934875, 0.035860251635313034, -0.03923320025205612, 0.04841502383351326, -0.04074535518884659, -0.022430982440710068, 0.01468887273222208, 0.011287503875792027, 0.023845704272389412, -0.023349104449152946, 0.01862804964184761, 0.016720805317163467, -0.02974570170044899, -0.011299618519842625, -0.023542912676930428, 0.06935981661081314, 0.03686192259192467, -0.02723507210612297, 0.022402262315154076, 0.1364910900592804, -0.003972745966166258, -0.33609387278556824, 0.018932143226265907, 0.03790810704231262, -0.04667601361870766, -0.13007928431034088, 0.06004965677857399, 0.04240633174777031, 0.015802770853042603, -0.001956442603841424, 0.06107209622859955, 0.05513543635606766, 0.003138474188745022, 0.025295937433838844, -0.03102061338722706, 0.003709526266902685, 0.018674319609999657, -0.006403676699846983, -0.0019473267020657659, -0.04757751524448395, -0.039531830698251724, -0.04557119309902191, 0.0053106797859072685, 0.01524361502379179, -0.06069587171077728, 0.043731171637773514, 0.04274183511734009, 0.1555110663175583, -0.00023063375556375831, -0.024339165538549423, -0.009307720698416233, 0.0472501702606678, 0.021238092333078384, -0.007256271317601204, -0.07249696552753448, 0.026671797037124634, 0.023959917947649956, -0.02652793563902378, 0.0008854267653077841, 0.028223130851984024, -0.038174185901880264, -0.06648098677396774, 0.053234588354825974, -0.02985747903585434, -0.08740409463644028, 0.05057743191719055, -0.023494696244597435, -0.0892757922410965, 0.022852571681141853, -0.05292436107993126, 0.03173014894127846, 0.0023155275266617537, -0.04069729894399643, 0.014504536055028439, 0.07107272744178772, 0.00476395757868886, -0.005001510959118605, -0.05046616494655609, 0.05231549218297005, -0.01555133517831564, 0.030572401359677315, -0.018394500017166138, -0.011035056784749031, -0.019999200478196144, -0.05754223093390465, 0.053366769105196, -0.040734775364398956, -0.02874981425702572, 0.025895247235894203, 0.0506322979927063, 0.04976664111018181, -0.030267823487520218, 0.06436501443386078, 0.04354505613446236, -0.012554235756397247, -0.005386073607951403, 0.006435082759708166, 0.005546056665480137, -0.05252746865153313, -0.08947675675153732, -0.03866375610232353, 0.017257466912269592, 0.07129307836294174, 0.04335181042551994, -0.008058550767600536, 0.03554292395710945, -0.005797447636723518, 0.004768445622175932, 0.04930531978607178, 0.06848233938217163, -0.08101832866668701, -0.026507623493671417, -0.015856124460697174, -0.0030361057724803686, 0.01355662290006876, 0.0753134936094284, 0.020869527012109756, -0.2639916241168976, -0.016636313870549202, -0.017730211839079857, 0.0349167175590992, -0.00339510221965611, 0.04159429669380188, -0.06915875524282455, 0.024296363815665245, -0.05584056302905083, 0.01005538273602724, -0.07837290316820145, 0.012393267825245857, -0.022480199113488197, -0.009458528831601143, 0.0535394549369812, 0.06077875569462776, 0.06770505756139755, -0.027769338339567184, -0.0025393078103661537, -0.02773866429924965, 0.036683592945337296, 0.0002525255549699068, 0.12439949065446854, -0.014517923817038536, -0.03243944048881531, 0.004210192244499922, 0.035282544791698456, -0.018626349046826363, 0.02514447271823883, 0.004093124531209469, -0.05710611119866371, -0.08115975558757782, 0.05876326188445091, 0.036083828657865524, -0.015452221967279911, -0.008542655035853386, 0.00504622096195817, -0.08792295306921005, 0.022729840129613876, -0.02704889327287674, -0.03274210914969444, 0.027187535539269447, -0.0909167155623436, -0.04003114625811577, 0.06474483013153076, -0.020439879968762398, -0.043182872235774994, -0.06018369644880295, 0.05712419003248215, -0.0313887856900692, 0.014325086027383804, -0.08462545275688171, -0.04089808091521263, 0.09339183568954468, -0.0005944964941591024, -0.008529458194971085, -0.02320985123515129, -0.02583673782646656, -0.007319003809243441, -0.02289264090359211, 0.02889750711619854, -0.05220716446638107, 0.025485219433903694, 0.0012787663144990802, 0.018654925748705864]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>lack_of_transparency_in_rewards_program</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Have a list of winners for your rewards. I mean, do real people actually win? Have better support, speaking to a real person and getting a reply I don’t think\nIs too much to ask. Def not good customer service.\nReason for given NPS: Wifi at home is pretty average, doesn’t always work.\nTrying to contact you by phone is an actual task! Feels like such a chore and no pleasure at all. Very painful']</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>[-0.016745563596487045, 0.018686378374695778, -0.0010330313816666603, 0.01287365797907114, -0.00720935920253396, -0.04977825656533241, -0.0042020115070044994, 0.03372950106859207, 0.04174309968948364, -0.00316410674713552, 0.013694281689822674, 0.016867535188794136, -0.020334655418992043, -0.010730422101914883, 0.022695671766996384, -0.007496862206608057, 0.02379033900797367, -0.008547252975404263, -0.04967597872018814, 0.020645854994654655, 0.0975579172372818, -0.053080592304468155, -0.006336532533168793, 0.022423379123210907, -0.002181683899834752, 0.007251077797263861, -0.06831450015306473, -0.10179243236780167, -0.059654418379068375, -0.14057503640651703, -0.0372273325920105, -0.08940167725086212, 0.06856049597263336, -0.011424677446484566, 0.045334912836551666, -0.007182625122368336, -0.04680310934782028, -0.019036192446947098, -0.07229689508676529, 0.03632035478949547, 0.03755580633878708, 0.02078952267765999, -0.022526629269123077, -0.0007988435099832714, -0.005339187569916248, -0.08758329600095749, 0.009227275848388672, -0.014579192735254765, 0.05714048817753792, -0.03974888473749161, 0.05679826810956001, -0.024697765707969666, -0.015366622246801853, 0.044922567903995514, 0.017115727066993713, 0.053163960576057434, 0.033759649842977524, 0.031859759241342545, -0.05300237983465195, 0.02065916173160076, -0.016912546008825302, 0.030803369358181953, -0.1285254806280136, -0.004565419629216194, 0.024190135300159454, 0.023800257593393326, -0.028947336599230766, -0.06518122553825378, 0.015763308852910995, -0.041973818093538284, 0.010548479855060577, 0.024552565068006516, -0.02478986233472824, 0.028069674968719482, -0.0031306191813200712, -0.04193240404129028, 0.042823079973459244, 0.041156310588121414, -0.061988215893507004, 0.03210260719060898, -0.02599307894706726, -0.031447481364011765, 0.0029953676275908947, 0.001525091240182519, -0.002753760665655136, -0.032271914184093475, 0.009396052919328213, -0.012609201483428478, 0.03285207599401474, 0.008437411859631538, 0.03375080227851868, -0.023472687229514122, 0.03775043040513992, 0.015583270229399204, -0.05142964422702789, -0.001298055867664516, 0.02632458321750164, 0.04123223200440407, -0.07524186372756958, 0.40033188462257385, -0.004648199304938316, 0.05425126850605011, -0.03134707361459732, -0.024699725210666656, 0.07454956322908401, -0.012153523042798042, 0.01588742434978485, 0.019109247252345085, -0.0526667945086956, -0.011972160078585148, -0.011577313765883446, 0.0027344173286110163, 0.06721241772174835, -0.058378733694553375, -0.03964218869805336, 0.11637192219495773, -0.009695738554000854, 0.005784374661743641, -0.018652891740202904, 0.006400837562978268, 0.006774810142815113, 0.036128707230091095, 0.04733993858098984, -0.03130308538675308, -0.055303819477558136, 0.0319119356572628, 0.022843683138489723, 0.08262531459331512, -0.026272496208548546, 0.052643004804849625, 0.015696629881858826, -0.00905604474246502, -0.03590967133641243, 0.007280056364834309, -0.008298506960272789, -0.03445686027407646, 0.0025046563241630793, 0.03016722947359085, 0.06309990584850311, 0.06784596294164658, -0.018709560856223106, 0.035251274704933167, 0.01795114390552044, -0.07648197561502457, -0.037540920078754425, 0.0856386125087738, -0.019098076969385147, 0.05721640586853027, 0.011930595152080059, -0.02507203258574009, -0.025849634781479836, -0.006956229452043772, -0.017184719443321228, -0.015568584203720093, 0.017455749213695526, -0.03901493549346924, -0.05156935751438141, -0.00222056289203465, -0.019031930714845657, 0.03034546785056591, 0.06555268168449402, -0.04942189157009125, -0.014414247125387192, 0.08136036992073059, 0.004354482516646385, 0.006039428990334272, -0.010245280340313911, 0.019265299662947655, -0.03887717425823212, -0.06296950578689575, -0.018131189048290253, 0.02954733371734619, -0.05487727373838425, 0.027244750410318375, 0.08048452436923981, -0.07152371108531952, -0.08488819748163223, 0.034219030290842056, 0.02183719165623188, -0.002670243149623275, 0.055491164326667786, -0.036522768437862396, -0.033930495381355286, 0.04253680258989334, 0.051406119018793106, -0.04271247982978821, 0.007770182099193335, -0.009142805822193623, 0.033313997089862823, 0.020560787990689278, -0.061829764395952225, -0.06071852520108223, -0.07112397998571396, -0.007866776548326015, -0.0029766131192445755, -0.03129180893301964, 0.05688098073005676, -0.06154705956578255, -0.0234981756657362, -0.003046617144718766, 0.037226561456918716, -0.059394896030426025, 0.021604901179671288, 0.03415783494710922, -0.010882691480219364, 0.00606762059032917, -0.003373208921402693, -0.1001398041844368, 0.0779099315404892, 0.0385984368622303, -0.015135008841753006, -0.01663239113986492, -0.0012327060103416443, 0.022396612912416458, -0.02280319109559059, 0.028133172541856766, 0.03990357741713524, 0.002273271791636944, -0.006460094824433327, -0.012896258383989334, -0.00858388189226389, 0.09393266588449478, -0.02544388175010681, -0.3177625834941864, 0.04722939431667328, -0.008154959417879581, -0.01919902116060257, -0.029346173629164696, -0.014886691235005856, 0.042997006326913834, 0.005485521163791418, -0.006032133009284735, 0.09074495732784271, 0.08572529256343842, 0.039943989366292953, -0.03117341734468937, -0.0011221191380172968, 0.011777241714298725, -0.011094278655946255, -0.02710837870836258, 0.0471796877682209, 0.05778810381889343, -0.003080759197473526, -0.004923837259411812, -0.01567085087299347, 0.04295957088470459, -0.06681524217128754, -0.004103081300854683, -0.006146584637463093, 0.1639852523803711, 0.021686768159270287, -0.058938540518283844, -0.0011896095238626003, 0.005386454053223133, 0.08141376078128815, -0.07314027100801468, -0.09204045683145523, 0.0074286628514528275, 0.0024247344117611647, -0.04213766008615494, 0.04118434339761734, 0.011451506055891514, -0.001973935170099139, 0.018893081694841385, -0.0033079423010349274, -0.0228128582239151, -0.015263581648468971, 0.0608336515724659, -0.004107970744371414, -0.017243437469005585, 0.013643908314406872, 0.02721267379820347, 0.03681403025984764, 0.08452151715755463, -0.022436421364545822, 0.038362689316272736, 0.057048968970775604, 0.04664473235607147, -0.009422162547707558, -0.011538151651620865, 0.01546624768525362, -0.0073784999549388885, 0.023403305560350418, -0.018201308324933052, -0.034952905029058456, 0.015810584649443626, -0.04951310157775879, 0.07574733346700668, 0.03561240807175636, -0.0452447310090065, -0.0032596939709037542, 0.041194088757038116, 0.01594054140150547, -0.023554258048534393, 0.029738079756498337, -0.012327597476541996, -0.054278481751680374, 0.0272026676684618, 0.02695116214454174, 0.0026706806384027004, -0.031429119408130646, 0.008404981344938278, -0.055493734776973724, 0.006129910703748465, 0.05036165192723274, 0.021827951073646545, 0.03557467460632324, -0.01665591262280941, 0.06528588384389877, -0.027805926278233528, 0.02952846884727478, -0.011662120930850506, 0.016286946833133698, 0.014921983703970909, -0.018797965720295906, -0.005298927426338196, 0.040637269616127014, 0.07134293019771576, 0.043901462107896805, -0.24429957568645477, -0.02340914122760296, 0.02584492787718773, -0.027808072045445442, 0.02241353504359722, 0.04498567059636116, 0.03301265463232994, -0.07087944447994232, -0.0755225196480751, -0.051486577838659286, 0.02115664631128311, 0.0034503706265240908, -0.0721747875213623, -0.06777208298444748, 0.013517912477254868, 0.06702639907598495, 0.021328875795006752, -0.05257450044155121, 0.019329484552145004, 0.014483382925391197, 0.0006509780650958419, 0.04706600680947304, 0.1586686372756958, -0.027376534417271614, -0.0560632087290287, -0.011673307977616787, 0.021355384960770607, -0.019056087359786034, 0.0856945738196373, 0.04467647522687912, -0.046930890530347824, 0.022364623844623566, 0.022891990840435028, 0.039097949862480164, -0.033761605620384216, 0.01920531503856182, 0.02204059809446335, -0.06387661397457123, 0.0002898900711443275, -0.032882533967494965, -0.031228890642523766, -0.006291927304118872, -0.030529886484146118, -0.09562192857265472, 0.04407967999577522, -0.08012904226779938, -0.003222857601940632, -0.02557094767689705, 0.03260410949587822, -0.002616190118715167, -0.021741455420851707, -0.010866501368582249, -0.0173854548484087, -0.013871289789676666, 0.006074906792491674, 0.032321151345968246, -0.08675265312194824, 0.015742208808660507, 0.03053397685289383, -0.012231985107064247, -0.03853282332420349, 0.04734644666314125, 0.039901189506053925, 0.002672625472769141, -0.019352873787283897]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>need_globally_accessible_mobile_app</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>["Improvement needed: The only thing that I couldn't take advantage of about the company was its app, I was never able to access it correctly because my app store is from another country, so there are different features of the app I couldn't enjoy, I would love for the app to be global.\nReason for given NPS: I believe that the service is of good quality, but I feel the signal problems, and I would love to have options and packages with the target audience of students."]</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>[0.027621010318398476, -0.053027037531137466, 0.009056069888174534, -0.08479836583137512, -0.02219419926404953, -0.014928319491446018, -0.0004672967770602554, 0.04709962010383606, -0.044568657875061035, -0.009099126793444157, -0.05133674666285515, 0.04740403965115547, 0.060446009039878845, 0.0178847573697567, 0.01152167096734047, -0.02545487880706787, 0.018371999263763428, 6.033208774169907e-05, -0.018739871680736542, -0.013983715325593948, 0.060774412006139755, 0.024921376258134842, 0.03467021882534027, -0.013436284847557545, -0.05379423126578331, 0.03738516569137573, -0.02676815539598465, 0.0211482010781765, -0.036849990487098694, -0.10361270606517792, -0.08165275305509567, -0.02067960612475872, 0.00037112884456291795, 0.02950110286474228, -0.00175864202901721, -0.0027971831150352955, -0.06174173206090927, 0.004899030085653067, -0.01821747049689293, 0.05781136080622673, 0.02021772414445877, 0.06478755176067352, -0.005811285227537155, -0.009037738665938377, -0.03430737555027008, -0.10584086924791336, -0.06232459470629692, 0.0316137969493866, 0.01968819834291935, -0.008243896998465061, 0.04980653524398804, 0.05457117781043053, -0.024489693343639374, -0.026332424953579903, -0.015619160607457161, 0.07875494658946991, 0.037821922451257706, 0.02046746388077736, 0.011731507256627083, 0.039432696998119354, 0.015241989865899086, -0.0019269050098955631, -0.12270000576972961, 0.10222891718149185, 0.020341387018561363, 0.006355810444802046, 0.01431715302169323, -0.0143771106377244, 0.049266356974840164, -0.04162914305925369, 0.0009218415361829102, -0.019171854481101036, 0.014494704082608223, 0.0984094962477684, 0.045893799513578415, -0.008268777281045914, -0.01890147291123867, -0.02673647366464138, -0.02496078424155712, -0.019066231325268745, 0.04997113719582558, -0.009469659999012947, -0.017086496576666832, -0.014735191129148006, 0.015088099054992199, 0.0017597863916307688, -0.01294778473675251, 0.02608596533536911, 0.008999953046441078, -0.02115759812295437, -0.06733424216508865, -0.047412559390068054, 0.07971783727407455, 0.049614373594522476, -0.0799739882349968, -0.03542742133140564, 0.034503448754549026, -0.009982463903725147, -0.12512873113155365, 0.34351229667663574, 0.028888113796710968, 0.07983832061290741, -0.009625174105167389, -0.03177386894822121, 0.06277130544185638, 0.03896106779575348, 0.0015958865405991673, -0.02746427059173584, -0.032487113028764725, 0.01356407068669796, 0.00022065780649427325, -0.04500540718436241, 0.04379698261618614, -0.037047747522592545, -0.012386386282742023, 0.023734349757432938, -0.030561169609427452, -0.05204610526561737, 0.035519637167453766, 0.016713948920369148, -0.08296598494052887, -0.03208005800843239, 0.031036576256155968, -0.027291368693113327, 0.01635166071355343, 0.00842530932277441, 0.036158785223960876, 0.023202184587717056, 0.030634956434369087, 0.03720133379101753, 0.03378520533442497, -0.00405293982475996, -0.07459884136915207, -0.0005412812461145222, 0.04040629789233208, -0.020015841349959373, 0.010129231959581375, -0.029911411926150322, 0.03176858648657799, 0.013293716125190258, -0.00511585408821702, -0.05162964016199112, -0.0029918604996055365, -0.0289913397282362, 0.039740268141031265, 0.08094419538974762, -0.022074347361922264, 0.031984757632017136, -0.006537218578159809, -0.07294979691505432, -0.002254890976473689, 0.001474400400184095, 0.030248554423451424, 0.034256841987371445, 0.03030344285070896, 0.026733051985502243, 0.03967783600091934, -0.03304482251405716, 0.014020876958966255, 0.0066274297423660755, 0.021624552085995674, -0.025446036830544472, -0.03269447386264801, 0.08422554284334183, 0.018399791792035103, -0.10390641540288925, 0.00424822885543108, 0.032863982021808624, -0.07683354616165161, -0.030810289084911346, 0.00274601555429399, 0.05121919512748718, 0.006437225267291069, 0.04685996472835541, 0.0712427943944931, -0.04224758967757225, -0.06965149194002151, 0.08096882700920105, -0.01393883302807808, -0.03808543458580971, -0.011280626058578491, -0.03669504076242447, -0.028195921331644058, -0.01022663339972496, 0.00502238841727376, -0.02435011975467205, 0.03701755777001381, -0.047908004373311996, 0.05332464352250099, -0.028318580240011215, -0.05633917450904846, -0.02365158312022686, -0.08105041086673737, -0.0883726254105568, -0.016924548894166946, 0.030183669179677963, -0.022295409813523293, -0.08899801224470139, 0.0560750812292099, -0.10850069671869278, 0.10913292318582535, 0.036883071064949036, -0.03485846891999245, 0.03639831021428108, 0.010089889168739319, 0.003181957174092531, -0.029429711401462555, -0.009353074245154858, 0.008564354851841927, -0.014055749401450157, 0.015052752569317818, 0.028456300497055054, 0.0832517072558403, -0.013159569352865219, -0.0029530765023082495, -0.02472102828323841, 0.006588595453649759, -0.013892515562474728, 0.01862877979874611, 0.004549237433820963, 0.003614249639213085, 0.04827817156910896, -0.0006337835802696645, -0.2909507155418396, -0.0011024392442777753, 0.055144764482975006, 0.0169653482735157, -0.10472925752401352, -0.01022860873490572, 0.014888772740960121, -0.018018366768956184, 0.016821501776576042, 0.010538165457546711, 0.12175815552473068, 0.003862423822283745, -0.0026728210505098104, 0.10832946002483368, 0.0007545438129454851, -0.02451234683394432, -0.03778970241546631, 0.02018211968243122, 0.021593106910586357, 0.0007816354045644403, 0.03633836284279823, -0.028053302317857742, 0.015435929410159588, -0.008536689914762974, 0.00867990218102932, -0.006900154519826174, 0.1768535077571869, -0.00035265006590634584, -0.0126486262306571, -0.037031617015600204, 0.0664745420217514, 0.08966290950775146, -0.02540859580039978, -0.18398158252239227, -0.04300390183925629, 0.016911230981349945, -0.03385430574417114, 0.014175956137478352, 0.04810195043683052, -0.028014948591589928, 0.008521318435668945, 0.07048413902521133, 0.04396197944879532, -0.04923991858959198, 0.04266908019781113, -0.018239285796880722, -0.0015731867169961333, 0.03261272609233856, 0.004244956187903881, 0.004600110929459333, 0.006516731344163418, -0.011612055823206902, 0.04998675733804703, 0.04413671791553497, -0.018202930688858032, -0.007335986476391554, 0.02888312004506588, 0.055297501385211945, -0.042250294238328934, 0.07009197026491165, -0.04169311746954918, 0.01843666099011898, -0.009517859667539597, -0.04872565343976021, 0.03913943096995354, 0.018855594098567963, -0.04517790675163269, -0.01666397415101528, 0.02344380132853985, 0.008229655213654041, -0.020815858617424965, 0.012062267400324345, 0.03843880072236061, 0.05314003303647041, -0.042339056730270386, -0.022807030007243156, 0.10830967873334885, 0.019059401005506516, -0.01770137809216976, -0.04182951897382736, -0.019840843975543976, 0.0376981757581234, 0.0257877130061388, -0.03325895592570305, 0.0018230411224067211, 0.08224521577358246, 0.03594820573925972, -0.0004397721204441041, -0.03144826740026474, -0.03850965201854706, -0.07309236377477646, -0.018983637914061546, -0.0484812892973423, -0.04633987694978714, 0.08286800235509872, -0.016434265300631523, -0.20089340209960938, -0.02533288300037384, -0.01322011649608612, -0.012846768833696842, -0.055194202810525894, -0.0006237319903448224, 0.05593229830265045, -0.027569252997636795, -0.09518750011920929, 0.026844460517168045, -0.04047456383705139, -0.02197021059691906, 0.03195979446172714, -0.014951341785490513, 0.08673194795846939, -0.013706458732485771, 0.05220482125878334, 0.03245016559958458, -0.03496643528342247, -0.0811341404914856, 0.0826442539691925, 0.017030296847224236, 0.15038572251796722, -0.044654905796051025, -0.00022574489412363619, 0.07635273039340973, 0.019568659365177155, -0.0257149338722229, 0.0273134745657444, 0.01949273981153965, -0.03493178263306618, -0.038590483367443085, 0.027995865792036057, -0.03758218139410019, 0.04631802812218666, 0.01305361744016409, 0.025947503745555878, -0.0063069527968764305, 0.041060592979192734, -0.024612879380583763, -0.018405528739094734, 0.021869538351893425, -0.04593491181731224, 0.0013885399093851447, 0.03533630818128586, -0.056879039853811264, -0.05390132591128349, 0.024716580286622047, 0.004759044852107763, 0.042646102607250214, -0.011100074276328087, -0.11540880799293518, -0.07453659176826477, -0.02079096809029579, -0.02266825921833515, 0.011255313642323017, 0.005092517007142305, -0.010846266523003578, -0.009883434511721134, 0.018477244302630424, 0.028626713901758194, 0.004958643112331629, 0.038489364087581635, -0.0035168195609003305, 0.011982492171227932]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>need_student_centric_pricing_plans</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>["Improvement needed: The only thing that I couldn't take advantage of about the company was its app, I was never able to access it correctly because my app store is from another country, so there are different features of the app I couldn't enjoy, I would love for the app to be global.\nReason for given NPS: I believe that the service is of good quality, but I feel the signal problems, and I would love to have options and packages with the target audience of students."]</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>[-0.019907889887690544, -0.0847754031419754, 0.008888313546776772, -0.009720702655613422, -0.018690425902605057, -0.022048629820346832, -0.07482535392045975, 0.10826917737722397, -0.018966754898428917, 0.012015435844659805, 0.030390184372663498, 0.04966989532113075, -0.007087543606758118, -0.0014321254566311836, 0.0860595852136612, -0.003108784556388855, 0.01984749548137188, 0.0012092802207916975, -0.0031563311349600554, 0.034972161054611206, 0.04022694006562233, -0.03263029828667641, -0.059264399111270905, -0.00993085652589798, 0.023612629622220993, -0.005294076167047024, -0.010513353161513805, -0.01223686058074236, -0.03055640682578087, -0.08199907839298248, 0.051225073635578156, 0.00025385303888469934, 0.02238241769373417, -0.021815171465277672, 0.022318311035633087, -0.0038895916659384966, 0.008166536688804626, -0.018630674108862877, 0.025227822363376617, 0.05183124542236328, -0.020535435527563095, -0.0039416165091097355, -0.10911719501018524, -0.009294494986534119, -0.021679896861314774, 0.00233182730153203, -0.008308839052915573, -0.061527568846940994, 0.008877309039235115, -0.008426105603575706, 0.06681917607784271, -0.05984199792146683, -0.06575147062540054, -0.01762489229440689, -0.0329090915620327, 0.044747527688741684, 0.0220038965344429, -0.0050648972392082214, 0.037691324949264526, -0.010875540785491467, -0.029289038851857185, 0.013346357271075249, -0.1606004685163498, 0.02271597646176815, -0.050536446273326874, -0.0009207058465108275, -0.014664514921605587, 0.027351057156920433, -0.006127555388957262, 0.04861373081803322, -0.01663380116224289, -0.03370131552219391, 0.016309989616274834, 0.09672870486974716, 0.014352619647979736, 0.005140053108334541, 0.011410287581384182, -0.001094259787350893, 0.014530729502439499, -6.0286470215942245e-06, -0.012867740355432034, 0.0021517581772059202, -0.0032842534128576517, -0.01266427244991064, 0.014502289704978466, -0.06592032313346863, 0.08530277758836746, -0.01976160891354084, 0.049589354544878006, -0.02973528951406479, 0.04655519872903824, -0.0678848847746849, -0.04642477631568909, 0.028270427137613297, -0.026756463572382927, 0.012761489488184452, 0.008537892252206802, 0.0383286252617836, -0.07385969907045364, 0.3823956549167633, 0.023948736488819122, 0.010318784974515438, 0.0564730167388916, -0.015466507524251938, -0.0005011796019971371, -0.06937360763549805, -0.030626561492681503, 0.034635432064533234, -0.0047573186457157135, 0.0033373618498444557, -0.0845024511218071, 0.014476675540208817, 0.03125496581196785, -0.031551558524370193, -0.003628053702414036, 0.05612734705209732, 0.010834511369466782, -0.06807330250740051, 0.03459428995847702, -0.014863517135381699, -0.011891167610883713, -0.018017033115029335, -0.003449710551649332, 0.010174443013966084, -0.05245529115200043, -0.03309584781527519, -0.0006393503281287849, 0.11897880584001541, -0.006504740100353956, 0.0718170776963234, 0.02613936923444271, -0.03010738268494606, -0.0647376999258995, 0.013059654273092747, -0.027441808953881264, 0.020962167531251907, 0.0321003794670105, 0.022809291258454323, -0.025195252150297165, 0.06393606215715408, -0.08804894983768463, 0.005460754968225956, -0.01687168888747692, -0.1014239639043808, -0.051679059863090515, 0.08486446738243103, -0.015793094411492348, 0.08001752197742462, -0.0018721751403063536, -0.040290527045726776, -0.021803153678774834, 0.0019577243365347385, 0.004189574625343084, -0.04132269322872162, -0.005134029313921928, 0.0033119837753474712, 0.05845937877893448, -0.0022138706408441067, 0.003755900776013732, -0.011730167083442211, 0.011097864247858524, -0.04320632293820381, -0.0775257870554924, 0.09668297320604324, 0.00022582837846130133, -0.07018212974071503, -0.020581815391778946, -0.012666089460253716, -0.062388915568590164, -0.014963686466217041, -0.029749233275651932, 0.08620550483465195, -0.023646140471100807, 0.03165270760655403, 0.13457533717155457, -0.010011850856244564, -0.048709090799093246, -0.00011646874918369576, -0.04949859902262688, -0.02951049618422985, 0.02025197260081768, 0.021787766367197037, -0.036747049540281296, 0.0250324085354805, 0.009683046489953995, -0.04338693618774414, 0.005424152128398418, -0.059650395065546036, 0.01290381420403719, -0.03899441286921501, -0.07074769586324692, -0.011286698281764984, -0.05862479284405708, -0.0007378130685538054, -0.040065791457891464, -0.003474850207567215, -0.000551098957657814, -0.053754616528749466, 0.01262255385518074, -0.008760856464505196, 0.0413818433880806, 0.00945909321308136, -0.0688600167632103, 0.06638936698436737, 0.00384312029927969, 0.03398621827363968, 0.07957514375448227, 0.016143692657351494, 0.0878930538892746, -0.01097849477082491, 0.05311338230967522, 0.008227809332311153, 0.07027553021907806, -0.023220151662826538, -0.052915699779987335, 0.02598710171878338, 0.019519859924912453, 0.03813551366329193, 0.03486881032586098, 0.016694245859980583, 0.035474441945552826, 0.0892777368426323, 0.021036069840192795, -0.2756129801273346, 0.049745261669158936, -0.01918260008096695, -0.035822317004203796, -0.03887218236923218, 0.0264878049492836, 0.028947528451681137, -0.029500426724553108, -0.044678013771772385, 0.1369510293006897, 0.08259333670139313, -0.03640592098236084, 0.029436150565743446, -0.04425403103232384, 0.043730344623327255, -0.016062172129750252, -0.0170233566313982, -0.017545869573950768, 0.010934264399111271, -0.03139008581638336, -0.0051603782922029495, 0.04131150618195534, -0.003930119331926107, -0.04690181463956833, 0.06657503545284271, 0.02678404562175274, 0.1754201203584671, -0.02636251039803028, -0.023473380133509636, -0.018586406484246254, 0.04597507789731026, 0.05512417480349541, -0.009576643817126751, -0.008725306019186974, -0.022588374093174934, 0.013929987326264381, -0.003484455868601799, 0.008659813553094864, 0.06008875370025635, -0.027467437088489532, 0.03951086103916168, 0.07111544162034988, -0.05848299339413643, -0.044565945863723755, -0.0468566007912159, -0.00812854990363121, 0.0015518494183197618, 0.08942257612943649, -0.037565432488918304, 0.054868727922439575, -8.099439583020285e-05, -0.06319363415241241, 0.03156649321317673, -0.03421773761510849, 0.030383428558707237, -0.016816528514027596, -0.06987942010164261, 0.017684295773506165, 0.0017849755240604281, 0.04874743893742561, 0.0036858587991446257, 0.008734147995710373, 0.04274895042181015, -0.016461260616779327, 0.0011829618597403169, -0.04153114929795265, 0.04766898974776268, -0.051158756017684937, -0.07909244298934937, 0.014538896270096302, -0.01993003860116005, -0.019767114892601967, 0.05086337402462959, 0.01227529812604189, -0.005983337294310331, -0.025334184989333153, 0.029135817661881447, 0.02626030333340168, 0.0009317939984612167, 0.014791947789490223, -0.014063766226172447, -0.007867514155805111, -0.022867970168590546, -0.008238065987825394, 0.038722023367881775, 0.04219164699316025, 0.014413024298846722, -0.004901486448943615, 0.00810561329126358, -0.022860748693346977, -0.06266207247972488, 0.012259102426469326, 0.010547244921326637, 0.05528062582015991, 0.04519706964492798, 0.006734681781381369, -0.24677729606628418, 0.007039121352136135, -0.02127949148416519, 0.005196584388613701, 0.03756341710686684, 0.011993319727480412, 0.01906624808907509, 0.0017767316894605756, -0.05558709800243378, -0.004895571153610945, 0.03424687683582306, 0.011659749783575535, -0.05839602276682854, -0.044487860053777695, 0.027505820617079735, -0.009569330140948296, 0.10969343781471252, -0.04637385904788971, -0.004111041780561209, -0.002647015731781721, 0.024072138592600822, -0.013456868007779121, 0.1597282439470291, -0.027868790552020073, -0.02107478305697441, -0.05915158614516258, -0.03707226738333702, 0.03536134958267212, 0.10905545949935913, 0.0225418359041214, -0.03658685088157654, -0.01788897067308426, 0.07285304367542267, -0.03652942180633545, -0.000712426844984293, 0.0683944970369339, -0.014280829578638077, -0.03611214458942413, -0.006638864986598492, -0.0005600436707027256, -0.0490371398627758, -0.0009399186819791794, -0.059673063457012177, 0.03367123752832413, 0.08223322033882141, 0.02589796669781208, 0.022995132952928543, -0.024791628122329712, -0.03617120906710625, 0.01479421742260456, -0.02218758314847946, -0.02700502797961235, -0.010051337070763111, 0.01873362809419632, 0.02528379112482071, 0.06767787784337997, -0.055812980979681015, 0.003179568564519286, -0.06501282006502151, -0.06361056864261627, -0.013221168890595436, 0.02566799335181713, 0.00021243577066343278, 0.016283946111798286, -0.013585654087364674]</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>need_for_wifi_calling_functionality</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>['Improvement needed: since 5g, there  is alot of signal drop out. if it was not for sure signal and now wifi calling i would not be able to connect to the network from home.\nReason for given NPS: pricing and carryover data']</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>[-0.01313774287700653, -0.07192794233560562, 0.035636045038700104, -0.0805431455373764, -0.06025734916329384, -0.051238976418972015, 0.010514497756958008, 0.10894016921520233, -0.0019480364862829447, -0.032918814569711685, -0.024117929860949516, 0.0028855903074145317, 0.015146341174840927, 0.006044033449143171, 0.05629875883460045, 0.045891087502241135, 0.022229718044400215, 0.006672561168670654, -0.05492551624774933, 0.05209113284945488, 0.06887999176979065, 0.009934229776263237, -0.008123887702822685, 0.03129614517092705, -0.0012697787024080753, 0.020608317106962204, -0.015725882723927498, 0.004258803091943264, -0.031430650502443314, -0.06811163574457169, 0.03224761784076691, 0.01467498205602169, 0.03599273040890694, 0.0328618586063385, -0.012363455258309841, -0.018440013751387596, -0.025289788842201233, -0.049124497920274734, -0.029389264062047005, 0.06612850725650787, 0.019860422238707542, -0.0052584027871489525, -0.02533571422100067, 0.016929570585489273, -0.04154551029205322, -0.03913046419620514, -0.007057582959532738, 0.015245254151523113, 0.006617994047701359, -0.05793820694088936, 0.024145061150193214, 0.0489095114171505, -0.04157416522502899, -0.03488493338227272, 0.08085301518440247, 0.015018902719020844, 0.06874935328960419, 0.040570877492427826, 0.049088988453149796, 0.008524871431291103, 0.07828371971845627, 0.01591397263109684, -0.12759894132614136, 0.048335712403059006, -0.01033765822649002, -0.028844021260738373, 0.027198242023587227, -0.006362954620271921, 0.05831867456436157, 0.00983390025794506, -0.038182731717824936, 0.04245138168334961, -0.01901266537606716, 0.08593060821294785, 0.060895781964063644, -0.003128137206658721, -0.04472314566373825, 0.02690868452191353, 0.014055934734642506, 0.007295978255569935, -0.02342851273715496, -0.00397704541683197, 0.0035185706801712513, 0.001199431368149817, 0.004645829554647207, -0.03642689064145088, -0.035312652587890625, -0.004485641606152058, -0.001540199271403253, -0.03327038139104843, -0.09727959334850311, 0.016618847846984863, -0.039267316460609436, 0.06994755566120148, -0.07860902696847916, 0.025247808545827866, 0.01594916358590126, 0.019532328471541405, -0.138004332780838, 0.37401872873306274, -0.002287705196067691, 0.010349763557314873, -0.00439380994066596, 0.016791095957159996, -0.021660763770341873, -0.0363381952047348, -0.0464666411280632, -0.039347775280475616, -0.05627162754535675, 0.05589134246110916, -0.017957530915737152, -0.048705171793699265, 0.010836256667971611, -0.007255712058395147, 0.03851950541138649, 0.08966991305351257, -0.013933965004980564, -0.03044453263282776, -0.016058605164289474, 0.04541042074561119, 0.013462251052260399, -0.03304477781057358, 0.04183555766940117, 0.05205465480685234, 0.039110489189624786, -0.06554768234491348, 0.07056162506341934, 0.0603179968893528, -0.006992734968662262, 0.11443246901035309, 0.0030388757586479187, -0.02671411633491516, -0.003938938491046429, 0.009490425698459148, -0.04536198824644089, -0.008990908041596413, 0.0013309402856975794, 0.010773956775665283, -0.03745470196008682, 0.055343419313430786, 0.0013300057034939528, -0.08424178510904312, 0.03253813460469246, -0.018206065520644188, 0.04729064181447029, 0.07469277083873749, -0.052962202578783035, 0.054671090096235275, -0.016555119305849075, -0.11073264479637146, 0.023846199735999107, 0.040886279195547104, 0.03763069957494736, -0.005342449061572552, -0.05509479343891144, 0.003396405139937997, 0.00777890719473362, 0.029718466103076935, 0.022934436798095703, 0.03306538984179497, -0.022862983867526054, -0.046726617962121964, -0.015554580837488174, 0.03727490454912186, -0.011530422605574131, -0.08470658212900162, -0.015035434626042843, 0.02082865685224533, -0.09023837745189667, -0.003542732447385788, -0.04574668034911156, -0.029013678431510925, -0.016642097383737564, 0.029060140252113342, 0.0455203503370285, 0.005121707916259766, -0.10058759152889252, 0.04391913861036301, -0.028252091258764267, -0.022760696709156036, -0.029096314683556557, -0.0038637539837509394, 0.003339537652209401, -0.05605413764715195, 0.0005912480992265046, -0.05771623179316521, -0.021303661167621613, -0.02351515367627144, 0.05445185303688049, -0.02283533290028572, -0.11245018988847733, -0.03507969528436661, 0.005976906977593899, -0.05290219187736511, -0.015648428350687027, -0.024244971573352814, -0.027528097853064537, 0.011465177871286869, -0.013144259341061115, 0.01650204136967659, 0.05912484973669052, 0.0027541951276361942, 0.00427544629201293, -0.0012501352466642857, -0.028831513598561287, -0.0005254187854006886, -0.019199993461370468, 0.0070798988454043865, 0.04551710933446884, -0.037993188947439194, 0.038627348840236664, -0.0386686846613884, 0.08083570748567581, 0.019329803064465523, -0.05117177218198776, -0.030523216351866722, -0.0021619501058012247, 0.028076456859707832, 0.02440907061100006, 0.03125514090061188, -0.006840755697339773, 0.035978224128484726, -0.002339867176488042, -0.2965412735939026, -0.011821554973721504, 0.04190536215901375, -0.041176971048116684, -0.07751454412937164, -0.052461814135313034, 0.015524128451943398, 0.013588404282927513, -0.05291574075818062, 0.06951843202114105, 0.10536009073257446, 0.039963800460100174, -0.007790809962898493, -0.0027716970071196556, -0.03180745616555214, 0.032361455261707306, -0.03554810956120491, -0.049216676503419876, -0.05454157665371895, 0.046364326030015945, 0.004776423331350088, 0.009475425817072392, -0.008870940655469894, -0.045649897307157516, 0.004419643431901932, -0.009950662963092327, 0.1384745091199875, -0.015491913072764874, 0.048470597714185715, -0.03330737724900246, 0.05598751828074455, 0.0400501973927021, -0.04204829782247543, -0.08066186308860779, 0.01623116433620453, 0.057658564299345016, -0.005120594520121813, 0.04144562780857086, 0.047195784747600555, -0.009447549469769001, -0.03873176500201225, 0.07356628775596619, -0.01660163886845112, -0.031092923134565353, 0.015665920451283455, -0.003523132298141718, -0.020201485604047775, 0.0032821150962263346, -0.041401833295822144, -0.014263976365327835, 0.028275728225708008, 0.020216813310980797, 0.04895563796162605, -0.012480128556489944, 0.027943149209022522, -0.0028171532321721315, 0.011075480841100216, 0.010369735769927502, -0.010462080128490925, 0.0029442787636071444, 0.012082626111805439, 0.06975885480642319, 0.005117777734994888, -0.04413627088069916, 0.04713688790798187, -0.015283449552953243, -0.010429657064378262, -0.023214848712086678, 0.022600147873163223, 0.025945419445633888, -0.002191863488405943, 0.016211895272135735, 0.008907106705009937, 0.04454778879880905, 0.005082061048597097, -0.03183194622397423, 0.033677686005830765, -0.050407394766807556, 0.012288803234696388, -0.044256541877985, 0.024844331666827202, -0.0526091568171978, 0.015097079798579216, 0.004218338523060083, 0.005659186746925116, 0.03367077186703682, 0.04056015610694885, 0.034411948174238205, 0.010553417727351189, -0.02018405869603157, -0.04333469271659851, 0.003073488362133503, 0.05806855857372284, 0.012707977555692196, 0.09644050896167755, -0.01589995063841343, -0.21672970056533813, -0.05188030004501343, 0.05710406228899956, 0.029570292681455612, -0.04374323785305023, 0.014176302589476109, 0.1036134585738182, 0.04382804408669472, -0.16313394904136658, 0.05627230182290077, -0.01848737522959709, -0.008458352647721767, -0.04753874987363815, 0.006845070980489254, 0.03256549686193466, 0.05333076789975166, 0.05103715881705284, -0.026973996311426163, -0.0792287066578865, -0.056081242859363556, 0.023359166458249092, -0.004611215088516474, 0.11855558305978775, -0.07835769653320312, 0.0891105979681015, 0.07530289888381958, -0.011381310410797596, 0.017218338325619698, 0.08407425135374069, -0.03367924690246582, -0.0017325632506981492, -0.05091485008597374, 0.07937522977590561, -0.0698135495185852, 0.02304915525019169, -0.023293353617191315, 0.03699944168329239, -0.01913692243397236, -0.013014017604291439, -0.05833044648170471, -0.02695024386048317, 0.01377036515623331, -0.03500567004084587, -0.01991603523492813, 0.052437037229537964, -0.014706594869494438, -0.04027209430932999, -0.027911165729165077, 0.0395384281873703, 0.01370849646627903, -0.06045159697532654, -0.0614372082054615, -0.04300171881914139, 0.016122037544846535, 0.03506065532565117, 0.006483288481831551, -0.024133609607815742, 0.02751084975898266, -0.04731592908501625, 0.04431823268532753, 0.022530438378453255, -0.03696585074067116, 0.10456619411706924, 0.008259041234850883, 0.010015747509896755]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>need_for_promotional_free_weekend_data_minutes</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>['Improvement needed: No deposit upgrades with interest freepayments\nReason for given NPS: Never had any issues would not change']</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>[-0.034763116389513016, -0.050285883247852325, 0.03889228776097298, -0.010369179770350456, 0.05521738901734352, 0.0008035119972191751, -0.03478752076625824, 0.0062978812493383884, 0.013800020329654217, -0.005967449396848679, -0.04077945277094841, 0.06131724640727043, 0.016527192667126656, 0.02686762623488903, 0.047384247183799744, 0.014930946752429008, 0.060873035341501236, -0.03727363422513008, -0.04799223691225052, 0.026958009228110313, 0.044336140155792236, -0.05070231109857559, -0.03918721526861191, -0.02593114599585533, -0.012188458815217018, -0.031108016148209572, -0.014270119369029999, -0.041153907775878906, -0.06783409416675568, -0.09456359595060349, -0.034392666071653366, -0.052708208560943604, 0.011545323766767979, 0.01137855276465416, 0.07129307836294174, -0.008956250734627247, -0.04593046382069588, -0.0008720128680579364, -0.004670290742069483, 0.019707554951310158, 0.006116381846368313, 0.02206609770655632, -0.030853569507598877, 0.051591575145721436, -0.06361856311559677, -0.05567546188831329, -0.005176472011953592, -0.02888408862054348, 0.03992973640561104, 0.036622460931539536, 0.010922067798674107, 0.015958022326231003, -0.018117278814315796, 0.008216941729187965, 0.018561605364084244, 0.04520201310515404, 0.030889566987752914, -0.02036338299512863, -0.021990781649947166, -0.009534946642816067, -0.000492132909130305, 0.04051024839282036, -0.12301328033208847, 0.024197328835725784, -0.02507585845887661, 0.016672102734446526, -0.022420575842261314, 0.004749208688735962, -0.008085593581199646, 0.017848297953605652, -0.0741037130355835, -0.019320031628012657, 0.006255532614886761, 0.07450004667043686, -0.0028030851390212774, 0.017433982342481613, -0.031911637634038925, -0.0016226109582930803, -0.04040125384926796, -0.0039630490355193615, -0.03847017139196396, -0.024537259712815285, 0.027270210906863213, -0.01795593649148941, 0.007603215519338846, -0.05541420355439186, 0.03762805461883545, 0.02400861494243145, 0.07201024144887924, -0.014762821607291698, 0.01364060677587986, -0.016233861446380615, 0.021681049838662148, 0.0442684069275856, -0.08253347128629684, -0.028507797047495842, 0.06315583735704422, 0.04408537968993187, -0.047010838985443115, 0.3718969225883484, -0.04878956079483032, 0.05710439383983612, 0.01589449867606163, -0.04535438492894173, -0.02239025942981243, -0.07469239085912704, -0.021460749208927155, -0.004406439606100321, -0.041844286024570465, -0.002462170785292983, -0.04096139967441559, -0.007533343508839607, 0.06643948704004288, -0.08721226453781128, 0.01275225356221199, 0.053970109671354294, 0.009284146130084991, -0.03428211808204651, 0.025465775281190872, -0.001589318853802979, -0.014385989867150784, -0.051356758922338486, 0.048451006412506104, 0.010740445926785469, 0.00747912609949708, 0.00177184643689543, 0.01346859522163868, 0.10143420100212097, -0.010853583924472332, 0.05316879600286484, 0.036323510110378265, 0.007451409939676523, -0.05233221501111984, 0.029985634610056877, 0.01195951085537672, -0.09068723767995834, 0.04586903378367424, 0.015838146209716797, 0.06072336062788963, -0.03766212239861488, -0.04752213880419731, -0.05247388035058975, -0.006420845631510019, -0.050599996000528336, -0.00711098313331604, 0.13679859042167664, 0.00275629386305809, 0.04875883832573891, -0.014609117992222309, -0.07185593992471695, -0.054098986089229584, 0.042546458542346954, 0.006670675240457058, -0.06705449521541595, -0.025588106364011765, 0.030267387628555298, 0.06041891872882843, -0.003499426878988743, -0.012678862549364567, 0.017019303515553474, -0.006462333258241415, -0.03171733766794205, 0.04138355702161789, 0.04290684312582016, -0.004524942021816969, -0.12259455025196075, 0.027247773483395576, 0.038326699286699295, -0.023648934438824654, 0.002079304773360491, -0.035423655062913895, 0.0002578946005087346, -0.0606011301279068, 0.02362348511815071, 0.15960432589054108, -0.02881753258407116, -0.015060411766171455, 0.061410460621118546, 0.014278356917202473, -0.016242466866970062, 0.01090928539633751, -0.0510670505464077, -0.02312987484037876, 0.009051932953298092, 0.0005073029897175729, -0.0610479936003685, -0.04334942623972893, 0.01868753880262375, 0.01039454247802496, 0.05005021020770073, -0.03277738019824028, -0.08171731233596802, -0.020655762404203415, -0.011747278273105621, -0.05676279589533806, -0.06650666892528534, 0.0029202867299318314, -0.005411536432802677, 0.03613142669200897, -0.07720549404621124, 0.0017001454252749681, -0.05731680989265442, 0.007816598750650883, 0.03018948808312416, 0.05621713772416115, 0.04295899718999863, -0.011590917594730854, -0.028973741456866264, 0.09460010379552841, 0.0035534093622118235, 0.02611253224313259, -0.03188662976026535, 0.029132883995771408, -0.06861584633588791, -0.005034961272031069, 0.0644112378358841, -0.0019061923958361149, -0.0025740256533026695, 0.019637973979115486, 0.04437211528420448, -0.013423752039670944, 0.08936481922864914, 0.028515024110674858, -0.2999436855316162, 0.04202607274055481, 0.0035801641643047333, 0.011465907096862793, -0.010475018993020058, 0.009281442500650883, 0.039296869188547134, -0.03550809621810913, 0.016912728548049927, 0.09544441848993301, 0.06548713147640228, -0.013778751716017723, -0.07127873599529266, -0.06588150560855865, -0.01500006578862667, -0.024777386337518692, -0.020963221788406372, 0.04246853291988373, 0.00863051787018776, 0.03803816810250282, 0.09733923524618149, -0.03134940564632416, 0.03518754988908768, -0.05813053995370865, 0.007897073403000832, -0.006487774662673473, 0.1579127460718155, 0.013080604374408722, -0.005998576525598764, -0.05121835321187973, 0.015926798805594444, 0.04217059537768364, -0.01605323888361454, -0.07053083181381226, -0.0033167076762765646, 0.009486792609095573, -0.034781720489263535, 0.045672111213207245, -0.012263673357665539, -0.001195077900774777, -0.01824798807501793, 0.07781728357076645, 0.05152483657002449, -0.016809294000267982, 0.03526812791824341, -0.021344458684325218, -0.021204330027103424, 0.034085892140865326, -0.017756415531039238, 0.003643147414550185, 0.020655525848269463, -0.03695986047387123, 0.08619468659162521, 0.06636220216751099, 0.07580064237117767, -0.040857184678316116, -0.016707532107830048, 0.020029623061418533, -0.05629858002066612, 0.004216032102704048, 0.011874744668602943, -0.04852527007460594, 0.00966348871588707, -0.01121929194778204, 0.0009778084931895137, 0.03403596952557564, -0.03187451511621475, -0.04421759024262428, -0.00583221111446619, 0.0032452319283038378, 8.246335346484557e-05, -0.015377226285636425, 0.0032059273216873407, -0.002594196004793048, 0.0005676224827766418, -0.04178954288363457, 0.017465675249695778, 0.0028939670883119106, 0.005406677722930908, -0.006522546987980604, -0.014909667894244194, 0.013227485120296478, 0.026403840631246567, 0.04417414590716362, 0.00044068630086258054, 0.04235712066292763, 0.02682557888329029, 0.06643901020288467, -0.01590549387037754, -0.00964843388646841, 0.006262336391955614, 0.026585422456264496, -0.004716137424111366, 0.04355223849415779, 0.07109476625919342, -0.013898264616727829, -0.2865528166294098, 0.042682938277721405, 0.025924261659383774, -0.03264464810490608, 0.0902274027466774, 0.03530203923583031, -0.00276194023899734, -0.00879820715636015, -0.11510269343852997, -0.03457554057240486, -0.047563064843416214, 0.05800894647836685, -0.03620791807770729, -0.016809990629553795, 0.03522796183824539, 0.05841636285185814, 0.03127421438694, 0.004262915346771479, -0.033307623118162155, -0.007327248342335224, 0.025011535733938217, -0.001053002430126071, 0.1823345571756363, -0.01737259142100811, -0.03238954022526741, 0.01965169422328472, -0.010592527687549591, -0.04771384596824646, 0.11123097687959671, 0.016921356320381165, -0.03192997723817825, -0.03142324835062027, 0.06619453430175781, 0.0011042453115805984, -0.0567842498421669, 0.03634290397167206, -0.05438115820288658, 0.005475214682519436, 0.01165537815541029, -0.006428554188460112, -0.021021177992224693, 0.006221050396561623, -0.04796399921178818, -0.0063169836066663265, 0.044497232884168625, 0.013710372149944305, 0.017631659284234047, -0.07190893590450287, -0.036633338779211044, 0.026809047907590866, -0.021429570391774178, -0.012921234592795372, -0.037533704191446304, -0.006278329528868198, -0.0053193834610283375, -0.0014957112725824118, 0.011822621338069439, 0.03610227629542351, 0.07142370939254761, -0.007394926156848669, -0.014630836434662342, -0.02317238785326481, 0.02309235744178295, -0.023470114916563034, -0.023294588550925255]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>clarity_needed_for_insurance_policies</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>['Improvement needed: I think it would just be more information on certain sectors that you have in your company and the correct contact details for them. You should also look into your insurance policies and the definitions that you have for ALL of your customers\nReason for given NPS: Your services are great and are affordable than other phone service providers i have tried. I like the constant communication with the customer and the convenience of the app too']</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>[-0.03672900050878525, -0.05255687236785889, 0.0029274672269821167, -0.016398364678025246, -0.005357413552701473, 0.03973570093512535, 0.030673934146761894, 0.08827477693557739, 0.014991648495197296, -0.04387449100613594, -0.0028552974108606577, -0.010049342177808285, 0.017102601006627083, 0.032282084226608276, 0.014393316581845284, 0.024859093129634857, 0.024458151310682297, 0.007298757322132587, -0.015816455706954002, 0.04610206559300423, 0.048789843916893005, -0.047957535833120346, -0.03694384545087814, -0.004012076649814844, 0.022551342844963074, 0.0017083154525607824, 0.03654242679476738, -0.020602919161319733, -0.007188193500041962, -0.12953011691570282, -0.004191222600638866, 0.006671414710581303, -0.03255872800946236, -0.02401522919535637, 0.03367654234170914, 0.02300482988357544, -0.02061268873512745, -0.012983695603907108, 0.008563515730202198, 0.02057545632123947, 0.0263049378991127, 0.055265873670578, -0.05246611684560776, -0.016752464696764946, 0.0037958426401019096, -0.015414957888424397, 0.005957284010946751, 0.01578238047659397, -0.028061922639608383, -0.04935834929347038, 0.019675256684422493, -0.04177529364824295, 0.006543420720845461, -0.013724911957979202, 0.00023011682787910104, -0.02163737826049328, 0.04933248460292816, 0.055310364812612534, -0.021011728793382645, 0.004633097443729639, 0.016810327768325806, 0.003611283376812935, -0.18639737367630005, 0.05115310475230217, -0.026566337794065475, 0.017216376960277557, 0.002127643907442689, -0.024286773055791855, -0.019500045105814934, 0.03483685478568077, -0.008577851578593254, -0.039923783391714096, 0.02814418449997902, 0.05016898736357689, -0.039117369800806046, -0.03129809349775314, 0.011866236105561256, -0.005899408832192421, -0.010335930623114109, 0.04547663778066635, -0.0033773246686905622, 0.0026451535522937775, 0.04872937500476837, -0.018955377861857414, -0.0181695856153965, -0.05453263223171234, 0.058315251022577286, -0.05078328773379326, 0.013130873441696167, 0.014015011489391327, 0.014404548332095146, -0.038179829716682434, 0.02469870075583458, 0.023666193708777428, 0.0020170656498521566, 0.02278629131615162, -0.024815328419208527, 0.014224963262677193, -0.05361785739660263, 0.41345757246017456, 0.00012699943908955902, 0.023845946416258812, 0.029755588620901108, 0.029609838500618935, -0.0010634580394253135, -0.042320795357227325, -0.007487685419619083, -0.010121510364115238, 0.014663546346127987, -0.009393504820764065, 0.01795363239943981, -0.027536174282431602, 0.04345611482858658, 0.010232493281364441, -0.014836253598332405, 0.09384973347187042, 0.043369509279727936, -0.03807385265827179, 0.03546154126524925, -0.04396672919392586, 0.06640059500932693, 0.01961607113480568, 0.0022057476453483105, 0.04900021106004715, -0.03731001168489456, -0.005011450964957476, 0.02675388753414154, 0.09048277884721756, 0.01064152829349041, 0.06682751327753067, 0.0013814832782372832, -0.05961528420448303, 0.020056014880537987, -0.01830650493502617, -0.013428634032607079, -0.016127828508615494, -0.03310919553041458, 0.08433637022972107, 0.04130011796951294, 0.05919385328888893, 0.015498354099690914, -0.012712119147181511, -0.022614238783717155, -0.10776171088218689, -0.004512015730142593, 0.13185137510299683, -0.03455847129225731, 0.04066513106226921, -0.045602452009916306, -0.08573750406503677, 0.0062459916807711124, 0.006620162166655064, 0.01626560278236866, -0.07510796189308167, 0.006252675782889128, 0.012708020396530628, 0.013781910762190819, -0.03713080286979675, -0.027437200769782066, 0.005404284689575434, 0.13030947744846344, -0.07309608906507492, -0.07127603143453598, 0.10102582722902298, -0.06403400003910065, -0.0243014357984066, -0.008002812042832375, -0.019144589081406593, -0.032331351190805435, -0.015324370004236698, -0.015819208696484566, 0.04546508193016052, -0.032281454652547836, 0.03502224013209343, 0.01904316619038582, 0.0342116504907608, -0.044631559401750565, 0.06445057690143585, -0.06125444173812866, -0.018892798572778702, 0.025332871824502945, -0.045098982751369476, -0.042090605944395065, 0.008350871503353119, -0.0011725721415132284, -0.016019130125641823, 0.007081485819071531, -0.013395192101597786, 0.040648769587278366, -0.01594345085322857, -0.005805347580462694, -0.023036368191242218, -0.015260270796716213, 0.018471285700798035, -0.0551418773829937, 0.005788142792880535, -0.0196281336247921, -0.006068393588066101, -0.02350369282066822, -0.03890221193432808, -0.003269090550020337, -0.040201153606176376, 0.003091116202995181, 0.05187781900167465, -0.0260273739695549, 0.03686065226793289, -0.0021270751021802425, -0.026848264038562775, 0.05335725098848343, 0.01742832362651825, -0.006800695322453976, 0.032731764018535614, 0.06886164098978043, 0.02136916108429432, 0.05659300833940506, 0.027736397460103035, 0.009396807290613651, 0.02485794574022293, 0.019604524597525597, -0.02051963098347187, 0.05557543784379959, 0.0689348578453064, 0.04136268049478531, -0.29889798164367676, -0.04375007003545761, -0.04205313324928284, 0.01819443516433239, -0.03025870770215988, -0.08117842674255371, 0.02377944439649582, 0.03267010301351547, -0.08453868329524994, 0.0986439511179924, 0.01753208227455616, 0.0012502999743446708, 0.009722033515572548, -0.008410397917032242, -0.04014512524008751, -0.009221072308719158, 0.023841220885515213, -0.027206825092434883, -0.0729629322886467, 0.06199422478675842, 0.009551302529871464, 0.054195210337638855, -0.01714351214468479, -0.08702794462442398, 0.08258261531591415, 0.012489208951592445, 0.15735141932964325, -0.03352995216846466, -0.004075685981661081, 0.04387428238987923, -0.011876042932271957, 0.0030956752598285675, -0.059191666543483734, -0.10976259410381317, 0.03902509808540344, 0.043121691793203354, -0.09299421310424805, 0.01789417490363121, -0.016017673537135124, -0.04299360141158104, 0.06536740809679031, 0.05322340875864029, -0.12169116735458374, 0.013828487135469913, -0.014894439838826656, -0.06492999941110611, -0.016809914261102676, 0.10113286226987839, -0.06912493705749512, 0.01502771582454443, 0.028039967641234398, 0.002605294808745384, 0.002864643931388855, 0.013642055913805962, 0.0411328561604023, -0.004483568482100964, -0.05796613171696663, -0.021306894719600677, -0.05720752105116844, 0.0379331074655056, -0.0012771548936143517, 0.01631290838122368, 0.08755441009998322, -0.06069456413388252, 0.008241448551416397, -0.016890503466129303, 0.01879378780722618, -0.0342569462954998, -0.03668731078505516, 0.013815673068165779, -0.07609442621469498, 0.023364972323179245, -0.018473170697689056, -0.0896613746881485, -0.031414926052093506, 0.03439740091562271, 0.015161033719778061, 0.0005553860100917518, -0.017763497307896614, -0.039197131991386414, 0.06812809407711029, -0.00526506919413805, 0.040325649082660675, 0.03376596048474312, -0.017978953197598457, 0.024866685271263123, -0.020925376564264297, 0.012801570817828178, -0.03537046164274216, -0.0027350340969860554, -0.01689942367374897, -0.033309996128082275, -0.019745737314224243, -0.016078533604741096, 0.06274211406707764, -0.07768920809030533, -0.2625800371170044, 0.00723813334479928, -0.004925025161355734, 0.03229309991002083, 0.0063119689002633095, -0.002311792690306902, 0.0022612567991018295, -0.018159255385398865, -0.03592712804675102, 0.010900120250880718, 0.009029757231473923, 0.06990339607000351, -0.0028895882423967123, -0.0031254999339580536, -0.021206146106123924, 0.055214159190654755, 0.0930943638086319, -0.04090119153261185, 0.0159784983843565, 0.011163017712533474, 0.03002900816500187, -0.021760426461696625, 0.14686542749404907, -0.010899004526436329, -0.027606310322880745, -0.04310331866145134, -0.025797955691814423, -0.01387376431375742, 0.0039059962145984173, 0.036565735936164856, -0.008110065013170242, -0.027807993814349174, 0.008062767796218395, 0.011845095083117485, 0.05428066849708557, 0.02400754950940609, -0.04467359930276871, 0.0018310646992176771, 0.01904580369591713, 0.020382540300488472, -0.025780869647860527, -0.021947532892227173, 0.06506668031215668, 0.023600714281201363, 0.05952224135398865, -0.034595292061567307, -0.06203759089112282, -0.023713646456599236, 0.01198016107082367, 0.034202661365270615, -0.035991519689559937, 0.015545102767646313, -0.019369155168533325, 0.002619613893330097, 0.027844881638884544, -0.0006022449233569205, -0.040147144347429276, 0.014707334339618683, 0.026919472962617874, -0.008514896035194397, -0.025942644104361534, -0.010230415500700474, 0.037363626062870026, -0.003848602995276451, 0.019504982978105545]</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>provide_discounts_on_streaming_services</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Give more options to make direct debits to come out on weekly or fortnightly options\nMore rewards (such as Spotify or Netflix discounts with the plan)\n']</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>[-0.05071856454014778, -0.01464789267629385, 0.019062122330069542, 0.005913158878684044, 0.007544281892478466, -0.016093583777546883, -0.01901518739759922, 0.08217913657426834, 0.02701534889638424, 0.010228429920971394, -0.03528628498315811, 0.005904731806367636, -0.05882636085152626, 0.036541424691677094, 0.04759620875120163, 0.017943596467375755, 0.05863138660788536, 0.028676297515630722, -0.11789001524448395, 0.01389986276626587, 0.06630206853151321, -0.10268577933311462, -0.024959014728665352, -0.035460345447063446, -0.020279411226511, -0.0842183530330658, -0.03566437587141991, -0.0043272580951452255, -0.045740049332380295, -0.05950507894158363, 0.0614234060049057, -0.08938980847597122, -0.009248687885701656, 0.01320917159318924, -0.028718948364257812, -0.062263745814561844, 0.010451195761561394, -0.031305886805057526, -0.05587652325630188, 0.06749440729618073, 0.03235417604446411, -0.005549196619540453, -0.059043776243925095, 0.01800089329481125, -0.05818697810173035, -0.01689152419567108, 0.021112864837050438, 0.049601197242736816, 0.048284899443387985, 0.014786901883780956, 0.002377832541242242, 0.011094381101429462, -0.008155787363648415, -0.02781395986676216, -0.01587672531604767, -0.012264958582818508, -0.01509889680892229, 0.050002485513687134, -0.005986577831208706, -0.008533925749361515, -0.002322831656783819, -0.025401223450899124, -0.1391310691833496, 0.03774767369031906, -0.06443684548139572, 0.0684032067656517, 0.0007391400285996497, 0.021012770012021065, 0.04357283562421799, -0.0013382681645452976, -0.04093868285417557, 0.019005216658115387, 0.044639747589826584, 0.055863864719867706, 0.03261911869049072, 0.021450329571962357, -0.004818817134946585, 0.013261604122817516, -0.05397960916161537, 0.00408739922568202, 0.002647077664732933, -0.06274335086345673, 0.015138047747313976, 0.06810501962900162, 0.016230078414082527, -0.018961327150464058, 0.055286139249801636, -0.015223645605146885, 0.019337991252541542, -0.013367634266614914, -0.03604903444647789, 0.026341313496232033, -0.021884111687541008, 0.031759463250637054, -0.08839723467826843, -0.02069883421063423, 0.0473698228597641, 0.024218302220106125, -0.061042241752147675, 0.34065166115760803, 0.00666047865524888, 0.0273806843906641, 0.010662313550710678, -0.03347935527563095, 0.03209720551967621, -0.08774752914905548, -0.040827780961990356, 0.02644933946430683, -0.0018372057238593698, 0.02439526841044426, -0.04729456827044487, -0.015040837228298187, 0.05275392532348633, -0.04668072983622551, 0.013508441857993603, 0.08811133354902267, -0.045634545385837555, 0.025496093556284904, 0.04971705749630928, -0.018798114731907845, -0.018560634925961494, 0.009705932810902596, 0.03793999180197716, -0.01540486328303814, -0.03001958690583706, -0.037269316613674164, 0.07344891875982285, 0.12890169024467468, -0.04062219709157944, 0.03617316111922264, -0.016821224242448807, -0.0411200150847435, -0.01570736989378929, 0.013088488951325417, 0.033694054931402206, 0.0021032707300037146, 0.0029020386282354593, 0.009280724450945854, 0.030982309952378273, 0.11196516454219818, 0.022610139101743698, -0.03791075572371483, 0.015255630016326904, -0.10434873402118683, 0.05568437650799751, 0.07274668663740158, 0.034525878727436066, 0.07474938780069351, -0.014598729088902473, -0.05978774651885033, -0.004277628846466541, 0.013408287428319454, -0.012248565442860126, -0.056419964879751205, -0.0725756585597992, 0.017255771905183792, 0.0191509872674942, -0.027758104726672173, -0.06897341459989548, 0.05155105143785477, -0.013257238082587719, -0.04604562371969223, 0.012455611489713192, 0.05854625999927521, -0.03623100742697716, -0.10094787180423737, 0.02523679845035076, -0.02710488997399807, -0.010326669551432133, 0.05478951334953308, -0.11305000633001328, 0.007890556007623672, -0.036849495023489, -0.024621127173304558, 0.13316361606121063, -0.028449496254324913, -0.07132981717586517, 0.010326964780688286, -0.020751457661390305, -0.011063163168728352, 0.003555668517947197, -0.03129700571298599, 0.01552475243806839, -0.012812390923500061, -0.019433781504631042, -0.0772491991519928, -0.045698635280132294, -0.027727000415325165, 0.030000759288668633, -0.027845386415719986, -0.08443529158830643, -0.05323994904756546, -0.04000834748148918, -0.012432108633220196, 0.04441864416003227, 0.023309003561735153, -0.011103094555437565, -0.0278917383402586, 0.021039092913269997, 0.04857579618692398, 0.053472623229026794, -0.06047186255455017, -0.032710880041122437, -0.008379780687391758, 0.04031841829419136, 0.04977921396493912, -0.0013641751138493419, 0.019074680283665657, 0.07632230967283249, -0.02340480126440525, 0.02713414654135704, 0.01921606808900833, 0.050352904945611954, 0.014346941374242306, -0.04533511400222778, 0.018512383103370667, 0.019515641033649445, 0.041621364653110504, -0.006975546013563871, 0.012500196695327759, 0.016027186065912247, 0.03145254775881767, -0.005219138693064451, -0.26640772819519043, 0.026790188625454903, -0.03157491981983185, -0.04564262554049492, -0.022902103140950203, 0.0029663294553756714, 0.052013661712408066, -0.01683352328836918, -0.01347992941737175, 0.09988638013601303, 0.04902055859565735, -0.04813578352332115, -0.0062421998009085655, -0.09213224053382874, 0.023546438664197922, 0.003362980205565691, 0.01726561225950718, 0.0043702987022697926, 0.051385875791311264, 0.03369065374135971, 0.02255287766456604, 0.0006219734787009656, 0.08350646495819092, -0.06063154712319374, 0.08312716335058212, 0.05489477887749672, 0.1267094910144806, 0.029687779024243355, 0.004632675554603338, -0.058829497545957565, 0.038009800016880035, 0.05617428570985794, -0.03396575525403023, -0.08744537830352783, -0.020583823323249817, 0.07780124992132187, -0.019751500338315964, 0.005959393456578255, 0.00520973140373826, -0.052227623760700226, -0.009842935018241405, 0.04997674748301506, -0.010382919572293758, -0.06962710618972778, -0.002894798293709755, -0.029766708612442017, -0.02030017413198948, 0.05987263843417168, -0.08064164221286774, 0.016892075538635254, -0.021504169330000877, -0.042694009840488434, 0.04856045916676521, 0.030402852222323418, 0.08300387859344482, -0.0393899641931057, -0.001974303275346756, 0.03665437921881676, -0.059641480445861816, 0.027183976024389267, 0.04046525061130524, -0.003540859092026949, -0.043594103306531906, -0.0473141148686409, 0.025723988190293312, 0.0010354953119531274, 0.01744227483868599, 0.06500044465065002, -0.01987745799124241, 0.044328100979328156, -0.018221981823444366, -0.012479094788432121, -0.04592135548591614, 0.04373248293995857, -0.04091436415910721, 0.019985226914286613, 0.022480063140392303, 0.011177276261150837, 0.0022040153853595257, -0.028261946514248848, 0.024452831596136093, 0.03335166350007057, 0.00031738917459733784, -0.006651139818131924, 0.03175335004925728, 0.051340341567993164, 0.031925953924655914, 0.00774416932836175, -0.02896474301815033, 0.0035445154644548893, -0.07651164382696152, -0.010545733384788036, -0.0024698025081306696, 0.021062379702925682, 0.03902246430516243, -0.003951790742576122, -0.2498483955860138, 0.022722017019987106, -0.02526659518480301, -0.042701587080955505, -0.018636243417859077, 0.0031530684791505337, 0.01897214539349079, -0.009239507839083672, -0.07613648474216461, 0.032689277082681656, 0.02836446277797222, 0.05157214775681496, -0.025889936834573746, -0.02906985953450203, 0.04835064336657524, 0.045336995273828506, 0.10400107502937317, -0.02858291193842888, 0.010452470742166042, 0.011822402477264404, 0.03950263187289238, 0.04465094953775406, 0.17471972107887268, 0.04415707290172577, 0.01807057112455368, 0.046705808490514755, -0.08941923826932907, 0.011510994285345078, 0.03122597560286522, 0.01624046266078949, -0.07082897424697876, -0.00802746694535017, 0.03812333568930626, -0.02426825650036335, -0.013755351305007935, 0.01725092902779579, -0.06355296075344086, 0.006043384317308664, 0.04374712333083153, -0.018756380304694176, -0.03182681277394295, -0.03394470736384392, -0.08141923695802689, 0.015546411275863647, 0.05655085667967796, 0.07185596972703934, -0.03445165604352951, -0.023283544927835464, -0.011144124902784824, -0.0024834901560097933, 0.009404662065207958, -0.028485465794801712, 0.07313967496156693, -0.02278374880552292, 0.0007060333737172186, 0.010639818385243416, -0.07369804382324219, 0.04835347458720207, -0.010399192571640015, -0.0043995575979352, -0.013130398467183113, -0.06667254865169525, 0.035991888493299484, -0.019581198692321777, 0.0356760136783123]</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>lack_of_phone_equipment_variety</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Maybe have a greater variety of equipment for sale\nReason for given NPS: It is a great telephone company, it always has good coverage, affordable prices and the app is very easy to use, without a doubt it is the best I know']</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>[-0.06011785566806793, 0.01678735576570034, 0.00072108069434762, -0.0593123622238636, -0.015191531740128994, -0.04042944312095642, -0.017828797921538353, 0.06328697502613068, -0.01874726079404354, 0.01434953510761261, -0.007224155589938164, 0.027002563700079918, 0.049772098660469055, -0.004323398694396019, 0.0967165008187294, -0.00642356975004077, 0.13277070224285126, -0.06400182098150253, -0.060274023562669754, 0.022882044315338135, 0.06006735935807228, -0.03639340028166771, -0.019165590405464172, 0.0011383395176380873, 0.026456207036972046, -0.031973302364349365, -0.019692713394761086, -0.014873716980218887, -0.013532601296901703, -0.12780551612377167, -0.007565545849502087, 0.06164274737238884, 0.07117950171232224, 0.020070893689990044, 0.026767674833536148, -0.016586506739258766, -0.023667624220252037, -0.00912338588386774, -0.05827931687235832, 0.08184308558702469, -0.0015837568789720535, 0.045458246022462845, -0.008354396559298038, 0.004558088257908821, -0.04030310735106468, -0.06957469880580902, -0.02258462645113468, 0.0015936648705974221, 0.07876305282115936, -0.1396578550338745, 0.03659664839506149, 0.028916530311107635, -0.02208881638944149, -0.02106950804591179, 0.008602672256529331, 0.009161153808236122, 0.06216537207365036, 0.017023202031850815, 0.02067945897579193, -0.0276371818035841, 0.052975334227085114, -0.011194228194653988, -0.08751273155212402, 0.048872992396354675, 0.0016737120458856225, -0.021675996482372284, 0.03142675384879112, -0.03127617761492729, -0.015815893188118935, 0.0004468678671400994, 0.029861457645893097, 0.02991948276758194, 0.019898926839232445, 0.07921826839447021, -0.002224631141871214, 0.002809124067425728, -0.012203972786664963, -0.0514083094894886, -0.036528579890728, 0.03220062702894211, 0.028229357674717903, -0.05274105444550514, -0.005262340418994427, 0.028432410210371017, -0.0034891937393695116, -0.04980463534593582, -0.00797088723629713, -0.010561352595686913, -0.0721166804432869, -0.013280319981276989, -0.028526151552796364, 0.06718160212039948, 0.03399714082479477, 0.05648799240589142, -0.09208273887634277, -0.02505572699010372, -0.007021373137831688, 0.024359988048672676, -0.09434958547353745, 0.4166063666343689, 0.01513395644724369, 0.03736231476068497, 0.08674526959657669, 0.0041483244858682156, 0.015577591024339199, -0.049899183213710785, -0.09694129973649979, -0.02466060221195221, -0.05114636570215225, 0.020270898938179016, 0.008265772834420204, 0.0017904050182551146, -0.013403886929154396, 0.03426274657249451, -0.011289539746940136, 0.005533565767109394, -0.03690589964389801, 0.032585855573415756, 0.0400414764881134, -0.002685551531612873, -0.0674571767449379, -0.060607582330703735, -0.0003345418954268098, -0.02734958752989769, 0.014271007850766182, -0.025768650695681572, -0.025045888498425484, 0.08502036333084106, -0.004053275100886822, 0.022177692502737045, -0.02070673741400242, -0.03060528077185154, -0.006998922675848007, -0.01491625513881445, -0.0016711894422769547, -0.019456587731838226, 0.007641846314072609, 0.007740816101431847, 0.04143354669213295, -0.0049544139765203, -0.013002878054976463, -0.08033275604248047, 0.02615389972925186, -0.04512229561805725, 0.024884255602955818, 0.0577240064740181, -0.053926438093185425, 0.039125073701143265, -0.005663767457008362, -0.02233990468084812, -0.009195602498948574, 0.043778154999017715, 0.11123461276292801, 0.028413258492946625, 0.0322299599647522, 0.015251384116709232, 0.03770856559276581, 0.003981676418334246, -0.025447223335504532, 0.026655128225684166, 0.06022307276725769, -0.0019488404504954815, -0.0489598847925663, 0.08992844074964523, -0.039340078830718994, -0.08522897958755493, -0.04307426139712334, 0.0036596418358385563, -0.011658567003905773, -0.04728849604725838, -0.013727688230574131, 0.03313969448208809, -0.02531655691564083, 0.03492162004113197, 0.11004836857318878, -0.026303807273507118, -0.12305863201618195, 0.04581332206726074, -0.03848952800035477, 0.004896644037216902, -0.037993256002664566, 0.014537671580910683, 0.007854916155338287, -0.018451187759637833, 0.004207290709018707, -0.02899271808564663, 0.0087985098361969, 0.028383756056427956, 0.0483628585934639, 0.029243450611829758, -0.05985325202345848, -0.007189055904746056, 0.04017700254917145, -0.017909830436110497, -0.020652908831834793, -0.018887082114815712, -0.022238384932279587, -0.003290382446721196, 0.019541960209608078, -0.0633297935128212, 0.030182594433426857, -0.03430541604757309, 0.0003264966362621635, 0.018289009109139442, 0.03500189259648323, 0.02729346975684166, 0.018538175150752068, -0.05561213940382004, 0.07209567725658417, 0.0664006769657135, 0.02036210335791111, -0.03240995109081268, 0.10917308181524277, 0.009067409671843052, -0.022388296201825142, -0.0025150564033538103, 0.014517886564135551, 0.017998460680246353, 0.06378374248743057, -0.03025934472680092, -0.04140069708228111, 0.07920628786087036, -0.03608303144574165, -0.2885062098503113, -0.002882929751649499, 0.03365468978881836, -0.050654299557209015, -0.06794112920761108, 0.01612243242561817, 0.0004524755058810115, 0.018869534134864807, 0.02104288712143898, 0.054189957678318024, 0.006303149275481701, 0.03480047360062599, -0.010593106038868427, -0.0007988988072611392, -0.03425057604908943, 0.03713276982307434, -0.049806516617536545, 0.005859001539647579, -0.025224581360816956, 0.01181001402437687, 0.008455350995063782, 0.059366509318351746, -0.0033156215213239193, -0.017294595018029213, 0.051735833287239075, 0.008154927752912045, 0.1667945235967636, -0.05610254779458046, -0.011516284197568893, 0.01579161174595356, 0.027823951095342636, 0.06390310823917389, -0.06546483933925629, -0.009963025338947773, 0.022778866812586784, 0.01798086054623127, -0.009636232629418373, 0.019329605624079704, 0.005997008644044399, -0.005669399630278349, -0.06502694636583328, 0.04924625903367996, 0.007134672254323959, -0.0484699010848999, 0.04178654029965401, -0.04041307419538498, -0.07677317410707474, 0.018405837938189507, -0.061244942247867584, -0.010911843739449978, -0.007508030626922846, 0.004212053958326578, 0.05014907941222191, 0.01196250133216381, 0.04570348933339119, 0.018123753368854523, -0.07939843088388443, 0.008769731037318707, -0.008314122445881367, 0.016771536320447922, -0.02575928159058094, 0.0035922990646213293, 0.0020286100916564465, -0.056059740483760834, 0.011217336170375347, -0.006103373132646084, -0.017158526927232742, -0.016169516369700432, -0.008229220286011696, -0.0076496778056025505, -0.006677698343992233, 0.04866654425859451, 0.02520178258419037, 0.006800239440053701, -0.03797154128551483, -0.008648043498396873, 0.06550529599189758, -0.018496226519346237, 0.009411826729774475, -0.07537704706192017, 0.017269359901547432, 0.07361272722482681, 0.014242305420339108, 0.012560597620904446, 0.003907067701220512, 0.024298496544361115, 0.044532306492328644, -0.00022076266759540886, 0.06354263424873352, 0.0038848589174449444, -0.015611334703862667, 0.0002689649991225451, 0.04277708753943443, -0.01643197238445282, 0.14653591811656952, -0.022678984329104424, -0.20242799818515778, 0.015629854053258896, 0.04094894602894783, 0.04484681785106659, -0.04445306956768036, 0.05979446694254875, -0.0204146821051836, -0.02547597698867321, -0.06085411086678505, 0.022001197561621666, 0.03068465366959572, -0.04494094476103783, 0.009444408118724823, -0.0632450059056282, 0.038735680282115936, 0.004430012311786413, 0.08144670724868774, -0.06013186648488045, -0.013841945677995682, -0.022368386387825012, 0.03731142729520798, 0.03206435590982437, 0.12465030699968338, -0.027559880167245865, -0.023416103795170784, -0.0009278633515350521, 0.0008855884079821408, -0.014609775505959988, -0.027982819825410843, 0.009040295146405697, -0.018075786530971527, -0.04739530384540558, 0.04008988291025162, -0.016807785257697105, -0.04532313719391823, -0.007913093082606792, 0.04920926317572594, -0.0780668631196022, -0.029192013666033745, -0.03888888284564018, -0.08269410580396652, -0.030799977481365204, -0.09139613062143326, 0.009981827810406685, 0.08472570776939392, -0.024154968559741974, -0.052365127950906754, -0.014797464944422245, 0.010981920175254345, 0.0037670761812478304, -0.02345873787999153, -0.0406309999525547, -0.04903590306639671, 0.035354603081941605, -0.005674740765243769, 0.041652385145425797, -0.030787106603384018, 0.021563200280070305, 0.023192469030618668, 0.015932215377688408, 0.050922129303216934, -0.039039332419633865, -0.031230812892317772, 0.02476288378238678, 0.01779872737824917]</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>need_for_better_telephone_helpdesk</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Telephone help desk - a human; not via chat bot\nReason for given NPS: Hard to get through when you need them; but looking forward to NZ-wide coverage next year.']</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>[-0.03463415056467056, -0.062495291233062744, 0.054886169731616974, -0.06539861857891083, -0.03528633341193199, -0.06860904395580292, -0.021928437054157257, 0.0620916485786438, -0.042974069714546204, -0.04080009087920189, 0.004258176777511835, 0.009565661661326885, 0.08688046038150787, -0.015031012706458569, 0.10156188905239105, 0.05378438159823418, 0.0999639481306076, 0.029172221198678017, -0.04513970762491226, 0.04336889088153839, 0.05406792834401131, 0.005701940041035414, -0.030174003913998604, 0.011422645300626755, 0.0035873008891940117, -0.012657894752919674, -0.029955079779028893, -0.034984830766916275, -0.044496338814496994, -0.09925122559070587, 0.009295450523495674, 0.06992295384407043, 0.06826256960630417, 0.0233854241669178, 0.01789623498916626, -0.00706381443887949, -0.018639367073774338, -0.016197817400097847, -0.032630931586027145, 0.049146074801683426, 0.02983926050364971, 0.05852941423654556, -0.04520422965288162, -0.019665269181132317, -0.03746122121810913, -0.09093601256608963, -0.017646372318267822, -0.010299911722540855, 0.01737653650343418, -0.06900274753570557, -0.013590422458946705, 0.010207254439592361, -0.01341793593019247, -0.03799410164356232, 0.06853530555963516, 0.006834689062088728, 0.09905195236206055, 0.028704151511192322, 0.04368333891034126, -0.007461623754352331, 0.06237760931253433, -0.034075286239385605, -0.11173272877931595, 0.07395870238542557, 0.007792235352098942, -0.01293027214705944, 0.040517307817935944, 0.015558818355202675, -0.01548974309116602, 0.026545096188783646, -0.040005799382925034, -0.022329624742269516, 0.014404207468032837, 0.08463983237743378, -0.00875011458992958, 0.004427681677043438, -0.03605085238814354, -0.03211672976613045, 0.010262318886816502, -0.016008341684937477, -0.016757182776927948, -4.8837577196536586e-05, -0.010672549717128277, -0.028118446469306946, 0.013517597690224648, -0.06673195958137512, 0.0166317168623209, 0.016970546916127205, -0.0029997816309332848, 0.0016209090827032924, -0.019123172387480736, 0.011113259010016918, 0.04121539741754532, 0.04310932010412216, -0.07423623651266098, -0.04435284808278084, -0.011574195697903633, 0.014326927252113819, -0.12718266248703003, 0.3764539062976837, -0.002529938705265522, 0.0026064959820359945, 0.0016074248123914003, -0.04094187542796135, 0.02554554119706154, -0.07879934459924698, -0.023928813636302948, -0.02763766050338745, -0.031054513528943062, 0.009560664184391499, 0.00972755067050457, -0.03306637331843376, 0.008083903230726719, 0.03827023133635521, 0.045917849987745285, 0.045226749032735825, 0.036000315099954605, -0.007641406264156103, -0.012108420953154564, -0.013266483321785927, -0.02680165134370327, -0.0113949840888381, 0.0022291855420917273, 0.026837371289730072, 0.04837885871529579, -0.03751377388834953, -0.010839841328561306, 0.0878371000289917, 0.016749080270528793, 0.08266565948724747, 0.044956911355257034, 0.005180009640753269, -0.0020702588371932507, 0.03492666780948639, 0.0010799211449921131, -0.03130699321627617, -0.019874289631843567, 0.01008654199540615, 0.004924231208860874, -0.026285365223884583, -0.01913515105843544, -0.13938534259796143, -0.0232087392359972, -0.027585916221141815, -0.01246142853051424, 0.08073148876428604, -0.1095566675066948, 0.007955936715006828, -0.016953248530626297, -0.06308412551879883, 0.015759335830807686, 0.003556933719664812, 0.035809196531772614, -0.055254630744457245, 0.018810207024216652, -0.022524284198880196, 0.05096836015582085, -0.03873005881905556, -0.014332257211208344, 0.01604403369128704, 0.06317152827978134, -0.06884194910526276, -0.06253480166196823, 0.05800042673945427, 0.024606717750430107, -0.07264763861894608, -0.0814148411154747, -0.011083966121077538, -0.0648900642991066, -0.030463363975286484, -0.0014506231527775526, 0.03200535476207733, -0.024625375866889954, 0.062373656779527664, 0.05224309116601944, -0.0483686663210392, -0.05098114535212517, 0.045835480093955994, -0.007503241300582886, -0.012301723472774029, 0.03060275688767433, 0.011868353933095932, 0.006511554587632418, -0.022666538134217262, 0.04345269873738289, -0.07744599133729935, 0.008662369102239609, 0.0001375073625240475, 0.059426404535770416, 0.00016155789489857852, -0.05988216772675514, 0.014093375764787197, 0.03031614050269127, -0.026307834312319756, -0.046192653477191925, -0.01604820229113102, -0.04941258579492569, -0.01742774434387684, 0.0031850142404437065, -0.03294414281845093, 0.06113538146018982, -0.015356909483671188, -0.03700344264507294, 0.017311053350567818, -0.0013609916204586625, 0.019774585962295532, 0.007399205584079027, -0.04019876569509506, 0.0955919474363327, 0.01510666310787201, 0.008076129481196404, -0.04580875486135483, 0.16743522882461548, 0.029810450971126556, -0.027761057019233704, -0.01968943513929844, 0.0037161260843276978, 0.019670939072966576, 0.03949679061770439, -0.0037192273885011673, 0.0016632623737677932, 0.10089699178934097, -0.0394866056740284, -0.3212655782699585, -0.01206579152494669, -0.0018014322267845273, 0.011026457883417606, -0.03323804587125778, -0.014942990615963936, 0.05145641788840294, 0.025289850309491158, 0.009617269970476627, 0.05631694570183754, 0.038941264152526855, -0.0270839910954237, 0.03351301699876785, -0.036959193646907806, -0.0013951575383543968, 0.04163653776049614, -0.016370175406336784, -0.0011188095668330789, -0.02407979592680931, 0.0013124770484864712, -0.005126521922647953, 0.016000399366021156, 0.03939203545451164, -0.048449285328388214, 0.054255302995443344, 0.009427079930901527, 0.15070749819278717, -0.04138970002532005, 0.037031617015600204, 0.01811143383383751, 0.057011451572179794, 0.05034405738115311, -0.05443693697452545, -0.08404045552015305, 0.019140154123306274, 0.03167293593287468, -0.001382343121804297, 0.05380403622984886, 0.008142492733895779, -0.003744588466361165, -0.02915828861296177, 0.024555349722504616, 0.021664174273610115, 0.008783376775681973, -0.011272338218986988, -0.011615142226219177, -0.034298840910196304, -0.01850353553891182, -0.0386759452521801, 0.017611531540751457, -0.04997183755040169, 0.03187750279903412, 0.005158853717148304, 0.013405486941337585, 0.045840807259082794, 0.026314441114664078, -0.06830042600631714, -0.019004344940185547, 0.001013964880257845, 0.011782079935073853, -0.02061092108488083, -0.00944194570183754, -0.013399052433669567, -0.029767265543341637, 0.006567943841218948, -0.0005794820608571172, -0.04963991418480873, 0.016718968749046326, 0.002539575332775712, 0.03752927854657173, -0.0046104383654892445, 0.03276414796710014, -0.02271222695708275, 0.048918213695287704, -0.06608445197343826, 0.021052826195955276, 0.047740913927555084, -0.030502354726195335, -0.019345881417393684, -0.07288657128810883, 0.039906829595565796, 0.010649044997990131, 0.06034330278635025, -0.012154058553278446, 0.011778019368648529, -0.035750612616539, 0.03243869170546532, 0.04969005286693573, 0.015389506705105305, -0.01340209785848856, -0.03433650732040405, 0.0047553349286317825, -0.0022113805171102285, 0.01092522218823433, 0.1240372434258461, -0.03692406415939331, -0.23505695164203644, 0.027381455525755882, 0.03342491015791893, 0.0006887068157084286, -0.08136190474033356, 0.0684550404548645, -0.013394064269959927, 0.02960415557026863, -0.08416073024272919, -0.016136249527335167, -0.029042087495326996, -0.011961465701460838, -0.04504433646798134, -0.003845947328954935, 0.022826164960861206, 0.020012903958559036, 0.09036478400230408, -0.0434035025537014, -0.039916642010211945, -8.66934351506643e-05, 0.05273792892694473, 0.044831085950136185, 0.15568867325782776, -0.03132157772779465, -0.017180580645799637, 0.010445328429341316, 0.029511677101254463, -0.016947489231824875, 0.06774056702852249, -0.004484216216951609, -0.018806658685207367, -0.04214892536401749, 0.03529326245188713, 0.0084353843703866, 0.034607287496328354, -0.04300805553793907, -0.005488361231982708, -0.07167437672615051, -0.022668011486530304, 0.008531048893928528, -0.03766388073563576, 0.047385819256305695, -0.03133879229426384, -0.01439757738262415, 0.0947197675704956, 0.03849675878882408, -0.026375671848654747, -0.008043142966926098, 0.021319806575775146, 0.010112565942108631, -0.05236789211630821, -0.04069540277123451, 0.0020364513620734215, 0.02664126828312874, 0.0138738714158535, 0.027421124279499054, -0.010687924921512604, 0.004540239926427603, -0.012958237901329994, 0.016305340453982353, -0.017972832545638084, -0.05203210934996605, 0.06344080716371536, -0.011151107959449291, 0.000212960978387855]</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>desire_for_human_interaction</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Telephone help desk - a human; not via chat bot\nReason for given NPS: Hard to get through when you need them; but looking forward to NZ-wide coverage next year.']</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>[-0.011364348232746124, 0.04769407585263252, 0.024532821029424667, -0.03761112317442894, -0.05200842022895813, -0.0025282532442361116, 0.06853784620761871, -0.009760143235325813, 0.05698437988758087, -0.028272612020373344, 0.015536732971668243, 0.009062566794455051, 0.0024371929466724396, 0.031507063657045364, 0.067855603992939, 0.04532293602824211, 0.027962960302829742, 0.018382025882601738, -0.07593192160129547, 0.05852409452199936, 0.003797205863520503, -0.04302430897951126, 0.0035957524087280035, -0.03386180102825165, -0.09582538902759552, 0.0004900488420389593, -0.0546724833548069, -0.06046989932656288, -0.02671721950173378, -0.054231468588113785, 0.06664267927408218, 0.05792750418186188, 0.08881168812513351, 0.015554100275039673, -0.04345715418457985, 0.012727068737149239, 0.012040662579238415, -0.016973251476883888, -0.04952649772167206, 0.05111909657716751, 0.012086995877325535, -0.050444331020116806, -0.03668573871254921, -0.007231305353343487, -0.029479926452040672, -0.032163191586732864, -0.023227153345942497, 7.764832116663456e-05, -0.025878917425870895, -0.01961192674934864, -0.017578331753611565, -0.009060684591531754, -0.059462208300828934, 0.010451613925397396, 0.04983967915177345, 0.03131777048110962, 0.08781249821186066, 0.029867906123399734, -0.00430510938167572, 0.0022503635846078396, 0.03578188642859459, 0.021570779383182526, -0.06764690577983856, 0.06909900903701782, 0.03076837584376335, 0.006957704667001963, -0.04619034007191658, -0.005017711780965328, -0.00047059584176167846, 0.0019424265483394265, -0.003491748822852969, 0.043669357895851135, 0.022390468046069145, 0.02252805233001709, 0.028621364384889603, -0.015036401338875294, -0.04899059236049652, -0.052176009863615036, 0.016677750274538994, -0.018488800153136253, -0.020903505384922028, 0.007742374669760466, -0.033896591514348984, 0.016558418050408363, -0.010278360918164253, -0.062354449182748795, 0.02492828294634819, 0.011629502288997173, -0.013643317855894566, 0.06216062605381012, -0.07642322778701782, -0.028550855815410614, -0.03003302589058876, 0.015511885285377502, 0.0027593036647886038, 0.024569226428866386, -0.0018856677925214171, -0.028664320707321167, -0.041522685438394547, 0.3791324496269226, -0.012269336730241776, 0.041204240173101425, 0.023682359606027603, -0.03485739231109619, 0.017640745267271996, 0.023684438318014145, -0.002171336906030774, -0.06674813479185104, -0.04564194008708, 0.00949806347489357, -0.028455153107643127, -0.02891862578690052, 0.002982625737786293, 0.006903692148625851, 0.015389894135296345, 0.07665207237005234, 0.03839119151234627, -0.00020373915322124958, 0.032554227858781815, -0.05793963372707367, -0.0025778324343264103, 0.007095337379723787, 0.020102020353078842, 0.0020546235609799623, 0.010927598923444748, -0.08493266254663467, 0.02926180511713028, 0.10976512730121613, 0.0017226338386535645, -0.028482329100370407, 0.0417913943529129, 0.015238981693983078, 0.004653421696275473, -0.010062836110591888, 0.0015595293371006846, 0.016182752326130867, -0.0038303404580801725, -0.024852639064192772, 0.03506937250494957, 0.03327840194106102, 0.02755771391093731, -0.0668489933013916, -0.019544517621397972, -0.10330823808908463, 0.048197854310274124, 0.06954775005578995, 0.026502367109060287, -0.020657233893871307, -0.04676532372832298, 0.022504372522234917, 0.02101733721792698, 0.007639954332262278, -0.02961098775267601, 0.03444075584411621, -0.007963813841342926, -0.00011422770330682397, 0.05970489978790283, 0.016595521941781044, -0.08068690448999405, 0.034358300268650055, 0.024575339630246162, -0.00921954121440649, -0.030395543202757835, -0.007677579764276743, -0.01025231834501028, -0.0797133669257164, -0.015884224325418472, -0.005381393246352673, -0.00806465744972229, 0.053751613944768906, -0.009787803515791893, 0.008979622274637222, -0.027909446507692337, 0.043527793139219284, 0.06727763265371323, 0.03496556729078293, -0.09655609726905823, 0.05979485064744949, -0.04615179821848869, 0.05545242130756378, 0.041802700608968735, -0.03653144836425781, -0.007203845772892237, -0.03286841884255409, -0.003141663735732436, -0.005163713824003935, 0.02534383162856102, -0.017623765394091606, -0.006473898887634277, 0.0017883259570226073, -0.0024322373792529106, 0.03622685372829437, 0.005434857681393623, 0.016340510919690132, -0.002082590013742447, -0.0070612626150250435, 0.031347665935754776, -0.027368731796741486, -0.10165245085954666, 0.0017567651811987162, -0.01542331837117672, 0.004866281058639288, -0.0883890762925148, -0.0026898442301899195, 0.05789107456803322, 0.0032096649520099163, 0.02124861069023609, 0.02515254355967045, 0.08177374303340912, -0.034584224224090576, -0.029926927760243416, 0.022506585344672203, 0.09745759516954422, 0.011984857730567455, -0.04235230013728142, -0.022535398602485657, 0.00668934965506196, -0.001110221492126584, 0.05617329478263855, 0.011757506988942623, -0.02647271938621998, 0.044188857078552246, -0.006738495547324419, -0.3146454691886902, 0.07375925779342651, -0.02631029300391674, -0.06686816364526749, -0.005951368249952793, -0.04422995448112488, 0.04238614812493324, -0.027573909610509872, 0.03857814520597458, 0.05739619955420494, 0.07486552745103836, 0.01137341558933258, -0.033912815153598785, 0.025206536054611206, 0.00439683860167861, 0.008909500204026699, -0.0012346034636721015, -0.01292798388749361, -0.023787574842572212, -0.017130937427282333, 0.027833495289087296, 0.027249544858932495, 0.036927804350852966, -0.09119236469268799, -0.00842389464378357, -0.005677605513483286, 0.160233274102211, 0.062455564737319946, -0.08356411010026932, 0.03296222537755966, 0.02582552284002304, 0.0629967451095581, -0.05681276693940163, -0.1415133774280548, 0.024300435557961464, 0.0723242312669754, 0.06069359928369522, -0.02723703719675541, 0.005854313261806965, -0.024426287040114403, -0.04928060621023178, 0.05450107902288437, -0.0074276551604270935, -0.016999656334519386, -0.04155629873275757, -0.030817484483122826, 0.003610742511227727, -0.03595336526632309, -0.03317893296480179, 0.008146117441356182, 0.020494263619184494, -0.015503276139497757, -0.008542886935174465, 0.0214361734688282, -0.0939132571220398, -0.0366838239133358, -0.03850838914513588, -0.0013638645177707076, -0.02940373122692108, 0.06902603805065155, -0.011345397680997849, 0.03471255674958229, -0.01810135692358017, -0.08621538430452347, -0.0008285200456157327, -0.025156639516353607, -0.012321148067712784, 0.013947909697890282, -0.0055701942183077335, 0.047997090965509415, -0.06410857290029526, 0.02732020802795887, 0.007654320914298296, 0.004176322370767593, 0.024548951536417007, 0.009146562777459621, -0.006448869127780199, 0.0495854876935482, -0.034331146627664566, -0.04481716454029083, 0.05482875928282738, 0.011026381514966488, -0.01243181899189949, 0.0003981773043051362, 0.026603037491440773, -0.03308716043829918, -0.002641055965796113, -0.08139432221651077, 0.04538944736123085, -0.011948035098612309, -0.01203551422804594, 0.035172101110219955, -0.0162375345826149, -0.05315808951854706, 0.05702127143740654, 0.021132512018084526, -0.30376997590065, -0.006437280215322971, -0.027429932728409767, 0.037654515355825424, -0.05408761277794838, 0.04350147768855095, 0.003284350736066699, -0.03876484930515289, -0.10920605808496475, -0.016305698081851006, 0.007954596541821957, 0.023991944268345833, 0.0042637852020561695, 0.03853994607925415, 0.042693592607975006, 0.002829167293384671, 0.058189988136291504, -0.023200402036309242, -0.034522876143455505, -0.06739255785942078, 0.04217346012592316, 0.04196791723370552, 0.2228802889585495, -0.03927157446742058, 0.05848221108317375, 0.015857359394431114, 0.0029413471929728985, -0.047609586268663406, -0.02330893836915493, -0.0504891537129879, -0.0483500100672245, -0.027238231152296066, 0.029611973091959953, -0.035026997327804565, 0.005645756609737873, 0.006357109639793634, 0.01678474433720112, -0.04173830896615982, 0.03568796440958977, 0.015492194332182407, -0.03337749466300011, 0.07404013723134995, 0.01578463986515999, -0.016935862600803375, 0.07392056286334991, 0.036290355026721954, 0.01706194132566452, 0.0383269339799881, -0.003695363411679864, -0.005817721597850323, -0.007413151673972607, -0.01415932085365057, 0.018554488196969032, 0.011237753555178642, 0.020236095413565636, 0.04645504057407379, -0.04308135807514191, -0.01486842893064022, 0.0054014017805457115, 0.013636305928230286, 0.006846358068287373, 0.035722728818655014, 0.056263312697410583, -0.005217742640525103, -0.03419877216219902]</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>need for more proactive contract expiry notifications</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Cheaper contract\n']</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>[-0.13966462016105652, -0.002103016944602132, 0.060132190585136414, -0.05732670798897743, 0.017237244173884392, -0.024489184841513634, -0.013900247402489185, 0.058969177305698395, 0.008762565441429615, 0.015275653451681137, -0.015156934037804604, 0.045704279094934464, -0.02417931705713272, 0.02483469434082508, 0.008886251598596573, -0.01200119312852621, 0.034341610968112946, -0.00856064073741436, -0.03428337723016739, -0.01765846461057663, 0.01824161224067211, -0.006807397585362196, -0.023286201059818268, 0.07617297768592834, 0.016304440796375275, 0.06843531876802444, -0.0564911775290966, -0.0382024385035038, -0.03561915457248688, -0.08012271672487259, -0.004710146225988865, 0.0011841246159747243, 0.0020178204867988825, -0.010899394750595093, 0.012422521598637104, -0.030865468084812164, -0.033074088394641876, 0.02307467721402645, -0.024106435477733612, 0.03774778172373772, 0.01978974975645542, 0.06834675371646881, -0.04167170822620392, -0.049991339445114136, 0.00888547021895647, -0.049411341547966, 0.031103167682886124, -0.05390525981783867, 0.0024692730512470007, 0.02317717671394348, 0.06202206760644913, -0.010024700313806534, 0.05595754459500313, 0.014021005481481552, -0.0027917029801756144, 0.0026591310743242502, 0.01727880910038948, 0.02669752761721611, -0.0013869527028873563, -0.010690966621041298, 0.05759652704000473, 0.02120378613471985, -0.09989164024591446, 0.02748027630150318, -0.012874593026936054, -0.01592239923775196, 0.03168331831693649, -0.028782669454813004, -0.026321405544877052, 0.03946809470653534, 0.04080510511994362, 0.015129071660339832, -0.09108680486679077, 0.10339288413524628, 0.009284785948693752, -0.021191691979765892, 0.04700106754899025, 0.04873485118150711, 0.011831067502498627, 0.004399315919727087, -0.0162977147847414, 0.01986570470035076, 0.007800879422575235, 0.008724900893867016, -0.07981236279010773, -0.06991761922836304, 0.03149314597249031, 0.01728707179427147, 0.10818646103143692, -0.0050336215645074844, -0.0010977942729368806, -0.005483422894030809, 0.049423158168792725, 0.04896623268723488, -0.07252173870801926, 0.020831799134612083, 0.021367698907852173, 0.062272991985082626, -0.07834161072969437, 0.3683469891548157, -0.03700016438961029, 0.036253921687603, -0.01883629709482193, -0.029027169570326805, 0.05931746959686279, 0.004094299394637346, 0.01152084395289421, 0.0466153658926487, -0.05246126651763916, -0.03407418355345726, -0.04033461585640907, 0.04999305680394173, 0.03181016817688942, -0.015018712729215622, -0.03443024680018425, 0.07679746299982071, -0.031009843572974205, 0.028745012357831, 0.018064139410853386, -0.015672899782657623, 0.024028055369853973, 0.01660049706697464, -0.002015857957303524, 0.009491072967648506, -0.04725594073534012, 0.0031083791982382536, 0.05154098570346832, 0.06553814560174942, -0.006939759477972984, 0.035518452525138855, 0.010497442446649075, -0.01718858815729618, -0.03674302622675896, 0.031099526211619377, 0.019557394087314606, 0.043396443128585815, -0.031394824385643005, 0.008448697626590729, 0.002932811388745904, 0.03790273144841194, -0.0005719409673474729, -0.08767203241586685, 0.012791339308023453, -0.08393514156341553, -0.03328859433531761, 0.09115030616521835, 0.028795508667826653, 0.04822678491473198, 0.021690426394343376, -0.06312477588653564, -0.033499687910079956, 0.0732436329126358, 0.07823430001735687, -0.03814566507935524, 0.03957263380289078, -0.0027216223534196615, 0.05345846712589264, -0.0051766084507107735, -0.03871999308466911, 0.044856421649456024, 0.03948183357715607, -0.0359501913189888, -0.006761639378964901, 0.04930363595485687, 0.03694171458482742, -0.09084323048591614, 0.047123804688453674, -0.042055025696754456, -0.02282303385436535, -0.03000873699784279, -0.03476347029209137, 0.02522413432598114, -0.006462146528065205, -0.03990573808550835, 0.09492272138595581, -0.002798903500661254, 0.009083114564418793, -0.01697441190481186, 0.013606574386358261, 0.003872164059430361, -0.016071204096078873, -0.04811662435531616, -0.043825194239616394, -0.027140460908412933, 0.034282851964235306, -0.022984173148870468, 0.0032363636419177055, -0.0075060101225972176, 0.02345196157693863, 0.0013776089763268828, -0.05863998085260391, -0.018317976966500282, 0.005002157296985388, 0.048116013407707214, 0.0015161116607487202, -0.029457001015543938, -0.05400538817048073, -0.016312869265675545, -0.02097659558057785, -0.0720621794462204, 0.05471852049231529, -0.054606612771749496, -0.038542240858078, 0.012362017296254635, 0.03365161269903183, 0.06266096979379654, -0.0030096585396677256, 0.01235952228307724, 0.07607394456863403, -0.0211283378303051, 0.021520419046282768, 0.037441402673721313, 0.1269989013671875, -0.007967532612383366, -0.03286338225007057, 0.007868772372603416, 0.0009225393296219409, 0.04620799794793129, -0.0077815065160393715, -0.0308914203196764, 0.009600579738616943, 0.1498183310031891, 0.056790366768836975, -0.30281224846839905, 0.022606302052736282, -0.040509071201086044, -0.058714985847473145, 0.018819672986865044, -0.051864270120859146, 0.041525762528181076, -8.13537189969793e-05, 0.0005091447965241969, 0.033173177391290665, 0.056023478507995605, 0.010033386759459972, -0.010073562152683735, -0.08805213868618011, 0.04277462884783745, 0.03079136647284031, -0.026618899777531624, -0.030256470665335655, 0.014310128055512905, 0.00507980864495039, -0.013933842070400715, 0.027898265048861504, -0.022948848083615303, -0.044181279838085175, 0.07516111433506012, 0.014771041460335255, 0.1082901656627655, -0.10599707067012787, -0.10028356313705444, -0.06532890349626541, 0.007458479143679142, 0.008081626147031784, -0.01742929220199585, -0.14821773767471313, -0.00488690473139286, 0.0007907543913461268, -0.034874700009822845, -0.0027473506052047014, -0.018052931874990463, -0.01818317174911499, -0.0042420076206326485, 0.025552375242114067, -0.026574134826660156, -0.03639603033661842, -0.004459684249013662, -0.08221425116062164, 0.017795896157622337, 0.033205024898052216, -0.043447185307741165, -0.010238994844257832, 0.04572422057390213, 0.015582967549562454, 0.056388817727565765, 0.0034987200051546097, 0.06590652465820312, -0.04443977773189545, -0.03420204296708107, 0.007300528697669506, -0.02101789601147175, 0.008612961508333683, 0.0003420705324970186, 0.010818577371537685, 0.03156821057200432, 0.000952604110352695, 0.06250977516174316, 0.027011903002858162, -0.06177327409386635, -0.03048708662390709, -0.03502298891544342, 0.016628002747893333, -0.042759593576192856, 0.0811978131532669, -0.06740736216306686, -0.1312199980020523, 0.02522166073322296, 0.026083212345838547, 0.03822866454720497, -0.021591559052467346, -0.038528311997652054, -0.03159463405609131, 0.011708888225257397, -0.040421631187200546, -0.007879645563662052, 0.00036667147651314735, -0.024104714393615723, 0.04760460555553436, -0.0013529685093089938, -0.0012532247928902507, 0.02801034227013588, 0.006569200195372105, 0.02690230868756771, 0.024012601003050804, -0.019445322453975677, -0.015061156824231148, 0.10618191957473755, -0.0004179349634796381, -0.233953595161438, -0.021634511649608612, 0.03208404406905174, -0.06153351441025734, -0.05252579599618912, 0.06062532216310501, -0.07116836309432983, -0.014025754295289516, -0.028362007811665535, 0.027235861867666245, 0.009456790052354336, 0.026671340689063072, -0.04760247468948364, -0.0348864309489727, 0.0036966600455343723, 0.01069575548171997, 0.04810374602675438, -0.05362970754504204, -0.044685810804367065, -0.054940830916166306, -0.0001520007208455354, -0.040920235216617584, 0.19905856251716614, 0.02204957976937294, 0.007211897987872362, 0.03726281598210335, 0.0027050767093896866, 0.043543897569179535, 0.043461430817842484, 0.005069071426987648, -0.006735214032232761, 0.005559656769037247, 0.02362152375280857, -0.015605021268129349, -0.01759750209748745, 0.036481402814388275, -0.013659540563821793, -0.008425530977547169, -0.03326654061675072, -0.017784543335437775, -0.003034578636288643, -0.019696909934282303, -0.007085825316607952, 0.008372730575501919, 0.08467747271060944, 0.016817497089505196, -0.049296699464321136, -0.029352381825447083, 0.07555324584245682, 0.0006826233584433794, -0.03327042981982231, -0.09551944583654404, -0.02718067169189453, 0.05357133597135544, -0.006992820650339127, 0.036499638110399246, 0.012040146626532078, -0.014411980286240578, 0.01468269620090723, -0.013815131038427353, 0.0002465334255248308, -0.023379920050501823, -0.012284302152693272, 0.022675877436995506, -0.01646011881530285]</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>avoid surprise high bills after contract</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Cheaper contract\n']</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>[-0.06083201989531517, -0.034822579473257065, 0.001172975287772715, 0.00904917437583208, 0.03762594237923622, -0.07387660443782806, 0.06776396930217743, 0.007804369553923607, 0.015864258632063866, -0.018362415954470634, 0.02767280675470829, 0.1083705797791481, -0.01675616018474102, 0.008661552332341671, -0.04489707946777344, -0.044985126703977585, -0.025229083374142647, 0.011569450609385967, -0.08817918598651886, 0.02891223132610321, 0.003098749555647373, -0.006398602854460478, -0.0339057482779026, -0.004583027679473162, 0.075738824903965, -0.008721818216145039, -0.0466214120388031, -0.028538335114717484, -0.05337274819612503, -0.1279689222574234, 0.015455732122063637, 0.014729125425219536, -0.05465850979089737, -0.013906530104577541, 0.057817503809928894, 0.019869718700647354, -0.07118844985961914, 0.018883725628256798, 0.09416721016168594, 0.038098521530628204, -0.01330700796097517, 0.06151300296187401, -0.04891522228717804, -0.13323968648910522, -0.005618338473141193, -0.05158527195453644, 0.06986589729785919, 0.003842954756692052, 0.0817137062549591, 0.06273634731769562, 0.009248970076441765, -0.04033679887652397, 0.0049181003123521805, 0.04649971425533295, 0.00048523288569413126, 0.06453580409288406, 0.05187283456325531, 0.04118575155735016, 0.02970360405743122, 0.03807980194687843, 0.005374085158109665, 0.021716881543397903, -0.07522614300251007, 0.03965267911553383, 0.026185374706983566, -0.000628943438641727, -0.006463043391704559, 0.034180495887994766, -0.0005729599506594241, 0.09077602624893188, 0.03434518724679947, -0.011582015082240105, -0.06648454070091248, 0.06294204294681549, 0.04690154269337654, -0.05356409773230553, 0.03325171023607254, 0.04615790769457817, 0.04536836966872215, 0.04459412023425102, -0.031162282451987267, -0.014186647720634937, -0.008976315148174763, -0.01463764626532793, -0.04239879548549652, -0.0835040956735611, 0.11809126287698746, 0.006039036903530359, 0.040240462869405746, -0.0661122277379036, 0.046046674251556396, -0.0241093710064888, -0.03848421573638916, 0.0159637201577425, -0.056715089827775955, 0.07418523728847504, 0.02256453037261963, 0.023681584745645523, -0.05788212642073631, 0.33800116181373596, -0.014416002668440342, -0.003514921525493264, 0.015512317419052124, 0.02940191701054573, 0.004851724486798048, -0.03863570839166641, 0.014632152393460274, 0.08475364744663239, -0.038833461701869965, -0.001414566533640027, -0.019083283841609955, 0.00503319688141346, -0.019103309139609337, -0.0019662221893668175, -0.0014534551883116364, 0.040893472731113434, -0.04053577780723572, -0.014057756401598454, 0.012216565199196339, -0.03160399571061134, -0.012593802995979786, 0.03728542849421501, -0.022674525156617165, 0.015167747624218464, -0.07170276343822479, -0.052041832357645035, 0.07125873118638992, 0.07224573194980621, 0.0001802177430363372, 0.022478891536593437, -0.012116879224777222, -0.08085913211107254, -0.014854714274406433, 0.018422529101371765, 0.027230901643633842, -0.012695914134383202, -0.00558430003002286, 0.029927100986242294, 0.006463652942329645, 0.018518831580877304, 0.008175171911716461, -0.024359192699193954, -0.04878630489110947, -0.0649990364909172, -0.029803719371557236, 0.07579972594976425, 0.021069830283522606, 0.07372879981994629, 0.04937930032610893, -0.07698580622673035, -0.07407382875680923, 0.015101262368261814, 0.033639680594205856, -0.08875914663076401, 0.02630167454481125, -0.024379892274737358, 0.009347476065158844, 0.0344802588224411, -0.0348561629652977, 0.03406403958797455, 0.0406387597322464, -0.00144523149356246, -0.04669256508350372, 0.023177050054073334, 0.011957498267292976, -0.06384183466434479, -0.007247216068208218, -0.08550496399402618, 0.015922507271170616, -0.017635978758335114, -0.10333497077226639, 0.022643717005848885, -0.015559427440166473, -0.006453274749219418, 0.09163619577884674, -0.0286801028996706, -0.04197966307401657, -0.010868092998862267, -0.021819420158863068, 0.003084175754338503, -0.03229022026062012, -0.019763676449656487, -0.02131810039281845, -0.01684890314936638, 0.0686718001961708, -0.04896796867251396, -0.03519757091999054, 0.004567626863718033, 0.010669130831956863, -0.006333812139928341, -0.026506172493100166, 0.007042900659143925, -0.04659857973456383, -0.017843006178736687, -0.02710561826825142, -0.023526040837168694, -0.026123445481061935, 0.0394572876393795, 0.008281493559479713, -0.03452492132782936, 0.014627943746745586, -0.022491270676255226, -0.02296261489391327, 0.057833410799503326, 0.020542923361063004, 0.057945627719163895, 0.0043118675239384174, -0.02715374156832695, 0.07561727613210678, -0.01538948342204094, 0.02466994896531105, 0.023563796654343605, 0.10049760341644287, -0.018403295427560806, -0.03621593490242958, 0.011721663177013397, -0.004462736193090677, 0.13985879719257355, -0.011769912205636501, -0.037165071815252304, 0.02941661886870861, 0.01911926455795765, 0.12067742645740509, -0.33186718821525574, 0.015245343558490276, -0.011232561431825161, -0.07492905110120773, -0.01634950190782547, -0.004510951228439808, 0.021475423127412796, -0.04566730186343193, -0.03675687685608864, 0.03621254488825798, -0.004403228871524334, -0.016117366030812263, -0.0405808761715889, -0.07745272666215897, 0.029377436265349388, 0.046512801200151443, -0.01788436807692051, 0.017058128491044044, -0.03127862513065338, 0.03597233071923256, -0.02989274263381958, 0.06471012532711029, -0.03946243226528168, -0.059913668781518936, 0.044242359697818756, 0.028724057599902153, 0.11625853180885315, -0.05140058696269989, -0.036922670900821686, -0.04873025417327881, 0.02745431289076805, -0.047174517065286636, 0.0030134725384414196, -0.05516564100980759, 0.008608115836977959, 0.027988778427243233, 0.015016969293355942, 0.012190369889140129, -0.04319816827774048, -0.08549918979406357, 0.01629754900932312, -0.00586863374337554, -0.037518806755542755, -0.02875567600131035, 0.010302099399268627, 0.02027476392686367, -0.08549650758504868, 0.07316312193870544, -0.04030626639723778, -0.0009216800681315362, 0.05807634815573692, -0.02991846576333046, 0.020168539136648178, 0.03414177522063255, 0.11025141179561615, -0.0644746720790863, -0.030696775764226913, 0.027313653379678726, -0.026479506865143776, -0.030149053782224655, 0.036285150796175, -0.0360342301428318, 0.030181461945176125, 0.02144981548190117, 0.052370548248291016, -0.00020258060249034315, 0.015124380588531494, -0.010886061936616898, -0.021873455494642258, -0.0009220027131959796, -0.00440472224727273, 0.05315370112657547, 0.0012758212396875024, -0.052027344703674316, 0.05015954375267029, 0.0274361539632082, -0.0060659670270979404, -0.03507635369896889, -0.07002481818199158, -0.0027997714933007956, 0.04377017542719841, -0.03186362609267235, 0.037252988666296005, 0.002773754997178912, 0.0008808220736682415, 0.030383065342903137, -0.009526640176773071, 0.025019701570272446, 0.028184542432427406, 0.004250835161656141, -0.00474025821313262, -0.0015569002134725451, -0.011892816051840782, 0.05921945720911026, 0.07656744122505188, -0.0060386876575648785, -0.22265423834323883, -0.025744983926415443, -0.060050129890441895, -0.05347859486937523, -0.05240796506404877, 0.025893010199069977, -0.0546620711684227, -0.005311259999871254, -0.02345798909664154, 0.02830672264099121, -0.006492627318948507, 0.04335002601146698, 0.019687332212924957, -0.004325042944401503, -0.01934218779206276, 0.003013076726347208, 0.07248985767364502, 0.024277621880173683, -0.009558843448758125, 0.021249979734420776, -0.025431213900446892, -0.00946312490850687, 0.20875976979732513, 0.02875654026865959, 0.016680147498846054, -0.0322466716170311, -0.01982770673930645, 0.043383579701185226, 0.036791108548641205, -0.038816481828689575, 0.02045469358563423, 0.008614388294517994, 0.048168834298849106, -0.035439927130937576, -0.00898250937461853, -0.0004550799203570932, 0.009986811317503452, 0.03147122263908386, -0.004736625123769045, 0.009610204957425594, -0.03869451582431793, 0.040368836373090744, 0.013297422789037228, -0.011958729475736618, 0.03999672830104828, 0.02891000360250473, -0.06168143451213837, -0.03575728088617325, 0.06287945061922073, 0.021722638979554176, -0.04347130283713341, -0.015772437676787376, 0.029740553349256516, 0.0483144074678421, -0.02437310479581356, -0.0291806198656559, -0.04701109603047371, 0.03330259025096893, 0.026985744014382362, -0.02650628425180912, -0.011618068441748619, -0.006308339070528746, -0.043435972183942795, 0.015889247879385948, -0.014131976291537285]</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>lack of transparency in rewards program</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Cheaper contract\n']</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>[-0.0150282708927989, 0.024997858330607414, -0.003987622447311878, 0.007604097481817007, -0.005879850592464209, -0.022863686084747314, 0.017836561426520348, 0.04177301749587059, 0.023956116288900375, 0.006856247782707214, 0.020162096247076988, 0.030253872275352478, -0.03710811957716942, 0.005710952449589968, 0.018972042948007584, 0.0025911007542163134, 0.019330618903040886, -0.051914483308792114, -0.00928421225398779, 0.04267670214176178, 0.08920439332723618, -0.054862961173057556, -0.025732234120368958, 0.026261189952492714, 0.027229584753513336, -0.007618531119078398, -0.07933331280946732, -0.09221299737691879, -0.052222300320863724, -0.14184622466564178, -0.04706032574176788, -0.07043097168207169, 0.08835115283727646, -0.012579365633428097, 0.04646927863359451, 0.012033574283123016, -0.019368400797247887, -0.014997061342000961, -0.06936610490083694, 0.017383672297000885, 0.03986526280641556, 0.03129802271723747, -0.0072517418302595615, -0.00964333675801754, -0.0034345798194408417, -0.08640267699956894, 0.010986540466547012, -0.02042572572827339, 0.032370273023843765, -0.008515521883964539, 0.07070019841194153, -0.022390082478523254, 0.01924804039299488, 0.06040116026997566, -0.011623566038906574, 0.05708456039428711, 0.017243096604943275, 0.025033963844180107, -0.05340280756354332, 0.026309382170438766, -0.014449537731707096, 0.0093517005443573, -0.15256382524967194, 0.011798771098256111, 0.002957692602649331, 0.0393633097410202, -0.03316522389650345, -0.05697422847151756, 0.012908808887004852, -0.04068043828010559, 0.02909175120294094, 0.009675703942775726, -0.03292205557227135, 0.023974474519491196, -0.00877559743821621, -0.04089353233575821, 0.05927656963467598, 0.05800440534949303, -0.06341689079999924, 0.020830398425459862, -0.0339277908205986, -0.0176857877522707, 0.020191697403788567, 0.0021682961378246546, -0.018425729125738144, -0.04104913771152496, 0.016588080674409866, -0.003736300626769662, 0.05970557779073715, 0.004902433138340712, 0.05038575083017349, -0.006007473450154066, 0.03774166479706764, 0.001293900771997869, -0.04395395517349243, -0.02123107761144638, 0.013996011577546597, 0.046507690101861954, -0.09206115454435349, 0.3577337861061096, 0.0028195856139063835, 0.05443946272134781, -0.0211372971534729, -0.038905952125787735, 0.059299495071172714, -0.003281500656157732, 0.011354113928973675, 0.04031316190958023, -0.040733132511377335, -0.018361885100603104, -0.023388231173157692, 0.004430556669831276, 0.04564456269145012, -0.04586535692214966, -0.0458190031349659, 0.11371807008981705, -0.01660727895796299, 0.022457685321569443, -0.0067699686624109745, 0.007661986164748669, 0.010613730177283287, 0.04241868853569031, 0.02387363463640213, -0.02781287208199501, -0.08006633073091507, 0.030472474172711372, 0.02697361446917057, 0.07542987167835236, -0.049993179738521576, 0.05386066809296608, 0.025051197037100792, -0.029319610446691513, -0.059887006878852844, 0.008422003127634525, 0.0021688013803213835, -0.03616730868816376, 0.022344913333654404, 0.022422121837735176, 0.05512683838605881, 0.05984300747513771, 0.004132804460823536, 0.03389861807227135, 0.024045255035161972, -0.09034760296344757, -0.06540653854608536, 0.08335408568382263, -0.002106549683958292, 0.04408872500061989, 0.028149986639618874, -0.024768562987446785, -0.0009680087678134441, 0.0024677913170307875, -0.02184385620057583, -0.020900186151266098, 0.01657850481569767, -0.04850092902779579, -0.05052817240357399, 0.006759676616638899, -0.02301466278731823, 0.031054656952619553, 0.08118272572755814, -0.048975806683301926, -0.02349413000047207, 0.08270764350891113, 0.027936970815062523, -0.020402271300554276, -0.004474966321140528, 0.003651565872132778, -0.012191329151391983, -0.07285890728235245, -4.794490814674646e-05, 0.029098760336637497, -0.03930564597249031, 0.022564474493265152, 0.08511929214000702, -0.07750517129898071, -0.0783667117357254, 0.02852858044207096, 0.010149211622774601, -0.009766122326254845, 0.04794532433152199, -0.047862082719802856, -0.03192529454827309, 0.04561416432261467, 0.0601833313703537, -0.04573049768805504, -0.010580935515463352, -0.011057185009121895, 0.040460314601659775, 0.02153903618454933, -0.06460563838481903, -0.040277205407619476, -0.06851739436388016, 0.031755849719047546, 0.0039024383295327425, -0.051848720759153366, 0.04505706951022148, -0.06439428776502609, -0.018210355192422867, 0.006589948665350676, -0.007397105917334557, -0.0570421926677227, 0.05212930217385292, 0.040579672902822495, -0.015142250806093216, 0.013464661315083504, -0.0009883473394438624, -0.10626672208309174, 0.09186127036809921, 0.02405143901705742, 0.002347369911149144, 0.003077905625104904, -0.0011973971268162131, 0.007828956469893456, -0.013447081670165062, 0.012222920544445515, 0.05739768594503403, 0.001088936347514391, -0.01348010916262865, -0.021733012050390244, -0.00016264404985122383, 0.10598466545343399, -0.008333392441272736, -0.31836816668510437, 0.02819039672613144, -0.012995618395507336, -0.0025694614741951227, -0.0021713944151997566, -0.019325051456689835, 0.040900081396102905, -0.015239988453686237, -0.03316354751586914, 0.10460890084505081, 0.08214810490608215, 0.02614728920161724, -0.04700198769569397, 0.00489174434915185, 0.025914248079061508, -0.016807470470666885, -0.013790750876069069, 0.05402986332774162, 0.06002628430724144, 0.0017887159483507276, -0.02844102866947651, -0.010817610658705235, 0.035250503569841385, -0.061284348368644714, 0.024104483425617218, 0.014041700400412083, 0.1596597135066986, 0.0044554159976542, -0.07826093584299088, -0.031885381788015366, 0.006372041068971157, 0.05170818418264389, -0.06570097804069519, -0.08937843143939972, 0.018511516973376274, -0.003639969974756241, -0.05545361340045929, 0.031611137092113495, 0.014332318678498268, -0.012810865417122841, 0.0033902893774211407, -0.02558579109609127, -0.01843550056219101, -0.005772820208221674, 0.04453681781888008, 0.023513145744800568, -0.010748382657766342, 0.007896391674876213, 0.028297578915953636, 0.03281792253255844, 0.07781505584716797, -0.026753533631563187, 0.02984001487493515, 0.04304802790284157, 0.044856175780296326, -0.03756529465317726, -0.009915187954902649, 0.030810624361038208, 0.0005839894874952734, 0.024570392444729805, -0.01668255403637886, -0.019282272085547447, 0.04107511416077614, -0.053199999034404755, 0.07630536705255508, 0.039202719926834106, -0.052074916660785675, 0.018135428428649902, 0.03355162590742111, 0.02197933942079544, -0.021114813163876534, 0.053090665489435196, -0.0341813825070858, -0.06314312666654587, 0.04728125035762787, 0.020979905501008034, 0.011289894580841064, -0.05767233669757843, 0.006884301081299782, -0.04927895590662956, 0.009580178186297417, 0.0365888886153698, -0.0011516944505274296, 0.053735751658678055, -0.008330442942678928, 0.07639674097299576, -0.0075647467747330666, 0.006127804983407259, -0.02679646760225296, 0.013640915974974632, 0.02532944083213806, -0.020597172901034355, -0.002761625684797764, 0.015762705355882645, 0.052876755595207214, 0.059513065963983536, -0.23224332928657532, -0.03464166447520256, 0.008851803839206696, -0.018703334033489227, 0.028254151344299316, 0.035289205610752106, 0.012845060788094997, -0.06881885230541229, -0.06232523173093796, -0.037585578858852386, 0.05570264905691147, -0.00523253483697772, -0.055901166051626205, -0.0828152522444725, 0.013691847212612629, 0.07486958801746368, 0.028645405545830727, -0.043517567217350006, 0.024089476093649864, -0.0003540240868460387, -0.010633095167577267, 0.03354443609714508, 0.17661336064338684, -0.017218030989170074, -0.06736452132463455, -0.01701023057103157, 0.016595864668488503, -0.005951475817710161, 0.08225379139184952, 0.028702471405267715, -0.023137535899877548, 0.016134686768054962, 0.01916828379034996, 0.05283679813146591, -0.03435160964727402, 0.0013073821319267154, -0.010343418456614017, -0.03570687025785446, -0.014821640215814114, -0.016552487388253212, -0.058622781187295914, -0.02122429572045803, -0.01673932746052742, -0.1056433916091919, 0.06812480092048645, -0.05506689101457596, -0.029027175158262253, -0.044948726892471313, 0.036286361515522, 0.0007353744003921747, -0.012889535166323185, -0.03399747237563133, -0.019206305965781212, -0.0234454907476902, 0.008262424729764462, 0.025198880583047867, -0.09018310904502869, -0.0037266963627189398, 0.007760312408208847, -0.00963663961738348, -0.037664882838726044, 0.08176154643297195, 0.013709948398172855, 0.008796527050435543, -0.01898338831961155]</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>need_explanation_of_deals_and_offers</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Staff needing to explain any deals so customers can understand\nReason for given NPS: No Company is really perfect always room for improvement']</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>[-0.01621868647634983, -0.02878398261964321, -0.009915157221257687, 0.016213783994317055, 0.009803541004657745, -0.05450713634490967, 0.06303434818983078, 0.015321539714932442, 0.016565430909395218, -0.021316522732377052, 0.009490889497101307, 0.01805456168949604, -0.06027312949299812, 0.00490190926939249, 0.05112988129258156, 0.018715158104896545, -0.014557622373104095, -0.061902739107608795, -0.1100674644112587, 0.03249644488096237, 0.036049097776412964, -0.02201998047530651, -0.05989692732691765, 0.01896667294204235, 0.03649506717920303, 0.014614173211157322, -0.011126726865768433, -0.014831975102424622, -0.04332529380917549, -0.10258185863494873, 0.03430163860321045, 0.009143740870058537, 0.047493208199739456, -0.0016378778964281082, 0.054707661271095276, -0.007873977534472942, -0.05722806975245476, -0.04453154280781746, -0.04196694865822792, 0.04211415722966194, 0.05258074402809143, -0.029292764142155647, -0.03249301388859749, 0.017929401248693466, -0.00021665141684934497, -0.04272756353020668, 0.013094084337353706, -0.008833530358970165, -0.02889515645802021, -0.027714209631085396, 0.040280986577272415, -0.026837008073925972, -0.042532436549663544, -0.045335665345191956, 0.023335454985499382, 0.09281618893146515, 0.017147798091173172, 0.04765159636735916, -0.02869785763323307, 0.0632772296667099, 0.062327928841114044, -0.0004987664869986475, -0.11396507918834686, 0.08208176493644714, 0.007594013586640358, -0.03130681812763214, -0.03276244178414345, 0.038346488028764725, 0.01892876625061035, 0.08337485045194626, -0.006837555207312107, -0.0396023653447628, -0.036600541323423386, 0.054828472435474396, -0.033992502838373184, -0.09131557494401932, -0.008685333654284477, 0.01634066179394722, -0.01658504270017147, 0.0034430676605552435, -0.03797044977545738, -0.01912843808531761, 0.0013227680465206504, 0.032028619199991226, -0.03214021772146225, -0.06616458296775818, 0.08936767280101776, 0.038441646844148636, 0.08109018951654434, 0.005896486807614565, 0.06961606442928314, -0.023283347487449646, -0.06182623654603958, -0.011286809109151363, -0.08471077680587769, -0.0014227371430024505, 0.017778430134058, 0.02945457398891449, -0.07569348067045212, 0.37224048376083374, 0.018313519656658173, 0.011454075574874878, 0.0201149582862854, -0.038406532257795334, -0.010939055122435093, -0.018991470336914062, -0.030473539605736732, -0.0002568640629760921, -0.010017665103077888, -0.0034532106947153807, -0.0651010274887085, -0.003281176555901766, -0.007274185307323933, -0.05804336816072464, 0.007095934823155403, 0.011503058485686779, 0.013386169448494911, -0.05613325163722038, 0.0853477492928505, -0.08698073029518127, 0.005812507588416338, -0.03438226133584976, 0.020391376689076424, 0.022922277450561523, -0.038633059710264206, -0.019449708983302116, 0.039514172822237015, 0.1117735430598259, -0.018619459122419357, 0.0037032237742096186, 0.045112356543540955, -0.007523779757320881, -0.036210689693689346, 0.004122770857065916, 0.04478476569056511, -0.00807605404406786, -0.019221199676394463, 0.06730388104915619, 0.034319471567869186, 0.026398785412311554, -0.0449775792658329, -0.05676259845495224, 0.062387365847826004, -0.08934850990772247, -0.05647069215774536, 0.09439823776483536, 0.00740719772875309, 0.03104620985686779, -0.029878608882427216, -0.004145001992583275, -0.059406936168670654, 0.008921502158045769, 0.03680538758635521, -0.06319426745176315, -0.006470073480159044, 0.0425557903945446, 0.07514836639165878, -0.04081260785460472, -0.07107912003993988, -0.013670012354850769, 0.015067033469676971, -0.07025372236967087, -0.027928410097956657, 0.09297311305999756, 0.01409658882766962, -0.15200400352478027, 0.03822954371571541, -0.00790233351290226, -0.02345791831612587, -0.007577748969197273, -0.031362857669591904, 0.04420435428619385, -0.06736728549003601, -0.013371342793107033, 0.15563037991523743, 0.004107218701392412, 0.009309578686952591, -0.011499485932290554, -0.004848300479352474, -0.02066793665289879, 0.00427593570202589, -0.02581499144434929, -0.04848639294505119, 0.039918288588523865, 0.022364871576428413, -0.04200529679656029, -0.058591511100530624, -0.01359767559915781, 0.025620726868510246, -0.015002284198999405, -0.029325896874070168, -0.06294175237417221, -0.019063051789999008, 0.04008786007761955, -0.055567607283592224, -0.003813234157860279, -0.024601109325885773, 0.011678830720484257, -0.0193435437977314, -0.008892071433365345, 0.019402628764510155, -0.02544146589934826, -0.04604262858629227, 0.0303691104054451, 0.03186136111617088, 0.014603298157453537, 0.01753157004714012, 0.02071996219456196, 0.086003877222538, 0.01708182506263256, 0.018942438066005707, 0.040266040712594986, 0.010953228920698166, -0.01713869720697403, 0.038209203630685806, -0.051552996039390564, 0.021420899778604507, 0.013195939362049103, -0.04563348367810249, 2.8963246222701855e-05, -0.004048975184559822, 0.0312727615237236, 0.12559886276721954, -0.2948217988014221, 0.03729148581624031, -0.0001966304989764467, -0.020675331354141235, -0.02249990776181221, -0.029435722157359123, 0.07166916131973267, -0.04216941446065903, -0.029073502868413925, 0.11644500494003296, 0.04665978252887726, -0.05110219120979309, -0.010567916557192802, -0.05124553665518761, 0.005449873860925436, 0.006406954489648342, 0.0004423850914463401, 0.04139057174324989, 0.008395136334002018, 0.03277084231376648, 0.004883819725364447, -0.0011452396865934134, 0.0661897212266922, -0.04887758940458298, -0.031310927122831345, 0.042182546108961105, 0.15218190848827362, 0.02762998640537262, -0.022765763103961945, -0.056123726069927216, 0.03937374800443649, 0.0690736323595047, -0.030155450105667114, -0.03744693845510483, 0.034244466572999954, 0.04610024020075798, -0.0033709879498928785, -0.013582299463450909, 0.011761471629142761, -0.00878119096159935, -0.018221506848931313, 0.027541594579815865, -0.04765499010682106, 0.05232700705528259, 0.007770034484565258, 0.004244564101099968, 0.019553661346435547, 0.023135242983698845, -0.00266678212210536, 0.07133958488702774, 0.019894303753972054, 0.028797319158911705, 0.03895782679319382, 0.008131125010550022, 0.04465079307556152, 0.00846455991268158, -0.049174752086400986, -0.023525865748524666, -0.04093622788786888, -0.004624044522643089, -0.013441536575555801, -0.01147694606333971, -0.002947945613414049, -0.035898879170417786, 0.03597726672887802, 0.018104583024978638, -0.014262954704463482, -0.024441173300147057, -0.0478147491812706, -0.022481409832835197, -0.03528663143515587, -0.023533064872026443, -0.024351419880986214, -0.009081672877073288, -0.029054634273052216, 0.04950281232595444, 0.034597139805555344, 0.015619874000549316, 0.014286871068179607, 0.026504309847950935, 0.009619830176234245, -0.01982753351330757, 0.006852181628346443, -0.01733071357011795, -0.004079557955265045, 0.006132723763585091, 0.06566041707992554, -0.061427243053913116, -0.006171857938170433, -0.00413603987544775, -0.047737885266542435, 0.020369870588183403, 0.0009218787308782339, -0.004181866534054279, 0.04071725532412529, -0.04545099660754204, -0.26841843128204346, 0.028723308816552162, 0.02597944624722004, -0.027176259085536003, 0.02291334606707096, 0.04437141865491867, 0.0036779427900910378, -0.029282880946993828, -0.07623285800218582, 0.0004135667986702174, 0.005040500313043594, 0.028488434851169586, -0.057205405086278915, -0.04816487804055214, 0.006157619412988424, 0.027030276134610176, 0.09860794991254807, -0.019043492153286934, 0.06019127741456032, 0.04666170850396156, 0.036634642630815506, 0.0132678784430027, 0.18540026247501373, 0.03015642985701561, -0.009550703689455986, -0.008426333777606487, -0.0418502539396286, -0.012977256439626217, 0.046409159898757935, 0.028688503429293633, 0.015932198613882065, -0.004955344367772341, 0.04654337465763092, -0.0314408615231514, -0.0025166317354887724, 0.040676359087228775, -0.017701908946037292, 0.05620214715600014, 0.07033837586641312, 0.01496345829218626, -0.055210527032613754, -0.011524236761033535, -0.04707885906100273, -0.012443933635950089, 0.06542553752660751, 0.004967534448951483, 0.0030228146351873875, -0.058846987783908844, -0.010257245972752571, -0.009349184110760689, 0.000252195808570832, -0.0377470962703228, -0.0021266338881105185, -0.0363239161670208, -0.00032580652623437345, -0.02823890559375286, -0.06258977949619293, 0.020082170143723488, 0.04004640504717827, 0.052667830139398575, -0.013513007201254368, -0.00033679758780635893, 0.01829558238387108, -0.020760629326105118, 0.017095468938350677]</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>need_for_data_rollover_feature</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Rollover data if not all used up the previous month.\nReason for given NPS: Love One NZ always have excellent phone coverage wherever I go, bills are easy to understand and there is a good range of mobile plans available.\nI would like to see the cost of sharing a plan with other family members come down as that is quite an expensive option.\nI would also like to see data rollover like 2 degrees has. If you pay for it and don't use it all up you should be able to keep accumulating data for up to 12 months."]</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>[-0.03244290500879288, -0.07512381672859192, 0.019565079361200333, -0.04253331199288368, 0.017114166170358658, -0.012420210987329483, -0.05676113814115524, 0.0006026307237334549, 0.009770644828677177, -0.019427401944994926, 0.0005118186818435788, 0.029334891587495804, 0.049622297286987305, -0.0050019994378089905, 0.04710659384727478, 0.009731443598866463, 0.013153044506907463, 0.035492461174726486, -0.06736653298139572, 0.010988254100084305, 0.003651054110378027, -0.02480699121952057, -0.053735245019197464, 0.05315627157688141, -0.05587920919060707, 0.026588836684823036, -0.045295242220163345, -0.0834885686635971, -0.0862121433019638, -0.18870794773101807, -0.0007017466705292463, -0.022297464311122894, -0.036950401961803436, -0.010376711376011372, 0.030612988397479057, -0.017569124698638916, -0.021142516285181046, 0.037383515387773514, -0.04406904801726341, 0.04496615752577782, 0.018128905445337296, 0.01797122322022915, -0.05643901228904724, 0.01674291305243969, -0.0500495508313179, -0.0441870242357254, -0.005487984046339989, -0.007838800549507141, 0.018599526956677437, 0.044555556029081345, 0.05464676022529602, -0.010937100276350975, -0.053293030709028244, 0.010183949023485184, 0.024712391197681427, 0.09189219027757645, 0.014524384401738644, 0.06520311534404755, 0.012480160221457481, 0.03691420331597328, 0.031706806272268295, 0.03645108640193939, -0.09340868145227432, -0.013496468774974346, -0.033559802919626236, 0.013106830418109894, -0.008860284462571144, -0.005575576331466436, 0.03241754323244095, 0.03937286511063576, -0.039572909474372864, -0.0063477130606770515, -0.027012022212147713, 0.11456117033958435, 0.017312631011009216, -0.0181245356798172, -0.011406385339796543, -0.005245284177362919, -0.00799932237714529, -0.00016179944213945419, -0.0009011742076836526, -0.00042888984899036586, 0.012369009666144848, 0.007700036279857159, -0.02787708304822445, -0.04847985878586769, 0.027138030156493187, -0.03186924383044243, 0.019718753173947334, -0.027659054845571518, 0.014939619228243828, 9.846501052379608e-05, 0.08423347771167755, 0.03577932342886925, -0.06976927816867828, -0.0010864968644455075, 0.013448432087898254, 0.0691143199801445, -0.04064550623297691, 0.3697649836540222, -0.015227417461574078, -0.017193829640746117, 0.0018715871265158057, 0.006743472069501877, -0.014872575178742409, -0.035249825567007065, 0.02151135727763176, -0.013076696544885635, -0.013559464365243912, -0.050160087645053864, -0.024468524381518364, -0.05394703894853592, -0.002688819542527199, -0.04518678039312363, 0.02685319259762764, 0.038621414452791214, -0.05747807025909424, -0.027043065056204796, -0.01529242005199194, 0.009215978905558586, 0.014894887804985046, -0.01027909480035305, 0.033472996205091476, 0.0186126921325922, 0.0015861187130212784, 0.0039025219157338142, 0.044648539274930954, 0.06804485619068146, 0.03470027819275856, 0.06745419651269913, 0.0439019538462162, -0.010639357380568981, -0.0649455189704895, -0.03247830644249916, -0.029671844094991684, -0.05452514439821243, 0.0706331729888916, -0.004055052064359188, -0.00024953330284915864, -0.0024216279853135347, -0.0618368461728096, -0.045760627835989, 0.01523513812571764, -0.027303846552968025, -0.014062968082726002, 0.09267174452543259, -0.025137033313512802, 0.03494981676340103, -0.02143874578177929, -0.09456155449151993, -0.00820468831807375, 0.009071449749171734, -0.001721109147183597, -0.03413922339677811, -0.005222768988460302, 0.04377184808254242, -0.006471194792538881, -0.018679510802030563, -0.020157579332590103, 0.001696815132163465, 0.01681300811469555, -0.07388854026794434, -0.018884414806962013, 0.0979359820485115, -0.03867785632610321, -0.11229286342859268, -0.006435656454414129, 0.04662752151489258, -0.017722535878419876, 0.047539129853248596, -0.03746866434812546, -0.019312109798192978, -0.05177794024348259, 0.05122673138976097, 0.10087085515260696, -0.026302210986614227, -0.05251444876194, 0.01153686922043562, -0.030850399285554886, -0.017001613974571228, 0.03963322937488556, -0.011431102640926838, -0.05342714115977287, -0.01874036341905594, 0.010852795094251633, -0.043261006474494934, -0.01159983966499567, 0.007389020174741745, 0.020166734233498573, -0.03607521578669548, -0.08379479497671127, -0.06756144016981125, 0.012857652269303799, -0.014893630519509315, 0.01675230823457241, -0.02742491103708744, -0.03687972575426102, 0.05927746370434761, 0.008517995476722717, -0.0799144059419632, 0.008088646456599236, 0.054176025092601776, -0.014936178922653198, 0.04046426713466644, -0.024090340360999107, -0.004512336570769548, -0.012920170091092587, 0.0052611371502280235, 0.06224069744348526, -0.04131036251783371, 0.045283008366823196, -0.0024167082738131285, 0.05949954688549042, 0.004646568093448877, -0.026619436219334602, 0.024318644776940346, -0.017661957070231438, 0.02175281196832657, 0.0010359144071117043, 0.04436929523944855, 0.008574427105486393, 0.05779873579740524, 0.05204553157091141, -0.32915714383125305, 0.001052581355907023, 0.0035420565400272608, 0.0040094368159770966, -0.058058001101017, -0.03432867303490639, 0.03325597196817398, 0.030453326180577278, -0.03549691289663315, 0.052792277187108994, 0.09230554103851318, 0.018364105373620987, -0.00290485518053174, 0.0019092645961791277, -0.02052435092628002, 0.028158986940979958, -0.01637454703450203, 0.00638052960857749, -0.080768883228302, -0.03215659782290459, 0.0001434906298527494, 0.04220854490995407, 0.021392229944467545, -0.057618800550699234, 0.07645111531019211, -0.02867520973086357, 0.18101006746292114, -0.05433819815516472, 0.003139464883133769, 0.03181381896138191, 0.03747352585196495, 0.07564085721969604, -0.04167257994413376, -0.06057124212384224, 0.019106393679976463, 0.013619204051792622, -0.036133840680122375, 0.10301632434129715, -0.01698659174144268, -0.028659338131546974, 0.00786482822149992, 0.03815172240138054, 0.03525055572390556, -0.10218167304992676, 0.026295017451047897, -0.050583191215991974, -0.032374974340200424, -0.03093446046113968, -0.03271393105387688, 0.05540718510746956, 0.06769634038209915, 0.010962194763123989, 0.0450696237385273, 0.05168062448501587, 0.08918400853872299, 0.011784747242927551, -0.02508789487183094, 0.03864987939596176, 0.001535619143396616, 0.0020194007083773613, 0.003431368852034211, -0.043137677013874054, -0.01871412992477417, -0.03420327231287956, 0.011885951273143291, -0.0333472304046154, -0.009719319641590118, -0.014774033799767494, -0.043389856815338135, -0.002712738234549761, -0.00022038439055904746, 0.016918934881687164, -0.04000922292470932, 0.008721335791051388, -0.10305534303188324, 0.037058740854263306, -0.0211434718221426, 0.019051656126976013, -0.0007643207209184766, 0.0035360853653401136, 0.0015557230217382312, 0.00731616048142314, 0.039296213537454605, 0.032736435532569885, 0.01976345106959343, 0.0377030111849308, 0.0023514735512435436, 0.027671296149492264, 0.009025491774082184, -0.006368870846927166, -0.019567793235182762, -0.02090282179415226, -0.01380887720733881, -0.0002991394139826298, 0.09558037668466568, 0.03599507734179497, -0.2590436637401581, 0.0007496105972677469, 0.014458386227488518, 0.017419002950191498, 0.011968599632382393, 0.03511021286249161, 0.006618523970246315, 0.07099934667348862, -0.04071862995624542, -0.014427133835852146, -0.027578245848417282, 0.03795965760946274, 0.013239250518381596, 0.02646818198263645, 0.04570997878909111, 0.024870218709111214, 0.05847495421767235, -0.01813141070306301, -0.04575485736131668, -0.07184309512376785, 0.06774336099624634, 0.012991691939532757, 0.16947811841964722, 0.011243864893913269, -0.014130131341516972, 0.017598716542124748, -0.007318285293877125, -0.018403731286525726, 0.020398296415805817, 0.03953492268919945, -0.04358156770467758, -0.004044311121106148, 0.0856599509716034, 0.011431267485022545, -0.008905156515538692, 0.09754570573568344, -0.034302178770303726, -0.04333481565117836, -0.0017576694954186678, -0.018366167321801186, 0.027721455320715904, 0.05108416825532913, -0.011661408469080925, 0.02521139569580555, 0.06323879212141037, 0.015848059207201004, -0.006768020801246166, -0.03236566483974457, -0.00012330232129897922, 0.011177600361406803, -0.035114698112010956, -0.02126261591911316, -0.07543905824422836, 0.04977140203118324, 0.03002132661640644, 0.05283690243959427, -0.022641459479928017, 0.03769468888640404, 0.04083288460969925, -0.00698191998526454, 0.0019389056833460927, -0.08046644181013107, 0.04148218408226967, -0.03671703115105629, -0.030174342915415764]</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>lack_of_affordable_family_sharing_plans</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Rollover data if not all used up the previous month.\nReason for given NPS: Love One NZ always have excellent phone coverage wherever I go, bills are easy to understand and there is a good range of mobile plans available.\nI would like to see the cost of sharing a plan with other family members come down as that is quite an expensive option.\nI would also like to see data rollover like 2 degrees has. If you pay for it and don't use it all up you should be able to keep accumulating data for up to 12 months."]</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>[-0.0024540815502405167, -0.036873817443847656, -0.0682777389883995, -0.030055204406380653, 0.02164365164935589, -0.005375332664698362, -0.07659027725458145, 0.022742757573723793, 0.01854909397661686, -0.0414588488638401, 0.050760604441165924, 0.047118622809648514, 0.024565596133470535, 0.0031581553630530834, 0.06306149810552597, 0.05291770026087761, -0.007099022623151541, -0.03727827966213226, -0.047839563339948654, 0.04755500331521034, 0.06576742231845856, -0.09038685262203217, -0.005560392048209906, -0.00450539868324995, 0.04242108389735222, -0.01921076886355877, -0.016762983053922653, -0.03055192343890667, -0.026255903765559196, -0.09535060822963715, 0.0413447767496109, 0.015919124707579613, 0.0018013282679021358, 0.02365288883447647, 0.057146601378917694, -0.014064825139939785, 0.007071519736200571, 0.017657682299613953, -0.045129768550395966, 0.06065032258629799, -0.012524791061878204, 0.055479105561971664, -0.02028561569750309, 0.0017809586133807898, -0.03506097197532654, 0.009754410944879055, -0.006998803932219744, -0.01972489058971405, 0.034854985773563385, -0.028836416080594063, 0.03085748665034771, -0.004948371089994907, -0.00299706868827343, 0.011639980599284172, -0.006548628211021423, 0.035860054194927216, -0.010009326972067356, -0.01951828971505165, -0.012849865481257439, 0.04304884374141693, 0.013100686483085155, 0.005607639439404011, -0.12277255207300186, 0.022848498076200485, 0.03570146858692169, 0.029075821861624718, -0.0002800215152092278, -0.01600997895002365, -0.01435172650963068, 0.004785847384482622, 0.04132895544171333, 0.052721697837114334, 0.03195767477154732, 0.08231767266988754, -0.01575995422899723, -0.0326978899538517, 0.033511850982904434, 0.013902682811021805, -0.0005883229314349592, -0.0014920234680175781, -0.01613207347691059, -0.010887527838349342, -0.011527538299560547, 0.03511636704206467, -0.032745927572250366, -0.0601453073322773, 0.01685229316353798, -0.055334996432065964, -0.01933348923921585, 0.01317922305315733, -0.00048721968778409064, -0.02618560567498207, 0.045100435614585876, 0.01373117882758379, -0.06369802355766296, 0.06443984806537628, 0.029731962829828262, 0.03506576269865036, -0.15887288749217987, 0.4205109775066376, 0.019082916900515556, 0.0723288431763649, 0.048832040280103683, -0.010435229167342186, -0.04371589794754982, -0.01966436579823494, -0.054270945489406586, -0.03729752078652382, 0.003087115241214633, -0.005193768534809351, -0.05444183945655823, -0.039211299270391464, 0.05718023329973221, -0.037325140088796616, 0.014351500198245049, -0.007287575397640467, -0.007941264659166336, -0.010295583866536617, 0.029872078448534012, 0.006466236896812916, -0.02805328741669655, -0.002464023418724537, 0.016431065276265144, -0.005421220790594816, -0.0099411616101861, 0.009938950650393963, -0.0018448380287736654, 0.08776558190584183, 0.027866831049323082, 0.026856914162635803, 0.047045402228832245, -0.04136744886636734, 0.015686944127082825, -0.012099634855985641, -0.02829918824136257, -0.03735853359103203, -0.021072866395115852, 0.0014578860718756914, 0.030190223827958107, 0.0030093977693468332, 0.026996668428182602, -0.07401321083307266, -0.04146244749426842, -0.10524750500917435, 0.013466021977365017, 0.10229223221540451, 0.046046119183301926, 0.07543481141328812, -0.00926072709262371, 0.03377240151166916, 0.0016219037352129817, 0.012696098536252975, 0.032361168414354324, -0.061538342386484146, -0.007920429110527039, -0.011473508551716805, -0.003787043271586299, 0.02315955050289631, -0.06456752121448517, 0.012032067403197289, 0.11002221703529358, -0.0048087723553180695, -0.11098777502775192, 0.06413206458091736, -0.030047258362174034, -0.08685211092233658, -0.04582693800330162, 0.03062247484922409, -0.030152462422847748, -0.026062527671456337, -0.037741031497716904, 0.007629089057445526, -0.0319938138127327, 0.02685728669166565, 0.1335620880126953, -0.05924248695373535, -0.048793401569128036, 0.04266338422894478, -0.04272834584116936, 0.01735237054526806, -0.03533411771059036, -0.04450689256191254, -0.03894710913300514, 0.004967032931745052, -0.00444294698536396, -0.03416511043906212, -0.038707610219717026, -0.026455316692590714, 0.014192196540534496, -0.03739328309893608, -0.07790717482566833, -0.020374026149511337, -0.04824099689722061, 0.04426303133368492, -0.0400969423353672, -0.017054470255970955, 0.025633901357650757, -0.04716639965772629, 0.054432354867458344, -0.030882546678185463, 0.00147060037124902, -0.024665966629981995, -0.004528537392616272, 0.03391271084547043, -0.05346070975065231, -0.005485366098582745, 0.05931273475289345, -0.022831834852695465, 0.07531289756298065, 0.01774636283516884, 0.05985146015882492, 0.021258169785141945, 0.03812551870942116, 0.028386205434799194, -0.06572195887565613, 0.054816264659166336, 0.013585196807980537, 0.018914848566055298, 0.06037105619907379, 0.01679733581840992, 0.016805104911327362, 0.08269557356834412, 0.051161907613277435, -0.25851908326148987, 0.0018079665023833513, -0.06821782141923904, -0.04975758492946625, -0.08961987495422363, -0.022876396775245667, 0.022626005113124847, 0.010069848038256168, -0.019894836470484734, 0.1497211754322052, 0.06128537654876709, 0.0006223263335414231, -0.04485401511192322, 0.024117223918437958, -0.0008881771354936063, -0.025158239528536797, -0.05178758502006531, 0.03131772577762604, 0.0067044822499156, 0.046760447323322296, 0.016323933377861977, 0.013489725068211555, 0.02459031343460083, -0.014658523723483086, 0.07559231668710709, 0.04263872280716896, 0.16177040338516235, -0.057079967111349106, -0.01414234098047018, 0.007255830802023411, 0.055990561842918396, 0.10094588994979858, -0.03192345052957535, -0.026946403086185455, -0.04999665543437004, 0.03064911440014839, -0.01448853313922882, -0.07093427330255508, 0.0006177197792567313, -0.03249109536409378, -0.040141791105270386, 0.015511782839894295, -0.05496472120285034, -0.043682776391506195, -0.007710466161370277, 0.004198433831334114, -0.0053059421479702, 0.05667389556765556, -0.023202823475003242, 0.02361057512462139, 0.036505021154880524, -0.02820279262959957, -0.00509267020970583, -0.010586658492684364, 0.06309282779693604, 0.009754272177815437, -0.0751296803355217, 0.017478276044130325, -0.030124763026833534, 0.03982746601104736, 0.0174422487616539, 0.04143135994672775, 0.040238358080387115, -0.06912527978420258, 0.03983445465564728, -0.03183504194021225, -0.013650274835526943, 0.005420912988483906, -0.06035497039556503, 0.04233301430940628, -0.0035234938841313124, 0.02843780815601349, -0.04706224799156189, -0.03573409467935562, -0.04409429430961609, 0.007608475163578987, 0.008353892713785172, -0.032735418528318405, -0.03670511394739151, -0.02797791361808777, 0.018060928210616112, -0.02412862703204155, -0.026366746053099632, 0.014241697266697884, -0.017479045316576958, 0.11146051436662674, -0.034660570323467255, 0.039227962493896484, -0.015008042566478252, -0.03377649933099747, -0.01588302105665207, -0.015639368444681168, -0.02298683673143387, 0.01353790145367384, 0.08429672569036484, -0.0141439288854599, -0.23238874971866608, -0.0224941186606884, -0.036930009722709656, 0.002199843991547823, 0.024469399824738503, 0.04419383034110069, 0.030774753540754318, -0.007493247743695974, -0.01944107376039028, 0.012737633660435677, 0.06552206724882126, 0.037559159100055695, 0.0281162578612566, -0.03934498503804207, 0.0846296027302742, -0.018801653757691383, -0.014654985629022121, 0.009121357463300228, -0.006502792704850435, -0.0003468811046332121, 0.05500683933496475, 0.008505266159772873, 0.14809101819992065, -0.03218105807900429, -0.04539414495229721, -0.030661681666970253, -0.013295016251504421, 0.026406386867165565, 0.02259436994791031, 0.01495392620563507, -0.09868761152029037, 0.04324191436171532, -0.0029453570023179054, -0.010409094393253326, -0.003434852696955204, -0.05865747481584549, 0.01313352957367897, -0.08112158626317978, 0.0033543736208230257, 0.002992853056639433, -0.07319308817386627, -0.014799167402088642, 0.007190323434770107, -0.008236578665673733, 0.08039901405572891, -0.04751809313893318, 0.008708177134394646, 0.008711470291018486, 0.04733014479279518, 0.014016867615282536, -0.009294027462601662, -0.0049932533875107765, 0.023111999034881592, 0.023390134796500206, 0.006113077513873577, 0.01659165322780609, -0.055234216153621674, 0.052732180804014206, 0.018658051267266273, -0.029485296458005905, -0.0012504649348556995, -0.0020950057078152895, -0.03315451368689537, 0.05872871354222298, -0.0032748908270150423]</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>mobile_internet_outage_during_powercuts</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>["Improvement needed: I live semi-rural and cellphone coverage is really patchy. When we have power cuts that's it. Can't use internet on phone so go old school with battery radio to find out what's going on. Not really a One problem but it's an issue that really affects people in the country.\nReason for given NPS: I have had no issues with One and having been with them (and their iterations) from year dot I am very brand loyal."]</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>[-0.020403465256094933, 0.005029839929193258, 0.046427998691797256, -0.03367582708597183, -0.027590438723564148, -0.024602532386779785, -0.021561894565820694, 0.05028773844242096, 0.03732306882739067, -0.030400114133954048, 0.02377118170261383, 0.00632194010540843, 0.04820764437317848, 0.013426882214844227, 0.029742518439888954, -0.0045206439681351185, 0.06391673535108566, -0.04120121896266937, -0.039580024778842926, 0.0008674310520291328, 0.05263463780283928, -0.04730980098247528, 0.020802034065127373, 0.012055553495883942, -0.030782092362642288, -0.0077149756252765656, 0.003167316783219576, -0.04408317804336548, -0.07014742493629456, -0.09479974210262299, -0.02001110650599003, 0.016055047512054443, 0.02136588841676712, 0.03993624076247215, 0.06845928728580475, -0.016381533816456795, -0.02329215221107006, -0.01446401234716177, -0.006373218260705471, -0.005618129391223192, 0.0017152013024315238, 0.012488080188632011, -0.0440836027264595, -0.04678523540496826, -0.07693945616483688, -0.09460578858852386, 0.05845029652118683, -0.006486950442194939, 0.0976833775639534, -0.04187668487429619, 0.02234821766614914, 0.03763723745942116, 0.035776201635599136, 0.03488688915967941, 0.06196877732872963, 0.023214131593704224, -0.009659423492848873, 0.0582088828086853, 0.08631289005279541, 0.02999601885676384, 0.043552108108997345, 0.039703045040369034, -0.14907781779766083, 0.07702286541461945, 0.02096167579293251, -0.04247525706887245, -0.0034073186106979847, -0.04465339705348015, 0.04684710130095482, -0.056482475250959396, -0.09957610070705414, 0.016309620812535286, 0.0027242405340075493, 0.06300961971282959, -0.008180055767297745, 0.08312477916479111, -0.04151364043354988, 0.05372541770339012, -0.025518953800201416, 0.02146388776600361, 0.03048965334892273, -0.0476817712187767, 0.022995315492153168, 0.007861987687647343, -0.01025355700403452, -0.0409090593457222, 0.02132413350045681, -0.0036503104493021965, -0.010156533680856228, -0.004957914352416992, -0.09079115092754364, 0.00913765374571085, 0.06353961676359177, 0.045258767902851105, -0.08411788940429688, -0.026309605687856674, 0.042480167001485825, -0.006756903138011694, -0.052190788090229034, 0.347400426864624, -0.016128892078995705, 0.027150865644216537, 0.02156473882496357, -0.002797214314341545, 0.023871950805187225, -0.013279253616929054, 0.008774555288255215, -0.05778602510690689, -0.07692194730043411, 0.038823604583740234, -0.025514133274555206, -0.06652477383613586, 0.02996714413166046, 0.021306471899151802, 0.05852651596069336, 0.02507784590125084, 0.004004945047199726, -0.010156029835343361, 3.540386614986346e-06, 0.003887734143063426, -0.1025281548500061, -0.03162829950451851, 0.05109655112028122, -0.029614657163619995, 0.06575798988342285, -0.017701804637908936, 0.07867787778377533, 0.0822751373052597, -0.015716468915343285, 0.019088618457317352, -0.009561414830386639, -0.0076048425398766994, -0.016433684155344963, -0.0006332275224849582, 0.025555569678544998, 0.006266196258366108, 0.05139954388141632, -0.03407672047615051, 0.006316050421446562, -0.07275073230266571, 0.0255051851272583, -0.031531382352113724, -0.04012002423405647, -0.04920992627739906, 0.08301124721765518, 0.05031481385231018, -0.022452209144830704, 0.07219459861516953, 0.00019571211305446923, -0.09758394211530685, -0.01509842462837696, 0.03333421051502228, 0.05278011038899422, 0.009322513826191425, 0.016404177993535995, 0.09882621467113495, 0.04747016355395317, 0.01726660504937172, 0.03288506343960762, -0.022476252168416977, 0.01909141056239605, -0.021609708666801453, -0.05305129662156105, 0.04960377886891365, 0.013652356341481209, -0.032177556306123734, -0.003844161983579397, -0.03473527356982231, -0.08205105364322662, 0.013342990539968014, -0.05071292817592621, 0.02078031748533249, 0.004694226663559675, -0.05172866955399513, 0.020520547404885292, -0.022449173033237457, -0.02176428958773613, -0.029850905761122704, -0.041137438267469406, 0.005706422496587038, -0.005529153626412153, 0.007526376750320196, -0.0024747380521148443, 0.0067998734302818775, 0.0022185444831848145, 0.006818725727498531, -0.012719320133328438, -0.03490161895751953, 0.09592641144990921, -0.0036624232307076454, -0.12067357450723648, -0.10355435311794281, 0.034341614693403244, -0.07139986753463745, -0.0217694491147995, -0.001608076156117022, 0.015324951149523258, -0.05287924036383629, 0.026629874482750893, -0.07373075932264328, 0.1064596027135849, -0.0230161901563406, -0.02480204589664936, 0.0020675857085734606, -0.048422448337078094, 0.05329678952693939, -0.07113604247570038, 0.011306117288768291, 0.048573799431324005, -0.04950529336929321, 0.0486588180065155, -0.031485605984926224, 0.11512644588947296, -0.034121979027986526, 0.022464435547590256, -0.006738750729709864, -0.003464924870058894, 0.030606606975197792, 0.001052004168741405, 0.03282027691602707, 0.01121464092284441, 0.06927351653575897, -0.025590021163225174, -0.24451503157615662, -0.0223802849650383, -0.025122731924057007, -0.10910007357597351, -0.034097108989953995, -0.02817915938794613, -0.007214045617729425, -0.057189300656318665, 0.024357283487915993, -0.0031025244388729334, 0.06690441817045212, 0.040910009294748306, -0.02112341858446598, -0.00018904771422967315, 0.022808926180005074, -0.009457448497414589, -0.009698237292468548, -0.038783904165029526, -0.03997711092233658, 0.036312032490968704, 0.014697745442390442, -0.001420979737304151, 0.004495017230510712, -0.08517196029424667, -0.000207825331017375, 0.014246578328311443, 0.1395486444234848, 0.013746577315032482, -0.004688037559390068, -0.057222072035074234, 0.05048981308937073, 0.12821941077709198, -0.0038189718034118414, -0.11160729825496674, -0.018269430845975876, 0.01431640237569809, 0.06027772277593613, -0.02033207193017006, 0.0011096338275820017, 0.018099872395396233, -0.056684710085392, 0.07926653325557709, 0.022258872166275978, -0.04134601354598999, 0.058605264872312546, -0.04298342391848564, -0.022834716364741325, 0.03902652859687805, -0.025480208918452263, -0.024252980947494507, 0.04517146944999695, -0.05574836581945419, 0.07698274403810501, 0.002586133312433958, 0.017799362540245056, 0.013239380903542042, -0.006645927671343088, 0.06320441514253616, -0.04112562537193298, -0.06348766386508942, 0.01904134824872017, 0.00850720051676035, 0.06045301631093025, -0.06829360872507095, 0.09558280557394028, -0.006868245080113411, 0.02265777997672558, 0.016981186345219612, -0.0037411439698189497, 0.05629365146160126, -0.04256505146622658, 0.07933440804481506, -0.012455219402909279, 0.07821037620306015, -0.02686440944671631, -0.03261778503656387, 0.050941526889801025, -0.02401895448565483, -0.001793377217836678, -0.04938354715704918, 0.02369867078959942, 0.006514247041195631, 0.05608420446515083, 0.0033142929896712303, -0.02061311900615692, 0.02505265735089779, -0.006629996933043003, 0.043383579701185226, 0.057242486625909805, -0.02849818952381611, -0.049347974359989166, 0.024938197806477547, -0.02162853255867958, -0.04706341400742531, 0.07056593894958496, 0.04059155657887459, -0.1888575702905655, 0.024952426552772522, 0.004661216866225004, -0.01755819097161293, -0.0151815889403224, 0.030251434072852135, 0.0046384818851947784, -0.006404074840247631, -0.06968624144792557, 0.08596453815698624, -0.11777221411466599, -0.005258459597826004, -0.02508159726858139, -0.05033382400870323, 0.07951852679252625, 0.009688720107078552, 0.015991101041436195, -0.014069635421037674, -0.024823203682899475, -0.02230263128876686, 0.016683034598827362, -0.03138517588376999, 0.08176524937152863, -0.0807320699095726, 0.05087878555059433, 0.06734773516654968, 0.011170171201229095, 0.007910857908427715, 0.09635211527347565, -0.01496913656592369, -0.006635305006057024, -0.008365126326680183, 0.06940121203660965, -0.036461494863033295, 0.022028552368283272, -0.04403245076537132, -0.02320362627506256, -0.019061584025621414, -0.0012590689584612846, -0.05100827291607857, -0.05507040023803711, 0.07131748646497726, -0.015036020427942276, -0.02963416464626789, 0.0260691586881876, -0.015940725803375244, -0.008589883334934711, -0.014983556233346462, 0.05560527741909027, 0.052604611963033676, -0.018716411665081978, -0.0640464797616005, -0.02408353053033352, 0.023253684863448143, -0.009389099664986134, 0.03839888796210289, -0.03720591962337494, -0.027183936908841133, -0.004262781236320734, -0.05545638129115105, 0.04287650063633919, -0.03159133717417717, 0.006004879251122475, -0.0736345499753952, 0.05365064740180969]</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>double_billed_no_refund_received</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>['Improvement needed: I want you to improve the WiFi environment. Confirmation of our contract details, resolution of double payment for broadband from October to March of last year, which has not been refunded.\nReason for given NPS: Before I knew it, I had two WiFi contracts, or the payment was not refunded.']</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>[-0.06854967772960663, -0.02525501325726509, 0.02475479245185852, 0.018114909529685974, -0.023789718747138977, -0.08863627910614014, 0.030076876282691956, 0.04528547823429108, 0.053824372589588165, -0.061430662870407104, -0.001758783939294517, 0.03811381384730339, -0.013644589111208916, 0.00762128084897995, 0.009229850955307484, 0.0224058348685503, 0.050532273948192596, -0.09065548330545425, -0.04600471258163452, 0.033466655761003494, 0.033935487270355225, -0.043233755975961685, -0.02522815763950348, 0.0009501684107817709, -0.010734070092439651, 0.03122052550315857, -0.017342735081911087, -0.0032675894908607006, -0.07163610309362411, -0.1486349105834961, 0.023110689595341682, -0.006596989929676056, -0.1197342574596405, -0.03544759750366211, 0.07295478880405426, -0.06853750348091125, -0.040256135165691376, -0.004261325113475323, 0.023497341200709343, -0.019643409177660942, -0.02736586332321167, -0.0033957308623939753, -0.04346047341823578, -0.024711888283491135, 0.036414455622434616, -0.04094208776950836, 0.03345746546983719, 0.024673638865351677, 0.1302916556596756, 0.006666059605777264, 0.020822791382670403, 0.001107121235691011, -0.013369950465857983, 0.04808831214904785, 0.029641881585121155, 0.07064138352870941, 0.02783956378698349, 0.05334288999438286, 0.01979994587600231, 0.028593935072422028, 0.02048376575112343, 0.014625485986471176, -0.12338483333587646, 0.002962676575407386, 0.006695728749036789, 0.008293695747852325, -0.037318065762519836, -0.020200444385409355, 0.010797619819641113, 0.04900272190570831, -0.009657551534473896, -0.0719248354434967, -0.009642938151955605, 0.0588517040014267, 0.035271886736154556, 0.0009068554500117898, 0.024525122717022896, 0.009653573855757713, 0.002342142863199115, 0.05167865753173828, -0.04220714047551155, -0.02005217783153057, -0.0045273383148014545, -0.052735380828380585, 0.016299383714795113, -0.022805310785770416, -0.0060232956893742085, 0.025378288701176643, 0.08954114466905594, -0.008103244937956333, 0.10183795541524887, 0.0035550484899431467, 0.019229557365179062, 0.012329202145338058, -0.10986806452274323, 0.021524915471673012, 0.02322489209473133, -0.010019626468420029, -0.037056464701890945, 0.3908793032169342, 0.01708788424730301, 0.025532860308885574, 0.015218873508274555, 0.04515328258275986, -0.017432749271392822, -0.06415122002363205, -0.02008947543799877, 0.006211897358298302, -0.010766776278614998, -0.014210372231900692, -0.013425006531178951, -0.02196020819246769, 0.09004479646682739, -0.07172724604606628, -0.02704928070306778, 0.09853913635015488, -0.028773518279194832, -0.034267790615558624, 0.03541357442736626, -0.007115288637578487, 0.013200853019952774, 0.019526222720742226, 0.0087266331538558, -0.0468299500644207, -0.0695362463593483, -0.052280932664871216, 0.028886839747428894, 0.07475240528583527, -0.014441611245274544, 0.056438323110342026, 0.01739119365811348, -0.08379969000816345, -0.020524008199572563, -0.032505303621292114, -0.019435588270425797, 0.015122703276574612, 0.016315246000885963, 0.027375204488635063, 0.015639113262295723, 0.04470233991742134, -0.0032438465859740973, -0.09200235456228256, -0.12307985872030258, -0.008845158852636814, 0.011255789548158646, 0.06094677001237869, -0.016346635296940804, 0.037013184279203415, 0.044819168746471405, 0.0019195491913706064, -0.067930206656456, 0.00609734607860446, 0.013376135379076004, -0.08831486850976944, 0.032439470291137695, 0.004817834123969078, 0.014548465609550476, 0.0005298329633660614, 0.015457192435860634, -0.005450029857456684, 0.060045838356018066, -0.04388248175382614, -0.06902094185352325, 0.056933820247650146, 0.0337703600525856, -0.03905508294701576, 0.04485246166586876, -0.010175637900829315, -0.02289680391550064, 0.01434293668717146, -0.0469956137239933, 0.0032510487362742424, -0.0143492566421628, -0.09223009645938873, 0.05462237820029259, -0.018596123903989792, -0.04539705067873001, -0.04117094352841377, -0.030508652329444885, 0.021105226129293442, 0.0347847156226635, 0.02420096844434738, -0.04541367292404175, -0.007616299204528332, 0.03986175358295441, -0.012383666820824146, -0.057998161762952805, -0.05444427952170372, 0.005364344455301762, -0.020678037777543068, -0.03156116604804993, -0.05976371467113495, -0.09216789156198502, -0.02457820624113083, 0.04373875632882118, -0.020849503576755524, -0.024361057206988335, 0.006011954974383116, 0.06742480397224426, 0.04408751800656319, 0.13280680775642395, -0.035388845950365067, -0.006135604809969664, 0.07431648671627045, 0.01615133322775364, 0.05562097951769829, -0.02357284538447857, -0.03194180503487587, 0.002862091874703765, 0.018382642418146133, 0.013037793338298798, -0.0067342123948037624, 0.05602468550205231, -0.009590452536940575, -0.010201497934758663, 0.04148736968636513, -0.0023488514125347137, 0.05900764837861061, -0.031007777899503708, -0.010535591281950474, 0.009289739653468132, 0.022302284836769104, 0.04697412624955177, -0.2620900571346283, 0.049582965672016144, -0.004194499924778938, -0.052418820559978485, -0.09294186532497406, -0.024412503466010094, 0.07070965319871902, -0.012131210416555405, -0.0013802973553538322, 0.10103442519903183, 0.013027009554207325, 0.030187342315912247, 0.04569865018129349, -0.04641598463058472, -0.020783299580216408, 0.045838892459869385, -0.01958486996591091, 0.0596473254263401, -0.016605673357844353, -0.015989141538739204, -0.022789672017097473, 0.0505739189684391, -7.400541653623804e-05, -0.02945254184305668, 0.06462567299604416, 0.045353516936302185, 0.14571547508239746, 0.039568472653627396, -0.05627795681357384, 0.013551054522395134, 0.03752119094133377, 0.06907880306243896, 0.009528296999633312, -0.0972103476524353, 0.047044724225997925, 0.0391315296292305, -0.020284047350287437, -0.008378405123949051, -0.022456467151641846, -0.01875029131770134, 0.016478156670928, 0.030686568468809128, 0.011847348883748055, 0.00772497896105051, 0.07145573943853378, -0.01755203679203987, -0.06856543570756912, 0.029961518943309784, -0.017998376861214638, 0.02581975795328617, -0.049139175564050674, -0.058232903480529785, 0.009922104887664318, 0.03429127112030983, 0.053354617208242416, 0.004100504331290722, -0.07469526678323746, -0.040602345019578934, 0.03772012144327164, -0.005223194137215614, 0.02789721079170704, -0.02003203146159649, 0.03762628883123398, -0.03571337088942528, 0.030264824628829956, 0.017433220520615578, -0.017760680988430977, 0.011957859620451927, -0.011870394460856915, 0.015347172506153584, -0.010427724570035934, -0.009315278381109238, -0.006571750156581402, -0.010464022867381573, 0.021748770028352737, 0.004781268071383238, 0.0650506317615509, -0.05632522329688072, -0.008114168420433998, -0.047476042062044144, 0.010873434133827686, -0.035193782299757004, 0.0784725621342659, 0.05250335484743118, 0.0031076855957508087, -0.010071339085698128, 0.019361184909939766, 0.010095052421092987, 0.02176329493522644, -0.06185486167669296, -0.045103415846824646, 0.008528475649654865, -0.03671972081065178, 0.016118424013257027, 0.055060796439647675, 0.012936821207404137, -0.22417610883712769, -0.029640482738614082, -0.03487708419561386, -0.01511675026267767, -0.0011297232704237103, 0.06863482296466827, -0.01400421466678381, 0.025472497567534447, -0.05557887628674507, -0.018263502046465874, -0.028745586052536964, 0.03234146907925606, -0.024289481341838837, -0.004120580852031708, 0.03722592443227768, 0.04463222250342369, 0.02513781003654003, -0.01985025219619274, 0.02120395191013813, 0.014695344492793083, -0.010791276581585407, 0.04637867212295532, 0.12079951167106628, 0.0055254544131457806, -0.042369548231363297, -0.025378482416272163, -0.022108817473053932, 0.04879675805568695, 0.04461045563220978, 0.006257215980440378, -0.06331802159547806, -0.022618845105171204, 0.050674621015787125, -0.09287095814943314, -0.03894726186990738, -0.023439105600118637, -0.046704649925231934, 0.00655323313549161, 0.03443874791264534, -0.012005959637463093, -0.06404571235179901, -0.01701783575117588, -0.01372850313782692, 0.019869130104780197, 0.04339507967233658, 0.010809119790792465, -0.0222771093249321, 0.0009327125735580921, -0.02121620997786522, 0.09676462411880493, -0.006164310500025749, 0.01604391075670719, 0.07213594764471054, 0.0630481094121933, -0.029132531955838203, 0.014466693624854088, -0.1250758320093155, 0.009376389905810356, 0.010829493403434753, -0.02959137037396431, -0.0222646314650774, -0.00722108781337738, 0.05730203166604042, -0.024098914116621017, -0.017511799931526184]</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>request for more cost effective data bundles</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Cheaper contract\n']</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>[-0.05511488392949104, -0.03763959929347038, 0.035361532121896744, -0.06129416450858116, 0.10161057114601135, 0.012595714069902897, -0.08605338633060455, 0.052822813391685486, -0.024462241679430008, -0.015977883711457253, 0.018046462908387184, 0.001765916240401566, -0.008544864133000374, 0.03567393496632576, 0.0636155977845192, 0.01923767849802971, 0.0466441847383976, -0.07203027606010437, -0.014194329269230366, 0.045116301625967026, 0.004700608551502228, -0.030539046972990036, -0.0004390748799778521, -0.019647041335701942, -0.06084467098116875, -0.018746251240372658, -0.05093104764819145, -0.0900113508105278, -0.042956747114658356, -0.13169340789318085, 0.014488240703940392, -0.023676743730902672, 0.02444375306367874, -0.02265785075724125, 0.0325472429394722, -0.03288070112466812, 0.02511993609368801, 0.02786090411245823, -0.064705029129982, 0.021886346861720085, 0.037722934037446976, 0.013440347276628017, -0.056811269372701645, 0.031864915043115616, -0.0515776164829731, -0.07492057234048843, -0.03733072057366371, -0.013434693217277527, 0.014672049321234226, 0.049873244017362595, -0.04646981880068779, 0.020302804186940193, -0.04292871057987213, -0.010922346264123917, 0.05815450847148895, 0.03996831178665161, 0.003990858793258667, 0.028606848791241646, -0.02271914854645729, 0.003748456947505474, 0.026360776275396347, 0.03860357403755188, -0.090338796377182, 0.02566300332546234, 0.024476367980241776, -0.0043516396544873714, 0.000509218021761626, 0.009867927059531212, 0.013046344742178917, 0.029976891353726387, -0.03296579420566559, 0.002713644877076149, -0.020978331565856934, 0.053457289934158325, 0.0046591623686254025, 0.00279666343703866, 0.002310630865395069, 0.015072914771735668, -0.030242929235100746, -0.04704006388783455, -0.03527802228927612, 0.05416692793369293, 0.022192703559994698, 0.021649718284606934, -0.05618840083479881, -0.08019185066223145, 0.006621867418289185, -0.009422297589480877, 0.011315005831420422, -0.024105561897158623, 0.03239370509982109, -0.03318432345986366, 0.018811102956533432, 0.0493202805519104, -0.06465156376361847, -0.002806989476084709, 0.03348367288708687, 0.053425587713718414, -0.024347417056560516, 0.3549191951751709, -0.03015909157693386, 0.00045810965821146965, -0.002107948064804077, -0.047612663358449936, -0.008597069419920444, -0.06624416261911392, -0.010059412568807602, 0.03685314953327179, -0.04787381365895271, -0.03244287893176079, 0.05003085359930992, 0.004318848252296448, 0.005345398560166359, -0.0398479662835598, 0.002983525162562728, 0.05020592734217644, -0.0790984109044075, -0.016760313883423805, -0.0044695246033370495, 0.0085452226921916, -0.01228010468184948, 0.020957281813025475, 0.0759734958410263, -0.004493055399507284, -0.020514577627182007, -0.021573862060904503, 0.002078019315376878, 0.088279128074646, 0.02663007192313671, 0.07095587998628616, 0.021075909957289696, 0.025078758597373962, -0.0733037069439888, 0.030390357598662376, 0.027502262964844704, -0.05036964640021324, 0.052327144891023636, 0.015465968288481236, 0.04356246069073677, 0.06370188295841217, -0.01421591266989708, -0.005678247194737196, -0.03260508179664612, -0.07810334861278534, -0.031432878226041794, 0.10336794704198837, -0.02702483907341957, 0.02565271593630314, -0.01417288463562727, -0.07783854752779007, 0.0211905837059021, 0.0267481692135334, 0.031736500561237335, -0.05585816502571106, 0.012699795886874199, -0.005834873300045729, 0.08207695931196213, 0.019814694300293922, -0.059570036828517914, 0.00874433945864439, 0.05103875324130058, -0.05758173018693924, -0.027511006221175194, 0.12176919728517532, -0.0315440334379673, -0.13844193518161774, -0.013833165168762207, 0.024635104462504387, 0.01134237740188837, -0.009690054692327976, -0.0018826915184035897, 0.08324935287237167, 0.017067691311240196, 0.03723657876253128, 0.10862372815608978, -0.05888662114739418, -0.0801553800702095, -0.011132054030895233, -0.03727317601442337, 0.019023839384317398, 0.012557766400277615, 0.0199722982943058, -0.006544302683323622, -0.011918701231479645, -0.039906520396471024, -0.026163045316934586, -0.019239848479628563, 0.062032125890254974, -0.013407270424067974, 0.011797077022492886, -0.07116331905126572, 0.018221527338027954, 0.004760195501148701, 0.059387605637311935, 0.011094149202108383, -0.04073916748166084, -0.008402355015277863, 0.027954867109656334, -0.016120873391628265, -0.0648697093129158, 0.0051501416601240635, -0.05480080097913742, -0.051267508417367935, 0.07884577661752701, 0.00721000088378787, 0.02815014310181141, 0.0011572643416002393, -0.02466411702334881, 0.03824922442436218, -0.03887788951396942, 0.02451379783451557, 0.0017935321666300297, 0.10221469402313232, 0.0019927488174289465, -0.083623006939888, 0.030230872333049774, 0.061948034912347794, 0.03913302347064018, 0.008763793855905533, 0.042764853686094284, -0.0049299937672913074, 0.053548675030469894, 0.025667505338788033, -0.33026885986328125, 0.0462554469704628, -0.022304341197013855, -0.023732636123895645, 0.00417301943525672, -0.014511308632791042, 0.06303563714027405, 0.0404556579887867, -0.05749642103910446, 0.0787653774023056, 0.047724079340696335, 0.0037743833381682634, 0.03323688730597496, -0.0012138817692175508, 0.02091740444302559, -0.00964457169175148, 0.02174420654773712, 0.00507077993825078, -0.05932372435927391, 0.005221930798143148, -0.04102390632033348, 0.04568894952535629, 0.01985415257513523, -0.017575252801179886, 0.007341692689806223, 0.010376361198723316, 0.1332513689994812, -0.10297276824712753, -0.01787397265434265, -0.053458474576473236, 0.046486448496580124, 0.05480818450450897, 0.00480682821944356, -0.09215524792671204, -0.0039849597960710526, 0.01577562652528286, -0.06595827639102936, 0.06765473634004593, -0.005482456646859646, -0.0413324348628521, -0.010485517792403698, 0.020878663286566734, 0.012484663166105747, -0.058562859892845154, 0.04582827538251877, 0.007377876900136471, -0.05656052753329277, 0.01955643855035305, -0.03258770331740379, -0.032355137169361115, -0.04402131587266922, -0.08280041813850403, 0.09166576713323593, 0.012041396461427212, 0.021294942125678062, -0.03689184784889221, -0.036027807742357254, 0.022100845351815224, -0.020214691758155823, 0.006227391771972179, -0.001070789759978652, 0.00353070255368948, -0.00957389734685421, -0.028599746525287628, 0.00862683355808258, -0.0037028170190751553, 0.014399144798517227, -0.011054961010813713, -0.045550089329481125, -0.011333652772009373, -0.023425031453371048, 0.03050152026116848, -0.048339881002902985, 0.0016548380954191089, -0.00030871343915350735, 0.0401763953268528, 0.01992884837090969, 0.01976717822253704, -0.012522321194410324, -0.016298651695251465, 0.03635067492723465, 0.05416329205036163, -0.010002410970628262, 0.03663145750761032, 0.04586111009120941, 0.06997768580913544, 0.05011996999382973, 0.004852567799389362, 0.0034884538035839796, -0.008383643813431263, 0.0038341102190315723, -0.022168327122926712, -0.06690116971731186, 0.01970609463751316, 0.0992288738489151, 0.004388372879475355, -0.21240752935409546, 0.0875052735209465, -0.004969819914549589, -0.042385946959257126, -0.021313907578587532, 0.045530933886766434, -0.04639782756567001, -0.033976972103118896, 0.030701106414198875, -0.001994893653318286, 0.04051925241947174, 0.09247793257236481, -0.026394149288535118, -0.012503850273787975, 0.05433123558759689, 0.033454444259405136, 0.08732649683952332, 0.00670186011120677, -0.022947005927562714, 0.012364614754915237, 0.0187583789229393, -0.010195457376539707, 0.20344002544879913, -0.02741655707359314, -0.04002927616238594, 0.04825768619775772, -0.048196759074926376, 0.009361717849969864, 0.032774899154901505, -0.02341226115822792, -0.029100539162755013, -0.026333879679441452, -0.027437075972557068, 0.010796671733260155, -0.0119754858314991, 0.058088403195142746, -0.019062256440520287, 0.0051158638671040535, 0.005144882015883923, -0.007566013373434544, -0.02324063889682293, 0.0017596092075109482, -0.08968080580234528, 0.00547984940931201, 0.07109516113996506, 0.02104569785296917, -0.02670365944504738, -0.055806852877140045, -0.018731143325567245, 0.025181248784065247, -0.004332580137997866, -0.037643175572156906, 0.005472875665873289, 0.010257771238684654, 0.029090872034430504, 0.07099073380231857, -0.03944224864244461, 0.032371945679187775, -0.0017043973784893751, -0.04756760597229004, 0.004241609014570713, -0.050519831478595734, -0.053578104823827744, 0.0012077646097168326, -0.014345971867442131]</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>desire for more affordable contracts</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Cheaper contract\n']</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>[-0.07315230369567871, -0.057367000728845596, -0.010588782839477062, -0.050756268203258514, 0.005921002943068743, -0.015535040758550167, -0.05601887032389641, 0.04174072667956352, 0.021836496889591217, -0.014247787185013294, 0.006549481302499771, 0.02844662219285965, -0.018190858885645866, 0.016863472759723663, 0.05695125460624695, 0.0011433955514803529, 0.023182546719908714, -0.028795188292860985, -0.04133618250489235, 0.03731570020318031, -0.0299904253333807, -0.05532797425985336, 0.01909700036048889, -0.00719870813190937, 0.01063456665724516, -0.03253277391195297, -0.027823762968182564, -0.015718858689069748, -0.024867521598935127, -0.08568843454122543, 0.020475460216403008, 0.03173401951789856, 0.027473757043480873, -0.012974515557289124, 0.05080658569931984, 0.007832612842321396, -0.05870552733540535, 0.019774839282035828, -0.004923536442220211, 0.05271594598889351, 0.03054220974445343, 0.042494066059589386, -0.05045950040221214, -0.05155881866812706, 0.007307588122785091, -0.053976740688085556, 0.01642492786049843, -0.03764732927083969, -0.012356664054095745, 0.038002729415893555, 0.011153127998113632, -0.04799220710992813, -0.03525734320282936, 0.020542005077004433, -0.03505076467990875, 0.02282191626727581, -0.011800351552665234, 0.03958809748291969, -0.028469592332839966, 0.01513563934713602, 0.017052894458174706, 0.02832414209842682, -0.10325436294078827, 0.04114896059036255, 0.00893490668386221, 0.0009367960738018155, 0.007978248409926891, 0.041676994413137436, -0.06313128024339676, 0.05876927450299263, 0.047320954501628876, 0.01712772063910961, -0.033071935176849365, 0.0496148057281971, -0.003819319885224104, -0.06840114295482635, 0.007064370904117823, 0.03790964186191559, 0.004943176172673702, 0.0028580911457538605, 0.008728492073714733, -0.029375066980719566, -0.012310133315622807, 0.030827075242996216, -0.09771949052810669, -0.09970919042825699, 0.05525756999850273, -0.0016262619756162167, 0.06547870486974716, 0.03961317986249924, 0.005572657100856304, -0.05808497965335846, -0.00940281804651022, -0.011638054624199867, -0.07028388231992722, 0.07017717510461807, 0.04039701819419861, 0.05061538890004158, -0.0738360732793808, 0.36361929774284363, -0.00036473057116381824, 0.0059408689849078655, 0.04824884608387947, -0.08660701662302017, 0.028787435963749886, 0.013009659014642239, -0.007085498888045549, 0.014780410565435886, -0.001975728664547205, -0.024001281708478928, 0.002669350942596793, 0.025654874742031097, 0.02463158778846264, -0.0032154361251741648, -0.050469595938920975, 0.010242004878818989, -0.07818426936864853, -0.014159778133034706, 0.0269029401242733, -0.04706745222210884, -0.02425278350710869, 0.017444197088479996, -0.03489737585186958, 0.014455039985477924, -0.08117701858282089, -0.017180828377604485, 0.02263251505792141, 0.06076505780220032, 0.04611332342028618, 0.00925992988049984, 0.002941443817690015, -0.06286989897489548, -0.012131315656006336, 0.034319691359996796, 0.039083294570446014, -0.009732385165989399, -0.039394572377204895, -0.011469910852611065, -0.014416060410439968, 0.04340845346450806, -0.016105892136693, -0.06978731602430344, -0.0372600182890892, -0.12148970365524292, -0.02261016145348549, 0.05559147894382477, 0.06063706427812576, 0.045565467327833176, -0.0038490851875394583, -0.0326043926179409, -0.0165291465818882, 0.009323516860604286, 0.07929789274930954, -0.03501655533909798, 0.04304644092917442, -0.0013420580653473735, 0.06395428627729416, 0.013026724569499493, -0.08996855467557907, 0.02037595398724079, 0.0700010433793068, 0.01587580144405365, -0.04126069322228432, 0.05868544057011604, -0.03288981318473816, -0.1289839893579483, 0.006084372289478779, -0.03839355334639549, -0.005189794581383467, -0.006116956472396851, -0.05183715745806694, 0.054751139134168625, -0.034587789326906204, 0.01745721511542797, 0.1129973903298378, -0.017901653423905373, -0.06092230975627899, -0.024379082024097443, -0.04253760352730751, 0.015018424019217491, -0.017410151660442352, -0.027835024520754814, -0.018582003191113472, -0.0016802659956738353, -0.010616946965456009, -0.031295038759708405, -0.040796954184770584, 0.006255261600017548, -0.029301105067133904, -0.005292350891977549, -0.08057839423418045, 0.061311397701501846, -0.05174114927649498, 0.07659166306257248, 0.007340644486248493, -0.026910332962870598, 0.0036594029515981674, -0.01065798383206129, -0.027232617139816284, -0.028247078880667686, -0.018284708261489868, -0.01011139340698719, -0.06879321485757828, 0.03859323635697365, 0.05251673609018326, 0.04685749113559723, 0.08770344406366348, 0.007536362390965223, 0.07056836038827896, -0.013032602146267891, 0.026847999542951584, 0.05752983316779137, 0.09719204902648926, 0.02441980503499508, -0.06428110599517822, 0.029256364330649376, -0.008107255212962627, 0.08270658552646637, 0.043163493275642395, -0.04042539373040199, -0.03858966380357742, 0.08928817510604858, 0.06974782794713974, -0.3156701624393463, 0.0469161756336689, -0.07679658383131027, -0.09108532965183258, 0.0453619547188282, -0.049720264971256256, 0.01616615615785122, -0.01859223283827305, -0.0321948416531086, 0.09624069184064865, 0.06170831620693207, -0.007400047034025192, -0.00027371037867851555, -0.016544656828045845, 0.012182206846773624, -0.01748368702828884, -0.026602940633893013, 0.0013432507403194904, 0.026527071371674538, 0.022828398272395134, 0.0070074452087283134, 0.08226701617240906, -0.04640195146203041, -0.02894461527466774, 0.07987524569034576, 0.04345085099339485, 0.1155795082449913, -0.08010926842689514, -0.03464233875274658, -0.009091059677302837, 0.0843706727027893, -0.013752955012023449, 0.023609913885593414, -0.04976017400622368, -0.005402367562055588, 0.019769195467233658, 0.0055529456585645676, 0.003890496212989092, -0.019347239285707474, -0.031790461391210556, 0.03703741356730461, -0.00918756052851677, -0.04690086096525192, -0.011016294360160828, -0.027282128110527992, -0.004726246930658817, -0.037624578922986984, 0.05864531174302101, -0.024266745895147324, 0.03432982787489891, -0.007843385450541973, 0.019239060580730438, 0.03099026344716549, 0.008938943035900593, 0.02334209904074669, 0.026382170617580414, -0.05341367423534393, -0.035680774599313736, 0.005376594606786966, 0.046586986631155014, 0.04621345177292824, 0.010423513129353523, 0.06285310536623001, 0.03055237978696823, 0.08816853165626526, 0.01761833019554615, 0.05310569703578949, -0.014038202352821827, -0.07822039723396301, 0.025452658534049988, -0.0013872126583009958, 0.02346680499613285, -0.0441005676984787, -0.06899439543485641, 0.020016860216856003, 0.04888267442584038, -0.012419331818819046, 0.050982601940631866, -0.03730262815952301, -0.023153536021709442, 0.03182213753461838, -0.020481478422880173, -0.033352430909872055, -0.025294175371527672, -0.008332693949341774, 0.052198562771081924, 0.013481850735843182, -0.017642449587583542, -0.023943079635500908, 0.009878221899271011, -0.017832795158028603, 0.036453310400247574, -0.062208011746406555, 0.01585138775408268, 0.08540385961532593, -0.011388166807591915, -0.23087374866008759, 0.005693593993782997, -0.024126067757606506, -0.012624962255358696, -0.05457904562354088, 0.060877203941345215, -0.018183249980211258, -0.030093949288129807, -0.0265022162348032, 0.02926969714462757, 0.05059794336557388, 0.06817378103733063, -0.016831960529088974, -0.004304321948438883, 0.04232257977128029, -0.03398176282644272, 0.08239803463220596, -0.03588017448782921, -0.003764290828257799, -0.023420024663209915, 0.024008115753531456, 0.012922011315822601, 0.21519121527671814, -0.03600599616765976, 0.02160811610519886, 0.03633402660489082, -0.05490289628505707, 0.001397919375449419, -0.007231870666146278, -0.00464694993570447, 0.015149354003369808, 0.032709378749132156, 0.03869407996535301, -0.01657705008983612, -0.01284797117114067, 0.055500779300928116, -0.025534357875585556, -0.005465708673000336, -0.02284550853073597, -0.003211313160136342, -0.04633502662181854, 0.02008451707661152, -0.01940115913748741, 0.04606851935386658, 0.06482318788766861, 0.035110242664813995, -0.05401701107621193, 0.008502461016178131, 0.03781779482960701, 0.0003195256576873362, -0.01436002366244793, -0.023719070479273796, 0.023032596334815025, 0.024264167994260788, -0.001649385318160057, 0.01891203224658966, -0.042722105979919434, 0.04771800711750984, 0.007653818000108004, -0.013873944990336895, -0.032880574464797974, -0.0578257255256176, -0.09036089479923248, 0.021502036601305008, 0.00265885004773736]</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>need for lower monthly pricing</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>['Improvement needed: Cheaper contract\n']</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>[-0.01909247413277626, -0.03190194070339203, -0.05081181973218918, 0.008252743631601334, 0.0024058956187218428, 0.0013743331655859947, -0.03252577781677246, 0.06969104707241058, 0.022154225036501884, -0.0014527442399412394, 0.038471560925245285, 0.06275606900453568, 0.021574286743998528, 0.060889605432748795, 0.057855941355228424, -0.006664666812866926, 0.06950891017913818, -0.026393769308924675, -0.007131702266633511, 0.049204081296920776, 0.06142031401395798, -0.0281082596629858, -0.025376474484801292, -0.006594150792807341, 0.027233585715293884, -0.0553862601518631, -0.03492769971489906, -0.006893216632306576, -0.07827781140804291, -0.07086355984210968, 0.009975488297641277, 0.023169102147221565, 0.041036270558834076, 0.0067117540165781975, 0.02592834271490574, -0.022075384855270386, -0.047165658324956894, -0.02533205784857273, -0.04027912765741348, 0.03969211131334305, -0.001575147151015699, 0.03394864872097969, -0.05099605396389961, -0.007342765107750893, -0.03593829646706581, -0.018457114696502686, -0.008312100544571877, -0.00962817296385765, -0.01640869304537773, 0.04492181912064552, 0.027065707370638847, 0.04052082076668739, -0.034277383238077164, 0.002140651922672987, -0.038989026099443436, 0.045707061886787415, 0.012710864655673504, 0.04995545744895935, 0.018785495311021805, 0.03792807459831238, 0.00886041671037674, -0.010349947027862072, -0.1423761397600174, 0.03192029148340225, -0.01511026918888092, -0.005534409079700708, -0.009454809129238129, 0.015458893030881882, -0.05743315815925598, 0.05553825944662094, -0.032485492527484894, 0.03191811963915825, 0.005171199794858694, 0.029472917318344116, 0.0012370893964543939, -0.054449837654829025, -0.0023433296009898186, 0.007589105051010847, 0.05303623154759407, 0.020822113379836082, 0.04051710665225983, -0.017487118020653725, -0.0002013638586504385, 0.004617604892700911, -0.04470708593726158, -0.10622651875019073, 0.06814570724964142, -0.022010046988725662, 0.05041760951280594, 0.004425939172506332, 0.03359025716781616, 0.007329903077334166, -0.012973680160939693, -0.0015374390641227365, -0.04529483988881111, 0.020201407372951508, 0.02786257490515709, 0.045328203588724136, -0.12150826305150986, 0.33031317591667175, 0.05072416737675667, -0.0018345394637435675, 0.02788003720343113, -0.045725516974925995, -0.009323020465672016, -0.056611187756061554, -0.028582574799656868, 0.02740335278213024, -0.0050540342926979065, -0.017917819321155548, -0.08279570937156677, 0.017891140654683113, 0.030552102252840996, -0.06370007246732712, 0.008665834553539753, 0.014250661246478558, -0.05760280042886734, -0.027654971927404404, 0.0628049224615097, 0.014268294908106327, 0.02287399396300316, 0.023780271410942078, 0.05093724653124809, 0.007677832618355751, -0.0015915634576231241, -0.027103040367364883, -0.0012561880284920335, 0.11853958666324615, 0.008958384394645691, 0.06558705866336823, 0.0120773296803236, -0.1128634437918663, -0.022048119455575943, 0.02209656313061714, 0.08644789457321167, -0.043964337557554245, 0.016405360773205757, 0.04335792362689972, 0.026737475767731667, 0.02742263674736023, -0.04795306548476219, -0.044779129326343536, -0.05367845296859741, -0.07096026837825775, 0.004717797040939331, 0.028985710814595222, 0.020410755649209023, 0.038293976336717606, -0.002394883194938302, -0.034572675824165344, -0.018406713381409645, 0.004437865223735571, 0.019585683941841125, -0.05111293867230415, 0.03886013478040695, -0.017647817730903625, 0.02163594402372837, -0.0020563825964927673, -0.06212680786848068, 0.007222394458949566, 0.027058204635977745, -0.03553208336234093, -0.06535104662179947, 0.07302092760801315, -0.022375496104359627, -0.05141809582710266, -0.011224936693906784, -0.01933211088180542, -0.026187937706708908, 0.056740012019872665, -0.014659609645605087, 0.06493346393108368, -0.014118035323917866, 0.016313128173351288, 0.16950228810310364, -0.022363143041729927, -0.055542659014463425, 0.03381269797682762, -0.062186382710933685, -0.03418518602848053, -0.010121104307472706, 0.06084302440285683, 0.009393513202667236, -0.032495174556970596, 0.03293281048536301, -0.022659895941615105, -0.053674839437007904, 0.008212095126509666, 0.018930191174149513, -0.03433910012245178, -0.07287980616092682, -0.04785371944308281, -0.06265945732593536, 0.08144295960664749, -0.04395613819360733, 0.008239852264523506, -0.04761767387390137, 0.007978184148669243, 0.026571515947580338, 0.011666898615658283, 0.02224528230726719, -0.07934211194515228, 0.010833430103957653, 0.053783856332302094, 0.012257852591574192, 0.07250520586967468, 0.07799325883388519, -0.036318883299827576, 0.048063427209854126, -0.014478908851742744, 0.07689742743968964, -0.002219634596258402, 0.10620569437742233, 0.0007717490079812706, -0.044535666704177856, 0.016425708308815956, 0.010388409718871117, -0.005604109261184931, 0.04234008491039276, -0.03628118336200714, 0.022519798949360847, 0.09409960359334946, 0.010209135711193085, -0.328705757856369, 0.045824915170669556, -0.020419199019670486, -0.0422976091504097, 0.06017807498574257, -0.02060789056122303, 0.019883600994944572, -0.03249025717377663, -0.03756009414792061, 0.09873039275407791, 0.0396517738699913, -0.07432901114225388, 0.001378229004330933, -0.015999358147382736, -0.010976984165608883, 0.01875249110162258, -0.0286142248660326, -0.02942834421992302, 0.020544717088341713, 0.014640080742537975, -0.03478989005088806, 0.029490794986486435, 0.0415596179664135, -0.06416244059801102, 0.09671960026025772, 0.06590887904167175, 0.11638402193784714, -0.09527488797903061, 0.0125016113743186, -0.046508412808179855, 0.03752158209681511, -0.05008034035563469, -0.033257365226745605, 0.02755255624651909, -0.016940487548708916, 0.025448063388466835, -0.00370372598990798, -0.003743862733244896, -0.008874292485415936, -0.05432291701436043, -0.01677885837852955, 0.055702656507492065, -0.012384254485368729, -0.01624634675681591, -0.0364789254963398, 0.011508315801620483, -0.015967583283782005, 0.11276875436306, -0.05906282365322113, 0.014200616627931595, -0.015018886886537075, -0.070060595870018, 0.0014148493064567447, 0.008395369164645672, 0.0502421073615551, -0.03530706837773323, -0.0560573972761631, 0.032218948006629944, -0.003204489592462778, 0.010944523848593235, 0.01263366173952818, -0.019410094246268272, 0.09172751009464264, -0.05279386043548584, 0.027456505224108696, 0.018370196223258972, -0.0011717681773006916, -0.025168970227241516, -0.07000931352376938, 0.09291354566812515, -0.020496541634202003, 0.022135980427265167, -0.061653587967157364, -0.0021154230926185846, 0.00030012891511432827, -0.0030410110484808683, -0.021788692101836205, 0.0881243348121643, -0.07390712946653366, -0.044207390397787094, 0.03291502594947815, 0.016967277973890305, 0.02728615514934063, -0.00041517242789268494, 0.015368892811238766, 0.059244170784950256, 0.01802176795899868, -0.023968981578946114, -0.030437620356678963, -0.0278556477278471, -0.08620469272136688, 0.014058336615562439, -0.08067541569471359, 0.0476803183555603, 0.02707722969353199, -0.029972979798913002, -0.22205227613449097, 0.0022781009320169687, -0.015444888733327389, 0.025729862973093987, -0.007320060860365629, 0.05331931635737419, -0.0070196483284235, 0.01673329994082451, -0.05557610094547272, -0.005433717276901007, 0.03366224467754364, 0.03420819342136383, -0.025050003081560135, 0.008333079516887665, 0.06669631600379944, -0.020469699054956436, 0.02466472238302231, -0.03231866657733917, -0.011697341687977314, -0.0160128865391016, 0.00390056474134326, -0.016186369583010674, 0.19419576227664948, 0.0064152684062719345, -0.08559529483318329, -0.005152023863047361, -0.009668421000242233, 0.05672188848257065, 0.021598229184746742, -0.006748861633241177, -0.04061252251267433, 0.03406481072306633, 0.06301111727952957, -0.010710429400205612, 0.020398743450641632, -0.014225468970835209, -0.06337524205446243, -0.02953125536441803, 0.030396372079849243, -0.02189636416733265, -0.057275593280792236, 0.026955192908644676, -0.03317548334598541, 0.0253676176071167, 0.056029174476861954, 0.005237117409706116, -0.0213779229670763, -0.029007650911808014, 0.020307019352912903, 0.028605196624994278, -0.013246853835880756, -0.018697498366236687, 0.004464092664420605, 0.06145293265581131, 0.01057518646121025, 0.020330823957920074, -0.037079039961099625, 0.02957356721162796, 0.010891393758356571, -0.04108250141143799, -0.01636522449553013, -0.05478351190686226, -0.08707182109355927, 0.022954367101192474, -5.6183704145951197e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>unexpected_data_plan_depletion</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>["Improvement needed: A few years ago I was on prepay and most of my data that I was limited to just dissapeared and my credit along with it. I paid for more data then that dissapeared within minutes for no apparent reason. I was so infuriated I got set up with an unlimited plan so I didn't have to deal with this randomness again and having my credit sucked away. I was on prepay with data for about 7 years and never had any issues and my bill was only about $25 a month. Now it's almost $50 but I do enjoy the stress free element of unlimited data.\nReason for given NPS: Ive been using this service for years and havnt had too many issues."]</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>[-0.0548061840236187, -0.018255136907100677, 0.03654209151864052, -0.05430221185088158, -0.026613349094986916, -0.039908867329359055, -0.07645148038864136, 0.05564193055033684, 0.01910562440752983, -0.04351270571351051, 0.015403536148369312, 0.012698370963335037, 0.06649541109800339, 0.0059296851977705956, 0.012373036704957485, -0.022768979892134666, -0.018159016966819763, -0.013811248354613781, -0.02632659673690796, -0.003312263172119856, 0.030615506693720818, -0.04129412770271301, -0.10243929922580719, 0.027993131428956985, -0.008420594036579132, 0.057763345539569855, -0.0022572397720068693, -0.0491628497838974, -0.09724289923906326, -0.165657639503479, 0.005489298142492771, -0.005605529062449932, -0.009028399363160133, -0.03989617899060249, 0.07550329715013504, 0.003865017555654049, -0.02494596503674984, 0.0828070119023323, 0.008334822952747345, 0.06673397123813629, -0.07294317334890366, -0.015108375810086727, -0.06846986711025238, -0.03744672238826752, -0.05861650034785271, -0.011536126025021076, -0.028505071997642517, 0.004078405909240246, 0.09239529073238373, -0.046007491648197174, 0.038395874202251434, -0.0038645747117698193, -0.028962673619389534, 0.016702454537153244, 0.03716987743973732, 0.07858435064554214, -0.001964739290997386, 0.026159638538956642, 0.019474565982818604, 0.05713461712002754, 0.055638380348682404, 0.004908082541078329, -0.1443624198436737, 0.004231542814522982, -0.006685297936201096, 0.02691071480512619, -0.03736841678619385, -0.07780338078737259, 0.02367471344769001, 0.0018255624454468489, -0.027379855513572693, -0.03153509274125099, 0.022160135209560394, 0.14162178337574005, 0.036979228258132935, 0.005677151493728161, -0.029861506074666977, 0.026868551969528198, 0.02241816744208336, 0.02884981594979763, -0.014895981177687645, -0.02884155511856079, -0.0368787944316864, 0.01747029833495617, -0.032361969351768494, -0.015333716757595539, -0.053331390023231506, -0.0231096763163805, 0.021873006597161293, -0.04159967601299286, 0.045448899269104004, -0.0028398672584444284, 0.01563340425491333, 0.05305424705147743, -0.05176825821399689, 0.028472991660237312, 0.035703614354133606, 0.039231784641742706, -0.060497116297483444, 0.38926586508750916, -0.030789794400334358, 0.0032901365775614977, 0.01141500286757946, 0.06503915041685104, -0.029238738119602203, -0.056930817663669586, -0.06855600327253342, -0.020297827199101448, -0.009983757510781288, -0.012772350572049618, -0.03617744520306587, -0.05248458310961723, 0.057926759123802185, -0.0007970399456098676, 0.05771972984075546, 0.058967702090740204, -0.06195821613073349, -0.021405406296253204, -0.058455973863601685, 0.0029120713006705046, -0.03565780818462372, -0.007126865442842245, 0.01207694597542286, 0.016092544421553612, -0.0271763876080513, -0.004758767317980528, -0.011301412247121334, 0.12449362128973007, -0.017232324928045273, 0.04001118615269661, 0.048651546239852905, 0.042085886001586914, -0.08827158808708191, 0.008097042329609394, -0.06040481850504875, -0.028812067583203316, 0.068337082862854, 0.025579053908586502, 0.006595957558602095, -0.007355443201959133, -0.0821150466799736, 0.014825314283370972, -0.06895928084850311, -0.06387543678283691, 0.018425090238451958, 0.11611057817935944, 0.000801435555331409, 0.03551643341779709, -0.0006702289101667702, -0.032960377633571625, -0.04137695953249931, 0.020492877811193466, 0.058887779712677, -0.0637863501906395, -0.006313096731901169, 0.024348894134163857, 0.011210189200937748, -0.003594569629058242, 0.009537126868963242, 0.004731242544949055, 0.0355805978178978, -0.09610377997159958, -0.03309003263711929, 0.07823707908391953, -0.010429047979414463, -0.014588015154004097, -0.08065161108970642, 0.028613049536943436, -0.031751248985528946, 0.012528382241725922, -0.017323769629001617, 0.006940762512385845, 0.008015956729650497, 0.007464942988008261, 0.0695732831954956, -0.015155789442360401, -0.023728517815470695, -0.008238245733082294, -0.04330689087510109, -0.005499240476638079, -0.009058677591383457, 0.021497923880815506, -0.02130075730383396, -0.00487201614305377, 0.012562469579279423, -0.043294649571180344, 0.006655586417764425, 0.03557440638542175, 0.025789696723222733, -0.028326092287898064, -0.05923907831311226, -0.02982467971742153, 0.03646555170416832, -0.09581655263900757, -0.03620855137705803, -0.04257838800549507, 0.0053203715942800045, 0.022262658923864365, 0.02792426198720932, -0.00866368692368269, 0.12101458758115768, -0.0001274125970667228, -0.02250962145626545, 0.0701340064406395, -0.06531944125890732, -0.04708867147564888, -0.03995365649461746, 0.009508553892374039, 0.05215049907565117, 0.02365218475461006, 0.01954161375761032, -0.02573443204164505, 0.04059406369924545, -0.03802672028541565, 0.007709597237408161, 0.021497564390301704, -0.012116876430809498, 0.0377698577940464, -0.011892781592905521, 0.015502181835472584, 0.03562089800834656, 0.026273829862475395, 0.04425518959760666, -0.2865223288536072, 0.01925872080028057, -0.005518021527677774, -0.03663627430796623, -0.11103957146406174, -0.008689816109836102, 0.03219008818268776, -0.017112402245402336, -0.04460623487830162, 0.07212524861097336, 0.011691304855048656, 0.034567467868328094, -0.0025236152578145266, -0.027466464787721634, 0.003227193607017398, -0.04182560741901398, 0.01264964509755373, -0.0010867605451494455, -0.0811963677406311, -0.01411494892090559, 0.0004201616393402219, -0.02133861742913723, 0.009152822196483612, -0.06805668771266937, 0.0061691743321716785, -0.01354495994746685, 0.18553175032138824, 0.00242623221129179, -0.016031460836529732, 0.006270496640354395, 0.04873849079012871, 0.0817217230796814, -0.08576960861682892, -0.05076327919960022, 0.011785863898694515, -0.010982820764183998, 0.0006464151083491743, 0.038583774119615555, 0.0240311399102211, -0.017217885702848434, -0.006327133625745773, 0.054843973368406296, -0.025975465774536133, -0.03916408494114876, 0.053658436983823776, -0.04651930555701256, -0.02707735262811184, 0.05524357035756111, 0.009278683923184872, 0.07276052981615067, 0.0738772451877594, -0.02135293558239937, 0.018245963379740715, 0.025824405252933502, 0.08352459222078323, 0.01435277983546257, -0.07314377278089523, 0.05738234519958496, -0.008992691524326801, 0.014475985430181026, 0.02170753665268421, -0.050508785992860794, 0.025823388248682022, 0.002885181922465563, 0.01974698156118393, -0.019933296367526054, 0.02765764482319355, -0.012426375411450863, 0.0036883088760077953, 0.027772435918450356, -0.03872092068195343, 0.006130960304290056, 0.04639110341668129, -0.018468309193849564, 0.0074563841335475445, 0.0022521892096847296, -0.018945613875985146, -0.01750522293150425, -0.004511968698352575, -0.011677207425236702, 0.004087458830326796, -0.019735930487513542, 0.03819458186626434, -0.006239603273570538, 0.01494712196290493, 0.056836146861314774, -0.011264815926551819, -4.9361991841578856e-05, 0.010067741386592388, -0.004502770956605673, 0.04739296808838844, -0.011450527235865593, 0.014548997394740582, 0.02189195156097412, 0.12777025997638702, 0.008536143228411674, -0.2438955307006836, 0.015491043217480183, -0.024525992572307587, -0.0432392917573452, 0.049163818359375, 0.059109434485435486, 0.03433223068714142, 0.025920389220118523, -0.044577185064554214, -0.04309088736772537, -0.039445143193006516, 0.015049533918499947, -0.03408113121986389, -0.01902768760919571, -0.011126898229122162, 0.0338224321603775, 0.014363167807459831, -9.373285865876824e-05, -0.01475647184997797, 0.0200412105768919, 0.015066630207002163, 0.016660088673233986, 0.12749861180782318, -0.0016331261722370982, -0.019182855263352394, 0.01893845945596695, 0.03960583359003067, 0.020910212770104408, 0.07210984081029892, 0.009037433192133904, -0.028180724009871483, 0.0011817804770544171, 0.05258632451295853, -0.005191991571336985, -0.033021364361047745, 0.06368573755025864, 0.04692087322473526, -0.005960182752460241, 0.04061117768287659, 0.018219679594039917, -0.04118689149618149, -0.005612919107079506, 0.04266265034675598, 0.02231038734316826, 0.06648394465446472, -0.013271818868815899, -0.0036129571963101625, -0.0375288724899292, 0.008742986246943474, 0.03957706317305565, -0.01286372821778059, -0.020068960264325142, -0.03890931233763695, 0.01961391046643257, 0.029037123546004295, 0.028098933398723602, -0.004805855453014374, 0.02992277406156063, -0.00252148206345737, -0.033029306679964066, 0.007852623239159584, -0.016926949843764305, -0.004499079659581184, -0.05118550360202789, -0.04949222877621651]</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>poor_prepaid_data_accounting</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>["Improvement needed: A few years ago I was on prepay and most of my data that I was limited to just dissapeared and my credit along with it. I paid for more data then that dissapeared within minutes for no apparent reason. I was so infuriated I got set up with an unlimited plan so I didn't have to deal with this randomness again and having my credit sucked away. I was on prepay with data for about 7 years and never had any issues and my bill was only about $25 a month. Now it's almost $50 but I do enjoy the stress free element of unlimited data.\nReason for given NPS: Ive been using this service for years and havnt had too many issues."]</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>[-0.016606416553258896, -0.006062725093215704, 6.646367546636611e-05, -0.03989353030920029, 0.07277678698301315, -0.05795656144618988, -0.008000594563782215, -0.021854544058442116, 0.0867561548948288, 0.0031579206697642803, 0.05158929154276848, -0.007549487520009279, 0.02496212162077427, 0.024405494332313538, 0.024583041667938232, 0.0018137438455596566, 0.028059575706720352, -0.0806453749537468, -0.018881337717175484, 0.04974089190363884, 0.0657837763428688, -0.05371597036719322, -0.017103545367717743, -0.03497091680765152, 0.08006259799003601, -0.007268018554896116, -0.033385924994945526, -0.025683658197522163, -0.06986686587333679, -0.14365191757678986, -0.014048455283045769, -0.028190717101097107, 0.025021102279424667, 0.004589231684803963, 0.09157024323940277, -0.01744813658297062, -0.050738103687763214, 0.03185116872191429, -0.01825873553752899, 0.0390058197081089, -0.023431135341525078, -0.012503835372626781, -0.02656799554824829, 0.03939389809966087, -0.017310334369540215, -0.049300018697977066, -0.003530921181663871, 0.010852151550352573, 0.08102799206972122, -0.039407502859830856, -0.037209708243608475, -0.011516892351210117, -0.032723065465688705, 0.02771616168320179, 0.029888242483139038, 0.016109636053442955, 0.03656512871384621, 0.0005819132784381509, -0.013207139447331429, 0.02353297919034958, 0.03301608934998512, 0.00891906674951315, -0.14759626984596252, 0.0014106838498264551, -0.005575300194323063, 0.025154270231723785, -0.024219779297709465, -0.06799846887588501, -0.04130532592535019, -0.05903257429599762, -0.040305353701114655, -0.0466909296810627, -0.04561356082558632, 0.036000996828079224, 0.028347617015242577, -0.007153931073844433, 0.033664025366306305, 0.009659947827458382, -0.028278449550271034, 0.08193061500787735, 0.02212967351078987, 0.035339221358299255, 0.018126584589481354, 0.042555928230285645, -0.0079928794875741, -0.039867717772722244, -0.0037154958117753267, -0.013125593774020672, 0.05000649020075798, -0.03991219028830528, 0.03557417541742325, 0.026847051456570625, 0.03770359978079796, 0.01395809929817915, -0.061242662370204926, 0.0013071035500615835, 0.06373200565576553, 0.03867117688059807, -0.09281375259160995, 0.3981402814388275, -0.035834573209285736, 0.0536930151283741, 0.034183353185653687, 0.0054808491840958595, -0.026555461809039116, -0.027255814522504807, -0.027846001088619232, -0.03501522168517113, -0.0010521875228732824, -0.018318284302949905, -0.027990859001874924, -0.04460310935974121, -0.011678456328809261, -0.06276357173919678, 0.014308394864201546, 0.03554430231451988, -0.002962592989206314, -0.015556691214442253, -0.040575526654720306, -0.020327560603618622, -0.02344905585050583, -0.030671700835227966, 0.005839094519615173, 0.043505214154720306, -0.027124354615807533, -0.04386711120605469, 0.0221028383821249, 0.10712970048189163, -0.018664363771677017, 0.09701531380414963, 0.016845276579260826, -0.003662737552076578, -0.05064650997519493, -0.009158034808933735, -0.009824044071137905, -0.015755319967865944, 0.01935528591275215, 0.02229207567870617, 0.06548584252595901, 0.027265317738056183, -0.05126039311289787, -0.051420774310827255, -0.11670008301734924, -0.0376487597823143, -0.053345441818237305, 0.1038094088435173, -0.004414592403918505, 0.040346890687942505, -0.0030845452565699816, -0.07423260062932968, 0.005859296768903732, 0.04970098286867142, 0.053162235766649246, -0.031505852937698364, 0.025738026946783066, -0.009235218167304993, -0.009960703551769257, 0.0016963183879852295, -0.01294386200606823, 0.00706277834251523, 0.032114118337631226, -0.05562102422118187, -0.014866183511912823, 0.10611145943403244, -0.009971113875508308, -0.04148677736520767, -0.0035322888288646936, 0.03847464919090271, 0.01584075577557087, 0.023606952279806137, -0.012618296779692173, -0.0041718073189258575, -0.0295507051050663, -0.013697500340640545, 0.10084198415279388, -0.03769654035568237, 0.023893030360341072, 0.030493522062897682, -0.02704164944589138, -0.0031422413885593414, -0.0009877445409074426, -0.002989568980410695, -0.022190406918525696, -0.009422733448445797, 0.04829444736242294, -0.021986883133649826, -0.06944989413022995, 0.04693608358502388, 0.026581445708870888, -0.026803256943821907, -0.08477036654949188, -0.001190418261103332, -0.10533954203128815, -0.016441062092781067, -0.06675966829061508, -0.0038754926063120365, 0.009091568179428577, 0.003303101984784007, 0.017996251583099365, -0.060549408197402954, 0.07117847353219986, -0.00229347194544971, 0.005207914859056473, 0.03797529637813568, 0.02519085258245468, -0.0024529157672077417, 0.02368779480457306, -0.01782742515206337, 0.05224071443080902, 0.0016697464743629098, 0.034087151288986206, -0.0026704734191298485, 0.05483061447739601, 0.03256267309188843, 0.0020638522692024708, 0.050609879195690155, -0.006589224096387625, 0.017964979633688927, 0.0069856359623372555, -0.0194986704736948, -0.007688673213124275, 0.011758728884160519, 0.04054000601172447, -0.28406593203544617, 0.03772946447134018, -0.030805470421910286, -0.006717268377542496, -0.08676627278327942, 0.01683964766561985, 0.010975247249007225, 0.017392592504620552, -0.009510627947747707, 0.09547819197177887, 0.025040360167622566, 0.013917583040893078, 0.0020468230359256268, 0.00017395678150933236, -0.03535299375653267, 0.011172851547598839, -0.004584353417158127, 0.020687587559223175, 0.0018522965256124735, 0.015618124045431614, -0.03135751932859421, 0.0027055952232331038, 0.03490201011300087, -0.0006350000039674342, 0.07030921429395676, 0.043333254754543304, 0.1672089397907257, -0.04042254388332367, -0.02188163809478283, -0.01435654703527689, 0.011036752723157406, 0.0680733174085617, -0.012440244667232037, -0.04111558943986893, 0.04786054790019989, -0.03467725217342377, -0.03147633746266365, 0.06374894082546234, -0.03647187724709511, -0.08305533230304718, -0.05286496505141258, 0.008112700656056404, 0.026183687150478363, -0.06039497256278992, 0.05604507774114609, 0.046284377574920654, -0.09511179476976395, -0.039128996431827545, -0.04662592336535454, 0.05452161282300949, -0.014362654648721218, 0.014926571398973465, 0.025663727894425392, 0.0582280308008194, 0.07655280083417892, 0.006964815780520439, -0.05743997544050217, 0.03751017525792122, -0.05918605625629425, -0.03363601490855217, 0.023940665647387505, -0.1027684286236763, -0.013167550787329674, -0.02941959723830223, 0.012616794556379318, -0.01881551742553711, -0.02562239207327366, -0.024254808202385902, -0.005118244327604771, 0.014492061920464039, -0.011594130657613277, 0.058149464428424835, -0.026172537356615067, -0.01721298135817051, -0.007949205115437508, 0.009850645437836647, -0.005973672028630972, -0.07593275606632233, -0.030956754460930824, 0.021871019154787064, 0.007800927385687828, 0.10473399609327316, 0.034252721816301346, -0.016971753910183907, -0.0011193500831723213, 0.02669546753168106, 0.035828132182359695, 0.08672435581684113, 0.015583314932882786, -0.03966578468680382, -0.034829556941986084, -0.008272211067378521, -0.013787530362606049, 0.005784011911600828, 0.1113603338599205, 0.0017919796518981457, -0.23924177885055542, -0.022772066295146942, -0.030897151678800583, -0.023662695661187172, 0.015659693628549576, 0.04768993705511093, -0.041456036269664764, -0.03860372677445412, -0.03692100569605827, 0.04423069953918457, 0.007972953841090202, 0.01682547852396965, 0.038008369505405426, -0.06817255169153214, 0.058142613619565964, -0.0015776692889630795, -0.018191490322351456, 0.014012103900313377, 0.031177788972854614, -0.03007584996521473, 0.03274626284837723, -0.03904370963573456, 0.15768910944461823, 0.04833047837018967, -0.05543926730751991, 0.02413979172706604, 0.014427054673433304, 0.01588805578649044, 0.07488398253917694, 0.020901797339320183, -0.049913547933101654, 0.01699540764093399, 0.08376279473304749, 0.038514792919158936, -0.0021106419153511524, -0.02458760142326355, -0.036849960684776306, -0.0005711880512535572, 0.04206470772624016, 0.01146644540131092, -0.06815936416387558, 0.0006460780277848244, 0.02157934382557869, 0.030965439975261688, 0.02809477597475052, 0.03673069551587105, -0.01743132993578911, -0.0485680028796196, 0.015321294777095318, -0.005500221159309149, 0.043091993778944016, -0.0557376891374588, 0.02615772932767868, -0.005441008135676384, 0.013235104270279408, 0.040234409272670746, -0.06678062677383423, 0.030343450605869293, 0.030690332874655724, -0.04987068474292755, -0.00235862098634243, -0.044197358191013336, -0.055415790528059006, -0.03209227696061134, 0.005098711233586073]</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>lack_of_personalized_business_support</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>["Improvement needed: Keeping in touch with your business customers..... I haven't had contact regarding my business account since my last phone upgrade. Makes me wonder now if it was just a sales call rather than a genuine business support contact\nReason for given NPS: I have always been with One NZ (previously Vodafone) &amp; have never had any issues"]</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>[-0.014676232822239399, -0.04354160651564598, 0.016428029164671898, -0.0830073356628418, -0.011543897911906242, -0.0620352141559124, -0.05078735575079918, 0.05496557429432869, 0.009053153917193413, -0.04599403962492943, 0.05035004764795303, 0.03849751874804497, 0.04666370525956154, -0.039524760097265244, 0.059052541851997375, 0.05183621868491173, 0.057053208351135254, -0.014424841850996017, -0.020225785672664642, 0.007100638467818499, 0.017045408487319946, -0.026816116645932198, -0.02007141336798668, 0.033155206590890884, -0.06816881150007248, -0.05553673207759857, -0.049756720662117004, -0.004333774093538523, -0.07585036009550095, -0.10081721842288971, 0.011151573620736599, -0.02245767042040825, 0.027941811829805374, 0.033699750900268555, 0.12956568598747253, -0.007742004003375769, -0.0429055392742157, -0.011896115727722645, 0.006996212061494589, -0.007193543948233128, 0.0034709644969552755, 0.006223940756171942, -0.035070255398750305, 0.018044639378786087, 0.023678859695792198, 0.011858392506837845, 0.042272768914699554, 0.004614704288542271, 0.012436763383448124, -0.04114772379398346, -0.02169148623943329, 0.03276609629392624, 0.006372301839292049, 0.028392398729920387, 0.022008370608091354, 0.08717474341392517, 0.0522971972823143, 0.012518693692982197, 0.0025549540296196938, -0.010828029364347458, 0.0648374930024147, -0.021394871175289154, -0.1254732310771942, 0.034064047038555145, -0.02226450853049755, 0.021420106291770935, 0.007997218519449234, -0.08569280803203583, -0.03638193756341934, -0.024812187999486923, -0.02029983326792717, -0.003437887178733945, -0.011254286393523216, 0.06039993837475777, 0.015639087185263634, 0.005130823235958815, 0.035738397389650345, 0.021199189126491547, 0.0402669794857502, 0.05230092629790306, 0.01199381798505783, 0.03843192383646965, -0.03006933443248272, -0.014024365693330765, -0.02064451016485691, -0.01445186510682106, 0.018459338694810867, 0.008983861654996872, 0.03795114904642105, 0.002848385600373149, -0.002655481453984976, -0.029397111386060715, 0.08632199466228485, 0.018462780863046646, -0.047363150864839554, -0.04721546173095703, -0.01590595580637455, -0.021327083930373192, -0.1393395960330963, 0.40617433190345764, 0.031688790768384933, 0.06176282465457916, 0.04260088875889778, -0.02122904360294342, 0.027544258162379265, -0.012524541467428207, -0.022344427183270454, 0.01727273501455784, -0.004693595692515373, -0.024209490045905113, 9.088504157261923e-05, 0.023607535287737846, 0.048419855535030365, -0.04743259400129318, 0.0022005506325513124, 0.04238145798444748, -0.05198037251830101, 0.014665018767118454, -0.03349782153964043, 0.02732832357287407, -0.0026463104877620935, -0.003708465024828911, 0.06270230561494827, 0.03438670188188553, -0.05513576418161392, 0.03200734034180641, -0.0043085780926048756, 0.05365096032619476, -0.011318200267851353, 0.0430307611823082, -0.016057223081588745, 0.017807967960834503, -0.05755598843097687, -0.024380309507250786, -0.025855405256152153, -0.03374643996357918, -0.008780961856245995, 0.033975765109062195, 0.03661756590008736, 0.0526447594165802, -0.030250880867242813, -0.007097840309143066, -0.02751891128718853, -0.025153815746307373, 0.01510799303650856, 0.060412101447582245, -0.026556218042969704, 0.03841691091656685, -0.005776800215244293, 0.002392600290477276, -0.04965956509113312, 0.02849452942609787, -0.020083323121070862, -0.011984536424279213, 0.023742053657770157, 0.01669752597808838, 0.04777740314602852, -0.02113190107047558, -0.002341761952266097, 0.01964738965034485, 0.08332427591085434, -0.06446221470832825, 0.022294994443655014, 0.04593602195382118, 0.02065521851181984, -0.07767266780138016, -0.034969232976436615, 0.04827670007944107, -0.04102469980716705, 0.017261303961277008, -0.02484050579369068, 0.011438646353781223, -0.005054076202213764, 0.041429951786994934, 0.09951283782720566, -0.014624226838350296, -0.060750674456357956, 0.005872690584510565, -0.012875310145318508, 0.06523095816373825, 0.05594848468899727, -0.04913315922021866, -0.007253897842019796, -0.02458445355296135, 0.008615034632384777, -0.02674013376235962, 0.016325797885656357, -0.025757718831300735, 0.02332640066742897, -0.03814943507313728, -0.058763545006513596, -0.03712273761630058, -0.06886619329452515, -0.03601621463894844, 0.017198508605360985, 0.027622878551483154, -0.0290537029504776, -0.0315740630030632, 0.03965055197477341, -0.034380655735731125, 0.032645970582962036, 0.07339010387659073, -0.030072499066591263, 0.01477780006825924, -0.02544293738901615, 0.03255433961749077, 0.03282887116074562, -0.010761505924165249, 0.07799213379621506, -0.04726331681013107, -0.05581948906183243, 0.015547499991953373, 0.03578861430287361, 0.02526962012052536, -0.015218742191791534, 0.05945303663611412, 0.038026850670576096, 0.011682631447911263, 0.06163481995463371, 0.008218364790081978, 0.03663386404514313, 0.14116959273815155, -0.04030027985572815, -0.28878432512283325, 0.011316437274217606, -0.05216403678059578, -0.05855342000722885, -0.12587988376617432, 0.007755276747047901, -0.014267544262111187, 0.03549164906144142, -0.04409879818558693, 0.10229489207267761, 0.03660893440246582, -0.010986771434545517, -0.0027472805231809616, 0.022769946604967117, -0.0016168518923223019, 0.002817717380821705, -0.05809341371059418, 0.0490153506398201, -0.029946692287921906, -0.06304022669792175, -0.01610688865184784, 0.014767104759812355, 0.004237205721437931, -0.03596320003271103, 0.05555569753050804, -0.003630225080996752, 0.15903155505657196, -0.011786453425884247, -0.03431694209575653, -0.0026212322991341352, 0.03509283810853958, 0.08665108680725098, -0.07227608561515808, -0.16554097831249237, 0.06709597259759903, 0.008676004596054554, -0.010379787534475327, -0.035161908715963364, 0.008093327283859253, 0.013594960793852806, -0.018864789977669716, 0.048101168125867844, 0.016259433701634407, -0.03415607288479805, 0.038537364453077316, -0.01216781698167324, 0.007670991122722626, 0.015608974732458591, -0.09667830169200897, 0.056105874478816986, 0.005362062714993954, 0.022479893639683723, -0.0016516195610165596, 0.050858207046985626, 0.04132598638534546, -0.0444643534719944, -0.026529647409915924, 0.0403137132525444, -0.007358780596405268, 0.03476785123348236, -0.004807059187442064, -0.04034852981567383, 0.001416699611581862, -0.05726301670074463, 0.05236594378948212, -0.08201507478952408, -0.057068243622779846, 0.004348322749137878, 0.019535312429070473, -0.01737642101943493, -0.006579244509339333, 0.017920300364494324, 0.006253914441913366, -0.030508751049637794, -0.00393335847184062, 0.013378435745835304, 0.046810027211904526, -0.04678907245397568, -0.0074505372904241085, -0.07290875166654587, -0.03129400312900543, -0.02105427160859108, 0.089504674077034, 0.018747393041849136, -0.016717853024601936, 0.016476592049002647, 0.01664997637271881, 0.00967526063323021, 0.03306513652205467, 0.004072991665452719, -0.02967679873108864, -0.015332475304603577, -0.03277147561311722, 0.011154604144394398, 0.14372967183589935, -0.023980535566806793, -0.21684591472148895, 0.002290802076458931, -0.019758572801947594, -0.0028379943687468767, -0.00783912930637598, 0.049945857375860214, 0.0175155121833086, -0.04503559693694115, -0.07744656503200531, -0.00266678212210536, 0.03504280000925064, -0.03204325959086418, -0.0168513935059309, -0.08358557522296906, 0.06477761268615723, -0.015653783455491066, 0.011378724128007889, -0.014662942849099636, -0.0035667710471898317, -0.04930128902196884, 0.06208246201276779, 0.021988019347190857, 0.16225843131542206, 0.0006815865635871887, -0.06883053481578827, 0.010838784277439117, 0.007683862000703812, -0.0203427504748106, 0.04690752550959587, 0.00014659138105344027, -0.0184866264462471, -0.04041236639022827, 0.016766682267189026, 0.005105284508317709, -3.263523831265047e-05, -0.035065293312072754, 0.009145465679466724, -0.055768631398677826, 0.004509733058512211, -0.032375987619161606, -0.00438029645010829, -0.049613870680332184, -0.04173481464385986, -0.024624938145279884, 0.06480736285448074, -0.07247809320688248, 0.004971579648554325, 0.01792825199663639, 0.027124756947159767, 0.018289532512426376, -0.01076432690024376, -0.05154344066977501, -0.01814231462776661, 0.07027822732925415, 0.026335375383496284, 0.016924500465393066, -0.01717696525156498, -0.007074397057294846, 0.01946532540023327, -0.021710161119699478, -0.006698310375213623, 0.01397116668522358, -0.007800665218383074, 0.030622825026512146, -0.013520262204110622]</t>
         </is>
       </c>
     </row>
